--- a/data/02_intermediate/cleaned_DAMSO_songs.xlsx
+++ b/data/02_intermediate/cleaned_DAMSO_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Baby, baby Oh ba-baby Baby-y-y-y-y Feu de bois, jeu de voix, suis-moi Je te veux pas, fuis-moi, je te veux toi Dems, Dems Feu de bois, jeu de trois, un des deux est de moi Un des trois est de nous, aidez-nous, aidez-moi Feu de bois, jeu de voix, tu me dois, Dieu te voit Montre-moi que du doigt ce que t'as fait de moi Creux de joie, queue de rois, fée des bois Fais de moi ce qu'on a fait de toi Sur le toit, sûre de toi, tu t'y crois C'est déjà ce qu'on a fait de moi Sale, sale Fais de toi, fais de nous Prends pas la tête, je n'tiens plus le coup On bavardait sans dire un mot, le bruit de mon silence en dit long Sentiments grandissants figeant l'ego Prison de mots, absence de compliment J'suis en attente, en apprentissage, très peu sage J'ai vu l'âge à la nage, je fuis l'alcoolisme Sur la blanche page, j'agonise Mille latences entre c'que je pense et ce que je dis, ce que j'obtiens et ce que je vise Soit c'est le père ou bien le fils, soit la be-her ou bien la tise Que la nightzer, ouais You might also like Je sais c'que tu penses de nous Quand tu dis que tu n'sais plus quoi penser de nous Je sais c'que tu veux vraiment Quand tu dis que tu n'sais plus c'que tu veux vraiment Je sais qu'tu n'as plus le temps Quand tu dis que tu penses qu'il te faut plus de temps Baby Oh la la, baby Oh la la Oh ba-baby Oui, c'est sale Baby-y-y-y-y Baby Oh la la, baby Oh la la Oh ba-baby Oui, c'est sale Baby-y-y-y-y Oh, oh, oh Tu parles de moi, craches dans mon dos Je parle de toi, crache dans ta bouche Rrk, peuh J's'rai toujours un vrai négro, que t'aies tes règles ou que t'accouches Sale J'te vois à travers le rideau, je t'observe quand tu te touches J'sais pas si c'est toi ou c'est l'eau, j'vois pas quand tu mouilles dans la douche Fume quand relation s'effrite Lune, Soleil dans même rayon Qu'une parole tant que j'écris, brume, gondole dans l'océan Femmes aux yeux d'hommes sont que des filles Sentiments plongés dans l'néant Pluie, averses de ressentis mais silence prend les devants Je t'aime quand je suis dedans, dehors, je suis plein de mépris Ta fragilité n'est plus à prouver Quand tout allait mal et qu'on le savait pas On passait du temps à essayer d'en passer À deux pour l'prix d'un, d'un nous sans toi et moi J'ai brûlé tes lettres dans un feu de bois mais j'ai toujours en tête nos jeux de voix J'ai suivi l'oseille, toi, la fée des bois J'ai toujours en toi ce que t'as fait de moi Que la nightzer, ouais Je sais c'que tu penses de nous Quand tu dis que tu n'sais plus quoi penser de nous Je sais c'que tu veux vraiment Quand tu dis que tu n'sais plus c'que tu veux vraiment Je sais qu'tu n'as plus le temps Quand tu dis que tu penses qu'il te faut plus de temps Baby Oh la la, baby Oh la la Oh ba-baby Oui, c'est sale Baby-y-y-y-y Baby Oh la la, baby Oh la la Oh ba-baby Oui, c'est sale Baby-y-y-y-y Oh, oh, oh Pa-pam, pa-pam, pa-pam, pa-pam49</t>
+          <t>Baby, baby Oh ba-baby Baby-y-y-y-y Feu de bois, jeu de voix, suis-moi Je te veux pas, fuis-moi, je te veux toi Dems, Dems Feu de bois, jeu de trois, un des deux est de moi Un des trois est de nous, aidez-nous, aidez-moi Feu de bois, jeu de voix, tu me dois, Dieu te voit Montre-moi que du doigt ce que t'as fait de moi Creux de joie, queue de rois, fée des bois Fais de moi ce qu'on a fait de toi Sur le toit, sûre de toi, tu t'y crois C'est déjà ce qu'on a fait de moi Sale, sale Fais de toi, fais de nous Prends pas la tête, je n'tiens plus le coup On bavardait sans dire un mot, le bruit de mon silence en dit long Sentiments grandissants figeant l'ego Prison de mots, absence de compliment J'suis en attente, en apprentissage, très peu sage J'ai vu l'âge à la nage, je fuis l'alcoolisme Sur la blanche page, j'agonise Mille latences entre c'que je pense et ce que je dis, ce que j'obtiens et ce que je vise Soit c'est le père ou bien le fils, soit la be-her ou bien la tise Que la nightzer, ouais Je sais c'que tu penses de nous Quand tu dis que tu n'sais plus quoi penser de nous Je sais c'que tu veux vraiment Quand tu dis que tu n'sais plus c'que tu veux vraiment Je sais qu'tu n'as plus le temps Quand tu dis que tu penses qu'il te faut plus de temps Baby Oh la la, baby Oh la la Oh ba-baby Oui, c'est sale Baby-y-y-y-y Baby Oh la la, baby Oh la la Oh ba-baby Oui, c'est sale Baby-y-y-y-y Oh, oh, oh Tu parles de moi, craches dans mon dos Je parle de toi, crache dans ta bouche Rrk, peuh J's'rai toujours un vrai négro, que t'aies tes règles ou que t'accouches Sale J'te vois à travers le rideau, je t'observe quand tu te touches J'sais pas si c'est toi ou c'est l'eau, j'vois pas quand tu mouilles dans la douche Fume quand relation s'effrite Lune, Soleil dans même rayon Qu'une parole tant que j'écris, brume, gondole dans l'océan Femmes aux yeux d'hommes sont que des filles Sentiments plongés dans l'néant Pluie, averses de ressentis mais silence prend les devants Je t'aime quand je suis dedans, dehors, je suis plein de mépris Ta fragilité n'est plus à prouver Quand tout allait mal et qu'on le savait pas On passait du temps à essayer d'en passer À deux pour l'prix d'un, d'un nous sans toi et moi J'ai brûlé tes lettres dans un feu de bois mais j'ai toujours en tête nos jeux de voix J'ai suivi l'oseille, toi, la fée des bois J'ai toujours en toi ce que t'as fait de moi Que la nightzer, ouais Je sais c'que tu penses de nous Quand tu dis que tu n'sais plus quoi penser de nous Je sais c'que tu veux vraiment Quand tu dis que tu n'sais plus c'que tu veux vraiment Je sais qu'tu n'as plus le temps Quand tu dis que tu penses qu'il te faut plus de temps Baby Oh la la, baby Oh la la Oh ba-baby Oui, c'est sale Baby-y-y-y-y Baby Oh la la, baby Oh la la Oh ba-baby Oui, c'est sale Baby-y-y-y-y Oh, oh, oh Pa-pam, pa-pam, pa-pam, pa-pam49</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pyroman Welcome to Mwaka Moon Un peu d'Amsterdam dans la bouche Yah, yah, yah, yah, yah Une bouffée d'oxygène dans la kush Yah, yah, yah Dans le vide, je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Allô la Terre ? Ici, y a pas d'eau Che-lou comme un son de franc-maçon Qui sont-ils vraiment ? I don't know Avant Dieu, y a rien de toutes les façons I got hoes, tout est beau J'fais le show, en Lambo', ah ouais, négro K.L.H est dans le zoo Igo, fais tourner, ça sent la kush Un peu d'Amsterdam dans la bouche Yah, yah, yah, yah yah Une bouffée d'oxygène dans la kush Yah, yahh, yah Dans le vide, je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Ouais, Dems You might also like S'faire sucer, c'est pas tromper, faire succès, c'est n'pas s'tromper Trop de billets jaunes, verts, violets, j'ai tout nié, toi, balancé Tout est écrit, ouais, qu'ils m'ont dit, les mêmes qui ont dit qu'j'y arriverai pas Jamais négro s'enterre en vie, jamais négro ne baisse les bras J'illumine, j'élimine, ennemis, imminent, pas d'paroles, patates sur les lips Si j'urine dans la ville, c'est que j'suis sur les Champs, grosse salope, quatre pattes sur le bitume Inoffensif, je fus, une offensive et je tue, une gencive de plus, sur le bitume J'accumule embrouilles, bagarres de rue J'prends l'réseau, négro, j'te laisse que l'Wi-Fi Au studio, j'fais qu'du sale, au studio, tu n'fais qu'du bruit Ils tuent pour prendre nos terres comme G. Bush, Saddam, R.I.P J'sais toujours pas naviguer pourtant, j'connais qu'des rates-pi Dems, Dems Un peu d'Amsterdam dans la bouche Yah, yah, yah, yah, yah Une bouffée d'oxygène dans la kush Yah, yah, yah Dans le vide, je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Ding dong, v'la le Mwaka J'marche dans la ville comme une âme en vrac En attendant qu'ils tombent sous le AK Brrr J'observe comme King Kong au-dessus de Manhattan Voilà déjà une plombe que j'suis fracas Allongé dans une tombe pleine de vieux tracas Je viens d'un autre monde, ici, je ne m'y fais pas Que cela ne t'étonne, je viens de là-bas Tout ceci est louche Un peu d'Amsterdam dans la bouche Yah, yah, yah, yah, yah Une bouffée d'oxygène dans la kush Yah, yah, yah Dans le vide, je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche La vie c'est dur, un peu comme ma bite Elle m'a fait gagner des femmes mais perdre celle que j'aimais Oh, mon jus d'amour, sur tant de visages, j'évacue ma rage par galipettes J'dis pas les mots car pour moi, ils me tuent J'nique des mères pour la dînette Des étalages de tous mes disques et puis, qu'tu me dises J'aurais pas dû naître J'pars dans le Mississippi, là où personne sait qui j'suis J'suis damné, j'suis rôti, dent d'or dans biscuit J'bois encore et encore, histoire d'oublier mes torts Sur une bête de beat de Pyroman sous les feux de la rampe, je me brûle les ailes Oooh Aaaaaah, Mwaka Moon I'm fucking out, aah47</t>
+          <t>Pyroman Welcome to Mwaka Moon Un peu d'Amsterdam dans la bouche Yah, yah, yah, yah, yah Une bouffée d'oxygène dans la kush Yah, yah, yah Dans le vide, je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Allô la Terre ? Ici, y a pas d'eau Che-lou comme un son de franc-maçon Qui sont-ils vraiment ? I don't know Avant Dieu, y a rien de toutes les façons I got hoes, tout est beau J'fais le show, en Lambo', ah ouais, négro K.L.H est dans le zoo Igo, fais tourner, ça sent la kush Un peu d'Amsterdam dans la bouche Yah, yah, yah, yah yah Une bouffée d'oxygène dans la kush Yah, yahh, yah Dans le vide, je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Ouais, Dems S'faire sucer, c'est pas tromper, faire succès, c'est n'pas s'tromper Trop de billets jaunes, verts, violets, j'ai tout nié, toi, balancé Tout est écrit, ouais, qu'ils m'ont dit, les mêmes qui ont dit qu'j'y arriverai pas Jamais négro s'enterre en vie, jamais négro ne baisse les bras J'illumine, j'élimine, ennemis, imminent, pas d'paroles, patates sur les lips Si j'urine dans la ville, c'est que j'suis sur les Champs, grosse salope, quatre pattes sur le bitume Inoffensif, je fus, une offensive et je tue, une gencive de plus, sur le bitume J'accumule embrouilles, bagarres de rue J'prends l'réseau, négro, j'te laisse que l'Wi-Fi Au studio, j'fais qu'du sale, au studio, tu n'fais qu'du bruit Ils tuent pour prendre nos terres comme G. Bush, Saddam, R.I.P J'sais toujours pas naviguer pourtant, j'connais qu'des rates-pi Dems, Dems Un peu d'Amsterdam dans la bouche Yah, yah, yah, yah, yah Une bouffée d'oxygène dans la kush Yah, yah, yah Dans le vide, je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Ding dong, v'la le Mwaka J'marche dans la ville comme une âme en vrac En attendant qu'ils tombent sous le AK Brrr J'observe comme King Kong au-dessus de Manhattan Voilà déjà une plombe que j'suis fracas Allongé dans une tombe pleine de vieux tracas Je viens d'un autre monde, ici, je ne m'y fais pas Que cela ne t'étonne, je viens de là-bas Tout ceci est louche Un peu d'Amsterdam dans la bouche Yah, yah, yah, yah, yah Une bouffée d'oxygène dans la kush Yah, yah, yah Dans le vide, je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche La vie c'est dur, un peu comme ma bite Elle m'a fait gagner des femmes mais perdre celle que j'aimais Oh, mon jus d'amour, sur tant de visages, j'évacue ma rage par galipettes J'dis pas les mots car pour moi, ils me tuent J'nique des mères pour la dînette Des étalages de tous mes disques et puis, qu'tu me dises J'aurais pas dû naître J'pars dans le Mississippi, là où personne sait qui j'suis J'suis damné, j'suis rôti, dent d'or dans biscuit J'bois encore et encore, histoire d'oublier mes torts Sur une bête de beat de Pyroman sous les feux de la rampe, je me brûle les ailes Oooh Aaaaaah, Mwaka Moon I'm fucking out, aah47</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mort est son avenir proche, les anges de l'enfer l'escortent Le hashtag Vie tient peut-être d'elle, de son cou pendu à la corde Trop jeune pour comprendre l'impact des mots, j'm'en fous de c'qu'elle veut tant qu'j'ai ce qu'il me faut Treize ans, déjà mon premier rapport, depuis, mon cur a fermé la porte Aussi bizarre que cela puisse paraître, après l'avoir ken, j'voulais qu'elle disparaisse Elle voulait qu'on s'aime mais je n'voulais pas, j'tais l'dernier à faire le premier pas Plus les années passent et plus lourde est la tâche, j'la trouvais pas bonne et j'voulais qu'elle le sache Dans la méchanceté, j'me sentais si bien, j'tais loin d'imaginer son quotidien Des larmes séchées sur ses poèmes qu'elle m'écrivait en recherchant plaisir clitoridien Faux-cul, j'étais comme un Allez l'OM, scandé par un supporter Parisien Le jour de son suicide, j'n'en revenais pas, la veille, elle voulait que j'la prenne dans mes bras Mais j'suis pas doué dès qu'on s'éloigne des draps, j'suis plus dans le suce-moi et concentre-toi Dernier message, elle parle au répondeur Allô ? Damso, j'vais faire sonner mon heure J'décrochais pas, j'voulais pas faire d'erreur, qu'elle m'casse les couilles, c'est ce dont j'avais peur C'était la dernière fois qu'j'entendais ses pleurs Elle était morte et pourtant, j'lui ai dit À tout à l'heure. Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée You might also like Vingt-trois ans aujourd'hui, y a dix ans déjà, que j'prie pour que l'amnésie s'en prenne à moi J'assume mes actes en fumant des noix, p't-être que son avenir me pardonnera Le jour de l'enterrement, j'm'en battais les couilles, bizarrement, c'est comme si j'sentais pas les coups En même temps, j'tais pas là pour voir sa dépouille J'rappais pendant que le prof donnait cours Jeune délinquant très mal dressé, menottes à plein temps, poignets blessés Négros des champs, chiasse dans l'WC, m'a dit le caissier avant d'encaisser Énervé, j'lui ai foutu une patate dans le menton, j'ai pris c'qu'il avait dit pour argent comptant Premier braquage sans trop faire exprès, c'fils de putain n'avait pas d'espèce J'm'enferme dans la drogue douce, brin de whisky dans le juice J'oublie cette vie que j'ai ôtée, son cul plat dont j'me suis moqué Ampoule de verre dépolie, ressort mon teint défraîchi J'me souviens d'cette vie qu'j'ai ôtée, son 86B qu'j'ai peloté J'me construis plus dans l'regard des autres, j'suis ni des leurs, ni des vôtres, ni des nôtres Cul terreux loin des beaux bâtiments, remords hideux, sombre châtiment C'était la dernière fois qu'je sentais son pouls Elle était morte et pourtant, j'lui ai dit I love you. Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée47</t>
+          <t>Mort est son avenir proche, les anges de l'enfer l'escortent Le hashtag Vie tient peut-être d'elle, de son cou pendu à la corde Trop jeune pour comprendre l'impact des mots, j'm'en fous de c'qu'elle veut tant qu'j'ai ce qu'il me faut Treize ans, déjà mon premier rapport, depuis, mon cur a fermé la porte Aussi bizarre que cela puisse paraître, après l'avoir ken, j'voulais qu'elle disparaisse Elle voulait qu'on s'aime mais je n'voulais pas, j'tais l'dernier à faire le premier pas Plus les années passent et plus lourde est la tâche, j'la trouvais pas bonne et j'voulais qu'elle le sache Dans la méchanceté, j'me sentais si bien, j'tais loin d'imaginer son quotidien Des larmes séchées sur ses poèmes qu'elle m'écrivait en recherchant plaisir clitoridien Faux-cul, j'étais comme un Allez l'OM, scandé par un supporter Parisien Le jour de son suicide, j'n'en revenais pas, la veille, elle voulait que j'la prenne dans mes bras Mais j'suis pas doué dès qu'on s'éloigne des draps, j'suis plus dans le suce-moi et concentre-toi Dernier message, elle parle au répondeur Allô ? Damso, j'vais faire sonner mon heure J'décrochais pas, j'voulais pas faire d'erreur, qu'elle m'casse les couilles, c'est ce dont j'avais peur C'était la dernière fois qu'j'entendais ses pleurs Elle était morte et pourtant, j'lui ai dit À tout à l'heure. Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée Vingt-trois ans aujourd'hui, y a dix ans déjà, que j'prie pour que l'amnésie s'en prenne à moi J'assume mes actes en fumant des noix, p't-être que son avenir me pardonnera Le jour de l'enterrement, j'm'en battais les couilles, bizarrement, c'est comme si j'sentais pas les coups En même temps, j'tais pas là pour voir sa dépouille J'rappais pendant que le prof donnait cours Jeune délinquant très mal dressé, menottes à plein temps, poignets blessés Négros des champs, chiasse dans l'WC, m'a dit le caissier avant d'encaisser Énervé, j'lui ai foutu une patate dans le menton, j'ai pris c'qu'il avait dit pour argent comptant Premier braquage sans trop faire exprès, c'fils de putain n'avait pas d'espèce J'm'enferme dans la drogue douce, brin de whisky dans le juice J'oublie cette vie que j'ai ôtée, son cul plat dont j'me suis moqué Ampoule de verre dépolie, ressort mon teint défraîchi J'me souviens d'cette vie qu'j'ai ôtée, son 86B qu'j'ai peloté J'me construis plus dans l'regard des autres, j'suis ni des leurs, ni des vôtres, ni des nôtres Cul terreux loin des beaux bâtiments, remords hideux, sombre châtiment C'était la dernière fois qu'je sentais son pouls Elle était morte et pourtant, j'lui ai dit I love you. Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée Depuis, je fume pour l'oublier Je fume pour oublier qu'j'l'ai tuée47</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Double X on the track, bitch! Le monde est à nous, le monde est à toi et moi Mais p't-être que sans moi, le monde s'ra à toi Et p't-être qu'avec lui, le monde s'ra à vous et c'est p't-être mieux ainsi Mes sentiments dansent la macarena Donc, je me dis qu'si t'es avec lui, tu t'sentiras mieux Mais si tu t'sens mieux, tu t'souviendras plus de moi Oh la la, mon cur danse la macarena La, la, la, la, la, la, la, la, la, la Oh la la, mon cur danse la macarena La, la, la, la, la, la, la, la, la, la Sabrina, t'es d'jà trentenaire, on s'envoie en l'air mais j'ai qu'la vingtaine, donc j'ai qu'ça à faire, me parle pas de mariage J'te fais perdre ton temps mais qu'est-c'que c'est bon Quand j'p'lote tes implants, j'me sens comme avant, comme quand j'en avais rien à battre Je suis jeune, j'm'en fous d'l'avenir, de c'que notre relation va devenir mais pour lui, c'n'est pas le cas, il a d'jà un taf Il fait le mec mature mais tu sais qu'au lit, plus que lui, j'assure Rappelle-toi quand t'avais des courbatures, j't'avais bien niqué ta race Bang, bang Rappelle-toi bien de la suite, dans les hôtels et les suites Ouais, ouais J't'invitais aux soirées VIP, à la télé', tu r'gardais mes clips Dems, Dems On l'a fait sans autotune, sur une prod de Twinsmatic C'est ma manière romantique de dire que j'n'avais pas mis de préservatif Nan You might also like Le monde est à nous, le monde est à toi et moi Mais p't-être que sans moi, le monde s'ra à toi Et p't-être qu'avec lui, le monde s'ra à vous et c'est peut-être mieux ainsi Mes sentiments dansent la macarena Donc, je me dis qu'si t'es avec lui, tu t'sentiras mieux Mais si tu t'sens mieux, tu t'souviendras plus de moi Oh la la, mon cur danse la macarena La, la, la, la, la, la, la, la, la, la Oh la la, mon cur danse la macarena La, la, la, la, la, la, la, la, la, la J'ai fait semblant d'bien aller Quand t'as démarré, qu't'es allée chez lui ben nan, j'ai rien dit Pourtant, j'le savais qu'tu baisais pour t'évader, après tout, j''tais là qu'pour dépanner Bah oui J'vais pas trop m'étaler, saigner fallait, blessé j'l'étais, j't'ai remballé, tu m'as remplacé, tu m'as délaissé Bah oui Mais comme tout salaud, j't'ai téléphoné, j't'ai récupéré puis, j't'ai fait pleurer parce que j'en ai rien à foutre, c'est ça la life Ouais Qu'est-c'qu'tu croyais ? Tu baises avec moi, tu baises avec d'autres même si j'fais pareil, c'est pas la même chose Ben oui et non, moi, j'ai b'soin de ma dose, ma libido Et casse pas les lles-c', fais pas celle qui réplique Nan, t'façon, j'veux plus trop qu'on s'explique Oui P't-être qu'avec lui, le monde s'ra à vous et c'est p't-être mieux ainsi Dems Donc, je me dis qu'si t'es avec lui, tu t'sentiras mieux mais si tu t'sens mieux, tu t'souviendras plus de moi Oh la, la Oui Mon cur danse la macarena la, la, la, la, la, la, la, la, la, la Oh la la Eh-eh, oui Mon cur danse la macarena la, la, la, la, la, la, la, la, la, la Oui Eh-eh Dems Oui, oui, oui Ouais, c'est bon Oui, oui, oui30</t>
+          <t>Double X on the track, bitch! Le monde est à nous, le monde est à toi et moi Mais p't-être que sans moi, le monde s'ra à toi Et p't-être qu'avec lui, le monde s'ra à vous et c'est p't-être mieux ainsi Mes sentiments dansent la macarena Donc, je me dis qu'si t'es avec lui, tu t'sentiras mieux Mais si tu t'sens mieux, tu t'souviendras plus de moi Oh la la, mon cur danse la macarena La, la, la, la, la, la, la, la, la, la Oh la la, mon cur danse la macarena La, la, la, la, la, la, la, la, la, la Sabrina, t'es d'jà trentenaire, on s'envoie en l'air mais j'ai qu'la vingtaine, donc j'ai qu'ça à faire, me parle pas de mariage J'te fais perdre ton temps mais qu'est-c'que c'est bon Quand j'p'lote tes implants, j'me sens comme avant, comme quand j'en avais rien à battre Je suis jeune, j'm'en fous d'l'avenir, de c'que notre relation va devenir mais pour lui, c'n'est pas le cas, il a d'jà un taf Il fait le mec mature mais tu sais qu'au lit, plus que lui, j'assure Rappelle-toi quand t'avais des courbatures, j't'avais bien niqué ta race Bang, bang Rappelle-toi bien de la suite, dans les hôtels et les suites Ouais, ouais J't'invitais aux soirées VIP, à la télé', tu r'gardais mes clips Dems, Dems On l'a fait sans autotune, sur une prod de Twinsmatic C'est ma manière romantique de dire que j'n'avais pas mis de préservatif Nan Le monde est à nous, le monde est à toi et moi Mais p't-être que sans moi, le monde s'ra à toi Et p't-être qu'avec lui, le monde s'ra à vous et c'est peut-être mieux ainsi Mes sentiments dansent la macarena Donc, je me dis qu'si t'es avec lui, tu t'sentiras mieux Mais si tu t'sens mieux, tu t'souviendras plus de moi Oh la la, mon cur danse la macarena La, la, la, la, la, la, la, la, la, la Oh la la, mon cur danse la macarena La, la, la, la, la, la, la, la, la, la J'ai fait semblant d'bien aller Quand t'as démarré, qu't'es allée chez lui ben nan, j'ai rien dit Pourtant, j'le savais qu'tu baisais pour t'évader, après tout, j''tais là qu'pour dépanner Bah oui J'vais pas trop m'étaler, saigner fallait, blessé j'l'étais, j't'ai remballé, tu m'as remplacé, tu m'as délaissé Bah oui Mais comme tout salaud, j't'ai téléphoné, j't'ai récupéré puis, j't'ai fait pleurer parce que j'en ai rien à foutre, c'est ça la life Ouais Qu'est-c'qu'tu croyais ? Tu baises avec moi, tu baises avec d'autres même si j'fais pareil, c'est pas la même chose Ben oui et non, moi, j'ai b'soin de ma dose, ma libido Et casse pas les lles-c', fais pas celle qui réplique Nan, t'façon, j'veux plus trop qu'on s'explique Oui P't-être qu'avec lui, le monde s'ra à vous et c'est p't-être mieux ainsi Dems Donc, je me dis qu'si t'es avec lui, tu t'sentiras mieux mais si tu t'sens mieux, tu t'souviendras plus de moi Oh la, la Oui Mon cur danse la macarena la, la, la, la, la, la, la, la, la, la Oh la la Eh-eh, oui Mon cur danse la macarena la, la, la, la, la, la, la, la, la, la Oui Eh-eh Dems Oui, oui, oui Ouais, c'est bon Oui, oui, oui30</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>M'd'mandez pas c'que j'fais dans la vie C'est si noir, vous s'rez pris de panique Quelque part, loin de toute compagnie Batterie Faible m'a fait perdre beaucoup d'amis Me serre pas la main, fais-moi un Vie J'attends la mort comme en Gethsémani Baise-la c'est tout sinon elle f'ra des manies Elle manquera d'respect à ta famille Une seule erreur et t'as plus d'followers Donc j'fais c'que j'aime non pas c'que l'on me dit J'suis toujours debout, aux tombées des nuits Vu du ciel, l'Enfer est comme le Paradis Crève dans ta merde, t'auras pas un radis, c'est à peu près ce que le daron m'a dit Heureusement gros culs ont su consoler De leurs 'ttes-cha, j'me suis empoisonné J'ai picolé, j'ai bu oui, j'ai bu oui J'perds la raison à cause de mes torts, c'est ça qu'ça fait d'toujours bosser la nuit J'fume de trop, j'fais plus de sport C'est pas très bon, m'a dit coach Elie Drogue dans la soute, à peine j'atterris J'roule un doobie, oh oui Ils ne me veulent pas du bien, no Ils ne me veulent pas du bien, no Ils font bonhomme de neige, j'ai fait bonhomme de chemin Ils ne me veulent pas du bien, no Ils ne me veulent pas du bien, no J'suis sorti de la dèch', vie en rose comme schneck de tchoin Fiancé à la vulgarité, j'ai renoncé à la précarité J'ai mis mes chances dans le barillet, j'ai tiré sans jamais m'arrêter Rosemark s'tu veux qualité Grosses liasses la mentalité Plus d'sable dans le sablier, plus d'place dans le paradise Damsolitaire You might also like Dems, sale, sale, sale That I used to say Oh oui, oh oui, oh oui, oh oui, oh oui, oh oui That I used to say Ils ne me veulent pas du bien, no Ils ne me veulent pas du bien, no Ils font bonhomme de neige, j'ai fait bonhomme de chemin Ils ne me veulent pas du bien, no Ils ne me veulent pas du bien, no J'suis sorti de la dèch', vie en rose comme schneck de tchoin Fiancé à la vulgarité, j'ai renoncé à la précarité J'ai mis mes chances dans le barillet, j'ai tiré sans jamais m'arrêter Rosemark s'tu veux qualité Grosses liasses la mentalité Plus d'sable dans le sablier, plus d'place dans le paradise Des blème-pro, fils, y en aura toujours La police piste nos phone-tel Du mal à appréhender l'futur car dans ma vision j'suis immortel Plus d'sept mille jours que j'suis né, dont au moins mille passés à fumer Fumer tue, vivre aussi donc tant qu'à faire autant se ruiner hey J'n'ai rien à perdre en soi vu qu'on n'emporte rien avec soi Me dis pas j't'aime quand tu me vois, viens pas dans mon lit mais sous ma ble-ta Pourquoi j'suis comme ça ? Me l'demandez pas, j'saurais pas trop quoi vous répondre Faut pas vous méprendre, j'prends tous c'que je peux prendre Comme ma terre, j'suis riche que sous les décombres Je pleure que de l'intérieur pour que mes soucis se noient Pourquoi leur demander l'heure ? J'sais bien qu'la mienne n'est pas encore là Diplômé, riche et après ? J'regrette la cour de récré Mais pas l'temps pour les regrets m'a dit mon cur Nostalgique car présent pas à la hauteur Ma sueur vient que de l'effort, le stress me sert de décor J'm'en bats tellement les ille-cou, désinvolture recouvre mes pores Rêve mais ne dors pas, crève mais ne meurs pas Moi j'aboie, je mords la java je sors, l'âme vêtue d'une burqa Rapper, c'est c'que j'sais faire de mieux, casser la gueule des racistes aussi Toujours un couteau dans l'sac pour mieux cadrer l'ennemi pour qu'il soit plus docile En chacun d'nous habite Dieu, qu'il m'dit Sa maison s'trouve dans nos curs, qu'il m'dit Donc, excusez-moi Seigneur qu'j'lui dis si mes poumons sentent trop la beuh J'passe mon temps à rêver d'prendre l'air, putain de merde Larges baies vitrées, bureaux, phones, secrétaires Équivaut réussite urbaine sur la Terre J's'rai rappeur plus tard maman, faut pas t'en faire J'gagnerai des grosses thunes en disques et concerts J'crois qu'ça va t'plaire, j'f'rai l'tour de la Terre J'écarterai barreaux d'la vie pour qu'on se libère Là j'avance, j'pense accident cardio-vasculaire Triste d'être célèbre mais sans père ni mère Mes ennemis prennent cher, j'digère rien Ma bile sort jamais d'sa vésicule biliaire D'vant lévangéliaire, je cite quelques prières Peu précédé par folie meurtrière M'sieur l'abbé, ma haine ne date pas d'hier Je suis donc j'aurai, suite logique des auxiliaires Damso, Dems Damsolitaire Dems C'est bon ?32</t>
+          <t>M'd'mandez pas c'que j'fais dans la vie C'est si noir, vous s'rez pris de panique Quelque part, loin de toute compagnie Batterie Faible m'a fait perdre beaucoup d'amis Me serre pas la main, fais-moi un Vie J'attends la mort comme en Gethsémani Baise-la c'est tout sinon elle f'ra des manies Elle manquera d'respect à ta famille Une seule erreur et t'as plus d'followers Donc j'fais c'que j'aime non pas c'que l'on me dit J'suis toujours debout, aux tombées des nuits Vu du ciel, l'Enfer est comme le Paradis Crève dans ta merde, t'auras pas un radis, c'est à peu près ce que le daron m'a dit Heureusement gros culs ont su consoler De leurs 'ttes-cha, j'me suis empoisonné J'ai picolé, j'ai bu oui, j'ai bu oui J'perds la raison à cause de mes torts, c'est ça qu'ça fait d'toujours bosser la nuit J'fume de trop, j'fais plus de sport C'est pas très bon, m'a dit coach Elie Drogue dans la soute, à peine j'atterris J'roule un doobie, oh oui Ils ne me veulent pas du bien, no Ils ne me veulent pas du bien, no Ils font bonhomme de neige, j'ai fait bonhomme de chemin Ils ne me veulent pas du bien, no Ils ne me veulent pas du bien, no J'suis sorti de la dèch', vie en rose comme schneck de tchoin Fiancé à la vulgarité, j'ai renoncé à la précarité J'ai mis mes chances dans le barillet, j'ai tiré sans jamais m'arrêter Rosemark s'tu veux qualité Grosses liasses la mentalité Plus d'sable dans le sablier, plus d'place dans le paradise Damsolitaire Dems, sale, sale, sale That I used to say Oh oui, oh oui, oh oui, oh oui, oh oui, oh oui That I used to say Ils ne me veulent pas du bien, no Ils ne me veulent pas du bien, no Ils font bonhomme de neige, j'ai fait bonhomme de chemin Ils ne me veulent pas du bien, no Ils ne me veulent pas du bien, no J'suis sorti de la dèch', vie en rose comme schneck de tchoin Fiancé à la vulgarité, j'ai renoncé à la précarité J'ai mis mes chances dans le barillet, j'ai tiré sans jamais m'arrêter Rosemark s'tu veux qualité Grosses liasses la mentalité Plus d'sable dans le sablier, plus d'place dans le paradise Des blème-pro, fils, y en aura toujours La police piste nos phone-tel Du mal à appréhender l'futur car dans ma vision j'suis immortel Plus d'sept mille jours que j'suis né, dont au moins mille passés à fumer Fumer tue, vivre aussi donc tant qu'à faire autant se ruiner hey J'n'ai rien à perdre en soi vu qu'on n'emporte rien avec soi Me dis pas j't'aime quand tu me vois, viens pas dans mon lit mais sous ma ble-ta Pourquoi j'suis comme ça ? Me l'demandez pas, j'saurais pas trop quoi vous répondre Faut pas vous méprendre, j'prends tous c'que je peux prendre Comme ma terre, j'suis riche que sous les décombres Je pleure que de l'intérieur pour que mes soucis se noient Pourquoi leur demander l'heure ? J'sais bien qu'la mienne n'est pas encore là Diplômé, riche et après ? J'regrette la cour de récré Mais pas l'temps pour les regrets m'a dit mon cur Nostalgique car présent pas à la hauteur Ma sueur vient que de l'effort, le stress me sert de décor J'm'en bats tellement les ille-cou, désinvolture recouvre mes pores Rêve mais ne dors pas, crève mais ne meurs pas Moi j'aboie, je mords la java je sors, l'âme vêtue d'une burqa Rapper, c'est c'que j'sais faire de mieux, casser la gueule des racistes aussi Toujours un couteau dans l'sac pour mieux cadrer l'ennemi pour qu'il soit plus docile En chacun d'nous habite Dieu, qu'il m'dit Sa maison s'trouve dans nos curs, qu'il m'dit Donc, excusez-moi Seigneur qu'j'lui dis si mes poumons sentent trop la beuh J'passe mon temps à rêver d'prendre l'air, putain de merde Larges baies vitrées, bureaux, phones, secrétaires Équivaut réussite urbaine sur la Terre J's'rai rappeur plus tard maman, faut pas t'en faire J'gagnerai des grosses thunes en disques et concerts J'crois qu'ça va t'plaire, j'f'rai l'tour de la Terre J'écarterai barreaux d'la vie pour qu'on se libère Là j'avance, j'pense accident cardio-vasculaire Triste d'être célèbre mais sans père ni mère Mes ennemis prennent cher, j'digère rien Ma bile sort jamais d'sa vésicule biliaire D'vant lévangéliaire, je cite quelques prières Peu précédé par folie meurtrière M'sieur l'abbé, ma haine ne date pas d'hier Je suis donc j'aurai, suite logique des auxiliaires Damso, Dems Damsolitaire Dems C'est bon ?32</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ah ouais, Dems J'm'en fous, j'm'en fous J'respecte R J'm'en fous d'être ton boyfriend, c'est ton cul moi que je veux Moi, qu'est-c'tu croyais, viens pas chialer Personne ne m'aimera, non si ce n'est moi dans trafics pas très renoi Tu ne trouveras pas mon ze-bla, y a qu'mon crew qui sait qui j'suis Tends-moi la joue, faut bien qu'j'm'essuie O.G. reconnait O.G, qu'il ait fait l'école ou la son-pri J'aime toujours pas les condés car condés n'aiment pas c'qu'on est J'viens à ton mariage en training pour bien t'manquer de respect Car depuis qu'on se connaît, nan, jamais tu n'm'as phoné Bah ouais, à part hier quand j'ai cé-per Donc t'étonnes pas qu'j'respecte R Ben ouais, à part hier quand j'ai cé-per Donc t'étonnes pas qu'j'respecte R Enculé d'fils de putain, aucun soutien, je me souviens Et toi là petite salope, tu m'parles de tes Louboutin Ma grammaire te dit va t'faire Ça ne m'étonne pas car elle ne respecte R You might also like Des fils de putes, j'en vois tous les jours, plan dans son uc', elle a plus d'un tour Du monde à dos, pour ce que j'ai fait, qu'ils aillent s'faire enculer de loin et de près J'suis fort dans l'enculade de trous du cul et tralala, je n'comptais jamais changer Après tout, ton point G, je n'sais pas trop où il en est, tu t'fais baiser par qui veut la mettre J'fais dans la méditation pour oublier qu'ça n'a jamais rayonné Stress et tribulations me rient au nez parce que j'fais de la monnaie Parle pas trop de tes rêves, ces fils de lâches ne voudront pas que t'y arrives Te noieront avant que t'atteignes la rive, n'aiment pas voir nègre au sommet Damsette est Damsohizé oh ouais, schneck en train d'agoniser oh ouais Négro même carbonisé oh ouais, j'pisserai toujours sur les Champs-Élysées J'suis dans le mood de finir au Louvre parce que quand j'l'ouvre, j'peins avec les mots J'sirote une douze, dans le Hainaut, j'écoute des prods, et j'écris des couplets La vie, c'est simple, c'est beau la vie, dans les enceintes, règne ma zik' Personne ne parle, mais tout le monde flippe, crachat buccal de fumée de shit Plus dans le méli' qu'dans le mélo', sachant que Mélie, c'est l'nom de sa go' Qu'elle l'a mise en bouche comme un marshmallow, fallait pas faire le chaud Grégorio, no Souviens-toi qu'j'l'ai niquée donc t'étonne pas qu'j'respecte R Donc t'étonne pas qu'j'respecte R Nan, t'étonne pas qu'j'respecte R Yo, la vie, woh Dems27</t>
+          <t>Ah ouais, Dems J'm'en fous, j'm'en fous J'respecte R J'm'en fous d'être ton boyfriend, c'est ton cul moi que je veux Moi, qu'est-c'tu croyais, viens pas chialer Personne ne m'aimera, non si ce n'est moi dans trafics pas très renoi Tu ne trouveras pas mon ze-bla, y a qu'mon crew qui sait qui j'suis Tends-moi la joue, faut bien qu'j'm'essuie O.G. reconnait O.G, qu'il ait fait l'école ou la son-pri J'aime toujours pas les condés car condés n'aiment pas c'qu'on est J'viens à ton mariage en training pour bien t'manquer de respect Car depuis qu'on se connaît, nan, jamais tu n'm'as phoné Bah ouais, à part hier quand j'ai cé-per Donc t'étonnes pas qu'j'respecte R Ben ouais, à part hier quand j'ai cé-per Donc t'étonnes pas qu'j'respecte R Enculé d'fils de putain, aucun soutien, je me souviens Et toi là petite salope, tu m'parles de tes Louboutin Ma grammaire te dit va t'faire Ça ne m'étonne pas car elle ne respecte R Des fils de putes, j'en vois tous les jours, plan dans son uc', elle a plus d'un tour Du monde à dos, pour ce que j'ai fait, qu'ils aillent s'faire enculer de loin et de près J'suis fort dans l'enculade de trous du cul et tralala, je n'comptais jamais changer Après tout, ton point G, je n'sais pas trop où il en est, tu t'fais baiser par qui veut la mettre J'fais dans la méditation pour oublier qu'ça n'a jamais rayonné Stress et tribulations me rient au nez parce que j'fais de la monnaie Parle pas trop de tes rêves, ces fils de lâches ne voudront pas que t'y arrives Te noieront avant que t'atteignes la rive, n'aiment pas voir nègre au sommet Damsette est Damsohizé oh ouais, schneck en train d'agoniser oh ouais Négro même carbonisé oh ouais, j'pisserai toujours sur les Champs-Élysées J'suis dans le mood de finir au Louvre parce que quand j'l'ouvre, j'peins avec les mots J'sirote une douze, dans le Hainaut, j'écoute des prods, et j'écris des couplets La vie, c'est simple, c'est beau la vie, dans les enceintes, règne ma zik' Personne ne parle, mais tout le monde flippe, crachat buccal de fumée de shit Plus dans le méli' qu'dans le mélo', sachant que Mélie, c'est l'nom de sa go' Qu'elle l'a mise en bouche comme un marshmallow, fallait pas faire le chaud Grégorio, no Souviens-toi qu'j'l'ai niquée donc t'étonne pas qu'j'respecte R Donc t'étonne pas qu'j'respecte R Nan, t'étonne pas qu'j'respecte R Yo, la vie, woh Dems27</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yeah, j'l'ai signalé, ouais J'l'ai signalé, eh J't'invite à tout refaire comme les fesses de Kylie Jenner J'peux séparer la mer mais j'peux pas rassembler nos curs Dangereux délinquant ambitieux, O.G, Larry Hoover Bien sûr qu't'es sur la liste, pour toi, il n'y a plus d'videur J'fume jusqu'à plus d'gousse, eh J'veux pas qu'on s'allonge, j'veux qu'on couche, eh Pote-ca dans la chambre, dans la douche Crie pas, j'suis sur écoute, faut pas semer de doutes, y a pas qu'toi sur ma route Non, j'veux pas d'sentiment, pour moi, c'est trop la loose J'deviens incontinent quand tu parles d'amour Tu viens d'mon continent, ouais, si j'en crois ton boule J'te ferai plus d'compliments, j'vois qu'tu casses déjà les couilles J't'ai vue sur les réseaux, j't'ai signalée J'ai vu ton boule sur les réseaux, j'l'ai signalé J't'emmènerai sur la Lune dès qu'j'termine de faire ma thune Des maîtresses, j'en ai pas qu'une, donc attends qu'j'te fasse signe Tout seul dans ma bulle, solitaire, ma seule lacune Rien ne sert d'avoir rancune, donc attends qu'j'te fasse signe Laisse-moi juste une dernière chance, j'te ferai tout oublier, diamants sur collier Accorde-moi juste une dernière danse, te voir te dandiner, remplir les pointillés J't'emmènerai sur la Lune dès qu'j'termine de faire ma thune Des maîtresses, j'en ai pas qu'une, donc attends qu'j'te fasse signe Tout seul dans ma bulle, solitaire, ma seule lacune Rien ne sert d'avoir rancune, donc attends qu'j'te fasse signe Oh, oh, oh, oh J'l'ai signalé Oh, oh, oh, oh J'l'ai signalé You might also like Cachotteries dans parking souterrain, j'm'en vais et je viens entre tes reins Loin des menottes, genoux au sol, les racistes de l'école Balade en carriole sur fond de marivole Du blanc cassé sur les pommettes, elle s'essuie pour pas s'faire cramer par son mec, nan Un coup d'un soir, j'lui ai dit honnêtement J'te dirai pas Je t'aime pour que tu t'évanouisses, j'te prendrai à l'hôtel entre sacs et valises J'veux de l'or sur ma montre, fuck le mécanisme J'la vois nue première rencontre, j'me volatilise Épuisé par son derrière, elle me brutalise, me brutalise J't'ai vue sur les réseaux J'tai vu sur les réseaux J't'ai signalée J'ai vu ton boule sur les réseaux J'ai vu ton boule sur les réseaux J'l'ai signalé J't'emmènerai sur la Lune dès qu'j'termine de faire ma thune Des maîtresses j'en ai pas qu'une, donc attends qu'j'te fasse signe Tout seul dans ma bulle, solitaire, ma seule lacune Rien ne sert d'avoir rancune, donc attends qu'j'te fasse signe Laisse-moi juste une dernière chance, j'te ferai tout oublier, diamants sur collier Accorde-moi juste une dernière danse, te voir te dandiner, remplir les pointillés J't'emmènerai sur la Lune dès qu'j'termine de faire ma thune Des maîtresses j'en ai pas qu'une, donc attends qu'j'te fasse signe Tout seul dans ma bulle, solitaire, ma seule lacune Rien ne sert d'avoir rancune, donc attends qu'j'te fasse signe J't'ai vue sur les réseaux J't'ai vue sur les réseaux J't'ai signalée J't'ai signalé J'ai vu ton boule sur les réseaux J'ai vu ton boule sur les réseaux J'l'ai signalé, eh10</t>
+          <t>Yeah, j'l'ai signalé, ouais J'l'ai signalé, eh J't'invite à tout refaire comme les fesses de Kylie Jenner J'peux séparer la mer mais j'peux pas rassembler nos curs Dangereux délinquant ambitieux, O.G, Larry Hoover Bien sûr qu't'es sur la liste, pour toi, il n'y a plus d'videur J'fume jusqu'à plus d'gousse, eh J'veux pas qu'on s'allonge, j'veux qu'on couche, eh Pote-ca dans la chambre, dans la douche Crie pas, j'suis sur écoute, faut pas semer de doutes, y a pas qu'toi sur ma route Non, j'veux pas d'sentiment, pour moi, c'est trop la loose J'deviens incontinent quand tu parles d'amour Tu viens d'mon continent, ouais, si j'en crois ton boule J'te ferai plus d'compliments, j'vois qu'tu casses déjà les couilles J't'ai vue sur les réseaux, j't'ai signalée J'ai vu ton boule sur les réseaux, j'l'ai signalé J't'emmènerai sur la Lune dès qu'j'termine de faire ma thune Des maîtresses, j'en ai pas qu'une, donc attends qu'j'te fasse signe Tout seul dans ma bulle, solitaire, ma seule lacune Rien ne sert d'avoir rancune, donc attends qu'j'te fasse signe Laisse-moi juste une dernière chance, j'te ferai tout oublier, diamants sur collier Accorde-moi juste une dernière danse, te voir te dandiner, remplir les pointillés J't'emmènerai sur la Lune dès qu'j'termine de faire ma thune Des maîtresses, j'en ai pas qu'une, donc attends qu'j'te fasse signe Tout seul dans ma bulle, solitaire, ma seule lacune Rien ne sert d'avoir rancune, donc attends qu'j'te fasse signe Oh, oh, oh, oh J'l'ai signalé Oh, oh, oh, oh J'l'ai signalé Cachotteries dans parking souterrain, j'm'en vais et je viens entre tes reins Loin des menottes, genoux au sol, les racistes de l'école Balade en carriole sur fond de marivole Du blanc cassé sur les pommettes, elle s'essuie pour pas s'faire cramer par son mec, nan Un coup d'un soir, j'lui ai dit honnêtement J'te dirai pas Je t'aime pour que tu t'évanouisses, j'te prendrai à l'hôtel entre sacs et valises J'veux de l'or sur ma montre, fuck le mécanisme J'la vois nue première rencontre, j'me volatilise Épuisé par son derrière, elle me brutalise, me brutalise J't'ai vue sur les réseaux J'tai vu sur les réseaux J't'ai signalée J'ai vu ton boule sur les réseaux J'ai vu ton boule sur les réseaux J'l'ai signalé J't'emmènerai sur la Lune dès qu'j'termine de faire ma thune Des maîtresses j'en ai pas qu'une, donc attends qu'j'te fasse signe Tout seul dans ma bulle, solitaire, ma seule lacune Rien ne sert d'avoir rancune, donc attends qu'j'te fasse signe Laisse-moi juste une dernière chance, j'te ferai tout oublier, diamants sur collier Accorde-moi juste une dernière danse, te voir te dandiner, remplir les pointillés J't'emmènerai sur la Lune dès qu'j'termine de faire ma thune Des maîtresses j'en ai pas qu'une, donc attends qu'j'te fasse signe Tout seul dans ma bulle, solitaire, ma seule lacune Rien ne sert d'avoir rancune, donc attends qu'j'te fasse signe J't'ai vue sur les réseaux J't'ai vue sur les réseaux J't'ai signalée J't'ai signalé J'ai vu ton boule sur les réseaux J'ai vu ton boule sur les réseaux J'l'ai signalé, eh10</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Verre de vodka dans la bouche Reste de pote-ca dans la douche J'suis incapable de nous voir ensemble Mon cur est myope de souche Sur une aire d'autoroute, je bois J'fume de l'herbe et je perds du poids J'élève la voix que sur Pro Tools Si tu m'saoules trop, on en restera là T'es la deuxième que j'ken sur le même drap J'écris sans thème car je ne t'aime pas Après l'orgasme j'prends plus soin de toi C'est qu'un au revoir mais j'veux pas qu'on s'revoie Tu t'demandes ce qui n'va pas chez moi Mais que lui ont-ils fait de si noir ? Tes réponses se trouvent dans l'Beretta Sais-tu seulement à quel point tu n'sais pas ? Dangereux je suis, bandit du 92i Bonne et bien lotie, parle d'amour et j'me r'tire La vie c'est le patin, j'suis la patinoire Je n'vise que les catins qui n'ont plus d'espoir Aux talons hauts, fins et aux strings léopard Tout est noir comme Noémie Lenoir Elle veut maison, enfants, mais j'suis là que pour faire du sale Mais je n'ose pas lui dire, je n'veux pas faire de peine Et si j'lui disais tout c'que je ressens sur l'instrumentale Avec de l'autotune ça passera p't-être mieux You might also like Je n'veux plus de toi, je n'veux plus de toi Je n'veux plus de toi, je n'veux plus de toi Je n'veux plus de toi, je n'veux plus de toi Je n'veux plus de toi, je n'veux plus de toi Elle veut maison, enfants, mais j'suis là que pour faire du sale Mais je n'ose pas lui dire, je n'veux pas faire de peine Et si j'lui disais tout c'que je ressens sur l'instrumentale Avec de l'autotune ça passera p't-être mieux Y-yeah-y Quelques râteaux plus tard j'décide de partir en friendzone Plus tranquille, plus sensible, j'la joue fine et j'l'attaque sur d'la dancehall J'suis sur la piste, j'fais semblant d'être dans l'mouv Si elle savait c'que j'f'rai pour per-cho son boule J'crois qu'j'pourrais même arrêter l'bédo si j'vois qu'ça gêne trop Elle veut qu'on danse, mais c'est pas sûr qu'j'assure J'dois prendre son phone, j'me dis Tant pis, j'assume Obligé de m'la faire quitte à perdre ma tune dans l'hôtel et la Benzo Après toi c'est clair que j'en baiserai aucune Ouais ouais j'ai menti, j'lui ai promis la lune Juste pour la ken comme celle du premier couplet, dans le dos, comme il faut Sa puterie me parait si tendre Surpris, j'sais pas comment m'y prendre Blonde platine, elle fait sa Khaleesi Dragon dans la queue je l'encendre Avocate du diable, elle me donne le barreau Fait dans l'glougloutage de poireau La bitch fait sa Françoise Hollande Je lui dis de partir, mais elle en redemande Gangster moderne elle me qualifiait Quand il s'agit de sa teuch, j'suis plus habile que Diabaté Sidiki hey Dons de me-sper, j'fais dans l'humanitaire Je me tape donzelles de l'humanité J'aimerais tant lui dire que j'la veux pas dans ma vie, mais uniquement dans mon pieu Avec de l'autotune ça passera p't-être mieux Je n'veux plus de toi, je n'veux plus de toi Je n'veux plus de toi, je n'veux plus de toi Je n'veux plus de toi, je n'veux plus de toi Je n'veux plus de toi, je n'veux plus de toi Elle veut maison, enfants, mais j'suis là que pour faire du sale Mais je n'ose pas lui dire, je n'veux pas faire de peine Et si j'lui disais tout c'que je ressens sur l'instrumentale Avec de l'autotune ça passera p't-être mieux Avec de l'autotune ça passera p't-être mieux Avec de l'autotune ça passera p't-être mieux30</t>
+          <t>Verre de vodka dans la bouche Reste de pote-ca dans la douche J'suis incapable de nous voir ensemble Mon cur est myope de souche Sur une aire d'autoroute, je bois J'fume de l'herbe et je perds du poids J'élève la voix que sur Pro Tools Si tu m'saoules trop, on en restera là T'es la deuxième que j'ken sur le même drap J'écris sans thème car je ne t'aime pas Après l'orgasme j'prends plus soin de toi C'est qu'un au revoir mais j'veux pas qu'on s'revoie Tu t'demandes ce qui n'va pas chez moi Mais que lui ont-ils fait de si noir ? Tes réponses se trouvent dans l'Beretta Sais-tu seulement à quel point tu n'sais pas ? Dangereux je suis, bandit du 92i Bonne et bien lotie, parle d'amour et j'me r'tire La vie c'est le patin, j'suis la patinoire Je n'vise que les catins qui n'ont plus d'espoir Aux talons hauts, fins et aux strings léopard Tout est noir comme Noémie Lenoir Elle veut maison, enfants, mais j'suis là que pour faire du sale Mais je n'ose pas lui dire, je n'veux pas faire de peine Et si j'lui disais tout c'que je ressens sur l'instrumentale Avec de l'autotune ça passera p't-être mieux Je n'veux plus de toi, je n'veux plus de toi Je n'veux plus de toi, je n'veux plus de toi Je n'veux plus de toi, je n'veux plus de toi Je n'veux plus de toi, je n'veux plus de toi Elle veut maison, enfants, mais j'suis là que pour faire du sale Mais je n'ose pas lui dire, je n'veux pas faire de peine Et si j'lui disais tout c'que je ressens sur l'instrumentale Avec de l'autotune ça passera p't-être mieux Y-yeah-y Quelques râteaux plus tard j'décide de partir en friendzone Plus tranquille, plus sensible, j'la joue fine et j'l'attaque sur d'la dancehall J'suis sur la piste, j'fais semblant d'être dans l'mouv Si elle savait c'que j'f'rai pour per-cho son boule J'crois qu'j'pourrais même arrêter l'bédo si j'vois qu'ça gêne trop Elle veut qu'on danse, mais c'est pas sûr qu'j'assure J'dois prendre son phone, j'me dis Tant pis, j'assume Obligé de m'la faire quitte à perdre ma tune dans l'hôtel et la Benzo Après toi c'est clair que j'en baiserai aucune Ouais ouais j'ai menti, j'lui ai promis la lune Juste pour la ken comme celle du premier couplet, dans le dos, comme il faut Sa puterie me parait si tendre Surpris, j'sais pas comment m'y prendre Blonde platine, elle fait sa Khaleesi Dragon dans la queue je l'encendre Avocate du diable, elle me donne le barreau Fait dans l'glougloutage de poireau La bitch fait sa Françoise Hollande Je lui dis de partir, mais elle en redemande Gangster moderne elle me qualifiait Quand il s'agit de sa teuch, j'suis plus habile que Diabaté Sidiki hey Dons de me-sper, j'fais dans l'humanitaire Je me tape donzelles de l'humanité J'aimerais tant lui dire que j'la veux pas dans ma vie, mais uniquement dans mon pieu Avec de l'autotune ça passera p't-être mieux Je n'veux plus de toi, je n'veux plus de toi Je n'veux plus de toi, je n'veux plus de toi Je n'veux plus de toi, je n'veux plus de toi Je n'veux plus de toi, je n'veux plus de toi Elle veut maison, enfants, mais j'suis là que pour faire du sale Mais je n'ose pas lui dire, je n'veux pas faire de peine Et si j'lui disais tout c'que je ressens sur l'instrumentale Avec de l'autotune ça passera p't-être mieux Avec de l'autotune ça passera p't-être mieux Avec de l'autotune ça passera p't-être mieux30</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Oh nan, oh nan Oh nan, oh nan Yeah Chevauché par black étalon La vie n'a pas su résister à mon charme d'OG Ton amour sent le fromage d'herbe Au bout de la route j'sais pas si j'arriverai en vie Jt'aime à la folie qu'au lit Mon Jardin d'Eden ne dépasse pas le matelas Mes gènes changent souvent d'avis Un jour, j'suis congolais, un autre, j'suis zaïrois Ma douce me connait mieux qu'tout le monde M'a soutenu dans moments de gloire et de peine J'te regarde sans te voir comme La Joconde Toutes les chattes que j'aime s'avèrent être des chiennes Tes vêtements montrent que t'es lessivé Né dans les ronces, le cur égratigné Le sexe n'a plus de secret J'entre et je sors comme les pièces d'un porte-monnaie T'es comme un parfum Guerlain qui sent bon Mais qu'j'n'achète pas à cause de sa négrophobie J'suis ni mon cur, ni mon érection Prie tous les soirs pour que Très-Haut M'éclaire quand je brille J'suis un rappeur, auteur, compositeur Autant dire que j'mène ma vie comme je l'entends J'ai le soutien d'pas mal de chroniqueurs Ils savent que quand j'écris, je n'fais pas semblant No nan nan You might also like Sur la route du succès, l'essence, j'avais pas payé Aujourd'hui, j'suis refait, j'ai du cash Les putains ne font qu'appeler nan nan Dans sa fosse profonde, je m'enterre à chaque visite Les choses sont souvent plus belles avant Comme le visage de Bardot Brigitte nan nan Nan, nan, tant de questions qu'elle me pose Sur mon présent, sur mes névroses Dis-moi c'que tu fais la nuit, dis-moi c'que tu fais dans la vie Dis-moi c'que t'as contre les filles Dis-moi si c'était vrai pour Amnésie Damso, dis-moi kietu, dis-moi kietu dis-moi, dis-moi Dis-moi kietu, dis-moi kietu dis-moi, dis-moi Damso, dis-moi kietu, dis-moi kietu dis-moi, dis-moi Dis-moi kietu, dis-moi kietu Tout est noir qui finit noir Non mieux vaut ne pas savoir dis-moi, dis-moi Agnes pour seul exutoire En repeat ou aléatoire dis-moi, dis-moi J'ai marque sur le front tel Lous J'suis savon qui ne fait plus de mousse nan, nan J'l'ai pas trompé, elle me repousse J'l'ai juste embrassé sur la bouche nan, nan Ça commence par du Roméo et Juliette Ça finit par du Jacquie et Michel À genoux, j'ai prié le ciel Loin d'la musique, attiré par les schneks de Vixens J'reçois des photos à poil de culs et de seins J'remercie du soutien quand je ken Impossible de rester le même Quand argent et succès, quand rêves en réalité deviennent Non, on n'fait pas de miracles en priant le diable Drogues et livre saint sur la table Mon cur est photoshoppé Enseveli de péchés car né d'un amour macabre Quand tu n'parleras plus de moi C'est qu'j't'aurai tout donné sans recevoir en retour J'suis un poumon dans un fumoir J'respire le bien mais il n'y a que du mal tout autour Mes rêves à portée de main Mais je l'ai sur le cur, je ne sais tendre le bras Demain, de nous n'a plus besoin Donc il me reste qu'aujourd'hui pour faire mes premiers pas J'ai mis la vie dans son ventre La première fois que pour bonne raison, elle mouilla Un peu d'paradis dans mon monde Loin du six fois trois mais proche du hallelujah Dems, Dems Nan, nan, tant de questions qu'elle me pose tant de questions qu'elle me pose Sur mon présent, sur mes névroses sur mes névroses Dis-moi c'que tu fais la nuit, dis-moi c'que tu fais dans la vie Dis-moi c'que t'as contre les filles, dis-moi si c'était vrai pour Amnésie Damso, dis-moi kietu, dis-moi kietu dis-moi, dis-moi Dis-moi kietu, dis-moi kietu dis-moi, dis-moi Damso, dis-moi kietu, dis-moi kietu dis-moi, dis-moi Dis-moi kietu, dis-moi kietu16</t>
+          <t>Oh nan, oh nan Oh nan, oh nan Yeah Chevauché par black étalon La vie n'a pas su résister à mon charme d'OG Ton amour sent le fromage d'herbe Au bout de la route j'sais pas si j'arriverai en vie Jt'aime à la folie qu'au lit Mon Jardin d'Eden ne dépasse pas le matelas Mes gènes changent souvent d'avis Un jour, j'suis congolais, un autre, j'suis zaïrois Ma douce me connait mieux qu'tout le monde M'a soutenu dans moments de gloire et de peine J'te regarde sans te voir comme La Joconde Toutes les chattes que j'aime s'avèrent être des chiennes Tes vêtements montrent que t'es lessivé Né dans les ronces, le cur égratigné Le sexe n'a plus de secret J'entre et je sors comme les pièces d'un porte-monnaie T'es comme un parfum Guerlain qui sent bon Mais qu'j'n'achète pas à cause de sa négrophobie J'suis ni mon cur, ni mon érection Prie tous les soirs pour que Très-Haut M'éclaire quand je brille J'suis un rappeur, auteur, compositeur Autant dire que j'mène ma vie comme je l'entends J'ai le soutien d'pas mal de chroniqueurs Ils savent que quand j'écris, je n'fais pas semblant No nan nan Sur la route du succès, l'essence, j'avais pas payé Aujourd'hui, j'suis refait, j'ai du cash Les putains ne font qu'appeler nan nan Dans sa fosse profonde, je m'enterre à chaque visite Les choses sont souvent plus belles avant Comme le visage de Bardot Brigitte nan nan Nan, nan, tant de questions qu'elle me pose Sur mon présent, sur mes névroses Dis-moi c'que tu fais la nuit, dis-moi c'que tu fais dans la vie Dis-moi c'que t'as contre les filles Dis-moi si c'était vrai pour Amnésie Damso, dis-moi kietu, dis-moi kietu dis-moi, dis-moi Dis-moi kietu, dis-moi kietu dis-moi, dis-moi Damso, dis-moi kietu, dis-moi kietu dis-moi, dis-moi Dis-moi kietu, dis-moi kietu Tout est noir qui finit noir Non mieux vaut ne pas savoir dis-moi, dis-moi Agnes pour seul exutoire En repeat ou aléatoire dis-moi, dis-moi J'ai marque sur le front tel Lous J'suis savon qui ne fait plus de mousse nan, nan J'l'ai pas trompé, elle me repousse J'l'ai juste embrassé sur la bouche nan, nan Ça commence par du Roméo et Juliette Ça finit par du Jacquie et Michel À genoux, j'ai prié le ciel Loin d'la musique, attiré par les schneks de Vixens J'reçois des photos à poil de culs et de seins J'remercie du soutien quand je ken Impossible de rester le même Quand argent et succès, quand rêves en réalité deviennent Non, on n'fait pas de miracles en priant le diable Drogues et livre saint sur la table Mon cur est photoshoppé Enseveli de péchés car né d'un amour macabre Quand tu n'parleras plus de moi C'est qu'j't'aurai tout donné sans recevoir en retour J'suis un poumon dans un fumoir J'respire le bien mais il n'y a que du mal tout autour Mes rêves à portée de main Mais je l'ai sur le cur, je ne sais tendre le bras Demain, de nous n'a plus besoin Donc il me reste qu'aujourd'hui pour faire mes premiers pas J'ai mis la vie dans son ventre La première fois que pour bonne raison, elle mouilla Un peu d'paradis dans mon monde Loin du six fois trois mais proche du hallelujah Dems, Dems Nan, nan, tant de questions qu'elle me pose tant de questions qu'elle me pose Sur mon présent, sur mes névroses sur mes névroses Dis-moi c'que tu fais la nuit, dis-moi c'que tu fais dans la vie Dis-moi c'que t'as contre les filles, dis-moi si c'était vrai pour Amnésie Damso, dis-moi kietu, dis-moi kietu dis-moi, dis-moi Dis-moi kietu, dis-moi kietu dis-moi, dis-moi Damso, dis-moi kietu, dis-moi kietu dis-moi, dis-moi Dis-moi kietu, dis-moi kietu16</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hey Bientôt, j'arrête tout ça, mama, bientôt, je change de vie Ouais J'ai du mal à le dire à baba, entre bonhommes, on se devine Quoi ? Bientôt, j'arrête tout ça, mama, t'en fais pas pour mon avenir Ouais Bientôt, je change de vie Eh, demain, je change de ville Bientôt, j'arrête tout ça, mama, bientôt, je change de vie Ouais J'ai du mal à le dire à baba, entre bonhommes, on se devine Quoi ? Bientôt, j'arrête tout ça, mama, t'en fais pas pour mon avenir Ouais Bientôt, je change de vie Sale, demain, je change de ville Ouais Bientôt, j'arrête tout ça, mama, bientôt je change de vie J'ai du mal à le dire à baba Baba, baba Bientôt, j'arrête tout ça, mama Bientôt, bientôt Demain, je change de ville Ouais, yeah T'as un compte certifié mais t'as pas de follower, tricheur Dems Les maisons de disques sont des salopes, c'pour ça qu'elles font des avances, j'f'rai pas deux fois la même erreur Donne-moi ton cur que j'écrase mon mégot, c'est à toi que j'parle donc fais pas ton De Niro J'ai pris des grammes et j'ai perdu des kilos, t'assumes pas ta calvitie comme Ne-Yo Ça fait trop d'weed pour une seule beuh, ça fait trop d'bitches pour une seule queue Ça fait trop d'morts pour une seule vie, ça fait trop d'torts pour une seule fille J'suis dans l'bendo, renfermé sur moi, j'te salue pas, j'suis pas courtois Loin des malfrats et des bourgeois, entre vie et mort sur l'accoudoir J'entends Sale nègre, ah ouais ? J'me tourne sec, Glock boum, boum, bang, bang Tous les jours à être dans main event, grand, noir et dur comme un bois d'ébène Trop de chagrin à l'intérieur, j'ai connu la guerre et la frayeur Rupture de l'hymen, elle m'fait de la peine, j'l'ai même pas baisée que j'l'ai déjà, Ken You might also like Bientôt, j'arrête tout ça, mama, bientôt, je change de vie Dems J'ai du mal à le dire à baba, entre bonhommes, on se devine Quoi ? Bientôt, j'arrête tout ça, mama, t'en fais pas pour mon avenir Ouais Bientôt, je change de vie Eh, demain, je change de ville Sale Bientôt, j'arrête tout ça, mama, bientôt, je change de vie Ouais J'ai du mal à le dire à baba, entre bonhommes, on se devine Quoi ? Bientôt, j'arrête tout ça, mama, t'en fais pas pour mon avenir Ouais Bientôt, je change de vie Sale, demain, je change de ville Ouais Mes copines me taquinent voilà l'acteur, ma richesse intérieure dans mon laptop Mama s'inquiète pour mes frères, elle nous a vu grandir ensemble et certains finir locked up Que des cobayes sur une piste étroite, j'ai grandi pareil La première fois qu'ils te lisent tes droits, c'est quand ils t'arrêtent C'est quand ils t'arrêtent, ouais Notre succès, c'est pour tous les fils de putes de vigiles qui nous ont mal regardés Et quand j'étais petit, j'avoue, j'étais parfois jaloux des enfants que maman gardait Ceux qui sont v'nus soulever les meubles, c'était pas les déménageurs Séparation des ménages avant que l'enfant devienne un jeune Mouss a passé quatre ans au placard, pour lui, c'était ça d'être majeur Et tes rappeurs, ils parlent de quoi ? C'est des beaufs, c'est des maîtres-nageurs Bruxelles, Paname, la pépinière, tu crois qu'on est là depuis hier ? Tu parles à fond, tu bi-bi R, toujours au front comme baby hair Mama, j'étais sous gasolina, mama, j'étais sous gasolina Mais je veux être un gars solide, je veux pas voir mes gars sous lean, non, non, non Ça m'inquiète, on sait pas qui t'es, on enquête Compte certifié mais personne te connaît, t'as pas le droit de tweeter en anglais, Tricheur Le succès, c'est un moyen d'avoir des plaves et mes gavas, ils pourraient te vendre une loc', vroum, vroum Sur les traîtres, une main dans les fesses, les keufs les font parler comme des ventriloques J's'rai plus l'ami d'un lascar faible, la sur de mon frère, c'est ma sur Chez nous, y a pas de sale manie comme dans Scarface J'suis dans l'break neck, j'suis trop high, mec, il m'faut une shneck sèche, de tieks bien fraîche Que j'baise express, un gros cul d'braise, j'évacue stress et lot d'tristesse Il m'faut un wellness que j'décompresse, j'suis dans trop d'fesses, faut qu'j'me confesse J'suis dans l'business, besoin d'vitesse, j'suis dans l'ivresse, pas dans God bless mais Bientôt, j'arrête tout ça, mama, bientôt, je change de vie Vie J'ai du mal à le dire à baba, entre bonhommes, on se devine Quoi ? Bientôt, j'arrête tout ça, mama, t'en fais pas pour mon avenir Ouais Bientôt, je change de vie Eh, demain, je change de ville Bientôt, j'arrête tout ça, mama, bientôt, je change de vie Ouais J'ai du mal à le dire à baba, entre bonhommes, on se devine Quoi ? Bientôt, j'arrête tout ça, mama, t'en fais pas pour mon avenir Ouais Bientôt, je change de vie Sale, demain, je change de ville Ouais Go annai itashimasu ANA 1245B Tokyo Narita Eki no Okyaku-sama wa21</t>
+          <t>Hey Bientôt, j'arrête tout ça, mama, bientôt, je change de vie Ouais J'ai du mal à le dire à baba, entre bonhommes, on se devine Quoi ? Bientôt, j'arrête tout ça, mama, t'en fais pas pour mon avenir Ouais Bientôt, je change de vie Eh, demain, je change de ville Bientôt, j'arrête tout ça, mama, bientôt, je change de vie Ouais J'ai du mal à le dire à baba, entre bonhommes, on se devine Quoi ? Bientôt, j'arrête tout ça, mama, t'en fais pas pour mon avenir Ouais Bientôt, je change de vie Sale, demain, je change de ville Ouais Bientôt, j'arrête tout ça, mama, bientôt je change de vie J'ai du mal à le dire à baba Baba, baba Bientôt, j'arrête tout ça, mama Bientôt, bientôt Demain, je change de ville Ouais, yeah T'as un compte certifié mais t'as pas de follower, tricheur Dems Les maisons de disques sont des salopes, c'pour ça qu'elles font des avances, j'f'rai pas deux fois la même erreur Donne-moi ton cur que j'écrase mon mégot, c'est à toi que j'parle donc fais pas ton De Niro J'ai pris des grammes et j'ai perdu des kilos, t'assumes pas ta calvitie comme Ne-Yo Ça fait trop d'weed pour une seule beuh, ça fait trop d'bitches pour une seule queue Ça fait trop d'morts pour une seule vie, ça fait trop d'torts pour une seule fille J'suis dans l'bendo, renfermé sur moi, j'te salue pas, j'suis pas courtois Loin des malfrats et des bourgeois, entre vie et mort sur l'accoudoir J'entends Sale nègre, ah ouais ? J'me tourne sec, Glock boum, boum, bang, bang Tous les jours à être dans main event, grand, noir et dur comme un bois d'ébène Trop de chagrin à l'intérieur, j'ai connu la guerre et la frayeur Rupture de l'hymen, elle m'fait de la peine, j'l'ai même pas baisée que j'l'ai déjà, Ken Bientôt, j'arrête tout ça, mama, bientôt, je change de vie Dems J'ai du mal à le dire à baba, entre bonhommes, on se devine Quoi ? Bientôt, j'arrête tout ça, mama, t'en fais pas pour mon avenir Ouais Bientôt, je change de vie Eh, demain, je change de ville Sale Bientôt, j'arrête tout ça, mama, bientôt, je change de vie Ouais J'ai du mal à le dire à baba, entre bonhommes, on se devine Quoi ? Bientôt, j'arrête tout ça, mama, t'en fais pas pour mon avenir Ouais Bientôt, je change de vie Sale, demain, je change de ville Ouais Mes copines me taquinent voilà l'acteur, ma richesse intérieure dans mon laptop Mama s'inquiète pour mes frères, elle nous a vu grandir ensemble et certains finir locked up Que des cobayes sur une piste étroite, j'ai grandi pareil La première fois qu'ils te lisent tes droits, c'est quand ils t'arrêtent C'est quand ils t'arrêtent, ouais Notre succès, c'est pour tous les fils de putes de vigiles qui nous ont mal regardés Et quand j'étais petit, j'avoue, j'étais parfois jaloux des enfants que maman gardait Ceux qui sont v'nus soulever les meubles, c'était pas les déménageurs Séparation des ménages avant que l'enfant devienne un jeune Mouss a passé quatre ans au placard, pour lui, c'était ça d'être majeur Et tes rappeurs, ils parlent de quoi ? C'est des beaufs, c'est des maîtres-nageurs Bruxelles, Paname, la pépinière, tu crois qu'on est là depuis hier ? Tu parles à fond, tu bi-bi R, toujours au front comme baby hair Mama, j'étais sous gasolina, mama, j'étais sous gasolina Mais je veux être un gars solide, je veux pas voir mes gars sous lean, non, non, non Ça m'inquiète, on sait pas qui t'es, on enquête Compte certifié mais personne te connaît, t'as pas le droit de tweeter en anglais, Tricheur Le succès, c'est un moyen d'avoir des plaves et mes gavas, ils pourraient te vendre une loc', vroum, vroum Sur les traîtres, une main dans les fesses, les keufs les font parler comme des ventriloques J's'rai plus l'ami d'un lascar faible, la sur de mon frère, c'est ma sur Chez nous, y a pas de sale manie comme dans Scarface J'suis dans l'break neck, j'suis trop high, mec, il m'faut une shneck sèche, de tieks bien fraîche Que j'baise express, un gros cul d'braise, j'évacue stress et lot d'tristesse Il m'faut un wellness que j'décompresse, j'suis dans trop d'fesses, faut qu'j'me confesse J'suis dans l'business, besoin d'vitesse, j'suis dans l'ivresse, pas dans God bless mais Bientôt, j'arrête tout ça, mama, bientôt, je change de vie Vie J'ai du mal à le dire à baba, entre bonhommes, on se devine Quoi ? Bientôt, j'arrête tout ça, mama, t'en fais pas pour mon avenir Ouais Bientôt, je change de vie Eh, demain, je change de ville Bientôt, j'arrête tout ça, mama, bientôt, je change de vie Ouais J'ai du mal à le dire à baba, entre bonhommes, on se devine Quoi ? Bientôt, j'arrête tout ça, mama, t'en fais pas pour mon avenir Ouais Bientôt, je change de vie Sale, demain, je change de ville Ouais Go annai itashimasu ANA 1245B Tokyo Narita Eki no Okyaku-sama wa21</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>R-R-R-R-R-R-R Beats... Si j'te fume, c'est pour ton bien, c'est pour qu'tu n'recommences pas J'ai fait du game une dictature, pour ça qu'on me récompense pas Si t'es une michto, viens m'voir, du cash, j'en ai Pas b'soin de pilule du lendemain, j'te crache dans l'nez Fais-moi à manger, Papa est fatigué, j'ai vendu d'la C toute la journée T'es au bord du suicide, j'suis au bord de mer Te tuer si tu les touches, c'est mon rôle de père Moi aussi, j'sais en faire de la trap de merde, brûle billets verts, en Enfer, j'vais rien en faire Éjac' faciale sur âme en peine, j'suis hala Madrid, t'es Valenciennes J'leur fais toujours à l'envers, j'mets d'l'harissa dans leur camembert Y a dû y avoir un quiproquo, j'mens dans ta chatte comme Pinocchio Quand j'aurai fini d'te casser l'dos, va t'faire hara-kiri à Kyoto Paye-moi tout de suite, donne-moi money cash Négro, t'allais bien mieux avant les clashs En maison de disque, rappeurs on les castre Dans la rue, j'paye pas d'impôts, j'suis monégasque Tu fumes que de la com', t'alimentes que chez Lidl J'suis sur OKLM.com, ta daronne est sur Gleeden Si t'esquives l'uppercut, tu vas t'grailler le middle brr, brr Tester l'92i, interdit, prohibido, c'est forbidden You might also like Ouais, sur l'bitume, agenouillée sous le fut, j'prends du recul pour mieux t'enculer, pute Fuck ton cigare, j'ai ma OG Kush, j'broie du noir quand j'ressors de tes sses'-f Elle suce pas très bien, n'a pas profonde gorge, la trap française, moi, j'l'éjacule sur le torse Salope, ferme ta gueule, pour le prix d'un, j'te mets deux doigts, connexion Bruxelles jusqu'à Aulnay-Sous-Bois Hey, pute, on est où là ? J'te baise comme une chienne pourtant, tu portes le foulard Avec des si j's'rais intouchable comme Omar, Capitol 92i, nouveau flow noir J'pointe devant gros cul, tu pointes au chômage, le rap game n'a plus d'kérosène pour l'décollage Mon flow prend le large le tiens prend de l'âge, pour déstresser j'fais des prises d'otages De la CC dans du cellophane, la lessive dans tes clips, tu dis qu'c'est de la came Tu m'fais chier comme un mec qui te conseille à la salle, j'te nique sur le ring et sur l'instrumentale T'es passé partout comme la chatte de Shy'm, j'sais pas si c'est vrai mais j'la baiserais au calme J'ai matière grise, t'as matière fécale, t'as micro-pénis, donc tu n'es pas de taille Damso Tu fumes que de la com', t'alimentes que chez Lidl J'suis sur OKLM.com, ta daronne est sur Gleeden Si t'esquives l'uppercut, tu vas t'grailler le middle brr, brr Tester l'92i, interdit, prohibido, c'est forbidden Blan cocaïne fè lajan Passé la vim nan on bando Pa ka konté konbyen patne Pa vle sonje konbyen soldats Jwèt la pi danje ke manchèt yo chofe Pico nap boulé ak lanmò nou marye S.W.A.T team vini frapem atè banm kou d'pye Zam nan figim dim montre'l koté li e Ki sa w'ap di la nou pa vann préci la Yo di y'ap veyem pou plis prèske twa mwa Yo di yo gen fotom sou kamera Pou chak fwa yo vini yo pa jwen anyen la Zam yo kache, machandiz la sere Rele K-9, sa pa mache Yo arretem chaje mwen ak trespassing Pa fem de jou, jij la lagem Neg yo konnen ke mwen pap janm fout chanje Lè m'ap voyé sou bouzin yo delivre Patne mouri si l'te konnen li tap rete Domi, li soti yo assassine'l Twa jou passe ou pa tande sak pasé Yo jwen twa kadav decoupe bo koté Pirati mwen li tro fon wap koule Sèl sa nou konnen se dezod met dife Anmwé Tu fumes que de la com', t'alimentes que chez Lidl J'suis sur OKLM.com, ta daronne est sur Gleeden Si t'esquives l'uppercut, tu vas t'grailler le middle Tester l'92i, interdit, prohibido, c'est forbidden16</t>
+          <t>R-R-R-R-R-R-R Beats... Si j'te fume, c'est pour ton bien, c'est pour qu'tu n'recommences pas J'ai fait du game une dictature, pour ça qu'on me récompense pas Si t'es une michto, viens m'voir, du cash, j'en ai Pas b'soin de pilule du lendemain, j'te crache dans l'nez Fais-moi à manger, Papa est fatigué, j'ai vendu d'la C toute la journée T'es au bord du suicide, j'suis au bord de mer Te tuer si tu les touches, c'est mon rôle de père Moi aussi, j'sais en faire de la trap de merde, brûle billets verts, en Enfer, j'vais rien en faire Éjac' faciale sur âme en peine, j'suis hala Madrid, t'es Valenciennes J'leur fais toujours à l'envers, j'mets d'l'harissa dans leur camembert Y a dû y avoir un quiproquo, j'mens dans ta chatte comme Pinocchio Quand j'aurai fini d'te casser l'dos, va t'faire hara-kiri à Kyoto Paye-moi tout de suite, donne-moi money cash Négro, t'allais bien mieux avant les clashs En maison de disque, rappeurs on les castre Dans la rue, j'paye pas d'impôts, j'suis monégasque Tu fumes que de la com', t'alimentes que chez Lidl J'suis sur OKLM.com, ta daronne est sur Gleeden Si t'esquives l'uppercut, tu vas t'grailler le middle brr, brr Tester l'92i, interdit, prohibido, c'est forbidden Ouais, sur l'bitume, agenouillée sous le fut, j'prends du recul pour mieux t'enculer, pute Fuck ton cigare, j'ai ma OG Kush, j'broie du noir quand j'ressors de tes sses'-f Elle suce pas très bien, n'a pas profonde gorge, la trap française, moi, j'l'éjacule sur le torse Salope, ferme ta gueule, pour le prix d'un, j'te mets deux doigts, connexion Bruxelles jusqu'à Aulnay-Sous-Bois Hey, pute, on est où là ? J'te baise comme une chienne pourtant, tu portes le foulard Avec des si j's'rais intouchable comme Omar, Capitol 92i, nouveau flow noir J'pointe devant gros cul, tu pointes au chômage, le rap game n'a plus d'kérosène pour l'décollage Mon flow prend le large le tiens prend de l'âge, pour déstresser j'fais des prises d'otages De la CC dans du cellophane, la lessive dans tes clips, tu dis qu'c'est de la came Tu m'fais chier comme un mec qui te conseille à la salle, j'te nique sur le ring et sur l'instrumentale T'es passé partout comme la chatte de Shy'm, j'sais pas si c'est vrai mais j'la baiserais au calme J'ai matière grise, t'as matière fécale, t'as micro-pénis, donc tu n'es pas de taille Damso Tu fumes que de la com', t'alimentes que chez Lidl J'suis sur OKLM.com, ta daronne est sur Gleeden Si t'esquives l'uppercut, tu vas t'grailler le middle brr, brr Tester l'92i, interdit, prohibido, c'est forbidden Blan cocaïne fè lajan Passé la vim nan on bando Pa ka konté konbyen patne Pa vle sonje konbyen soldats Jwèt la pi danje ke manchèt yo chofe Pico nap boulé ak lanmò nou marye S.W.A.T team vini frapem atè banm kou d'pye Zam nan figim dim montre'l koté li e Ki sa w'ap di la nou pa vann préci la Yo di y'ap veyem pou plis prèske twa mwa Yo di yo gen fotom sou kamera Pou chak fwa yo vini yo pa jwen anyen la Zam yo kache, machandiz la sere Rele K-9, sa pa mache Yo arretem chaje mwen ak trespassing Pa fem de jou, jij la lagem Neg yo konnen ke mwen pap janm fout chanje Lè m'ap voyé sou bouzin yo delivre Patne mouri si l'te konnen li tap rete Domi, li soti yo assassine'l Twa jou passe ou pa tande sak pasé Yo jwen twa kadav decoupe bo koté Pirati mwen li tro fon wap koule Sèl sa nou konnen se dezod met dife Anmwé Tu fumes que de la com', t'alimentes que chez Lidl J'suis sur OKLM.com, ta daronne est sur Gleeden Si t'esquives l'uppercut, tu vas t'grailler le middle Tester l'92i, interdit, prohibido, c'est forbidden16</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ouais, Dems Switch Bruxelles vie Oui, eh Dans sa tte-cha, j'ai nagé le crawl Pourtant son mec vient me check de l'épaule Si j'suis au sol, c'est que j'tape des pompes J'consulte mon solde, je règle mes comptes Eh, ferme ta gueule, journal télévisé Le monde entier s'est fait Daesh-iser J'ai un gros ness-bui j'suis immunisé Concert Bercy, nero-nemesisé J'balance ma pisse sur les Champs-Élysées Trop défoncé, j'sais plus c'que je disais J'fais dans le nique ta mère la pute Fuck ton deux-mille, salaire brut J'suis dans le tiekson, Damso, Dems Sabre laser, Skywalker Luke J'la prends en levrette, elle crie par la fenêtre Lubrifiant pépère, senteur musc Ils m'ont té-sau, dans la haine, je médite À l'hosto' j'veux m'faire sucer par Grey Meredith J'joue contre Bilbao, j'peux faire que la diff' Le rap français K.O. en un seul feat Vie You might also like Bruxelles-Bruxelles vie Vie Bruxelles-Bruxelles vie Vie Tous les jours, j'roule un pli Pli Douze-dou Gordon vie Oui Bruxelles-Bruxelles vie Vie Bruxelles-Bruxelles vie Vie Tous les jours, j'roule un pli Pli Douze-dou Gordon vie Oui J'me sens au-dessus des autres comme une kippa Je crois ni en l'amour, ni en Vitaa J'creuse l'écart comme les cuisses de Nikita Si t'aimes pas, c'est que j'rappe c'que tu n'vis pas clair Après coups de feu, prière il récita Trop balèze donc le négro palpita Les Émirats n'ont que faire d'ta Visa Tout comme le rap n'a que faire de Monet Liza J'connais qu'un seul King, c'est Martin Luther Enfance pas tranquille, coups de feu, je n'ai plus peur J'partirai jamais comme la tache de Jean-Luc Reichmann dans les 12 coups de 12 heures midi Baroudeur vie, oui, j'suis un voyou J'suis un grizzli, tu n'es que Baloo Tu bouffes chez Exki, je bouffe chez Mère Malou T'es flingué comme un feat de Bruel et Garou Vie Bruxelles-Bruxelles vie Vie Bruxelles-Bruxelles vie Vie Tous les jours, j'roule un pli Pli Douze-dou Gordon vie Oui Bruxelles-Bruxelles vie Vie Bruxelles-Bruxelles vie Vie Tous les jours, j'roule un pli Pli Douze-dou Gordon vie Oui J'suis dans sa schneck, j'y vais mollo Va prendre cher, toucher le gros lot J'balance la sauce sur ses tresses, au point qu'son mec a cru qu'c'était une colo' Colo' Ils t'ont grillé en soirée homo' Homo' Qui m'aime me like ou me follow Follow Insolent, j'dépasse toute la file Premier qui fait d'sa gueule, j'l'éclate trois s'condes, chrono' Tu fais l'ouf mais tu connais rien J'vais fermer ta grande bouche de collégien Ma teub dans l'cul, celui d'ta reum Tu vas faire quoi ? J'ai un gun dans les mains Comme Zora Hurston, j'vis de ma plume J'dois rien à personne comme quand j'avais pas d'thune J'ai pollué tes ovaires juste pour t'baiser sans protection T'envoies sexto mais jamais t'assumes Vie Bruxelles-Bruxelles vie Vie Bruxelles-Bruxelles vie Vie Tous les jours, j'roule un pli Pli Douze-dou Gordon vie Oui Bruxelles-Bruxelles vie Vie Bruxelles-Bruxelles vie Vie Tous les jours, j'roule un pli Pli Douze-dou Gordon vie Oui Damso Dems Oui Yo-o Capitol 92i nouveau flow noir Fuentes vie Hey Batterie faible, veuillez la recharger Damso Dems C'est bon15</t>
+          <t>Ouais, Dems Switch Bruxelles vie Oui, eh Dans sa tte-cha, j'ai nagé le crawl Pourtant son mec vient me check de l'épaule Si j'suis au sol, c'est que j'tape des pompes J'consulte mon solde, je règle mes comptes Eh, ferme ta gueule, journal télévisé Le monde entier s'est fait Daesh-iser J'ai un gros ness-bui j'suis immunisé Concert Bercy, nero-nemesisé J'balance ma pisse sur les Champs-Élysées Trop défoncé, j'sais plus c'que je disais J'fais dans le nique ta mère la pute Fuck ton deux-mille, salaire brut J'suis dans le tiekson, Damso, Dems Sabre laser, Skywalker Luke J'la prends en levrette, elle crie par la fenêtre Lubrifiant pépère, senteur musc Ils m'ont té-sau, dans la haine, je médite À l'hosto' j'veux m'faire sucer par Grey Meredith J'joue contre Bilbao, j'peux faire que la diff' Le rap français K.O. en un seul feat Vie Bruxelles-Bruxelles vie Vie Bruxelles-Bruxelles vie Vie Tous les jours, j'roule un pli Pli Douze-dou Gordon vie Oui Bruxelles-Bruxelles vie Vie Bruxelles-Bruxelles vie Vie Tous les jours, j'roule un pli Pli Douze-dou Gordon vie Oui J'me sens au-dessus des autres comme une kippa Je crois ni en l'amour, ni en Vitaa J'creuse l'écart comme les cuisses de Nikita Si t'aimes pas, c'est que j'rappe c'que tu n'vis pas clair Après coups de feu, prière il récita Trop balèze donc le négro palpita Les Émirats n'ont que faire d'ta Visa Tout comme le rap n'a que faire de Monet Liza J'connais qu'un seul King, c'est Martin Luther Enfance pas tranquille, coups de feu, je n'ai plus peur J'partirai jamais comme la tache de Jean-Luc Reichmann dans les 12 coups de 12 heures midi Baroudeur vie, oui, j'suis un voyou J'suis un grizzli, tu n'es que Baloo Tu bouffes chez Exki, je bouffe chez Mère Malou T'es flingué comme un feat de Bruel et Garou Vie Bruxelles-Bruxelles vie Vie Bruxelles-Bruxelles vie Vie Tous les jours, j'roule un pli Pli Douze-dou Gordon vie Oui Bruxelles-Bruxelles vie Vie Bruxelles-Bruxelles vie Vie Tous les jours, j'roule un pli Pli Douze-dou Gordon vie Oui J'suis dans sa schneck, j'y vais mollo Va prendre cher, toucher le gros lot J'balance la sauce sur ses tresses, au point qu'son mec a cru qu'c'était une colo' Colo' Ils t'ont grillé en soirée homo' Homo' Qui m'aime me like ou me follow Follow Insolent, j'dépasse toute la file Premier qui fait d'sa gueule, j'l'éclate trois s'condes, chrono' Tu fais l'ouf mais tu connais rien J'vais fermer ta grande bouche de collégien Ma teub dans l'cul, celui d'ta reum Tu vas faire quoi ? J'ai un gun dans les mains Comme Zora Hurston, j'vis de ma plume J'dois rien à personne comme quand j'avais pas d'thune J'ai pollué tes ovaires juste pour t'baiser sans protection T'envoies sexto mais jamais t'assumes Vie Bruxelles-Bruxelles vie Vie Bruxelles-Bruxelles vie Vie Tous les jours, j'roule un pli Pli Douze-dou Gordon vie Oui Bruxelles-Bruxelles vie Vie Bruxelles-Bruxelles vie Vie Tous les jours, j'roule un pli Pli Douze-dou Gordon vie Oui Damso Dems Oui Yo-o Capitol 92i nouveau flow noir Fuentes vie Hey Batterie faible, veuillez la recharger Damso Dems C'est bon15</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pour être honnête, j'sais pas faire autrement, ma haine n'a pas su cicatriser La musique, j'l'aimais jusqu'à c'que j'sois dedans, contrats véreux veulent me faire signer Personne t'aimera comme moi m'a dit Maman, si c'n'est le joint que j'vais rouler Qui m'f'ra oublier méchanceté d'ce monde ? Le diable et son fessier bien roulé Très loin des maisons de disques mais près de mon public avisé Très loin des ventes et des chiffres mais près de la musicalité Regarde au-d'ssus, il n'y a plus de nuages, la pluie ne risque pas de tomber Regarde mon cur, il n'a plus de grillage mais personne ne risque d'y entrer L'absence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours J'les porte dans mon cur, ils me portent l'il, j'ai tué le game et j'ai fait le deuil Négro me dit qu'on est ensemble mais qu'en cas d'échec, j's'rai tout seul Sperme dans la bouche, elle aime le goût du risque, elle croit pas en moi mais veut être sur la liste J'ai qu'un seul amour, c'est la chanson, solitaire, j'n'ai pas d'besoin d'attention Je tire et je tue, tu meurs et c'est tout, t'avais qu'à fermer ta grande gueule Je tire et je fume, j'm'en vais sur la Lune, loin des perquis' à Argenteuil Esprit torturé, douleur intestinale, j'ai avalé méchanceté de l'Homme J'l'ai digéré, j'ai pris le bien du mal, j'me sens comme Adam juste avant la pomme You might also like L'absence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours À chaque fois qu'je sors sans prendre des sous, la vie me rappelle que je viens de loin Pique dans le dos tel le sombre hérisson, trahison sponso' par Louboutin J'serre plus de meufs que de mains, le genre masculin, je m'en méfie Trous écartés, genoux fléchis, biatch, j'connais d'jà fin du récit Enfermé dans cellule, je désaoule, j'reprends conscience de mes soucis Dans son vagin, je me défoule, à chaque je t'aime, je me détruis Pour elle, j'suis tout autre chose que Damso, elle voit en moi c'que je n'vois plus Métissé comme touche de piano, entre le vivre et le vécu J'fais un malaise eucharistique, j'suis entre sucré et salé Le diable se cache derrière l'artistique, pour milieu d'la musique, j'étais pas prêt Dieu ne ment jamais Nan, Dieu ne ment jamais Dieu ne ment jamais, yeah Damso SantosVie, FuentesVie, tout est Vie13</t>
+          <t>Pour être honnête, j'sais pas faire autrement, ma haine n'a pas su cicatriser La musique, j'l'aimais jusqu'à c'que j'sois dedans, contrats véreux veulent me faire signer Personne t'aimera comme moi m'a dit Maman, si c'n'est le joint que j'vais rouler Qui m'f'ra oublier méchanceté d'ce monde ? Le diable et son fessier bien roulé Très loin des maisons de disques mais près de mon public avisé Très loin des ventes et des chiffres mais près de la musicalité Regarde au-d'ssus, il n'y a plus de nuages, la pluie ne risque pas de tomber Regarde mon cur, il n'a plus de grillage mais personne ne risque d'y entrer L'absence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours J'les porte dans mon cur, ils me portent l'il, j'ai tué le game et j'ai fait le deuil Négro me dit qu'on est ensemble mais qu'en cas d'échec, j's'rai tout seul Sperme dans la bouche, elle aime le goût du risque, elle croit pas en moi mais veut être sur la liste J'ai qu'un seul amour, c'est la chanson, solitaire, j'n'ai pas d'besoin d'attention Je tire et je tue, tu meurs et c'est tout, t'avais qu'à fermer ta grande gueule Je tire et je fume, j'm'en vais sur la Lune, loin des perquis' à Argenteuil Esprit torturé, douleur intestinale, j'ai avalé méchanceté de l'Homme J'l'ai digéré, j'ai pris le bien du mal, j'me sens comme Adam juste avant la pomme L'absence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours À chaque fois qu'je sors sans prendre des sous, la vie me rappelle que je viens de loin Pique dans le dos tel le sombre hérisson, trahison sponso' par Louboutin J'serre plus de meufs que de mains, le genre masculin, je m'en méfie Trous écartés, genoux fléchis, biatch, j'connais d'jà fin du récit Enfermé dans cellule, je désaoule, j'reprends conscience de mes soucis Dans son vagin, je me défoule, à chaque je t'aime, je me détruis Pour elle, j'suis tout autre chose que Damso, elle voit en moi c'que je n'vois plus Métissé comme touche de piano, entre le vivre et le vécu J'fais un malaise eucharistique, j'suis entre sucré et salé Le diable se cache derrière l'artistique, pour milieu d'la musique, j'étais pas prêt Dieu ne ment jamais Nan, Dieu ne ment jamais Dieu ne ment jamais, yeah Damso SantosVie, FuentesVie, tout est Vie13</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Eh Dem's J'viens pas du ghetto, je n'viens pas des cités donc si j'dois te niquer, j'le ferai seul-tout J'connais des fils de mais j'traîne pas 'vec eux, on s'capte que pour faire du cash une fois ou deux J'crains plus ma vie que ma mort, j'ai perdu des gens et j'en perdrai encore J'parle peu et quand j'l'ouvre, c'est pour dire c'que j'pense d'eux à travers et à tort J'fume pour ne plus m'rappeler de mes rêves, stress et nerfs m'ont fait perdre chevelure Téméraire, des bagarres, j'en ai connu, d'amour et de sperme, j'ai repeint ses lèvres À son haleine, j'savais qu'elle était moche, un verre de Daniel's pour ne voir que ses formes L'amour de la chair n'a pas que bonnes odeurs, j'la prends dans le noir pour ne pas voir ses cornes J'aime la violence et voir le sang qui coule coule Entendre mes ennemis dire pardon, sans leur pardonner Baiser leur meuf en transmettant la chtouille J'suis très méchant quand couilles tu me les casses putain J'pourrais t'égorger, te voir te vider de ton sang, finir mes jours en prison, sans jamais regretter mes actes J'parle tout seul parce que personne sait répondre, Dieu, Satan, enfer et paradis Les pauvres immigrés, les Africains qui prient attendent des miracles mais ne voient que des tombes Oui, j't'ai trompé et cela par ta faute m'a dit cette pute pour qui sentiments j'avais M'a dit cette pute pour qui j'ai tant bavé, m'a dit cette pute pour qui j'n'ai fait que passer Elle voulait la rose mais sans les épines, j'ai perdu du terrain comme en Palestine J'ai disque d'or mais cela grâce aux streams donc jaloux écrivirent tweets hostiles Derrière moi, ils parlèrent, aujourd'hui, gros contrats, je signe, leurs mères, j'niquerai dès que possible Envers faux négros, fausses radios, j'n'aurai jamais d'estime, jamais je ne courbe l'échine Dem's, Vie You might also like Nwaar Is The New Black, j'mets les 9 sur le i, mets l'hashtag sur le Vie, Dem's, Vie Nwaar Is The New Black, j'mets les 9 sur le i, mets l'hashtag sur le Vie, Dem's, Vie42</t>
+          <t>Eh Dem's J'viens pas du ghetto, je n'viens pas des cités donc si j'dois te niquer, j'le ferai seul-tout J'connais des fils de mais j'traîne pas 'vec eux, on s'capte que pour faire du cash une fois ou deux J'crains plus ma vie que ma mort, j'ai perdu des gens et j'en perdrai encore J'parle peu et quand j'l'ouvre, c'est pour dire c'que j'pense d'eux à travers et à tort J'fume pour ne plus m'rappeler de mes rêves, stress et nerfs m'ont fait perdre chevelure Téméraire, des bagarres, j'en ai connu, d'amour et de sperme, j'ai repeint ses lèvres À son haleine, j'savais qu'elle était moche, un verre de Daniel's pour ne voir que ses formes L'amour de la chair n'a pas que bonnes odeurs, j'la prends dans le noir pour ne pas voir ses cornes J'aime la violence et voir le sang qui coule coule Entendre mes ennemis dire pardon, sans leur pardonner Baiser leur meuf en transmettant la chtouille J'suis très méchant quand couilles tu me les casses putain J'pourrais t'égorger, te voir te vider de ton sang, finir mes jours en prison, sans jamais regretter mes actes J'parle tout seul parce que personne sait répondre, Dieu, Satan, enfer et paradis Les pauvres immigrés, les Africains qui prient attendent des miracles mais ne voient que des tombes Oui, j't'ai trompé et cela par ta faute m'a dit cette pute pour qui sentiments j'avais M'a dit cette pute pour qui j'ai tant bavé, m'a dit cette pute pour qui j'n'ai fait que passer Elle voulait la rose mais sans les épines, j'ai perdu du terrain comme en Palestine J'ai disque d'or mais cela grâce aux streams donc jaloux écrivirent tweets hostiles Derrière moi, ils parlèrent, aujourd'hui, gros contrats, je signe, leurs mères, j'niquerai dès que possible Envers faux négros, fausses radios, j'n'aurai jamais d'estime, jamais je ne courbe l'échine Dem's, Vie Nwaar Is The New Black, j'mets les 9 sur le i, mets l'hashtag sur le Vie, Dem's, Vie Nwaar Is The New Black, j'mets les 9 sur le i, mets l'hashtag sur le Vie, Dem's, Vie42</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>On a l'klawi juice Oh, oh, oh Twinsmatic Y'en a pas besef qui font le millier, toi non plus Donne-leur ce qu'ils veulent, ils reviendront plus Tu cuisines, tu bibi rien du tout, tu n'as pas de klawi juice Zehma tu cuisines, tu bibi rien du tout, tu n'as pas de klawi juice On débarque à 113 sur vous bang comme à Camille Groult Le niquage de mère, c'est tout droit négro, y'a pas mille routes J'n'ai jamais cru qu'ils étaient cha-vauds Ils m'ont même pas mis l'doute J'suis 92i, produit du hall, diplômé des meilleures firmes J'ai toujours le mauvais rôle mais je joue que les meilleurs films Pirates, pirates, pirates, savent ce que je n'révèle pas J'préfère ne pas dormir, imagine j'me réveille pas J'vais t'mettre un coup d'pare-choc Tu vas prendre le taureau par les cornes Le Lambo a tellement de chevaux Coup d'première, j'tombe dans les pommes Vingt hippodromes sous le capot La concurrence che-mo comme jamain La concurrence che-mo comme jamain J'fais des claquettes dans un braco You might also like Ouais, ouais, ouais, ouais, ouais Zehma tu baises, tu bibi rien du tout, tu n'as pas de klawi juice On débarque à 113 sur toi bang comme à Camille Groult Laisse un peu d'baggy dans ton slim Gros, tu dis qu'elle est bonne, j'dis qu'elle est mineure, aïe aïe aïe Si j'étais dans Fugees, j'aurais d'jà ken Lauryn Hill Mal à l'aise comme sein de putain qui allaite entre deux clients 'teille de Duc sur fils de pute, ça commence bien Tu rappes dans l'tieks, en vain, t'as pas d'flow donc tu fais l'ancien Pure bitch, j'veux t'ken, discrètement, brusquement, vite fait, j'bande, bouge sur l'gland, j'gicle d'dans Glisse tout l'gland, sur téton, sans pression, sans raison dans l'ivresse du désir, plus d'weed Fume tout l'pax en pers, marche dans l'tieks, rappe sans def', Damso, Dem's, c'est le blaze Plane sur une trompette de jazz, cur fragile qu'elle écrase avec rage Majeur en l'air, sans commentaire, elle m'tournait le dos, j'ai tourné la page Parle de rue, mais rue n't'a pas crédité, j't'ai baisée, j't'ai quittée, je n'sais même pas qui t'es De-De-De-Dem's Ouais, ouais, ouais Zehma tu cuisines, tu bibi rien du tout, tu n'as pas de klawi juice On débarque à 113 sur vous comme à Camille Groult Le niquage de mère, c'est tout droit négro, y a pas mille routes J'n'ai jamais cru qu'ils étaient chauds-bouillants Ils m'ont même pas mis l'doute J'suis 92i, produit du hall, diplômé des meilleures firmes J'ai toujours le mauvais rôle mais je joue que les meilleurs films...19</t>
+          <t>On a l'klawi juice Oh, oh, oh Twinsmatic Y'en a pas besef qui font le millier, toi non plus Donne-leur ce qu'ils veulent, ils reviendront plus Tu cuisines, tu bibi rien du tout, tu n'as pas de klawi juice Zehma tu cuisines, tu bibi rien du tout, tu n'as pas de klawi juice On débarque à 113 sur vous bang comme à Camille Groult Le niquage de mère, c'est tout droit négro, y'a pas mille routes J'n'ai jamais cru qu'ils étaient cha-vauds Ils m'ont même pas mis l'doute J'suis 92i, produit du hall, diplômé des meilleures firmes J'ai toujours le mauvais rôle mais je joue que les meilleurs films Pirates, pirates, pirates, savent ce que je n'révèle pas J'préfère ne pas dormir, imagine j'me réveille pas J'vais t'mettre un coup d'pare-choc Tu vas prendre le taureau par les cornes Le Lambo a tellement de chevaux Coup d'première, j'tombe dans les pommes Vingt hippodromes sous le capot La concurrence che-mo comme jamain La concurrence che-mo comme jamain J'fais des claquettes dans un braco Ouais, ouais, ouais, ouais, ouais Zehma tu baises, tu bibi rien du tout, tu n'as pas de klawi juice On débarque à 113 sur toi bang comme à Camille Groult Laisse un peu d'baggy dans ton slim Gros, tu dis qu'elle est bonne, j'dis qu'elle est mineure, aïe aïe aïe Si j'étais dans Fugees, j'aurais d'jà ken Lauryn Hill Mal à l'aise comme sein de putain qui allaite entre deux clients 'teille de Duc sur fils de pute, ça commence bien Tu rappes dans l'tieks, en vain, t'as pas d'flow donc tu fais l'ancien Pure bitch, j'veux t'ken, discrètement, brusquement, vite fait, j'bande, bouge sur l'gland, j'gicle d'dans Glisse tout l'gland, sur téton, sans pression, sans raison dans l'ivresse du désir, plus d'weed Fume tout l'pax en pers, marche dans l'tieks, rappe sans def', Damso, Dem's, c'est le blaze Plane sur une trompette de jazz, cur fragile qu'elle écrase avec rage Majeur en l'air, sans commentaire, elle m'tournait le dos, j'ai tourné la page Parle de rue, mais rue n't'a pas crédité, j't'ai baisée, j't'ai quittée, je n'sais même pas qui t'es De-De-De-Dem's Ouais, ouais, ouais Zehma tu cuisines, tu bibi rien du tout, tu n'as pas de klawi juice On débarque à 113 sur vous comme à Camille Groult Le niquage de mère, c'est tout droit négro, y a pas mille routes J'n'ai jamais cru qu'ils étaient chauds-bouillants Ils m'ont même pas mis l'doute J'suis 92i, produit du hall, diplômé des meilleures firmes J'ai toujours le mauvais rôle mais je joue que les meilleurs films...19</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yeah, hey J'ai vécu drames et difficultés, misogyne qu'elles disent J'parle des femmes sous Melodyne, hymne national impossible Ban-ban-bang dans le viseur, tant de haine pour si peu d'eu' Choix de thèmes mais j'rappe ce qui traîne dans ma cervelle, je me livre J'suis de ceux qu'on insulte, barrières qu'on m'inflige Toujours le même depuis tit-pe, dans les veines, sang de winners J'crois en Dieu tant qu'mes coups sont des coups de grâce Ces fils de putains ne s'en tireront pas comme ça Numéro un, je le redeviens, j'fais du biff Ma vengeance froide et salée, dans leurs culs, j'me laisse aller J'ai rien dit, j'suis resté zen, mon papa m'partage sa peine Lâché sans hésiter, lynché dans les JT Mais pour l'amour de la SACEM, je fais preuve d'ipséité Y'a plus d'étoiles ce soir dans le ciel, le bruit des balles qui s'parlent entre elles Y'a mort d'homme car j'ai plus d'cur, les fleurs fanent, y'a plus chrysanthèmes En indé', j'ai pas d'congés maladie, sur l'rrain-te comme Edinson Cavani Ma simple présence vaut une Audemars, j'réalise mes rêves et mes cauchemars La vérité est un noir désir car quand elle gifle, elle prend la vie Mais c'est quoi la vie ? Si ce n'est la mort que l'on nous accorde pour être en vie C'est tout ceux en qui nous croyons qui finissent par nous définir Le mensonge est un soulagement qui finit par nous désunir You might also like Mais, quoi qu'il arrive, j'resterai moi-même oh oui Dans mon joint, peu de camel toujours Les fils de putains, je m'en bats les oh oui D'ailleurs, j'ai fait mon premier million million Mais j'ai toujours pas payé les impositions nan, nan, nan J'me d'mande combien ils vont m'retirer retirer Aurais-je assez pour vivre dans bonnes conditions ? nan, nan, nan Ici-bas, je n'fais que moula-la-la-la-la-la-la-la-la-la-la-la moula la-la-la-la Ici-bas, je n'fais que moula-la-la-la-la-la-la-la-la-la-la-la Maman, j'ai fait mon premier million million Mais j'ai toujours pas payé les impositions nan, nan, nan J'me d'mande combien ils vont m'retirer retirer Aurais-je assez pour vivre dans bonnes conditions ? nan, nan, nan Ici-bas, je n'fais que moula-la-la-la-la-la-la-la-la-la-la-la moula-la-la-la-la Ici-bas, je n'fais que moula-la-la-la-la-la-la-la-la-la-la-la TheVie sinon quelle vie ? Quelle vie si c'n'est celle-ci ? De-De-De-Dems27</t>
+          <t>Yeah, hey J'ai vécu drames et difficultés, misogyne qu'elles disent J'parle des femmes sous Melodyne, hymne national impossible Ban-ban-bang dans le viseur, tant de haine pour si peu d'eu' Choix de thèmes mais j'rappe ce qui traîne dans ma cervelle, je me livre J'suis de ceux qu'on insulte, barrières qu'on m'inflige Toujours le même depuis tit-pe, dans les veines, sang de winners J'crois en Dieu tant qu'mes coups sont des coups de grâce Ces fils de putains ne s'en tireront pas comme ça Numéro un, je le redeviens, j'fais du biff Ma vengeance froide et salée, dans leurs culs, j'me laisse aller J'ai rien dit, j'suis resté zen, mon papa m'partage sa peine Lâché sans hésiter, lynché dans les JT Mais pour l'amour de la SACEM, je fais preuve d'ipséité Y'a plus d'étoiles ce soir dans le ciel, le bruit des balles qui s'parlent entre elles Y'a mort d'homme car j'ai plus d'cur, les fleurs fanent, y'a plus chrysanthèmes En indé', j'ai pas d'congés maladie, sur l'rrain-te comme Edinson Cavani Ma simple présence vaut une Audemars, j'réalise mes rêves et mes cauchemars La vérité est un noir désir car quand elle gifle, elle prend la vie Mais c'est quoi la vie ? Si ce n'est la mort que l'on nous accorde pour être en vie C'est tout ceux en qui nous croyons qui finissent par nous définir Le mensonge est un soulagement qui finit par nous désunir Mais, quoi qu'il arrive, j'resterai moi-même oh oui Dans mon joint, peu de camel toujours Les fils de putains, je m'en bats les oh oui D'ailleurs, j'ai fait mon premier million million Mais j'ai toujours pas payé les impositions nan, nan, nan J'me d'mande combien ils vont m'retirer retirer Aurais-je assez pour vivre dans bonnes conditions ? nan, nan, nan Ici-bas, je n'fais que moula-la-la-la-la-la-la-la-la-la-la-la moula la-la-la-la Ici-bas, je n'fais que moula-la-la-la-la-la-la-la-la-la-la-la Maman, j'ai fait mon premier million million Mais j'ai toujours pas payé les impositions nan, nan, nan J'me d'mande combien ils vont m'retirer retirer Aurais-je assez pour vivre dans bonnes conditions ? nan, nan, nan Ici-bas, je n'fais que moula-la-la-la-la-la-la-la-la-la-la-la moula-la-la-la-la Ici-bas, je n'fais que moula-la-la-la-la-la-la-la-la-la-la-la TheVie sinon quelle vie ? Quelle vie si c'n'est celle-ci ? De-De-De-Dems27</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Paris, c'est loin De la Fuentes, ah, ah Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin d'ici, si-si Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin, d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin, d'ici, eh Les jaloux se reconnaissent entre eux, beaucoup d'haineux, beaucoup d'envieux La réussite entraîne la frustration des Hommes, confond travailleur avec chanceux Des nuits blanches à broyer du noir car l'angoisse de la page blanche a fait que je voyais rouge J'en ai vu de toutes les couleurs, ma plume a souvent dû changer d'épouse Amis et frères, y a pas plus dangereux mais moins qu'une femme qui te ment dans les yeux, ça fait partie du jeu J'éternue souvent pour faire un maximum de vux Je fus découvert par B2O, d'insultes, j'fus couvert pour quelques mots, la rime du foulard entre autres J'suis responsable de c'que j'écris, pas de c'que tu comprends du flow, no D.A.M.S.O, qui m'aime me like ou me follow, ça fait partie du flow Vulgaires sont les mots, j'me perds sur les réseaux, à Snapper mon bédo Mon cur est en détresse, peux tout niquer en express Je fais succès mais Paris, c'est loin, d'ici, si-si You might also like Batterie Faible Veuillez la recharger Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rate-pi énervé, j'ai au bout du fil, tu passes par la porte à la Oncle Phil Biatch, tu passes par la porte à la Oncle Phil J'fais passer mallette comme à Libreville J'te conseille de tracer un chemin plus court, le nez d'Amy Whinehouse sait de quoi je parle La cloison nasale à feu et à sang, séchée, rosée comme un jambon de Parme Très tôt déjà, j'ai connu le racisme en primaire Valérie avait peur du Noir Mais ne parlait pas de lumière, les mots sont des lames qui aiguisent haine et colère Liberté d'expression est plus efficace que censure, humoriste traqué par C.R.S, rappeur flingué dans une voiture 2Pac Forces de l'ordre font bavures, texte résiste aux ratures Solidaire comme Dame Nature, dans mon cercueil, ils me chanteront On n'est pas tout seul de Gradur Ma fille, des fois, j'aimerais voler tes yeux, pour voir le monde tel qu'il ne l'est pas Les souvenirs de naissance en nonante-deux, quatre-vingt douze, pour Français qui n'y étaient pas Dans la vie, contrairement aux échecs, la partie continue après échec et mat, disait-il aussi Je fais succès mais bon, Paris, c'est loin, d'ici, si-si Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rat-pi énervé, j'ai au bout du fil, tu passes par la porte à la Uncle Phil Biatch, tu passes par la porte à la Uncle Phil J'fais passer mallette comme à Libreville Paris, c'est loin, Paris, c'est loin, d'ici Paris, c'est loin, Paris, c'est loin, d'ici, si-si25</t>
+          <t>Paris, c'est loin De la Fuentes, ah, ah Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin d'ici, si-si Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin, d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin, d'ici, eh Les jaloux se reconnaissent entre eux, beaucoup d'haineux, beaucoup d'envieux La réussite entraîne la frustration des Hommes, confond travailleur avec chanceux Des nuits blanches à broyer du noir car l'angoisse de la page blanche a fait que je voyais rouge J'en ai vu de toutes les couleurs, ma plume a souvent dû changer d'épouse Amis et frères, y a pas plus dangereux mais moins qu'une femme qui te ment dans les yeux, ça fait partie du jeu J'éternue souvent pour faire un maximum de vux Je fus découvert par B2O, d'insultes, j'fus couvert pour quelques mots, la rime du foulard entre autres J'suis responsable de c'que j'écris, pas de c'que tu comprends du flow, no D.A.M.S.O, qui m'aime me like ou me follow, ça fait partie du flow Vulgaires sont les mots, j'me perds sur les réseaux, à Snapper mon bédo Mon cur est en détresse, peux tout niquer en express Je fais succès mais Paris, c'est loin, d'ici, si-si Batterie Faible Veuillez la recharger Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rate-pi énervé, j'ai au bout du fil, tu passes par la porte à la Oncle Phil Biatch, tu passes par la porte à la Oncle Phil J'fais passer mallette comme à Libreville J'te conseille de tracer un chemin plus court, le nez d'Amy Whinehouse sait de quoi je parle La cloison nasale à feu et à sang, séchée, rosée comme un jambon de Parme Très tôt déjà, j'ai connu le racisme en primaire Valérie avait peur du Noir Mais ne parlait pas de lumière, les mots sont des lames qui aiguisent haine et colère Liberté d'expression est plus efficace que censure, humoriste traqué par C.R.S, rappeur flingué dans une voiture 2Pac Forces de l'ordre font bavures, texte résiste aux ratures Solidaire comme Dame Nature, dans mon cercueil, ils me chanteront On n'est pas tout seul de Gradur Ma fille, des fois, j'aimerais voler tes yeux, pour voir le monde tel qu'il ne l'est pas Les souvenirs de naissance en nonante-deux, quatre-vingt douze, pour Français qui n'y étaient pas Dans la vie, contrairement aux échecs, la partie continue après échec et mat, disait-il aussi Je fais succès mais bon, Paris, c'est loin, d'ici, si-si Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rat-pi énervé, j'ai au bout du fil, tu passes par la porte à la Uncle Phil Biatch, tu passes par la porte à la Uncle Phil J'fais passer mallette comme à Libreville Paris, c'est loin, Paris, c'est loin, d'ici Paris, c'est loin, Paris, c'est loin, d'ici, si-si25</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Eh, entre les guiboles d'une mineure aux traits tirés Ses lèvres d'en bas sont atteintes de leucorrhées Julien les aime fragiles pour l'innocenter Julien les aime fragiles, pouvoir tout tenter Taille de pénis méprisée par mère nature S'est vu devenir la risée du monde adulte Boulot ordinaire derrière ordi', carte mère Pornographie infantile en sauvegarde temporaire Excité dans tous les milieux, fort étriqué, brimé Et ennuyeux, souillé, contagieux Aime les mômes mais les mômes l'aiment pour c'qu'il n'est pas Ou l'aiment pour c'qu'il sera qu'après verge mouillée Du dur au moelleux, les retombées, les remords De ses actes peu sages s'impriment sur son visage Un livre sans pages, une morale à deux francs cinquante Le prépuce venimeux et la peau luisante Enfermé par les dogmes et code sociétal Cloisonné par l'effort d'être ce qu'il n'est pas Amour autoritaire aux sentiments effacés Aimant dépuceler fillette pré-pubère Fais le vide Mmh, fais le vide Tutututu Il fait le vide, Julien aime les gosses Aouh Fais le vide Palapapapalala, fais le vide Palapapapalala Il fait le vide, Julien aime les gosses You might also like - Bonjour - Bonjour - Vous allez bien ? - Oui, ça va - Comment v'vous appelez ? - J'm'appelle Julien - Hun Incompris mais comprend qu'on n'pourra le comprendre, insomnies récurrentes, pense à c'que les gens pensent Julien vit ses vices et sévit sans se faire prendre Julien crise, crie et s'écrie pour s'faire entendre Hôpitaux réputés, psychologues marginaux Séances aux montants faramineux, plein Paris Nord Aime les gens mais les gens l'aiment pour c'qu'il n'est pas Constamment dans la gêne causée par ses torts Julien c'est ton voisin, Julien c'est ton mari Oui Julien c'est sûrement l'autre, Julien c'est sûrement lui Oui Caméléon dans la nature, erreur de dramaturge En costume-cravate dans un bureau sans vie Quelle vie vit-on quand on n'a pas la vie qu'on veut ? Qui sommes-nous quand on n'peut être que c'que l'on peut ? Enfermés par les dogmes et code sociétal Cloisonnés par l'effort d'être ce qu'on n'est pas Y a-t-il une médecine, une science pour c'que l'on rejette ? Y a-t-il une vitrine, une fente ou un bout d'fenêtre ? Personne se connait mais tout l'monde prétend connaître l'autre Une erreur de la nature, à qui la faute ? Fais le vide Mmh, fais le vide Tutututu Il fait le vide, Julien aime les gosses Aouh Fais le vide palapapapalala, fais le vide Palapapapalala Il fait le vide, Julien aime les gosses Aouh Fais le vide Palapapapalala, fais le vide Palapapapalala Il fait le vide, Julien aime les gosses Palapapapalala, palapapapalala Fais le vide, Julien aime les gosses Aouh Fais le vide22</t>
+          <t>Eh, entre les guiboles d'une mineure aux traits tirés Ses lèvres d'en bas sont atteintes de leucorrhées Julien les aime fragiles pour l'innocenter Julien les aime fragiles, pouvoir tout tenter Taille de pénis méprisée par mère nature S'est vu devenir la risée du monde adulte Boulot ordinaire derrière ordi', carte mère Pornographie infantile en sauvegarde temporaire Excité dans tous les milieux, fort étriqué, brimé Et ennuyeux, souillé, contagieux Aime les mômes mais les mômes l'aiment pour c'qu'il n'est pas Ou l'aiment pour c'qu'il sera qu'après verge mouillée Du dur au moelleux, les retombées, les remords De ses actes peu sages s'impriment sur son visage Un livre sans pages, une morale à deux francs cinquante Le prépuce venimeux et la peau luisante Enfermé par les dogmes et code sociétal Cloisonné par l'effort d'être ce qu'il n'est pas Amour autoritaire aux sentiments effacés Aimant dépuceler fillette pré-pubère Fais le vide Mmh, fais le vide Tutututu Il fait le vide, Julien aime les gosses Aouh Fais le vide Palapapapalala, fais le vide Palapapapalala Il fait le vide, Julien aime les gosses - Bonjour - Bonjour - Vous allez bien ? - Oui, ça va - Comment v'vous appelez ? - J'm'appelle Julien - Hun Incompris mais comprend qu'on n'pourra le comprendre, insomnies récurrentes, pense à c'que les gens pensent Julien vit ses vices et sévit sans se faire prendre Julien crise, crie et s'écrie pour s'faire entendre Hôpitaux réputés, psychologues marginaux Séances aux montants faramineux, plein Paris Nord Aime les gens mais les gens l'aiment pour c'qu'il n'est pas Constamment dans la gêne causée par ses torts Julien c'est ton voisin, Julien c'est ton mari Oui Julien c'est sûrement l'autre, Julien c'est sûrement lui Oui Caméléon dans la nature, erreur de dramaturge En costume-cravate dans un bureau sans vie Quelle vie vit-on quand on n'a pas la vie qu'on veut ? Qui sommes-nous quand on n'peut être que c'que l'on peut ? Enfermés par les dogmes et code sociétal Cloisonnés par l'effort d'être ce qu'on n'est pas Y a-t-il une médecine, une science pour c'que l'on rejette ? Y a-t-il une vitrine, une fente ou un bout d'fenêtre ? Personne se connait mais tout l'monde prétend connaître l'autre Une erreur de la nature, à qui la faute ? Fais le vide Mmh, fais le vide Tutututu Il fait le vide, Julien aime les gosses Aouh Fais le vide palapapapalala, fais le vide Palapapapalala Il fait le vide, Julien aime les gosses Aouh Fais le vide Palapapapalala, fais le vide Palapapapalala Il fait le vide, Julien aime les gosses Palapapapalala, palapapapalala Fais le vide, Julien aime les gosses Aouh Fais le vide22</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tu m'dis quand t'es prêt, hein ? Saal Ah oui, oui, oui Pyroman Ah oui, oui, oui Oui Pas d'direction, j'connais qu'la flèche de mon oint-j Motivation sang de fils de pute sur mon linge Fils de putain J'connais la chanson Sales négros, rentrez chez vous Billets de cinq cents Sales négros, bienvenue chez nous Bienvenue chez nous ouais J'suis plus dans l'tier-quar, Castelo de São Jorge J'tire sur un pétard, c'est la violence, maux de gorge Mal à la tête J'ai quitté l'terrain, Dealeur, parfois tu nous manques A dit la putain que j'baise pour un G d'Hollande Pris dans la schnek C'est toujours Dems, négro, qu'importe, c'est toujours Dems C'est toujours lui Même dans la dèche, on s'en sort, thon, pâtes, crème fraîche Oui, je connais Ça tire la nuit, ça tire l'après-m', ça tire le jour C'est bang bang bang Tellement de guerres, mon peuple est mort, à qui le tour ? Ouais Ouais Si y a bien une chose que j'sais faire c'est niquer des mères Oui Gousse d'herbe et un Dom Pér' pour calmer les nerfs Oui J'crois pas qu'ton boule f'ra l'affaire, ta bouche peut le faire Oui Jambes en l'air involontaires, moula, billets verts Tu connais Oseille, ouais Saal You might also like Les hommes mentent mais pas la trique, viens, j'vais t'dire la vérité Oui Prends exemple sur ma bite, noire et prête à tout niquer Saal Ça s'ra toujours pour le fric, dis pas J't'aime pour c'que t'es Jamais Le succès, c'est quand les flics t'arrêtent que pour discuter Oui Un selfie, salut, j'y vais, cul bronzé c'pas les UV Trois cent mille eu', je me tâte, Lambo' ou l'immobilier Oui À jamais, j'me ferai leaker, j'finirai comme l'infinité Oh De gosse de riche à la rue, y a qu'la taule qu'j'ai su éviter Toujours là à faire la pute mais rien dans l'intimité J'monte de level dans les nudes, j'en r'çois de comptes certifiés Faire du saal un tantinet, tout est noir donc tout y est Tout est noir donc tout y est, eh Ouais Si y a bien une chose que j'sais faire c'est niquer des mères Oui Gousse d'herbe et un Dom Pér' pour calmer les nerfs Oui J'crois pas qu'ton boule f'ra l'affaire, ta bouche peut le faire Oui Jambes en l'air involontaires, moula, billets verts Tu connais Oseille, hey Saal Jambes en l'air involontaires, moula, billets verts Oseille, ouais C'est bon C'est toujours Dems26</t>
+          <t>Tu m'dis quand t'es prêt, hein ? Saal Ah oui, oui, oui Pyroman Ah oui, oui, oui Oui Pas d'direction, j'connais qu'la flèche de mon oint-j Motivation sang de fils de pute sur mon linge Fils de putain J'connais la chanson Sales négros, rentrez chez vous Billets de cinq cents Sales négros, bienvenue chez nous Bienvenue chez nous ouais J'suis plus dans l'tier-quar, Castelo de São Jorge J'tire sur un pétard, c'est la violence, maux de gorge Mal à la tête J'ai quitté l'terrain, Dealeur, parfois tu nous manques A dit la putain que j'baise pour un G d'Hollande Pris dans la schnek C'est toujours Dems, négro, qu'importe, c'est toujours Dems C'est toujours lui Même dans la dèche, on s'en sort, thon, pâtes, crème fraîche Oui, je connais Ça tire la nuit, ça tire l'après-m', ça tire le jour C'est bang bang bang Tellement de guerres, mon peuple est mort, à qui le tour ? Ouais Ouais Si y a bien une chose que j'sais faire c'est niquer des mères Oui Gousse d'herbe et un Dom Pér' pour calmer les nerfs Oui J'crois pas qu'ton boule f'ra l'affaire, ta bouche peut le faire Oui Jambes en l'air involontaires, moula, billets verts Tu connais Oseille, ouais Saal Les hommes mentent mais pas la trique, viens, j'vais t'dire la vérité Oui Prends exemple sur ma bite, noire et prête à tout niquer Saal Ça s'ra toujours pour le fric, dis pas J't'aime pour c'que t'es Jamais Le succès, c'est quand les flics t'arrêtent que pour discuter Oui Un selfie, salut, j'y vais, cul bronzé c'pas les UV Trois cent mille eu', je me tâte, Lambo' ou l'immobilier Oui À jamais, j'me ferai leaker, j'finirai comme l'infinité Oh De gosse de riche à la rue, y a qu'la taule qu'j'ai su éviter Toujours là à faire la pute mais rien dans l'intimité J'monte de level dans les nudes, j'en r'çois de comptes certifiés Faire du saal un tantinet, tout est noir donc tout y est Tout est noir donc tout y est, eh Ouais Si y a bien une chose que j'sais faire c'est niquer des mères Oui Gousse d'herbe et un Dom Pér' pour calmer les nerfs Oui J'crois pas qu'ton boule f'ra l'affaire, ta bouche peut le faire Oui Jambes en l'air involontaires, moula, billets verts Tu connais Oseille, hey Saal Jambes en l'air involontaires, moula, billets verts Oseille, ouais C'est bon C'est toujours Dems26</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ce soir, j'me mets minable, pourquoi j'me fais si mal ? J'ai fait des rêves bizarres où tu changeais d'visage J'ai pas qu'des belles histoires, j'passe plus d'vant les miroirs J'ai fait des rêves bizarres, des trucs qui s'expliquent pas Hey, hey J'l'ai chanté donc c'est vrai, j'mets les pieds dans l'respect J'ai tourné tout l'été, ta pétasse tournait tout l'été Ton bébé n'est qu'une pute, vous m'aimez mais j'm'aime plus Qu'est c'qu'on fait ? Laisse tomber, laisse tomb-laisse, tomb-laisse Tout l'monde m'a dit d'laisser tomber mais pourtant, j'suis toujours là La méchanceté est gratuite, c'est fou qu'on touche des sous pour ça Étoiles dans les yeux, shinobi, j'essaye de remplacer Johnny Pourquoi t'as la tête qui grossit ? T'as dû chopper une trisomie Soupe miso, joues l'idiot, sous hypnose, oublie l'eau J'déménageais tous les ans, je sais juste être le p'tit nouveau, oh Les types te trahissent, reviennent en full détente, Ray-Ban, short et claquettes à ton enterrement Société bancale, normaux dans la déviance, j'fais l'contraire de c'que tu fais tu m'sers d'exemple Bien sûr, j'suis méfiant, ça rajoute j'plaisante juste après avoir avoué c'qu'ils pensent vraiment Rappelle-toi qui tu snobais quand tu montais, c'est les mêmes que tu croiseras dans la descente M'prends pas la tête avec trop d'mots, ceux qui te streament sont des robots Mon seul adversaire, c'est l'chrono', qui m'aimera encore, qui m'aimera encore, qui m'aimera encore à l'hosto ? J'suis mort, éteignez la GoPro, Nwaar, San, Dems Hey, hey, hey You might also like Ce soir, j'me mets minable, pourquoi j'me fais si mal ? J'ai fait des rêves bizarres où tu changeais d'visage J'ai pas qu'des belles histoires, j'passe plus d'vant les miroirs J'ai fait des rêves bizarres, Ouais des trucs qui s'expliquent pas C'est qu'une mise en abyme de mes péchés morts mais sans décès, sors Toujours pressé d'or dans un déchet de corps, épuisé par la drogue féminine, rappeur connu, être humain anonyme J'sors pour m'en sortir, baise pour pouvoir aimer, manque dendorphine, mon cur veut s'arrêter Le sale est maritime car la mer est niquée, sans dogmes et doctrines, croyances divines, minimum Zéro euro pour beaucoup d'effort, beaucoup d'mots pour si peu de force Beaucoup d'Si, si, ouais, ouais la famille, on est là, on soutient, nique ta mère et crache sur tes morts Beaucoup d'lâches et de faux négros, déçu par mes proches Déçu par mes parents, déçu par mes idoles, j'ai juste compris qu'la vie n'est qu'une façon de voir les choses Si peu de choix pour tellement de causes et de conséquences, je ne vis que en plans séquences Surpris même quand c'est dense, insomniaque comme un ambulancier Du cash mais sans plan financier, du black ou un contrat indéterminé mais sans déterminant On t'l'enfonce comme un Perdolan, ma bite, mon fer de lance, faire lamour sans intervenant, par la pensée Confiance et confidences sensées, cest écrit noir sur blanc que le blanc, cest Mieux qu'le noir car le noir, il est foncé, le racisme depuis Jésus blanchi Pourtant cheveux laineux, pieds de bronze, comme quoi les écrits nont plus de sens Ou bien cest le sens quon a déconstruit, sale, sale, sale J'croise un mannequin de la Croisette, dans sa shnek, j'f'rai la causette Comme un air de Juliette Odette, dans les airs des coupures violettes J'rêve dune salope un peu Paris-Hiltonienne, j'préfère quand elles ont plus de moula que moi On te tabasse, toi et ta baby mama juste pour être sûr qutu f'ras pas ton Montana Jamais nous nr'signerons sauf si ça parle en millions Jamais, jamais De diamant, nous brillons le canon, nous scions, du sale nous vivons Dems, sale, San, Nwaar Ce soir, j'me mets minable, pourquoi j'me fais si mal ? J'ai fait des rêves bizarres où tu changeais d'visage J'ai pas qu'des belles histoires, j'passe plus d'vant les miroirs J'ai fait des rêves bizarres, des trucs qui s'expliquent pas Hey, hey Hey, hey, hey23</t>
+          <t>Ce soir, j'me mets minable, pourquoi j'me fais si mal ? J'ai fait des rêves bizarres où tu changeais d'visage J'ai pas qu'des belles histoires, j'passe plus d'vant les miroirs J'ai fait des rêves bizarres, des trucs qui s'expliquent pas Hey, hey J'l'ai chanté donc c'est vrai, j'mets les pieds dans l'respect J'ai tourné tout l'été, ta pétasse tournait tout l'été Ton bébé n'est qu'une pute, vous m'aimez mais j'm'aime plus Qu'est c'qu'on fait ? Laisse tomber, laisse tomb-laisse, tomb-laisse Tout l'monde m'a dit d'laisser tomber mais pourtant, j'suis toujours là La méchanceté est gratuite, c'est fou qu'on touche des sous pour ça Étoiles dans les yeux, shinobi, j'essaye de remplacer Johnny Pourquoi t'as la tête qui grossit ? T'as dû chopper une trisomie Soupe miso, joues l'idiot, sous hypnose, oublie l'eau J'déménageais tous les ans, je sais juste être le p'tit nouveau, oh Les types te trahissent, reviennent en full détente, Ray-Ban, short et claquettes à ton enterrement Société bancale, normaux dans la déviance, j'fais l'contraire de c'que tu fais tu m'sers d'exemple Bien sûr, j'suis méfiant, ça rajoute j'plaisante juste après avoir avoué c'qu'ils pensent vraiment Rappelle-toi qui tu snobais quand tu montais, c'est les mêmes que tu croiseras dans la descente M'prends pas la tête avec trop d'mots, ceux qui te streament sont des robots Mon seul adversaire, c'est l'chrono', qui m'aimera encore, qui m'aimera encore, qui m'aimera encore à l'hosto ? J'suis mort, éteignez la GoPro, Nwaar, San, Dems Hey, hey, hey Ce soir, j'me mets minable, pourquoi j'me fais si mal ? J'ai fait des rêves bizarres où tu changeais d'visage J'ai pas qu'des belles histoires, j'passe plus d'vant les miroirs J'ai fait des rêves bizarres, Ouais des trucs qui s'expliquent pas C'est qu'une mise en abyme de mes péchés morts mais sans décès, sors Toujours pressé d'or dans un déchet de corps, épuisé par la drogue féminine, rappeur connu, être humain anonyme J'sors pour m'en sortir, baise pour pouvoir aimer, manque dendorphine, mon cur veut s'arrêter Le sale est maritime car la mer est niquée, sans dogmes et doctrines, croyances divines, minimum Zéro euro pour beaucoup d'effort, beaucoup d'mots pour si peu de force Beaucoup d'Si, si, ouais, ouais la famille, on est là, on soutient, nique ta mère et crache sur tes morts Beaucoup d'lâches et de faux négros, déçu par mes proches Déçu par mes parents, déçu par mes idoles, j'ai juste compris qu'la vie n'est qu'une façon de voir les choses Si peu de choix pour tellement de causes et de conséquences, je ne vis que en plans séquences Surpris même quand c'est dense, insomniaque comme un ambulancier Du cash mais sans plan financier, du black ou un contrat indéterminé mais sans déterminant On t'l'enfonce comme un Perdolan, ma bite, mon fer de lance, faire lamour sans intervenant, par la pensée Confiance et confidences sensées, cest écrit noir sur blanc que le blanc, cest Mieux qu'le noir car le noir, il est foncé, le racisme depuis Jésus blanchi Pourtant cheveux laineux, pieds de bronze, comme quoi les écrits nont plus de sens Ou bien cest le sens quon a déconstruit, sale, sale, sale J'croise un mannequin de la Croisette, dans sa shnek, j'f'rai la causette Comme un air de Juliette Odette, dans les airs des coupures violettes J'rêve dune salope un peu Paris-Hiltonienne, j'préfère quand elles ont plus de moula que moi On te tabasse, toi et ta baby mama juste pour être sûr qutu f'ras pas ton Montana Jamais nous nr'signerons sauf si ça parle en millions Jamais, jamais De diamant, nous brillons le canon, nous scions, du sale nous vivons Dems, sale, San, Nwaar Ce soir, j'me mets minable, pourquoi j'me fais si mal ? J'ai fait des rêves bizarres où tu changeais d'visage J'ai pas qu'des belles histoires, j'passe plus d'vant les miroirs J'ai fait des rêves bizarres, des trucs qui s'expliquent pas Hey, hey Hey, hey, hey23</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fuck it's easy J'suis dans le sex club, def' comme Nate Dogg La bitch fait du pole-dance sur un son dance-hall Vitrine enfumée de weed Vitrine en feu J'suis dans le sex club, def' comme Nate Dogg La bitch fait du pole-dance sur un son dance-hall Vitrine enfumée de weed Vitrine en feu Triste vie, derrière vitrine, triste vie Triste vie, derrière vitrine, triste vie Souviens-toi quand t'étais moche, personne voulait d'toi Tu ne faisais que sucer des bites, t'as bu l'sperme de toute l'équipe Aujourdhui, tu fais ta gueule, t'as refait ton cul squelettique Charnelle est la gymnastique J'suis dans le hood, hood, j'fais que fumer des spliffs J'encule la morale et l'éthique J'suis sans manière, dans sa schneck, j'y mets formes géométriques Police sur bande kilométrique Y'a ceux qui ont le barreau, y'a ceux qu'ont la barrette de shit Et ceux qui nous dénoncent aux flics Intouchable comme la chatte sidatique d'une bitch Oh non, yeah, j'ai de la beuh pour toi, un peu d'O.G. pour toi Un peu de lean pour toi, legging en sueur, elle mouille Suce-moi la teub au lieu d'casser les couilles, pute V-A-L-D-A-M-So, quelques pussy dans le bando J'te-ma sa puterie dans l'benzo Triste vie, vitrine enfumée de bédo J'fume ce pli, Dem's, Dem's You might also like Triste vie, derrière vitrine, triste vie Triste vie, derrière vitrine, triste vie J'suis dans le sex club, def' comme Nate Dogg La bitch fait du pole-dance sur un son dance-hall Vitrine enfumée de weed Vitrine en feu Voiture bélier dans les charts, j'ai plié l'capot Comme y'avait pas d'porte ouverte, j'ai pété l'carreau Laisser K.O. ses séquelles, lui font péter l'tarot Derrière vitrine comme derrière barreau, derrière vitrine comme derrière barreau Salope sur son 31 Pour sursaut dans ses reins Le néon éclaire sa plastique, et son cur en étain Les jambes toujours plus ouvertes comme rappeur en déclin Tes gens me parlent, dis-leur d'arrêter J'tire des grandes barres d'eucalyptus Elle sort ses seins mais va rien allaiter Elle sent le cul et l'beurre de karité Ce rap est sale, c'est pas d'la variété Ou bien d'la sorcellerie, faut les Garcimorer Toutes ces garces mijaurées, maxi promo surpasse la qualité Sacrifice de bébé dans berceau alité Peut faire de toi une personnalité J'tire sur le joint comme un enfant déscolarisé Et sur ton équipe de tchoins désolidarisées Jamais, Ô grand jamais, je ne peux pas C'est très souvent l'affaire de deux doigts J'suis devant toi mais, pourtant, tu n'es pas prêt de me voir V-A-L-Damso, Seezy pour signer l'homicide, embuer les vitres de ton domicile Un jour t'es contre, un jour t'es avec, j'te vois comme Al-Qaïda Un jour sur deux, j'ai envie d'péter la vitrine de BNP Paribas Alcool et shit dans mon alliage Le fond, la forme, je suis l'mariage Aucune action du genre admirable Population du genre à l'image de Dieu qui danse la Macarena J'sors d'une ke-schne comme d'un marécage Le cur et la bite sont trop maniables La querelle s'invite sur la capitale Kamikaze navigue comme Qatari à Ris-Pa J'roule Marie-Jeanne sans cocaïna J'cours après le temps et l'ocarina Derrière les vitres teintées, je m'souviens d'l'anonymat J'suis dans le sex club, def' comme Nate Dogg La bitch fait du pole-dance sur un son dance-hall Vitrine enfumée de weed Vitrine en feu J'suis dans le sex club, def' comme Nate Dogg La bitch fait du pole-dance sur un son dance-hall Vitrine enfumée de weed Vitrine en feu Triste vie, derrière vitrine, triste vie Triste vie, derrière vitrine, triste vie14</t>
+          <t>Fuck it's easy J'suis dans le sex club, def' comme Nate Dogg La bitch fait du pole-dance sur un son dance-hall Vitrine enfumée de weed Vitrine en feu J'suis dans le sex club, def' comme Nate Dogg La bitch fait du pole-dance sur un son dance-hall Vitrine enfumée de weed Vitrine en feu Triste vie, derrière vitrine, triste vie Triste vie, derrière vitrine, triste vie Souviens-toi quand t'étais moche, personne voulait d'toi Tu ne faisais que sucer des bites, t'as bu l'sperme de toute l'équipe Aujourdhui, tu fais ta gueule, t'as refait ton cul squelettique Charnelle est la gymnastique J'suis dans le hood, hood, j'fais que fumer des spliffs J'encule la morale et l'éthique J'suis sans manière, dans sa schneck, j'y mets formes géométriques Police sur bande kilométrique Y'a ceux qui ont le barreau, y'a ceux qu'ont la barrette de shit Et ceux qui nous dénoncent aux flics Intouchable comme la chatte sidatique d'une bitch Oh non, yeah, j'ai de la beuh pour toi, un peu d'O.G. pour toi Un peu de lean pour toi, legging en sueur, elle mouille Suce-moi la teub au lieu d'casser les couilles, pute V-A-L-D-A-M-So, quelques pussy dans le bando J'te-ma sa puterie dans l'benzo Triste vie, vitrine enfumée de bédo J'fume ce pli, Dem's, Dem's Triste vie, derrière vitrine, triste vie Triste vie, derrière vitrine, triste vie J'suis dans le sex club, def' comme Nate Dogg La bitch fait du pole-dance sur un son dance-hall Vitrine enfumée de weed Vitrine en feu Voiture bélier dans les charts, j'ai plié l'capot Comme y'avait pas d'porte ouverte, j'ai pété l'carreau Laisser K.O. ses séquelles, lui font péter l'tarot Derrière vitrine comme derrière barreau, derrière vitrine comme derrière barreau Salope sur son 31 Pour sursaut dans ses reins Le néon éclaire sa plastique, et son cur en étain Les jambes toujours plus ouvertes comme rappeur en déclin Tes gens me parlent, dis-leur d'arrêter J'tire des grandes barres d'eucalyptus Elle sort ses seins mais va rien allaiter Elle sent le cul et l'beurre de karité Ce rap est sale, c'est pas d'la variété Ou bien d'la sorcellerie, faut les Garcimorer Toutes ces garces mijaurées, maxi promo surpasse la qualité Sacrifice de bébé dans berceau alité Peut faire de toi une personnalité J'tire sur le joint comme un enfant déscolarisé Et sur ton équipe de tchoins désolidarisées Jamais, Ô grand jamais, je ne peux pas C'est très souvent l'affaire de deux doigts J'suis devant toi mais, pourtant, tu n'es pas prêt de me voir V-A-L-Damso, Seezy pour signer l'homicide, embuer les vitres de ton domicile Un jour t'es contre, un jour t'es avec, j'te vois comme Al-Qaïda Un jour sur deux, j'ai envie d'péter la vitrine de BNP Paribas Alcool et shit dans mon alliage Le fond, la forme, je suis l'mariage Aucune action du genre admirable Population du genre à l'image de Dieu qui danse la Macarena J'sors d'une ke-schne comme d'un marécage Le cur et la bite sont trop maniables La querelle s'invite sur la capitale Kamikaze navigue comme Qatari à Ris-Pa J'roule Marie-Jeanne sans cocaïna J'cours après le temps et l'ocarina Derrière les vitres teintées, je m'souviens d'l'anonymat J'suis dans le sex club, def' comme Nate Dogg La bitch fait du pole-dance sur un son dance-hall Vitrine enfumée de weed Vitrine en feu J'suis dans le sex club, def' comme Nate Dogg La bitch fait du pole-dance sur un son dance-hall Vitrine enfumée de weed Vitrine en feu Triste vie, derrière vitrine, triste vie Triste vie, derrière vitrine, triste vie14</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Ouais Hehehe, hehehe Hehehe Non, j'suis fatigué Ah non, j'suis fatigué On s'est promis de s'aimer pour la vie mais j'suis fatigué Oh la la, j'suis dépassé, mon cur a trop dépensé Je sais que j'ai pas qu'des qualités Cagoulé, j'vois les grand-mères paniquer Cur noir comme un soninké Oh la la, j'suis fatigué Dangereux mobali, dangereux mobali, yeah Dangereux mobali Dangereux mobali, dangereux mobali, yeah Dangereux mobali Dangereux mobali Dangereux mobali Dangereux mobali, yeah Dangereux mobali Dangereux mobali Dangereux mobali Dangereux mobali, yeah J'ai quitté mon père, j'ai quitté ma mère pour vivre mon rêve, un rêve de merde Car rêver c'est bien mais bon l'argent c'est mieux, oui, donc, pour bien faire, j'ai dû faire les deux Donc, j'ai rappé, j'ai rappé, j'ai kické le mic, j'ai clippé, j'ai clippé, accumulé les likes J'ai taffé, j'ai taffé, j'ai dealé d'la weed, j'ai tisé, j'ai tisé, j'ai même pris d'la lean J'étais complètement fucked up, turn up, Damso, mo' fucking Dem's Drogué fût grand tox', trop d'clopes, weed, blunt, Jack honey, déf' Big up aux millions, na na na, j'ai pas qu'son soutif, han, nan nan nan La mort dans mes visions, souvenir de guerre, vécu de migrant You might also like On s'est promis de s'aimer pour la vie mais j'suis fatigué Oh la la, j'suis dépassé, mon cur a trop dépensé Je sais que j'ai pas qu'des qualités Cagoulé, j'vois les grand-mères paniquer Cur noir comme un soninké Oh la la, j'suis fatigué Dangereux mobali, dangereux mobali, yeahDangereux mobali Dangereux mobali, dangereux mobali, yeahDangereux mobali Dangereux mobali Dangereux mobali Dangereux mobali, yeah Dangereux mobali Dangereux mobali Dangereux mobali Dangereux mobali, yeah Au fond d'la boîte, j'suis défoncé, chérie na ngai, chérie na ngai J'ai bu toute la bouteille, chérie na ngai, chérie na ngai J'voulais faire avec toi des bana kitoko Chérie, des bana kitoko Mais j'ai des problèmes et des soucis sur l'té-cô Je te l'avoue, ma vie n'est pas kitoko Dangereux mobali, yeah Négro j'm'en bats les yeuks Dangereux mobali, yeah Négro j'm'en bats les yeuks J'voulais faire avec toi des bana kitoko Chérie, des bana kitoko Mais j'ai des problèmes et des soucis sur l'té-cô Je te l'avoue, ma vie n'est pas kitoko Génocides sur génocides, mama Africa perd tous ses enfants Boko Haram n'a pas d'âme, à ce rythme-là personne vivra longtemps Délit d'faciès par des fascistes, j'vise le sommet comme un perchiste J'suis toujours dans l'fond du binks, taffer plus pour gagner moins, Je m'en fiche-iste, non Noir c'est noir, reste leur idéologie Luther King, X en ont fait des récits Nos présidents sont des dictateurs, dangereux mobali Mon sentiment canon est ta sur et c'est pour la vie ? On s'est promis de s'aimer pour la vie mais j'suis fatigué Oh la la, j'suis dépassé, mon cur a trop dépensé Je sais que j'ai pas qu'des qualités Cagoulé, j'vois les grand-mères paniquer Cur noir comme un soninké, Oh la la, j'suis fatigué Dangereux mobali, dangereux mobali, yeah Dangereux mobali Dangereux mobali, dangereux mobali, yeah Dangereux mobali Dangereux mobali Dangereux mobali Dangereux mobali, yeah Dangereux mobali Dangereux mobali Dangereux mobali Dangereux mobali6</t>
+          <t>Ouais Hehehe, hehehe Hehehe Non, j'suis fatigué Ah non, j'suis fatigué On s'est promis de s'aimer pour la vie mais j'suis fatigué Oh la la, j'suis dépassé, mon cur a trop dépensé Je sais que j'ai pas qu'des qualités Cagoulé, j'vois les grand-mères paniquer Cur noir comme un soninké Oh la la, j'suis fatigué Dangereux mobali, dangereux mobali, yeah Dangereux mobali Dangereux mobali, dangereux mobali, yeah Dangereux mobali Dangereux mobali Dangereux mobali Dangereux mobali, yeah Dangereux mobali Dangereux mobali Dangereux mobali Dangereux mobali, yeah J'ai quitté mon père, j'ai quitté ma mère pour vivre mon rêve, un rêve de merde Car rêver c'est bien mais bon l'argent c'est mieux, oui, donc, pour bien faire, j'ai dû faire les deux Donc, j'ai rappé, j'ai rappé, j'ai kické le mic, j'ai clippé, j'ai clippé, accumulé les likes J'ai taffé, j'ai taffé, j'ai dealé d'la weed, j'ai tisé, j'ai tisé, j'ai même pris d'la lean J'étais complètement fucked up, turn up, Damso, mo' fucking Dem's Drogué fût grand tox', trop d'clopes, weed, blunt, Jack honey, déf' Big up aux millions, na na na, j'ai pas qu'son soutif, han, nan nan nan La mort dans mes visions, souvenir de guerre, vécu de migrant On s'est promis de s'aimer pour la vie mais j'suis fatigué Oh la la, j'suis dépassé, mon cur a trop dépensé Je sais que j'ai pas qu'des qualités Cagoulé, j'vois les grand-mères paniquer Cur noir comme un soninké Oh la la, j'suis fatigué Dangereux mobali, dangereux mobali, yeahDangereux mobali Dangereux mobali, dangereux mobali, yeahDangereux mobali Dangereux mobali Dangereux mobali Dangereux mobali, yeah Dangereux mobali Dangereux mobali Dangereux mobali Dangereux mobali, yeah Au fond d'la boîte, j'suis défoncé, chérie na ngai, chérie na ngai J'ai bu toute la bouteille, chérie na ngai, chérie na ngai J'voulais faire avec toi des bana kitoko Chérie, des bana kitoko Mais j'ai des problèmes et des soucis sur l'té-cô Je te l'avoue, ma vie n'est pas kitoko Dangereux mobali, yeah Négro j'm'en bats les yeuks Dangereux mobali, yeah Négro j'm'en bats les yeuks J'voulais faire avec toi des bana kitoko Chérie, des bana kitoko Mais j'ai des problèmes et des soucis sur l'té-cô Je te l'avoue, ma vie n'est pas kitoko Génocides sur génocides, mama Africa perd tous ses enfants Boko Haram n'a pas d'âme, à ce rythme-là personne vivra longtemps Délit d'faciès par des fascistes, j'vise le sommet comme un perchiste J'suis toujours dans l'fond du binks, taffer plus pour gagner moins, Je m'en fiche-iste, non Noir c'est noir, reste leur idéologie Luther King, X en ont fait des récits Nos présidents sont des dictateurs, dangereux mobali Mon sentiment canon est ta sur et c'est pour la vie ? On s'est promis de s'aimer pour la vie mais j'suis fatigué Oh la la, j'suis dépassé, mon cur a trop dépensé Je sais que j'ai pas qu'des qualités Cagoulé, j'vois les grand-mères paniquer Cur noir comme un soninké, Oh la la, j'suis fatigué Dangereux mobali, dangereux mobali, yeah Dangereux mobali Dangereux mobali, dangereux mobali, yeah Dangereux mobali Dangereux mobali Dangereux mobali Dangereux mobali, yeah Dangereux mobali Dangereux mobali Dangereux mobali Dangereux mobali6</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yeah, yoh Les mecs m'ont dit Dems, faut qu'tu rentres, t'es pété J'leur ai dit Nan, j'suis pas pété, bah nan, j'ai juste bu quelques verres vite fait J'dois pisser, faut qu'j'trouve un coin discret, tout près d'ici, sinon, j'vais m'perdre, moi En plus, j'ai fumé d'l'herbe, j'vais foutre la merde, ouais, j'suis comme ça, moi Et puis, j'parlerai d'mon ex, puis, j'parlerai d'ses fesses, bref, il faut qu'j'arrête Donc, j'dessaoule sur l'ch'min du r'tour, j'rencontre une pute de Roumanie Cheveux courts, string, jupe courte, réclame un facial tsunami Mais pour d'la money, donc c'est non, car j'en n'ai pas sinon, ç'serait oui J'gratte pour une gâterie gratuite mais elle me dit nonarrête, sale pute que j'réponds, bah oui Mais après ça, ça a dérapé, j'l'ai insulté, son mac est arrivé pour m'tabasser un grand black baraqué, ch'veux dégradés Bam, deux-trois coups plus tard, du sang coule sur l'trottoir Mais c'est pas l'mien ni c'lui d'la putain mais du black qu'a r'çu un pain qui s'plaint d'avoir un mal de chien Pendant qu'l'autre chiale, d'ailleurs, pourquoi tu chiales ? T'as plus d'mac, donc j'vais t'l'enfoncer profond, jusqu'aux cordes vocales Elle stresse, devient toute blanche comme ses fesses, à peur qu'j'l'agresse, en détresse J'lui dis T'inquiète, viens dans l'bando, qu'j'te montre Django, en vrai Qu'on rigole un peu, toi et moi, qu'on s'bichonne un peu, toi et moi Allez, viens par là, suce-moi pendant qu'j'siphonne une p'tite Corona À peine que j'introduis je cris, je jouis, oh oui, oh oui, oh oui J'lui dis Prends dans ta gueule ton facial tsunami à Miami L'érection reprend, par derrière, je la prends, y a trop d'espace dedans J'constate qu'elle a la chatte plus grasse, que l'ventre de B.I.G Fait chier, j'suis dégoûté, donc j'sors d'son trou La meuf dit Qu'est-ce tu fous ? J'suis pas assez bonne pour toi ?S't'eu plait, gars, viole-moi jusqu'au bout D'accord, si t'insistes, elle m'dit J'dirais pas non pour un fist, non plus J'lui dis Quel genre de pute que t'es ? Elle m'dit Une qui baise avec son fils dans la rue What the fuck ? Putain d'bordel de merde Elle me dit Si, si, ouais, ouais, Damso, j'suis ta mère Et t'as pas changé d'un poil pubien, ça, c'est clair J't'ai reconnu quand j'ai posé ta verge sur mes lèvres J'recule d'un pas puis, d'un autre, j'crois que j'deviens parano Mon cur se serre, de la tension, je perds, j'tomberai d'un moment à l'autre J'me réveille sur un lit blanc, dans des draps blancs, les murs sont blancs, j'suis entouré d'blancs Et un black habillé en blanc qui d'mande comment j'me sens You might also like Monsieur Dems, vous m'entendez ? Si vous m'entendez, clignez deux fois des yeux. D'accord, je suis le docteur Leonard Da Vinci God. En quelques mots, vous avez été victime d'un transfert d'âme appelé expérience de walk-in. C'est en quelque sorte, une entente entre deux âmes. L'âme qui est dans le corps décide qu'elle ne peut plus continuer de vivre. Et au lieu de faire mourir son corps, une autre âme va continuer de vivre sa vie à sa place. Comme vous avez pu le constater, votre âme a été victime d'une tentative d'échange forcé, mais si le transfert total a échoué, c'est à cause d'une seule et unique chose. Le walk-out devait être capable de reproduire la chose qui vous caractérise le plus dans ce monde. Et je suis content de dire que votre flow, monsieur Dems, vous a sauvé la vie. Je vous garde encore une petite semaine afin d'effectuer quelques analyses en plus. Je vous ai prescrit en attendant la mixtape QALF de Damso et Jackpot du groupe OPG. Je vous revois dans quelques heures. Reposez-vous, et à tout à l'heure. Monsieur Dems, vous m'entendez ?12</t>
+          <t>Yeah, yoh Les mecs m'ont dit Dems, faut qu'tu rentres, t'es pété J'leur ai dit Nan, j'suis pas pété, bah nan, j'ai juste bu quelques verres vite fait J'dois pisser, faut qu'j'trouve un coin discret, tout près d'ici, sinon, j'vais m'perdre, moi En plus, j'ai fumé d'l'herbe, j'vais foutre la merde, ouais, j'suis comme ça, moi Et puis, j'parlerai d'mon ex, puis, j'parlerai d'ses fesses, bref, il faut qu'j'arrête Donc, j'dessaoule sur l'ch'min du r'tour, j'rencontre une pute de Roumanie Cheveux courts, string, jupe courte, réclame un facial tsunami Mais pour d'la money, donc c'est non, car j'en n'ai pas sinon, ç'serait oui J'gratte pour une gâterie gratuite mais elle me dit nonarrête, sale pute que j'réponds, bah oui Mais après ça, ça a dérapé, j'l'ai insulté, son mac est arrivé pour m'tabasser un grand black baraqué, ch'veux dégradés Bam, deux-trois coups plus tard, du sang coule sur l'trottoir Mais c'est pas l'mien ni c'lui d'la putain mais du black qu'a r'çu un pain qui s'plaint d'avoir un mal de chien Pendant qu'l'autre chiale, d'ailleurs, pourquoi tu chiales ? T'as plus d'mac, donc j'vais t'l'enfoncer profond, jusqu'aux cordes vocales Elle stresse, devient toute blanche comme ses fesses, à peur qu'j'l'agresse, en détresse J'lui dis T'inquiète, viens dans l'bando, qu'j'te montre Django, en vrai Qu'on rigole un peu, toi et moi, qu'on s'bichonne un peu, toi et moi Allez, viens par là, suce-moi pendant qu'j'siphonne une p'tite Corona À peine que j'introduis je cris, je jouis, oh oui, oh oui, oh oui J'lui dis Prends dans ta gueule ton facial tsunami à Miami L'érection reprend, par derrière, je la prends, y a trop d'espace dedans J'constate qu'elle a la chatte plus grasse, que l'ventre de B.I.G Fait chier, j'suis dégoûté, donc j'sors d'son trou La meuf dit Qu'est-ce tu fous ? J'suis pas assez bonne pour toi ?S't'eu plait, gars, viole-moi jusqu'au bout D'accord, si t'insistes, elle m'dit J'dirais pas non pour un fist, non plus J'lui dis Quel genre de pute que t'es ? Elle m'dit Une qui baise avec son fils dans la rue What the fuck ? Putain d'bordel de merde Elle me dit Si, si, ouais, ouais, Damso, j'suis ta mère Et t'as pas changé d'un poil pubien, ça, c'est clair J't'ai reconnu quand j'ai posé ta verge sur mes lèvres J'recule d'un pas puis, d'un autre, j'crois que j'deviens parano Mon cur se serre, de la tension, je perds, j'tomberai d'un moment à l'autre J'me réveille sur un lit blanc, dans des draps blancs, les murs sont blancs, j'suis entouré d'blancs Et un black habillé en blanc qui d'mande comment j'me sens Monsieur Dems, vous m'entendez ? Si vous m'entendez, clignez deux fois des yeux. D'accord, je suis le docteur Leonard Da Vinci God. En quelques mots, vous avez été victime d'un transfert d'âme appelé expérience de walk-in. C'est en quelque sorte, une entente entre deux âmes. L'âme qui est dans le corps décide qu'elle ne peut plus continuer de vivre. Et au lieu de faire mourir son corps, une autre âme va continuer de vivre sa vie à sa place. Comme vous avez pu le constater, votre âme a été victime d'une tentative d'échange forcé, mais si le transfert total a échoué, c'est à cause d'une seule et unique chose. Le walk-out devait être capable de reproduire la chose qui vous caractérise le plus dans ce monde. Et je suis content de dire que votre flow, monsieur Dems, vous a sauvé la vie. Je vous garde encore une petite semaine afin d'effectuer quelques analyses en plus. Je vous ai prescrit en attendant la mixtape QALF de Damso et Jackpot du groupe OPG. Je vous revois dans quelques heures. Reposez-vous, et à tout à l'heure. Monsieur Dems, vous m'entendez ?12</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>La vie qu'tas choisie nest p't-être pas la bonne Tu vis par principe, tu ris mais tes triste Tu jouis sans plaisir, elle aime parce quelle insiste La fille qu'tas choisie nest p't-être pas la bonne Cest ni lenfer, ni le paradis car dans tous les cas, tu meurs à la fin Les gouttes d'eau font pas l'prix du parapluie, la misère ne justifie pas la faim Tes gay en secret, tu n'veux pas le dire, tu t'soulages en baisant des hétéros Ce de quoi tes fait, tu n'peux pas le fuir Les nuages n'écoutent pas la météo Tas plusieurs rêves mais pas dobjectifs, cest ça qui fait que tes toujours au même endroit T'as fini l'école, t'as fini l'univ' mais t'as pas d'boulot, vis chez tes rents-pa Tu fais rien mais pries quasi tous les jours, tu t'mens en t'disant qu'tu vas tout niquer Un athée qui taffe quasi tous les jours aura toujours plus d'opportunités Le monde est fait de gens qui font les choses et ceux qui disent qu'ils auraient pu le faire Auraient dû le faire, vont sûrement le faire Et ceux qui sont juste en train d'faire les choses Aujourd'hui, t'es tout mais demain t'es rien Donc pense à demain car c'n'est pas si loin Faut croire en Dieu mais surtout croire en soi Car Dieu, la mort, il ne la connaît pas Sans emploi du temps, tu n'as pas d'emploi Fais de l'argent mais gaspille pas ta voix Voiture sur les réseaux, t'es businessman Dans la vraie vie, c'est métro-bus-tram T'es grosse et grossière et tu fais ta bombe mais t'oublies que demain, tu s'ras mère aussi Tu fais chier les jeunes quand tu fais ta ronde mais t'oublies que demain, tu s'ras père aussi Négro, je n't'ai pas oublié, non, 2008, station Montgomery j'avais embrouille et t'as pris la fuite 2018 tu m'd'mandes en feat, pute You might also like Encore les mêmes fils de putains qui s'ramènent Quand tout va mieux, quand c'n'est plus noir, quand c'n'est plus sale Encore les mêmes fils de putains qui s'ramènent quand c'n'est plus noir Baltringue ouais, ouais, ouais, ouais Baltringue ouais, ouais, ouais, ouais Baltringue ouais, ouais, ouais, ouais Baltringue Quand tout va mieux, quand c'n'est plus noir, quand c'n'est plus sale Baltringue ouais, ouais, ouais, ouais Baltringue ouais, ouais, ouais, ouais Baltringue Tu fuis la vie, tu fuis la mort, tu te fuis toi-même Baltringue, baltringue Baltringue, baltringue ah ouais, ouais, ouais Baltringue, baltringue Quand tout va mieux, quand c'n'est plus noir, quand c'n'est plus sale Toi, ma chienne, tu n'sais qu'encaisser Devant l'échec, pars au plus pressée bang Damoiselle veut se faire soulever Recyclée en vulgaire déchet connais Grimpe pas les échelons si t'as l'vertige, le succès n'aime pas trop les bles-fai Toujours du mal à m'faire apprécier, du sale, j'en fais sans rien respecter Bastos logée dans le thorax, négro n'avait qu'à pas faire le chaud Violence des mots, violence des flows Meurs en silence sans faire d'écho Tant d'impuissance face au glo-c-k pressé, bang raah Dans les vapes, j'ai tiré sur du crack pour libérer triste vice J'étais pas bien Comme quand tu t'coinces la bite dans fermeture jeans Levis aïe J't'aimais du fond de mes couilles, mon cur noir à autre chose est passé Y avait d'jà du sang sur la douille et ça veut faire croire qu'il est blessé tricheur Elle va voir un pote qui l'a d'jà niquée, en m'disant de ne pas m'inquiéter jamais Dis-moi la vérité, rien qu'la vérité J'veux être au courant, pas rassuré Encore les mêmes grosses putains qui s'ramènent Quand tout va mieux, quand c'n'est plus noir, quand c'n'est plus sale Encore les mêmes grosses putains qui s'ramènent quand c'n'est plus noir Baltringue ah ouais ouais ouais Baltringue ah ouais ouais ouais Baltringue ah ouais ouais ouais Baltringue Tu fuis la vie, tu fuis la mort, tu te fuis toi-même Quand c'n'est plus noir, quand c'n'est plus sale14</t>
+          <t>La vie qu'tas choisie nest p't-être pas la bonne Tu vis par principe, tu ris mais tes triste Tu jouis sans plaisir, elle aime parce quelle insiste La fille qu'tas choisie nest p't-être pas la bonne Cest ni lenfer, ni le paradis car dans tous les cas, tu meurs à la fin Les gouttes d'eau font pas l'prix du parapluie, la misère ne justifie pas la faim Tes gay en secret, tu n'veux pas le dire, tu t'soulages en baisant des hétéros Ce de quoi tes fait, tu n'peux pas le fuir Les nuages n'écoutent pas la météo Tas plusieurs rêves mais pas dobjectifs, cest ça qui fait que tes toujours au même endroit T'as fini l'école, t'as fini l'univ' mais t'as pas d'boulot, vis chez tes rents-pa Tu fais rien mais pries quasi tous les jours, tu t'mens en t'disant qu'tu vas tout niquer Un athée qui taffe quasi tous les jours aura toujours plus d'opportunités Le monde est fait de gens qui font les choses et ceux qui disent qu'ils auraient pu le faire Auraient dû le faire, vont sûrement le faire Et ceux qui sont juste en train d'faire les choses Aujourd'hui, t'es tout mais demain t'es rien Donc pense à demain car c'n'est pas si loin Faut croire en Dieu mais surtout croire en soi Car Dieu, la mort, il ne la connaît pas Sans emploi du temps, tu n'as pas d'emploi Fais de l'argent mais gaspille pas ta voix Voiture sur les réseaux, t'es businessman Dans la vraie vie, c'est métro-bus-tram T'es grosse et grossière et tu fais ta bombe mais t'oublies que demain, tu s'ras mère aussi Tu fais chier les jeunes quand tu fais ta ronde mais t'oublies que demain, tu s'ras père aussi Négro, je n't'ai pas oublié, non, 2008, station Montgomery j'avais embrouille et t'as pris la fuite 2018 tu m'd'mandes en feat, pute Encore les mêmes fils de putains qui s'ramènent Quand tout va mieux, quand c'n'est plus noir, quand c'n'est plus sale Encore les mêmes fils de putains qui s'ramènent quand c'n'est plus noir Baltringue ouais, ouais, ouais, ouais Baltringue ouais, ouais, ouais, ouais Baltringue ouais, ouais, ouais, ouais Baltringue Quand tout va mieux, quand c'n'est plus noir, quand c'n'est plus sale Baltringue ouais, ouais, ouais, ouais Baltringue ouais, ouais, ouais, ouais Baltringue Tu fuis la vie, tu fuis la mort, tu te fuis toi-même Baltringue, baltringue Baltringue, baltringue ah ouais, ouais, ouais Baltringue, baltringue Quand tout va mieux, quand c'n'est plus noir, quand c'n'est plus sale Toi, ma chienne, tu n'sais qu'encaisser Devant l'échec, pars au plus pressée bang Damoiselle veut se faire soulever Recyclée en vulgaire déchet connais Grimpe pas les échelons si t'as l'vertige, le succès n'aime pas trop les bles-fai Toujours du mal à m'faire apprécier, du sale, j'en fais sans rien respecter Bastos logée dans le thorax, négro n'avait qu'à pas faire le chaud Violence des mots, violence des flows Meurs en silence sans faire d'écho Tant d'impuissance face au glo-c-k pressé, bang raah Dans les vapes, j'ai tiré sur du crack pour libérer triste vice J'étais pas bien Comme quand tu t'coinces la bite dans fermeture jeans Levis aïe J't'aimais du fond de mes couilles, mon cur noir à autre chose est passé Y avait d'jà du sang sur la douille et ça veut faire croire qu'il est blessé tricheur Elle va voir un pote qui l'a d'jà niquée, en m'disant de ne pas m'inquiéter jamais Dis-moi la vérité, rien qu'la vérité J'veux être au courant, pas rassuré Encore les mêmes grosses putains qui s'ramènent Quand tout va mieux, quand c'n'est plus noir, quand c'n'est plus sale Encore les mêmes grosses putains qui s'ramènent quand c'n'est plus noir Baltringue ah ouais ouais ouais Baltringue ah ouais ouais ouais Baltringue ah ouais ouais ouais Baltringue Tu fuis la vie, tu fuis la mort, tu te fuis toi-même Quand c'n'est plus noir, quand c'n'est plus sale14</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yeah P'tain dans le casque c'est vraiment autre univers Ok D'mandez pas c'que je fais dans la vie J'suis fonce-dé avec deux-trois youvois du quartier, j'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais, débrouillard à jamais MjNichols D'mandez pas c'que je fais dans la vie J'suis fonce-dé avec deux-trois youvois du quartier, j'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais, débrouillard à jamais Fais pas l'amour à une femme comme un homme, la Bible dit qu'c'est une abomination Alors à chaque fois qu'je t'encule, j'demande pardon au Ciel pour faute dinattention Amen J'suis pas là pour faire la morale, la morale a fait de moi c'que je suis devenu Ma vie s'inspire d'la SABAM, plus tu gagnes du blé, plus j'te baise sans retenue J'compte pas obtenir de diplôme comme Dolfa, négro, pour moi la school, c'est finish him Vers le succès je marche, j'ai des ampoules aux pieds, à chacun d'mes pas, c't'un remake de Billie Jean Jackson La vie ne fait aucun cadeau, le Père Noël n'existe pas dans la rue Passeur avec des produits illégaux, les keufs t'attrapent, négro, tu n'm'as jamais vu John Doe Un gun, un flow, j'te tire dessus et j'te transperce le dard J'vois jamais d'courses de spermato' mais j'donne beaucoup d'départs J'suis dans l'Pacifique dit-on, je débite des proses et des vers J'suis un pacifiste, quiconque me défie repose en paix Le silence est d'or donc chut, quand je t'encule, ne crie pas J'veux entendre que le frottement des pores et le bruit des mes grosses testicules sur ton 'uc Grosse pute, tu crois qu't'es où là ? Toi et ta schnek, allez faire de la mula Ramène l'oseille à mes you-voi, j'n'ai aucun remord, t'es Sarah Connor, j'suis Terminator dans ta tte-cha Schwarzy You might also like D'mandez pas c'que je fais dans la vie J'suis fonce-dé avec deux-trois you-voi du quartier, j'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais, débrouillard à jamais D'mandez pas c'que je fais dans la vie J'suis fonce-dé avec deux-trois you-voi du quartier, j'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais, débrouillard à jamais Ma fille si j'prends pour dix ans ferme, ne noie pas ton chagrin dans du sperme Nager Va prendre le Glock dans la chambre de papa, ensuite tu le donneras à tonton Dolfa Qui s'en servira contre la grosse lope-sa et c'est seulement quand cette balance avouera Que tu lui diras de l'enculer de sorte à c'que plus jamais son trou se referme OPG déclasse leurs teams, 'vont chercher renfort en franc-maçonnerie Le sang remplace l'encre de Chine, le bruit de ta mort remplace ma sonnerie Allô Y a rien d'plus dangereux que la main tendue,j'veux pas ton aide, évitons d'gros litiges No Un cadeau empoisonné bien vendu, une mère porteuse séropositive Ils sont comme chaussures d'vant mosquée, sont r'calés à l'entrée, vont d'voir rentrer pioncer Illeur-mé à vie, rien n'est nuancé, j'te vois comme Jay Z voit Beyoncé Une salope que j'n'ai pas b'soin de financer, un bustier en I qui s'finit en C Gros cul Mes sons passent en club, t'es ambiancé, seuls les darons sont mes créanciers Ta meuf a un anneau dans le ventre, j'l'ai doigtée au point qu'j'en suis passé entre In Autrement dit nous sommes fiancés Yes, balance j't'en prie, va nous dénoncer Snitch T'façon les preuves sont d'jà dissimulées, fais tout c'qui rémunère, le nègre est affamé Ne m'demandez pas quelle est ma mission sur Terre, j'suis débrouillard à jamais no D'mandez pas c'que je fais dans la vie J'suis fonce-dé avec deux-trois you-voi du quartier, j'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais, débrouillard à jamais D'mandez pas c'que je fais dans la vie J'suis fonce-dé avec deux-trois you-voi du quartier, j'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais, débrouillard à jamais7</t>
+          <t>Yeah P'tain dans le casque c'est vraiment autre univers Ok D'mandez pas c'que je fais dans la vie J'suis fonce-dé avec deux-trois youvois du quartier, j'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais, débrouillard à jamais MjNichols D'mandez pas c'que je fais dans la vie J'suis fonce-dé avec deux-trois youvois du quartier, j'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais, débrouillard à jamais Fais pas l'amour à une femme comme un homme, la Bible dit qu'c'est une abomination Alors à chaque fois qu'je t'encule, j'demande pardon au Ciel pour faute dinattention Amen J'suis pas là pour faire la morale, la morale a fait de moi c'que je suis devenu Ma vie s'inspire d'la SABAM, plus tu gagnes du blé, plus j'te baise sans retenue J'compte pas obtenir de diplôme comme Dolfa, négro, pour moi la school, c'est finish him Vers le succès je marche, j'ai des ampoules aux pieds, à chacun d'mes pas, c't'un remake de Billie Jean Jackson La vie ne fait aucun cadeau, le Père Noël n'existe pas dans la rue Passeur avec des produits illégaux, les keufs t'attrapent, négro, tu n'm'as jamais vu John Doe Un gun, un flow, j'te tire dessus et j'te transperce le dard J'vois jamais d'courses de spermato' mais j'donne beaucoup d'départs J'suis dans l'Pacifique dit-on, je débite des proses et des vers J'suis un pacifiste, quiconque me défie repose en paix Le silence est d'or donc chut, quand je t'encule, ne crie pas J'veux entendre que le frottement des pores et le bruit des mes grosses testicules sur ton 'uc Grosse pute, tu crois qu't'es où là ? Toi et ta schnek, allez faire de la mula Ramène l'oseille à mes you-voi, j'n'ai aucun remord, t'es Sarah Connor, j'suis Terminator dans ta tte-cha Schwarzy D'mandez pas c'que je fais dans la vie J'suis fonce-dé avec deux-trois you-voi du quartier, j'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais, débrouillard à jamais D'mandez pas c'que je fais dans la vie J'suis fonce-dé avec deux-trois you-voi du quartier, j'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais, débrouillard à jamais Ma fille si j'prends pour dix ans ferme, ne noie pas ton chagrin dans du sperme Nager Va prendre le Glock dans la chambre de papa, ensuite tu le donneras à tonton Dolfa Qui s'en servira contre la grosse lope-sa et c'est seulement quand cette balance avouera Que tu lui diras de l'enculer de sorte à c'que plus jamais son trou se referme OPG déclasse leurs teams, 'vont chercher renfort en franc-maçonnerie Le sang remplace l'encre de Chine, le bruit de ta mort remplace ma sonnerie Allô Y a rien d'plus dangereux que la main tendue,j'veux pas ton aide, évitons d'gros litiges No Un cadeau empoisonné bien vendu, une mère porteuse séropositive Ils sont comme chaussures d'vant mosquée, sont r'calés à l'entrée, vont d'voir rentrer pioncer Illeur-mé à vie, rien n'est nuancé, j'te vois comme Jay Z voit Beyoncé Une salope que j'n'ai pas b'soin de financer, un bustier en I qui s'finit en C Gros cul Mes sons passent en club, t'es ambiancé, seuls les darons sont mes créanciers Ta meuf a un anneau dans le ventre, j'l'ai doigtée au point qu'j'en suis passé entre In Autrement dit nous sommes fiancés Yes, balance j't'en prie, va nous dénoncer Snitch T'façon les preuves sont d'jà dissimulées, fais tout c'qui rémunère, le nègre est affamé Ne m'demandez pas quelle est ma mission sur Terre, j'suis débrouillard à jamais no D'mandez pas c'que je fais dans la vie J'suis fonce-dé avec deux-trois you-voi du quartier, j'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais, débrouillard à jamais D'mandez pas c'que je fais dans la vie J'suis fonce-dé avec deux-trois you-voi du quartier, j'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais, débrouillard à jamais7</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>J'suis tellement loin, cest parti pour quelques heures, écrire sur le monde Exilé dans simulateur, près des couleuvres, sable en mouvement Fonce-dé, trop pressé d'plus penser, cerveau danse, donc débranché Haute défonce, plus rien de sensé, sors de ma tête, bouge, faut que j'me taise, que jl'ouvre, okay Trop de tes questions brusqunt, beaucoup de pression, muscls, trop d'stress, peu d'émotions Agression à chaque réflexion, balles, oppression, attaques, restrictions, black Tu veux pas d'moi, tu veux pas d'nous mais tu veux pas l'dire en face Baltringue, salope, tasse-pé, j'te dmande un minimum de respect Jcalme mes nerfs, joint V.E.R, Tango, j'balance des phrases sur une compo J'calme mes nerfs, joint V.E.R, Tango, j'balance des phrases sur une compo' Morose, morose Ouais, ouais Morose, morose Ouais, ouais Sale, sale, sale Donne-moi ton tél que j't'appelle et ramène à l'hôtel comme si de rien n'était Sale, sale, sale Donne-moi ton tél' que j't'appelle et ramène à l'hôtel comme si de rien n'était Eh, sale Fais pas genre, fais pas genre qu'on n'va pas le faire Nan, nan, nan J't'entends t'épiler la chatte Bah ouais Fais pas genre, fais pas genre qu'on n'va pas le faire Nan, nan, nan J't'entends t'épiler la chatte Bah ouais Oh ouais You might also like Tu cherches l'amour, vient la mort, t'arrêtes pas d'causer du tort, tu t'ouvres les veines mais encore Là, t'ignores tous tes efforts, tour à tour, les te-por se ferment et tu t'fais des bords S'il le faut, tu le fais, il est faux, tu le sais, illico', tu le fais, silicone dans la fesse Une icône dans la presse, une michto dans la tess, jamais seul, tu t'en sortiras Il reste une place dans le corbillard, j'écris surtout c'que je pense, c'est moi J'écris sur pute et son coquillard et sur c'que j'risque d'apercevoir, ouais J'aime quand j'te perds, drogué d'avance, coincer ta chair, j'sens ta fragrance, douce et sévère, d'l'amande douce à l'ammoniaque T'aimes le bandit que je suis Ouais, té-ma la vue quand tu me suis Ouais Tu comptes sur mes économies Ouais, t'es ma pute que pour aujourd'hui Ouais Tapis, j'ai fait doubler la mise, paire, bientôt, j'abandonne le biz' et pars loin, j'prends fils et mère J'calme mes nerfs, joint V.E.R, Tango, j'balance des phrases sur une compo' J'calme mes nerfs, joint V.E.R, Tango, j'balance des phrases sur une compo' Morose, morose Ouais, ouais Morose, morose Ouais, ouais Sale, sale, sale Donne-moi ton tél' que j't'appelle et ramène à l'hôtel Comme si de rien n'était Sale, sale, sale Donne-moi ton tél' que j't'appelle et ramène à l'hôtel Comme si de rien n'était Eh, sale Fais pas genre, fais pas genre qu'on n'va pas le faire Nan, nan, nan J't'entends t'épiler la chatte Bah ouais Fais pas genre, fais pas genre qu'on n'va pas le faire Nan, nan, nan J't'entends t'épiler la chatte Bah ouais 26</t>
+          <t>J'suis tellement loin, cest parti pour quelques heures, écrire sur le monde Exilé dans simulateur, près des couleuvres, sable en mouvement Fonce-dé, trop pressé d'plus penser, cerveau danse, donc débranché Haute défonce, plus rien de sensé, sors de ma tête, bouge, faut que j'me taise, que jl'ouvre, okay Trop de tes questions brusqunt, beaucoup de pression, muscls, trop d'stress, peu d'émotions Agression à chaque réflexion, balles, oppression, attaques, restrictions, black Tu veux pas d'moi, tu veux pas d'nous mais tu veux pas l'dire en face Baltringue, salope, tasse-pé, j'te dmande un minimum de respect Jcalme mes nerfs, joint V.E.R, Tango, j'balance des phrases sur une compo J'calme mes nerfs, joint V.E.R, Tango, j'balance des phrases sur une compo' Morose, morose Ouais, ouais Morose, morose Ouais, ouais Sale, sale, sale Donne-moi ton tél que j't'appelle et ramène à l'hôtel comme si de rien n'était Sale, sale, sale Donne-moi ton tél' que j't'appelle et ramène à l'hôtel comme si de rien n'était Eh, sale Fais pas genre, fais pas genre qu'on n'va pas le faire Nan, nan, nan J't'entends t'épiler la chatte Bah ouais Fais pas genre, fais pas genre qu'on n'va pas le faire Nan, nan, nan J't'entends t'épiler la chatte Bah ouais Oh ouais Tu cherches l'amour, vient la mort, t'arrêtes pas d'causer du tort, tu t'ouvres les veines mais encore Là, t'ignores tous tes efforts, tour à tour, les te-por se ferment et tu t'fais des bords S'il le faut, tu le fais, il est faux, tu le sais, illico', tu le fais, silicone dans la fesse Une icône dans la presse, une michto dans la tess, jamais seul, tu t'en sortiras Il reste une place dans le corbillard, j'écris surtout c'que je pense, c'est moi J'écris sur pute et son coquillard et sur c'que j'risque d'apercevoir, ouais J'aime quand j'te perds, drogué d'avance, coincer ta chair, j'sens ta fragrance, douce et sévère, d'l'amande douce à l'ammoniaque T'aimes le bandit que je suis Ouais, té-ma la vue quand tu me suis Ouais Tu comptes sur mes économies Ouais, t'es ma pute que pour aujourd'hui Ouais Tapis, j'ai fait doubler la mise, paire, bientôt, j'abandonne le biz' et pars loin, j'prends fils et mère J'calme mes nerfs, joint V.E.R, Tango, j'balance des phrases sur une compo' J'calme mes nerfs, joint V.E.R, Tango, j'balance des phrases sur une compo' Morose, morose Ouais, ouais Morose, morose Ouais, ouais Sale, sale, sale Donne-moi ton tél' que j't'appelle et ramène à l'hôtel Comme si de rien n'était Sale, sale, sale Donne-moi ton tél' que j't'appelle et ramène à l'hôtel Comme si de rien n'était Eh, sale Fais pas genre, fais pas genre qu'on n'va pas le faire Nan, nan, nan J't'entends t'épiler la chatte Bah ouais Fais pas genre, fais pas genre qu'on n'va pas le faire Nan, nan, nan J't'entends t'épiler la chatte Bah ouais 26</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Oh la la la, oh la la la la Ouais Vil à temps, violentant, fin méchant, président, tout un temps Billets, pan, violettant, vol-au-vent, survolant livraison Gilet blanc taché d'sang, caché dans casier d'adolescent Cardigan, Louis Vuitton pour deux francs, montant d'fabrication Prisonnier isolé réveillé par biais de chiffonnier Salarié sous-payé, avarié, soudoyé, suicidé Lampadaire sans lumière éclaire SDF et bandoulière Antipode de la mort d'handicos peu glamour, visionnaire Tatouages insensés, cafouillages de pensées tout l'été Dénudée pour du blé, trémoussé sous l'effet de la C Policier étranger dérangé pour c'qu'il est, peau foncée Odyssée mystifiée, Colisée réparé, offensé Dems Qui sont-ils quand ils n'ont jamais vraiment été ? Personne n'a d'jà rêvé de naître, perdu dans le berceau, j'n'ai pas cessé de naître J'ai couru dans mon cerveau jusqu'au fond de mon être, j'ai trouvé loin d'mes vaisseaux tout c'qui faisait mon être yeah, yeah, yeah, yeah, yeah Personne n'a d'jà rêvé de naître, perdu dans le berceau, j'n'ai pas cessé de naître J'ai couru dans mon cerveau jusqu'au fond de mon être, j'ai trouvé loin d'mes vaisseaux tout c'qui faisait mon être yeah, yeah, yeah, yeah, yeah You might also like De la gériatrie à la maternité, des félicités aux R.I.P. On fait tout d'avance parce qu'il n'y a pas d'replay Tout peut s'arrêter, les deux barres parallèles sont des carrés dans la réalité Toujours pas niqué car toujours paniqué Vie, mort, mensonge et vérité, une infinité de fins ou une fin à une infinité Déguisé en être humain pour un semblant d'humanité, charnelles sont les générosités pour hypnotiser les gens Pendant qu'mendiants, immigrés s'mettent à copiner des clans, s'mettent à cotiser des camps où sont entassés des gens J'crois qu'le plus intelligent s'rait d'avouer qu'on est cons, s'rait d'avouer qu'on est blancs, noirs ou quel que soit le ton Voir ce que nous laisse le temps, croire en nous mais sans le en Car, qui sommes nous vraiment quand on l'est pas vraiment ? Personne n'a d'jà rêvé de naître, perdu dans le berceau, j'n'ai pas cessé de naître J'ai couru dans mon cerveau jusqu'au fond de mon être, j'ai trouvé loin d'mes vaisseaux tout c'qui faisait mon être yeah, yeah, yeah, yeah, yeah Personne n'a d'jà rêvé de naître, perdu dans le berceau, j'n'ai pas cessé de naître J'ai couru dans mon cerveau jusqu'au fond de mon être, j'ai trouvé loin d'mes vaisseaux tout c'qui faisait mon être yeah, yeah, yeah, yeah, yeah Humain, j'suis plus trop humain mais plus que humain quand j'vois l'humain Puis soudain, plus rien, y a plus trop d'humains, que des terriens Sur un grand terrain, qui s'aiment, qui s'tuent, qui s'saignent pour rien, comme un chérubin La seule voie que je suivrai, c'est celle de mes cordes vocales Quand on meurt, on n'fait pas appel, la vie a ses failles Factures, courriers et rappels poussent à faire du sale Ils ne se veulent pas du bien, l'humain s'fait du mal Pour être ensemble, devons-nous vivre séparément ? J'crois que dans l'ensemble, c'est plus facile quand on se ment Y a des gens comme moi qui n'savent plus trop ce qu'ils sont Qui s'posent la question Mais qui suis-je vraiment quand j'le suis plus vraiment ? Personne n'a d'jà rêvé de naître, perdu dans le berceau, j'n'ai pas cessé de naître J'ai couru dans mon cerveau jusqu'au fond de mon être, j'ai trouvé loin d'mes vaisseaux tout c'qui faisait mon être yeah, yeah, yeah, yeah, yeah Personne n'a d'jà rêvé de naître, perdu dans le berceau, j'n'ai pas cessé de naître J'ai couru dans mon cerveau jusqu'au fond de mon être, j'ai trouvé loin d'mes vaisseaux tout c'qui faisait mon être yeah, yeah, yeah, yeah, yeah Yeah, yeah Yeah, yeah, yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah, yeah, yeah, yeah Dems17</t>
+          <t>Oh la la la, oh la la la la Ouais Vil à temps, violentant, fin méchant, président, tout un temps Billets, pan, violettant, vol-au-vent, survolant livraison Gilet blanc taché d'sang, caché dans casier d'adolescent Cardigan, Louis Vuitton pour deux francs, montant d'fabrication Prisonnier isolé réveillé par biais de chiffonnier Salarié sous-payé, avarié, soudoyé, suicidé Lampadaire sans lumière éclaire SDF et bandoulière Antipode de la mort d'handicos peu glamour, visionnaire Tatouages insensés, cafouillages de pensées tout l'été Dénudée pour du blé, trémoussé sous l'effet de la C Policier étranger dérangé pour c'qu'il est, peau foncée Odyssée mystifiée, Colisée réparé, offensé Dems Qui sont-ils quand ils n'ont jamais vraiment été ? Personne n'a d'jà rêvé de naître, perdu dans le berceau, j'n'ai pas cessé de naître J'ai couru dans mon cerveau jusqu'au fond de mon être, j'ai trouvé loin d'mes vaisseaux tout c'qui faisait mon être yeah, yeah, yeah, yeah, yeah Personne n'a d'jà rêvé de naître, perdu dans le berceau, j'n'ai pas cessé de naître J'ai couru dans mon cerveau jusqu'au fond de mon être, j'ai trouvé loin d'mes vaisseaux tout c'qui faisait mon être yeah, yeah, yeah, yeah, yeah De la gériatrie à la maternité, des félicités aux R.I.P. On fait tout d'avance parce qu'il n'y a pas d'replay Tout peut s'arrêter, les deux barres parallèles sont des carrés dans la réalité Toujours pas niqué car toujours paniqué Vie, mort, mensonge et vérité, une infinité de fins ou une fin à une infinité Déguisé en être humain pour un semblant d'humanité, charnelles sont les générosités pour hypnotiser les gens Pendant qu'mendiants, immigrés s'mettent à copiner des clans, s'mettent à cotiser des camps où sont entassés des gens J'crois qu'le plus intelligent s'rait d'avouer qu'on est cons, s'rait d'avouer qu'on est blancs, noirs ou quel que soit le ton Voir ce que nous laisse le temps, croire en nous mais sans le en Car, qui sommes nous vraiment quand on l'est pas vraiment ? Personne n'a d'jà rêvé de naître, perdu dans le berceau, j'n'ai pas cessé de naître J'ai couru dans mon cerveau jusqu'au fond de mon être, j'ai trouvé loin d'mes vaisseaux tout c'qui faisait mon être yeah, yeah, yeah, yeah, yeah Personne n'a d'jà rêvé de naître, perdu dans le berceau, j'n'ai pas cessé de naître J'ai couru dans mon cerveau jusqu'au fond de mon être, j'ai trouvé loin d'mes vaisseaux tout c'qui faisait mon être yeah, yeah, yeah, yeah, yeah Humain, j'suis plus trop humain mais plus que humain quand j'vois l'humain Puis soudain, plus rien, y a plus trop d'humains, que des terriens Sur un grand terrain, qui s'aiment, qui s'tuent, qui s'saignent pour rien, comme un chérubin La seule voie que je suivrai, c'est celle de mes cordes vocales Quand on meurt, on n'fait pas appel, la vie a ses failles Factures, courriers et rappels poussent à faire du sale Ils ne se veulent pas du bien, l'humain s'fait du mal Pour être ensemble, devons-nous vivre séparément ? J'crois que dans l'ensemble, c'est plus facile quand on se ment Y a des gens comme moi qui n'savent plus trop ce qu'ils sont Qui s'posent la question Mais qui suis-je vraiment quand j'le suis plus vraiment ? Personne n'a d'jà rêvé de naître, perdu dans le berceau, j'n'ai pas cessé de naître J'ai couru dans mon cerveau jusqu'au fond de mon être, j'ai trouvé loin d'mes vaisseaux tout c'qui faisait mon être yeah, yeah, yeah, yeah, yeah Personne n'a d'jà rêvé de naître, perdu dans le berceau, j'n'ai pas cessé de naître J'ai couru dans mon cerveau jusqu'au fond de mon être, j'ai trouvé loin d'mes vaisseaux tout c'qui faisait mon être yeah, yeah, yeah, yeah, yeah Yeah, yeah Yeah, yeah, yeah, yeah, yeah, yeah, yeah Yeah, yeah, yeah, yeah, yeah, yeah, yeah Dems17</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Smith Wess' vient du marché noir Tu fais mal, je fais mal aussi Malfrat, si je sors ce soir Quelques balles dans ta carrosserie Ok Maléfique, sûrement fin tragique Négro parle comme un parasite Jsuis dans lombre, la lumière mattriste Elle nattire que la jalousie, love Oh, oh-oh, oh-oh Yeah On mentend ou pas ? Tant de peine dans mes sentiments, tant de love pour mon continent Tellement drage quand je lui dis Non Silencieux, pas de confident Pourri dseum, jvois mon fils rarement Oh Studio, tournée, père absent Mourir jeune, pourquoi vivre longtemps ? Pilon roulé, hibernation, le love Oh, oh-oh, oh-oh Yeah You might also like Bip, bip, bip Désolé mais la personne que vous avez appelée n'est pas disponible. Veuillez laisser un message après le signal sonore. Bip - Bonjour papa. Aujourd'hui, j'ai vu des poissons. Ils s'appellent comment, leurs noms ? - Heu, les poissons clowns. Heu, les piranhas... - Des piranhas, on a vu des piranhas, on a vu des poissons, on a vu des, des escargots, on a vu des poissons et des requins et des hippo... Hein ? Des a... des toiles de mer aussi, des deux toiles de mer Doucement, doucement Ne joue pas avec mes nerfs et mes sentiments Jme sens déjà très mal car mon fils me manque Jsuis plus avec sa mère et les bitches le savent, pourtant, elles m'disent que j'ai changé Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même, jai changé Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même Jai perdu des proches, certains sont pas morts, ils ont juste fait les traîtres Faut pas lapprocher car cest juste pour les fesses Jai limpression que, rien, cest tout cquil me reste Quand la nuit sachève, jpars avec elle, jplane Dans les quatre directions comme Off-White Jprends la dernière ligne de ma deadline Ce sont les bouts de mon cur brisé qui blessent, quand on le touche, on y reste, Dems Doucement, doucement Ne joue pas avec mes nerfs et mes sentiments Jme sens déjà très mal car mon fils me manque Jsuis plus avec sa mère et les bitches le savent, pourtant, elles m'disent que j'ai changé Ouh Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même, jai changé Ouh Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même Tu sais le silence ne fait que cinq bruits, celui du regret, celui du pourquoi jlai pas fait ? Pourquoi jlai pas dit ? Pourquoi jvais taffer ? Celui du battement dcur qui nsarrête pas car il a quune seule vie Ouais, cest vrai que jpense un peu trop Parce que jveux pas être le même quhier Parce que jveux pas faire les mêmes erreurs Mettre ma carrière avant lamour, tu mas changé25</t>
+          <t>Smith Wess' vient du marché noir Tu fais mal, je fais mal aussi Malfrat, si je sors ce soir Quelques balles dans ta carrosserie Ok Maléfique, sûrement fin tragique Négro parle comme un parasite Jsuis dans lombre, la lumière mattriste Elle nattire que la jalousie, love Oh, oh-oh, oh-oh Yeah On mentend ou pas ? Tant de peine dans mes sentiments, tant de love pour mon continent Tellement drage quand je lui dis Non Silencieux, pas de confident Pourri dseum, jvois mon fils rarement Oh Studio, tournée, père absent Mourir jeune, pourquoi vivre longtemps ? Pilon roulé, hibernation, le love Oh, oh-oh, oh-oh Yeah Bip, bip, bip Désolé mais la personne que vous avez appelée n'est pas disponible. Veuillez laisser un message après le signal sonore. Bip - Bonjour papa. Aujourd'hui, j'ai vu des poissons. Ils s'appellent comment, leurs noms ? - Heu, les poissons clowns. Heu, les piranhas... - Des piranhas, on a vu des piranhas, on a vu des poissons, on a vu des, des escargots, on a vu des poissons et des requins et des hippo... Hein ? Des a... des toiles de mer aussi, des deux toiles de mer Doucement, doucement Ne joue pas avec mes nerfs et mes sentiments Jme sens déjà très mal car mon fils me manque Jsuis plus avec sa mère et les bitches le savent, pourtant, elles m'disent que j'ai changé Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même, jai changé Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même Jai perdu des proches, certains sont pas morts, ils ont juste fait les traîtres Faut pas lapprocher car cest juste pour les fesses Jai limpression que, rien, cest tout cquil me reste Quand la nuit sachève, jpars avec elle, jplane Dans les quatre directions comme Off-White Jprends la dernière ligne de ma deadline Ce sont les bouts de mon cur brisé qui blessent, quand on le touche, on y reste, Dems Doucement, doucement Ne joue pas avec mes nerfs et mes sentiments Jme sens déjà très mal car mon fils me manque Jsuis plus avec sa mère et les bitches le savent, pourtant, elles m'disent que j'ai changé Ouh Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même, jai changé Ouh Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même Tu sais le silence ne fait que cinq bruits, celui du regret, celui du pourquoi jlai pas fait ? Pourquoi jlai pas dit ? Pourquoi jvais taffer ? Celui du battement dcur qui nsarrête pas car il a quune seule vie Ouais, cest vrai que jpense un peu trop Parce que jveux pas être le même quhier Parce que jveux pas faire les mêmes erreurs Mettre ma carrière avant lamour, tu mas changé25</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Soulayman Beats La vie de rêve, je n'y crois pas, comme la chatte refaite d'un travesti Sur joint de be-her, il reste trois taffes, vas-y, tue le, t'inquiète, on a investi À ch'val par d'ssus l'érection, son regard me fait signe de ne pas m'arrêter Cherche l'amour dans mauvais garçon mais j'en ai que pour celle qui m'a allaité En nuisette, son tissage est brésilien, j'lui f'rais faire le tour des méridiens M'évader l'plus loin possible, j'y tiens, j'fais tout pour être T2 sur tous les joints Un seul coup de poing, le cocard se dessine Face à l'embrouille, vrai négro n'passe pas de coup de fil J'l'ai doigté, tu n'la pointes que du doigt Ton cercueil, il n'y a que là que j'ai touché du bois Tu m'fais chier comme Arthur au nouvel an D'mes proches et d'mes ennemis, j'connais tous les noms T'es l'seul partisan de la paix ici, c'qu'on aime dans la guerre, c'est qu'ça paie aussi J'suis parti de rien mais j'n'ai toujours pas grand chose Quelques salopes malveillantes voudraient qu'on cause J'm'éloigne des gros culs aux talons aiguilles, j'fais du cash pour maintenir la daronne en vie Le temps, j'aimerais pouvoir le manier, trouver les graines du sablier M'emparer de l'avenir Du destin de ma mère à venir, à lui dire qu'elle n'est plus obligée de s'en aller Le temps, j'aimerais pouvoir le manier, trouver les graines du sablier M'emparer de l'avenir Du destin de ma mère à venir, à lui dire qu'elle n'est plus obligée de s'en aller You might also like Si jamais, j'pars avant toi mais qu'j'ai d'jà tout niqué, ne sois pas triste Déter', oui mais pour la mille-fa, j'partirai en fumée comme Patrice Seul dans le coin, accusé à tort, j'suis ni Charlie ni djihadiste Maîtresse m'en veut car j'suis noir comme Dark Vador, maîtresse est-elle raciste ? Y a pas meilleur abri que l'ventre d'une mère, pas de meilleur appui qu'un feat légendaire J'te l'dis c'est pas tout seul que j'me suis fait, j'te le dis c'est bien tout seul que j'vais m'les faire J'ai grandi à l'époque des pillages, les tirs de Kalash m'empêchaient de rêver Rebelles ennemis armés dans les parages, apeuré, à ne plus savoir qui j'étais Tout seul dans la merde, j'ai compris la vie, j'ai su qu'les amis, c'n'était pas pour la vie Dans sa rosette pour me consoler, j'tapais la causette pendant que j'l'enculais T'es trop vulgaire, tu s'ras censuré Damso, deux flows plus tard, premier son passe en radio J'capte Taylor Jon pour un show au Bloody J'mets d'côté pour maintenir la daronne en vie Le temps, j'aimerais pouvoir le manier, trouver les graines du sablier M'emparer de l'avenir Du destin de ma mère à venir, à lui dire qu'elle n'est plus obligée de s'en aller Le temps, j'aimerais pouvoir le manier, trouver les graines du sablier M'emparer de l'avenir Du destin de ma mère à venir, à lui dire qu'elle n'est plus obligée de s'en aller11</t>
+          <t>Soulayman Beats La vie de rêve, je n'y crois pas, comme la chatte refaite d'un travesti Sur joint de be-her, il reste trois taffes, vas-y, tue le, t'inquiète, on a investi À ch'val par d'ssus l'érection, son regard me fait signe de ne pas m'arrêter Cherche l'amour dans mauvais garçon mais j'en ai que pour celle qui m'a allaité En nuisette, son tissage est brésilien, j'lui f'rais faire le tour des méridiens M'évader l'plus loin possible, j'y tiens, j'fais tout pour être T2 sur tous les joints Un seul coup de poing, le cocard se dessine Face à l'embrouille, vrai négro n'passe pas de coup de fil J'l'ai doigté, tu n'la pointes que du doigt Ton cercueil, il n'y a que là que j'ai touché du bois Tu m'fais chier comme Arthur au nouvel an D'mes proches et d'mes ennemis, j'connais tous les noms T'es l'seul partisan de la paix ici, c'qu'on aime dans la guerre, c'est qu'ça paie aussi J'suis parti de rien mais j'n'ai toujours pas grand chose Quelques salopes malveillantes voudraient qu'on cause J'm'éloigne des gros culs aux talons aiguilles, j'fais du cash pour maintenir la daronne en vie Le temps, j'aimerais pouvoir le manier, trouver les graines du sablier M'emparer de l'avenir Du destin de ma mère à venir, à lui dire qu'elle n'est plus obligée de s'en aller Le temps, j'aimerais pouvoir le manier, trouver les graines du sablier M'emparer de l'avenir Du destin de ma mère à venir, à lui dire qu'elle n'est plus obligée de s'en aller Si jamais, j'pars avant toi mais qu'j'ai d'jà tout niqué, ne sois pas triste Déter', oui mais pour la mille-fa, j'partirai en fumée comme Patrice Seul dans le coin, accusé à tort, j'suis ni Charlie ni djihadiste Maîtresse m'en veut car j'suis noir comme Dark Vador, maîtresse est-elle raciste ? Y a pas meilleur abri que l'ventre d'une mère, pas de meilleur appui qu'un feat légendaire J'te l'dis c'est pas tout seul que j'me suis fait, j'te le dis c'est bien tout seul que j'vais m'les faire J'ai grandi à l'époque des pillages, les tirs de Kalash m'empêchaient de rêver Rebelles ennemis armés dans les parages, apeuré, à ne plus savoir qui j'étais Tout seul dans la merde, j'ai compris la vie, j'ai su qu'les amis, c'n'était pas pour la vie Dans sa rosette pour me consoler, j'tapais la causette pendant que j'l'enculais T'es trop vulgaire, tu s'ras censuré Damso, deux flows plus tard, premier son passe en radio J'capte Taylor Jon pour un show au Bloody J'mets d'côté pour maintenir la daronne en vie Le temps, j'aimerais pouvoir le manier, trouver les graines du sablier M'emparer de l'avenir Du destin de ma mère à venir, à lui dire qu'elle n'est plus obligée de s'en aller Le temps, j'aimerais pouvoir le manier, trouver les graines du sablier M'emparer de l'avenir Du destin de ma mère à venir, à lui dire qu'elle n'est plus obligée de s'en aller11</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tueurs, tueurs, tueurs, ouais, ouais Tueurs, tueurs, tueurs, hey Yeah, yeah, yeah, yeah, yeah, tueurs, tueurs, tueurs Yeah, yeah, yeah Hey, on m'parle de taffer pour des thunes dont j'profiterai même pas Ils oublient qu'ma vie, j'en ai qu'une, j'vis comme dans Koh-Lanta Cette vie de rêve, c'est avoir un gosse, une meuf, une Chevrolet Trop charbonner, une villa, un vélo d'ville, être sous contrat S'lever à six du mat' ensuite déposer le fiston Qui, lui, quand il grandira, profitera de tous mes pistons Routine hebdomadaire donc obligé d'prendre des congés Une vie tellement robotisée qu'j'sais déjà dans quoi dépenser Ces crédits immobiliers, minervals d'université Collier d'perles des Champs-Élysées pour nos dix ans d'mariage soudé, non, non, non J'veux pas de ça, perdre des sous pour des paires de seins Être père et mari, boss d'une PME, toucher six mille deux cents Pour certains, c'est l'paradis, moi, j'veux pas refaire des vies J'veux vivre un truc inédit, genre Fifty, Jay Z, P. Diddy, ouais, ouais, ouais J'suis fatigué d'leur vision d'la réalité Vingt-cinq ans dans l'humanité sans aucune humanité You might also like Et je pense Que si la vie ne m'donne pas tout c'que j'lui d'mande, j'passerai par la violence Qu'importent les crimes, morts, victimes innocentes Dans la vie, chacun sa chance Dans l'oubli, loin des bruits des gyrophares, caméras de surveillance Mon gun fait la surveillance Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Ouais, la mort est ma raison de vivre Mon vécu est ivre mort, rêvasse sur son sort Toujours à penser qu'il s'ra libre Mais la vraie prison s'trouve dehors, proche des coffres-forts Mon âme sur dans un kilo d'shit Quand la vie t'baise, y a pas d'pilule, loin des yeux, près d'ta cellule Ce rap de merde n'a plus de vivres Mais j'suis là, j'fais qu'niquer des mères, à force, j'sais plus quoi faire Sa schneck atteinte de varicelle donc j'vis d'amour que sur ses lèvres Vrai négro vivra ses rêves et c'la forever T'étais là mais j't'ai pas vu, un peu comme ta carrière En manque de mains plus qu'hier, les traites sont pas qu'négrières Ils promettent le paradis avec une pelle en main oui J'te dis J't'aime aujourd'hui pour une histoire sans lendemain On est c'qu'on a parce quon a eu donc j'donne le mien pour prendre le tien Si j'prends les vôtres, c'est pour les miens à mourir Et je pense Que si la vie ne m'donne pas tout c'que j'lui d'mande, j'passerai par la violence Qu'importent les crimes, morts, victimes innocentes Dans la vie, chacun sa chance Dans l'oubli, loin des bruits des gyrophares, caméras de surveillance Mon gun fait la surveillance Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Tueurs, tueurs, tueurs Tueurs, tueurs, tueurs Tueurs, tueurs, tueurs Tueurs, tueurs, tueurs12</t>
+          <t>Tueurs, tueurs, tueurs, ouais, ouais Tueurs, tueurs, tueurs, hey Yeah, yeah, yeah, yeah, yeah, tueurs, tueurs, tueurs Yeah, yeah, yeah Hey, on m'parle de taffer pour des thunes dont j'profiterai même pas Ils oublient qu'ma vie, j'en ai qu'une, j'vis comme dans Koh-Lanta Cette vie de rêve, c'est avoir un gosse, une meuf, une Chevrolet Trop charbonner, une villa, un vélo d'ville, être sous contrat S'lever à six du mat' ensuite déposer le fiston Qui, lui, quand il grandira, profitera de tous mes pistons Routine hebdomadaire donc obligé d'prendre des congés Une vie tellement robotisée qu'j'sais déjà dans quoi dépenser Ces crédits immobiliers, minervals d'université Collier d'perles des Champs-Élysées pour nos dix ans d'mariage soudé, non, non, non J'veux pas de ça, perdre des sous pour des paires de seins Être père et mari, boss d'une PME, toucher six mille deux cents Pour certains, c'est l'paradis, moi, j'veux pas refaire des vies J'veux vivre un truc inédit, genre Fifty, Jay Z, P. Diddy, ouais, ouais, ouais J'suis fatigué d'leur vision d'la réalité Vingt-cinq ans dans l'humanité sans aucune humanité Et je pense Que si la vie ne m'donne pas tout c'que j'lui d'mande, j'passerai par la violence Qu'importent les crimes, morts, victimes innocentes Dans la vie, chacun sa chance Dans l'oubli, loin des bruits des gyrophares, caméras de surveillance Mon gun fait la surveillance Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Ouais, la mort est ma raison de vivre Mon vécu est ivre mort, rêvasse sur son sort Toujours à penser qu'il s'ra libre Mais la vraie prison s'trouve dehors, proche des coffres-forts Mon âme sur dans un kilo d'shit Quand la vie t'baise, y a pas d'pilule, loin des yeux, près d'ta cellule Ce rap de merde n'a plus de vivres Mais j'suis là, j'fais qu'niquer des mères, à force, j'sais plus quoi faire Sa schneck atteinte de varicelle donc j'vis d'amour que sur ses lèvres Vrai négro vivra ses rêves et c'la forever T'étais là mais j't'ai pas vu, un peu comme ta carrière En manque de mains plus qu'hier, les traites sont pas qu'négrières Ils promettent le paradis avec une pelle en main oui J'te dis J't'aime aujourd'hui pour une histoire sans lendemain On est c'qu'on a parce quon a eu donc j'donne le mien pour prendre le tien Si j'prends les vôtres, c'est pour les miens à mourir Et je pense Que si la vie ne m'donne pas tout c'que j'lui d'mande, j'passerai par la violence Qu'importent les crimes, morts, victimes innocentes Dans la vie, chacun sa chance Dans l'oubli, loin des bruits des gyrophares, caméras de surveillance Mon gun fait la surveillance Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Tueurs, tueurs, tueurs ba-ba-ba-bang, bang Tueurs, tueurs, tueurs Tueurs, tueurs, tueurs Tueurs, tueurs, tueurs Tueurs, tueurs, tueurs12</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ouais, ouais Silence, je ne parle pas Écoute c'que j'ai à dire quand je parle de toi J'veux qu'tu me devines, que tu meures de moi Viens dans ma tête, ne dis plus un mot J's'rai ton paradis si l'Enfer est l'autre Hey Vous les femmes, cest toujours pareil quand le drame sabat, vous pleurez Vous les hommes, cest toujours pareil quand le drame sabat, vous courez Cpour ça qu'les relations sarrêtent, jai tort, cest ma faute Sentiments égarés, on sourit pour ne pas pleurer On soublie pour ne plus saimer, cherche la perfection pour fuir la réalité Le vrai problème, cest quà chaque fois qu'cest le même problème chatouilles de bijoux, pardonné, entraîne bisous empoisonnés Précède un je t'aime qui na pas oublié que tas aimé un autre C'est la tienne ou ma faute ? Ta vérité n'est pas la mienne Ta vérité n'est pas la mienne Ta vérité n'est pas la mienne Car je tombe et puis, c'est moi qui traîneYou might also like12</t>
+          <t>Ouais, ouais Silence, je ne parle pas Écoute c'que j'ai à dire quand je parle de toi J'veux qu'tu me devines, que tu meures de moi Viens dans ma tête, ne dis plus un mot J's'rai ton paradis si l'Enfer est l'autre Hey Vous les femmes, cest toujours pareil quand le drame sabat, vous pleurez Vous les hommes, cest toujours pareil quand le drame sabat, vous courez Cpour ça qu'les relations sarrêtent, jai tort, cest ma faute Sentiments égarés, on sourit pour ne pas pleurer On soublie pour ne plus saimer, cherche la perfection pour fuir la réalité Le vrai problème, cest quà chaque fois qu'cest le même problème chatouilles de bijoux, pardonné, entraîne bisous empoisonnés Précède un je t'aime qui na pas oublié que tas aimé un autre C'est la tienne ou ma faute ? Ta vérité n'est pas la mienne Ta vérité n'est pas la mienne Ta vérité n'est pas la mienne Car je tombe et puis, c'est moi qui traîne12</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lens Dupuy Hey, hey Nous sommes Vie, FuentesVie, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey Demande pas d'où vient le pognon ? Argent propre et sale, nous prenons Africains sans vrai gouvernement, nous pleurons, nous pleurons, nous saignons Ils m'connaissent depuis qu'on est gamins, quand financièrement j'allais très bien Quand toit au-d'ssus d'moi y avait plus rien, j'ai vu aucun d'ces fils de putain La bourgeoisie, j'y ai goûté sept-milles euros maman touchait La pauvreté, j'y ai goûté sept-cents euros maman touchait Ils s'demandent pourquoi j'fais le sale nègre ? Comme si j'avais l'choix de faire autre chose Soit business illégaux tu proposes, soit tu fermes ta gueule à tout jamais Ma bite dans le gros cul du passé mais c'est dans l'tur-fu que j'ai craché J'suis défoncé dans le quartier, policier demande mes papiers La rue au sommet, j'viens de tellement loin, beaucoup de bâtons dans les roues, en vain Pied de biche pour une mise à pied, niquer des mères jusqu'à c'qu'y en ait plus assez Tu fais ta gueule, fais-le chaud mais souviens-toi quand t'étais gros Plus b'soin de combler mes besoins, depuis qu'femme et enfant, j'entretiens J'ai d'mandé son num, elle a dit non mais depuis qu'en vues, j'fais des millions J'tire sur ennemi et son chignon, le succès m'a-t-il rendu mignon ? You might also like J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey Quand j'vois son boule, j'suis ébloui, à l'ancienne, j'danse le boogie J'serais ton Monk, tu s'ras ma Trudy, j'l'ai pas mariée pourtant elle crie oui Elle m'a vu grandir, j'la vois mourir, ça peut pas marcher donc j'vais courir Hentaï dans l'érection, j'ai jauni, vie noire et rose comme Marie-Thérèse Cuny Sa tte-cha danse le Ndombolo, j'ai plus de paroles qu'Alain Delon Damso, Charo comme Matuidi, j'ai M sur le front tel Babidi J'partage ma vie dans mes morceaux, j'tourne en rond comme table de Lancelot Pour réussir ta vie, faut qu't'étudies, j'sais pas qui m'l'a dit, sûrement Carla Bruni J'fais que du sale hey, négros sont pas prêts J'suis dans le noir, très, j'suis dans le square, j'beh Si j'veux être, il m'faut des avoirs, plus de liquide que dans le lavoir Elle touche la barre comme un shiteu, souvent les plus moches qui sucent le mieux J'fais que du sale hey, négros sont pas prêts J'suis dans le noir, très, j'suis dans le square, j'beh Genius League dans l'écurie, points d'suspension, Stephen Curry Le diable dans mes actes, j'suis puni No iPhone, Vie BlackBerry J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey8</t>
+          <t>Lens Dupuy Hey, hey Nous sommes Vie, FuentesVie, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey Demande pas d'où vient le pognon ? Argent propre et sale, nous prenons Africains sans vrai gouvernement, nous pleurons, nous pleurons, nous saignons Ils m'connaissent depuis qu'on est gamins, quand financièrement j'allais très bien Quand toit au-d'ssus d'moi y avait plus rien, j'ai vu aucun d'ces fils de putain La bourgeoisie, j'y ai goûté sept-milles euros maman touchait La pauvreté, j'y ai goûté sept-cents euros maman touchait Ils s'demandent pourquoi j'fais le sale nègre ? Comme si j'avais l'choix de faire autre chose Soit business illégaux tu proposes, soit tu fermes ta gueule à tout jamais Ma bite dans le gros cul du passé mais c'est dans l'tur-fu que j'ai craché J'suis défoncé dans le quartier, policier demande mes papiers La rue au sommet, j'viens de tellement loin, beaucoup de bâtons dans les roues, en vain Pied de biche pour une mise à pied, niquer des mères jusqu'à c'qu'y en ait plus assez Tu fais ta gueule, fais-le chaud mais souviens-toi quand t'étais gros Plus b'soin de combler mes besoins, depuis qu'femme et enfant, j'entretiens J'ai d'mandé son num, elle a dit non mais depuis qu'en vues, j'fais des millions J'tire sur ennemi et son chignon, le succès m'a-t-il rendu mignon ? J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey Quand j'vois son boule, j'suis ébloui, à l'ancienne, j'danse le boogie J'serais ton Monk, tu s'ras ma Trudy, j'l'ai pas mariée pourtant elle crie oui Elle m'a vu grandir, j'la vois mourir, ça peut pas marcher donc j'vais courir Hentaï dans l'érection, j'ai jauni, vie noire et rose comme Marie-Thérèse Cuny Sa tte-cha danse le Ndombolo, j'ai plus de paroles qu'Alain Delon Damso, Charo comme Matuidi, j'ai M sur le front tel Babidi J'partage ma vie dans mes morceaux, j'tourne en rond comme table de Lancelot Pour réussir ta vie, faut qu't'étudies, j'sais pas qui m'l'a dit, sûrement Carla Bruni J'fais que du sale hey, négros sont pas prêts J'suis dans le noir, très, j'suis dans le square, j'beh Si j'veux être, il m'faut des avoirs, plus de liquide que dans le lavoir Elle touche la barre comme un shiteu, souvent les plus moches qui sucent le mieux J'fais que du sale hey, négros sont pas prêts J'suis dans le noir, très, j'suis dans le square, j'beh Genius League dans l'écurie, points d'suspension, Stephen Curry Le diable dans mes actes, j'suis puni No iPhone, Vie BlackBerry J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey J'fais que du sale hey, j'fais que du sale hey, hey8</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Réalité hollywoodienne chez moi putain c'est chaud Certains attendent que la mort vienne demain ou même plus tôt Le ciel est rouge, il pleut des larmes de sang Maman m'a dit qu'à l'époque les gens vivaient bien plus longtemps Réveillé dans la stupeur, un nouveau nom dans le vent Certains diront que c'est super, en pleurant à l'enterrement Que j'm'en souvienne, beaucoup n'ont pas vu le printemps J'en verse une à la tienne, de temps en temps Everyday a mama cry Everyday a mama cry Innocent ou criminal Enterrement et tribunal Everyday, everyday Everyday, everyday Everyday a mama cry Everyday a... Un coup d'fil anonyme dans ta tess Donne deux trois indices, j'ai ton adresse J'prends le plus p'tit vaillant qui sors du hebs Il t'liquide ta mère, j'paye ses vacances Allô, j'décroche mon bigo, la sur d'un rappeur veut de la tendresse Oh, complètement barjo, j'ai baisé sa mère par maladresse Coro des coro Tavares, j'veux l'feat avec Selena Gomez Tout est noir comme chez les Gomis, j'suis congolais comme Georges N'goma Martinique, Gwadada, Guyana, des criminels comme mon gars Sam Pas d'camarades, j'suis pas Zoumana, j'suis capitaine, je veux mon brassard J'suis dans le Biz You might also like J'te vois pas dans nos célébrations ni aux enterrements Tu galères pour nous compter, negro on est tellement T'as voulu t'imposer, tu t'es fait étaler bêtement Y'a des charos, des généraux, pirates depuis longtemps Qui pourra stopper la street'zer ? Banlieusards forts et fiers Bénis soient les miens Rebelles depuis le sein Rebelles depuis le sein Bénis soient les miens Je n'ai qu'un seul gang 92i Fuck le yang, fuck le yin T'es bonne en cuisine, t'es bonne en legging J'suis né dans les grands vins, t'es mort dans les vignes Défier le Duc à mains nues, on évite Plomb dans les vitres, à la barre on est huit Kilos de shit, Audi A8 Tes petites fuites, des délits de fuite Tu dors dans nos hôtels t'as la petite suite J'aime ni le grand flic, ni la petite schmitt 10 ans en centrale ça passera vite, 10 ans en centrale ça passera vite T'as inventé la pipe, tu me suces la bite J'ai main de gorille, tu vas te manger la gifle Je fuck la pauvre et je fuck la riche Si tu cherches l'oseille, tu demandes à Kaaris AK-47 dans ma boite à malices J'm'en bats les couilles de tout, c'est mahlich Avant d'manger tes morts, tu vas t'manger la vitre Noire est la liste, noir est l'artiste J'viens d'passer la Suisse, j'viens de passer l'A6 D.U.C, je confirme on a touché la cible D.U.C, je confirme on a tou... Je les encule, les encule et ainsi de suite T'es pas sur OKLM, il faut changer de site Éclat de métal dans fibre optique Mes compatriotes ont arme patriotique Quelques likes tu t'es senti bionique J'vais t'tirer d'ssus, arrête les antibiotiques Le A-R n'a que faire de l'acoustique Début de carrière dans l'arrière-boutique Siliconée, pas besoin de soutif J'les vois agoniser, pas besoin de sous-titres Neuf-millimètré car c'est préconisé Kunta Kinté, terrorisé Le rap français Calogeroisé Biatch, on va t'Claudia Sampedro-iser Sale, négro, j'vais te coloniser T'as zéro swag'zer on va te Olomider Première dose gratos, le bolosse est fidélisé Vatos Locos, un por todos, Athéna me suce à Mykonos Sur ma table, y'a une pute qui danse debout, y'a ma paire de cojones La prochaine fois que tu veux m'ver-soule, hassoul, envoie des voyous qui s'y connaissent Cherche pas les clés d'mon cur, j'ai que les clés d'la Lambo J'suis à Key Largo, niquer des mères c'est le scénario Niska, Damso Niquer des mères c'est le scénario KLH, B2O Niquer des mères c'est le scénario Dams-OPG dans le block Belgium vie MarcWilmots 92i big up à Kopp J'fais que du sale sur Périscope Fruity Loops noires sont les notes J'la baise dans l'cul j'paye pas la dot Dans mes pes-cli j'fume d'la drogue Je ne ris que sous protoxyde d'azote Mon maître majeur dans sa te-chat, c'est la noyade J'suis suspecté comme si j'venais d'sortir d'chez Jawad J'n'ai pas l'temps pour les tchoins, sauf si j'te fuck gratuitement Négro allume un joint, on n'fume pas d'clope dans l'appartement Toujours caleçon à l'air, mon bas-fesses est impeccable Par derrière, comme passagère sur ma bécane J'filmerai tous sur les réseaux oui oui ta chatte sera ruiné J'vais t'cramer au monde entier, grillé, j'vais te Serge Aurier Damso, yeah Charo, Ouais! Ça pète C'est chaud aujourd'hui ma gueule Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Quand j'la monte en l'air je n'calcule pas le reste J'suis dans le fond du binks j'ressens mes démons Si je t'allume au fer t'auras la COTOREP Le 3-5-7 frotte ma quéquette.. PULL UP PULL UP Une fois, deux fois, trois fois, autant d'fois qu'il le faudra ROULEZ ! Ok on repart ma gueule, comme jamais Charo, Pirate ! Elle a mal aux reins.. Elle a mal aux reins.. Elle a mal aux reins.. Elle a mal aux reins... Elle a mal aux reins quand je la démonte Quand j'la monte en l'air Elle a mal aux reins quand je la démonte Quand j'la monte en l'air je n'calcule pas le reste J'suis dans le fond du binks, j'ressens mes démons Si je t'allume au fer t'auras la COTOREP Le 3-5-7 frotte ma quéquette Le frère de Djeba frotte la bavette Oh, j'dois faire des pépettes J'veux pas finir d'vant la cafet' J'suis dans l'truc, j'suis dans l'tieks 2016, y'a plus de tête à tête Chez nous, c'est balles à tête J'te l'répète, chez nous c'est balles à tête Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Quand j'la monte en l'air je n'calcule pas le reste Nueve nueve uno Nueve nueve uno Nueve nueve uno Nueve nueve uno 92i Prr prr, fly like a bird La ni yin ki badman, la pa ti ni pon bleu Bon chinese, black man ek rebeu Yinki business sal, son sal, yeah allimé la beuh T'as un magnum j'en ai deux Yeah man j'en ai deux un noir, un bleu J'allume le feu sur celui qui veut, à côté des enfants se ploter la queue Ils parlent mais feront-ils mieux, feront-ils mieux, feront-ils mieux que mon équipe de feu ? Vrai négro, je n'ai peur que de Dieu Lord have mercy, je connais ma Bible Même sans maille, pas d'faille, j'me taillade aux bailles traversés dans un canot à feu Où sont ces boeufs, boeufs, boeufs, boeufs ? Couvre feu ! Gunshot inna belly sé on déli Moun la ka mô fen mè kay yo ka anbéli Jet privé ka atéri adan on péyi Difé konbyen moun ka péri Lesklavaj aboli yo pa lé moli Lé kontrolé nou kon koli Sé on koneri pou fè money Boum bang kon montana tony Gunshot inna belly sé on déli Moun la ka mô fen mè kay yo ka anbéli Jet privé ka atéri adan on péyi Difé konbyen moun ka péri Lesklavaj aboli yo pa lé moli Lé kontrolé nou kon koli Sé on koneri pou fè money Couvre feu ! C'est l'heure du crime, les pédales se cachent 9 millimètres sur un corps de lâche Salam la nourrice du 9ème étage Salam Aux frérots déters, qui butent dans la cage Cerruti, Cerruti O'Bla La Maserati O'Bla Chaussures assorties O'Bla C'est moi qui conduit, ok ! Ouais j'ai la dalle comme si j'sortais d'la DASS Tu joues les gros bras mais ta sur fait la tass Les ennemies, je les écrase Je fais des showcases, je brasse et je brasse Comme un Charo, j'te met K.O comme Pacquiao J'fonce en X6, pas dans le panneau DJ Bellek gère le piano J'manie les mots et la mélo' Papier panier piano Je donne l'heure et ciao ! Comme les grossistes donnent les taros Grossistes donnent les taros Grossistes donnent les taros Yo lé testé mè yo pa de tay Yo ni pou flexé douvan lé rude boy Bad a Bad Man ka brilé pussy-Boy Bad a Bad Man ka kill a batty-boy Yo lé testé mè yo pa de tay Yo ni pou flexé douvan lé rude boy Bad a Bad Man ka brilé pussy-Boy Bad a Bad Man ka kill a batty-boy Perdu dans ma tête mais je pète les plombs Fais le BCBG mais j'ai baisé que des thons J'ai que bonasse, connasse, grognasse, pétasse, j'en passe, j'm'en lasse Putain bref, ok laisse ber-tom Putain je crane tous seul, parle tous seul Peu de monologue, poto d'homologues, j'ai peu de dialogue J'deviens de ceux, qui s'en soucient Se saoulent seul, en plus de ça je perd des sous C'est bête moi je subit tout, me ruine au subito C'qui fait qu't'as mal quand t'évites ceux qui trainent trop J'suis paresseux, j'perd la raison et ça ça paraît fou Parce que j'ai la tête du gars qui n'a pas ce genre de défaut Mais damn, ma vie bascule Du bonheur que quand j'éjacule J'vais péter pendant ce son je flatule Faut remettre les clics au dessus des pendules J'rêve de partir loin dans une capsule Évidemment que j'manie le mic' comme un pyromane Demande my men, à chaque fois que j'les ken l'enfer se déchaîne Mes ennemis s'entrainent, voudraient que je saigne Remuent terre et ciel, mais bon j'ai des guns One again comme Hurricane je les goums dès le premier round Le peura me défoule mais souvent me saoule quand ça parle d'embrouille Et de vos rappeurs brouillons qui ont aucune couille veulent parler de douilles mais crient Hallelujah quand ça pars en couille Allez fuck ! Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz.. Selecta poulop poulop poulop! Pardon Kopp, obligé d'te couper Une fois, deux fois, trois fois, autant d'fois qu'il le faudra J'ai nommé 92i veyron, exclusivité Couvre Feu Pas la peine d'aller chercher ailleurs, c'est ici qu'ça s'passe Hé, mr Kopp dans la maison, Kalash dans la maison, Niska dans la maison, Damso dans la maison Couvre Feu, couvrez vous ! Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz, ni au McDonald's Si c'est eux qui ont raison, je n'suis pas raisonnable La rafale dans ton salon sera sûrement désagréable Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz, ni au McDonald's Si c'est eux qui ont raison, je n'suis pas raisonnable La rafale dans ton salon sera sûrement désagréable On trinque à nos balafres, à nos crochets tous les soirs Noir c'est noir, ont-ils dit, y'a donc vraiment plus d'espoir Les vainqueurs l'écrivent, les vaincus racontent l'histoire Les vainqueurs l'écrivent, les vaincus racontent l'histoire Personne dans le monde ne marche du même pas ...C'est ça qu'ils n'comprennent pas Des allers-retours en prison, certains n'en reviennent pas J'ai une kalash et des mouftons, tous sous le même toit Toujours d'humeur à les lever, que l'avenir suce mon troisième doigt Non, je n't'aime pas, ni celui qui est avec toi Y'a que quand tu baises ta daronne que j'suis de tout cur avec toi T'as même pas de quoi me faire fumer, qu'est-ce que j'vais faire avec toi ? Je parle de rue car j'y ai baigné, même si j'y suis beaucoup moins ...T.O B.A.T.O, boug an mwen Violences illicites, comptes débités Pacsons, bruits de shit, contrôle évité Vie de prises de risques, dinfidélités Pute veut faire la bise mais pute a déjà sucé Parle de rue mais rue ne t'as pas créditée Prend mon dû, par vues et textes rédigés Viens au dessus, la vue est mieux en V.I.P J't'ai baisé, j't'ai quitté, j'sais même pas qui t'es Du Louis, Gucci sur la table, j'ai fais d'mon mieux Quelle vie vit-on quand on a pas la vie qu'on veux Ta mère j'l'ai niqué sur la chatte à ton vieux Croyant car même le diable à déjà cru en Dieu On t'as jamais vu, comme le vrai cul de Kim Kardashian Nwar Gaule affamée quand j'la vois sur l'allée, depuis la chambre du bâtiment Les haineux disent que t'es ma bitch se mentent entre eux Trait d'union J'ai la gauloise en plein Zénith, elle donne heure et direction Un bon bédo par ici la défonce C'est marqué vu mais toujours pas de réponse Tou sa mwen ni men goumé bay An pa jen ouvè pon la pot' ba pon sheitan Préci kon dealè ka van shit au détail An ka posé son la an ni frisson ka pran mwen mè an pa ka moli Chak fraz sé on rime An pa biswen ba la dime pou Papa la fè mwen signe ! Monté, démonté Jounou a tè ki ka konté Ja ni lontan manman di mwen pa ay fly la y pani Bondyé Aah aah Préci kon dealè ka van shit au détail Aah aah Préci.. Adan 4 croisées an paka tremblé Bondyé sel an ka doué A pa diab a yo ké fe'm tombé Lajen paka fe'm chanjé Kouté mwen ! Adan 4 croisées an paka tremblé Big up Gato de Bato tout l'temps, déja fout koné Ok, ahah, Zifukoro, de la B, comme jamain Depuis que je perce.. Tu sais ce que les ti-peu m'ont dit, depuis que je perce ? Tu sais ce que les ti-peu m'ont dit, depuis que je perce ? Tu sais ce que les ti-peu m'ont dit ? Tu sais ce que les ti-peu m'ont dit, depuis que je perce, y'a plus de ... ouais Tu sais ce que les ti-peu m'ont.. OK ! Tu sais ce que les ti-peu m'ont dit, depuis que je perce y'a plus de consommateurs Le marron devient même du yellow je suis magicien je suis un transformateur Le charo ne parle pas beaucoup et tte-ma le boug, le sujet est maitrisé Dîner sur les Champs-Elysées avec mon président je ne peux pas refuser Je suis dans la fusée des fusées je contrôle la ne-zo, comme la NASA Les pauvres ils sont trop dégoûtés même dans leurs showcases je pète les caissons Rapper pour moi c'est trop facile, comme un colombien qui cuisine la résine Si demain je sens la perquis' y a pas de soucis je dors chez la voisine Allo, t'es où ? Oh seigneur t'es là ! Bango ba zo lela nazo ko sepela J'ai trop le truc à la 2Pac et Biggie, ce genre de beat me fait bouger J'écris mes textes dans un buggy je vais te sortir mon flingue tu vas buguer pay pay Je vais te sortir mon flingue tu vas buguer Je vais te sortir mon flingue tu vas buguer Je vais te sortir mon flingue tu vas buguer, Commando ! Comman, comman ! Real badman n'agit pas comme un drag queen Gyal viens m'voir j'ai le bras long comme Dalsim Y'a que des real rude boi présents dans le casting Mes négros ne parlent pas ils agissent en sourdine Nou pa té ni pon combine épi pon pussyroll ting Yo sé real fish, yo tout' la ka mèt' string Et y'a beaucoup d'imposta, badman en ballerines Infama sera tué à la pleine lune T'entends les han-han, han-han, before me start kill Comme Kartel ils veulent m'enfermer pour crime Mais j'ai des avocats plus bad que la police en civil Je manie les mots... Dem no bad like me, général à l'armée Général comme à l'armée Dem no bad like me, même s'ils sont armés J'tue les soundboy toute l'année Dem no bad like me, général à l'armée Général comme à l'armée Dem no bad like me, même s'ils sont armés J'tue les soundboy toute... watcha watcha, hey hey J'avance tranquille toute l'année Je connais des real toxicos et des fumeurs d'amné' Les gyal sont rough quand elles wine leur body A base de han-han han-han que des fat puna' Hey yo mi gangsta DJ pla-pla-pla-play Pas de fake nigga présent dans mon armée Real général ne fait pas de quartier Nous on laisse brûler, lighter in the air Shalalalala Like Buju Banton boom bang Pull up! Eeh, Poulop ! Eh que d'la boucherie, eh on fait pas les choses au minimum ici, que au maximum T'entends pas ou quoi yeah, on est au max de la maxance Dj Fax on est ready ? Eh on perd pas d'temps, roulez ! KLH, madinina, 972 Oh, Welcome to the trés trés sale Gato da Bato OKLM radio, couvre feu .. Même à travers fumée d'chicha, j'y vois net J'y vais pour Niafous, Beurettes, Antoinette Poulop ! Attends, attends ! Dj Fax, remets ça calmement Eh dans la maison y'a Monsieur Kalash, y'a Monsieur Niska, y'a Monsieur Damso, y'a Monsieur Kopp! En live du couvre feu, pas la peine d'aller chercher ailleurs, c'est ici qu'ca c'passe T'entends pas ou quoi ? Couvre Feu, Bah oui c'est d'la lourdeur Kopp ready ? Roulez ! Ok... welcome, welcome Welcome to the sal... 92i, Charo life, KLH dans la maison Jacky Brown, Neg'Marrons Même à travers fumée d'chicha, j'y vois net J'y vais pour Niafous, Beurettes, Antoinette Rendez-nous nos 200 filles, rendez-moi mon Ouloulou J'suis au téléphone sans fil'zer, au couvre souloulou Qui a niqué sa carrière bêtement en clashant ? Hassoul-ouloul, hassoul-ouloul, à vous d'juger Au QG je retire cagoul-ouloule Toute ta carrière elle est bidon Tu m'as vu à la télévision sur ma télévision Paie-moi tout en amont ou finis momie Toutankhamon Après le show les plus canons finissent dans le camion Mon super-héros c'Chaka Zulu, c'pas Belmondo Tu suces pour un Ouloulou, tu quittes le bando On t'a jamais vu, comme la go à Columbo Nique ta grand-mère d'côté d'ta mère avec la bite à Mutombo La bite'zer à Mutombo, Muto-Mutombo, ouloulou, ouloulou J'faisais d'l'oseille comme s'il en pleut Avant qu'mes anges ne naissent Si je vois la vie en bleu c'est comme un Crips d'Los Angeles Ouloulou, gros culs elles avaient, sales négros elles ameutèrent 13, bonheur ou malheur, kalashé sur La Canebière Étoile du Nord comme Alonzo, sur l'terter sans Ballon d'Or J'suis au Pérou, café noir, à l'écart d'tout Malongo Unis pour le sale, que faux négros se blessent Je parle fort pour pas qu'la France d'en haut se baisse Sur la vie d'mon jnoun, j'pars pas sans l'or au cou Tu vaux rien comme un selfie d'la chatte à Laure Manaudou Perdu dans un harem, méchante cuite, je tiens debout Cinq ma, cinq Mathusalems de suite, ouloulou Give some Hennessy, j'm'arrache en soundsystem Selecta pull up ! Sound system, c'est couvre feu, c'est comme ça Tous les samedis, 20h-22h on leur mets ça bien OKLM radio ROULEZ ! Welcome to Couvre Feu Xelcome to the S.A.M, comme jamais Mada, gwada, Réunion, Haiti, Guyana Dem no bad like bomboclat Give some Hennessy, j'm'arrache en soundsystem Je sens qu'ce soir c'est la bonne Nuage de fumée convoi exceptionnel Tout est sous contrôle ! Mes yeux sont red, je vois la vie en red Mes yeux sont red, Charo tell 'em J'suis sur les Antilles mes gavas sont locksés Tête énervée comme Dark Vador, sabre laser comme Anakin Counia manmanw je vous encule bang ! bang ! bang ! Jungle jungle jungle, les petits ne veulent plus qu'on les vire qu'on les engueule Ils nous respectent car savent qu'on a fait du leum Bacodji-Bacodjicoroni, poto, poto, Niarry Talli gang J'enfile des gants pour t'enlever la vie, et quand je le fais je le fais par hygiène Je coupe et j'emballe et tu inhales Dans le couloir de la mort il n'y a qu'une allée Je bouge mes épaules comme au funaná Et même en été je vis sous la neige J'entends des Alala bullet-let, bullet-let, poli-lice Non non ne paniques pas ce n'est que le C'est l'état qui m'nique, c'est le people au coeur du more fire Y'en a qui mili-li-lite chaque minu-nu-nute Allument des bédos dynami-ni-nite, mi-ni-nite And I feel-eel-eel, feel-eel-eel, so real-eal-eal So real-eal-eal, so real-eal-eal J'suis pas débile-ile-ile-ile-ile, je kill-ill-ill-ill-ill Visant le mile-ile-ile-ile-ile, perds pas mon fil-il-il-il-il Tranquille-ille-ille-ille-ille, j'explose la mine-ine-ine-ine-ine Un battement de cil-il-il-il-il suffit pour alerter toute La ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille Pull up!7</t>
+          <t>Réalité hollywoodienne chez moi putain c'est chaud Certains attendent que la mort vienne demain ou même plus tôt Le ciel est rouge, il pleut des larmes de sang Maman m'a dit qu'à l'époque les gens vivaient bien plus longtemps Réveillé dans la stupeur, un nouveau nom dans le vent Certains diront que c'est super, en pleurant à l'enterrement Que j'm'en souvienne, beaucoup n'ont pas vu le printemps J'en verse une à la tienne, de temps en temps Everyday a mama cry Everyday a mama cry Innocent ou criminal Enterrement et tribunal Everyday, everyday Everyday, everyday Everyday a mama cry Everyday a... Un coup d'fil anonyme dans ta tess Donne deux trois indices, j'ai ton adresse J'prends le plus p'tit vaillant qui sors du hebs Il t'liquide ta mère, j'paye ses vacances Allô, j'décroche mon bigo, la sur d'un rappeur veut de la tendresse Oh, complètement barjo, j'ai baisé sa mère par maladresse Coro des coro Tavares, j'veux l'feat avec Selena Gomez Tout est noir comme chez les Gomis, j'suis congolais comme Georges N'goma Martinique, Gwadada, Guyana, des criminels comme mon gars Sam Pas d'camarades, j'suis pas Zoumana, j'suis capitaine, je veux mon brassard J'suis dans le Biz J'te vois pas dans nos célébrations ni aux enterrements Tu galères pour nous compter, negro on est tellement T'as voulu t'imposer, tu t'es fait étaler bêtement Y'a des charos, des généraux, pirates depuis longtemps Qui pourra stopper la street'zer ? Banlieusards forts et fiers Bénis soient les miens Rebelles depuis le sein Rebelles depuis le sein Bénis soient les miens Je n'ai qu'un seul gang 92i Fuck le yang, fuck le yin T'es bonne en cuisine, t'es bonne en legging J'suis né dans les grands vins, t'es mort dans les vignes Défier le Duc à mains nues, on évite Plomb dans les vitres, à la barre on est huit Kilos de shit, Audi A8 Tes petites fuites, des délits de fuite Tu dors dans nos hôtels t'as la petite suite J'aime ni le grand flic, ni la petite schmitt 10 ans en centrale ça passera vite, 10 ans en centrale ça passera vite T'as inventé la pipe, tu me suces la bite J'ai main de gorille, tu vas te manger la gifle Je fuck la pauvre et je fuck la riche Si tu cherches l'oseille, tu demandes à Kaaris AK-47 dans ma boite à malices J'm'en bats les couilles de tout, c'est mahlich Avant d'manger tes morts, tu vas t'manger la vitre Noire est la liste, noir est l'artiste J'viens d'passer la Suisse, j'viens de passer l'A6 D.U.C, je confirme on a touché la cible D.U.C, je confirme on a tou... Je les encule, les encule et ainsi de suite T'es pas sur OKLM, il faut changer de site Éclat de métal dans fibre optique Mes compatriotes ont arme patriotique Quelques likes tu t'es senti bionique J'vais t'tirer d'ssus, arrête les antibiotiques Le A-R n'a que faire de l'acoustique Début de carrière dans l'arrière-boutique Siliconée, pas besoin de soutif J'les vois agoniser, pas besoin de sous-titres Neuf-millimètré car c'est préconisé Kunta Kinté, terrorisé Le rap français Calogeroisé Biatch, on va t'Claudia Sampedro-iser Sale, négro, j'vais te coloniser T'as zéro swag'zer on va te Olomider Première dose gratos, le bolosse est fidélisé Vatos Locos, un por todos, Athéna me suce à Mykonos Sur ma table, y'a une pute qui danse debout, y'a ma paire de cojones La prochaine fois que tu veux m'ver-soule, hassoul, envoie des voyous qui s'y connaissent Cherche pas les clés d'mon cur, j'ai que les clés d'la Lambo J'suis à Key Largo, niquer des mères c'est le scénario Niska, Damso Niquer des mères c'est le scénario KLH, B2O Niquer des mères c'est le scénario Dams-OPG dans le block Belgium vie MarcWilmots 92i big up à Kopp J'fais que du sale sur Périscope Fruity Loops noires sont les notes J'la baise dans l'cul j'paye pas la dot Dans mes pes-cli j'fume d'la drogue Je ne ris que sous protoxyde d'azote Mon maître majeur dans sa te-chat, c'est la noyade J'suis suspecté comme si j'venais d'sortir d'chez Jawad J'n'ai pas l'temps pour les tchoins, sauf si j'te fuck gratuitement Négro allume un joint, on n'fume pas d'clope dans l'appartement Toujours caleçon à l'air, mon bas-fesses est impeccable Par derrière, comme passagère sur ma bécane J'filmerai tous sur les réseaux oui oui ta chatte sera ruiné J'vais t'cramer au monde entier, grillé, j'vais te Serge Aurier Damso, yeah Charo, Ouais! Ça pète C'est chaud aujourd'hui ma gueule Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Quand j'la monte en l'air je n'calcule pas le reste J'suis dans le fond du binks j'ressens mes démons Si je t'allume au fer t'auras la COTOREP Le 3-5-7 frotte ma quéquette.. PULL UP PULL UP Une fois, deux fois, trois fois, autant d'fois qu'il le faudra ROULEZ ! Ok on repart ma gueule, comme jamais Charo, Pirate ! Elle a mal aux reins.. Elle a mal aux reins.. Elle a mal aux reins.. Elle a mal aux reins... Elle a mal aux reins quand je la démonte Quand j'la monte en l'air Elle a mal aux reins quand je la démonte Quand j'la monte en l'air je n'calcule pas le reste J'suis dans le fond du binks, j'ressens mes démons Si je t'allume au fer t'auras la COTOREP Le 3-5-7 frotte ma quéquette Le frère de Djeba frotte la bavette Oh, j'dois faire des pépettes J'veux pas finir d'vant la cafet' J'suis dans l'truc, j'suis dans l'tieks 2016, y'a plus de tête à tête Chez nous, c'est balles à tête J'te l'répète, chez nous c'est balles à tête Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Quand j'la monte en l'air je n'calcule pas le reste Nueve nueve uno Nueve nueve uno Nueve nueve uno Nueve nueve uno 92i Prr prr, fly like a bird La ni yin ki badman, la pa ti ni pon bleu Bon chinese, black man ek rebeu Yinki business sal, son sal, yeah allimé la beuh T'as un magnum j'en ai deux Yeah man j'en ai deux un noir, un bleu J'allume le feu sur celui qui veut, à côté des enfants se ploter la queue Ils parlent mais feront-ils mieux, feront-ils mieux, feront-ils mieux que mon équipe de feu ? Vrai négro, je n'ai peur que de Dieu Lord have mercy, je connais ma Bible Même sans maille, pas d'faille, j'me taillade aux bailles traversés dans un canot à feu Où sont ces boeufs, boeufs, boeufs, boeufs ? Couvre feu ! Gunshot inna belly sé on déli Moun la ka mô fen mè kay yo ka anbéli Jet privé ka atéri adan on péyi Difé konbyen moun ka péri Lesklavaj aboli yo pa lé moli Lé kontrolé nou kon koli Sé on koneri pou fè money Boum bang kon montana tony Gunshot inna belly sé on déli Moun la ka mô fen mè kay yo ka anbéli Jet privé ka atéri adan on péyi Difé konbyen moun ka péri Lesklavaj aboli yo pa lé moli Lé kontrolé nou kon koli Sé on koneri pou fè money Couvre feu ! C'est l'heure du crime, les pédales se cachent 9 millimètres sur un corps de lâche Salam la nourrice du 9ème étage Salam Aux frérots déters, qui butent dans la cage Cerruti, Cerruti O'Bla La Maserati O'Bla Chaussures assorties O'Bla C'est moi qui conduit, ok ! Ouais j'ai la dalle comme si j'sortais d'la DASS Tu joues les gros bras mais ta sur fait la tass Les ennemies, je les écrase Je fais des showcases, je brasse et je brasse Comme un Charo, j'te met K.O comme Pacquiao J'fonce en X6, pas dans le panneau DJ Bellek gère le piano J'manie les mots et la mélo' Papier panier piano Je donne l'heure et ciao ! Comme les grossistes donnent les taros Grossistes donnent les taros Grossistes donnent les taros Yo lé testé mè yo pa de tay Yo ni pou flexé douvan lé rude boy Bad a Bad Man ka brilé pussy-Boy Bad a Bad Man ka kill a batty-boy Yo lé testé mè yo pa de tay Yo ni pou flexé douvan lé rude boy Bad a Bad Man ka brilé pussy-Boy Bad a Bad Man ka kill a batty-boy Perdu dans ma tête mais je pète les plombs Fais le BCBG mais j'ai baisé que des thons J'ai que bonasse, connasse, grognasse, pétasse, j'en passe, j'm'en lasse Putain bref, ok laisse ber-tom Putain je crane tous seul, parle tous seul Peu de monologue, poto d'homologues, j'ai peu de dialogue J'deviens de ceux, qui s'en soucient Se saoulent seul, en plus de ça je perd des sous C'est bête moi je subit tout, me ruine au subito C'qui fait qu't'as mal quand t'évites ceux qui trainent trop J'suis paresseux, j'perd la raison et ça ça paraît fou Parce que j'ai la tête du gars qui n'a pas ce genre de défaut Mais damn, ma vie bascule Du bonheur que quand j'éjacule J'vais péter pendant ce son je flatule Faut remettre les clics au dessus des pendules J'rêve de partir loin dans une capsule Évidemment que j'manie le mic' comme un pyromane Demande my men, à chaque fois que j'les ken l'enfer se déchaîne Mes ennemis s'entrainent, voudraient que je saigne Remuent terre et ciel, mais bon j'ai des guns One again comme Hurricane je les goums dès le premier round Le peura me défoule mais souvent me saoule quand ça parle d'embrouille Et de vos rappeurs brouillons qui ont aucune couille veulent parler de douilles mais crient Hallelujah quand ça pars en couille Allez fuck ! Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz.. Selecta poulop poulop poulop! Pardon Kopp, obligé d'te couper Une fois, deux fois, trois fois, autant d'fois qu'il le faudra J'ai nommé 92i veyron, exclusivité Couvre Feu Pas la peine d'aller chercher ailleurs, c'est ici qu'ça s'passe Hé, mr Kopp dans la maison, Kalash dans la maison, Niska dans la maison, Damso dans la maison Couvre Feu, couvrez vous ! Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz, ni au McDonald's Si c'est eux qui ont raison, je n'suis pas raisonnable La rafale dans ton salon sera sûrement désagréable Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz, ni au McDonald's Si c'est eux qui ont raison, je n'suis pas raisonnable La rafale dans ton salon sera sûrement désagréable On trinque à nos balafres, à nos crochets tous les soirs Noir c'est noir, ont-ils dit, y'a donc vraiment plus d'espoir Les vainqueurs l'écrivent, les vaincus racontent l'histoire Les vainqueurs l'écrivent, les vaincus racontent l'histoire Personne dans le monde ne marche du même pas ...C'est ça qu'ils n'comprennent pas Des allers-retours en prison, certains n'en reviennent pas J'ai une kalash et des mouftons, tous sous le même toit Toujours d'humeur à les lever, que l'avenir suce mon troisième doigt Non, je n't'aime pas, ni celui qui est avec toi Y'a que quand tu baises ta daronne que j'suis de tout cur avec toi T'as même pas de quoi me faire fumer, qu'est-ce que j'vais faire avec toi ? Je parle de rue car j'y ai baigné, même si j'y suis beaucoup moins ...T.O B.A.T.O, boug an mwen Violences illicites, comptes débités Pacsons, bruits de shit, contrôle évité Vie de prises de risques, dinfidélités Pute veut faire la bise mais pute a déjà sucé Parle de rue mais rue ne t'as pas créditée Prend mon dû, par vues et textes rédigés Viens au dessus, la vue est mieux en V.I.P J't'ai baisé, j't'ai quitté, j'sais même pas qui t'es Du Louis, Gucci sur la table, j'ai fais d'mon mieux Quelle vie vit-on quand on a pas la vie qu'on veux Ta mère j'l'ai niqué sur la chatte à ton vieux Croyant car même le diable à déjà cru en Dieu On t'as jamais vu, comme le vrai cul de Kim Kardashian Nwar Gaule affamée quand j'la vois sur l'allée, depuis la chambre du bâtiment Les haineux disent que t'es ma bitch se mentent entre eux Trait d'union J'ai la gauloise en plein Zénith, elle donne heure et direction Un bon bédo par ici la défonce C'est marqué vu mais toujours pas de réponse Tou sa mwen ni men goumé bay An pa jen ouvè pon la pot' ba pon sheitan Préci kon dealè ka van shit au détail An ka posé son la an ni frisson ka pran mwen mè an pa ka moli Chak fraz sé on rime An pa biswen ba la dime pou Papa la fè mwen signe ! Monté, démonté Jounou a tè ki ka konté Ja ni lontan manman di mwen pa ay fly la y pani Bondyé Aah aah Préci kon dealè ka van shit au détail Aah aah Préci.. Adan 4 croisées an paka tremblé Bondyé sel an ka doué A pa diab a yo ké fe'm tombé Lajen paka fe'm chanjé Kouté mwen ! Adan 4 croisées an paka tremblé Big up Gato de Bato tout l'temps, déja fout koné Ok, ahah, Zifukoro, de la B, comme jamain Depuis que je perce.. Tu sais ce que les ti-peu m'ont dit, depuis que je perce ? Tu sais ce que les ti-peu m'ont dit, depuis que je perce ? Tu sais ce que les ti-peu m'ont dit ? Tu sais ce que les ti-peu m'ont dit, depuis que je perce, y'a plus de ... ouais Tu sais ce que les ti-peu m'ont.. OK ! Tu sais ce que les ti-peu m'ont dit, depuis que je perce y'a plus de consommateurs Le marron devient même du yellow je suis magicien je suis un transformateur Le charo ne parle pas beaucoup et tte-ma le boug, le sujet est maitrisé Dîner sur les Champs-Elysées avec mon président je ne peux pas refuser Je suis dans la fusée des fusées je contrôle la ne-zo, comme la NASA Les pauvres ils sont trop dégoûtés même dans leurs showcases je pète les caissons Rapper pour moi c'est trop facile, comme un colombien qui cuisine la résine Si demain je sens la perquis' y a pas de soucis je dors chez la voisine Allo, t'es où ? Oh seigneur t'es là ! Bango ba zo lela nazo ko sepela J'ai trop le truc à la 2Pac et Biggie, ce genre de beat me fait bouger J'écris mes textes dans un buggy je vais te sortir mon flingue tu vas buguer pay pay Je vais te sortir mon flingue tu vas buguer Je vais te sortir mon flingue tu vas buguer Je vais te sortir mon flingue tu vas buguer, Commando ! Comman, comman ! Real badman n'agit pas comme un drag queen Gyal viens m'voir j'ai le bras long comme Dalsim Y'a que des real rude boi présents dans le casting Mes négros ne parlent pas ils agissent en sourdine Nou pa té ni pon combine épi pon pussyroll ting Yo sé real fish, yo tout' la ka mèt' string Et y'a beaucoup d'imposta, badman en ballerines Infama sera tué à la pleine lune T'entends les han-han, han-han, before me start kill Comme Kartel ils veulent m'enfermer pour crime Mais j'ai des avocats plus bad que la police en civil Je manie les mots... Dem no bad like me, général à l'armée Général comme à l'armée Dem no bad like me, même s'ils sont armés J'tue les soundboy toute l'année Dem no bad like me, général à l'armée Général comme à l'armée Dem no bad like me, même s'ils sont armés J'tue les soundboy toute... watcha watcha, hey hey J'avance tranquille toute l'année Je connais des real toxicos et des fumeurs d'amné' Les gyal sont rough quand elles wine leur body A base de han-han han-han que des fat puna' Hey yo mi gangsta DJ pla-pla-pla-play Pas de fake nigga présent dans mon armée Real général ne fait pas de quartier Nous on laisse brûler, lighter in the air Shalalalala Like Buju Banton boom bang Pull up! Eeh, Poulop ! Eh que d'la boucherie, eh on fait pas les choses au minimum ici, que au maximum T'entends pas ou quoi yeah, on est au max de la maxance Dj Fax on est ready ? Eh on perd pas d'temps, roulez ! KLH, madinina, 972 Oh, Welcome to the trés trés sale Gato da Bato OKLM radio, couvre feu .. Même à travers fumée d'chicha, j'y vois net J'y vais pour Niafous, Beurettes, Antoinette Poulop ! Attends, attends ! Dj Fax, remets ça calmement Eh dans la maison y'a Monsieur Kalash, y'a Monsieur Niska, y'a Monsieur Damso, y'a Monsieur Kopp! En live du couvre feu, pas la peine d'aller chercher ailleurs, c'est ici qu'ca c'passe T'entends pas ou quoi ? Couvre Feu, Bah oui c'est d'la lourdeur Kopp ready ? Roulez ! Ok... welcome, welcome Welcome to the sal... 92i, Charo life, KLH dans la maison Jacky Brown, Neg'Marrons Même à travers fumée d'chicha, j'y vois net J'y vais pour Niafous, Beurettes, Antoinette Rendez-nous nos 200 filles, rendez-moi mon Ouloulou J'suis au téléphone sans fil'zer, au couvre souloulou Qui a niqué sa carrière bêtement en clashant ? Hassoul-ouloul, hassoul-ouloul, à vous d'juger Au QG je retire cagoul-ouloule Toute ta carrière elle est bidon Tu m'as vu à la télévision sur ma télévision Paie-moi tout en amont ou finis momie Toutankhamon Après le show les plus canons finissent dans le camion Mon super-héros c'Chaka Zulu, c'pas Belmondo Tu suces pour un Ouloulou, tu quittes le bando On t'a jamais vu, comme la go à Columbo Nique ta grand-mère d'côté d'ta mère avec la bite à Mutombo La bite'zer à Mutombo, Muto-Mutombo, ouloulou, ouloulou J'faisais d'l'oseille comme s'il en pleut Avant qu'mes anges ne naissent Si je vois la vie en bleu c'est comme un Crips d'Los Angeles Ouloulou, gros culs elles avaient, sales négros elles ameutèrent 13, bonheur ou malheur, kalashé sur La Canebière Étoile du Nord comme Alonzo, sur l'terter sans Ballon d'Or J'suis au Pérou, café noir, à l'écart d'tout Malongo Unis pour le sale, que faux négros se blessent Je parle fort pour pas qu'la France d'en haut se baisse Sur la vie d'mon jnoun, j'pars pas sans l'or au cou Tu vaux rien comme un selfie d'la chatte à Laure Manaudou Perdu dans un harem, méchante cuite, je tiens debout Cinq ma, cinq Mathusalems de suite, ouloulou Give some Hennessy, j'm'arrache en soundsystem Selecta pull up ! Sound system, c'est couvre feu, c'est comme ça Tous les samedis, 20h-22h on leur mets ça bien OKLM radio ROULEZ ! Welcome to Couvre Feu Xelcome to the S.A.M, comme jamais Mada, gwada, Réunion, Haiti, Guyana Dem no bad like bomboclat Give some Hennessy, j'm'arrache en soundsystem Je sens qu'ce soir c'est la bonne Nuage de fumée convoi exceptionnel Tout est sous contrôle ! Mes yeux sont red, je vois la vie en red Mes yeux sont red, Charo tell 'em J'suis sur les Antilles mes gavas sont locksés Tête énervée comme Dark Vador, sabre laser comme Anakin Counia manmanw je vous encule bang ! bang ! bang ! Jungle jungle jungle, les petits ne veulent plus qu'on les vire qu'on les engueule Ils nous respectent car savent qu'on a fait du leum Bacodji-Bacodjicoroni, poto, poto, Niarry Talli gang J'enfile des gants pour t'enlever la vie, et quand je le fais je le fais par hygiène Je coupe et j'emballe et tu inhales Dans le couloir de la mort il n'y a qu'une allée Je bouge mes épaules comme au funaná Et même en été je vis sous la neige J'entends des Alala bullet-let, bullet-let, poli-lice Non non ne paniques pas ce n'est que le C'est l'état qui m'nique, c'est le people au coeur du more fire Y'en a qui mili-li-lite chaque minu-nu-nute Allument des bédos dynami-ni-nite, mi-ni-nite And I feel-eel-eel, feel-eel-eel, so real-eal-eal So real-eal-eal, so real-eal-eal J'suis pas débile-ile-ile-ile-ile, je kill-ill-ill-ill-ill Visant le mile-ile-ile-ile-ile, perds pas mon fil-il-il-il-il Tranquille-ille-ille-ille-ille, j'explose la mine-ine-ine-ine-ine Un battement de cil-il-il-il-il suffit pour alerter toute La ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille Pull up!7</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Oui L'alcool est l'chemin le plus court vers l'adultère, honnêtement Puceau, en chien sur une meuf plus âgée qui l'avait d'jà fait Donc j'ai fait semblant de l'avoir fait, pour faire le grand Pourtant j'étais p'tit, après j'ai compris Que quand je s'rais grand, j'regretterai tout c'qui s'est passé Car finalement, j'ai passé ma vie à vivre à peine De joie mais plutôt de peine, je crois que Le temps passe vite mais qu'on oublie rien, de c'qu'on a raté La vie ne fait que soixante années, pour profiter, il faut pécher Donc on hésite puis on s'fait chier, donc on médite, pour exister Donc on s'évite pour s'retrouver, après faut juste laisser aller Pourtant la mort s'est faite toute belle pour un rencard d'un mariage forcé Cherche aucun nom sur la sonnette, appuie sur l'bouton à l'aveuglette J'vais profiter, quitte à pécher, car la vie ne fait que soixante années Oh la la, oh la la, oh la la, oui Soixante années Oh la la, oh la la, oh la la, oui Bah oui, hey You might also like Les jeunes d'aujourd'hui m'ont dit Dems, on veut la montre, fuck le temps Pensant qu'le temps court après la montre sauf que les aiguilles, s'arrêtent avant Mets ta ceinture mais sache, que tu peux mourir au moindre accident Crois pas qu'c'est simple, crois pas qu'c'est dur Crois juste en toi, crois pas les gens J'viens de la rue, d'la belle étoile Pour vivre dans l'abus, hôtel cinq étoiles Des fois, je regrette quand j'y repense J'fumais mon petch, ma Gordon me manque Le futur existe que parce qu'on y croit Si demain s'arrête, j'te connaîtrais mieux J'parlerais de moi comme si c'était toi, j'parlerais de nous comme si c'était eux Pendant qu'on s'rapproche pour s'refouler puis, faire semblant d'à nouveau s'aimer La mort si vieille, se fait rebelle comme un standard veut improviser Cherche aucun son sur la trompette, appuie sur l'piston à l'aveuglette J'vais profiter, quitte à pécher, car la vie ne fait que soixante années Oh la la, oh la la, oh la la, oui Soixante années Oh la la, oh la la, oh la la, oui Bah oui Soixante années10</t>
+          <t>Oui L'alcool est l'chemin le plus court vers l'adultère, honnêtement Puceau, en chien sur une meuf plus âgée qui l'avait d'jà fait Donc j'ai fait semblant de l'avoir fait, pour faire le grand Pourtant j'étais p'tit, après j'ai compris Que quand je s'rais grand, j'regretterai tout c'qui s'est passé Car finalement, j'ai passé ma vie à vivre à peine De joie mais plutôt de peine, je crois que Le temps passe vite mais qu'on oublie rien, de c'qu'on a raté La vie ne fait que soixante années, pour profiter, il faut pécher Donc on hésite puis on s'fait chier, donc on médite, pour exister Donc on s'évite pour s'retrouver, après faut juste laisser aller Pourtant la mort s'est faite toute belle pour un rencard d'un mariage forcé Cherche aucun nom sur la sonnette, appuie sur l'bouton à l'aveuglette J'vais profiter, quitte à pécher, car la vie ne fait que soixante années Oh la la, oh la la, oh la la, oui Soixante années Oh la la, oh la la, oh la la, oui Bah oui, hey Les jeunes d'aujourd'hui m'ont dit Dems, on veut la montre, fuck le temps Pensant qu'le temps court après la montre sauf que les aiguilles, s'arrêtent avant Mets ta ceinture mais sache, que tu peux mourir au moindre accident Crois pas qu'c'est simple, crois pas qu'c'est dur Crois juste en toi, crois pas les gens J'viens de la rue, d'la belle étoile Pour vivre dans l'abus, hôtel cinq étoiles Des fois, je regrette quand j'y repense J'fumais mon petch, ma Gordon me manque Le futur existe que parce qu'on y croit Si demain s'arrête, j'te connaîtrais mieux J'parlerais de moi comme si c'était toi, j'parlerais de nous comme si c'était eux Pendant qu'on s'rapproche pour s'refouler puis, faire semblant d'à nouveau s'aimer La mort si vieille, se fait rebelle comme un standard veut improviser Cherche aucun son sur la trompette, appuie sur l'piston à l'aveuglette J'vais profiter, quitte à pécher, car la vie ne fait que soixante années Oh la la, oh la la, oh la la, oui Soixante années Oh la la, oh la la, oh la la, oui Bah oui Soixante années10</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>grésillements de radio Oh J'suis pas dans mon meilleur état, j'écris pour pas faire de dégâts Sinon, j'risquerais d'éclater des têtes avec un Beretta La vie commence quand y a un cur qui bat, s'arrête quand y a plus d'bip C'est quoi le fric si c'n'est le choix d'avoir encore plus le choix ? Les embrouilles, les clashs sur Insta', j'les vois plus, j'regarde devant moi Les blablas sur c'que je n'suis pas, j'n'écoute pas, j'ai plus d'cinq cents K Tu m'aimes pour c'que j'suis devenu, donc tu m'aimes pour c'que je n'suis pas T'es parti puis, t'es revenu, les amis comme toi, j'n'en veux pas J'ai personne à qui dire Je t'aime, tout l'monde à qui dire Nique ta mère Soit ronde et bleue n'est pas la Terre, soit les problèmes viennent de moi En vrai, ne signe pas en maison, sauf si t'es seul et à la rue Parce que quand tu comptes sur les gens, ils finissent par te décevoir Oh-oh-oh-oh-oh-oh Yeah-eh-eh-eh-eh-eh Yeah, j'me vois dans tes yeux, j'm'apprécie mais se voir à deux, j'suis indécis Après, si on l'fait vite fait sans être précis, sur nos sentiments, c'qu'on ressent tout en laissant notre histoire rétrécir Mais tu réfléchis trop mais tu réfléchis qu'aux problèmes que ça engendrera Ton cur est une gendarmerie, cherchant l'ex qu'il condamnera Comprenez-moi Dieu, j'fais tout ce que je peux, j'fais comme tes faux cheveux j't'aide à t'sentir mieux, à travers d'autres yeux Mon salaire a d'autres vux que d'finir à deux, vieux, Dems Ouais Viens dans mon secteur, tu comprendras p't-être mes peurs, mes peines de cur, mes traînées d'sueur, de séducteur Un bouquet d'fleurs, fané par le temps d'attente du prince charmant que j'tais censé être Au lieu d'ça, j'suis qu'le garde champêtre de l'être, censé l'être avec toi Ton amour, je l'envie, mon amour, je t'en prie, j'veux qu'tu m'haïsses autant que tu m'aimes C'est quoi le problème ? C'est trop personnel, oh la la You might also like J'suis parti sur le terrain de l'abstinence, le sexe est un venin pour la patience J'suis parti sur le terrain de l'abstinence mais j'ne vois pas comment pas t'décevoir J'suis parti sur le terrain de l'abstinence, le sexe est un venin pour la patience J'suis parti sur le terrain de l'abstinence mais j'ne vois pas comment pas t'décevoir Tchiki-tchiki-tchiki changement d'ambiance, nwaar Back to the sale, la violence, Dems Sale, ah bah oui, ah bah oui Un putain d'joint entre l'pouce et l'index, je tire sur un pers' Je tousse dans la caisse, la vie en rose que quand j'fume de la verte Pas d'trop d'paramètres, un tête-à-tête on l'fait pas sur le net Ouzbèke, j'la ramène, odeur de shit pour décrire mon haleine J'suis dans l'arène, l'arena, Vie sur macarena J'suis tout c'qui n'fallait pas, premier du top donc j'vais pas par étapes J'veux voir la fin d'ma vie à l'avance Pour savoir si mes efforts ont toujours un sens TheVie Radio, la radio sale, la radio nwaar Ah oui, oui grésillements de radio5</t>
+          <t>grésillements de radio Oh J'suis pas dans mon meilleur état, j'écris pour pas faire de dégâts Sinon, j'risquerais d'éclater des têtes avec un Beretta La vie commence quand y a un cur qui bat, s'arrête quand y a plus d'bip C'est quoi le fric si c'n'est le choix d'avoir encore plus le choix ? Les embrouilles, les clashs sur Insta', j'les vois plus, j'regarde devant moi Les blablas sur c'que je n'suis pas, j'n'écoute pas, j'ai plus d'cinq cents K Tu m'aimes pour c'que j'suis devenu, donc tu m'aimes pour c'que je n'suis pas T'es parti puis, t'es revenu, les amis comme toi, j'n'en veux pas J'ai personne à qui dire Je t'aime, tout l'monde à qui dire Nique ta mère Soit ronde et bleue n'est pas la Terre, soit les problèmes viennent de moi En vrai, ne signe pas en maison, sauf si t'es seul et à la rue Parce que quand tu comptes sur les gens, ils finissent par te décevoir Oh-oh-oh-oh-oh-oh Yeah-eh-eh-eh-eh-eh Yeah, j'me vois dans tes yeux, j'm'apprécie mais se voir à deux, j'suis indécis Après, si on l'fait vite fait sans être précis, sur nos sentiments, c'qu'on ressent tout en laissant notre histoire rétrécir Mais tu réfléchis trop mais tu réfléchis qu'aux problèmes que ça engendrera Ton cur est une gendarmerie, cherchant l'ex qu'il condamnera Comprenez-moi Dieu, j'fais tout ce que je peux, j'fais comme tes faux cheveux j't'aide à t'sentir mieux, à travers d'autres yeux Mon salaire a d'autres vux que d'finir à deux, vieux, Dems Ouais Viens dans mon secteur, tu comprendras p't-être mes peurs, mes peines de cur, mes traînées d'sueur, de séducteur Un bouquet d'fleurs, fané par le temps d'attente du prince charmant que j'tais censé être Au lieu d'ça, j'suis qu'le garde champêtre de l'être, censé l'être avec toi Ton amour, je l'envie, mon amour, je t'en prie, j'veux qu'tu m'haïsses autant que tu m'aimes C'est quoi le problème ? C'est trop personnel, oh la la J'suis parti sur le terrain de l'abstinence, le sexe est un venin pour la patience J'suis parti sur le terrain de l'abstinence mais j'ne vois pas comment pas t'décevoir J'suis parti sur le terrain de l'abstinence, le sexe est un venin pour la patience J'suis parti sur le terrain de l'abstinence mais j'ne vois pas comment pas t'décevoir Tchiki-tchiki-tchiki changement d'ambiance, nwaar Back to the sale, la violence, Dems Sale, ah bah oui, ah bah oui Un putain d'joint entre l'pouce et l'index, je tire sur un pers' Je tousse dans la caisse, la vie en rose que quand j'fume de la verte Pas d'trop d'paramètres, un tête-à-tête on l'fait pas sur le net Ouzbèke, j'la ramène, odeur de shit pour décrire mon haleine J'suis dans l'arène, l'arena, Vie sur macarena J'suis tout c'qui n'fallait pas, premier du top donc j'vais pas par étapes J'veux voir la fin d'ma vie à l'avance Pour savoir si mes efforts ont toujours un sens TheVie Radio, la radio sale, la radio nwaar Ah oui, oui grésillements de radio5</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ouais, ouais-ais-ais Hé-hé-hé J'suis dealer, j'suis dealer Ouais J'ai si peur, j'ai si peur Ouais Maman, j'fais plus d'études, j'suis dans le tiekson J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer Chérie, phone pas les stups, j'suis dans bail bre-som J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer De bonne famille, là d'où je viens, la vie m'laisse sur la faim Je prends des risques, fais du chiffre, shit brun Personne me tient la main, j'ai plus d'cash, plus rien J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur La mort en courrier r'commandé, les huissiers à l'entrée Le gun est chargé, bang, ils m'vilipendaient À g'noux d'vant Dieu, d'bout d'vant les Hommes, regard écuré Cinq cents chevaux dans le gamos, j'suis palefrenier Jambes en X, même mon corps avoue ne pas se connaître Sexuels sont nos rapports, tu m'fais que des courbettes J'suis criblé de dettes, des j't'aime non-dits Z'yeux rivés vers le ciel, bras long, fais-moi un Vie You might also like J'regrette l'époque de Débrouillard Jeune négro rêvant de moula Galère de stud', plein de coups bas J't'aimerai avec ou sans le foulard Des fils de pute, j'en ai vu beaucoup Sans Booba, t'es rien du tout J'dis pas le contraire mais c'est Dieu qui donne et puis c'est tout Ta carrière m'attriste, ta kalash factice Sombre haineux, j'vais t'ébouer comme Fabrice Maman, j'fais plus d'études, j'suis dans le tiekson J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer Chérie, phone pas les stups, j'suis dans bail bre-som J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer De bonne famille, là d'où je viens, la vie m'laisse sur la faim Je prends des risques, fais du chiffre, shit brun Personne me tient la main, j'ai plus d'cash, plus rien J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur Je fais des sommes, tu fais des tiennes Oui Troisième album, toujours le même Vie Soleil ne s'soucie pas de pluie J'n'écoute pas les on dit, y a pas d'hasard, que des Eden BelgiumVie Négro, je sais qu't'es condamné mais pas coupable J'suis dev'nu riche, j'vais rach'ter ton âme au Diable Comme maquisard sans ligne de défense et j'me bagarre Plein Mont des Arts, dans la défonce, tard le soir Selon ses dires, j'suis comme un lâche, car je r'viendrai pas Y a une différence entre tourner la page et baisser les bras Un tiens vaut mieux que deux tu l'auras Viens on baise, après on verra qui le saura J'regrette l'époque de Débrouillard Jeune négro rêvant de moula Galère de stud', plein de coups bas J't'aimerai avec ou sans le foulard Maman, j'fais plus d'études, j'suis dans le tiekson J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer Chérie, phone pas les stups, j'suis dans bail bre-som J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer De bonne famille, là d'où je viens, la vie m'laisse sur la faim Je prends des risques, fais du chiffre, shit brun Personne me tient la main, j'ai plus d'cash, plus rien J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur Damso, dis-leur13</t>
+          <t>Ouais, ouais-ais-ais Hé-hé-hé J'suis dealer, j'suis dealer Ouais J'ai si peur, j'ai si peur Ouais Maman, j'fais plus d'études, j'suis dans le tiekson J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer Chérie, phone pas les stups, j'suis dans bail bre-som J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer De bonne famille, là d'où je viens, la vie m'laisse sur la faim Je prends des risques, fais du chiffre, shit brun Personne me tient la main, j'ai plus d'cash, plus rien J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur La mort en courrier r'commandé, les huissiers à l'entrée Le gun est chargé, bang, ils m'vilipendaient À g'noux d'vant Dieu, d'bout d'vant les Hommes, regard écuré Cinq cents chevaux dans le gamos, j'suis palefrenier Jambes en X, même mon corps avoue ne pas se connaître Sexuels sont nos rapports, tu m'fais que des courbettes J'suis criblé de dettes, des j't'aime non-dits Z'yeux rivés vers le ciel, bras long, fais-moi un Vie J'regrette l'époque de Débrouillard Jeune négro rêvant de moula Galère de stud', plein de coups bas J't'aimerai avec ou sans le foulard Des fils de pute, j'en ai vu beaucoup Sans Booba, t'es rien du tout J'dis pas le contraire mais c'est Dieu qui donne et puis c'est tout Ta carrière m'attriste, ta kalash factice Sombre haineux, j'vais t'ébouer comme Fabrice Maman, j'fais plus d'études, j'suis dans le tiekson J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer Chérie, phone pas les stups, j'suis dans bail bre-som J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer De bonne famille, là d'où je viens, la vie m'laisse sur la faim Je prends des risques, fais du chiffre, shit brun Personne me tient la main, j'ai plus d'cash, plus rien J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur Je fais des sommes, tu fais des tiennes Oui Troisième album, toujours le même Vie Soleil ne s'soucie pas de pluie J'n'écoute pas les on dit, y a pas d'hasard, que des Eden BelgiumVie Négro, je sais qu't'es condamné mais pas coupable J'suis dev'nu riche, j'vais rach'ter ton âme au Diable Comme maquisard sans ligne de défense et j'me bagarre Plein Mont des Arts, dans la défonce, tard le soir Selon ses dires, j'suis comme un lâche, car je r'viendrai pas Y a une différence entre tourner la page et baisser les bras Un tiens vaut mieux que deux tu l'auras Viens on baise, après on verra qui le saura J'regrette l'époque de Débrouillard Jeune négro rêvant de moula Galère de stud', plein de coups bas J't'aimerai avec ou sans le foulard Maman, j'fais plus d'études, j'suis dans le tiekson J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer Chérie, phone pas les stups, j'suis dans bail bre-som J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer De bonne famille, là d'où je viens, la vie m'laisse sur la faim Je prends des risques, fais du chiffre, shit brun Personne me tient la main, j'ai plus d'cash, plus rien J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur Damso, dis-leur13</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Damso Genius League, eh Posé dans l'quartier, j'suis déchiré, spliff et drogue dure, j'tise everyday Mais j'pense à réduire ma conso car j'fume de trop, la gue-dro m'fait léviter Les keufs eux m'ont serré, j'ai tout nié, la fe-meu d'hier, j'l'ai oubliée Million de questions qu'elle me pose, je prends jamais d'fleurs, j'l'envoie qu'dans les rosiers Défoncé, j'suis pété, je chill, négro, laisse-moi vivre mon dream Sa tte-cha comme plaine de jeux, j'l'envoie dans les cieux, j'suis scolaire et férié Recherche finance dans le crime, peut-être devrais-je changer de SIM La police nous questionne, les dealers nous pistonnent J'me déf' dans le club et mes sons passent en entier Absorbé par une drogue absurde, j'pense qu'à fuir le monde Sur les ondes j'me réfugie, j'pense qu'au fond j'ai peur d'être sobre Tant d'blessures, éraflures A vive allure, je vis, j'évacue Vices et vertus, Tise et verdure Négro, sans quoi c'est la mort Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? La drogue dure dans les vaisseaux sanguins J'suis vulgaire façon Mérovingien L'alcool pur dans les vaisseaux sanguins J'ai peur d'être sobre You might also like Damso, mothafucka', OPG Gangst', dis-moi qui est le meilleur dans le game Ces nizzos font qu'pomper nos flows, ces nizzos pompent la vie qu'on mène La pote-ca ne sera jamais assez grosse pour baiser c'putain d'mothafuckin' rap jeu Ces rappeurs n'ont plus le level, le majeur dans le cul d'ces niggas J'suis venu, j'ai bu, j'me souviens plus, j'ai trop tisé, gros cul et cheveux frisés Drogue dure, les yeux plissés, sombres et obscures sont mes idées J'suis là, j'suis frais, ouais, j'suis Damso, romantique malgré moi Elles s'mettent à côté quand je pe-ra, pour entendre le bruit des backs, car j'ai trop d'flow Bordel homie, j'n'arrête pas de boire des litres car j'ai peur d'assumer sa vraie physionomie J'la lui mets dans le dar et je gicle, elle s'devait de goûter à la Damsodomie Défoncé, la réalité je fuis, si c'est ça la mort elle vaut bien mieux qu'la vie faite d'embrouilles à minuit Absorbé par une drogue absurde, j'pense qu'à fuir le monde Sur les ondes j'me réfugie, j'pense qu'au fond j'ai peur d'être sobre Tant d'blessures, éraflures A vive allure, je vis, j'évacue Tise et verdure, vices et vertus Négro, sans quoi c'est la mort Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? La drogue dure dans les vaisseaux sanguins J'suis vulgaire façon Mérovingien L'alcool pur dans les vaisseaux sanguins J'ai peur d'être sobre7</t>
+          <t>Damso Genius League, eh Posé dans l'quartier, j'suis déchiré, spliff et drogue dure, j'tise everyday Mais j'pense à réduire ma conso car j'fume de trop, la gue-dro m'fait léviter Les keufs eux m'ont serré, j'ai tout nié, la fe-meu d'hier, j'l'ai oubliée Million de questions qu'elle me pose, je prends jamais d'fleurs, j'l'envoie qu'dans les rosiers Défoncé, j'suis pété, je chill, négro, laisse-moi vivre mon dream Sa tte-cha comme plaine de jeux, j'l'envoie dans les cieux, j'suis scolaire et férié Recherche finance dans le crime, peut-être devrais-je changer de SIM La police nous questionne, les dealers nous pistonnent J'me déf' dans le club et mes sons passent en entier Absorbé par une drogue absurde, j'pense qu'à fuir le monde Sur les ondes j'me réfugie, j'pense qu'au fond j'ai peur d'être sobre Tant d'blessures, éraflures A vive allure, je vis, j'évacue Vices et vertus, Tise et verdure Négro, sans quoi c'est la mort Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? La drogue dure dans les vaisseaux sanguins J'suis vulgaire façon Mérovingien L'alcool pur dans les vaisseaux sanguins J'ai peur d'être sobre Damso, mothafucka', OPG Gangst', dis-moi qui est le meilleur dans le game Ces nizzos font qu'pomper nos flows, ces nizzos pompent la vie qu'on mène La pote-ca ne sera jamais assez grosse pour baiser c'putain d'mothafuckin' rap jeu Ces rappeurs n'ont plus le level, le majeur dans le cul d'ces niggas J'suis venu, j'ai bu, j'me souviens plus, j'ai trop tisé, gros cul et cheveux frisés Drogue dure, les yeux plissés, sombres et obscures sont mes idées J'suis là, j'suis frais, ouais, j'suis Damso, romantique malgré moi Elles s'mettent à côté quand je pe-ra, pour entendre le bruit des backs, car j'ai trop d'flow Bordel homie, j'n'arrête pas de boire des litres car j'ai peur d'assumer sa vraie physionomie J'la lui mets dans le dar et je gicle, elle s'devait de goûter à la Damsodomie Défoncé, la réalité je fuis, si c'est ça la mort elle vaut bien mieux qu'la vie faite d'embrouilles à minuit Absorbé par une drogue absurde, j'pense qu'à fuir le monde Sur les ondes j'me réfugie, j'pense qu'au fond j'ai peur d'être sobre Tant d'blessures, éraflures A vive allure, je vis, j'évacue Tise et verdure, vices et vertus Négro, sans quoi c'est la mort Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? La drogue dure dans les vaisseaux sanguins J'suis vulgaire façon Mérovingien L'alcool pur dans les vaisseaux sanguins J'ai peur d'être sobre7</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yeah La mort, la mort, la mort A sonné pour eux Ding dong Hey La mort, la mort, la mort Yeah Une vie, un gun, un corps Yeah Menottes ou chaînes en or ? Yeah Boréale est l'aurore La drogue, la drogue encore Oui Pourquoi changer mon sort ? Oui Un parfum inodore Oui, une douleur indolore Le ciel, le ciel, le ciel Oui, un festival de rêves Cke-bla, que blancs, rebeus Un pax, du shit, d'la beuh Fire Ainsi soit-elle Oui Encore, encore plus fort Plus fort De l'aube, du soir, d'la veille L'espoir de jours heureux Bédo Un stick, du shit Bédo Un kilo d'beuh Bédo Smoke, smoke, smoke, hey Hey You might also like Le monde, le monde, le monde Un pavillon de haine Colère Une succession de scènes Atmosphère De nuages à mer bleue Yeah Yeah O.G fort névrosé veut sa dose pour s'alimenter O.G fort défoncé car sa dose est fort pimentée O.G fort névrosé, à sa dose, est alimenté Maîtresse, un gosse qui gêne Un cri, un cur qui saigne À terre, eau, vent et feux Oui Espoirs de jours heureux Le ciel, le ciel, le ciel Oh oui Un festival de rêves Oh yeah Cke-bla, que blancs, rebeus Oh oui Un pax, du shit, d'la beuh C'est bon8</t>
+          <t>Yeah La mort, la mort, la mort A sonné pour eux Ding dong Hey La mort, la mort, la mort Yeah Une vie, un gun, un corps Yeah Menottes ou chaînes en or ? Yeah Boréale est l'aurore La drogue, la drogue encore Oui Pourquoi changer mon sort ? Oui Un parfum inodore Oui, une douleur indolore Le ciel, le ciel, le ciel Oui, un festival de rêves Cke-bla, que blancs, rebeus Un pax, du shit, d'la beuh Fire Ainsi soit-elle Oui Encore, encore plus fort Plus fort De l'aube, du soir, d'la veille L'espoir de jours heureux Bédo Un stick, du shit Bédo Un kilo d'beuh Bédo Smoke, smoke, smoke, hey Hey Le monde, le monde, le monde Un pavillon de haine Colère Une succession de scènes Atmosphère De nuages à mer bleue Yeah Yeah O.G fort névrosé veut sa dose pour s'alimenter O.G fort défoncé car sa dose est fort pimentée O.G fort névrosé, à sa dose, est alimenté Maîtresse, un gosse qui gêne Un cri, un cur qui saigne À terre, eau, vent et feux Oui Espoirs de jours heureux Le ciel, le ciel, le ciel Oh oui Un festival de rêves Oh yeah Cke-bla, que blancs, rebeus Oh oui Un pax, du shit, d'la beuh C'est bon8</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Eh, hey, hey Mmh Hey, hey Fuck cette life Mon frère est borgne, il n'a plus qu'un il Eh, suffit d'un seul a dit l'Illuminati Ton âme, un jour, faudrait qu'tu m'la prêtes Ouais, que j'trouve sa sur, la mienne a perdu la vie Tu d'vrais fermer ta gueule à mon humble avis, aucun je sais mais beaucoup de on m'a dit J'fais plus d'oseille que Jacob Rabbi, l'amour réciproque n'empêche pas la tromperie C'pour ça qu'mes je t'aime sont souvent incompris, depuis, je n'parle plus, j'dmande seulemnt son prix J'paye les avocats pour frangin en son-pri mais ils r'f'ront les mêmes conneries dès qu'ils seront sortis J'compte plus les heures de studio que j'ai passé, j'compte plus les anniversaires que j'ai manqué C'est clair D'ailleurs, c'est celui d'ma mère en ce moment mais faut charbonner, faut qu'j'paye ses médicaments C'est clair J'ai tellement marché dans le noir et les ténèbres, que j'recule dès qu'j'aperçois le bout du tunnel Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Hey Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Ouais Fuck cette life, life, life Fuck cette life Fuck cette life, life, life Fuck cette life Tout ça pour vivre dans l- Hey You might also like Jsais pas pourquoi tas peur de vieillir, la mort, cest bien, vu que personne n'en revient Pourquoi tu cherches à trop tembellir ? Cest quand tes moche que tout lmonde te veut du bien Tu sais que, moi, quand j'aime le tien, c'est le mien, tes douleurs, tes problèmes, ta chatte et tes seins T'es en enfer, ton phallus au paradis, en gros, tu l'as baisée sans préservatif Un enfant pour qui t'es pas trop son daron, c'est fou d'se dire qu'c'est la vie d'tellement d'parents La vie d'aujourd'hui mais sans la vie d'avant Certains souvenirs sont plus durs avec le temps Bah nan, c'est moi qui suis désolé Hey d'avoir cru en toi quand tu faisais semblant Un fils de pute doit pas sexcuser Non Après tout, ta mère ne voulait pas denfant Drogue, sexe, biftons, biz, tout ça pour vivre dans l- Hey Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Hey Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Ouais Fuck cette life, life, life Fuck cette life Fuck cette life, life, life Fuck cette life Tout ça pour vivre dans l- Hey9</t>
+          <t>Eh, hey, hey Mmh Hey, hey Fuck cette life Mon frère est borgne, il n'a plus qu'un il Eh, suffit d'un seul a dit l'Illuminati Ton âme, un jour, faudrait qu'tu m'la prêtes Ouais, que j'trouve sa sur, la mienne a perdu la vie Tu d'vrais fermer ta gueule à mon humble avis, aucun je sais mais beaucoup de on m'a dit J'fais plus d'oseille que Jacob Rabbi, l'amour réciproque n'empêche pas la tromperie C'pour ça qu'mes je t'aime sont souvent incompris, depuis, je n'parle plus, j'dmande seulemnt son prix J'paye les avocats pour frangin en son-pri mais ils r'f'ront les mêmes conneries dès qu'ils seront sortis J'compte plus les heures de studio que j'ai passé, j'compte plus les anniversaires que j'ai manqué C'est clair D'ailleurs, c'est celui d'ma mère en ce moment mais faut charbonner, faut qu'j'paye ses médicaments C'est clair J'ai tellement marché dans le noir et les ténèbres, que j'recule dès qu'j'aperçois le bout du tunnel Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Hey Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Ouais Fuck cette life, life, life Fuck cette life Fuck cette life, life, life Fuck cette life Tout ça pour vivre dans l- Hey Jsais pas pourquoi tas peur de vieillir, la mort, cest bien, vu que personne n'en revient Pourquoi tu cherches à trop tembellir ? Cest quand tes moche que tout lmonde te veut du bien Tu sais que, moi, quand j'aime le tien, c'est le mien, tes douleurs, tes problèmes, ta chatte et tes seins T'es en enfer, ton phallus au paradis, en gros, tu l'as baisée sans préservatif Un enfant pour qui t'es pas trop son daron, c'est fou d'se dire qu'c'est la vie d'tellement d'parents La vie d'aujourd'hui mais sans la vie d'avant Certains souvenirs sont plus durs avec le temps Bah nan, c'est moi qui suis désolé Hey d'avoir cru en toi quand tu faisais semblant Un fils de pute doit pas sexcuser Non Après tout, ta mère ne voulait pas denfant Drogue, sexe, biftons, biz, tout ça pour vivre dans l- Hey Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Hey Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Ouais Fuck cette life, life, life Fuck cette life Fuck cette life, life, life Fuck cette life Tout ça pour vivre dans l- Hey9</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ok ok FuentesVie FuentesVie, SantosVie SantosVie J'fais que du sale sur Périscope, oui oui, eh Damso, OPG, dans le block hey, Belgium Vie, Marc Wilmots non 92i, big up à Kopp rrah, j'fais que du sale sur Périscope binks Fruity Loops, noires sont les notes, j'la baise dans l'cul, j'paye pas la dot no Dans mes pe-cli, j'fume d'la drogue, je n'ris qu'sous protoxyde d'azote Mon maître majeur dans sa tte-cha, c'est la noyade ouais, ouais, ouais J'suis suspecté comme si j'venais d'sortir d'chez Jawad J'n'ai pas l'temps pour les tchoins no, sauf si j'les fuck gratuitement rrah Négro, allume un joint, on n'fume pas d'clope dans l'appartement clair Toujours caleçon à l'air ouais, mon bas-fesses est impeccable yeah J'te prends que par derrière comme passagère sur ma bécane ouais J'mettrai tout sur les réseaux, oui, oui, ta chatte sera ruinée yeah J'vais t'cramer au monde entier, grillé, j'vais te Serge Aurier rrah J'respecte beurettes et imams, jugement d'vautour j'laisse à Dieu Négro, j'suis Morgan Freeman, depuis toujours, j'suis ton vieux J'nique des chattes et des vétérinaires sur le pont d'Avignon ouais T'es parti trop tôt comme Hitler a dit le nazillon Damso, ouais You might also like Ménagère, j'nettoie au Glock yeah Batterie faible, recharge le stock ouais Dans la clique, y a que des locks bang, armés dans l'clip comme Roi Heenok J'fais que du sale sur Périscope, j'fais que du sale sur Périscope J'fais que du sale sur Périscope, j'fais que du sale sur Périscope Ménagère, j'nettoie au Glock eh Batterie faible, recharge le stock oh Dans la clique, y a que des locks Dems, armés dans l'clip comme Roi Heenok J'fais que du sale sur Périscope, j'fais que du sale sur Périscope J'fais que du sale sur Périscope, j'fais que du sale sur Périscope Vie C'est bon8</t>
+          <t>Ok ok FuentesVie FuentesVie, SantosVie SantosVie J'fais que du sale sur Périscope, oui oui, eh Damso, OPG, dans le block hey, Belgium Vie, Marc Wilmots non 92i, big up à Kopp rrah, j'fais que du sale sur Périscope binks Fruity Loops, noires sont les notes, j'la baise dans l'cul, j'paye pas la dot no Dans mes pe-cli, j'fume d'la drogue, je n'ris qu'sous protoxyde d'azote Mon maître majeur dans sa tte-cha, c'est la noyade ouais, ouais, ouais J'suis suspecté comme si j'venais d'sortir d'chez Jawad J'n'ai pas l'temps pour les tchoins no, sauf si j'les fuck gratuitement rrah Négro, allume un joint, on n'fume pas d'clope dans l'appartement clair Toujours caleçon à l'air ouais, mon bas-fesses est impeccable yeah J'te prends que par derrière comme passagère sur ma bécane ouais J'mettrai tout sur les réseaux, oui, oui, ta chatte sera ruinée yeah J'vais t'cramer au monde entier, grillé, j'vais te Serge Aurier rrah J'respecte beurettes et imams, jugement d'vautour j'laisse à Dieu Négro, j'suis Morgan Freeman, depuis toujours, j'suis ton vieux J'nique des chattes et des vétérinaires sur le pont d'Avignon ouais T'es parti trop tôt comme Hitler a dit le nazillon Damso, ouais Ménagère, j'nettoie au Glock yeah Batterie faible, recharge le stock ouais Dans la clique, y a que des locks bang, armés dans l'clip comme Roi Heenok J'fais que du sale sur Périscope, j'fais que du sale sur Périscope J'fais que du sale sur Périscope, j'fais que du sale sur Périscope Ménagère, j'nettoie au Glock eh Batterie faible, recharge le stock oh Dans la clique, y a que des locks Dems, armés dans l'clip comme Roi Heenok J'fais que du sale sur Périscope, j'fais que du sale sur Périscope J'fais que du sale sur Périscope, j'fais que du sale sur Périscope Vie C'est bon8</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Jeune africain dev'nu riche Jeune africain dev'nu riche, j'ai quitté le pays sans papiers Deuxième album, deuxième disque, la pression, le soutien du quartier Des doutes et des doutes et des doutes, j'hésite à faire du sale ou bien chanter Mais j'dois tuer le rap français, mettre les MC en danger Les viols de la guerre, je m'en doute, t'ont fait du mal abondamment Donald et toute la troupe n'ont rien à battre évidemment Seul face au monde entier, personne sur qui compter J't'ai vu pleurer, pleurer face au ciel mauve Oh Kin la belle, tu n'sais pas combien je t'aime RDC, ma patrie, mes gènes, pour toi, j'suis resté le même C'qu'ils te font me fait beaucoup de peine, jusqu'à ta mort, il ne faut pas qu'tu les craignes J'kalasherai ceux qui tiennent les rênes, quant à rumba, je déploie mes ailes Oh Kin la belle, oh Kin la belle Oh Kin la belle, tu ne sais pas combien je t'aime Oh Kin la belle, oh Kin la belle Oh Kin la belle, pour toi, j'suis resté le même oh Kin la belle You might also like J'roule un spliff au calme, toujours dans l'tieks à faire du sale noir J'suis là, j'fais d'la maille, j'investis au bled dans l'médical ouais Crois pas qu'ça va aller, tant qu'la kalash n'a pas parlé J'demande pas de faire la guerre, juste de n'pas donner ton tard-pé T'as qu'ton soutien-gorge pour seul soutien, t'inquiètes pas bientôt, j'reviens Damso The Vie, Capitol, 92i, y a du noir si t'as besoin L'Occident menottait tes dirigeants, j'trouvais Patrice plus intelligent Ton peuple est le plus grand des médisants, s'entraide pas, préfère division Jamais tu n'vas tomber même face au monde entier J'vais batailler-tailler, jusqu'à dier Oh Kin la belle, tu n'sais pas combien je t'aime RDC, ma patrie, mes gènes, pour toi, j'suis resté le même Ce qu'ils te font me fait beaucoup de peine, jusqu'à ta mort, il ne faut pas qu'tu les craignes J'kalasherai ceux qui tiennent les rênes quant à rumba, je déploie mes ailes Oh Kin la belle, oh Kin la belle Oh Kin la belle, tu n'sais pas combien je t'aime Oh Kin la belle, oh Kin la belle Oh Kin la belle, pour toi, j'suis resté le même oh Kin la belle7</t>
+          <t>Jeune africain dev'nu riche Jeune africain dev'nu riche, j'ai quitté le pays sans papiers Deuxième album, deuxième disque, la pression, le soutien du quartier Des doutes et des doutes et des doutes, j'hésite à faire du sale ou bien chanter Mais j'dois tuer le rap français, mettre les MC en danger Les viols de la guerre, je m'en doute, t'ont fait du mal abondamment Donald et toute la troupe n'ont rien à battre évidemment Seul face au monde entier, personne sur qui compter J't'ai vu pleurer, pleurer face au ciel mauve Oh Kin la belle, tu n'sais pas combien je t'aime RDC, ma patrie, mes gènes, pour toi, j'suis resté le même C'qu'ils te font me fait beaucoup de peine, jusqu'à ta mort, il ne faut pas qu'tu les craignes J'kalasherai ceux qui tiennent les rênes, quant à rumba, je déploie mes ailes Oh Kin la belle, oh Kin la belle Oh Kin la belle, tu ne sais pas combien je t'aime Oh Kin la belle, oh Kin la belle Oh Kin la belle, pour toi, j'suis resté le même oh Kin la belle J'roule un spliff au calme, toujours dans l'tieks à faire du sale noir J'suis là, j'fais d'la maille, j'investis au bled dans l'médical ouais Crois pas qu'ça va aller, tant qu'la kalash n'a pas parlé J'demande pas de faire la guerre, juste de n'pas donner ton tard-pé T'as qu'ton soutien-gorge pour seul soutien, t'inquiètes pas bientôt, j'reviens Damso The Vie, Capitol, 92i, y a du noir si t'as besoin L'Occident menottait tes dirigeants, j'trouvais Patrice plus intelligent Ton peuple est le plus grand des médisants, s'entraide pas, préfère division Jamais tu n'vas tomber même face au monde entier J'vais batailler-tailler, jusqu'à dier Oh Kin la belle, tu n'sais pas combien je t'aime RDC, ma patrie, mes gènes, pour toi, j'suis resté le même Ce qu'ils te font me fait beaucoup de peine, jusqu'à ta mort, il ne faut pas qu'tu les craignes J'kalasherai ceux qui tiennent les rênes quant à rumba, je déploie mes ailes Oh Kin la belle, oh Kin la belle Oh Kin la belle, tu n'sais pas combien je t'aime Oh Kin la belle, oh Kin la belle Oh Kin la belle, pour toi, j'suis resté le même oh Kin la belle7</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah-yeah Grrr, yeah, yeah, yeah, yeah-yeah Okay Ça fait longtemps qu'j'ai basculé du mauvais côté d'la lumière Parlons de moula mais parlons au pluriel Brr La faucheuse sort d'un van dans ta ruelle L'point commun entre l'amour et la haine, c'est ma façon d'ken Ma façon de briller, j'suis toujours outillé Ok, ok Bébé, le canon est bien, bien scié C'est le H et Dems pour un peu de sauce dans leur putain d'vie Vie J'suis dans l'Q7, tout est noir comme la carrosserie Ah Petit à petit, coller la petite, hmm Mwah De illets-bi en illets-bi, Louis, Fendi, cartel, te-sui Ouh oui Ta dernière vision s'ra un Desert Eagle qui tousse Piou, piou, piou, baow J'préfère les chiffres que les lettres Lettres, t'as d'l'ADN de bite sur les lèvres Bitch Yeah, ta dernière vision s'ra un Desert Eagle qui tousse J'préfère les chiffres que les lettres, t'as d'l'ADN de bite sur les mwah Mentalité zoo Eh, depuis le berceau Eh J'suis dans la Enzo Ok mais j'ai moins d'amis J'connais le ghetto Eh, les dealers et escrocs Eh Tout dans la gue-dro Ok, la meilleure cocaïne Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine Yeah Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine You might also like Ice, ice, moula Eh J'fais les dièses, trop d'preuves dans l'bigo', j'ai te-j', ola Ouais Le H et Dems dans le tieks, baby love MC Solaar Eh, Hallelujah, Hallelujah Oh J'ai la santé, la jeunesse, tout va Hey, violets, verts, euros, dollars Sale Moelle épinière est remplie de dagues, le sablier n'a plus trop de sable Mort Balle perdue a trouvé son chemin dans le crâne d'un gosse du village Sans pression, flicaille mit coup de gaz, mit coup de taser Ouh, ouh Beaucoup de rageux, l'monde en otage, à Floyd est l'hommage Ouh, ouh Nique ta mère écrit dans l'horoscope, j'suis pas dans le top, c'est moi le top Dems Des chattes incendiées dans le caméscope, quelques salopes dévergondées, je fuck Sale Ils parlèrent beaucoup, j'ai sorti le Glock, bang, bang, ils dansent la carioca Grah Délit d'faciès, aucun emploi J'n'ai pas de frères, que des avocats Eh Mentalité zoo Eh, depuis le berceau Eh J'suis dans la Enzo Ok mais j'ai moins d'amis J'connais le ghetto Eh, les dealers et escrocs Eh Tout dans la gue-dro Ok, la meilleure cocaïne Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine Yeah Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine Rrrrrk, puh Le mollard est craché, la capote a craqué Brr, brr, brr, ah, ah Sa che-bou est remplie, la petite est gâtée Elle est gâtée, mwah Les négros sont fâchés, innocents, matraqués Eh, hmm, hmm J'te sers un zeu-di au hasard, dee-spe comme Mbappé Nwar, sale6</t>
+          <t>Yeah, yeah, yeah-yeah Grrr, yeah, yeah, yeah, yeah-yeah Okay Ça fait longtemps qu'j'ai basculé du mauvais côté d'la lumière Parlons de moula mais parlons au pluriel Brr La faucheuse sort d'un van dans ta ruelle L'point commun entre l'amour et la haine, c'est ma façon d'ken Ma façon de briller, j'suis toujours outillé Ok, ok Bébé, le canon est bien, bien scié C'est le H et Dems pour un peu de sauce dans leur putain d'vie Vie J'suis dans l'Q7, tout est noir comme la carrosserie Ah Petit à petit, coller la petite, hmm Mwah De illets-bi en illets-bi, Louis, Fendi, cartel, te-sui Ouh oui Ta dernière vision s'ra un Desert Eagle qui tousse Piou, piou, piou, baow J'préfère les chiffres que les lettres Lettres, t'as d'l'ADN de bite sur les lèvres Bitch Yeah, ta dernière vision s'ra un Desert Eagle qui tousse J'préfère les chiffres que les lettres, t'as d'l'ADN de bite sur les mwah Mentalité zoo Eh, depuis le berceau Eh J'suis dans la Enzo Ok mais j'ai moins d'amis J'connais le ghetto Eh, les dealers et escrocs Eh Tout dans la gue-dro Ok, la meilleure cocaïne Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine Yeah Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine Ice, ice, moula Eh J'fais les dièses, trop d'preuves dans l'bigo', j'ai te-j', ola Ouais Le H et Dems dans le tieks, baby love MC Solaar Eh, Hallelujah, Hallelujah Oh J'ai la santé, la jeunesse, tout va Hey, violets, verts, euros, dollars Sale Moelle épinière est remplie de dagues, le sablier n'a plus trop de sable Mort Balle perdue a trouvé son chemin dans le crâne d'un gosse du village Sans pression, flicaille mit coup de gaz, mit coup de taser Ouh, ouh Beaucoup de rageux, l'monde en otage, à Floyd est l'hommage Ouh, ouh Nique ta mère écrit dans l'horoscope, j'suis pas dans le top, c'est moi le top Dems Des chattes incendiées dans le caméscope, quelques salopes dévergondées, je fuck Sale Ils parlèrent beaucoup, j'ai sorti le Glock, bang, bang, ils dansent la carioca Grah Délit d'faciès, aucun emploi J'n'ai pas de frères, que des avocats Eh Mentalité zoo Eh, depuis le berceau Eh J'suis dans la Enzo Ok mais j'ai moins d'amis J'connais le ghetto Eh, les dealers et escrocs Eh Tout dans la gue-dro Ok, la meilleure cocaïne Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine Yeah Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine Rrrrrk, puh Le mollard est craché, la capote a craqué Brr, brr, brr, ah, ah Sa che-bou est remplie, la petite est gâtée Elle est gâtée, mwah Les négros sont fâchés, innocents, matraqués Eh, hmm, hmm J'te sers un zeu-di au hasard, dee-spe comme Mbappé Nwar, sale6</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Yeah Okey Ouais Dis-moi la vérité, rien que la vérité Est-ce que t'aimes vraiment la meuf avec qui t'es ? Ou juste par habitude t'oses plus la quitter ? Tu fumais pour fuir, maintenant fuis pour fumer Mon inspiration n'aime pas trop l'industrie Car l'industrie veut toujours plus consommer J'te vois rapper, rapper jusqu'à faire de la merde Jusqu'à qu'on écrive pour toi comme J. Hallyday Mon renoi protège toi de la célébrité Elles t'aimeront plus si t'sais plus faire c'que tu fais Elles t'aimeront plus si t'sais même plus faire de blé Elles t'aimeront plus surtout si tu t'fais doubler Tu parles de Lambo' mais tu prends le métro T'as fait qu'un album mais c'était l'album de trop J'marque l'histoire à chaque fin de ceau-mor Le sorcier est vrai ce n'est pas du gryffondor L'amour d'une mère peut faire plus de mal que d'bien Le sida se transmet aussi par le sein Un bateau pirate dans un océan noir Plus le chemin est long plus les routes se séparent J'ai foncé craché sans regarder où j'allais Ta beauté me cachait ton hépatite C J'ai pris des couleurs et je crie de douleur Et je prie à toute heure même si j'sais où j'irai J'ai fermé des gueules, j'en ai cassé d'autres J't'ai dit j'suis ni des leurs j'suis ni des vôtres Dis pas que j'viens de la rue parce que ça c'est des couilles Quand tu vendais de la drogue j'allais à l'école Mais l'école a fini par m'mettre à la rue Et la rue a fini par m'faire vendre de la drogue Y a ceux qui font que c'qu'on leur demande Et ceux qui se demandent si y a des choses à faire Matraque dans l'anus on se demande Si bavures policières sont réglementaires J'suis la craie qui grince sur le tableau J'suis le mot dans l'dico qui vient de l'argot Les niquer ma seule obligation La pression à chaque publication Toutes les femmes ne sont pas pareilles c'est vrai Mais le diable parle à travers elles de la même façon You might also like Dem's CQFD10</t>
+          <t>Yeah Okey Ouais Dis-moi la vérité, rien que la vérité Est-ce que t'aimes vraiment la meuf avec qui t'es ? Ou juste par habitude t'oses plus la quitter ? Tu fumais pour fuir, maintenant fuis pour fumer Mon inspiration n'aime pas trop l'industrie Car l'industrie veut toujours plus consommer J'te vois rapper, rapper jusqu'à faire de la merde Jusqu'à qu'on écrive pour toi comme J. Hallyday Mon renoi protège toi de la célébrité Elles t'aimeront plus si t'sais plus faire c'que tu fais Elles t'aimeront plus si t'sais même plus faire de blé Elles t'aimeront plus surtout si tu t'fais doubler Tu parles de Lambo' mais tu prends le métro T'as fait qu'un album mais c'était l'album de trop J'marque l'histoire à chaque fin de ceau-mor Le sorcier est vrai ce n'est pas du gryffondor L'amour d'une mère peut faire plus de mal que d'bien Le sida se transmet aussi par le sein Un bateau pirate dans un océan noir Plus le chemin est long plus les routes se séparent J'ai foncé craché sans regarder où j'allais Ta beauté me cachait ton hépatite C J'ai pris des couleurs et je crie de douleur Et je prie à toute heure même si j'sais où j'irai J'ai fermé des gueules, j'en ai cassé d'autres J't'ai dit j'suis ni des leurs j'suis ni des vôtres Dis pas que j'viens de la rue parce que ça c'est des couilles Quand tu vendais de la drogue j'allais à l'école Mais l'école a fini par m'mettre à la rue Et la rue a fini par m'faire vendre de la drogue Y a ceux qui font que c'qu'on leur demande Et ceux qui se demandent si y a des choses à faire Matraque dans l'anus on se demande Si bavures policières sont réglementaires J'suis la craie qui grince sur le tableau J'suis le mot dans l'dico qui vient de l'argot Les niquer ma seule obligation La pression à chaque publication Toutes les femmes ne sont pas pareilles c'est vrai Mais le diable parle à travers elles de la même façon Dem's CQFD10</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sur Instagram, j'reçois des nudes et des numéros J'aime trop la femme pour en aimer qu'une mon plus grand défaut J'aime une femme mais c'est compliqué, c'est très compliqué Elle sèche ses larmes, elle a abdiqué, sait qu'on va s'quitter C'est beaucoup plus dur que c'que j'pensais d'avoir un enfant D'aimer sa mère mais de s'séparer, pour mieux vivre ensemble Je suis fatigué, il est trois heures du mat', un 14 décembre J'écris ce texte avec un cognac, des clopes et des cendres Je m'réfugie dans mes pensées, pour plus y penser Mon il rougit car il est trempé, ensanglanté J'supplie la vie de m'laisser partir quand ça va très mal Je prie la nuit, souffre le martyr en attente d'un signal C'est difficile quand ça d'vient facile, mon cur a parlé Ça d'vient difficile même d'en parler donc j'vais plus trop parler De peur d'être sobre à peur d'être papa, du chemin, j'en ai fait De rien en poche à Porsche Carrera, du ch'min, j'en ai fait Même sourire, différentes blessures, même compte, différents montants La vie, une condamnation, l'amour n'est qu'une caution J'ai encore baisé sans pote-ca, elle m'dit qu'c'est pas l'même résultat J'crois qu'c'est à cause de tout ça que j'écris tout ça Dernier album ou peut-être pas, la vie nous le diraYou might also like6</t>
+          <t>Sur Instagram, j'reçois des nudes et des numéros J'aime trop la femme pour en aimer qu'une mon plus grand défaut J'aime une femme mais c'est compliqué, c'est très compliqué Elle sèche ses larmes, elle a abdiqué, sait qu'on va s'quitter C'est beaucoup plus dur que c'que j'pensais d'avoir un enfant D'aimer sa mère mais de s'séparer, pour mieux vivre ensemble Je suis fatigué, il est trois heures du mat', un 14 décembre J'écris ce texte avec un cognac, des clopes et des cendres Je m'réfugie dans mes pensées, pour plus y penser Mon il rougit car il est trempé, ensanglanté J'supplie la vie de m'laisser partir quand ça va très mal Je prie la nuit, souffre le martyr en attente d'un signal C'est difficile quand ça d'vient facile, mon cur a parlé Ça d'vient difficile même d'en parler donc j'vais plus trop parler De peur d'être sobre à peur d'être papa, du chemin, j'en ai fait De rien en poche à Porsche Carrera, du ch'min, j'en ai fait Même sourire, différentes blessures, même compte, différents montants La vie, une condamnation, l'amour n'est qu'une caution J'ai encore baisé sans pote-ca, elle m'dit qu'c'est pas l'même résultat J'crois qu'c'est à cause de tout ça que j'écris tout ça Dernier album ou peut-être pas, la vie nous le dira6</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Double X on the track, bitch! La nuit, je t'aime jusqu'au matin La nuit, je bois, j'me noie, je suis de bonne humeur On joue à des jeux, ce soir t'es ma catin Tellement de chaleur, sur ma montre je ne vois plus l'heure Les yeux fermés, j'fais le tour de la ville Un collier à l'ail, je tire sur des vampires Igo, que tu m'aimes arrête de le dire Mytho, ça fait longtemps qu'il y a ton cur dans un frigo Il me faut une heure pour compter cents-mille On a compté des heures et on était trois J'ai 18 ans, j'habite à Fleury La nuit, je parle aux potes du D3 La nuit, les petits montent à Bruxelles Aiment la sensation des montagnes russes Tu sais des fois la nuit, je m'ennuie J'pars avec une russe à la montagne La nuit, je parle dans mes rêves La nuit, je plane entre ses lèvres La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise La nuit, j'attends, je prie pour qu'elle m'appelle La nuit, elle tremble, crie, elle perd la tête La nuit, elle souffre La nuit, elle bouffe La nuit, je bande La nuit, je baise You might also like Noche, noche, noche, noche, noche oh ouais Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Dem's Oh, oh, oh, oh, oh, oh C'est BruxellesVie, pas l'bronx mais bon ça tire aussi Les ennemis n'demandent pas l'heure, nan, c'est d'jà écrit dans l'autopsie Des mères, j'en nique malgré le leak, traces de mascara sur la bite Si j'donne le la, c'est qu'pour le crime, oh bah oui La nuit je fais le point, je fais le Vie La nuit, c'est à ce moment qu'elle m'appelle La nuit, c'est pour son homme, pas son mari La nuit, c'est à ce moment que j'la ken La nuit, c'est tout c'que l'on veut croire La nuit, c'est nous deux dans le noir La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise La nuit, je parle dans mes rêves yeah La nuit, je plane entre ses lèvres ouais La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise ouais La nuit, j'attends, je prie pour qu'elle m'appelle ouais La nuit, elle tremble, crie, elle perd la tête oh ouais La nuit, elle souffre La nuit, elle bouffe La nuit, je bande La nuit, je baise Noche, noche, noche, noche, noche oh ouais Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Oh, oh, oh, oh, oh, oh Sors tout, le billet violet, si j'te voulais, j't'aurais mieux donné Soie et satin, de la dentelle, pour te décorer Jusqu'au matin, j'te fais du bien, j'vois ta peau dorée Écoute moi, j'dois récupérer du biff au tiek's J'veux plus bouger quand je vois ces fesses On refait l'amour comme des bêtes Mi amor, de mes nuits, t'es la best Il est six heures les condés ont voulu m'empêcher, nan Je finis et je viens, elle voudra pas me cher-lâ La nuit, je parle dans mes rêves yeah La nuit, je plane entre ses lèvres ouais La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise ouais La nuit, j'attends, je prie pour qu'elle m'appelle ouais La nuit, elle tremble, crie, elle perd la tête oh ouais La nuit, elle souffre La nuit, elle bouffe La nuit, je bande La nuit, je baise Noche, noche, noche, noche, noche oh ouais Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Oh, oh, oh, oh, oh, oh Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Oh, oh, oh, oh, oh, oh10</t>
+          <t>Double X on the track, bitch! La nuit, je t'aime jusqu'au matin La nuit, je bois, j'me noie, je suis de bonne humeur On joue à des jeux, ce soir t'es ma catin Tellement de chaleur, sur ma montre je ne vois plus l'heure Les yeux fermés, j'fais le tour de la ville Un collier à l'ail, je tire sur des vampires Igo, que tu m'aimes arrête de le dire Mytho, ça fait longtemps qu'il y a ton cur dans un frigo Il me faut une heure pour compter cents-mille On a compté des heures et on était trois J'ai 18 ans, j'habite à Fleury La nuit, je parle aux potes du D3 La nuit, les petits montent à Bruxelles Aiment la sensation des montagnes russes Tu sais des fois la nuit, je m'ennuie J'pars avec une russe à la montagne La nuit, je parle dans mes rêves La nuit, je plane entre ses lèvres La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise La nuit, j'attends, je prie pour qu'elle m'appelle La nuit, elle tremble, crie, elle perd la tête La nuit, elle souffre La nuit, elle bouffe La nuit, je bande La nuit, je baise Noche, noche, noche, noche, noche oh ouais Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Dem's Oh, oh, oh, oh, oh, oh C'est BruxellesVie, pas l'bronx mais bon ça tire aussi Les ennemis n'demandent pas l'heure, nan, c'est d'jà écrit dans l'autopsie Des mères, j'en nique malgré le leak, traces de mascara sur la bite Si j'donne le la, c'est qu'pour le crime, oh bah oui La nuit je fais le point, je fais le Vie La nuit, c'est à ce moment qu'elle m'appelle La nuit, c'est pour son homme, pas son mari La nuit, c'est à ce moment que j'la ken La nuit, c'est tout c'que l'on veut croire La nuit, c'est nous deux dans le noir La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise La nuit, je parle dans mes rêves yeah La nuit, je plane entre ses lèvres ouais La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise ouais La nuit, j'attends, je prie pour qu'elle m'appelle ouais La nuit, elle tremble, crie, elle perd la tête oh ouais La nuit, elle souffre La nuit, elle bouffe La nuit, je bande La nuit, je baise Noche, noche, noche, noche, noche oh ouais Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Oh, oh, oh, oh, oh, oh Sors tout, le billet violet, si j'te voulais, j't'aurais mieux donné Soie et satin, de la dentelle, pour te décorer Jusqu'au matin, j'te fais du bien, j'vois ta peau dorée Écoute moi, j'dois récupérer du biff au tiek's J'veux plus bouger quand je vois ces fesses On refait l'amour comme des bêtes Mi amor, de mes nuits, t'es la best Il est six heures les condés ont voulu m'empêcher, nan Je finis et je viens, elle voudra pas me cher-lâ La nuit, je parle dans mes rêves yeah La nuit, je plane entre ses lèvres ouais La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise ouais La nuit, j'attends, je prie pour qu'elle m'appelle ouais La nuit, elle tremble, crie, elle perd la tête oh ouais La nuit, elle souffre La nuit, elle bouffe La nuit, je bande La nuit, je baise Noche, noche, noche, noche, noche oh ouais Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Oh, oh, oh, oh, oh, oh Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Oh, oh, oh, oh, oh, oh10</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nwaar La violence Ouh Eh, l'humanité tuée dans l'uf Tuée dans l'uf, l'égalité entre homme et meuf, c'est l'soixante-neuf C'est l'soixante-neuf Libre comme l'air, sortie d'une tte-ch' Sortie d'une tte-ch', j'baise ta mère, j'laisse mon me-sper sur son blush Blush, blush Numéro un, je l'redeviens, je n'm'arrête pas Jamais, elle fait qu'me sucer, j'crois qu'mon gland disparaîtra Sale T'es une bitch ? Viens sur la guest Viens sur la guest, j'te crache dessus, délit d'faciès Délit d'faciès On s'croise, j'fais comme Thomas, j'pars en flèche, Damso, Dems, Nwaar C'est Bruxelles Vie, pas l'Bronx, ni banlieue ouest Ni banlieue ouest Ça rappe beaucoup mais ça n'sort pas du tieks Non, non, jamais, j'te mets dans l'cul, t'as l'bas qui t'blesse Ah ouais, la pute T'es un vendu, police t'achète, nwaar Snitch Hey, hey Okay, okay Prinz Hey, hey, hey, hey Okay, okay, okay Nwaar Hey, hey, hey Okay, okay, okay Hey, hey, hey Okay, okay, okay You might also like Thug, noir, déf', sale, négro prend la weed Hey, défoncé dans l'tiekson, négro fume la weed Eh Thug, noir, déf', sale, négro prend la weed Eh, défoncé dans l'tiekson, négro fume la weed Prend la weed, déf', noir, saal Négro fume la weed, fume la weed, déf', noir, saal Négro fume la weed Fume la weed, déf', noir, saal Négro fume la weed fume la weed, déf', noir, saal Négro fume la weed J'tire sur mon oint-j, vie sur le linge, Coco Loco à Zona rosa Millions d'euros, ici et là, j'étale mon biff sur un corps en émoi Traînée de beuh sous l'épiderme, kilos de coke dans l'camion-citerne J'm'invente une vie, j'm'invente une mort, crevé par fils de pute en mauvais termes Remise en question mais sans réponses, j'rêve de roses mais vis dans les ronces J't'ai fait du mal en t'faisant du bien, j'ai touché ton âme, en touchant tes seins Hashtag Tout s'passe comme prévu mais on sait que t'as rien prévu du tout J'suis sur la scène ou dans le zoo ? J'suis dans la tienne ou dans les autres ? Thug, noir, déf', sale, négro prend la weed Yeah, défoncé dans l'tiekson, négro fume la weed Thug, noir, déf', sale, négro prend la weed Ouh, défoncé dans l'tiekson, négro fume la weed Prend la weed, déf', noir, saal Négro fume la weed, fume la weed, déf', noir, saal Négro fume la weed Fume la weed, déf', noir, saal Négro fume la weed, fume la weed, déf', noir, saal Négro fume la weed6</t>
+          <t>Nwaar La violence Ouh Eh, l'humanité tuée dans l'uf Tuée dans l'uf, l'égalité entre homme et meuf, c'est l'soixante-neuf C'est l'soixante-neuf Libre comme l'air, sortie d'une tte-ch' Sortie d'une tte-ch', j'baise ta mère, j'laisse mon me-sper sur son blush Blush, blush Numéro un, je l'redeviens, je n'm'arrête pas Jamais, elle fait qu'me sucer, j'crois qu'mon gland disparaîtra Sale T'es une bitch ? Viens sur la guest Viens sur la guest, j'te crache dessus, délit d'faciès Délit d'faciès On s'croise, j'fais comme Thomas, j'pars en flèche, Damso, Dems, Nwaar C'est Bruxelles Vie, pas l'Bronx, ni banlieue ouest Ni banlieue ouest Ça rappe beaucoup mais ça n'sort pas du tieks Non, non, jamais, j'te mets dans l'cul, t'as l'bas qui t'blesse Ah ouais, la pute T'es un vendu, police t'achète, nwaar Snitch Hey, hey Okay, okay Prinz Hey, hey, hey, hey Okay, okay, okay Nwaar Hey, hey, hey Okay, okay, okay Hey, hey, hey Okay, okay, okay Thug, noir, déf', sale, négro prend la weed Hey, défoncé dans l'tiekson, négro fume la weed Eh Thug, noir, déf', sale, négro prend la weed Eh, défoncé dans l'tiekson, négro fume la weed Prend la weed, déf', noir, saal Négro fume la weed, fume la weed, déf', noir, saal Négro fume la weed Fume la weed, déf', noir, saal Négro fume la weed fume la weed, déf', noir, saal Négro fume la weed J'tire sur mon oint-j, vie sur le linge, Coco Loco à Zona rosa Millions d'euros, ici et là, j'étale mon biff sur un corps en émoi Traînée de beuh sous l'épiderme, kilos de coke dans l'camion-citerne J'm'invente une vie, j'm'invente une mort, crevé par fils de pute en mauvais termes Remise en question mais sans réponses, j'rêve de roses mais vis dans les ronces J't'ai fait du mal en t'faisant du bien, j'ai touché ton âme, en touchant tes seins Hashtag Tout s'passe comme prévu mais on sait que t'as rien prévu du tout J'suis sur la scène ou dans le zoo ? J'suis dans la tienne ou dans les autres ? Thug, noir, déf', sale, négro prend la weed Yeah, défoncé dans l'tiekson, négro fume la weed Thug, noir, déf', sale, négro prend la weed Ouh, défoncé dans l'tiekson, négro fume la weed Prend la weed, déf', noir, saal Négro fume la weed, fume la weed, déf', noir, saal Négro fume la weed Fume la weed, déf', noir, saal Négro fume la weed, fume la weed, déf', noir, saal Négro fume la weed6</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>- Je vous garde encore une petite semaine afin d'effectuer quelques analyses en plus. Je vous ai prescrit en attendant la mixtape QALF de Damso et Jackpot du groupe OPG. Je vous revois dans quelques heures. Reposez-vous, et à tout à l'heure - Ouais - Monsieur Dems, vous m'entendez ? C'est rien d'bien méchant, il m'a juste traité d'nègre des champs Mais c'est rien d'bien méchant, j'ai juste niqué sa mère sur le champ Tu fais l'intelligent mais suffit d'une bastos pour qu'j'enterre ton savoir vivant avec un Magnum chargé entre les dents Mais c'est rien d'bien méchant, non, eh Tout est noir comme à Château Rouge Manchot, j'fais pas d'mauvais geste, non Mon .9 milli' dit que tas la peau douce, ta schneck vit en pleine sécheresse, oh J'aime pas l'humain, j'préfère les espèces, oh J't'ai déjà baisée, tu veux qu'j'te respecte ? Oh T'as trop sucé, t'as bouton d'herpès, oh Mais c'est rien d'bien méchant, non, oui Quatre, zéro, zéro années mais c'est rien d'bien méchant non plus Qu'on nous la met jusqu'à la monnaie et ça, bien profond dans le cul Des fils de putains, y en a plus dun, cest sûr Tours des scrutins sans Africain, jte jure Très gros engin dans son machin si pur Y a pas d'procès sûr car la prose est dure Niquer des mères, bosser dur, c'est la procédure T'es dans les flyers, j'suis dans les journaux Des chaînes d'esclaves aux chaînes en or Click, click, bang, bang comme ça qu'négro s'en sort Wesh, wesh, wesh, wesh OuiYou might also like7</t>
+          <t>- Je vous garde encore une petite semaine afin d'effectuer quelques analyses en plus. Je vous ai prescrit en attendant la mixtape QALF de Damso et Jackpot du groupe OPG. Je vous revois dans quelques heures. Reposez-vous, et à tout à l'heure - Ouais - Monsieur Dems, vous m'entendez ? C'est rien d'bien méchant, il m'a juste traité d'nègre des champs Mais c'est rien d'bien méchant, j'ai juste niqué sa mère sur le champ Tu fais l'intelligent mais suffit d'une bastos pour qu'j'enterre ton savoir vivant avec un Magnum chargé entre les dents Mais c'est rien d'bien méchant, non, eh Tout est noir comme à Château Rouge Manchot, j'fais pas d'mauvais geste, non Mon .9 milli' dit que tas la peau douce, ta schneck vit en pleine sécheresse, oh J'aime pas l'humain, j'préfère les espèces, oh J't'ai déjà baisée, tu veux qu'j'te respecte ? Oh T'as trop sucé, t'as bouton d'herpès, oh Mais c'est rien d'bien méchant, non, oui Quatre, zéro, zéro années mais c'est rien d'bien méchant non plus Qu'on nous la met jusqu'à la monnaie et ça, bien profond dans le cul Des fils de putains, y en a plus dun, cest sûr Tours des scrutins sans Africain, jte jure Très gros engin dans son machin si pur Y a pas d'procès sûr car la prose est dure Niquer des mères, bosser dur, c'est la procédure T'es dans les flyers, j'suis dans les journaux Des chaînes d'esclaves aux chaînes en or Click, click, bang, bang comme ça qu'négro s'en sort Wesh, wesh, wesh, wesh Oui7</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Eh Dems Eh Allégresse que pour tendre mère, tas de graisse dans son derrière J'me sens baisé d'la vie comme quand pute te dit C'est trop tard pour ne plus être père Un avenir dans un chèque repas, fin du mois, tout l'monde perd du poids Nage en brasse en plein tsunami, survis, je vis, taureau noir dans la corrida En temps d'guerre y'a aucune étreinte, tue tout l'monde, même les femmes enceintes Dans un cloaque en méditation, j'vis des jours heureux dans lumière éteinte Y a qu'à la muscu' qu'j'mets un genou à terre, gare centrale à la rue, j'étais locataire Depuis, j'fais du sale, y'a plus de clémence, j'vis d'Universal et d'mes redevances Perpétuelle éjaculation dans orifice de pute en excitation Succession d'accumulation, j'respecte plus les règles même celles de ses menstruations Beaucoup d'appelés mais si peu d'élus, m'en bats les couilles des vues tant qu'ça a pas payé Tu passes à la télé mais t'es pas connu, en gros tu prends dans l'cul mais t'es pas pédé Angle droit comme la lettre L, vrai pe-ra Wu-Tang dans les gênes J'fais du sale, j'ai d'la verdure à vendre, comme ceux dont la chair est couleur ébène Loin des plages ensoleillées j'ai su trouver sommeil Le cur sur une plaque allumée j'écoute Agnès Obel J'écoute Agnès Obel Le cur sur une plaque allumée j'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel J'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel Le cur sur une plaque allumée j'écoute Agnès Obel You might also like En fait le truc c'est que j'n'avais pas de flouzes, j'faisais du pe-ra appuyé par le couz' Souvent défoncé, j'compte les sous dépensés, dans ma douze et goose, Damso, dose, dose, dose Les mecs au quartier parlent de barillets, j'me dis qu'pour braquer, pas trop tard il est J'hésite à faire ce biz' en deux deux mais j'me dis pour 1000 eu' Vais-je risquer la taule ?, no, no Ventre creux, sans thunes, le cur qui bat, Batterie faible indique le Toshiba J'me dis qu'vaut mieux que j'fasse des prods', les vendre aux mecs qui posent, qui sait ça m'fera des loves, loves, loves J'postule dans les shops, j'suis au FOREM, putain, j'ai même dû enlever ma boucle d'oreille Ces fils de putes ne voulaient pas du Dems, j'n'avais pas le profil, non j'n'étais qu'un négro, no, no J'pète donc les plombs, j'craque, j'prends l'gun, j'braque sans m'faire pécho J'suis refait, 1000e au frais, petits billets, p'tits boulots, FOREM, j'ai oublié J'taffe donc les sons, tracks sombres, seum, QALF semble plaire, qué-cho j'suis Refait, signé au frais, gros billets, petits boulot, FOREM, j'ai oublié Quelques mois plus tard j'suis dans l'arène à faire du sale Vie Appelle-moi plus tard j'n'ai plus l'temps pour toi m'avait-elle dit Loin des plages ensoleillées, j'ai su trouver sommeil Le cur sur une plaque allumée j'écoute Agnès Obel J'écoute Agnès Obel Le cur sur une plaque allumée j'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel J'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel Le cur sur une plaque allumée j'écoute Agnès Obel Facile8</t>
+          <t>Eh Dems Eh Allégresse que pour tendre mère, tas de graisse dans son derrière J'me sens baisé d'la vie comme quand pute te dit C'est trop tard pour ne plus être père Un avenir dans un chèque repas, fin du mois, tout l'monde perd du poids Nage en brasse en plein tsunami, survis, je vis, taureau noir dans la corrida En temps d'guerre y'a aucune étreinte, tue tout l'monde, même les femmes enceintes Dans un cloaque en méditation, j'vis des jours heureux dans lumière éteinte Y a qu'à la muscu' qu'j'mets un genou à terre, gare centrale à la rue, j'étais locataire Depuis, j'fais du sale, y'a plus de clémence, j'vis d'Universal et d'mes redevances Perpétuelle éjaculation dans orifice de pute en excitation Succession d'accumulation, j'respecte plus les règles même celles de ses menstruations Beaucoup d'appelés mais si peu d'élus, m'en bats les couilles des vues tant qu'ça a pas payé Tu passes à la télé mais t'es pas connu, en gros tu prends dans l'cul mais t'es pas pédé Angle droit comme la lettre L, vrai pe-ra Wu-Tang dans les gênes J'fais du sale, j'ai d'la verdure à vendre, comme ceux dont la chair est couleur ébène Loin des plages ensoleillées j'ai su trouver sommeil Le cur sur une plaque allumée j'écoute Agnès Obel J'écoute Agnès Obel Le cur sur une plaque allumée j'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel J'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel Le cur sur une plaque allumée j'écoute Agnès Obel En fait le truc c'est que j'n'avais pas de flouzes, j'faisais du pe-ra appuyé par le couz' Souvent défoncé, j'compte les sous dépensés, dans ma douze et goose, Damso, dose, dose, dose Les mecs au quartier parlent de barillets, j'me dis qu'pour braquer, pas trop tard il est J'hésite à faire ce biz' en deux deux mais j'me dis pour 1000 eu' Vais-je risquer la taule ?, no, no Ventre creux, sans thunes, le cur qui bat, Batterie faible indique le Toshiba J'me dis qu'vaut mieux que j'fasse des prods', les vendre aux mecs qui posent, qui sait ça m'fera des loves, loves, loves J'postule dans les shops, j'suis au FOREM, putain, j'ai même dû enlever ma boucle d'oreille Ces fils de putes ne voulaient pas du Dems, j'n'avais pas le profil, non j'n'étais qu'un négro, no, no J'pète donc les plombs, j'craque, j'prends l'gun, j'braque sans m'faire pécho J'suis refait, 1000e au frais, petits billets, p'tits boulots, FOREM, j'ai oublié J'taffe donc les sons, tracks sombres, seum, QALF semble plaire, qué-cho j'suis Refait, signé au frais, gros billets, petits boulot, FOREM, j'ai oublié Quelques mois plus tard j'suis dans l'arène à faire du sale Vie Appelle-moi plus tard j'n'ai plus l'temps pour toi m'avait-elle dit Loin des plages ensoleillées, j'ai su trouver sommeil Le cur sur une plaque allumée j'écoute Agnès Obel J'écoute Agnès Obel Le cur sur une plaque allumée j'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel J'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel Le cur sur une plaque allumée j'écoute Agnès Obel Facile8</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Eh, eh Tombé love, eh J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love Évidemment, tu t'poses des questions, tu dis qu'le Dems jamais O.G. fume, fait de l'argent, d'la moula, pense à rien d'autre, mais J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love Hollywood, j'me fais des films, j'rêve les yeux grands ouverts, j'plane, oh God Nan, j'pars en vrille, la drogue est vi-sser, un bédo, j'tire une grosse taffe, oh God J'crois qu'j'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love You might also like Love, love Love, love Love, love Love, love Ok, va dire à la Mort qu't'as rencontré l'homme de ta vie Ptite punchline zerma romantique, j'crois qu'ça y est Éclaboussure sur des lèvres, enchanté de revivre Mon lifestyle, gicler sur des 'tasses dans lpalais Pour toi, j'pourrais même revendre du te-sh', ouais Pour toi, j'pourrais même parler aux keufs, non, j'mens non Pour toi, j'arrêtai d'mettre dans les sses-fe, ouais Pour toi, jcrois qujpourrais dire qutes ma meuf quand jsors merde J'me ramollis, jsuis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love Love, love Love, love Love, love Love, love Merde, jme ramollis, jsuis tombé love8</t>
+          <t>Eh, eh Tombé love, eh J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love Évidemment, tu t'poses des questions, tu dis qu'le Dems jamais O.G. fume, fait de l'argent, d'la moula, pense à rien d'autre, mais J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love Hollywood, j'me fais des films, j'rêve les yeux grands ouverts, j'plane, oh God Nan, j'pars en vrille, la drogue est vi-sser, un bédo, j'tire une grosse taffe, oh God J'crois qu'j'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love Love, love Love, love Love, love Love, love Ok, va dire à la Mort qu't'as rencontré l'homme de ta vie Ptite punchline zerma romantique, j'crois qu'ça y est Éclaboussure sur des lèvres, enchanté de revivre Mon lifestyle, gicler sur des 'tasses dans lpalais Pour toi, j'pourrais même revendre du te-sh', ouais Pour toi, j'pourrais même parler aux keufs, non, j'mens non Pour toi, j'arrêtai d'mettre dans les sses-fe, ouais Pour toi, jcrois qujpourrais dire qutes ma meuf quand jsors merde J'me ramollis, jsuis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love Love, love Love, love Love, love Love, love Merde, jme ramollis, jsuis tombé love8</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>J'suis à un cul près de battre mon record J'bats pas en retraite sans faire de morts J'm'envoie en l'air, j't'envoie dans le décor D'Hollande est l'herbe, vend sans frais de port Envoie des nudes quand j'ai besoin de baiser Radio ne m'aime parce que vulgarités J'trouve réconfort en la personne de Luc J'fais que du sale donc je n'baise que des putes Afropéenne sa puterie me craint, oui Salopard il en est ainsi Fume-le doucement, on a tout le temps Prochain soleil couchant, bain de minuit Quelque part loin des problèmes et des soucis Loin de son sac Longchamps, près du Gucci Fellation sponso par lèvres de Belluci Fellation sponso par lèvres de Belluci J'ai fait du mal, j'ai fait du mal, j'm'en souviens plus J'tourne en rond, au rond-point Victoire, j'suis bien loin des vaincus Je n'sais même pas c'que j'inhale, sorti de force des sentiers battus Je n'sais que rapper la rue, c't'à dire que rien ne va plus You might also like Depuis je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Peace au lendemain car demain n'a pas besoin de nous Fumeur de joints bedo, j'n'ai pas fini les cours J'rappais dans le tieks avec mes négros dans le zoo OP motherfuck OG négro, c'était le crew Tous les jours def', profond deviendra le trou J'capte mon booker, pour un showcase il faut des sous J'suis avec une bitch mais son cul a d'jà fait le tour À trop mener ma vie comme je l'entends, j'suis devenu sourd La daronne à l'hosto a passée quasi tout l'été À chacun de ses pas, j'me dis qu'c'est p't'être le dernier Solitaire né, rap énervé Fais-moi fumer pour ne plus se sentir concerné J'suis def', faut qu'j'y reste mec Sobre, je vois trop de blèmes-pro D.A.M.S.O Roi désormais, tout est noir mais Pas d'lueurs blanches pures, coke passant par nez J'ai fait du mal, j'ai fait du mal, j'm'en souviens plus J'tourne en rond, au rond-point Victoire, j'suis bien loin des vaincus Je n'sais même pas c'que j'inhale, sorti de force des sentiers battus Je n'sais que rapper la rue, c't'à dire que rien ne va plus Depuis je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés J'ai fait du mal, j'ai fait du mal, j'm'en souviens plus J'tourne en rond, au rond-point Victoire, j'suis bien loin des vaincus Je n'sais même pas c'que j'inhale, sorti de force des sentiers battus Je n'sais que rapper la rue, c't'à dire que rien ne va plus Depuis je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés5</t>
+          <t>J'suis à un cul près de battre mon record J'bats pas en retraite sans faire de morts J'm'envoie en l'air, j't'envoie dans le décor D'Hollande est l'herbe, vend sans frais de port Envoie des nudes quand j'ai besoin de baiser Radio ne m'aime parce que vulgarités J'trouve réconfort en la personne de Luc J'fais que du sale donc je n'baise que des putes Afropéenne sa puterie me craint, oui Salopard il en est ainsi Fume-le doucement, on a tout le temps Prochain soleil couchant, bain de minuit Quelque part loin des problèmes et des soucis Loin de son sac Longchamps, près du Gucci Fellation sponso par lèvres de Belluci Fellation sponso par lèvres de Belluci J'ai fait du mal, j'ai fait du mal, j'm'en souviens plus J'tourne en rond, au rond-point Victoire, j'suis bien loin des vaincus Je n'sais même pas c'que j'inhale, sorti de force des sentiers battus Je n'sais que rapper la rue, c't'à dire que rien ne va plus Depuis je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Peace au lendemain car demain n'a pas besoin de nous Fumeur de joints bedo, j'n'ai pas fini les cours J'rappais dans le tieks avec mes négros dans le zoo OP motherfuck OG négro, c'était le crew Tous les jours def', profond deviendra le trou J'capte mon booker, pour un showcase il faut des sous J'suis avec une bitch mais son cul a d'jà fait le tour À trop mener ma vie comme je l'entends, j'suis devenu sourd La daronne à l'hosto a passée quasi tout l'été À chacun de ses pas, j'me dis qu'c'est p't'être le dernier Solitaire né, rap énervé Fais-moi fumer pour ne plus se sentir concerné J'suis def', faut qu'j'y reste mec Sobre, je vois trop de blèmes-pro D.A.M.S.O Roi désormais, tout est noir mais Pas d'lueurs blanches pures, coke passant par nez J'ai fait du mal, j'ai fait du mal, j'm'en souviens plus J'tourne en rond, au rond-point Victoire, j'suis bien loin des vaincus Je n'sais même pas c'que j'inhale, sorti de force des sentiers battus Je n'sais que rapper la rue, c't'à dire que rien ne va plus Depuis je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés J'ai fait du mal, j'ai fait du mal, j'm'en souviens plus J'tourne en rond, au rond-point Victoire, j'suis bien loin des vaincus Je n'sais même pas c'que j'inhale, sorti de force des sentiers battus Je n'sais que rapper la rue, c't'à dire que rien ne va plus Depuis je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés5</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Le rap français, j'vais tellement l'enculer Tellement qu'le HIV n'pourra pas m'arrêter Batterie faible, je suis scandalisé Les rappeurs font d'la merde en toute impunité J'vais faire du sale, du sale et j'vais te bruxelliser J'crois même que j'vais te 92izer Siboy, Shay et nash-Be, j'transmets mes amitiés Négro, j'viens d'tout officialiser J'paye une te-pu, j'évite ainsi resto et cinéma Reclu, vis loin des faux négros ici et là Dévergondée, la te-pu est mal vêtue J'la baiserai direct sans mettre de doigt Dems Pointeur de neush dans les hautes sphères Comme tes prières, j'côtoie que l'au-delà Je parle en tu avec le sommet Serpent d'l'enfer, jamais elle m'vouvoiera Oui, fuck les ondes hertziennes Vie Retrouve mon flow sur OKLM Radio J'dis des saloperies pendant le doggy Y a qu'comme ça que j'parlerai dans ton dos OPG Thug est le gang, OG Kush est dans le bang Le videur est champion de France Donc pour le niquer, j'ai du appeler deux-trois négros You might also like J'l'ai manuvrée dans la pièce et j'ai niqué sa mère Nwarmalement, nwar-nwarmalement Damso, ouais Un joint d'be-her dans la caisse, j'fume au bord de la mer Nwarmalement, nwar-nwarmalement Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Dans le noir, devant Dieu le père, agenouillé J'prie pour les fois où j't'ai défoncé, jnouné Beaucoup trop sévère, la biatch a fugué Grosse pute à quarante euros, j'me fais sucer Salope, salope, salope oui, les trois derniers gros mots qu'j'ai dit avant d'cracher J'connais ton futur, il r'ssemble à mon passé ouais T'as trop de vergetures, du sport, t'en fais pas assez Épile-toi un peu plus, soit dit en passant T'es plus poilue qu'la moustache de Maupassant T'as pas d'gamos, tu les prends en location T'as pas d'vrai blings, tu prends les contre façons J'suis au pied du mur mais celui des lamentations J'ai la clé du succès, t'as la clé du maton La soif de vaincre quand je m'noie dans la boisson Poséidon olympe est la nation J'la joue Kevin Garnett, Minnesota, KG Son âge n'est pas net donc j'fais pas le R.Kelly, no J'm'en fous qu'elle soit bonne aujourd'hui tant qu'son cul vieillit comme celui de J. Lo Dolfa à la prod, Damso, Dre, Mike Elizondo Nègre de la pègre, Borsalino Belmondo J'l'ai manuvrée dans la pièce et j'ai niqué sa mère Nwarmalement, nwar-nwarmalement Damso, ouais Un joint de be-her dans la caisse, j'fume au bord de la mer Nwarmalement, nwar-nwarmalement Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bong Que de la vie, OPG Thug est le gang, OG Kush est dans le bong Que de la vie, OPG Thug est le gang, OG Kush est dans le bong Que de la vie Bang, bang, bang, bang5</t>
+          <t>Le rap français, j'vais tellement l'enculer Tellement qu'le HIV n'pourra pas m'arrêter Batterie faible, je suis scandalisé Les rappeurs font d'la merde en toute impunité J'vais faire du sale, du sale et j'vais te bruxelliser J'crois même que j'vais te 92izer Siboy, Shay et nash-Be, j'transmets mes amitiés Négro, j'viens d'tout officialiser J'paye une te-pu, j'évite ainsi resto et cinéma Reclu, vis loin des faux négros ici et là Dévergondée, la te-pu est mal vêtue J'la baiserai direct sans mettre de doigt Dems Pointeur de neush dans les hautes sphères Comme tes prières, j'côtoie que l'au-delà Je parle en tu avec le sommet Serpent d'l'enfer, jamais elle m'vouvoiera Oui, fuck les ondes hertziennes Vie Retrouve mon flow sur OKLM Radio J'dis des saloperies pendant le doggy Y a qu'comme ça que j'parlerai dans ton dos OPG Thug est le gang, OG Kush est dans le bang Le videur est champion de France Donc pour le niquer, j'ai du appeler deux-trois négros J'l'ai manuvrée dans la pièce et j'ai niqué sa mère Nwarmalement, nwar-nwarmalement Damso, ouais Un joint d'be-her dans la caisse, j'fume au bord de la mer Nwarmalement, nwar-nwarmalement Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Dans le noir, devant Dieu le père, agenouillé J'prie pour les fois où j't'ai défoncé, jnouné Beaucoup trop sévère, la biatch a fugué Grosse pute à quarante euros, j'me fais sucer Salope, salope, salope oui, les trois derniers gros mots qu'j'ai dit avant d'cracher J'connais ton futur, il r'ssemble à mon passé ouais T'as trop de vergetures, du sport, t'en fais pas assez Épile-toi un peu plus, soit dit en passant T'es plus poilue qu'la moustache de Maupassant T'as pas d'gamos, tu les prends en location T'as pas d'vrai blings, tu prends les contre façons J'suis au pied du mur mais celui des lamentations J'ai la clé du succès, t'as la clé du maton La soif de vaincre quand je m'noie dans la boisson Poséidon olympe est la nation J'la joue Kevin Garnett, Minnesota, KG Son âge n'est pas net donc j'fais pas le R.Kelly, no J'm'en fous qu'elle soit bonne aujourd'hui tant qu'son cul vieillit comme celui de J. Lo Dolfa à la prod, Damso, Dre, Mike Elizondo Nègre de la pègre, Borsalino Belmondo J'l'ai manuvrée dans la pièce et j'ai niqué sa mère Nwarmalement, nwar-nwarmalement Damso, ouais Un joint de be-her dans la caisse, j'fume au bord de la mer Nwarmalement, nwar-nwarmalement Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bong Que de la vie, OPG Thug est le gang, OG Kush est dans le bong Que de la vie, OPG Thug est le gang, OG Kush est dans le bong Que de la vie Bang, bang, bang, bang5</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Shoo Yeah J'suis dans sa schnek, t'es dans sa friendzone, tu l'as jamais tiré sauf au paintball Shoo Mon émoticône jamais s'enjoy No, peau d'pêche à l'ancienne, en Sean John Shoo Noir vie deviendra peut-être rose Ouais, O.G deviendra peut-être mauve Ouais La défonce est profonde à p'tite dose Ouais, ton compte à vues ne voit pas grand chose Rraah Marque de vêtement, j'deviens busy Eh, comme à l'hosto, j'ai des heures de visite Ouais C'est la java dans la go-va Eh, la pute est botoxée comme Rachida Pute, pute Africain, jamais j'oublierai Eh, renoi singé comme Taubira Ouais J'ai qu'un seul amour Mama Lova, j'veux plus t'voir comme la chatte à Turner Afida, ah ouais Non Dans la schnek, dans la schnek, dans la schnek, dans la schnek, je n'sens même plus le gland Bang, bang, ouais J'suis à sec, j'suis à sec, j'suis à sec, j'suis à sec, pourquoi tu m'suces autant ? Wesh ? J'démarre pas, j'risque de caler Ouais, j'l'ai nard-ca, j'l'ai mitraillée 'traillée Dana ne s'ra pas la vallée, à chaque nouveau son, j'crée des nouveaux paliers Ouais, ouais, ouais, ouais À chaque nouveau son, j'crée des nouveaux paliers Là-bas si j'y suis, jamais ça va aller Ouais, s'il n'y a pas d'essuie, ta che-bou, c'est pareil Ouais Cramer kilogrammes, je n'fais que inhaler Eh Salam à P d'Nam, Bruxelles Vie à jamais Ouais, ouais Sperme dans les yeux, l'amour l'a-t-elle aveuglée ? Bang J'fais que du lourd, je n'viens plus à la pesée Bang Comme Aznavour, j's'rais dans l'game jusqu'à crever Ouais Dans l'crew, tout l'monde se sait Vie tatoué dans barbelés You might also like J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, regardez par là, bientôt, il y sera Il y sera J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, j'm'en vais là-bas loin des ceci, cela Vie Go-va J'suis dans la go-va, go-va J'suis dans la go-va J'suis dans la go-va Ouais, regardez par là, bientôt, il y sera Il y sera J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, j'm'en vais là-bas loin des ceci, cela Ceci, cela Vie Trou d'mémoire d'vant policier lors d'audition Ouais, tout est noir comme chemisier de Ardisson Y a qu'chez ton mac qu'impossible est la mission No, y a qu'à Détroit que j'aurais besoin de pistons Un disque d'or mais pas de réédition Yes, l'album est fort mais j'perçois pas d'édition Touche mes couilles et dis-moi félicitations Pute, sans trop d'efforts, je suis d'jà en érection Yeah Dans sa tte-cha, je n'fais que de la natation Bang, danse avec moi, je n'sais faire que des tractions No J'suis africain, peu importe la nation Ouais, j'suis africain, peu importe la nation Grr, rah Dîtes au barman que j'n'ai pas besoin de glaçons Sheesh, micro bas d'gamme mais le flow n'est pas d'occasion Ouais Paco Rabanne mouille lors des salutations Dems, j'fais que du sale et très noire est la mention Ouais, ouais Sperme dans les yeux, l'amour l'a-t-elle aveuglée ? Bang J'fais que du lourd, je n'viens plus à la pesée Bang Comme Aznavour, j's'rais dans l'game jusqu'à crever Dans l'crew, tout l'monde se sait Vie tatoué dans barbelés J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, regardez par là, bientôt, il y sera Il y sera J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, j'm'en vais là-bas loin des ceci, cela Ceci, cela Vie Go-va Go-va Vie Vie Go-va Go-va3</t>
+          <t>Shoo Yeah J'suis dans sa schnek, t'es dans sa friendzone, tu l'as jamais tiré sauf au paintball Shoo Mon émoticône jamais s'enjoy No, peau d'pêche à l'ancienne, en Sean John Shoo Noir vie deviendra peut-être rose Ouais, O.G deviendra peut-être mauve Ouais La défonce est profonde à p'tite dose Ouais, ton compte à vues ne voit pas grand chose Rraah Marque de vêtement, j'deviens busy Eh, comme à l'hosto, j'ai des heures de visite Ouais C'est la java dans la go-va Eh, la pute est botoxée comme Rachida Pute, pute Africain, jamais j'oublierai Eh, renoi singé comme Taubira Ouais J'ai qu'un seul amour Mama Lova, j'veux plus t'voir comme la chatte à Turner Afida, ah ouais Non Dans la schnek, dans la schnek, dans la schnek, dans la schnek, je n'sens même plus le gland Bang, bang, ouais J'suis à sec, j'suis à sec, j'suis à sec, j'suis à sec, pourquoi tu m'suces autant ? Wesh ? J'démarre pas, j'risque de caler Ouais, j'l'ai nard-ca, j'l'ai mitraillée 'traillée Dana ne s'ra pas la vallée, à chaque nouveau son, j'crée des nouveaux paliers Ouais, ouais, ouais, ouais À chaque nouveau son, j'crée des nouveaux paliers Là-bas si j'y suis, jamais ça va aller Ouais, s'il n'y a pas d'essuie, ta che-bou, c'est pareil Ouais Cramer kilogrammes, je n'fais que inhaler Eh Salam à P d'Nam, Bruxelles Vie à jamais Ouais, ouais Sperme dans les yeux, l'amour l'a-t-elle aveuglée ? Bang J'fais que du lourd, je n'viens plus à la pesée Bang Comme Aznavour, j's'rais dans l'game jusqu'à crever Ouais Dans l'crew, tout l'monde se sait Vie tatoué dans barbelés J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, regardez par là, bientôt, il y sera Il y sera J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, j'm'en vais là-bas loin des ceci, cela Vie Go-va J'suis dans la go-va, go-va J'suis dans la go-va J'suis dans la go-va Ouais, regardez par là, bientôt, il y sera Il y sera J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, j'm'en vais là-bas loin des ceci, cela Ceci, cela Vie Trou d'mémoire d'vant policier lors d'audition Ouais, tout est noir comme chemisier de Ardisson Y a qu'chez ton mac qu'impossible est la mission No, y a qu'à Détroit que j'aurais besoin de pistons Un disque d'or mais pas de réédition Yes, l'album est fort mais j'perçois pas d'édition Touche mes couilles et dis-moi félicitations Pute, sans trop d'efforts, je suis d'jà en érection Yeah Dans sa tte-cha, je n'fais que de la natation Bang, danse avec moi, je n'sais faire que des tractions No J'suis africain, peu importe la nation Ouais, j'suis africain, peu importe la nation Grr, rah Dîtes au barman que j'n'ai pas besoin de glaçons Sheesh, micro bas d'gamme mais le flow n'est pas d'occasion Ouais Paco Rabanne mouille lors des salutations Dems, j'fais que du sale et très noire est la mention Ouais, ouais Sperme dans les yeux, l'amour l'a-t-elle aveuglée ? Bang J'fais que du lourd, je n'viens plus à la pesée Bang Comme Aznavour, j's'rais dans l'game jusqu'à crever Dans l'crew, tout l'monde se sait Vie tatoué dans barbelés J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, regardez par là, bientôt, il y sera Il y sera J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, j'm'en vais là-bas loin des ceci, cela Ceci, cela Vie Go-va Go-va Vie Vie Go-va Go-va3</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Yeah Hey, hey Ouh-ouh Hey, fuck Bus', bustin like this Yeah Drug, ice, money, sex Money, sexe, uh Thug life, movie shit, nigga, Scorsese Elle espère avoir mes racks Avoir mes racks, maintenant, j'ai mon banquier, God bless Bless Et je fume un tas de Haze, eh, baby, bounce back, synchronisé sur les bass Just woke up et fuck le reste, eh Eh Booty tellement big, j'escalade le Mont Everest Négro, c'est ton birthday, eh Ouh-ouh, yeah Son de gunshot synchronisé sur la bass Ouh-ouh Ah bah oui Ouh-ouh Maintenant, j'ai mon banquier, God bless Bless, bless, bless Ah bah oui Ouh-ouh Ouais Maintenant, maintenant, j'ai mon banquier You might also like T'arrêtes pas d'taper des Skrt, skrt mais ton flow est flingué L'album le plus attendu d'l'année sortira pas c't'année Nwaar Comme un uf poché, si j'l'ouvre, j'coule, donc j'ferme ma gueule Dans mon cercueil, mets-moi full beuh, négro qu'j'puisse planer Sale J't'ai baisée, j't'ai quittée, j'sais même pas qui t'es, nan Nan C'est Dems, Dems, H, viennent pour le cash flow La seule raison, c'est la raison, sans ça, j'crois qu'j'aurais fait comme toi J'me serais marié, j'l'aurais trompée, j'lui aurais dit Désolé d'être moi J'aimerais qu'mon pénis ait des yeux juste pour qu'j'puisse voir la vie en rose Car mes pupilles ont vu trop d'morts et la daronne dans le coma Donc j'vais rien sortir cette année Nan, le temps que la daronne marche, sorte de l'hosto Goddamn, God bless Ouh-ouh Sale Maintenant, j'ai mon banquier, God bless Bless, bless, bless Ouh-ouh Ah bah oui Hey Oui Maintenant, maintenant, j'ai mon banquier, God bless Bless, bless, bless C'est bon Maintenant, j'ai mon banquier, God bless Bless, bless, bless, bless, bless, bless Baby, bounce back, synchronisé sur les bass Sur les bass5</t>
+          <t>Yeah Hey, hey Ouh-ouh Hey, fuck Bus', bustin like this Yeah Drug, ice, money, sex Money, sexe, uh Thug life, movie shit, nigga, Scorsese Elle espère avoir mes racks Avoir mes racks, maintenant, j'ai mon banquier, God bless Bless Et je fume un tas de Haze, eh, baby, bounce back, synchronisé sur les bass Just woke up et fuck le reste, eh Eh Booty tellement big, j'escalade le Mont Everest Négro, c'est ton birthday, eh Ouh-ouh, yeah Son de gunshot synchronisé sur la bass Ouh-ouh Ah bah oui Ouh-ouh Maintenant, j'ai mon banquier, God bless Bless, bless, bless Ah bah oui Ouh-ouh Ouais Maintenant, maintenant, j'ai mon banquier T'arrêtes pas d'taper des Skrt, skrt mais ton flow est flingué L'album le plus attendu d'l'année sortira pas c't'année Nwaar Comme un uf poché, si j'l'ouvre, j'coule, donc j'ferme ma gueule Dans mon cercueil, mets-moi full beuh, négro qu'j'puisse planer Sale J't'ai baisée, j't'ai quittée, j'sais même pas qui t'es, nan Nan C'est Dems, Dems, H, viennent pour le cash flow La seule raison, c'est la raison, sans ça, j'crois qu'j'aurais fait comme toi J'me serais marié, j'l'aurais trompée, j'lui aurais dit Désolé d'être moi J'aimerais qu'mon pénis ait des yeux juste pour qu'j'puisse voir la vie en rose Car mes pupilles ont vu trop d'morts et la daronne dans le coma Donc j'vais rien sortir cette année Nan, le temps que la daronne marche, sorte de l'hosto Goddamn, God bless Ouh-ouh Sale Maintenant, j'ai mon banquier, God bless Bless, bless, bless Ouh-ouh Ah bah oui Hey Oui Maintenant, maintenant, j'ai mon banquier, God bless Bless, bless, bless C'est bon Maintenant, j'ai mon banquier, God bless Bless, bless, bless, bless, bless, bless Baby, bounce back, synchronisé sur les bass Sur les bass5</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Le cur en miettes, je dois l'admettre Mes contraintes, mes échecs me montent à la tête J'ai réussi, j'n'ai plus d'quête, j'n'ai plus de dette Quatre secondes pour cent mètres, fait le gamos que j'achète Les souvenirs de ta schneck sont tout c'qu'il me reste Négro, arrête, j'dormais sur l'bitume, je n'compte plus l'nombre de siestes Donc viens pas m'parler d'ta hess, nan, nan J'ai passé des moments durs et des moments seul, mes pleurs étaient sanglants Des lésions, des courbatures, rudes épreuves, des blessures en tombant J'ai pas de répondant, surtout parce que j'm'en bats les c' Corona à la lèpre, l'Afrique cesse pas d'renaître Je suis parti en courant aux mains en l'air, pas un geste, cellule encombrante Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? T'es bon à être triste, t'es bon à être mauvais Oh non, dis-moi c'qui n'va pas Hey T'es bon à être vide, t'es bon à être au sommet Oh non, dis-moi c'qui n'va pas, du moins, c'est c'que je crois Force est de croire que, quand on est seul, on est On est bien Force est de croire que, quand on est seul On n'a plus peur de rien Rien, rien De rien You might also like La vie de rêve, je dois l'admettre Elle est remplie d'mal-être, de fils de putes en guests J'te parle même pas du reste, ça fait mal à la tête Roule un joint pur en pers' sans mettre de cigarette Pourquoi tu ouvres ta gueule, gros ? Viens pas trop faire le mec J'ai du sang sur les pec', une bagarre dans la déf' Rien qu'à entendre mes textes, elle se dit que j'aime que le sexe C'est juste que l'amour et moi se terminent par un bref Que des chiennes sans laisse, me-sper sur les tresses Que je laisse, mon amour étant c'que tu lèches, Dems C'est pas toujours moi qui suis les femmes On oublie trop souvent de dire qu'elles aussi sont attirées par moi Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ?12</t>
+          <t>Le cur en miettes, je dois l'admettre Mes contraintes, mes échecs me montent à la tête J'ai réussi, j'n'ai plus d'quête, j'n'ai plus de dette Quatre secondes pour cent mètres, fait le gamos que j'achète Les souvenirs de ta schneck sont tout c'qu'il me reste Négro, arrête, j'dormais sur l'bitume, je n'compte plus l'nombre de siestes Donc viens pas m'parler d'ta hess, nan, nan J'ai passé des moments durs et des moments seul, mes pleurs étaient sanglants Des lésions, des courbatures, rudes épreuves, des blessures en tombant J'ai pas de répondant, surtout parce que j'm'en bats les c' Corona à la lèpre, l'Afrique cesse pas d'renaître Je suis parti en courant aux mains en l'air, pas un geste, cellule encombrante Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? T'es bon à être triste, t'es bon à être mauvais Oh non, dis-moi c'qui n'va pas Hey T'es bon à être vide, t'es bon à être au sommet Oh non, dis-moi c'qui n'va pas, du moins, c'est c'que je crois Force est de croire que, quand on est seul, on est On est bien Force est de croire que, quand on est seul On n'a plus peur de rien Rien, rien De rien La vie de rêve, je dois l'admettre Elle est remplie d'mal-être, de fils de putes en guests J'te parle même pas du reste, ça fait mal à la tête Roule un joint pur en pers' sans mettre de cigarette Pourquoi tu ouvres ta gueule, gros ? Viens pas trop faire le mec J'ai du sang sur les pec', une bagarre dans la déf' Rien qu'à entendre mes textes, elle se dit que j'aime que le sexe C'est juste que l'amour et moi se terminent par un bref Que des chiennes sans laisse, me-sper sur les tresses Que je laisse, mon amour étant c'que tu lèches, Dems C'est pas toujours moi qui suis les femmes On oublie trop souvent de dire qu'elles aussi sont attirées par moi Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ?12</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ok, vingt téra' de flows, l'ingé' par défaut, remplace l'air co' par l'bédo, fonce-dé, j'ai les crocs J'ai perdu proches et projets, proche des pros, j'ai taffé, tracé, rappé, rappé, j'ai rappé ma névrose Le biff, les meufs, le shit, les keufs, le vice, la kush endurcissent mes putains d'vaisseaux Enterrement de maux, j'm'enferme dans l'ego depuis qu'je sais que l'Enfer, c'est les autres Brr Ok, putain d'merde, goddamn, God bless Daronne sortie d'la hess, faut qu'j'me confesse Eh J'décris ma vie, j'défie Marie-Jeanne tous les soirs Eh, grise est la nuit, briser ma vie sans trop d'espoir Uh Reboot l'avenir, j'préfère le début à la fin Uh C'est quoi un souvenir quand t'es l'seul qui s'en souvient ? Jeune africain, Anta Diop, mon historien, j'suis calibré, j'n'ai pas l'temps qu'on en vienne aux mains Cur trop foncé car corps trop fonce-dé par Porto, torché sans conséquence C'est dans ces moments-là qu'on s'est empêchés d'foncer dans le tas d'love qu'on r'ssentait pour l'un et l'autre Et pour l'une ou l'autre raison insensée, oui, c'est insensé, nan, c'est un sens unique C'est c'que j'pense Oui et j'suis l'crétin sensé Oui qui préfère s'lancer dans disputes La pute m'a dit Mais Dems, il faut qu'tu t'calmes deux s'condes J'suis pas ta pute, j'suis pas ta bitch, j'suis pas ton baise plan Moi qu'espérais tant, c'est vraiment déc'vant, t'es vraiment trop con qu'elle m'dit Oh, ta gueule, tu m'casses les couilles Salope Tu m'casses les couilles, putain, moi, j'voulais juste qu'on baise Tu voulais juste qu'on baise ? Ouais, j'voulais juste qu'on baise Ouais mais, bon, laisse tomber, reste, tant pis, baisse le son Et maint'nant, qu'est-c'qu'on fait ? J'reste plantée là, c'est ça ? Saal Oh putain, tu m'casses trop les couilles, bitch, pars avant la gifle, j'risque vraiment d'mal agir Pute, casse-toi d'ma vie, allez, shalom, salut Non, j'vais pas t'marier, connasse, allez, hors d'ma vue, stop Comme beaucoup d'hommes sur terre, je rêvais de bonheur et d'amour, villa sur la mer, en plage côtière Mais comme beaucoup d'hommes, j'n'ai pas du tout eu ce que je voulais De loin comme de près, j'ai plus fait la guerre que fait l'amour Et l'amour, c'est quoi quand le mariage est la cause principale du divorce ? Si mes sentiments s'trouvaient en-dessous de la ceinture, j'aurais été puceau voire, éjaculateur précoce You might also like Wow, wow, wow, wow De plus en plus loin de c'qui nous rapprochait vraiment, j'suis là sans être là Là-bas si j'y suis, j'y s'rais plus que là où j'suis actuellement, physiquement Ah, ah, ah Ces fils de putes ne m'aiment pas, eux tous, même toi, tu souffres d'être toi en survêt' noir, un bras d'honneur aux lois Qu'est-c'qu'y a d'rose en toi, à part c'truc où j'mets mes doigts ? J'sais pas Ah, ah J'veux pas qu'on vive ensemble, j'veux qu'on meure ensemble, parce que la mort rapproche et que c'est elle qui tranche C'pour ça qu'le savoir-vivre n'est pas d'la politesse mais de la politique pour prendre l'avis des gens Promouvoir l'irraison puis être pris pour exemple, donner des directions, donner des solutions Donner des directives sur la vie active, disant qu'la vie active doit être la vie des gens Comme une érosion d'émotions sélectives, envers religions, dévotions sans litige Funèbre oraison, enterrement sensitif car la mort est la somme de c'que l'on ressent Et par ailleurs, on prend plus le temps de dire c'qu'on voulait Nan On prend plus le temps de dire c'qu'on pouvait faire Nan, c'est-à-dire, quasi tout refaire Faire Les défauts apaisent l'absence de raisons Pas de namaste, peu d'modestie, corps dévasté, Magnum précis Cojones chargées, pas toi qui décides, radar a flashé gamos trop speed Enchaînement de mauvaises décisions, précipita graduellement l'accident Du coup, l'ambulancier devient ton confident Du coup, la mort fera de toi un bon vivant Du coup, les vers de terre feront ta transition Oh woh Mais dis-moi qu'c'n'est pas moi mais qu'c'est la vie que j'mène, -ène Mais dis-moi qu'c'n'est pas moi mais qu'c'est la vie que j'mène Dems11</t>
+          <t>Ok, vingt téra' de flows, l'ingé' par défaut, remplace l'air co' par l'bédo, fonce-dé, j'ai les crocs J'ai perdu proches et projets, proche des pros, j'ai taffé, tracé, rappé, rappé, j'ai rappé ma névrose Le biff, les meufs, le shit, les keufs, le vice, la kush endurcissent mes putains d'vaisseaux Enterrement de maux, j'm'enferme dans l'ego depuis qu'je sais que l'Enfer, c'est les autres Brr Ok, putain d'merde, goddamn, God bless Daronne sortie d'la hess, faut qu'j'me confesse Eh J'décris ma vie, j'défie Marie-Jeanne tous les soirs Eh, grise est la nuit, briser ma vie sans trop d'espoir Uh Reboot l'avenir, j'préfère le début à la fin Uh C'est quoi un souvenir quand t'es l'seul qui s'en souvient ? Jeune africain, Anta Diop, mon historien, j'suis calibré, j'n'ai pas l'temps qu'on en vienne aux mains Cur trop foncé car corps trop fonce-dé par Porto, torché sans conséquence C'est dans ces moments-là qu'on s'est empêchés d'foncer dans le tas d'love qu'on r'ssentait pour l'un et l'autre Et pour l'une ou l'autre raison insensée, oui, c'est insensé, nan, c'est un sens unique C'est c'que j'pense Oui et j'suis l'crétin sensé Oui qui préfère s'lancer dans disputes La pute m'a dit Mais Dems, il faut qu'tu t'calmes deux s'condes J'suis pas ta pute, j'suis pas ta bitch, j'suis pas ton baise plan Moi qu'espérais tant, c'est vraiment déc'vant, t'es vraiment trop con qu'elle m'dit Oh, ta gueule, tu m'casses les couilles Salope Tu m'casses les couilles, putain, moi, j'voulais juste qu'on baise Tu voulais juste qu'on baise ? Ouais, j'voulais juste qu'on baise Ouais mais, bon, laisse tomber, reste, tant pis, baisse le son Et maint'nant, qu'est-c'qu'on fait ? J'reste plantée là, c'est ça ? Saal Oh putain, tu m'casses trop les couilles, bitch, pars avant la gifle, j'risque vraiment d'mal agir Pute, casse-toi d'ma vie, allez, shalom, salut Non, j'vais pas t'marier, connasse, allez, hors d'ma vue, stop Comme beaucoup d'hommes sur terre, je rêvais de bonheur et d'amour, villa sur la mer, en plage côtière Mais comme beaucoup d'hommes, j'n'ai pas du tout eu ce que je voulais De loin comme de près, j'ai plus fait la guerre que fait l'amour Et l'amour, c'est quoi quand le mariage est la cause principale du divorce ? Si mes sentiments s'trouvaient en-dessous de la ceinture, j'aurais été puceau voire, éjaculateur précoce Wow, wow, wow, wow De plus en plus loin de c'qui nous rapprochait vraiment, j'suis là sans être là Là-bas si j'y suis, j'y s'rais plus que là où j'suis actuellement, physiquement Ah, ah, ah Ces fils de putes ne m'aiment pas, eux tous, même toi, tu souffres d'être toi en survêt' noir, un bras d'honneur aux lois Qu'est-c'qu'y a d'rose en toi, à part c'truc où j'mets mes doigts ? J'sais pas Ah, ah J'veux pas qu'on vive ensemble, j'veux qu'on meure ensemble, parce que la mort rapproche et que c'est elle qui tranche C'pour ça qu'le savoir-vivre n'est pas d'la politesse mais de la politique pour prendre l'avis des gens Promouvoir l'irraison puis être pris pour exemple, donner des directions, donner des solutions Donner des directives sur la vie active, disant qu'la vie active doit être la vie des gens Comme une érosion d'émotions sélectives, envers religions, dévotions sans litige Funèbre oraison, enterrement sensitif car la mort est la somme de c'que l'on ressent Et par ailleurs, on prend plus le temps de dire c'qu'on voulait Nan On prend plus le temps de dire c'qu'on pouvait faire Nan, c'est-à-dire, quasi tout refaire Faire Les défauts apaisent l'absence de raisons Pas de namaste, peu d'modestie, corps dévasté, Magnum précis Cojones chargées, pas toi qui décides, radar a flashé gamos trop speed Enchaînement de mauvaises décisions, précipita graduellement l'accident Du coup, l'ambulancier devient ton confident Du coup, la mort fera de toi un bon vivant Du coup, les vers de terre feront ta transition Oh woh Mais dis-moi qu'c'n'est pas moi mais qu'c'est la vie que j'mène, -ène Mais dis-moi qu'c'n'est pas moi mais qu'c'est la vie que j'mène Dems11</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SNK Music Productions Mon nom d'famille, la police a du mal à l'épeler Des ballons, des ballons, des plôts Liasses colorées, tout ça pour soulager mes plaies, si j'ai mal, ça fera plaisir aux autres Plaisir aux autres Le compteur affiche 200 200, le moteur fait qu'ronronner 'ronner Elle aime mon cerveau d'savant D'savant et mon casier d'gros bonnet Bonnet Si ça parle milli', j'investis, si ça parle milli', j'investis Mon doré, c'est de la frappa, j'le dégaine quand c'est la se-cri, j'le dégaine quand c'est la se-cri J'le dégaine, j'le dégaine Millionnaire avant la fin Fin, j'peux pas r'partir au fond Fond Cinq balles le kilo d'beuh Beuh, mardi, je sais qu'les bleus viendront à la maison En parlant d'maison, j'en ai acheté deux J'en ai acheté deux Une pour ma mère et une très loin d'eux, j'sais qu'c'est des haineux Haineux 0.9, j'ai de la pette-zi Pette-zi, y a des clicos, des zombies Zombies All Eyez On Me comme 2Pac, weed life comme Snoop Doggy Doggy Bon qu'à faire du sale, elle sait qu'elle est bonne, elle sait faire le s7our, elle rajoute du sel Sur la moto, c'est la mort qu'appelle, plusieurs trous dans l'pull et on s'fait la belle J'm'arrête à BX, pas loin des vitrines, un coup d'il, j'reconnais l'vil-ci direct Légendaire comme Michael dans Beat It, trop d'cash à la minute, toujours plus qu'hier Sors les armes, les pétasses, on va faire d'la promo Sors les armes, les pétasses, on va faire d'la promo, hey J'ai dit sors les armes, les pétasses, on va faire d'la promo Sors les armes, les pétasses, on va faire d'la promo J'finirai au sommet Eh, étant p'tit, j'avais l'vertige Oui Deux-trois investissements Deux, j'ai déjà rempli Bercy Eh Sors les armes, les pétasses, on va faire d'la promo J'ai dit sors les armes, les pétasses, on va faire d'la promo Ouais You might also like J'suis libre comme un pilon très bien chargé Chargé La beuh est noire, du shit noir dans un fumoir J'suis étranger, fais qu'déranger, loin du mitard et des condés Condés J'ai fait mon temps, très peu d'temps, tiré mon coup, baisé beaucoup Quand le cur parle, ils n'ouvrent pas la bouche, ils se prosternent Ils se prosternent Qu'ici, j'plie l'genou, fiançailles noires, demande austère Rien n'sert de m'menacer, qu'est-c'qu'tu vas faire qu'on n'a pas d'jà fait ? Ma passion est derrière l'micro', ma mission est derrière l'fiston D'un bleu cæruleum, comme Manhattan, j'tire ma révérence J'suis tout seul dans les sommets, là où j'cause avec le silence Elle se plaint que j'suis stoïque, que je n'dise rien, qu'j'suis silencieux Jai huit ans et demi, première vie prise devant mes yeux J'vis plus au fond du fond, parti de rien comme une révolution Un cul de plus dans mes captures d'écran, michtonnation pour un sac Louis Vuitton La vie est courte, la mort aussi, entre les deux, j'sais qu'tout est possible J'connais le Diable, là où il traîne, dans les showcases, chambres dhôtel Amas de gains en coupant des mains, j'lis des bouquins, sûr d'où je viens Photo d'famille sur un cadavre, tu t'penches ou t'avales comme un amphibien ? Dans les médias, comme dans l'immédiat, j'ai trouvé la foi en perdant mon foie Shu, shu Entre la corde et le tabouret, entre l'alcool et le calumet J'suis entre l'Homme et l'être humain Dems Sors les armes, les pétasses, on va faire d'la promo Sors les armes, les pétasses, on va faire d'la promo, hey J'ai dit sors les armes, les pétasses, on va faire d'la promoSors les armes, les pétasses, on va faire d'la promo J'finirai au sommet Eh, étant p'tit, j'avais l'vertige Ouais Deux-trois investissements Deux, j'ai déjà rempli Bercy Eh Sors les armes, les pétasses, on va faire d'la promo J'ai dit sors les armes, les pétasses, on va faire d'la promo Ouais10</t>
+          <t>SNK Music Productions Mon nom d'famille, la police a du mal à l'épeler Des ballons, des ballons, des plôts Liasses colorées, tout ça pour soulager mes plaies, si j'ai mal, ça fera plaisir aux autres Plaisir aux autres Le compteur affiche 200 200, le moteur fait qu'ronronner 'ronner Elle aime mon cerveau d'savant D'savant et mon casier d'gros bonnet Bonnet Si ça parle milli', j'investis, si ça parle milli', j'investis Mon doré, c'est de la frappa, j'le dégaine quand c'est la se-cri, j'le dégaine quand c'est la se-cri J'le dégaine, j'le dégaine Millionnaire avant la fin Fin, j'peux pas r'partir au fond Fond Cinq balles le kilo d'beuh Beuh, mardi, je sais qu'les bleus viendront à la maison En parlant d'maison, j'en ai acheté deux J'en ai acheté deux Une pour ma mère et une très loin d'eux, j'sais qu'c'est des haineux Haineux 0.9, j'ai de la pette-zi Pette-zi, y a des clicos, des zombies Zombies All Eyez On Me comme 2Pac, weed life comme Snoop Doggy Doggy Bon qu'à faire du sale, elle sait qu'elle est bonne, elle sait faire le s7our, elle rajoute du sel Sur la moto, c'est la mort qu'appelle, plusieurs trous dans l'pull et on s'fait la belle J'm'arrête à BX, pas loin des vitrines, un coup d'il, j'reconnais l'vil-ci direct Légendaire comme Michael dans Beat It, trop d'cash à la minute, toujours plus qu'hier Sors les armes, les pétasses, on va faire d'la promo Sors les armes, les pétasses, on va faire d'la promo, hey J'ai dit sors les armes, les pétasses, on va faire d'la promo Sors les armes, les pétasses, on va faire d'la promo J'finirai au sommet Eh, étant p'tit, j'avais l'vertige Oui Deux-trois investissements Deux, j'ai déjà rempli Bercy Eh Sors les armes, les pétasses, on va faire d'la promo J'ai dit sors les armes, les pétasses, on va faire d'la promo Ouais J'suis libre comme un pilon très bien chargé Chargé La beuh est noire, du shit noir dans un fumoir J'suis étranger, fais qu'déranger, loin du mitard et des condés Condés J'ai fait mon temps, très peu d'temps, tiré mon coup, baisé beaucoup Quand le cur parle, ils n'ouvrent pas la bouche, ils se prosternent Ils se prosternent Qu'ici, j'plie l'genou, fiançailles noires, demande austère Rien n'sert de m'menacer, qu'est-c'qu'tu vas faire qu'on n'a pas d'jà fait ? Ma passion est derrière l'micro', ma mission est derrière l'fiston D'un bleu cæruleum, comme Manhattan, j'tire ma révérence J'suis tout seul dans les sommets, là où j'cause avec le silence Elle se plaint que j'suis stoïque, que je n'dise rien, qu'j'suis silencieux Jai huit ans et demi, première vie prise devant mes yeux J'vis plus au fond du fond, parti de rien comme une révolution Un cul de plus dans mes captures d'écran, michtonnation pour un sac Louis Vuitton La vie est courte, la mort aussi, entre les deux, j'sais qu'tout est possible J'connais le Diable, là où il traîne, dans les showcases, chambres dhôtel Amas de gains en coupant des mains, j'lis des bouquins, sûr d'où je viens Photo d'famille sur un cadavre, tu t'penches ou t'avales comme un amphibien ? Dans les médias, comme dans l'immédiat, j'ai trouvé la foi en perdant mon foie Shu, shu Entre la corde et le tabouret, entre l'alcool et le calumet J'suis entre l'Homme et l'être humain Dems Sors les armes, les pétasses, on va faire d'la promo Sors les armes, les pétasses, on va faire d'la promo, hey J'ai dit sors les armes, les pétasses, on va faire d'la promoSors les armes, les pétasses, on va faire d'la promo J'finirai au sommet Eh, étant p'tit, j'avais l'vertige Ouais Deux-trois investissements Deux, j'ai déjà rempli Bercy Eh Sors les armes, les pétasses, on va faire d'la promo J'ai dit sors les armes, les pétasses, on va faire d'la promo Ouais10</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ah oui oui oui Ah oui oui Ah oui oui oui J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie Mon âme descend du paradis donc le diable sait pas m'faire de prix, non Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Plus j'vis pour eux, moins j'vis pour moi Le cur spongieux, pas très aimant Jpasse trop dtemps à être cque jsuis pas J'finis par croire qu'j'le suis vraiment Je rase les murs, tu rases ta chatte T'aimes quand c'est dur, j'aime quand c'est moite J'commence toujours par l'attaque Donc pas d'circonstances atténuantes Pourquoi gente dame me déteste ? Moi, j'raconte histoires d'autres fois Ta beauté s'trouve pas dans tes fesses Tu vaux beaucoup plus que tu n'crois Le monde est plus beau quand t'éteins ton tel' J'suis loin du dérangement Mes paupières sont en éveil Attendent le réveil d'mon enfant You might also like J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie oh oui Mon âme descend du paradis donc le diable sait pas m'faire de prix, non Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Plus le chmin est long, plus haineux s'éloigneront Me tourne pas l'dos comme J. James, Brad Pitt OG change de ton, glock chargé, nous manuvrons Canon noir scié, bang, bouteille, bad-trip Quand j'parle liquide, c'est pas la chatte grasse mouillée d'ta reum', j'fais du sale J'suis dans la city, verre de Jack black, shit brun Maroc médical Ça sent la cyprine dans ses dessous d'jean, terme de you-voi lyrical Tout est noir, tout est sale, tel un pirate, j'mets les voiles J'suis c'négro au fond d'la salle, c'lui qui n'veut pas s'mélanger C'lui qu'ta daronne traîte de racaille, c'lui qu'tu n'veux pas présenter Sa tte-ch' est plus large que ma bite, j'me suis senti offensé Heureusement pour moi, clitoris et point G n'ont plus de secrets J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie Mon âme descend du paradis donc le diable sait pas m'faire de prix J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie oh oui Mon âme descend du paradis donc le diable sait pas m'faire de prix, non Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui5</t>
+          <t>Ah oui oui oui Ah oui oui Ah oui oui oui J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie Mon âme descend du paradis donc le diable sait pas m'faire de prix, non Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Plus j'vis pour eux, moins j'vis pour moi Le cur spongieux, pas très aimant Jpasse trop dtemps à être cque jsuis pas J'finis par croire qu'j'le suis vraiment Je rase les murs, tu rases ta chatte T'aimes quand c'est dur, j'aime quand c'est moite J'commence toujours par l'attaque Donc pas d'circonstances atténuantes Pourquoi gente dame me déteste ? Moi, j'raconte histoires d'autres fois Ta beauté s'trouve pas dans tes fesses Tu vaux beaucoup plus que tu n'crois Le monde est plus beau quand t'éteins ton tel' J'suis loin du dérangement Mes paupières sont en éveil Attendent le réveil d'mon enfant J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie oh oui Mon âme descend du paradis donc le diable sait pas m'faire de prix, non Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Plus le chmin est long, plus haineux s'éloigneront Me tourne pas l'dos comme J. James, Brad Pitt OG change de ton, glock chargé, nous manuvrons Canon noir scié, bang, bouteille, bad-trip Quand j'parle liquide, c'est pas la chatte grasse mouillée d'ta reum', j'fais du sale J'suis dans la city, verre de Jack black, shit brun Maroc médical Ça sent la cyprine dans ses dessous d'jean, terme de you-voi lyrical Tout est noir, tout est sale, tel un pirate, j'mets les voiles J'suis c'négro au fond d'la salle, c'lui qui n'veut pas s'mélanger C'lui qu'ta daronne traîte de racaille, c'lui qu'tu n'veux pas présenter Sa tte-ch' est plus large que ma bite, j'me suis senti offensé Heureusement pour moi, clitoris et point G n'ont plus de secrets J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie Mon âme descend du paradis donc le diable sait pas m'faire de prix J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie oh oui Mon âme descend du paradis donc le diable sait pas m'faire de prix, non Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui5</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Gros, c'est la violence Oui, pas trop de clémence No Je prends la Beyoncé Ok, jte laisse la Solange Fuck Tu tournes et tu mélanges Oui, tu tournes et tu mélanges Fuck C'est vrai, je dis nonante plus trois zéro le prix de la montre La biatch me dit qu'elle a mal au cul Rah, jai quelques déviances Oui Je place mes finances, j'travaille en freelance, j'vis dans l'opulence Dem's Bâtons dans les roues, ok Ok, gnou sur le cou, ok Ok On a brisé les chaînes, hir, aujourd'hui, on brise le silence Fuck, yeah Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dems, ok Ok Ouh, oui Oui, Dems, ok Rappeur du dimanche sent la flatulence, pas de concurrence No Ça parle en streaming, veulent un featuring mais quelle imprudence Oui J'suis déso mais bon, c'est pas demain la veille que j'arrêterai de niquer des mères La civière plumard de mes adversaires, leur Uber est une ambulance Rah O.G., O.G., O.G., O.G. Ok, Damso, Lior, Gigi, Kobe Bang Hey, mets pas la langue, j'veux pas le COVID No, jai tout niqué, pourquoi t'applaudis ? Oh oui Petit, j'n'ai pas eu besoin d'appartenance, juste besoin de faire du chiffre Moula Mes meilleurs amis sont mes appartements, j'meurs, ils s'ront là pour mon fils Oh oui, Dem's You might also like Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dem's, ok Ok Ouh ,oui Oui, Dem's, ok Oui Santos Vie, tout est vie On a brisé les chaînes hier, aujourd'hui, on brise le shhh Ok, ok11</t>
+          <t>Gros, c'est la violence Oui, pas trop de clémence No Je prends la Beyoncé Ok, jte laisse la Solange Fuck Tu tournes et tu mélanges Oui, tu tournes et tu mélanges Fuck C'est vrai, je dis nonante plus trois zéro le prix de la montre La biatch me dit qu'elle a mal au cul Rah, jai quelques déviances Oui Je place mes finances, j'travaille en freelance, j'vis dans l'opulence Dem's Bâtons dans les roues, ok Ok, gnou sur le cou, ok Ok On a brisé les chaînes, hir, aujourd'hui, on brise le silence Fuck, yeah Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dems, ok Ok Ouh, oui Oui, Dems, ok Rappeur du dimanche sent la flatulence, pas de concurrence No Ça parle en streaming, veulent un featuring mais quelle imprudence Oui J'suis déso mais bon, c'est pas demain la veille que j'arrêterai de niquer des mères La civière plumard de mes adversaires, leur Uber est une ambulance Rah O.G., O.G., O.G., O.G. Ok, Damso, Lior, Gigi, Kobe Bang Hey, mets pas la langue, j'veux pas le COVID No, jai tout niqué, pourquoi t'applaudis ? Oh oui Petit, j'n'ai pas eu besoin d'appartenance, juste besoin de faire du chiffre Moula Mes meilleurs amis sont mes appartements, j'meurs, ils s'ront là pour mon fils Oh oui, Dem's Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dem's, ok Ok Ouh ,oui Oui, Dem's, ok Oui Santos Vie, tout est vie On a brisé les chaînes hier, aujourd'hui, on brise le shhh Ok, ok11</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bre-som, clair Hey, hey, brrr Dems, Lay' Air France, Brussels Airlines Nwaar, ppe-fra d'enculé comme R9 Sale Dribbler la police en S Line Ouh, ouh, flex Ah ouais ? Crochet d'enculé comme R9 Clair, quoi, tu veux tester ? Mais quel bail ? Ouais J'suis loin, loin, loin, loin Ah ouais ? Donc tu fais vraiment d'ta gueule pour de vrai ? Ah bon ? Genre j'vais pas t'niquer ta race ? Balafre, Kalash', tout ça pour qu'tu t'mettes à pleurer Pute Gâchette pressée, ta vie r'trécit Bicrave te-shi dans la Audi, non, ces négros n'sont pas des vrais OG's Jamais C'est Dems, Dems, pas de Molière, j'ai dit Mettre un enfant noir au monde, est un délit Ah oui ? Pas d'concerts avant longtemps Ah oui ? Ouf, les artistes à chicha commencent à paniquer, gros Ouh, la la, faire du rap ne m'est d'aucune utilité, gros Ouh, la la, boîte à gants, Fe-Fe, un semi-auto' quand ça va loin, y a des shooters à moto Ah, ouais J'fais plus d'argent que c'lui qu'on gagne au loto Dems Ouh C'est bon, hey You might also like Air France, Brussels Airlines Nwaar, ppe-fra d'enculé comme R9 Sale Dribbler la police en S Line Ouh, ouh, flex Ah ouais ? Crochet d'enculé comme R9 Clair, quoi, tu veux tester ? Mais quel bail ? Ouais J'suis loin, loin, loin, loin ah ouais ? Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Air France, Brussels Airlines Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Sale Dribbler la police en S Line Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Ppe-fra d'enculé comme R9 Ah ouais ?, crochet d'enculé comme R9 Eh Répondeur direct quand tu m'appelles Mais pourquoi t'appelles ?, là, j'ai la flemme Si, si, fais pas la bad bitch, me fais pas crari la princesse Sissi Sissi R1, Shifter Pro, ça veut michtonner comme si j'étais pro J'suis dans la street avec têtes d'escrocs, vision rouge brouillée par l'six, six, six Moins cent quarante-sept, multiplié par trois ça fait deux cent vingt-cinq On y va Y a du bruit dans l'appart', y a les porcs à la porte, ils ont reçu plein d'plaintes Toc, toc, toc, toc Quoi, toi tu veux flex sur moi ? Dis-toi j'ai l'truc, dis-toi j'ai les réflexes Oh, nigga, reste cool, t'es éclaté au sol, on est loin dans les airs Demande à Dems, Lay' Air France, Brussels Airlines Nwaar, ppe-fra d'enculé comme R9 Sale Dribbler la police en S Line Ouh, ouh, flex Ah ouais ? Crochet d'enculé comme R9 Clair, quoi, tu veux tester ? Mais quel bail ? Ouais J'suis loin, loin, loin, loin Ah ouais ? Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Air France, Brussels Airlines Fuck Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Dribbler la police en S Line Sale Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Ppe-fra d'enculé comme R9 Ah ouais ?, crochet d'enculé comme R98</t>
+          <t>Bre-som, clair Hey, hey, brrr Dems, Lay' Air France, Brussels Airlines Nwaar, ppe-fra d'enculé comme R9 Sale Dribbler la police en S Line Ouh, ouh, flex Ah ouais ? Crochet d'enculé comme R9 Clair, quoi, tu veux tester ? Mais quel bail ? Ouais J'suis loin, loin, loin, loin Ah ouais ? Donc tu fais vraiment d'ta gueule pour de vrai ? Ah bon ? Genre j'vais pas t'niquer ta race ? Balafre, Kalash', tout ça pour qu'tu t'mettes à pleurer Pute Gâchette pressée, ta vie r'trécit Bicrave te-shi dans la Audi, non, ces négros n'sont pas des vrais OG's Jamais C'est Dems, Dems, pas de Molière, j'ai dit Mettre un enfant noir au monde, est un délit Ah oui ? Pas d'concerts avant longtemps Ah oui ? Ouf, les artistes à chicha commencent à paniquer, gros Ouh, la la, faire du rap ne m'est d'aucune utilité, gros Ouh, la la, boîte à gants, Fe-Fe, un semi-auto' quand ça va loin, y a des shooters à moto Ah, ouais J'fais plus d'argent que c'lui qu'on gagne au loto Dems Ouh C'est bon, hey Air France, Brussels Airlines Nwaar, ppe-fra d'enculé comme R9 Sale Dribbler la police en S Line Ouh, ouh, flex Ah ouais ? Crochet d'enculé comme R9 Clair, quoi, tu veux tester ? Mais quel bail ? Ouais J'suis loin, loin, loin, loin ah ouais ? Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Air France, Brussels Airlines Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Sale Dribbler la police en S Line Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Ppe-fra d'enculé comme R9 Ah ouais ?, crochet d'enculé comme R9 Eh Répondeur direct quand tu m'appelles Mais pourquoi t'appelles ?, là, j'ai la flemme Si, si, fais pas la bad bitch, me fais pas crari la princesse Sissi Sissi R1, Shifter Pro, ça veut michtonner comme si j'étais pro J'suis dans la street avec têtes d'escrocs, vision rouge brouillée par l'six, six, six Moins cent quarante-sept, multiplié par trois ça fait deux cent vingt-cinq On y va Y a du bruit dans l'appart', y a les porcs à la porte, ils ont reçu plein d'plaintes Toc, toc, toc, toc Quoi, toi tu veux flex sur moi ? Dis-toi j'ai l'truc, dis-toi j'ai les réflexes Oh, nigga, reste cool, t'es éclaté au sol, on est loin dans les airs Demande à Dems, Lay' Air France, Brussels Airlines Nwaar, ppe-fra d'enculé comme R9 Sale Dribbler la police en S Line Ouh, ouh, flex Ah ouais ? Crochet d'enculé comme R9 Clair, quoi, tu veux tester ? Mais quel bail ? Ouais J'suis loin, loin, loin, loin Ah ouais ? Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Air France, Brussels Airlines Fuck Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Dribbler la police en S Line Sale Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Ppe-fra d'enculé comme R9 Ah ouais ?, crochet d'enculé comme R98</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>J'viens pas des quartiers, drogue dans les sachets J'en ai vendus, j'en ai achetés et braqués J'connais la rre-gue, cervelle atrophiée Millions de cadavres en pièces détachées Broutis dans l'passé, bracelet, quelques biftons mal entassés, plaqués Diamants, roro, ah bah ouais, sisi, c'est ça, la vie qu'on a choisie Un million, deux millions, daronne est ravie Montagne est gravie, schnek est dégarnie J'crache et tu t'r'habilles Raciste, comme Nagui j'changerai pas d'avis Hoover Larry OG tu connais, toujours à zoner, toujours à fumer You-voi sur le toit, débrouillard à jamais Bédo j'ai canné, négro m'a cramé Sait que QALF va pas sortir cette année J'suis toujours sur le cou, comme chaîne en or J'me lave avec, je dors avec, négro ça brille encore Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Merci pour la moula Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Hey Merci pour la moula Eh, eh, eh, ouais, merci pour la moula, eh Sale You might also like J'bouge avant qu'l'huissier arrive, j'roule d'vant policier aride Pas dans l'comico, pas dans l'comico, attends qu'l'avocat s'aligne De la ganja, de la lean, pute est dans cocaïne, amphétamine J'suis dans la gue-dro, j'suis dans la gue-dro Y a que du sale quand médecin m'examine Ramène les teu-ch', ramène la kush T'es dans la tess, j'suis dans le tieks J'suis dans le beaucoup, beaucoup trop d'euros J'suis sur les gros coups, beaucoup de roro J'suis dans le binks, j'suis dans le binks T'es dans le block, t'es dans le block J'suis dans les gros coups, beaucoup de moula J'suis sur les gros coups, beaucoup de dollars Beaucoup de billets violets, salaire, gros sous Plus dans la galère et crédit d'conso J'suis dans ta mère et je crédite mon son J'prends l'game en otage, j'en demande rançon J'prends l'game en otage, j'en demande rançon J'garde mes éditions, j'prends tout sur mes chansons Gonfler ses nibards pour plus d'attention J'rajoute festival pour payer la pension Dems J'suis toujours sur le cou, comme chaîne en or J'me lave avec, je dors avec, négro ça brille encore Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Eh Merci pour la moula Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Hey Merci pour la moula Eh, eh, eh, merci pour la moula Sale, eh9</t>
+          <t>J'viens pas des quartiers, drogue dans les sachets J'en ai vendus, j'en ai achetés et braqués J'connais la rre-gue, cervelle atrophiée Millions de cadavres en pièces détachées Broutis dans l'passé, bracelet, quelques biftons mal entassés, plaqués Diamants, roro, ah bah ouais, sisi, c'est ça, la vie qu'on a choisie Un million, deux millions, daronne est ravie Montagne est gravie, schnek est dégarnie J'crache et tu t'r'habilles Raciste, comme Nagui j'changerai pas d'avis Hoover Larry OG tu connais, toujours à zoner, toujours à fumer You-voi sur le toit, débrouillard à jamais Bédo j'ai canné, négro m'a cramé Sait que QALF va pas sortir cette année J'suis toujours sur le cou, comme chaîne en or J'me lave avec, je dors avec, négro ça brille encore Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Merci pour la moula Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Hey Merci pour la moula Eh, eh, eh, ouais, merci pour la moula, eh Sale J'bouge avant qu'l'huissier arrive, j'roule d'vant policier aride Pas dans l'comico, pas dans l'comico, attends qu'l'avocat s'aligne De la ganja, de la lean, pute est dans cocaïne, amphétamine J'suis dans la gue-dro, j'suis dans la gue-dro Y a que du sale quand médecin m'examine Ramène les teu-ch', ramène la kush T'es dans la tess, j'suis dans le tieks J'suis dans le beaucoup, beaucoup trop d'euros J'suis sur les gros coups, beaucoup de roro J'suis dans le binks, j'suis dans le binks T'es dans le block, t'es dans le block J'suis dans les gros coups, beaucoup de moula J'suis sur les gros coups, beaucoup de dollars Beaucoup de billets violets, salaire, gros sous Plus dans la galère et crédit d'conso J'suis dans ta mère et je crédite mon son J'prends l'game en otage, j'en demande rançon J'prends l'game en otage, j'en demande rançon J'garde mes éditions, j'prends tout sur mes chansons Gonfler ses nibards pour plus d'attention J'rajoute festival pour payer la pension Dems J'suis toujours sur le cou, comme chaîne en or J'me lave avec, je dors avec, négro ça brille encore Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Eh Merci pour la moula Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Hey Merci pour la moula Eh, eh, eh, merci pour la moula Sale, eh9</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>I must be stronger, I must be stronger for you I must be stronger, I must be stronger, I must be stronger for you I must be stronger, I must be stronger for you L'artiste dont nous allons vous parler maintenant est considéré comme l'un des meilleurs rappeurs de sa génération et il est belge. À seulement vingt-cinq ans, Damso a déjà vendu plus de deux cent mille albums en France, où il est désormais double... 2015, Nero Nemsis, j'rentre dans l'game n un seul couplet Le 5, Bercy de Kopp, à cette époque on s'entend bien, y a pas d'clashs ni de diss 2016, j'ai la pression, mon ex attend famille, faut qu'j'fasse du cash à vie L'album n'est pas sorti qu'je stresse, si j'foire c'est la défaite Pas d'moula pour mon gosse, pas d'moula pour le reste La première semaine craint, mais bon pour un début c'est bien Premier showcase plein, premiers rageux s'plaignent, premières tass' viennent taper du vice Les Bien ou quoi ?, Ça fait longtemps ! fusent, mais j'suis pas dupe Quand j'étais à la rue, y avait sonne-per à part mon sin-cou J'me renferme sur moi-même, chaque jour une heure quarante-cinq de marche pour aller au Forem Pas d'cash pour les transports en commun, même deux euros c'est trop Trente-quatre-centimes sur le compte Fortis, pas d'quoi faire des éco' Réflexion d'la vie sur tout ce que j'vais faire si j'perce pas Les études c'pas pour moi, j'ai raté tellement d'fois Dans l'illégal, j'ai deux trois pistons Premier braquo mais j'regrette, j'vole aux honnêtes gens Première avance j'rembourse mes dettes, j'invite deux trois plans Putain d'merde pourquoi j'raconte ma vie ? Parce qu'en vrai t'as la tienne T'as tes problèmes aussi, mais nique sa mère faut bien qu'j'crache ma haine donc Je continue, Ipséité sort et j'deviens trop connu Selfies dans la rue, selfies d'fans, de fils de pute qui n'y croyaient plus J'vois qu'ça parle en bien mais c'est l'début Lithopédion sort, mon ex mentor me clashe De l'encre a coulé You might also like Le Conseil des Femmes Francophones regrette la désignation du rappeur Damso pour composer la chanson des Diables Rouges pour le Mondial en 2018. Les textes du chanteur sont violents et sexistes, un mauvais signal pour la jeunesse. Faut lire ces textes, moi je, je n'ose même pas les citer, je, je veux dire, je vais dire simplement quelque chose qui... Est-ce que les gens qui vont écouter Damso l'écoutent au second degré ? Eh bien la réponse... En fait, ce texte va être compliqué Ce texte va être compliqué, ce texte va être compliqué Parce que je vis des trucs vraiment compliqués Des trucs vraiment compliqués, des trucs vraiment compliqués Donc j'vais rapper lentement juste pour bien te l'expliquer Juste pour bien te l'expliquer, juste pour bien te l'expliquer La vie de star est un milieu carcéral de luxe Beaucoup de putes, de gens qui scrutent Tes moindres gestes pour les répéter, te filment pour se la péter Pour dire à tous leurs potes qu'ils étaient là quand t'y étais C'est ça la célébrité C'est ça la célébrité, c'est ça la célébrité Et plus j'avance dans mon rang social Social Et plus je recule dans ma vie sociale Sociale Ma liberté est dans ma tête et mon portefeuille, je n'sors plus jamais tout seul J'ai l'malheur de constater que j'me suis fait menotter Mon être est une société Mon être est une société, mon être est une société Putain c'est tout c'que je détestais, et quand t'arrives au sommet Ah ouais Tu t'aperçois qu'en bas, c'est juste un trou noir mais coloré Un trou noir mais coloré, un trou noir mais coloré Turpitude morale honteuse de moi, j'suis pas si fier S'faire aimer quand on s'déteste, c'est ça dev'nir c'qu'on veut être Bien installé sans être bourgeois J'vais louer ma vie sur Terre pour racheter celle d'l'au-delà L'au-delà, l'au-delà Comme chenille qui rêve de battre des ailes sans dev'nir papillon Je dessine ma vie en rose, raciste l'a mise noire et blanche Donc poule aux ufs d'or s'est envolée Envolée Loin quelque part dans la folie La folie Et si un jour tu d'viens fier de la hess, fier de vieillir au tieks, dis-toi qu'banlieue veut dire lieu banni Celui qui va devoir écrire une nouvelle ligne sur son Wikipédia est... bruits d'erreur informatique8</t>
+          <t>I must be stronger, I must be stronger for you I must be stronger, I must be stronger, I must be stronger for you I must be stronger, I must be stronger for you L'artiste dont nous allons vous parler maintenant est considéré comme l'un des meilleurs rappeurs de sa génération et il est belge. À seulement vingt-cinq ans, Damso a déjà vendu plus de deux cent mille albums en France, où il est désormais double... 2015, Nero Nemsis, j'rentre dans l'game n un seul couplet Le 5, Bercy de Kopp, à cette époque on s'entend bien, y a pas d'clashs ni de diss 2016, j'ai la pression, mon ex attend famille, faut qu'j'fasse du cash à vie L'album n'est pas sorti qu'je stresse, si j'foire c'est la défaite Pas d'moula pour mon gosse, pas d'moula pour le reste La première semaine craint, mais bon pour un début c'est bien Premier showcase plein, premiers rageux s'plaignent, premières tass' viennent taper du vice Les Bien ou quoi ?, Ça fait longtemps ! fusent, mais j'suis pas dupe Quand j'étais à la rue, y avait sonne-per à part mon sin-cou J'me renferme sur moi-même, chaque jour une heure quarante-cinq de marche pour aller au Forem Pas d'cash pour les transports en commun, même deux euros c'est trop Trente-quatre-centimes sur le compte Fortis, pas d'quoi faire des éco' Réflexion d'la vie sur tout ce que j'vais faire si j'perce pas Les études c'pas pour moi, j'ai raté tellement d'fois Dans l'illégal, j'ai deux trois pistons Premier braquo mais j'regrette, j'vole aux honnêtes gens Première avance j'rembourse mes dettes, j'invite deux trois plans Putain d'merde pourquoi j'raconte ma vie ? Parce qu'en vrai t'as la tienne T'as tes problèmes aussi, mais nique sa mère faut bien qu'j'crache ma haine donc Je continue, Ipséité sort et j'deviens trop connu Selfies dans la rue, selfies d'fans, de fils de pute qui n'y croyaient plus J'vois qu'ça parle en bien mais c'est l'début Lithopédion sort, mon ex mentor me clashe De l'encre a coulé Le Conseil des Femmes Francophones regrette la désignation du rappeur Damso pour composer la chanson des Diables Rouges pour le Mondial en 2018. Les textes du chanteur sont violents et sexistes, un mauvais signal pour la jeunesse. Faut lire ces textes, moi je, je n'ose même pas les citer, je, je veux dire, je vais dire simplement quelque chose qui... Est-ce que les gens qui vont écouter Damso l'écoutent au second degré ? Eh bien la réponse... En fait, ce texte va être compliqué Ce texte va être compliqué, ce texte va être compliqué Parce que je vis des trucs vraiment compliqués Des trucs vraiment compliqués, des trucs vraiment compliqués Donc j'vais rapper lentement juste pour bien te l'expliquer Juste pour bien te l'expliquer, juste pour bien te l'expliquer La vie de star est un milieu carcéral de luxe Beaucoup de putes, de gens qui scrutent Tes moindres gestes pour les répéter, te filment pour se la péter Pour dire à tous leurs potes qu'ils étaient là quand t'y étais C'est ça la célébrité C'est ça la célébrité, c'est ça la célébrité Et plus j'avance dans mon rang social Social Et plus je recule dans ma vie sociale Sociale Ma liberté est dans ma tête et mon portefeuille, je n'sors plus jamais tout seul J'ai l'malheur de constater que j'me suis fait menotter Mon être est une société Mon être est une société, mon être est une société Putain c'est tout c'que je détestais, et quand t'arrives au sommet Ah ouais Tu t'aperçois qu'en bas, c'est juste un trou noir mais coloré Un trou noir mais coloré, un trou noir mais coloré Turpitude morale honteuse de moi, j'suis pas si fier S'faire aimer quand on s'déteste, c'est ça dev'nir c'qu'on veut être Bien installé sans être bourgeois J'vais louer ma vie sur Terre pour racheter celle d'l'au-delà L'au-delà, l'au-delà Comme chenille qui rêve de battre des ailes sans dev'nir papillon Je dessine ma vie en rose, raciste l'a mise noire et blanche Donc poule aux ufs d'or s'est envolée Envolée Loin quelque part dans la folie La folie Et si un jour tu d'viens fier de la hess, fier de vieillir au tieks, dis-toi qu'banlieue veut dire lieu banni Celui qui va devoir écrire une nouvelle ligne sur son Wikipédia est... bruits d'erreur informatique8</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Elle porte notre avenir dans son ventre Première fois que je parlerai d'amour En chanson pour faire court Oui, j'ai p't'être peur de ne pas être le père que j'veux être J'tremble à chaque fois que j'vois grand boule Bonne paire de kilojoules Comment donner l'exemple de ce que je serai jamais, hey Cursus scolaire très inquiétant Vente d'haschich et stupéfiant Et puis merde t'façon chacun sa destinée, hey Policier, peut-être tu seras Que pourrais-je faire contre ça ? J'ai si peur d'être pè-è-ère De voir l'enfer vu du cie-e-el De mes défauts qu'elle s'imprè-è-ègne Qu'elle n'atteigne jamais la 'tai-ai-aine Qu'elle m'aime et me follo-o-ow En dehors de la scè-è-ène Qu'elle m'aime pour ce que je suis-is-is En dehors de la scè-è-ène You might also like Je réserve une balle pour celui Qui en aide jamais ne te viendra J'ferai le ménage, j'vais nettoyer celui Qui entre nous se tiendra Avant j'étais juste pété, aujourd'hui, j'suis pété de thune J'ai vu moins souvent l'daron Qu'un croisement Soleil, Terre et Lune Tout est noir comme désespoir De savoir que mort de mère est proche J'sais pas c'que j'ferai si elle part Avant de voir mon premier gosse Trafiquant de mots, ça a prit tant de mois Pour être c'que je suis et faire ce que tu seras dans six mois J'ai si peur d'être pè-è-ère De voir l'enfer vu du cie-e-el De mes défauts qu'elle s'imprè-è-ègne Qu'elle n'atteigne jamais la 'tai-ai-aine Qu'elle m'aime et me follo-o-ow En dehors de la scè-è-ène Qu'elle m'aime pour ce que je suis-is-is En dehors de la scè-è-ène Why, why, why Why, why, why Why, why, why Why, why, why Hmm, hmm... Baba, baba a leo mutoto yangu kesho Baba, baba a leo mutoto yangu kesho Baba, baba a leo mutoto yangu kesho Baba, baba a leo mutoto yangu kesho6</t>
+          <t>Elle porte notre avenir dans son ventre Première fois que je parlerai d'amour En chanson pour faire court Oui, j'ai p't'être peur de ne pas être le père que j'veux être J'tremble à chaque fois que j'vois grand boule Bonne paire de kilojoules Comment donner l'exemple de ce que je serai jamais, hey Cursus scolaire très inquiétant Vente d'haschich et stupéfiant Et puis merde t'façon chacun sa destinée, hey Policier, peut-être tu seras Que pourrais-je faire contre ça ? J'ai si peur d'être pè-è-ère De voir l'enfer vu du cie-e-el De mes défauts qu'elle s'imprè-è-ègne Qu'elle n'atteigne jamais la 'tai-ai-aine Qu'elle m'aime et me follo-o-ow En dehors de la scè-è-ène Qu'elle m'aime pour ce que je suis-is-is En dehors de la scè-è-ène Je réserve une balle pour celui Qui en aide jamais ne te viendra J'ferai le ménage, j'vais nettoyer celui Qui entre nous se tiendra Avant j'étais juste pété, aujourd'hui, j'suis pété de thune J'ai vu moins souvent l'daron Qu'un croisement Soleil, Terre et Lune Tout est noir comme désespoir De savoir que mort de mère est proche J'sais pas c'que j'ferai si elle part Avant de voir mon premier gosse Trafiquant de mots, ça a prit tant de mois Pour être c'que je suis et faire ce que tu seras dans six mois J'ai si peur d'être pè-è-ère De voir l'enfer vu du cie-e-el De mes défauts qu'elle s'imprè-è-ègne Qu'elle n'atteigne jamais la 'tai-ai-aine Qu'elle m'aime et me follo-o-ow En dehors de la scè-è-ène Qu'elle m'aime pour ce que je suis-is-is En dehors de la scè-è-ène Why, why, why Why, why, why Why, why, why Why, why, why Hmm, hmm... Baba, baba a leo mutoto yangu kesho Baba, baba a leo mutoto yangu kesho Baba, baba a leo mutoto yangu kesho Baba, baba a leo mutoto yangu kesho6</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Blackstone beats Fais-moi, fais-moi un Vie Oh la la Fais-moi, fais-moi un Vie Dems Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie Ouais, ouais, ouais Encore du goudron en plus dans les poumons, j'ai mal comme quand tu t'abaisses et qu'elle dit Non Pas d'nouvelles connaissances, jadis, je fus déçu, j'fais une croix dessus comme Pilate avec Jésus Ta tte-cha a un taux élevé d'pénétrations, j'ai voté blanc lors d'la verbalisation Tu parles beaucoup mais dis rien d'intéressant, des discussions stériles, un peu comme ta chatte Sale Pas d'négros fragiles dans mes fréquentations Ouais, p't-être qu'il y en a mais faut pas qu'je le sache J'vais niquer sa race, sa réputation Eh, coup d'feu, le cur s'arrête dans le feu de l'action Odeur et bruit du canon scié sur la tempe, bang-bang, oh la la Ouais, ouais, ouais, j'ai rien fait, tout est d'jà noir autour de moi J'ai fait des shows, j'suis bien payé, l'état prend beaucoup trop, donc prochain, j'vais pas déclarer Ouais Oui, j'ai une go qu'j'ai enfantée et parlez beaucoup trop mais pourtant, on n'est pas séparés Ouais, ouais Rappeurs de merde au succès précaire Claire, lâchent des piques et en font leurs loisirs Ouais Savent pas qu'le Dems va niquer leurs mères Eh, qu'ça va finir en Nan, c'tait pas c'que je voulais dire J'lui dis Au revoir, adieu en même temps Eh, souvenirs d'un soir à deux sur l'écran Eh Fuck vivre l'espoir comme nègres des champs Nan, une fille d'trottoir pour m'farcir le gland Dems Le corps et l'esprit n'sont pas connectés Oh ouais, j'me d'mande Qui j'suis ?, souvent quand j'me vois Dems Elle veut une gâterie, sa chatte pue des pieds Fait semblant d'jouir en s'mettant des doigts Fais-moi un Vie You might also like Ici, c'est l'jour et la nuit Mais j'suis toujours dans le tiekson, malgré tous mes ennemis Vas-y, ramène-nous d'la beuh, qu'on fume jusqu'à n'plus être là On dit Qu'ailleurs, l'herbe n'est pas meilleure, sauf pour l'joint d'Pays-Bas Dis-moi, pourquoi, pourquoi, pourquoi tant de questions que j'me pose ? Pourquoi m'a-t-on jamais fait d'fleurs ? Juste envoyé sur les roses Vas-y, fais-moi, fais-moi un Vie Ici, c'est le jour et la nuit Mais j'suis toujours dans le tiekson, malgré tous mes ennemis Fais-moi, fais-moi un Vie Eh Dems Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie3</t>
+          <t>Blackstone beats Fais-moi, fais-moi un Vie Oh la la Fais-moi, fais-moi un Vie Dems Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie Ouais, ouais, ouais Encore du goudron en plus dans les poumons, j'ai mal comme quand tu t'abaisses et qu'elle dit Non Pas d'nouvelles connaissances, jadis, je fus déçu, j'fais une croix dessus comme Pilate avec Jésus Ta tte-cha a un taux élevé d'pénétrations, j'ai voté blanc lors d'la verbalisation Tu parles beaucoup mais dis rien d'intéressant, des discussions stériles, un peu comme ta chatte Sale Pas d'négros fragiles dans mes fréquentations Ouais, p't-être qu'il y en a mais faut pas qu'je le sache J'vais niquer sa race, sa réputation Eh, coup d'feu, le cur s'arrête dans le feu de l'action Odeur et bruit du canon scié sur la tempe, bang-bang, oh la la Ouais, ouais, ouais, j'ai rien fait, tout est d'jà noir autour de moi J'ai fait des shows, j'suis bien payé, l'état prend beaucoup trop, donc prochain, j'vais pas déclarer Ouais Oui, j'ai une go qu'j'ai enfantée et parlez beaucoup trop mais pourtant, on n'est pas séparés Ouais, ouais Rappeurs de merde au succès précaire Claire, lâchent des piques et en font leurs loisirs Ouais Savent pas qu'le Dems va niquer leurs mères Eh, qu'ça va finir en Nan, c'tait pas c'que je voulais dire J'lui dis Au revoir, adieu en même temps Eh, souvenirs d'un soir à deux sur l'écran Eh Fuck vivre l'espoir comme nègres des champs Nan, une fille d'trottoir pour m'farcir le gland Dems Le corps et l'esprit n'sont pas connectés Oh ouais, j'me d'mande Qui j'suis ?, souvent quand j'me vois Dems Elle veut une gâterie, sa chatte pue des pieds Fait semblant d'jouir en s'mettant des doigts Fais-moi un Vie Ici, c'est l'jour et la nuit Mais j'suis toujours dans le tiekson, malgré tous mes ennemis Vas-y, ramène-nous d'la beuh, qu'on fume jusqu'à n'plus être là On dit Qu'ailleurs, l'herbe n'est pas meilleure, sauf pour l'joint d'Pays-Bas Dis-moi, pourquoi, pourquoi, pourquoi tant de questions que j'me pose ? Pourquoi m'a-t-on jamais fait d'fleurs ? Juste envoyé sur les roses Vas-y, fais-moi, fais-moi un Vie Ici, c'est le jour et la nuit Mais j'suis toujours dans le tiekson, malgré tous mes ennemis Fais-moi, fais-moi un Vie Eh Dems Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie3</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Vergogne, Sorbonne Eh Ouais Mmh, eh Mmh Voyou malandrin sans trop de vergogne C'est dans ta maman que je performe J'm'en bats les couilles qu't'aies fait la Sorbonne Moi, j'ai rien fait et j'ai l'salaire d'tout le personnel réuni J'aime comment tu bounces Tu danses Quand ton booty fait rum pum pum pum sur moi J'aime vraiment comment tu bounces Tu danses J'mets YG, Frenetik, volume dans la ture-voi Dangereux je suis, enfin, j'crois J'croyais C'est c'que négro m'a dit quand on a croisé le fer J'ai cru en l'amour en cinq mois Bah ouais Puis, c'est parti en vrille, ma bite n'a pas su se taire J'me fais sucer par une tasse-pé d'télé-réalité La vie qu'tu veux, c'est la vie qu'j'ai Retour au quartier, malfrats, bicraveurs affûtés La weed que j'ai, c'est l'AMG J'aime comment tu Attends bounces J'aime comment tu Attends, quand ton booty fait rum pum pum pum sur moi J'aime vraiment comment tu, eh, bounces pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi Oh, oui Bounce pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi, nan, nan, nan, nan, nan, nan Attends Billets violets, jaunes, verts, gros sous, everyday, everyday Ouh Billets violets, jaunes, verts, gros sous, everyday, everyday You might also like J'sais pas pourquoi c'est un tue-l'amour J'sais pas pourquoi, j'sais pas pourquoi De dire je t'aime le premier jour Premier jour, premier jour J'commence la nuit, j'finis le jour J'suis près de toi avec tous ceux qui tournent autour Hey Donne-moi une raison Ouais de pas finir chez toi, dans ta house House Tu fais monter la pression Ola J'aime comment tu Attends bounces J'aime comment tu Attends, quand ton booty fait rum pum pum pum sur moi J'aime vraiment comment tu, eh, bounces pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi Oh, oui Bounce pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi, nan, nan, nan, nan, nan, nan Attends Billets violets, jaunes, verts, gros sous, everyday, everyday Ouh Billets violets, jaunes, verts, gros sous, everyday, everyday8</t>
+          <t>Vergogne, Sorbonne Eh Ouais Mmh, eh Mmh Voyou malandrin sans trop de vergogne C'est dans ta maman que je performe J'm'en bats les couilles qu't'aies fait la Sorbonne Moi, j'ai rien fait et j'ai l'salaire d'tout le personnel réuni J'aime comment tu bounces Tu danses Quand ton booty fait rum pum pum pum sur moi J'aime vraiment comment tu bounces Tu danses J'mets YG, Frenetik, volume dans la ture-voi Dangereux je suis, enfin, j'crois J'croyais C'est c'que négro m'a dit quand on a croisé le fer J'ai cru en l'amour en cinq mois Bah ouais Puis, c'est parti en vrille, ma bite n'a pas su se taire J'me fais sucer par une tasse-pé d'télé-réalité La vie qu'tu veux, c'est la vie qu'j'ai Retour au quartier, malfrats, bicraveurs affûtés La weed que j'ai, c'est l'AMG J'aime comment tu Attends bounces J'aime comment tu Attends, quand ton booty fait rum pum pum pum sur moi J'aime vraiment comment tu, eh, bounces pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi Oh, oui Bounce pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi, nan, nan, nan, nan, nan, nan Attends Billets violets, jaunes, verts, gros sous, everyday, everyday Ouh Billets violets, jaunes, verts, gros sous, everyday, everyday J'sais pas pourquoi c'est un tue-l'amour J'sais pas pourquoi, j'sais pas pourquoi De dire je t'aime le premier jour Premier jour, premier jour J'commence la nuit, j'finis le jour J'suis près de toi avec tous ceux qui tournent autour Hey Donne-moi une raison Ouais de pas finir chez toi, dans ta house House Tu fais monter la pression Ola J'aime comment tu Attends bounces J'aime comment tu Attends, quand ton booty fait rum pum pum pum sur moi J'aime vraiment comment tu, eh, bounces pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi Oh, oui Bounce pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi, nan, nan, nan, nan, nan, nan Attends Billets violets, jaunes, verts, gros sous, everyday, everyday Ouh Billets violets, jaunes, verts, gros sous, everyday, everyday8</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Y a 24 heures dans un jour Yeah, y a 24 heures dans un jour et le jour se lève avant 6 heures du matin Se couche après 6 heures du soir Quand j'me lève pour bosser jusqu'au p'tit matin J'dors plus, j'ai plus b'soin de rêve J'dors plus, j'ai plus b'soin de rêve L'oreiller me voit autant de fois qu'les yeux de mon gosse C'est-à-dire peu souvent, car, trop souvent, j'suis absent de moi-même Nurofen dans les veines, sur la scène j't'ai vue tapie dans robe rouge On a ken, on s'est déshabillé pour les mêmes raisons Quelques frissons à répétition jusqu'à scission du réel Ma chair dans la sienne faisant les mêmes mouvements que l'on doit faire pour faire des enfants C'que j'essaye de dire c'est que j'sais pas quoi dire d'autre à part c'qu'on doit dire quand on s'connait pas vraiment Salut ça va ? Moi, c'est Damso, j'me présente car jusqu'à présent j'connais pas ton prénom La vie c'est simple et compliqué car c'est c'que j'pense que t'es qui sera ton identité pour moi Pareil pour toi vis-à-vis d'moi Quand on y pense, j'pense qu'on se connaitra jamais vraiment Quand tu dis qu'tu couches pas l'premier soir sache que l'centième soir j'serai pas si différent Forcé par le forcément qui s'installe à chaque début d'discussion Tout ça parce qu'on l'a fait On s'éloigne parce qu'on s'dit je t'aime On s'éloigne parce qu'on s'dit je t'aime sans vraiment savoir c'que c'est L'autre pense qu'elle le pense mais son ex est dans sa tête Malgré qu'j'ai ma bite dans sa schnek Et c'est dans sa schnek que j'ai compris qu'ma bite et mon être Sont qu'une location pour elle Au prix de quelques mots doux, love you tout ça J'ai cru voir dans ses draps c'que je voulais voir dans ses bras l'amour Intensément je me goure, sans sentiment j'fais la cour Jamais le jour, que la nuit Parole de sourds cherchant l'ouïe Chez l'autre pour un oui et un non Forcément je me mens, je lui mens Conclusion je nous mens en même temps Donc finalement c'est mortYou might also like12</t>
+          <t>Y a 24 heures dans un jour Yeah, y a 24 heures dans un jour et le jour se lève avant 6 heures du matin Se couche après 6 heures du soir Quand j'me lève pour bosser jusqu'au p'tit matin J'dors plus, j'ai plus b'soin de rêve J'dors plus, j'ai plus b'soin de rêve L'oreiller me voit autant de fois qu'les yeux de mon gosse C'est-à-dire peu souvent, car, trop souvent, j'suis absent de moi-même Nurofen dans les veines, sur la scène j't'ai vue tapie dans robe rouge On a ken, on s'est déshabillé pour les mêmes raisons Quelques frissons à répétition jusqu'à scission du réel Ma chair dans la sienne faisant les mêmes mouvements que l'on doit faire pour faire des enfants C'que j'essaye de dire c'est que j'sais pas quoi dire d'autre à part c'qu'on doit dire quand on s'connait pas vraiment Salut ça va ? Moi, c'est Damso, j'me présente car jusqu'à présent j'connais pas ton prénom La vie c'est simple et compliqué car c'est c'que j'pense que t'es qui sera ton identité pour moi Pareil pour toi vis-à-vis d'moi Quand on y pense, j'pense qu'on se connaitra jamais vraiment Quand tu dis qu'tu couches pas l'premier soir sache que l'centième soir j'serai pas si différent Forcé par le forcément qui s'installe à chaque début d'discussion Tout ça parce qu'on l'a fait On s'éloigne parce qu'on s'dit je t'aime On s'éloigne parce qu'on s'dit je t'aime sans vraiment savoir c'que c'est L'autre pense qu'elle le pense mais son ex est dans sa tête Malgré qu'j'ai ma bite dans sa schnek Et c'est dans sa schnek que j'ai compris qu'ma bite et mon être Sont qu'une location pour elle Au prix de quelques mots doux, love you tout ça J'ai cru voir dans ses draps c'que je voulais voir dans ses bras l'amour Intensément je me goure, sans sentiment j'fais la cour Jamais le jour, que la nuit Parole de sourds cherchant l'ouïe Chez l'autre pour un oui et un non Forcément je me mens, je lui mens Conclusion je nous mens en même temps Donc finalement c'est mort12</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Oh, oh, oh, yeah Oh baby, dis-moi c'que je fais Yeah Un jour, tu m'aimes, un jour, tu n'm'aimes pas Non Oh baby, dis-moi c'que j'ai fait Yeah Un jour, tu m'aimes, un jour tu n'm'aimes pas Non Toujours à dire qu'j'suis un salaud Ouais J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud Ouais J'te jure, j'l'ai baisée seulement qu'une fois, oh C'est vrai, j'te trompe avec la bite ouais Mon cur, lui, n'a d'yeux que pour toi bah ouais J'te d'mande ta main pour que je gicle ouais Mais bientôt, c'se'ra pour bague au doigt bah ouais Laisse-moi le temps d'être ce que je n'suis pas ouais Pour devenir c'lui qu'tu veux qu'je sois bah ouais Ma tête tourne comme des locks quand je vois ton boule J'te laisse même fumer sur ma clope, j'crois qu'c'est ça l'amour Et toi, t'oses dire qu'j'suis un salaud J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud J'te jure, j'l'ai baisée seulement qu'une fois You might also like Oh baby, dis-moi c'que je fais Yeah Un jour, tu m'aimes, un jour, tu n'm'aimes pas Non Oh baby, dis-moi c'que j'ai fait Yeah Un jour, tu m'aimes, un jour tu n'm'aimes pas Non Toujours à dire qu'j'suis un salaud Ouais J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud Ouais J'te jure, j'l'ai baisée seulement qu'une fois, oh Sur le front de la sueur, Vie sur le cur Ouais Violente est ma douceur, n'aies pas si peur Connais Par quatre chemins je n'irai pas, j'te dis je t'aime Ouais Par quatre lèvres, bouche et teu-chas, j'viens pour te ken J'suis dans une suite au Marriott, t'explorant les trompes de Fallope, ouais Laisse tomber tes allocs, viens m'rejoindre dans plage et paillote, eh Femmes nues dans mon bigo, c'est pas glamour Non J'te laisserai même venir au studio, c'est ça l'amour Ouais Et toi, t'es là à dire qu'j'suis un salaud J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud J'te jure, j'l'ai baisée seulement qu'une fois, oh Oh baby, dis-moi c'que je fais Yeah Un jour, tu m'aimes, un jour, tu n'm'aimes pas Non Oh baby, dis-moi c'que j'ai fait Yeah Un jour, tu m'aimes, un jour tu n'm'aimes pas Non Toujours à dire qu'j'suis un salaud Ouais J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud Ouais J'te jure, j'l'ai baisée seulement qu'une fois, oh Toujours à dire qu'j'suis un salaud J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud J'te jure, j'l'ai baisée seulement qu'une fois8</t>
+          <t>Oh, oh, oh, yeah Oh baby, dis-moi c'que je fais Yeah Un jour, tu m'aimes, un jour, tu n'm'aimes pas Non Oh baby, dis-moi c'que j'ai fait Yeah Un jour, tu m'aimes, un jour tu n'm'aimes pas Non Toujours à dire qu'j'suis un salaud Ouais J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud Ouais J'te jure, j'l'ai baisée seulement qu'une fois, oh C'est vrai, j'te trompe avec la bite ouais Mon cur, lui, n'a d'yeux que pour toi bah ouais J'te d'mande ta main pour que je gicle ouais Mais bientôt, c'se'ra pour bague au doigt bah ouais Laisse-moi le temps d'être ce que je n'suis pas ouais Pour devenir c'lui qu'tu veux qu'je sois bah ouais Ma tête tourne comme des locks quand je vois ton boule J'te laisse même fumer sur ma clope, j'crois qu'c'est ça l'amour Et toi, t'oses dire qu'j'suis un salaud J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud J'te jure, j'l'ai baisée seulement qu'une fois Oh baby, dis-moi c'que je fais Yeah Un jour, tu m'aimes, un jour, tu n'm'aimes pas Non Oh baby, dis-moi c'que j'ai fait Yeah Un jour, tu m'aimes, un jour tu n'm'aimes pas Non Toujours à dire qu'j'suis un salaud Ouais J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud Ouais J'te jure, j'l'ai baisée seulement qu'une fois, oh Sur le front de la sueur, Vie sur le cur Ouais Violente est ma douceur, n'aies pas si peur Connais Par quatre chemins je n'irai pas, j'te dis je t'aime Ouais Par quatre lèvres, bouche et teu-chas, j'viens pour te ken J'suis dans une suite au Marriott, t'explorant les trompes de Fallope, ouais Laisse tomber tes allocs, viens m'rejoindre dans plage et paillote, eh Femmes nues dans mon bigo, c'est pas glamour Non J'te laisserai même venir au studio, c'est ça l'amour Ouais Et toi, t'es là à dire qu'j'suis un salaud J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud J'te jure, j'l'ai baisée seulement qu'une fois, oh Oh baby, dis-moi c'que je fais Yeah Un jour, tu m'aimes, un jour, tu n'm'aimes pas Non Oh baby, dis-moi c'que j'ai fait Yeah Un jour, tu m'aimes, un jour tu n'm'aimes pas Non Toujours à dire qu'j'suis un salaud Ouais J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud Ouais J'te jure, j'l'ai baisée seulement qu'une fois, oh Toujours à dire qu'j'suis un salaud J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud J'te jure, j'l'ai baisée seulement qu'une fois8</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sale, sale, sale Dems Oh oui, oh oui Oh oui, oh oui Hey J'suis dans le bendo Ouais Ça tire, ça tire, drive-by en Range Ro' Dingue Au comico, je no comprendo No Ça nique des mères, y a qu'ça à faire, gros Ouais, ouais, ouais, ouais Saal Calibré, j'suis dans le club Calibré, j'suis dans le club Broliqué, j'suis dans le club Broliqué, j'suis dans le club Kalashé, j'suis dans le club Kalashé, j'suis dans le club Broliqué, j'suis dans le club Bang, bang You might also like Les mecs veulent de la ppe-fra, j'mets d'la coca' dans mon shit J'veux très très grosse bitch, juste un gros cul sur ma trique Pas d'liquide séminal, j'nique leur mère avec du Vicks T'es dernier comme les Sixers, t'as plus d'buzz, même quand ça leak On fait d'la sique-mu, pas de la 'sique molle, c'est pas du zouk, mec Ça parle de rue, gun, drogue et alcool, ça parle de bres-ténè D'vécu et fiction, rage et colère dans ma diction Le rap coûte cher sans vues, donc t'as pas assez d'flow pour l'addition Dans l'ombre, j'leur mets des doigts, j'ai l'majeur à Noob Saibot Échec scolaire, j'étais d'ceux-là, aujourdhui j'règle la note J'te marie si tu m'dis Oui', d't'façon, pussy, j'l'ai d'jà fuck T'as la queue d'Iglesias Enrique, dans sa te-cha, j'vois qu'tu flottes Damso, ouais J'suis dans le bendo Ouais Ça tire, ça tire, drive-by en Range Ro' Dingue Au comico, je no comprendo No Ça nique des mères, y a qu'ça à faire, gros Ouais, ouais, ouais, ouais Saal Calibré, j'suis dans le club Calibré, j'suis dans le club Broliqué, j'suis dans le club Broliqué, j'suis dans le club Kalashé, j'suis dans le club Kalashé, j'suis dans le club Broliqué, j'suis dans le club Bang, bang OG, négros fragiles, on n'en veut pas No Trust me, on assassine dans la ve-ca Toujours à faire du le-sa, pilon roulé dans le ce-sa Oh, renoi, on est où là ? Ferme ta gueule ou tu n's'ras plus là J'te l'dis mon négro, très énervé je le suis, j'n'ai plus de cur comme Thierry Gilardi Autant de kush que d'OG, autant de 9 que 2i J'ai le bras long mais pas pour selfie, piraterie, Mugiwara Luffy J'la baise, elle crie fort comme Pavarotti, c'est noir, ça brille comme dans Get Lucky J'me barre d'ici, ça sent le flic, tu sais qu'ça s'ra noir vu le titre Jaloux véner' se lance dans des disses, j'les accueille bras ouvert comme Jésus Christ Elle est bonne, a du cash, elle est hipster, m'en bats les lles-c' d'être sur ta liste J'suis en showcase, donc c'est moi le VIP Plus j'fais du sale, plus j'fais du chiffre J'suis dans le bendo Ouais Ça tire, ça tire, drive-by en Range Ro' Dingue Au comico, je no comprendo No Ça nique des mères, y a qu'ça à faire, gros Ouais, ouais, ouais, ouais Saal Calibré, j'suis dans le club Calibré, j'suis dans le club Broliqué, j'suis dans le club Broliqué, j'suis dans le club Kalashé, j'suis dans le club Kalashé, j'suis dans le club Broliqué, j'suis dans le club Bang, bang3</t>
+          <t>Sale, sale, sale Dems Oh oui, oh oui Oh oui, oh oui Hey J'suis dans le bendo Ouais Ça tire, ça tire, drive-by en Range Ro' Dingue Au comico, je no comprendo No Ça nique des mères, y a qu'ça à faire, gros Ouais, ouais, ouais, ouais Saal Calibré, j'suis dans le club Calibré, j'suis dans le club Broliqué, j'suis dans le club Broliqué, j'suis dans le club Kalashé, j'suis dans le club Kalashé, j'suis dans le club Broliqué, j'suis dans le club Bang, bang Les mecs veulent de la ppe-fra, j'mets d'la coca' dans mon shit J'veux très très grosse bitch, juste un gros cul sur ma trique Pas d'liquide séminal, j'nique leur mère avec du Vicks T'es dernier comme les Sixers, t'as plus d'buzz, même quand ça leak On fait d'la sique-mu, pas de la 'sique molle, c'est pas du zouk, mec Ça parle de rue, gun, drogue et alcool, ça parle de bres-ténè D'vécu et fiction, rage et colère dans ma diction Le rap coûte cher sans vues, donc t'as pas assez d'flow pour l'addition Dans l'ombre, j'leur mets des doigts, j'ai l'majeur à Noob Saibot Échec scolaire, j'étais d'ceux-là, aujourdhui j'règle la note J'te marie si tu m'dis Oui', d't'façon, pussy, j'l'ai d'jà fuck T'as la queue d'Iglesias Enrique, dans sa te-cha, j'vois qu'tu flottes Damso, ouais J'suis dans le bendo Ouais Ça tire, ça tire, drive-by en Range Ro' Dingue Au comico, je no comprendo No Ça nique des mères, y a qu'ça à faire, gros Ouais, ouais, ouais, ouais Saal Calibré, j'suis dans le club Calibré, j'suis dans le club Broliqué, j'suis dans le club Broliqué, j'suis dans le club Kalashé, j'suis dans le club Kalashé, j'suis dans le club Broliqué, j'suis dans le club Bang, bang OG, négros fragiles, on n'en veut pas No Trust me, on assassine dans la ve-ca Toujours à faire du le-sa, pilon roulé dans le ce-sa Oh, renoi, on est où là ? Ferme ta gueule ou tu n's'ras plus là J'te l'dis mon négro, très énervé je le suis, j'n'ai plus de cur comme Thierry Gilardi Autant de kush que d'OG, autant de 9 que 2i J'ai le bras long mais pas pour selfie, piraterie, Mugiwara Luffy J'la baise, elle crie fort comme Pavarotti, c'est noir, ça brille comme dans Get Lucky J'me barre d'ici, ça sent le flic, tu sais qu'ça s'ra noir vu le titre Jaloux véner' se lance dans des disses, j'les accueille bras ouvert comme Jésus Christ Elle est bonne, a du cash, elle est hipster, m'en bats les lles-c' d'être sur ta liste J'suis en showcase, donc c'est moi le VIP Plus j'fais du sale, plus j'fais du chiffre J'suis dans le bendo Ouais Ça tire, ça tire, drive-by en Range Ro' Dingue Au comico, je no comprendo No Ça nique des mères, y a qu'ça à faire, gros Ouais, ouais, ouais, ouais Saal Calibré, j'suis dans le club Calibré, j'suis dans le club Broliqué, j'suis dans le club Broliqué, j'suis dans le club Kalashé, j'suis dans le club Kalashé, j'suis dans le club Broliqué, j'suis dans le club Bang, bang3</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Oh, ouais ouais ouais Ouais Dems Bédo doux Yeah J'fume mes soucis dans bédo doux Dans sa pussy, j'prends rendez-vous Autant d'monnaie pour si peu d'amour Secret professionnel, chut, ça reste entre nous Tu sais, je t'aime qu'avec des bas résilles Tes selfies sont un genre de poésie Ils parlent de la vie, après minuit Celle qui fait bander qu'à force, on oublie Comme un rapiat moi, j'attends mon tour J'rêve de t'péta dans les alentours À c'qui paraît, tu maîtrises bien la langue Tes fellations sont comme des calembours T'as vu, j'ai signé, j'peux faire de ma gueule T'as l'monde à tes pieds, j'l'ai au bout de ma feuille J'regarde cette bitch et j'me dis que c'est la mienne Comme si personne d'autre pouvait la ken' Alors qu'il suffit de quelques billets pour la déshabiller puis la bitch-isiller Elle ne fait pas dans le trop câliner Sa nudité n'est même pas raffinée D'ailleurs, cette bitch au fond, c'est toutes les mêmes J'vais rentrer fumer, elles n'en valent pas la peine J'vais mater des chaines pornos, voir des chiennes prendre gros J'suis un négro qui n'véhicule que la haine You might also like J'suis dans mon délire, j'fume trop d'weed, oh non J'suis dans mon délire, j'fume trop d'weed, oh non Défoncé, j'expire vraie OG d'Hollande J'suis dans mon délire, j'fume trop d'weed, oh non Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir Ton porte-jarretelle fait l'effet d'un violent baiser dans le cou violent baiser dans l'cou Que du vice, un pincement d'clitoris tu vas succomber tu vas succomber Tu danses à peine, ma trique est à l'avance au rendez-vous à l'avance au rendez-vous Que plus lisse, un claquement d'clitoris, tu vas suffoquer Bien ficelée sans erreurs dans les détails Jolie garce comme dans la team de Shay Romantique, tu cherches l'amour de campagne J't'enculerai donc sur un fétu de paille Cyprine à plein nez, l'cuni n'est pas évident Sexe affamé, long comme le bec d'un pélican Son fessier n'est pas très occidental Ejac' faciale, devoir congénital Défoncé, j'expire, j'sais même pas si t'existes C'qui veut dire que j'ai pris full drogue Défoncé, j'expire, j'sais même pas si t'existes C'qui veut dire que j'ai pris full drogue J'suis dans mon délire, j'fume trop d'weed, oh non J'suis dans mon délire, j'fume trop d'weed, oh non Défoncé, j'expire vraie OG d'Hollande J'suis dans mon délire, j'fume trop d'weed, oh non Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir5</t>
+          <t>Oh, ouais ouais ouais Ouais Dems Bédo doux Yeah J'fume mes soucis dans bédo doux Dans sa pussy, j'prends rendez-vous Autant d'monnaie pour si peu d'amour Secret professionnel, chut, ça reste entre nous Tu sais, je t'aime qu'avec des bas résilles Tes selfies sont un genre de poésie Ils parlent de la vie, après minuit Celle qui fait bander qu'à force, on oublie Comme un rapiat moi, j'attends mon tour J'rêve de t'péta dans les alentours À c'qui paraît, tu maîtrises bien la langue Tes fellations sont comme des calembours T'as vu, j'ai signé, j'peux faire de ma gueule T'as l'monde à tes pieds, j'l'ai au bout de ma feuille J'regarde cette bitch et j'me dis que c'est la mienne Comme si personne d'autre pouvait la ken' Alors qu'il suffit de quelques billets pour la déshabiller puis la bitch-isiller Elle ne fait pas dans le trop câliner Sa nudité n'est même pas raffinée D'ailleurs, cette bitch au fond, c'est toutes les mêmes J'vais rentrer fumer, elles n'en valent pas la peine J'vais mater des chaines pornos, voir des chiennes prendre gros J'suis un négro qui n'véhicule que la haine J'suis dans mon délire, j'fume trop d'weed, oh non J'suis dans mon délire, j'fume trop d'weed, oh non Défoncé, j'expire vraie OG d'Hollande J'suis dans mon délire, j'fume trop d'weed, oh non Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir Ton porte-jarretelle fait l'effet d'un violent baiser dans le cou violent baiser dans l'cou Que du vice, un pincement d'clitoris tu vas succomber tu vas succomber Tu danses à peine, ma trique est à l'avance au rendez-vous à l'avance au rendez-vous Que plus lisse, un claquement d'clitoris, tu vas suffoquer Bien ficelée sans erreurs dans les détails Jolie garce comme dans la team de Shay Romantique, tu cherches l'amour de campagne J't'enculerai donc sur un fétu de paille Cyprine à plein nez, l'cuni n'est pas évident Sexe affamé, long comme le bec d'un pélican Son fessier n'est pas très occidental Ejac' faciale, devoir congénital Défoncé, j'expire, j'sais même pas si t'existes C'qui veut dire que j'ai pris full drogue Défoncé, j'expire, j'sais même pas si t'existes C'qui veut dire que j'ai pris full drogue J'suis dans mon délire, j'fume trop d'weed, oh non J'suis dans mon délire, j'fume trop d'weed, oh non Défoncé, j'expire vraie OG d'Hollande J'suis dans mon délire, j'fume trop d'weed, oh non Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir5</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Le daron voulait que je taff 23 ans diplôme premier boulot Cravate, col boutonné Jambes croisées derrière mon bureau Mais lalcool, le cash, la weed Les bitchs comme attrape-nigaud Ont fait de moi ce que je suis devenu Un saugrenu putain d'négro Et puis fuck comme tout écolier Désemparé d'aucun secret Je traîne avec mes semblables Que le monde remballe pour les même secrets Comment puis-je prouver ce que je vaux Si leurs valeurs ne me correspondent pas ? Plus d'pression, cherche plus à perdre Puis la déception des rents-pas Trop déchecs scolaires, colère, oh merde Bandit j'le suis, j'serai, je létais, j'fous la de-mer Sa mère fuck Cherche moyen rapide d'me tirer Comme les munitions dun Glock You might also like À croire que j'suis baisé Plus davenir ouais, j'les vois venir Mais je nai pas de regret toujours pas de regret Je sais ce que j'veux devenir donc venez pas me dire Qu'en couilles se barre ma life Je profite de ma beautiful day, beautiful day Beautiful day, beautiful day Qu'en couilles se barre ma life Je profite de ma beautiful day Beautiful day, beautiful day Beautiful Day Quand l'enveloppe est pleine le jour de paye Je compte loseille fait péter les teilles M'approche de l'enfer en tutoyant le ciel nigga Ils parlent de dem's nigga, Ils disent que sur dem's nigga J'ai déjà trop de blêmes nigga Putain de merde nigga, damn nigga Blanc métal policier l'homicide est imminent Ma vie tient un fil de nylon, ils dansent le mia Pendant que je taff pour le Milli-ions, oui money il y a Assez pour beautiful day Profiter jusquà mon beautiful deuil Pour l'instant je n'ai qu'une beautiful 'teille Je profite autant de ma beauty full déf Avant chaque sortie on m'savonne Damso J'ai la vie d'une soirée mousse Damso Une grosse bitch anglo-saxonne Damso Je lui fourre mon bacon dans sa bouche Damso Un jour tu pleures, un jour tu ris Un homme qui meurt, un autre vit Un gros flingue t'urge a mon avis Raaa Bang bang OPG Déso pour ce que je fais au sexe féminin sans le vouloir J'ai tendance à confondre Toutes les femmes à celles du trottoir Pourtant j'fais des efforts j'suis passé du snack au restaurant Mais trop vu la mort de près Elles se plaignent que je tire une tête d'enterrement Trop de proches que je perds, colère, oh merde Bandit j'le suis, j'serai, je létais, j'fous la de-mer Sa mère , fuck Cherche moyen rapide de me tirer comme les munitions dun glock A croire que j'suis baisé Plus davenir ouais, j'les vois venir Mais je nai pas de regret Je sais ce que j'veux devenir donc venez pas me dire Qu'en couilles se barre ma life Je profite de ma beautiful day Beautiful day Beautiful day Beautiful Day Qu'en couilles se barre ma life Je profite de ma beautiful day Beautiful Day Beautiful Day5</t>
+          <t>Le daron voulait que je taff 23 ans diplôme premier boulot Cravate, col boutonné Jambes croisées derrière mon bureau Mais lalcool, le cash, la weed Les bitchs comme attrape-nigaud Ont fait de moi ce que je suis devenu Un saugrenu putain d'négro Et puis fuck comme tout écolier Désemparé d'aucun secret Je traîne avec mes semblables Que le monde remballe pour les même secrets Comment puis-je prouver ce que je vaux Si leurs valeurs ne me correspondent pas ? Plus d'pression, cherche plus à perdre Puis la déception des rents-pas Trop déchecs scolaires, colère, oh merde Bandit j'le suis, j'serai, je létais, j'fous la de-mer Sa mère fuck Cherche moyen rapide d'me tirer Comme les munitions dun Glock À croire que j'suis baisé Plus davenir ouais, j'les vois venir Mais je nai pas de regret toujours pas de regret Je sais ce que j'veux devenir donc venez pas me dire Qu'en couilles se barre ma life Je profite de ma beautiful day, beautiful day Beautiful day, beautiful day Qu'en couilles se barre ma life Je profite de ma beautiful day Beautiful day, beautiful day Beautiful Day Quand l'enveloppe est pleine le jour de paye Je compte loseille fait péter les teilles M'approche de l'enfer en tutoyant le ciel nigga Ils parlent de dem's nigga, Ils disent que sur dem's nigga J'ai déjà trop de blêmes nigga Putain de merde nigga, damn nigga Blanc métal policier l'homicide est imminent Ma vie tient un fil de nylon, ils dansent le mia Pendant que je taff pour le Milli-ions, oui money il y a Assez pour beautiful day Profiter jusquà mon beautiful deuil Pour l'instant je n'ai qu'une beautiful 'teille Je profite autant de ma beauty full déf Avant chaque sortie on m'savonne Damso J'ai la vie d'une soirée mousse Damso Une grosse bitch anglo-saxonne Damso Je lui fourre mon bacon dans sa bouche Damso Un jour tu pleures, un jour tu ris Un homme qui meurt, un autre vit Un gros flingue t'urge a mon avis Raaa Bang bang OPG Déso pour ce que je fais au sexe féminin sans le vouloir J'ai tendance à confondre Toutes les femmes à celles du trottoir Pourtant j'fais des efforts j'suis passé du snack au restaurant Mais trop vu la mort de près Elles se plaignent que je tire une tête d'enterrement Trop de proches que je perds, colère, oh merde Bandit j'le suis, j'serai, je létais, j'fous la de-mer Sa mère , fuck Cherche moyen rapide de me tirer comme les munitions dun glock A croire que j'suis baisé Plus davenir ouais, j'les vois venir Mais je nai pas de regret Je sais ce que j'veux devenir donc venez pas me dire Qu'en couilles se barre ma life Je profite de ma beautiful day Beautiful day Beautiful day Beautiful Day Qu'en couilles se barre ma life Je profite de ma beautiful day Beautiful Day Beautiful Day5</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Oui Seul à tracer sur ma route, je fais mon chemin Quelques aléas, le doute du rappeur urbain J'ai perdu des soss à part Santos qui me tire la main Qui ? Le rap game fait qu'sucer ma bite, il reste son fond de teint Ils ont prié pour qu'jamais pour moi n'existe de lendemain Bouya Coup d'pied dans leur mère avec Versace, chaussures en daim Bang J'ai faibli, j'ai fléchi, réfléchi, remis tout en cause Oui J'ai monté les marches mais l'escalier est en Penrose Oui C'est partout la même, c'est partout la même, ouais C'est partout la même, c'est partout la même, ouais J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps C'est partout la même, c'est partout la même C'est partout la même issue C'est partout la même, c'est partout la même C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps OG va purger sa peine mais n'a rien fait de mal Nan Mes sentiments sont à la traîne, ne pensent qu'à faire d'la maille Moula Honte de c'qu'ils sont, ils se dé-nègrent Bang Longue discussion sur le fait d'être, oublient c'qu'ils sont quand ils sont célèbres Va dire à Florent qu'on n'est pas libre de penser Jamais Lobotomisés jusqu'à la monnaie des colonies françaises CFA Afrique endettée, les crédits d'la liberté se paient à perpet' Oui Toujours autant d'amour malgré les pillages, la guerre et la mort You might also like C'est partout la même, c'est partout la même, ouais C'est partout la même, c'est partout la même, ouais J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps C'est partout la même, c'est partout la même C'est partout la même issue C'est partout la même, c'est partout la même C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps Des crimes, des cris très stridents, sombre agent Peu avenant, peut tout faire pour l'argent Sans engagement, tire sur la foule sans balles à blanc Mais d'vant les blancs, position fellation Gouvernement ne voit que là d'où vient le vent Population malnutrition, grincements de dents, agitation Yahwé Yahwé sanjolama Yahwé na boboto sanjolama C'est partout la même, c'est partout la même, ouais C'est partout la même issue C'est partout la même, c'est partout la même, ouais C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps C'est partout la même, c'est partout la même C'est partout la même issue C'est partout la même, c'est partout la même C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps5</t>
+          <t>Oui Seul à tracer sur ma route, je fais mon chemin Quelques aléas, le doute du rappeur urbain J'ai perdu des soss à part Santos qui me tire la main Qui ? Le rap game fait qu'sucer ma bite, il reste son fond de teint Ils ont prié pour qu'jamais pour moi n'existe de lendemain Bouya Coup d'pied dans leur mère avec Versace, chaussures en daim Bang J'ai faibli, j'ai fléchi, réfléchi, remis tout en cause Oui J'ai monté les marches mais l'escalier est en Penrose Oui C'est partout la même, c'est partout la même, ouais C'est partout la même, c'est partout la même, ouais J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps C'est partout la même, c'est partout la même C'est partout la même issue C'est partout la même, c'est partout la même C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps OG va purger sa peine mais n'a rien fait de mal Nan Mes sentiments sont à la traîne, ne pensent qu'à faire d'la maille Moula Honte de c'qu'ils sont, ils se dé-nègrent Bang Longue discussion sur le fait d'être, oublient c'qu'ils sont quand ils sont célèbres Va dire à Florent qu'on n'est pas libre de penser Jamais Lobotomisés jusqu'à la monnaie des colonies françaises CFA Afrique endettée, les crédits d'la liberté se paient à perpet' Oui Toujours autant d'amour malgré les pillages, la guerre et la mort C'est partout la même, c'est partout la même, ouais C'est partout la même, c'est partout la même, ouais J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps C'est partout la même, c'est partout la même C'est partout la même issue C'est partout la même, c'est partout la même C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps Des crimes, des cris très stridents, sombre agent Peu avenant, peut tout faire pour l'argent Sans engagement, tire sur la foule sans balles à blanc Mais d'vant les blancs, position fellation Gouvernement ne voit que là d'où vient le vent Population malnutrition, grincements de dents, agitation Yahwé Yahwé sanjolama Yahwé na boboto sanjolama C'est partout la même, c'est partout la même, ouais C'est partout la même issue C'est partout la même, c'est partout la même, ouais C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps C'est partout la même, c'est partout la même C'est partout la même issue C'est partout la même, c'est partout la même C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps5</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ok Dems Si j'fais des ronds, c'est pour des gros culs J'suis Tetris, pas d'limite quand j'suis casé, donc j'rends ma copine cocue L'amour c'est bien mais l'argent domine Mon succès écarte les fesses d'la meilleure pote de mon ex copine La drogue est ma tutrice illégale J'vis, j'vise que l'or, j'crains jamais revers de médaille De la vie je sais à quoi m'attendre, depuis bien longtemps C'est comme quand tu r'gardes ton compte, mais qu'y'a l'même montant Si t'es v'nu dire que tu t'en vas, fallait rester où t'étais T'façon elles partent toujours pour les mêmes raisons J'dis pas qu'j'ai choisi l'enfer mais comment S'envoler au paradis avec un cur de plomb ? Elle veut du love mais n'est pas objective avec son physique J't'aime pas comme les Victoires de la Musique Tout c'qui tue pas fait plus de pognon Les histoires de cur, c'est pour celles et ceux qui en ont J'fais c'que j'aime au prix d'perdre ceux qu'j'aime J'me tire d'ici, comme la balle de Kurt Cobain Y'a pas d'loyauté, y'a qu'des monnaies d'échange Des fils de putains, qui entre eux s'mélangent J'm'en bats les couilles d'l'exemple que j'donne aux jeunes J'suis pas éducateur, fais tes sous et ferme ta gueule Comme une route en diamants, veulent tous marcher sur moi J'suis v'nu au monde en pleurant, et chaque jour j'comprends pourquoi DemsYou might also like14</t>
+          <t>Ok Dems Si j'fais des ronds, c'est pour des gros culs J'suis Tetris, pas d'limite quand j'suis casé, donc j'rends ma copine cocue L'amour c'est bien mais l'argent domine Mon succès écarte les fesses d'la meilleure pote de mon ex copine La drogue est ma tutrice illégale J'vis, j'vise que l'or, j'crains jamais revers de médaille De la vie je sais à quoi m'attendre, depuis bien longtemps C'est comme quand tu r'gardes ton compte, mais qu'y'a l'même montant Si t'es v'nu dire que tu t'en vas, fallait rester où t'étais T'façon elles partent toujours pour les mêmes raisons J'dis pas qu'j'ai choisi l'enfer mais comment S'envoler au paradis avec un cur de plomb ? Elle veut du love mais n'est pas objective avec son physique J't'aime pas comme les Victoires de la Musique Tout c'qui tue pas fait plus de pognon Les histoires de cur, c'est pour celles et ceux qui en ont J'fais c'que j'aime au prix d'perdre ceux qu'j'aime J'me tire d'ici, comme la balle de Kurt Cobain Y'a pas d'loyauté, y'a qu'des monnaies d'échange Des fils de putains, qui entre eux s'mélangent J'm'en bats les couilles d'l'exemple que j'donne aux jeunes J'suis pas éducateur, fais tes sous et ferme ta gueule Comme une route en diamants, veulent tous marcher sur moi J'suis v'nu au monde en pleurant, et chaque jour j'comprends pourquoi Dems14</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>J'suis dans, j'suis dans l'tieks Ah oui oui, ouais Ah ouais, ouais, ouais Benjay Beats Eh Ta meuf t'a trompé, j'ai des preuves Ouais, elle veut s'faire niquer pour le buzz Ouais M'envoie des nudes car sa chienne de rude vie n'a tant de sperme qu'il en pleuve Ouais Crevé d'passer par Alléluia Oh ouais, j'ai pris un Glock pour faire la moula Bah ouais Ça crée des polémiques à tout va, comme après le Eh, pute, on est où là ? Ça gère des schneks de grandes tailles Eh, j'lui parle d'amour, elle m'parle de maille Eh J't'aime pas comme le mec qui dit Ça fait, ça fait, avant d'commencer un freestyle No Trop défoncé dans le bando Ouais, des moches, des bonnes, des Christie Gwendo Bitch On t'a vu sucer à lhôtel après le showcase, maintenant, tu fais genre c'est amical Biatch T'es v'nu en boite avec des meufs, on t'a recalé, oh la la Ni en tactile ni en T9, zéro smiley, nan, nan, nan J'suis pas des leurs, j'suis pas des leurs, Robert Marley Bobby, Bobby Comme never, comme never, comme jamais You might also like J'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais Bah ouais Ouais La puissance respecte que la puissance Sale, coup d'coude, balayette, crâne ouvert J'dépouille ta bague, j't'arrache l'auriculaire, j'vais niquer des mères sans trop de résistance Sho Gros poignard dans la ge-gor, j'en ressors jugulaire ensanglantée Ouais Après ta mort, j'vais baiser ta femme pour être sur qu'tu reposeras jamais en paix, no J'l'ai niquer comme si j'tais Actarus Ah oauis, son mec a cru qu'elle venait d'accoucher par l'anus Sale Ta pisse est froide, t'as petit phallus, étranger comme Albert Camus Vrai J'la baise, elle crie comme Dion Céline, avale avant que le me-sper périme Ouais Ouais, j'lui ai tout mis dans la bouche Bah ouais, pour pas déranger la voisine Biatch T'es v'nu en boite avec des meufs, on t'a recalé, oh la la Ni en tactile ni en T9, zéro smiley, nan, nan, nan J'suis pas des leurs, j'suis pas des leurs, Robert Marley Bobby, Bobby Comme never, comme never, comme jamais J'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais Comme never, comme never, comme jamais J'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais Ah ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ouais, ouais, ouais Dems5</t>
+          <t>J'suis dans, j'suis dans l'tieks Ah oui oui, ouais Ah ouais, ouais, ouais Benjay Beats Eh Ta meuf t'a trompé, j'ai des preuves Ouais, elle veut s'faire niquer pour le buzz Ouais M'envoie des nudes car sa chienne de rude vie n'a tant de sperme qu'il en pleuve Ouais Crevé d'passer par Alléluia Oh ouais, j'ai pris un Glock pour faire la moula Bah ouais Ça crée des polémiques à tout va, comme après le Eh, pute, on est où là ? Ça gère des schneks de grandes tailles Eh, j'lui parle d'amour, elle m'parle de maille Eh J't'aime pas comme le mec qui dit Ça fait, ça fait, avant d'commencer un freestyle No Trop défoncé dans le bando Ouais, des moches, des bonnes, des Christie Gwendo Bitch On t'a vu sucer à lhôtel après le showcase, maintenant, tu fais genre c'est amical Biatch T'es v'nu en boite avec des meufs, on t'a recalé, oh la la Ni en tactile ni en T9, zéro smiley, nan, nan, nan J'suis pas des leurs, j'suis pas des leurs, Robert Marley Bobby, Bobby Comme never, comme never, comme jamais J'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais Bah ouais Ouais La puissance respecte que la puissance Sale, coup d'coude, balayette, crâne ouvert J'dépouille ta bague, j't'arrache l'auriculaire, j'vais niquer des mères sans trop de résistance Sho Gros poignard dans la ge-gor, j'en ressors jugulaire ensanglantée Ouais Après ta mort, j'vais baiser ta femme pour être sur qu'tu reposeras jamais en paix, no J'l'ai niquer comme si j'tais Actarus Ah oauis, son mec a cru qu'elle venait d'accoucher par l'anus Sale Ta pisse est froide, t'as petit phallus, étranger comme Albert Camus Vrai J'la baise, elle crie comme Dion Céline, avale avant que le me-sper périme Ouais Ouais, j'lui ai tout mis dans la bouche Bah ouais, pour pas déranger la voisine Biatch T'es v'nu en boite avec des meufs, on t'a recalé, oh la la Ni en tactile ni en T9, zéro smiley, nan, nan, nan J'suis pas des leurs, j'suis pas des leurs, Robert Marley Bobby, Bobby Comme never, comme never, comme jamais J'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais Comme never, comme never, comme jamais J'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais Ah ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ouais, ouais, ouais Dems5</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Feelin' love, feelin' love Feelin' love, still not sure, I have a girl Feelin' love, still not sure, Ouais, I have a girl J'frappe à la porte, celle du paradis mais c'est l'Diable qui répond Le cul en sang, j'suis v'nu par derrière pour reprendre les d'vants Un nud marin, bien mé-fer la corde à laquelle tu t'pends Beaucoup d'moyens mais plus aucun talent, y a qu'ton image qui vend Ça bi-bi des toplines à des gros rappeurs, je l'sais, faites pas semblant Toujours la guerre, un Glock vertical, la forme d'mon continent Si j'ai vu Dieu ? J'avoue, pas encore mais je n'cesse de prier Des millionnaires mais juste en avance, ne savent plus rembourser La grosse balayette, le g'nou à terre pour qu'tu te soumettes Ta montre est moins chère, ni or ni diam's, le poids d'ma gourmette Tout a un prix, même devenir père, ça s'appelle la pension Toujours en vie, maman, c'était ton heure, donc j'ai dû tuer l'temps Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée You might also like C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? Ouais, fuck ton cardio, gros, si j'te tabasse, ça traînera pas longtemps Jab, uppercut, si y a v'là l'esquive, le Glock s'ra dans mon camp J'aime quand j'traîne, quand j'croise mes gars sûrs qui m'parlent comme si c'tait hier J'aime quand j'saigne, car c'est par mes blessures que passe toute la lumière J'n'ai pas le temps, no time, j'suis plus dans la rue, les tits-pe détaillent Pute enneigée sur un rail, sniffent la neige à la paille, galère urbaine Faux négros manquent d'hygiène, toujours à squatter la gare, les huissiers à midi La daronne les fuyait, maintenant, notaires prennent en selfie, j'ouvre des SP sans faire de crédit Maintenant, notaires prennent en selfie, maintenant, les bourgmestres prennent en selfie Mais où est-c'qu'ils étaient quand j'voulais les papiers ? Ah, bah ouais J'ai dû les croire mais sans y croire, rouler des pétards dans les auditoires Sablier noir, de désespoir, dans la mémoire, de la gare à la gloire Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? Daronne apeurée Feelin' love, still not sure, I have a girl Feelin' love, still not sure, I have a girl Merci, merci Nwaar Batterie rechargée11</t>
+          <t>Feelin' love, feelin' love Feelin' love, still not sure, I have a girl Feelin' love, still not sure, Ouais, I have a girl J'frappe à la porte, celle du paradis mais c'est l'Diable qui répond Le cul en sang, j'suis v'nu par derrière pour reprendre les d'vants Un nud marin, bien mé-fer la corde à laquelle tu t'pends Beaucoup d'moyens mais plus aucun talent, y a qu'ton image qui vend Ça bi-bi des toplines à des gros rappeurs, je l'sais, faites pas semblant Toujours la guerre, un Glock vertical, la forme d'mon continent Si j'ai vu Dieu ? J'avoue, pas encore mais je n'cesse de prier Des millionnaires mais juste en avance, ne savent plus rembourser La grosse balayette, le g'nou à terre pour qu'tu te soumettes Ta montre est moins chère, ni or ni diam's, le poids d'ma gourmette Tout a un prix, même devenir père, ça s'appelle la pension Toujours en vie, maman, c'était ton heure, donc j'ai dû tuer l'temps Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? Ouais, fuck ton cardio, gros, si j'te tabasse, ça traînera pas longtemps Jab, uppercut, si y a v'là l'esquive, le Glock s'ra dans mon camp J'aime quand j'traîne, quand j'croise mes gars sûrs qui m'parlent comme si c'tait hier J'aime quand j'saigne, car c'est par mes blessures que passe toute la lumière J'n'ai pas le temps, no time, j'suis plus dans la rue, les tits-pe détaillent Pute enneigée sur un rail, sniffent la neige à la paille, galère urbaine Faux négros manquent d'hygiène, toujours à squatter la gare, les huissiers à midi La daronne les fuyait, maintenant, notaires prennent en selfie, j'ouvre des SP sans faire de crédit Maintenant, notaires prennent en selfie, maintenant, les bourgmestres prennent en selfie Mais où est-c'qu'ils étaient quand j'voulais les papiers ? Ah, bah ouais J'ai dû les croire mais sans y croire, rouler des pétards dans les auditoires Sablier noir, de désespoir, dans la mémoire, de la gare à la gloire Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? Daronne apeurée Feelin' love, still not sure, I have a girl Feelin' love, still not sure, I have a girl Merci, merci Nwaar Batterie rechargée11</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Perdu dans ma tête mais je pète les plombs, fais le BCBG mais j'ai baisé que des thons J'ai que bonasse, connasse, grognasse, pétasse, j'en passe, j'm'en lasse, putain, bref, ok laisse ber-tom Putain, je crane tous seul, parle tous seul, peu de monologues, poto d'homologues, j'ai peu de dialogue J'deviens de ceux qui s'en soucient, se saoulent seul, en plus de ça, je perds des sous Subitement, je subis tout, me ruine au subito, c'qui fait qu't'as mal quand t'évites ceux qui traînent trop J'suis paresseux, j'perds la raison et, ça, ça paraît fou parce que j'ai la tête du gars qui n'a pas ce genre de défaut Mais damn, ma vie bascule, du bonheur que quand j'éjacule, j'vais péter pendant ce son, je flatule Faut remettre les clics au-dessus des pendules, j'rêve de partir loin dans une capsule, hé Évidemment que j'manie le mic comme un pyromane, demande à my men, à chaque fois que j'les ken L'enfer se déchaîne, mes ennemis s'entraînent, voudraient que je saigne, remuent terre et ciel, mais bon j'ai des guns One again comme Hurricane, je les goume dès le premier round, le pe-ra me défoule mais souvent me saoule quand ça parle d'embrouilles Et de vos rappeurs brouillons qui n'ont aucune couille veulent parler de douilles mais crient Hallelujah quand ça part en couille Allez, fuckYou might also like4</t>
+          <t>Perdu dans ma tête mais je pète les plombs, fais le BCBG mais j'ai baisé que des thons J'ai que bonasse, connasse, grognasse, pétasse, j'en passe, j'm'en lasse, putain, bref, ok laisse ber-tom Putain, je crane tous seul, parle tous seul, peu de monologues, poto d'homologues, j'ai peu de dialogue J'deviens de ceux qui s'en soucient, se saoulent seul, en plus de ça, je perds des sous Subitement, je subis tout, me ruine au subito, c'qui fait qu't'as mal quand t'évites ceux qui traînent trop J'suis paresseux, j'perds la raison et, ça, ça paraît fou parce que j'ai la tête du gars qui n'a pas ce genre de défaut Mais damn, ma vie bascule, du bonheur que quand j'éjacule, j'vais péter pendant ce son, je flatule Faut remettre les clics au-dessus des pendules, j'rêve de partir loin dans une capsule, hé Évidemment que j'manie le mic comme un pyromane, demande à my men, à chaque fois que j'les ken L'enfer se déchaîne, mes ennemis s'entraînent, voudraient que je saigne, remuent terre et ciel, mais bon j'ai des guns One again comme Hurricane, je les goume dès le premier round, le pe-ra me défoule mais souvent me saoule quand ça parle d'embrouilles Et de vos rappeurs brouillons qui n'ont aucune couille veulent parler de douilles mais crient Hallelujah quand ça part en couille Allez, fuck4</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ouais Parler, cest penser tout bas oui Penser, cest parler tout haut oui Sans être entendu, prends mon dû par le rendu Touchera sur ce que jai vendu Dans le bendo, bédo fume sous les pleurs de la sono Récitant des gros mots, nique sa mère et cqui sen suit Aux radios, jamais je ne mendie non Comme avec policiers dans combi bah ouais Jparle et je crache ma haine bang Jparle et je crache ma haine saal Mieux vaut pas que jdécrive mon mollard oui Au daron, je nai pas fait honneur non Mes valeurs dans un coma bang Sréveiller que sur la scène saal Plus de souffle de vie Jpense que jnaurai plus jamais de condition humaine raah Album leaké, peu dsons clipés, des bagatelles bah ouais Des mères niquées, platine triplé Ainsi soient-elles bah ouais You might also like Tellement dennemis, tellement dennemis saal Nécoute pas cquils tont dit, jnécris que ce que je vis Tellement dennemis, tellement dennemis saal Ouais Jnécris que ce que je vis Ouais Jsuis un bandit car le non-dit, je dis Jsuis un bandit car je mendie le crime J'ai une haine de peine de mort et de vie Jmeurs denvie davoir besoin de rien Plus dhier aujourdhui, surtout demain Quelque part avec quelques parts De mes quelques pas sur le plus long des chemins Mal à méditer, je pense aux euros Jlai bien mérité, jsuis parti de rien De la vérité, je mens souvent trop De laltérité quand tout est commun Donne-moi ton cur et jte donnerai le mien Sauf quil est tout noir et quil touche à sa fin Dans les couloirs, jai côtoyé la mort ouais Heureusement pour moi, il ny avait plus dplace assise non Bicraveur notoire connait pas la crise non Ien-cli, pacson dans fermeture à coins hé Tellement dcannabis saal Tellement dcannabis, tellement dcannabis Jsais même plus quoi faire de mon joint ouais Tellement dennemis, tellement dennemis saal Ouais, jnécris que ce que je vis Dems C'est bon4</t>
+          <t>Ouais Parler, cest penser tout bas oui Penser, cest parler tout haut oui Sans être entendu, prends mon dû par le rendu Touchera sur ce que jai vendu Dans le bendo, bédo fume sous les pleurs de la sono Récitant des gros mots, nique sa mère et cqui sen suit Aux radios, jamais je ne mendie non Comme avec policiers dans combi bah ouais Jparle et je crache ma haine bang Jparle et je crache ma haine saal Mieux vaut pas que jdécrive mon mollard oui Au daron, je nai pas fait honneur non Mes valeurs dans un coma bang Sréveiller que sur la scène saal Plus de souffle de vie Jpense que jnaurai plus jamais de condition humaine raah Album leaké, peu dsons clipés, des bagatelles bah ouais Des mères niquées, platine triplé Ainsi soient-elles bah ouais Tellement dennemis, tellement dennemis saal Nécoute pas cquils tont dit, jnécris que ce que je vis Tellement dennemis, tellement dennemis saal Ouais Jnécris que ce que je vis Ouais Jsuis un bandit car le non-dit, je dis Jsuis un bandit car je mendie le crime J'ai une haine de peine de mort et de vie Jmeurs denvie davoir besoin de rien Plus dhier aujourdhui, surtout demain Quelque part avec quelques parts De mes quelques pas sur le plus long des chemins Mal à méditer, je pense aux euros Jlai bien mérité, jsuis parti de rien De la vérité, je mens souvent trop De laltérité quand tout est commun Donne-moi ton cur et jte donnerai le mien Sauf quil est tout noir et quil touche à sa fin Dans les couloirs, jai côtoyé la mort ouais Heureusement pour moi, il ny avait plus dplace assise non Bicraveur notoire connait pas la crise non Ien-cli, pacson dans fermeture à coins hé Tellement dcannabis saal Tellement dcannabis, tellement dcannabis Jsais même plus quoi faire de mon joint ouais Tellement dennemis, tellement dennemis saal Ouais, jnécris que ce que je vis Dems C'est bon4</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Demdemdemdem ohohh Ohhoo Ohhoo demdemdemdemdem ohohh Hey C'truc dans les veines depuis quelques années Yeah Fumer de l'herbe me fait plus trop planer Yeah Bourré, j'l'étais, j'n'ai pas fait c'qu'il fallait Bourré d'effets, d'excès de THC Goumer le mec, couché qu'j'viens d'tabasser Yeah Fumer de l'herbe ne sait plus trop m'calmer Yeah Aide ménagère, maman n'sait plus marcher Problèmes lombaires, papa n'sait plus marcher C'truc fout les nerfs depuis quelques années Yeah J'écris des vers car je n'sais plus parler Yeah Récits de chairs par lesquels j'suis passé Au cimetière, père va p't-être y aller J'peux tout faire sauf le laisser s'en aller Yeah J'ai tout fait dans sa gorge, elle s'étouffait Yeah En m'regardant lui dire de n'pas tousser J'suis un enculé, c'est pour ça que j'irai Aux paradis, dadiladili Aux paradis, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili You might also like Deux grammes, trois grammes, un joint d'beuh Deux femmes, trois femmes, une seule queue L'ivresse nous presse tard la night Oui Trois grammes, quatre grammes, un joint d'beuh Trois femmes, quatre femmes, une seule queue L'ivresse m'empresse tard la night Yeah Yeah, j'phone une Marie-couche-toi-là qui m'répond pas J'suis sur Paris, suce-moi la tu-sais-bien-quoi J'insulte ton répondeur, j'viens d'affoner mon verre J'veux tes rondeurs, j'ai d'jà pris mon kamagra Inconscient, ma conscience est euthanasiée Manque d'attention, ma semence est d'jà crachée Obsédé par c'que j'possède et possédais Les derniers seront les premiers, c'est pour ça que j'irai Aux paradis, dadiladili Aux paradis, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili3</t>
+          <t>Demdemdemdem ohohh Ohhoo Ohhoo demdemdemdemdem ohohh Hey C'truc dans les veines depuis quelques années Yeah Fumer de l'herbe me fait plus trop planer Yeah Bourré, j'l'étais, j'n'ai pas fait c'qu'il fallait Bourré d'effets, d'excès de THC Goumer le mec, couché qu'j'viens d'tabasser Yeah Fumer de l'herbe ne sait plus trop m'calmer Yeah Aide ménagère, maman n'sait plus marcher Problèmes lombaires, papa n'sait plus marcher C'truc fout les nerfs depuis quelques années Yeah J'écris des vers car je n'sais plus parler Yeah Récits de chairs par lesquels j'suis passé Au cimetière, père va p't-être y aller J'peux tout faire sauf le laisser s'en aller Yeah J'ai tout fait dans sa gorge, elle s'étouffait Yeah En m'regardant lui dire de n'pas tousser J'suis un enculé, c'est pour ça que j'irai Aux paradis, dadiladili Aux paradis, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili Deux grammes, trois grammes, un joint d'beuh Deux femmes, trois femmes, une seule queue L'ivresse nous presse tard la night Oui Trois grammes, quatre grammes, un joint d'beuh Trois femmes, quatre femmes, une seule queue L'ivresse m'empresse tard la night Yeah Yeah, j'phone une Marie-couche-toi-là qui m'répond pas J'suis sur Paris, suce-moi la tu-sais-bien-quoi J'insulte ton répondeur, j'viens d'affoner mon verre J'veux tes rondeurs, j'ai d'jà pris mon kamagra Inconscient, ma conscience est euthanasiée Manque d'attention, ma semence est d'jà crachée Obsédé par c'que j'possède et possédais Les derniers seront les premiers, c'est pour ça que j'irai Aux paradis, dadiladili Aux paradis, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili3</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Jusqu'ici, tout va bien, enfin, ça allait Confiante, t'as peur de rien avant de tomber On verra bien demain, mais ça, plus jamais J'ai pas l'air de m'en faire, mais si vous saviez Comment c'est dans ma tête, ça me fait vriller L'angoisse me fait la guerre et part en fumée Jour après jour, je m'habitue À mes ennemis qui me tuent Et j'apprendrai toutes les vertus Oh, jour après jour, je m'habitue Quand j'en attends trop, j'suis déçue Mais grâce à ça, moi, j'évolue Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom, eh-eh-eh Si la magie opère, tous, ils tomberont, eh Eh Comment faire pour tuer mes démons ? Tuer mes démons Mes démons Bah ouais, mes démons Bah, ok Mes démons Bah ouais, mes démons Bah, ok Mes démons Bah ouais, mes démons Bah, ok Mes démons Bang, ah bah ouais You might also like J'feat' avec Angèle, pas d'gros mots, radio, faut qu'on passe Ouais Au lieu d'un Nique ta- non, non, j'dirai Grand bien leur fasse Ouais Portefeuille achromate ne voit que violet, vert, ice Moula J'suis dans la zone Hey, rageux me suivent à la trace Comment faire pour tuer les haineux ? Juste en n'en parlant plus Nan Ces faux rappeurs, non, font moins de vues qu'j'ai d'albums vendus Très sincèrement, si je m'en vais, je n'reviendrai plus Ah oui B'soin d'explorer autre chose, me perdre dans le cosmos Ils parlèrent dans mon dos couvert de vêtements chers italiens Ah ouais Dans leur derrière, j'f'rai un don de quelques futurs homo sapiens Ah ouais J'suis l'avatar du game et j'maîtrise les quatre éléments j'rappe, je chante, j'produis, j'écris pour les gens, je sais comment faire pour tuer tes démons Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom, eh-eh-eh Si la magie opère, tous, ils tomberont, eh Eh Comment faire pour tuer mes démons ? Tuer mes démons Comment faire pour tuer mes démons ? Tes démons, tes démons Comme un ange en enfer, j'oublie mon nom, eh-eh-eh No, no Si la magie opère, tous, ils tomberont, eh Eh, ah bah ouais, ah bah ouais Comment faire pour tuer mes démons ? Tuer mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi, mes démons Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom Si la magie opère, tous, ils tomberont Comment faire pour tuer mes démons ? Tuer mes démons Hmm, hmm, hmm, hmm8</t>
+          <t>Jusqu'ici, tout va bien, enfin, ça allait Confiante, t'as peur de rien avant de tomber On verra bien demain, mais ça, plus jamais J'ai pas l'air de m'en faire, mais si vous saviez Comment c'est dans ma tête, ça me fait vriller L'angoisse me fait la guerre et part en fumée Jour après jour, je m'habitue À mes ennemis qui me tuent Et j'apprendrai toutes les vertus Oh, jour après jour, je m'habitue Quand j'en attends trop, j'suis déçue Mais grâce à ça, moi, j'évolue Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom, eh-eh-eh Si la magie opère, tous, ils tomberont, eh Eh Comment faire pour tuer mes démons ? Tuer mes démons Mes démons Bah ouais, mes démons Bah, ok Mes démons Bah ouais, mes démons Bah, ok Mes démons Bah ouais, mes démons Bah, ok Mes démons Bang, ah bah ouais J'feat' avec Angèle, pas d'gros mots, radio, faut qu'on passe Ouais Au lieu d'un Nique ta- non, non, j'dirai Grand bien leur fasse Ouais Portefeuille achromate ne voit que violet, vert, ice Moula J'suis dans la zone Hey, rageux me suivent à la trace Comment faire pour tuer les haineux ? Juste en n'en parlant plus Nan Ces faux rappeurs, non, font moins de vues qu'j'ai d'albums vendus Très sincèrement, si je m'en vais, je n'reviendrai plus Ah oui B'soin d'explorer autre chose, me perdre dans le cosmos Ils parlèrent dans mon dos couvert de vêtements chers italiens Ah ouais Dans leur derrière, j'f'rai un don de quelques futurs homo sapiens Ah ouais J'suis l'avatar du game et j'maîtrise les quatre éléments j'rappe, je chante, j'produis, j'écris pour les gens, je sais comment faire pour tuer tes démons Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom, eh-eh-eh Si la magie opère, tous, ils tomberont, eh Eh Comment faire pour tuer mes démons ? Tuer mes démons Comment faire pour tuer mes démons ? Tes démons, tes démons Comme un ange en enfer, j'oublie mon nom, eh-eh-eh No, no Si la magie opère, tous, ils tomberont, eh Eh, ah bah ouais, ah bah ouais Comment faire pour tuer mes démons ? Tuer mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi, mes démons Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom Si la magie opère, tous, ils tomberont Comment faire pour tuer mes démons ? Tuer mes démons Hmm, hmm, hmm, hmm8</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>À quoi ressemble le monde six pieds sous terre ? Une autre vie sans chair L'enfer est-il un vice ou une camisole ? De pensées similaire aux mauvais choix liés aux paraîtres Si je pars, autant disparaître pour l'éternité Enterré sous un glaire, dans les tréfonds de l'humanité Absence d'envie de plaire car le corps n'est plus valorisé Est-c'que c'est l'paradis ou juste un monde où on n'sait pas paniquer ? J'sais pas, rien à foutre car au fond, j's'rais jamais vérifié La nuit tombe, des gens meurent La prison des rancurs, l'embryon est en pleurs La raison est son cur La verdure est trop forte, la serrure est sans porte Au fond, c'est juste ma vérité ah ouais ? Des gens qui vivent, meurent sans le mériter ouais Dans un bâtiment, vue sur des grands bâtiments Achetant des p'tits bâtiments pour construire un grand bâtiment C'est ça la vie qu'on veut la vie de rêve, éternel châtiment J'suis tout seul dans ce monde et pourtant perpétuellement entouré Soliterrien, soliterrien, soliterrien Ils disent tous qu'y a d'la maille à s'faire, hein, maille à s'faire, hun, maille à s'faire hun Mais nique sa mère, j'fais c'que j'veux c'que j'veux Même si en vrai, j'sais pas c'que j'veux c'que j'veux J'suis dans les airs, pas dans les cieux oui J'vois en toi, pas dans tes yeux tes yeux Mais nique sa mère, moi, j'fais c'que j'veux Même si en vrai, j'sais pas c'que j'veux J'suis dans les airs, pas dans les cieux J'suis dans ta mère, droit dans les yeux You might also like Embouteillages entre ta chatte et moi, jaloux veulent pas qu'on fasse l'amou-ou-our J'te prends en trait d'union entre toi et moi toi et moi Dis-leurs que c'est chacun son tou-ou-our J'ai plus l'temps d'en avoir mais si on croisait nos parts, je parcours l'au delà Sans retours sur mes pages, je contourne le soi disant c'que je n'suis pas Prisonnier de mes peurs, mon subconscient se meurt, mon heure attend mon heure Ma sueur masque mes pleurs, ma bague croisera ton doigt J'sais pas si tu voudras encore de moi, si je pénètre d'autres plastiques Le mensonge n'est qu'une tactique car tes caprices rêvent de bad trip L'adultère n'est qu'une pratique disolation de la trique L'amour est un alambic, filtrant tous les non-dits Soliterrien, soliterrien, soliterrien Ils disent tous qu'y a d'la maille à s'faire hun, maille à s'faire hun, maille à s'faire hun Mais nique sa mère, j'fais c'que j'veux c'que j'veux Même si en vrai, j'sais pas c'que j'veux c'que j'veux J'suis dans les airs, pas dans les cieux oui J'vois en toi, pas dans tes yeux tes yeux Mais nique sa mère, moi, j'fais c'que j'veux Même si en vrai, j'sais pas c'que j'veux J'suis dans les airs, pas dans les cieux J'suis dans ta mère, droit dans les yeux Oui1</t>
+          <t>À quoi ressemble le monde six pieds sous terre ? Une autre vie sans chair L'enfer est-il un vice ou une camisole ? De pensées similaire aux mauvais choix liés aux paraîtres Si je pars, autant disparaître pour l'éternité Enterré sous un glaire, dans les tréfonds de l'humanité Absence d'envie de plaire car le corps n'est plus valorisé Est-c'que c'est l'paradis ou juste un monde où on n'sait pas paniquer ? J'sais pas, rien à foutre car au fond, j's'rais jamais vérifié La nuit tombe, des gens meurent La prison des rancurs, l'embryon est en pleurs La raison est son cur La verdure est trop forte, la serrure est sans porte Au fond, c'est juste ma vérité ah ouais ? Des gens qui vivent, meurent sans le mériter ouais Dans un bâtiment, vue sur des grands bâtiments Achetant des p'tits bâtiments pour construire un grand bâtiment C'est ça la vie qu'on veut la vie de rêve, éternel châtiment J'suis tout seul dans ce monde et pourtant perpétuellement entouré Soliterrien, soliterrien, soliterrien Ils disent tous qu'y a d'la maille à s'faire, hein, maille à s'faire, hun, maille à s'faire hun Mais nique sa mère, j'fais c'que j'veux c'que j'veux Même si en vrai, j'sais pas c'que j'veux c'que j'veux J'suis dans les airs, pas dans les cieux oui J'vois en toi, pas dans tes yeux tes yeux Mais nique sa mère, moi, j'fais c'que j'veux Même si en vrai, j'sais pas c'que j'veux J'suis dans les airs, pas dans les cieux J'suis dans ta mère, droit dans les yeux Embouteillages entre ta chatte et moi, jaloux veulent pas qu'on fasse l'amou-ou-our J'te prends en trait d'union entre toi et moi toi et moi Dis-leurs que c'est chacun son tou-ou-our J'ai plus l'temps d'en avoir mais si on croisait nos parts, je parcours l'au delà Sans retours sur mes pages, je contourne le soi disant c'que je n'suis pas Prisonnier de mes peurs, mon subconscient se meurt, mon heure attend mon heure Ma sueur masque mes pleurs, ma bague croisera ton doigt J'sais pas si tu voudras encore de moi, si je pénètre d'autres plastiques Le mensonge n'est qu'une tactique car tes caprices rêvent de bad trip L'adultère n'est qu'une pratique disolation de la trique L'amour est un alambic, filtrant tous les non-dits Soliterrien, soliterrien, soliterrien Ils disent tous qu'y a d'la maille à s'faire hun, maille à s'faire hun, maille à s'faire hun Mais nique sa mère, j'fais c'que j'veux c'que j'veux Même si en vrai, j'sais pas c'que j'veux c'que j'veux J'suis dans les airs, pas dans les cieux oui J'vois en toi, pas dans tes yeux tes yeux Mais nique sa mère, moi, j'fais c'que j'veux Même si en vrai, j'sais pas c'que j'veux J'suis dans les airs, pas dans les cieux J'suis dans ta mère, droit dans les yeux Oui1</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Love Sentimental Sentimental Yeah Han J'attends qu'il pleuve Que la pluie confonde tes larmes, mes sueurs quand tu parles de nous Yeah Tu fais la gueule Tu t'imaginais qu'un jour, bague en main, j'm'mettrais à genoux Supplie-moi, yeah Mais c'n'est pas si simple, l'amour On se l'dit tous les jours mais c'n'est pas vraiment vrai C'n'est pas si simple, l'amour On se l'dit tous les jours sans forcément s'aimer Sentimental Sentimental, yeah Sentimental, pourquoi c'est si dur de baiser sans s'faire de mal ? Sans s'faire de mal ? Aïe, aïe, aïe Aïe, aïe, aïe, yeah-eh-eh Yeah You might also like Love Oh oui, qu'est-c'j'en sais, moi, d'l'amour, sa mère ? Vingt-sept ans qu'j'tourne autour du soleil, pourtant, j'n'ai toujours pas vu la lumière Cinq années qu'on fait qu'se dire Je t'aime, pourtant, toujours pas d'bague à l'annulaire Et puis on s'quitte pour une go Du bisou à la bise, des confidences à minuit, aux simples échanges parentaux Séparation Quitte-moi Et pour ceux qui se disent Oui devant la family puis divorcent pour pas grand-chose Précipitation Doucement Non, c'n'est pas si simple, l'amour No, no On se l'dit tous les jours mais c'n'est pas vraiment vrai Crois-moi Non, c'n'est pas si simple, l'amour No, nan, no On se l'dit tous les jours sans forcément s'aimer Quitte-moi Sentimental Aime-moi, eh, yeah, eh Sentimental, pourquoi c'est si dur, de baiser sans s'faire de mal ? Eh, eh, aime-moi, no, no Sans s'faire de mal ? Quitte-moi, eh, eh Aïe, aïe, aïe Eh, eh Aïe, aïe, aïe, yeah-eh-eh No, no Aïe, aïe, aïe Eh, eh Aïe, aïe, aïe, yeah-eh-eh No, no Yeah, love Eh, eh Sentimental Eh, eh, eh, no, no, no, eh, eh, eh1</t>
+          <t>Love Sentimental Sentimental Yeah Han J'attends qu'il pleuve Que la pluie confonde tes larmes, mes sueurs quand tu parles de nous Yeah Tu fais la gueule Tu t'imaginais qu'un jour, bague en main, j'm'mettrais à genoux Supplie-moi, yeah Mais c'n'est pas si simple, l'amour On se l'dit tous les jours mais c'n'est pas vraiment vrai C'n'est pas si simple, l'amour On se l'dit tous les jours sans forcément s'aimer Sentimental Sentimental, yeah Sentimental, pourquoi c'est si dur de baiser sans s'faire de mal ? Sans s'faire de mal ? Aïe, aïe, aïe Aïe, aïe, aïe, yeah-eh-eh Yeah Love Oh oui, qu'est-c'j'en sais, moi, d'l'amour, sa mère ? Vingt-sept ans qu'j'tourne autour du soleil, pourtant, j'n'ai toujours pas vu la lumière Cinq années qu'on fait qu'se dire Je t'aime, pourtant, toujours pas d'bague à l'annulaire Et puis on s'quitte pour une go Du bisou à la bise, des confidences à minuit, aux simples échanges parentaux Séparation Quitte-moi Et pour ceux qui se disent Oui devant la family puis divorcent pour pas grand-chose Précipitation Doucement Non, c'n'est pas si simple, l'amour No, no On se l'dit tous les jours mais c'n'est pas vraiment vrai Crois-moi Non, c'n'est pas si simple, l'amour No, nan, no On se l'dit tous les jours sans forcément s'aimer Quitte-moi Sentimental Aime-moi, eh, yeah, eh Sentimental, pourquoi c'est si dur, de baiser sans s'faire de mal ? Eh, eh, aime-moi, no, no Sans s'faire de mal ? Quitte-moi, eh, eh Aïe, aïe, aïe Eh, eh Aïe, aïe, aïe, yeah-eh-eh No, no Aïe, aïe, aïe Eh, eh Aïe, aïe, aïe, yeah-eh-eh No, no Yeah, love Eh, eh Sentimental Eh, eh, eh, no, no, no, eh, eh, eh1</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Hadouken Y a pas d'étrangers, y a juste des gens qui s'connaissent pas Et des gens qui s'connaissent qui sont comme des étrangers On a grandi comme au bled, nos parents, ils s'excusent pas quand ils ont tort, ils nous font à manger Tu voulais démarrer, j'voulais rapper ma vie, tu voulais t'évader, j'voulais la Ferrari J'suis devenu trop dangereux comme le vice de ma rue J'm'en vais pour mieux revenir comme le fils de Marie Alléluia Les p'tits savent même plus penser, comme si les études ça f'sait même plus manger Les thunes, ça m'fait même plus danser Bébé, les nudes ça m'fait même plus bander J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes Benz J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part Yeah-yeah, yeah-yeah, yeah-yeah J'avais des remords quand j'allais voir ailleurs Maintenant, j'ai même plus envie d'toi, j'veux même plus t'soulever J't'ai trompé, donc j'ai tort mais tu n'vois pas l'amour qu'j'avais pour toi avant qu'le temps passe qu'il s'mette à me l'enlever J'grille les feux, couvre-feu, deux heures du mat', complètement bourré J'cherche réconfort derrière un sous-vêtement J'ai du mal à le dire, parce que je t'aime plus qu'dans mes souvenirs L'amour est mort en laissant un testament You might also like J'ai baby mama, non J'dis pas qu't'es ma pute mais honnêtement, toi et moi, on n'f'ra pas d'enfants Parce qu'en cas de rupture, il s'ra élevé par autrui J'n'aurai pas la garde, j'devrai juste payer la pension J'connais d'jà la chanson J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes Benz J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part Seille-o, seille-o J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes Benz J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part Vingt milles lieues sous la mer comme si j'tais Ben Laden J'pense pas avec le cur, moi, j'pense avec la tête J'te trouve toujours belle mais juste moins qu'avant Les ignorants sont plus heureux que les savants Oh, oh-oh Ouh-ouh, ouh Oh, oh-oh Ouh, ouh Dormi, dormi Dormi, dormi, ça fait tellement longtemps qu'j'n'ai pas Dormi, dormi Ouh, ouh Personne n'est indispensable Non, personne n'est irremplaçable Personne n'est indispensable Ouh, ouh, personne n'est irremplaçable Oh Si t'as les mauvaises réponses c'est que t'as les mauvaises questions Seigneur, j'me rends même plus compte de mes mensonges Oh my God Mm, you know, I mean Tu ne veux pas changer les gens Tu veux juste changer ta façon de réagir face aux gens Et tout ira mieux6</t>
+          <t>Hadouken Y a pas d'étrangers, y a juste des gens qui s'connaissent pas Et des gens qui s'connaissent qui sont comme des étrangers On a grandi comme au bled, nos parents, ils s'excusent pas quand ils ont tort, ils nous font à manger Tu voulais démarrer, j'voulais rapper ma vie, tu voulais t'évader, j'voulais la Ferrari J'suis devenu trop dangereux comme le vice de ma rue J'm'en vais pour mieux revenir comme le fils de Marie Alléluia Les p'tits savent même plus penser, comme si les études ça f'sait même plus manger Les thunes, ça m'fait même plus danser Bébé, les nudes ça m'fait même plus bander J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes Benz J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part Yeah-yeah, yeah-yeah, yeah-yeah J'avais des remords quand j'allais voir ailleurs Maintenant, j'ai même plus envie d'toi, j'veux même plus t'soulever J't'ai trompé, donc j'ai tort mais tu n'vois pas l'amour qu'j'avais pour toi avant qu'le temps passe qu'il s'mette à me l'enlever J'grille les feux, couvre-feu, deux heures du mat', complètement bourré J'cherche réconfort derrière un sous-vêtement J'ai du mal à le dire, parce que je t'aime plus qu'dans mes souvenirs L'amour est mort en laissant un testament J'ai baby mama, non J'dis pas qu't'es ma pute mais honnêtement, toi et moi, on n'f'ra pas d'enfants Parce qu'en cas de rupture, il s'ra élevé par autrui J'n'aurai pas la garde, j'devrai juste payer la pension J'connais d'jà la chanson J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes Benz J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part Seille-o, seille-o J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes Benz J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part Vingt milles lieues sous la mer comme si j'tais Ben Laden J'pense pas avec le cur, moi, j'pense avec la tête J'te trouve toujours belle mais juste moins qu'avant Les ignorants sont plus heureux que les savants Oh, oh-oh Ouh-ouh, ouh Oh, oh-oh Ouh, ouh Dormi, dormi Dormi, dormi, ça fait tellement longtemps qu'j'n'ai pas Dormi, dormi Ouh, ouh Personne n'est indispensable Non, personne n'est irremplaçable Personne n'est indispensable Ouh, ouh, personne n'est irremplaçable Oh Si t'as les mauvaises réponses c'est que t'as les mauvaises questions Seigneur, j'me rends même plus compte de mes mensonges Oh my God Mm, you know, I mean Tu ne veux pas changer les gens Tu veux juste changer ta façon de réagir face aux gens Et tout ira mieux6</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sale Ouais L'alcool brun ne m'fait plus rien, la be-her ne fait plus effet Son vagin ne m'fait plus rien, son derrière ne fait plus effet Oh, j'suis si triste, j'ressens plus grand chose quand tu m'suces la bite Oh, j'suis si triste, j'ressens plus grand chose même quand je gicle J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais L'avenir appartient à Dieu, celui qui se lève tôt, c'est son problème Cur embouteillé, j'ai dème, j'ai plus trop le temps pour les Je t'aime Mon cur est hermétique, pas de filtre, j'récupère et tout ce que j'mérite J'lâche un rictus pendant le feat', l'objectif, c'est la SACEM des Beatles J'laisse des vu à des go plus fraîches que celles qui m'en mettaient à l'époque, à vrai dire, j'ai plus du double dans les poches Putain, quelle époque, j'sais qu'y a quelques faux négros sur quelques tos-ph' T'as le prix de tout, la valeur de rien, elle sait c'quelle fait mais la putain fait sa conne Moi, j'allais en cours, j'm'en battais les reins, j'veux faire du rap, qu'est-ce que j'vais foutre à l'école ? J'vais te faire chialer, j'espère que tu n'm'en voudras pas Je n'm'en voudrai pas pour ma part, avec ton corps, j'fais bande à part Avoue-moi, avoue-moi, bébé, la vie, un trou noir, bébé Y a des gars sournois sûrement sur moi, j'y vais Ma vie ainsi no, ma vie au ciné' You might also like J'vais t'faire chialer Eh, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Oh, toutes les larmes de ton corps m'appartiennent désormais Et si on s'bourre juste un peu la gueule ? Qu'on oublie juste pour une fois Les Je t'aime, les On est en couple ? et les problèmes Faut pas toujours vouloir être la seule, faut qu'tu comprennes qu'on s'comprend pas Les prises de tête à cause de schnecks, l'enfer, c'est la vérité perçue trop tard J'te fais du tort sans le vouloir, j'ai la tromperie au bout des doigts Que mon sexe qui touchera l'fond si j'tombe amoureux d'toi Malheureusement, quel enfoiré, j'm'arrête jamais L'alcool brun ne m'fait plus rien Han, la be-her ne fait plus effet Son vagin ne m'fait plus rien Mmh, son derrière ne fait plus effet J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Mmh, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Mmh, toutes les larmes de ton corps m'appartiennent désormais8</t>
+          <t>Sale Ouais L'alcool brun ne m'fait plus rien, la be-her ne fait plus effet Son vagin ne m'fait plus rien, son derrière ne fait plus effet Oh, j'suis si triste, j'ressens plus grand chose quand tu m'suces la bite Oh, j'suis si triste, j'ressens plus grand chose même quand je gicle J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais L'avenir appartient à Dieu, celui qui se lève tôt, c'est son problème Cur embouteillé, j'ai dème, j'ai plus trop le temps pour les Je t'aime Mon cur est hermétique, pas de filtre, j'récupère et tout ce que j'mérite J'lâche un rictus pendant le feat', l'objectif, c'est la SACEM des Beatles J'laisse des vu à des go plus fraîches que celles qui m'en mettaient à l'époque, à vrai dire, j'ai plus du double dans les poches Putain, quelle époque, j'sais qu'y a quelques faux négros sur quelques tos-ph' T'as le prix de tout, la valeur de rien, elle sait c'quelle fait mais la putain fait sa conne Moi, j'allais en cours, j'm'en battais les reins, j'veux faire du rap, qu'est-ce que j'vais foutre à l'école ? J'vais te faire chialer, j'espère que tu n'm'en voudras pas Je n'm'en voudrai pas pour ma part, avec ton corps, j'fais bande à part Avoue-moi, avoue-moi, bébé, la vie, un trou noir, bébé Y a des gars sournois sûrement sur moi, j'y vais Ma vie ainsi no, ma vie au ciné' J'vais t'faire chialer Eh, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Oh, toutes les larmes de ton corps m'appartiennent désormais Et si on s'bourre juste un peu la gueule ? Qu'on oublie juste pour une fois Les Je t'aime, les On est en couple ? et les problèmes Faut pas toujours vouloir être la seule, faut qu'tu comprennes qu'on s'comprend pas Les prises de tête à cause de schnecks, l'enfer, c'est la vérité perçue trop tard J'te fais du tort sans le vouloir, j'ai la tromperie au bout des doigts Que mon sexe qui touchera l'fond si j'tombe amoureux d'toi Malheureusement, quel enfoiré, j'm'arrête jamais L'alcool brun ne m'fait plus rien Han, la be-her ne fait plus effet Son vagin ne m'fait plus rien Mmh, son derrière ne fait plus effet J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Mmh, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Mmh, toutes les larmes de ton corps m'appartiennent désormais8</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tout pour maman et l'love Tellement de blessures de guerre, tellement de blessures de père en fils J'en connaîtrai que le tiers, douleurs sous la lavallière te crispent De ta chair, t'as fait ma chair, de ma chair, j'ai fait ta chair, mon fiston J'ai peur de foutre la merde, de plus contrôler mes nerfs, je risque God Bless, Hamdoullah, merci, au nom du Père, du Fils Le négro est riche et populaire, en plus, il a pris rendez-vous au FISC Non, jamais je pleure, je cache mes peines, au fond, j'suis triste Dure est la vie dans le game, maman, je fume et je cède aux vices J'suis plus entièrement le même, je crache ma haine, tout l'temps Négro fushia la ramène en mauvaise haleine, doucement Grand-mère est partie, non, sans que je l'ai vue, je suis chagriné Je me rends compte que ma présence valait bien plus que mes billets Ouais Médecin dit C'est la fin, j'le traite de fils de putain, je m'affole Pété, j'sais plus trop quoi faire, j't'imagine six pieds sous terre, je frissonne Papa dit Ça va aller mais ses larmes ont déjà coulé aux urgences J'te dis À demain mais bon, dans ton regard, il n'y a plus de résistance Maman, I love you Eh, maman, I love you, love Love Maman, I love you, love Eh, maman, I love you, love Maman, I love you Eh, maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux Maman, I love you, love Eh, maman, I love you, love Love Maman, I love you, love Eh, maman, I love you, love Maman, I love you, love Eh, maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux You might also like J'sais pas pourquoi c'négro m'en veut Nan, nan Quand j'rate, il dit qu'c'est moi, quand j'réussis, il dit qu'c'est Dieu Oui Un million, deux, trois, j'aimerais t'revoir comme autrefois J'suis sur le trottoir, death, espérons qu'c'n'est pas trop tard Pourquoi tu pleures ? Nan, pourquoi tu pleures ? Nan, nan, nan T'inquiète pas pour nous, j'ai d'la moula jusqu'à j'sais pas Moi, à l'hôpital, j'ai vu des amis, t'en avais deux Maman, c'est chaud, tu t'oublies trop pour fils de putes qui n'pensent qu'à eux Le cur adamantin, travaille à temps plein de toi, c'est c'que je retiens Souffle te remplit de haine, journaliste dans le jeu, que dans la complainte Fuck ces gens, oui, j'ai la haine, ton enterrement, faut pas qu'ils viennent Allô ? Fiston ? C'est tantine, on s'connaît d'Adam mais plus dÈve Vilain changé devenu connu, c'était une grande chambre, pas une commune J'vous ai pas vu, non, non, non, pourtant, tout l'monde avait son num' Maintenant, ça crie Dieu soit loué, allez tous vous faire enculer J'te dis À demain aux urgences mais dans ton regard, il n'y a plus de résistance Maman, I love you Eh, Maman, I love you, love Love Maman, I love you, love Eh, Maman, I love you, love Maman, I love you Eh, Maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux Maman, I love you, love Eh, Maman, I love you, love Love Maman, I love you, love Eh, Maman, I love you, love Maman, I love you, love Eh, Maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux5</t>
+          <t>Tout pour maman et l'love Tellement de blessures de guerre, tellement de blessures de père en fils J'en connaîtrai que le tiers, douleurs sous la lavallière te crispent De ta chair, t'as fait ma chair, de ma chair, j'ai fait ta chair, mon fiston J'ai peur de foutre la merde, de plus contrôler mes nerfs, je risque God Bless, Hamdoullah, merci, au nom du Père, du Fils Le négro est riche et populaire, en plus, il a pris rendez-vous au FISC Non, jamais je pleure, je cache mes peines, au fond, j'suis triste Dure est la vie dans le game, maman, je fume et je cède aux vices J'suis plus entièrement le même, je crache ma haine, tout l'temps Négro fushia la ramène en mauvaise haleine, doucement Grand-mère est partie, non, sans que je l'ai vue, je suis chagriné Je me rends compte que ma présence valait bien plus que mes billets Ouais Médecin dit C'est la fin, j'le traite de fils de putain, je m'affole Pété, j'sais plus trop quoi faire, j't'imagine six pieds sous terre, je frissonne Papa dit Ça va aller mais ses larmes ont déjà coulé aux urgences J'te dis À demain mais bon, dans ton regard, il n'y a plus de résistance Maman, I love you Eh, maman, I love you, love Love Maman, I love you, love Eh, maman, I love you, love Maman, I love you Eh, maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux Maman, I love you, love Eh, maman, I love you, love Love Maman, I love you, love Eh, maman, I love you, love Maman, I love you, love Eh, maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux J'sais pas pourquoi c'négro m'en veut Nan, nan Quand j'rate, il dit qu'c'est moi, quand j'réussis, il dit qu'c'est Dieu Oui Un million, deux, trois, j'aimerais t'revoir comme autrefois J'suis sur le trottoir, death, espérons qu'c'n'est pas trop tard Pourquoi tu pleures ? Nan, pourquoi tu pleures ? Nan, nan, nan T'inquiète pas pour nous, j'ai d'la moula jusqu'à j'sais pas Moi, à l'hôpital, j'ai vu des amis, t'en avais deux Maman, c'est chaud, tu t'oublies trop pour fils de putes qui n'pensent qu'à eux Le cur adamantin, travaille à temps plein de toi, c'est c'que je retiens Souffle te remplit de haine, journaliste dans le jeu, que dans la complainte Fuck ces gens, oui, j'ai la haine, ton enterrement, faut pas qu'ils viennent Allô ? Fiston ? C'est tantine, on s'connaît d'Adam mais plus dÈve Vilain changé devenu connu, c'était une grande chambre, pas une commune J'vous ai pas vu, non, non, non, pourtant, tout l'monde avait son num' Maintenant, ça crie Dieu soit loué, allez tous vous faire enculer J'te dis À demain aux urgences mais dans ton regard, il n'y a plus de résistance Maman, I love you Eh, Maman, I love you, love Love Maman, I love you, love Eh, Maman, I love you, love Maman, I love you Eh, Maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux Maman, I love you, love Eh, Maman, I love you, love Love Maman, I love you, love Eh, Maman, I love you, love Maman, I love you, love Eh, Maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux5</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Batterie faible, veuillez la recharger Yo, Dems J'suis vraiment pété mon négro, j'suis trop défoncé-é J'ai juste assez d'monnaie pour baiser une prostituée-ée-ée J'm'en vais à rue d'Aerschot solo pour m'faire lécher les couilles lalilalala J'vais niquer sa mère, lui faire r'gretter son métier-er J'ressors de là, moitié à jeun plus rien dans les poches no Avec des souvenirs de moi et ma queue logée dans sa glotte, Dems J'n'ai rien fait de mal, j'suis qu'un jeune négro parmis les tox', oh Parait qu'ça vend de la came, ça fe-sni repu rails de coke Les ruelles ne vivent que de balivernes Trouvent leurs ambitions dans des sanitaires Normal que quand j'vise les cieux, dans les yeux on m'dit carrément Dems tu n'peux pas le faire Complètement félé donc j'réitère Mes rêves sont scellés par des faits divers Les haineux comme les fédéraux veulent ma peau car n'ont pas de flow C'est Damso OPG, le game nous appartient Belgium, t'inquiète, demain c'est nous demain c'est Genius League Ces fils de putain veulent pas qu'on sorte du trou Fuck Mélissa, Julie J'suis posé def' avec un G J'me tape un pure de kush OG Barroudeur vie et j'capte une pucelle que j'rêve de ken depuis You might also like Grosse bitch a grosse teub en bouche Donc plus rien à branler Plus rien à branler Grosse bitch a grosse teub en bouche Donc plus rien à branler Plus rien à branler Jeune youv' dans le hood et le mouv' Jeune youv' dans le hood et le mouv' Drogue douce de la Goose à la douze Drogue douce de la Goose à la douze Jeune youv' dans le hood et le mouv' Jeune youv' dans le hood et le mouv' Drogue douce de la Goose à la douze Drogue douce de la Goose à la douze Yeah yeah, ooh ooh oow Jeune youv' dans le hood et le mouv' Yeah yeah, ooh ooh oow Drogue douce de la Goose à la douze J'suis vraiment pété ma négresse, j'suis défoncé, hey J'ai juste assez d'monnaie pour une douze et une gousse effritée Dans un gros sachet, j'suis ce gars suspect Que la police contrôle dans le quartier Comment changer ma mentalité ? Comment changer d'nationalité ? J'suis plus enflammé que Hallyday a l'idée Beuh de qualité, j'tire et j'inhale tout est validé Violent, brutal, une calamité J'suis entre briques et lapidé par une vie salement médiatisée, j'dois tiser Plus sobre depuis une éternité Déf' donc j'peux te dire d'aller t'faire niquer, t'faire niquer Seufs grosses est là prête tapiner pour d'la monnaie Crime maquillé, maquillé Pas d'sensualité, parti de rien, fait lunanimité Très loin des plateaux télés, gros j'viens fumer go pétée Solitaire attitré, j'me fais chier seul dans ce game Tout niquer jamais de chaîne, everyday j'pense à les ken Étriqué nage dans la haine Dems Batterie faible, veuillez la recharger Wooo, wooo, wooo Dems5</t>
+          <t>Batterie faible, veuillez la recharger Yo, Dems J'suis vraiment pété mon négro, j'suis trop défoncé-é J'ai juste assez d'monnaie pour baiser une prostituée-ée-ée J'm'en vais à rue d'Aerschot solo pour m'faire lécher les couilles lalilalala J'vais niquer sa mère, lui faire r'gretter son métier-er J'ressors de là, moitié à jeun plus rien dans les poches no Avec des souvenirs de moi et ma queue logée dans sa glotte, Dems J'n'ai rien fait de mal, j'suis qu'un jeune négro parmis les tox', oh Parait qu'ça vend de la came, ça fe-sni repu rails de coke Les ruelles ne vivent que de balivernes Trouvent leurs ambitions dans des sanitaires Normal que quand j'vise les cieux, dans les yeux on m'dit carrément Dems tu n'peux pas le faire Complètement félé donc j'réitère Mes rêves sont scellés par des faits divers Les haineux comme les fédéraux veulent ma peau car n'ont pas de flow C'est Damso OPG, le game nous appartient Belgium, t'inquiète, demain c'est nous demain c'est Genius League Ces fils de putain veulent pas qu'on sorte du trou Fuck Mélissa, Julie J'suis posé def' avec un G J'me tape un pure de kush OG Barroudeur vie et j'capte une pucelle que j'rêve de ken depuis Grosse bitch a grosse teub en bouche Donc plus rien à branler Plus rien à branler Grosse bitch a grosse teub en bouche Donc plus rien à branler Plus rien à branler Jeune youv' dans le hood et le mouv' Jeune youv' dans le hood et le mouv' Drogue douce de la Goose à la douze Drogue douce de la Goose à la douze Jeune youv' dans le hood et le mouv' Jeune youv' dans le hood et le mouv' Drogue douce de la Goose à la douze Drogue douce de la Goose à la douze Yeah yeah, ooh ooh oow Jeune youv' dans le hood et le mouv' Yeah yeah, ooh ooh oow Drogue douce de la Goose à la douze J'suis vraiment pété ma négresse, j'suis défoncé, hey J'ai juste assez d'monnaie pour une douze et une gousse effritée Dans un gros sachet, j'suis ce gars suspect Que la police contrôle dans le quartier Comment changer ma mentalité ? Comment changer d'nationalité ? J'suis plus enflammé que Hallyday a l'idée Beuh de qualité, j'tire et j'inhale tout est validé Violent, brutal, une calamité J'suis entre briques et lapidé par une vie salement médiatisée, j'dois tiser Plus sobre depuis une éternité Déf' donc j'peux te dire d'aller t'faire niquer, t'faire niquer Seufs grosses est là prête tapiner pour d'la monnaie Crime maquillé, maquillé Pas d'sensualité, parti de rien, fait lunanimité Très loin des plateaux télés, gros j'viens fumer go pétée Solitaire attitré, j'me fais chier seul dans ce game Tout niquer jamais de chaîne, everyday j'pense à les ken Étriqué nage dans la haine Dems Batterie faible, veuillez la recharger Wooo, wooo, wooo Dems5</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Money, money dans la pocket Flouze Oui Thug, bandit, tu connais nos vies, la rue, les profits, tout l'champ des possibles Jeune millionnaire, plus dans la bi'-bi', excellent noir comme Carter et Diddy Oui, oui Concert à Tunis, concert à Alger, j'fais l'tour du monde, juste en niquant des madres Oui Détails ont grossi, la street a changé, bonne qualité mais y finit par balancer J'aime pas la police, pour une seule raison, ils ont fait pleurer ma mère à la maison Pourquoi j'suis nerveux ? Pourquoi j'ai fumé ? Pourquoi ma vie devient celle que je voulais ? Stoner, j'défie marie-jeanne le soir, vivre ses rêves en enfer est un cauchemar Ouh Ils ont changé, veulent qu'on fasse semblant de rien, ils m'ont tendu, obligé d'rompre les liens Money, money dans la pocket Ah ouais ? Money, money dans la pocket Pocket, pocket Le flouze, flouze Eh Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés, pourtant, j'ai rien fait d'mauvais Hey Il m'faut ma dose, dose, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais You might also like Jamais Skrt Hey Yes Skrt Jamais, hey La guedro Nwaar Les réseaux font de nous des prisonniers du r'gard des autres et des évadés Du r'gard des fautes qu'on veut s'épargner, miroir de mots sont trop échangés, tiroir d'égo veut pas s'refermer Calbar en feu, remords reportés, sa mère, j'm'en veux de t'avoir démarré Parfois, c'est mieux d'pas tout réparer La mer en deux va s're-séparer, j'vais la fumer sans la détailler Persuadé d'tout niquer Money, money dans la pocket Ouh Money, money dans la pocket Pocket, pocket Le flouze, flouze Eh Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais, hey Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais, hey Ouh-ouh-ouh-ouh Dis-moi qu'c'est pas moi mais qu'c'est la vie que j'mène Dis-moi qu'c'est pas moi mais qu'c'est la vie que j'mène7</t>
+          <t>Money, money dans la pocket Flouze Oui Thug, bandit, tu connais nos vies, la rue, les profits, tout l'champ des possibles Jeune millionnaire, plus dans la bi'-bi', excellent noir comme Carter et Diddy Oui, oui Concert à Tunis, concert à Alger, j'fais l'tour du monde, juste en niquant des madres Oui Détails ont grossi, la street a changé, bonne qualité mais y finit par balancer J'aime pas la police, pour une seule raison, ils ont fait pleurer ma mère à la maison Pourquoi j'suis nerveux ? Pourquoi j'ai fumé ? Pourquoi ma vie devient celle que je voulais ? Stoner, j'défie marie-jeanne le soir, vivre ses rêves en enfer est un cauchemar Ouh Ils ont changé, veulent qu'on fasse semblant de rien, ils m'ont tendu, obligé d'rompre les liens Money, money dans la pocket Ah ouais ? Money, money dans la pocket Pocket, pocket Le flouze, flouze Eh Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés, pourtant, j'ai rien fait d'mauvais Hey Il m'faut ma dose, dose, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Jamais Skrt Hey Yes Skrt Jamais, hey La guedro Nwaar Les réseaux font de nous des prisonniers du r'gard des autres et des évadés Du r'gard des fautes qu'on veut s'épargner, miroir de mots sont trop échangés, tiroir d'égo veut pas s'refermer Calbar en feu, remords reportés, sa mère, j'm'en veux de t'avoir démarré Parfois, c'est mieux d'pas tout réparer La mer en deux va s're-séparer, j'vais la fumer sans la détailler Persuadé d'tout niquer Money, money dans la pocket Ouh Money, money dans la pocket Pocket, pocket Le flouze, flouze Eh Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais, hey Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais, hey Ouh-ouh-ouh-ouh Dis-moi qu'c'est pas moi mais qu'c'est la vie que j'mène Dis-moi qu'c'est pas moi mais qu'c'est la vie que j'mène7</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Oui La violence, eh Capitol, 92i, nouveau flow très noir Sale Sale, Dems Dems, Vie Vie, oui Oui Eh Eh Négros fragiles dans tes alliés, le poulet m'cuisine, j'le fais mariner Ouais Esthéticienne, j'connais l'métier Ouais scène de crime souvent maquillée Eh RDC, Sapologie Eh, sur la défensive comme un pont-levis Eh J'te mets dans l'boule pour te fortifier Oui, crie pas Au secours, y a pas de justicier Soit je rappe, soit je trap, soit j'sais pas c'que je fais Soit je braque, j'vends des pax dans des sachets de thé Un Tampax dans la chatte, pute n'a pas fait de blé Pas d'entracte dans le track, j'fais d'la saleté, eh Bang, bang J'veux tout dépenser, j'prends de court ton point G, porno très séquencé Sale Chez moi, tout est foncé, j'suis là pour défoncer tout le rap français Ouais Trente-quatre centimes, j'débutais en indé', t'es pas d'ma team si t'es pas d'TP Mazembé J'parle à la Lune comme Indochine, dans ma bulle, y a pas d'ocytocine No Je le strangule puis, j'attends qu'il meurt, négro, après, j'l'encule avec un taser, négro Elle tapine pour cinquante eu' l'heure, négro, dans la cabine, je n'fais pas d'erreur, négro Shh, shh Sur ses babines, y a blanche couleur, négro Eh, ma mélanine ne craint pas la douleur, négro Non Dans mes racines, y a tout Mayweather, négro Eh Amphétamine ne remplace jamais bon bédo, no Eh You might also like Schnecks de 'tasses dans mon iCloud Eh 'teille de Jack, mon seul alcool EH Sont pas de taille pour nouvel album comme Smeagol Gollum, Gollum Smeagol Gollum, Gollum, Smeagol Gollum, Gollum Sont pas de taille pour nouvel album comme Smeagol Gollum, Gollum Smeagol Gollum, Gollum, Smeagol Gollum, Gollum Sont pas de taille pour nouvel album comme Smeagol Dems Dems Vie Vie Batterie rechargée10</t>
+          <t>Oui La violence, eh Capitol, 92i, nouveau flow très noir Sale Sale, Dems Dems, Vie Vie, oui Oui Eh Eh Négros fragiles dans tes alliés, le poulet m'cuisine, j'le fais mariner Ouais Esthéticienne, j'connais l'métier Ouais scène de crime souvent maquillée Eh RDC, Sapologie Eh, sur la défensive comme un pont-levis Eh J'te mets dans l'boule pour te fortifier Oui, crie pas Au secours, y a pas de justicier Soit je rappe, soit je trap, soit j'sais pas c'que je fais Soit je braque, j'vends des pax dans des sachets de thé Un Tampax dans la chatte, pute n'a pas fait de blé Pas d'entracte dans le track, j'fais d'la saleté, eh Bang, bang J'veux tout dépenser, j'prends de court ton point G, porno très séquencé Sale Chez moi, tout est foncé, j'suis là pour défoncer tout le rap français Ouais Trente-quatre centimes, j'débutais en indé', t'es pas d'ma team si t'es pas d'TP Mazembé J'parle à la Lune comme Indochine, dans ma bulle, y a pas d'ocytocine No Je le strangule puis, j'attends qu'il meurt, négro, après, j'l'encule avec un taser, négro Elle tapine pour cinquante eu' l'heure, négro, dans la cabine, je n'fais pas d'erreur, négro Shh, shh Sur ses babines, y a blanche couleur, négro Eh, ma mélanine ne craint pas la douleur, négro Non Dans mes racines, y a tout Mayweather, négro Eh Amphétamine ne remplace jamais bon bédo, no Eh Schnecks de 'tasses dans mon iCloud Eh 'teille de Jack, mon seul alcool EH Sont pas de taille pour nouvel album comme Smeagol Gollum, Gollum Smeagol Gollum, Gollum, Smeagol Gollum, Gollum Sont pas de taille pour nouvel album comme Smeagol Gollum, Gollum Smeagol Gollum, Gollum, Smeagol Gollum, Gollum Sont pas de taille pour nouvel album comme Smeagol Dems Dems Vie Vie Batterie rechargée10</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Papa, je t'aime Oh, oh, c'est mignon Pardon, papa Ah-ah, c'est bien, Lior On va...On va l'appeler, hein ? Euh... j'vais essayer d'l'appeler mais il est occupé, hein Ouh, yeah Avant tout ça, j'tais bien mais j'regrette pas c'que j'ai Peut-être, un petit peu, tout quitter, vivre un peu Brr Moins en moins d'amitiés, pour plus de revenus Yeah Les bons moments sont rares dans la célébrité Avant tout ça, j'tais bien mais j'regrette pas c'que j'ai Eh Peut-être, un petit peu, tout quitter, vivre un peu Yeah Moins en moins d'amitiés, pour plus de revenus Eh Les bons moments sont rares dans la célébrité Ouh Oui, oui Yeah, yeah J'ai perdu sommeil Pa-pa-pa-pah, mes nuits se font le jour, mon train de vie dans les hôtels Et dire qu'avant, j'tais sur un banc, j'fumais des bédos Maintenant riche et parano, ouais, j'deviens méfiant quand j'la baise Elle tue ta carrière pour une photo dans ton sommeil Le succès n'est qu'un simple reflet, pas un modèle Emprisonné dans un selfie, idolâtré pour c'que j'suis Sans pour autant voir que ma vie n'est pas si jolie, c'pas un movie Solitude et lassitude en soirée mondaine Je ne crois plus au tribunal mais à la guerre, on n'change pas une équipe qui gagne sauf, quand elle perd Y a plus d'innocence, t'étais conscient, j't'ai fait confiance Malgré tensions, le bruit sourd du silencieux s'ra dans la tête You might also like Avant tout ça, j'tais bien Oui mais j'regrette pas c'que j'ai Peut-être, un petit peu, tout quitter, vivre un peu Moins en moins d'amitiés, pour plus de revenus Les bons moments sont rares Sale, dans la célébrité Nwaar Avant tout ça, j'tais bien, mais j'regrette pas c'que j'ai Peut-être, un petit peu Oui, tout quitter, vivre un peu Nwaar Moins en moins d'amitiés, pour plus de revenus Les bons moments sont rares dans la célébrité Sale C'est très bizarre quand tu d'viens plus riche que les gens On ne te voit plus que comme une solution Décolleté, matérialiste, névrosé au bord de la crise, endetté sans réelle prise de risque Perdu dans mes pensées, paralysé, j'encaisse J'prends la parole sur un disque Rosé dans le rre-vé, plongé dans la richesse, la célébrité n'a pas d'notice J'ai vu la Terre reprendre tous mes êtres chers, la mort a fait de moi son complice Coincé par la moula, pas le cur à la fête, j'pense pas qu'on est fait pour la vie Jamais rassasié, toujours retardé, je vis si tard que le jour me parut Si loin que j'oublie que je viens d'en bas comme un Néerlandais Le bruit des vagues me permet de fuir le monde le temps d'un verre Le seul prix de vivre ses rêves Avant tout ça j'tais bien, mais j'regrette pas c'que j'ai Peut-être un petit peu, tout quitter, vivre un peu Moins en moins d'amitiés, pour plus de revenus Les bons moments sont rares dans la célébrité Avant tout ça j'étais bien, mais je n'regrette pas c'que j'ai Peut-être un petit peu, tout quitter, vivre un peu Moins en moins d'amitiés Ah oui, pour plus de revenus Sale Les bons moments sont rares Dems dans la célébrité Oui, sale Ouais ORP, tu connais On va l'appeler, hein ? Sale Ah oui2</t>
+          <t>Papa, je t'aime Oh, oh, c'est mignon Pardon, papa Ah-ah, c'est bien, Lior On va...On va l'appeler, hein ? Euh... j'vais essayer d'l'appeler mais il est occupé, hein Ouh, yeah Avant tout ça, j'tais bien mais j'regrette pas c'que j'ai Peut-être, un petit peu, tout quitter, vivre un peu Brr Moins en moins d'amitiés, pour plus de revenus Yeah Les bons moments sont rares dans la célébrité Avant tout ça, j'tais bien mais j'regrette pas c'que j'ai Eh Peut-être, un petit peu, tout quitter, vivre un peu Yeah Moins en moins d'amitiés, pour plus de revenus Eh Les bons moments sont rares dans la célébrité Ouh Oui, oui Yeah, yeah J'ai perdu sommeil Pa-pa-pa-pah, mes nuits se font le jour, mon train de vie dans les hôtels Et dire qu'avant, j'tais sur un banc, j'fumais des bédos Maintenant riche et parano, ouais, j'deviens méfiant quand j'la baise Elle tue ta carrière pour une photo dans ton sommeil Le succès n'est qu'un simple reflet, pas un modèle Emprisonné dans un selfie, idolâtré pour c'que j'suis Sans pour autant voir que ma vie n'est pas si jolie, c'pas un movie Solitude et lassitude en soirée mondaine Je ne crois plus au tribunal mais à la guerre, on n'change pas une équipe qui gagne sauf, quand elle perd Y a plus d'innocence, t'étais conscient, j't'ai fait confiance Malgré tensions, le bruit sourd du silencieux s'ra dans la tête Avant tout ça, j'tais bien Oui mais j'regrette pas c'que j'ai Peut-être, un petit peu, tout quitter, vivre un peu Moins en moins d'amitiés, pour plus de revenus Les bons moments sont rares Sale, dans la célébrité Nwaar Avant tout ça, j'tais bien, mais j'regrette pas c'que j'ai Peut-être, un petit peu Oui, tout quitter, vivre un peu Nwaar Moins en moins d'amitiés, pour plus de revenus Les bons moments sont rares dans la célébrité Sale C'est très bizarre quand tu d'viens plus riche que les gens On ne te voit plus que comme une solution Décolleté, matérialiste, névrosé au bord de la crise, endetté sans réelle prise de risque Perdu dans mes pensées, paralysé, j'encaisse J'prends la parole sur un disque Rosé dans le rre-vé, plongé dans la richesse, la célébrité n'a pas d'notice J'ai vu la Terre reprendre tous mes êtres chers, la mort a fait de moi son complice Coincé par la moula, pas le cur à la fête, j'pense pas qu'on est fait pour la vie Jamais rassasié, toujours retardé, je vis si tard que le jour me parut Si loin que j'oublie que je viens d'en bas comme un Néerlandais Le bruit des vagues me permet de fuir le monde le temps d'un verre Le seul prix de vivre ses rêves Avant tout ça j'tais bien, mais j'regrette pas c'que j'ai Peut-être un petit peu, tout quitter, vivre un peu Moins en moins d'amitiés, pour plus de revenus Les bons moments sont rares dans la célébrité Avant tout ça j'étais bien, mais je n'regrette pas c'que j'ai Peut-être un petit peu, tout quitter, vivre un peu Moins en moins d'amitiés Ah oui, pour plus de revenus Sale Les bons moments sont rares Dems dans la célébrité Oui, sale Ouais ORP, tu connais On va l'appeler, hein ? Sale Ah oui2</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Stone de flanc, Hennessy Hennessy, Hennessy, Hennessy Stone de flanc, Hennessy, Hennessy, Hennessy Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night Caïpirinha, marijuana, fons-dé, Copa Caba', 'pa Cabana, olé Mal au cur, j'ai mal au cur, j'suis doré Baroudeur, j'suis baroudeur, j'suis bourré J'suis plus dans l'bendo, j'fais qu'd'la moula tard la night, olé Elle m'roule un bédo d'chez pas où là, ouais, j'suis high, ok Hennessy, Hennessy, Hennessy Stone de flanc, frénésie, frénésie, frénésie Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night, olé Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night, olé Caïpirinha, marijuana, fons-dé, Copa Caba', 'pa Cabana, olé Mal au cur, j'ai mal au cur, j'suis doré Baroudeur, j'suis baroudeur, j'suis bourré J'suis plus dans l'bendo, j'fais qu'd'la moula tard la night, olé Elle m'roule un bédo d'chez pas où là, ouais, j'suis high, ok You might also like Olé4</t>
+          <t>Stone de flanc, Hennessy Hennessy, Hennessy, Hennessy Stone de flanc, Hennessy, Hennessy, Hennessy Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night Caïpirinha, marijuana, fons-dé, Copa Caba', 'pa Cabana, olé Mal au cur, j'ai mal au cur, j'suis doré Baroudeur, j'suis baroudeur, j'suis bourré J'suis plus dans l'bendo, j'fais qu'd'la moula tard la night, olé Elle m'roule un bédo d'chez pas où là, ouais, j'suis high, ok Hennessy, Hennessy, Hennessy Stone de flanc, frénésie, frénésie, frénésie Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night, olé Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night, olé Caïpirinha, marijuana, fons-dé, Copa Caba', 'pa Cabana, olé Mal au cur, j'ai mal au cur, j'suis doré Baroudeur, j'suis baroudeur, j'suis bourré J'suis plus dans l'bendo, j'fais qu'd'la moula tard la night, olé Elle m'roule un bédo d'chez pas où là, ouais, j'suis high, ok Olé4</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Yo Ha, ha, ha Ok, ouais J'te préfère avec une balle dans la tête au moins j't'écouterai plus raconter ta vie Un col blanc veut pas dire qu't'es un mec bien des pédophiles s'cachent derrière l'eucharistie C'que j'aime chez la mort c'est qu'elle ment pas elle voit un truc qu'elle aime bien, elle prend et elle le rend pas Bav du crapaud atteignant colombe, les politiqus ont fini par faire du virus leur campagne J'rêve qu'j'suis Adam, qu'j'baise Ève dans un paradis où l'seul péché est d'manger un fruit Des millénaires plus tard, des Elon, des Bezos finissent par imposer leurs prix Faites de la place pour mon rap c'est tout droit, j'ai les partitions, des gyrophares et des sirènes Si j'baise une pute, est-ce que j'te trompe ou pas ? Mon âme est sincère mais mon corps est infidèle J'te f'rai un Vie même à deux doigts d'mourir, mon avenir n'a prévu aucun décès, gang J'suis tellement loin que même les bruits qui courent se sont arrêtés, Dems La voix de la sagesse est muette, elle parle en langage des signes Je distingue un majeur qui traverse un rond fait d'un pouce et d'un index qui s'agglutinent J'ai vu dans ton regard ce que les gens appellent Néant Un adieu à chaque au revoir Désolé du retard J'ai mis du temps dans les océans à noyer ton désespoir Les narines enflées par substance faisant ressurgir ce sentiment d'être une pute qui n'sait pas c'qu'elle fait sur le trottoir Il n'y a pas assez d'essence dans l'réservoir pour aller jusqu'au bout de tes peines car elles se cachent derrière ton miroir Vie You might also like Poésie, poésie, poésie, trou noir11</t>
+          <t>Yo Ha, ha, ha Ok, ouais J'te préfère avec une balle dans la tête au moins j't'écouterai plus raconter ta vie Un col blanc veut pas dire qu't'es un mec bien des pédophiles s'cachent derrière l'eucharistie C'que j'aime chez la mort c'est qu'elle ment pas elle voit un truc qu'elle aime bien, elle prend et elle le rend pas Bav du crapaud atteignant colombe, les politiqus ont fini par faire du virus leur campagne J'rêve qu'j'suis Adam, qu'j'baise Ève dans un paradis où l'seul péché est d'manger un fruit Des millénaires plus tard, des Elon, des Bezos finissent par imposer leurs prix Faites de la place pour mon rap c'est tout droit, j'ai les partitions, des gyrophares et des sirènes Si j'baise une pute, est-ce que j'te trompe ou pas ? Mon âme est sincère mais mon corps est infidèle J'te f'rai un Vie même à deux doigts d'mourir, mon avenir n'a prévu aucun décès, gang J'suis tellement loin que même les bruits qui courent se sont arrêtés, Dems La voix de la sagesse est muette, elle parle en langage des signes Je distingue un majeur qui traverse un rond fait d'un pouce et d'un index qui s'agglutinent J'ai vu dans ton regard ce que les gens appellent Néant Un adieu à chaque au revoir Désolé du retard J'ai mis du temps dans les océans à noyer ton désespoir Les narines enflées par substance faisant ressurgir ce sentiment d'être une pute qui n'sait pas c'qu'elle fait sur le trottoir Il n'y a pas assez d'essence dans l'réservoir pour aller jusqu'au bout de tes peines car elles se cachent derrière ton miroir Vie Poésie, poésie, poésie, trou noir11</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Nwaar Ah bah oui Ouais Sale, eh-eh Hey J'voyage rarement, j'regarde story, quelques biatchs pour m'évader Début d'soirée j'suis d'jà bourré, c'est p't-être pas ça la vie qu'j'voulais Mais j'fais des sous et d'la moula, donc ses lèvres me sucent à tout va Pas d'amour ici, j't'entretiens, j'te baise, c'est fifty-fifty, tu veux l'jet De Fendi, Gucci, attends qu'la SNEP me certifie Meilleure passion, pire des métiers, pas d'glaçons dans l'rre-ve, s'te plait L'alcool fait d'jà plus trop d'effet, l'alcool fait d'jà plus trop d'effet J'suis dans l'tiekson, fumant tout seul, j'prends mon pacson pour une boussole J'suis dans l'club, la pute me Snap en scred, pour gratter quelques j'aime, deux-trois retweets Mal à pris son pass, tire mon blaze comme mon jet, avide comme snitch Invincible car serein, un insigne, j'passe mon chemin, devant les flics La pute est londonienne, demande si j'parle anglais, j'dis Little, bitch Kalash remplace le tronc du sapin d'Noël, rien dans les mollets, tout dans la cervelle Bang, bang, j't'offre une place près de l'Éternel, sunday, sur l'Mont Vénus, je fais merveille All day, Sénégalais comme Cheikh, semi AK dans l'break Diamants de sang sur la Daytona, quand ça va pas j'fais des signes de croix Dems, Dems, Dems You might also like Okay, binks, binks, binks dans le tieks, tieks, tiekson Grrr, gros C4 dans le break Ta-ga-da Binks, binks, binks dans le tieks, tieks, tiekson Grrr, gros C4 dans le break Dans le hood, hood-hood-hood-hood Dans le hood, hood-hood-hood-hood Dans le hood, hood-hood-hood-hood Grrr, grrr, gros C4 dans le break Okay Nwaar Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nique sa grand-mère et sa mère aussi, fuck you pay me Tellement d'ennemis, j'suis au-dessus d'tout c'qui est nwaar et terni Dou-dou-dou Bentley berline, vroum-vroum vers la mort sans permis Police persiste, négro, dealeur, Audi RS6 J'suis un étranger, j'rentre pas chez moi, j'm'installe chez toi J'fais du she-ca, j'paie mes impôts, trente mille euros, tu profites d'mon bénéfice Viens qu'on s'termine, j'suis sous Dom Pér', gue-dro, Hennessy Pas de pré-requis, soit tu baises, soit tu baises aussi Fuck le rétro, j'avance tout droit, number uno avec mes droits Négro ficha, tricha, tout ça pour pouvoir gonfler les chiffres J'passe sur France 2, j'gagne les Victoires, j'nique des mères et des ménagères Producteur en indépendant Nwaar, nwaar, j'profite de mes bénéfices Nwaar, nwaar, nwaar, nwaar, nwaar Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey9</t>
+          <t>Nwaar Ah bah oui Ouais Sale, eh-eh Hey J'voyage rarement, j'regarde story, quelques biatchs pour m'évader Début d'soirée j'suis d'jà bourré, c'est p't-être pas ça la vie qu'j'voulais Mais j'fais des sous et d'la moula, donc ses lèvres me sucent à tout va Pas d'amour ici, j't'entretiens, j'te baise, c'est fifty-fifty, tu veux l'jet De Fendi, Gucci, attends qu'la SNEP me certifie Meilleure passion, pire des métiers, pas d'glaçons dans l'rre-ve, s'te plait L'alcool fait d'jà plus trop d'effet, l'alcool fait d'jà plus trop d'effet J'suis dans l'tiekson, fumant tout seul, j'prends mon pacson pour une boussole J'suis dans l'club, la pute me Snap en scred, pour gratter quelques j'aime, deux-trois retweets Mal à pris son pass, tire mon blaze comme mon jet, avide comme snitch Invincible car serein, un insigne, j'passe mon chemin, devant les flics La pute est londonienne, demande si j'parle anglais, j'dis Little, bitch Kalash remplace le tronc du sapin d'Noël, rien dans les mollets, tout dans la cervelle Bang, bang, j't'offre une place près de l'Éternel, sunday, sur l'Mont Vénus, je fais merveille All day, Sénégalais comme Cheikh, semi AK dans l'break Diamants de sang sur la Daytona, quand ça va pas j'fais des signes de croix Dems, Dems, Dems Okay, binks, binks, binks dans le tieks, tieks, tiekson Grrr, gros C4 dans le break Ta-ga-da Binks, binks, binks dans le tieks, tieks, tiekson Grrr, gros C4 dans le break Dans le hood, hood-hood-hood-hood Dans le hood, hood-hood-hood-hood Dans le hood, hood-hood-hood-hood Grrr, grrr, gros C4 dans le break Okay Nwaar Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nique sa grand-mère et sa mère aussi, fuck you pay me Tellement d'ennemis, j'suis au-dessus d'tout c'qui est nwaar et terni Dou-dou-dou Bentley berline, vroum-vroum vers la mort sans permis Police persiste, négro, dealeur, Audi RS6 J'suis un étranger, j'rentre pas chez moi, j'm'installe chez toi J'fais du she-ca, j'paie mes impôts, trente mille euros, tu profites d'mon bénéfice Viens qu'on s'termine, j'suis sous Dom Pér', gue-dro, Hennessy Pas de pré-requis, soit tu baises, soit tu baises aussi Fuck le rétro, j'avance tout droit, number uno avec mes droits Négro ficha, tricha, tout ça pour pouvoir gonfler les chiffres J'passe sur France 2, j'gagne les Victoires, j'nique des mères et des ménagères Producteur en indépendant Nwaar, nwaar, j'profite de mes bénéfices Nwaar, nwaar, nwaar, nwaar, nwaar Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey9</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Tout est possible avec un CEB Ouais Ouais, c'est bon Gangster arrête que si police l'arrête Oui On tire, on guette, on passe quelques barrettes Oui Suce-moi jusqu'à c'que blancheur apparaisse Sur l'poignet, le prix d'une McLaren d'occasion Ganglion enflammé, jamais ne s'arrête Oui Les va-et-vient, de beuh, de shit, de cyprine de chatte faisant que mouiller Pour moula, un vieux sachet d'cocaïn pas net Vierge Pétard, ds coups d'feu, gros, j'ai grandi avec Le mal-être manque de tendresse depuis qu'elle m'allaite Dans la mallette, j'ai gemmes, Million, G Oui Tout est possible avec un CEB, pas brillant j'étais unilingue Mais j'ai qu'une parole, c'est celle du canon, bang, bang Mouvement des phalanges, j'compte t'allonger Urinoir empeste l'alcool, la déf d'hier était dure Mes négros sur des tasses-pé ayant du mal à se ranger Toujours un sale nègre qu'ils pensent de moi, rien n'a changé À part ma conso' du dix grammes au 100 G' J'prends du recul et j'vis, confinement donc j'fais l'tri Entre fils de pute et tous ceux qui m'aiment pour ce que j'suis Dans le hood avec mon Hennessy, un quartier d'bourges J'bois en bas d'chez moi mais j'reste un étranger En bas d'chez moi mais j'reste un étranger En bas d'chez moi You might also like Wach sme3ti?! Sme3ti a zebbi wella la 3 snine a l9lawi w 7na kheddamine f had l'album W kangoulo ma ndiro ta 9elwa W bnadem baghi yherres, wella ma3rft ach baghi yekhtare3 Walakin aslan, lkhedma lm9owda hya li kathder machi bnadem Sel3a f adhésif bénef fel plateau Galbi datou l'mezzika w khellat l bba lbateau M3ani t9ila dagga fle7mi, w nta katgoulli tattoo Dakhel l'maine-do f yeddi marteau B9it ta 7e9e9t zamel boha dik 7elmetAdo Mes revenus ga3ma ghada gha f mes pétards Bo7di mssari tout mes gars, 3endna koulchi 7a9 fel gâteau Gdami kayen chi rwappa dayra grand écart Mor l'album li baghi ytgha anssift lih zebbi f papier cadeau F'rap marroki j'excelle Bdina b'ta 9elwa, zéro E, zero vu, zéro pixel Dorka ça fume la dose ta3 Meuda f azi9at BXL C'est Dems Dems, Double To men BNJ tal Ixelles Speed comme Dybala, RD Belvédère Hermano f derbi b ta chi CV daym Je défonce la gravité même sans la conso ça rap everyday Tema la qualité, ki bghiti ngoullik oui c'est ton CDD Bedav la qualité, ki bghiti ngoullik ouil ta CBD yah Sa7bi toute ma vida 3echtha ki chi mzayda Wast l comico, rah ga3ma ngoullik hedra zayda Ra wakha nbraki banka w nfout ga3 l'bleyda Ghatb9a tna3et fiya jara, w tgoulli yakma chi blédard Wakha étranger To ga3ma kis3a ta khayna Wast la Guala 7at lkwala l 9ahwiya wel bayda C'est BNJ The Vie Kinshasa Dar El Bayda We9ti ghali ga3ma ndey3o la ma kantch lfayda Oh yeah, yeah En bas de chez moi mais je reste un étranger Oh yeah, yeah En bas de chez moi mais je reste un étranger Oh yeah, yeah En bas de chez moi mais je reste un étranger Oh yeah, yeah En bas de chez moi mais je reste un étranger Eh!4</t>
+          <t>Tout est possible avec un CEB Ouais Ouais, c'est bon Gangster arrête que si police l'arrête Oui On tire, on guette, on passe quelques barrettes Oui Suce-moi jusqu'à c'que blancheur apparaisse Sur l'poignet, le prix d'une McLaren d'occasion Ganglion enflammé, jamais ne s'arrête Oui Les va-et-vient, de beuh, de shit, de cyprine de chatte faisant que mouiller Pour moula, un vieux sachet d'cocaïn pas net Vierge Pétard, ds coups d'feu, gros, j'ai grandi avec Le mal-être manque de tendresse depuis qu'elle m'allaite Dans la mallette, j'ai gemmes, Million, G Oui Tout est possible avec un CEB, pas brillant j'étais unilingue Mais j'ai qu'une parole, c'est celle du canon, bang, bang Mouvement des phalanges, j'compte t'allonger Urinoir empeste l'alcool, la déf d'hier était dure Mes négros sur des tasses-pé ayant du mal à se ranger Toujours un sale nègre qu'ils pensent de moi, rien n'a changé À part ma conso' du dix grammes au 100 G' J'prends du recul et j'vis, confinement donc j'fais l'tri Entre fils de pute et tous ceux qui m'aiment pour ce que j'suis Dans le hood avec mon Hennessy, un quartier d'bourges J'bois en bas d'chez moi mais j'reste un étranger En bas d'chez moi mais j'reste un étranger En bas d'chez moi Wach sme3ti?! Sme3ti a zebbi wella la 3 snine a l9lawi w 7na kheddamine f had l'album W kangoulo ma ndiro ta 9elwa W bnadem baghi yherres, wella ma3rft ach baghi yekhtare3 Walakin aslan, lkhedma lm9owda hya li kathder machi bnadem Sel3a f adhésif bénef fel plateau Galbi datou l'mezzika w khellat l bba lbateau M3ani t9ila dagga fle7mi, w nta katgoulli tattoo Dakhel l'maine-do f yeddi marteau B9it ta 7e9e9t zamel boha dik 7elmetAdo Mes revenus ga3ma ghada gha f mes pétards Bo7di mssari tout mes gars, 3endna koulchi 7a9 fel gâteau Gdami kayen chi rwappa dayra grand écart Mor l'album li baghi ytgha anssift lih zebbi f papier cadeau F'rap marroki j'excelle Bdina b'ta 9elwa, zéro E, zero vu, zéro pixel Dorka ça fume la dose ta3 Meuda f azi9at BXL C'est Dems Dems, Double To men BNJ tal Ixelles Speed comme Dybala, RD Belvédère Hermano f derbi b ta chi CV daym Je défonce la gravité même sans la conso ça rap everyday Tema la qualité, ki bghiti ngoullik oui c'est ton CDD Bedav la qualité, ki bghiti ngoullik ouil ta CBD yah Sa7bi toute ma vida 3echtha ki chi mzayda Wast l comico, rah ga3ma ngoullik hedra zayda Ra wakha nbraki banka w nfout ga3 l'bleyda Ghatb9a tna3et fiya jara, w tgoulli yakma chi blédard Wakha étranger To ga3ma kis3a ta khayna Wast la Guala 7at lkwala l 9ahwiya wel bayda C'est BNJ The Vie Kinshasa Dar El Bayda We9ti ghali ga3ma ndey3o la ma kantch lfayda Oh yeah, yeah En bas de chez moi mais je reste un étranger Oh yeah, yeah En bas de chez moi mais je reste un étranger Oh yeah, yeah En bas de chez moi mais je reste un étranger Oh yeah, yeah En bas de chez moi mais je reste un étranger Eh!4</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ouais, ouais Ouais, ouais Ouais, ouais Dems Pona níni ozo bwaka mauvais il ojalouser nga Nazali mwana na nzambe loin de haine et vanité Ko tsia ba kales te, puissance céleste vaincra toujours Motema sans rature, malgré tant d'adversité Soldat na Yahwé eh Jamais ba vaincra Mwana mbóka, jamais dans les sentiments, ba yuma, ba vagabonds Président charlatan, bazo bebisa continent fort Pona níni, yeah Juste pour l'argent Yeah, yeah, yeah Pona níni, yeah Juste pour l'argent Yeah, yeah, yeah J'ai un peu peur, j't'avoue Ok, j'm'attaque aux gros bonnets Ouais J'parle Bukavu, Kivu dans l'Est, la misère a charbonné C'est clair La galère a fait du chmin Ah ouais car hier a tué demain Dems Bédo dans l sang, négros dans les champs sont toujours à crever de faim Ah ouais Ici, pas de aïe, aïe car on tire dans la tête, c'est nwaar, c'est sale Rha On abuse du temps, ils abusent des femmes et j't'épargne de tous les détails Ce que j'ai vu dépasse les flammes, l'enfer a menti Du Alpha Blondy, j'écoute pas c'qu'on dit, j'observe la mer et ses vagues You might also like Pona níni, yeah Juste pour l'argent Yeah, yeah, yeah Pona níni, yeah Juste pour l'argent Juste pour l'argent yeah, yeah, yeah Makélélé, bazo sala La pauvreté, bazo tala Na lingaka te, nazo lela nase depuis kala Congo, Afrika, tout pour la moula Pour l'argent Pour l'argent3</t>
+          <t>Ouais, ouais Ouais, ouais Ouais, ouais Dems Pona níni ozo bwaka mauvais il ojalouser nga Nazali mwana na nzambe loin de haine et vanité Ko tsia ba kales te, puissance céleste vaincra toujours Motema sans rature, malgré tant d'adversité Soldat na Yahwé eh Jamais ba vaincra Mwana mbóka, jamais dans les sentiments, ba yuma, ba vagabonds Président charlatan, bazo bebisa continent fort Pona níni, yeah Juste pour l'argent Yeah, yeah, yeah Pona níni, yeah Juste pour l'argent Yeah, yeah, yeah J'ai un peu peur, j't'avoue Ok, j'm'attaque aux gros bonnets Ouais J'parle Bukavu, Kivu dans l'Est, la misère a charbonné C'est clair La galère a fait du chmin Ah ouais car hier a tué demain Dems Bédo dans l sang, négros dans les champs sont toujours à crever de faim Ah ouais Ici, pas de aïe, aïe car on tire dans la tête, c'est nwaar, c'est sale Rha On abuse du temps, ils abusent des femmes et j't'épargne de tous les détails Ce que j'ai vu dépasse les flammes, l'enfer a menti Du Alpha Blondy, j'écoute pas c'qu'on dit, j'observe la mer et ses vagues Pona níni, yeah Juste pour l'argent Yeah, yeah, yeah Pona níni, yeah Juste pour l'argent Juste pour l'argent yeah, yeah, yeah Makélélé, bazo sala La pauvreté, bazo tala Na lingaka te, nazo lela nase depuis kala Congo, Afrika, tout pour la moula Pour l'argent Pour l'argent3</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Hypnotic Tout l'monde veut être calife à la place du calife calife, but en or, jme qualif' Obligé d'faire deux fois plus que les autres hey, cest le quotidien d'ma ie-v Sais-tu pourquoi le monde part en couilles hey ? On partage la haine, pas l'amour l'amour Pourquoi on censure Dieudonné mais on laisse parler Eric Zemmour ? J'vois que des policiers analphabètes suivre nos quotidiens à la lettre Ton meilleur pote, c'est un gros mytho pour te convaincre, il jure sur la Mecque La rareté est une richesse woaw, tu savais pas, je t'informe hey Ils s'moquent de mon albinisme hey mais cest ça qui fait ma force Moi, jsuis un de-zé, déter' et fier comme un DZ gang Chez nous, on nest pas privés d'dessert Que des coups d'ceinture fort, bien sûr, j'vais pas tfaire de dessin C'est Dieu qui décide le jour où tu décèdes Moi, j'y pense à chaque instant, nos ancêtres dans les champs d'coton Bien sûr que j'suis pas content ta-ta-ta, mon pays s'fait tuer à cause du coltan Tout l'monde veut être calife à la place du calife calife, but en or, j'me qualif' Obligé d'faire deux fois plus que les autres hey, c'est le quotidien d'ma ie-v Sais-tu pourquoi le monde part en couilles hey ? On partage la haine, pas l'amour l'amour Pourquoi on censure Dieudonné mais on laisse parler Eric Zemmour ? J'vois que des policiers analphabètes suivre nos quotidiens à la lettre Ton meilleur pote, c'est un gros mytho pour te convaincre, il jure sur la Mecque La rareté est une richesse woaw, tu savais pas, je t'informe vie Ils s'moquent de mon albinisme vie mais c'est ça qui fait ma force Ouh You might also like Kalash Crimi', Dems, du sale avec ou sans mélanine, ah, ah Mon cur timide saigne, j'ai mal, ma douleur en quelques lignes, ah, ah Rebelle armé tâche mes souvenirs, résidus de balle perforant les murs Ces jours sinistres violent des âmes, sont perdus dans champs de mines, ah, ah Piou, ratatata, bang, welcome to the jungle eh On est passés du black power au black, black lives matter ouh Pourquoi tu cries à l'aide ? Africain jamais ne te prosterne, non non Debout, qui nous arrêtera ? Montre-moi qu'une lettre au roi, bah oui bah oui, les colonies nous ont sali sali Les missionnaires nous ont promis promis que l'or vaudrait moins que nos vies nos vies Douze millions de morts plus tard, on parle de dettes et de crédits crédits Mains d'Anvers, quelques têtes de négros, zoo humain, avril 58 oh lala Tout l'monde veut être calife à la place du calife calife, but en or sale, j'me qualif' Obligé d'faire deux fois plus que les autres hey, c'est le quotidien d'ma ie-v Sais-tu pourquoi le monde part en couilles hey ? On partage la haine, pas l'amour l'amour Pourquoi on censure Dieudonné mais on laisse parler Eric Zemmour ? J'vois que des policiers analphabètes suivre nos quotidiens à la lettre Ton meilleur pote, c'est un gros mytho pour te convaincre, il jure sur la Mecque La rareté est une richesse woaw, tu savais pas, je t'informe hey Ils s'moquent de mon albinisme hey mais c'est ça qui fait ma force tatata4</t>
+          <t>Hypnotic Tout l'monde veut être calife à la place du calife calife, but en or, jme qualif' Obligé d'faire deux fois plus que les autres hey, cest le quotidien d'ma ie-v Sais-tu pourquoi le monde part en couilles hey ? On partage la haine, pas l'amour l'amour Pourquoi on censure Dieudonné mais on laisse parler Eric Zemmour ? J'vois que des policiers analphabètes suivre nos quotidiens à la lettre Ton meilleur pote, c'est un gros mytho pour te convaincre, il jure sur la Mecque La rareté est une richesse woaw, tu savais pas, je t'informe hey Ils s'moquent de mon albinisme hey mais cest ça qui fait ma force Moi, jsuis un de-zé, déter' et fier comme un DZ gang Chez nous, on nest pas privés d'dessert Que des coups d'ceinture fort, bien sûr, j'vais pas tfaire de dessin C'est Dieu qui décide le jour où tu décèdes Moi, j'y pense à chaque instant, nos ancêtres dans les champs d'coton Bien sûr que j'suis pas content ta-ta-ta, mon pays s'fait tuer à cause du coltan Tout l'monde veut être calife à la place du calife calife, but en or, j'me qualif' Obligé d'faire deux fois plus que les autres hey, c'est le quotidien d'ma ie-v Sais-tu pourquoi le monde part en couilles hey ? On partage la haine, pas l'amour l'amour Pourquoi on censure Dieudonné mais on laisse parler Eric Zemmour ? J'vois que des policiers analphabètes suivre nos quotidiens à la lettre Ton meilleur pote, c'est un gros mytho pour te convaincre, il jure sur la Mecque La rareté est une richesse woaw, tu savais pas, je t'informe vie Ils s'moquent de mon albinisme vie mais c'est ça qui fait ma force Ouh Kalash Crimi', Dems, du sale avec ou sans mélanine, ah, ah Mon cur timide saigne, j'ai mal, ma douleur en quelques lignes, ah, ah Rebelle armé tâche mes souvenirs, résidus de balle perforant les murs Ces jours sinistres violent des âmes, sont perdus dans champs de mines, ah, ah Piou, ratatata, bang, welcome to the jungle eh On est passés du black power au black, black lives matter ouh Pourquoi tu cries à l'aide ? Africain jamais ne te prosterne, non non Debout, qui nous arrêtera ? Montre-moi qu'une lettre au roi, bah oui bah oui, les colonies nous ont sali sali Les missionnaires nous ont promis promis que l'or vaudrait moins que nos vies nos vies Douze millions de morts plus tard, on parle de dettes et de crédits crédits Mains d'Anvers, quelques têtes de négros, zoo humain, avril 58 oh lala Tout l'monde veut être calife à la place du calife calife, but en or sale, j'me qualif' Obligé d'faire deux fois plus que les autres hey, c'est le quotidien d'ma ie-v Sais-tu pourquoi le monde part en couilles hey ? On partage la haine, pas l'amour l'amour Pourquoi on censure Dieudonné mais on laisse parler Eric Zemmour ? J'vois que des policiers analphabètes suivre nos quotidiens à la lettre Ton meilleur pote, c'est un gros mytho pour te convaincre, il jure sur la Mecque La rareté est une richesse woaw, tu savais pas, je t'informe hey Ils s'moquent de mon albinisme hey mais c'est ça qui fait ma force tatata4</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>J'fais crier l'bordel dans le tunnel, j'ai dû couper les ponts, p'tit con On dit Sois proche de tes ennemis mais il faut garder les bons Piou, piou Je mets l'orgueil de côté, j'te parle bien pour le biz' Et même si j't'aime pas, j'ai passé l'âge C'est fini l'Covid, j'te fais la bise mais tu veux la baise J'ai pris des sous dans l'rap, j'en avais d'jà à la base, juste un peu moins J'te raconte c'qu'on vit, c'qu'on a vu d'nos yeux, t'es la victime, j'suis le témoin J'me repos pas sur la vérité même j'sais que j'ai l'choix Nwaar J'me rpose pas sur la pyramide, j'la fais tomber quand y a les keufs sur l'toit Dems C'est mon dernier feat d'l'année, p't-être de ma carrière donc j'suis un peu ému J'commence à capter qu'j'suis un ancien quand elle connait pas Limewire ou bien eMule Doucement, maman va pas s'en r'mettre, dix ans ferme, les bleus ont trouvé la planque Tu cherches un homme honnête ? Coupe-lui sa bite et sa langue OG, rappeur, un peu misandre, j'n'aime pas les hommes, mieux vaut les pendre K du Congo, faudrait le r'prendre, l'os d'Ishango, faudrait nous l'rendre Comme Ibrahim, j'connais les anges, j'connais les enjeux à long terme C'est vrai, tu vas vite mais c'est moi qui connais le chemin donc tu la fermes Champagne à deux mille euros, mets-en-moi cent, j'ai besoin de claquer Négro, ne fais pas le beau, t'es v'nu au monde que pour les papiers On t'a d'jà dit qu'elle était pas majeure Elle est pas majeure, majeure Beaucoup de pointeurs, beaucoup de grands rappeurs You might also like Vécu de criminel Nwaar, vis comme dans Many Men Saal J'suis passé des cassettes aux sques-di, j'ai fait la route sans les freins Ouais Vécu de criminel Nwaar, vis comme dans Many Men Saal On dit pas tout c'qu'on fait mais c'qu'on dit, on a bossé les reins Ouais Train de vie dramatique Nwaar, j'manie l'automatique Saal J'ai les mains sales, ma gueule, mais le sale, j'te le fais sans les hits Ok Train de vie dramatique Dems, j'manie l'automatique C'est carré On fait beaucoup de vert mais le vert, c'est comme la Kryptonite Beaucoup de kich' dans le sac, y a des baffes qui s'perdent car beaucoup de tartés Tu veux voir les défauts, enlève le parfum à celui qui est parfait La liasse a trop maigri, même si t'es l'frérot, j'vais re-ter-comp Parfois faut jouer le rôle du con pour tromper l'con qui croit que t'es con, carré Me raconte pas ce qu'ils ont dit, mais plutôt pourquoi ils étaient à l'aise quand ils l'ont dit Raconte pas c'qu'ils t'ont fait sans le contexte mais plutôt pourquoi ils te l'ont fait Dans l'coffre, y a un mec à rançonner, j'vis comme dans Many Men Dans l'coffre, trop d'fafs à additionner, j'vis comme dans Many Men Carré, carré, carré Vécu de criminel Nwaar, vis comme dans Many Men Saal J'suis passé des cassettes aux sques-di, j'ai fait la route sans les freins Vécu de criminel Nwaar, vis comme dans Many Men Saal On dit pas tout c'qu'on fait mais c'qu'on dit, on a bossé les reins Train de vie dramatique 'matique, j'manie l'automatique 'matique J'ai les mains sales, ma gueule, mais le sale j'te le fais sans les hits Sans les hits Train de vie dramatique 'matique, j'manie l'automatique 'matique On fait beaucoup de vert mais le vert c'est comme la Kryptonite 'onite1</t>
+          <t>J'fais crier l'bordel dans le tunnel, j'ai dû couper les ponts, p'tit con On dit Sois proche de tes ennemis mais il faut garder les bons Piou, piou Je mets l'orgueil de côté, j'te parle bien pour le biz' Et même si j't'aime pas, j'ai passé l'âge C'est fini l'Covid, j'te fais la bise mais tu veux la baise J'ai pris des sous dans l'rap, j'en avais d'jà à la base, juste un peu moins J'te raconte c'qu'on vit, c'qu'on a vu d'nos yeux, t'es la victime, j'suis le témoin J'me repos pas sur la vérité même j'sais que j'ai l'choix Nwaar J'me rpose pas sur la pyramide, j'la fais tomber quand y a les keufs sur l'toit Dems C'est mon dernier feat d'l'année, p't-être de ma carrière donc j'suis un peu ému J'commence à capter qu'j'suis un ancien quand elle connait pas Limewire ou bien eMule Doucement, maman va pas s'en r'mettre, dix ans ferme, les bleus ont trouvé la planque Tu cherches un homme honnête ? Coupe-lui sa bite et sa langue OG, rappeur, un peu misandre, j'n'aime pas les hommes, mieux vaut les pendre K du Congo, faudrait le r'prendre, l'os d'Ishango, faudrait nous l'rendre Comme Ibrahim, j'connais les anges, j'connais les enjeux à long terme C'est vrai, tu vas vite mais c'est moi qui connais le chemin donc tu la fermes Champagne à deux mille euros, mets-en-moi cent, j'ai besoin de claquer Négro, ne fais pas le beau, t'es v'nu au monde que pour les papiers On t'a d'jà dit qu'elle était pas majeure Elle est pas majeure, majeure Beaucoup de pointeurs, beaucoup de grands rappeurs Vécu de criminel Nwaar, vis comme dans Many Men Saal J'suis passé des cassettes aux sques-di, j'ai fait la route sans les freins Ouais Vécu de criminel Nwaar, vis comme dans Many Men Saal On dit pas tout c'qu'on fait mais c'qu'on dit, on a bossé les reins Ouais Train de vie dramatique Nwaar, j'manie l'automatique Saal J'ai les mains sales, ma gueule, mais le sale, j'te le fais sans les hits Ok Train de vie dramatique Dems, j'manie l'automatique C'est carré On fait beaucoup de vert mais le vert, c'est comme la Kryptonite Beaucoup de kich' dans le sac, y a des baffes qui s'perdent car beaucoup de tartés Tu veux voir les défauts, enlève le parfum à celui qui est parfait La liasse a trop maigri, même si t'es l'frérot, j'vais re-ter-comp Parfois faut jouer le rôle du con pour tromper l'con qui croit que t'es con, carré Me raconte pas ce qu'ils ont dit, mais plutôt pourquoi ils étaient à l'aise quand ils l'ont dit Raconte pas c'qu'ils t'ont fait sans le contexte mais plutôt pourquoi ils te l'ont fait Dans l'coffre, y a un mec à rançonner, j'vis comme dans Many Men Dans l'coffre, trop d'fafs à additionner, j'vis comme dans Many Men Carré, carré, carré Vécu de criminel Nwaar, vis comme dans Many Men Saal J'suis passé des cassettes aux sques-di, j'ai fait la route sans les freins Vécu de criminel Nwaar, vis comme dans Many Men Saal On dit pas tout c'qu'on fait mais c'qu'on dit, on a bossé les reins Train de vie dramatique 'matique, j'manie l'automatique 'matique J'ai les mains sales, ma gueule, mais le sale j'te le fais sans les hits Sans les hits Train de vie dramatique 'matique, j'manie l'automatique 'matique On fait beaucoup de vert mais le vert c'est comme la Kryptonite 'onite1</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Viens on sort nous... Viens, on sort le Glock Viens, on sort le..., hey Viens, on sort le Glock, viens, on sort le Glock Viens, on sort le Glock, viens, on sort le... Viens, on sort le Glock, viens on sort de la cité On fait route vers la banque, où le coffret va sauter On n'a rien besoin d'autre, que toi et moi et nos idées On s'en vas, rien en poche et un chouya alcoolisés Les rêves grands comme le monde, seul le temps est limité Si tu en crois le cur, l'Afrique est à proximité On n'a rien besoin d'autre, que toi et moi et nos idées On n'a rien besoin d'autre, une clope au bec, j'suis motivée J'ai nouveaux bijoux, anneaux gris, métallisés Si ton corps est un musée, j'veux le visiter Dans niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé Jolie garce, tout est noir, Morray, c'est ça la vie Mets pas pied ici, négro, tu vas y perdre la vie Dans le niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé You might also like Tu fais bonhomme de neige, j'fais bonhomme de ch'min J'suis là pour vie en rose comme schnek de tchoin J'rentre de soirée bourré, fe-meu dis qu'j'sens la tte-ch', j'suis en Marge Simpson comme ses veu-ch' Le joint est éteint comme négro qu'j'viens d'allumer, le nizzo n'a pas fait long feu Les embrouilles sont fortes, les coups de couteau pas raffinés, les flinguer, c'est ça que l'on veut La vie est sombre et belle, plus caché, mieux tu vis Dans la pénombre, solo sans faire de bruit Suis-moi jusqu'au bout, fais comme mes ennemis Plus je côtoie la mort, plus j'ai des choses à vivre, ivre, la défonce me rend libre Plus j'côtoie la mort, plus j'me sens vivre Elle m'aime comme un keuf elle veut qu'j'me livre Damso J'ai nouveaux bijoux, anneaux gris métallisés Si ton corps est un musée, j'veux le visiter Dans niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé Jolie garce, tout est noir, Morray, c'est ça la vie Mets pas pied ici, négro, tu vas y perdre la vie Dans le niquage de mères négro, j'suis spécialisé Rate-pi validé, rate-pi validé J'ai perdu des proches, j'ai du mal à vivre Je noie mon chagrin Jack'zer, je finis ivre J'revends la pure comme à Caracas Ton boule est dur, tu fais trop de squats Négro validé, sans cesse dénigré Personne me pliera, fuck, j'ai hérité Ils font les riches, c'est des Rocancourt Y a que les riches au sommet d'la tour J'donne peu d'amour donc elle s'en alla Ne me donne pas ce que je n'rends pas Mon gilet pare-balles, c'est mon crew Fumée d'joint royal, je vois flou U tréma'zer, flow d'America Toutes mes putes'zer dansent le mapouka Mon gilet pare-balles, c'est mon crew Fumée d'joint royal, je vois flou J'ai nouveaux bijoux, anneaux gris métallisés Si ton corps est un musée, j'veux le visiter Dans niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé Jolie garce, tout est noir, Morray, c'est ça la vie Mets pas pied ici, négro, tu vas y perdre la vie Dans le niquage de mères négro, j'suis spécialisé Rate-pi validé, rate-pi validé Rate-pi validé, rate-pi validé Rate-pi validé, rate-pi validé Rate-pi validé, rate-pi validé4</t>
+          <t>Viens on sort nous... Viens, on sort le Glock Viens, on sort le..., hey Viens, on sort le Glock, viens, on sort le Glock Viens, on sort le Glock, viens, on sort le... Viens, on sort le Glock, viens on sort de la cité On fait route vers la banque, où le coffret va sauter On n'a rien besoin d'autre, que toi et moi et nos idées On s'en vas, rien en poche et un chouya alcoolisés Les rêves grands comme le monde, seul le temps est limité Si tu en crois le cur, l'Afrique est à proximité On n'a rien besoin d'autre, que toi et moi et nos idées On n'a rien besoin d'autre, une clope au bec, j'suis motivée J'ai nouveaux bijoux, anneaux gris, métallisés Si ton corps est un musée, j'veux le visiter Dans niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé Jolie garce, tout est noir, Morray, c'est ça la vie Mets pas pied ici, négro, tu vas y perdre la vie Dans le niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé Tu fais bonhomme de neige, j'fais bonhomme de ch'min J'suis là pour vie en rose comme schnek de tchoin J'rentre de soirée bourré, fe-meu dis qu'j'sens la tte-ch', j'suis en Marge Simpson comme ses veu-ch' Le joint est éteint comme négro qu'j'viens d'allumer, le nizzo n'a pas fait long feu Les embrouilles sont fortes, les coups de couteau pas raffinés, les flinguer, c'est ça que l'on veut La vie est sombre et belle, plus caché, mieux tu vis Dans la pénombre, solo sans faire de bruit Suis-moi jusqu'au bout, fais comme mes ennemis Plus je côtoie la mort, plus j'ai des choses à vivre, ivre, la défonce me rend libre Plus j'côtoie la mort, plus j'me sens vivre Elle m'aime comme un keuf elle veut qu'j'me livre Damso J'ai nouveaux bijoux, anneaux gris métallisés Si ton corps est un musée, j'veux le visiter Dans niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé Jolie garce, tout est noir, Morray, c'est ça la vie Mets pas pied ici, négro, tu vas y perdre la vie Dans le niquage de mères négro, j'suis spécialisé Rate-pi validé, rate-pi validé J'ai perdu des proches, j'ai du mal à vivre Je noie mon chagrin Jack'zer, je finis ivre J'revends la pure comme à Caracas Ton boule est dur, tu fais trop de squats Négro validé, sans cesse dénigré Personne me pliera, fuck, j'ai hérité Ils font les riches, c'est des Rocancourt Y a que les riches au sommet d'la tour J'donne peu d'amour donc elle s'en alla Ne me donne pas ce que je n'rends pas Mon gilet pare-balles, c'est mon crew Fumée d'joint royal, je vois flou U tréma'zer, flow d'America Toutes mes putes'zer dansent le mapouka Mon gilet pare-balles, c'est mon crew Fumée d'joint royal, je vois flou J'ai nouveaux bijoux, anneaux gris métallisés Si ton corps est un musée, j'veux le visiter Dans niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé Jolie garce, tout est noir, Morray, c'est ça la vie Mets pas pied ici, négro, tu vas y perdre la vie Dans le niquage de mères négro, j'suis spécialisé Rate-pi validé, rate-pi validé Rate-pi validé, rate-pi validé Rate-pi validé, rate-pi validé Rate-pi validé, rate-pi validé4</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ouh C'est l'heure Quelle heure il est ? L'heure de niquer des mères, oh ouais, ouais, ouais Ouch Cette vie sinon, quelle vie ? J'suis pas ton frère, boloss Cette vie sinon, quelle vie ? J'suis pas ton frère Oh non, t'es pas calibré T'as quoi contre moi à part une dent ? Mais j'te larrache, on fait plus semblant Solo, solo, en pleine famine, depuis qu'j'suis connu, j'ai d'la famille J'nique ta sur, j'suis en Many, elle tape trois fois sur le tatami Pas d'pute, plus de buts, coup franc sale, grosse lucarne à droite adieu l'ami T'es là, tu rigoles, souris bêtement, tu m'as check front contre front J'me sens bête subitement, j'suis fort absent à ton enterrement J'suis pas méchant, j'suis reconnaissant T'as même pas rien fait, t'as tout fait pour que j'fasse rien c'est différent, 'bécile You might also like Cette vie sinon, quelle vie ? J'suis pas ton frère, boloss Dems Ça parle beaucoup trop mais ça agit peu souvent Nwaar J'ai l'coup d'poing vitreux, quand j'te l'mets c'est contusion Sale J'aime pas tous ces négros qui parlent en Si si la family No Jamais, tu connais Oh oui Jamais, tu connais Oh oui J'aime pas tous ces négros qui parlent en Si si la family Moi non plus Hey The Vie sinon, quelle vie ? Dis-moi Loin des yeux, près de la chatte, séparée par bite endurcie T'avances, j'te ken, tu r'cules aussi, ça vient d'partout comme couteau suisse J'baise pas de bitch au gros following, compte certifié, j'prends pas d'risques J'fais des promesses que j'ne tiens pas, no, j'donne des R.D.V mais j'viens pas, no J'te mets des doigts mais j'te baise pas, no, en gros c'que j'aime, c'est que j't'aime pas, no J'parle de bite, de schneck, de pute que j'baise, de weed qui m'déf', m'en fou si t'aimes pas, no J'suis au studio avec Jowëll, j'cite son blase même si je sais que tu connais même pas, no On n'est pas cousins, ta daronne, j'l'appelle Tantine par respect pour la ronne-da, donc Fais pas genre Damso, c'est le sang, c'est la mif, c'est le... Eh, gros, on s'connait même pas, no Ta gueule Ça parle beaucoup trop mais ça agit peu souvent Nwaar J'ai l'coup d'poing vitreux, quand j'te l'mets c'est contusions Sale J'aime pas tous ces négros qui parlent en Si si la family No Jamais, tu connais Oh oui Jamais, tu connais Oh oui J'aime pas tous ces négros qui parlent en Si si la family Moi non plus Cette vie sinon, quelle vie ? J'suis pas ton frère, boloss Cette vie sinon, quelle vie ? J'suis pas ton frère Jamais, tu connais Jamais, 'bécile, Kalash, Dems Ouais, c'est correct Ouais, c'est bon Lior, salopes, moula, voici ce pourquoi je vis Je suis le fini dans l'infini Nwar À déplacer dans la version Demo2</t>
+          <t>Ouh C'est l'heure Quelle heure il est ? L'heure de niquer des mères, oh ouais, ouais, ouais Ouch Cette vie sinon, quelle vie ? J'suis pas ton frère, boloss Cette vie sinon, quelle vie ? J'suis pas ton frère Oh non, t'es pas calibré T'as quoi contre moi à part une dent ? Mais j'te larrache, on fait plus semblant Solo, solo, en pleine famine, depuis qu'j'suis connu, j'ai d'la famille J'nique ta sur, j'suis en Many, elle tape trois fois sur le tatami Pas d'pute, plus de buts, coup franc sale, grosse lucarne à droite adieu l'ami T'es là, tu rigoles, souris bêtement, tu m'as check front contre front J'me sens bête subitement, j'suis fort absent à ton enterrement J'suis pas méchant, j'suis reconnaissant T'as même pas rien fait, t'as tout fait pour que j'fasse rien c'est différent, 'bécile Cette vie sinon, quelle vie ? J'suis pas ton frère, boloss Dems Ça parle beaucoup trop mais ça agit peu souvent Nwaar J'ai l'coup d'poing vitreux, quand j'te l'mets c'est contusion Sale J'aime pas tous ces négros qui parlent en Si si la family No Jamais, tu connais Oh oui Jamais, tu connais Oh oui J'aime pas tous ces négros qui parlent en Si si la family Moi non plus Hey The Vie sinon, quelle vie ? Dis-moi Loin des yeux, près de la chatte, séparée par bite endurcie T'avances, j'te ken, tu r'cules aussi, ça vient d'partout comme couteau suisse J'baise pas de bitch au gros following, compte certifié, j'prends pas d'risques J'fais des promesses que j'ne tiens pas, no, j'donne des R.D.V mais j'viens pas, no J'te mets des doigts mais j'te baise pas, no, en gros c'que j'aime, c'est que j't'aime pas, no J'parle de bite, de schneck, de pute que j'baise, de weed qui m'déf', m'en fou si t'aimes pas, no J'suis au studio avec Jowëll, j'cite son blase même si je sais que tu connais même pas, no On n'est pas cousins, ta daronne, j'l'appelle Tantine par respect pour la ronne-da, donc Fais pas genre Damso, c'est le sang, c'est la mif, c'est le... Eh, gros, on s'connait même pas, no Ta gueule Ça parle beaucoup trop mais ça agit peu souvent Nwaar J'ai l'coup d'poing vitreux, quand j'te l'mets c'est contusions Sale J'aime pas tous ces négros qui parlent en Si si la family No Jamais, tu connais Oh oui Jamais, tu connais Oh oui J'aime pas tous ces négros qui parlent en Si si la family Moi non plus Cette vie sinon, quelle vie ? J'suis pas ton frère, boloss Cette vie sinon, quelle vie ? J'suis pas ton frère Jamais, tu connais Jamais, 'bécile, Kalash, Dems Ouais, c'est correct Ouais, c'est bon Lior, salopes, moula, voici ce pourquoi je vis Je suis le fini dans l'infini Nwar À déplacer dans la version Demo2</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Yeah Eh yo, eh yo, eh yo Damso Yeah Comment faire un tube ? Faut parler d'drogue, de sexe, de 'sky, de maille et de pute Prendre le flow de Migos, Versace, Versace, changer deux-trois trucs Ensuite, tu parles de la weed que tu n'vends pas, aussi, tu parles de la vie que tu n'vis pas Et puis, tu parles de gun, Kalash' et cetera, bref, comment faire un tube ? Il faut qu'tu tapes des flows, tu cliques le beat, débite sur le mic' s'il le faut Tu dédicaces ton crew mais pour ça, faut bien le faire Du genre Damso mothefucker, OPG, gangster Là, c'est bon, t'as le flow, t'as les rimes, t'as le thème Uh Tu parles de quoi ? Parle de putes que t'as ken, pas d'truc à l'ancienne en vrai Il faut que tu rappes sans thème, fais pas comme le Dems Choisis une prod juste pour les scènes avec des basses Ouais ouais, ça, c'est bon Et puis, tu rajoutes des claps, puis, tu rajoutes des hits dans le vide Tu kickes, on s'ambiance vite genre Elle sexcite seule avec mon sexe sensible Attends, je sais qu'je suis le seul à l'avoir extensible C'est le sept-cent-soixantième boule que j'kill J'suis un leader, meneur, winner, joueur, crowner, là, ouh C'est bon, la foule vient d'valider le son Il faut juste un peu varier le ton Enchaîner sur un flow qui fait dévier le fond, du genre Damso mothefucker, OPG game, igo Ra ta ta ta ta Qui m'aime me like me follow Ra ta ta ta ta Voilà, c'est bon, c'est bon Ouais, en fait, non, non, attends, là, maintenant, il faut encore le refrain Ouais tu rajoutes un vocodeur, tu parles de bitch, tu parles de c'que tu veux, tu vois ? Là, genre, y a des potes qui vont faire une soirée BSMNT Donc j'vais faire un refrain sur ça, tu, tinventes genre Maintenant, faut que tu mettes le vocodeur C'est bon, vas-y, teste un peu You might also like BSMNT, défoncé, j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT J'fais pleuvoir les loves à la BSMNT BSMNT, BSMNT, BSMNT Défoncé, j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT J'fais pleuvoir les loves à la BSMNT BSMNT, BSMNT, BSMNT Défoncé, j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT J'fais pleuvoir les loves à la BSMNT BSMNT, BSMNT, BSMNT Non, mais là, tu vois, maintenant, il t'faut un beat Qui va vraiment avec le thème, euh, du son pour le tube, tu vois donc il t'faut Voilà, ce genre de beat Donc tu r'prends le même délire où tu racontes n'importe quoi, mais avec, avec un flow Ouais, tu l'modifies vite fait et tu, tu, tu te laisses un peu dessus, tu tentraînes, du genre attend-ttends Yo, yeah, yo, eh yo BSMNT BSMNT, BSMNT, BSMNT J'défonce et j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT Mes yous-v', mes G J'fais pleuvoir les loves à la BSMNT La moula, la moula, ah oui Sky dans le verre, je fly à la BSMNT Gue-dro dans les veines, je crown à la BSMNT No no no no Sky dans le verre, je fly à la BSMNT Gue-dro dans les veines, je crown à la BSMNT Yo, défoncé, Gordon et bédo, c'est everyday De la beuh dans les ches-po, je suis def' de flow à laméricaine Un gros boule vient me check mais je nie cette salope, je l'avais déjà ken En plus j'ai la flemme, j'suis P2, j'suis à la traîne J'vois qu'la bitch se déchaîne, ses allures de chienne m'appellent pour une soirée mondaine à la BSMNT Mais j'suis bourré, j'suis bourré, j'suis def' avec Eddy Ape Voilà, c'est bon, t'as ton début d'tube, tu peux continuer, tu fais c'que tu veux Voilà, qui m'aime me like ou me follow, Damso motherfucker Dem's septembre QALF, yo OPG motherfuck'8</t>
+          <t>Yeah Eh yo, eh yo, eh yo Damso Yeah Comment faire un tube ? Faut parler d'drogue, de sexe, de 'sky, de maille et de pute Prendre le flow de Migos, Versace, Versace, changer deux-trois trucs Ensuite, tu parles de la weed que tu n'vends pas, aussi, tu parles de la vie que tu n'vis pas Et puis, tu parles de gun, Kalash' et cetera, bref, comment faire un tube ? Il faut qu'tu tapes des flows, tu cliques le beat, débite sur le mic' s'il le faut Tu dédicaces ton crew mais pour ça, faut bien le faire Du genre Damso mothefucker, OPG, gangster Là, c'est bon, t'as le flow, t'as les rimes, t'as le thème Uh Tu parles de quoi ? Parle de putes que t'as ken, pas d'truc à l'ancienne en vrai Il faut que tu rappes sans thème, fais pas comme le Dems Choisis une prod juste pour les scènes avec des basses Ouais ouais, ça, c'est bon Et puis, tu rajoutes des claps, puis, tu rajoutes des hits dans le vide Tu kickes, on s'ambiance vite genre Elle sexcite seule avec mon sexe sensible Attends, je sais qu'je suis le seul à l'avoir extensible C'est le sept-cent-soixantième boule que j'kill J'suis un leader, meneur, winner, joueur, crowner, là, ouh C'est bon, la foule vient d'valider le son Il faut juste un peu varier le ton Enchaîner sur un flow qui fait dévier le fond, du genre Damso mothefucker, OPG game, igo Ra ta ta ta ta Qui m'aime me like me follow Ra ta ta ta ta Voilà, c'est bon, c'est bon Ouais, en fait, non, non, attends, là, maintenant, il faut encore le refrain Ouais tu rajoutes un vocodeur, tu parles de bitch, tu parles de c'que tu veux, tu vois ? Là, genre, y a des potes qui vont faire une soirée BSMNT Donc j'vais faire un refrain sur ça, tu, tinventes genre Maintenant, faut que tu mettes le vocodeur C'est bon, vas-y, teste un peu BSMNT, défoncé, j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT J'fais pleuvoir les loves à la BSMNT BSMNT, BSMNT, BSMNT Défoncé, j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT J'fais pleuvoir les loves à la BSMNT BSMNT, BSMNT, BSMNT Défoncé, j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT J'fais pleuvoir les loves à la BSMNT BSMNT, BSMNT, BSMNT Non, mais là, tu vois, maintenant, il t'faut un beat Qui va vraiment avec le thème, euh, du son pour le tube, tu vois donc il t'faut Voilà, ce genre de beat Donc tu r'prends le même délire où tu racontes n'importe quoi, mais avec, avec un flow Ouais, tu l'modifies vite fait et tu, tu, tu te laisses un peu dessus, tu tentraînes, du genre attend-ttends Yo, yeah, yo, eh yo BSMNT BSMNT, BSMNT, BSMNT J'défonce et j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT Mes yous-v', mes G J'fais pleuvoir les loves à la BSMNT La moula, la moula, ah oui Sky dans le verre, je fly à la BSMNT Gue-dro dans les veines, je crown à la BSMNT No no no no Sky dans le verre, je fly à la BSMNT Gue-dro dans les veines, je crown à la BSMNT Yo, défoncé, Gordon et bédo, c'est everyday De la beuh dans les ches-po, je suis def' de flow à laméricaine Un gros boule vient me check mais je nie cette salope, je l'avais déjà ken En plus j'ai la flemme, j'suis P2, j'suis à la traîne J'vois qu'la bitch se déchaîne, ses allures de chienne m'appellent pour une soirée mondaine à la BSMNT Mais j'suis bourré, j'suis bourré, j'suis def' avec Eddy Ape Voilà, c'est bon, t'as ton début d'tube, tu peux continuer, tu fais c'que tu veux Voilà, qui m'aime me like ou me follow, Damso motherfucker Dem's septembre QALF, yo OPG motherfuck'8</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Jen veux toujours plus quil nen faut Je nai jamais tord, ya qula mort qui aura raison de moi On na pas lmême sort ma dit ldaron, fils, noublie pas qutes renoi Dans tous les cas jmen sors, iconoclaste comme Campanella Aéroport, recalé je fus, le douanier ma dit négro casse-toi dchez moi Pour percer jtla metrrai à lenvers, déso den arriver là Jtai baisé, tas avalé de travers, nest-cpas Marinella Tes soucis jmen soucie peu, jserai lking incessamment sous peu Dans quelques flows, voire un ou deux, si doit y avoir mort, yaura Jrêve denculer une Femen, cracher sur elle et ses principes Jack Daniels dans les sucs gastriques, sans glace ni cola Jdois faire la diff dans toutes mes lines, dans toute ma promo Qui maime me suive, qui maime me like, qui maime me follow Jsuis Poséidon, avec beaucoup plus de flow Quand il sagit de pognon, jen veux toujours plus quil nen faut Hugh Hefner jveux ta vieillesse, avec beaucoup plus de gos Quand il sagit de grosses fesses, jen veux toujours plus quil nen faut Pussy, money, weed, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla mula, jen veux toujours plus quil nen faut Des gros derrières de bitch, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla moula, jen veux toujours plus quil nen faut Toujours plus de seille-o, jen veux toujours plus quil nen faut Toujours plus de bédo, jen veux toujours plus quil nen faut Jdois faire la diff dans toutes mes lines, dans toute ma promo Qui maime me suive, qui maime me like, qui maime me follow You might also like Ils men veulent pour cque je vaux Ces négros nont pas le niveau Donc parlez pas de rivaux Jvis dans un pogo, jcheck des boules de plus en plus gros Comme un Murcielago, jtape dans lil, je vais vite Pourquoi tu flippes ? Quand tu las baisé négro, cétait déjà plus ma bitch, déjà plus ma bitch Son flow va dans tous les sens, ecrit-il en boustrophédon ? Si jrappe près dune pompe à essence, explosion sans précédent Derrière les barreaux, cest cque jrisque quand jvends dla shnouf en semaine Donc jme tiens à carreaux, comme la chemise de Snoop dans Whats My Name Damso OPG EGO, jai pas besoin dplus, juste deux-trois bitches en scred Si jrecommence à zéro, cest qulinfini nen vaut pas la peine Pas la peine, Damso Dems, la bitch veut qujla ken Jsors mon pistolet, doggy sur la chienne Jsuis Poséidon, avec beaucoup plus de flow Quand il sagit de pognon, jen veux toujours plus quil nen faut Hugh Hefner jveux ta vieillesse, avec beaucoup plus de gows Quand il sagit de grosses fesses, jen veux toujours plus quil nen faut Pussy, money, weed, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla mula, jen veux toujours plus quil nen faut Des gros derrières de bitch, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla mula, jen veux toujours plus quil nen faut Toujours plus de seille-o, jen veux toujours plus quil nen faut Toujours plus de bédo, jen veux toujours plus quil nen faut Jdois faire la diff dans toutes mes lines, dans toute ma promo Qui maime me suive, qui maime me like, qui maime me follow J'en veux toujours plus qu'il n'en faut J'en veux toujours plus qu'il n'en faut4</t>
+          <t>Jen veux toujours plus quil nen faut Je nai jamais tord, ya qula mort qui aura raison de moi On na pas lmême sort ma dit ldaron, fils, noublie pas qutes renoi Dans tous les cas jmen sors, iconoclaste comme Campanella Aéroport, recalé je fus, le douanier ma dit négro casse-toi dchez moi Pour percer jtla metrrai à lenvers, déso den arriver là Jtai baisé, tas avalé de travers, nest-cpas Marinella Tes soucis jmen soucie peu, jserai lking incessamment sous peu Dans quelques flows, voire un ou deux, si doit y avoir mort, yaura Jrêve denculer une Femen, cracher sur elle et ses principes Jack Daniels dans les sucs gastriques, sans glace ni cola Jdois faire la diff dans toutes mes lines, dans toute ma promo Qui maime me suive, qui maime me like, qui maime me follow Jsuis Poséidon, avec beaucoup plus de flow Quand il sagit de pognon, jen veux toujours plus quil nen faut Hugh Hefner jveux ta vieillesse, avec beaucoup plus de gos Quand il sagit de grosses fesses, jen veux toujours plus quil nen faut Pussy, money, weed, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla mula, jen veux toujours plus quil nen faut Des gros derrières de bitch, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla moula, jen veux toujours plus quil nen faut Toujours plus de seille-o, jen veux toujours plus quil nen faut Toujours plus de bédo, jen veux toujours plus quil nen faut Jdois faire la diff dans toutes mes lines, dans toute ma promo Qui maime me suive, qui maime me like, qui maime me follow Ils men veulent pour cque je vaux Ces négros nont pas le niveau Donc parlez pas de rivaux Jvis dans un pogo, jcheck des boules de plus en plus gros Comme un Murcielago, jtape dans lil, je vais vite Pourquoi tu flippes ? Quand tu las baisé négro, cétait déjà plus ma bitch, déjà plus ma bitch Son flow va dans tous les sens, ecrit-il en boustrophédon ? Si jrappe près dune pompe à essence, explosion sans précédent Derrière les barreaux, cest cque jrisque quand jvends dla shnouf en semaine Donc jme tiens à carreaux, comme la chemise de Snoop dans Whats My Name Damso OPG EGO, jai pas besoin dplus, juste deux-trois bitches en scred Si jrecommence à zéro, cest qulinfini nen vaut pas la peine Pas la peine, Damso Dems, la bitch veut qujla ken Jsors mon pistolet, doggy sur la chienne Jsuis Poséidon, avec beaucoup plus de flow Quand il sagit de pognon, jen veux toujours plus quil nen faut Hugh Hefner jveux ta vieillesse, avec beaucoup plus de gows Quand il sagit de grosses fesses, jen veux toujours plus quil nen faut Pussy, money, weed, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla mula, jen veux toujours plus quil nen faut Des gros derrières de bitch, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla mula, jen veux toujours plus quil nen faut Toujours plus de seille-o, jen veux toujours plus quil nen faut Toujours plus de bédo, jen veux toujours plus quil nen faut Jdois faire la diff dans toutes mes lines, dans toute ma promo Qui maime me suive, qui maime me like, qui maime me follow J'en veux toujours plus qu'il n'en faut J'en veux toujours plus qu'il n'en faut4</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Uh, check, uh Non, non, non, pas ça Non, non, non, pas ça Non, non, non, non, non, non, ooh yeah Non, non, non, non, non, non, ooh yeah Oh, oh-oh, oh, uh Fais ça bien, fais ça bien Fais ça bien, fais ça bien, fais ça bien Non, non, non, pas ça Non, non, non, non Non, non, ça ne passe pas Oh, oh, oh, oh S'il te plaît, chérie, pas comme ça Yeah Si tu veux de mon attention, fais-le bien Si tu veux de mes cadeaux, fais-le bien Je veux l'amour, le vrai, fais ça bien Woh Si tu veux me voir baver, fais ça bien Woah Na lela na nga yo Ok, Dieu, donne-moi plus de moula que j'ai tout pour éviter qu'la faucheuse me prenne de court J'ai un couteau en main, j'ai la rose dans le dos Que des fils de putains, là juste pour les sous Dans le binks, j'traîne, def' dans l'tieks, j'roule un pers', gros tir pour oublier la tour J'ai des millions d'euros pour des milliards de regrets Pour gagner ma vie, j'ai du perdre des res-frè Tellement de carats dans l'coffre à bijoux, j'ai des dizaines de loyers au poignet, je brille J'suis dans l'embarras, soit je prends un douze ou un cognac Hennessy de douze ans de vie J'ai changé, devenu méchant Ouais, j'suis le sixième élément de Luc Besson Dems J'embrasse le béton, mon amour est de pierre Eh J'arrache mes paupières, pour voir la lumière dans le bre-som Dems You might also like Non, non, non, pas ça Non, non, non, non Non, non, ça ne passe pas Oh, oh, oh, oh S'il te plaît, chérie, pas comme ça Yeah, eh Si tu veux de mon attention, fais-le bien Si tu veux de mes cadeaux, fais-le bien Je veux l'amour, le vrai, fais ça bien Woh Si tu veux me voir baver, fais ça bien Woh Na lela na nga yo Ha, mama Moto asala monde Ye pe moto asala amour S'il te plaît, mon bébé, montre-moi ton amour Ah Na za inondé, bolingo n'ô inondé nga Yaka pe na inonder yo yo, suka na ba inondations Vrah Liesa nga pondu ya limbondo Wouh Nga na yo to kende liboso Wouh Obimisi nga kati ya libulu To kende lifobo, liboso, lifobo, libo- Pasuka Non, non, non, pas ça Non, non Non, non, ça ne passe pas Non, ça n'passe pas S'il te plaît, chérie, pas comme ça Pas comme ça Si tu veux de mon attention, fais-le bien Si tu veux de mes cadeaux, fais-le bien Je veux l'amour, le vrai, fais ça bien Si tu veux me voir baver, fais ça bien Na lela na nga yo Fally Ipupa Dems Ce n'est pas ça Fais-le bien5</t>
+          <t>Uh, check, uh Non, non, non, pas ça Non, non, non, pas ça Non, non, non, non, non, non, ooh yeah Non, non, non, non, non, non, ooh yeah Oh, oh-oh, oh, uh Fais ça bien, fais ça bien Fais ça bien, fais ça bien, fais ça bien Non, non, non, pas ça Non, non, non, non Non, non, ça ne passe pas Oh, oh, oh, oh S'il te plaît, chérie, pas comme ça Yeah Si tu veux de mon attention, fais-le bien Si tu veux de mes cadeaux, fais-le bien Je veux l'amour, le vrai, fais ça bien Woh Si tu veux me voir baver, fais ça bien Woah Na lela na nga yo Ok, Dieu, donne-moi plus de moula que j'ai tout pour éviter qu'la faucheuse me prenne de court J'ai un couteau en main, j'ai la rose dans le dos Que des fils de putains, là juste pour les sous Dans le binks, j'traîne, def' dans l'tieks, j'roule un pers', gros tir pour oublier la tour J'ai des millions d'euros pour des milliards de regrets Pour gagner ma vie, j'ai du perdre des res-frè Tellement de carats dans l'coffre à bijoux, j'ai des dizaines de loyers au poignet, je brille J'suis dans l'embarras, soit je prends un douze ou un cognac Hennessy de douze ans de vie J'ai changé, devenu méchant Ouais, j'suis le sixième élément de Luc Besson Dems J'embrasse le béton, mon amour est de pierre Eh J'arrache mes paupières, pour voir la lumière dans le bre-som Dems Non, non, non, pas ça Non, non, non, non Non, non, ça ne passe pas Oh, oh, oh, oh S'il te plaît, chérie, pas comme ça Yeah, eh Si tu veux de mon attention, fais-le bien Si tu veux de mes cadeaux, fais-le bien Je veux l'amour, le vrai, fais ça bien Woh Si tu veux me voir baver, fais ça bien Woh Na lela na nga yo Ha, mama Moto asala monde Ye pe moto asala amour S'il te plaît, mon bébé, montre-moi ton amour Ah Na za inondé, bolingo n'ô inondé nga Yaka pe na inonder yo yo, suka na ba inondations Vrah Liesa nga pondu ya limbondo Wouh Nga na yo to kende liboso Wouh Obimisi nga kati ya libulu To kende lifobo, liboso, lifobo, libo- Pasuka Non, non, non, pas ça Non, non Non, non, ça ne passe pas Non, ça n'passe pas S'il te plaît, chérie, pas comme ça Pas comme ça Si tu veux de mon attention, fais-le bien Si tu veux de mes cadeaux, fais-le bien Je veux l'amour, le vrai, fais ça bien Si tu veux me voir baver, fais ça bien Na lela na nga yo Fally Ipupa Dems Ce n'est pas ça Fais-le bien5</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Yeah Rah Tout niquer tout niquer comme Gargamel j'ai un rêve bleu très particulier Broliquer broliquer dans ta rondelle comme un joint de beuh que j'suis prêt à fumer Tes négros sont des mannequins, très professionnels toujours prêts à se défiler Mon négro il n'en restera qu'un, rien de personnel le illeur-mé ma destinée T'as perdu tes couilles on t'voit plus T'as changé de métro prend plus le même chemin Y'a que des embrouilles dans l'actu J'suis l'bâtard, Jon Snow négro tu n'es que le nain Un cur d'ange dans un corps de pute, obligé que j'la baise, bitch biatch J'suis dans l'centre j'ai pas besoin d'nes-tu j'suis sur toutes les guest lists Dems Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferai bien plus que les autres Ces négros prennent nos flows, sont accusés de faux et usage de faux Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferais bien plus que les autres Ces négros prennent nos flows sont accusés de faux et usage de faux You might also like Dams Moins heureux, loin des leurs, la vie c'est jusqu'à la mort non c'est pas pour la vie Loin des yeux près des pleures J'fais l'amour dans ta ge-gor on y passera la nuit OP Genius c'est la ligue Elle se trémousse je la nique Très forte gousse dans le dix Damso putain t'es trop lourd sisi merci la mif J'fais dans la géométrie tou-toujours dans les carrés VIP Un seul contrôle on est cuit y'a full barrette de shit Le Q.I d'un séraphin j'te baise à l'aise comme impôt et fisc Ça ne bibi plus très bien depuis Daesh on n'prend plus de risques Assermenté mensonges obligés pas d'vérité devant agent d'police Pas d'amitié entre justicier si j'étais Bruce j'aurai baisé Loïs Ciel je remercie d'office, pour le cul d'Bejo Bérénice J'suis dans le Bercy je glisse J'suis dans Nero Nemesis Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferais bien plus que les autres Ces négros prennent nos flows sont accusés de faux et usage de faux Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferais bien plus que les autres Ces négros prennent nos flows sont accusés de faux et usage de faux8</t>
+          <t>Yeah Rah Tout niquer tout niquer comme Gargamel j'ai un rêve bleu très particulier Broliquer broliquer dans ta rondelle comme un joint de beuh que j'suis prêt à fumer Tes négros sont des mannequins, très professionnels toujours prêts à se défiler Mon négro il n'en restera qu'un, rien de personnel le illeur-mé ma destinée T'as perdu tes couilles on t'voit plus T'as changé de métro prend plus le même chemin Y'a que des embrouilles dans l'actu J'suis l'bâtard, Jon Snow négro tu n'es que le nain Un cur d'ange dans un corps de pute, obligé que j'la baise, bitch biatch J'suis dans l'centre j'ai pas besoin d'nes-tu j'suis sur toutes les guest lists Dems Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferai bien plus que les autres Ces négros prennent nos flows, sont accusés de faux et usage de faux Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferais bien plus que les autres Ces négros prennent nos flows sont accusés de faux et usage de faux Dams Moins heureux, loin des leurs, la vie c'est jusqu'à la mort non c'est pas pour la vie Loin des yeux près des pleures J'fais l'amour dans ta ge-gor on y passera la nuit OP Genius c'est la ligue Elle se trémousse je la nique Très forte gousse dans le dix Damso putain t'es trop lourd sisi merci la mif J'fais dans la géométrie tou-toujours dans les carrés VIP Un seul contrôle on est cuit y'a full barrette de shit Le Q.I d'un séraphin j'te baise à l'aise comme impôt et fisc Ça ne bibi plus très bien depuis Daesh on n'prend plus de risques Assermenté mensonges obligés pas d'vérité devant agent d'police Pas d'amitié entre justicier si j'étais Bruce j'aurai baisé Loïs Ciel je remercie d'office, pour le cul d'Bejo Bérénice J'suis dans le Bercy je glisse J'suis dans Nero Nemesis Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferais bien plus que les autres Ces négros prennent nos flows sont accusés de faux et usage de faux Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferais bien plus que les autres Ces négros prennent nos flows sont accusés de faux et usage de faux8</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Oui Dems Dems, oui Oui, ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Ouais, fonce-dé dans la Benz, dans la go-va Ouais Purple, Ice, moula, Barbossa Eh Il ne fallait pas mais négro osa No, no Bastos dans la te-tê, elle explosa Piou, bang Tout est quadrillé Ok Toute la zone, l rrain-te, tous les quartiers Ok, ok Oh, avant d'm'étindre, j'vais t'allumer Bang Paco, Prinzly, Saint D, tout est aligné Ok, ok You might also like O.G. fait la moula sur le te' Sur le terrain Biatch enneigée saigne du nez Du nez O.G. fait la moula sur le te' Sur le te' Oh, tout est enrhumé, ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocaïnée Ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Oui, eh, beuh de marijuana Oui Coca' de Tijuana Oui, gamos en gincana Eh Z comme Zap Mama Eh, Chevrolet Impala Ouais Guitare Gibson Rodriguez, Carlos Santana Ok En bas du bloc, j'suis surmené Oui, ok Policière me questionne, j'crois bien qu'j'vais nier Ok, ok Oh, dans l'tiekson, j'ai charbonné Ok Blood, brothers, euros, euros, Bobby Bonillé Ok, ok O.G. fait la moula sur le te' Sur le terrain Biatch enneigée saigne du nez Du nez O.G. fait la moula sur le te' Sur le te' Oh, tout est enrhumé, ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok</t>
+          <t>Oui Dems Dems, oui Oui, ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Ouais, fonce-dé dans la Benz, dans la go-va Ouais Purple, Ice, moula, Barbossa Eh Il ne fallait pas mais négro osa No, no Bastos dans la te-tê, elle explosa Piou, bang Tout est quadrillé Ok Toute la zone, l rrain-te, tous les quartiers Ok, ok Oh, avant d'm'étindre, j'vais t'allumer Bang Paco, Prinzly, Saint D, tout est aligné Ok, ok O.G. fait la moula sur le te' Sur le terrain Biatch enneigée saigne du nez Du nez O.G. fait la moula sur le te' Sur le te' Oh, tout est enrhumé, ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocaïnée Ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Oui, eh, beuh de marijuana Oui Coca' de Tijuana Oui, gamos en gincana Eh Z comme Zap Mama Eh, Chevrolet Impala Ouais Guitare Gibson Rodriguez, Carlos Santana Ok En bas du bloc, j'suis surmené Oui, ok Policière me questionne, j'crois bien qu'j'vais nier Ok, ok Oh, dans l'tiekson, j'ai charbonné Ok Blood, brothers, euros, euros, Bobby Bonillé Ok, ok O.G. fait la moula sur le te' Sur le terrain Biatch enneigée saigne du nez Du nez O.G. fait la moula sur le te' Sur le te' Oh, tout est enrhumé, ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Ok Disiz, Dems Hey Ma langue sent le cannabis, j'lui fais un cunni' Mais, avant ça, j'lui ai mis des doigts avec lesquels, j'ai effrité ma beuh, effrité ma beuh Et puis, d't'façon, la vie n'est pas faite pour durer Gue-dro sous l'ton-car, le pétard est allumé, j'atteins les cieux, j'atteins les cieux Oh, tous ces gens qui mentent, qui disent te connaître mieux que les autres Mais ne sont pas là quand tu en as besoin, te ramassent pour qu'tu t'rjettes à nouveau la faut Ouais, les menteurs font qu'ram'ner les soucis J'ai fait la mala, je dépense Audemars, Audemars, Gucci Si j'te raconte ma vie, tu vas dire Dinguerie mais quelle dinguerie, mais quel enfer Dans c'disque, y a toute ma vie, y a tout l'paradis, y a tout l'paradis mais y a l'enfer Mais moi, j'suis heureux Avant, j'étais peureux Est-ce que j'suis en feu ? En tout cas, j'suis heureux, heureux Eh Ouais Barbelés, m'empêcheront pas d'escalader cagoulé Cagoulé J'te démarre, toi et tous tes abonnés Abonnés Dollars, euros, francs congolais Congolais Les ennemis, c'est jusqu'à la muerte, jusqu'à la mort J'balance leurs objets personnels dans la ruelle Tou-tou-touh Puis, j'urine dans l'corridor, eh Gros, moi, j'suis un haineux La haine, ah ouais J'défonce sa mère, blondasse aux yeux bleus Pute Fort Hey, Salomé You might also like Mais moi, j'suis heureux Hey, hey, hey Ouais mais moi, j'suis heureux Ouais, noche, je roule ma beuh Oui Musique, je roule un peu, Madeleine, deux s'maines sur deux Je suis sur la capitale, ça se chine en numérique, ça se ken en digital Ça commande un Uber Eats, j'ai cédé au capital Oh Prinz' qui m'appelle de BX Brr, veut faire du son, des bêtises Woah Putain, j'suis chaud sur Bruxelles, eh, eh, hein J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess, nan, j'suis qu'Disiz la Peste J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess Nan, eh J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess, nan, j'suis qu'Disiz la Peste, eh J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess, nan, eh J's'rai plus jamais en hess, j's'rai plus jamais en hess J's'rai plus jamais en hess, eh4</t>
+          <t>Ok Disiz, Dems Hey Ma langue sent le cannabis, j'lui fais un cunni' Mais, avant ça, j'lui ai mis des doigts avec lesquels, j'ai effrité ma beuh, effrité ma beuh Et puis, d't'façon, la vie n'est pas faite pour durer Gue-dro sous l'ton-car, le pétard est allumé, j'atteins les cieux, j'atteins les cieux Oh, tous ces gens qui mentent, qui disent te connaître mieux que les autres Mais ne sont pas là quand tu en as besoin, te ramassent pour qu'tu t'rjettes à nouveau la faut Ouais, les menteurs font qu'ram'ner les soucis J'ai fait la mala, je dépense Audemars, Audemars, Gucci Si j'te raconte ma vie, tu vas dire Dinguerie mais quelle dinguerie, mais quel enfer Dans c'disque, y a toute ma vie, y a tout l'paradis, y a tout l'paradis mais y a l'enfer Mais moi, j'suis heureux Avant, j'étais peureux Est-ce que j'suis en feu ? En tout cas, j'suis heureux, heureux Eh Ouais Barbelés, m'empêcheront pas d'escalader cagoulé Cagoulé J'te démarre, toi et tous tes abonnés Abonnés Dollars, euros, francs congolais Congolais Les ennemis, c'est jusqu'à la muerte, jusqu'à la mort J'balance leurs objets personnels dans la ruelle Tou-tou-touh Puis, j'urine dans l'corridor, eh Gros, moi, j'suis un haineux La haine, ah ouais J'défonce sa mère, blondasse aux yeux bleus Pute Fort Hey, Salomé Mais moi, j'suis heureux Hey, hey, hey Ouais mais moi, j'suis heureux Ouais, noche, je roule ma beuh Oui Musique, je roule un peu, Madeleine, deux s'maines sur deux Je suis sur la capitale, ça se chine en numérique, ça se ken en digital Ça commande un Uber Eats, j'ai cédé au capital Oh Prinz' qui m'appelle de BX Brr, veut faire du son, des bêtises Woah Putain, j'suis chaud sur Bruxelles, eh, eh, hein J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess, nan, j'suis qu'Disiz la Peste J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess Nan, eh J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess, nan, j'suis qu'Disiz la Peste, eh J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess, nan, eh J's'rai plus jamais en hess, j's'rai plus jamais en hess J's'rai plus jamais en hess, eh4</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sale, sale Ouais Ouais Sale Ouais Depuis qu'j'ai signé, j'écris mais je trime, déprime Des crimes, des primes et déprime au détriment des traumas J'ai trop mal, trop mêlé, trop d'mala dans ma life et mes loves Mais bon, là, c'est bon, j'ai fait mes loves J'prends le game en otage comme un criminel, j'fais rentrer dans la secte comme Bambi Cruz Nuisance sale, noir est plein de cérumen, j'prends pas dix ans pour tuer ces bad citizens J'sors la be-bar en plein échange de coups La gue-mor est pleine, tu n'as plus de pouls, tu n'as plus de fame Plus de fans, n'a plus de scènes, drame, plus de crew Arme dans la soute, lame dans la croûte, larme sans la goutte Bam, c'est le coup d'feu, coup d'choc, tout s'bloque, plus d'force, bruit d'Glock j't'élimine Mains en l'air sans aucun possible crime, nique ta mère car t'as pas su faire le signe Même salaire sans aucune possible prime, même galère, pourtant, t'as acheté tes streams Mains en l'air, de la croix, je fais le signe Dans sa che-bou, me-sper est gélatine Elle prend ma queue car n'aime pas faire la file, entre rageux m'écoutent dans la déprime Tout enculer sans reculer, pute a gémi sans simuler Autotuné voire thuné, platines ont sous dissimulés Devant mère amour et joie se dessinent Lior a fait ses premiers pas dans le crime, papa contenté vole loin de l'insigne Toujours entrain d'insulter les instances, fausse délinquance, tu taffes à l'usine La vie, c'est dur avec ou sans écus, les SDF devraient pas vivre à la rue Les huissiers n'aiment pas hésiter, ils prennent tout même quand y'en a plus Un crédit mal anticipé, tu voles, tu braques, t'es à l'affut, des gyrophares, tu prends la fuite Les négros viennent que pour les clips, en cas d'embrouille, y a plus d'équipe Les négros comme nous, y en a plus Pas de marche arrière, pas de retouches, j'l'ai ken, elle a fait une fausse couche J'ai grandi tout seul comme ma bite dans sa bouche DemsYou might also like9</t>
+          <t>Sale, sale Ouais Ouais Sale Ouais Depuis qu'j'ai signé, j'écris mais je trime, déprime Des crimes, des primes et déprime au détriment des traumas J'ai trop mal, trop mêlé, trop d'mala dans ma life et mes loves Mais bon, là, c'est bon, j'ai fait mes loves J'prends le game en otage comme un criminel, j'fais rentrer dans la secte comme Bambi Cruz Nuisance sale, noir est plein de cérumen, j'prends pas dix ans pour tuer ces bad citizens J'sors la be-bar en plein échange de coups La gue-mor est pleine, tu n'as plus de pouls, tu n'as plus de fame Plus de fans, n'a plus de scènes, drame, plus de crew Arme dans la soute, lame dans la croûte, larme sans la goutte Bam, c'est le coup d'feu, coup d'choc, tout s'bloque, plus d'force, bruit d'Glock j't'élimine Mains en l'air sans aucun possible crime, nique ta mère car t'as pas su faire le signe Même salaire sans aucune possible prime, même galère, pourtant, t'as acheté tes streams Mains en l'air, de la croix, je fais le signe Dans sa che-bou, me-sper est gélatine Elle prend ma queue car n'aime pas faire la file, entre rageux m'écoutent dans la déprime Tout enculer sans reculer, pute a gémi sans simuler Autotuné voire thuné, platines ont sous dissimulés Devant mère amour et joie se dessinent Lior a fait ses premiers pas dans le crime, papa contenté vole loin de l'insigne Toujours entrain d'insulter les instances, fausse délinquance, tu taffes à l'usine La vie, c'est dur avec ou sans écus, les SDF devraient pas vivre à la rue Les huissiers n'aiment pas hésiter, ils prennent tout même quand y'en a plus Un crédit mal anticipé, tu voles, tu braques, t'es à l'affut, des gyrophares, tu prends la fuite Les négros viennent que pour les clips, en cas d'embrouille, y a plus d'équipe Les négros comme nous, y en a plus Pas de marche arrière, pas de retouches, j'l'ai ken, elle a fait une fausse couche J'ai grandi tout seul comme ma bite dans sa bouche Dems9</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>I.D Yeah Elle bouge son boule si sensuellement, pourtant dans l'passé on a tellement Baisé que j'croyais que j'en voudrais plus, mais son legging me dit qu'j'en veux plus Elle a des formes sous son Kenzo, fais des avances dans sa Benzo J'sais bien qu'son booty a du vécu, mais son legging me dit qu'j'en veux plus M'envoie des snaps j'appuie sur replay, j'la croise en boite près du DJ J'suis dans le VIP avec la sécu', j'attends qu'elle bouge pour la fuck, yeah, yeah J'la fais monter, j'paie un mois d'loyer, juste pour la voir danser en poirier J'suis dans le club et j'fume un doobie, j'attends qu'elle bouge pour la fuck I.D J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you Tu m'fais les yeux doux car j'ai all eyes on me J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you T'es dans mes pensées mais j'te préfère au lit Au lit Yeah You might also like Jamaïcaine, faut que j'la ken, elle bouffera toutes mes thunes même celles d'la SACEM En danger p't'être que j'vais m'ranger, depuis qu'j'me la suis tapé tout a changé Sale Dépense mes sous souffre d'agression Aggression, le compte en banque est sous la pression Pression Dispute, la pute suce mes lovés, elle use la ruse pour qu'j'la love I.D J'mets ma libido sous somnifère, j'la quitte car son derrière est beaucoup trop cher J'ai assez d'cardio pour la journée, ta pote et toi que j'vais satisfaire Ambiancée, en danger, ma trique est insalubre, fait que bander Mélangée, métissée, le soleil de minuit, le soir en journée I.D J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you Tu m'fais les yeux doux quand j'ai all eyes on me J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you T'es dans mes pensées mais j'te préfère au lit Au lit J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you Tu m'fais les yeux doux quand j'ai all eyes on me J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you T'es dans mes pensées mais j'te préfère au lit Au lit3</t>
+          <t>I.D Yeah Elle bouge son boule si sensuellement, pourtant dans l'passé on a tellement Baisé que j'croyais que j'en voudrais plus, mais son legging me dit qu'j'en veux plus Elle a des formes sous son Kenzo, fais des avances dans sa Benzo J'sais bien qu'son booty a du vécu, mais son legging me dit qu'j'en veux plus M'envoie des snaps j'appuie sur replay, j'la croise en boite près du DJ J'suis dans le VIP avec la sécu', j'attends qu'elle bouge pour la fuck, yeah, yeah J'la fais monter, j'paie un mois d'loyer, juste pour la voir danser en poirier J'suis dans le club et j'fume un doobie, j'attends qu'elle bouge pour la fuck I.D J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you Tu m'fais les yeux doux car j'ai all eyes on me J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you T'es dans mes pensées mais j'te préfère au lit Au lit Yeah Jamaïcaine, faut que j'la ken, elle bouffera toutes mes thunes même celles d'la SACEM En danger p't'être que j'vais m'ranger, depuis qu'j'me la suis tapé tout a changé Sale Dépense mes sous souffre d'agression Aggression, le compte en banque est sous la pression Pression Dispute, la pute suce mes lovés, elle use la ruse pour qu'j'la love I.D J'mets ma libido sous somnifère, j'la quitte car son derrière est beaucoup trop cher J'ai assez d'cardio pour la journée, ta pote et toi que j'vais satisfaire Ambiancée, en danger, ma trique est insalubre, fait que bander Mélangée, métissée, le soleil de minuit, le soir en journée I.D J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you Tu m'fais les yeux doux quand j'ai all eyes on me J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you T'es dans mes pensées mais j'te préfère au lit Au lit J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you Tu m'fais les yeux doux quand j'ai all eyes on me J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you T'es dans mes pensées mais j'te préfère au lit Au lit3</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ponko Sombre négro, sombre youv' en pleine zone en pleine zone Sombre négro, sombre youv' en benzo en benzo Sombre pussy, sombre bitch en pleine zone pleine zone Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Sombre pousse ces bitches dans le bando Sombre négro s'embrouille dans le tiekson tiekson, sombre négro sort le Smith Wesson Wesson Sombre you-voi semble un peu méfiant méfiant, sombre agent lui pose des sombres questions snitch Je n'sais pas j'n'ai rien vu j'étais pas présent présent Le fils de pute qui répond j'le descend bang, bang Que du sexe elle veut pas de liaison liaison Sombre pucelle veut ses premières lésions pussy Capoté, sa teu-ch' est mal fréquentée pussy J'la baise quand même car j'peux pas m'contenter pussy D'une seule pute par jour, nan, c'n'est pas assez no J'dois tout niquer, eh, eh, oh oh You might also like Sombre négro, sombre youv' en pleine zone en pleine zone Sombre négro, sombre youv' en benzo en benzo Sombre pussy, sombre bitch en pleine zone pleine zone Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Sombre pousse ces bitches dans le bando Sombre négro veut du cash en de-spe de-spe Sombre négro fume son premier te-shi te-shi Sombre you-voi snitch tout chez les keuflis snitch Sombre youvoi fait ber-tom mes OG Deux-trois biatchs veulent du Damso Damso Mais faux négro fait le Donnie Brasco Brasco Deux mains en l'air j'me fais sucer J'suis loin dans ma déf' et d'mon Colts .46 Menotté, serré, j'suis dans la de-mer de-mer Niquez tous vos mères, j'balancerai sonne-per non Pas d'avocat, j'sais pas trop comment faire Il m'reste kilos d'bédo, à vi-sser oh Sombre négro, sombre youv' en pleine zone en pleine zone Sombre négro, sombre youv' en benzo en benzo Sombre pussy, sombre bitch en pleine zone pleine zone Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black Black, black Black, black Black, black Tout est bre-som, tout est black, black2</t>
+          <t>Ponko Sombre négro, sombre youv' en pleine zone en pleine zone Sombre négro, sombre youv' en benzo en benzo Sombre pussy, sombre bitch en pleine zone pleine zone Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Sombre pousse ces bitches dans le bando Sombre négro s'embrouille dans le tiekson tiekson, sombre négro sort le Smith Wesson Wesson Sombre you-voi semble un peu méfiant méfiant, sombre agent lui pose des sombres questions snitch Je n'sais pas j'n'ai rien vu j'étais pas présent présent Le fils de pute qui répond j'le descend bang, bang Que du sexe elle veut pas de liaison liaison Sombre pucelle veut ses premières lésions pussy Capoté, sa teu-ch' est mal fréquentée pussy J'la baise quand même car j'peux pas m'contenter pussy D'une seule pute par jour, nan, c'n'est pas assez no J'dois tout niquer, eh, eh, oh oh Sombre négro, sombre youv' en pleine zone en pleine zone Sombre négro, sombre youv' en benzo en benzo Sombre pussy, sombre bitch en pleine zone pleine zone Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Sombre pousse ces bitches dans le bando Sombre négro veut du cash en de-spe de-spe Sombre négro fume son premier te-shi te-shi Sombre you-voi snitch tout chez les keuflis snitch Sombre youvoi fait ber-tom mes OG Deux-trois biatchs veulent du Damso Damso Mais faux négro fait le Donnie Brasco Brasco Deux mains en l'air j'me fais sucer J'suis loin dans ma déf' et d'mon Colts .46 Menotté, serré, j'suis dans la de-mer de-mer Niquez tous vos mères, j'balancerai sonne-per non Pas d'avocat, j'sais pas trop comment faire Il m'reste kilos d'bédo, à vi-sser oh Sombre négro, sombre youv' en pleine zone en pleine zone Sombre négro, sombre youv' en benzo en benzo Sombre pussy, sombre bitch en pleine zone pleine zone Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black Black, black Black, black Black, black Tout est bre-som, tout est black, black2</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Discographie - Damso Album Studio - 20160708 Damso - Batterie faible - 20170428 Damso - Ipséité - 20180615 Damso - Lithopédion - 20200918 Damso - QALF - 20210429 Damso - QALF infinity Mixtape - 20140829 Damso - Salle d'attente Compilation - 20181214 Damso - Intégrale - 20190809 Damso - Ipséité Lithopédion Single - 20120328 Damso - Freestyle Portes Ouvertes FPO - 20121001 Damso - Brouillard - 20140308 Damso - EGO - 20140328 Damso - Publie Partage Promo - 20140818 Damso - On n'est jamais mieux compris que par soi-même - 20140829 Damso - Le talent ne suffit pas - 20140928 Damso - IVG - 20141220 Damso - Tout oublier - 20141220 Damso - BANG BANG - 20150808 Damso - Comment faire un tube - 20151118 Damso - Ma putain - 20151119 Damso - Colis - 20151120 Damso - Poséidon - 20151217 Damso - Mi Amor - 20160122 Damso - Débrouillard - 20160427 Damso - Autotune - 20160527 Damso - BruxellesVie - 20160621 Damso - Peur d'être sobre - 20160624 Damso - Périscope - 20160708 Damso - Graine de sablier - 20160718 Damso - Paris c'est loin - 20161107 Damso - Amnésie - 20160919 Damso - Débrouillard Remix - 20160928 Damso - Freestyle Deezr - 20170118 Damso - Smeagol - 20170220 Damso - CQFD - 20170403 Damso - Mort - 20170428 Damso - N. J Respect R - 20170428 Damso - . Nwaar Is Th New Black - 20170525 Damso - TieksVie - 20170706 Damso - . Macarena - 20170714 Damso - Quotidien de baisé - 20170901 Damso - Mucho Dinero - 20170903 Damso - C'est toujours Dems Le vrai - 20171027 Damso - Seultou - 20171027 Damso - Fais-moi un Vie - 20171110 Damso - Je nous mens - 20171201 Damso - Tueurs - 20180316 Damso - . Mosaïque solitaire - 20180428 Damso - Ipséité - 20180605 Damso - . Ouzbek - 20180613 Damso - Smog - 20180801 Damso - Surcôté - 20200124 Damso - veillé - 20200328 Damso - - 20210107 Damso - 911 - 20210406 Damso - J'avais juste envie décrire - 20221218 Damso - Cur de pirate You might also likeFeaturing - 2008 Dolfa - Cyclone - 20151112 LeBoy Krisy'B - Studio Remix - 20151204 Booba - Pinocchio - 2016 Siboy - Paradis - 20160410 Krisy - Real - 20160611 Booba - Freestyle Couvre Feu OKLM - 20160624 Hamza - Slow - 20170120 Vald - Vitrine - 20170331 Benash - Ivre - 20170630 Siboy - Mobali - 20171006 Kalash - Mwaka Moon - 20171117 Lacrim - Noche - 20171201 Booba - 113 - 20171213 Kalash - Mwaka Moon Felckin Remix - 20180518 Kalash - Mwaka Moon Sfera Ebbasta Remix - 20181114 OrelSan - Rêves bizarres - 20181207 404Billy - RVRE - 20190606 Nekfeu - Tricheur - 20190628 D.A.V - ParoVie - 20190712 Vegedream - Personne - 20190726 Kalash - JTC - 20190726 Kalash - Praliné - 20190927 Ikaz Boi - SOLITERRIEN - 20191118 Dadju - Robe - 20191219 Hamza - God Bless - 20200307 Ninho - Promo - 20201015 Innoss'B - Best - 20201016 Kalash Criminel - But en or - 20210305 ElGrandeToto - Étranger - 20210702 Dinos - Du mal à te dire - 20210716 Laylow - R9R-LINE - 20211203 Angèle - Démons - 20220301 Angèle - Démons Live Orchestral - 20220309 Aya Nakamura - Dégaine - 20220317 Disiz - RENCONTRE - 20220325 Selah Sue - Wanted You to Know - 20220429 Kalash - I Love You - 20220429 Kobo - .FUMÉE.ÉPAISSE - 20220701 Gazo - BODIES - 20220923 Kalash - Malpolis - 20221111 Lous and The Yakuza - Lubie - 20230217 Hamza - Nocif Discographie complémentaire - Discographie - OPG</t>
+          <t>Discographie - Damso Album Studio - 20160708 Damso - Batterie faible - 20170428 Damso - Ipséité - 20180615 Damso - Lithopédion - 20200918 Damso - QALF - 20210429 Damso - QALF infinity Mixtape - 20140829 Damso - Salle d'attente Compilation - 20181214 Damso - Intégrale - 20190809 Damso - Ipséité Lithopédion Single - 20120328 Damso - Freestyle Portes Ouvertes FPO - 20121001 Damso - Brouillard - 20140308 Damso - EGO - 20140328 Damso - Publie Partage Promo - 20140818 Damso - On n'est jamais mieux compris que par soi-même - 20140829 Damso - Le talent ne suffit pas - 20140928 Damso - IVG - 20141220 Damso - Tout oublier - 20141220 Damso - BANG BANG - 20150808 Damso - Comment faire un tube - 20151118 Damso - Ma putain - 20151119 Damso - Colis - 20151120 Damso - Poséidon - 20151217 Damso - Mi Amor - 20160122 Damso - Débrouillard - 20160427 Damso - Autotune - 20160527 Damso - BruxellesVie - 20160621 Damso - Peur d'être sobre - 20160624 Damso - Périscope - 20160708 Damso - Graine de sablier - 20160718 Damso - Paris c'est loin - 20161107 Damso - Amnésie - 20160919 Damso - Débrouillard Remix - 20160928 Damso - Freestyle Deezr - 20170118 Damso - Smeagol - 20170220 Damso - CQFD - 20170403 Damso - Mort - 20170428 Damso - N. J Respect R - 20170428 Damso - . Nwaar Is Th New Black - 20170525 Damso - TieksVie - 20170706 Damso - . Macarena - 20170714 Damso - Quotidien de baisé - 20170901 Damso - Mucho Dinero - 20170903 Damso - C'est toujours Dems Le vrai - 20171027 Damso - Seultou - 20171027 Damso - Fais-moi un Vie - 20171110 Damso - Je nous mens - 20171201 Damso - Tueurs - 20180316 Damso - . Mosaïque solitaire - 20180428 Damso - Ipséité - 20180605 Damso - . Ouzbek - 20180613 Damso - Smog - 20180801 Damso - Surcôté - 20200124 Damso - veillé - 20200328 Damso - - 20210107 Damso - 911 - 20210406 Damso - J'avais juste envie décrire - 20221218 Damso - Cur de pirate Featuring - 2008 Dolfa - Cyclone - 20151112 LeBoy Krisy'B - Studio Remix - 20151204 Booba - Pinocchio - 2016 Siboy - Paradis - 20160410 Krisy - Real - 20160611 Booba - Freestyle Couvre Feu OKLM - 20160624 Hamza - Slow - 20170120 Vald - Vitrine - 20170331 Benash - Ivre - 20170630 Siboy - Mobali - 20171006 Kalash - Mwaka Moon - 20171117 Lacrim - Noche - 20171201 Booba - 113 - 20171213 Kalash - Mwaka Moon Felckin Remix - 20180518 Kalash - Mwaka Moon Sfera Ebbasta Remix - 20181114 OrelSan - Rêves bizarres - 20181207 404Billy - RVRE - 20190606 Nekfeu - Tricheur - 20190628 D.A.V - ParoVie - 20190712 Vegedream - Personne - 20190726 Kalash - JTC - 20190726 Kalash - Praliné - 20190927 Ikaz Boi - SOLITERRIEN - 20191118 Dadju - Robe - 20191219 Hamza - God Bless - 20200307 Ninho - Promo - 20201015 Innoss'B - Best - 20201016 Kalash Criminel - But en or - 20210305 ElGrandeToto - Étranger - 20210702 Dinos - Du mal à te dire - 20210716 Laylow - R9R-LINE - 20211203 Angèle - Démons - 20220301 Angèle - Démons Live Orchestral - 20220309 Aya Nakamura - Dégaine - 20220317 Disiz - RENCONTRE - 20220325 Selah Sue - Wanted You to Know - 20220429 Kalash - I Love You - 20220429 Kobo - .FUMÉE.ÉPAISSE - 20220701 Gazo - BODIES - 20220923 Kalash - Malpolis - 20221111 Lous and The Yakuza - Lubie - 20230217 Hamza - Nocif Discographie complémentaire - Discographie - OPG</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Oui Oui Ouh, ouh, ouh, OG Oui J'commence à la connaître, la moula malhonnête J'la jette par la fenêtre, j'suis fonce-dé en survêt' Drogue sous le couvercle, biatch sous la couverture Police à la sonnette, coincé, j'n'ai pas d'ouverture Damso, pourquoi tant de noirceur ? Si je l'dis, tu n'vas pas t'en remettre Le game, j'vais lui niquer sa mère, mes ennemis avec Jamais je ne m'arrête, Gordon est la cannette Bergamote violette, du gent-ar incorrect Ouh, ouh, ouh, OG Ouh, ouh, ouh, OG Ouh, ouh, ouh, OG Ouh, ouh, ouh, OG C'est celle-là C'est celle-là, celle-là, celle-là You might also like4</t>
+          <t>Oui Oui Ouh, ouh, ouh, OG Oui J'commence à la connaître, la moula malhonnête J'la jette par la fenêtre, j'suis fonce-dé en survêt' Drogue sous le couvercle, biatch sous la couverture Police à la sonnette, coincé, j'n'ai pas d'ouverture Damso, pourquoi tant de noirceur ? Si je l'dis, tu n'vas pas t'en remettre Le game, j'vais lui niquer sa mère, mes ennemis avec Jamais je ne m'arrête, Gordon est la cannette Bergamote violette, du gent-ar incorrect Ouh, ouh, ouh, OG Ouh, ouh, ouh, OG Ouh, ouh, ouh, OG Ouh, ouh, ouh, OG C'est celle-là C'est celle-là, celle-là, celle-là 4</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Eh, yah, yah, yah, yah Yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah Sombre négro dans le tiekson fait du sale, vie, l'inspecteur est ravi, police en bas d'chez lui Met son cash à l'abri car sait qu'il va prendre longue vie, car très sombres délits, you-voi comme Makaveli Comme la mort, n'a que ennemis, ses potos l'ont qué-ni, depuis, vit dans le déni, s'branle en cellule comme pas permis Ne pense qu'à make money, au jour de sa sortie, orgie, drogue dure, morphine, bitches Puis, un jour est sorti, a r'trouvé sa money, a baisé comme pas permis sur le sol, angles garnis Comme la mort n'a qu'une seule vie Comme la mort n'a qu'une seule vie Comme la mort n'a qu'une seule vie Comme la mort n'a qu'une seule vie J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah You might also like Du sale toute la noche, moi, j'connais d'jà la fin Ouh, police dans talkie-walkie, ils ont d'jà sorti l'machin Ouh Deux roues, regard hostile, le fil rouge, cadre et profil, j'ai toujours Glock gé-char, arme de feu et poing Avenir, avenir sans lendemain, j'sais que j'peux die à tout moment Yeah La crosse sur les deux mains, j'vise le cou plein d'oscillations Han, han Globule, revolver, mes yeux tirent sur les passants, violent dans mes actions, mauvais garçon, agitation La drogue fait effet La drogue fait effet Je plane, j'suis à Tulum, la playa, face aux jnouns, j'abrite tellement de peine J'abrite tellement de peine Une racaille comme pas deux, le cur un peu rocailleux, tu fais semblant de m'aimer Tu fais semblant de m'aimer Confonds pas insensible avec souffrir en silence, bien sûr qu'j'suis émotif, l'intérieur érosif Mais ma douleur est taiseuse, patiente, pleine d'endurance, oh baby, baby J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah5</t>
+          <t>Eh, yah, yah, yah, yah Yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah Sombre négro dans le tiekson fait du sale, vie, l'inspecteur est ravi, police en bas d'chez lui Met son cash à l'abri car sait qu'il va prendre longue vie, car très sombres délits, you-voi comme Makaveli Comme la mort, n'a que ennemis, ses potos l'ont qué-ni, depuis, vit dans le déni, s'branle en cellule comme pas permis Ne pense qu'à make money, au jour de sa sortie, orgie, drogue dure, morphine, bitches Puis, un jour est sorti, a r'trouvé sa money, a baisé comme pas permis sur le sol, angles garnis Comme la mort n'a qu'une seule vie Comme la mort n'a qu'une seule vie Comme la mort n'a qu'une seule vie Comme la mort n'a qu'une seule vie J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah Du sale toute la noche, moi, j'connais d'jà la fin Ouh, police dans talkie-walkie, ils ont d'jà sorti l'machin Ouh Deux roues, regard hostile, le fil rouge, cadre et profil, j'ai toujours Glock gé-char, arme de feu et poing Avenir, avenir sans lendemain, j'sais que j'peux die à tout moment Yeah La crosse sur les deux mains, j'vise le cou plein d'oscillations Han, han Globule, revolver, mes yeux tirent sur les passants, violent dans mes actions, mauvais garçon, agitation La drogue fait effet La drogue fait effet Je plane, j'suis à Tulum, la playa, face aux jnouns, j'abrite tellement de peine J'abrite tellement de peine Une racaille comme pas deux, le cur un peu rocailleux, tu fais semblant de m'aimer Tu fais semblant de m'aimer Confonds pas insensible avec souffrir en silence, bien sûr qu'j'suis émotif, l'intérieur érosif Mais ma douleur est taiseuse, patiente, pleine d'endurance, oh baby, baby J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah5</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>La mala est gangx Hey Si eux, c'est la, bah, dis-moi, nous, on est J'ai vendu la, gava, j'ai pas eu le Si eux, c'est la Eh-eh Si eux, c'est la Eh-eh Hey, si eux, c'est la ue-r Si eux c'est la ue-r, bah, dis-moi, nous, on est quoi ? Dis-moi, nous, on est T'sais que j'ai vendu la pure J'ai vendu la, mon gava, j'ai pas eu le choix J'ai pas eu le J'les ai vus gratter le mur Gratter le, est-ce que tu les crois ? Est-ce que tu ls Je les vois parler d ue-r Les vois parler de mais dis-moi si tu les vois Hey, hey, si eux, c'est la ue-r Si eux, c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ? J'ai vendu la pure J'ai vendu la pure, j'ai pas eu le choix J'les ai vus gratter le mur Hey, yeah, est-ce que tu les crois ? Est-ce que tu les crois ? Font que parler de ue-r Font que parler de ue-r, est-ce que tu les vois ? Gazo, est-ce que tu les vois ? Une-une kichta, une enveloppe Boom, studio, le talent se développe Codéina dans mon 7 Up, j'bois une gé-gué, j'passe au level up Hey Hey, ma haine est communautaire en voyant ma communauté menottée Oui J'disparais comme une hôtesse Ouh, j'apparais comme une O.D Dé-dé Déchiré, j'ai bu des litres Des litres et puis, j'ai vendu des lignes Des lignes J'le redis, je le souligne Hey, j'le redis, je le souligne Hey En période de guerre, on vise au-d'ssus de la ceinture pour qu'ils ne reviennent Grr, pa-pa-pa-pah Armé, donc on fait la guerre Ouh, boit un verre à la tienne Ouh, hey, hey, hey You might also like Hey, si t'es mon Gazo, on y va ensemble Si t'es mon Gazo, on y va ensemble On parle pas, on grr, on les met en sang Faut qu'on laisse tout l'monde en sang Beaucoup ont vu leurs vies se décimer Ont vu leurs vies se décimer Mauvais, donc mon cur est pourri, ouais, mon cur est déchiré Hey, si eux, c'est la ue-r Si eux, c'est la ue-r, bah, dis-moi, nous, on est quoi ? Dis-moi, nous, on est T'sais que j'ai vendu la pure J'ai vendu la, mon gava, j'ai pas eu le choix J'ai pas eu le J'les ai vus gratter le mur Gratter le, est-ce que tu les crois ? Est-ce que tu les Je les vois parler de ue-r Les vois parler de mais dis-moi si tu les vois Hey, hey, si eux, c'est la ue-r Si eux c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ? J'ai vendu la pure J'ai vendu la pure, j'ai pas eu le choix J'les ai vus gratter le mur Hey, yeah, est-ce que tu les crois ? Est-ce que tu les crois ? Ouais Font que parler de ue-r Font que parler de ue-r, eh, est-ce que tu les vois ? Gazo, est-ce que tu les vois ? Tu payes, tu chantes, tu suces, tu rentres, la culture te remercie Merci La mala est gang, le négro aussi, j'ai vendu la mort, j'en ai fait un Vie Avoir J'suis féministe comme Louis Réard, ça m'empêche pas d'te traiter d'pute Pute Le cur en kevlar, j'parle pas aux stup', j'remplace prénoms et noms par Shh Si, eux, c'est la ue-r, nous, on est quoi ? Le bruit et l'odeur du canon scié Gros, ces rappeurs font que du ciné', font des longs albums juste pour streamer Connais Discret, précis et sévère Ouais, j'suis l'cylindre au bout du Uzi Uzi Cette année, le Dems, il est vénère Vénère, la Twittosphère va manger Gucci Nwaar Quelques négros malhonnêtes Oui, quelques négros malhonnêtes moralement condamnables avec qui je traine Raah Tu fais qu'parler d'vendre la neige, j't'ai vu gratter l'asphalte à Rue de la Seine Ouh, ouh, ouh, ouh Si t'es mon Gazo, on y va ensemble, si tu fais ta salope, ça finit en sang Ouais, c'est le plata ou le plomo ou bien, la ue-r Hey, si eux, c'est la ue-r Si eux, c'est la, bah, dis-moi, nous, on est quoi ? Okay T'sais que j'ai vendu la pure J'ai vendu la, mon gava, j'ai pas eu le choix J'ai pas eu le J'les ai vus gratter le mur Gratter le, est-ce que tu les crois ? Est-ce que tu les, nan Je les vois parler de ue-r Les vois parler de mais dis-moi si tu les vois Ouh, ouh, ouh, ouh Hey, hey, si eux, c'est la ue-r Si eux, c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ? J'ai vendu la pure J'ai vendu la pure, j'ai pas eu le choix J'les ai vus gratter le mur Hey, yeah, est-ce que tu les crois ? Est-ce que tu les crois ? Font que parler de ue-r Font que parler de ue-r, ouais, est-ce que tu les vois ? Gazo, est-ce que tu les vois ? Si eux, c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ?1</t>
+          <t>La mala est gangx Hey Si eux, c'est la, bah, dis-moi, nous, on est J'ai vendu la, gava, j'ai pas eu le Si eux, c'est la Eh-eh Si eux, c'est la Eh-eh Hey, si eux, c'est la ue-r Si eux c'est la ue-r, bah, dis-moi, nous, on est quoi ? Dis-moi, nous, on est T'sais que j'ai vendu la pure J'ai vendu la, mon gava, j'ai pas eu le choix J'ai pas eu le J'les ai vus gratter le mur Gratter le, est-ce que tu les crois ? Est-ce que tu ls Je les vois parler d ue-r Les vois parler de mais dis-moi si tu les vois Hey, hey, si eux, c'est la ue-r Si eux, c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ? J'ai vendu la pure J'ai vendu la pure, j'ai pas eu le choix J'les ai vus gratter le mur Hey, yeah, est-ce que tu les crois ? Est-ce que tu les crois ? Font que parler de ue-r Font que parler de ue-r, est-ce que tu les vois ? Gazo, est-ce que tu les vois ? Une-une kichta, une enveloppe Boom, studio, le talent se développe Codéina dans mon 7 Up, j'bois une gé-gué, j'passe au level up Hey Hey, ma haine est communautaire en voyant ma communauté menottée Oui J'disparais comme une hôtesse Ouh, j'apparais comme une O.D Dé-dé Déchiré, j'ai bu des litres Des litres et puis, j'ai vendu des lignes Des lignes J'le redis, je le souligne Hey, j'le redis, je le souligne Hey En période de guerre, on vise au-d'ssus de la ceinture pour qu'ils ne reviennent Grr, pa-pa-pa-pah Armé, donc on fait la guerre Ouh, boit un verre à la tienne Ouh, hey, hey, hey Hey, si t'es mon Gazo, on y va ensemble Si t'es mon Gazo, on y va ensemble On parle pas, on grr, on les met en sang Faut qu'on laisse tout l'monde en sang Beaucoup ont vu leurs vies se décimer Ont vu leurs vies se décimer Mauvais, donc mon cur est pourri, ouais, mon cur est déchiré Hey, si eux, c'est la ue-r Si eux, c'est la ue-r, bah, dis-moi, nous, on est quoi ? Dis-moi, nous, on est T'sais que j'ai vendu la pure J'ai vendu la, mon gava, j'ai pas eu le choix J'ai pas eu le J'les ai vus gratter le mur Gratter le, est-ce que tu les crois ? Est-ce que tu les Je les vois parler de ue-r Les vois parler de mais dis-moi si tu les vois Hey, hey, si eux, c'est la ue-r Si eux c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ? J'ai vendu la pure J'ai vendu la pure, j'ai pas eu le choix J'les ai vus gratter le mur Hey, yeah, est-ce que tu les crois ? Est-ce que tu les crois ? Ouais Font que parler de ue-r Font que parler de ue-r, eh, est-ce que tu les vois ? Gazo, est-ce que tu les vois ? Tu payes, tu chantes, tu suces, tu rentres, la culture te remercie Merci La mala est gang, le négro aussi, j'ai vendu la mort, j'en ai fait un Vie Avoir J'suis féministe comme Louis Réard, ça m'empêche pas d'te traiter d'pute Pute Le cur en kevlar, j'parle pas aux stup', j'remplace prénoms et noms par Shh Si, eux, c'est la ue-r, nous, on est quoi ? Le bruit et l'odeur du canon scié Gros, ces rappeurs font que du ciné', font des longs albums juste pour streamer Connais Discret, précis et sévère Ouais, j'suis l'cylindre au bout du Uzi Uzi Cette année, le Dems, il est vénère Vénère, la Twittosphère va manger Gucci Nwaar Quelques négros malhonnêtes Oui, quelques négros malhonnêtes moralement condamnables avec qui je traine Raah Tu fais qu'parler d'vendre la neige, j't'ai vu gratter l'asphalte à Rue de la Seine Ouh, ouh, ouh, ouh Si t'es mon Gazo, on y va ensemble, si tu fais ta salope, ça finit en sang Ouais, c'est le plata ou le plomo ou bien, la ue-r Hey, si eux, c'est la ue-r Si eux, c'est la, bah, dis-moi, nous, on est quoi ? Okay T'sais que j'ai vendu la pure J'ai vendu la, mon gava, j'ai pas eu le choix J'ai pas eu le J'les ai vus gratter le mur Gratter le, est-ce que tu les crois ? Est-ce que tu les, nan Je les vois parler de ue-r Les vois parler de mais dis-moi si tu les vois Ouh, ouh, ouh, ouh Hey, hey, si eux, c'est la ue-r Si eux, c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ? J'ai vendu la pure J'ai vendu la pure, j'ai pas eu le choix J'les ai vus gratter le mur Hey, yeah, est-ce que tu les crois ? Est-ce que tu les crois ? Font que parler de ue-r Font que parler de ue-r, ouais, est-ce que tu les vois ? Gazo, est-ce que tu les vois ? Si eux, c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ?1</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>J'ai tout donné jusqu'à ma confiance, derrière vitres sans tain, on m'a pointé du doigt Dans la haine, je médite, fais les 100 pas, le soir dans ma ville mais sans aller nulle part La trahison ça coûte cher, ça vaut bien plus que trente sous Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir T'arrêtes pas d'chialer depuis qu'la old school a disparu N'est pas MC qui ne sait pas s'adapter, prérogatives pour anus dilaté Seul Damso joue avec le feu à mains nues, je l'ai fumé dans son bahut Rêvent de m'assassiner pourtant me saluent, OG Kush dans l'alu, les chiens renifleurs nous ont pas eu Du chapelet au chambala, t'es Léopold, je suis Mandela Barbu, la haine dans mes propos, vrai kobo comme Lieko Manu Derrière moi, beaucoup de traitres, j'ai le dos couché sur des flèches Iscariote pendu derechef, j'te souhaite la mort ou l'inceste Je n'écoute pas les bruits qui courent, le silence est la musique des sourds À peine je buzz, ça se met déjà à rager donc je m'en vais vers plus grandes cours Six pieds sous terre-erre, le ciel est plus loin que l'enfer-er Fuck Lucifer, loin de ma chair, j'prie pour que seul Dieu m'enterre Le succès me tape sur les nerfs, je pète un ble-câ, j'mets du Jack dans ma bière Je voulais une pute, j'ai reçu le Rap FR, je vis sous l'orage car j'aime quand tout est clair Arrête de fumer m'a dit le cendrier, cent millions de billets f'ront p't'être l'affaire La famille, c'est bien sauf pour évoluer, trahis, j'me sens comme mère devant mes demi-frères, Vie You might also like J'ai tout donné jusqu'à ma confiance, derrière vitres sans tain on m'a pointé du doigt Dans la haine, je médite, fais les 100 pas, le soir dans ma ville mais sans aller nulle part La trahison, ça coûte cher, ça vaut bien plus que trente sous Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir Yeah, j'veux une biatch au cur opaque, ma gaule rêve de trouver sa Cléopâtre Je l'ai poignardé, il saigne au calme, sa vie s'abat, son corps se plie en quatre J'veux l'argent d'un franc-maçon, mais la paix du fils de la Vierge Loin des entrailles sans protection, j'ai beaucoup d'enfants si j'en crois ma verge Grande gueule, j'insulte les daronnes, y'a qu'mon ingé' qui peut m'couper la parole Bonne et vieille comme Bouquet Carole, j'l'ai cuite à l'étouffée comme escarole J'like son boule mais je n'pose pas de commentaire, la niquer, je sais comment faire Animal en cage depuis le Pampers, j'viens du même zoo que Black Panthers J'suis pas Charlie si c'est mérité, j'suis plus Mohammed Ali que Cassius Clay J'vais t'niquer sans t'laisser d'héritier ou t'engrosser jusqu'à l'obésité Cagoulé j'la joue S-I-bo-Y, arme de l'Est dans l'coffre du break La bite est dure comme le vécu d'Emery, liberté africaine express Y'a trop de 'tasses, trop de grosses chiennes, y'a plus d'esclaves, que des grosses chaines Ils sont venu piller comme Luc Michel, on est v'nu résister comme Étienne J'suis les garçons, ils sont Hélène, j'suis sur l'toit du monde, t'es sur l'échelle Connexion Bruxelles à Haut-de-Seine, Débrouillard des Enfers jusqu'au Ciel En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir J'ai tout donné jusqu'à ma confiance, derrière vitres sans tain, on m'a pointé du doigt Dans la haine, je médite, fais les cent pas, le soir dans ma ville mais sans aller nulle part La trahison, ça coûte cher, ça vaut bien plus que trente sous Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir3</t>
+          <t>J'ai tout donné jusqu'à ma confiance, derrière vitres sans tain, on m'a pointé du doigt Dans la haine, je médite, fais les 100 pas, le soir dans ma ville mais sans aller nulle part La trahison ça coûte cher, ça vaut bien plus que trente sous Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir T'arrêtes pas d'chialer depuis qu'la old school a disparu N'est pas MC qui ne sait pas s'adapter, prérogatives pour anus dilaté Seul Damso joue avec le feu à mains nues, je l'ai fumé dans son bahut Rêvent de m'assassiner pourtant me saluent, OG Kush dans l'alu, les chiens renifleurs nous ont pas eu Du chapelet au chambala, t'es Léopold, je suis Mandela Barbu, la haine dans mes propos, vrai kobo comme Lieko Manu Derrière moi, beaucoup de traitres, j'ai le dos couché sur des flèches Iscariote pendu derechef, j'te souhaite la mort ou l'inceste Je n'écoute pas les bruits qui courent, le silence est la musique des sourds À peine je buzz, ça se met déjà à rager donc je m'en vais vers plus grandes cours Six pieds sous terre-erre, le ciel est plus loin que l'enfer-er Fuck Lucifer, loin de ma chair, j'prie pour que seul Dieu m'enterre Le succès me tape sur les nerfs, je pète un ble-câ, j'mets du Jack dans ma bière Je voulais une pute, j'ai reçu le Rap FR, je vis sous l'orage car j'aime quand tout est clair Arrête de fumer m'a dit le cendrier, cent millions de billets f'ront p't'être l'affaire La famille, c'est bien sauf pour évoluer, trahis, j'me sens comme mère devant mes demi-frères, Vie J'ai tout donné jusqu'à ma confiance, derrière vitres sans tain on m'a pointé du doigt Dans la haine, je médite, fais les 100 pas, le soir dans ma ville mais sans aller nulle part La trahison, ça coûte cher, ça vaut bien plus que trente sous Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir Yeah, j'veux une biatch au cur opaque, ma gaule rêve de trouver sa Cléopâtre Je l'ai poignardé, il saigne au calme, sa vie s'abat, son corps se plie en quatre J'veux l'argent d'un franc-maçon, mais la paix du fils de la Vierge Loin des entrailles sans protection, j'ai beaucoup d'enfants si j'en crois ma verge Grande gueule, j'insulte les daronnes, y'a qu'mon ingé' qui peut m'couper la parole Bonne et vieille comme Bouquet Carole, j'l'ai cuite à l'étouffée comme escarole J'like son boule mais je n'pose pas de commentaire, la niquer, je sais comment faire Animal en cage depuis le Pampers, j'viens du même zoo que Black Panthers J'suis pas Charlie si c'est mérité, j'suis plus Mohammed Ali que Cassius Clay J'vais t'niquer sans t'laisser d'héritier ou t'engrosser jusqu'à l'obésité Cagoulé j'la joue S-I-bo-Y, arme de l'Est dans l'coffre du break La bite est dure comme le vécu d'Emery, liberté africaine express Y'a trop de 'tasses, trop de grosses chiennes, y'a plus d'esclaves, que des grosses chaines Ils sont venu piller comme Luc Michel, on est v'nu résister comme Étienne J'suis les garçons, ils sont Hélène, j'suis sur l'toit du monde, t'es sur l'échelle Connexion Bruxelles à Haut-de-Seine, Débrouillard des Enfers jusqu'au Ciel En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir J'ai tout donné jusqu'à ma confiance, derrière vitres sans tain, on m'a pointé du doigt Dans la haine, je médite, fais les cent pas, le soir dans ma ville mais sans aller nulle part La trahison, ça coûte cher, ça vaut bien plus que trente sous Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir3</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>L1, L2, L1, L2 L1, L2, L1, L2 L1, L2, L1, L2 Prince Paw Elle mouille sur mon sofa, j'couvre avec le plaid, j'suis dans la kitchen, pourtant, j'ai un bed Around my neck, c'est des diamants du bled Ah, à part mon glizzy, y a personne qui m'aime À part mon glizzy, y a personne qui m'aime, j'ai dans le viseur une couleur ébène 'bène Encore un négro Bang, pourquoi mon négro Oh ? Pourquoi mon pfiou, pfiou, pfiou, bang Wesh, Dems, Dems Wesh, j'roule avec la bitch dans le coupe, pour piéger un opps, demande Combien ça coûte ? J'l'ai vue cacher son 'phone Oh, fouiller mon 'phon, elle va dans la salle d bain, quand j'dors, j'ai des doutes Pah, pah Pardon, je prends mon pétard quand j'la date Eh-eh, elle a le cavu bien rond comme un eight T'es ma babe, tu s'ras rayée d'la liste quand t'as payé ta dette Elle m'fait du phone sexe quand j'm'envole à l'étranger Oui, j'suis famous, quand je baise, j'peux même plus étrangler Louis, Fendi, elle ferme même plus les onglets, j'crois qu'elle m'a hasba, j'ai les messages en gris Fais-moi cracher plus vite, j'suis garé sur place handi' Oh, j'ai des stories de Tory, blasez-moi Andy Elle est bonne mais pas conne, faut pas écouter c'qu'on dit, bonne mais pas conne, faut pas écouter c'qu'on dit Ice en cur de ice, esquimau Miskina, c'que j'lui mets à là-celle dans son minou Okay Ice en cur de ice, esquimau Miskina, c'que j'lui mets à là-celle dans son minou Ice, yeah You might also like Elle mouille sur mon sofa, j'couvre avec le plaid, j'suis dans la kitchen, pourtant, j'ai un bed Around my neck, c'est des diamants du bled Ah, à part mon glizzy, y a personne qui m'aime À part mon glizzy, y a personne qui m'aime, j'ai dans le viseur une couleur ébène Encore un négro, pourquoi mon négro ? Pourquoi mon pfiou, pfiou, pfiou, bang Oh la la, ouah Je n'fais que dans le désespoir, rah, Amoroso, Amoroso, woh, la vie est noire, rah Zola, Aurél', pas de Émile Émile, muqueuses de putes rempli d'cocaïne 'caïne Jaune est cartonné, le cône est parfumé, font plus de morts qu'Adolf et Staline Yeah Dans sa gorge jusqu'à c'qu'elle vomisse Ouais, dans sa chatte jusqu'à l'agonie Okay J'la démarre Ouh, j'la termine Ouh, j'la démarre Ouh, j'l'extermine Rah Doucement, faudrait pas qu'j'm'incrimine, beaucoup de boucans, beaucoup de querelles Querelles Ces faux rappeurs n'ont plus de flow No, donc ils investissent dans la gestuelle Ouh, ouh, ouh Négro fuchsia dans le négro fuchsia, dans la drogue et la lean, c'est c'qu'ils attendent de mon taux d'mélanine Nouveau ness-bi', j'investis dans le jean, moula, moula blanche dans les narines Ouais Triste vie et sombre enfance Okay, ta mère la pute aurait du faire une fausse couche pour nous épargner ton existence Pfiou, Dems Elle mouille sur mon sofa, j'couvre avec le plaid, j'suis dans la kitchen, pourtant, j'ai un bed Around my neck, c'est des diamants du bled, à part mon glizzy, y a personne qui m'aime À part mon glizzy, y a personne qui m'aime, j'ai dans le viseur une couleur ébène Encore un négro, pourquoi mon négro ? Pourquoi mon pfiou, pfiou Ice en cur de ice Cur de ice, switch, esquimau Wouh Miskina, c'que j'lui mets à là-celle dans son minou C'est chaud Ice en cur de ice, esquimau Esquimau, esquimau Miskina, c'que j'lui mets à là-celle dans son minou Fah, fah, fah, fah, fah Dems, Dems, Dems, Dems, Dems, Dems Zo' Ah-ah-ah Tcheck, mon reuf Tchek, mon reuf</t>
+          <t>L1, L2, L1, L2 L1, L2, L1, L2 L1, L2, L1, L2 Prince Paw Elle mouille sur mon sofa, j'couvre avec le plaid, j'suis dans la kitchen, pourtant, j'ai un bed Around my neck, c'est des diamants du bled Ah, à part mon glizzy, y a personne qui m'aime À part mon glizzy, y a personne qui m'aime, j'ai dans le viseur une couleur ébène 'bène Encore un négro Bang, pourquoi mon négro Oh ? Pourquoi mon pfiou, pfiou, pfiou, bang Wesh, Dems, Dems Wesh, j'roule avec la bitch dans le coupe, pour piéger un opps, demande Combien ça coûte ? J'l'ai vue cacher son 'phone Oh, fouiller mon 'phon, elle va dans la salle d bain, quand j'dors, j'ai des doutes Pah, pah Pardon, je prends mon pétard quand j'la date Eh-eh, elle a le cavu bien rond comme un eight T'es ma babe, tu s'ras rayée d'la liste quand t'as payé ta dette Elle m'fait du phone sexe quand j'm'envole à l'étranger Oui, j'suis famous, quand je baise, j'peux même plus étrangler Louis, Fendi, elle ferme même plus les onglets, j'crois qu'elle m'a hasba, j'ai les messages en gris Fais-moi cracher plus vite, j'suis garé sur place handi' Oh, j'ai des stories de Tory, blasez-moi Andy Elle est bonne mais pas conne, faut pas écouter c'qu'on dit, bonne mais pas conne, faut pas écouter c'qu'on dit Ice en cur de ice, esquimau Miskina, c'que j'lui mets à là-celle dans son minou Okay Ice en cur de ice, esquimau Miskina, c'que j'lui mets à là-celle dans son minou Ice, yeah Elle mouille sur mon sofa, j'couvre avec le plaid, j'suis dans la kitchen, pourtant, j'ai un bed Around my neck, c'est des diamants du bled Ah, à part mon glizzy, y a personne qui m'aime À part mon glizzy, y a personne qui m'aime, j'ai dans le viseur une couleur ébène Encore un négro, pourquoi mon négro ? Pourquoi mon pfiou, pfiou, pfiou, bang Oh la la, ouah Je n'fais que dans le désespoir, rah, Amoroso, Amoroso, woh, la vie est noire, rah Zola, Aurél', pas de Émile Émile, muqueuses de putes rempli d'cocaïne 'caïne Jaune est cartonné, le cône est parfumé, font plus de morts qu'Adolf et Staline Yeah Dans sa gorge jusqu'à c'qu'elle vomisse Ouais, dans sa chatte jusqu'à l'agonie Okay J'la démarre Ouh, j'la termine Ouh, j'la démarre Ouh, j'l'extermine Rah Doucement, faudrait pas qu'j'm'incrimine, beaucoup de boucans, beaucoup de querelles Querelles Ces faux rappeurs n'ont plus de flow No, donc ils investissent dans la gestuelle Ouh, ouh, ouh Négro fuchsia dans le négro fuchsia, dans la drogue et la lean, c'est c'qu'ils attendent de mon taux d'mélanine Nouveau ness-bi', j'investis dans le jean, moula, moula blanche dans les narines Ouais Triste vie et sombre enfance Okay, ta mère la pute aurait du faire une fausse couche pour nous épargner ton existence Pfiou, Dems Elle mouille sur mon sofa, j'couvre avec le plaid, j'suis dans la kitchen, pourtant, j'ai un bed Around my neck, c'est des diamants du bled, à part mon glizzy, y a personne qui m'aime À part mon glizzy, y a personne qui m'aime, j'ai dans le viseur une couleur ébène Encore un négro, pourquoi mon négro ? Pourquoi mon pfiou, pfiou Ice en cur de ice Cur de ice, switch, esquimau Wouh Miskina, c'que j'lui mets à là-celle dans son minou C'est chaud Ice en cur de ice, esquimau Esquimau, esquimau Miskina, c'que j'lui mets à là-celle dans son minou Fah, fah, fah, fah, fah Dems, Dems, Dems, Dems, Dems, Dems Zo' Ah-ah-ah Tcheck, mon reuf Tchek, mon reuf</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ti-di-di-di-di-da Ti-di-di-di-di-da Ti-di-di-di-de J'ai vu comment tu m'as r'gardée, mon charme a fait son effet Son effet On verra, verra qui fera le premier pas, en tout cas, ce s'ra pas moi Moi, moi On m'a dit t'es dangereux mais t'es mignon, ah Ah Lui, c'est trop ma came, oh non Il va m'ramener des problèmes, je sais Je sais Moi, j'aime bien, tu connais, quand c'est pimenté Tu vois plus les autres quand j'suis dans les parages Les parages, ouais Par mes formes, toi, t'es envoûté Envoûté Tu t'en, tu t'en fous des autres, tu m'dis Fais-moi câlin Câlin, oui Par mes formes, toi, t'es envoûté Taille mannequin, mannequin, sans forcer Sans forcer T'as kiffé la dégaine, kiffé la dégaine Oh ouais Mannequin, mannequin, sans forcer Sans forcer Té-ma la dégaine, té-ma la dégaine Ici ça brille, j'peux pas t'expliquer Eh-eh-eh Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Té-ma la dégaine Mannequin, mannequin sans forcer T'as kiffé la dégaine Ouais, té-ma la dégaine You might also like J'déclare une flamme qui effrayera les pompiers Pompiers J'ai cur de pirate, toujours sur le chantier Chantier Tu sais, la moula, j'en connais les dangers Ton mec rêve de faire le milli', moi, ça fait des années qu'j'l'ai fait Eh Allô ? J'ai pris ton numéro chez la cousine des Diallo Oh-oh Elle m'a dit qu't'as un djo mais qu'tu préfères les salauds T'aimeras me détester Oh-oh, j'te f'rai du sale, j'vais pas te respecter Nan Slalom entre tes reins, j'sors en charisme Té-ma la dégaine, té-ma la dégaine Machin dans le machin, plein de salive Té-ma la dégaine On va se sextaper, oh Taille mannequin, mannequin, sans forcer Sans forcer T'as kiffé la dégaine La dégaine, kiffé la dégaine Oh ouais Mannequin, mannequin, sans forcer Yeah Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Té-ma la dégaine Ici ça brille, j'peux pas t'expliquer Eh-eh-eh Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Mannequin, mannequin sans forcer T'as kiffé la dégaine, té-ma la dégaine On se sait en vérité, t'as perdu la raison Ouais Tu m'vas si bien mais sans pression Pression Ouais, j'avoue, là, j'ressens la tension La tension À ton p'tit cur, j'ai capté, j'ai mis l'feu Pou-pouh Il veut rentrer dans ma tête, j'suis choquée J'imaginais pas Ah ouais, t'es piqué de moi ? J'suis piqué Tu veux la totale, doucement T'es plutôt comme ça, mmh J'y vais pas-à-pas Ouais, mmh, moi, j'y vais pas-à-pas Tu vois plus les autres quand j'suis dans les parages Les parages, ouais Par mes formes, toi, t'es envoûté Envoûté Tu t'en, tu t'en fous des autres, tu m'dis Fais-moi câlin Câlin, oui Par mes formes, toi, t'es envoûté T'es trop sur mes côtes T'es trop sur mes côtes J'me pose pas d'questions J'me pose pas d'questions Sur moi, t'es trop chaud Chaud T'es trop sur mes côtes Taille mannequin, mannequin, sans forcer Sans forcer T'as kiffé la dégaine Kiffé la dégaine, oui, kiffé la dégaine Oh oui Mannequin, mannequin, sans forcer Té-ma la dégaine Té-ma la dégaine, oui, té-ma la dégaine Té-ma la dégaine, oh oui Ici ça brille, j'peux pas t'expliquer Eh-eh-eh Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Eh Mannequin, mannequin, sans forcer T'as kiffé la dégaine, té-ma la dégaine Ouais, ouais Mannequin, mannequin, sans forcer Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Mannequin, mannequin, sans forcer T'as kiffé la dégaine, té-ma la dégaine Ouais, ouais Ici ça brille, j'peux pas t'expliquer, expliquer Oh oui Mannequin, mannequin, sans forcer Yeah, yeah, yeah</t>
+          <t>Ti-di-di-di-di-da Ti-di-di-di-di-da Ti-di-di-di-de J'ai vu comment tu m'as r'gardée, mon charme a fait son effet Son effet On verra, verra qui fera le premier pas, en tout cas, ce s'ra pas moi Moi, moi On m'a dit t'es dangereux mais t'es mignon, ah Ah Lui, c'est trop ma came, oh non Il va m'ramener des problèmes, je sais Je sais Moi, j'aime bien, tu connais, quand c'est pimenté Tu vois plus les autres quand j'suis dans les parages Les parages, ouais Par mes formes, toi, t'es envoûté Envoûté Tu t'en, tu t'en fous des autres, tu m'dis Fais-moi câlin Câlin, oui Par mes formes, toi, t'es envoûté Taille mannequin, mannequin, sans forcer Sans forcer T'as kiffé la dégaine, kiffé la dégaine Oh ouais Mannequin, mannequin, sans forcer Sans forcer Té-ma la dégaine, té-ma la dégaine Ici ça brille, j'peux pas t'expliquer Eh-eh-eh Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Té-ma la dégaine Mannequin, mannequin sans forcer T'as kiffé la dégaine Ouais, té-ma la dégaine J'déclare une flamme qui effrayera les pompiers Pompiers J'ai cur de pirate, toujours sur le chantier Chantier Tu sais, la moula, j'en connais les dangers Ton mec rêve de faire le milli', moi, ça fait des années qu'j'l'ai fait Eh Allô ? J'ai pris ton numéro chez la cousine des Diallo Oh-oh Elle m'a dit qu't'as un djo mais qu'tu préfères les salauds T'aimeras me détester Oh-oh, j'te f'rai du sale, j'vais pas te respecter Nan Slalom entre tes reins, j'sors en charisme Té-ma la dégaine, té-ma la dégaine Machin dans le machin, plein de salive Té-ma la dégaine On va se sextaper, oh Taille mannequin, mannequin, sans forcer Sans forcer T'as kiffé la dégaine La dégaine, kiffé la dégaine Oh ouais Mannequin, mannequin, sans forcer Yeah Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Té-ma la dégaine Ici ça brille, j'peux pas t'expliquer Eh-eh-eh Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Mannequin, mannequin sans forcer T'as kiffé la dégaine, té-ma la dégaine On se sait en vérité, t'as perdu la raison Ouais Tu m'vas si bien mais sans pression Pression Ouais, j'avoue, là, j'ressens la tension La tension À ton p'tit cur, j'ai capté, j'ai mis l'feu Pou-pouh Il veut rentrer dans ma tête, j'suis choquée J'imaginais pas Ah ouais, t'es piqué de moi ? J'suis piqué Tu veux la totale, doucement T'es plutôt comme ça, mmh J'y vais pas-à-pas Ouais, mmh, moi, j'y vais pas-à-pas Tu vois plus les autres quand j'suis dans les parages Les parages, ouais Par mes formes, toi, t'es envoûté Envoûté Tu t'en, tu t'en fous des autres, tu m'dis Fais-moi câlin Câlin, oui Par mes formes, toi, t'es envoûté T'es trop sur mes côtes T'es trop sur mes côtes J'me pose pas d'questions J'me pose pas d'questions Sur moi, t'es trop chaud Chaud T'es trop sur mes côtes Taille mannequin, mannequin, sans forcer Sans forcer T'as kiffé la dégaine Kiffé la dégaine, oui, kiffé la dégaine Oh oui Mannequin, mannequin, sans forcer Té-ma la dégaine Té-ma la dégaine, oui, té-ma la dégaine Té-ma la dégaine, oh oui Ici ça brille, j'peux pas t'expliquer Eh-eh-eh Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Eh Mannequin, mannequin, sans forcer T'as kiffé la dégaine, té-ma la dégaine Ouais, ouais Mannequin, mannequin, sans forcer Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Mannequin, mannequin, sans forcer T'as kiffé la dégaine, té-ma la dégaine Ouais, ouais Ici ça brille, j'peux pas t'expliquer, expliquer Oh oui Mannequin, mannequin, sans forcer Yeah, yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ikaz Nwaar Eh, sale Dems, eh Oseille, dealer, crimes, proxénètes J'suis dans le business, j'n'écris plus de textes, faut qu'j'm'y mette Nwaar Combien vaut ton bling-bling ? J'compte plus pour être honnête Le linge frotte, sent la barrette de shit ouzbek B-b-b-bang Ratatata, c'est le bruit du saal Saal Ne fais pas de feat, j'te nique sur le ring et sur l'instrumentale Nwaar Barillet est chargé, loin des plages de galets, je bosse Prends ta pilule, sinon mère de Lior saura qu'j'ai un gosse Jamais Oseille, dealer, crimes, proxénètes Ouais, Ouais J'suis dans le business, j'n'écris plus de textes, faut qu'j'm'y mette Combien vaut ton bling-bling ? J'compte plus pour être honnête Non je n'sais plus Le linge frotte, sent la barrette de shit ouzbekYou might also like7</t>
+          <t>Ikaz Nwaar Eh, sale Dems, eh Oseille, dealer, crimes, proxénètes J'suis dans le business, j'n'écris plus de textes, faut qu'j'm'y mette Nwaar Combien vaut ton bling-bling ? J'compte plus pour être honnête Le linge frotte, sent la barrette de shit ouzbek B-b-b-bang Ratatata, c'est le bruit du saal Saal Ne fais pas de feat, j'te nique sur le ring et sur l'instrumentale Nwaar Barillet est chargé, loin des plages de galets, je bosse Prends ta pilule, sinon mère de Lior saura qu'j'ai un gosse Jamais Oseille, dealer, crimes, proxénètes Ouais, Ouais J'suis dans le business, j'n'écris plus de textes, faut qu'j'm'y mette Combien vaut ton bling-bling ? J'compte plus pour être honnête Non je n'sais plus Le linge frotte, sent la barrette de shit ouzbek7</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Baby Baby Baby Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Ce love est dangereux et se consomme comme une drogue Drogue La première fois qu'on s'est vus, c'était nasty dans la loge Loge J'aime beaucoup ton approche 'che mais tu sais, j'n'aime que les lovés, mon cur est codé, nan Mais que dois-je encore t'expliquer ? Qui pourrait éclaircir ce mystère que t'entretiens autour de moi ? La nuit nous appartient mais tu veux continuer, jusqu'à tout déchirer Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Ma life Yes, babe, chemise ouverte You might also like Oh-la-la-la-la-la, j'n'ai plus vraiment le moral, la-la-la-la Des putes à foison, serviettes étanches mouillent comme dauphins, dauphines Coquine, salope, oui Salope veut mon juice comme toutes ses copines Hey J't'ai menti dans les yeux Eh, j't'ai dit qu'j'tais amoureux Ouais Mais dis-moi, qu'est-ce qu'un cur brisé pourrait faire de mieux ? Mmh Avancer seuls à deux Oui, traverser vent et feu Oui Dire au monde qu'au final, souffrir, c'est c'qu'on fait de mieux, oh, oh, oh-oh Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Essuie toi ta salive, t'es comme toutes tes copines Un peu trop possessive, ne t'approche pas, j'suis nocif Oh, na-na-na-na, la tain-p' me grimpe et saute sur moi J'te préviens, faut qu'ça reste lowkey, ils calculent pas c'qu'on dit, des fois, j'm'ennuie Donc je rode toute la night, toute la night Donc je rode toute la night Oh baby, donc je rode, toute la night Oh-oh-oh-oh Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Toute ma life Oh, babe, it's alright Oh, babe, it's alright Oh, babe, it's alright1</t>
+          <t>Baby Baby Baby Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Ce love est dangereux et se consomme comme une drogue Drogue La première fois qu'on s'est vus, c'était nasty dans la loge Loge J'aime beaucoup ton approche 'che mais tu sais, j'n'aime que les lovés, mon cur est codé, nan Mais que dois-je encore t'expliquer ? Qui pourrait éclaircir ce mystère que t'entretiens autour de moi ? La nuit nous appartient mais tu veux continuer, jusqu'à tout déchirer Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Ma life Yes, babe, chemise ouverte Oh-la-la-la-la-la, j'n'ai plus vraiment le moral, la-la-la-la Des putes à foison, serviettes étanches mouillent comme dauphins, dauphines Coquine, salope, oui Salope veut mon juice comme toutes ses copines Hey J't'ai menti dans les yeux Eh, j't'ai dit qu'j'tais amoureux Ouais Mais dis-moi, qu'est-ce qu'un cur brisé pourrait faire de mieux ? Mmh Avancer seuls à deux Oui, traverser vent et feu Oui Dire au monde qu'au final, souffrir, c'est c'qu'on fait de mieux, oh, oh, oh-oh Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Essuie toi ta salive, t'es comme toutes tes copines Un peu trop possessive, ne t'approche pas, j'suis nocif Oh, na-na-na-na, la tain-p' me grimpe et saute sur moi J'te préviens, faut qu'ça reste lowkey, ils calculent pas c'qu'on dit, des fois, j'm'ennuie Donc je rode toute la night, toute la night Donc je rode toute la night Oh baby, donc je rode, toute la night Oh-oh-oh-oh Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Toute ma life Oh, babe, it's alright Oh, babe, it's alright Oh, babe, it's alright1</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ponko Ouais, Ponko, vie Santos, vie Ah oui, Dems, he Négro sort du tieks ouais Gent-ar, full espèce sale Bédo, spliff au bec En cas d'embrouille, armes de l'est Y a plus d' si si la famille, non jamais Personne quand j'étais en hess Trente-quatre centimes dans le compte en banque clair Aujourd'hui, resto j'paye toujours en tous ensemble ouais Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh Dems Mucho dinero, ooh rah, rah Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh Dems Mucho dinero, ooh ouais You might also like Pas plus raciste que le j'ai un ami noir j'connais Complexe de taille de bite dans l'urinoir j'connais pas Un gros cul peut cacher l'visage d'un trans bah oui En deux projets j'me tape déjà toute la France Ça saoule comme quand ton plan cul s'met en couple ouais Depuis que t'es morte la vie n'vaut plus c'qu'elle me coûte amnésie Des larmes des fois j'en verse très peu On t'aime sauf quand tu perces bah ouais Tu parles que d'tes classiques d'antan c'est qu'c'est mort mort, mort, mort Tuer l'beat me demande vraiment plus d'effort bah ouais La mort n'a pas de guest jamais J'partirai que si j'y reste vie Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh Dems Mucho dinero, ooh rah, rah Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh ouais Mucho dinero, ooh oui Dems rah, rah Vie vie Santos,vie Ponko, oohh1</t>
+          <t>Ponko Ouais, Ponko, vie Santos, vie Ah oui, Dems, he Négro sort du tieks ouais Gent-ar, full espèce sale Bédo, spliff au bec En cas d'embrouille, armes de l'est Y a plus d' si si la famille, non jamais Personne quand j'étais en hess Trente-quatre centimes dans le compte en banque clair Aujourd'hui, resto j'paye toujours en tous ensemble ouais Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh Dems Mucho dinero, ooh rah, rah Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh Dems Mucho dinero, ooh ouais Pas plus raciste que le j'ai un ami noir j'connais Complexe de taille de bite dans l'urinoir j'connais pas Un gros cul peut cacher l'visage d'un trans bah oui En deux projets j'me tape déjà toute la France Ça saoule comme quand ton plan cul s'met en couple ouais Depuis que t'es morte la vie n'vaut plus c'qu'elle me coûte amnésie Des larmes des fois j'en verse très peu On t'aime sauf quand tu perces bah ouais Tu parles que d'tes classiques d'antan c'est qu'c'est mort mort, mort, mort Tuer l'beat me demande vraiment plus d'effort bah ouais La mort n'a pas de guest jamais J'partirai que si j'y reste vie Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh Dems Mucho dinero, ooh rah, rah Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh ouais Mucho dinero, ooh oui Dems rah, rah Vie vie Santos,vie Ponko, oohh1</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Yeah Ouais Yeah, yeah Yeah J'suis le pote du rappeur dans l'clip qui n'parle jamais Nan Fait des signes d'vant la caméra, l'shit fume sans arrêt Ouais Celui qui tient le calibre Poum, poum Dans l'son, on l'voit vite fait à la fin face cam, regard méchant, j't'allume Pah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Yeah You-you-you-youvoi On s'contente pas d'faire du sale dans les pe-cli Nan Souvent sa vie qu'on raconte par les OG Celui qui traîn dans la zone Toi, devrais achète ls CD pour sout'nir la famille Oui Celui qu'tu croises dans les soirées Dans les studios Ouais, dans les tournées Oui You might also like J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Moi j'suis qu'un thug, j'sais rien faire de bien Ça tire des bastos réelles d'où je viens Pourquoi ai-je tant d'ennemis ? Oh oui Des fils de putains dans le tiekson qui rodent pour me té-sau Pourquoi noir, jeune et riche attire mauvais il ? Les risques et les rageux veulent briser nos rêves Les envieux veulent pas trop connaître sex friends, yeah Ambiance électrique, mon sexe est un taser Piou On f'ra du moins d'dix-huit avec mon majeur Piou Tout est dans la musique dans le premier quart d'heure J'regarde ton physique, mon esprit est ailleurs Ouais Tu m'fais perdre la raison, mots vicieux dans l'oreille Oui Fuck les quatres saisons, j'te préfère en chaleur Love Mon cur en pleine cuisson, tu connais la saveur, le bendo J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Yeah6</t>
+          <t>Yeah Ouais Yeah, yeah Yeah J'suis le pote du rappeur dans l'clip qui n'parle jamais Nan Fait des signes d'vant la caméra, l'shit fume sans arrêt Ouais Celui qui tient le calibre Poum, poum Dans l'son, on l'voit vite fait à la fin face cam, regard méchant, j't'allume Pah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Yeah You-you-you-youvoi On s'contente pas d'faire du sale dans les pe-cli Nan Souvent sa vie qu'on raconte par les OG Celui qui traîn dans la zone Toi, devrais achète ls CD pour sout'nir la famille Oui Celui qu'tu croises dans les soirées Dans les studios Ouais, dans les tournées Oui J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Moi j'suis qu'un thug, j'sais rien faire de bien Ça tire des bastos réelles d'où je viens Pourquoi ai-je tant d'ennemis ? Oh oui Des fils de putains dans le tiekson qui rodent pour me té-sau Pourquoi noir, jeune et riche attire mauvais il ? Les risques et les rageux veulent briser nos rêves Les envieux veulent pas trop connaître sex friends, yeah Ambiance électrique, mon sexe est un taser Piou On f'ra du moins d'dix-huit avec mon majeur Piou Tout est dans la musique dans le premier quart d'heure J'regarde ton physique, mon esprit est ailleurs Ouais Tu m'fais perdre la raison, mots vicieux dans l'oreille Oui Fuck les quatres saisons, j'te préfère en chaleur Love Mon cur en pleine cuisson, tu connais la saveur, le bendo J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Yeah6</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Comme tes formes se dessinent, ta robe nous laisse imaginer hein Que pour toi, c'est impossible de dire oui ouh Contente-toi d'me faire un signe, juste un battement de cil ouh oui Si jamais tu te décides de dire oui ouh J'ai commencé par demander ton nom demander ton nom Et quelques minutes pour m'écouter, -couter, -couter, -couter ouh Comment devenir plus proche que ton ombre Au point d'avoir le souffle coupé, coupé, coupé, coupé ouh Et j'ai des projets pour toute une vie J'suis un peu différent de celui qui chante BruxellesVie ouais J'nous vois bien bloqués dans cette même nuit À braquer l'soleil pour empêcher quça se termine eh Laisse-moi t'accompagner Laisse-moi t'prouver que cette nuit durera sûrement des années Ma chérie laisse-moi tenlever Tous tes, tous tes, tous tes ouh Comme tes formes se dessinent se dessinent, ta robe nous laisse imaginer ta robe nous laisse imaginer Que pour toi, c'est impossible de dire oui ouh Contente-toi d'me faire un signe un signe, juste un battement de cil ouh oui Si jamais tu te décides de dire oui You might also like Dans ta tte-cha, je ferai oh oh ah J't'ai vu briser tous les curs des bricraveurs du club, des gros, gros bras Lamour, jconnais que celui tiré par les cheveux pendant le doggy, me dmande pas pourquoi Très écologique quand il s'agit de ta plastique, girl Mauvais pronostic, askip, t'aimes pas les blacks, ni beurs J'loue un jet pour un date, j'f'rais la tchatche du septième ciel, ah bah oui J'créé d'la moula, on vivra comme dans clip des cains-ri T'enlèves ta robe, j'perds la vue T'es comme du shit dans la rue tu t'fais désirer pour mieux t'fumer dans une feuille sale Si j'demande ta main, c'est pour la mettre sous le froc Balmain, y a pas de fiançailles ici J'me sens comme Biggie après Juicy J'nous vois à deux mais sur un tricycle Un marmot, une villa marbrée à Marbella Une vie dans laquelle les aiguilles tournent mais où le temps ne passe pas Dems Comme tes formes se dessinent se dessinent, ta robe nous laisse imaginer ta robe nous laisse imaginer Que pour toi, c'est impossible de dire oui ouh Contente-toi d'me faire un signe un signe, juste un battement de cil ouh oui Si jamais tu te décides de dire oui ouh Un signe Ta robe nous laisse imaginer Ouh Ta robe nous laisse imaginer Oh oh ah1</t>
+          <t>Comme tes formes se dessinent, ta robe nous laisse imaginer hein Que pour toi, c'est impossible de dire oui ouh Contente-toi d'me faire un signe, juste un battement de cil ouh oui Si jamais tu te décides de dire oui ouh J'ai commencé par demander ton nom demander ton nom Et quelques minutes pour m'écouter, -couter, -couter, -couter ouh Comment devenir plus proche que ton ombre Au point d'avoir le souffle coupé, coupé, coupé, coupé ouh Et j'ai des projets pour toute une vie J'suis un peu différent de celui qui chante BruxellesVie ouais J'nous vois bien bloqués dans cette même nuit À braquer l'soleil pour empêcher quça se termine eh Laisse-moi t'accompagner Laisse-moi t'prouver que cette nuit durera sûrement des années Ma chérie laisse-moi tenlever Tous tes, tous tes, tous tes ouh Comme tes formes se dessinent se dessinent, ta robe nous laisse imaginer ta robe nous laisse imaginer Que pour toi, c'est impossible de dire oui ouh Contente-toi d'me faire un signe un signe, juste un battement de cil ouh oui Si jamais tu te décides de dire oui Dans ta tte-cha, je ferai oh oh ah J't'ai vu briser tous les curs des bricraveurs du club, des gros, gros bras Lamour, jconnais que celui tiré par les cheveux pendant le doggy, me dmande pas pourquoi Très écologique quand il s'agit de ta plastique, girl Mauvais pronostic, askip, t'aimes pas les blacks, ni beurs J'loue un jet pour un date, j'f'rais la tchatche du septième ciel, ah bah oui J'créé d'la moula, on vivra comme dans clip des cains-ri T'enlèves ta robe, j'perds la vue T'es comme du shit dans la rue tu t'fais désirer pour mieux t'fumer dans une feuille sale Si j'demande ta main, c'est pour la mettre sous le froc Balmain, y a pas de fiançailles ici J'me sens comme Biggie après Juicy J'nous vois à deux mais sur un tricycle Un marmot, une villa marbrée à Marbella Une vie dans laquelle les aiguilles tournent mais où le temps ne passe pas Dems Comme tes formes se dessinent se dessinent, ta robe nous laisse imaginer ta robe nous laisse imaginer Que pour toi, c'est impossible de dire oui ouh Contente-toi d'me faire un signe un signe, juste un battement de cil ouh oui Si jamais tu te décides de dire oui ouh Un signe Ta robe nous laisse imaginer Ouh Ta robe nous laisse imaginer Oh oh ah1</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Woh, oh, oh, oh Yeah Yeah Woh, oh, oh, oh Yeah Yeah Elle aime quand j'lui prends les fesses par le jean J'parle pour de vrai, pas de films Je n'veux pas briser ton cur, c'est débile J'la zouk comme si j'venais tout droit des îles Les autres négros veulent s'la faire pour la frime Woh, oh, oh, oh, baby, move slow, slow, woh, oh, oh, oh Move slow, slow, woh, oh, oh, oh Elle veut qu'j'la bang comme un gun Baby, j'vais t'donner du fun Ne me parle pas de ton keum Ne me parle pas de ton keum J'reviendrai t'voir à l'occas' J'te laisserai conduire ma Mas' J'te laisserai conduire ma Mas' Je sais qu'tu veux m'aimer, je sais qu'tu veux m'aimer, je sais Je sais qu'tu veux baiser, je sais qu'tu veux baiser avec moi Je sais qu'tu veux rouler, je sais qu'tu veux rouler avec moi You might also like Baby, move slow, slow, woh, oh, oh, oh Slow, woh, oh, oh, oh Slow, slow, woh, oh, oh, oh Baby, move slow, slow, woh, oh, oh, oh Elle déshabille ses émotions, maquille toutes ses intentions Ton cur demande frais d'réparation pour toutes mes déclarations Baignons nous dans les larmes de l'ivresse J'ai d'la bonne beuh pour qu'ça s'passe en finesse Virginité émotionnelle Faux circoncis car j'te baiserai quand même Les dames et les jouvencelles accourent, coureur de jupons de la basse-cour Tes boyaux rejettent ma semence Demandent si y'avait pas d'autres trous J'suis trop nul à chier dans la romance Un peu comme les blagues de Canteloup Tu veux d'l'amour et d'la violence Mais entre nous il n'y aura jamais de nous J'préfère te voir en photo car t'es plus bonne en faux J'me présente D.A.M.S.O, sur ton corps il n'y a plus de veto Dans tes fesses, je suis entre Dans mon cur tu n'es qu'entre parenthèses J'passe ma main sur tes hanches Tu ressens chaleur, vent glacial et neige Dans tes fesses je suis entre Dans mon cur tu n'es qu'entre parenthèses J'passe ma main sur tes hanches Tu ressens chaleur, vent glacial et neige Attends... Laisse un peu j'vais tester un truc Juste un dernier, dernier verre après promis c'est tout Bédo weed dans le veau-cer j'suis complètement ailleurs Juste un dernier, dernier verre après promis c'est tout Bédo weed dans le veau-cer j'suis complètement ailleurs Ailleurs, ailleurs, ailleurs Bédo weed dans le veau-cer j'suis complètement ailleurs Ailleurs, ailleurs, ailleurs Baby, move slow, slow, woh, oh, oh, oh Slow, woh, oh, oh, oh2</t>
+          <t>Woh, oh, oh, oh Yeah Yeah Woh, oh, oh, oh Yeah Yeah Elle aime quand j'lui prends les fesses par le jean J'parle pour de vrai, pas de films Je n'veux pas briser ton cur, c'est débile J'la zouk comme si j'venais tout droit des îles Les autres négros veulent s'la faire pour la frime Woh, oh, oh, oh, baby, move slow, slow, woh, oh, oh, oh Move slow, slow, woh, oh, oh, oh Elle veut qu'j'la bang comme un gun Baby, j'vais t'donner du fun Ne me parle pas de ton keum Ne me parle pas de ton keum J'reviendrai t'voir à l'occas' J'te laisserai conduire ma Mas' J'te laisserai conduire ma Mas' Je sais qu'tu veux m'aimer, je sais qu'tu veux m'aimer, je sais Je sais qu'tu veux baiser, je sais qu'tu veux baiser avec moi Je sais qu'tu veux rouler, je sais qu'tu veux rouler avec moi Baby, move slow, slow, woh, oh, oh, oh Slow, woh, oh, oh, oh Slow, slow, woh, oh, oh, oh Baby, move slow, slow, woh, oh, oh, oh Elle déshabille ses émotions, maquille toutes ses intentions Ton cur demande frais d'réparation pour toutes mes déclarations Baignons nous dans les larmes de l'ivresse J'ai d'la bonne beuh pour qu'ça s'passe en finesse Virginité émotionnelle Faux circoncis car j'te baiserai quand même Les dames et les jouvencelles accourent, coureur de jupons de la basse-cour Tes boyaux rejettent ma semence Demandent si y'avait pas d'autres trous J'suis trop nul à chier dans la romance Un peu comme les blagues de Canteloup Tu veux d'l'amour et d'la violence Mais entre nous il n'y aura jamais de nous J'préfère te voir en photo car t'es plus bonne en faux J'me présente D.A.M.S.O, sur ton corps il n'y a plus de veto Dans tes fesses, je suis entre Dans mon cur tu n'es qu'entre parenthèses J'passe ma main sur tes hanches Tu ressens chaleur, vent glacial et neige Dans tes fesses je suis entre Dans mon cur tu n'es qu'entre parenthèses J'passe ma main sur tes hanches Tu ressens chaleur, vent glacial et neige Attends... Laisse un peu j'vais tester un truc Juste un dernier, dernier verre après promis c'est tout Bédo weed dans le veau-cer j'suis complètement ailleurs Juste un dernier, dernier verre après promis c'est tout Bédo weed dans le veau-cer j'suis complètement ailleurs Ailleurs, ailleurs, ailleurs Bédo weed dans le veau-cer j'suis complètement ailleurs Ailleurs, ailleurs, ailleurs Baby, move slow, slow, woh, oh, oh, oh Slow, woh, oh, oh, oh2</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah Damso dems, bang, bang, bang, bang Y a pas que le sexe dans la vie, j'ai du mal à comprendre L'amour marchera que si on m'enlève ma troisième jambe Je marche dans l'ombre, les gros culs me servent de lumière Je te perds de vue à force de te prendre par derrière T'aimerais que je tombe amoureux de ce qu'il y a sous ta chair Tes efforts ont payé mais je suis beaucoup trop cher Tes copines ne m'aiment pas, disent que c'est peine perdue Mais te disent pas que leur fantasme est de m'avoir tout nu Où t'en es, tu sais plus mais je sais que tu penses à moi T'en peux plus, tu cherches mon coup de pouce pour te mettre des doigts T'es assez bonne, tes attributs ont beaucoup de kilojoules Si j'tourne souvent en rond, c'est pour me rappeler ton boule C'est pas de l'amour que je ressens mais c'est plus que du sexe Je veux pas qu'on fasse du chemin mais qu'on aille plus loin dans tes fesses J'suis un salaud, t'es une gow bien, va checker un autre négro, je mérite pas que tu sois... Ma putain, ma putain, t'es belle de loin et de loin la plus belle Donc commence pas à faire ta putain, ta putain Sinon biatch, je te traiterai comme telle T'es une lumière, pourquoi joues-tu le rôle de l'ombre ? Pourquoi creuses-tu ta tombe ? Je veux pas t'péter comme toutes ces bombes Mais bon, si t'insistes comme une pute, je te mettrai que dans le uc' Il faut deux trous pour faire un monde Ma putain, ma putain, ma putain Ma putain, ma putain, ma putain You might also like T'aimes c'que j'écris, à croire que ma plume te donne des ailes La vie tient qu'à un fil, la mienne tient à ton string ficelle Je m'accroche à toi, j'avoue et puis qu'on colle et serrer Mais je t'avoue direct que je serai pas fidèle Je te tchatcherai dans le bus, tu te croiras en Lamborghini T'attraperas des puces tellement je te prendrai en doggy Ma carotte en bouche, grignote-la comme Bugs Bunny Si tu vois des négros louches, t'inquiètes pas c'est le OPG Le cul entre deux chaises, la queue entre deux fesses Tu veux prendre cher dans le boule, ça t'coûtera la peau des fesses Le cul plus rond qu'un pneu, qu'est ce que t'es bien roulée J'te kiffe peu à peu, je peux plus capituler Ton côté immaculé, mais que j'rêve de t'enculer Je suis malsain, libertin, vas check un autre négro, nan, je mérite pas que tu sois Ma putain, ma putain, t'es belle de loin et de loin la plus belle Donc commence pas à faire ta putain, ta putain Sinon biatch, je te traiterai comme telle T'es une lumière, pourquoi joues-tu le rôle de l'ombre ? Pourquoi creuses-tu ta tombe ? Je veux pas te péter comme toutes ces bombes Mais bon, si t'insistes comme une pute, je te mettrai que dans le uc' Il faut deux trous pour faire un monde Ma putain, ma putain, ma putain Ma putain, ma putain, ma putain4</t>
+          <t>Yeah, yeah, yeah Damso dems, bang, bang, bang, bang Y a pas que le sexe dans la vie, j'ai du mal à comprendre L'amour marchera que si on m'enlève ma troisième jambe Je marche dans l'ombre, les gros culs me servent de lumière Je te perds de vue à force de te prendre par derrière T'aimerais que je tombe amoureux de ce qu'il y a sous ta chair Tes efforts ont payé mais je suis beaucoup trop cher Tes copines ne m'aiment pas, disent que c'est peine perdue Mais te disent pas que leur fantasme est de m'avoir tout nu Où t'en es, tu sais plus mais je sais que tu penses à moi T'en peux plus, tu cherches mon coup de pouce pour te mettre des doigts T'es assez bonne, tes attributs ont beaucoup de kilojoules Si j'tourne souvent en rond, c'est pour me rappeler ton boule C'est pas de l'amour que je ressens mais c'est plus que du sexe Je veux pas qu'on fasse du chemin mais qu'on aille plus loin dans tes fesses J'suis un salaud, t'es une gow bien, va checker un autre négro, je mérite pas que tu sois... Ma putain, ma putain, t'es belle de loin et de loin la plus belle Donc commence pas à faire ta putain, ta putain Sinon biatch, je te traiterai comme telle T'es une lumière, pourquoi joues-tu le rôle de l'ombre ? Pourquoi creuses-tu ta tombe ? Je veux pas t'péter comme toutes ces bombes Mais bon, si t'insistes comme une pute, je te mettrai que dans le uc' Il faut deux trous pour faire un monde Ma putain, ma putain, ma putain Ma putain, ma putain, ma putain T'aimes c'que j'écris, à croire que ma plume te donne des ailes La vie tient qu'à un fil, la mienne tient à ton string ficelle Je m'accroche à toi, j'avoue et puis qu'on colle et serrer Mais je t'avoue direct que je serai pas fidèle Je te tchatcherai dans le bus, tu te croiras en Lamborghini T'attraperas des puces tellement je te prendrai en doggy Ma carotte en bouche, grignote-la comme Bugs Bunny Si tu vois des négros louches, t'inquiètes pas c'est le OPG Le cul entre deux chaises, la queue entre deux fesses Tu veux prendre cher dans le boule, ça t'coûtera la peau des fesses Le cul plus rond qu'un pneu, qu'est ce que t'es bien roulée J'te kiffe peu à peu, je peux plus capituler Ton côté immaculé, mais que j'rêve de t'enculer Je suis malsain, libertin, vas check un autre négro, nan, je mérite pas que tu sois Ma putain, ma putain, t'es belle de loin et de loin la plus belle Donc commence pas à faire ta putain, ta putain Sinon biatch, je te traiterai comme telle T'es une lumière, pourquoi joues-tu le rôle de l'ombre ? Pourquoi creuses-tu ta tombe ? Je veux pas te péter comme toutes ces bombes Mais bon, si t'insistes comme une pute, je te mettrai que dans le uc' Il faut deux trous pour faire un monde Ma putain, ma putain, ma putain Ma putain, ma putain, ma putain4</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ah, ah, ah, too much sauce Envoie les dinero Ouf J'ai la technique, le flow, les armes, le seum, l'envie de niquer ta mère et j'suis dangereux Ah Tu veux la guerre ? J'fais partie de ceux qu'ont marqué l'histoire et j'suis malheureux Ah Pas la même vie, pas la même SACEM, pas la même équipe, tous des peureux Pas le même don, pas le même délire, moi, c'est Dom Pérignon, toi, c'est vin mousseux J'ai plus aucune envie d'vous plaire, j'veux plus me justifier Je sais qu't'as fait tomber l'échelle pour pas qu'je puisse monter T'es en chien, moi, j'suis aux Seychelles, mon biff est dispatché Mes enfants vivront d'ma SACEM même quand j's'rai dé-côté J'te fais danser sur du zouk, d'la zumba ou du slow T'as reconnu ma voix, j'suis en feat avec Damso Sale J'suis tout c'que tu n'es pas, appelle-moi Lancelot T'as reconnu ma voix, j'suis en feat avec Damso Dems Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Les grosses bitchs, ne me regardez pas Nan Maisons d'disque, ne me parlez pas Oh Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Dans les gros titres, on ne voit plus qu'toi Ouais Tu crois que t'es quelqu'un parce qu'on parle de toi Ouh You might also like Pour passer le temps, j'achète des appartements Dems Wouh J'suis indépendant donc y a plus d'intervenant Noir J'ai fait des enfants dans sa ge-gor, au temps pour moi Ouais Son cur en plein tourment Damn, son corps vit de versements Sale Insulté sur réseaux sociaux Oui, je prends mes distances, j'étudie le droit devant Ouais T'as l'souffle et cours après l'métro Eh mais gagner du temps, au fond, n'est qu'une perte de temps Tu connais Sérénité tatouée pour ne plus la perdre Jamais Vers l'horizon, tout le vert s'égare Bah ouais J'ai tout niqué dans ce game, plus grand chose à faire Gamin J'mets des couplets dans mon compte épargne Dems Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Les grosses bitchs, ne me regardez pas Nan Maisons d'disque, ne me parlez pas Oh Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Dans les gros titres, on ne voit plus qu'toi Ouais Tu crois que t'es quelqu'un parce qu'on parle de toi Ouh Envoie des pesos, dinero, pesos Envoie des pesos, dinero, pesos Envoie des pesos, dinero, pesos Envoie des pesos, joue pas avec moi, mon soss Envoie des pesos, dinero, pesos Envoie Envoie des pesos Envoie, dinero Envoie, pesos Envoie Envoie des pesos, dinero, pesos Envoie Envoie des pesos, joue pas avec moi, mon soss Personne, personne, personne, personne Personne, personne, personne, personne Personne, personne, personne, personne Nobody, nobody, nobody, nobody Les grosses bitchs, ne me regardez pas Jamais Maisons d'disque, ne me parlez pas Oh Personne, personne, personne, personne Personne, personne, personne, personne Personne, personne, personne, personne Nobody, nobody, nobody, nobody Dans les gros titres, on ne voit plus qu'toi Jamais Tu crois que t'es quelqu'un parce qu'on parle de toi Vie Nobody, nobody, nobody, nobody Too much, too much Ça cest Vie</t>
+          <t>Ah, ah, ah, too much sauce Envoie les dinero Ouf J'ai la technique, le flow, les armes, le seum, l'envie de niquer ta mère et j'suis dangereux Ah Tu veux la guerre ? J'fais partie de ceux qu'ont marqué l'histoire et j'suis malheureux Ah Pas la même vie, pas la même SACEM, pas la même équipe, tous des peureux Pas le même don, pas le même délire, moi, c'est Dom Pérignon, toi, c'est vin mousseux J'ai plus aucune envie d'vous plaire, j'veux plus me justifier Je sais qu't'as fait tomber l'échelle pour pas qu'je puisse monter T'es en chien, moi, j'suis aux Seychelles, mon biff est dispatché Mes enfants vivront d'ma SACEM même quand j's'rai dé-côté J'te fais danser sur du zouk, d'la zumba ou du slow T'as reconnu ma voix, j'suis en feat avec Damso Sale J'suis tout c'que tu n'es pas, appelle-moi Lancelot T'as reconnu ma voix, j'suis en feat avec Damso Dems Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Les grosses bitchs, ne me regardez pas Nan Maisons d'disque, ne me parlez pas Oh Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Dans les gros titres, on ne voit plus qu'toi Ouais Tu crois que t'es quelqu'un parce qu'on parle de toi Ouh Pour passer le temps, j'achète des appartements Dems Wouh J'suis indépendant donc y a plus d'intervenant Noir J'ai fait des enfants dans sa ge-gor, au temps pour moi Ouais Son cur en plein tourment Damn, son corps vit de versements Sale Insulté sur réseaux sociaux Oui, je prends mes distances, j'étudie le droit devant Ouais T'as l'souffle et cours après l'métro Eh mais gagner du temps, au fond, n'est qu'une perte de temps Tu connais Sérénité tatouée pour ne plus la perdre Jamais Vers l'horizon, tout le vert s'égare Bah ouais J'ai tout niqué dans ce game, plus grand chose à faire Gamin J'mets des couplets dans mon compte épargne Dems Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Les grosses bitchs, ne me regardez pas Nan Maisons d'disque, ne me parlez pas Oh Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Dans les gros titres, on ne voit plus qu'toi Ouais Tu crois que t'es quelqu'un parce qu'on parle de toi Ouh Envoie des pesos, dinero, pesos Envoie des pesos, dinero, pesos Envoie des pesos, dinero, pesos Envoie des pesos, joue pas avec moi, mon soss Envoie des pesos, dinero, pesos Envoie Envoie des pesos Envoie, dinero Envoie, pesos Envoie Envoie des pesos, dinero, pesos Envoie Envoie des pesos, joue pas avec moi, mon soss Personne, personne, personne, personne Personne, personne, personne, personne Personne, personne, personne, personne Nobody, nobody, nobody, nobody Les grosses bitchs, ne me regardez pas Jamais Maisons d'disque, ne me parlez pas Oh Personne, personne, personne, personne Personne, personne, personne, personne Personne, personne, personne, personne Nobody, nobody, nobody, nobody Dans les gros titres, on ne voit plus qu'toi Jamais Tu crois que t'es quelqu'un parce qu'on parle de toi Vie Nobody, nobody, nobody, nobody Too much, too much Ça cest Vie</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Yeah Damso Yo No, no, no Business illégaux 'llégaux, trafics, weed, bédo Smoke Verdure sur l'té-cô, j'fais de la moula, du seille-o Oh no, no, no, oh no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ? Business illégaux 'llégaux, verdure sur l'té-cô Smoke Trafique, weed, bédo, j'fais de la moula, du seille-o Oh no, no, no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ? À 300 mètres-seconde, la bastos est sortie du canon La mort fut imminente, le nègre était prévenu Un braco, j'repars poches pleines en te-boî, j'suis nonchalant Quelques putes sont en transe, voient qu'le nègre a des revenus, damn Y a que de la monnaie, les pétasses ont donné leur boule Leur boule J'suis complètement stone et j'bédave dans le hall du hood Check mes motherfuck' you-vois dans le dos C'est Damso motherfuck' OPG, négro, j'suis dans ma déf', pétasse, j'ai pas les crocs No J'vis une life dure tellement loin Saal, j'inhale dure-ver ou héro' Smoke J'suis fucked up, j'ai full clopes, le vent consume le bédo No no no no You might also like Business illégaux 'llégaux, trafics, weed, bédo Smoke Verdure sur l'té-cô, j'fais de la moula, du seille-o Oh no, no, no, oh no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ? Business illégaux 'llégaux, verdure sur l'té-cô Smoke Trafique, weed, bédo, j'fais de la moula, du seille-o Oh no, no, no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ?6</t>
+          <t>Yeah Damso Yo No, no, no Business illégaux 'llégaux, trafics, weed, bédo Smoke Verdure sur l'té-cô, j'fais de la moula, du seille-o Oh no, no, no, oh no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ? Business illégaux 'llégaux, verdure sur l'té-cô Smoke Trafique, weed, bédo, j'fais de la moula, du seille-o Oh no, no, no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ? À 300 mètres-seconde, la bastos est sortie du canon La mort fut imminente, le nègre était prévenu Un braco, j'repars poches pleines en te-boî, j'suis nonchalant Quelques putes sont en transe, voient qu'le nègre a des revenus, damn Y a que de la monnaie, les pétasses ont donné leur boule Leur boule J'suis complètement stone et j'bédave dans le hall du hood Check mes motherfuck' you-vois dans le dos C'est Damso motherfuck' OPG, négro, j'suis dans ma déf', pétasse, j'ai pas les crocs No J'vis une life dure tellement loin Saal, j'inhale dure-ver ou héro' Smoke J'suis fucked up, j'ai full clopes, le vent consume le bédo No no no no Business illégaux 'llégaux, trafics, weed, bédo Smoke Verdure sur l'té-cô, j'fais de la moula, du seille-o Oh no, no, no, oh no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ? Business illégaux 'llégaux, verdure sur l'té-cô Smoke Trafique, weed, bédo, j'fais de la moula, du seille-o Oh no, no, no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ?6</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Kenobi, Shadow, Obiwan Kenobi Sedou gang, hey yeah, hey yeah J'viens d'un quartier où y a pas d'issue Tu fais confiance puis, tu finis déçu On vient d'la même sère-mi mais on s'entre-tue À Bruxelles pour rien, ça se tire dessus Ouais, j'suis paro, paro, paro Le système nous a fortement niqué Ouais, j'suis paro, paro, paro Après, ils veulent qu'on sache communiquer Ouais, j'suis paro, paro, paro Ouais, j'suis paro, paro, paro, ouais, ouais, ouais Ouais, j'suis paro, paro, paro Ouais, j'suis paro, paro, paro, ouais, ouais, ouais Mes frères du quartier sont H24 alcoolisés Ça bicrave, ça détaille pour aller voir le Colisée On connait la rue, la vente, les voitures banalisées, ouais, ouais Y a que sur la bonne ppe-fra que je peux miser La juge ne veut plus me condamner, elle sait qu'j'vais tout péter cette année, ouais Deux-trois rageux veulent me caner mais la Kalash' va les calmer, ouais J'ai investi d'l'argent de l'avance dans quelques kilos de beuh kilos de beuh Les stup' me contrôlent et j'évite la taule de peu taule de peu Entre toi et moi, sale fils de tain-p', y a une grosse latence J'ai galéré durant l'enfance, le manque de partage m'offense Très peu de négros comme Virgil Abloh Très peu de négros en Audemars, Hublot, ouais, ouais You might also like J'viens d'un quartier où y a pas d'issue Tu fais confiance puis, tu finis déçu On vient d'la même sère-mi mais on s'entre-tue À Bruxelles pour rien, ça se tire dessus Ouais, j'suis paro, paro, paro Le système nous a fortement niqué Ouais, j'suis paro, paro, paro Après, ils veulent qu'on sache communiquer Ouais, j'suis paro, paro, paro, paro oh la la la la Ouais, j'suis paro, paro, paro, ouais, ouais, ouais Ouais La mort, j'l'ai vue de près elle r'ssemble aux chances qu'on n'm'a pas données Entre nous, plus d'secret si c'n'est les salopes qu'j'ai d'jà serrées C'est la passe à dix dans l'top album, chaque fois, c'est pareil Le rap game n'vend qu'des disquettes, number one, j'fais qu'rendre la pareille Quelques haineux sur le té-cô veulent plus m'passer l'salem Qu'est-c'j'en ai à foutre ? J'suis d'jà à quinze mille eu' par semaine À l'hosto', la daronne s'bat contre la mort, son nouveau challenge DM cul de femelles, coup dil quand j'trouve pas trop l'sommeil L'amour console la haine, la haine empoisonne l'amour Mais j'n'y peux rien c'est Dieu qui donne, les femmes qui reprennent Me traite pas d'fils de pute, le cul d'ta mère m'est très familier Menaces de sombres stup', y a tellement d'preuves que j'peux pas nier Dems J'viens d'un quartier où y a pas d'issue oh la la la la Tu fais confiance puis, tu finis déçu On vient d'la même sère-mi mais on s'entre-tue À Bruxelles pour rien, ça se tire dessus Ouais, j'suis paro, paro, paro Le système nous a fortement niqué Ouais, j'suis paro, paro, paro Après, ils veulent qu'on sache communiquer Entre toi et moi, sale fils de tain-p', y a une grosse latence J'ai galéré durant l'enfance, le manque de partage m'offense Très peu de négros comme Virgil Abloh Très peu de négros en Audemars, Hublot, ouais, ouais1</t>
+          <t>Kenobi, Shadow, Obiwan Kenobi Sedou gang, hey yeah, hey yeah J'viens d'un quartier où y a pas d'issue Tu fais confiance puis, tu finis déçu On vient d'la même sère-mi mais on s'entre-tue À Bruxelles pour rien, ça se tire dessus Ouais, j'suis paro, paro, paro Le système nous a fortement niqué Ouais, j'suis paro, paro, paro Après, ils veulent qu'on sache communiquer Ouais, j'suis paro, paro, paro Ouais, j'suis paro, paro, paro, ouais, ouais, ouais Ouais, j'suis paro, paro, paro Ouais, j'suis paro, paro, paro, ouais, ouais, ouais Mes frères du quartier sont H24 alcoolisés Ça bicrave, ça détaille pour aller voir le Colisée On connait la rue, la vente, les voitures banalisées, ouais, ouais Y a que sur la bonne ppe-fra que je peux miser La juge ne veut plus me condamner, elle sait qu'j'vais tout péter cette année, ouais Deux-trois rageux veulent me caner mais la Kalash' va les calmer, ouais J'ai investi d'l'argent de l'avance dans quelques kilos de beuh kilos de beuh Les stup' me contrôlent et j'évite la taule de peu taule de peu Entre toi et moi, sale fils de tain-p', y a une grosse latence J'ai galéré durant l'enfance, le manque de partage m'offense Très peu de négros comme Virgil Abloh Très peu de négros en Audemars, Hublot, ouais, ouais J'viens d'un quartier où y a pas d'issue Tu fais confiance puis, tu finis déçu On vient d'la même sère-mi mais on s'entre-tue À Bruxelles pour rien, ça se tire dessus Ouais, j'suis paro, paro, paro Le système nous a fortement niqué Ouais, j'suis paro, paro, paro Après, ils veulent qu'on sache communiquer Ouais, j'suis paro, paro, paro, paro oh la la la la Ouais, j'suis paro, paro, paro, ouais, ouais, ouais Ouais La mort, j'l'ai vue de près elle r'ssemble aux chances qu'on n'm'a pas données Entre nous, plus d'secret si c'n'est les salopes qu'j'ai d'jà serrées C'est la passe à dix dans l'top album, chaque fois, c'est pareil Le rap game n'vend qu'des disquettes, number one, j'fais qu'rendre la pareille Quelques haineux sur le té-cô veulent plus m'passer l'salem Qu'est-c'j'en ai à foutre ? J'suis d'jà à quinze mille eu' par semaine À l'hosto', la daronne s'bat contre la mort, son nouveau challenge DM cul de femelles, coup dil quand j'trouve pas trop l'sommeil L'amour console la haine, la haine empoisonne l'amour Mais j'n'y peux rien c'est Dieu qui donne, les femmes qui reprennent Me traite pas d'fils de pute, le cul d'ta mère m'est très familier Menaces de sombres stup', y a tellement d'preuves que j'peux pas nier Dems J'viens d'un quartier où y a pas d'issue oh la la la la Tu fais confiance puis, tu finis déçu On vient d'la même sère-mi mais on s'entre-tue À Bruxelles pour rien, ça se tire dessus Ouais, j'suis paro, paro, paro Le système nous a fortement niqué Ouais, j'suis paro, paro, paro Après, ils veulent qu'on sache communiquer Entre toi et moi, sale fils de tain-p', y a une grosse latence J'ai galéré durant l'enfance, le manque de partage m'offense Très peu de négros comme Virgil Abloh Très peu de négros en Audemars, Hublot, ouais, ouais1</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Da-Da-Da Damso Muhfucker Dems Okay, hmm, yo OPGangsta OPGangsta OPGangsta Yeah La haine trop jeune à cause de judiciaires procédures Peu judicieux jadis mais de fil en aiguille, j'suis devenu un mec de haute couture J'vide mon second souffle, parce que j'manque pas d'air À force de viser les cieux, j'suis devenu tête en l'air Putain j'ai trop d'colère, j'en ai des marques Dans ce monde de vices, la femme est le clou du spectacle Un vagin, des boules et des ein-s, mec, c'est tout ce qu'il me faut J'veux rien d'plus, tant qu'elle m'suce, mec, c'est tout ce qu'il me faut J'viens pas d'la rue mais j'ai connu moi ses violences notoires Mais je ne représente pas, y a que les putes qui font l'trottoir J'ai peur du Noir et de l'obscurité car j'ai remarqué qu'ils sont proches et qu'aucun d'eux ne veut te voir briller Malgré qu'il y a trop de nanas, j'aimerais partir en exil, trouver le Nirvana Comme Siddhartha Gautama Pareil qu'à Gotham mais n'est pas Batman qui veut, nan Sauf pour les médecins au Nord-Kivu J'rêve souvent d'monnaie Mais j'tourne en rond pour être au centre de tout comme le cercle rouge du drapeau japonais Certains disent que j'chôme Mais en anglais moi, j'dirais shame on you Très peu m'ont trouvé un studio, avoue On dit qu'je taffe pas, j'suis mort de rire Qu'ils checkent mon phone-tel J'fais plus de lignes que la marque Burberry J'compte pas faire des sons qui buzzent comme tous ces losers J'veux être écouté plusieurs fois par un qu'une seule par plusieurs J'rappe à l'usure, à m'défoncer On m'dit Damso, t'as une belle voix C'est peut-être parce qu'on m'a trop fait chanter Il m'faut des thunes pour pas qu'ma vie soit ternie Oui, j'me force à croire que si j'roule pas sur l'or, c'est parce que j'ai pas l'permis L'argent coûte cher, au fond Alors, j'pousse le sol pour oublier que j'touche le fond Y a rien de mieux qu'une salope qui dit pas je t'aime après l'avoir niquée S'envoie en l'air comme Virgin, s'en bat les couilles de sa virginité J'ai une meuf, c'est vrai et j'en vois d'autres, c'est sale Mais dites pas que j'la trompe, dites plutôt que j'me trompe de femme Depuis l'époque du duvet j'fais du pe-ra Et si un jour j'deviens muet, négro, tinquiète pas qu'trouverai ma voie La vie sonne bizarre, comme dire courir à Marche-en-Famenne Bref, on n'est jamais mieux compris que par soi-même Déjà vingt ans Mais ne m'souhaite plus d'bon anniv garçon J'tourne juste autour d'un soleil de plomb You might also like Damso Dems Motherfucker, OPGangsta Dolfa Motherfucker, OPGangsta L.I.O. Motherfucker, OPGangsta Double R Motherfucker, OPGangsta Malila Motherfucker, OPGangsta P.H. Motherfucker, OPGangsta Louking Motherfucker, OPGangsta D.R.O.P.S. Motherfucker, OPGangsta OPGangsta OPGangsta OPGangsta OPGangsta Da-Da-Da Damso Muhfucker Dems4</t>
+          <t>Da-Da-Da Damso Muhfucker Dems Okay, hmm, yo OPGangsta OPGangsta OPGangsta Yeah La haine trop jeune à cause de judiciaires procédures Peu judicieux jadis mais de fil en aiguille, j'suis devenu un mec de haute couture J'vide mon second souffle, parce que j'manque pas d'air À force de viser les cieux, j'suis devenu tête en l'air Putain j'ai trop d'colère, j'en ai des marques Dans ce monde de vices, la femme est le clou du spectacle Un vagin, des boules et des ein-s, mec, c'est tout ce qu'il me faut J'veux rien d'plus, tant qu'elle m'suce, mec, c'est tout ce qu'il me faut J'viens pas d'la rue mais j'ai connu moi ses violences notoires Mais je ne représente pas, y a que les putes qui font l'trottoir J'ai peur du Noir et de l'obscurité car j'ai remarqué qu'ils sont proches et qu'aucun d'eux ne veut te voir briller Malgré qu'il y a trop de nanas, j'aimerais partir en exil, trouver le Nirvana Comme Siddhartha Gautama Pareil qu'à Gotham mais n'est pas Batman qui veut, nan Sauf pour les médecins au Nord-Kivu J'rêve souvent d'monnaie Mais j'tourne en rond pour être au centre de tout comme le cercle rouge du drapeau japonais Certains disent que j'chôme Mais en anglais moi, j'dirais shame on you Très peu m'ont trouvé un studio, avoue On dit qu'je taffe pas, j'suis mort de rire Qu'ils checkent mon phone-tel J'fais plus de lignes que la marque Burberry J'compte pas faire des sons qui buzzent comme tous ces losers J'veux être écouté plusieurs fois par un qu'une seule par plusieurs J'rappe à l'usure, à m'défoncer On m'dit Damso, t'as une belle voix C'est peut-être parce qu'on m'a trop fait chanter Il m'faut des thunes pour pas qu'ma vie soit ternie Oui, j'me force à croire que si j'roule pas sur l'or, c'est parce que j'ai pas l'permis L'argent coûte cher, au fond Alors, j'pousse le sol pour oublier que j'touche le fond Y a rien de mieux qu'une salope qui dit pas je t'aime après l'avoir niquée S'envoie en l'air comme Virgin, s'en bat les couilles de sa virginité J'ai une meuf, c'est vrai et j'en vois d'autres, c'est sale Mais dites pas que j'la trompe, dites plutôt que j'me trompe de femme Depuis l'époque du duvet j'fais du pe-ra Et si un jour j'deviens muet, négro, tinquiète pas qu'trouverai ma voie La vie sonne bizarre, comme dire courir à Marche-en-Famenne Bref, on n'est jamais mieux compris que par soi-même Déjà vingt ans Mais ne m'souhaite plus d'bon anniv garçon J'tourne juste autour d'un soleil de plomb Damso Dems Motherfucker, OPGangsta Dolfa Motherfucker, OPGangsta L.I.O. Motherfucker, OPGangsta Double R Motherfucker, OPGangsta Malila Motherfucker, OPGangsta P.H. Motherfucker, OPGangsta Louking Motherfucker, OPGangsta D.R.O.P.S. Motherfucker, OPGangsta OPGangsta OPGangsta OPGangsta OPGangsta Da-Da-Da Damso Muhfucker Dems4</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Djadoo Grr La mala est gangx Ouh la la Hey, eh Pour plus être en galère, j'ai mis sur le té-c', té-c', té-c', faut toujours à becte À graille Dans ma che-po, c'est la Brinks, faut beaucoup de loves à la bank Bank, bank Gazo n'est pas riche Nan, j'ai cinquante milles eu' sur ma wrist Rolex M'ont pas vu passé le cap, donc ils me croient cap de signer un pacte J'suis plus sur le T mais j'ai ché-cra, j'suis dég', dég', dég' Berk, j'vais fumer un pét' Smoke Mon BSB veut plus de money Hey et mes shooters, ils veulent plus de body Boom, boom Lui, il dit des craqus Il ment, il a jamais revendu l crack Wallaye Prononce Mala gang et tu verras dégainer Pa-pa-pa-pa-pa-pa Hey, hey, hey J'ai beaucoup de bitchs J'ai beaucoup de bitchs, j'suis pas polygame Vu qu'tous mes ients-cli sont fidèles Tous mes ients-cli sont fidèles, suis-je un polygramme ? Suis-je un polygramme ? Là, j'ai mis du dam' Là, j'ai mis du, bitch, viens, on joue aux dames Mais crois-moi, y a que si tu bédaves que j'pourrais déclarer ma flamme Déclarer ma flamme Si ils reviennent Si ils reviennent, le pompe est là Eh J'ressors une 'tape J'ressors une 'tape, repompez la Ah oui Au charbon, même quand j'ai la flemme Quand j'ai la flemme, sous drogue, sous lin Eh Every day, a grandi ma fame A grandi ma fame, faut Coachella You might also like Pour plus être en galère, j'ai mis sur le té-c', té-c', té-c', faut toujours à becte À graille Dans ma che-po, c'est la Brinks, faut beaucoup de loves à la bank Shoo, bank, bank Gazo n'est pas riche Nan, j'ai cinquante milles eu' sur ma wrist Ah oui M'ont pas vu passé le cap, donc ils me croient cap de signer un pacte Ouais J'suis plus sur le T mais j'ai ché-cra, j'suis dég', dég', dég' Berk, j'vais fumer un pét' Okay Mon BSB veut plus de money Hey et mes shooters, ils veulent plus de body Boom, boom Lui, il dit des craques Il ment, il a jamais revendu le crack Dems Prononce Mala gang et tu verras dégainer Pa-pa-pa-pa-pa-pa Tou-dou-dou, fuck Putain, prononce mon se-bla, j'te shoote et j'te perfore le foie Salope Fils de, entre l'amour et la moula, kalashé, énervé, négro s'écroula Quand c'est les sombres brutes Sale noir Noir, le prix d'une villa autour du doigt Autour du doigt Putain, encore un négro qui die, pour qui Dieu, soit le toit Touh-touh Défoncé, j'suis dans la fosse La fosse, calumet, j'suis sur la côte La côte Coup d'fil, j'appelle Jay-Z, Jay-Z parler de G.O.A.T. à G.O.A.T. Allô ? Écoute Gros, t'as commis la faute La faute, sors les ustensiles Sors les ustensiles Dans les zones sensibles, poing dans les gencives, Ngannou Francis Francis Pour plus être en galère, j'ai mis sur le té-c', té-c', té-c' Eh, faut toujours à becte À graille Dans ma che-po, c'est la Brinks, faut beaucoup de loves à la bank Bank, bank Gazo n'est pas riche Nan, j'ai cinquante milles eu' sur ma wrist Rolex, ouais M'ont pas vu passé le cap, donc ils me croient cap de signer un pacte J'suis plus sur le T mais j'ai ché-cra, j'suis dég', dég', dég' Berk, j'vais fumer un pét' Smoke Mon BSB veut plus de money Moula, hey et mes shooters, ils veulent plus de body Boom, boom Lui, il dit des craques Il ment, il a jamais revendu le crack Wallaye Prononce Mala gang et tu verras dégainer Pa-pa-pa-pa-pa-pa Tou-dou-dou, pah Shoote, shoote, shoote, shoote8</t>
+          <t>Djadoo Grr La mala est gangx Ouh la la Hey, eh Pour plus être en galère, j'ai mis sur le té-c', té-c', té-c', faut toujours à becte À graille Dans ma che-po, c'est la Brinks, faut beaucoup de loves à la bank Bank, bank Gazo n'est pas riche Nan, j'ai cinquante milles eu' sur ma wrist Rolex M'ont pas vu passé le cap, donc ils me croient cap de signer un pacte J'suis plus sur le T mais j'ai ché-cra, j'suis dég', dég', dég' Berk, j'vais fumer un pét' Smoke Mon BSB veut plus de money Hey et mes shooters, ils veulent plus de body Boom, boom Lui, il dit des craqus Il ment, il a jamais revendu l crack Wallaye Prononce Mala gang et tu verras dégainer Pa-pa-pa-pa-pa-pa Hey, hey, hey J'ai beaucoup de bitchs J'ai beaucoup de bitchs, j'suis pas polygame Vu qu'tous mes ients-cli sont fidèles Tous mes ients-cli sont fidèles, suis-je un polygramme ? Suis-je un polygramme ? Là, j'ai mis du dam' Là, j'ai mis du, bitch, viens, on joue aux dames Mais crois-moi, y a que si tu bédaves que j'pourrais déclarer ma flamme Déclarer ma flamme Si ils reviennent Si ils reviennent, le pompe est là Eh J'ressors une 'tape J'ressors une 'tape, repompez la Ah oui Au charbon, même quand j'ai la flemme Quand j'ai la flemme, sous drogue, sous lin Eh Every day, a grandi ma fame A grandi ma fame, faut Coachella Pour plus être en galère, j'ai mis sur le té-c', té-c', té-c', faut toujours à becte À graille Dans ma che-po, c'est la Brinks, faut beaucoup de loves à la bank Shoo, bank, bank Gazo n'est pas riche Nan, j'ai cinquante milles eu' sur ma wrist Ah oui M'ont pas vu passé le cap, donc ils me croient cap de signer un pacte Ouais J'suis plus sur le T mais j'ai ché-cra, j'suis dég', dég', dég' Berk, j'vais fumer un pét' Okay Mon BSB veut plus de money Hey et mes shooters, ils veulent plus de body Boom, boom Lui, il dit des craques Il ment, il a jamais revendu le crack Dems Prononce Mala gang et tu verras dégainer Pa-pa-pa-pa-pa-pa Tou-dou-dou, fuck Putain, prononce mon se-bla, j'te shoote et j'te perfore le foie Salope Fils de, entre l'amour et la moula, kalashé, énervé, négro s'écroula Quand c'est les sombres brutes Sale noir Noir, le prix d'une villa autour du doigt Autour du doigt Putain, encore un négro qui die, pour qui Dieu, soit le toit Touh-touh Défoncé, j'suis dans la fosse La fosse, calumet, j'suis sur la côte La côte Coup d'fil, j'appelle Jay-Z, Jay-Z parler de G.O.A.T. à G.O.A.T. Allô ? Écoute Gros, t'as commis la faute La faute, sors les ustensiles Sors les ustensiles Dans les zones sensibles, poing dans les gencives, Ngannou Francis Francis Pour plus être en galère, j'ai mis sur le té-c', té-c', té-c' Eh, faut toujours à becte À graille Dans ma che-po, c'est la Brinks, faut beaucoup de loves à la bank Bank, bank Gazo n'est pas riche Nan, j'ai cinquante milles eu' sur ma wrist Rolex, ouais M'ont pas vu passé le cap, donc ils me croient cap de signer un pacte J'suis plus sur le T mais j'ai ché-cra, j'suis dég', dég', dég' Berk, j'vais fumer un pét' Smoke Mon BSB veut plus de money Moula, hey et mes shooters, ils veulent plus de body Boom, boom Lui, il dit des craques Il ment, il a jamais revendu le crack Wallaye Prononce Mala gang et tu verras dégainer Pa-pa-pa-pa-pa-pa Tou-dou-dou, pah Shoote, shoote, shoote, shoote8</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Oh la la Je porte des illères, fuyant le monde, évitant le regard des gens Né dans le rouge, forcément, recherche le feu vert pour partir à temps Kilos de me-sper, beaucoup de descendants périrent dans grosses ch ensanglantées Beaucoup d'enfants, la moula, la moula, j'ai fait, j'suis dans l'business, un truc du genre Genre Merci à mes ennemis qui parlnt de moi sans me côtoyer J fais des économies, je vis dans leurs têtes sans payer de loyer Loyer, loyer Si j'devais mettre fin à mes jours, j'commencerais par le jour où j't'ai rencontré Rencontré Dans le quartier, le four, nombreux allers-retours rouges et bleu foncé On n'aime pas les bleus J'ignore pourquoi la drogue me soulage Eh, mon sommeil en dvient paro, sauf quand elle est inhalée Je fume trop de beuh Concours de Je t'aime, trop de Te amo, te amo pour qu'elle fasse la pute pour tout l'restant de l'année Nique ta mère, allez Je scroll et j'vois la vie des gens, c'est mieux Eh-eh-eh-eh Selfie sur la plage, mer bleue Oh-oh-oh J'm'en fous si j'suis pas vraiment heureux Nan, nan, nan, nan Selfie sur la plage, mer bleue Ouh-ouh, ouh-ouh, ouais Évidemment que j'n'ai pas le temps de concevoir une vie de rêve car j'ai des putains de 'blèmes sur l'tas Ouh Précipitamment, j'ai fait des choix, des choix que mon passé regrette entraînant des putains de 'blèmes sur l'tas Oh, oh, oh, oh, oh, oh Ma chérie, j'ai r'connu l'inconnu, un Je t'aime en soirée, je connais le tarot You might also like Okay, je meurs ma vie car je vis à mort Ouh J'ai fait mon testament, j'aime trop la vitesse, ne monte pas à bord Comme un conquistador, j'suis jamais là mais mon fils m'adore Je pense à Ethan, tu penses à Lior Tant de jalousies et de mauvais sorts Le ciel me réconforte, balle en argent dans fusil en or, c'est comme ça qu'on s'en sort J'ai le cur bleu, tant de beuh, les poumons en feu, d'la peine dans les yeux, on fait comme on peut Okay On ne parle pas bien, on est très malpolis On a sorti le machin la mort fait pas mal de bruit Shuu Ra-ta-ta-ta-ta, piouh, piouh, piouh, piouh, gang, gang Sale, sale On a sorti le machin la mort fait pas mal de bruit Boum On ne parle pas bien, on est très malpolis Mmh-mmh, mmh-mmh On a sorti le machin la mort fait pas mal de bruit Boum Ra-ta-ta-ta-ta, piouh, piouh, piouh, piouh, gang, gang Boum On a sorti le machin la mort fait pas mal de bruit Okay Mmh-mmh, mmh-mmh, mmh-mmh, mmh Mmh-mmh, mmh-mmh, mmh-mmh, mmh Mmh-mmh, mmh-mmh, mmh-mmh, mmh On a sorti le machin la mort fait pas mal de bruit Na-na-na-na On a sorti le machin la mort fait pas mal de bruit4</t>
+          <t>Oh la la Je porte des illères, fuyant le monde, évitant le regard des gens Né dans le rouge, forcément, recherche le feu vert pour partir à temps Kilos de me-sper, beaucoup de descendants périrent dans grosses ch ensanglantées Beaucoup d'enfants, la moula, la moula, j'ai fait, j'suis dans l'business, un truc du genre Genre Merci à mes ennemis qui parlnt de moi sans me côtoyer J fais des économies, je vis dans leurs têtes sans payer de loyer Loyer, loyer Si j'devais mettre fin à mes jours, j'commencerais par le jour où j't'ai rencontré Rencontré Dans le quartier, le four, nombreux allers-retours rouges et bleu foncé On n'aime pas les bleus J'ignore pourquoi la drogue me soulage Eh, mon sommeil en dvient paro, sauf quand elle est inhalée Je fume trop de beuh Concours de Je t'aime, trop de Te amo, te amo pour qu'elle fasse la pute pour tout l'restant de l'année Nique ta mère, allez Je scroll et j'vois la vie des gens, c'est mieux Eh-eh-eh-eh Selfie sur la plage, mer bleue Oh-oh-oh J'm'en fous si j'suis pas vraiment heureux Nan, nan, nan, nan Selfie sur la plage, mer bleue Ouh-ouh, ouh-ouh, ouais Évidemment que j'n'ai pas le temps de concevoir une vie de rêve car j'ai des putains de 'blèmes sur l'tas Ouh Précipitamment, j'ai fait des choix, des choix que mon passé regrette entraînant des putains de 'blèmes sur l'tas Oh, oh, oh, oh, oh, oh Ma chérie, j'ai r'connu l'inconnu, un Je t'aime en soirée, je connais le tarot Okay, je meurs ma vie car je vis à mort Ouh J'ai fait mon testament, j'aime trop la vitesse, ne monte pas à bord Comme un conquistador, j'suis jamais là mais mon fils m'adore Je pense à Ethan, tu penses à Lior Tant de jalousies et de mauvais sorts Le ciel me réconforte, balle en argent dans fusil en or, c'est comme ça qu'on s'en sort J'ai le cur bleu, tant de beuh, les poumons en feu, d'la peine dans les yeux, on fait comme on peut Okay On ne parle pas bien, on est très malpolis On a sorti le machin la mort fait pas mal de bruit Shuu Ra-ta-ta-ta-ta, piouh, piouh, piouh, piouh, gang, gang Sale, sale On a sorti le machin la mort fait pas mal de bruit Boum On ne parle pas bien, on est très malpolis Mmh-mmh, mmh-mmh On a sorti le machin la mort fait pas mal de bruit Boum Ra-ta-ta-ta-ta, piouh, piouh, piouh, piouh, gang, gang Boum On a sorti le machin la mort fait pas mal de bruit Okay Mmh-mmh, mmh-mmh, mmh-mmh, mmh Mmh-mmh, mmh-mmh, mmh-mmh, mmh Mmh-mmh, mmh-mmh, mmh-mmh, mmh On a sorti le machin la mort fait pas mal de bruit Na-na-na-na On a sorti le machin la mort fait pas mal de bruit4</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ouais, Dems Jmarrête pas Ok, ouais Oh ouais Jmarrête pas Ouais Certains protègent ton dos juste pour mieux t'prendre en levrette Ils m'ont dit qu'entre pute et pote il n'y a qu'une seule lettre J'ai compris tard que rien n'est plus cher que la gratuité Qu'à force de payer d'ma personne, j'finirai endetté Entêté, dans ma tête, y'a trop d'soucis Depuis, on m'dit qu'j'ai trop d'lignes parallèles entre mes sourcils Oh damn, Damso, calme-toi, ils diront qu'tu craques Si la richesse est dans nos curs, c'est que j'mourrai sûrement d'une crise cardiaque On dit qu'j'suis méchant, qu'j'parle mal de trop Mais comprennent pas qu'c'est ceux qui ont des dents contre toi qui, souvent, mâchent les mots Te vantent trop, te servent trop, te kiffent trop La roulette russe est moins dangereuse que celle du casino Face à la mort, on cherche le pain de vie Mais pendez-vous, j'préfère d'mander à un aveugle son point de vue Sur ma vie, plutôt qu'à l'homme normal J'vois tellement grand qu'pour eux mon avenir est atteint d'un problème hormonal Depuis tout p'tit, je n'pense qu'à braquer Mon futur n'a plus de but, pourtant mon passé m'a beaucoup marqué Incompris car je n'me comprends pas Malheureux au point de chercher le bonheur que chez les femmes de joie J'aurais voulu naître sur la même étoile que Mercedes Un putain d'joint entre l'pouce et l'index Je tousse dans la caisse, je tire sur un pers' J'vois la vie en rose que quand j'fume de la verte Cette life me les casse, rime avec chatte et eins' On dit qu'j'perds de la masse, c'est p't-être depuis qu'mes chances sont minces Un peu voyou je fume, je bois, je tourne en rond Mon cur vient de la rue, pour ça qu'mes poumons sont remplis d'goudron Ici, les chiens n'aboient pas, y a pas d'caravane Gare à vous, pour blessure verbale, y a pas d'sparadrap Du rouge sur mes draps, vas-y baby dose Une brûlure au doigt, une nymphomane qui mouille et ça fait de l'eau chaudeYou might also like1</t>
+          <t>Ouais, Dems Jmarrête pas Ok, ouais Oh ouais Jmarrête pas Ouais Certains protègent ton dos juste pour mieux t'prendre en levrette Ils m'ont dit qu'entre pute et pote il n'y a qu'une seule lettre J'ai compris tard que rien n'est plus cher que la gratuité Qu'à force de payer d'ma personne, j'finirai endetté Entêté, dans ma tête, y'a trop d'soucis Depuis, on m'dit qu'j'ai trop d'lignes parallèles entre mes sourcils Oh damn, Damso, calme-toi, ils diront qu'tu craques Si la richesse est dans nos curs, c'est que j'mourrai sûrement d'une crise cardiaque On dit qu'j'suis méchant, qu'j'parle mal de trop Mais comprennent pas qu'c'est ceux qui ont des dents contre toi qui, souvent, mâchent les mots Te vantent trop, te servent trop, te kiffent trop La roulette russe est moins dangereuse que celle du casino Face à la mort, on cherche le pain de vie Mais pendez-vous, j'préfère d'mander à un aveugle son point de vue Sur ma vie, plutôt qu'à l'homme normal J'vois tellement grand qu'pour eux mon avenir est atteint d'un problème hormonal Depuis tout p'tit, je n'pense qu'à braquer Mon futur n'a plus de but, pourtant mon passé m'a beaucoup marqué Incompris car je n'me comprends pas Malheureux au point de chercher le bonheur que chez les femmes de joie J'aurais voulu naître sur la même étoile que Mercedes Un putain d'joint entre l'pouce et l'index Je tousse dans la caisse, je tire sur un pers' J'vois la vie en rose que quand j'fume de la verte Cette life me les casse, rime avec chatte et eins' On dit qu'j'perds de la masse, c'est p't-être depuis qu'mes chances sont minces Un peu voyou je fume, je bois, je tourne en rond Mon cur vient de la rue, pour ça qu'mes poumons sont remplis d'goudron Ici, les chiens n'aboient pas, y a pas d'caravane Gare à vous, pour blessure verbale, y a pas d'sparadrap Du rouge sur mes draps, vas-y baby dose Une brûlure au doigt, une nymphomane qui mouille et ça fait de l'eau chaude1</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Yah, yah Yah Yah, yah Yah Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Sombre haine et violence tout c'que je suscite Bang Négro, pour des passages radio, rien qu't'ingurgites Bang J'instaure une dictature, j'fais plus d'la musique, reflet du biff dans mon iris, autant puriste que futuriste, hey hey, allez zouin Allez zouin J'fais du sale qu'avec les miens, j'irai dans la shnek à ta mère pour mieux savoir d'où tu viens Choush Il m'faudrait du temps, de l'argent, à part ça, j'n'ai b'soin de rien Contradictoire à temps plein, j'peux t'faire du mal pour t'faire du bien Sénégal sur le drapeau, j'ai ma flotte, trop d'fiottes dans le game L'industrie s'ra sous le choc, j'suis différent vu l'époque Fuck Tasse-pé fourrée entraîne échauffourées Sale, sale Faites-le pour la culture Yah, yah, yah, après mourez si vous voulez You might also like Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Sale, j'ai rien vu, rien entendu, l'agent m'tire quand même dessus J'ai rien dit, rien prétendu, en pleine guerre, j'suis détendu J'y passerai un siècle donc mes péchés, j'vais pas t'énumérer, hey Pute, pendant qu'j'suis dans sa chatte, elle est rémunérée, hey Percé par les grands mais pressé par le temps Innocent, j'ai pas compris qu'l'argent se gagnait par le sang L'heure n'est pas la même, elle est beaucoup plus belle dans l'Audemars Fort Le rap game va rejoindre sa pute de grand-mère dans l'au-delà, hey hey Fils de pute, j'ai descendu Dose, les keufs me questionnent Et les pétasses m'espionnent, j'ai rien vu, rien entendu Hey Il reste des résidus Hey, les keufs me questionnent Et les pétasses m'espionnent Yah, yah, yah, j'ai rien vu, rien entendu Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Hey, KultureVie Sombre, sale Dems, eh2</t>
+          <t>Yah, yah Yah Yah, yah Yah Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Sombre haine et violence tout c'que je suscite Bang Négro, pour des passages radio, rien qu't'ingurgites Bang J'instaure une dictature, j'fais plus d'la musique, reflet du biff dans mon iris, autant puriste que futuriste, hey hey, allez zouin Allez zouin J'fais du sale qu'avec les miens, j'irai dans la shnek à ta mère pour mieux savoir d'où tu viens Choush Il m'faudrait du temps, de l'argent, à part ça, j'n'ai b'soin de rien Contradictoire à temps plein, j'peux t'faire du mal pour t'faire du bien Sénégal sur le drapeau, j'ai ma flotte, trop d'fiottes dans le game L'industrie s'ra sous le choc, j'suis différent vu l'époque Fuck Tasse-pé fourrée entraîne échauffourées Sale, sale Faites-le pour la culture Yah, yah, yah, après mourez si vous voulez Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Sale, j'ai rien vu, rien entendu, l'agent m'tire quand même dessus J'ai rien dit, rien prétendu, en pleine guerre, j'suis détendu J'y passerai un siècle donc mes péchés, j'vais pas t'énumérer, hey Pute, pendant qu'j'suis dans sa chatte, elle est rémunérée, hey Percé par les grands mais pressé par le temps Innocent, j'ai pas compris qu'l'argent se gagnait par le sang L'heure n'est pas la même, elle est beaucoup plus belle dans l'Audemars Fort Le rap game va rejoindre sa pute de grand-mère dans l'au-delà, hey hey Fils de pute, j'ai descendu Dose, les keufs me questionnent Et les pétasses m'espionnent, j'ai rien vu, rien entendu Hey Il reste des résidus Hey, les keufs me questionnent Et les pétasses m'espionnent Yah, yah, yah, j'ai rien vu, rien entendu Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Hey, KultureVie Sombre, sale Dems, eh2</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ouh, ouh, ouh, ouh, ouh, ouh Michto' lova, lova À la tienne, j'ai le gosier, aussi vierge que mon casier Ouais, c'est bon, ouais, c'est bon Doux visage pour me blesser, bien trop bonne, j't'ai signalée Ouais, c'est bon, ouais, c'est bon Les boloss à ta table font du bruit quand je fais du sale Tout donner pour attirer, mon regard sur ton fessier Sois gentille, ne fais pas ça, j'te ferai boîter sur du Kassav C'est comme ça, j'peux rien y faire, comment faire pour m'en défaire ? Leave me alone, ah, ah Leave me alone, oh, oh, oh Leave me alone, ouh, ouh Leave me alone, ouais, ouais, ouais Oh, oh Oh ouais, oh Dems Eh You might also like Jus de testicules au praliné Yeah Fukushima dans son ul-c, j'plante pas d'graine Elle est bonne mais pas à marier Non Vie en rouge, du Christian, qu'elle me demande sans gêne Préviens ta copine, ce s'ra plus possible Non, non J'suis dans le coffee, j'fume sans nicotine Ouais, ouais J'la prends dans ture-voi comme dans Grand Theft Auto Sale J't'aime du bout des doigts même si j'm'arrête trop tôt Nan Elles n'arrêtent pas d'dire qu'j'suis pas l'mec qu'il faut Nan Mais grattent une guest-list pour revenir à chaque show Ouais Michto' lova, lova m'aime de toute ma moula Moula Michto' lova, lova m'aime de toute ma moula Moula Elles n'arrêtent pas d'dire qu'j'suis pas l'mec qu'il faut Nan Mais grattent une guest-list pour revenir à chaque show Ouais Michto' lova, lova m'aime de toute ma moula Moula Michto' lova, lova m'aime de toute ma moula Moula Leave me alone Ouais, ouais Leave me alone, oh, oh, oh Leave me alone, ouh, ouh Leave me alone Mais dis-moi, pourquoi tu m'as pas follow back ? Vous faites quoi après l'show ? Elles m'attaquent en solo, viennent même en armée Une de perdue, j'envoie une autre s'armer Michto lova m'aime de toute ma SACEM Michto lova m'aime de toute ma SACEM Comment ça tu fais rien mais t'as une belle auto ? Passe ton phone que je joue au Loto Michto lova, lova m'aime de toute ma moula Michto lova, lova m'aime de toute ma moula Please don't make me lose my time Alone, alone Make me lose my time Oh, oh, oh</t>
+          <t>Ouh, ouh, ouh, ouh, ouh, ouh Michto' lova, lova À la tienne, j'ai le gosier, aussi vierge que mon casier Ouais, c'est bon, ouais, c'est bon Doux visage pour me blesser, bien trop bonne, j't'ai signalée Ouais, c'est bon, ouais, c'est bon Les boloss à ta table font du bruit quand je fais du sale Tout donner pour attirer, mon regard sur ton fessier Sois gentille, ne fais pas ça, j'te ferai boîter sur du Kassav C'est comme ça, j'peux rien y faire, comment faire pour m'en défaire ? Leave me alone, ah, ah Leave me alone, oh, oh, oh Leave me alone, ouh, ouh Leave me alone, ouais, ouais, ouais Oh, oh Oh ouais, oh Dems Eh Jus de testicules au praliné Yeah Fukushima dans son ul-c, j'plante pas d'graine Elle est bonne mais pas à marier Non Vie en rouge, du Christian, qu'elle me demande sans gêne Préviens ta copine, ce s'ra plus possible Non, non J'suis dans le coffee, j'fume sans nicotine Ouais, ouais J'la prends dans ture-voi comme dans Grand Theft Auto Sale J't'aime du bout des doigts même si j'm'arrête trop tôt Nan Elles n'arrêtent pas d'dire qu'j'suis pas l'mec qu'il faut Nan Mais grattent une guest-list pour revenir à chaque show Ouais Michto' lova, lova m'aime de toute ma moula Moula Michto' lova, lova m'aime de toute ma moula Moula Elles n'arrêtent pas d'dire qu'j'suis pas l'mec qu'il faut Nan Mais grattent une guest-list pour revenir à chaque show Ouais Michto' lova, lova m'aime de toute ma moula Moula Michto' lova, lova m'aime de toute ma moula Moula Leave me alone Ouais, ouais Leave me alone, oh, oh, oh Leave me alone, ouh, ouh Leave me alone Mais dis-moi, pourquoi tu m'as pas follow back ? Vous faites quoi après l'show ? Elles m'attaquent en solo, viennent même en armée Une de perdue, j'envoie une autre s'armer Michto lova m'aime de toute ma SACEM Michto lova m'aime de toute ma SACEM Comment ça tu fais rien mais t'as une belle auto ? Passe ton phone que je joue au Loto Michto lova, lova m'aime de toute ma moula Michto lova, lova m'aime de toute ma moula Please don't make me lose my time Alone, alone Make me lose my time Oh, oh, oh</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Bienvenue à tous ! C'est TheVie Radio en live. La seule radio dotée de Triple A, écoute ça ! Ça sort du four, c'est made in Brussels Zoo Ow. Prépare ton lobe frontal et monte le son. Que tu sois dans la caisse, à la salle ou au taf, arrête tout ! Lève-toi et ambiance-toi. Car voici le nouveau Dems et Hamza. Sur ta radio la seule, l'unique, TheVie Radio. La radio sale, la radio nwaar...You might also like</t>
+          <t>Bienvenue à tous ! C'est TheVie Radio en live. La seule radio dotée de Triple A, écoute ça ! Ça sort du four, c'est made in Brussels Zoo Ow. Prépare ton lobe frontal et monte le son. Que tu sois dans la caisse, à la salle ou au taf, arrête tout ! Lève-toi et ambiance-toi. Car voici le nouveau Dems et Hamza. Sur ta radio la seule, l'unique, TheVie Radio. La radio sale, la radio nwaar...</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>BANG ,Damn J'ai tellement pété des gueules, démonté des girls Qu'on m'a dit Mais Damso tu n'a pas de cur, cur ! Deux motherfucka??? l'epoque a fini des???? Des keufs - keufs Damn mais putain qui t'as dit que je voulais du buzz-buzz Op mothafucka G motherfucka Bitch? Motherfucka Clique Clique Bang Bang Joue pas les phnix, j'te mettrais en cendre T'es comme ma clope j'te fume sans qu'y'ai le mégot Le glock bien monté pour te descendre Herbivore oui j'me nourris de bedos Chaud bien avant le centre de formation J'suis comme un film de boule a chaque fois que j'finis d'kicker Merde y'a éjaculation Flow virus multi cellulaires, damn pas de vaccinations Seul-Tout j'suis née et j'mourrais, bitch pas de place pour cohabitation OPG wassup Double R Dolfa et Lio J'kiff les boules des blacks de mon peuple Mais quand j'les baises ya trop d'Nalingi yo J'suis au top meilleur niveau, j'dois bousiller tous mes rivaux J'suis comme Moïse sauf que jécarte les mères et qu'elles perdent les os J'suis deso ma vue s'limite aux hanches, drôle d'énergumène Ma bite a l'effet Pinocchio je bande quand je te dit je t'aime J'ai tellement pété des gueules, démonté des girls Qu'on m'a dit Mais Damso tu n'a pas de cur, cur ! Deux motherfucka??? lépoque a fini des???? Des keufs - keufs Damn mais putain qui t'as dit que je voulais du buzz-buzz Op mothafucka G motherfucka Biz motherfucka clique clique bang Bang bang bang Damso Bang bang bang Damso Tasspé dans merco, bédo dans l'cockpit j'suis high bro ??? standing dis leurs maestro Derrière en spalding, grosse liasse gros Habillé en ??? sturming, filles dans l'cerveau Adrénaline forcing, toujours pas d'flow, ah Pétasse ta gueule et sort tout ton flouze Pétasse t'es la juste pour ta gouze Crevasse, engelure, trop fraiche est ma douze Grognasse au lit qui ??? Putain ya des bitchs et maman j'ai pas de love Pute veut d'un riche et pas d'un second de zone Putain c'est pas faux j'ai pas de sous mais n'associe pas soucis a celui d'un mec qui ne tient pas de go Ah, motherfucker Damso dans la boîte de nuit J'ai dit motherfucker Damso dans la boîte de nuit Jack dans le verre j'en ai plus d'un dans le zen une douzaine dans les veines puis c'est des shots de gin on dis que je suis technique des que je nique ça fait des polémiques tu bonis comme si y'avait une crise économique motherfucker damso motherfucker OPG motherfucker clique bang bang clique clique paw paw J'ai tellement pété des gueules, démonté des girls Qu'on m'a dit Mais Damso tu n'a pas de cur, cur ! Deux motherfucka??? lépoque a fini des???? Des keufs - keufs Damn mais putain qui t'as dit que je voulais du buzz-buzz Op motherfucka G motherfucka biz motherfucka clique clique bang bang Op motherfuka G motherfucka biz motherfucka clique clique bang bangYou might also like8</t>
+          <t>BANG ,Damn J'ai tellement pété des gueules, démonté des girls Qu'on m'a dit Mais Damso tu n'a pas de cur, cur ! Deux motherfucka??? l'epoque a fini des???? Des keufs - keufs Damn mais putain qui t'as dit que je voulais du buzz-buzz Op mothafucka G motherfucka Bitch? Motherfucka Clique Clique Bang Bang Joue pas les phnix, j'te mettrais en cendre T'es comme ma clope j'te fume sans qu'y'ai le mégot Le glock bien monté pour te descendre Herbivore oui j'me nourris de bedos Chaud bien avant le centre de formation J'suis comme un film de boule a chaque fois que j'finis d'kicker Merde y'a éjaculation Flow virus multi cellulaires, damn pas de vaccinations Seul-Tout j'suis née et j'mourrais, bitch pas de place pour cohabitation OPG wassup Double R Dolfa et Lio J'kiff les boules des blacks de mon peuple Mais quand j'les baises ya trop d'Nalingi yo J'suis au top meilleur niveau, j'dois bousiller tous mes rivaux J'suis comme Moïse sauf que jécarte les mères et qu'elles perdent les os J'suis deso ma vue s'limite aux hanches, drôle d'énergumène Ma bite a l'effet Pinocchio je bande quand je te dit je t'aime J'ai tellement pété des gueules, démonté des girls Qu'on m'a dit Mais Damso tu n'a pas de cur, cur ! Deux motherfucka??? lépoque a fini des???? Des keufs - keufs Damn mais putain qui t'as dit que je voulais du buzz-buzz Op mothafucka G motherfucka Biz motherfucka clique clique bang Bang bang bang Damso Bang bang bang Damso Tasspé dans merco, bédo dans l'cockpit j'suis high bro ??? standing dis leurs maestro Derrière en spalding, grosse liasse gros Habillé en ??? sturming, filles dans l'cerveau Adrénaline forcing, toujours pas d'flow, ah Pétasse ta gueule et sort tout ton flouze Pétasse t'es la juste pour ta gouze Crevasse, engelure, trop fraiche est ma douze Grognasse au lit qui ??? Putain ya des bitchs et maman j'ai pas de love Pute veut d'un riche et pas d'un second de zone Putain c'est pas faux j'ai pas de sous mais n'associe pas soucis a celui d'un mec qui ne tient pas de go Ah, motherfucker Damso dans la boîte de nuit J'ai dit motherfucker Damso dans la boîte de nuit Jack dans le verre j'en ai plus d'un dans le zen une douzaine dans les veines puis c'est des shots de gin on dis que je suis technique des que je nique ça fait des polémiques tu bonis comme si y'avait une crise économique motherfucker damso motherfucker OPG motherfucker clique bang bang clique clique paw paw J'ai tellement pété des gueules, démonté des girls Qu'on m'a dit Mais Damso tu n'a pas de cur, cur ! Deux motherfucka??? lépoque a fini des???? Des keufs - keufs Damn mais putain qui t'as dit que je voulais du buzz-buzz Op motherfucka G motherfucka biz motherfucka clique clique bang bang Op motherfuka G motherfucka biz motherfucka clique clique bang bang8</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Félicità Ne me laisse pas seul dans ma nuit À guetter le point du jour, à rêver d'amour À pleurer d'amour, à crier d'amour À brûler de fièvre Félicità Ne sois pas le tombeau de ma vie Moi sans toi, je n'ai plus rien Plus rien qu'une faim, à gémir de faim A trembler de faim, à crever de rêve Qu'il sera doux, le regard du premier matin À l'instant où la brise s'arrête Quand on sent qu'il y a d'autres tempêtes Qui pourraient renaître aux creux de nos mains Félicità Ne me laisse pas seul dans ma nuit Je ne peux plus vivre ainsi, à gémir d'ennui À pleurer d'ennui, à mourir d'ennui À crier Je t'aime ! Félicità Ne me laisse pas seul dans ma nuit À guetter le point du jour, à rêver d'amour À pleurer d'amour, à crier d'amour À crier Félicità ! FélicitàYou might also like</t>
+          <t>Félicità Ne me laisse pas seul dans ma nuit À guetter le point du jour, à rêver d'amour À pleurer d'amour, à crier d'amour À brûler de fièvre Félicità Ne sois pas le tombeau de ma vie Moi sans toi, je n'ai plus rien Plus rien qu'une faim, à gémir de faim A trembler de faim, à crever de rêve Qu'il sera doux, le regard du premier matin À l'instant où la brise s'arrête Quand on sent qu'il y a d'autres tempêtes Qui pourraient renaître aux creux de nos mains Félicità Ne me laisse pas seul dans ma nuit Je ne peux plus vivre ainsi, à gémir d'ennui À pleurer d'ennui, à mourir d'ennui À crier Je t'aime ! Félicità Ne me laisse pas seul dans ma nuit À guetter le point du jour, à rêver d'amour À pleurer d'amour, à crier d'amour À crier Félicità ! Félicità</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Yeah, OPG Damso Motherfuck' Yeah, yo Damn J'ai plus l'temps pour regrets, peine, trop d'problèmes, mauvaise graine Damso Dems, OPGangsta Trop de jaloux jeunes veulent nous gêner, j'aime ça J'ai plus l'time sur la fast-lane, l'envie d'fumer me gagne Un bédo et je plane, je fly, j'suis higher, higher, high Pé-ta à longueur de journée souvent en état d'ébriété Dans le brouillard, je vais nulle part, j'fume un pétard Par peur de trouver la sobriété Déf' everyday, où je vais ? Aucune idée Je perdure dans la verdure, je sature, j'suis bousillé Brouillard J'vis dans l'ombre, pénombre, je sombre, succombe Aux énormes derrières de bitchs Brouillard Je déconne à l'école, mempoisonne, collectionne D'énormes quantités de shit Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, je sais pas où je vais pourtant, j'sais d'où je viens Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Da-Da-Da-Damso motherfuck' You might also like Yeah J'suis dans l'brou-brou-brou-brou-brouillard, côtoie plus de boules qu'au billard Sur une tasse-pé, j'crache un mollard, oh, la sale bi-bi-bi-biatch Damso Motherfucker Damso, okay, j'suis trop déf' donc laisse-moi pieuter Cherche un corps-à-corps juste pour te peloter, si je recule, c'est pour mieux te sauter Plus tranquille, y a trop d'balances, de couilles, sont tous en carence Dans ce monde, y a trop d'salauds, y a qu'à mes fiançailles qu'j'ferais une alliance Dans c'game j'vais tous les plier, trop d'traîtres, ça date pas d'hier Si mes potes étaient des thunes j't'assure qu'j'aurais beaucoup d'faux billets Tout ce merdier met dans l'brouillard Et depuis je fume, veux toucher la Lune, je pense qu'aux thunes Bordel de merde Faut que je me calme, sans toucher le , l'injection létale devient mon rêve Oh, qu'est-ce qui ce passe dans mon cerveau ? Je crois que j'deviens barjo dans mon jargon, on dit que t'es dans le... Brouillard J'vis dans l'ombre, pénombre, je sombre, succombe Aux énormes derrières de bitchs Brouillard Je déconne à l'école, mempoisonne, collectionne D'énormes quantités de shit Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, je sais pas où je vais pourtant, j'sais d'où je viens Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Da-Da-Da-Damso motherfuck' Brouillard J'vis dans l'ombre, pénombre, je sombre, succombe Aux énormes derrières de bitchs Brouillard Je déconne à l'école, mempoisonne, collectionne D'énormes quantités de shit Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, je sais pas où je vais pourtant, j'sais d'où je viens Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Da-Da-Da-Damso motherfuck'4</t>
+          <t>Yeah, OPG Damso Motherfuck' Yeah, yo Damn J'ai plus l'temps pour regrets, peine, trop d'problèmes, mauvaise graine Damso Dems, OPGangsta Trop de jaloux jeunes veulent nous gêner, j'aime ça J'ai plus l'time sur la fast-lane, l'envie d'fumer me gagne Un bédo et je plane, je fly, j'suis higher, higher, high Pé-ta à longueur de journée souvent en état d'ébriété Dans le brouillard, je vais nulle part, j'fume un pétard Par peur de trouver la sobriété Déf' everyday, où je vais ? Aucune idée Je perdure dans la verdure, je sature, j'suis bousillé Brouillard J'vis dans l'ombre, pénombre, je sombre, succombe Aux énormes derrières de bitchs Brouillard Je déconne à l'école, mempoisonne, collectionne D'énormes quantités de shit Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, je sais pas où je vais pourtant, j'sais d'où je viens Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Da-Da-Da-Damso motherfuck' Yeah J'suis dans l'brou-brou-brou-brou-brouillard, côtoie plus de boules qu'au billard Sur une tasse-pé, j'crache un mollard, oh, la sale bi-bi-bi-biatch Damso Motherfucker Damso, okay, j'suis trop déf' donc laisse-moi pieuter Cherche un corps-à-corps juste pour te peloter, si je recule, c'est pour mieux te sauter Plus tranquille, y a trop d'balances, de couilles, sont tous en carence Dans ce monde, y a trop d'salauds, y a qu'à mes fiançailles qu'j'ferais une alliance Dans c'game j'vais tous les plier, trop d'traîtres, ça date pas d'hier Si mes potes étaient des thunes j't'assure qu'j'aurais beaucoup d'faux billets Tout ce merdier met dans l'brouillard Et depuis je fume, veux toucher la Lune, je pense qu'aux thunes Bordel de merde Faut que je me calme, sans toucher le , l'injection létale devient mon rêve Oh, qu'est-ce qui ce passe dans mon cerveau ? Je crois que j'deviens barjo dans mon jargon, on dit que t'es dans le... Brouillard J'vis dans l'ombre, pénombre, je sombre, succombe Aux énormes derrières de bitchs Brouillard Je déconne à l'école, mempoisonne, collectionne D'énormes quantités de shit Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, je sais pas où je vais pourtant, j'sais d'où je viens Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Da-Da-Da-Damso motherfuck' Brouillard J'vis dans l'ombre, pénombre, je sombre, succombe Aux énormes derrières de bitchs Brouillard Je déconne à l'école, mempoisonne, collectionne D'énormes quantités de shit Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, je sais pas où je vais pourtant, j'sais d'où je viens Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Da-Da-Da-Damso motherfuck'4</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>De quoi ? J'disais qu'il y avait quoi ? Parfois, j'aime bien juste écouter des choses... Sa voix, pour pouvoir faire un truc dans sa tête Quoi ? Comment ça ? Moi, j'suis détendu, si Bruce Wayne, Bruce Wayne back Yo, Bruce Wayne back Gotham City, Robin est back Yo Verdure sur lèvres roses inspire diverses choses Insipide texte, prose, folie, insomnie, névrose Kilos perdus, pression, vénère pas, cérébrale sera la lésion Inclinaison, j'tire sur tes extensions, zéro liaison Trop OG pour ces bitches, thug money, j'connais pas d'crise Tu m'fais la bise, j'sais même pas qui t'as sucé La place de ta bouche est dans mon caleçon Impression qu'ma queue est une ture-voi vu le nombre de garages à bites J'élimine, j'illumine, ennemis, imminent Pas d'paroles, patates sur les lips, pan Inoffensif je fus, une offensive et je tue, une gencive de plus Sur le bitume, j'accumule embrouilles et bagarres de rue Teille sur la te-tê pour décompresser Ok Mandat d'arrêt, comment puis-je avancer ? Ok Menottes serrées, envie de récidiver Ok Grelotter, geler, juste derrière barreaux d'aciers Trahison d'potes à cause de putains, putains, putains de merde Swing Les MC sont dead, enterrés, tout plein, tout plein, tout plein de merde Swing Vagabond, j'traîne, recherche des pussy J'bousille tout l'game, fuck, façon Tutsi Tu pleures et tu saignes ? J'te souhaite pas de survivre Ratatata bang, ça sent le rou-Uzi, yeah You might also like Vagabond, je traîne Traîne à la recherche de pussy Pussy J't'aimerai jamais comme je m'aime M'aime, j'suis le plus important d'ma vie Ma vie Qu'est-ce tu croyais ? Qu'est-ce tu croyais ? J'suis ni ton prince ni ton marquis Nan Appelle tes potes, qu'elles s'ramènent Ouais Fuck pour tout l'monde, c'est gratuit Han Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches Jeune de vie, j'ai les nerfs solides Seul dans la nuit, la weed se vide D'meutre, l'envie se lit sur mes rides O.P. Gangsta, Genius League Au crématoire vont mes ennemis pour être sûr de bien tous les fumer Oui, je jouis pendant qu'elle frémit, pourtant, disait vouloir s'faire enculer Revolver dans le fut', grosse pétasse trop fière se décuple Déter', c'est clair j'veux pas être père, peur d'avoir un fils de pute J'rentre et je sors comme un préservatif Ces bitchs sont rébarbatives J'aimerais être love ou même homme d'Église mais la haine est si consolatrice J'me sens si bien plongé dans mes songes Le mal me tient et me ronge J'te déshabille du regard mais je ne vois qu'un tissu d'mensonges Panne de fer mais je sens que je rouille comme un tas de ferraille À force de vivre en guerre, j'me perds, vadrouille, je sens que je déraille J'arpente sentier ardent, pluie éparse, vue sur balcon Yeah Sonner les gonds, à terre se dégonfle, bousiller à donf Sautille et j'avance, roupille et patiente Je regarde le monde, l'décris sur mes ondes Fais vibrer les ombres, déterrer les tombes Ils succombent, s'effondrent, oui, tombent Mes ondes dominent le monde, c'est Damso Dems Vagabond, je traîne Traîne à la recherche de pussy Pussy J't'aimerai jamais comme je m'aime M'aime, j'suis le plus important d'ma vie Ma vie Qu'est-ce tu croyais ? Croyais J'suis ni ton prince ni ton marquis Nan Appelle tes potes, qu'elles s'ramènent Ouais Fuck pour tout l'monde, c'est gratuit Han Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'Tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches Vagabond, je traîne à la recherche de pussy J't'aimerai jamais comme je m'aime, j'suis le plus important d'ma vie Qu'est-ce tu croyais ? Croyais J'suis ni ton prince ni ton marquis Nan Appelle tes potes, qu'elles s'ramènent Ouais Fuck pour tout l'monde, c'est gratuit Han Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches</t>
+          <t>De quoi ? J'disais qu'il y avait quoi ? Parfois, j'aime bien juste écouter des choses... Sa voix, pour pouvoir faire un truc dans sa tête Quoi ? Comment ça ? Moi, j'suis détendu, si Bruce Wayne, Bruce Wayne back Yo, Bruce Wayne back Gotham City, Robin est back Yo Verdure sur lèvres roses inspire diverses choses Insipide texte, prose, folie, insomnie, névrose Kilos perdus, pression, vénère pas, cérébrale sera la lésion Inclinaison, j'tire sur tes extensions, zéro liaison Trop OG pour ces bitches, thug money, j'connais pas d'crise Tu m'fais la bise, j'sais même pas qui t'as sucé La place de ta bouche est dans mon caleçon Impression qu'ma queue est une ture-voi vu le nombre de garages à bites J'élimine, j'illumine, ennemis, imminent Pas d'paroles, patates sur les lips, pan Inoffensif je fus, une offensive et je tue, une gencive de plus Sur le bitume, j'accumule embrouilles et bagarres de rue Teille sur la te-tê pour décompresser Ok Mandat d'arrêt, comment puis-je avancer ? Ok Menottes serrées, envie de récidiver Ok Grelotter, geler, juste derrière barreaux d'aciers Trahison d'potes à cause de putains, putains, putains de merde Swing Les MC sont dead, enterrés, tout plein, tout plein, tout plein de merde Swing Vagabond, j'traîne, recherche des pussy J'bousille tout l'game, fuck, façon Tutsi Tu pleures et tu saignes ? J'te souhaite pas de survivre Ratatata bang, ça sent le rou-Uzi, yeah Vagabond, je traîne Traîne à la recherche de pussy Pussy J't'aimerai jamais comme je m'aime M'aime, j'suis le plus important d'ma vie Ma vie Qu'est-ce tu croyais ? Qu'est-ce tu croyais ? J'suis ni ton prince ni ton marquis Nan Appelle tes potes, qu'elles s'ramènent Ouais Fuck pour tout l'monde, c'est gratuit Han Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches Jeune de vie, j'ai les nerfs solides Seul dans la nuit, la weed se vide D'meutre, l'envie se lit sur mes rides O.P. Gangsta, Genius League Au crématoire vont mes ennemis pour être sûr de bien tous les fumer Oui, je jouis pendant qu'elle frémit, pourtant, disait vouloir s'faire enculer Revolver dans le fut', grosse pétasse trop fière se décuple Déter', c'est clair j'veux pas être père, peur d'avoir un fils de pute J'rentre et je sors comme un préservatif Ces bitchs sont rébarbatives J'aimerais être love ou même homme d'Église mais la haine est si consolatrice J'me sens si bien plongé dans mes songes Le mal me tient et me ronge J'te déshabille du regard mais je ne vois qu'un tissu d'mensonges Panne de fer mais je sens que je rouille comme un tas de ferraille À force de vivre en guerre, j'me perds, vadrouille, je sens que je déraille J'arpente sentier ardent, pluie éparse, vue sur balcon Yeah Sonner les gonds, à terre se dégonfle, bousiller à donf Sautille et j'avance, roupille et patiente Je regarde le monde, l'décris sur mes ondes Fais vibrer les ombres, déterrer les tombes Ils succombent, s'effondrent, oui, tombent Mes ondes dominent le monde, c'est Damso Dems Vagabond, je traîne Traîne à la recherche de pussy Pussy J't'aimerai jamais comme je m'aime M'aime, j'suis le plus important d'ma vie Ma vie Qu'est-ce tu croyais ? Croyais J'suis ni ton prince ni ton marquis Nan Appelle tes potes, qu'elles s'ramènent Ouais Fuck pour tout l'monde, c'est gratuit Han Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'Tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches Vagabond, je traîne à la recherche de pussy J't'aimerai jamais comme je m'aime, j'suis le plus important d'ma vie Qu'est-ce tu croyais ? Croyais J'suis ni ton prince ni ton marquis Nan Appelle tes potes, qu'elles s'ramènent Ouais Fuck pour tout l'monde, c'est gratuit Han Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Yeah-eah-eah Black, ce que je vis Black, ce que je vois Black, ce que je dis Black, ce que je bois Black, ce que j'écris Black, ce que je broie Black, ce que je suis Beurs, blancs, black, ceux qui nous côtoient Posé, le temps défile, les thunes se font Aux coins des rues, ça deale Un verre se casse, une âme se cogne Une plaie de sang s'ouvrit Foxtrot Uniform Charlie Kilo Pas d'pute s'barre en mode phare-gyro Pirouette, tire sur le mec, bratatata Pleurs, sueurs, perte d'un ancien nizo Couilles bougent peu mais les Glocks s'agitent Douze coups de feu, une planque, j'm'abrite Silhouettes sombres, deux-trois mecs tombent, et puis mon négro plombe Breh, perte d'un ancien nizo Monsieur l'agent, je suis black Mais j'ai les mains propres, la preuve elles sont blanchies Blague raciste, j'le prends mal Moins d'un siècle qu'les miens sont affranchis Non, au secours je ne le dirai jamais Grosse pute, te le dire, il fallait Tiens ta langue, il en va de ton palais Tête brûlée, les ballons sont trop cramés Jack, ce que je bois Braque, quand on me doit Un, deux, troisième est le doigt Et puis fuck la vie, j'suis comme toi J'm'habitue pas comme quand je postule pour un emploi Damso You might also like Black, ce que je vis Black, ce que je vois Black, ce que je dis Black, ce que je bois Black, ce que j'écris Black, ce que je broie Black, ce que je suis Beurs, blancs, black, ceux qui me côtoient Osez, le temps défile, les thunes se font Aux coins des rues, ça deale Un verre se casse, une âme se cogne Une plaie de sang s'ouvrit Expression faciale détendue Loin du vrai, proche du vraisemblable J'parle sans retenue, loin comme de près J'parais infréquentable S'ils voyaient ce qu'il y avait à l'intérieur Murder, colère, on fire En enfer ou ailleurs Où qu'je sois, j'serai jamais des leurs Trop souvent dans un personnage l'ouvrant mais j'm'ouvre pas Momifié dans un sarcophage, en mort, pose mon double moi Des milliards de neurones À quoi servent-ils si je connais pas l'histoire de mon de-ble ? Instable, versatile, sur le champs d'bataille, toujours pas vu de blé, de vrai J'vois un psychiatre, trop de psychoses, drôle de psychisme Seul tout dans l'habitacle, laisse du repos, du mysticisme Putain de merde, mec, me parle pas, no, j'suis che-lou Hostile, folie, j'fume trop d'weed, putain d'jeune de vie Black, ce que je vis Black, ce que je vois Black, ce que je dis Black, ce que je bois Black, ce que j'écris Black, ce que je broie Black, ce que je suis Beurs, blancs, black, ceux qui me côtoient Osez, le temps défile, les thunes se font Aux coins des rues, ça deale Un verre se casse, une âme se cogne Une plaie de sang s'ouvrit Au coin des rues, ça deale Bang bang Bang bang6</t>
+          <t>Yeah-eah-eah Black, ce que je vis Black, ce que je vois Black, ce que je dis Black, ce que je bois Black, ce que j'écris Black, ce que je broie Black, ce que je suis Beurs, blancs, black, ceux qui nous côtoient Posé, le temps défile, les thunes se font Aux coins des rues, ça deale Un verre se casse, une âme se cogne Une plaie de sang s'ouvrit Foxtrot Uniform Charlie Kilo Pas d'pute s'barre en mode phare-gyro Pirouette, tire sur le mec, bratatata Pleurs, sueurs, perte d'un ancien nizo Couilles bougent peu mais les Glocks s'agitent Douze coups de feu, une planque, j'm'abrite Silhouettes sombres, deux-trois mecs tombent, et puis mon négro plombe Breh, perte d'un ancien nizo Monsieur l'agent, je suis black Mais j'ai les mains propres, la preuve elles sont blanchies Blague raciste, j'le prends mal Moins d'un siècle qu'les miens sont affranchis Non, au secours je ne le dirai jamais Grosse pute, te le dire, il fallait Tiens ta langue, il en va de ton palais Tête brûlée, les ballons sont trop cramés Jack, ce que je bois Braque, quand on me doit Un, deux, troisième est le doigt Et puis fuck la vie, j'suis comme toi J'm'habitue pas comme quand je postule pour un emploi Damso Black, ce que je vis Black, ce que je vois Black, ce que je dis Black, ce que je bois Black, ce que j'écris Black, ce que je broie Black, ce que je suis Beurs, blancs, black, ceux qui me côtoient Osez, le temps défile, les thunes se font Aux coins des rues, ça deale Un verre se casse, une âme se cogne Une plaie de sang s'ouvrit Expression faciale détendue Loin du vrai, proche du vraisemblable J'parle sans retenue, loin comme de près J'parais infréquentable S'ils voyaient ce qu'il y avait à l'intérieur Murder, colère, on fire En enfer ou ailleurs Où qu'je sois, j'serai jamais des leurs Trop souvent dans un personnage l'ouvrant mais j'm'ouvre pas Momifié dans un sarcophage, en mort, pose mon double moi Des milliards de neurones À quoi servent-ils si je connais pas l'histoire de mon de-ble ? Instable, versatile, sur le champs d'bataille, toujours pas vu de blé, de vrai J'vois un psychiatre, trop de psychoses, drôle de psychisme Seul tout dans l'habitacle, laisse du repos, du mysticisme Putain de merde, mec, me parle pas, no, j'suis che-lou Hostile, folie, j'fume trop d'weed, putain d'jeune de vie Black, ce que je vis Black, ce que je vois Black, ce que je dis Black, ce que je bois Black, ce que j'écris Black, ce que je broie Black, ce que je suis Beurs, blancs, black, ceux qui me côtoient Osez, le temps défile, les thunes se font Aux coins des rues, ça deale Un verre se casse, une âme se cogne Une plaie de sang s'ouvrit Au coin des rues, ça deale Bang bang Bang bang6</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>J'calcule ma retraite, j'encaisse les gros chèques Vis au jour le jour ou jusqu'au jour où j'serai refaite Putes veulent mon métier, vie de champagne ou d'Moët Mais pour y arriver c'est pire qu'un champ d'mines au Koweït J'prépare ma retraite, au départ je m'écarte Faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money C'est vrai j'kiffe les bittes, celles de la route, les queues de poisson Oui j'veux du liquide mais pas semence de joli garçon Shay qu'est-ce qu'elle est bonne, la taille s'agrandit sous leurs caleçons Fuck les Feux d'l'amour, on bang et rate les feux de l'action Prends tout tant qu'c'est possible fiston, telle sera l'éducation J'respecte pas les consignes, menrichis, pense spéculation C.O.N.G.O comme nation, R.D.C abréviation J'veux pas d'vos allocations, compte en banque, trop d'agitation Vroom, vroom, ceinture, accélération, aboie pendant qu'nous passons T'as plus d'vue sur YouTube, ton buzz m'accuse de séquestration Comme la neige les gosses m'adorent, les grands voient verglas devant paillasson J'veux du biff, de la mula, caramélisation J'écris plus sur papier, j'suis accusée d'déforestation Faites-moi un croquis du tromé J'sais plus à quoi ressemblent les stations Boire, fumer, dépenser, des chèques sans modération Du liquide pour jamais être à sec en cas d'déshydratation You might also like J'calcule ma retraite, j'encaisse les gros chèques Vis au jour le jour ou jusqu'au jour où j'serai refaite Putes veulent mon métier, vie de champagne ou d'Moët Mais pour y arriver c'est pire qu'un champ d'mines au Koweït J'prépare ma retraite, au départ je m'écarte Faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money Libido enflammée, les négros sont charmés Au diable les mi amor, l'amour est mort depuis tant d'années J'regarde vers le sommet, s'étonnent de m'voir tête baissée J'kifferai jamais les poulets hormis Roger et Axel Foley Dou-double G sur la ceinture, d'l'O.G dans la te-tê Mes adversaires je sature, sur le ring ils font qu'se vautrer J'vois pas l'verre à moitié vide ou plein, juste combien ça a coûté dont j'peux m'équiper J'm'en fous d'mourir ici ou là tant qu'mon vécu a d'l'impact A la fin d'la partie pions, rois finissent dans la même boîte On meurt sur toutes les liaisons, affirment tous avoir raison Ces bâtards n'ont rien vu, rien entendu, sont pas d'la région Trahison, perte d'humanité, sortent de lobotomisation Ouais, ont frustré tellement d'blacks, mériteraient canonisation J'liquiderais pour du liquide, liquidités en liquidation Fléchette d'amour dans l'cul, bang, puis sodomisation J'calcule ma retraite, j'encaisse les gros chèques Vis au jour le jour ou jusqu'au jour où j'serai refaite Putes veulent mon métier, vie de champagne ou d'Moët Mais pour y arriver c'est pire qu'un champ d'mines au Koweït J'prépare ma retraite, au départ je m'écarte Faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money Ma retraite, au départ je m'écarte Je m'écarte, faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money Yeah, yeah, yeah Shay, yeah1</t>
+          <t>J'calcule ma retraite, j'encaisse les gros chèques Vis au jour le jour ou jusqu'au jour où j'serai refaite Putes veulent mon métier, vie de champagne ou d'Moët Mais pour y arriver c'est pire qu'un champ d'mines au Koweït J'prépare ma retraite, au départ je m'écarte Faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money C'est vrai j'kiffe les bittes, celles de la route, les queues de poisson Oui j'veux du liquide mais pas semence de joli garçon Shay qu'est-ce qu'elle est bonne, la taille s'agrandit sous leurs caleçons Fuck les Feux d'l'amour, on bang et rate les feux de l'action Prends tout tant qu'c'est possible fiston, telle sera l'éducation J'respecte pas les consignes, menrichis, pense spéculation C.O.N.G.O comme nation, R.D.C abréviation J'veux pas d'vos allocations, compte en banque, trop d'agitation Vroom, vroom, ceinture, accélération, aboie pendant qu'nous passons T'as plus d'vue sur YouTube, ton buzz m'accuse de séquestration Comme la neige les gosses m'adorent, les grands voient verglas devant paillasson J'veux du biff, de la mula, caramélisation J'écris plus sur papier, j'suis accusée d'déforestation Faites-moi un croquis du tromé J'sais plus à quoi ressemblent les stations Boire, fumer, dépenser, des chèques sans modération Du liquide pour jamais être à sec en cas d'déshydratation J'calcule ma retraite, j'encaisse les gros chèques Vis au jour le jour ou jusqu'au jour où j'serai refaite Putes veulent mon métier, vie de champagne ou d'Moët Mais pour y arriver c'est pire qu'un champ d'mines au Koweït J'prépare ma retraite, au départ je m'écarte Faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money Libido enflammée, les négros sont charmés Au diable les mi amor, l'amour est mort depuis tant d'années J'regarde vers le sommet, s'étonnent de m'voir tête baissée J'kifferai jamais les poulets hormis Roger et Axel Foley Dou-double G sur la ceinture, d'l'O.G dans la te-tê Mes adversaires je sature, sur le ring ils font qu'se vautrer J'vois pas l'verre à moitié vide ou plein, juste combien ça a coûté dont j'peux m'équiper J'm'en fous d'mourir ici ou là tant qu'mon vécu a d'l'impact A la fin d'la partie pions, rois finissent dans la même boîte On meurt sur toutes les liaisons, affirment tous avoir raison Ces bâtards n'ont rien vu, rien entendu, sont pas d'la région Trahison, perte d'humanité, sortent de lobotomisation Ouais, ont frustré tellement d'blacks, mériteraient canonisation J'liquiderais pour du liquide, liquidités en liquidation Fléchette d'amour dans l'cul, bang, puis sodomisation J'calcule ma retraite, j'encaisse les gros chèques Vis au jour le jour ou jusqu'au jour où j'serai refaite Putes veulent mon métier, vie de champagne ou d'Moët Mais pour y arriver c'est pire qu'un champ d'mines au Koweït J'prépare ma retraite, au départ je m'écarte Faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money Ma retraite, au départ je m'écarte Je m'écarte, faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money Yeah, yeah, yeah Shay, yeah1</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Donne, donne-moi ton coeur vide d'amour Pour combler le mien qui attend ton amour Allez donne, donne et ne dis rien Même si demain, tu dois le reprendre Donne, donne-moi le droit de t'enlacer Te serrer très fort et puis t'embrasser Allez donne donne et détends-toi Entre nous, pourquoi te défendre ? Ne prends pas je t'en supplie l'air étonné Ne fais pas semblant de ne pas savoir Tu sais, que j'attends un espoir, tu sais, ce dont je veux parler Aussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne, donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre mes bras Donne, donne-moi ton coeur et parle-moi Dis-moi simplement les mots qui sont en toi Allez dis, dis-moi doucement Presqu'en chuchotant ces mots à l'oreille Donne, donne-moi le droit à tes côtés De fermer les yeux afin de mieux rêver Allez dis, dis pour que ta voix S'infiltrant en moi, m'émerveille J'ai beau te parler, tu ne me réponds pas si c'est par excès de timidité Tu vois le plus dur est passé, tu vois j'ai fait le premier pas You might also likeAussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre</t>
+          <t>Donne, donne-moi ton coeur vide d'amour Pour combler le mien qui attend ton amour Allez donne, donne et ne dis rien Même si demain, tu dois le reprendre Donne, donne-moi le droit de t'enlacer Te serrer très fort et puis t'embrasser Allez donne donne et détends-toi Entre nous, pourquoi te défendre ? Ne prends pas je t'en supplie l'air étonné Ne fais pas semblant de ne pas savoir Tu sais, que j'attends un espoir, tu sais, ce dont je veux parler Aussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne, donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre mes bras Donne, donne-moi ton coeur et parle-moi Dis-moi simplement les mots qui sont en toi Allez dis, dis-moi doucement Presqu'en chuchotant ces mots à l'oreille Donne, donne-moi le droit à tes côtés De fermer les yeux afin de mieux rêver Allez dis, dis pour que ta voix S'infiltrant en moi, m'émerveille J'ai beau te parler, tu ne me réponds pas si c'est par excès de timidité Tu vois le plus dur est passé, tu vois j'ai fait le premier pas Aussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah, yeah, yeah Djizzo on the beat I wanna do my best Get money, fly private jet Je dois rendre les darons fiers Sortir la mifa' de la galère I wanna do my best Get money, fly private jet Je dois rendre les darons fiers Sortir la mifa' de la galère Ce monde est compliqué, rempli de sans pitié C'est les mêmes qui m'critiquent qui veulent qu je leur tend ma main Seigneur, donne-moi la force, c'est tellement lourd de pardonner Toujours tenté de leur faire du sale Quand tout était sombre, moi j'ai vu personne Y avait que la mifa' et mes putains de vrais potes J'ai pas baissé les bras, déteste qu'on s'moque de moi Le game a changé, ils veulent toucher à ma mallette non You might also like I wanna do my best Get money for private jet Je dois rendre les darons fiers moula, moula, moula, moula Sortir la mifa' de la galère I wanna do my best ok Get money for private jet ah oui Je dois rendre les darons fiers Sortir la mifa' de la galère Sorti de la galère, trop riche pour avoir un salaire Ebandi, olandi eh C'est Dems, Dems, pas de Molière, Baudelaire Trop noir pour le système solaire Des Mohamed eh, des Ali eh Souvent accusé à tort, absence de preuves, des appels rejetés J'connais la vie, la mort, naissance, deuil, richesse et pauvreté J'connais la fin du monde, plus d'un milliard d'Africains, poings levés Le père, le fils, le Glock chargé, ah bah oui, sur ma vie La violence, ils l'ont pas choisi Masasi bo beti, mais pourtant n'ont rien changé I wanna do my best ok Get money for private jet ah oui Je dois rendre les darons fiers moula, moula, moula, moula, Sortir la mifa de la galère I wanna do my best ok Get money for private jet Je dois rendre les darons fiers Sortir la mifa de la galère Innoss'Vie Dems, noir, tout est vie Sorti de la galère T'es riche même si t'en as pas l'air Africa, love you3</t>
+          <t>Yeah, yeah, yeah, yeah, yeah Djizzo on the beat I wanna do my best Get money, fly private jet Je dois rendre les darons fiers Sortir la mifa' de la galère I wanna do my best Get money, fly private jet Je dois rendre les darons fiers Sortir la mifa' de la galère Ce monde est compliqué, rempli de sans pitié C'est les mêmes qui m'critiquent qui veulent qu je leur tend ma main Seigneur, donne-moi la force, c'est tellement lourd de pardonner Toujours tenté de leur faire du sale Quand tout était sombre, moi j'ai vu personne Y avait que la mifa' et mes putains de vrais potes J'ai pas baissé les bras, déteste qu'on s'moque de moi Le game a changé, ils veulent toucher à ma mallette non I wanna do my best Get money for private jet Je dois rendre les darons fiers moula, moula, moula, moula Sortir la mifa' de la galère I wanna do my best ok Get money for private jet ah oui Je dois rendre les darons fiers Sortir la mifa' de la galère Sorti de la galère, trop riche pour avoir un salaire Ebandi, olandi eh C'est Dems, Dems, pas de Molière, Baudelaire Trop noir pour le système solaire Des Mohamed eh, des Ali eh Souvent accusé à tort, absence de preuves, des appels rejetés J'connais la vie, la mort, naissance, deuil, richesse et pauvreté J'connais la fin du monde, plus d'un milliard d'Africains, poings levés Le père, le fils, le Glock chargé, ah bah oui, sur ma vie La violence, ils l'ont pas choisi Masasi bo beti, mais pourtant n'ont rien changé I wanna do my best ok Get money for private jet ah oui Je dois rendre les darons fiers moula, moula, moula, moula, Sortir la mifa de la galère I wanna do my best ok Get money for private jet Je dois rendre les darons fiers Sortir la mifa de la galère Innoss'Vie Dems, noir, tout est vie Sorti de la galère T'es riche même si t'en as pas l'air Africa, love you3</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Yeah, yeah, my nigga Yeah, yeah, my nigga Yeah, yeah, my nigga Yeah Eh Damso, motherfucka', Dems, OPG, igo, plongé dans ma def' avec un big stick bédo Sombre ruelle, idéale pour liquider l'kilo, devant les keufs lacrymo', dans les sses-f', shima-Hiro J'rappais dans les caves aux micros old-school Old-school, au d'ssus d'la pop, draps blancs, coussins gros pull Claque sur ces gros culs, jte fuck puis tu reprends ton num', Dems Le Glock strict minimum, bang, si tu veux des thunes J'vois la femme comme un CD-ROM non, jpeux pas l'écouter si elle est vierge Me parle pas d'drame, juste de chiffres ronds, t'inquiète, ils sauront à quoi ressemble ma verge Qui m'aime me like ou me follow, jtrempe ton cerveau dans bocal de formol J'ai l'moj' à Damso, igo, tu download Entre ciel et Terre, entre glace et braise Le peuple qui prie le plus, putain, s'avère être le moins récompensé Aide-toi, négro, et le ciel t'aidera, c'est comme baise, on s'occupera d'enfanter Me casse pas les couilles, non, l'amour ne rend pas aveugle, non C'est juste la femme qui coûte les yeux de la tête Genius League, OPG, igo, Damso motherfucka' Dems You might also like Elles veulent toutes s'faire voir, forcément, va voir ailleurs Ouais, j'suis partout et nulle part, forcément, j'suis nul par ailleurs Dans mon ego, système, madadadadadada Dans mon ego, système, madadadadadada Elles veulent toutes s'faire voir, forcément, va voir ailleurs Ouais, j'suis partout et nulle part, forcément, j'suis nul par ailleurs Dans mon ego, système, madadadadadada Dans mon ego, système, madadadadadada Ouais, c'est bon4</t>
+          <t>Yeah, yeah, my nigga Yeah, yeah, my nigga Yeah, yeah, my nigga Yeah Eh Damso, motherfucka', Dems, OPG, igo, plongé dans ma def' avec un big stick bédo Sombre ruelle, idéale pour liquider l'kilo, devant les keufs lacrymo', dans les sses-f', shima-Hiro J'rappais dans les caves aux micros old-school Old-school, au d'ssus d'la pop, draps blancs, coussins gros pull Claque sur ces gros culs, jte fuck puis tu reprends ton num', Dems Le Glock strict minimum, bang, si tu veux des thunes J'vois la femme comme un CD-ROM non, jpeux pas l'écouter si elle est vierge Me parle pas d'drame, juste de chiffres ronds, t'inquiète, ils sauront à quoi ressemble ma verge Qui m'aime me like ou me follow, jtrempe ton cerveau dans bocal de formol J'ai l'moj' à Damso, igo, tu download Entre ciel et Terre, entre glace et braise Le peuple qui prie le plus, putain, s'avère être le moins récompensé Aide-toi, négro, et le ciel t'aidera, c'est comme baise, on s'occupera d'enfanter Me casse pas les couilles, non, l'amour ne rend pas aveugle, non C'est juste la femme qui coûte les yeux de la tête Genius League, OPG, igo, Damso motherfucka' Dems Elles veulent toutes s'faire voir, forcément, va voir ailleurs Ouais, j'suis partout et nulle part, forcément, j'suis nul par ailleurs Dans mon ego, système, madadadadadada Dans mon ego, système, madadadadadada Elles veulent toutes s'faire voir, forcément, va voir ailleurs Ouais, j'suis partout et nulle part, forcément, j'suis nul par ailleurs Dans mon ego, système, madadadadadada Dans mon ego, système, madadadadadada Ouais, c'est bon4</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Répondeur téléphone, injoignabilité Oui, disparu pour de bon Phone ses copines, inspire nicotine Fait dans la rétine, insulte de tous les noms Soirées DVD devant des séries B bien méritées vantant les mérites du célibat Elles se mentent toutes C'est libre, c'est vide et ces ligues sont libres de se cribler de rides et finit par dire qu'il me manque, oups Totalement perdue, sachant plus ce qu'elle dit, pleure C'est qu'un connard fini, c'est moi qui t'le dit S'embrassent comme des surs Mignon, oui mais non, c'est con car son téléphone sonne et l'écran indique chéri Toute la cam' déconne décroche pas, donc tombe sur la messagerie Allo, baby, c'est Damso, j'avais pas de réseau, j'étais au studio Rappelle quand tu peux, j'fais une pause le Don mixe mon new morceau Hystérique, elle crie Damn, les filles je crois que j'ai fait la connasse Passez-moi vite un flingue, j'ai douté d'mon homme j'suis trop naze Trop naze Cinéaste Cinéaste Les meufs se font des films, c'est dingue, trop love Trop love Relax, accusé tel un crime, c'est dingue, trop love Trop love Love, love, love, love Love, love, love, love Love, love, love, love Love, love, love, love You might also like Sachant qu'elles ont fortement déconné Ses copines effrénées n'voulant pas s'avouer vaincues S'efforcent donc de lui insérer, glisser l'idée que le studio n'était qu'un plan cul Ne lui téléphone pas, vas sur place intuition féminine Les hommes sont des salauds Il est sûrement avec une de ces pétasses, la plus grosse des bourinnes, tant pis, son plan tombe à l'eau Démarrent donc toutes au quart de tour S'il n'est pas devant le micro on saura où il est Se voyant d'jà en train de me prendre de court On va lui clouer l'bec s'il veut nous pigeonner Arrivées sur place dring dring Damso Dans la cabine, putain N'importe quoi, vas-y, ouvre vite sinon on casse tout Mais c'est déjà ouvert putain Pétrifies, le voyant rapper, ses potes crient Damn, on a fait les connasses Restent jusqu'au refrain, le front caché par deux mains se disant Mais qu'est-ce qu'on est trop nazes Cinéaste Cinéaste Les meufs se font des films, c'est dingue, trop love Trop love Relax, accusé tel un crime, c'est dingue, trop love Trop love Love, love, love, love Love, love, love, love Love, love, love, love Love, love, love, love</t>
+          <t>Répondeur téléphone, injoignabilité Oui, disparu pour de bon Phone ses copines, inspire nicotine Fait dans la rétine, insulte de tous les noms Soirées DVD devant des séries B bien méritées vantant les mérites du célibat Elles se mentent toutes C'est libre, c'est vide et ces ligues sont libres de se cribler de rides et finit par dire qu'il me manque, oups Totalement perdue, sachant plus ce qu'elle dit, pleure C'est qu'un connard fini, c'est moi qui t'le dit S'embrassent comme des surs Mignon, oui mais non, c'est con car son téléphone sonne et l'écran indique chéri Toute la cam' déconne décroche pas, donc tombe sur la messagerie Allo, baby, c'est Damso, j'avais pas de réseau, j'étais au studio Rappelle quand tu peux, j'fais une pause le Don mixe mon new morceau Hystérique, elle crie Damn, les filles je crois que j'ai fait la connasse Passez-moi vite un flingue, j'ai douté d'mon homme j'suis trop naze Trop naze Cinéaste Cinéaste Les meufs se font des films, c'est dingue, trop love Trop love Relax, accusé tel un crime, c'est dingue, trop love Trop love Love, love, love, love Love, love, love, love Love, love, love, love Love, love, love, love Sachant qu'elles ont fortement déconné Ses copines effrénées n'voulant pas s'avouer vaincues S'efforcent donc de lui insérer, glisser l'idée que le studio n'était qu'un plan cul Ne lui téléphone pas, vas sur place intuition féminine Les hommes sont des salauds Il est sûrement avec une de ces pétasses, la plus grosse des bourinnes, tant pis, son plan tombe à l'eau Démarrent donc toutes au quart de tour S'il n'est pas devant le micro on saura où il est Se voyant d'jà en train de me prendre de court On va lui clouer l'bec s'il veut nous pigeonner Arrivées sur place dring dring Damso Dans la cabine, putain N'importe quoi, vas-y, ouvre vite sinon on casse tout Mais c'est déjà ouvert putain Pétrifies, le voyant rapper, ses potes crient Damn, on a fait les connasses Restent jusqu'au refrain, le front caché par deux mains se disant Mais qu'est-ce qu'on est trop nazes Cinéaste Cinéaste Les meufs se font des films, c'est dingue, trop love Trop love Relax, accusé tel un crime, c'est dingue, trop love Trop love Love, love, love, love Love, love, love, love Love, love, love, love Love, love, love, love</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>De, de, de, de, de De, de, de, de, de De, de, de, de, de Eh yeah Batterie Faible Veuillez la recharger Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Ouais You might also like J'suis dans l'club depuis minuit hey Port'feuille toujours pas skinny ouais Sers du Jack un peu honey yeah Pour la bitch, du Martini ouais Elle voudrait connaître le Dems ouais Que j'lui montre le bout d'ses rêves ouais ouais Elle a peur d'mes OP Gangs N'a jamais vu en vrai des vrais OGs no Le cul aussi rond qu'un vinyle J'vais la piner en bordel À en perdre la vie Bien sapé en tenue de ville Tapage dans l'hôtel Laisse pourboire pour le bruit Son string abrège la discussion Gros bling balèze, j'fais bonne impression Mixtape à l'aise, j'n'ai pas la pression Le rap français, j'refais son éducation J'suis dans le bungalow J'observe son bassin qui bouge Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Pute pas besoin d'aller plus haut Si t'agites bien, ça fera d'la mousse Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Eh eh eh eh Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Dem's J'mets d'la beuh-er dans ma chicha, j'tousse ouais J'la prends en brochette comme un chich taouk bang Un peu d'me-sper sur le coin d'sa fouf' ouais L'enculer sévère, j'vous le souhaite à tous clair Elle hésite, ne veut plus se prendre au sérieux no Elle médite, ne veut plus se rendre au ciel bleu no Combien d'portefeuilles ont exaucé ses vux? ouais Même dans mon cercueil, j'me rappellerai d'ses yeux yeah Elle veut qu'on fasse que du sexe J'rêvais pas mieux no oh J'l'interdis de voir d'autres mecs J'suis un rageux yeah eh Prends la pilule j'veux pas qu'on soit plus d'deux Dans le cul et la teuch, pas de juste milieu Ma voix d'soûlard lui dit déshabille-toi J'vais dans son trou noir, j'suis un peu à l'étroit hein hein Teille de corona Elle danse la rumba sur du Andabo Yoruba J'suis dans le bungalow J'observe son bassin qui bouge Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Pute pas besoin d'aller plus haut Si t'agites bien, ça fera d'la mousse Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Eh eh eh eh Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah1</t>
+          <t>De, de, de, de, de De, de, de, de, de De, de, de, de, de Eh yeah Batterie Faible Veuillez la recharger Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Ouais J'suis dans l'club depuis minuit hey Port'feuille toujours pas skinny ouais Sers du Jack un peu honey yeah Pour la bitch, du Martini ouais Elle voudrait connaître le Dems ouais Que j'lui montre le bout d'ses rêves ouais ouais Elle a peur d'mes OP Gangs N'a jamais vu en vrai des vrais OGs no Le cul aussi rond qu'un vinyle J'vais la piner en bordel À en perdre la vie Bien sapé en tenue de ville Tapage dans l'hôtel Laisse pourboire pour le bruit Son string abrège la discussion Gros bling balèze, j'fais bonne impression Mixtape à l'aise, j'n'ai pas la pression Le rap français, j'refais son éducation J'suis dans le bungalow J'observe son bassin qui bouge Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Pute pas besoin d'aller plus haut Si t'agites bien, ça fera d'la mousse Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Eh eh eh eh Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Dem's J'mets d'la beuh-er dans ma chicha, j'tousse ouais J'la prends en brochette comme un chich taouk bang Un peu d'me-sper sur le coin d'sa fouf' ouais L'enculer sévère, j'vous le souhaite à tous clair Elle hésite, ne veut plus se prendre au sérieux no Elle médite, ne veut plus se rendre au ciel bleu no Combien d'portefeuilles ont exaucé ses vux? ouais Même dans mon cercueil, j'me rappellerai d'ses yeux yeah Elle veut qu'on fasse que du sexe J'rêvais pas mieux no oh J'l'interdis de voir d'autres mecs J'suis un rageux yeah eh Prends la pilule j'veux pas qu'on soit plus d'deux Dans le cul et la teuch, pas de juste milieu Ma voix d'soûlard lui dit déshabille-toi J'vais dans son trou noir, j'suis un peu à l'étroit hein hein Teille de corona Elle danse la rumba sur du Andabo Yoruba J'suis dans le bungalow J'observe son bassin qui bouge Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Pute pas besoin d'aller plus haut Si t'agites bien, ça fera d'la mousse Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Eh eh eh eh Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah1</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Hey, tes copines te tueront babe Yeah, De La Fuentes, hey Je t'emmène au cinéma Y'a pas d'mal, j'prends ta main et on y va Quoi, t'attends tes copines ? J'ai dis on y va Écoute-moi, tu es toi quand elles sont pas là En plus de ça, j'connais bien ces femmes Sache que dans leur vie, y'a aucun but précis Tu crois qu'elle t'aime, mais chez elle rien n'est real J'suis très patient, mais j'ferai pas la file, comme ça s'est dit Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner You might also like Yo, tu veux une douce fast-life Rire jusqu'à c'que tes joues fassent mal Fumer des pet' jusqu'à c'qu'on soit high high high Boire tard la night, que l'on fly high high Mais avec tes potes t'es en désaccord Dans le fond, tu voudrais qu'j'vienne visiter ton corps Tu rêves des mecs qui embrassent tes lèvres Vision céleste, moi j'entre et sors sans r'fermer la porte T'es pas la même avec tes copines Plutôt hostile, coquine, sous tes faux-cils Quand tu m'vois, j'le vois, ta voix est sèche Mais pas l'tissu du legging, encore une fois, t'as mouillé Mais tu veux pas assumer, t'as honte de tes sentiments Vas-y, viens par ici que j'te montre les atouts d'mon continent Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner4</t>
+          <t>Hey, tes copines te tueront babe Yeah, De La Fuentes, hey Je t'emmène au cinéma Y'a pas d'mal, j'prends ta main et on y va Quoi, t'attends tes copines ? J'ai dis on y va Écoute-moi, tu es toi quand elles sont pas là En plus de ça, j'connais bien ces femmes Sache que dans leur vie, y'a aucun but précis Tu crois qu'elle t'aime, mais chez elle rien n'est real J'suis très patient, mais j'ferai pas la file, comme ça s'est dit Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner Yo, tu veux une douce fast-life Rire jusqu'à c'que tes joues fassent mal Fumer des pet' jusqu'à c'qu'on soit high high high Boire tard la night, que l'on fly high high Mais avec tes potes t'es en désaccord Dans le fond, tu voudrais qu'j'vienne visiter ton corps Tu rêves des mecs qui embrassent tes lèvres Vision céleste, moi j'entre et sors sans r'fermer la porte T'es pas la même avec tes copines Plutôt hostile, coquine, sous tes faux-cils Quand tu m'vois, j'le vois, ta voix est sèche Mais pas l'tissu du legging, encore une fois, t'as mouillé Mais tu veux pas assumer, t'as honte de tes sentiments Vas-y, viens par ici que j'te montre les atouts d'mon continent Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner4</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Je n'sais pas quoi lui dire, lui faire sale c'est c'que je veux Je n'sais pas quoi lui dire, vivre avec elle c'est pas c'que j'veux C'est de pire en pire, elle dit qu'elle voudrait m'rendre heureux Notre amour est dans son derrière, j'n'ai pas su faire mieux Non je n'veux plus la voir comme la chatte à Turner Afida Botoxé comme Rachida, penis dopé ouaish on y va Y'a qu'les formes qui m'facinent donc je toucherai vite le fond Du vomi dans la bassine, être sobre hors de question Récapitulation, j'm'inspire de Deezer mais y'a pas d'imitation Le temps passe vite, à toute vitesse, comme une éjaculation J'm'en fous de tuer, tant que j'fais des sous pour maintenir la ronne en vie Plus l'temps d'être anéanti, j'prends l'réseau, j'te laisse que l'wifi Au studio je n'fais que du sale, au studio tu n'fais que du bruit Très énervé je le suis, j'n'ai plus d'coeur comme Gilardi Autant kush que d'OG, autant d'neuf que deux i J'ai le bras long mais pas pour selfie Piraterie, Mugiwara Luffy Je la baise, elle crie fort comme Pavarotti C'est noir, ça brille comme dans Get Lucky Enervé je le suis, j'n'ai plus de coeur comme Gilardi Autant kush que d'OG, autant d'neuf que deux i J'ai le bras long mais pas pour selfie Piraterie, Mugiwara Luffy Damso, ouais You might also likeFuentes vie Deezer vie, hey Batterie faible, veuillez la recharger Damso, ouais2</t>
+          <t>Je n'sais pas quoi lui dire, lui faire sale c'est c'que je veux Je n'sais pas quoi lui dire, vivre avec elle c'est pas c'que j'veux C'est de pire en pire, elle dit qu'elle voudrait m'rendre heureux Notre amour est dans son derrière, j'n'ai pas su faire mieux Non je n'veux plus la voir comme la chatte à Turner Afida Botoxé comme Rachida, penis dopé ouaish on y va Y'a qu'les formes qui m'facinent donc je toucherai vite le fond Du vomi dans la bassine, être sobre hors de question Récapitulation, j'm'inspire de Deezer mais y'a pas d'imitation Le temps passe vite, à toute vitesse, comme une éjaculation J'm'en fous de tuer, tant que j'fais des sous pour maintenir la ronne en vie Plus l'temps d'être anéanti, j'prends l'réseau, j'te laisse que l'wifi Au studio je n'fais que du sale, au studio tu n'fais que du bruit Très énervé je le suis, j'n'ai plus d'coeur comme Gilardi Autant kush que d'OG, autant d'neuf que deux i J'ai le bras long mais pas pour selfie Piraterie, Mugiwara Luffy Je la baise, elle crie fort comme Pavarotti C'est noir, ça brille comme dans Get Lucky Enervé je le suis, j'n'ai plus de coeur comme Gilardi Autant kush que d'OG, autant d'neuf que deux i J'ai le bras long mais pas pour selfie Piraterie, Mugiwara Luffy Damso, ouais Fuentes vie Deezer vie, hey Batterie faible, veuillez la recharger Damso, ouais2</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Hypnotic Hypnotic Ouh-ouh Oh la la, Shaz Shaz Ah Ah Eh Eh C'est trop dur de dire I love you Quand tu sais qu'autour, y a que des vautours, yeah Depuis qu'la moula m'a dit Bonjour Bonjour Toutes les bouches de pute veulent m'faire des bisous I say Ah, je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas, yah Yeah I say Non, je ne veux pas, je ne veux pas, fuck boy, vas-y, dégage ta mère Yeah Oh non, j'veux plus d'nouveaux amis Nan, j'ai juré sur ma vie T'as vu la grossur de la kich' Mmh, t'as couru sur ma bite Je sais qu't's amoureuse de mon fric Espèce de michto, why do you love me? Yeah Tu m'dis qu'j'suis beau et plein de mots Nous voir mourir ensemble, oh-oh Yeah Tu marcheras sur mon cur dans tes Loubou' Joue, tombolo You might also like C'est trop dur de dire I love you Quand tu sais qu'autour, y a que des vautours, yeah Depuis qu'la moula m'a dit Bonjour Bonjour Toutes les bouches de pute veulent m'faire des bisous Yeah I say Ah, je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas, yah Yeah, eh-eh, eh-eh I say Non, je ne veux pas, je ne veux pas, fuck boy, vas-y, dégage ta mère Eh-eh, yeah, yeah C'est tellement dur d'lui dire I love you, mon cur a déposé le bilan Contraception sur le drap blanc, te baiser pour dev'nir parent En levrette ou par le chignon, peu de choix, beaucoup de talent Prends elle en blanche ou celle à canon Fils de, fille de joie, dans leur cul, dans leur cul, je la mets, feu de bois, Sayonara Shoot, balle dans la tête comme J.F, J.F Kennedy Kennedy Violent, lame sous l'béret, comme Thomas, Thomas Shelby Shelby, ouf-ouf Elle est fraîche, donc je l'ai maillé, elle est chère, il me la fallait Merci mes ennemis, j'vis dans leurs têtes sans payer d'loyer Eh, Okay Le négro est élancé Okay, plus grand que la moyenne Cent-mille euros pour la semaine Oui, ça, c'est pour quand je me promène Moula Quand t'entends Dems, Nwaar, Saal, c'toujours les problèmes Oh-oh-oh C'est trop dur de dire I love you Okay Quand tu sais qu'autour, y a que des vautours, yeah Mmh-mmh Depuis qu'la moula m'a dit Bonjour Ah ouais Toutes les bouches de pute veulent m'faire des bisous Mmh-mmh I say Ah, je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas, yah Eh-eh, eh-eh I say Non, je ne veux pas, je ne veux pas, fuck boy, vas-y, dégage ta mère Eh-eh, yeah, eh-eh I love you Fuck boy Eh-eh, eh Je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas C'est trop dur de dire I love you2</t>
+          <t>Hypnotic Hypnotic Ouh-ouh Oh la la, Shaz Shaz Ah Ah Eh Eh C'est trop dur de dire I love you Quand tu sais qu'autour, y a que des vautours, yeah Depuis qu'la moula m'a dit Bonjour Bonjour Toutes les bouches de pute veulent m'faire des bisous I say Ah, je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas, yah Yeah I say Non, je ne veux pas, je ne veux pas, fuck boy, vas-y, dégage ta mère Yeah Oh non, j'veux plus d'nouveaux amis Nan, j'ai juré sur ma vie T'as vu la grossur de la kich' Mmh, t'as couru sur ma bite Je sais qu't's amoureuse de mon fric Espèce de michto, why do you love me? Yeah Tu m'dis qu'j'suis beau et plein de mots Nous voir mourir ensemble, oh-oh Yeah Tu marcheras sur mon cur dans tes Loubou' Joue, tombolo C'est trop dur de dire I love you Quand tu sais qu'autour, y a que des vautours, yeah Depuis qu'la moula m'a dit Bonjour Bonjour Toutes les bouches de pute veulent m'faire des bisous Yeah I say Ah, je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas, yah Yeah, eh-eh, eh-eh I say Non, je ne veux pas, je ne veux pas, fuck boy, vas-y, dégage ta mère Eh-eh, yeah, yeah C'est tellement dur d'lui dire I love you, mon cur a déposé le bilan Contraception sur le drap blanc, te baiser pour dev'nir parent En levrette ou par le chignon, peu de choix, beaucoup de talent Prends elle en blanche ou celle à canon Fils de, fille de joie, dans leur cul, dans leur cul, je la mets, feu de bois, Sayonara Shoot, balle dans la tête comme J.F, J.F Kennedy Kennedy Violent, lame sous l'béret, comme Thomas, Thomas Shelby Shelby, ouf-ouf Elle est fraîche, donc je l'ai maillé, elle est chère, il me la fallait Merci mes ennemis, j'vis dans leurs têtes sans payer d'loyer Eh, Okay Le négro est élancé Okay, plus grand que la moyenne Cent-mille euros pour la semaine Oui, ça, c'est pour quand je me promène Moula Quand t'entends Dems, Nwaar, Saal, c'toujours les problèmes Oh-oh-oh C'est trop dur de dire I love you Okay Quand tu sais qu'autour, y a que des vautours, yeah Mmh-mmh Depuis qu'la moula m'a dit Bonjour Ah ouais Toutes les bouches de pute veulent m'faire des bisous Mmh-mmh I say Ah, je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas, yah Eh-eh, eh-eh I say Non, je ne veux pas, je ne veux pas, fuck boy, vas-y, dégage ta mère Eh-eh, yeah, eh-eh I love you Fuck boy Eh-eh, eh Je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas C'est trop dur de dire I love you2</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Youh Big, big ,big Daddy daddy daddy Jok Jok Jok First time love, kiss me through the phone like Soulja Boy T'es mimi sans filtre, sans retouches, t'es la plus bonne L'un d'entre eux les lèvent, draco dans l'froc, j'suis dans le bloc Je n'pense qu'à faire mes opps et mettre ma monnaie à la banque Gucci bandana, j'veut être ton hoodie boys, ouais J'traîne avec mon squad, bébé appelle moi c'soir Malgré la distance, t'sais que mon cur est avec toi Entendre ta voix et t voir me fais planner comme Suprman Youuuh Trop d'kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras T'sais pas à quel point j'ai hâte J'avoue c'est relou, tous ces kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras Oh putain, j'ai hâte You might also like On enchaîne les dates, c'est toujours sold-out J'reçois beaucoup d'amour mais c'moment, j'suis dans l'gaz J'ai parfumé ma chambre d'hôtel Sous l'détecteur d'fumée, j'ai calé une chaussette Y'a toute sorte de drogues et plein d'bouteilles J'suis défoncé, là, j'attends que tu m'appelles Bébé, c'est fou comment tu m'manques là Je suis à l'autre bout du monde Je m'absente à cause de cette moula S'tu veux un mec plus présent, y'en a au chômage Où que j'ailles, donne moi des nouvelles tant qu'il y a du débit Pense à moi, où qu'tu sois Je n'fais que compter les jours jusqu'à ce qu'on s'retrouve, baby First time love, kiss me through the phone like Soulja Boy T'es mimi sans filtre, sans retouches, t'es la plus bonne L'un d'entre eux les lèvent, draco dans l'froc, j'suis dans le bloc Je n'pense qu'à faire mes opps et mettre ma monnaie à la banque Gucci bandana, j'veut être ton hoodie boys, ouais J'traînes avec mon squad, bébé appelle moi c'soir Malgré la distance, t'sais que mon cur est avec toi Entendre ta voix et te voir me fais planner comme superman Youuuh Trop d'kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras T'sais pas à quel point j'ai hâte J'avoue c'est relou, tous ces kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras Oh putain, j'ai hâte Malgré les mers, les océans Les forêts, les montagnes, les volcans Tout c'désert, tout c'béton Qui nous sépare je pense à toi tout l'temps Dans l'avion, dans l'bateau J'suis dans l'auto, j'suis sur la moto J'suis sur tout les réseaux Vive la 5G, bébé à bientôt Malgré les mers, les océans Les forêts, les montagnes, les volcans Tout ce désert pour c'béton Qui nous sépare je pense à toi tout l'temps Dans l'avion, dans l'bateau J'suis dans l'auto, j'suis sur la moto J'suis sur tout les réseaux Vive la 5G, bébé à bientôt Ouh, ouh, ouh Ouh, ouh, ouh Ouh, ouh, ouh Ouh, ouh, ouh</t>
+          <t>Youh Big, big ,big Daddy daddy daddy Jok Jok Jok First time love, kiss me through the phone like Soulja Boy T'es mimi sans filtre, sans retouches, t'es la plus bonne L'un d'entre eux les lèvent, draco dans l'froc, j'suis dans le bloc Je n'pense qu'à faire mes opps et mettre ma monnaie à la banque Gucci bandana, j'veut être ton hoodie boys, ouais J'traîne avec mon squad, bébé appelle moi c'soir Malgré la distance, t'sais que mon cur est avec toi Entendre ta voix et t voir me fais planner comme Suprman Youuuh Trop d'kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras T'sais pas à quel point j'ai hâte J'avoue c'est relou, tous ces kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras Oh putain, j'ai hâte On enchaîne les dates, c'est toujours sold-out J'reçois beaucoup d'amour mais c'moment, j'suis dans l'gaz J'ai parfumé ma chambre d'hôtel Sous l'détecteur d'fumée, j'ai calé une chaussette Y'a toute sorte de drogues et plein d'bouteilles J'suis défoncé, là, j'attends que tu m'appelles Bébé, c'est fou comment tu m'manques là Je suis à l'autre bout du monde Je m'absente à cause de cette moula S'tu veux un mec plus présent, y'en a au chômage Où que j'ailles, donne moi des nouvelles tant qu'il y a du débit Pense à moi, où qu'tu sois Je n'fais que compter les jours jusqu'à ce qu'on s'retrouve, baby First time love, kiss me through the phone like Soulja Boy T'es mimi sans filtre, sans retouches, t'es la plus bonne L'un d'entre eux les lèvent, draco dans l'froc, j'suis dans le bloc Je n'pense qu'à faire mes opps et mettre ma monnaie à la banque Gucci bandana, j'veut être ton hoodie boys, ouais J'traînes avec mon squad, bébé appelle moi c'soir Malgré la distance, t'sais que mon cur est avec toi Entendre ta voix et te voir me fais planner comme superman Youuuh Trop d'kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras T'sais pas à quel point j'ai hâte J'avoue c'est relou, tous ces kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras Oh putain, j'ai hâte Malgré les mers, les océans Les forêts, les montagnes, les volcans Tout c'désert, tout c'béton Qui nous sépare je pense à toi tout l'temps Dans l'avion, dans l'bateau J'suis dans l'auto, j'suis sur la moto J'suis sur tout les réseaux Vive la 5G, bébé à bientôt Malgré les mers, les océans Les forêts, les montagnes, les volcans Tout ce désert pour c'béton Qui nous sépare je pense à toi tout l'temps Dans l'avion, dans l'bateau J'suis dans l'auto, j'suis sur la moto J'suis sur tout les réseaux Vive la 5G, bébé à bientôt Ouh, ouh, ouh Ouh, ouh, ouh Ouh, ouh, ouh Ouh, ouh, ouh</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Ah ouais, ah bah ouais Quoi d'neuf, baby ? Quoi d'neuf, bébé ? Ouais Allons claquer c'papier C'est toi mon bébé, c'est toi mon bébé, t'es mon bébé Yeah Quoi d'neuf, bébé ? Yeah Dans tes yeux, j'vois bien Ouais Quand ça n'va pas bien Ouais, allons claquer c'papier Sale Essuie tes larmes avec ma kichta, accepte mes excuses Dans ma ville, les bitches viennent et partent, mais toi, tu restes ma bitch Tous les hommes sur terre sont infidèles Moi, j'suis là, j'suis loyal, j'suis loyal Tous les hommes sur trre sont infidèles Mais moi, j'suis là, j'suis loyal, j'suis loyal Les homms fidèles sont souvent ceux qui n'ont pas l'choix, yah, yah Les hommes fidèles sont souvent ceux qui n'ont pas l'choix Mais t'inquiète, j'te respecte, aucune n'est rentrée dans ma chambre T'es deux fois vaccinée, tu crois encore au prince charmant Tu t'parfumes chez Dior et dans ma caisse, ça sent l'Coco Chanel Depuis le début c'est toi que j'aime, ça ne changera pas Rien à foutre de ces putes, dans le tourbus, foncedé sous ecsta' Ce n'est que du cul, rien de plus J'mène ma vie d'rockstar, parce que trop d'gens veulent ma chute Parfois, j'sors l'pétard, l'été, Mamidou sort la bécane J'sors de quoi bédave, j'sors du Georges V, bébé, j'sors de GAV You might also like Quoi d'neuf, bébé ? Yeah Dans tes yeux, j'vois bien Ouais Quand ça n'va pas bien Ouais, allons claquer c'papier Essuie tes larmes avec ma kichta Sale, accepte mes excuses Ah ouais Dans ma ville, les bitches viennent et partent, mais toi, tu restes ma bitch Ouais Tous les hommes sur terre sont infidèles Moi, j'suis là, j'suis loyal, j'suis loyal Tous les hommes sur terre sont infidèles Mais moi, j'suis là, j'suis loyal, j'suis loyal Dems Mauvais exemple quand j'suis dans l'love, quand j'suis en couple Ouh Besoin de drogues dures, oh, oh, les négros en souffrent D'ailleurs, j'viens de rompre deux fois en un mois, eh, eh, eh Eh Enfermé comme Thug et Gunna, le négro est tenace, le majeur à Tobias, boom La paume remplie de crevasse, j'fume un cône, oh-oh-oh Sale Cur en lambeaux, j'crois en nous sans toi Bang, bang J'fume ma cons' au Royal Monceau, oh, oh, oh J's'rai ton Rondo, t's'ras ma Naniuma Coup d'foudre est un meurtre sauvage sans préméditation J'ai plus d'souffle, j'cours après tasses-pé assoiffées d'pénétration Le doigt lourd sur mon écran, j'écris des Je t'aime et des J'regrette Tant de concepts que je n'comprends pas Yeah, uh-huh C'est pas normal, même avec ces larmes qui coulent sur ta face, t'es incroyable Ah ouais Pardonne-moi, mon bébé mais c'est comme a-ç Tiens, prends ma liasse, j'veux plus t'voir comme a-ç C'est pas normal, même avec ces larmes qui coulent sur ta face, t'es incroyable Pardonne-moi, mon bébé mais c'est comme a-ç Tiens, prends ma liasse, j'veux plus t'voir comme a-ç C'est toi mon bébé, t'es mon bébé, c'est toi mon bébé, t'es mon bébé, ouais C'est toi mon bébé, t'es mon bébé, c'est toi mon bébé, t'es mon bébé</t>
+          <t>Ah ouais, ah bah ouais Quoi d'neuf, baby ? Quoi d'neuf, bébé ? Ouais Allons claquer c'papier C'est toi mon bébé, c'est toi mon bébé, t'es mon bébé Yeah Quoi d'neuf, bébé ? Yeah Dans tes yeux, j'vois bien Ouais Quand ça n'va pas bien Ouais, allons claquer c'papier Sale Essuie tes larmes avec ma kichta, accepte mes excuses Dans ma ville, les bitches viennent et partent, mais toi, tu restes ma bitch Tous les hommes sur terre sont infidèles Moi, j'suis là, j'suis loyal, j'suis loyal Tous les hommes sur trre sont infidèles Mais moi, j'suis là, j'suis loyal, j'suis loyal Les homms fidèles sont souvent ceux qui n'ont pas l'choix, yah, yah Les hommes fidèles sont souvent ceux qui n'ont pas l'choix Mais t'inquiète, j'te respecte, aucune n'est rentrée dans ma chambre T'es deux fois vaccinée, tu crois encore au prince charmant Tu t'parfumes chez Dior et dans ma caisse, ça sent l'Coco Chanel Depuis le début c'est toi que j'aime, ça ne changera pas Rien à foutre de ces putes, dans le tourbus, foncedé sous ecsta' Ce n'est que du cul, rien de plus J'mène ma vie d'rockstar, parce que trop d'gens veulent ma chute Parfois, j'sors l'pétard, l'été, Mamidou sort la bécane J'sors de quoi bédave, j'sors du Georges V, bébé, j'sors de GAV Quoi d'neuf, bébé ? Yeah Dans tes yeux, j'vois bien Ouais Quand ça n'va pas bien Ouais, allons claquer c'papier Essuie tes larmes avec ma kichta Sale, accepte mes excuses Ah ouais Dans ma ville, les bitches viennent et partent, mais toi, tu restes ma bitch Ouais Tous les hommes sur terre sont infidèles Moi, j'suis là, j'suis loyal, j'suis loyal Tous les hommes sur terre sont infidèles Mais moi, j'suis là, j'suis loyal, j'suis loyal Dems Mauvais exemple quand j'suis dans l'love, quand j'suis en couple Ouh Besoin de drogues dures, oh, oh, les négros en souffrent D'ailleurs, j'viens de rompre deux fois en un mois, eh, eh, eh Eh Enfermé comme Thug et Gunna, le négro est tenace, le majeur à Tobias, boom La paume remplie de crevasse, j'fume un cône, oh-oh-oh Sale Cur en lambeaux, j'crois en nous sans toi Bang, bang J'fume ma cons' au Royal Monceau, oh, oh, oh J's'rai ton Rondo, t's'ras ma Naniuma Coup d'foudre est un meurtre sauvage sans préméditation J'ai plus d'souffle, j'cours après tasses-pé assoiffées d'pénétration Le doigt lourd sur mon écran, j'écris des Je t'aime et des J'regrette Tant de concepts que je n'comprends pas Yeah, uh-huh C'est pas normal, même avec ces larmes qui coulent sur ta face, t'es incroyable Ah ouais Pardonne-moi, mon bébé mais c'est comme a-ç Tiens, prends ma liasse, j'veux plus t'voir comme a-ç C'est pas normal, même avec ces larmes qui coulent sur ta face, t'es incroyable Pardonne-moi, mon bébé mais c'est comme a-ç Tiens, prends ma liasse, j'veux plus t'voir comme a-ç C'est toi mon bébé, t'es mon bébé, c'est toi mon bébé, t'es mon bébé, ouais C'est toi mon bébé, t'es mon bébé, c'est toi mon bébé, t'es mon bébé</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Yeah, putain Eh yo Don, balance un peu heu... Mets un peu du volume dans le casque, là Ouais, c'est bon Putain, dernier son d'la tape Je suis blasé, fatigué Trop d'faux plans pour cette putain d'tape, enregistrée dans une chambre Beaucoup de connards, beaucoup de vrais gars ont participé Et puis fuck, en fait, j'les emmerde tous haha Putain Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Putain d'merde Putain d'merde J'suis blasé de la life, juste envie d'fumer d'l'herbe Résidu de pax dans le l'froc, motherfucker Teille de whisky Jack dans le coffre d'la gova Ça crie, ça rit autour J'suis là sans être présent Impression d'jouer les sourds On m'parle, je fais qu'lâcher des vents Même plus envie d'baiser Blasé, fais chier, faut que j'me reprenne, haine et peine Anything again, et je la joue Kurt Cobain, bang bang Je me tire dessus pour me tirer d'ici, ok Tiens bon mais je tiens plus debout, envie de sauter du haut d'un new gate L'indé' coûte plus cher sans frais de port Plus besoin d'être livré à soi-même Pas besoin d'vos disques d'or, faites le fondre à la 2Chainz Sourire au poste, j'y ai photographié empreintes Chérie, me parle pas d'gosses y a qu'pour mon son qu'on me parlera d'enceintes Je suis là, je suis frais, j'fais qu'frimer Tous les tres-traî vont trimer Difficulté trop d'mc's à la cheville m'a dit le kiné En chien , en rien du tout Sont tous là à sucer mon crew En studio quand je pose, y a qu'mon écharpe qui tient le coup Narcissique, j'parle que de moi Damso, motherfucking Dams', motherfucking Dams', motherfucker huggle sur turvoi Merco, motherfucking Benz, motherfucker Benz, motherfucker négro, qu'est-ce tu crois? Lève-tôt pense que l'monde t'appartient T'as l'swag à Martin Matin Trop d'flow, trop loin, j'rappe en martien Genius League Einstein flow Roule un spliff, que j'plane bro Toutes ces bitchs qui flânent trop, Tout est dis c'est Damso, Damso You might also like Et puis fuck, en fait, j'les emmerde tous Putain Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé</t>
+          <t>Yeah, putain Eh yo Don, balance un peu heu... Mets un peu du volume dans le casque, là Ouais, c'est bon Putain, dernier son d'la tape Je suis blasé, fatigué Trop d'faux plans pour cette putain d'tape, enregistrée dans une chambre Beaucoup de connards, beaucoup de vrais gars ont participé Et puis fuck, en fait, j'les emmerde tous haha Putain Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Putain d'merde Putain d'merde J'suis blasé de la life, juste envie d'fumer d'l'herbe Résidu de pax dans le l'froc, motherfucker Teille de whisky Jack dans le coffre d'la gova Ça crie, ça rit autour J'suis là sans être présent Impression d'jouer les sourds On m'parle, je fais qu'lâcher des vents Même plus envie d'baiser Blasé, fais chier, faut que j'me reprenne, haine et peine Anything again, et je la joue Kurt Cobain, bang bang Je me tire dessus pour me tirer d'ici, ok Tiens bon mais je tiens plus debout, envie de sauter du haut d'un new gate L'indé' coûte plus cher sans frais de port Plus besoin d'être livré à soi-même Pas besoin d'vos disques d'or, faites le fondre à la 2Chainz Sourire au poste, j'y ai photographié empreintes Chérie, me parle pas d'gosses y a qu'pour mon son qu'on me parlera d'enceintes Je suis là, je suis frais, j'fais qu'frimer Tous les tres-traî vont trimer Difficulté trop d'mc's à la cheville m'a dit le kiné En chien , en rien du tout Sont tous là à sucer mon crew En studio quand je pose, y a qu'mon écharpe qui tient le coup Narcissique, j'parle que de moi Damso, motherfucking Dams', motherfucking Dams', motherfucker huggle sur turvoi Merco, motherfucking Benz, motherfucker Benz, motherfucker négro, qu'est-ce tu crois? Lève-tôt pense que l'monde t'appartient T'as l'swag à Martin Matin Trop d'flow, trop loin, j'rappe en martien Genius League Einstein flow Roule un spliff, que j'plane bro Toutes ces bitchs qui flânent trop, Tout est dis c'est Damso, Damso Et puis fuck, en fait, j'les emmerde tous Putain Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Yeah, han Yeah, han Yeah, yeah Ruisseaux, rivières, fleuves, j'côtoie plus de flots qu'un matelot j'ai juste assez de boules que d'douilles dans l'magnum Bang, bang, pam, pam I'm sorry, seul moyen que jai de gole-ri Plus gros arsenal que Wenger, narcotrafic by Columbie Putain fuck, les mecs Fuck, les mecs, il faut du biff, les mecs Il faut du biff, les mecs Sors ton biff d'la rue, checke le bourgeois dire Sale putain de nègre Trop d'nervosité dans le re-ai Re-ai, trop sodomisé dans l'réel L'réel Pas là pour conscientisé, j'men fous tant que j'fais du bénef' Bénéf', Damso, Damso, Damso, Dems 'so, Dems, han Sanguinolante est la fusillade, pas d'surveillance dans l'cambriolage Je vois de toutes les couleurs comme Bioman, que des gouttes de sueurs, pas d'place pour les larmes C'est Damso Damso, à défaut d'pas partir, je pars en vrille, hun, hun La life est une énigme dont l'seul indice est c'lui du prix, hun, hun, bam, bam Fuck le game, le talent n'suffit pas Nan, nan, nan, nan, nan, nan Fuck le game, le talent n'suffit pas Nan, nan, nan, nan, nan, nan Fuck le game, le talent n'suffit pas Nan, nan, nan, nan, nan, nan Il, nan, nan, nan Il suffit pas cest clair J'ai beau rapper, kicker, puiser des flows cuisants voir tout bousiller, rien ne changera s'ils ne sont pas prêts J'pourrais rapper vite ou bien lentement, j'pourrais faire mieux qule meilleur tout bêtement Mais sans la promo, moi, j's'rais pas premier, j'serais premier que je serai juste un comis J'commets crime odieux sur bande de son Nan, nan, nan, D.A.M.S.O Tellement, tellement d'flowYou might also like</t>
+          <t>Yeah, han Yeah, han Yeah, yeah Ruisseaux, rivières, fleuves, j'côtoie plus de flots qu'un matelot j'ai juste assez de boules que d'douilles dans l'magnum Bang, bang, pam, pam I'm sorry, seul moyen que jai de gole-ri Plus gros arsenal que Wenger, narcotrafic by Columbie Putain fuck, les mecs Fuck, les mecs, il faut du biff, les mecs Il faut du biff, les mecs Sors ton biff d'la rue, checke le bourgeois dire Sale putain de nègre Trop d'nervosité dans le re-ai Re-ai, trop sodomisé dans l'réel L'réel Pas là pour conscientisé, j'men fous tant que j'fais du bénef' Bénéf', Damso, Damso, Damso, Dems 'so, Dems, han Sanguinolante est la fusillade, pas d'surveillance dans l'cambriolage Je vois de toutes les couleurs comme Bioman, que des gouttes de sueurs, pas d'place pour les larmes C'est Damso Damso, à défaut d'pas partir, je pars en vrille, hun, hun La life est une énigme dont l'seul indice est c'lui du prix, hun, hun, bam, bam Fuck le game, le talent n'suffit pas Nan, nan, nan, nan, nan, nan Fuck le game, le talent n'suffit pas Nan, nan, nan, nan, nan, nan Fuck le game, le talent n'suffit pas Nan, nan, nan, nan, nan, nan Il, nan, nan, nan Il suffit pas cest clair J'ai beau rapper, kicker, puiser des flows cuisants voir tout bousiller, rien ne changera s'ils ne sont pas prêts J'pourrais rapper vite ou bien lentement, j'pourrais faire mieux qule meilleur tout bêtement Mais sans la promo, moi, j's'rais pas premier, j'serais premier que je serai juste un comis J'commets crime odieux sur bande de son Nan, nan, nan, D.A.M.S.O Tellement, tellement d'flow</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>J'ai jamais connu d'vierge à part ma feuille A4, hein J'crois que j'suis marrant, chaque meuf que j'côtoie se plie en quatre pattes Peu d'vrai dans c'qui mentoure, j'vois que deux trois silhouettes Négro, j'suis loin, j'te distance d'environ neuf millimètres Ratatatata dans le cou Ratatatata dans le trou Ratatatata dans le boule Ratatatata dans le cou Hé m'sieur, fais d'la d'politique, y'a que comme ça que t'auras ma voix Vagin syphilitique, pute, t'as cru que t'allais m'avoir J'nique vos lois, vos dogmes, vos gosses, mon peuple en a souffert Pas besoin de faire de la neuro-physio pour connaître le nerf de la guerre L'argent n'a pas d'odeur, c'est vrai, dès que j'en ai, j'me sens plus Jamais de stress, cul par dessus la tête juste pour un anulingus J'm'en fou qu'on m'donne carte blanche, pour que j'sois libre, il me faut la black Sécher ma troisième jambe Salope, viens me graisser la patte L'avenir, un drôle de pénis Tourne lui le dos et paf la levrette Marre de ces gow qui gémissent, j'veux du S.H.A.Y À l'avance sur mon time, MC San Ku Kaï RDC Kasaï-Oriental, bitch Bichi Bimpa Malukayi J'rentre en studio, j'tremble Ils comprennent rien, c'est sûr Vu que j'parle en tu avec le sommet, y'a chute de température J'baise miss black and white, comme le swag de De Fontenay Parle moi pas ou parle moi maille, j'vis de mes contes comme La Fontaine Damso You might also like Ratatatata dans le boule Ratatatata dans le cou Neuf millimètres J'ai jamais connu d'vierge à part ma feuille A4, hein J'crois que j'suis marrant, chaque meuf que j'côtoie se plie en quatre pattes Peu d'vrai dans c'qui mentoure, j'vois que deux trois silhouettes Négro, j'suis loin, j'te distance d'environ neuf millimètres Ratatatata dans le cou Ratatatata dans le trou Ratatatata dans le boule Ratatatata dans le cou Neuf millimètres Quatre pattes</t>
+          <t>J'ai jamais connu d'vierge à part ma feuille A4, hein J'crois que j'suis marrant, chaque meuf que j'côtoie se plie en quatre pattes Peu d'vrai dans c'qui mentoure, j'vois que deux trois silhouettes Négro, j'suis loin, j'te distance d'environ neuf millimètres Ratatatata dans le cou Ratatatata dans le trou Ratatatata dans le boule Ratatatata dans le cou Hé m'sieur, fais d'la d'politique, y'a que comme ça que t'auras ma voix Vagin syphilitique, pute, t'as cru que t'allais m'avoir J'nique vos lois, vos dogmes, vos gosses, mon peuple en a souffert Pas besoin de faire de la neuro-physio pour connaître le nerf de la guerre L'argent n'a pas d'odeur, c'est vrai, dès que j'en ai, j'me sens plus Jamais de stress, cul par dessus la tête juste pour un anulingus J'm'en fou qu'on m'donne carte blanche, pour que j'sois libre, il me faut la black Sécher ma troisième jambe Salope, viens me graisser la patte L'avenir, un drôle de pénis Tourne lui le dos et paf la levrette Marre de ces gow qui gémissent, j'veux du S.H.A.Y À l'avance sur mon time, MC San Ku Kaï RDC Kasaï-Oriental, bitch Bichi Bimpa Malukayi J'rentre en studio, j'tremble Ils comprennent rien, c'est sûr Vu que j'parle en tu avec le sommet, y'a chute de température J'baise miss black and white, comme le swag de De Fontenay Parle moi pas ou parle moi maille, j'vis de mes contes comme La Fontaine Damso Ratatatata dans le boule Ratatatata dans le cou Neuf millimètres J'ai jamais connu d'vierge à part ma feuille A4, hein J'crois que j'suis marrant, chaque meuf que j'côtoie se plie en quatre pattes Peu d'vrai dans c'qui mentoure, j'vois que deux trois silhouettes Négro, j'suis loin, j'te distance d'environ neuf millimètres Ratatatata dans le cou Ratatatata dans le trou Ratatatata dans le boule Ratatatata dans le cou Neuf millimètres Quatre pattes</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Hein mais bon personne ne sait Tu sais pas d'quoi j'parle, faut qu'tu sortes ta tape Deux-trois sons du OPGang du mother fucking Dems Yo Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Damso, Damso, Damso Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Damso, Damso, Damso Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Damso, Damso, Damso Promo, Damso Yo négro, j'vois qu'tu l'embrasses, tu l'aimes Oh, au lieu d'la baiser comme les autres Oh L'aurore est comme la race humaine y a des couleurs plus importantes que d'autres Présage des millions d'coups bas Coups bas, j'prends d'l'âge dans un bar à cougars Cougars Fuck you, j'suis sur un gros coup comme une chaîne en or de Baracuda 'cuda J'parle peu, j'me raconte souvent, j'suis comme une tache de sperme dans un couvent Aussitôt j'crache, aussitôt j'remets mes vêtements Mon cur vient d'la rue, les poumons remplis d'goudrons Goudrons La planète Terre ne me suffit plus, au-d'ssus d'latmosphère ils ne me poursuivent plus Le rap game sa mère j'lui fous un doigt dans l'cul, easy-asy bang bang, n'en parlons plus Damso Ra-ta-ta-ta, technique de flow mythique, arme soviétique, grosse est l'équipe, grosse beuh chimique Pharmaceutique, putain j'débite, trop me repeat, fuck en réponse Mec je rubis, j'vois qu'ils s'dégonflent, d'vant l'pussy, grosse défonce Bédo, te-shi, j'risque de ter-sau, traire ennemi, sur le té-cô, man au pe-cli Rève de ser-po, sur le ze-bi, même pas d'égo, il négocie, faux cul négro J'deviens grossier, fuck le métro, j'veux m'incruster dans le caisson Lourd et corsé, Damso motherfuck Dems OPG, publie, partage, promo Promo, promo Trop de flow, mec vas-y molo Molo, molo, ils ont voulu tirer le gros lot Gros lot, gros lot Qui m'aime me like ou bien me follow, yo Trois fois W, point Facebook.com, slash T.H.E.D.A.M.S.O S.O Trois fois W, point Twitter.com, slash T.H.E.D.A.M.S.O S.O You might also like Publie, partage, promo Promo Publie, partage, promo Promo Publie, partage, promo Promo Damso, Damso, Damso Damso Publie, partage, promo Promo Publie, partage, promo Promo Publie, partage, promo Promo Damso, Damso, Damso Damso Publie, partage, promo Promo Publie, partage, promo Promo Publie, partage, promo Promo Damso, Damso, Damso Damso Yo Dems, Dems Dems, Dems Publie, partage, promo J'ai dis Dems, Dems Dems, Dems Publie, partage, promo Damso, les négros m'ont dit T'es chaud, mais bon personne ne sait Tu sais pas d'quoi j'parle, faut qu'tu sortes ta tape Deux-trois sons du OPGang du motherfucking Dems Faut pas traîner comme Dre Damso, les négros m'ont dit T'es chaud, mais bon personne ne sait Tu sais pas d'quoi j'parle, faut qu'tu sortes ta tape Deux-trois sons du OPGang du motherfucking Dems Faut pas traîner comme Dre1</t>
+          <t>Hein mais bon personne ne sait Tu sais pas d'quoi j'parle, faut qu'tu sortes ta tape Deux-trois sons du OPGang du mother fucking Dems Yo Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Damso, Damso, Damso Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Damso, Damso, Damso Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Damso, Damso, Damso Promo, Damso Yo négro, j'vois qu'tu l'embrasses, tu l'aimes Oh, au lieu d'la baiser comme les autres Oh L'aurore est comme la race humaine y a des couleurs plus importantes que d'autres Présage des millions d'coups bas Coups bas, j'prends d'l'âge dans un bar à cougars Cougars Fuck you, j'suis sur un gros coup comme une chaîne en or de Baracuda 'cuda J'parle peu, j'me raconte souvent, j'suis comme une tache de sperme dans un couvent Aussitôt j'crache, aussitôt j'remets mes vêtements Mon cur vient d'la rue, les poumons remplis d'goudrons Goudrons La planète Terre ne me suffit plus, au-d'ssus d'latmosphère ils ne me poursuivent plus Le rap game sa mère j'lui fous un doigt dans l'cul, easy-asy bang bang, n'en parlons plus Damso Ra-ta-ta-ta, technique de flow mythique, arme soviétique, grosse est l'équipe, grosse beuh chimique Pharmaceutique, putain j'débite, trop me repeat, fuck en réponse Mec je rubis, j'vois qu'ils s'dégonflent, d'vant l'pussy, grosse défonce Bédo, te-shi, j'risque de ter-sau, traire ennemi, sur le té-cô, man au pe-cli Rève de ser-po, sur le ze-bi, même pas d'égo, il négocie, faux cul négro J'deviens grossier, fuck le métro, j'veux m'incruster dans le caisson Lourd et corsé, Damso motherfuck Dems OPG, publie, partage, promo Promo, promo Trop de flow, mec vas-y molo Molo, molo, ils ont voulu tirer le gros lot Gros lot, gros lot Qui m'aime me like ou bien me follow, yo Trois fois W, point Facebook.com, slash T.H.E.D.A.M.S.O S.O Trois fois W, point Twitter.com, slash T.H.E.D.A.M.S.O S.O Publie, partage, promo Promo Publie, partage, promo Promo Publie, partage, promo Promo Damso, Damso, Damso Damso Publie, partage, promo Promo Publie, partage, promo Promo Publie, partage, promo Promo Damso, Damso, Damso Damso Publie, partage, promo Promo Publie, partage, promo Promo Publie, partage, promo Promo Damso, Damso, Damso Damso Yo Dems, Dems Dems, Dems Publie, partage, promo J'ai dis Dems, Dems Dems, Dems Publie, partage, promo Damso, les négros m'ont dit T'es chaud, mais bon personne ne sait Tu sais pas d'quoi j'parle, faut qu'tu sortes ta tape Deux-trois sons du OPGang du motherfucking Dems Faut pas traîner comme Dre Damso, les négros m'ont dit T'es chaud, mais bon personne ne sait Tu sais pas d'quoi j'parle, faut qu'tu sortes ta tape Deux-trois sons du OPGang du motherfucking Dems Faut pas traîner comme Dre1</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Ouais, ouais Ce soir j'me bourre la gueule Yeah J'ai des factures comme tout l'monde ici Mais j'm'en fous cette nuit j'les regarderai à peine J'ai des soucis comme tout l'monde ici Mais j'm'en fous cette nuit j'y penserai à peine Ce soir j'me bourre la gueule Pour tout oublier Nan j'm'en fous ce soir j'me bourre la gueule Pour tout oublier J'suis déchiré, j'veux tout oublier J'suis déchiré Ma meuf me saoule depuis trop longtemps Mais vu que j'la kiff j'peux pas la quitter Ma mère me dit de changer mes fréquentations Mais vu que ça roule des spliffs j'peux pas les quitter J'suis passé d'général au technique J'ai montré le bulletin à la daronne elle a déchiré Première fois dans première salope, prévoyant j'ai mis une capote mais elle s'est déchirée J'cruise avec Gil Ill en ville Pour qu'on vienne te choper l'essence, faudra participer J'recherche une ressoi tranquille M'escarmouche avec le videur veut pas m'laisser rentrer Fucked up, hors de question qu'j'reste sobre Paki, j'prends ma Gordon J'me def avec mon escorte Ce soir j'crois qu'il y aura mort d'homme Bagarre, ambulance, forces de l'ordre J'suis def, j'fume un petch avec bonheur pour oublier les huissiers You might also like J'ai des factures comme tout l'monde ici Mais j'm'en fous cette nuit j'les regarderai à peine J'ai des soucis comme tout l'monde ici Mais j'm'en fous cette nuit j'y penserai à peine Ce soir j'me bourre la gueule Pour tout oublier Nan j'm'en fous ce soir j'me bourre la gueule Pour tout oublier J'suis déchiré, j'veux tout oublier J'suis déchiré4</t>
+          <t>Ouais, ouais Ce soir j'me bourre la gueule Yeah J'ai des factures comme tout l'monde ici Mais j'm'en fous cette nuit j'les regarderai à peine J'ai des soucis comme tout l'monde ici Mais j'm'en fous cette nuit j'y penserai à peine Ce soir j'me bourre la gueule Pour tout oublier Nan j'm'en fous ce soir j'me bourre la gueule Pour tout oublier J'suis déchiré, j'veux tout oublier J'suis déchiré Ma meuf me saoule depuis trop longtemps Mais vu que j'la kiff j'peux pas la quitter Ma mère me dit de changer mes fréquentations Mais vu que ça roule des spliffs j'peux pas les quitter J'suis passé d'général au technique J'ai montré le bulletin à la daronne elle a déchiré Première fois dans première salope, prévoyant j'ai mis une capote mais elle s'est déchirée J'cruise avec Gil Ill en ville Pour qu'on vienne te choper l'essence, faudra participer J'recherche une ressoi tranquille M'escarmouche avec le videur veut pas m'laisser rentrer Fucked up, hors de question qu'j'reste sobre Paki, j'prends ma Gordon J'me def avec mon escorte Ce soir j'crois qu'il y aura mort d'homme Bagarre, ambulance, forces de l'ordre J'suis def, j'fume un petch avec bonheur pour oublier les huissiers J'ai des factures comme tout l'monde ici Mais j'm'en fous cette nuit j'les regarderai à peine J'ai des soucis comme tout l'monde ici Mais j'm'en fous cette nuit j'y penserai à peine Ce soir j'me bourre la gueule Pour tout oublier Nan j'm'en fous ce soir j'me bourre la gueule Pour tout oublier J'suis déchiré, j'veux tout oublier J'suis déchiré4</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Des fils de putes j'en vois tous les jours Loin dans son 'uc elle a plus d'un tour Du monde à dos pour ce que j'ai fait Qu'ils aillent se faire enculer de loin et de près J'suis fort dans l'enculade de trous du cul et tralala Je ne compte jamais changer Après tout ton point G je ne sais pas trop où il en est Tu t'fais baiser par qui veut la mettre J'fais dans la méditation pour oublier Qu'ça n'a jamais rayonné Stress et tribulation me rient au nez parce que j'fais de la monnaie Parle pas trop de tes rêves, ces fils de lâches ne voudront pas que tu y arrives Te noieront avant que t'atteignent la rive N'aiment pas voir nègre au sommet Dams était damso-isé Oh ouais Schnek en train d'agoniserYou might also like2</t>
+          <t>Des fils de putes j'en vois tous les jours Loin dans son 'uc elle a plus d'un tour Du monde à dos pour ce que j'ai fait Qu'ils aillent se faire enculer de loin et de près J'suis fort dans l'enculade de trous du cul et tralala Je ne compte jamais changer Après tout ton point G je ne sais pas trop où il en est Tu t'fais baiser par qui veut la mettre J'fais dans la méditation pour oublier Qu'ça n'a jamais rayonné Stress et tribulation me rient au nez parce que j'fais de la monnaie Parle pas trop de tes rêves, ces fils de lâches ne voudront pas que tu y arrives Te noieront avant que t'atteignent la rive N'aiment pas voir nègre au sommet Dams était damso-isé Oh ouais Schnek en train d'agoniser2</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Ils sont venus Ils sont tous là Dès qu'ils ont entendu ce cri Elle va mourir, la mamma Ils sont venus Ils sont tous là Même ceux du sud de l'Italie Y'a même Giorgio, le fils maudit Avec des présents plein les bras Tous les enfants jouent en silence Autour du lit ou sur le carreau Mais leurs jeux n'ont pas d'importance C'est un peu leurs derniers cadeaux A la mamma On la réchauffe de baisers On lui remonte ses oreillers Elle va mourir, la mamma Sainte Marie pleine de grâces Dont la statue est sur la place Bien sûr vous lui tendez les bras En lui chantant Ave Maria Ave Maria Y'a tant d'amour, de souvenirs Autour de toi, toi la mamma Y'a tant de larmes et de sourires A travers toi, toi la mamma Et tous les hommes ont eu si chaud Sur les chemins de grand soleil Elle va mourir, la mamma Qu'ils boivent frais le vin nouveau Le bon vin de la bonne treille Tandis que s'entrassent pêle-mêle Sur les bancs, foulards et chapeaux C'est drôle on ne se sent pas triste Près du grand lit et de l'affection Y'a même un oncle guitariste Qui joue en faisant attention A la mamma Et les femmes se souvenant Des chansons tristes des veillées Elle va mourir, la mamma Tout doucement, les yeux fermés Chantent comme on berce un enfant Après une bonne journée Pour qu'il sourie en s'endormant Ave Maria Y'a tant d'amour, de souvenirs Autour de toi, toi la mamma Y'a tant de larmes et de sourires A travers toi, toi la mamma Que jamais, jamais, jamais Tu nous quitteras...You might also like</t>
+          <t>Ils sont venus Ils sont tous là Dès qu'ils ont entendu ce cri Elle va mourir, la mamma Ils sont venus Ils sont tous là Même ceux du sud de l'Italie Y'a même Giorgio, le fils maudit Avec des présents plein les bras Tous les enfants jouent en silence Autour du lit ou sur le carreau Mais leurs jeux n'ont pas d'importance C'est un peu leurs derniers cadeaux A la mamma On la réchauffe de baisers On lui remonte ses oreillers Elle va mourir, la mamma Sainte Marie pleine de grâces Dont la statue est sur la place Bien sûr vous lui tendez les bras En lui chantant Ave Maria Ave Maria Y'a tant d'amour, de souvenirs Autour de toi, toi la mamma Y'a tant de larmes et de sourires A travers toi, toi la mamma Et tous les hommes ont eu si chaud Sur les chemins de grand soleil Elle va mourir, la mamma Qu'ils boivent frais le vin nouveau Le bon vin de la bonne treille Tandis que s'entrassent pêle-mêle Sur les bancs, foulards et chapeaux C'est drôle on ne se sent pas triste Près du grand lit et de l'affection Y'a même un oncle guitariste Qui joue en faisant attention A la mamma Et les femmes se souvenant Des chansons tristes des veillées Elle va mourir, la mamma Tout doucement, les yeux fermés Chantent comme on berce un enfant Après une bonne journée Pour qu'il sourie en s'endormant Ave Maria Y'a tant d'amour, de souvenirs Autour de toi, toi la mamma Y'a tant de larmes et de sourires A travers toi, toi la mamma Que jamais, jamais, jamais Tu nous quitteras...</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Six heures du mat', elle ne fait que s'ambiancer Ouais, ouais, ouais Sait-elle seulement ce qu'il y a dans mes pensées Ouais, ouais, ouais ? Je n'arrête pas de mater son déhanché Oh ouais Mais je ne l'invite pas car je ne sais pas danser Non Six heures du mat', elle ne fait que s'ambiancer Ouais, ouais, ouais Sait-elle seulement ce qu'il y a dans mes pensées Ouais, ouais, ouais ? Je n'arrête pas de mater son déhanché Oh ouais Mais je ne l'invite pas car je ne sais pas danser NonYou might also like2</t>
+          <t>Six heures du mat', elle ne fait que s'ambiancer Ouais, ouais, ouais Sait-elle seulement ce qu'il y a dans mes pensées Ouais, ouais, ouais ? Je n'arrête pas de mater son déhanché Oh ouais Mais je ne l'invite pas car je ne sais pas danser Non Six heures du mat', elle ne fait que s'ambiancer Ouais, ouais, ouais Sait-elle seulement ce qu'il y a dans mes pensées Ouais, ouais, ouais ? Je n'arrête pas de mater son déhanché Oh ouais Mais je ne l'invite pas car je ne sais pas danser Non2</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>du commissaire Que je balaya sous le matelas C'est de l'amateurisme, ça La pauvreté te guette du du coin de lil Mec, mémorise ça Kobo Kobo Oh OG roule un gros shit Sale Trop d'biff, Guns N' Roses Très sale J'roule un gros spliff' pour une grosse bitch Nwaar J'suis dans sa schnek Vie, je fais du crossfit Très nwaar Roule un dernier bedo, négro, je n'ai pas saal Sale, sale, saleYou might also like</t>
+          <t>du commissaire Que je balaya sous le matelas C'est de l'amateurisme, ça La pauvreté te guette du du coin de lil Mec, mémorise ça Kobo Kobo Oh OG roule un gros shit Sale Trop d'biff, Guns N' Roses Très sale J'roule un gros spliff' pour une grosse bitch Nwaar J'suis dans sa schnek Vie, je fais du crossfit Très nwaar Roule un dernier bedo, négro, je n'ai pas saal Sale, sale, sale</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Devant l'avion lAfrique me refus criblée Bon charlatan, CFA monnaie pillée J'suis sur Babi, j'fume un doobie, oui Dévisagé par le curé, oui Monogame et relation brisée, oui Polygame et fidélité, oui ...You might also like</t>
+          <t>Devant l'avion lAfrique me refus criblée Bon charlatan, CFA monnaie pillée J'suis sur Babi, j'fume un doobie, oui Dévisagé par le curé, oui Monogame et relation brisée, oui Polygame et fidélité, oui ...</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Being an additive synthesizer Harmor can resynthesize audio files as well. Eh yo, j'suis pas du genre à parler Je préfère m'isoler dans ma couche d'ozone J'fais les cent pas, oui j'ai zoné J'en suis pas désolé, vous le savez désormais J'délire sur des tueries, je ne me sens jamais désarmé Je sais c'est bizarre mais, je m'endors très très tard Et ce n'est pas par hasard si toutes mes nuits sont des trous noirs Faut que j'devienne riche, que j'me barre au Qatar Non mais imagine le truc, putain d'scène de batard Il faut que j'coule, il faut que j'me bouge Il faut que je cruise, il faut que je goûte à tout Que j'me coupe de tout, écoute il faut que j'me couche Pas dans les rangs, j'suis bien trop décalé Fleuve tranquille, je passe mon temps à me laisser aller J'me laisse aller je chill, profite d'mon sex-appeal Me parlez plus du monde, j'ai créé le mien, j'ai déjà ma ville Et dans ma tête je m'isole, mes neurones batifolent C'est Damso motherfucking Dems Et motherfucking Gil damn, dis leur Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé You might also like Damn, porté disparu dans mes pensées Pour compenser, j'me suis défoncé Je regrette rien que d'y penser mais bon blasé Pour évacuer avec du THC, oui donc j'ai été l'acheter On m'a dit fais pas ça, je leur ai dit faites pas chier j'étais blasé Trop de pression de partout du daron, d'la daronne J'rêvais d'me barrer mais faut d'la maille et donc mouiller le maillot Fainéant, j'voulais pas taffer J'voulais juste qu'on ne me fasse pas chier Depuis tit-pe, j'suis le type qui se tape tous les types de teuch On me rétracte qu'il faut pas se fâcher damn J'veux pas de pause, j'veux pas des thunes du boss de Megaupload J'veux me barrer à la côte, faire autre chose que de fumer avec mes potes Je suis blasé, je veux pas des millions, juste des minutes Fuck les minous, j'en baise depuis mineur J'veux vivre un minimum, bitch J'me laisse aller je chill, profite d'mon sex-appeal Me parlez plus du monde, j'ai créé le mien, j'ai déjà ma ville Et dans ma tête je m'isole, mes neurones batifolent C'est Damso motherfucking Dems Et motherfucking Gil damn, dis leur Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane1</t>
+          <t>Being an additive synthesizer Harmor can resynthesize audio files as well. Eh yo, j'suis pas du genre à parler Je préfère m'isoler dans ma couche d'ozone J'fais les cent pas, oui j'ai zoné J'en suis pas désolé, vous le savez désormais J'délire sur des tueries, je ne me sens jamais désarmé Je sais c'est bizarre mais, je m'endors très très tard Et ce n'est pas par hasard si toutes mes nuits sont des trous noirs Faut que j'devienne riche, que j'me barre au Qatar Non mais imagine le truc, putain d'scène de batard Il faut que j'coule, il faut que j'me bouge Il faut que je cruise, il faut que je goûte à tout Que j'me coupe de tout, écoute il faut que j'me couche Pas dans les rangs, j'suis bien trop décalé Fleuve tranquille, je passe mon temps à me laisser aller J'me laisse aller je chill, profite d'mon sex-appeal Me parlez plus du monde, j'ai créé le mien, j'ai déjà ma ville Et dans ma tête je m'isole, mes neurones batifolent C'est Damso motherfucking Dems Et motherfucking Gil damn, dis leur Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé Damn, porté disparu dans mes pensées Pour compenser, j'me suis défoncé Je regrette rien que d'y penser mais bon blasé Pour évacuer avec du THC, oui donc j'ai été l'acheter On m'a dit fais pas ça, je leur ai dit faites pas chier j'étais blasé Trop de pression de partout du daron, d'la daronne J'rêvais d'me barrer mais faut d'la maille et donc mouiller le maillot Fainéant, j'voulais pas taffer J'voulais juste qu'on ne me fasse pas chier Depuis tit-pe, j'suis le type qui se tape tous les types de teuch On me rétracte qu'il faut pas se fâcher damn J'veux pas de pause, j'veux pas des thunes du boss de Megaupload J'veux me barrer à la côte, faire autre chose que de fumer avec mes potes Je suis blasé, je veux pas des millions, juste des minutes Fuck les minous, j'en baise depuis mineur J'veux vivre un minimum, bitch J'me laisse aller je chill, profite d'mon sex-appeal Me parlez plus du monde, j'ai créé le mien, j'ai déjà ma ville Et dans ma tête je m'isole, mes neurones batifolent C'est Damso motherfucking Dems Et motherfucking Gil damn, dis leur Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane1</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Yeah, toutes mes condoléances pour mon maître de cérémonie Damso, yeah, yeah, yeah 3013, QALF, Dolfa Dolfa Lio R.e Ducke 'P.G Yeah, ok O.P. Gangsta Termine d'abord la school m'a dit le daron, fils J'ai séché les cours, pour mouiller des chattes, suce pendant qu'j'ai le barreau, bitch Ouais, ouais, ouais, ouais, ouais La pute est oblique, la pute a trop valsé valsé Pas d'quenelle en publique, sinon Manu' va Valls'er Valls'er Tu veux t'faire fister, t'inquiètes, j'ai le bras long long T'es réglé mais, tu veux te faire niquer, t'inquiètes, j'dirais pas non j'dirais pas non Tu veux d'la coke, j'ai que d'la poudre à canon Drapapapa j'te kill, à qui la faute T'as balancé le prénom snitch, ouais C'est clair qu'ils sont vraiment bons Mais les lleurs-mei c'est nous ! 'P.G Si j'perce, j'taperais des pompes, j'fait des clips torse-nu Ça vends du crack et ça braque et quand les keufs nous traquent ça change de plaque On mourra tous dans l'film, tes négros avant l'entracte Gros pacte, j'n'ai plus d'feuille à rouler Ça casse les couilles comme quand t'as plus d'capotes Devant biatch qui a le DAS qui arrête pas de mouiller mouiller J'suis sur Insta j'me fais bichonner-é-é La vie c'est un peu comme Détroit, faut s'faire pistonner-é-é J'vais t'briser l'O.S, négro j'vais t'iPhoner-é-é Si t'as pas d'fesses, j'espère qu'au moins, tout le reste est siliconé-é-é Poséidon le biscornu, j'ai auréole, les cornes Je copie la formule, une pétasse qui dort nue Du sale comme Rambo, du slam comme Rondo Buccal façon Porn-You Si j'parle derrière ton dos, c'est pour mieux voir ton boule J'suis def, j'suis high bro' C'est Damso, flow Cette fois-ci, cette fois-ci j'vais kicker le mic' Si sans le flow de Migos, no J'fais l'mouru comme John Snow Po po po po po po pow ! Pas les mêmes brooks, pas la même Corsa, pas la même Clios J'traîne avec Dücke, j'traine avec Dolfa, Rex et Lio Soit c'est chari, soit c'est celui-la Fuck la chance on s'en sortira Comment ? Tu ne crois pas que ça ira ? Mais crois en moi, ça suffira Trois fois W point facebook point com slash T.H.E.D.A.M.S.O Trois fois W point twitter point com slash T.H.E.D.A.M.S.O Gaza c'est bon, mais mes propres négros ne font rien quand ça tire sur les nôtres no B2O, déso', j'augmente le niveau, 4G Révolution par le flow Poséidon You might also like Toutes mes condoléances pour vos maîtres de cérémonie C'est le MEVTR Meilleur d'entre vous tous réunis C'est bon1</t>
+          <t>Yeah, toutes mes condoléances pour mon maître de cérémonie Damso, yeah, yeah, yeah 3013, QALF, Dolfa Dolfa Lio R.e Ducke 'P.G Yeah, ok O.P. Gangsta Termine d'abord la school m'a dit le daron, fils J'ai séché les cours, pour mouiller des chattes, suce pendant qu'j'ai le barreau, bitch Ouais, ouais, ouais, ouais, ouais La pute est oblique, la pute a trop valsé valsé Pas d'quenelle en publique, sinon Manu' va Valls'er Valls'er Tu veux t'faire fister, t'inquiètes, j'ai le bras long long T'es réglé mais, tu veux te faire niquer, t'inquiètes, j'dirais pas non j'dirais pas non Tu veux d'la coke, j'ai que d'la poudre à canon Drapapapa j'te kill, à qui la faute T'as balancé le prénom snitch, ouais C'est clair qu'ils sont vraiment bons Mais les lleurs-mei c'est nous ! 'P.G Si j'perce, j'taperais des pompes, j'fait des clips torse-nu Ça vends du crack et ça braque et quand les keufs nous traquent ça change de plaque On mourra tous dans l'film, tes négros avant l'entracte Gros pacte, j'n'ai plus d'feuille à rouler Ça casse les couilles comme quand t'as plus d'capotes Devant biatch qui a le DAS qui arrête pas de mouiller mouiller J'suis sur Insta j'me fais bichonner-é-é La vie c'est un peu comme Détroit, faut s'faire pistonner-é-é J'vais t'briser l'O.S, négro j'vais t'iPhoner-é-é Si t'as pas d'fesses, j'espère qu'au moins, tout le reste est siliconé-é-é Poséidon le biscornu, j'ai auréole, les cornes Je copie la formule, une pétasse qui dort nue Du sale comme Rambo, du slam comme Rondo Buccal façon Porn-You Si j'parle derrière ton dos, c'est pour mieux voir ton boule J'suis def, j'suis high bro' C'est Damso, flow Cette fois-ci, cette fois-ci j'vais kicker le mic' Si sans le flow de Migos, no J'fais l'mouru comme John Snow Po po po po po po pow ! Pas les mêmes brooks, pas la même Corsa, pas la même Clios J'traîne avec Dücke, j'traine avec Dolfa, Rex et Lio Soit c'est chari, soit c'est celui-la Fuck la chance on s'en sortira Comment ? Tu ne crois pas que ça ira ? Mais crois en moi, ça suffira Trois fois W point facebook point com slash T.H.E.D.A.M.S.O Trois fois W point twitter point com slash T.H.E.D.A.M.S.O Gaza c'est bon, mais mes propres négros ne font rien quand ça tire sur les nôtres no B2O, déso', j'augmente le niveau, 4G Révolution par le flow Poséidon Toutes mes condoléances pour vos maîtres de cérémonie C'est le MEVTR Meilleur d'entre vous tous réunis C'est bon1</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Avant de voir mon premier gosse J'suis dans le mood lioor ouh, ouh, ouh Comme cahier ligné Clairefontaine, j'existe que lorsque je suis en bas La vie n'est pas si bien Ils ne te voudront pas du bien Quand tu réussirasYou might also like</t>
+          <t>Avant de voir mon premier gosse J'suis dans le mood lioor ouh, ouh, ouh Comme cahier ligné Clairefontaine, j'existe que lorsque je suis en bas La vie n'est pas si bien Ils ne te voudront pas du bien Quand tu réussiras</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Boomerang, boomerang, boomerang, boomerang Pute, pute Elle veut qu'je change de disque quand j'dis que j'suis single C'est pas l'amour mais l'sperme qui t'empêchera de voir mes signes J'bois comme un trou, té-ma toi-même, j'en ai plein d'mémoires J'suis un vrai OG, tu l'seras qu'si tu couches avec moi J'garde ma monnaie près de oi-m, encore plus près qu'ma bitch Le seul truc solide entre nous sera ma verge et j'm'en fiche Il suffit qu'elle s'attache et j'ai envie d'la nexter La pétasse fait une scène et je la fouterais dans une sextape Je perd la boule té-ma le sien, le mec trébuche quel chute de rein Entre sa beauté et ma folie, il n'y a qu'un grain Gymnaste, elle monte sur ma poutre Éclair de génie pas d'coup d'foudre Et ce boule d'malade qui m'rend fou Si elle s'donne à moi, j'prendrai tout, le bruit d'ses talons me fait suivre ses pas Ensemble jusqu'à c'que ma trique nous sépare J'sors plus armé, la p'tite a un lourd pétard Baby, crois-moi, j'te jetterais à chaque fois tu m'reviendras Je tirerai sur le premier qui osera toucher ma bitch C'est pas ma gow mais c'est peut-être plus que ma bitch Mais elle a sucé trop de négros, elle a fait sa bitch T'façon, fais c'que tu veux, elle reviendra, normal c'est ma bitch Boomerang, ça vient, ça part, ça revient, revient, revient Boomerang, ça vient, ça part, ça revient, revient, revient You might also like J'suis qu'un sale type, j'suis qu'un salop J'collectionne les gows Si tu m'aimes trop j'en profit'rais, juste pour t'baiser comme une salope Si je m'attache se sera qu'pour l'meilleur Un signe du pire et j'me tire J'sais qu'c'est lâche mais jamais j'donne mon cur Parce que c'est une viande prête à rôtir Ça s'en va et ça revient Ça s'entendra chez l'voisin J'te f'rais crier tellement fort qu'on retiendra ton orgasme comme une chanson populaire J'te prendrais pas dans tout les sens, que par le toucher Nan, j'n'veux pas qu'on s'allonge j'veux juste coucher J'te fusille du regard, mes yeux braquent ton derrière On ira s'coucher plus tard qu'Laurent Ruquier Donc les fesses salope j'te donne Passe par la shnek, du rectum que des vibes, rien qu'pour moi Visionnaire j'sais qu'tu voles Non pas étonnant que j'me perde dans tes yeux Missionnaire j'embrasse Satan J'crache ma soupe puis l'étale dans tes cheveux Damso Je tirerai sur le premier qui osera toucher ma bitch C'est pas ma gow mais c'est peut-être plus que ma bitch Mais elle a sucé trop de négros, elle a fait sa bitch T'façon, fais c'que tu veux, elle reviendra, normal c'est ma bitch Boomerang, ça vient, ça part, ça revient, revient, revient Boomerang, ça vient, ça part, ça revient, revient, revient Ma bitch, ma bitch Ma bitch, ma bitch, ma bitch, ma bitch Hey, hey, hey, hey Ma bitch, ma bitch, ma bitch, ma bitch1</t>
+          <t>Boomerang, boomerang, boomerang, boomerang Pute, pute Elle veut qu'je change de disque quand j'dis que j'suis single C'est pas l'amour mais l'sperme qui t'empêchera de voir mes signes J'bois comme un trou, té-ma toi-même, j'en ai plein d'mémoires J'suis un vrai OG, tu l'seras qu'si tu couches avec moi J'garde ma monnaie près de oi-m, encore plus près qu'ma bitch Le seul truc solide entre nous sera ma verge et j'm'en fiche Il suffit qu'elle s'attache et j'ai envie d'la nexter La pétasse fait une scène et je la fouterais dans une sextape Je perd la boule té-ma le sien, le mec trébuche quel chute de rein Entre sa beauté et ma folie, il n'y a qu'un grain Gymnaste, elle monte sur ma poutre Éclair de génie pas d'coup d'foudre Et ce boule d'malade qui m'rend fou Si elle s'donne à moi, j'prendrai tout, le bruit d'ses talons me fait suivre ses pas Ensemble jusqu'à c'que ma trique nous sépare J'sors plus armé, la p'tite a un lourd pétard Baby, crois-moi, j'te jetterais à chaque fois tu m'reviendras Je tirerai sur le premier qui osera toucher ma bitch C'est pas ma gow mais c'est peut-être plus que ma bitch Mais elle a sucé trop de négros, elle a fait sa bitch T'façon, fais c'que tu veux, elle reviendra, normal c'est ma bitch Boomerang, ça vient, ça part, ça revient, revient, revient Boomerang, ça vient, ça part, ça revient, revient, revient J'suis qu'un sale type, j'suis qu'un salop J'collectionne les gows Si tu m'aimes trop j'en profit'rais, juste pour t'baiser comme une salope Si je m'attache se sera qu'pour l'meilleur Un signe du pire et j'me tire J'sais qu'c'est lâche mais jamais j'donne mon cur Parce que c'est une viande prête à rôtir Ça s'en va et ça revient Ça s'entendra chez l'voisin J'te f'rais crier tellement fort qu'on retiendra ton orgasme comme une chanson populaire J'te prendrais pas dans tout les sens, que par le toucher Nan, j'n'veux pas qu'on s'allonge j'veux juste coucher J'te fusille du regard, mes yeux braquent ton derrière On ira s'coucher plus tard qu'Laurent Ruquier Donc les fesses salope j'te donne Passe par la shnek, du rectum que des vibes, rien qu'pour moi Visionnaire j'sais qu'tu voles Non pas étonnant que j'me perde dans tes yeux Missionnaire j'embrasse Satan J'crache ma soupe puis l'étale dans tes cheveux Damso Je tirerai sur le premier qui osera toucher ma bitch C'est pas ma gow mais c'est peut-être plus que ma bitch Mais elle a sucé trop de négros, elle a fait sa bitch T'façon, fais c'que tu veux, elle reviendra, normal c'est ma bitch Boomerang, ça vient, ça part, ça revient, revient, revient Boomerang, ça vient, ça part, ça revient, revient, revient Ma bitch, ma bitch Ma bitch, ma bitch, ma bitch, ma bitch Hey, hey, hey, hey Ma bitch, ma bitch, ma bitch, ma bitch1</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>MC Léon Je marche dans la rue et un regard me croise Celui d'un nigga que j'vais tabasser J'm'arrête et j'avance j'lui dit Qu'est-ce que t'as ? quoi renoi ? Excuse-toi sinon j'vais te caillasser J'suis un truand, un bandit, un malfaiteur Équipé d'un missile, fusil mitrailleur Paw paw paw paw, sur vous tous et toutes vos familles Yeah Les dents écartées comme Bugs Bunny J'te punis dans l'pe-ra J'te bourre dedans tel un bourin flow un peu raide T'es peureux, m'défies pas, j'ai une patate de forain Dès qu'lâche ma gauche, laisse, man, mec c'est l'euphorie J'suis furieux comme le daron après le film de Kunta Kinte Me passez pas un gun, c'est sur l'bédo que j'veux tirer C'est D.A.M.S, eurgh, Dolfa, Romé, eurgh Coup d'couteau dans l'ventre j'remonte jusqu'au cerv-eurgh Damn, le négro est crazy T'as dis quoi ? Comme par hasard l'autre négro est amnésique, salope J'vais t'péter le sternum Préviens déjà ta mutuelle qu'j'suis à ma huitième Gordon Platinum J'kick le microphone what ?, j'kick le microphone what ? Je débite sur le beat Je kick et je sais qu'tu te dis qu'j'suis le number one C'est Damso, motherfucker, OK Feinte de droite gauche dans l'foie cassement d'bras puis low kick Move bitch, get out of the way Fais c'que j'dis sans discuter dès lors qu'j'te paie Y'a pas de love sexuel comme Marvin Gaye C'est bang dans ta shneck bitchies everyday L'argent s'fait pas tout seul Il faut qu'j'bouge mon cul Mais comme j'suis blasé d'la life Dèf', j'fais qu'smoker Recherche pute pour faciliter tchatche Un poing, un pas plus pour pas fragiliser le pacs Contrôle d'agent, système nerveux en ébullition Question pourquoi j'suis l'seul black ? Donc quand je dirais Fils de pute Ils f'ront que d'tous dire Présent Sinon, balayette et patate fait maison Cinq flows plus tard, Damso reste le même Cul sec trop dar, Damso, Jack Daniel J'te mets dans l'ombre C'est psychédélique que quand je débite Je nique les beats, les MC m'évitent Je nique les bitchs, ma trique me pique Tellement qu'elle me fait que me tirer la peau Brleeeeh Technique de ouf au MIC Flow trop chaud, normal pour une tête brûlée Reculez, mayday, mayday crit le poulet Qu'ils finisse martelé, étranglé au fil barbelé Oui la barbe je l'ai, poilue comme la chatte de Karembeu Big up à Gargamel, car nous non plus on n'kiffe pas les bleus Pourquoi tu jactes ? J'prends l'mic j'te flow-jack Tu fonces dans des cul-de-sac J'enfonce dans des culs-de-chatte You might also like C'est Damso Dems motherfuckers Paw paw paw paw sur vous tous et toutes vos familles-familles1</t>
+          <t>MC Léon Je marche dans la rue et un regard me croise Celui d'un nigga que j'vais tabasser J'm'arrête et j'avance j'lui dit Qu'est-ce que t'as ? quoi renoi ? Excuse-toi sinon j'vais te caillasser J'suis un truand, un bandit, un malfaiteur Équipé d'un missile, fusil mitrailleur Paw paw paw paw, sur vous tous et toutes vos familles Yeah Les dents écartées comme Bugs Bunny J'te punis dans l'pe-ra J'te bourre dedans tel un bourin flow un peu raide T'es peureux, m'défies pas, j'ai une patate de forain Dès qu'lâche ma gauche, laisse, man, mec c'est l'euphorie J'suis furieux comme le daron après le film de Kunta Kinte Me passez pas un gun, c'est sur l'bédo que j'veux tirer C'est D.A.M.S, eurgh, Dolfa, Romé, eurgh Coup d'couteau dans l'ventre j'remonte jusqu'au cerv-eurgh Damn, le négro est crazy T'as dis quoi ? Comme par hasard l'autre négro est amnésique, salope J'vais t'péter le sternum Préviens déjà ta mutuelle qu'j'suis à ma huitième Gordon Platinum J'kick le microphone what ?, j'kick le microphone what ? Je débite sur le beat Je kick et je sais qu'tu te dis qu'j'suis le number one C'est Damso, motherfucker, OK Feinte de droite gauche dans l'foie cassement d'bras puis low kick Move bitch, get out of the way Fais c'que j'dis sans discuter dès lors qu'j'te paie Y'a pas de love sexuel comme Marvin Gaye C'est bang dans ta shneck bitchies everyday L'argent s'fait pas tout seul Il faut qu'j'bouge mon cul Mais comme j'suis blasé d'la life Dèf', j'fais qu'smoker Recherche pute pour faciliter tchatche Un poing, un pas plus pour pas fragiliser le pacs Contrôle d'agent, système nerveux en ébullition Question pourquoi j'suis l'seul black ? Donc quand je dirais Fils de pute Ils f'ront que d'tous dire Présent Sinon, balayette et patate fait maison Cinq flows plus tard, Damso reste le même Cul sec trop dar, Damso, Jack Daniel J'te mets dans l'ombre C'est psychédélique que quand je débite Je nique les beats, les MC m'évitent Je nique les bitchs, ma trique me pique Tellement qu'elle me fait que me tirer la peau Brleeeeh Technique de ouf au MIC Flow trop chaud, normal pour une tête brûlée Reculez, mayday, mayday crit le poulet Qu'ils finisse martelé, étranglé au fil barbelé Oui la barbe je l'ai, poilue comme la chatte de Karembeu Big up à Gargamel, car nous non plus on n'kiffe pas les bleus Pourquoi tu jactes ? J'prends l'mic j'te flow-jack Tu fonces dans des cul-de-sac J'enfonce dans des culs-de-chatte C'est Damso Dems motherfuckers Paw paw paw paw sur vous tous et toutes vos familles-familles1</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Chérie d'amour, je lui file au nez A deux pour toujours en cabriolet Nous filâmes comme Vaillant Michel Nous filâmes comme Vaillant Michel comme tel un charbonnier A deux sur la route fuyons braconniers Nous filâmes comme Vaillant Michel Nous filâmes comme Vaillant MichelYou might also like1</t>
+          <t>Chérie d'amour, je lui file au nez A deux pour toujours en cabriolet Nous filâmes comme Vaillant Michel Nous filâmes comme Vaillant Michel comme tel un charbonnier A deux sur la route fuyons braconniers Nous filâmes comme Vaillant Michel Nous filâmes comme Vaillant Michel1</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Un po' nascosto il posto è qui Il benedetto posto è qui E le candele vanno su Il sole cala e scende giù Ci vieni un giorno e hai nostalgia Di ritornare e tornerai Al Val d'Amore troverai L'amore e tutti i suoi viavai Al Val d'Amore tu ti fai Fare l'amore come vuoi Non oro né gioielli, no Discorsi no, dolcezze no Con qualche soldo chi vuoi tu Ti fa l'amore sotto e su Qui andalusi, mori, ebrei Da tutti i porti sono qui Dal Mar Egeo, dai Pirenei Qui se la spassano così I trafficanti e i bottegai Qui nei dolcissimi carnai You might also like Donne d'amore orecchie a me Un trovatore piange qui Parole e lacrime di chi Per mal d'amore viene qui Battete sui tamburi che Al Val d'Amore amore c'è Nessun pericolo che sia Amore che ti porta via Qui è sul velluto che si va E sotto c'è la sazietà Se la mia febbre è frenesia Mi vengo a rinfrescare qua In questa calda fonderia Del nudo con l'intimità Ragazze, chiedo scusa a voi Ma oggi c'è Esmeralda e poi Lei crede che il suo corpo sia Già scritto nella mano mia Qui sono i gemiti e i fruscii È qui l'oblio e lo scialacquio La bella malavita è qui E qui rinasce chi morì Rinasce chi d'amor morì Poi dentro il vino annegherà È al Val d'Amore che verrà All'alba quella sazietà Se al Val d'Amore tu ti fai Fare l'amore come vuoi Non oro né gioielli, no Discorsi no, dolcezze no Se vuoi l'amore il posto è qua Al Val d'Amore il posto è qua</t>
+          <t>Un po' nascosto il posto è qui Il benedetto posto è qui E le candele vanno su Il sole cala e scende giù Ci vieni un giorno e hai nostalgia Di ritornare e tornerai Al Val d'Amore troverai L'amore e tutti i suoi viavai Al Val d'Amore tu ti fai Fare l'amore come vuoi Non oro né gioielli, no Discorsi no, dolcezze no Con qualche soldo chi vuoi tu Ti fa l'amore sotto e su Qui andalusi, mori, ebrei Da tutti i porti sono qui Dal Mar Egeo, dai Pirenei Qui se la spassano così I trafficanti e i bottegai Qui nei dolcissimi carnai Donne d'amore orecchie a me Un trovatore piange qui Parole e lacrime di chi Per mal d'amore viene qui Battete sui tamburi che Al Val d'Amore amore c'è Nessun pericolo che sia Amore che ti porta via Qui è sul velluto che si va E sotto c'è la sazietà Se la mia febbre è frenesia Mi vengo a rinfrescare qua In questa calda fonderia Del nudo con l'intimità Ragazze, chiedo scusa a voi Ma oggi c'è Esmeralda e poi Lei crede che il suo corpo sia Già scritto nella mano mia Qui sono i gemiti e i fruscii È qui l'oblio e lo scialacquio La bella malavita è qui E qui rinasce chi morì Rinasce chi d'amor morì Poi dentro il vino annegherà È al Val d'Amore che verrà All'alba quella sazietà Se al Val d'Amore tu ti fai Fare l'amore come vuoi Non oro né gioielli, no Discorsi no, dolcezze no Se vuoi l'amore il posto è qua Al Val d'Amore il posto è qua</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Du feu, du feu même si je n'ai plus de cigarettes Les miracles n'existent pas, j'te l'dirai J'veux tirer sur lui, et lui, et lui, oh Coup de feu Le passeport est rempli de cachets qui n'viennent pas d'ici, oh Ouais Du feu Du feu Des fleurs au bout des carabines n'ont jamais ramené la paix J'suis revenue sans jamais partir, moi-même j'sais pas où j'étais L'amour est un assassin, il te tue même quand t'es pas né Quelle sale idée, il veut m'valider, moi, j'veux valider mon panier Du feu, du feu Bruit de flammes Du feu même si je n'ai plus de cigarettes Beaucoup d'regrets qui me nourrissent, du feu sur scène et en coulisses Tout est là, on m'a dit prends-le Plus rien c'est tout c'que j'attends d'eux J'rigole quand j'pleure, des fois l'inverse Rire, mon cur l'soleil, mes yeux l'averse Mauvais temps caché dans la veste, je bois, j'oublie ce que j'traverse Du feu Du feu, du feu Du feu même si je n'ai plus de cigarettes Du feu même si je n'ai plus de cigarettes Du feu même si je n'ai plus de cigarettes You might also like Ok Rayons solaires sur le pavillon J'broie les ténèbres, silence ébène dans la savane, sang de Kemet Bruit de colère sous les ganglions J'exprime mes souffrances, mon innocence perdue d'puis l'enfance, dans les tendances À cause du succès, j'oublie ton prénom, tu connais mon lifestyle Soirées mondaines, j'fais des millions, j'veux des centaines, j'vois des grillions Sur la terre sèche de tes sentiments Fragrance, parfum Chanel sur le cardigan Carences, manque d'oxygène, comme un oisillon, j'suis fébrile Navigant sous les débris, avion, j'fuis le mépris De tous ceux Tous ceux qui, eh Tous ceux qui n'comprendront pas pourquoi j'm'arrête Putain, non, non Du feu Du feu, du feu, ouais Du feu, que j'roule un d'ces joints sans cigarette De tous ceux Tous ceux, hey Tous ceux qui n'comprendront pas pourquoi j'm'arrête Putain Du feu, du feu Du feu, que j'roule un d'ces joints sans cigarette Du feu Du feu, du feu Du feu même si je n'ai plus de cigarettes Du feu Du feu, du feu Du feu même si je n'ai plus de cigarettes</t>
+          <t>Du feu, du feu même si je n'ai plus de cigarettes Les miracles n'existent pas, j'te l'dirai J'veux tirer sur lui, et lui, et lui, oh Coup de feu Le passeport est rempli de cachets qui n'viennent pas d'ici, oh Ouais Du feu Du feu Des fleurs au bout des carabines n'ont jamais ramené la paix J'suis revenue sans jamais partir, moi-même j'sais pas où j'étais L'amour est un assassin, il te tue même quand t'es pas né Quelle sale idée, il veut m'valider, moi, j'veux valider mon panier Du feu, du feu Bruit de flammes Du feu même si je n'ai plus de cigarettes Beaucoup d'regrets qui me nourrissent, du feu sur scène et en coulisses Tout est là, on m'a dit prends-le Plus rien c'est tout c'que j'attends d'eux J'rigole quand j'pleure, des fois l'inverse Rire, mon cur l'soleil, mes yeux l'averse Mauvais temps caché dans la veste, je bois, j'oublie ce que j'traverse Du feu Du feu, du feu Du feu même si je n'ai plus de cigarettes Du feu même si je n'ai plus de cigarettes Du feu même si je n'ai plus de cigarettes Ok Rayons solaires sur le pavillon J'broie les ténèbres, silence ébène dans la savane, sang de Kemet Bruit de colère sous les ganglions J'exprime mes souffrances, mon innocence perdue d'puis l'enfance, dans les tendances À cause du succès, j'oublie ton prénom, tu connais mon lifestyle Soirées mondaines, j'fais des millions, j'veux des centaines, j'vois des grillions Sur la terre sèche de tes sentiments Fragrance, parfum Chanel sur le cardigan Carences, manque d'oxygène, comme un oisillon, j'suis fébrile Navigant sous les débris, avion, j'fuis le mépris De tous ceux Tous ceux qui, eh Tous ceux qui n'comprendront pas pourquoi j'm'arrête Putain, non, non Du feu Du feu, du feu, ouais Du feu, que j'roule un d'ces joints sans cigarette De tous ceux Tous ceux, hey Tous ceux qui n'comprendront pas pourquoi j'm'arrête Putain Du feu, du feu Du feu, que j'roule un d'ces joints sans cigarette Du feu Du feu, du feu Du feu même si je n'ai plus de cigarettes Du feu Du feu, du feu Du feu même si je n'ai plus de cigarettes</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>J'viens pas passer d'messages ou juste parler d'la vie J'me trouve pas assez sage pour donner mon avis Donc j'suis juste de passage sur le M.I.C Période de déphasage ou juste période de crise ? J'ai rien à faire, il est 9 heures 32, heure du soir Envie d'm'évader, j'fais une instru' qui m'emmène quelque part Ensuite, ben, j'écris, j'cherche un titre calmos, t vu qu'elle m'emmèn si loin, j'l'appelle Cosmos Avec ma souris, clavier, j'rajoute un bruit qui fait J'suis ravis, j'vois qu'ça donne, j'rajoute un autre truc qui fait Bref, j'termine le beat, c'est comme si j'venais d'prendre l'air J'termine mes lyrics et j't'emmène dans mon univers Attends, j'vais t'le rapper raclements de gorge J'échauffe ma voix, ok raclements de gorge Yo, donc j'vois la vie comme un oiseau perché sur sa branche À rêver d'pouvoir un jour voler jusqu'aux anges J'rêve que magiques soient mes ciseaux pour m'couper du monde Aller plus loin qu'Vénus, Pluton, atterrir sur les ondes J'explique mon monde, celui d'la musique Celui qu'tes oreilles craignent car à la longue elles savent qu'c'est nuisible Mais qu'il est beau, demande à mon flow Les enfants qu'on appelle rimes jouent de jeux de mots Le vent qu'on appelle violon souffle, donne l'impression que personne souffre On vient au monde par résonnance, la mort se fait appeler silence Quand les bruits sonores te kiffent, la plupart te donnent des frissons Pour faire battre le rythme tu dois briser le mur du son Quand c'est fait, ben, il suffit de baiser d'un ton Mais pour pas qu'ça s'ébruite faut qu'tu mettes un présérva-son Drôle de do, ré, mi, façon de faire On fait l'amour à l'âge de quinze, à vingt mégahertz Yo, avec le temps ici rien ne se consume Quand tu te fais vieux, on diminue juste ton volumeYou might also like</t>
+          <t>J'viens pas passer d'messages ou juste parler d'la vie J'me trouve pas assez sage pour donner mon avis Donc j'suis juste de passage sur le M.I.C Période de déphasage ou juste période de crise ? J'ai rien à faire, il est 9 heures 32, heure du soir Envie d'm'évader, j'fais une instru' qui m'emmène quelque part Ensuite, ben, j'écris, j'cherche un titre calmos, t vu qu'elle m'emmèn si loin, j'l'appelle Cosmos Avec ma souris, clavier, j'rajoute un bruit qui fait J'suis ravis, j'vois qu'ça donne, j'rajoute un autre truc qui fait Bref, j'termine le beat, c'est comme si j'venais d'prendre l'air J'termine mes lyrics et j't'emmène dans mon univers Attends, j'vais t'le rapper raclements de gorge J'échauffe ma voix, ok raclements de gorge Yo, donc j'vois la vie comme un oiseau perché sur sa branche À rêver d'pouvoir un jour voler jusqu'aux anges J'rêve que magiques soient mes ciseaux pour m'couper du monde Aller plus loin qu'Vénus, Pluton, atterrir sur les ondes J'explique mon monde, celui d'la musique Celui qu'tes oreilles craignent car à la longue elles savent qu'c'est nuisible Mais qu'il est beau, demande à mon flow Les enfants qu'on appelle rimes jouent de jeux de mots Le vent qu'on appelle violon souffle, donne l'impression que personne souffre On vient au monde par résonnance, la mort se fait appeler silence Quand les bruits sonores te kiffent, la plupart te donnent des frissons Pour faire battre le rythme tu dois briser le mur du son Quand c'est fait, ben, il suffit de baiser d'un ton Mais pour pas qu'ça s'ébruite faut qu'tu mettes un présérva-son Drôle de do, ré, mi, façon de faire On fait l'amour à l'âge de quinze, à vingt mégahertz Yo, avec le temps ici rien ne se consume Quand tu te fais vieux, on diminue juste ton volume</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Yeah O.P.G Damn Damso motha fuckin Dems Depuis peu, j'veux des 'tasses et du cash money J'veux checker des go, j'veux des boss quand même J'ai trop rien dans les poches, et pour être honnête J'me sens comme un pigeon qui vit de prise de bec Ça me prend la tête d'être sans oseille Mais sans oser bosser, comment veux-tu ? Je rêve toutes les nuits dans mon profond sommeil Teille de rosé, posé avec un gros cul Damn, nan, depuis peu, j'cherche du biff' Cherche du biff J'économise Économise, pour un putain d'traffic de weed Mais on m'a dit Dems, t'as des jobs étudiants J'leur ai dit Les mecs, j'veux être indépendant Puis j'aime pas les patrons, travail à plein temps Pu-pu-putain d'trafic de weed On dit qu'c'est utopique Ce que je veux, dépenser ce que font mes blacks et rebeus Puis, j'avoue que postuler, me rend nerveux Donc j'veux mon putain d'trafic de weed Mais c'est pas possible Passez l'mic, moi Mais ça va de pire en pire De pire en pire Passer 'tasse, séduire et la tchatche peut plus suffire You might also like Faut mon putain d'trafic de weed Mon putain d'trafic de weed Mon putain d'trafic de weed Mon putain d'trafic de weed Mon putain d'trafic de weed Faut mon putain d'trafic de weed Trafic de weed Trafic de weed Trafic de weed Trafic de weed Dems motha fuckin Dems O.P motha fuckin Dems Trafic de weed Trafic de weed Yeah Yeah Yeah Yeah Yeah</t>
+          <t>Yeah O.P.G Damn Damso motha fuckin Dems Depuis peu, j'veux des 'tasses et du cash money J'veux checker des go, j'veux des boss quand même J'ai trop rien dans les poches, et pour être honnête J'me sens comme un pigeon qui vit de prise de bec Ça me prend la tête d'être sans oseille Mais sans oser bosser, comment veux-tu ? Je rêve toutes les nuits dans mon profond sommeil Teille de rosé, posé avec un gros cul Damn, nan, depuis peu, j'cherche du biff' Cherche du biff J'économise Économise, pour un putain d'traffic de weed Mais on m'a dit Dems, t'as des jobs étudiants J'leur ai dit Les mecs, j'veux être indépendant Puis j'aime pas les patrons, travail à plein temps Pu-pu-putain d'trafic de weed On dit qu'c'est utopique Ce que je veux, dépenser ce que font mes blacks et rebeus Puis, j'avoue que postuler, me rend nerveux Donc j'veux mon putain d'trafic de weed Mais c'est pas possible Passez l'mic, moi Mais ça va de pire en pire De pire en pire Passer 'tasse, séduire et la tchatche peut plus suffire Faut mon putain d'trafic de weed Mon putain d'trafic de weed Mon putain d'trafic de weed Mon putain d'trafic de weed Mon putain d'trafic de weed Faut mon putain d'trafic de weed Trafic de weed Trafic de weed Trafic de weed Trafic de weed Dems motha fuckin Dems O.P motha fuckin Dems Trafic de weed Trafic de weed Yeah Yeah Yeah Yeah Yeah</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>J'traquerai mon ennemi jusqu'au bout, oui Jusquà qu'il finisse par se couper les veines Si par malheur, il m'fait d'la peine Euh c'que j'en doute, j'irais à l'église alors prier le ciel Je r'connais mes fautes quand j'n'ai pas vraiment tort Personne ne saute dans leau sale et en sort Propre est le calbar au sec J'peux plonger dans marée de sang pour mieux récolter l'or Décolleté mais tout st dehors Seins, j'ai peloté après un show, sans aucuns fforts Dépravé, jamais je n'déplore Piscine de femmes fontaines Pour elles, j'suis comme sel et chlore Vie m'rappelle sans cesse la mort Dis-moi quand est-ce est-ce la norme ? J'dis ça pour que j'élabore Album sans métaphore Pour faire en sorte que pute et clergé me comprennent À peine j'ai quitté la scène-euuh Elle veut déjà que j'la prenne-euuh Sentimentalement parlant, j'ai la flemme-euuh Je viens, j'expose mon talent puis je ken-euuhYou might also like1</t>
+          <t>J'traquerai mon ennemi jusqu'au bout, oui Jusquà qu'il finisse par se couper les veines Si par malheur, il m'fait d'la peine Euh c'que j'en doute, j'irais à l'église alors prier le ciel Je r'connais mes fautes quand j'n'ai pas vraiment tort Personne ne saute dans leau sale et en sort Propre est le calbar au sec J'peux plonger dans marée de sang pour mieux récolter l'or Décolleté mais tout st dehors Seins, j'ai peloté après un show, sans aucuns fforts Dépravé, jamais je n'déplore Piscine de femmes fontaines Pour elles, j'suis comme sel et chlore Vie m'rappelle sans cesse la mort Dis-moi quand est-ce est-ce la norme ? J'dis ça pour que j'élabore Album sans métaphore Pour faire en sorte que pute et clergé me comprennent À peine j'ai quitté la scène-euuh Elle veut déjà que j'la prenne-euuh Sentimentalement parlant, j'ai la flemme-euuh Je viens, j'expose mon talent puis je ken-euuh1</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>J'ai pansé mes blessures jusquà pas d'heures Changé toutes les serrures de mon cur J'ai pansé mes blessures jusquà pas d'heures Changé toutes les serrures de mon cur C'est dur de n'avoir qu'un seul ami C'est dur de n'avoir qu'une seule vie Jai perdu la tête dans tsunami Lamour était en fait mon ennemi T'es juste passé prendre ta part Mais la roue tournera tôt ou tard Je cherch dans les fonds dplacards Ce qu'il rest de ma part J'ai envie d'te dire Je taime je t'aime J'ai envie d'partir loin d'ici loin d'ici, seul J'ai envie d'te dire Je t'aime I love you J'ai envie d'partir loin d'ici aie, aie, aie J'ai envie d'te dire tellement de choses que j'garderai pour moi Par exemple baiser mais j'sais qu'au fond j'veux juste qu'on fasse seulement l'amour L'univers veut pas qu'on s'aime La dernière fois qu'j'ai voulu t'ken, no, oh Ton corps a saigné et mon cur a fait de même, de même J'vois tes hanches dans le corset, oh No, no-no, no-no, no-no non, le bolide Quelques salopes, des tasses-pé, ouais juste pour passer le temps un jour c'est fini Tu parles mal, tapes des crises bah, ouais Heureusement que je canalise toujours Une bonne claque dans sa grand-mère, au négro qui parle de toi oh, le salaud J'ai envie d'te dire Je t'aime, à condition qu'ça n'compte pas No, no-no, no-no You might also like J'ai envie d'te dire Je t'aime je t'aime J'ai envie d'partir loin d'ici loin d'ici J'ai envie d'te dire Je t'aime I love you J'ai envie d'partir loin d'ici loin d'ici</t>
+          <t>J'ai pansé mes blessures jusquà pas d'heures Changé toutes les serrures de mon cur J'ai pansé mes blessures jusquà pas d'heures Changé toutes les serrures de mon cur C'est dur de n'avoir qu'un seul ami C'est dur de n'avoir qu'une seule vie Jai perdu la tête dans tsunami Lamour était en fait mon ennemi T'es juste passé prendre ta part Mais la roue tournera tôt ou tard Je cherch dans les fonds dplacards Ce qu'il rest de ma part J'ai envie d'te dire Je taime je t'aime J'ai envie d'partir loin d'ici loin d'ici, seul J'ai envie d'te dire Je t'aime I love you J'ai envie d'partir loin d'ici aie, aie, aie J'ai envie d'te dire tellement de choses que j'garderai pour moi Par exemple baiser mais j'sais qu'au fond j'veux juste qu'on fasse seulement l'amour L'univers veut pas qu'on s'aime La dernière fois qu'j'ai voulu t'ken, no, oh Ton corps a saigné et mon cur a fait de même, de même J'vois tes hanches dans le corset, oh No, no-no, no-no, no-no non, le bolide Quelques salopes, des tasses-pé, ouais juste pour passer le temps un jour c'est fini Tu parles mal, tapes des crises bah, ouais Heureusement que je canalise toujours Une bonne claque dans sa grand-mère, au négro qui parle de toi oh, le salaud J'ai envie d'te dire Je t'aime, à condition qu'ça n'compte pas No, no-no, no-no J'ai envie d'te dire Je t'aime je t'aime J'ai envie d'partir loin d'ici loin d'ici J'ai envie d'te dire Je t'aime I love you J'ai envie d'partir loin d'ici loin d'ici</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Non, moi, j'suis juste un lova ouais Ils veulent juste faire des lovés ouais Si tu me cherches, baby, trouve-moi ouais Dans l'tiekson en train d'poser ouaisYou might also like</t>
+          <t>Non, moi, j'suis juste un lova ouais Ils veulent juste faire des lovés ouais Si tu me cherches, baby, trouve-moi ouais Dans l'tiekson en train d'poser ouais</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Sale, sale, sale, sale Ils ont tout fait pour m'atteindre Minimum, minimum, cinq zéro zéro KYou might also like</t>
+          <t>Sale, sale, sale, sale Ils ont tout fait pour m'atteindre Minimum, minimum, cinq zéro zéro K</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>HgsCa Dubbelquatrin om tennis --- Zenith9 Summer 2016 D.R.A.M ft Lil Yachty - Broccoli Kano - T-shirt Weather in The Manor Jamie xx ft Young Thug - I Know There's Gonna Be Good Times Blood Orange - You're Not Good Enough Francis and the Lights ft Bon Iver - Friends HONNE - Good Together The Avalanches ft Danny Brown MF DOOM - Frankie Sinatra Drake- Controlla Frank Ocean- Forrest Gump Anderson. Paak ft Schoolboy Q - Am I Wrong Smino - Oxygen Kanye West - Waves Chance The Rapper ft 2Chainz Lil Wayne - No Problem Lil Yachty - One Night Young Thug ft Travi Scott Quavo - Pick Up the Phone The Isley Brothers - Summer Breeze Schoolboy Q - THat Part - Black Hippy Remix You might also like--- ITSADITYA Speedom - Tech N9ne ft. Eminem Krizz Kaliko Shelly - Tempa T Wild Boy Remix - Machine Gun Kelly ft. 2 Chainz, Meek Mill, Mystikal, French Montana, Yo Gotti Steve-O Best Friend - Yelawolf ft. Eminem B.A.D - Mista Silva No Way - Futuristic Turnt Up - Chris Webby ft. Dizzy Wright Worldwide Choppers - Tech N9ne ft. Busta Rhymes, Ceza, D-Loc, JL B.Hood, Twista, Twisted Insane, UO Yelawolf In My Zone - Rittz ft. Mike Posner B.o.B That's Not Me - Skepta ft. JME Wicked Ways - Eminem Brainsick 2.0 - Twisted Insane ft. C.Ray, ISO, Kamikazi, Dikulz, Z The Greatest - Futuristic Ballin Out - French Montana ft. Jeremih Diddy I-2604-I aka ChemicaLLordDaveHowell Summertime -- Audio Adreneline Walk Don't Run -- The Ventures Lick it Up -- Kiss Tokyo Summer -- Mounties Just the Way You Are -- Milky --- AriNikoBradshaw Kanye West - Wolves Years Years - King Empire of the Sun - Walking on a Dream Tyler, the Creator - Fucking Young Tyler, the Creator - The Brown Stains of Darkeese Latifah Part 6-12 Remix Jack U Justin Bieber - Where Are U Now Kendrick Lamar - King Kunta Flo Rida - Wobble Sheppard - Geronimo Walk the Moon - Shut Up and Dance --- DukeAM Nirvana - Live at Reading Green Day - Dookie Mac DeMarco - Salad Days Led Zeppelin - IV --- Mattw116 Cadillactica- Big KRIT COMFORTZone- Saba Long.Live.AAP- AAP Rocky ATLiens- Outkast Barter 6- Young Thug Midnight Marauders- A Tribe Called Quest Nietzsche Summer 2012bon iver - holocene Royksopp - happy up here Phoenix - lisztomania Summer 2013kanye west - blood on the leaves Vampire weekend - modern vampires of the city Outkast - spottieottiedopaliscious Summer 2014sylvan esso - coffee Yung lean - kyoto Rae sremmurd - no flex zone Summer 2015dylan brady - little bando Xylo - america Coyote kisses - sunny day Sam gellaitry - childhood Braids - taste FanaHOVA Chill - Retro - Gambino - This Can't Be Life - Jay Z - Too Much - Drake - Venus vs Mars - Jay Z - The Morning - The Weeknd - Kush Corinthians - Kendrick - All I Need - Jay Z - Addiction - Kanye - Accordion - MFDoom - Ain't That Easy - D'Angelo - The Zone - The Weeknd - What They Want - Q - Let Me Love - Pusha T - Sacrilegious - Q Turn up - Killer - Drake - Shoot To Thrill - ACDC - The Party - Gambino - Dirt Off Your Shoulder - Jay Z - Off That - Jay Z - Xxplosive - Dre - m.A.A.d City - Kendrick - Touch Too Much - ACDC - It's A Long Way To The Top If You Wanna Rock n Roll - ACDC - 1 Train - AAP Rocky - Nosetalgia - Pusha T - Fk LA - Q - Trophies - Drake - 0 to 100 - Drake - Energy - Drake - Can't Stop - Theophilus London - King Kunta - Kendrick --- Drxw Daft Punk- Digital Love James Fauntleroy- Fertilizer Drake- 6 Man Logic- All I Do Chance the Rapper- Smoke Again AAP Rocky- Lord Pretty Flacko Jodye II AAP Ferg- Shabba Travi Scott- Uptown Maroon 5- Sugar The Weeknd- Untitled Mood Music Childish Gambino- Sober Frank Ocean- channel ORANGE PharaohPapi Young Thug - Barter 6 Rich Gang - Rich Gang Tha Tour Pt. 1 Kanye West - Yeezus --- JoshCroce 1. Big Sean ft. Jhene Aiko - I Know 2. Vic Mensa ft. Kanye West - U Mad 3. Drake - 6 Man 4. Travis Scott ft. Theophilus London Paul Wall - Dance On the Moon 5. Chet Faker Flume - Drop the Game 6. Leven Kali ft. Zack Sekoff - C.W.Y.B 7. Coasts - Oceans 8. Fetty Wap - RGF Island 9. Meek Mill ft. Big Sean ASAP Ferg - B Boy 10. Tory Lanez - The Mission 11. Coin - Run 12. Shlohmo Jeremih - No More 13. Rae Sremmurd - Come Get Her 14. Vic Mensa - Feel That 15. Travis Scott - Drive The 1975 Remix 16. Chet Faker - 1998 17. Jazz Cartier - Dead or Alive 18. PartyNextDoor - I Dont 19. Majid Jordan - A Place Like This 20. The Neighbourhood ft. G-Eazy - When I Get Back 21. G-Eazy - Tumblr Girls 22. Childish Gambino - Retro Rough 23. Drake - Find Your Love 24. Leks Rivers - Nubian 25. Kanye West - All Day --- Zk123 1. DJ Jazzy Jeff The Fresh Prince - Summertime --- Dredre200064 Rap 1. Waves - Joey Bada 2. Juice - Chance the Rapper 3. 10 2 10 - Big Sean 4. Guap - Big Sean 5. Sweatpants - Childish Gambino 6. G.O.M.D. - J. Cole 7. Started From The Bottom - Drake 8. Worst Behavior - Drake 9. Show Me What You Got - Jay-Z 10. Gorgeous - Kanye West 11. My Homies Still - Lil Wayne 12. Los Awesome - Schoolboy Q 13. Niggas In Paris - Jay-Z and Kanye West 14. Already Home - Jay-Z 15. Goldie - ASAP Rocky 16. Tom Ford - Jay-Z 17. Ashin' Kusher - Kid Cudi 18. Around My Way Freedom Ain't Free - Lupe Fiasco 19. Nikes On My Feet - Mac Miller 20. Tamale - Tyler, the Creator 21. Oh My Darling Don't Cry - Run The Jewels 22. Legendary - Wale 23. 88 - Wale 24. 6 Foot 7 Foot - Lil Wayne 25. Used 2 - 2 Chainz Rock 1. King Of The Beach - Wavves 2. You Only Live Once - The Strokes 3. White Sky - Vampire Weekend 4. Lasso - Phoenix 5. Hate To Say I Told You So - The Hives 6. Smells Like Teen Spirit - Nirvana 7. No Love - Hooray For Earth 8. A Sky Full Of Stars - Coldplay 9. Bugman - Blur 10. R U Mine? - Arctic Monkeys 11. Under Cover of Darkness - The Strokes 12. Mr. Brightside - The Killers 13. Helena Beat - Foster The People 14. Gold On The Ceiling - The Black Keys 15. Automatic Stop - The Strokes 16. Spirit Of The Night - Tesla Boy 17. Buddy Holly - Weezer 18. Supremacy - Muse 19. Fire It Up - Modest Mouse 20. Everybody Talks - Neon Trees 21. Drunk Girls - LCD Soundsystem 22. Walking On A Dream - Empire Of The Sun 23. Come Out And Play - The Offsrping 24. Good Life - OneRepublic 25. Surf Wax America - Weezer --- DDXV 1. King Kunta - Kendrick Lamar 2. Easy Rider - Action Bronson 3. Dope Walk - AAP Ferg 4. M' - AAP Rocky 5. We Are Not Playing - Granddad Woolly 6. American You - Yelawolf 7. Still Dre - Dr Dre 8. U Mad - Vic Mensa 9. 2SEATER - Tyler, The Creator 10. Fucking Problems - AAP Rocky --- Khroam SladeRazor Alchemy - Mick Jenkins After That - Future Inside - Earl Sweatshirt Sloppy Toppy - Travi Scott With That - Young Thug Know Yourself - Drake --- TruSwag Chief Keef - How It Go Future - Fuck Up Some Commas Rowdy Rebel - Computers feat. Bobby Shmurda Drake - Know Yourself Migos - Black Bottles feat. Rick Ross Migos - Computers Freestyle Future - 56 Nights Song Travi Scott - Rodeo AAP Rocky At.Long.Last.AAP --- RizaNNazir 1. Snoop Lion - Smoke The Weed 2. Rowdy Rebel - Computers 3. Drake - Know Yourself 4. Wiz Khalifa - On My Level 5. Tech N9ne - On The Bible 6. Juicy J - Stop It 7. Migos - Trenchez 8. UGK - The Game Belongs To Me 9. Migos - People's Elbow - scHoolboyQdankazzkusH --- VAM621 1. Kendrick Lamar - King Kunta 2. Kendrick Lamar - Money Trees 3. Kanye West - All Day 4. Drake - Legend 5. Drake - Pound Cake 6. ScHoolboy Q - Collard Greens 7. AAP Rocky - Goldie 8. Vic Mensa - U Mad 9. Vic Mensa - Down on my Luck 10. A Tribe Called Quest - Midnight Marauders Album --- Open Mike Aguila 1-10. Lorde - Pure Heroine --- Promethafiend Even though it's just about Winter in Australia 1. Travi Scott - Quintana Pt.2 2. Kanye West - All Day 3. Free Gucci - Metro Thuggin 4. Jazz Cartier - The Valley 5. Earl Sweatshirt feat. Wiki - AM Radio 6. Tyler the Creator - Deathcamp --- Kay Rock 1. Kendrick Lamar - Alright 2. Tyler, the Creator - Deathcamp 3. Lil Wayne - Run This Town 4. AAP Rocky - Goldie 5. Drake - 6 Man 6. Run the Jewels - Pew Pew Pew 7. Meek Mill - Ooh Kill Em' 8. Kendrick Lamar - West Coast Wu-Tang 8. ScHoolboy Q - Los Awesome 9. Kanye West - All Day 10. Tech N9ne - Speedom 11. Busta Rhymes - Why Stop Now 13. Kid Ink, Tyga, Wale, YG Rich Homie Quan - Ride Out 14. Lil Wayne - Right Above It 15. Vic Mensa - U Mad 16. Yelawolf - Love Story 17. Tech N9ne - Wither 18. AAP Rocky - Everyday 19. Vic Mensa - Run! 20. Drake - Too Much 21. Wiz Khalifa - See You Again 22. Wale - The Intro About Nothing --- SemGroeneweg Joey Bada - Don't Front Action Bronson - Easy Rider --- Spencer4714 King Kunta by Kendrick Lamar Cadillactica by Big KRIT Heavenly Father by Isaiah Rashad Big Beast by Killer Mike i by Kendrick Lamar Never Catch Me by Flying Lotus All Day by Kanye West The Recipe by Kendrick Lamar Christ Conscious by Joey Bada You Ain't Gotta Lie Momma Said by Kendrick Lamar Believe Me by Lil Wayne Dots Lines by Lupe Fiasco Shine On by Big KRIT Parental Advisory by Jay Rock Rude Boy by Aquino Fire Squad by J. Cole Code Red by Jay Rock No Joke by Jay Rock Hood Gone Love It by Jay Rock Close Your Eyes And Count to Fuck by Run the Jewels Break the Bank by Scoolboy Q The Bloom by Wale California Love by 2Pac Peaches N Cream by Snoop Dogg --- StillAtIt Ice Cube - Today Was a Good Day Nas - The World Is Yours Nas - One Love Notorious B.I.G. - Juicy 2Pac - Me Against the World Jay Z - D'evils Rakim - The 18th Letter Dr. Dre - Xxplosive Nas - Nas is Like Nas - Money is My Bitch Eminem - Bitch Please II Xzibit - U Know Xzibit - Front 2 Back Jay Z - The Ruler's Back Nas - Stillmatic Intro Nas - Smokin' Nas - 2nd Childhood Nas - Book of Rhymes Entire Get Rich or Die Tryin' LOL Obie Trice - Love Me Nas - U Wanna Be Me Kanye West - Spaceship Nas - Just a Moment Young Buck - Bonafide Hustler The Game -Dreams The Game - Hate It or Love It The Game - Runnin' Stat Quo - Get Low Obie Trice - Ballad of Obie Trice Snoop Dogg - Imagine Snoop Dogg - That's That Shit Eminem - Drop the Bombs on 'em Eminem - Untitled The Game - The City J. Cole - Can't Get Enough Frank Ocean - Pink Matter Kendrick Lamar - Bitch, Don't Kill My Vibe Kendrick Lamar - Money Trees Kendrick Lamar - Real Nas - Reach Out Big Sean - Nothing is Stopping You Big Sean - Fire Big Sean - Control Eminem - Don't Front Busta Rhymes - Calm Down Dr. Dre - Kush J. Cole - Hello J. Cole - Apparently Kendrick Lamar - It's on Again PRhyme - PRhyme PRhyme - U Should Know 50 Cent - This Is Murder This is not Music Slaughterhouse - Y'all Ready Know Big Sean - Stay Down Big Sean - Deep Drake - Legend Kendrick Lamar - King Kunta Kendrick Lamar - i --- WuTangKillaBeeStankoniagbtalentx 1. Roll Deep - Good Times ft. Jodie Connor 2. Calvin Harris - Pray to God ft. HAIM 3. Game, 50 Cent - Hate It or Love It 4. Olly Murs - Army of Two 5. Dizzee Rascal - Goin' Crazy ft. Robbie Williams 6. Eric Prydz - Pjanoo 7. Lethal Bizzle - Pow 2011 ft. JME, Wiley, Chip, Face, P Money, Ghetts, Kano 8. DJ Khaled - I'm On One ft. Drake, Rick Ross, Lil Wayne 9. DJ Felli Fel - Feel It ft. Sean Paul, Pitbull, Flo Rida, T-Pain 10. Neon Jungle - Welcome to the Jungle 11. Maino - All the Above ft. T-Pain 12. Neon Jungle - Braveheart 13. Roll Deep - Green Light 14. Avicii - The Nights 15. Dexplicit - Bullacake 16. Fat Joe - What's Luv? ft. Ashtani 17. Kano - Ps and Qs 18. Fire Camp - Forward 2 19. S Club 7 - Don't Stop Movin' 20. Tinchy Stryder - Number 1 ft. Dappy 21. KlangKrassuell - Netzwerk Falls Like Rain 22. Devlin - Off With Their Heads ft. Wretch 32 23. Kray Twinz, Twista, Lethal Bizzle, Gappy Ranks - What We Do 24. Coolio - Gangster Paradise ft. L.V. 25. UnBalanced - Vessel ft. Scarlett Quinn ChxckTheRhxmeGood Vibe Little Brother - Morning Kendrick Lamar - Money Trees De La Soul - Much More Drake - Know Yourself Mick Jenkins - Dehydration Joey Bada - Christ Conscious J Dilla - Believe in God Birocratic - Sombre, Green De La Soul - Sunshine OutKast - Two Dope Boyz In A Cadillac The Alchemist - Hold You Down Lloyd Banks - I'm So Fly Little Brother Lovin It Mobb Deep The Learning Burn 50 Cent Mobb Deep Outta Control J Dilla Elzhi Come Get It Craig David 7 Days Gorillaz Dirty Harry The Foreign Exchange - Downtime Kendrick Lamar - King Kunta Drake - Worst Behaviour DJ Jazzy Jeff The Fresh Prince - Summertime --- Alfaoito The Weeknd - Untitled Mood Music Kanye West - All Day Red Hot Chili Peppers - Dani California Chris Brown - Don't Be Gone Too Long Marina and The Diamonds - Radioactive 50 Cent - Ayo Technology The Weeknd - Drunk In Love Drake - Energy Rae Sremmurd - No Type --- Rapfanatic Albums The Strokes- Is This It The Velvet Underground Nico David Bowie- Hunky Dory Nirvana- Nevermind Master of Puppets- Metallica All Green Day albums up to 21CB Neutral Milk Hotel In the Aeroplane Over the Sea Smashing Pumpkins- Siamese Dream Astral Weeks- Van Morrison Licensed to Ill- Beastie Boys Are You Experienced - Jimi Hendrix A Love Supreme - John Coltrane Death Certificate - Ice Cube Songs Rap The Real Slim Shady - Eminem What These Bitches Want - DMX U Know - Xzibit Non-Rap White Teeth Teens - Alexie Gratia f Lorde Rock Lithium - Nirvana Come Out Swinging - The Offspring Welcome to Paradise - Green Day Going to Pasalacqua - Green Day My Wave - Soundgarden --- Tyrant Summer 2013 in Europe was literally tracks 1-10 of Yeezus. Also heard a lot of Get Lucky Blurred Lines cause they played that shit every third song in every club --- Hellblazer The Allme Playlist from 2 years ago 1. Azizi Gibson - Intro 2. Yung Lean - Gatorade 3. Mac Miller - Angel Dust 4. Azizi Gibson - Winners Circle 5. Domo Genesis - Arrival 6. AAP Rocky - Peso 7. Drake - Days In Toronto JustDame Refix 8. Flow - Ink Bleed Remix Feat. Bonka, Kevin Gates G. Wilson 9. Danny Brown - Jealousy 10. Schoolboy Q - Blind Threats Feat. Raekwon 11. Armand Hammer - Shark Fin Soup 12. MF Doom - Air Astronote Remix 13. Domo Genesis - SS4 14. Schoolboy Q - Break The Bank 15. Yung Lean - Gatorade Lido Remix 16. Robb Bank - Counting March 17. Apollo Brown - Lower The Boom Feat Oddisee, Kenn Starr Sareem Poems 18. OutKast - SpottieOttie Dopaliscious 19. Dexter - Pictures Feat. Josa Peit 20. Quasimoto - Planned Attack 21. Azizi Gibson - Ghost in the Shell 22. Kendrick Lamar - Poe Mans Dreams His Vice 23. Redman - Whateva Man 24. C2C - 2006 DMC World Team Championship Performance 25. Captain Murphy - Immaculation Feat. Azizi Gibson and Jeremiah Jae 26. Flatbush Zombies - Chuch 27. Yung Lean - Gatorade Chopped Saddened --- AryxSoulchild 1. Rihanna ft Chris Brown - Put It Up 2. Jhene Aiko's Souled Out album 3. Rihanna - Bitch Better Have My Money 4. Chris Brown Tyga - Bunkin' 5. Chris Brown Tyga - Remember Me 6. Fabolous ft Tamia - Into You 7. Amerie - Why Do We Fall In Love 8. Juvenile - Back That Azz Up 9. Mae ft Total - What You Want 10. Ja Rule ft Ashanti - Always on Time --- Self-LoathingNarcissist Rap Childish Gambino- Poke Kendrick Lamar-The Recipe Pusha T- Lunch Money Kanye West- All Day Vic Mensa- U Mad AAP Rocky- R. Cali Earl Sweatshirt- Wool Tyler the Creater- Smuckers Hail Mary Mallon- Jonathan Keith Ape-It G Ma Other Washed Up- Feel it All Around Lorde- Million Dollar Bills Sleigh Bells- Rill Rill HOLYCHILD- Happy With Me Bad Rabbits- Doin' It Tuxedo- So Good Mac DeMarco-Chamber of Reflection --- Gabyayo 1. Xenophobic Blind Left Hook by Saves The Day 2. Everyone I Know by K.Flay --- PrettyLittleRockabilly Arctic Monkeys - Suck It and See The Beach Boys - California Girls The Beach Boys - Surfin USA The Kinks - Better Things The Kinks - Don't Forget to Dance Arctic Monkeys - Reckless Serenade Arctic Monkeys - All My Own Stunts The Goo Goo Dolls - Slide The Goo Goo Dolls - Iris Jamie Lawson - Wasn't Expecting That The Monkees - Daydream Believer The Beatles - And I Love Her The Beatles - All My Loving The Beatles - Here Comes The Sun The Vamps - Can We Dance The Vamps - Move My Way Arctic Monkeys - The Blonde-O-Sonic Shimmer Trap Ed Sheeran - Cold Coffee The 1975 - Girls Circa Waves - So Long Circa Waves - Young Chasers Ed Sheeran - Tenerife Sea Green Day - Reject Green Day - American Idiot Arctic Monkeys - Evil Twin The 1975 - Sex The Smiths - This Charming Man --- Babuc 2016 Playlist Major Lazer - Jessica ft. Ezra Koenig YEAHTIM - GOATS 2015 Playlist Oh Honey Wish You Were Here Twenty one pilots Stressed Out Mark Ronson - Daffodils feat. Kevin Parker Julian Moon A Cup Of Coffee Lorde Pure Heroine The Postal Service - Give Up Vampire Weekend - A-Punk Fergie Fergalicious Natasha Bedingfield Unwritten Natasha Bedingfield - Pocketful Of Sunshine --- OwennB RapRB The Weeknd - Rolling Stone The Weeknd - Montreal Meek Mill - Cold Hearted Mac Miller - Wedding Mac Miller - Fight the Feeling Kendrick Lamar - Sing about me, Im Dying of Thirst Kendrick Lamar - Mortal Man Drake - Wednesday Night Interlude Drake - Pound Cake Frank Ocean - Swim good AltRockPop The 1975 - Menswear The 1975 - Antichrist Chase Atlantic - Run Away Circa Waves - T-shirt weather Electronic Atu - Vacant Ekali - Unfaith Tory Lanez Ekali mix - Henny in Hand Sosad2112 Track 1 - 10 Track 11 - 20 Track 21 - 30 Track 31 - 40 Track 41 - 50 Track 51 - 60 Track 61 - 70 Track 71 - 80 Track 81 - 90 Track 91 - 100 Track 101 - 110 Track 111 - 120 Track 121 - 130 --- DrewHarvie Summer laid back playlist Swinelordfire emoji - YABOYNICKYJay DayerCanadian Playlist Canadian Playlist Pt. 2 Detroit Playlist --- VinylZombieMCR - Pop - Pop Punk Rock --- Old School Panther Dee ImLUat the beach chillinMadkol MagicB.o.B Bang Bang Pow PowT-Pain Right Above ItLil Wayne 22Taylor Swift All I Do Is Win RemixDJ Khaled No ProblemChance The Rapper HistoryOne Direction ClassicMKTO CliqueKanye West Like ThatJack Jack Better Than RevengeTaylor Swift The Real Slim ShadyEminem I'm So PaidAkon BroccoliD.R.A.M SailAWOLNATION Hop MadnessHopsin The Story Of UsTaylor Swift SpeedomTech N9ne Look At Me NowChris Brown MercyKanye West SugarMaroon 5 Lips Are MovinMeghan Trainor Cake By The OceanDNCE Work From HomeFifth Harmony No SleepWiz Khalifa Hood Go CrazyTech N9ne You're Such AHailee Steinfeld Bad Mother FuckerMachine Gun Kelly Up Down Do This All DayT-Pain All You Had To Do Was StayTaylor Swift WorkRihanna Good LifeKanye West I'm Goin InDrake Out Of My MindB.o.B Roger ThatYoung Money OnlyNicki Minaj SmileAvril Lavigne Can't Stop The FeelingJustin Timberlake I Just Wanna PartyYG HeadbandB.o.B No HandsWaka Flock Flame GangBangWiz Khalifa Bandz A Make Her DanceJuicy J CenturiesFall Out Boy --- Trialia Spotify Summer Rewind Playlist 2018 01 - Hayley Kiyoko - Girls Like Girls 02 - Lacuna Coil - Purify 03 - Chameleon Circuit - Exterminate, Regenerate 04 - Fall Out Boy - Ghostbusters I'm Not Afraid 05 - Demi Lovato - Confident 06 - Lacuna Coil - Blood, Tears, Dust 07 - Propellerheads - Spybreak! short one 08 - Aperture Science Psychoacoustic Laboratories - Still Alive 09 - Savage Garden - I Want You 10 - Lacuna Coil - Lost Lullaby 11 - Nine Inch Nails - Sanctified 12 - Creed - Higher 13 - Savage Garden - To the Moon and Back 14 - Lacuna Coil - To Live is To Hide 15 - Carina Round - Let It Fall 16 - Counting Crows - Goodnight Elisabeth 17 - Megadeth - À Tout Le Monde Set Me Free 18 - Lacuna Coil - Upsidedown 19 - Avril Lavigne - Tomorrow 20 - Valletta - Spybreak Radio Mix 21 - Chameleon Circuit - Gallifreyan History 101 22 - Lacuna Coil - The Army Inside 23 - Savage Garden - Carry On Dancing 24 - Laura Nyro - You've Really Got A Hold On Me 25 - Enigma - Gravity of Love 26 - Lacuna Coil - Against You 27 - Within Temptation - What Have You Done 28 - Demi Lovato - Cool for the Summer 29 - Them Are Us Too - Creepy Love 30 - Chameleon Circuit - Type 40 31 - Mors Syphilitica - Ungrateful Girl 32 - Anna Nalick - Consider This 33 - DJ Quicksilver - Bellissima Radio Edit 34 - Regicide - Narcissus Echo 35 - Indigo Girls - Watershed 36 - Oasis - The Masterplan 37 - Suzanne Vega - Marlene On The Wall 38 - Rob D - Clubbed To Death Kurayamino Mix 39 - Corinne Bailey Rae - Put Your Records On 40 - Linkin Park - Castle of Glass 41 - Alanis Morissette - All I Really Want 42 - Patti Smith - Because the Night 43 - Soundgarden - Black Hole Sun 44 - Delain - Army of Dolls 45 - Massive Attack - Inertia Creeps 46 - Indigo Girls - Galileo 47 - Lacuna Coil - Wide Awake 48 - Linkin Park - Leave Out All The Rest 49 - Hayley Kiyoko - Sleepover 50 - Scott McKenzie - San Francisco Be Sure to Wear Flowers in Your Hair --- Jsaispasjsaisplus 1 - Moha La Squale - J'me balade 2 - Damso - 911 3 - Moha La Squale - Amsterdam 4 - PNL - 91's 5 - The Weeknd - I Feel It Coming --- Missblohsh 1 - One Kiss with Dua Lipa 2 - Sparks Fly 3 - Dangerous Woman 4 - Paradise City 5 - Shotgun34</t>
+          <t>HgsCa Dubbelquatrin om tennis --- Zenith9 Summer 2016 D.R.A.M ft Lil Yachty - Broccoli Kano - T-shirt Weather in The Manor Jamie xx ft Young Thug - I Know There's Gonna Be Good Times Blood Orange - You're Not Good Enough Francis and the Lights ft Bon Iver - Friends HONNE - Good Together The Avalanches ft Danny Brown MF DOOM - Frankie Sinatra Drake- Controlla Frank Ocean- Forrest Gump Anderson. Paak ft Schoolboy Q - Am I Wrong Smino - Oxygen Kanye West - Waves Chance The Rapper ft 2Chainz Lil Wayne - No Problem Lil Yachty - One Night Young Thug ft Travi Scott Quavo - Pick Up the Phone The Isley Brothers - Summer Breeze Schoolboy Q - THat Part - Black Hippy Remix --- ITSADITYA Speedom - Tech N9ne ft. Eminem Krizz Kaliko Shelly - Tempa T Wild Boy Remix - Machine Gun Kelly ft. 2 Chainz, Meek Mill, Mystikal, French Montana, Yo Gotti Steve-O Best Friend - Yelawolf ft. Eminem B.A.D - Mista Silva No Way - Futuristic Turnt Up - Chris Webby ft. Dizzy Wright Worldwide Choppers - Tech N9ne ft. Busta Rhymes, Ceza, D-Loc, JL B.Hood, Twista, Twisted Insane, UO Yelawolf In My Zone - Rittz ft. Mike Posner B.o.B That's Not Me - Skepta ft. JME Wicked Ways - Eminem Brainsick 2.0 - Twisted Insane ft. C.Ray, ISO, Kamikazi, Dikulz, Z The Greatest - Futuristic Ballin Out - French Montana ft. Jeremih Diddy I-2604-I aka ChemicaLLordDaveHowell Summertime -- Audio Adreneline Walk Don't Run -- The Ventures Lick it Up -- Kiss Tokyo Summer -- Mounties Just the Way You Are -- Milky --- AriNikoBradshaw Kanye West - Wolves Years Years - King Empire of the Sun - Walking on a Dream Tyler, the Creator - Fucking Young Tyler, the Creator - The Brown Stains of Darkeese Latifah Part 6-12 Remix Jack U Justin Bieber - Where Are U Now Kendrick Lamar - King Kunta Flo Rida - Wobble Sheppard - Geronimo Walk the Moon - Shut Up and Dance --- DukeAM Nirvana - Live at Reading Green Day - Dookie Mac DeMarco - Salad Days Led Zeppelin - IV --- Mattw116 Cadillactica- Big KRIT COMFORTZone- Saba Long.Live.AAP- AAP Rocky ATLiens- Outkast Barter 6- Young Thug Midnight Marauders- A Tribe Called Quest Nietzsche Summer 2012bon iver - holocene Royksopp - happy up here Phoenix - lisztomania Summer 2013kanye west - blood on the leaves Vampire weekend - modern vampires of the city Outkast - spottieottiedopaliscious Summer 2014sylvan esso - coffee Yung lean - kyoto Rae sremmurd - no flex zone Summer 2015dylan brady - little bando Xylo - america Coyote kisses - sunny day Sam gellaitry - childhood Braids - taste FanaHOVA Chill - Retro - Gambino - This Can't Be Life - Jay Z - Too Much - Drake - Venus vs Mars - Jay Z - The Morning - The Weeknd - Kush Corinthians - Kendrick - All I Need - Jay Z - Addiction - Kanye - Accordion - MFDoom - Ain't That Easy - D'Angelo - The Zone - The Weeknd - What They Want - Q - Let Me Love - Pusha T - Sacrilegious - Q Turn up - Killer - Drake - Shoot To Thrill - ACDC - The Party - Gambino - Dirt Off Your Shoulder - Jay Z - Off That - Jay Z - Xxplosive - Dre - m.A.A.d City - Kendrick - Touch Too Much - ACDC - It's A Long Way To The Top If You Wanna Rock n Roll - ACDC - 1 Train - AAP Rocky - Nosetalgia - Pusha T - Fk LA - Q - Trophies - Drake - 0 to 100 - Drake - Energy - Drake - Can't Stop - Theophilus London - King Kunta - Kendrick --- Drxw Daft Punk- Digital Love James Fauntleroy- Fertilizer Drake- 6 Man Logic- All I Do Chance the Rapper- Smoke Again AAP Rocky- Lord Pretty Flacko Jodye II AAP Ferg- Shabba Travi Scott- Uptown Maroon 5- Sugar The Weeknd- Untitled Mood Music Childish Gambino- Sober Frank Ocean- channel ORANGE PharaohPapi Young Thug - Barter 6 Rich Gang - Rich Gang Tha Tour Pt. 1 Kanye West - Yeezus --- JoshCroce 1. Big Sean ft. Jhene Aiko - I Know 2. Vic Mensa ft. Kanye West - U Mad 3. Drake - 6 Man 4. Travis Scott ft. Theophilus London Paul Wall - Dance On the Moon 5. Chet Faker Flume - Drop the Game 6. Leven Kali ft. Zack Sekoff - C.W.Y.B 7. Coasts - Oceans 8. Fetty Wap - RGF Island 9. Meek Mill ft. Big Sean ASAP Ferg - B Boy 10. Tory Lanez - The Mission 11. Coin - Run 12. Shlohmo Jeremih - No More 13. Rae Sremmurd - Come Get Her 14. Vic Mensa - Feel That 15. Travis Scott - Drive The 1975 Remix 16. Chet Faker - 1998 17. Jazz Cartier - Dead or Alive 18. PartyNextDoor - I Dont 19. Majid Jordan - A Place Like This 20. The Neighbourhood ft. G-Eazy - When I Get Back 21. G-Eazy - Tumblr Girls 22. Childish Gambino - Retro Rough 23. Drake - Find Your Love 24. Leks Rivers - Nubian 25. Kanye West - All Day --- Zk123 1. DJ Jazzy Jeff The Fresh Prince - Summertime --- Dredre200064 Rap 1. Waves - Joey Bada 2. Juice - Chance the Rapper 3. 10 2 10 - Big Sean 4. Guap - Big Sean 5. Sweatpants - Childish Gambino 6. G.O.M.D. - J. Cole 7. Started From The Bottom - Drake 8. Worst Behavior - Drake 9. Show Me What You Got - Jay-Z 10. Gorgeous - Kanye West 11. My Homies Still - Lil Wayne 12. Los Awesome - Schoolboy Q 13. Niggas In Paris - Jay-Z and Kanye West 14. Already Home - Jay-Z 15. Goldie - ASAP Rocky 16. Tom Ford - Jay-Z 17. Ashin' Kusher - Kid Cudi 18. Around My Way Freedom Ain't Free - Lupe Fiasco 19. Nikes On My Feet - Mac Miller 20. Tamale - Tyler, the Creator 21. Oh My Darling Don't Cry - Run The Jewels 22. Legendary - Wale 23. 88 - Wale 24. 6 Foot 7 Foot - Lil Wayne 25. Used 2 - 2 Chainz Rock 1. King Of The Beach - Wavves 2. You Only Live Once - The Strokes 3. White Sky - Vampire Weekend 4. Lasso - Phoenix 5. Hate To Say I Told You So - The Hives 6. Smells Like Teen Spirit - Nirvana 7. No Love - Hooray For Earth 8. A Sky Full Of Stars - Coldplay 9. Bugman - Blur 10. R U Mine? - Arctic Monkeys 11. Under Cover of Darkness - The Strokes 12. Mr. Brightside - The Killers 13. Helena Beat - Foster The People 14. Gold On The Ceiling - The Black Keys 15. Automatic Stop - The Strokes 16. Spirit Of The Night - Tesla Boy 17. Buddy Holly - Weezer 18. Supremacy - Muse 19. Fire It Up - Modest Mouse 20. Everybody Talks - Neon Trees 21. Drunk Girls - LCD Soundsystem 22. Walking On A Dream - Empire Of The Sun 23. Come Out And Play - The Offsrping 24. Good Life - OneRepublic 25. Surf Wax America - Weezer --- DDXV 1. King Kunta - Kendrick Lamar 2. Easy Rider - Action Bronson 3. Dope Walk - AAP Ferg 4. M' - AAP Rocky 5. We Are Not Playing - Granddad Woolly 6. American You - Yelawolf 7. Still Dre - Dr Dre 8. U Mad - Vic Mensa 9. 2SEATER - Tyler, The Creator 10. Fucking Problems - AAP Rocky --- Khroam SladeRazor Alchemy - Mick Jenkins After That - Future Inside - Earl Sweatshirt Sloppy Toppy - Travi Scott With That - Young Thug Know Yourself - Drake --- TruSwag Chief Keef - How It Go Future - Fuck Up Some Commas Rowdy Rebel - Computers feat. Bobby Shmurda Drake - Know Yourself Migos - Black Bottles feat. Rick Ross Migos - Computers Freestyle Future - 56 Nights Song Travi Scott - Rodeo AAP Rocky At.Long.Last.AAP --- RizaNNazir 1. Snoop Lion - Smoke The Weed 2. Rowdy Rebel - Computers 3. Drake - Know Yourself 4. Wiz Khalifa - On My Level 5. Tech N9ne - On The Bible 6. Juicy J - Stop It 7. Migos - Trenchez 8. UGK - The Game Belongs To Me 9. Migos - People's Elbow - scHoolboyQdankazzkusH --- VAM621 1. Kendrick Lamar - King Kunta 2. Kendrick Lamar - Money Trees 3. Kanye West - All Day 4. Drake - Legend 5. Drake - Pound Cake 6. ScHoolboy Q - Collard Greens 7. AAP Rocky - Goldie 8. Vic Mensa - U Mad 9. Vic Mensa - Down on my Luck 10. A Tribe Called Quest - Midnight Marauders Album --- Open Mike Aguila 1-10. Lorde - Pure Heroine --- Promethafiend Even though it's just about Winter in Australia 1. Travi Scott - Quintana Pt.2 2. Kanye West - All Day 3. Free Gucci - Metro Thuggin 4. Jazz Cartier - The Valley 5. Earl Sweatshirt feat. Wiki - AM Radio 6. Tyler the Creator - Deathcamp --- Kay Rock 1. Kendrick Lamar - Alright 2. Tyler, the Creator - Deathcamp 3. Lil Wayne - Run This Town 4. AAP Rocky - Goldie 5. Drake - 6 Man 6. Run the Jewels - Pew Pew Pew 7. Meek Mill - Ooh Kill Em' 8. Kendrick Lamar - West Coast Wu-Tang 8. ScHoolboy Q - Los Awesome 9. Kanye West - All Day 10. Tech N9ne - Speedom 11. Busta Rhymes - Why Stop Now 13. Kid Ink, Tyga, Wale, YG Rich Homie Quan - Ride Out 14. Lil Wayne - Right Above It 15. Vic Mensa - U Mad 16. Yelawolf - Love Story 17. Tech N9ne - Wither 18. AAP Rocky - Everyday 19. Vic Mensa - Run! 20. Drake - Too Much 21. Wiz Khalifa - See You Again 22. Wale - The Intro About Nothing --- SemGroeneweg Joey Bada - Don't Front Action Bronson - Easy Rider --- Spencer4714 King Kunta by Kendrick Lamar Cadillactica by Big KRIT Heavenly Father by Isaiah Rashad Big Beast by Killer Mike i by Kendrick Lamar Never Catch Me by Flying Lotus All Day by Kanye West The Recipe by Kendrick Lamar Christ Conscious by Joey Bada You Ain't Gotta Lie Momma Said by Kendrick Lamar Believe Me by Lil Wayne Dots Lines by Lupe Fiasco Shine On by Big KRIT Parental Advisory by Jay Rock Rude Boy by Aquino Fire Squad by J. Cole Code Red by Jay Rock No Joke by Jay Rock Hood Gone Love It by Jay Rock Close Your Eyes And Count to Fuck by Run the Jewels Break the Bank by Scoolboy Q The Bloom by Wale California Love by 2Pac Peaches N Cream by Snoop Dogg --- StillAtIt Ice Cube - Today Was a Good Day Nas - The World Is Yours Nas - One Love Notorious B.I.G. - Juicy 2Pac - Me Against the World Jay Z - D'evils Rakim - The 18th Letter Dr. Dre - Xxplosive Nas - Nas is Like Nas - Money is My Bitch Eminem - Bitch Please II Xzibit - U Know Xzibit - Front 2 Back Jay Z - The Ruler's Back Nas - Stillmatic Intro Nas - Smokin' Nas - 2nd Childhood Nas - Book of Rhymes Entire Get Rich or Die Tryin' LOL Obie Trice - Love Me Nas - U Wanna Be Me Kanye West - Spaceship Nas - Just a Moment Young Buck - Bonafide Hustler The Game -Dreams The Game - Hate It or Love It The Game - Runnin' Stat Quo - Get Low Obie Trice - Ballad of Obie Trice Snoop Dogg - Imagine Snoop Dogg - That's That Shit Eminem - Drop the Bombs on 'em Eminem - Untitled The Game - The City J. Cole - Can't Get Enough Frank Ocean - Pink Matter Kendrick Lamar - Bitch, Don't Kill My Vibe Kendrick Lamar - Money Trees Kendrick Lamar - Real Nas - Reach Out Big Sean - Nothing is Stopping You Big Sean - Fire Big Sean - Control Eminem - Don't Front Busta Rhymes - Calm Down Dr. Dre - Kush J. Cole - Hello J. Cole - Apparently Kendrick Lamar - It's on Again PRhyme - PRhyme PRhyme - U Should Know 50 Cent - This Is Murder This is not Music Slaughterhouse - Y'all Ready Know Big Sean - Stay Down Big Sean - Deep Drake - Legend Kendrick Lamar - King Kunta Kendrick Lamar - i --- WuTangKillaBeeStankoniagbtalentx 1. Roll Deep - Good Times ft. Jodie Connor 2. Calvin Harris - Pray to God ft. HAIM 3. Game, 50 Cent - Hate It or Love It 4. Olly Murs - Army of Two 5. Dizzee Rascal - Goin' Crazy ft. Robbie Williams 6. Eric Prydz - Pjanoo 7. Lethal Bizzle - Pow 2011 ft. JME, Wiley, Chip, Face, P Money, Ghetts, Kano 8. DJ Khaled - I'm On One ft. Drake, Rick Ross, Lil Wayne 9. DJ Felli Fel - Feel It ft. Sean Paul, Pitbull, Flo Rida, T-Pain 10. Neon Jungle - Welcome to the Jungle 11. Maino - All the Above ft. T-Pain 12. Neon Jungle - Braveheart 13. Roll Deep - Green Light 14. Avicii - The Nights 15. Dexplicit - Bullacake 16. Fat Joe - What's Luv? ft. Ashtani 17. Kano - Ps and Qs 18. Fire Camp - Forward 2 19. S Club 7 - Don't Stop Movin' 20. Tinchy Stryder - Number 1 ft. Dappy 21. KlangKrassuell - Netzwerk Falls Like Rain 22. Devlin - Off With Their Heads ft. Wretch 32 23. Kray Twinz, Twista, Lethal Bizzle, Gappy Ranks - What We Do 24. Coolio - Gangster Paradise ft. L.V. 25. UnBalanced - Vessel ft. Scarlett Quinn ChxckTheRhxmeGood Vibe Little Brother - Morning Kendrick Lamar - Money Trees De La Soul - Much More Drake - Know Yourself Mick Jenkins - Dehydration Joey Bada - Christ Conscious J Dilla - Believe in God Birocratic - Sombre, Green De La Soul - Sunshine OutKast - Two Dope Boyz In A Cadillac The Alchemist - Hold You Down Lloyd Banks - I'm So Fly Little Brother Lovin It Mobb Deep The Learning Burn 50 Cent Mobb Deep Outta Control J Dilla Elzhi Come Get It Craig David 7 Days Gorillaz Dirty Harry The Foreign Exchange - Downtime Kendrick Lamar - King Kunta Drake - Worst Behaviour DJ Jazzy Jeff The Fresh Prince - Summertime --- Alfaoito The Weeknd - Untitled Mood Music Kanye West - All Day Red Hot Chili Peppers - Dani California Chris Brown - Don't Be Gone Too Long Marina and The Diamonds - Radioactive 50 Cent - Ayo Technology The Weeknd - Drunk In Love Drake - Energy Rae Sremmurd - No Type --- Rapfanatic Albums The Strokes- Is This It The Velvet Underground Nico David Bowie- Hunky Dory Nirvana- Nevermind Master of Puppets- Metallica All Green Day albums up to 21CB Neutral Milk Hotel In the Aeroplane Over the Sea Smashing Pumpkins- Siamese Dream Astral Weeks- Van Morrison Licensed to Ill- Beastie Boys Are You Experienced - Jimi Hendrix A Love Supreme - John Coltrane Death Certificate - Ice Cube Songs Rap The Real Slim Shady - Eminem What These Bitches Want - DMX U Know - Xzibit Non-Rap White Teeth Teens - Alexie Gratia f Lorde Rock Lithium - Nirvana Come Out Swinging - The Offspring Welcome to Paradise - Green Day Going to Pasalacqua - Green Day My Wave - Soundgarden --- Tyrant Summer 2013 in Europe was literally tracks 1-10 of Yeezus. Also heard a lot of Get Lucky Blurred Lines cause they played that shit every third song in every club --- Hellblazer The Allme Playlist from 2 years ago 1. Azizi Gibson - Intro 2. Yung Lean - Gatorade 3. Mac Miller - Angel Dust 4. Azizi Gibson - Winners Circle 5. Domo Genesis - Arrival 6. AAP Rocky - Peso 7. Drake - Days In Toronto JustDame Refix 8. Flow - Ink Bleed Remix Feat. Bonka, Kevin Gates G. Wilson 9. Danny Brown - Jealousy 10. Schoolboy Q - Blind Threats Feat. Raekwon 11. Armand Hammer - Shark Fin Soup 12. MF Doom - Air Astronote Remix 13. Domo Genesis - SS4 14. Schoolboy Q - Break The Bank 15. Yung Lean - Gatorade Lido Remix 16. Robb Bank - Counting March 17. Apollo Brown - Lower The Boom Feat Oddisee, Kenn Starr Sareem Poems 18. OutKast - SpottieOttie Dopaliscious 19. Dexter - Pictures Feat. Josa Peit 20. Quasimoto - Planned Attack 21. Azizi Gibson - Ghost in the Shell 22. Kendrick Lamar - Poe Mans Dreams His Vice 23. Redman - Whateva Man 24. C2C - 2006 DMC World Team Championship Performance 25. Captain Murphy - Immaculation Feat. Azizi Gibson and Jeremiah Jae 26. Flatbush Zombies - Chuch 27. Yung Lean - Gatorade Chopped Saddened --- AryxSoulchild 1. Rihanna ft Chris Brown - Put It Up 2. Jhene Aiko's Souled Out album 3. Rihanna - Bitch Better Have My Money 4. Chris Brown Tyga - Bunkin' 5. Chris Brown Tyga - Remember Me 6. Fabolous ft Tamia - Into You 7. Amerie - Why Do We Fall In Love 8. Juvenile - Back That Azz Up 9. Mae ft Total - What You Want 10. Ja Rule ft Ashanti - Always on Time --- Self-LoathingNarcissist Rap Childish Gambino- Poke Kendrick Lamar-The Recipe Pusha T- Lunch Money Kanye West- All Day Vic Mensa- U Mad AAP Rocky- R. Cali Earl Sweatshirt- Wool Tyler the Creater- Smuckers Hail Mary Mallon- Jonathan Keith Ape-It G Ma Other Washed Up- Feel it All Around Lorde- Million Dollar Bills Sleigh Bells- Rill Rill HOLYCHILD- Happy With Me Bad Rabbits- Doin' It Tuxedo- So Good Mac DeMarco-Chamber of Reflection --- Gabyayo 1. Xenophobic Blind Left Hook by Saves The Day 2. Everyone I Know by K.Flay --- PrettyLittleRockabilly Arctic Monkeys - Suck It and See The Beach Boys - California Girls The Beach Boys - Surfin USA The Kinks - Better Things The Kinks - Don't Forget to Dance Arctic Monkeys - Reckless Serenade Arctic Monkeys - All My Own Stunts The Goo Goo Dolls - Slide The Goo Goo Dolls - Iris Jamie Lawson - Wasn't Expecting That The Monkees - Daydream Believer The Beatles - And I Love Her The Beatles - All My Loving The Beatles - Here Comes The Sun The Vamps - Can We Dance The Vamps - Move My Way Arctic Monkeys - The Blonde-O-Sonic Shimmer Trap Ed Sheeran - Cold Coffee The 1975 - Girls Circa Waves - So Long Circa Waves - Young Chasers Ed Sheeran - Tenerife Sea Green Day - Reject Green Day - American Idiot Arctic Monkeys - Evil Twin The 1975 - Sex The Smiths - This Charming Man --- Babuc 2016 Playlist Major Lazer - Jessica ft. Ezra Koenig YEAHTIM - GOATS 2015 Playlist Oh Honey Wish You Were Here Twenty one pilots Stressed Out Mark Ronson - Daffodils feat. Kevin Parker Julian Moon A Cup Of Coffee Lorde Pure Heroine The Postal Service - Give Up Vampire Weekend - A-Punk Fergie Fergalicious Natasha Bedingfield Unwritten Natasha Bedingfield - Pocketful Of Sunshine --- OwennB RapRB The Weeknd - Rolling Stone The Weeknd - Montreal Meek Mill - Cold Hearted Mac Miller - Wedding Mac Miller - Fight the Feeling Kendrick Lamar - Sing about me, Im Dying of Thirst Kendrick Lamar - Mortal Man Drake - Wednesday Night Interlude Drake - Pound Cake Frank Ocean - Swim good AltRockPop The 1975 - Menswear The 1975 - Antichrist Chase Atlantic - Run Away Circa Waves - T-shirt weather Electronic Atu - Vacant Ekali - Unfaith Tory Lanez Ekali mix - Henny in Hand Sosad2112 Track 1 - 10 Track 11 - 20 Track 21 - 30 Track 31 - 40 Track 41 - 50 Track 51 - 60 Track 61 - 70 Track 71 - 80 Track 81 - 90 Track 91 - 100 Track 101 - 110 Track 111 - 120 Track 121 - 130 --- DrewHarvie Summer laid back playlist Swinelordfire emoji - YABOYNICKYJay DayerCanadian Playlist Canadian Playlist Pt. 2 Detroit Playlist --- VinylZombieMCR - Pop - Pop Punk Rock --- Old School Panther Dee ImLUat the beach chillinMadkol MagicB.o.B Bang Bang Pow PowT-Pain Right Above ItLil Wayne 22Taylor Swift All I Do Is Win RemixDJ Khaled No ProblemChance The Rapper HistoryOne Direction ClassicMKTO CliqueKanye West Like ThatJack Jack Better Than RevengeTaylor Swift The Real Slim ShadyEminem I'm So PaidAkon BroccoliD.R.A.M SailAWOLNATION Hop MadnessHopsin The Story Of UsTaylor Swift SpeedomTech N9ne Look At Me NowChris Brown MercyKanye West SugarMaroon 5 Lips Are MovinMeghan Trainor Cake By The OceanDNCE Work From HomeFifth Harmony No SleepWiz Khalifa Hood Go CrazyTech N9ne You're Such AHailee Steinfeld Bad Mother FuckerMachine Gun Kelly Up Down Do This All DayT-Pain All You Had To Do Was StayTaylor Swift WorkRihanna Good LifeKanye West I'm Goin InDrake Out Of My MindB.o.B Roger ThatYoung Money OnlyNicki Minaj SmileAvril Lavigne Can't Stop The FeelingJustin Timberlake I Just Wanna PartyYG HeadbandB.o.B No HandsWaka Flock Flame GangBangWiz Khalifa Bandz A Make Her DanceJuicy J CenturiesFall Out Boy --- Trialia Spotify Summer Rewind Playlist 2018 01 - Hayley Kiyoko - Girls Like Girls 02 - Lacuna Coil - Purify 03 - Chameleon Circuit - Exterminate, Regenerate 04 - Fall Out Boy - Ghostbusters I'm Not Afraid 05 - Demi Lovato - Confident 06 - Lacuna Coil - Blood, Tears, Dust 07 - Propellerheads - Spybreak! short one 08 - Aperture Science Psychoacoustic Laboratories - Still Alive 09 - Savage Garden - I Want You 10 - Lacuna Coil - Lost Lullaby 11 - Nine Inch Nails - Sanctified 12 - Creed - Higher 13 - Savage Garden - To the Moon and Back 14 - Lacuna Coil - To Live is To Hide 15 - Carina Round - Let It Fall 16 - Counting Crows - Goodnight Elisabeth 17 - Megadeth - À Tout Le Monde Set Me Free 18 - Lacuna Coil - Upsidedown 19 - Avril Lavigne - Tomorrow 20 - Valletta - Spybreak Radio Mix 21 - Chameleon Circuit - Gallifreyan History 101 22 - Lacuna Coil - The Army Inside 23 - Savage Garden - Carry On Dancing 24 - Laura Nyro - You've Really Got A Hold On Me 25 - Enigma - Gravity of Love 26 - Lacuna Coil - Against You 27 - Within Temptation - What Have You Done 28 - Demi Lovato - Cool for the Summer 29 - Them Are Us Too - Creepy Love 30 - Chameleon Circuit - Type 40 31 - Mors Syphilitica - Ungrateful Girl 32 - Anna Nalick - Consider This 33 - DJ Quicksilver - Bellissima Radio Edit 34 - Regicide - Narcissus Echo 35 - Indigo Girls - Watershed 36 - Oasis - The Masterplan 37 - Suzanne Vega - Marlene On The Wall 38 - Rob D - Clubbed To Death Kurayamino Mix 39 - Corinne Bailey Rae - Put Your Records On 40 - Linkin Park - Castle of Glass 41 - Alanis Morissette - All I Really Want 42 - Patti Smith - Because the Night 43 - Soundgarden - Black Hole Sun 44 - Delain - Army of Dolls 45 - Massive Attack - Inertia Creeps 46 - Indigo Girls - Galileo 47 - Lacuna Coil - Wide Awake 48 - Linkin Park - Leave Out All The Rest 49 - Hayley Kiyoko - Sleepover 50 - Scott McKenzie - San Francisco Be Sure to Wear Flowers in Your Hair --- Jsaispasjsaisplus 1 - Moha La Squale - J'me balade 2 - Damso - 911 3 - Moha La Squale - Amsterdam 4 - PNL - 91's 5 - The Weeknd - I Feel It Coming --- Missblohsh 1 - One Kiss with Dua Lipa 2 - Sparks Fly 3 - Dangerous Woman 4 - Paradise City 5 - Shotgun34</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Tout allait bien avant qu'elle n'arrive Quand j'suis dans de sales draps J'vais m'faire sa meilleure amie Vu qu'elle a flashé sur moi J'suis avec ma belle depuis 5 piges Mon histoire, elle est bien triste J'crois j'vais m'la faire si elle insiste Elle sonne a pas d'heure taper l'incruste Elle me suit depuis des années Dans son enfer, je suis damné J'lui cours derrière jusqu'à l'épuisement Ça l'arrangerait si j'me fais cramer Elle s'en fout d'savoir que j'suis marié Elle est comme cette robe cellophanée Elle me suivrait jusqu'à la prison Son cur, une pétale de fleur fanée Elle est sans pitié Elle veut dicter la messe Ak, j'pense à toi j'reçois par SMS J'vois qu'j'suis dans la merde J'sais pas où cette histoire me mène Elle me fait douter d'moi-même Douter d'moi-même J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu You might also likeElle n'était pas si belle Pourtantn j'ai envie d'elle J'veux l'esquiver par tous les moyens Comment rester fidèle ? J'suis perdu Mon cur danse, j'suis perdu J'suis perdu J'rentre pas dans ses bails Gros, c'est pas la peine J'suis bien avec elle Nan, j'veux pas la perdre Sale tarée, demain t'auras pas d'appel Elle est au son Mais cette bitch pourra pas l'atteindre Elle a touché ma santé mentale Elle m'a dit tous les sentiments gagnent Attraction, on ressent les montagnes Elle me manque j'deviens sentimental À force, à force, elle a niqué mes plans La douche l'appelle, squatte le téléphone Ma femme ne me voit plus, pète les plombs Ma deuxième meuf m'aide à compter les sommes Le monde est à nous, le monde est à toi et moi Mais p't-être que sans moi le monde s'ra à toi Et p't-être que sans elle, le monde s'ra à nous Et c'est p't-être mieux ainsi J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Elle n'était pas si belle Pourtantn j'ai envie d'elle J'veux l'esquiver par tous les moyens Comment rester fidèle ? J'suis perdu Mon cur danse, j'suis perdu J'suis perdu</t>
+          <t>Tout allait bien avant qu'elle n'arrive Quand j'suis dans de sales draps J'vais m'faire sa meilleure amie Vu qu'elle a flashé sur moi J'suis avec ma belle depuis 5 piges Mon histoire, elle est bien triste J'crois j'vais m'la faire si elle insiste Elle sonne a pas d'heure taper l'incruste Elle me suit depuis des années Dans son enfer, je suis damné J'lui cours derrière jusqu'à l'épuisement Ça l'arrangerait si j'me fais cramer Elle s'en fout d'savoir que j'suis marié Elle est comme cette robe cellophanée Elle me suivrait jusqu'à la prison Son cur, une pétale de fleur fanée Elle est sans pitié Elle veut dicter la messe Ak, j'pense à toi j'reçois par SMS J'vois qu'j'suis dans la merde J'sais pas où cette histoire me mène Elle me fait douter d'moi-même Douter d'moi-même J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Elle n'était pas si belle Pourtantn j'ai envie d'elle J'veux l'esquiver par tous les moyens Comment rester fidèle ? J'suis perdu Mon cur danse, j'suis perdu J'suis perdu J'rentre pas dans ses bails Gros, c'est pas la peine J'suis bien avec elle Nan, j'veux pas la perdre Sale tarée, demain t'auras pas d'appel Elle est au son Mais cette bitch pourra pas l'atteindre Elle a touché ma santé mentale Elle m'a dit tous les sentiments gagnent Attraction, on ressent les montagnes Elle me manque j'deviens sentimental À force, à force, elle a niqué mes plans La douche l'appelle, squatte le téléphone Ma femme ne me voit plus, pète les plombs Ma deuxième meuf m'aide à compter les sommes Le monde est à nous, le monde est à toi et moi Mais p't-être que sans moi le monde s'ra à toi Et p't-être que sans elle, le monde s'ra à nous Et c'est p't-être mieux ainsi J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Elle n'était pas si belle Pourtantn j'ai envie d'elle J'veux l'esquiver par tous les moyens Comment rester fidèle ? J'suis perdu Mon cur danse, j'suis perdu J'suis perdu</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Ça retient que mon couplet sur le titre, ces négros ne comprennent pas No Ma juriste reçoit des demandes de feat mais ces négros ne s'entrainent pas No Triste fin, Christopher Nolan Eh Si j'meurs demain, que Dieu soit loué Oui J'ai fumé des heures pour être sûr d'aller loin Sûr d'aller loin Eh OG, la moula reconnaît l'espèce Saal Des bruits de couloirs d'une balle dans la tête Nwaar Une nouvlle star s'est faite assassinr Très saal La rue ne pleure qu'une fois qu'c'est fini.. Très nwaar J'ai déménagé, j'ai quitté le pays Ah oui Les fleurs ont fané, les blessures ont guéri Ah oui J'ai fait naufrage et j'ai perdu des amis Sur le rivage, j'observe les granites Sa-sa-sa-saal Les bains de foules, je m'en suis éloigné Oh la la J'm'en bats les couilles de l'intérêt des Grammy Oh la la, m'en suis éloigné J'm'en bats les couilles de l'intérêt des Grammy Eh, piou Négro, c'est pas Duty Call of C'est pas Duty Call of J'vais t'niquer ta mère et j'vais t'ramener des négros qui parlent qu'en Wolof Shoot OG, la moula reconnaît l'espèce Des bruits de couloirs d'une balle dans la tête J'suis dans l'analyse et j'rafle la mise J'fais des trucs de riche, j'fais des parts dans le SNES Saal You might also like Tu veux me suivre ? Eh-eh-eh T'as vu la lumière rajoute quelques années J'suis un personnage qu'on retiendra jamais Baby, donne-moi ta main, touche-moi le torse et le cou J'ai fait du tort à beaucoup mais j'ai ramené la monnaie Oh la la la la J'suis toujours a ça d'le prendre cet aller sans retour J'suis toujours a ça d'le prendre cet aller sans retour Ça fait des années que j'suis dans le métier J'connais la rre-gue l'FARDC J'ai vu toute sorte de chose morte, des visages en sang J'étais personne, j'étais personne, j'étais encore enfant Peur bleue, nan ne t'inquiète pas, ça ira mon garçon Quand ça s'passe mal comme un grand vide je ressens l'abandon Ces remords additionnés finiront bien par m'achever Incompris par ce monde J'ai même changé ma façon de tomber pour pas finir dans le love Quand leur façade te comble Quand le ciel tombe, ce n'est pas la pluie qui fait mal Mais les anges qui perdent leurs calme face à l'enfer, baisse les armes Mais au grand jamais de mon épargne, nan C'est pétales contre ronces Mais c'est Dieu qui gagne sur le long terme Tu veux me suivre? T'as vu la lumière rajoute quelques années J'suis un personnage qu'on retiendra jamais Baby, donne moi ta main, touche moi le torse et le cou J'ai fait du tort à beaucoup mais j'ai ramené la monnaie J'suis toujours a ça d'le prendre cet aller sans retour J'suis toujours a ça d'le prendre cet aller sans retour Ça fait des années que j'suis dans le métier J'connais la rre-gue l'FARDC</t>
+          <t>Ça retient que mon couplet sur le titre, ces négros ne comprennent pas No Ma juriste reçoit des demandes de feat mais ces négros ne s'entrainent pas No Triste fin, Christopher Nolan Eh Si j'meurs demain, que Dieu soit loué Oui J'ai fumé des heures pour être sûr d'aller loin Sûr d'aller loin Eh OG, la moula reconnaît l'espèce Saal Des bruits de couloirs d'une balle dans la tête Nwaar Une nouvlle star s'est faite assassinr Très saal La rue ne pleure qu'une fois qu'c'est fini.. Très nwaar J'ai déménagé, j'ai quitté le pays Ah oui Les fleurs ont fané, les blessures ont guéri Ah oui J'ai fait naufrage et j'ai perdu des amis Sur le rivage, j'observe les granites Sa-sa-sa-saal Les bains de foules, je m'en suis éloigné Oh la la J'm'en bats les couilles de l'intérêt des Grammy Oh la la, m'en suis éloigné J'm'en bats les couilles de l'intérêt des Grammy Eh, piou Négro, c'est pas Duty Call of C'est pas Duty Call of J'vais t'niquer ta mère et j'vais t'ramener des négros qui parlent qu'en Wolof Shoot OG, la moula reconnaît l'espèce Des bruits de couloirs d'une balle dans la tête J'suis dans l'analyse et j'rafle la mise J'fais des trucs de riche, j'fais des parts dans le SNES Saal Tu veux me suivre ? Eh-eh-eh T'as vu la lumière rajoute quelques années J'suis un personnage qu'on retiendra jamais Baby, donne-moi ta main, touche-moi le torse et le cou J'ai fait du tort à beaucoup mais j'ai ramené la monnaie Oh la la la la J'suis toujours a ça d'le prendre cet aller sans retour J'suis toujours a ça d'le prendre cet aller sans retour Ça fait des années que j'suis dans le métier J'connais la rre-gue l'FARDC J'ai vu toute sorte de chose morte, des visages en sang J'étais personne, j'étais personne, j'étais encore enfant Peur bleue, nan ne t'inquiète pas, ça ira mon garçon Quand ça s'passe mal comme un grand vide je ressens l'abandon Ces remords additionnés finiront bien par m'achever Incompris par ce monde J'ai même changé ma façon de tomber pour pas finir dans le love Quand leur façade te comble Quand le ciel tombe, ce n'est pas la pluie qui fait mal Mais les anges qui perdent leurs calme face à l'enfer, baisse les armes Mais au grand jamais de mon épargne, nan C'est pétales contre ronces Mais c'est Dieu qui gagne sur le long terme Tu veux me suivre? T'as vu la lumière rajoute quelques années J'suis un personnage qu'on retiendra jamais Baby, donne moi ta main, touche moi le torse et le cou J'ai fait du tort à beaucoup mais j'ai ramené la monnaie J'suis toujours a ça d'le prendre cet aller sans retour J'suis toujours a ça d'le prendre cet aller sans retour Ça fait des années que j'suis dans le métier J'connais la rre-gue l'FARDC</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Ho né problemi di vitto Né problemi di diritto Ma se non mi vuole Ho problemi di cuore E leva quella neve E leva quel liquore O morirò per problemi O di fegato o di cuore Né son duro di cuore Né son puro di cuore Quindi quasi sicuro Morirò di cuore Ma tu non lasciarmi fuori Dai tuoi affari di cuore Non prendermi di petto Prendimi di a cuore Tanto è già sicuro Che soffrirò di cuore Ghiaccio, vodka e cicuta E prima di andare a letto spegni il sole You might also likeNé problemi di vitto Né problemi di diritto Ma se non mi vuole Ho problemi di cuore A furia di prendere E di dare amore, senza maglia Mi si vedevano le Smagliature sul cuore Fino a che al posto del cuore Non avevo neanche più un cuore Ma solo un grumo di sangue A forma di, a forma di cuore Poi ci fu il trapianto di cuore E oggi ringrazio di cuore La persona di cuore Che mi ha ridato un cuore Che in realtà è un'albicocca Che si scalda col sole I raggi riflessi dalla sua bocca A forma di, a forma di cuore Ora che ho un cuore nuovo Posso ridere di nuovo E posso ridere di cuore E posso scrivere di cuore Si, il titolo è di cuore Si, il titolo è d'amore Si, e non ho finito Il titolo è anche D'Amico Né problemi con grasse Né problemi con basse Basta mettersi di lato, d'accordo Basta metterci il cuore Ringrazio le troie e le suore E soprattutto ringrazio di cuore La persona di cuore Che mi ha ridato un cuore Che in realtà è un'albicocca Che si sfalda al sole I raggi riflessi dalla tua bocca A forma di cuore Né problemi di tasse Né problemi di classe Ma ho problemi di cuore Se non fa più rumore Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox</t>
+          <t>Ho né problemi di vitto Né problemi di diritto Ma se non mi vuole Ho problemi di cuore E leva quella neve E leva quel liquore O morirò per problemi O di fegato o di cuore Né son duro di cuore Né son puro di cuore Quindi quasi sicuro Morirò di cuore Ma tu non lasciarmi fuori Dai tuoi affari di cuore Non prendermi di petto Prendimi di a cuore Tanto è già sicuro Che soffrirò di cuore Ghiaccio, vodka e cicuta E prima di andare a letto spegni il sole Né problemi di vitto Né problemi di diritto Ma se non mi vuole Ho problemi di cuore A furia di prendere E di dare amore, senza maglia Mi si vedevano le Smagliature sul cuore Fino a che al posto del cuore Non avevo neanche più un cuore Ma solo un grumo di sangue A forma di, a forma di cuore Poi ci fu il trapianto di cuore E oggi ringrazio di cuore La persona di cuore Che mi ha ridato un cuore Che in realtà è un'albicocca Che si scalda col sole I raggi riflessi dalla sua bocca A forma di, a forma di cuore Ora che ho un cuore nuovo Posso ridere di nuovo E posso ridere di cuore E posso scrivere di cuore Si, il titolo è di cuore Si, il titolo è d'amore Si, e non ho finito Il titolo è anche D'Amico Né problemi con grasse Né problemi con basse Basta mettersi di lato, d'accordo Basta metterci il cuore Ringrazio le troie e le suore E soprattutto ringrazio di cuore La persona di cuore Che mi ha ridato un cuore Che in realtà è un'albicocca Che si sfalda al sole I raggi riflessi dalla tua bocca A forma di cuore Né problemi di tasse Né problemi di classe Ma ho problemi di cuore Se non fa più rumore Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Un feu brûle, et j'apprends à être Bien plus que ma fatigue Bien plus que ce que cette vieille sorcière du sommeil souhaite Elle embrasse mes paupières Et je respire Tu n'as pas à briller Dit-elle en parcourant Les rouleaux que les millions De fantômes hurlants savent jouer, tout va bien Ils ne sont que ds ombres en quête d lumière Ils ne peuvent pas rester Dors maintenant, oh, dit-elle Les blagues de demain doivent encore faire rire ou être dites Repose-toi simplement, gémit-elle Puis les fantômes viennent Me versent du vin près de mon lit Et leurs hurlements morts acquiescent aux choses que j'ai dites Et disent non, non, non, non Car tu es dans la terre de mon corps Tu es dans la terre de mon corps Ma tête n'est pas tienne, elle est à moi Car tu es dans la terre de mon corps You might also likeEtrangement je bois à présent, et je lève mon verre A ce dernier homme de bien Qui m'a laissé, m'a abandonné au final Et je ris, et je ris Parce que rire désormais, c'est tout, tout ce que j'ai Tu vaux mieux que ça Dit-il alors qu'une main gifle mon visage et je me lève Et je dis non, homme de bien Je ne peux faire ça tu peux Je ne peux faire ça tu peux Je ne peux faire ça tu peux Je ne peux pas faire ça, tu ne comprends pas Oh, dors maintenant, oh, supplie-t-elle Tu n'es pas un lâche parce que tu fuis Tu es brave parce qu'ils t'ont brisé Pourtant brisé tu respires encore Alors respire, respire, juste respire Alors les fantômes me versent un autre éclat plein de verre Et je trinque à leurs talents et leur pardonne enfin Car je sais, oh, je sais, je sais Tu es dans la terre de mon corps Tu es dans la terre de mon corps Ma tête n'est pas tienne, elle est à moi Et je vais prendre mon putain de temps Car je sais, oh, je sais, je sais Enterrons ça Je suis tout à toi, mais tu es toute à moi Dansons ensemble, toi et moi Car je ne suis pas piégé avec toi, tu vois Tu es celle qui est piégée avec moi Parce que j'ai si souvent été ici Ne penses-tu pas que je suis joli Roulé en boule sur le sol de cette salle de bain? Mais où tu vois de la faiblesse, je vois de l'esprit Parfois je tombe en morceaux Juste pour voir lesquels ne s'assemblent pas Car quand je me lèverai, oh, ces gens courront Et conteront les récits de ce que je suis devenu Ils parleront de moi, oh dans des rumeurs Et diront mon nom comme s'il faisait trembler leurs os Car nous danserons ensemble si étroitement, nos souffles mêlés Mais je mène désormais, cela ne t'effraie-t-il pas à en mourir? Car je suis tout à toi, tu es toute à moi Dansons ensemble, toi et moi Parce que je ne suis pas piégé, oh avec toi, tu vois Tu es celle qui est piégée avec moi Car tu es dans la terre de mon corps Tu es dans la terre de mon corps Ma tête n'est pas tienne, elle est à moi Et je vais prendre mon putain de temps Car je sais, oh je sais</t>
+          <t>Un feu brûle, et j'apprends à être Bien plus que ma fatigue Bien plus que ce que cette vieille sorcière du sommeil souhaite Elle embrasse mes paupières Et je respire Tu n'as pas à briller Dit-elle en parcourant Les rouleaux que les millions De fantômes hurlants savent jouer, tout va bien Ils ne sont que ds ombres en quête d lumière Ils ne peuvent pas rester Dors maintenant, oh, dit-elle Les blagues de demain doivent encore faire rire ou être dites Repose-toi simplement, gémit-elle Puis les fantômes viennent Me versent du vin près de mon lit Et leurs hurlements morts acquiescent aux choses que j'ai dites Et disent non, non, non, non Car tu es dans la terre de mon corps Tu es dans la terre de mon corps Ma tête n'est pas tienne, elle est à moi Car tu es dans la terre de mon corps Etrangement je bois à présent, et je lève mon verre A ce dernier homme de bien Qui m'a laissé, m'a abandonné au final Et je ris, et je ris Parce que rire désormais, c'est tout, tout ce que j'ai Tu vaux mieux que ça Dit-il alors qu'une main gifle mon visage et je me lève Et je dis non, homme de bien Je ne peux faire ça tu peux Je ne peux faire ça tu peux Je ne peux faire ça tu peux Je ne peux pas faire ça, tu ne comprends pas Oh, dors maintenant, oh, supplie-t-elle Tu n'es pas un lâche parce que tu fuis Tu es brave parce qu'ils t'ont brisé Pourtant brisé tu respires encore Alors respire, respire, juste respire Alors les fantômes me versent un autre éclat plein de verre Et je trinque à leurs talents et leur pardonne enfin Car je sais, oh, je sais, je sais Tu es dans la terre de mon corps Tu es dans la terre de mon corps Ma tête n'est pas tienne, elle est à moi Et je vais prendre mon putain de temps Car je sais, oh, je sais, je sais Enterrons ça Je suis tout à toi, mais tu es toute à moi Dansons ensemble, toi et moi Car je ne suis pas piégé avec toi, tu vois Tu es celle qui est piégée avec moi Parce que j'ai si souvent été ici Ne penses-tu pas que je suis joli Roulé en boule sur le sol de cette salle de bain? Mais où tu vois de la faiblesse, je vois de l'esprit Parfois je tombe en morceaux Juste pour voir lesquels ne s'assemblent pas Car quand je me lèverai, oh, ces gens courront Et conteront les récits de ce que je suis devenu Ils parleront de moi, oh dans des rumeurs Et diront mon nom comme s'il faisait trembler leurs os Car nous danserons ensemble si étroitement, nos souffles mêlés Mais je mène désormais, cela ne t'effraie-t-il pas à en mourir? Car je suis tout à toi, tu es toute à moi Dansons ensemble, toi et moi Parce que je ne suis pas piégé, oh avec toi, tu vois Tu es celle qui est piégée avec moi Car tu es dans la terre de mon corps Tu es dans la terre de mon corps Ma tête n'est pas tienne, elle est à moi Et je vais prendre mon putain de temps Car je sais, oh je sais</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Big Fred Le J, Le F Lyly, Le S Damso KW Révolution, loues des apparts pour commissions Vie Rendre Juju happy c'est la mission, tire de Sova pour détection Fiufiu T'as les 30 piges ça y est, tu fais partie du clan Ah b'ah ouais La mentale à Sasuke, t'as compris, t'as mis du temps Noiiiiiir Le regard est bre-som, le survet' est rouge comme à Bergès Madafak C'est Marseille No Jutsu, invocation à toi le S SCH Café noir dans l'appartement Serré, allongé ou n'importe comment Sur l'écran, l'attaque des titans Sous les projecteurs on connait l'acteur Parmis les reufs on est tous fans T'as eu ta part, j'ai eu ma part Maé attend sa parmigiane Mise à part, elle t'a AUTOBAN Hamza You might also likeLyly, la gova c'est la mini SO Gin, Fuck Hennessy Et si, on s'y met, on s'allie, Akatsuki Hamza Damso Big H, Big S Le J, Le F Big Dams, Big Lyes 30 piges, c'est la hess Johnny C'est BX13, c'est ton année, tiens ta chanson A minuit 13, Pôle Emploi te paye ta rançon Big Fred Johnny C'est BX13, c'est ton année, tiens ta chanson A minuit 13, Pôle Emploi te paye ta rançon Crédits</t>
+          <t>Big Fred Le J, Le F Lyly, Le S Damso KW Révolution, loues des apparts pour commissions Vie Rendre Juju happy c'est la mission, tire de Sova pour détection Fiufiu T'as les 30 piges ça y est, tu fais partie du clan Ah b'ah ouais La mentale à Sasuke, t'as compris, t'as mis du temps Noiiiiiir Le regard est bre-som, le survet' est rouge comme à Bergès Madafak C'est Marseille No Jutsu, invocation à toi le S SCH Café noir dans l'appartement Serré, allongé ou n'importe comment Sur l'écran, l'attaque des titans Sous les projecteurs on connait l'acteur Parmis les reufs on est tous fans T'as eu ta part, j'ai eu ma part Maé attend sa parmigiane Mise à part, elle t'a AUTOBAN Hamza Lyly, la gova c'est la mini SO Gin, Fuck Hennessy Et si, on s'y met, on s'allie, Akatsuki Hamza Damso Big H, Big S Le J, Le F Big Dams, Big Lyes 30 piges, c'est la hess Johnny C'est BX13, c'est ton année, tiens ta chanson A minuit 13, Pôle Emploi te paye ta rançon Big Fred Johnny C'est BX13, c'est ton année, tiens ta chanson A minuit 13, Pôle Emploi te paye ta rançon Crédits</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Fuck you! Ok Chrome noir, shoot dans la peau d'un nizo qui ose parler d'tropYou might also like</t>
+          <t>Fuck you! Ok Chrome noir, shoot dans la peau d'un nizo qui ose parler d'trop</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Le cur en miettes, je dois l'admettre Mes contraintes, mes échecs me montent à la tête J'ai réussi, j'n'ai plus d'quête, j'n'ai plus de dette Quatre secondes pour cent mètres, fait le gamos que j'achète Les souvenirs de ta schneck sont tout c'qu'il me reste Négro, arrête, j'dormais sur l'bitume, je n'compte plus l'nombre de siestes Donc viens pas m'parler d'ta hess, nan, nan, j'ai passé des moments durs Et des moments seul, mes pleurs étaient sanglants Des lésions, des courbatures, rudes épreuves, des blessures en tombant J'ai pas de répondant, surtout parce que j'm'en bats les c' Corona à la lèpre, l'Afrique cesse pas d'renaître Je suis parti en courant aux mains en l'air, pas un geste, cellule encombrante You might also like Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ?</t>
+          <t>Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Le cur en miettes, je dois l'admettre Mes contraintes, mes échecs me montent à la tête J'ai réussi, j'n'ai plus d'quête, j'n'ai plus de dette Quatre secondes pour cent mètres, fait le gamos que j'achète Les souvenirs de ta schneck sont tout c'qu'il me reste Négro, arrête, j'dormais sur l'bitume, je n'compte plus l'nombre de siestes Donc viens pas m'parler d'ta hess, nan, nan, j'ai passé des moments durs Et des moments seul, mes pleurs étaient sanglants Des lésions, des courbatures, rudes épreuves, des blessures en tombant J'ai pas de répondant, surtout parce que j'm'en bats les c' Corona à la lèpre, l'Afrique cesse pas d'renaître Je suis parti en courant aux mains en l'air, pas un geste, cellule encombrante Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ?</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>La bitch m'a dit Damso J'm'en fous d'ta vie, j'veux du Dolfa Il a du style et du flow Il sait magner les mots, c't'un vrai négro Pas comme toi Mais c'que la bitch nous dit pas C'est que j'l'ai déjà fourrée deux fois ouais Une fois chez elle, une fois chez moi Ah non trois, la dernière fois chez Dolfa J'prends mon phone et je check, allô ? Dolfa ramène j'suis au Studio Y a une pétasse bien roulée qui n'arrête pas d'mouiller D'une nymphomane elle a tous les signes Mais c'que Dolfa nous dit pas C'est qu'il est à la Dolce Vita Une pizzeria du coin avec une grosse putain Ils font du sale dans les lettes-toi Allô, ouais Dolfa c'est Dems J'suis avec la bitch Elle attend qu'tu la ken depuis le mat', allô ? Elle ne veut pas de love, elle ne veut pas d'être seul J'l'amène chez toi j'la laisse sur l'matelas J'arrive ouais, j'suis en train d'bosser sur Fruity Loops Mets lui la main au panier j'viendrai la prendre dans no limit You might also like J'ai livré le colis j'ai livré le colis à Dolfa Une fille dévergondée malpolie J'ai livré le colis Dolfa va ken le colis Bonnasse, un gros cul bien joli J'ai livré le colis Dolfa tu ken ou tu ken pas ? All inclusive tant qu't'es au lit J'ai livré le colis Ken à la haine à la folie J'ai livré le colis j'ai livré le colis à Dolfa Une fille dévergondée malpolie J'ai livré le colis Dolfa va ken le colis Bonnasse, un gros cul bien joli J'ai livré le colis Dolfa tu ken ou tu ken pas ? All inclusive tant qu't'es au lit J'ai livré le colis Ken à la haine à la folie</t>
+          <t>La bitch m'a dit Damso J'm'en fous d'ta vie, j'veux du Dolfa Il a du style et du flow Il sait magner les mots, c't'un vrai négro Pas comme toi Mais c'que la bitch nous dit pas C'est que j'l'ai déjà fourrée deux fois ouais Une fois chez elle, une fois chez moi Ah non trois, la dernière fois chez Dolfa J'prends mon phone et je check, allô ? Dolfa ramène j'suis au Studio Y a une pétasse bien roulée qui n'arrête pas d'mouiller D'une nymphomane elle a tous les signes Mais c'que Dolfa nous dit pas C'est qu'il est à la Dolce Vita Une pizzeria du coin avec une grosse putain Ils font du sale dans les lettes-toi Allô, ouais Dolfa c'est Dems J'suis avec la bitch Elle attend qu'tu la ken depuis le mat', allô ? Elle ne veut pas de love, elle ne veut pas d'être seul J'l'amène chez toi j'la laisse sur l'matelas J'arrive ouais, j'suis en train d'bosser sur Fruity Loops Mets lui la main au panier j'viendrai la prendre dans no limit J'ai livré le colis j'ai livré le colis à Dolfa Une fille dévergondée malpolie J'ai livré le colis Dolfa va ken le colis Bonnasse, un gros cul bien joli J'ai livré le colis Dolfa tu ken ou tu ken pas ? All inclusive tant qu't'es au lit J'ai livré le colis Ken à la haine à la folie J'ai livré le colis j'ai livré le colis à Dolfa Une fille dévergondée malpolie J'ai livré le colis Dolfa va ken le colis Bonnasse, un gros cul bien joli J'ai livré le colis Dolfa tu ken ou tu ken pas ? All inclusive tant qu't'es au lit J'ai livré le colis Ken à la haine à la folie</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Mais qu'est-ce que c'est que ce carnage D-O-L-F-A toujours prêt pour le braquage De rime, c'est l'cyclone, crime pour les gnomes N'oublies pas ton accord parental si t'es un môme Okay, j'suis lancé, t'sais qu'tu peux plus m'stopper Un tel niveau d'hip-hop à BX c'est l'OPG Obligé de froisser tous les MC par cents T'étonnes pas man mais ton visage finira bien en sang Damso Dems ? Cyclone Big Smoke Dolfa D.R.O.P.S T'sais très bien que c'est les négros qui ne font pas de test OPG, unis dans la mort comme dans la vie Cesses de te croire supérieur on en a rien à foutre de ? Véritable j'viens du sud d'Kin, rival reste sur Terre La haine me trouve sublime, Katrina me succède Tu m'test, mec, j'te supprime, c'est Dems a.k. suprême Mon son est un supplice, les bitches sont pucelles J'veux du cash jusqu'à en crever, mais l'appendance ne nuit pas Au royaume des M.I.C. que les OPG sont rois J'vois ma vie sur un circuit et j'anticipe le virage Dans mon bateau tirant sur l'ennemi j'illumine le rivage Aucune rumeur sur Damso elle passe de glock à oreille J'suis pas d'humeur viens pas m'tester ou je te casserais l'orteil J'ai du cash, j'ai des go, qu'elles soient blanches, black ou ? J'finirais peut-être à la rue que si les routes sont en or OPGangstaYou might also like2</t>
+          <t>Mais qu'est-ce que c'est que ce carnage D-O-L-F-A toujours prêt pour le braquage De rime, c'est l'cyclone, crime pour les gnomes N'oublies pas ton accord parental si t'es un môme Okay, j'suis lancé, t'sais qu'tu peux plus m'stopper Un tel niveau d'hip-hop à BX c'est l'OPG Obligé de froisser tous les MC par cents T'étonnes pas man mais ton visage finira bien en sang Damso Dems ? Cyclone Big Smoke Dolfa D.R.O.P.S T'sais très bien que c'est les négros qui ne font pas de test OPG, unis dans la mort comme dans la vie Cesses de te croire supérieur on en a rien à foutre de ? Véritable j'viens du sud d'Kin, rival reste sur Terre La haine me trouve sublime, Katrina me succède Tu m'test, mec, j'te supprime, c'est Dems a.k. suprême Mon son est un supplice, les bitches sont pucelles J'veux du cash jusqu'à en crever, mais l'appendance ne nuit pas Au royaume des M.I.C. que les OPG sont rois J'vois ma vie sur un circuit et j'anticipe le virage Dans mon bateau tirant sur l'ennemi j'illumine le rivage Aucune rumeur sur Damso elle passe de glock à oreille J'suis pas d'humeur viens pas m'tester ou je te casserais l'orteil J'ai du cash, j'ai des go, qu'elles soient blanches, black ou ? J'finirais peut-être à la rue que si les routes sont en or OPGangsta2</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Fais pas l'amour à une femme comme un homme La Bible dit qu'c'est une abomination Alors à chaque fois qu'je t'encule J'demande pardon au ciel pour faute dinattention Amen J'suis pas là pour faire la morale La morale a fait de moi c'que je suis devenu Ma vie s'inspire d'la SABAM Plus tu gagnes du blé, plus j'te baise sans retenue J'compte pas obtenir de diplôme Comme Dolfa, négro, pour moi la school c'est finished Vers le succès je marche, j'ai des ampoules aux pieds À chacun d'mes pas c't'un remake de Billie Jean Jackson La vie ne fait aucun cadeau Le Père Noël n'existe pas dans la rue Passeur avec des produits illégaux Les keufs t'attrapent, négro, tu n'm'as jamais vu John Doe Un gun, un flow, j'te tire dessus Et j'te transperce le dard J'vois jamais d'courses de spermato' Mais j'donne beaucoup de départs J'suis dans le Pacifique dit-on, je débite des proses et des vers Je suis un pacifiste quiconque me défie repose en paix Le silence est d'or donc chut, quand je t'encule ne crie pas J'veux entendre que le frottement des pores Et le bruit des mes grosses testicules sur ton 'uc Grosse pute, tu crois que t'es où là !? Toi et ta schnek, allez faire de la mula Ramène l'oseille à mes youvois J'n'ai aucun remord, t'es Sarah Connor Je suis Terminator dans ta tte-cha Schwarzy You might also like Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Ma fille si j'prends pour 10 ans ferme Ne noie pas ton chagrin dans du sperme Nager Va prendre le Glock dans la chambre de Papa Ensuite tu le donneras à tonton Dolfa Qui s'en servira contre la grosse lope-sa Et c'est seulement quand cette balance avouera Que tu lui diras de l'enculer de sorte à ce que plus jamais son trou se referme OPG déclasse leurs teams 'Vont chercher renfort en franc-maçonnerie Le sang remplace l'encre de Chine Le bruit de ta mort remplace ma sonnerie Allô Il n'y a rien de plus dangereux que la main tendue J'veux pas ton aide, évitons d'gros litiges Un cadeau empoisonné bien vendu Une mère porteuse séropositive Ils sont comme chaussures devant mosquée Sont recalés à l'entrée, vont devoir rentrer pioncer Yeurmé à vie, rien n'est nuancé J'te vois comme Jay Z voit Beyoncé Une salope que j'n'ai pas besoin de financer Un bustier en I qui se finit en C Gros cul Mes sons passent en club, t'es ambiancé Seuls les darons sont mes créanciers Ta meuf a un anneau dans le ventre Je l'ai doigtée au point que j'en suis passé entre In Autrement dit nous sommes fiancés Yes Balance j't'en prie va nous dénoncer ! Snitch T'façon les preuves sont déjà dissimulées Fais tout ce qui rémunère, le nègre est affamé Ne me demandez pas quelle est ma mission sur Terre J'suis débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais</t>
+          <t>Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Fais pas l'amour à une femme comme un homme La Bible dit qu'c'est une abomination Alors à chaque fois qu'je t'encule J'demande pardon au ciel pour faute dinattention Amen J'suis pas là pour faire la morale La morale a fait de moi c'que je suis devenu Ma vie s'inspire d'la SABAM Plus tu gagnes du blé, plus j'te baise sans retenue J'compte pas obtenir de diplôme Comme Dolfa, négro, pour moi la school c'est finished Vers le succès je marche, j'ai des ampoules aux pieds À chacun d'mes pas c't'un remake de Billie Jean Jackson La vie ne fait aucun cadeau Le Père Noël n'existe pas dans la rue Passeur avec des produits illégaux Les keufs t'attrapent, négro, tu n'm'as jamais vu John Doe Un gun, un flow, j'te tire dessus Et j'te transperce le dard J'vois jamais d'courses de spermato' Mais j'donne beaucoup de départs J'suis dans le Pacifique dit-on, je débite des proses et des vers Je suis un pacifiste quiconque me défie repose en paix Le silence est d'or donc chut, quand je t'encule ne crie pas J'veux entendre que le frottement des pores Et le bruit des mes grosses testicules sur ton 'uc Grosse pute, tu crois que t'es où là !? Toi et ta schnek, allez faire de la mula Ramène l'oseille à mes youvois J'n'ai aucun remord, t'es Sarah Connor Je suis Terminator dans ta tte-cha Schwarzy Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Ma fille si j'prends pour 10 ans ferme Ne noie pas ton chagrin dans du sperme Nager Va prendre le Glock dans la chambre de Papa Ensuite tu le donneras à tonton Dolfa Qui s'en servira contre la grosse lope-sa Et c'est seulement quand cette balance avouera Que tu lui diras de l'enculer de sorte à ce que plus jamais son trou se referme OPG déclasse leurs teams 'Vont chercher renfort en franc-maçonnerie Le sang remplace l'encre de Chine Le bruit de ta mort remplace ma sonnerie Allô Il n'y a rien de plus dangereux que la main tendue J'veux pas ton aide, évitons d'gros litiges Un cadeau empoisonné bien vendu Une mère porteuse séropositive Ils sont comme chaussures devant mosquée Sont recalés à l'entrée, vont devoir rentrer pioncer Yeurmé à vie, rien n'est nuancé J'te vois comme Jay Z voit Beyoncé Une salope que j'n'ai pas besoin de financer Un bustier en I qui se finit en C Gros cul Mes sons passent en club, t'es ambiancé Seuls les darons sont mes créanciers Ta meuf a un anneau dans le ventre Je l'ai doigtée au point que j'en suis passé entre In Autrement dit nous sommes fiancés Yes Balance j't'en prie va nous dénoncer ! Snitch T'façon les preuves sont déjà dissimulées Fais tout ce qui rémunère, le nègre est affamé Ne me demandez pas quelle est ma mission sur Terre J'suis débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Jusqu'ici, tout va bien, enfin, ça allait Confiante, t'as peur de rien avant de tomber On verra bien demain, mais ça, plus jamais J'ai pas l'air de m'en faire, mais si vous saviez Comment c'est dans ma tête, ça me fait vriller L'angoisse me fait la guerre et part en fumée Jour après jour, je m'habitue À mes ennemis qui me tuent Et j'apprendrai toutes les vertus Oh, jour après jour, je m'habitue Quand j'en attends trop, j'suis déçue Mais grâce à ça, moi, j'évolue Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom, oh-oh Si la magie opère, tous, ils tomberont, hey Comment faire pour tuer mes démons ? Tuer mes démons Mes démons Ah bah ouais, mes démons Bah, ok Mes démons Ah bah ouais, mes démons Bah, ok Mes démons Ah bah ouais, mes démons Bah, ok Mes démons Bang, ah bah ouais You might also like J'feate avec Angèle, pas d'gros mots, radio, faut qu'on passe Au lieu d'un nique ta- non, non, j'dirai grand bien leur fasse Portefeuille achromate ne voit que violet, vert, ice J'suis dans la zone, rageux me suivent à la trace Comment faire pour tuer les haineux ? Juste en n'en parlant plus Ces faux rappeurs, non, font moins de vues qu'j'ai d'albums vendus Très sincèrement, si je m'en vais, je n'reviendrai plus B'soin d'explorer autre chose, me perdre dans le cosmos Ils parlèrent dans mon dos couvert de vêtements chers italiens Dans leur derrière, j'f'rai un don de quelques futurs homo sapiens J'suis l'avatar du game et j'maîtrise les quatre éléments J'rappe, je chante, j'produis, j'écris pour les gens Je sais comment faire pour tuer tes démons Comment faire pour tuer mes démons ? Démons, Dé-démons Comme un ange en enfer, j'oublie mon nom, eh-eh-eh No, no Si la magie opère, tous, ils tomberont, eh Ah bah ouais, ah bah ouais Comment faire pour tuer mes démons ? Tuer mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons, démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom Si la magie opère, tous, ils tomberont, oh-oh Comment faire pour tuer mes démons ? Tuer mes démons Hmm, hmm</t>
+          <t>Jusqu'ici, tout va bien, enfin, ça allait Confiante, t'as peur de rien avant de tomber On verra bien demain, mais ça, plus jamais J'ai pas l'air de m'en faire, mais si vous saviez Comment c'est dans ma tête, ça me fait vriller L'angoisse me fait la guerre et part en fumée Jour après jour, je m'habitue À mes ennemis qui me tuent Et j'apprendrai toutes les vertus Oh, jour après jour, je m'habitue Quand j'en attends trop, j'suis déçue Mais grâce à ça, moi, j'évolue Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom, oh-oh Si la magie opère, tous, ils tomberont, hey Comment faire pour tuer mes démons ? Tuer mes démons Mes démons Ah bah ouais, mes démons Bah, ok Mes démons Ah bah ouais, mes démons Bah, ok Mes démons Ah bah ouais, mes démons Bah, ok Mes démons Bang, ah bah ouais J'feate avec Angèle, pas d'gros mots, radio, faut qu'on passe Au lieu d'un nique ta- non, non, j'dirai grand bien leur fasse Portefeuille achromate ne voit que violet, vert, ice J'suis dans la zone, rageux me suivent à la trace Comment faire pour tuer les haineux ? Juste en n'en parlant plus Ces faux rappeurs, non, font moins de vues qu'j'ai d'albums vendus Très sincèrement, si je m'en vais, je n'reviendrai plus B'soin d'explorer autre chose, me perdre dans le cosmos Ils parlèrent dans mon dos couvert de vêtements chers italiens Dans leur derrière, j'f'rai un don de quelques futurs homo sapiens J'suis l'avatar du game et j'maîtrise les quatre éléments J'rappe, je chante, j'produis, j'écris pour les gens Je sais comment faire pour tuer tes démons Comment faire pour tuer mes démons ? Démons, Dé-démons Comme un ange en enfer, j'oublie mon nom, eh-eh-eh No, no Si la magie opère, tous, ils tomberont, eh Ah bah ouais, ah bah ouais Comment faire pour tuer mes démons ? Tuer mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons, démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom Si la magie opère, tous, ils tomberont, oh-oh Comment faire pour tuer mes démons ? Tuer mes démons Hmm, hmm</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>- Bonjour papa. Aujourd'hui, j'ai vu des poissons. Ils s'appellent comment, leurs noms ? - Heu, les poissons clowns. Heu, les piranhas... - Des piranhas, on a vu des piranhas, on a vu des poissons, on a vu des, des escargots, on a vu des poissons et des requins et des hippo... Hein ? Des a... des toiles de mer aussi, des deux toiles de mer Doucement, doucement Ne joue pas avec mes nerfs et mes sentiments Jme sens déjà très mal car mon fils me manque Jsuis plus avec sa mère et les bitches le savent, pourtant, elles m'disent que j'ai changé Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même, jai changé Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même Jai perdu des proches, certains sont pas morts, ils ont juste fait les traîtres Faut pas lapprocher car cest juste pour les fesses Jai limpression que, rien, cest tout cquil me reste Quand la nuit sachève, jpars avec elle, jplane Dans les quatre directions comme Off-White Jprends la dernière ligne de ma deadline Ce sont les bouts de mon cur brisé qui blessent, quand on le touche, on y reste, Dems You might also like Doucement, doucement Ne joue pas avec mes nerfs et mes sentiments Jme sens déjà très mal car mon fils me manque Jsuis plus avec sa mère et les bitches le savent, pourtant, elles m'disent que j'ai changé Ouh Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même, jai changé Ouh Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même Tu sais le silence ne fait que cinq bruits, celui du regret, celui du pourquoi jlai pas fait ? Pourquoi jlai pas dit ? Pourquoi jvais taffer ? Celui du battement dcur qui nsarrête pas car il a quune seule vie Ouais, cest vrai que jpense un peu trop Parce que jveux pas être le même quhier Parce que jveux pas faire les mêmes erreurs Mettre ma carrière avant lamour, tu mas changé</t>
+          <t>- Bonjour papa. Aujourd'hui, j'ai vu des poissons. Ils s'appellent comment, leurs noms ? - Heu, les poissons clowns. Heu, les piranhas... - Des piranhas, on a vu des piranhas, on a vu des poissons, on a vu des, des escargots, on a vu des poissons et des requins et des hippo... Hein ? Des a... des toiles de mer aussi, des deux toiles de mer Doucement, doucement Ne joue pas avec mes nerfs et mes sentiments Jme sens déjà très mal car mon fils me manque Jsuis plus avec sa mère et les bitches le savent, pourtant, elles m'disent que j'ai changé Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même, jai changé Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même Jai perdu des proches, certains sont pas morts, ils ont juste fait les traîtres Faut pas lapprocher car cest juste pour les fesses Jai limpression que, rien, cest tout cquil me reste Quand la nuit sachève, jpars avec elle, jplane Dans les quatre directions comme Off-White Jprends la dernière ligne de ma deadline Ce sont les bouts de mon cur brisé qui blessent, quand on le touche, on y reste, Dems Doucement, doucement Ne joue pas avec mes nerfs et mes sentiments Jme sens déjà très mal car mon fils me manque Jsuis plus avec sa mère et les bitches le savent, pourtant, elles m'disent que j'ai changé Ouh Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même, jai changé Ouh Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même Tu sais le silence ne fait que cinq bruits, celui du regret, celui du pourquoi jlai pas fait ? Pourquoi jlai pas dit ? Pourquoi jvais taffer ? Celui du battement dcur qui nsarrête pas car il a quune seule vie Ouais, cest vrai que jpense un peu trop Parce que jveux pas être le même quhier Parce que jveux pas faire les mêmes erreurs Mettre ma carrière avant lamour, tu mas changé</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Nan, Dieu ne ment jamais Pour être honnête, j'sais pas faire autrement, ma haine na pas su cicatriser La musique, j'l'aimais jusquà c'que j'sois dedans, contrats véreux veulent me faire signer Personne t'aimera comme moi m'a dit Maman, si c'n'est le joint que j'vais rouler Qui mfra oublier méchanceté d'ce monde ? Le diable et son fessier bien roulé Très loin des maisons de disques mais près de mon public avisé Très loin des vntes et des chiffrs mais près de la musicalité Regarde au-dssus, il n'y a plus de nuages, la pluie ne risque pas de tomber Regarde mon cur, il n'a plus de grillage mais personne ne risque d'y entrer Labsence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours J'les porte dans mon cur, ils me portent l'il, j'ai tué le game et j'ai fait le deuil Négro me dit qu'on est ensemble mais qu'en cas d'échec, j's'rai tout seul Sperme dans la bouche, elle aime le goût du risque, elle croit pas en moi mais veut être sur la liste J'ai qu'un seul amour, c'est la chanson, solitaire, j'n'ai pas d'besoin d'attention Je tire et je tue, tu meurs et c'est tout, t'avais qu'à fermer ta grande gueule Je tire et je fume, j'm'en vais sur la Lune, loin des perquis' à Argenteuil Esprit torturé, douleur intestinale, j'ai avalé méchanceté de l'Homme J'l'ai digéré, j'ai pris le bien du mal, j'me sens comme Adam juste avant la pomme You might also like L'absence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours À chaque fois qu'je sors sans prendre des sous, la vie me rappelle que je viens de loin Pique dans le dos tel le sombre hérisson, trahison sponso' par Louboutin J'serre plus de meufs que de mains, le genre masculin, je m'en méfie Trous écartés, genoux fléchis, biatch, j'connais d'jà fin du récit Enfermé dans cellule, je désaoule, j'reprends conscience de mes soucis Dans son vagin, je me défoule, à chaque je t'aime, je me détruis Pour elle, j'suis tout autre chose que Damso, elle voit en moi c'que je n'vois plus Métissé comme touche de piano, entre le vivre et le vécu J'fais un malaise eucharistique, j'suis entre sucré et salé Le diable se cache derrière l'artistique, pour milieu d'la musique, j'étais pas prêt La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours L'absence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours</t>
+          <t>Nan, Dieu ne ment jamais Pour être honnête, j'sais pas faire autrement, ma haine na pas su cicatriser La musique, j'l'aimais jusquà c'que j'sois dedans, contrats véreux veulent me faire signer Personne t'aimera comme moi m'a dit Maman, si c'n'est le joint que j'vais rouler Qui mfra oublier méchanceté d'ce monde ? Le diable et son fessier bien roulé Très loin des maisons de disques mais près de mon public avisé Très loin des vntes et des chiffrs mais près de la musicalité Regarde au-dssus, il n'y a plus de nuages, la pluie ne risque pas de tomber Regarde mon cur, il n'a plus de grillage mais personne ne risque d'y entrer Labsence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours J'les porte dans mon cur, ils me portent l'il, j'ai tué le game et j'ai fait le deuil Négro me dit qu'on est ensemble mais qu'en cas d'échec, j's'rai tout seul Sperme dans la bouche, elle aime le goût du risque, elle croit pas en moi mais veut être sur la liste J'ai qu'un seul amour, c'est la chanson, solitaire, j'n'ai pas d'besoin d'attention Je tire et je tue, tu meurs et c'est tout, t'avais qu'à fermer ta grande gueule Je tire et je fume, j'm'en vais sur la Lune, loin des perquis' à Argenteuil Esprit torturé, douleur intestinale, j'ai avalé méchanceté de l'Homme J'l'ai digéré, j'ai pris le bien du mal, j'me sens comme Adam juste avant la pomme L'absence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours À chaque fois qu'je sors sans prendre des sous, la vie me rappelle que je viens de loin Pique dans le dos tel le sombre hérisson, trahison sponso' par Louboutin J'serre plus de meufs que de mains, le genre masculin, je m'en méfie Trous écartés, genoux fléchis, biatch, j'connais d'jà fin du récit Enfermé dans cellule, je désaoule, j'reprends conscience de mes soucis Dans son vagin, je me défoule, à chaque je t'aime, je me détruis Pour elle, j'suis tout autre chose que Damso, elle voit en moi c'que je n'vois plus Métissé comme touche de piano, entre le vivre et le vécu J'fais un malaise eucharistique, j'suis entre sucré et salé Le diable se cache derrière l'artistique, pour milieu d'la musique, j'étais pas prêt La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours L'absence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Donne, donne-moi ton coeur vide d'amour Pour combler le mien qui attend ton amour Allez donne, donne et ne dis rien Même si demain, tu dois le reprendre Donne, donne-moi le droit de t'enlacer Te serrer très fort et puis t'embrasser Allez donne donne et détends-toi Entre nous, pourquoi te défendre ? Ne prends pas je t'en supplie l'air étonné Ne fais pas semblant de ne pas savoir Tu sais, que j'attends un espoir, tu sais, ce dont je veux parler Aussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne, donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre mes bras Donne, donne-moi ton coeur et parle-moi Dis-moi simplement les mots qui sont en toi Allez dis, dis-moi doucement Presqu'en chuchotant ces mots à l'oreille Donne, donne-moi le droit à tes côtés De fermer les yeux afin de mieux rêver Allez dis, dis pour que ta voix S'infiltrant en moi, m'émerveille J'ai beau te parler, tu ne me réponds pas si c'est par excès de timidité Tu vois le plus dur est passé, tu vois j'ai fait le premier pas You might also likeAussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre</t>
+          <t>Donne, donne-moi ton coeur vide d'amour Pour combler le mien qui attend ton amour Allez donne, donne et ne dis rien Même si demain, tu dois le reprendre Donne, donne-moi le droit de t'enlacer Te serrer très fort et puis t'embrasser Allez donne donne et détends-toi Entre nous, pourquoi te défendre ? Ne prends pas je t'en supplie l'air étonné Ne fais pas semblant de ne pas savoir Tu sais, que j'attends un espoir, tu sais, ce dont je veux parler Aussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne, donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre mes bras Donne, donne-moi ton coeur et parle-moi Dis-moi simplement les mots qui sont en toi Allez dis, dis-moi doucement Presqu'en chuchotant ces mots à l'oreille Donne, donne-moi le droit à tes côtés De fermer les yeux afin de mieux rêver Allez dis, dis pour que ta voix S'infiltrant en moi, m'émerveille J'ai beau te parler, tu ne me réponds pas si c'est par excès de timidité Tu vois le plus dur est passé, tu vois j'ai fait le premier pas Aussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>NwaarYou might also like</t>
+          <t>Nwaar</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Damso motherfucker dems Yo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Yoo Voici le son qui tue, je compatis quand t'es battus Botté le cul, c'est OPG c'est plus que sûr Que le beat cogne comme une catapulte En tant qu'aldute fait pas ta pute Si j'tape le mic j'veux pas d'insulte Sinon Damso et son équipe vont te cogner dur comme des brutes Daaamn, Mais quel flow à l'excès Ils ont bloqué les portes j'men fou j'ai la clé du succès J'foutrais le boxon, avant d'me sauvr sans qu'il ait de soupçon Des MC dorment la bouch ouverte rêvant d'me sucer Trop de sursauts chaque fois qu'mon flow tabasse le micro Casser les vitraux, LS3 in vitro, ils s'disent trop Tous que, j'suis un p'tit négro Mais si j'les r'trouvent ils verront ma scie du Brico Pénétrer leurs thorax, logé dans le larynx sortir de la relax Revenir dans le pharynx rien a foutre des menaces Qu'tu sois balèze ou minces N'joue pas trop les tenace vu qu'tu fuiras comme Clarence You might also likeC'est Damso motherfucker OPG Ça kick au scalpel rue du temps des MOP J'fais des polémiques, j'ai no limit, je kick débite Ta clique m'évite, très vite raplique Mes acolytes explosé comme des frigolite Cosmopolite j'suis d'partout et partout je fais du lourd J'suis hors de prix j'aurai pas d'billet sur ma tête comme Zemmour Des hurlements quand j'kick le mic' directement sur l'mur tu likes Mais qu'est ce que c'est ce flow qui vient de ce négro qui n'attends que les punchlines Oooouuuuuh Mais bon normalement c'est normal c'est l'minimum Pourquoi tu minimises comme Amine j'sortirai l'magnum Et boum badaboum dans la tête c'était l'auteur, interprète Damso motherfucker dems Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo DEMS1</t>
+          <t>Damso motherfucker dems Yo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Yoo Voici le son qui tue, je compatis quand t'es battus Botté le cul, c'est OPG c'est plus que sûr Que le beat cogne comme une catapulte En tant qu'aldute fait pas ta pute Si j'tape le mic j'veux pas d'insulte Sinon Damso et son équipe vont te cogner dur comme des brutes Daaamn, Mais quel flow à l'excès Ils ont bloqué les portes j'men fou j'ai la clé du succès J'foutrais le boxon, avant d'me sauvr sans qu'il ait de soupçon Des MC dorment la bouch ouverte rêvant d'me sucer Trop de sursauts chaque fois qu'mon flow tabasse le micro Casser les vitraux, LS3 in vitro, ils s'disent trop Tous que, j'suis un p'tit négro Mais si j'les r'trouvent ils verront ma scie du Brico Pénétrer leurs thorax, logé dans le larynx sortir de la relax Revenir dans le pharynx rien a foutre des menaces Qu'tu sois balèze ou minces N'joue pas trop les tenace vu qu'tu fuiras comme Clarence C'est Damso motherfucker OPG Ça kick au scalpel rue du temps des MOP J'fais des polémiques, j'ai no limit, je kick débite Ta clique m'évite, très vite raplique Mes acolytes explosé comme des frigolite Cosmopolite j'suis d'partout et partout je fais du lourd J'suis hors de prix j'aurai pas d'billet sur ma tête comme Zemmour Des hurlements quand j'kick le mic' directement sur l'mur tu likes Mais qu'est ce que c'est ce flow qui vient de ce négro qui n'attends que les punchlines Oooouuuuuh Mais bon normalement c'est normal c'est l'minimum Pourquoi tu minimises comme Amine j'sortirai l'magnum Et boum badaboum dans la tête c'était l'auteur, interprète Damso motherfucker dems Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo DEMS1</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Ouais, ouais, ouais, ouais, ouais Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine No, no Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine Sérré est le virage Virage, je poursuis le bonheur à la nage Nage Mon cur est plein de rage Rage, automatique est le pilotage Des amis et des ennemis 'mis, 'mis, 'mis, 'mis, 'mis La money, money qui divise, oui Oui, oui, oui, oui Parallèle est l'économie 'mie, 'mie, 'mie, 'mie Des délits commis après minuit Hey-hey La où le vent me mène, il n'y a que des problèmes 'blèmes, 'blèmes, 'blèmes Pour esquiver misère, j'ai créé mon emblème Kobo, Kobo, Kobo Je suis si loin des Bahamas dans les rues de Bruxelles City Je m'évade à Montparnasse dans ma chambre d'hôtel Eh-eh You might also like Fumée épaisse, seul dans la pièce Silence m'apaise, efface le stress Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine No, no Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine Ouh-ouh, eh-eh Fe-Fe, vaisseau, mojo, gue-dro, Dems, Nwaar, Kobo Plus dans le binks, plus dans le ghetto, cinq lettres pour cinq zéros, le show Oh oui Le négro a trouvé la taupe Rrah, le Magnum a troué la peau Bang, bang Tes fesses artisanales tapent le macadam, doggy, solide, OG, te-shi Pétasse ravie fuma trop vite, blackout, se souvient de rien Hein-hein Moula, shopping, cent mille, Fendi, Gucci, Balmain Hein-hein J'suis auprès de Dieu mais mon âme glisse entre ses mains Ouh-ouh Fumée épaisse, j'suis dans la caisse, négro fonce-dé Ppe-f' Ta meuf, j'en f'rai ma pute, faut pas présenter Biatch Mon avenir à la traîne, j'suis tout seul l'âme en peine, ouais De l'eau-de-vie dans les veines, j'parle que pour m'la raconter Ouh-ouh, eh-eh Fumée épaisse Eh, seul dans la pièce Silence m'apaise Eh, efface le stress Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine No, no Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine Ah1</t>
+          <t>Ouais, ouais, ouais, ouais, ouais Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine No, no Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine Sérré est le virage Virage, je poursuis le bonheur à la nage Nage Mon cur est plein de rage Rage, automatique est le pilotage Des amis et des ennemis 'mis, 'mis, 'mis, 'mis, 'mis La money, money qui divise, oui Oui, oui, oui, oui Parallèle est l'économie 'mie, 'mie, 'mie, 'mie Des délits commis après minuit Hey-hey La où le vent me mène, il n'y a que des problèmes 'blèmes, 'blèmes, 'blèmes Pour esquiver misère, j'ai créé mon emblème Kobo, Kobo, Kobo Je suis si loin des Bahamas dans les rues de Bruxelles City Je m'évade à Montparnasse dans ma chambre d'hôtel Eh-eh Fumée épaisse, seul dans la pièce Silence m'apaise, efface le stress Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine No, no Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine Ouh-ouh, eh-eh Fe-Fe, vaisseau, mojo, gue-dro, Dems, Nwaar, Kobo Plus dans le binks, plus dans le ghetto, cinq lettres pour cinq zéros, le show Oh oui Le négro a trouvé la taupe Rrah, le Magnum a troué la peau Bang, bang Tes fesses artisanales tapent le macadam, doggy, solide, OG, te-shi Pétasse ravie fuma trop vite, blackout, se souvient de rien Hein-hein Moula, shopping, cent mille, Fendi, Gucci, Balmain Hein-hein J'suis auprès de Dieu mais mon âme glisse entre ses mains Ouh-ouh Fumée épaisse, j'suis dans la caisse, négro fonce-dé Ppe-f' Ta meuf, j'en f'rai ma pute, faut pas présenter Biatch Mon avenir à la traîne, j'suis tout seul l'âme en peine, ouais De l'eau-de-vie dans les veines, j'parle que pour m'la raconter Ouh-ouh, eh-eh Fumée épaisse Eh, seul dans la pièce Silence m'apaise Eh, efface le stress Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine No, no Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine Ah1</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Orghh Damso, Damso ouais Pierre métallique sur la tempe, je tire Semi-automatique, sur la nuque j'ai la trique J'vais les niquer, fils de pute dans ma ligne de mire Orgh Damso, Damso ouais De rotule seul sur un simple rôde-t-il Chill avec ma team, vrai négro trop d'mélanine Pute de grosse salope à 1500 euros j'ai la bitch Suce ma motherfuck de black Suce ma motherfuck oh Un grand motherfucker glock, bang, motherfuck up Trop défoncé je me saoule, dpuis le mic je saigne Ds crampes aux poignées, douleur héreditaire à l'échelle Ah Damso, motherfucker Damso Trafic de , ma geule moi c'est poulet Controle musclé, plus besoin de faire du fitness Crie pas Amen, même si j'aime me faire prier Depuis Brouillard des likes et des j'aime, des scènes et des fans J'mets le cap sur océan de mots, dans bateau de punch-line Moi c'est Krisy ou bien De La Fuentes Ma tête en fond d'écran, j'sais que ta go sonries Fuentes J'viens pas de la province que quieres? mais j'vise le palmares du gars Morientes Fuentes Hola que tal?, flow rock'n'roll j'peux même rouiller le métal Et si tu veux faire un truc à distance t'inquiètes pas on s'arrange j'ai un nouveau compte PayPal Ma plume se rapproche de la lune, pendant que toi tu rêves d'être une vulgaire star Pas de problème on en reparlera plus tard D'ici là j'espère que tu garderas bien ton fut J'prépare c'que les belges ont jamais fait, donc Pour les français c'est du jamais-vu Mais pour l'instant rendez-vous le 9 mai, viens nous voir tu ne seras pas déçu Ramène tes copinesYou might also like1</t>
+          <t>Orghh Damso, Damso ouais Pierre métallique sur la tempe, je tire Semi-automatique, sur la nuque j'ai la trique J'vais les niquer, fils de pute dans ma ligne de mire Orgh Damso, Damso ouais De rotule seul sur un simple rôde-t-il Chill avec ma team, vrai négro trop d'mélanine Pute de grosse salope à 1500 euros j'ai la bitch Suce ma motherfuck de black Suce ma motherfuck oh Un grand motherfucker glock, bang, motherfuck up Trop défoncé je me saoule, dpuis le mic je saigne Ds crampes aux poignées, douleur héreditaire à l'échelle Ah Damso, motherfucker Damso Trafic de , ma geule moi c'est poulet Controle musclé, plus besoin de faire du fitness Crie pas Amen, même si j'aime me faire prier Depuis Brouillard des likes et des j'aime, des scènes et des fans J'mets le cap sur océan de mots, dans bateau de punch-line Moi c'est Krisy ou bien De La Fuentes Ma tête en fond d'écran, j'sais que ta go sonries Fuentes J'viens pas de la province que quieres? mais j'vise le palmares du gars Morientes Fuentes Hola que tal?, flow rock'n'roll j'peux même rouiller le métal Et si tu veux faire un truc à distance t'inquiètes pas on s'arrange j'ai un nouveau compte PayPal Ma plume se rapproche de la lune, pendant que toi tu rêves d'être une vulgaire star Pas de problème on en reparlera plus tard D'ici là j'espère que tu garderas bien ton fut J'prépare c'que les belges ont jamais fait, donc Pour les français c'est du jamais-vu Mais pour l'instant rendez-vous le 9 mai, viens nous voir tu ne seras pas déçu Ramène tes copines1</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Yo, uh woooo!! I like this, hit that light for me Yeah woooo!! My nigga 'troeze, Patroeze Yo, yo, yo Yo, we lost niggas, pour liquor that's more swishers We known for lettin' 'em go, call us the four fifthers Run up in ya spot, they call us the door kickers Or we can have a party just as long as there's whores with us We can do it big, jet skis and four wheelers Pop a couple Spades, I might let you ball with us Hit a couple stings, nothin' personal, raw bid'ness Built my name up, and now I'm on verses with raw niggas I be lettin' off, and know myself I'll probably bet it all bet it all Ya bitch crib, I get my nut and then I'm jettin' off SKRRT! Ya bitch don't respect you to me that says it all I sold a little everything, I think I bled it all, I bled it all I'm prayin' for my niggas sellin' Fentanyl I said a prayer to my niggas And rest in peace to all my niggas dead and gone dead and gone Yeah, The Butcher comin', nigga I said rest in peace to all my niggas You might also like Look, I get dressed, put on my shoes, nah my hammer was first Bulletproof the whip I use to take my grandma to church I went gram for gram with the work, hand-to-hand on the first Everybody who hatin' now was a fan of us first facts Look, underdog, what? what? What you wanna bet? Let's put a hunnid more up Nigga, the summer all us I'm in two whips, one a Tahoe, one a tour bus Got so many straps with us, we can start a war up It's a real safe hazard if you still yay traffick Show where that money comin' from, still pay taxes The IRS comin', and they seal fate faster Start a bid'ness in the building that you still make racks in I learnt from my losses, stripes I earnt from the bosses Whippin' deuces 'til them hoopties turned into Porsches I curve bitches often, lies, I heard bitches talkin' How she mines, I send a text back, these bird bitches stalkin' You gotta be careful, these hoes think they fancy I just want my dick sucked, she wanna start a family She average, get her taxes and go to Miami With this kind of status, I'll probably go to the Grammy's aaow! I know niggas hate me, I came out the trenches trenches On some new shit, but some way sounded vintage uh Paypal or credit, send that cake ? I will I'm the real definition how you stay down and get it I be the next Nasir, if they judged us off skill Got ya bitch in the middle, Times Square, Lauryn Hill Told her my phone was dead, she wrote her number on a bill Off-white paint on my jacket look like a spill Niggas played last year, but watch the price shoot up All black entourage dressed just like shooters You spend ya life with her, me, I gave a night to her 'Cause Drake told these bitches they don't gotta be nice to us Thousand grams on the plate that's what my preference was So I had interviews with connects, and not The Breakfast Club Facts, he told me 26, it was 30 before that I hurried and score that, you was dirty before rap, nigga, AHH! Black Soprano niggas tie you up The-The-The Butcher Black Soprano niggas tie you up That's word to my Butcher Black Soprano niggas, Black Soprano niggas Black Soprano niggas tie you up Black Soprano niggas tie you up Got another bag to go get out in Belize Black-black-black-black-black-black I got another bag to go get Black Soprano niggas tie you up I-I-I-I got another bag to go get The-the-the-the-the 40 on my hip as I ?</t>
+          <t>Yo, uh woooo!! I like this, hit that light for me Yeah woooo!! My nigga 'troeze, Patroeze Yo, yo, yo Yo, we lost niggas, pour liquor that's more swishers We known for lettin' 'em go, call us the four fifthers Run up in ya spot, they call us the door kickers Or we can have a party just as long as there's whores with us We can do it big, jet skis and four wheelers Pop a couple Spades, I might let you ball with us Hit a couple stings, nothin' personal, raw bid'ness Built my name up, and now I'm on verses with raw niggas I be lettin' off, and know myself I'll probably bet it all bet it all Ya bitch crib, I get my nut and then I'm jettin' off SKRRT! Ya bitch don't respect you to me that says it all I sold a little everything, I think I bled it all, I bled it all I'm prayin' for my niggas sellin' Fentanyl I said a prayer to my niggas And rest in peace to all my niggas dead and gone dead and gone Yeah, The Butcher comin', nigga I said rest in peace to all my niggas Look, I get dressed, put on my shoes, nah my hammer was first Bulletproof the whip I use to take my grandma to church I went gram for gram with the work, hand-to-hand on the first Everybody who hatin' now was a fan of us first facts Look, underdog, what? what? What you wanna bet? Let's put a hunnid more up Nigga, the summer all us I'm in two whips, one a Tahoe, one a tour bus Got so many straps with us, we can start a war up It's a real safe hazard if you still yay traffick Show where that money comin' from, still pay taxes The IRS comin', and they seal fate faster Start a bid'ness in the building that you still make racks in I learnt from my losses, stripes I earnt from the bosses Whippin' deuces 'til them hoopties turned into Porsches I curve bitches often, lies, I heard bitches talkin' How she mines, I send a text back, these bird bitches stalkin' You gotta be careful, these hoes think they fancy I just want my dick sucked, she wanna start a family She average, get her taxes and go to Miami With this kind of status, I'll probably go to the Grammy's aaow! I know niggas hate me, I came out the trenches trenches On some new shit, but some way sounded vintage uh Paypal or credit, send that cake ? I will I'm the real definition how you stay down and get it I be the next Nasir, if they judged us off skill Got ya bitch in the middle, Times Square, Lauryn Hill Told her my phone was dead, she wrote her number on a bill Off-white paint on my jacket look like a spill Niggas played last year, but watch the price shoot up All black entourage dressed just like shooters You spend ya life with her, me, I gave a night to her 'Cause Drake told these bitches they don't gotta be nice to us Thousand grams on the plate that's what my preference was So I had interviews with connects, and not The Breakfast Club Facts, he told me 26, it was 30 before that I hurried and score that, you was dirty before rap, nigga, AHH! Black Soprano niggas tie you up The-The-The Butcher Black Soprano niggas tie you up That's word to my Butcher Black Soprano niggas, Black Soprano niggas Black Soprano niggas tie you up Black Soprano niggas tie you up Got another bag to go get out in Belize Black-black-black-black-black-black I got another bag to go get Black Soprano niggas tie you up I-I-I-I got another bag to go get The-the-the-the-the 40 on my hip as I ?</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Lorsque je tais jeunette, je gardais les moutons Tirouli, tiroula, tirouli, tiroulou Tirouli, tiroula, tirouli, rouli, roule Ntais jamais seulette songer par les monts Tirouli... Mais d'autres bergerettes avec moi devisalent Tirouli... Parfois de sa musette un berger nous charmait Tirouli... Il nous faisait des rondes, joli rondes d'amour Tirouli... Mais me voil vieille, reste seule toujours Tirouli !You might also like</t>
+          <t>Lorsque je tais jeunette, je gardais les moutons Tirouli, tiroula, tirouli, tiroulou Tirouli, tiroula, tirouli, rouli, roule Ntais jamais seulette songer par les monts Tirouli... Mais d'autres bergerettes avec moi devisalent Tirouli... Parfois de sa musette un berger nous charmait Tirouli... Il nous faisait des rondes, joli rondes d'amour Tirouli... Mais me voil vieille, reste seule toujours Tirouli !</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Car à tout heure J'ai pas le temps je dois faire pèpère Sinon AR undertaker Je suis moi même comme un autre Je suis dans le doute Je suis dans le Reckeur Garçon pourquoi tant de noirceur? Je suis le fini dans l'infini Nwar Lior, salopes, moula, voici ce pourquoi je vis T'es là, tu craques comme un goujat Gros c'est je en Grognasse jignore ce que tu fous là Victoire d'la musique aussi Dems Ça parle beaucoup trop, mais ça agit peu souvent nwaar J'ai l'coup d'poing vitreux quand j'te l'mets, c'est contusion sale J'aime pas tous ces négros qui parlent en Si si la family no Jamais, tu connais oh oui Jamais, tu connais oh oui J'aime pas tous ces négros qui parlent en Si si la family Hey The vie sinon quelle vie You might also like Loin des yeux, près de la chatte, séparée par bite endurcie Avant qu'j'te ken, tu recules aussi Ça vient d'partout comme couteau suisse J'baise pas de bitch j'suis un gros following Compte certifié, j'prend pas de risque Je fais des promesses que j'ne tiens pas, no J'donne des rdv mais j'viens pas, no J'te mets des doigts mais j'te baise pas, no En gros, c'que j'aime, c'est que j't'aime pas, no J'parle de bite, de schnek, de pute que j'baise, de weed qui m'déf' m'en fou si t'aimes pas, no J'suis au studio avec Juelz, j'cite son blase même si je sais que tu connais même pas, no On n'est pas cousin ta daronne, j'l'appelle tantine par respect pour la ronne-da donc Fais pas genre Damso, c'est le sang, c'est la mif, c'est le... hey, gros on s'connait même pas, no</t>
+          <t>Car à tout heure J'ai pas le temps je dois faire pèpère Sinon AR undertaker Je suis moi même comme un autre Je suis dans le doute Je suis dans le Reckeur Garçon pourquoi tant de noirceur? Je suis le fini dans l'infini Nwar Lior, salopes, moula, voici ce pourquoi je vis T'es là, tu craques comme un goujat Gros c'est je en Grognasse jignore ce que tu fous là Victoire d'la musique aussi Dems Ça parle beaucoup trop, mais ça agit peu souvent nwaar J'ai l'coup d'poing vitreux quand j'te l'mets, c'est contusion sale J'aime pas tous ces négros qui parlent en Si si la family no Jamais, tu connais oh oui Jamais, tu connais oh oui J'aime pas tous ces négros qui parlent en Si si la family Hey The vie sinon quelle vie Loin des yeux, près de la chatte, séparée par bite endurcie Avant qu'j'te ken, tu recules aussi Ça vient d'partout comme couteau suisse J'baise pas de bitch j'suis un gros following Compte certifié, j'prend pas de risque Je fais des promesses que j'ne tiens pas, no J'donne des rdv mais j'viens pas, no J'te mets des doigts mais j'te baise pas, no En gros, c'que j'aime, c'est que j't'aime pas, no J'parle de bite, de schnek, de pute que j'baise, de weed qui m'déf' m'en fou si t'aimes pas, no J'suis au studio avec Juelz, j'cite son blase même si je sais que tu connais même pas, no On n'est pas cousin ta daronne, j'l'appelle tantine par respect pour la ronne-da donc Fais pas genre Damso, c'est le sang, c'est la mif, c'est le... hey, gros on s'connait même pas, no</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Essaie pas de me voir Voir J'parle en euros, t'parles en shiling Shiling Trop de choses me font du tare Tare Pour la blanche et pour la daronne Dems Pirate, You might also like</t>
+          <t>Essaie pas de me voir Voir J'parle en euros, t'parles en shiling Shiling Trop de choses me font du tare Tare Pour la blanche et pour la daronne Dems Pirate,</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Yeah Hun Hum Damso Yeah Damso Wouh Hum Yeah Développé couché Kimbo Acier, barillet Kimbo Torse large, gros pectoraux Ah One to one, 100 kilos grammes Kimbo Rah Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Hun Traction, abdominaux Hun, akimbo Slice, slice Kimbo Hun hun hun Kimbo Dolfa, Dolfa Kimbo Hun hun hun Kimbo Damso, Damso Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Traction, abdominaux, akimbo You might also like Hâte de comprendre, comme dans God of War ??? J'te donne coup de tête, gilette, si tu fais le ouar Pah, pah Fuck ton crew, fuck Dracula, moi, je casse des cous ??? Assume tes couilles Quoi ?, malo, malo, peut importe ton clan, tu seras rué de coups, oh Kimbo D.A.M.S.O, D.O.L.F.A, tout péter Quoi ? C'est T.R.O.P.F.A.C.I.L.E, venus pour achever ??? Du liquide rempli mon re-ver T'es pas d'accord, tu donnes ton revers Je n'ai toujours pas vu la lumière Une âme remplace ma lampe de chevet Rah La violence Violence, dis moi ce que t'en penses Quoi ? C'est marrant Dis, après une gifle Dis tout mes ennemis Dis deviennent en trans' Quoi ? Ah -Kimbo, Kimbo, tu veux te battre faut qu't'aies le niveau Tu chauffes le négro, Viens puis, quand il se manifeste Viens, tu renonces, comme la plupart d'mes rivaux Pah pah pah pah Kimbo Racontes pas tes salades, ou j'ajoute mes patates Développé couché, Thor, mon niso, jusqu'à qu'tes muscles éclatent Kimbo Canon 357 sur le cul Rah de ta wife OG J'mourrais pas, comme Tupac, j'fais juste ma thug life Développé couché Kimbo Acier, barillet Kimbo Torse large, gros pectoraux Ah One to one, 100 kilos grammes Kimbo Rah Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Hun Traction, abdominaux Hun, akimbo Slice, slice Kimbo Hun hun hun Kimbo Dolfa, Dolfa Kimbo Hun hun hun Kimbo Damso, Damso Kimbo Yeah Peh peh peh peh Kimbo Putain D.O.L.F.A, D.A.M.S.O Yo Traction abdominaux, akimbo Putain Trace de sperme au touché rectal, pute, t'en veux toujours trop Toujours trop Tu vas à la salle, tu pousses que dal, négro, t'es toujours gros Toujours gros Dégradé, renoi, locks ou crâne chauve comme Ne-Yo Oh oh Comme Ne-Yo J'baise une grosse pute, chinoise, Black Yellow Pétasse Poséidon Oh ouais?, pas plus haut qu'mes chevillières No No J'suis sur la toile, négro, sors le costard, le game dort sur la civière Rah Rah Il n'y a que quand la moula Moula tombe du ciel que je fais la hola ??? Joyaux du peu-ra, , O.P. Gangster, Pah pah pah pah Money in the bank Bank Par le trafic de weed Weed Bédo sur les lèvres de mes négros Ça fume et ça tise, taffe la vocalise Rah, rah, rah, rah J'passe la douane aucun ienchs ne flairent No Kilo d'coke sur la chambre à air ??? T.H.C brouille le globe oculaire Hun J'lui crache tellement dessus qu'j'ai des 'blèmes urinaires Sku, sku, sku Pétasse Bordel de merde Merde Suce ma bite, avale mon me-sper Eh Tout un tas d'bitch dans l'game Sortez les chrysanthèmes Oh Butez ces boulets d'fonctionnaires Rah Motha fucka let's go Ok, oh, oh Oh, oh Embrouille avec des négros Wouh Dolfa Torse large plus gros dorsaux J't'encule recto-verso Flow Développé couché Kimbo Acier, barillet Kimbo Torse large, gros pectoraux Ah One to one, 100 kilos grammes Kimbo Rah Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Hun Traction abdominaux Hun Kimbo Slice, slice Kimbo Hun hun hun Kimbo Dolfa, Dolfa Kimbo Hun hun hun Kimbo Damso, Damso Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Traction abdominaux, akimbo -kimbo, -kimbo, -kimbo</t>
+          <t>Yeah Hun Hum Damso Yeah Damso Wouh Hum Yeah Développé couché Kimbo Acier, barillet Kimbo Torse large, gros pectoraux Ah One to one, 100 kilos grammes Kimbo Rah Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Hun Traction, abdominaux Hun, akimbo Slice, slice Kimbo Hun hun hun Kimbo Dolfa, Dolfa Kimbo Hun hun hun Kimbo Damso, Damso Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Traction, abdominaux, akimbo Hâte de comprendre, comme dans God of War ??? J'te donne coup de tête, gilette, si tu fais le ouar Pah, pah Fuck ton crew, fuck Dracula, moi, je casse des cous ??? Assume tes couilles Quoi ?, malo, malo, peut importe ton clan, tu seras rué de coups, oh Kimbo D.A.M.S.O, D.O.L.F.A, tout péter Quoi ? C'est T.R.O.P.F.A.C.I.L.E, venus pour achever ??? Du liquide rempli mon re-ver T'es pas d'accord, tu donnes ton revers Je n'ai toujours pas vu la lumière Une âme remplace ma lampe de chevet Rah La violence Violence, dis moi ce que t'en penses Quoi ? C'est marrant Dis, après une gifle Dis tout mes ennemis Dis deviennent en trans' Quoi ? Ah -Kimbo, Kimbo, tu veux te battre faut qu't'aies le niveau Tu chauffes le négro, Viens puis, quand il se manifeste Viens, tu renonces, comme la plupart d'mes rivaux Pah pah pah pah Kimbo Racontes pas tes salades, ou j'ajoute mes patates Développé couché, Thor, mon niso, jusqu'à qu'tes muscles éclatent Kimbo Canon 357 sur le cul Rah de ta wife OG J'mourrais pas, comme Tupac, j'fais juste ma thug life Développé couché Kimbo Acier, barillet Kimbo Torse large, gros pectoraux Ah One to one, 100 kilos grammes Kimbo Rah Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Hun Traction, abdominaux Hun, akimbo Slice, slice Kimbo Hun hun hun Kimbo Dolfa, Dolfa Kimbo Hun hun hun Kimbo Damso, Damso Kimbo Yeah Peh peh peh peh Kimbo Putain D.O.L.F.A, D.A.M.S.O Yo Traction abdominaux, akimbo Putain Trace de sperme au touché rectal, pute, t'en veux toujours trop Toujours trop Tu vas à la salle, tu pousses que dal, négro, t'es toujours gros Toujours gros Dégradé, renoi, locks ou crâne chauve comme Ne-Yo Oh oh Comme Ne-Yo J'baise une grosse pute, chinoise, Black Yellow Pétasse Poséidon Oh ouais?, pas plus haut qu'mes chevillières No No J'suis sur la toile, négro, sors le costard, le game dort sur la civière Rah Rah Il n'y a que quand la moula Moula tombe du ciel que je fais la hola ??? Joyaux du peu-ra, , O.P. Gangster, Pah pah pah pah Money in the bank Bank Par le trafic de weed Weed Bédo sur les lèvres de mes négros Ça fume et ça tise, taffe la vocalise Rah, rah, rah, rah J'passe la douane aucun ienchs ne flairent No Kilo d'coke sur la chambre à air ??? T.H.C brouille le globe oculaire Hun J'lui crache tellement dessus qu'j'ai des 'blèmes urinaires Sku, sku, sku Pétasse Bordel de merde Merde Suce ma bite, avale mon me-sper Eh Tout un tas d'bitch dans l'game Sortez les chrysanthèmes Oh Butez ces boulets d'fonctionnaires Rah Motha fucka let's go Ok, oh, oh Oh, oh Embrouille avec des négros Wouh Dolfa Torse large plus gros dorsaux J't'encule recto-verso Flow Développé couché Kimbo Acier, barillet Kimbo Torse large, gros pectoraux Ah One to one, 100 kilos grammes Kimbo Rah Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Hun Traction abdominaux Hun Kimbo Slice, slice Kimbo Hun hun hun Kimbo Dolfa, Dolfa Kimbo Hun hun hun Kimbo Damso, Damso Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Traction abdominaux, akimbo -kimbo, -kimbo, -kimbo</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Y a vingt-quatre heures dans un jour, yeah Y a vingt-quatre heures dans un jour et le jour se lève avant six heures du matin Se couche après six heures du soir, quand j'me lève pour bosser jusqu'au p'tit matin J'dors peu, j'ai plus b'soin de rêves, j'dors peu, j'ai plus b'soin de rêves L'oreiller me voit autant de fois qu'les yeux de mon gosse, c't'a dire peu souvent car trop souvent, j'suis absent de moi-même Nurofen dans les veines, sur la scène, j't'ai vue tapie dans robe rouge, on a ken On s'est déshabillé pour les mêmes raisons, quelques frissons à répétition, jusqu'à scission du réel Ma chair dans la sienne faisant les mêmes mouvements que l'on doit faire pour faire des enfants C'que j'essaye de dire, c'est qu'j'sais pas quoi dire d'autre à part c'qu'on doit dire quand on s'connait pas vraiment Salut, ça va ? Moi, c'est Damso, j'me présente car jusqu'à présent, j'connais pas ton prénom La vie, c'est simple et compliqué car c'est c'que j'pense que t'es qui s'ra ton identité pour moi Pareil pour toi, vis-à-vis d'moi, quand on y pense, j'pense qu'on s'connaitra jamais vraiment Quand tu dis qu'tu couches pas l'premier soir, sache que l'centième soir, j's'rai pas si différent Forcé par le forcément qui s'installe à chaque début d'discussions, tout ça parce qu'on l'a fait On s'éloigne parce qu'on s'dit Je t'aime, on s'éloigne parce qu'on s'dit Je t'aime sans vraiment savoir c'que c'est L'autre pense qu'elle le pense mais son ex est dans sa tête, malgré qu'j'ai ma bite dans sa schneck Et c'est dans sa schneck que j'ai compris qu'ma bite et mon être, sont qu'une location pour elle Au prix de quelques mots doux Love you, tout ça, j'ai cru voir dans ses draps c'que j'voulais voir dans ses bras, l'amour Intensément, je me goure, sans sentiments, j'fais la cour, jamais le jour, que la nuit Parole de sourds cherchant l'ouïe, chez l'autre pour un oui et un non Forcément, je me mens, je lui mens, conclusion, je nous mens en même temps, donc finalement, c'est mortYou might also like</t>
+          <t>Y a vingt-quatre heures dans un jour, yeah Y a vingt-quatre heures dans un jour et le jour se lève avant six heures du matin Se couche après six heures du soir, quand j'me lève pour bosser jusqu'au p'tit matin J'dors peu, j'ai plus b'soin de rêves, j'dors peu, j'ai plus b'soin de rêves L'oreiller me voit autant de fois qu'les yeux de mon gosse, c't'a dire peu souvent car trop souvent, j'suis absent de moi-même Nurofen dans les veines, sur la scène, j't'ai vue tapie dans robe rouge, on a ken On s'est déshabillé pour les mêmes raisons, quelques frissons à répétition, jusqu'à scission du réel Ma chair dans la sienne faisant les mêmes mouvements que l'on doit faire pour faire des enfants C'que j'essaye de dire, c'est qu'j'sais pas quoi dire d'autre à part c'qu'on doit dire quand on s'connait pas vraiment Salut, ça va ? Moi, c'est Damso, j'me présente car jusqu'à présent, j'connais pas ton prénom La vie, c'est simple et compliqué car c'est c'que j'pense que t'es qui s'ra ton identité pour moi Pareil pour toi, vis-à-vis d'moi, quand on y pense, j'pense qu'on s'connaitra jamais vraiment Quand tu dis qu'tu couches pas l'premier soir, sache que l'centième soir, j's'rai pas si différent Forcé par le forcément qui s'installe à chaque début d'discussions, tout ça parce qu'on l'a fait On s'éloigne parce qu'on s'dit Je t'aime, on s'éloigne parce qu'on s'dit Je t'aime sans vraiment savoir c'que c'est L'autre pense qu'elle le pense mais son ex est dans sa tête, malgré qu'j'ai ma bite dans sa schneck Et c'est dans sa schneck que j'ai compris qu'ma bite et mon être, sont qu'une location pour elle Au prix de quelques mots doux Love you, tout ça, j'ai cru voir dans ses draps c'que j'voulais voir dans ses bras, l'amour Intensément, je me goure, sans sentiments, j'fais la cour, jamais le jour, que la nuit Parole de sourds cherchant l'ouïe, chez l'autre pour un oui et un non Forcément, je me mens, je lui mens, conclusion, je nous mens en même temps, donc finalement, c'est mort</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe Oui Rends-moi les clés, jai plus envie dte parler Rien que tu cries et cest tous les jours pareil Mais quand je ramène le biffe, tu parles plus, tu sais parer Pourtant tétait préparé, mais aujourdhui tes plus pareil Je te lai dit, entre toi et moi, il ny a personne Et je te présente une amie, et tu me demandes si je la baise oh non Tu dis qu tes mal, est ce qu tu serais mieux, avec un autre homme Tu sais que je suis là, quand tes dans le mal, quand il y a personne Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser You might also like Oh ma belle, jaimerais bien, mais jpeux pas Si je te demande ta main, cest pour que tu tiennes le bangala Laisse tomber les bail damour, demande pas de câlin Si tu pleures cest ta faute, faute avoue Jpourrais pas guérir ta peine de cur Coulé, coulé, coulé, sèche tes larmes Mais la belle, coucher avec moi tu voulais Tu mas dit boy soit ma bette Je tai eu sans tour de magie Sans avoir la baguette dHarry Poter Pas attendre quon arrive au tel-ho Conclusion RIP banquette arrière Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe</t>
+          <t>Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe Oui Rends-moi les clés, jai plus envie dte parler Rien que tu cries et cest tous les jours pareil Mais quand je ramène le biffe, tu parles plus, tu sais parer Pourtant tétait préparé, mais aujourdhui tes plus pareil Je te lai dit, entre toi et moi, il ny a personne Et je te présente une amie, et tu me demandes si je la baise oh non Tu dis qu tes mal, est ce qu tu serais mieux, avec un autre homme Tu sais que je suis là, quand tes dans le mal, quand il y a personne Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien, mais jpeux pas Si je te demande ta main, cest pour que tu tiennes le bangala Laisse tomber les bail damour, demande pas de câlin Si tu pleures cest ta faute, faute avoue Jpourrais pas guérir ta peine de cur Coulé, coulé, coulé, sèche tes larmes Mais la belle, coucher avec moi tu voulais Tu mas dit boy soit ma bette Je tai eu sans tour de magie Sans avoir la baguette dHarry Poter Pas attendre quon arrive au tel-ho Conclusion RIP banquette arrière Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe Oui Rends-moi les clés, jai plus envie dte parler Rien que tu cries et cest tous les jours pareil Mais quand je ramène le biffe, tu parles plus, tu sais parer Pourtant tétait préparé, mais aujourdhui tes plus pareil Je te lai dit, entre toi et moi, il ny a personne Et je te présente une amie, et tu me demandes si je la baise oh non Tu dis qu tes mal, est ce qu tu serais mieux, avec un autre homme Tu sais que je suis là, quand tes dans le mal, quand il y a personne Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser You might also like Oh ma belle, jaimerais bien, mais jpeux pas Si je te demande ta main, cest pour que tu tiennes le bangala Laisse tomber les bail damour, demande pas de câlin Si tu pleures cest ta faute, faute avoue Jpourrais pas guérir ta peine de cur Coulé, coulé, coulé, sèche tes larmes Mais la belle, coucher avec moi tu voulais Tu mas dit boy soit ma bette Je tai eu sans tour de magie Sans avoir la baguette dHarry Poter Pas attendre quon arrive au tel-ho Conclusion RIP banquette arrière Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe</t>
+          <t>Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe Oui Rends-moi les clés, jai plus envie dte parler Rien que tu cries et cest tous les jours pareil Mais quand je ramène le biffe, tu parles plus, tu sais parer Pourtant tétait préparé, mais aujourdhui tes plus pareil Je te lai dit, entre toi et moi, il ny a personne Et je te présente une amie, et tu me demandes si je la baise oh non Tu dis qu tes mal, est ce qu tu serais mieux, avec un autre homme Tu sais que je suis là, quand tes dans le mal, quand il y a personne Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien, mais jpeux pas Si je te demande ta main, cest pour que tu tiennes le bangala Laisse tomber les bail damour, demande pas de câlin Si tu pleures cest ta faute, faute avoue Jpourrais pas guérir ta peine de cur Coulé, coulé, coulé, sèche tes larmes Mais la belle, coucher avec moi tu voulais Tu mas dit boy soit ma bette Je tai eu sans tour de magie Sans avoir la baguette dHarry Poter Pas attendre quon arrive au tel-ho Conclusion RIP banquette arrière Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>La violence... Ma semence... Dems Batterie Faible c'était hier, j'me sens mort, pourquoi je fais le Vie J'ai perdu ce putain d'chargeur, j'n'ai plus de joie dans ma vie La lumière est mon fils, mes sentiments réduit à la pisse J'aimais l'Histoire, mais la majuscule a fini par disparaître. Dems Mais... Maiiiis Dems Nique sa mère j'suis là pour niquer l'ambiance Ni-ni-nique l'ambiance Tu pleures ouais j'm'en carence Ni-ni-nique l'ambiance Ma bite c'est le lancer d'javelot Fini la réflexion, j'suis né pour niquer des mères Tu te dit père, tu connais même pas ta grammaire T'as 40 piges mais tu piges pas qu'il faut que tu te tailles Les hommes reçoivent des nudes, les mioches, eux des hentais Tes lunettes sont plus grosse que toi, tu vois même pas ce que tu suce ? Fais l'malin, t'es dans le rap depuis hier, mes poings sur ta chose d'excuse. Dems Ton nom est le plus grand, c'est vrai, mais t'es une minuscule Du lait et des céréales, mon sperme se marient à tes pellicules Vous jouez tous avec vos doigts, j'la doigte en faisant des Vie. Dems J'essaye d'pas la mettre enceinte, j'crois que c'est un bon défi. Dems Marc Dorcel, j'm'en lasse. J'm'oriente plus vers Teletoon. Dems Ne perdons pas de temps déshabille toi c'est une belle foufoune. De-de-de-dems You might also like Ni-ni-nique l'ambiance Tu pleures ouais j'm'en carence Ni-ni-nique l'ambiance Ma bite c'est le lancer d'javelot -Damso... Oh oui... -Ta gueule... -Damso plus fort ! -Réveille pas ton mari... En adultère H24, j'prend des rides à chaque teuch J'aiguise ma bite avec sa bouche, pour après lui couper les veuchs J'te laisse un bout d'son point G. Pfff L'assiette c'est toi qui va laver. Ouais Illusion d'optique, pour une Otaku, j'suis Roronoa Trois sabre avec au bout deux grosses noix J'vais feat avec ton ennemi pour que t'aboies Mais ouvre pas ta gueule longtemps avant que tu le bois. Dems Ni-ni-nique l'ambiance Tu pleures ouais j'm'en carence Ni-ni-nique l'ambiance Ma bite c'est le lancer d'javelot2</t>
+          <t>La violence... Ma semence... Dems Batterie Faible c'était hier, j'me sens mort, pourquoi je fais le Vie J'ai perdu ce putain d'chargeur, j'n'ai plus de joie dans ma vie La lumière est mon fils, mes sentiments réduit à la pisse J'aimais l'Histoire, mais la majuscule a fini par disparaître. Dems Mais... Maiiiis Dems Nique sa mère j'suis là pour niquer l'ambiance Ni-ni-nique l'ambiance Tu pleures ouais j'm'en carence Ni-ni-nique l'ambiance Ma bite c'est le lancer d'javelot Fini la réflexion, j'suis né pour niquer des mères Tu te dit père, tu connais même pas ta grammaire T'as 40 piges mais tu piges pas qu'il faut que tu te tailles Les hommes reçoivent des nudes, les mioches, eux des hentais Tes lunettes sont plus grosse que toi, tu vois même pas ce que tu suce ? Fais l'malin, t'es dans le rap depuis hier, mes poings sur ta chose d'excuse. Dems Ton nom est le plus grand, c'est vrai, mais t'es une minuscule Du lait et des céréales, mon sperme se marient à tes pellicules Vous jouez tous avec vos doigts, j'la doigte en faisant des Vie. Dems J'essaye d'pas la mettre enceinte, j'crois que c'est un bon défi. Dems Marc Dorcel, j'm'en lasse. J'm'oriente plus vers Teletoon. Dems Ne perdons pas de temps déshabille toi c'est une belle foufoune. De-de-de-dems Ni-ni-nique l'ambiance Tu pleures ouais j'm'en carence Ni-ni-nique l'ambiance Ma bite c'est le lancer d'javelot -Damso... Oh oui... -Ta gueule... -Damso plus fort ! -Réveille pas ton mari... En adultère H24, j'prend des rides à chaque teuch J'aiguise ma bite avec sa bouche, pour après lui couper les veuchs J'te laisse un bout d'son point G. Pfff L'assiette c'est toi qui va laver. Ouais Illusion d'optique, pour une Otaku, j'suis Roronoa Trois sabre avec au bout deux grosses noix J'vais feat avec ton ennemi pour que t'aboies Mais ouvre pas ta gueule longtemps avant que tu le bois. Dems Ni-ni-nique l'ambiance Tu pleures ouais j'm'en carence Ni-ni-nique l'ambiance Ma bite c'est le lancer d'javelot2</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Au cinéma je vais voir Mes vedettes préférées Au cinéma je vais voir La jeune première qui me plaît Et quand l'histoire finit bien- en en J'y retourne le lendemain Au cinéma, au cinéma, oui, au cinéma Au cinéma j'aime aussi La bagarre et le suspens Au cinéma j'aime aussi La comédie et la danse Et je rêve alors après- ès ès Que tout ça m'est arrivé Comme au ciné, comme au ciné, comme au cinéma Yeah yeah yeah Chez moi j'ai beaucoup d photos- os os Et tous les murs en sont tapissés- és és Mais ce n'st pas n'importe quelles photos Elles sont toutes, toutes, toutes dédicacées han han han han han han han Au cinéma j'aime aussi Les jolies histoires d'amour Au cinéma j'aime aussi Des histoires de tous les jours Des histoires pas compliqués- és és Qui pourrait bien m'arriver Comme au ciné, comme au ciné, comme au cinéma Yeah yeah yeah You might also likeJe suis tellement sentimental Qu'il m'arrive de voir certains jours Trois séances de suite dans la même salle Uniquement pour la scène d'amour han han han han han han han Le cinéma c'est ma vie Je ne connais rien de plus joli Et quand l'histoire finit bien- en en J'y retourne le lendemain Au cinéma, au cinéma, au cinéma, au cinéma, oui au cinéma</t>
+          <t>Au cinéma je vais voir Mes vedettes préférées Au cinéma je vais voir La jeune première qui me plaît Et quand l'histoire finit bien- en en J'y retourne le lendemain Au cinéma, au cinéma, oui, au cinéma Au cinéma j'aime aussi La bagarre et le suspens Au cinéma j'aime aussi La comédie et la danse Et je rêve alors après- ès ès Que tout ça m'est arrivé Comme au ciné, comme au ciné, comme au cinéma Yeah yeah yeah Chez moi j'ai beaucoup d photos- os os Et tous les murs en sont tapissés- és és Mais ce n'st pas n'importe quelles photos Elles sont toutes, toutes, toutes dédicacées han han han han han han han Au cinéma j'aime aussi Les jolies histoires d'amour Au cinéma j'aime aussi Des histoires de tous les jours Des histoires pas compliqués- és és Qui pourrait bien m'arriver Comme au ciné, comme au ciné, comme au cinéma Yeah yeah yeah Je suis tellement sentimental Qu'il m'arrive de voir certains jours Trois séances de suite dans la même salle Uniquement pour la scène d'amour han han han han han han han Le cinéma c'est ma vie Je ne connais rien de plus joli Et quand l'histoire finit bien- en en J'y retourne le lendemain Au cinéma, au cinéma, au cinéma, au cinéma, oui au cinéma</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Tu sais, moi, j'ai du mal à parler, j'ai tellement serré les dents J'ai vécu des choses atroces, j'connais la douleur des gens J'cherche la paix un peu partout, guidé par le vent Pour savoir comment aimer, j'ai d'mandé aux religions Elles m'ont dit Tu connais rien à la souffrance Celle que le temps ne guérit pas Quand l'âme est blessée sur l'chemin, ça laisse des traces depuis l'enfance Et la mémoire n'a qu le choix D'y repensr, repenser, repenser Moi j'comprends pas pourquoi j'suis né, j'suis dans l'flou Pourquoi mon daron a-t-il craché dans l'trou ? Il fallait savoir déjà est-c'que vous l'aimez vous cette vie ? Alors mais qui m'a demandé Ma permission d'v'nir au monde ? Si j'pouvais r'commencer J'y passerai que quelques secondes Mais qui m'a demandé Ma permission d'v'nir au monde ? Si j'pouvais r'commencer J'y passerai que quelques secondes You might also like La vie de rêve, la vie de Tony, Tony, Tony Pour finir à Mantes-la-Jolie, Jolie, Jolie, eh La vie de rêve, la vie de</t>
+          <t>Tu sais, moi, j'ai du mal à parler, j'ai tellement serré les dents J'ai vécu des choses atroces, j'connais la douleur des gens J'cherche la paix un peu partout, guidé par le vent Pour savoir comment aimer, j'ai d'mandé aux religions Elles m'ont dit Tu connais rien à la souffrance Celle que le temps ne guérit pas Quand l'âme est blessée sur l'chemin, ça laisse des traces depuis l'enfance Et la mémoire n'a qu le choix D'y repensr, repenser, repenser Moi j'comprends pas pourquoi j'suis né, j'suis dans l'flou Pourquoi mon daron a-t-il craché dans l'trou ? Il fallait savoir déjà est-c'que vous l'aimez vous cette vie ? Alors mais qui m'a demandé Ma permission d'v'nir au monde ? Si j'pouvais r'commencer J'y passerai que quelques secondes Mais qui m'a demandé Ma permission d'v'nir au monde ? Si j'pouvais r'commencer J'y passerai que quelques secondes La vie de rêve, la vie de Tony, Tony, Tony Pour finir à Mantes-la-Jolie, Jolie, Jolie, eh La vie de rêve, la vie de</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>One, two One, two, three, four Ooi moo iikai? Moo iikai? Maada da yo Ooi moo iikai? Moo iikai? Maada da yo Atchi kana? Kotchi kana? Sate oni-san doko deshoo? Zettai ni mituskara-nai Totteoki no basho o hakken Ooi moo iikai? Moo iikai? Maada da yo Ooi moo iikai? Moo iikai? Maada da yo Migi hidari kyoro kyorori Yada doki doki toman-nai Ii yo, mitsukerareru monnara Mitsukete minasai! Minasai na! You might also like Ooi moo iikai? Moo iikai? Maada da yo Ooi moo iikai? Moo iikai? Maada da yo Oni-san kochira Oni-san kochira Te no naru hoo e Te no naru hoo e Oni-san kochira Moo ii yo Wow, wow, wow Guru guru kakurenbo Mawatte-masu Voi! Mawatte-masu Voi! Ashimoto gochuui! Hora tsukamaete! Wow, wow, wow Guru guru kakurenbo Akai kutsu Hai! Haicha dame Non! Denjarasu-da mon Voi, voi, voi Naku go wa ine ga? Voi, voi, voi Warui go ine ga? Oni-san kochira Oni-san kochira Te no naru hoo e Te no naru hoo e Oni-san kochira Miitsuketa! Wow, wow, wow Guru guru kakurenbo Aka-oni-san Voi! Ao-oni-san Voi! Suteppu suteppu One, two, one, two Wow, wow, wow Guru guru kakurenbo Korondemo Hai! Naicha dame Non! Tsuyoi-ko-san-damon Mada mada iku yo Wow, wow, wow Guru guru kakurenbo Wow, wow, wow Guru guru kakurenbo Akai kutsu Haicha dame Denjarasu-da mon Maada da yo! Maada da yo! Yeah!</t>
+          <t>One, two One, two, three, four Ooi moo iikai? Moo iikai? Maada da yo Ooi moo iikai? Moo iikai? Maada da yo Atchi kana? Kotchi kana? Sate oni-san doko deshoo? Zettai ni mituskara-nai Totteoki no basho o hakken Ooi moo iikai? Moo iikai? Maada da yo Ooi moo iikai? Moo iikai? Maada da yo Migi hidari kyoro kyorori Yada doki doki toman-nai Ii yo, mitsukerareru monnara Mitsukete minasai! Minasai na! Ooi moo iikai? Moo iikai? Maada da yo Ooi moo iikai? Moo iikai? Maada da yo Oni-san kochira Oni-san kochira Te no naru hoo e Te no naru hoo e Oni-san kochira Moo ii yo Wow, wow, wow Guru guru kakurenbo Mawatte-masu Voi! Mawatte-masu Voi! Ashimoto gochuui! Hora tsukamaete! Wow, wow, wow Guru guru kakurenbo Akai kutsu Hai! Haicha dame Non! Denjarasu-da mon Voi, voi, voi Naku go wa ine ga? Voi, voi, voi Warui go ine ga? Oni-san kochira Oni-san kochira Te no naru hoo e Te no naru hoo e Oni-san kochira Miitsuketa! Wow, wow, wow Guru guru kakurenbo Aka-oni-san Voi! Ao-oni-san Voi! Suteppu suteppu One, two, one, two Wow, wow, wow Guru guru kakurenbo Korondemo Hai! Naicha dame Non! Tsuyoi-ko-san-damon Mada mada iku yo Wow, wow, wow Guru guru kakurenbo Wow, wow, wow Guru guru kakurenbo Akai kutsu Haicha dame Denjarasu-da mon Maada da yo! Maada da yo! Yeah!</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Sitz auf dem Dachboden, vor staubigen Kissen von früher Bau mir en Spliff, schau auf die Bilder und erinner mich wieder Lauter Skizzen und Bücher Typen mit denen wir draußen im Winter gespielt haben Holen heute ihr eigenes Kind aus der KiTa Kartons voll mit Fotos von Frauen, Bitches und Sweethearts Mit denen ich mehr als nur down und ein bisschen intim war Vertraute Gesichter erzählen einem tausend Geschichten am Fließband Ich glaub an das Schicksal, doch den Lauf der Dinge kennt niemand Seh mein Leben nochmal durch die Augen eines grimmigen Schülers Meine Gegend, mein Haus nur Trauer, Trümmer und Trübsal Ein Traum zieht für immer vorüber Mein Zimmer ist düster, Kerzen brennen runter Ein dunkler Winter wird spürbar, es fängt an zu regnen Ich hör alte CDs von Tempeltainment Die erste Band meines Lebens represented mein Statement Überall Fans und Kollegen Jungs, die für jeden kämpften, der bereit war sein Bestes zu geben Machten einen der vielfältigsten Sampler der Szene Doch irgendwann trennten sich Wege aufgrund von imensen Problemen Menschen waren strange, veränderte Seelen, Streit Meine Konsequenz hieß zu gehen, weil Hinaus über die Grenzen des Games, allein Ohne ein Cent um fällige Rechnung zu payen Doch bald waren Legenden passé Und nicht mehr als ein Remember back in the days of Jubekos Memory Tape You might also like Memories, ich schwör ich vergess euch nie Egal was kommt bleibt strong und reflektiert Schaut nach vorn, nutzt die Chance, wenn es sie gibt Mein letztes Ziel, Rest in Peace, retrospektiv Memories, I hope you remember me Egal was kommt, bleibt strong und respektiert D A M I O N, jetzt und hier, ich vergess euch nie, egal was noch passiert Was gestern war, ist heut schon verlorn Es kommt ein neuer Tag man, ich freu mich auf morgen Geh mein eigenen Weg und folg keiner Norm Meine Memoaren sind wie leer Was gestern war, ist heut schon verlorn Jeder andere Tag ist wie ne neue Chance Glaub an deinen Weg man, es geht nur nach vorn Deine Memoaren sind die Lehrer Alles was mir bleibt sind Relikte Vergangene Zeiten, alte Geschichten Storys von Jungs, die einst mit mir stickten Warenladungen voller Backstagepässe und Konzertkarten Flyer und Sticker von den ersten Tempelpartys 'N Haufen Videotapes, Demobändern, gebrannte Promo-CDs Layoutentwürfe für die erste Solo-LP Fotoalben von längst vergangenen Urlaubsreisen Literatur Hinweise zwischen zerissenen Schulbuchseiten Kaputte Kugelschreiber, Telefonnummern ohne Namen drunter Postkarten aus Ungarn, Bilder von Fahrten ins Umland Booklets und Textbücher aus unsortierten Papierstapeln Zeugniskopien und Zivildienstunterlagen Bewerbungsmappen, Liebesbriefe, vergessene Tagebücher Schülerzeitung, Spickzettel von bestandenen Abiprüfungen Trackideen und Songskizzen, Notenblätter mit Bongspritzern Pictures von Bombingactions in Mitte Manchmal fühl ich mich wie ein Messi, wenn ich Sachen collected sie Ewig aufhebe und erst nach Jahren entdecke In meinem Zimmer stapeln sich Texte bis fast an die Decke Überall liegt Kram in den Ecken, ich kanns nicht vergessen Bis es verwelkt und nicht mehr da ist wie Pac und Big L Bis es verwest, vergeht und in sich zerfällt Bis niemand mehr da ist, der es für immer erhält Kann man alles verdrängen außer die Erinnerung selbst 2</t>
+          <t>Sitz auf dem Dachboden, vor staubigen Kissen von früher Bau mir en Spliff, schau auf die Bilder und erinner mich wieder Lauter Skizzen und Bücher Typen mit denen wir draußen im Winter gespielt haben Holen heute ihr eigenes Kind aus der KiTa Kartons voll mit Fotos von Frauen, Bitches und Sweethearts Mit denen ich mehr als nur down und ein bisschen intim war Vertraute Gesichter erzählen einem tausend Geschichten am Fließband Ich glaub an das Schicksal, doch den Lauf der Dinge kennt niemand Seh mein Leben nochmal durch die Augen eines grimmigen Schülers Meine Gegend, mein Haus nur Trauer, Trümmer und Trübsal Ein Traum zieht für immer vorüber Mein Zimmer ist düster, Kerzen brennen runter Ein dunkler Winter wird spürbar, es fängt an zu regnen Ich hör alte CDs von Tempeltainment Die erste Band meines Lebens represented mein Statement Überall Fans und Kollegen Jungs, die für jeden kämpften, der bereit war sein Bestes zu geben Machten einen der vielfältigsten Sampler der Szene Doch irgendwann trennten sich Wege aufgrund von imensen Problemen Menschen waren strange, veränderte Seelen, Streit Meine Konsequenz hieß zu gehen, weil Hinaus über die Grenzen des Games, allein Ohne ein Cent um fällige Rechnung zu payen Doch bald waren Legenden passé Und nicht mehr als ein Remember back in the days of Jubekos Memory Tape Memories, ich schwör ich vergess euch nie Egal was kommt bleibt strong und reflektiert Schaut nach vorn, nutzt die Chance, wenn es sie gibt Mein letztes Ziel, Rest in Peace, retrospektiv Memories, I hope you remember me Egal was kommt, bleibt strong und respektiert D A M I O N, jetzt und hier, ich vergess euch nie, egal was noch passiert Was gestern war, ist heut schon verlorn Es kommt ein neuer Tag man, ich freu mich auf morgen Geh mein eigenen Weg und folg keiner Norm Meine Memoaren sind wie leer Was gestern war, ist heut schon verlorn Jeder andere Tag ist wie ne neue Chance Glaub an deinen Weg man, es geht nur nach vorn Deine Memoaren sind die Lehrer Alles was mir bleibt sind Relikte Vergangene Zeiten, alte Geschichten Storys von Jungs, die einst mit mir stickten Warenladungen voller Backstagepässe und Konzertkarten Flyer und Sticker von den ersten Tempelpartys 'N Haufen Videotapes, Demobändern, gebrannte Promo-CDs Layoutentwürfe für die erste Solo-LP Fotoalben von längst vergangenen Urlaubsreisen Literatur Hinweise zwischen zerissenen Schulbuchseiten Kaputte Kugelschreiber, Telefonnummern ohne Namen drunter Postkarten aus Ungarn, Bilder von Fahrten ins Umland Booklets und Textbücher aus unsortierten Papierstapeln Zeugniskopien und Zivildienstunterlagen Bewerbungsmappen, Liebesbriefe, vergessene Tagebücher Schülerzeitung, Spickzettel von bestandenen Abiprüfungen Trackideen und Songskizzen, Notenblätter mit Bongspritzern Pictures von Bombingactions in Mitte Manchmal fühl ich mich wie ein Messi, wenn ich Sachen collected sie Ewig aufhebe und erst nach Jahren entdecke In meinem Zimmer stapeln sich Texte bis fast an die Decke Überall liegt Kram in den Ecken, ich kanns nicht vergessen Bis es verwelkt und nicht mehr da ist wie Pac und Big L Bis es verwest, vergeht und in sich zerfällt Bis niemand mehr da ist, der es für immer erhält Kann man alles verdrängen außer die Erinnerung selbst 2</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Merci, merci Nwaar Batterie rechargéeYou might also like</t>
+          <t>Merci, merci Nwaar Batterie rechargée</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Ay, no Todo mal conmigo Ojalá a esta fiesta no hubiera venido Ay, no. Y ahora qué me pasó, Dios mío? Si esto es pecado ahora espero mi castigo Ay, no Cómo te explico? Creo que ya no quiero na contigo Ay, no. Es que, ay, querido Viéndolo bien, ya me gustó más tu amigo Lo siento mucho mi amor Te juro no hubo intención Pero no tengo control sobre temas del corazón Tal vez perdí la razón Así no es como soy Pero ya me entraron dudas sobre nuestra relación Por qué nadie mencionó que tu amigo era un actor? De esos que se cargan brazos como los de un luchador Sé qué no hay justificación No fue por este calor Ni por lo que alcanzo a ver adentro de su pantalón Ay, no Todo mal conmigo Ojalá a esta fiesta no hubiera venido Ay, no. Y ahora qué me pasó, Dios mío? Si esto es pecado ahora espero mi castigo You might also likeAy, no Cómo te explico? Creo que ya no quiero na contigo Ay, no. Es que, ay, querido Viéndolo bien, ya me gustó más tu amigo No sé en qué momento esto sucedió Todo el terreno se me sacudió Con esos ojitos él me hechizó Y con esa boquita todo me prendió Yo sé que es tu amigo, pero esto es así Este es un deseo que no quiero combatir Lamento decirte que no voy a resistir Y ya es muy tu pedo si no quieres compartir Ay, no Todo mal contigo Mira vamo pa la calle Para que tu lo sienta Al fondo del callejón Cero luz y no hay vista Ay, no Todo mal contigo Yo pongo la gasolina Bájale ya con prisa Le damos en la esquina Sube la adrenalina Muérdele, jálale, correle palante Que si usted es más que listo mejor déjeme bien visto Ay, no Todo mal conmigo Ojalá a esta fiesta no hubiera venido Ay, no. Y ahora qué me pasó, Dios mío? Si esto es pecado ahora espero mi castigo Ay, no Cómo te explico? Creo que ya no quiero na contigo Ay, no. Es que, ay, querido Viéndolo bien, ya me gustó más tu amigo Llegó MASH llegó MASH ah Y Pixie Pix</t>
+          <t>Ay, no Todo mal conmigo Ojalá a esta fiesta no hubiera venido Ay, no. Y ahora qué me pasó, Dios mío? Si esto es pecado ahora espero mi castigo Ay, no Cómo te explico? Creo que ya no quiero na contigo Ay, no. Es que, ay, querido Viéndolo bien, ya me gustó más tu amigo Lo siento mucho mi amor Te juro no hubo intención Pero no tengo control sobre temas del corazón Tal vez perdí la razón Así no es como soy Pero ya me entraron dudas sobre nuestra relación Por qué nadie mencionó que tu amigo era un actor? De esos que se cargan brazos como los de un luchador Sé qué no hay justificación No fue por este calor Ni por lo que alcanzo a ver adentro de su pantalón Ay, no Todo mal conmigo Ojalá a esta fiesta no hubiera venido Ay, no. Y ahora qué me pasó, Dios mío? Si esto es pecado ahora espero mi castigo Ay, no Cómo te explico? Creo que ya no quiero na contigo Ay, no. Es que, ay, querido Viéndolo bien, ya me gustó más tu amigo No sé en qué momento esto sucedió Todo el terreno se me sacudió Con esos ojitos él me hechizó Y con esa boquita todo me prendió Yo sé que es tu amigo, pero esto es así Este es un deseo que no quiero combatir Lamento decirte que no voy a resistir Y ya es muy tu pedo si no quieres compartir Ay, no Todo mal contigo Mira vamo pa la calle Para que tu lo sienta Al fondo del callejón Cero luz y no hay vista Ay, no Todo mal contigo Yo pongo la gasolina Bájale ya con prisa Le damos en la esquina Sube la adrenalina Muérdele, jálale, correle palante Que si usted es más que listo mejor déjeme bien visto Ay, no Todo mal conmigo Ojalá a esta fiesta no hubiera venido Ay, no. Y ahora qué me pasó, Dios mío? Si esto es pecado ahora espero mi castigo Ay, no Cómo te explico? Creo que ya no quiero na contigo Ay, no. Es que, ay, querido Viéndolo bien, ya me gustó más tu amigo Llegó MASH llegó MASH ah Y Pixie Pix</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Yeah, ah, c'est OPG mec, Yo, R-E-X, D-O-L-F-A, D-A-M-S-O let's go Yo, mec j'suis trop fly, appelle moi Rexbull j'donne des haut le coeur Si tu veux critiquer ou imiter faut des droits d'auteur J'ai pris du grade maintenant, j'prends mon temps des heures ou des mois J'viens du ciel et tu sais qu'les étoiles ne parlent que de moi On m'parle de concurrence mais bon, j'n'en vois pas autant J'ai les yeux revolvr donc j'regarde ma montre just pour tuer l'temps OPG, les trois lettres qui nous correspondent Les scientifiques ont faux c'est parce qu'on est trop chauds qu'les banquises fondent Tu dis qu'on pèse mais mec, tu m'étonnes C'est parce qu'on pose du lourd qu'les MC en font des tonnes Parait qu'je saoule, appelle moi bouteille de rhum Tu peux chercher à me fuire mais tous les chemins mènent à Rome Mes rimes tu les bois cul sec, attendre rouler en Q7 J'suis le best tu veux tej non j'te lâche puis j'te laisse puis je fais que lâcher du lest On a mis du temps pour grimper mieux vaut tard que jamais Vu la notoriété négro mieux vaut star que jamais Depuis tout p'tit on rêve de Cadillac et Porsche Sortir sans répis avoir les liasses plein les poches ?????????? tant qu'on décroche D'autres perdent la vie ??????? Donc man avant qu'je plane avant qu'je fasse d'la money Que toute ma team s'éclate et fasse surface au sommet Pecho les Merco-Benz aux gentes alu ou chromées Et si le succès vient tard mieux vaut star que jamais You might also like Han, han Quand j'vois ses stats ça me donne envie de me pendre De les voir chiller sans soucis sans problème qui s'engendre ????? je cherche la money de manière abondante Pour mettre bien ma tasse aux yeux verts et toute mon ascendance, yeah J'enfile ma veste et j'vais au studio J'rappe pas pour les idiots, demande à Roméo, yeah J'voudrais du cash afin que j'te guide Faire tous les magasins que j'te montre c'est qui le vrai prodigue J'claquerais toute ma thune pour moi ou bien pour toi No problem in my brain, ne me demande pourquoi, yeah Je rêve de Bentley et de Cadillac Mieux vaut star que jamais et j'me contente que d'un kayak Je ne fais pas pitié, je veux juste des billets Surtout ne m'faites pas chier, je rêve juste de briller Trêve de plaisanterie, ce n'est pas de la gol-ri C'est qui l'équipe qui dégrade et qui dépasse tous les grades, man c'est l'OPG Depuis tout p'tit on rêve de Cadillac et Porsche Sortir sans répis avoir les liasses plein les poches ?????????? tant qu'on décroche D'autres perdent la vie ??????? Donc man avant qu'je plane avant qu'je fasse d'la money Que toute ma team s'éclate et fasse surface au sommet Pecho les Merco-Benz aux gentes alu ou chromées Et si le succès vient tard mieux vaut star que jamais Depuis tout p'tit on rêve de Cadillac et Porsche Sortir sans répis avoir les liasses plein les poches ?????????? tant qu'on décroche D'autres perdent la vie ??????? Donc man avant qu'je plane avant qu'je fasse d'la money Que toute ma team s'éclate et fasse surface au sommet Pecho les Merco-Benz aux gentes alu ou chromées Et si le succès vient tard mieux vaut star que jamais1</t>
+          <t>Yeah, ah, c'est OPG mec, Yo, R-E-X, D-O-L-F-A, D-A-M-S-O let's go Yo, mec j'suis trop fly, appelle moi Rexbull j'donne des haut le coeur Si tu veux critiquer ou imiter faut des droits d'auteur J'ai pris du grade maintenant, j'prends mon temps des heures ou des mois J'viens du ciel et tu sais qu'les étoiles ne parlent que de moi On m'parle de concurrence mais bon, j'n'en vois pas autant J'ai les yeux revolvr donc j'regarde ma montre just pour tuer l'temps OPG, les trois lettres qui nous correspondent Les scientifiques ont faux c'est parce qu'on est trop chauds qu'les banquises fondent Tu dis qu'on pèse mais mec, tu m'étonnes C'est parce qu'on pose du lourd qu'les MC en font des tonnes Parait qu'je saoule, appelle moi bouteille de rhum Tu peux chercher à me fuire mais tous les chemins mènent à Rome Mes rimes tu les bois cul sec, attendre rouler en Q7 J'suis le best tu veux tej non j'te lâche puis j'te laisse puis je fais que lâcher du lest On a mis du temps pour grimper mieux vaut tard que jamais Vu la notoriété négro mieux vaut star que jamais Depuis tout p'tit on rêve de Cadillac et Porsche Sortir sans répis avoir les liasses plein les poches ?????????? tant qu'on décroche D'autres perdent la vie ??????? Donc man avant qu'je plane avant qu'je fasse d'la money Que toute ma team s'éclate et fasse surface au sommet Pecho les Merco-Benz aux gentes alu ou chromées Et si le succès vient tard mieux vaut star que jamais Han, han Quand j'vois ses stats ça me donne envie de me pendre De les voir chiller sans soucis sans problème qui s'engendre ????? je cherche la money de manière abondante Pour mettre bien ma tasse aux yeux verts et toute mon ascendance, yeah J'enfile ma veste et j'vais au studio J'rappe pas pour les idiots, demande à Roméo, yeah J'voudrais du cash afin que j'te guide Faire tous les magasins que j'te montre c'est qui le vrai prodigue J'claquerais toute ma thune pour moi ou bien pour toi No problem in my brain, ne me demande pourquoi, yeah Je rêve de Bentley et de Cadillac Mieux vaut star que jamais et j'me contente que d'un kayak Je ne fais pas pitié, je veux juste des billets Surtout ne m'faites pas chier, je rêve juste de briller Trêve de plaisanterie, ce n'est pas de la gol-ri C'est qui l'équipe qui dégrade et qui dépasse tous les grades, man c'est l'OPG Depuis tout p'tit on rêve de Cadillac et Porsche Sortir sans répis avoir les liasses plein les poches ?????????? tant qu'on décroche D'autres perdent la vie ??????? Donc man avant qu'je plane avant qu'je fasse d'la money Que toute ma team s'éclate et fasse surface au sommet Pecho les Merco-Benz aux gentes alu ou chromées Et si le succès vient tard mieux vaut star que jamais Depuis tout p'tit on rêve de Cadillac et Porsche Sortir sans répis avoir les liasses plein les poches ?????????? tant qu'on décroche D'autres perdent la vie ??????? Donc man avant qu'je plane avant qu'je fasse d'la money Que toute ma team s'éclate et fasse surface au sommet Pecho les Merco-Benz aux gentes alu ou chromées Et si le succès vient tard mieux vaut star que jamais1</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Allô la Terre, ici, y'a pas d'eau Chelou comme un son de franc-maçon Qui sont-ils vraiment, I don't know Avant Dieu, y'a rien de toutes les façons I got hoes, tout est lourd J'fais le show, en Lambo', ah ouais négro K.L.H est dans le zoo Négro, fais tourner, ça sent la kush Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche yaw yaw yaw yaw yaw Kush! Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw, yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Dems, Dems! Dems, Dems! You might also like S'faire sucer, c'est pas tromper Faire succès, c'est n'pas s'tromper Trop de billets jaunes, verts, violets J'ai tout nié, toi balancé Tout est écrit, ouais, qu'ils m'ont dit Les mêmes qui ont dit que j'y arriverai pas Jamais négro s'enterre en vie, jamais négro ne baisse les bras J'illumine, j'élimine, ennemis, imminent Pas d'paroles, patates sur les lips Si j'urine dans la ville c'est que j'suis sur les Champs Grosse salope, quatre pattes sur le bitume Inoffensif je fus, une offensive et je tue Une gencive de plus, sur le bitume j'accumule embrouilles, bagarres de rue J'prends le réseau, négro, j'te laisse que l'WiFi Au studio j'fais qu'du sale, au studio tu n'fais qu'du bruit Ils tuent pour prendre nos terres comme G. Bush, Saddam R.I.P J'sais toujours pas naviguer pourtant j'connais qu'des rates-pi Dems, Dems Kush! Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw, yaw yaw Kush! Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Dems! Ding dong, v'la le Mwaka J'marche dans la ville comme une âme en vrac En attendant qu'ils tombent sous le AK brrr J'observe comme King Kong au-dessus de Manhattan Voilà déjà une plombe que j'suis fracas Allongé dans une tombe pleine de vieux tracas Je viens d'un autre monde, ici, je ne m'y fais pas Que cela ne t'étonne, je viens de là-bas Tout ceci est louche Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw, yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Dems! La vie c'est dur, un peu comme ma bite Elle m'a fait gagner des femmes mais perdre celle que j'aimais Mon jus d'amour, sur tant de visages, j'évacue ma rage par galipettes J'dis pas les mots car pour moi ils me tuent J'nique des mères pour la dînette Dans ces cas là je veux que tu médises Et puis que tu me dises j'aurais pas dû naître J'pars dans le Mississippi, là où personne sait qui j'suis J'suis damé, j'suis rôti Dent d'or dans</t>
+          <t>Allô la Terre, ici, y'a pas d'eau Chelou comme un son de franc-maçon Qui sont-ils vraiment, I don't know Avant Dieu, y'a rien de toutes les façons I got hoes, tout est lourd J'fais le show, en Lambo', ah ouais négro K.L.H est dans le zoo Négro, fais tourner, ça sent la kush Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche yaw yaw yaw yaw yaw Kush! Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw, yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Dems, Dems! Dems, Dems! S'faire sucer, c'est pas tromper Faire succès, c'est n'pas s'tromper Trop de billets jaunes, verts, violets J'ai tout nié, toi balancé Tout est écrit, ouais, qu'ils m'ont dit Les mêmes qui ont dit que j'y arriverai pas Jamais négro s'enterre en vie, jamais négro ne baisse les bras J'illumine, j'élimine, ennemis, imminent Pas d'paroles, patates sur les lips Si j'urine dans la ville c'est que j'suis sur les Champs Grosse salope, quatre pattes sur le bitume Inoffensif je fus, une offensive et je tue Une gencive de plus, sur le bitume j'accumule embrouilles, bagarres de rue J'prends le réseau, négro, j'te laisse que l'WiFi Au studio j'fais qu'du sale, au studio tu n'fais qu'du bruit Ils tuent pour prendre nos terres comme G. Bush, Saddam R.I.P J'sais toujours pas naviguer pourtant j'connais qu'des rates-pi Dems, Dems Kush! Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw, yaw yaw Kush! Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Dems! Ding dong, v'la le Mwaka J'marche dans la ville comme une âme en vrac En attendant qu'ils tombent sous le AK brrr J'observe comme King Kong au-dessus de Manhattan Voilà déjà une plombe que j'suis fracas Allongé dans une tombe pleine de vieux tracas Je viens d'un autre monde, ici, je ne m'y fais pas Que cela ne t'étonne, je viens de là-bas Tout ceci est louche Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw, yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Dems! La vie c'est dur, un peu comme ma bite Elle m'a fait gagner des femmes mais perdre celle que j'aimais Mon jus d'amour, sur tant de visages, j'évacue ma rage par galipettes J'dis pas les mots car pour moi ils me tuent J'nique des mères pour la dînette Dans ces cas là je veux que tu médises Et puis que tu me dises j'aurais pas dû naître J'pars dans le Mississippi, là où personne sait qui j'suis J'suis damé, j'suis rôti Dent d'or dans</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Hey Soon, I'll stop all this, mama, soon, I'll change my life Life I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Eh, tomorrow, I'm changing cities Soon, I'll stop all this, mama, soon, I'll change my life Yeah I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Dirty, tomorrow, I'm changing cities Yeah Soon, I'll stop all this, mama, soon I'll change my life I have a hard time telling baba Baba, baba Soon, I'll stop all this, mama Soon, soon Tomorrow I change cities Yeah, yeah You have a certified account but you have no followers, cheater Dems Record companies are bitches, that's why they make promises, I won't make the same mistake twice Give me your heart so I can crush my butt, it's you I'm talking to so don't act like De Niro I gained grams and I lost kilos, don't assume your baldness like Ne-Yo That's too much weed for one weed, that's too many bitches for one cock It's too many deaths for one life, it's too much damage for one girl I'm in the bendo, withdrawn into myself, I don't greet you, I'm not courteous Far from thugs and bourgeois, between life and death on the armrest I hear Dirty nigga, oh yeah? I turn sharply, Glock boom, boom, bang, bang Every day to be in main event, big, black and hard as an ebony Too much sorrow inside, I've known war and fear Hymen rupture, she hurts me, I haven't even fucked her, I've already fucked her You might also like Soon, I'll stop all this, mama, soon, I'll change my life Life I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Eh, tomorrow, I'm changing cities Soon, I'll stop all this, mama, soon, I'll change my life Yeah I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Dirty, tomorrow, I'm changing cities Yeah My friends tease me heres the actor, my inner wealth in my laptop Mama worries about my brothers, she saw us grow up together and some end up locked up Only guinea pigs on a narrow track, I grew up the same The first time they read you your rights is when they arrest you That's when they arrest you, yeah Our success is for all the sons of bitches of security guards who looked at us badly And when I was little, I admit, I was sometimes jealous of the children that my mother looked after Those who came to lift the furniture, they weren't the movers Separation of households before the child becomes a young person Mouss spent four years in prison, for him, that was what being an adult was like And what do your rappers talk about? They're rednecks, they're lifeguards Brussels, Paris, the nursery, do you think we've been here since yesterday? You talk a lot, you sell nothing, always on the front like baby hair Mama, I was on gasolina, mama, I was on gasolina But I want to be a strong guy, I don't want to see my guys lean, no, no, no That worries me, we don't know who you are, we're investigating Certified account but no one knows you, you don't have the right to tweet in English Cheater Success is a way to have money plans and my guys, they could sell you a rental car, vroom, vroom On the traitors, one hand in the butt, the cops make them talk like ventriloquists I won't be the friend of a weak guy anymore, my brother's sister, she's my sister In our house, there is no dirty habit like in Scarface I'm in the break neck, I'm too high, man, I need a dry pussy that comes from the hood, very fresh That I fuck expressly, a big hot ass, I relieve stress and a lot of sadness I need a wellness that I can relax, I'm in too many buttocks I have to confess I'm in business, I need speed, I'm drunk, not in God bless but Soon, I'll stop all this, mama, soon, I'll change my life Life I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Eh, tomorrow, I'm changing cities Soon, I'll stop all this, mama, soon, I'll change my life Yeah I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Dirty, tomorrow, I'm changing cities Yeah Go annai itashimasu ANA 1245B Tokyo Narita Eki no Okyaku-sama wa</t>
+          <t>Hey Soon, I'll stop all this, mama, soon, I'll change my life Life I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Eh, tomorrow, I'm changing cities Soon, I'll stop all this, mama, soon, I'll change my life Yeah I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Dirty, tomorrow, I'm changing cities Yeah Soon, I'll stop all this, mama, soon I'll change my life I have a hard time telling baba Baba, baba Soon, I'll stop all this, mama Soon, soon Tomorrow I change cities Yeah, yeah You have a certified account but you have no followers, cheater Dems Record companies are bitches, that's why they make promises, I won't make the same mistake twice Give me your heart so I can crush my butt, it's you I'm talking to so don't act like De Niro I gained grams and I lost kilos, don't assume your baldness like Ne-Yo That's too much weed for one weed, that's too many bitches for one cock It's too many deaths for one life, it's too much damage for one girl I'm in the bendo, withdrawn into myself, I don't greet you, I'm not courteous Far from thugs and bourgeois, between life and death on the armrest I hear Dirty nigga, oh yeah? I turn sharply, Glock boom, boom, bang, bang Every day to be in main event, big, black and hard as an ebony Too much sorrow inside, I've known war and fear Hymen rupture, she hurts me, I haven't even fucked her, I've already fucked her Soon, I'll stop all this, mama, soon, I'll change my life Life I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Eh, tomorrow, I'm changing cities Soon, I'll stop all this, mama, soon, I'll change my life Yeah I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Dirty, tomorrow, I'm changing cities Yeah My friends tease me heres the actor, my inner wealth in my laptop Mama worries about my brothers, she saw us grow up together and some end up locked up Only guinea pigs on a narrow track, I grew up the same The first time they read you your rights is when they arrest you That's when they arrest you, yeah Our success is for all the sons of bitches of security guards who looked at us badly And when I was little, I admit, I was sometimes jealous of the children that my mother looked after Those who came to lift the furniture, they weren't the movers Separation of households before the child becomes a young person Mouss spent four years in prison, for him, that was what being an adult was like And what do your rappers talk about? They're rednecks, they're lifeguards Brussels, Paris, the nursery, do you think we've been here since yesterday? You talk a lot, you sell nothing, always on the front like baby hair Mama, I was on gasolina, mama, I was on gasolina But I want to be a strong guy, I don't want to see my guys lean, no, no, no That worries me, we don't know who you are, we're investigating Certified account but no one knows you, you don't have the right to tweet in English Cheater Success is a way to have money plans and my guys, they could sell you a rental car, vroom, vroom On the traitors, one hand in the butt, the cops make them talk like ventriloquists I won't be the friend of a weak guy anymore, my brother's sister, she's my sister In our house, there is no dirty habit like in Scarface I'm in the break neck, I'm too high, man, I need a dry pussy that comes from the hood, very fresh That I fuck expressly, a big hot ass, I relieve stress and a lot of sadness I need a wellness that I can relax, I'm in too many buttocks I have to confess I'm in business, I need speed, I'm drunk, not in God bless but Soon, I'll stop all this, mama, soon, I'll change my life Life I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Eh, tomorrow, I'm changing cities Soon, I'll stop all this, mama, soon, I'll change my life Yeah I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Dirty, tomorrow, I'm changing cities Yeah Go annai itashimasu ANA 1245B Tokyo Narita Eki no Okyaku-sama wa</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Refrain Émilia, Émilia Enfin te revoilà Tu es là toute indécise Laisse tomber ta valise Émilia, Émilia Enroule-toi dans mes bras On fera des bêtises On fera n'importe quoi Lauriers d'amour, tamariniers câlins Des campanules et des lys opalins Y avait tout, y avait tout dans ta chambre La fleur du bout de tes seins sentait l'ambre Des martinets des chaînes et des anneaux Des moulinets et des pièges à moineaux Y avait tout, y avait tout dans ta chambre Des poulies des onguents et du chanvre Fasciné par tes lèvres purpurines J'avais le cur au fond de la poitrine au Refrain Les fleurs du mal, un disque de Trenet Deux trois Chinois, un Russe, un Javanais Y avait tout, y avait tout dans ta chambre Du soleil des cerises en décembre Moi, plus puceau que la chèvre de m'sieur Seguin Je venais regarder pousser tes seins J'avais un peu d'acné juvénile Et tu guidas ma main malhabile Tu corrigeais toutes mes maladresses Tu refrénais mes excès de vitesse You might also likeau Refrain Des feuilles d'impôts, ma pipe et mon vélo Des cartes postales des lieux de ton boulot Mexico, Singapour et la Flandre Y a de tout, y a de tout dans ma chambre Ces déchirures au bord de tes yeux doux Disent que tu en as bavé, un peu, beaucoup Y a de tout, y a de tout dans les chambres Ô piétine la carte du tendre Alors, dis-moi seras-tu ma compagne ? Le reste du chemin, je t'accompagne Refrain Émilia, Émilia Je te garde pour moi On fera des bêtises On fera n'importe quoi Émilia, Émilia Enroule-toi dans mes bras Tu as payé la facture Le client était roi Émilia, Émilia Enfin te revoilà Tu es là toute indécise À présent, tu es chez toi Émilia, Émilia Je te garde pour moi Tu es là toute indécise Laisse tomber ta valise</t>
+          <t>Refrain Émilia, Émilia Enfin te revoilà Tu es là toute indécise Laisse tomber ta valise Émilia, Émilia Enroule-toi dans mes bras On fera des bêtises On fera n'importe quoi Lauriers d'amour, tamariniers câlins Des campanules et des lys opalins Y avait tout, y avait tout dans ta chambre La fleur du bout de tes seins sentait l'ambre Des martinets des chaînes et des anneaux Des moulinets et des pièges à moineaux Y avait tout, y avait tout dans ta chambre Des poulies des onguents et du chanvre Fasciné par tes lèvres purpurines J'avais le cur au fond de la poitrine au Refrain Les fleurs du mal, un disque de Trenet Deux trois Chinois, un Russe, un Javanais Y avait tout, y avait tout dans ta chambre Du soleil des cerises en décembre Moi, plus puceau que la chèvre de m'sieur Seguin Je venais regarder pousser tes seins J'avais un peu d'acné juvénile Et tu guidas ma main malhabile Tu corrigeais toutes mes maladresses Tu refrénais mes excès de vitesse au Refrain Des feuilles d'impôts, ma pipe et mon vélo Des cartes postales des lieux de ton boulot Mexico, Singapour et la Flandre Y a de tout, y a de tout dans ma chambre Ces déchirures au bord de tes yeux doux Disent que tu en as bavé, un peu, beaucoup Y a de tout, y a de tout dans les chambres Ô piétine la carte du tendre Alors, dis-moi seras-tu ma compagne ? Le reste du chemin, je t'accompagne Refrain Émilia, Émilia Je te garde pour moi On fera des bêtises On fera n'importe quoi Émilia, Émilia Enroule-toi dans mes bras Tu as payé la facture Le client était roi Émilia, Émilia Enfin te revoilà Tu es là toute indécise À présent, tu es chez toi Émilia, Émilia Je te garde pour moi Tu es là toute indécise Laisse tomber ta valise</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Paris, c'est loin De la Fuentes, ah, ah Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin d'ici, si-si Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin, d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin, d'ici, eh Les jaloux se reconnaissent entre eux, beaucoup d'haineux, beaucoup d'envieux La réussite entraîne la frustration des Hommes, confond travailleur avec chanceux Des nuits blanches à broyer du noir car l'angoisse de la page blanche a fait que je voyais rouge J'en ai vu de toutes les couleurs, ma plume a souvent dû changer d'épouse Amis et frères, y a pas plus dangereux mais moins qu'une femme qui te ment dans les yeux, ça fait partie du jeu J'éternue souvent pour faire un maximum de vux Je fus découvert par B2O, d'insultes, j'fus couvert pour quelques mots, la rime du foulard entre autres J'suis responsable de c'que j'écris, pas de c'que tu comprends du flow, no D.A.M.S.O, qui m'aime me like ou me follow, ça fait partie du flow Vulgaires sont les mots, j'me perds sur les réseaux, à Snapper mon bédo Mon cur est en détresse, peux tout niquer en express Je fais succès mais Paris, c'est loin, d'ici, si-si You might also like Batterie Faible Veuillez la recharger Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rate-pi énervé, j'ai au bout du fil, tu passes par la porte à la Oncle Phil Biatch, tu passes par la porte à la Oncle Phil J'fais passer mallette comme à Libreville J'te conseille de tracer un chemin plus court, le nez d'Amy Whinehouse sait de quoi je parle La cloison nasale à feu et à sang, séchée, rosée comme un jambon de Parme Très tôt déjà, j'ai connu le racisme en primaire Valérie avait peur du Noir Mais ne parlait pas de lumière, les mots sont des lames qui aiguisent haine et colère Liberté d'expression est plus efficace que censure, humoriste traqué par C.R.S, rappeur flingué dans une voiture 2Pac Forces de l'ordre font bavures, texte résiste aux ratures Solidaire comme Dame Nature, dans mon cercueil, ils me chanteront On n'est pas tout seul de Gradur Ma fille, des fois, j'aimerais voler tes yeux, pour voir le monde tel qu'il ne l'est pas Les souvenirs de naissance en nonante-deux, quatre-vingt douze, pour Français qui n'y étaient pas Dans la vie, contrairement aux échecs, la partie continue après échec et mat, disait-il aussi Je fais succès mais bon, Paris, c'est loin, d'ici, si-si Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rat-pi énervé, j'ai au bout du fil, tu passes par la porte à la Uncle Phil Biatch, tu passes par la porte à la Uncle Phil J'fais passer mallette comme à Libreville Paris, c'est loin, Paris, c'est loin, d'ici Paris, c'est loin, Paris, c'est loin, d'ici, si-si25</t>
+          <t>Paris, c'est loin De la Fuentes, ah, ah Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin d'ici, si-si Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin, d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin, d'ici, eh Les jaloux se reconnaissent entre eux, beaucoup d'haineux, beaucoup d'envieux La réussite entraîne la frustration des Hommes, confond travailleur avec chanceux Des nuits blanches à broyer du noir car l'angoisse de la page blanche a fait que je voyais rouge J'en ai vu de toutes les couleurs, ma plume a souvent dû changer d'épouse Amis et frères, y a pas plus dangereux mais moins qu'une femme qui te ment dans les yeux, ça fait partie du jeu J'éternue souvent pour faire un maximum de vux Je fus découvert par B2O, d'insultes, j'fus couvert pour quelques mots, la rime du foulard entre autres J'suis responsable de c'que j'écris, pas de c'que tu comprends du flow, no D.A.M.S.O, qui m'aime me like ou me follow, ça fait partie du flow Vulgaires sont les mots, j'me perds sur les réseaux, à Snapper mon bédo Mon cur est en détresse, peux tout niquer en express Je fais succès mais Paris, c'est loin, d'ici, si-si Batterie Faible Veuillez la recharger Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rate-pi énervé, j'ai au bout du fil, tu passes par la porte à la Oncle Phil Biatch, tu passes par la porte à la Oncle Phil J'fais passer mallette comme à Libreville J'te conseille de tracer un chemin plus court, le nez d'Amy Whinehouse sait de quoi je parle La cloison nasale à feu et à sang, séchée, rosée comme un jambon de Parme Très tôt déjà, j'ai connu le racisme en primaire Valérie avait peur du Noir Mais ne parlait pas de lumière, les mots sont des lames qui aiguisent haine et colère Liberté d'expression est plus efficace que censure, humoriste traqué par C.R.S, rappeur flingué dans une voiture 2Pac Forces de l'ordre font bavures, texte résiste aux ratures Solidaire comme Dame Nature, dans mon cercueil, ils me chanteront On n'est pas tout seul de Gradur Ma fille, des fois, j'aimerais voler tes yeux, pour voir le monde tel qu'il ne l'est pas Les souvenirs de naissance en nonante-deux, quatre-vingt douze, pour Français qui n'y étaient pas Dans la vie, contrairement aux échecs, la partie continue après échec et mat, disait-il aussi Je fais succès mais bon, Paris, c'est loin, d'ici, si-si Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rat-pi énervé, j'ai au bout du fil, tu passes par la porte à la Uncle Phil Biatch, tu passes par la porte à la Uncle Phil J'fais passer mallette comme à Libreville Paris, c'est loin, Paris, c'est loin, d'ici Paris, c'est loin, Paris, c'est loin, d'ici, si-si25</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Ahahah 92i Ahahah 92i, 92i Ahahah 92i, 92i Rien qu'en fumant ma beuh beuh, beuh, beuh, beuh J'ai effleuré le Paradis ah ah ah Bébé ce soir je rentre pas, hey ah ah ah ah ah ah J'rends visite à mon ennemi Twinsmatic Rien qu'en fumant ma beuh, yeah ah ah J'ai effleuré le Paradis ah ah ah Bébé ce soir je rentre pas, oh bébé ce soir je rentre pas J'rends visite à mon ennemi à mon ennemi Mon esprit est loin là-bas là-bas J'suis là mais tu le vois pas j'suis là mais tu le vois pas, yeah Ma pute roule un joint Elle est au petit soin La meilleure de toutes mes tchoins Gros boule avec jolis seins Rien qu'en r'gardant mon gun Rien qu'en r'gardant son gun Il veut tirer sur ses ennemis J'vais les flinguer, niquer, mais pour ça j'dois fumer parce que Rien qu'en r'gardant ma beuh Rien qu'en r'gardant sa beuh Elle veut s'défoncer toute la nuit J'veux m'défoncer, fumer, tout dépenser, m'miner jusqu'à Perdre toutes mes thunes Mais rejoindre la Lune Rien ne choque mon oinj, oinj Fumer toute ma beuh Fumer tout le Rap Jeu 92i dans le binks, binks You might also like Rien qu'en fumant ma beuh ah, ah-ah J'ai effleuré le Paradis tah tah tah tah, ahahah Bébé ce soir je rentre pas bébé ce soir je rentre pas, pas là J'rends visite à mon ennemi à mon ennemi, ohla Bâton dans l'cul j'te déteste Depuis Zer, m'bats contre mes faits et gestes Deux personnes ici, oui j'acquiesce Soirée nwaar, très nwaar, normal vu le guest hello Porte de Clignancourt, on m'embête au feu rouge Encore ces Roumaines et leur cut' J'veux commissaire, t'es prisonnière Je veux preuve d'amour, ouvre ta chatte que j'en sperme Mon amour monte dans ma grosse 'ture J'ferais pas de Aucun charbon n'serait J'suis sur la croisette Codéiné, cagoulé autour d'la table C'est pour dîner Je suis à couvert que quand j'suis à table J'ai flow inné Rien qu'en fumant ma beuh ah, ha ha J'ai effleuré le Paradis tah tah tah tah, ah ah ah Bébé ce soir je rentre pas bébé ce soir je rentre pas, pas là J'rends visite à mon ennemi à mon ennemi, ohla Elle m'a dit renoi, je t'aime, j'lui dis moi non plus Maintenant on va au pieux, parlons plus Des années on s'est pas vus, t'as changé, oui j'l'avoue Moi comme toujours, depuis tout petit Mon esprit est loin là-bas, là-bas, là-bas, là-bas, là-bas, yeah yeah hey Mon esprit est loin là-bas, là-bas, là-bas, hey yeah C'est très noir par ici, noir est l'artiste Ne reste pas statique, tu peux graille une balle ici J't'avais déjà dit ne viens pas par ici C'est très noir par ici, c'est très noir par ici Rien qu'en fumant ma beuh</t>
+          <t>Ahahah 92i Ahahah 92i, 92i Ahahah 92i, 92i Rien qu'en fumant ma beuh beuh, beuh, beuh, beuh J'ai effleuré le Paradis ah ah ah Bébé ce soir je rentre pas, hey ah ah ah ah ah ah J'rends visite à mon ennemi Twinsmatic Rien qu'en fumant ma beuh, yeah ah ah J'ai effleuré le Paradis ah ah ah Bébé ce soir je rentre pas, oh bébé ce soir je rentre pas J'rends visite à mon ennemi à mon ennemi Mon esprit est loin là-bas là-bas J'suis là mais tu le vois pas j'suis là mais tu le vois pas, yeah Ma pute roule un joint Elle est au petit soin La meilleure de toutes mes tchoins Gros boule avec jolis seins Rien qu'en r'gardant mon gun Rien qu'en r'gardant son gun Il veut tirer sur ses ennemis J'vais les flinguer, niquer, mais pour ça j'dois fumer parce que Rien qu'en r'gardant ma beuh Rien qu'en r'gardant sa beuh Elle veut s'défoncer toute la nuit J'veux m'défoncer, fumer, tout dépenser, m'miner jusqu'à Perdre toutes mes thunes Mais rejoindre la Lune Rien ne choque mon oinj, oinj Fumer toute ma beuh Fumer tout le Rap Jeu 92i dans le binks, binks Rien qu'en fumant ma beuh ah, ah-ah J'ai effleuré le Paradis tah tah tah tah, ahahah Bébé ce soir je rentre pas bébé ce soir je rentre pas, pas là J'rends visite à mon ennemi à mon ennemi, ohla Bâton dans l'cul j'te déteste Depuis Zer, m'bats contre mes faits et gestes Deux personnes ici, oui j'acquiesce Soirée nwaar, très nwaar, normal vu le guest hello Porte de Clignancourt, on m'embête au feu rouge Encore ces Roumaines et leur cut' J'veux commissaire, t'es prisonnière Je veux preuve d'amour, ouvre ta chatte que j'en sperme Mon amour monte dans ma grosse 'ture J'ferais pas de Aucun charbon n'serait J'suis sur la croisette Codéiné, cagoulé autour d'la table C'est pour dîner Je suis à couvert que quand j'suis à table J'ai flow inné Rien qu'en fumant ma beuh ah, ha ha J'ai effleuré le Paradis tah tah tah tah, ah ah ah Bébé ce soir je rentre pas bébé ce soir je rentre pas, pas là J'rends visite à mon ennemi à mon ennemi, ohla Elle m'a dit renoi, je t'aime, j'lui dis moi non plus Maintenant on va au pieux, parlons plus Des années on s'est pas vus, t'as changé, oui j'l'avoue Moi comme toujours, depuis tout petit Mon esprit est loin là-bas, là-bas, là-bas, là-bas, là-bas, yeah yeah hey Mon esprit est loin là-bas, là-bas, là-bas, hey yeah C'est très noir par ici, noir est l'artiste Ne reste pas statique, tu peux graille une balle ici J't'avais déjà dit ne viens pas par ici C'est très noir par ici, c'est très noir par ici Rien qu'en fumant ma beuh</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Tel un soleil sans abat-jour Pire que pas d'amour Trop d'amour Pourquoi ce p'tit problème ? Parfois victime de ceux qu'on aime À tout donner, tu as souffert Oui, trop donner c'est l'contraire Rien n'est du hasard L'héritage c'est l'bazar ! Le désir miné, l'sexe et l'appât L'amour a ses limites que l'chagrin n'a pas Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Qui aime bien châtie bien, j'en ai parlé à mon chien S'est mis à me mordre comme un amour parisien Il criait l'aimer, les bleus n'ont pas convaincu Tout le monde le savait, alors tout le monde s'est tu D'habitude, les gens ne font qu'parler avant d'avoir su Par conséquent, tout ce qu'on entend manque d'aperçu You might also like Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Je me tiens loin de l'amour immense Dès qu'il est clamé, les ennuis commencent Moins la haine car le cur est dur Néanmoins, le sentiment qu'il me reste est pur Je monte sur scène, la ville est inondée D'amour Dix personnes devant moi font une salle bondée Ce monde s'écroule pour l'amour qui manque Quand on a si peur, il faut qu'on chante Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Trop d'amour Pire que pas assez Trop d'amour Pire que pas...</t>
+          <t>Tel un soleil sans abat-jour Pire que pas d'amour Trop d'amour Pourquoi ce p'tit problème ? Parfois victime de ceux qu'on aime À tout donner, tu as souffert Oui, trop donner c'est l'contraire Rien n'est du hasard L'héritage c'est l'bazar ! Le désir miné, l'sexe et l'appât L'amour a ses limites que l'chagrin n'a pas Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Qui aime bien châtie bien, j'en ai parlé à mon chien S'est mis à me mordre comme un amour parisien Il criait l'aimer, les bleus n'ont pas convaincu Tout le monde le savait, alors tout le monde s'est tu D'habitude, les gens ne font qu'parler avant d'avoir su Par conséquent, tout ce qu'on entend manque d'aperçu Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Je me tiens loin de l'amour immense Dès qu'il est clamé, les ennuis commencent Moins la haine car le cur est dur Néanmoins, le sentiment qu'il me reste est pur Je monte sur scène, la ville est inondée D'amour Dix personnes devant moi font une salle bondée Ce monde s'écroule pour l'amour qui manque Quand on a si peur, il faut qu'on chante Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Trop d'amour Pire que pas assez Trop d'amour Pire que pas...</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>L'heure est tardive, j'vois l'ciel s'déchirer J'compte plus mes ennemis, très peu sur qui compter Ils veulent tous m'enculer, oh no Qui m'aime, me like, me follow Qui m'aime, me like, me follow follow, followYou might also like</t>
+          <t>L'heure est tardive, j'vois l'ciel s'déchirer J'compte plus mes ennemis, très peu sur qui compter Ils veulent tous m'enculer, oh no Qui m'aime, me like, me follow Qui m'aime, me like, me follow follow, follow</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Skr Skr Blink, Yah' uh, 07 yao' yao' yao' No soy de este planeta me dicen el alien Mis flow' no lo' entienden a ustedes no le sale No les sale Blindado en el trap y todos lo saben Blessed con alas parezco un ángel Ángel Vengo del espacio por eso doy más Vuelo y golpeo pseudo superman Mi capa la droga mi kripto mi mami Me quieren cazar, fuck men in black Soy anti-gravedad, nota espacial -Voy volando Necesitan nerfearme para poderme frontear Yah' Ser lo mejor lo hago de rutina Yo llego al show le lleno las sillas Br, br, br Si son competencia le bajo taquilla Si son mis bro' le subo bocina Sin bling bling no brillan, les cierran la cortina Me lo' como golosina, lo mezclo en codeina Con sprite Sigo trappin sigo espacial, ambos lados del yin yang Lento como el tic tac, con mi crew con mi gang Con mi crew con mi gang -Con mi crew con mi gang, SGB You might also likeNo soy de este planeta me dicen el alien Mis flow' no lo' entienden a ustedes no le sale No les sale Blindado en el trap y todos lo saben Saben Blessed con alas parezco un ángel Ángel Uh ah esos haters están esperando a que se me suba No me sube na' Y en mi luna nadie se me sube Na', na' na' Vivo en la mía de noche en la luna y de día en la nube Yah' Último hijo del trap, en la tierra como clark - Trap, trap, Superman Piquete FG, yah', interestelar -Fucking Good, Shot out para Cacho Con mi combo pisamos la nike, ya lo dijo el Dark, ah -Pain Black white black white, ah, ah Los shooter te damos bang bang, les decimos bye bye Del trap somos la para, no hablen si no es a la cara No hablen si no es a la cara Yah' yah', Blink07, con la SGB Shooter Gang Boys La para del trap yah'</t>
+          <t>Skr Skr Blink, Yah' uh, 07 yao' yao' yao' No soy de este planeta me dicen el alien Mis flow' no lo' entienden a ustedes no le sale No les sale Blindado en el trap y todos lo saben Blessed con alas parezco un ángel Ángel Vengo del espacio por eso doy más Vuelo y golpeo pseudo superman Mi capa la droga mi kripto mi mami Me quieren cazar, fuck men in black Soy anti-gravedad, nota espacial -Voy volando Necesitan nerfearme para poderme frontear Yah' Ser lo mejor lo hago de rutina Yo llego al show le lleno las sillas Br, br, br Si son competencia le bajo taquilla Si son mis bro' le subo bocina Sin bling bling no brillan, les cierran la cortina Me lo' como golosina, lo mezclo en codeina Con sprite Sigo trappin sigo espacial, ambos lados del yin yang Lento como el tic tac, con mi crew con mi gang Con mi crew con mi gang -Con mi crew con mi gang, SGB No soy de este planeta me dicen el alien Mis flow' no lo' entienden a ustedes no le sale No les sale Blindado en el trap y todos lo saben Saben Blessed con alas parezco un ángel Ángel Uh ah esos haters están esperando a que se me suba No me sube na' Y en mi luna nadie se me sube Na', na' na' Vivo en la mía de noche en la luna y de día en la nube Yah' Último hijo del trap, en la tierra como clark - Trap, trap, Superman Piquete FG, yah', interestelar -Fucking Good, Shot out para Cacho Con mi combo pisamos la nike, ya lo dijo el Dark, ah -Pain Black white black white, ah, ah Los shooter te damos bang bang, les decimos bye bye Del trap somos la para, no hablen si no es a la cara No hablen si no es a la cara Yah' yah', Blink07, con la SGB Shooter Gang Boys La para del trap yah'</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>T'as gravé mon nom derrière la porte des toilettes, hmm Après la fellation qui finit bien la soirée, hmm Le peuple peut parler même sans bouger les lèvres Entouré des vrais, moi jai dû traverser des épreuves J'ai traîné toute la douleur du monde sur mes épaules Le mal d'une femelle qui se fait tatouer les nipples Si loccasion se présente, le gros, vas-y fais le Quand je parle comme ça, c'est pas moi qui parle, non, c'est le devil Je suis le haze, je suis le lemon 187, je suis convaincu qu'je suis Lennon Gros, je suis backstage, j'attends le paiement Je suis désolé de t'entraîner dans mes démences Je suis à Amsterdam avec les frérots Dans les vitrines, des Marie-Mai, des Mahée Paiement Tu peux m'appeler Soldat, tu peux m'appeler Kevin Le poison est toujours mélangé dans le sérum Jmets mes lunettes fumées, ce soir je me défonce Je tombe profond, jécris tout ça dans la pénombre J'ai fumé trop de grammes, jsuis dans la voie lactée Pour kicker le freestyle, tu sais c'est quoi l'astuce Ce n'est pas de lart, non, c'est de l'art abstrait J'ai le flow qui vient violer tout ces rappeurs has-been Me tirer devant témoins sans un silencieux Je poste ma gueule sur Instagram et je file en douce C'est comme les Bloods et les Crips qui s'tirent entre eux Pourquoi t'as perdu patience, pourquoi tu t'es mis dans l'trouble? You might also like Tu as prié pour rien, hmm Bang, bang quand c'est l'heure de la fiesta J'étais jeune, astronaute, j'avais besoin d'espace, hmm Bang, bang quand c'est l'heure de la fiesta Le Québec atterrit sur la planète Mars, hmm Y'a des choses comme ça, le gros dis-moi qu'est-ce qui a J'atterris à Paris, j'atterris à Bay Spa J'avais besoin d'amour, j'avais besoin d'espoir Ce matin j'attaque la banque et je prends la fuite en Vespa Overdose dans ma baignoire juste avant le spectacle Ils pourront dire ce qu'ils voudront, ça ne m'intéresse pas Laisse-moi dans ma douleur, laisse-moi dans mon sang De toute façon, ils n'ont pas compris le message Oui, ils se souviendront de moi comme un valeureux guerrier Malheureux nous étions, on laisse le passé derrière J'ai plongé du haut d'la tour Eiffel, la mort nous ouvre les yeux Je me demande comment j'ai fait pour me rendre jusqu'ici Je monte, je redescends et je remonte Demain je me déguise en suicide Je leur ai crié ma peine et ils se sont bouché les oreilles Oui, laissez-moi sur ma planète et laissez-moi dans ma folie Je suis l'enfant perdu retrouvé pendu dans la forêt Éternel jeune enfoiré, laissez-moi rester moi-même Tu as prié pour rien, hmm Bang, bang quand c'est l'heure de la fiesta J'étais jeune, astronaute, j'avais besoin d'espace, hmm Bang, bang quand c'est l'heure de la fiesta Le Québec atterrit sur la planète Mars, hmm Tu as prié pour rien, hmm prié pour rien On fait les vrais choses on y va pas de mains mortes J'étais jeune, astronaute, j'avais besoin d'espace, hmm Astronaute, j'avais besoin d'espace, astronaute j'avais besoin d'espace Ah!</t>
+          <t>T'as gravé mon nom derrière la porte des toilettes, hmm Après la fellation qui finit bien la soirée, hmm Le peuple peut parler même sans bouger les lèvres Entouré des vrais, moi jai dû traverser des épreuves J'ai traîné toute la douleur du monde sur mes épaules Le mal d'une femelle qui se fait tatouer les nipples Si loccasion se présente, le gros, vas-y fais le Quand je parle comme ça, c'est pas moi qui parle, non, c'est le devil Je suis le haze, je suis le lemon 187, je suis convaincu qu'je suis Lennon Gros, je suis backstage, j'attends le paiement Je suis désolé de t'entraîner dans mes démences Je suis à Amsterdam avec les frérots Dans les vitrines, des Marie-Mai, des Mahée Paiement Tu peux m'appeler Soldat, tu peux m'appeler Kevin Le poison est toujours mélangé dans le sérum Jmets mes lunettes fumées, ce soir je me défonce Je tombe profond, jécris tout ça dans la pénombre J'ai fumé trop de grammes, jsuis dans la voie lactée Pour kicker le freestyle, tu sais c'est quoi l'astuce Ce n'est pas de lart, non, c'est de l'art abstrait J'ai le flow qui vient violer tout ces rappeurs has-been Me tirer devant témoins sans un silencieux Je poste ma gueule sur Instagram et je file en douce C'est comme les Bloods et les Crips qui s'tirent entre eux Pourquoi t'as perdu patience, pourquoi tu t'es mis dans l'trouble? Tu as prié pour rien, hmm Bang, bang quand c'est l'heure de la fiesta J'étais jeune, astronaute, j'avais besoin d'espace, hmm Bang, bang quand c'est l'heure de la fiesta Le Québec atterrit sur la planète Mars, hmm Y'a des choses comme ça, le gros dis-moi qu'est-ce qui a J'atterris à Paris, j'atterris à Bay Spa J'avais besoin d'amour, j'avais besoin d'espoir Ce matin j'attaque la banque et je prends la fuite en Vespa Overdose dans ma baignoire juste avant le spectacle Ils pourront dire ce qu'ils voudront, ça ne m'intéresse pas Laisse-moi dans ma douleur, laisse-moi dans mon sang De toute façon, ils n'ont pas compris le message Oui, ils se souviendront de moi comme un valeureux guerrier Malheureux nous étions, on laisse le passé derrière J'ai plongé du haut d'la tour Eiffel, la mort nous ouvre les yeux Je me demande comment j'ai fait pour me rendre jusqu'ici Je monte, je redescends et je remonte Demain je me déguise en suicide Je leur ai crié ma peine et ils se sont bouché les oreilles Oui, laissez-moi sur ma planète et laissez-moi dans ma folie Je suis l'enfant perdu retrouvé pendu dans la forêt Éternel jeune enfoiré, laissez-moi rester moi-même Tu as prié pour rien, hmm Bang, bang quand c'est l'heure de la fiesta J'étais jeune, astronaute, j'avais besoin d'espace, hmm Bang, bang quand c'est l'heure de la fiesta Le Québec atterrit sur la planète Mars, hmm Tu as prié pour rien, hmm prié pour rien On fait les vrais choses on y va pas de mains mortes J'étais jeune, astronaute, j'avais besoin d'espace, hmm Astronaute, j'avais besoin d'espace, astronaute j'avais besoin d'espace Ah!</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Hamza Fais moi encore une danse yeah yah Avale mon bas entier arrête de faire ta comédienne Je suis sur le coin avec la meilleure des Mexico damn VVS diamants damn J'ai des groupies dans le six damn Je tappelle ce soir sur ton fixe What's up babe Damso Yeeeeeeeah On t'as jamais vu, comme le vrai cul de Kim Kardashian Nwar Gaule affamée quand jla vois sur l'allée, depuis la chambre du batiment Les haineux disent qu t'es ma bh se mentnt entre eux comme un trait d'union J'ai la gauloise en plein Zénith, elle donne heure et direction Dems dems Un bon bédo par ici la défonce C'est marqué vu mais toujours pas de réponse Y a rien dans la tête du petit, elle pensais que je suis là pour son physique J'achète des bouteilles en boîte quand je n'aime pas la musique Hamza Damso, Dems et moi viennent pour prendre ce cash Hola Je te prends avec ce soir ma bae préviens ton mec Je suis sur le coin, baby faut un henny denseYou might also like</t>
+          <t>Hamza Fais moi encore une danse yeah yah Avale mon bas entier arrête de faire ta comédienne Je suis sur le coin avec la meilleure des Mexico damn VVS diamants damn J'ai des groupies dans le six damn Je tappelle ce soir sur ton fixe What's up babe Damso Yeeeeeeeah On t'as jamais vu, comme le vrai cul de Kim Kardashian Nwar Gaule affamée quand jla vois sur l'allée, depuis la chambre du batiment Les haineux disent qu t'es ma bh se mentnt entre eux comme un trait d'union J'ai la gauloise en plein Zénith, elle donne heure et direction Dems dems Un bon bédo par ici la défonce C'est marqué vu mais toujours pas de réponse Y a rien dans la tête du petit, elle pensais que je suis là pour son physique J'achète des bouteilles en boîte quand je n'aime pas la musique Hamza Damso, Dems et moi viennent pour prendre ce cash Hola Je te prends avec ce soir ma bae préviens ton mec Je suis sur le coin, baby faut un henny dense</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>C'est pas qu'j't'ai menti J'ai juste pas dis toutes la vérité Pour pas qu'tu t'mettes à vérifier Que toutes mes ex m'envoient des nudes Car toutes mes ex m'envoient des nudes Et ça c'est pas toute la vérité Car si j'dis toute la vérité Ils pourront plus jamais t'quitter Ces images de C'est juste un téléphone Rien d'plus que des biatchs Désespérées en manque d'attention Et j'étais souvent stone Ce rêve doux dans un nuage Fumez à la vie silencieuse qui nous tend C'est You might also like</t>
+          <t>C'est pas qu'j't'ai menti J'ai juste pas dis toutes la vérité Pour pas qu'tu t'mettes à vérifier Que toutes mes ex m'envoient des nudes Car toutes mes ex m'envoient des nudes Et ça c'est pas toute la vérité Car si j'dis toute la vérité Ils pourront plus jamais t'quitter Ces images de C'est juste un téléphone Rien d'plus que des biatchs Désespérées en manque d'attention Et j'étais souvent stone Ce rêve doux dans un nuage Fumez à la vie silencieuse qui nous tend C'est</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Bolingo eza maladie mabé Okotonda nango motéma Symptôme nango souci Kasi kisi nayango Se présence ya moto Oyo ozali kolula Lokula nalula masiya Ya nde kisi nga Eh eeehYou might also like</t>
+          <t>Bolingo eza maladie mabé Okotonda nango motéma Symptôme nango souci Kasi kisi nayango Se présence ya moto Oyo ozali kolula Lokula nalula masiya Ya nde kisi nga Eh eeeh</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Discographie - Damso Album Studio - 20160708 Damso - Batterie faible - 20170428 Damso - Ipséité - 20180615 Damso - Lithopédion - 20200918 Damso - QALF - 20210429 Damso - QALF infinity Mixtape - 20140829 Damso - Salle d'attente Compilation - 20181214 Damso - Intégrale - 20190809 Damso - Ipséité Lithopédion Single - 20120328 Damso - Freestyle Portes Ouvertes FPO - 20121001 Damso - Brouillard - 20140308 Damso - EGO - 20140328 Damso - Publie Partage Promo - 20140818 Damso - On n'est jamais mieux compris que par soi-même - 20140829 Damso - Le talent ne suffit pas - 20140928 Damso - IVG - 20141220 Damso - Tout oublier - 20141220 Damso - BANG BANG - 20150808 Damso - Comment faire un tube - 20151118 Damso - Ma putain - 20151119 Damso - Colis - 20151120 Damso - Poséidon - 20151217 Damso - Mi Amor - 20160122 Damso - Débrouillard - 20160427 Damso - Autotune - 20160527 Damso - BruxellesVie - 20160621 Damso - Peur d'être sobre - 20160624 Damso - Périscope - 20160708 Damso - Graine de sablier - 20160718 Damso - Paris c'est loin - 20161107 Damso - Amnésie - 20160919 Damso - Débrouillard Remix - 20160928 Damso - Freestyle Deezr - 20170118 Damso - Smeagol - 20170220 Damso - CQFD - 20170403 Damso - Mort - 20170428 Damso - N. J Respect R - 20170428 Damso - . Nwaar Is Th New Black - 20170525 Damso - TieksVie - 20170706 Damso - . Macarena - 20170714 Damso - Quotidien de baisé - 20170901 Damso - Mucho Dinero - 20170903 Damso - C'est toujours Dems Le vrai - 20171027 Damso - Seultou - 20171027 Damso - Fais-moi un Vie - 20171110 Damso - Je nous mens - 20171201 Damso - Tueurs - 20180316 Damso - . Mosaïque solitaire - 20180428 Damso - Ipséité - 20180605 Damso - . Ouzbek - 20180613 Damso - Smog - 20180801 Damso - Surcôté - 20200124 Damso - veillé - 20200328 Damso - - 20210107 Damso - 911 - 20210406 Damso - J'avais juste envie décrire - 20221218 Damso - Cur de pirate You might also likeFeaturing - 2008 Dolfa - Cyclone - 20151112 LeBoy Krisy'B - Studio Remix - 20151204 Booba - Pinocchio - 2016 Siboy - Paradis - 20160410 Krisy - Real - 20160611 Booba - Freestyle Couvre Feu OKLM - 20160624 Hamza - Slow - 20170120 Vald - Vitrine - 20170331 Benash - Ivre - 20170630 Siboy - Mobali - 20171006 Kalash - Mwaka Moon - 20171117 Lacrim - Noche - 20171201 Booba - 113 - 20171213 Kalash - Mwaka Moon Felckin Remix - 20180518 Kalash - Mwaka Moon Sfera Ebbasta Remix - 20181114 OrelSan - Rêves bizarres - 20181207 404Billy - RVRE - 20190606 Nekfeu - Tricheur - 20190628 D.A.V - ParoVie - 20190712 Vegedream - Personne - 20190726 Kalash - JTC - 20190726 Kalash - Praliné - 20190927 Ikaz Boi - SOLITERRIEN - 20191118 Dadju - Robe - 20191219 Hamza - God Bless - 20200307 Ninho - Promo - 20201015 Innoss'B - Best - 20201016 Kalash Criminel - But en or - 20210305 ElGrandeToto - Étranger - 20210702 Dinos - Du mal à te dire - 20210716 Laylow - R9R-LINE - 20211203 Angèle - Démons - 20220301 Angèle - Démons Live Orchestral - 20220309 Aya Nakamura - Dégaine - 20220317 Disiz - RENCONTRE - 20220325 Selah Sue - Wanted You to Know - 20220429 Kalash - I Love You - 20220429 Kobo - .FUMÉE.ÉPAISSE - 20220701 Gazo - BODIES - 20220923 Kalash - Malpolis - 20221111 Lous and The Yakuza - Lubie - 20230217 Hamza - Nocif Discographie complémentaire - Discographie - OPG</t>
+          <t>Discographie - Damso Album Studio - 20160708 Damso - Batterie faible - 20170428 Damso - Ipséité - 20180615 Damso - Lithopédion - 20200918 Damso - QALF - 20210429 Damso - QALF infinity Mixtape - 20140829 Damso - Salle d'attente Compilation - 20181214 Damso - Intégrale - 20190809 Damso - Ipséité Lithopédion Single - 20120328 Damso - Freestyle Portes Ouvertes FPO - 20121001 Damso - Brouillard - 20140308 Damso - EGO - 20140328 Damso - Publie Partage Promo - 20140818 Damso - On n'est jamais mieux compris que par soi-même - 20140829 Damso - Le talent ne suffit pas - 20140928 Damso - IVG - 20141220 Damso - Tout oublier - 20141220 Damso - BANG BANG - 20150808 Damso - Comment faire un tube - 20151118 Damso - Ma putain - 20151119 Damso - Colis - 20151120 Damso - Poséidon - 20151217 Damso - Mi Amor - 20160122 Damso - Débrouillard - 20160427 Damso - Autotune - 20160527 Damso - BruxellesVie - 20160621 Damso - Peur d'être sobre - 20160624 Damso - Périscope - 20160708 Damso - Graine de sablier - 20160718 Damso - Paris c'est loin - 20161107 Damso - Amnésie - 20160919 Damso - Débrouillard Remix - 20160928 Damso - Freestyle Deezr - 20170118 Damso - Smeagol - 20170220 Damso - CQFD - 20170403 Damso - Mort - 20170428 Damso - N. J Respect R - 20170428 Damso - . Nwaar Is Th New Black - 20170525 Damso - TieksVie - 20170706 Damso - . Macarena - 20170714 Damso - Quotidien de baisé - 20170901 Damso - Mucho Dinero - 20170903 Damso - C'est toujours Dems Le vrai - 20171027 Damso - Seultou - 20171027 Damso - Fais-moi un Vie - 20171110 Damso - Je nous mens - 20171201 Damso - Tueurs - 20180316 Damso - . Mosaïque solitaire - 20180428 Damso - Ipséité - 20180605 Damso - . Ouzbek - 20180613 Damso - Smog - 20180801 Damso - Surcôté - 20200124 Damso - veillé - 20200328 Damso - - 20210107 Damso - 911 - 20210406 Damso - J'avais juste envie décrire - 20221218 Damso - Cur de pirate Featuring - 2008 Dolfa - Cyclone - 20151112 LeBoy Krisy'B - Studio Remix - 20151204 Booba - Pinocchio - 2016 Siboy - Paradis - 20160410 Krisy - Real - 20160611 Booba - Freestyle Couvre Feu OKLM - 20160624 Hamza - Slow - 20170120 Vald - Vitrine - 20170331 Benash - Ivre - 20170630 Siboy - Mobali - 20171006 Kalash - Mwaka Moon - 20171117 Lacrim - Noche - 20171201 Booba - 113 - 20171213 Kalash - Mwaka Moon Felckin Remix - 20180518 Kalash - Mwaka Moon Sfera Ebbasta Remix - 20181114 OrelSan - Rêves bizarres - 20181207 404Billy - RVRE - 20190606 Nekfeu - Tricheur - 20190628 D.A.V - ParoVie - 20190712 Vegedream - Personne - 20190726 Kalash - JTC - 20190726 Kalash - Praliné - 20190927 Ikaz Boi - SOLITERRIEN - 20191118 Dadju - Robe - 20191219 Hamza - God Bless - 20200307 Ninho - Promo - 20201015 Innoss'B - Best - 20201016 Kalash Criminel - But en or - 20210305 ElGrandeToto - Étranger - 20210702 Dinos - Du mal à te dire - 20210716 Laylow - R9R-LINE - 20211203 Angèle - Démons - 20220301 Angèle - Démons Live Orchestral - 20220309 Aya Nakamura - Dégaine - 20220317 Disiz - RENCONTRE - 20220325 Selah Sue - Wanted You to Know - 20220429 Kalash - I Love You - 20220429 Kobo - .FUMÉE.ÉPAISSE - 20220701 Gazo - BODIES - 20220923 Kalash - Malpolis - 20221111 Lous and The Yakuza - Lubie - 20230217 Hamza - Nocif Discographie complémentaire - Discographie - OPG</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Feelin' love, feelin' love Feelin' love, still not sure, I have a girl Feelin' love, still not sure, Ouais, I have a girl J'frappe à la porte, celle du paradis mais c'est l'Diable qui répond Le cul en sang, j'suis v'nu par derrière pour reprendre les d'vants Un nud marin, bien mé-fer la corde à laquelle tu t'pends Beaucoup d'moyens mais plus aucun talent, y a qu'ton image qui vend Ça bi-bi des toplines à des gros rappeurs, je l'sais, faites pas semblant Toujours la guerre, un Glock vertical, la forme d'mon continent Si j'ai vu Dieu ? J'avoue, pas encore mais je n'cesse de prier Des millionnaires mais juste en avance, ne savent plus rembourser La grosse balayette, le g'nou à terre pour qu'tu te soumettes Ta montre est moins chère, ni or ni diam's, le poids d'ma gourmette Tout a un prix, même devenir père, ça s'appelle la pension Toujours en vie, maman, c'était ton heure, donc j'ai dû tuer l'temps Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée You might also like C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? Ouais, fuck ton cardio, gros, si j'te tabasse, ça traînera pas longtemps Jab, uppercut, si y a v'là l'esquive, le Glock s'ra dans mon camp J'aime quand j'traîne, quand j'croise mes gars sûrs qui m'parlent comme si c'tait hier J'aime quand j'saigne, car c'est par mes blessures que passe toute la lumière J'n'ai pas le temps, no time, j'suis plus dans la rue, les tits-pe détaillent Pute enneigée sur un rail, sniffent la neige à la paille, galère urbaine Faux négros manquent d'hygiène, toujours à squatter la gare, les huissiers à midi La daronne est fière, maintenant, notaires prennent en selfie, j'ouvre des SP sans faire de crédit Maintenant, notaires prennent en selfie, maintenant, les bourgmestres prennent en selfie Mais où est-c'qu'ils étaient quand j'voulais les papiers ? Ah, bah ouais J'ai dû les croire mais sans y croire, rouler des pétards dans les auditoires Sablier noir, de désespoir, dans la mémoire, de la gare à la gloire Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? Daronne apeurée Feelin' love, still not sure, I have a girl Feelin' love, still not sure, I have a girl</t>
+          <t>Feelin' love, feelin' love Feelin' love, still not sure, I have a girl Feelin' love, still not sure, Ouais, I have a girl J'frappe à la porte, celle du paradis mais c'est l'Diable qui répond Le cul en sang, j'suis v'nu par derrière pour reprendre les d'vants Un nud marin, bien mé-fer la corde à laquelle tu t'pends Beaucoup d'moyens mais plus aucun talent, y a qu'ton image qui vend Ça bi-bi des toplines à des gros rappeurs, je l'sais, faites pas semblant Toujours la guerre, un Glock vertical, la forme d'mon continent Si j'ai vu Dieu ? J'avoue, pas encore mais je n'cesse de prier Des millionnaires mais juste en avance, ne savent plus rembourser La grosse balayette, le g'nou à terre pour qu'tu te soumettes Ta montre est moins chère, ni or ni diam's, le poids d'ma gourmette Tout a un prix, même devenir père, ça s'appelle la pension Toujours en vie, maman, c'était ton heure, donc j'ai dû tuer l'temps Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? Ouais, fuck ton cardio, gros, si j'te tabasse, ça traînera pas longtemps Jab, uppercut, si y a v'là l'esquive, le Glock s'ra dans mon camp J'aime quand j'traîne, quand j'croise mes gars sûrs qui m'parlent comme si c'tait hier J'aime quand j'saigne, car c'est par mes blessures que passe toute la lumière J'n'ai pas le temps, no time, j'suis plus dans la rue, les tits-pe détaillent Pute enneigée sur un rail, sniffent la neige à la paille, galère urbaine Faux négros manquent d'hygiène, toujours à squatter la gare, les huissiers à midi La daronne est fière, maintenant, notaires prennent en selfie, j'ouvre des SP sans faire de crédit Maintenant, notaires prennent en selfie, maintenant, les bourgmestres prennent en selfie Mais où est-c'qu'ils étaient quand j'voulais les papiers ? Ah, bah ouais J'ai dû les croire mais sans y croire, rouler des pétards dans les auditoires Sablier noir, de désespoir, dans la mémoire, de la gare à la gloire Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? Daronne apeurée Feelin' love, still not sure, I have a girl Feelin' love, still not sure, I have a girl</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Playin' me, playing me Sold them my soul tonight Why would I compromise every time just for attention? You cannot fuck with me Part of me probably try to be gasoline Drunkenly playing with matches You kinda lucky that I found the patience You kinda lucky owning my mind I get no love unless you feel the magic You told me what to do a thousand times How I'm supposed to breathe, this shit is getting old, old Open up your eyes and see, you're losing all control-ol I can do it on my own I wanted you to know I wanted you to know You keep fuckin' up my flow I wanted you to know Wouh, oh, oh, oh I wanted you to, you to Wouh, oh, oh, oh Wanted you to, you to Wouh, oh, oh, oh Wanted you to Wouh, oh, oh, oh Wanted you to You to know You might also like Tard la nuit, j'parle seul, canalise, j'roule ds feuilles Dans le vid, j'crie, je gueule, la colère monte, les larmes coulent à l'intérieur de ma poitrine Les gens me parlent sans rien me dire, et quand je l'ouvre, que j'me livre On dit qu'jsuis taré, que j'suis barré, même scénario, à fortiori, mon temps de parole s'affine You kinda lucky I disguise your sadness Je me perds, je me perds devant la glace You kinda lucky owning my time Mon avenir en pleine prise d'otages I get no love unless I please the masses Je me perds, je me perds devant la glace You told me just about a thousand lies Ah ouais, ah ouais, ah ouais Fauché, mon cur est pauvre, infecté, nécrosé Non J'crois plus en la chance, non, métal noir chromé Bang, bang, bang, bang, je ne parle que dans la violence J'implore le ciel, mais mon âme peut-elle être sauvée ? I can do it on my own I wanted you to know I wanted you to know You keep fuckin up my flow I wanted you to know Wouh, oh, oh, oh I wanted you to Eh, eh, eh, you to Wouh, oh, oh, oh Wanted you to Eh, eh, eh, you to Wouh, oh, oh, oh Wanted you to Eh, eh, eh, you to Wanted you to, , know, know, know Watch my take control Power sway rule reign Gotta make a change Watch me takin' over this Imma fight for this Makin' dollars outta pain Watch me take it slow Watch me through the pain Watch me takin' over this Imma fight for this Makin' dollars outta pain How could you make me do this? I'm a fool for your love How could you make me do this?1</t>
+          <t>Playin' me, playing me Sold them my soul tonight Why would I compromise every time just for attention? You cannot fuck with me Part of me probably try to be gasoline Drunkenly playing with matches You kinda lucky that I found the patience You kinda lucky owning my mind I get no love unless you feel the magic You told me what to do a thousand times How I'm supposed to breathe, this shit is getting old, old Open up your eyes and see, you're losing all control-ol I can do it on my own I wanted you to know I wanted you to know You keep fuckin' up my flow I wanted you to know Wouh, oh, oh, oh I wanted you to, you to Wouh, oh, oh, oh Wanted you to, you to Wouh, oh, oh, oh Wanted you to Wouh, oh, oh, oh Wanted you to You to know Tard la nuit, j'parle seul, canalise, j'roule ds feuilles Dans le vid, j'crie, je gueule, la colère monte, les larmes coulent à l'intérieur de ma poitrine Les gens me parlent sans rien me dire, et quand je l'ouvre, que j'me livre On dit qu'jsuis taré, que j'suis barré, même scénario, à fortiori, mon temps de parole s'affine You kinda lucky I disguise your sadness Je me perds, je me perds devant la glace You kinda lucky owning my time Mon avenir en pleine prise d'otages I get no love unless I please the masses Je me perds, je me perds devant la glace You told me just about a thousand lies Ah ouais, ah ouais, ah ouais Fauché, mon cur est pauvre, infecté, nécrosé Non J'crois plus en la chance, non, métal noir chromé Bang, bang, bang, bang, je ne parle que dans la violence J'implore le ciel, mais mon âme peut-elle être sauvée ? I can do it on my own I wanted you to know I wanted you to know You keep fuckin up my flow I wanted you to know Wouh, oh, oh, oh I wanted you to Eh, eh, eh, you to Wouh, oh, oh, oh Wanted you to Eh, eh, eh, you to Wouh, oh, oh, oh Wanted you to Eh, eh, eh, you to Wanted you to, , know, know, know Watch my take control Power sway rule reign Gotta make a change Watch me takin' over this Imma fight for this Makin' dollars outta pain Watch me take it slow Watch me through the pain Watch me takin' over this Imma fight for this Makin' dollars outta pain How could you make me do this? I'm a fool for your love How could you make me do this?1</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Les réseaux font de nous des prisonniers Gang Du regard des autres et des évadés Gang Du regard des fautes qu'on veut s'épargner Gang Miroir de mots sont trop échangés Gang Tiroir d'égo veut pas s'refermer Thanks Calbar en feu, remords reportés Dems Sa mère, j'm'en veux de t'avoir démarré Parfois, c'est mieux d'pas tout réparer, réparer Gang La mer en deux va s're-séparer Gang J'vais la fumer sans la détailler Gang coincé dans un Une MST dans une d 'tasse Tu m'dis que qui ont présagé Vient au présnt, j'vais te présenter, persuadé d'tout niquer Gang Dans le top 1, j'ai aménagé Thanks Le tapis rouge est détalé Dems Sachets de gousses, paqués de beuh Du S.H.I.T bien emballé Gang Du S.H.I.T bien emballé Sachets de gousses, paqués de beuh Du S.H.I.T bien emballé, gang You might also like Tous les week-ends Eh Fonce-dé tard la night avec Marie-Jeanne Eh-eh-eh Tous les week-ends Eh Fonce-dé tard la night avec Marie-Jeanne Eh-eh-eh , eh, la défonce est dans les yeux, eh J'suis dans le stip, j'suis dans le club</t>
+          <t>Les réseaux font de nous des prisonniers Gang Du regard des autres et des évadés Gang Du regard des fautes qu'on veut s'épargner Gang Miroir de mots sont trop échangés Gang Tiroir d'égo veut pas s'refermer Thanks Calbar en feu, remords reportés Dems Sa mère, j'm'en veux de t'avoir démarré Parfois, c'est mieux d'pas tout réparer, réparer Gang La mer en deux va s're-séparer Gang J'vais la fumer sans la détailler Gang coincé dans un Une MST dans une d 'tasse Tu m'dis que qui ont présagé Vient au présnt, j'vais te présenter, persuadé d'tout niquer Gang Dans le top 1, j'ai aménagé Thanks Le tapis rouge est détalé Dems Sachets de gousses, paqués de beuh Du S.H.I.T bien emballé Gang Du S.H.I.T bien emballé Sachets de gousses, paqués de beuh Du S.H.I.T bien emballé, gang Tous les week-ends Eh Fonce-dé tard la night avec Marie-Jeanne Eh-eh-eh Tous les week-ends Eh Fonce-dé tard la night avec Marie-Jeanne Eh-eh-eh , eh, la défonce est dans les yeux, eh J'suis dans le stip, j'suis dans le club</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Yeah Ouais Yeah, yeah Yeah J'suis le pote du rappeur dans l'clip qui n'parle jamais Nan Fait des signes d'vant la caméra, l'shit fume sans arrêt Ouais Celui qui tient le calibre Poum, poum Dans l'son, on l'voit vite fait à la fin face cam, regard méchant, j't'allume Pah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Yeah You-you-you-youvoi On s'contente pas d'faire du sale dans les pe-cli Nan Souvent sa vie qu'on raconte par les OG Celui qui traîn dans la zone Toi, devrais achète ls CD pour sout'nir la famille Oui Celui qu'tu croises dans les soirées Dans les studios Ouais, dans les tournées Oui You might also like J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Moi j'suis qu'un thug, j'sais rien faire de bien Ça tire des bastos réelles d'où je viens Pourquoi ai-je tant d'ennemis ? Oh oui Des fils de putains dans le tiekson qui rodent pour me té-sau Pourquoi noir, jeune et riche attire mauvais il ? Les risques et les rageux veulent briser nos rêves Les envieux veulent pas trop connaître sex friends, yeah Ambiance électrique, mon sexe est un taser Piou On f'ra du moins d'dix-huit avec mon majeur Piou Tout est dans la musique dans le premier quart d'heure J'regarde ton physique, mon esprit est ailleurs Ouais Tu m'fais perdre la raison, mots vicieux dans l'oreille Oui Fuck les quatres saisons, j'te préfère en chaleur Love Mon cur en pleine cuisson, tu connais la saveur, le bendo J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Yeah</t>
+          <t>Yeah Ouais Yeah, yeah Yeah J'suis le pote du rappeur dans l'clip qui n'parle jamais Nan Fait des signes d'vant la caméra, l'shit fume sans arrêt Ouais Celui qui tient le calibre Poum, poum Dans l'son, on l'voit vite fait à la fin face cam, regard méchant, j't'allume Pah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Yeah You-you-you-youvoi On s'contente pas d'faire du sale dans les pe-cli Nan Souvent sa vie qu'on raconte par les OG Celui qui traîn dans la zone Toi, devrais achète ls CD pour sout'nir la famille Oui Celui qu'tu croises dans les soirées Dans les studios Ouais, dans les tournées Oui J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Moi j'suis qu'un thug, j'sais rien faire de bien Ça tire des bastos réelles d'où je viens Pourquoi ai-je tant d'ennemis ? Oh oui Des fils de putains dans le tiekson qui rodent pour me té-sau Pourquoi noir, jeune et riche attire mauvais il ? Les risques et les rageux veulent briser nos rêves Les envieux veulent pas trop connaître sex friends, yeah Ambiance électrique, mon sexe est un taser Piou On f'ra du moins d'dix-huit avec mon majeur Piou Tout est dans la musique dans le premier quart d'heure J'regarde ton physique, mon esprit est ailleurs Ouais Tu m'fais perdre la raison, mots vicieux dans l'oreille Oui Fuck les quatres saisons, j'te préfère en chaleur Love Mon cur en pleine cuisson, tu connais la saveur, le bendo J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Yeah</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Son Acoustique Thug, bandit, tu connais nos vies, la rue, les profits, tout l'champ des possibles Jeune millionnaire, plus dans la bi'-bi', excellent noir comme Carter et Diddy Concert à Tunis, concert à Alger, j'fais l'tour du monde, juste en niquant des madres Détails ont grossi, la street a changé, bonne qualité mais y finit par balancer J'aime pas la police, pour une seule raison, ils ont fait pleurer ma mère à la maison Pourquoi j'suis nerveux ? Pourquoi j'ai fumé ? Pourquoi ma vie n'est pas celle que je voulais ? Stoner, j'défi marie-jeanne l soir, vivre ses rêves en enfer est un cauchemar Ils ont changé, veulent qu'on fasse semblant de rien, ils m'ont tendu, obligé d'rompre les liens Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Il m'faut ma dose, dose, il m'faut ma dose, dose Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Il m'faut ma dose, dose, il m'faut ma dose, dose Il m'faut ma dose Il m'faut ma dose Il m'faut ma dose, dose Yeah Eh Saal You might also like Les réseaux font de nous des prisonniers du r'gard des autres et des évadés Du r'gard des fautes qu'on veut s'épargner, miroir de mots sont trop échangés, tiroir d'égo veut pas s'refermer Calbar en feu, remords reportés, sa mère, j'm'en veux de t'avoir démarré Parfois, c'est mieux d'pas tout réparer La mer en deux va s're-séparer, j'vais la fumer sans la détailler Persuadé d'tout niquer Il m'faut ma dose T'es dans le binks J'arrive en low Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Eh Il m'faut ma dose, dose Ma dose, il m'faut ma dose, dose Dose Il m'faut ma dose, dose Eh, il m'faut ma dose, dose J'attends Il m'faut ma dose, dose J'attends, il m'faut ma dose J'attends J'attends qu'il pleuve Que la pluie confonde tes larmes, mes sueurs quand tu parles de nous Tu fais la gueule Tu t'imaginais qu'un jour, bague en main, j'm'mettrais à genoux J'ai dit j'attends qu'il pleuve Que la pluie confonde tes larmes, mes sueurs quand tu parles de nous Tu fais la gueule Tu t'imaginais qu'un jour, bague en main, j'm'mettrais à genoux Mais c'n'est pas si simple, l'amour On se l'dit tous les jours C'n'est pas si simple, l'amour On se l'dit tous les jours, eh Son Acoustique</t>
+          <t>Son Acoustique Thug, bandit, tu connais nos vies, la rue, les profits, tout l'champ des possibles Jeune millionnaire, plus dans la bi'-bi', excellent noir comme Carter et Diddy Concert à Tunis, concert à Alger, j'fais l'tour du monde, juste en niquant des madres Détails ont grossi, la street a changé, bonne qualité mais y finit par balancer J'aime pas la police, pour une seule raison, ils ont fait pleurer ma mère à la maison Pourquoi j'suis nerveux ? Pourquoi j'ai fumé ? Pourquoi ma vie n'est pas celle que je voulais ? Stoner, j'défi marie-jeanne l soir, vivre ses rêves en enfer est un cauchemar Ils ont changé, veulent qu'on fasse semblant de rien, ils m'ont tendu, obligé d'rompre les liens Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Il m'faut ma dose, dose, il m'faut ma dose, dose Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Il m'faut ma dose, dose, il m'faut ma dose, dose Il m'faut ma dose Il m'faut ma dose Il m'faut ma dose, dose Yeah Eh Saal Les réseaux font de nous des prisonniers du r'gard des autres et des évadés Du r'gard des fautes qu'on veut s'épargner, miroir de mots sont trop échangés, tiroir d'égo veut pas s'refermer Calbar en feu, remords reportés, sa mère, j'm'en veux de t'avoir démarré Parfois, c'est mieux d'pas tout réparer La mer en deux va s're-séparer, j'vais la fumer sans la détailler Persuadé d'tout niquer Il m'faut ma dose T'es dans le binks J'arrive en low Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Eh Il m'faut ma dose, dose Ma dose, il m'faut ma dose, dose Dose Il m'faut ma dose, dose Eh, il m'faut ma dose, dose J'attends Il m'faut ma dose, dose J'attends, il m'faut ma dose J'attends J'attends qu'il pleuve Que la pluie confonde tes larmes, mes sueurs quand tu parles de nous Tu fais la gueule Tu t'imaginais qu'un jour, bague en main, j'm'mettrais à genoux J'ai dit j'attends qu'il pleuve Que la pluie confonde tes larmes, mes sueurs quand tu parles de nous Tu fais la gueule Tu t'imaginais qu'un jour, bague en main, j'm'mettrais à genoux Mais c'n'est pas si simple, l'amour On se l'dit tous les jours C'n'est pas si simple, l'amour On se l'dit tous les jours, eh Son Acoustique</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>L'alcool brun ne m'fait plus rien, la be-her ne fait plus effet Son vagin ne m'fait plus rien, son derrière ne fait plus effet Oh, j'suis si triste, j'ressens plus grand chose quand tu m'suces la bite Oh, j'suis si triste, j'ressens plus grand chose même quand je gicle J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais Et si on s'bourre juste un peu la gueule ? Qu'on oublie juste pour une fois Les Je t'aime, les On est en couple ? et les problèmes Faut pas toujours vouloir être la seule, faut qu'tu comprennes qu'on s'comprend pas Les prises de tête à cause de schnecks, l'enfer, c'est la vérité perçue trop tard J'te fais du tort sans le vouloir, j'ai la tromperie au bout des doigts Que mon sexe qui touchera l'fond si j'tombe amoureux d'toi Malheureusement, quel enfoiré, j'm'arrête jamais L'alcool brun ne m'fait plus rien, la be-her ne fait plus effet Son vagin ne m'fait plus rien, son derrière ne fait plus effet J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Mmh, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Mmh, toutes les larmes de ton corps m'appartiennent désormaisYou might also like</t>
+          <t>L'alcool brun ne m'fait plus rien, la be-her ne fait plus effet Son vagin ne m'fait plus rien, son derrière ne fait plus effet Oh, j'suis si triste, j'ressens plus grand chose quand tu m'suces la bite Oh, j'suis si triste, j'ressens plus grand chose même quand je gicle J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais Et si on s'bourre juste un peu la gueule ? Qu'on oublie juste pour une fois Les Je t'aime, les On est en couple ? et les problèmes Faut pas toujours vouloir être la seule, faut qu'tu comprennes qu'on s'comprend pas Les prises de tête à cause de schnecks, l'enfer, c'est la vérité perçue trop tard J'te fais du tort sans le vouloir, j'ai la tromperie au bout des doigts Que mon sexe qui touchera l'fond si j'tombe amoureux d'toi Malheureusement, quel enfoiré, j'm'arrête jamais L'alcool brun ne m'fait plus rien, la be-her ne fait plus effet Son vagin ne m'fait plus rien, son derrière ne fait plus effet J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Mmh, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Mmh, toutes les larmes de ton corps m'appartiennent désormais</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_DAMSO_songs.xlsx
+++ b/data/02_intermediate/cleaned_DAMSO_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C227"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Freestyle Couvre Feu (OKLM)</t>
+          <t>60 années</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Réalité hollywoodienne chez moi putain c'est chaud Certains attendent que la mort vienne demain ou même plus tôt Le ciel est rouge, il pleut des larmes de sang Maman m'a dit qu'à l'époque les gens vivaient bien plus longtemps Réveillé dans la stupeur, un nouveau nom dans le vent Certains diront que c'est super, en pleurant à l'enterrement Que j'm'en souvienne, beaucoup n'ont pas vu le printemps J'en verse une à la tienne, de temps en temps Everyday a mama cry Everyday a mama cry Innocent ou criminal Enterrement et tribunal Everyday, everyday Everyday, everyday Everyday a mama cry Everyday a... Un coup d'fil anonyme dans ta tess Donne deux trois indices, j'ai ton adresse J'prends le plus p'tit vaillant qui sors du hebs Il t'liquide ta mère, j'paye ses vacances Allô, j'décroche mon bigo, la sur d'un rappeur veut de la tendresse Oh, complètement barjo, j'ai baisé sa mère par maladresse Coro des coro Tavares, j'veux l'feat avec Selena Gomez Tout est noir comme chez les Gomis, j'suis congolais comme Georges N'goma Martinique, Gwadada, Guyana, des criminels comme mon gars Sam Pas d'camarades, j'suis pas Zoumana, j'suis capitaine, je veux mon brassard J'suis dans le Biz J'te vois pas dans nos célébrations ni aux enterrements Tu galères pour nous compter, negro on est tellement T'as voulu t'imposer, tu t'es fait étaler bêtement Y'a des charos, des généraux, pirates depuis longtemps Qui pourra stopper la street'zer ? Banlieusards forts et fiers Bénis soient les miens Rebelles depuis le sein Rebelles depuis le sein Bénis soient les miens Je n'ai qu'un seul gang 92i Fuck le yang, fuck le yin T'es bonne en cuisine, t'es bonne en legging J'suis né dans les grands vins, t'es mort dans les vignes Défier le Duc à mains nues, on évite Plomb dans les vitres, à la barre on est huit Kilos de shit, Audi A8 Tes petites fuites, des délits de fuite Tu dors dans nos hôtels t'as la petite suite J'aime ni le grand flic, ni la petite schmitt 10 ans en centrale ça passera vite, 10 ans en centrale ça passera vite T'as inventé la pipe, tu me suces la bite J'ai main de gorille, tu vas te manger la gifle Je fuck la pauvre et je fuck la riche Si tu cherches l'oseille, tu demandes à Kaaris AK-47 dans ma boite à malices J'm'en bats les couilles de tout, c'est mahlich Avant d'manger tes morts, tu vas t'manger la vitre Noire est la liste, noir est l'artiste J'viens d'passer la Suisse, j'viens de passer l'A6 D.U.C, je confirme on a touché la cible D.U.C, je confirme on a tou... Je les encule, les encule et ainsi de suite T'es pas sur OKLM, il faut changer de site Éclat de métal dans fibre optique Mes compatriotes ont arme patriotique Quelques likes tu t'es senti bionique J'vais t'tirer d'ssus, arrête les antibiotiques Le A-R n'a que faire de l'acoustique Début de carrière dans l'arrière-boutique Siliconée, pas besoin de soutif J'les vois agoniser, pas besoin de sous-titres Neuf-millimètré car c'est préconisé Kunta Kinté, terrorisé Le rap français Calogeroisé Biatch, on va t'Claudia Sampedro-iser Sale, négro, j'vais te coloniser T'as zéro swag'zer on va te Olomider Première dose gratos, le bolosse est fidélisé Vatos Locos, un por todos, Athéna me suce à Mykonos Sur ma table, y'a une pute qui danse debout, y'a ma paire de cojones La prochaine fois que tu veux m'ver-soule, hassoul, envoie des voyous qui s'y connaissent Cherche pas les clés d'mon cur, j'ai que les clés d'la Lambo J'suis à Key Largo, niquer des mères c'est le scénario Niska, Damso Niquer des mères c'est le scénario KLH, B2O Niquer des mères c'est le scénario Dams-OPG dans le block Belgium vie MarcWilmots 92i big up à Kopp J'fais que du sale sur Périscope Fruity Loops noires sont les notes J'la baise dans l'cul j'paye pas la dot Dans mes pes-cli j'fume d'la drogue Je ne ris que sous protoxyde d'azote Mon maître majeur dans sa te-chat, c'est la noyade J'suis suspecté comme si j'venais d'sortir d'chez Jawad J'n'ai pas l'temps pour les tchoins, sauf si j'te fuck gratuitement Négro allume un joint, on n'fume pas d'clope dans l'appartement Toujours caleçon à l'air, mon bas-fesses est impeccable Par derrière, comme passagère sur ma bécane J'filmerai tous sur les réseaux oui oui ta chatte sera ruiné J'vais t'cramer au monde entier, grillé, j'vais te Serge Aurier Damso, yeah Charo, Ouais! Ça pète C'est chaud aujourd'hui ma gueule Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Quand j'la monte en l'air je n'calcule pas le reste J'suis dans le fond du binks j'ressens mes démons Si je t'allume au fer t'auras la COTOREP Le 3-5-7 frotte ma quéquette.. PULL UP PULL UP Une fois, deux fois, trois fois, autant d'fois qu'il le faudra ROULEZ ! Ok on repart ma gueule, comme jamais Charo, Pirate ! Elle a mal aux reins.. Elle a mal aux reins.. Elle a mal aux reins.. Elle a mal aux reins... Elle a mal aux reins quand je la démonte Quand j'la monte en l'air Elle a mal aux reins quand je la démonte Quand j'la monte en l'air je n'calcule pas le reste J'suis dans le fond du binks, j'ressens mes démons Si je t'allume au fer t'auras la COTOREP Le 3-5-7 frotte ma quéquette Le frère de Djeba frotte la bavette Oh, j'dois faire des pépettes J'veux pas finir d'vant la cafet' J'suis dans l'truc, j'suis dans l'tieks 2016, y'a plus de tête à tête Chez nous, c'est balles à tête J'te l'répète, chez nous c'est balles à tête Elle a mal aux reins quand je la démonte Elle a mal aux reins quand je la démonte Quand j'la monte en l'air je n'calcule pas le reste Nueve nueve uno Nueve nueve uno Nueve nueve uno Nueve nueve uno 92i Prr prr, fly like a bird La ni yin ki badman, la pa ti ni pon bleu Bon chinese, black man ek rebeu Yinki business sal, son sal, yeah allimé la beuh T'as un magnum j'en ai deux Yeah man j'en ai deux un noir, un bleu J'allume le feu sur celui qui veut, à côté des enfants se ploter la queue Ils parlent mais feront-ils mieux, feront-ils mieux, feront-ils mieux que mon équipe de feu ? Vrai négro, je n'ai peur que de Dieu Lord have mercy, je connais ma Bible Même sans maille, pas d'faille, j'me taillade aux bailles traversés dans un canot à feu Où sont ces boeufs, boeufs, boeufs, boeufs ? Couvre feu ! Gunshot inna belly sé on déli Moun la ka mô fen mè kay yo ka anbéli Jet privé ka atéri adan on péyi Difé konbyen moun ka péri Lesklavaj aboli yo pa lé moli Lé kontrolé nou kon koli Sé on koneri pou fè money Boum bang kon montana tony Gunshot inna belly sé on déli Moun la ka mô fen mè kay yo ka anbéli Jet privé ka atéri adan on péyi Difé konbyen moun ka péri Lesklavaj aboli yo pa lé moli Lé kontrolé nou kon koli Sé on koneri pou fè money Couvre feu ! C'est l'heure du crime, les pédales se cachent 9 millimètres sur un corps de lâche Salam la nourrice du 9ème étage Salam Aux frérots déters, qui butent dans la cage Cerruti, Cerruti O'Bla La Maserati O'Bla Chaussures assorties O'Bla C'est moi qui conduit, ok ! Ouais j'ai la dalle comme si j'sortais d'la DASS Tu joues les gros bras mais ta sur fait la tass Les ennemies, je les écrase Je fais des showcases, je brasse et je brasse Comme un Charo, j'te met K.O comme Pacquiao J'fonce en X6, pas dans le panneau DJ Bellek gère le piano J'manie les mots et la mélo' Papier panier piano Je donne l'heure et ciao ! Comme les grossistes donnent les taros Grossistes donnent les taros Grossistes donnent les taros Yo lé testé mè yo pa de tay Yo ni pou flexé douvan lé rude boy Bad a Bad Man ka brilé pussy-Boy Bad a Bad Man ka kill a batty-boy Yo lé testé mè yo pa de tay Yo ni pou flexé douvan lé rude boy Bad a Bad Man ka brilé pussy-Boy Bad a Bad Man ka kill a batty-boy Perdu dans ma tête mais je pète les plombs Fais le BCBG mais j'ai baisé que des thons J'ai que bonasse, connasse, grognasse, pétasse, j'en passe, j'm'en lasse Putain bref, ok laisse ber-tom Putain je crane tous seul, parle tous seul Peu de monologue, poto d'homologues, j'ai peu de dialogue J'deviens de ceux, qui s'en soucient Se saoulent seul, en plus de ça je perd des sous C'est bête moi je subit tout, me ruine au subito C'qui fait qu't'as mal quand t'évites ceux qui trainent trop J'suis paresseux, j'perd la raison et ça ça paraît fou Parce que j'ai la tête du gars qui n'a pas ce genre de défaut Mais damn, ma vie bascule Du bonheur que quand j'éjacule J'vais péter pendant ce son je flatule Faut remettre les clics au dessus des pendules J'rêve de partir loin dans une capsule Évidemment que j'manie le mic' comme un pyromane Demande my men, à chaque fois que j'les ken l'enfer se déchaîne Mes ennemis s'entrainent, voudraient que je saigne Remuent terre et ciel, mais bon j'ai des guns One again comme Hurricane je les goums dès le premier round Le peura me défoule mais souvent me saoule quand ça parle d'embrouille Et de vos rappeurs brouillons qui ont aucune couille veulent parler de douilles mais crient Hallelujah quand ça pars en couille Allez fuck ! Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz.. Selecta poulop poulop poulop! Pardon Kopp, obligé d'te couper Une fois, deux fois, trois fois, autant d'fois qu'il le faudra J'ai nommé 92i veyron, exclusivité Couvre Feu Pas la peine d'aller chercher ailleurs, c'est ici qu'ça s'passe Hé, mr Kopp dans la maison, Kalash dans la maison, Niska dans la maison, Damso dans la maison Couvre Feu, couvrez vous ! Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz, ni au McDonald's Si c'est eux qui ont raison, je n'suis pas raisonnable La rafale dans ton salon sera sûrement désagréable Nouveau riche, ma Lamborghini a pris quelques dos-d'âne J'fais ni la queue au Ritz, ni au McDonald's Si c'est eux qui ont raison, je n'suis pas raisonnable La rafale dans ton salon sera sûrement désagréable On trinque à nos balafres, à nos crochets tous les soirs Noir c'est noir, ont-ils dit, y'a donc vraiment plus d'espoir Les vainqueurs l'écrivent, les vaincus racontent l'histoire Les vainqueurs l'écrivent, les vaincus racontent l'histoire Personne dans le monde ne marche du même pas ...C'est ça qu'ils n'comprennent pas Des allers-retours en prison, certains n'en reviennent pas J'ai une kalash et des mouftons, tous sous le même toit Toujours d'humeur à les lever, que l'avenir suce mon troisième doigt Non, je n't'aime pas, ni celui qui est avec toi Y'a que quand tu baises ta daronne que j'suis de tout cur avec toi T'as même pas de quoi me faire fumer, qu'est-ce que j'vais faire avec toi ? Je parle de rue car j'y ai baigné, même si j'y suis beaucoup moins ...T.O B.A.T.O, boug an mwen Violences illicites, comptes débités Pacsons, bruits de shit, contrôle évité Vie de prises de risques, dinfidélités Pute veut faire la bise mais pute a déjà sucé Parle de rue mais rue ne t'as pas créditée Prend mon dû, par vues et textes rédigés Viens au dessus, la vue est mieux en V.I.P J't'ai baisé, j't'ai quitté, j'sais même pas qui t'es Du Louis, Gucci sur la table, j'ai fais d'mon mieux Quelle vie vit-on quand on a pas la vie qu'on veux Ta mère j'l'ai niqué sur la chatte à ton vieux Croyant car même le diable à déjà cru en Dieu On t'as jamais vu, comme le vrai cul de Kim Kardashian Nwar Gaule affamée quand j'la vois sur l'allée, depuis la chambre du bâtiment Les haineux disent que t'es ma bitch se mentent entre eux Trait d'union J'ai la gauloise en plein Zénith, elle donne heure et direction Un bon bédo par ici la défonce C'est marqué vu mais toujours pas de réponse Tou sa mwen ni men goumé bay An pa jen ouvè pon la pot' ba pon sheitan Préci kon dealè ka van shit au détail An ka posé son la an ni frisson ka pran mwen mè an pa ka moli Chak fraz sé on rime An pa biswen ba la dime pou Papa la fè mwen signe ! Monté, démonté Jounou a tè ki ka konté Ja ni lontan manman di mwen pa ay fly la y pani Bondyé Aah aah Préci kon dealè ka van shit au détail Aah aah Préci.. Adan 4 croisées an paka tremblé Bondyé sel an ka doué A pa diab a yo ké fe'm tombé Lajen paka fe'm chanjé Kouté mwen ! Adan 4 croisées an paka tremblé Big up Gato de Bato tout l'temps, déja fout koné Ok, ahah, Zifukoro, de la B, comme jamain Depuis que je perce.. Tu sais ce que les ti-peu m'ont dit, depuis que je perce ? Tu sais ce que les ti-peu m'ont dit, depuis que je perce ? Tu sais ce que les ti-peu m'ont dit ? Tu sais ce que les ti-peu m'ont dit, depuis que je perce, y'a plus de ... ouais Tu sais ce que les ti-peu m'ont.. OK ! Tu sais ce que les ti-peu m'ont dit, depuis que je perce y'a plus de consommateurs Le marron devient même du yellow je suis magicien je suis un transformateur Le charo ne parle pas beaucoup et tte-ma le boug, le sujet est maitrisé Dîner sur les Champs-Elysées avec mon président je ne peux pas refuser Je suis dans la fusée des fusées je contrôle la ne-zo, comme la NASA Les pauvres ils sont trop dégoûtés même dans leurs showcases je pète les caissons Rapper pour moi c'est trop facile, comme un colombien qui cuisine la résine Si demain je sens la perquis' y a pas de soucis je dors chez la voisine Allo, t'es où ? Oh seigneur t'es là ! Bango ba zo lela nazo ko sepela J'ai trop le truc à la 2Pac et Biggie, ce genre de beat me fait bouger J'écris mes textes dans un buggy je vais te sortir mon flingue tu vas buguer pay pay Je vais te sortir mon flingue tu vas buguer Je vais te sortir mon flingue tu vas buguer Je vais te sortir mon flingue tu vas buguer, Commando ! Comman, comman ! Real badman n'agit pas comme un drag queen Gyal viens m'voir j'ai le bras long comme Dalsim Y'a que des real rude boi présents dans le casting Mes négros ne parlent pas ils agissent en sourdine Nou pa té ni pon combine épi pon pussyroll ting Yo sé real fish, yo tout' la ka mèt' string Et y'a beaucoup d'imposta, badman en ballerines Infama sera tué à la pleine lune T'entends les han-han, han-han, before me start kill Comme Kartel ils veulent m'enfermer pour crime Mais j'ai des avocats plus bad que la police en civil Je manie les mots... Dem no bad like me, général à l'armée Général comme à l'armée Dem no bad like me, même s'ils sont armés J'tue les soundboy toute l'année Dem no bad like me, général à l'armée Général comme à l'armée Dem no bad like me, même s'ils sont armés J'tue les soundboy toute... watcha watcha, hey hey J'avance tranquille toute l'année Je connais des real toxicos et des fumeurs d'amné' Les gyal sont rough quand elles wine leur body A base de han-han han-han que des fat puna' Hey yo mi gangsta DJ pla-pla-pla-play Pas de fake nigga présent dans mon armée Real général ne fait pas de quartier Nous on laisse brûler, lighter in the air Shalalalala Like Buju Banton boom bang Pull up! Eeh, Poulop ! Eh que d'la boucherie, eh on fait pas les choses au minimum ici, que au maximum T'entends pas ou quoi yeah, on est au max de la maxance Dj Fax on est ready ? Eh on perd pas d'temps, roulez ! KLH, madinina, 972 Oh, Welcome to the trés trés sale Gato da Bato OKLM radio, couvre feu .. Même à travers fumée d'chicha, j'y vois net J'y vais pour Niafous, Beurettes, Antoinette Poulop ! Attends, attends ! Dj Fax, remets ça calmement Eh dans la maison y'a Monsieur Kalash, y'a Monsieur Niska, y'a Monsieur Damso, y'a Monsieur Kopp! En live du couvre feu, pas la peine d'aller chercher ailleurs, c'est ici qu'ca c'passe T'entends pas ou quoi ? Couvre Feu, Bah oui c'est d'la lourdeur Kopp ready ? Roulez ! Ok... welcome, welcome Welcome to the sal... 92i, Charo life, KLH dans la maison Jacky Brown, Neg'Marrons Même à travers fumée d'chicha, j'y vois net J'y vais pour Niafous, Beurettes, Antoinette Rendez-nous nos 200 filles, rendez-moi mon Ouloulou J'suis au téléphone sans fil'zer, au couvre souloulou Qui a niqué sa carrière bêtement en clashant ? Hassoul-ouloul, hassoul-ouloul, à vous d'juger Au QG je retire cagoul-ouloule Toute ta carrière elle est bidon Tu m'as vu à la télévision sur ma télévision Paie-moi tout en amont ou finis momie Toutankhamon Après le show les plus canons finissent dans le camion Mon super-héros c'Chaka Zulu, c'pas Belmondo Tu suces pour un Ouloulou, tu quittes le bando On t'a jamais vu, comme la go à Columbo Nique ta grand-mère d'côté d'ta mère avec la bite à Mutombo La bite'zer à Mutombo, Muto-Mutombo, ouloulou, ouloulou J'faisais d'l'oseille comme s'il en pleut Avant qu'mes anges ne naissent Si je vois la vie en bleu c'est comme un Crips d'Los Angeles Ouloulou, gros culs elles avaient, sales négros elles ameutèrent 13, bonheur ou malheur, kalashé sur La Canebière Étoile du Nord comme Alonzo, sur l'terter sans Ballon d'Or J'suis au Pérou, café noir, à l'écart d'tout Malongo Unis pour le sale, que faux négros se blessent Je parle fort pour pas qu'la France d'en haut se baisse Sur la vie d'mon jnoun, j'pars pas sans l'or au cou Tu vaux rien comme un selfie d'la chatte à Laure Manaudou Perdu dans un harem, méchante cuite, je tiens debout Cinq ma, cinq Mathusalems de suite, ouloulou Give some Hennessy, j'm'arrache en soundsystem Selecta pull up ! Sound system, c'est couvre feu, c'est comme ça Tous les samedis, 20h-22h on leur mets ça bien OKLM radio ROULEZ ! Welcome to Couvre Feu Xelcome to the S.A.M, comme jamais Mada, gwada, Réunion, Haiti, Guyana Dem no bad like bomboclat Give some Hennessy, j'm'arrache en soundsystem Je sens qu'ce soir c'est la bonne Nuage de fumée convoi exceptionnel Tout est sous contrôle ! Mes yeux sont red, je vois la vie en red Mes yeux sont red, Charo tell 'em J'suis sur les Antilles mes gavas sont locksés Tête énervée comme Dark Vador, sabre laser comme Anakin Counia manmanw je vous encule bang ! bang ! bang ! Jungle jungle jungle, les petits ne veulent plus qu'on les vire qu'on les engueule Ils nous respectent car savent qu'on a fait du leum Bacodji-Bacodjicoroni, poto, poto, Niarry Talli gang J'enfile des gants pour t'enlever la vie, et quand je le fais je le fais par hygiène Je coupe et j'emballe et tu inhales Dans le couloir de la mort il n'y a qu'une allée Je bouge mes épaules comme au funaná Et même en été je vis sous la neige J'entends des Alala bullet-let, bullet-let, poli-lice Non non ne paniques pas ce n'est que le C'est l'état qui m'nique, c'est le people au coeur du more fire Y'en a qui mili-li-lite chaque minu-nu-nute Allument des bédos dynami-ni-nite, mi-ni-nite And I feel-eel-eel, feel-eel-eel, so real-eal-eal So real-eal-eal, so real-eal-eal J'suis pas débile-ile-ile-ile-ile, je kill-ill-ill-ill-ill Visant le mile-ile-ile-ile-ile, perds pas mon fil-il-il-il-il Tranquille-ille-ille-ille-ille, j'explose la mine-ine-ine-ine-ine Un battement de cil-il-il-il-il suffit pour alerter toute La ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille, la ville-ille-ille Pull up!7</t>
+          <t>Oui L'alcool est l'chemin le plus court vers l'adultère, honnêtement Puceau, en chien sur une meuf plus âgée qui l'avait d'jà fait Donc j'ai fait semblant de l'avoir fait, pour faire le grand Pourtant j'étais p'tit, après j'ai compris Que quand je s'rais grand, j'regretterai tout c'qui s'est passé Car finalement, j'ai passé ma vie à vivre à peine De joie mais plutôt de peine, je crois que Le temps passe vite mais qu'on oublie rien, de c'qu'on a raté La vie ne fait que soixante années, pour profiter, il faut pécher Donc on hésite puis on s'fait chier, donc on médite, pour exister Donc on s'évite pour s'retrouver, après faut juste laisser aller Pourtant la mort s'est faite toute belle pour un rencard d'un mariage forcé Cherche aucun nom sur la sonnette, appuie sur l'bouton à l'aveuglette J'vais profiter, quitte à pécher, car la vie ne fait que soixante années Oh la la, oh la la, oh la la, oui Soixante années Oh la la, oh la la, oh la la, oui Bah oui, hey Les jeunes d'aujourd'hui m'ont dit Dems, on veut la montre, fuck le temps Pensant qu'le temps court après la montre sauf que les aiguilles, s'arrêtent avant Mets ta ceinture mais sache, que tu peux mourir au moindre accident Crois pas qu'c'est simple, crois pas qu'c'est dur Crois juste en toi, crois pas les gens J'viens de la rue, d'la belle étoile Pour vivre dans l'abus, hôtel cinq étoiles Des fois, je regrette quand j'y repense J'fumais mon petch, ma Gordon me manque Le futur existe que parce qu'on y croit Si demain s'arrête, j'te connaîtrais mieux J'parlerais de moi comme si c'était toi, j'parlerais de nous comme si c'était eux Pendant qu'on s'rapproche pour s'refouler puis, faire semblant d'à nouveau s'aimer La mort si vieille, se fait rebelle comme un standard veut improviser Cherche aucun son sur la trompette, appuie sur l'piston à l'aveuglette J'vais profiter, quitte à pécher, car la vie ne fait que soixante années Oh la la, oh la la, oh la la, oui Soixante années Oh la la, oh la la, oh la la, oui Bah oui Soixante années10</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>60 années</t>
+          <t>Φ. THEVIE RADIO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Oui L'alcool est l'chemin le plus court vers l'adultère, honnêtement Puceau, en chien sur une meuf plus âgée qui l'avait d'jà fait Donc j'ai fait semblant de l'avoir fait, pour faire le grand Pourtant j'étais p'tit, après j'ai compris Que quand je s'rais grand, j'regretterai tout c'qui s'est passé Car finalement, j'ai passé ma vie à vivre à peine De joie mais plutôt de peine, je crois que Le temps passe vite mais qu'on oublie rien, de c'qu'on a raté La vie ne fait que soixante années, pour profiter, il faut pécher Donc on hésite puis on s'fait chier, donc on médite, pour exister Donc on s'évite pour s'retrouver, après faut juste laisser aller Pourtant la mort s'est faite toute belle pour un rencard d'un mariage forcé Cherche aucun nom sur la sonnette, appuie sur l'bouton à l'aveuglette J'vais profiter, quitte à pécher, car la vie ne fait que soixante années Oh la la, oh la la, oh la la, oui Soixante années Oh la la, oh la la, oh la la, oui Bah oui, hey Les jeunes d'aujourd'hui m'ont dit Dems, on veut la montre, fuck le temps Pensant qu'le temps court après la montre sauf que les aiguilles, s'arrêtent avant Mets ta ceinture mais sache, que tu peux mourir au moindre accident Crois pas qu'c'est simple, crois pas qu'c'est dur Crois juste en toi, crois pas les gens J'viens de la rue, d'la belle étoile Pour vivre dans l'abus, hôtel cinq étoiles Des fois, je regrette quand j'y repense J'fumais mon petch, ma Gordon me manque Le futur existe que parce qu'on y croit Si demain s'arrête, j'te connaîtrais mieux J'parlerais de moi comme si c'était toi, j'parlerais de nous comme si c'était eux Pendant qu'on s'rapproche pour s'refouler puis, faire semblant d'à nouveau s'aimer La mort si vieille, se fait rebelle comme un standard veut improviser Cherche aucun son sur la trompette, appuie sur l'piston à l'aveuglette J'vais profiter, quitte à pécher, car la vie ne fait que soixante années Oh la la, oh la la, oh la la, oui Soixante années Oh la la, oh la la, oh la la, oui Bah oui Soixante années10</t>
+          <t>grésillements de radio Oh J'suis pas dans mon meilleur état, j'écris pour pas faire de dégâts Sinon, j'risquerais d'éclater des têtes avec un Beretta La vie commence quand y a un cur qui bat, s'arrête quand y a plus d'bip C'est quoi le fric si c'n'est le choix d'avoir encore plus le choix ? Les embrouilles, les clashs sur Insta', j'les vois plus, j'regarde devant moi Les blablas sur c'que je n'suis pas, j'n'écoute pas, j'ai plus d'cinq cents K Tu m'aimes pour c'que j'suis devenu, donc tu m'aimes pour c'que je n'suis pas T'es parti puis, t'es revenu, les amis comme toi, j'n'en veux pas J'ai personne à qui dire Je t'aime, tout l'monde à qui dire Nique ta mère Soit ronde et bleue n'est pas la Terre, soit les problèmes viennent de moi En vrai, ne signe pas en maison, sauf si t'es seul et à la rue Parce que quand tu comptes sur les gens, ils finissent par te décevoir Oh-oh-oh-oh-oh-oh Yeah-eh-eh-eh-eh-eh Yeah, j'me vois dans tes yeux, j'm'apprécie mais se voir à deux, j'suis indécis Après, si on l'fait vite fait sans être précis, sur nos sentiments, c'qu'on ressent tout en laissant notre histoire rétrécir Mais tu réfléchis trop mais tu réfléchis qu'aux problèmes que ça engendrera Ton cur est une gendarmerie, cherchant l'ex qu'il condamnera Comprenez-moi Dieu, j'fais tout ce que je peux, j'fais comme tes faux cheveux j't'aide à t'sentir mieux, à travers d'autres yeux Mon salaire a d'autres vux que d'finir à deux, vieux, Dems Ouais Viens dans mon secteur, tu comprendras p't-être mes peurs, mes peines de cur, mes traînées d'sueur, de séducteur Un bouquet d'fleurs, fané par le temps d'attente du prince charmant que j'tais censé être Au lieu d'ça, j'suis qu'le garde champêtre de l'être, censé l'être avec toi Ton amour, je l'envie, mon amour, je t'en prie, j'veux qu'tu m'haïsses autant que tu m'aimes C'est quoi le problème ? C'est trop personnel, oh la la J'suis parti sur le terrain de l'abstinence, le sexe est un venin pour la patience J'suis parti sur le terrain de l'abstinence mais j'ne vois pas comment pas t'décevoir J'suis parti sur le terrain de l'abstinence, le sexe est un venin pour la patience J'suis parti sur le terrain de l'abstinence mais j'ne vois pas comment pas t'décevoir Tchiki-tchiki-tchiki changement d'ambiance, nwaar Back to the sale, la violence, Dems Sale, ah bah oui, ah bah oui Un putain d'joint entre l'pouce et l'index, je tire sur un pers' Je tousse dans la caisse, la vie en rose que quand j'fume de la verte Pas d'trop d'paramètres, un tête-à-tête on l'fait pas sur le net Ouzbèke, j'la ramène, odeur de shit pour décrire mon haleine J'suis dans l'arène, l'arena, Vie sur macarena J'suis tout c'qui n'fallait pas, premier du top donc j'vais pas par étapes J'veux voir la fin d'ma vie à l'avance Pour savoir si mes efforts ont toujours un sens TheVie Radio, la radio sale, la radio nwaar Ah oui, oui grésillements de radio5</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Φ. THEVIE RADIO</t>
+          <t>Dix leurres</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>grésillements de radio Oh J'suis pas dans mon meilleur état, j'écris pour pas faire de dégâts Sinon, j'risquerais d'éclater des têtes avec un Beretta La vie commence quand y a un cur qui bat, s'arrête quand y a plus d'bip C'est quoi le fric si c'n'est le choix d'avoir encore plus le choix ? Les embrouilles, les clashs sur Insta', j'les vois plus, j'regarde devant moi Les blablas sur c'que je n'suis pas, j'n'écoute pas, j'ai plus d'cinq cents K Tu m'aimes pour c'que j'suis devenu, donc tu m'aimes pour c'que je n'suis pas T'es parti puis, t'es revenu, les amis comme toi, j'n'en veux pas J'ai personne à qui dire Je t'aime, tout l'monde à qui dire Nique ta mère Soit ronde et bleue n'est pas la Terre, soit les problèmes viennent de moi En vrai, ne signe pas en maison, sauf si t'es seul et à la rue Parce que quand tu comptes sur les gens, ils finissent par te décevoir Oh-oh-oh-oh-oh-oh Yeah-eh-eh-eh-eh-eh Yeah, j'me vois dans tes yeux, j'm'apprécie mais se voir à deux, j'suis indécis Après, si on l'fait vite fait sans être précis, sur nos sentiments, c'qu'on ressent tout en laissant notre histoire rétrécir Mais tu réfléchis trop mais tu réfléchis qu'aux problèmes que ça engendrera Ton cur est une gendarmerie, cherchant l'ex qu'il condamnera Comprenez-moi Dieu, j'fais tout ce que je peux, j'fais comme tes faux cheveux j't'aide à t'sentir mieux, à travers d'autres yeux Mon salaire a d'autres vux que d'finir à deux, vieux, Dems Ouais Viens dans mon secteur, tu comprendras p't-être mes peurs, mes peines de cur, mes traînées d'sueur, de séducteur Un bouquet d'fleurs, fané par le temps d'attente du prince charmant que j'tais censé être Au lieu d'ça, j'suis qu'le garde champêtre de l'être, censé l'être avec toi Ton amour, je l'envie, mon amour, je t'en prie, j'veux qu'tu m'haïsses autant que tu m'aimes C'est quoi le problème ? C'est trop personnel, oh la la J'suis parti sur le terrain de l'abstinence, le sexe est un venin pour la patience J'suis parti sur le terrain de l'abstinence mais j'ne vois pas comment pas t'décevoir J'suis parti sur le terrain de l'abstinence, le sexe est un venin pour la patience J'suis parti sur le terrain de l'abstinence mais j'ne vois pas comment pas t'décevoir Tchiki-tchiki-tchiki changement d'ambiance, nwaar Back to the sale, la violence, Dems Sale, ah bah oui, ah bah oui Un putain d'joint entre l'pouce et l'index, je tire sur un pers' Je tousse dans la caisse, la vie en rose que quand j'fume de la verte Pas d'trop d'paramètres, un tête-à-tête on l'fait pas sur le net Ouzbèke, j'la ramène, odeur de shit pour décrire mon haleine J'suis dans l'arène, l'arena, Vie sur macarena J'suis tout c'qui n'fallait pas, premier du top donc j'vais pas par étapes J'veux voir la fin d'ma vie à l'avance Pour savoir si mes efforts ont toujours un sens TheVie Radio, la radio sale, la radio nwaar Ah oui, oui grésillements de radio5</t>
+          <t>Ouais, ouais-ais-ais Hé-hé-hé J'suis dealer, j'suis dealer Ouais J'ai si peur, j'ai si peur Ouais Maman, j'fais plus d'études, j'suis dans le tiekson J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer Chérie, phone pas les stups, j'suis dans bail bre-som J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer De bonne famille, là d'où je viens, la vie m'laisse sur la faim Je prends des risques, fais du chiffre, shit brun Personne me tient la main, j'ai plus d'cash, plus rien J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur La mort en courrier r'commandé, les huissiers à l'entrée Le gun est chargé, bang, ils m'vilipendaient À g'noux d'vant Dieu, d'bout d'vant les Hommes, regard écuré Cinq cents chevaux dans le gamos, j'suis palefrenier Jambes en X, même mon corps avoue ne pas se connaître Sexuels sont nos rapports, tu m'fais que des courbettes J'suis criblé de dettes, des j't'aime non-dits Z'yeux rivés vers le ciel, bras long, fais-moi un Vie J'regrette l'époque de Débrouillard Jeune négro rêvant de moula Galère de stud', plein de coups bas J't'aimerai avec ou sans le foulard Des fils de pute, j'en ai vu beaucoup Sans Booba, t'es rien du tout J'dis pas le contraire mais c'est Dieu qui donne et puis c'est tout Ta carrière m'attriste, ta kalash factice Sombre haineux, j'vais t'ébouer comme Fabrice Maman, j'fais plus d'études, j'suis dans le tiekson J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer Chérie, phone pas les stups, j'suis dans bail bre-som J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer De bonne famille, là d'où je viens, la vie m'laisse sur la faim Je prends des risques, fais du chiffre, shit brun Personne me tient la main, j'ai plus d'cash, plus rien J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur Je fais des sommes, tu fais des tiennes Oui Troisième album, toujours le même Vie Soleil ne s'soucie pas de pluie J'n'écoute pas les on dit, y a pas d'hasard, que des Eden BelgiumVie Négro, je sais qu't'es condamné mais pas coupable J'suis dev'nu riche, j'vais rach'ter ton âme au Diable Comme maquisard sans ligne de défense et j'me bagarre Plein Mont des Arts, dans la défonce, tard le soir Selon ses dires, j'suis comme un lâche, car je r'viendrai pas Y a une différence entre tourner la page et baisser les bras Un tiens vaut mieux que deux tu l'auras Viens on baise, après on verra qui le saura J'regrette l'époque de Débrouillard Jeune négro rêvant de moula Galère de stud', plein de coups bas J't'aimerai avec ou sans le foulard Maman, j'fais plus d'études, j'suis dans le tiekson J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer Chérie, phone pas les stups, j'suis dans bail bre-som J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer De bonne famille, là d'où je viens, la vie m'laisse sur la faim Je prends des risques, fais du chiffre, shit brun Personne me tient la main, j'ai plus d'cash, plus rien J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur Damso, dis-leur13</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dix leurres</t>
+          <t>Peur d’être sobre</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ouais, ouais-ais-ais Hé-hé-hé J'suis dealer, j'suis dealer Ouais J'ai si peur, j'ai si peur Ouais Maman, j'fais plus d'études, j'suis dans le tiekson J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer Chérie, phone pas les stups, j'suis dans bail bre-som J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer De bonne famille, là d'où je viens, la vie m'laisse sur la faim Je prends des risques, fais du chiffre, shit brun Personne me tient la main, j'ai plus d'cash, plus rien J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur La mort en courrier r'commandé, les huissiers à l'entrée Le gun est chargé, bang, ils m'vilipendaient À g'noux d'vant Dieu, d'bout d'vant les Hommes, regard écuré Cinq cents chevaux dans le gamos, j'suis palefrenier Jambes en X, même mon corps avoue ne pas se connaître Sexuels sont nos rapports, tu m'fais que des courbettes J'suis criblé de dettes, des j't'aime non-dits Z'yeux rivés vers le ciel, bras long, fais-moi un Vie J'regrette l'époque de Débrouillard Jeune négro rêvant de moula Galère de stud', plein de coups bas J't'aimerai avec ou sans le foulard Des fils de pute, j'en ai vu beaucoup Sans Booba, t'es rien du tout J'dis pas le contraire mais c'est Dieu qui donne et puis c'est tout Ta carrière m'attriste, ta kalash factice Sombre haineux, j'vais t'ébouer comme Fabrice Maman, j'fais plus d'études, j'suis dans le tiekson J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer Chérie, phone pas les stups, j'suis dans bail bre-som J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer De bonne famille, là d'où je viens, la vie m'laisse sur la faim Je prends des risques, fais du chiffre, shit brun Personne me tient la main, j'ai plus d'cash, plus rien J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur Je fais des sommes, tu fais des tiennes Oui Troisième album, toujours le même Vie Soleil ne s'soucie pas de pluie J'n'écoute pas les on dit, y a pas d'hasard, que des Eden BelgiumVie Négro, je sais qu't'es condamné mais pas coupable J'suis dev'nu riche, j'vais rach'ter ton âme au Diable Comme maquisard sans ligne de défense et j'me bagarre Plein Mont des Arts, dans la défonce, tard le soir Selon ses dires, j'suis comme un lâche, car je r'viendrai pas Y a une différence entre tourner la page et baisser les bras Un tiens vaut mieux que deux tu l'auras Viens on baise, après on verra qui le saura J'regrette l'époque de Débrouillard Jeune négro rêvant de moula Galère de stud', plein de coups bas J't'aimerai avec ou sans le foulard Maman, j'fais plus d'études, j'suis dans le tiekson J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer Chérie, phone pas les stups, j'suis dans bail bre-som J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer De bonne famille, là d'où je viens, la vie m'laisse sur la faim Je prends des risques, fais du chiffre, shit brun Personne me tient la main, j'ai plus d'cash, plus rien J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur J'suis dealer, j'suis dealer J'suis dealer, j'suis dealer J'ai si peur, j'ai si peur J'ai si peur, j'ai si peur Damso, dis-leur13</t>
+          <t>Damso Genius League, eh Posé dans l'quartier, j'suis déchiré, spliff et drogue dure, j'tise everyday Mais j'pense à réduire ma conso car j'fume de trop, la gue-dro m'fait léviter Les keufs eux m'ont serré, j'ai tout nié, la fe-meu d'hier, j'l'ai oubliée Million de questions qu'elle me pose, je prends jamais d'fleurs, j'l'envoie qu'dans les rosiers Défoncé, j'suis pété, je chill, négro, laisse-moi vivre mon dream Sa tte-cha comme plaine de jeux, j'l'envoie dans les cieux, j'suis scolaire et férié Recherche finance dans le crime, peut-être devrais-je changer de SIM La police nous questionne, les dealers nous pistonnent J'me déf' dans le club et mes sons passent en entier Absorbé par une drogue absurde, j'pense qu'à fuir le monde Sur les ondes j'me réfugie, j'pense qu'au fond j'ai peur d'être sobre Tant d'blessures, éraflures A vive allure, je vis, j'évacue Vices et vertus, Tise et verdure Négro, sans quoi c'est la mort Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? La drogue dure dans les vaisseaux sanguins J'suis vulgaire façon Mérovingien L'alcool pur dans les vaisseaux sanguins J'ai peur d'être sobre Damso, mothafucka', OPG Gangst', dis-moi qui est le meilleur dans le game Ces nizzos font qu'pomper nos flows, ces nizzos pompent la vie qu'on mène La pote-ca ne sera jamais assez grosse pour baiser c'putain d'mothafuckin' rap jeu Ces rappeurs n'ont plus le level, le majeur dans le cul d'ces niggas J'suis venu, j'ai bu, j'me souviens plus, j'ai trop tisé, gros cul et cheveux frisés Drogue dure, les yeux plissés, sombres et obscures sont mes idées J'suis là, j'suis frais, ouais, j'suis Damso, romantique malgré moi Elles s'mettent à côté quand je pe-ra, pour entendre le bruit des backs, car j'ai trop d'flow Bordel homie, j'n'arrête pas de boire des litres car j'ai peur d'assumer sa vraie physionomie J'la lui mets dans le dar et je gicle, elle s'devait de goûter à la Damsodomie Défoncé, la réalité je fuis, si c'est ça la mort elle vaut bien mieux qu'la vie faite d'embrouilles à minuit Absorbé par une drogue absurde, j'pense qu'à fuir le monde Sur les ondes j'me réfugie, j'pense qu'au fond j'ai peur d'être sobre Tant d'blessures, éraflures A vive allure, je vis, j'évacue Tise et verdure, vices et vertus Négro, sans quoi c'est la mort Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? La drogue dure dans les vaisseaux sanguins J'suis vulgaire façon Mérovingien L'alcool pur dans les vaisseaux sanguins J'ai peur d'être sobre7</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Peur d’être sobre</t>
+          <t>Festival de rêves</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Damso Genius League, eh Posé dans l'quartier, j'suis déchiré, spliff et drogue dure, j'tise everyday Mais j'pense à réduire ma conso car j'fume de trop, la gue-dro m'fait léviter Les keufs eux m'ont serré, j'ai tout nié, la fe-meu d'hier, j'l'ai oubliée Million de questions qu'elle me pose, je prends jamais d'fleurs, j'l'envoie qu'dans les rosiers Défoncé, j'suis pété, je chill, négro, laisse-moi vivre mon dream Sa tte-cha comme plaine de jeux, j'l'envoie dans les cieux, j'suis scolaire et férié Recherche finance dans le crime, peut-être devrais-je changer de SIM La police nous questionne, les dealers nous pistonnent J'me déf' dans le club et mes sons passent en entier Absorbé par une drogue absurde, j'pense qu'à fuir le monde Sur les ondes j'me réfugie, j'pense qu'au fond j'ai peur d'être sobre Tant d'blessures, éraflures A vive allure, je vis, j'évacue Vices et vertus, Tise et verdure Négro, sans quoi c'est la mort Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? La drogue dure dans les vaisseaux sanguins J'suis vulgaire façon Mérovingien L'alcool pur dans les vaisseaux sanguins J'ai peur d'être sobre Damso, mothafucka', OPG Gangst', dis-moi qui est le meilleur dans le game Ces nizzos font qu'pomper nos flows, ces nizzos pompent la vie qu'on mène La pote-ca ne sera jamais assez grosse pour baiser c'putain d'mothafuckin' rap jeu Ces rappeurs n'ont plus le level, le majeur dans le cul d'ces niggas J'suis venu, j'ai bu, j'me souviens plus, j'ai trop tisé, gros cul et cheveux frisés Drogue dure, les yeux plissés, sombres et obscures sont mes idées J'suis là, j'suis frais, ouais, j'suis Damso, romantique malgré moi Elles s'mettent à côté quand je pe-ra, pour entendre le bruit des backs, car j'ai trop d'flow Bordel homie, j'n'arrête pas de boire des litres car j'ai peur d'assumer sa vraie physionomie J'la lui mets dans le dar et je gicle, elle s'devait de goûter à la Damsodomie Défoncé, la réalité je fuis, si c'est ça la mort elle vaut bien mieux qu'la vie faite d'embrouilles à minuit Absorbé par une drogue absurde, j'pense qu'à fuir le monde Sur les ondes j'me réfugie, j'pense qu'au fond j'ai peur d'être sobre Tant d'blessures, éraflures A vive allure, je vis, j'évacue Tise et verdure, vices et vertus Négro, sans quoi c'est la mort Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? Comment font-ils pour ne pas boire autant que moi ? Comment font-ils pour ne pas fumer autant que moi ? La drogue dure dans les vaisseaux sanguins J'suis vulgaire façon Mérovingien L'alcool pur dans les vaisseaux sanguins J'ai peur d'être sobre7</t>
+          <t>Yeah La mort, la mort, la mort A sonné pour eux Ding dong Hey La mort, la mort, la mort Yeah Une vie, un gun, un corps Yeah Menottes ou chaînes en or ? Yeah Boréale est l'aurore La drogue, la drogue encore Oui Pourquoi changer mon sort ? Oui Un parfum inodore Oui, une douleur indolore Le ciel, le ciel, le ciel Oui, un festival de rêves Cke-bla, que blancs, rebeus Un pax, du shit, d'la beuh Fire Ainsi soit-elle Oui Encore, encore plus fort Plus fort De l'aube, du soir, d'la veille L'espoir de jours heureux Bédo Un stick, du shit Bédo Un kilo d'beuh Bédo Smoke, smoke, smoke, hey Hey Le monde, le monde, le monde Un pavillon de haine Colère Une succession de scènes Atmosphère De nuages à mer bleue Yeah Yeah O.G fort névrosé veut sa dose pour s'alimenter O.G fort défoncé car sa dose est fort pimentée O.G fort névrosé, à sa dose, est alimenté Maîtresse, un gosse qui gêne Un cri, un cur qui saigne À terre, eau, vent et feux Oui Espoirs de jours heureux Le ciel, le ciel, le ciel Oh oui Un festival de rêves Oh yeah Cke-bla, que blancs, rebeus Oh oui Un pax, du shit, d'la beuh C'est bon8</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Festival de rêves</t>
+          <t>LIFE LIFE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yeah La mort, la mort, la mort A sonné pour eux Ding dong Hey La mort, la mort, la mort Yeah Une vie, un gun, un corps Yeah Menottes ou chaînes en or ? Yeah Boréale est l'aurore La drogue, la drogue encore Oui Pourquoi changer mon sort ? Oui Un parfum inodore Oui, une douleur indolore Le ciel, le ciel, le ciel Oui, un festival de rêves Cke-bla, que blancs, rebeus Un pax, du shit, d'la beuh Fire Ainsi soit-elle Oui Encore, encore plus fort Plus fort De l'aube, du soir, d'la veille L'espoir de jours heureux Bédo Un stick, du shit Bédo Un kilo d'beuh Bédo Smoke, smoke, smoke, hey Hey Le monde, le monde, le monde Un pavillon de haine Colère Une succession de scènes Atmosphère De nuages à mer bleue Yeah Yeah O.G fort névrosé veut sa dose pour s'alimenter O.G fort défoncé car sa dose est fort pimentée O.G fort névrosé, à sa dose, est alimenté Maîtresse, un gosse qui gêne Un cri, un cur qui saigne À terre, eau, vent et feux Oui Espoirs de jours heureux Le ciel, le ciel, le ciel Oh oui Un festival de rêves Oh yeah Cke-bla, que blancs, rebeus Oh oui Un pax, du shit, d'la beuh C'est bon8</t>
+          <t>Eh, hey, hey Mmh Hey, hey Fuck cette life Mon frère est borgne, il n'a plus qu'un il Eh, suffit d'un seul a dit l'Illuminati Ton âme, un jour, faudrait qu'tu m'la prêtes Ouais, que j'trouve sa sur, la mienne a perdu la vie Tu d'vrais fermer ta gueule à mon humble avis, aucun je sais mais beaucoup de on m'a dit J'fais plus d'oseille que Jacob Rabbi, l'amour réciproque n'empêche pas la tromperie C'pour ça qu'mes je t'aime sont souvent incompris, depuis, je n'parle plus, j'dmande seulemnt son prix J'paye les avocats pour frangin en son-pri mais ils r'f'ront les mêmes conneries dès qu'ils seront sortis J'compte plus les heures de studio que j'ai passé, j'compte plus les anniversaires que j'ai manqué C'est clair D'ailleurs, c'est celui d'ma mère en ce moment mais faut charbonner, faut qu'j'paye ses médicaments C'est clair J'ai tellement marché dans le noir et les ténèbres, que j'recule dès qu'j'aperçois le bout du tunnel Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Hey Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Ouais Fuck cette life, life, life Fuck cette life Fuck cette life, life, life Fuck cette life Tout ça pour vivre dans l- Hey Jsais pas pourquoi tas peur de vieillir, la mort, cest bien, vu que personne n'en revient Pourquoi tu cherches à trop tembellir ? Cest quand tes moche que tout lmonde te veut du bien Tu sais que, moi, quand j'aime le tien, c'est le mien, tes douleurs, tes problèmes, ta chatte et tes seins T'es en enfer, ton phallus au paradis, en gros, tu l'as baisée sans préservatif Un enfant pour qui t'es pas trop son daron, c'est fou d'se dire qu'c'est la vie d'tellement d'parents La vie d'aujourd'hui mais sans la vie d'avant Certains souvenirs sont plus durs avec le temps Bah nan, c'est moi qui suis désolé Hey d'avoir cru en toi quand tu faisais semblant Un fils de pute doit pas sexcuser Non Après tout, ta mère ne voulait pas denfant Drogue, sexe, biftons, biz, tout ça pour vivre dans l- Hey Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Hey Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Ouais Fuck cette life, life, life Fuck cette life Fuck cette life, life, life Fuck cette life Tout ça pour vivre dans l- Hey9</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LIFE LIFE</t>
+          <t>Périscope</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Eh, hey, hey Mmh Hey, hey Fuck cette life Mon frère est borgne, il n'a plus qu'un il Eh, suffit d'un seul a dit l'Illuminati Ton âme, un jour, faudrait qu'tu m'la prêtes Ouais, que j'trouve sa sur, la mienne a perdu la vie Tu d'vrais fermer ta gueule à mon humble avis, aucun je sais mais beaucoup de on m'a dit J'fais plus d'oseille que Jacob Rabbi, l'amour réciproque n'empêche pas la tromperie C'pour ça qu'mes je t'aime sont souvent incompris, depuis, je n'parle plus, j'dmande seulemnt son prix J'paye les avocats pour frangin en son-pri mais ils r'f'ront les mêmes conneries dès qu'ils seront sortis J'compte plus les heures de studio que j'ai passé, j'compte plus les anniversaires que j'ai manqué C'est clair D'ailleurs, c'est celui d'ma mère en ce moment mais faut charbonner, faut qu'j'paye ses médicaments C'est clair J'ai tellement marché dans le noir et les ténèbres, que j'recule dès qu'j'aperçois le bout du tunnel Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Hey Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Ouais Fuck cette life, life, life Fuck cette life Fuck cette life, life, life Fuck cette life Tout ça pour vivre dans l- Hey Jsais pas pourquoi tas peur de vieillir, la mort, cest bien, vu que personne n'en revient Pourquoi tu cherches à trop tembellir ? Cest quand tes moche que tout lmonde te veut du bien Tu sais que, moi, quand j'aime le tien, c'est le mien, tes douleurs, tes problèmes, ta chatte et tes seins T'es en enfer, ton phallus au paradis, en gros, tu l'as baisée sans préservatif Un enfant pour qui t'es pas trop son daron, c'est fou d'se dire qu'c'est la vie d'tellement d'parents La vie d'aujourd'hui mais sans la vie d'avant Certains souvenirs sont plus durs avec le temps Bah nan, c'est moi qui suis désolé Hey d'avoir cru en toi quand tu faisais semblant Un fils de pute doit pas sexcuser Non Après tout, ta mère ne voulait pas denfant Drogue, sexe, biftons, biz, tout ça pour vivre dans l- Hey Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Hey Drogue, sexe, biftons, biz, tout ça pour vivre dans lbloc Ouais Fuck cette life, life, life Fuck cette life Fuck cette life, life, life Fuck cette life Tout ça pour vivre dans l- Hey9</t>
+          <t>Ok ok FuentesVie FuentesVie, SantosVie SantosVie J'fais que du sale sur Périscope, oui oui, eh Damso, OPG, dans le block hey, Belgium Vie, Marc Wilmots non 92i, big up à Kopp rrah, j'fais que du sale sur Périscope binks Fruity Loops, noires sont les notes, j'la baise dans l'cul, j'paye pas la dot no Dans mes pe-cli, j'fume d'la drogue, je n'ris qu'sous protoxyde d'azote Mon maître majeur dans sa tte-cha, c'est la noyade ouais, ouais, ouais J'suis suspecté comme si j'venais d'sortir d'chez Jawad J'n'ai pas l'temps pour les tchoins no, sauf si j'les fuck gratuitement rrah Négro, allume un joint, on n'fume pas d'clope dans l'appartement clair Toujours caleçon à l'air ouais, mon bas-fesses est impeccable yeah J'te prends que par derrière comme passagère sur ma bécane ouais J'mettrai tout sur les réseaux, oui, oui, ta chatte sera ruinée yeah J'vais t'cramer au monde entier, grillé, j'vais te Serge Aurier rrah J'respecte beurettes et imams, jugement d'vautour j'laisse à Dieu Négro, j'suis Morgan Freeman, depuis toujours, j'suis ton vieux J'nique des chattes et des vétérinaires sur le pont d'Avignon ouais T'es parti trop tôt comme Hitler a dit le nazillon Damso, ouais Ménagère, j'nettoie au Glock yeah Batterie faible, recharge le stock ouais Dans la clique, y a que des locks bang, armés dans l'clip comme Roi Heenok J'fais que du sale sur Périscope, j'fais que du sale sur Périscope J'fais que du sale sur Périscope, j'fais que du sale sur Périscope Ménagère, j'nettoie au Glock eh Batterie faible, recharge le stock oh Dans la clique, y a que des locks Dems, armés dans l'clip comme Roi Heenok J'fais que du sale sur Périscope, j'fais que du sale sur Périscope J'fais que du sale sur Périscope, j'fais que du sale sur Périscope Vie C'est bon8</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Périscope</t>
+          <t>Κ. Kin la belle</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ok ok FuentesVie FuentesVie, SantosVie SantosVie J'fais que du sale sur Périscope, oui oui, eh Damso, OPG, dans le block hey, Belgium Vie, Marc Wilmots non 92i, big up à Kopp rrah, j'fais que du sale sur Périscope binks Fruity Loops, noires sont les notes, j'la baise dans l'cul, j'paye pas la dot no Dans mes pe-cli, j'fume d'la drogue, je n'ris qu'sous protoxyde d'azote Mon maître majeur dans sa tte-cha, c'est la noyade ouais, ouais, ouais J'suis suspecté comme si j'venais d'sortir d'chez Jawad J'n'ai pas l'temps pour les tchoins no, sauf si j'les fuck gratuitement rrah Négro, allume un joint, on n'fume pas d'clope dans l'appartement clair Toujours caleçon à l'air ouais, mon bas-fesses est impeccable yeah J'te prends que par derrière comme passagère sur ma bécane ouais J'mettrai tout sur les réseaux, oui, oui, ta chatte sera ruinée yeah J'vais t'cramer au monde entier, grillé, j'vais te Serge Aurier rrah J'respecte beurettes et imams, jugement d'vautour j'laisse à Dieu Négro, j'suis Morgan Freeman, depuis toujours, j'suis ton vieux J'nique des chattes et des vétérinaires sur le pont d'Avignon ouais T'es parti trop tôt comme Hitler a dit le nazillon Damso, ouais Ménagère, j'nettoie au Glock yeah Batterie faible, recharge le stock ouais Dans la clique, y a que des locks bang, armés dans l'clip comme Roi Heenok J'fais que du sale sur Périscope, j'fais que du sale sur Périscope J'fais que du sale sur Périscope, j'fais que du sale sur Périscope Ménagère, j'nettoie au Glock eh Batterie faible, recharge le stock oh Dans la clique, y a que des locks Dems, armés dans l'clip comme Roi Heenok J'fais que du sale sur Périscope, j'fais que du sale sur Périscope J'fais que du sale sur Périscope, j'fais que du sale sur Périscope Vie C'est bon8</t>
+          <t>Jeune africain dev'nu riche Jeune africain dev'nu riche, j'ai quitté le pays sans papiers Deuxième album, deuxième disque, la pression, le soutien du quartier Des doutes et des doutes et des doutes, j'hésite à faire du sale ou bien chanter Mais j'dois tuer le rap français, mettre les MC en danger Les viols de la guerre, je m'en doute, t'ont fait du mal abondamment Donald et toute la troupe n'ont rien à battre évidemment Seul face au monde entier, personne sur qui compter J't'ai vu pleurer, pleurer face au ciel mauve Oh Kin la belle, tu n'sais pas combien je t'aime RDC, ma patrie, mes gènes, pour toi, j'suis resté le même C'qu'ils te font me fait beaucoup de peine, jusqu'à ta mort, il ne faut pas qu'tu les craignes J'kalasherai ceux qui tiennent les rênes, quant à rumba, je déploie mes ailes Oh Kin la belle, oh Kin la belle Oh Kin la belle, tu ne sais pas combien je t'aime Oh Kin la belle, oh Kin la belle Oh Kin la belle, pour toi, j'suis resté le même oh Kin la belle J'roule un spliff au calme, toujours dans l'tieks à faire du sale noir J'suis là, j'fais d'la maille, j'investis au bled dans l'médical ouais Crois pas qu'ça va aller, tant qu'la kalash n'a pas parlé J'demande pas de faire la guerre, juste de n'pas donner ton tard-pé T'as qu'ton soutien-gorge pour seul soutien, t'inquiètes pas bientôt, j'reviens Damso The Vie, Capitol, 92i, y a du noir si t'as besoin L'Occident menottait tes dirigeants, j'trouvais Patrice plus intelligent Ton peuple est le plus grand des médisants, s'entraide pas, préfère division Jamais tu n'vas tomber même face au monde entier J'vais batailler-tailler, jusqu'à dier Oh Kin la belle, tu n'sais pas combien je t'aime RDC, ma patrie, mes gènes, pour toi, j'suis resté le même Ce qu'ils te font me fait beaucoup de peine, jusqu'à ta mort, il ne faut pas qu'tu les craignes J'kalasherai ceux qui tiennent les rênes quant à rumba, je déploie mes ailes Oh Kin la belle, oh Kin la belle Oh Kin la belle, tu n'sais pas combien je t'aime Oh Kin la belle, oh Kin la belle Oh Kin la belle, pour toi, j'suis resté le même oh Kin la belle7</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Κ. Kin la belle</t>
+          <t>BXL ZOO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Jeune africain dev'nu riche Jeune africain dev'nu riche, j'ai quitté le pays sans papiers Deuxième album, deuxième disque, la pression, le soutien du quartier Des doutes et des doutes et des doutes, j'hésite à faire du sale ou bien chanter Mais j'dois tuer le rap français, mettre les MC en danger Les viols de la guerre, je m'en doute, t'ont fait du mal abondamment Donald et toute la troupe n'ont rien à battre évidemment Seul face au monde entier, personne sur qui compter J't'ai vu pleurer, pleurer face au ciel mauve Oh Kin la belle, tu n'sais pas combien je t'aime RDC, ma patrie, mes gènes, pour toi, j'suis resté le même C'qu'ils te font me fait beaucoup de peine, jusqu'à ta mort, il ne faut pas qu'tu les craignes J'kalasherai ceux qui tiennent les rênes, quant à rumba, je déploie mes ailes Oh Kin la belle, oh Kin la belle Oh Kin la belle, tu ne sais pas combien je t'aime Oh Kin la belle, oh Kin la belle Oh Kin la belle, pour toi, j'suis resté le même oh Kin la belle J'roule un spliff au calme, toujours dans l'tieks à faire du sale noir J'suis là, j'fais d'la maille, j'investis au bled dans l'médical ouais Crois pas qu'ça va aller, tant qu'la kalash n'a pas parlé J'demande pas de faire la guerre, juste de n'pas donner ton tard-pé T'as qu'ton soutien-gorge pour seul soutien, t'inquiètes pas bientôt, j'reviens Damso The Vie, Capitol, 92i, y a du noir si t'as besoin L'Occident menottait tes dirigeants, j'trouvais Patrice plus intelligent Ton peuple est le plus grand des médisants, s'entraide pas, préfère division Jamais tu n'vas tomber même face au monde entier J'vais batailler-tailler, jusqu'à dier Oh Kin la belle, tu n'sais pas combien je t'aime RDC, ma patrie, mes gènes, pour toi, j'suis resté le même Ce qu'ils te font me fait beaucoup de peine, jusqu'à ta mort, il ne faut pas qu'tu les craignes J'kalasherai ceux qui tiennent les rênes quant à rumba, je déploie mes ailes Oh Kin la belle, oh Kin la belle Oh Kin la belle, tu n'sais pas combien je t'aime Oh Kin la belle, oh Kin la belle Oh Kin la belle, pour toi, j'suis resté le même oh Kin la belle7</t>
+          <t>Yeah, yeah, yeah-yeah Grrr, yeah, yeah, yeah, yeah-yeah Okay Ça fait longtemps qu'j'ai basculé du mauvais côté d'la lumière Parlons de moula mais parlons au pluriel Brr La faucheuse sort d'un van dans ta ruelle L'point commun entre l'amour et la haine, c'est ma façon d'ken Ma façon de briller, j'suis toujours outillé Ok, ok Bébé, le canon est bien, bien scié C'est le H et Dems pour un peu de sauce dans leur putain d'vie Vie J'suis dans l'Q7, tout est noir comme la carrosserie Ah Petit à petit, coller la petite, hmm Mwah De illets-bi en illets-bi, Louis, Fendi, cartel, te-sui Ouh oui Ta dernière vision s'ra un Desert Eagle qui tousse Piou, piou, piou, baow J'préfère les chiffres que les lettres Lettres, t'as d'l'ADN de bite sur les lèvres Bitch Yeah, ta dernière vision s'ra un Desert Eagle qui tousse J'préfère les chiffres que les lettres, t'as d'l'ADN de bite sur les mwah Mentalité zoo Eh, depuis le berceau Eh J'suis dans la Enzo Ok mais j'ai moins d'amis J'connais le ghetto Eh, les dealers et escrocs Eh Tout dans la gue-dro Ok, la meilleure cocaïne Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine Yeah Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine Ice, ice, moula Eh J'fais les dièses, trop d'preuves dans l'bigo', j'ai te-j', ola Ouais Le H et Dems dans le tieks, baby love MC Solaar Eh, Hallelujah, Hallelujah Oh J'ai la santé, la jeunesse, tout va Hey, violets, verts, euros, dollars Sale Moelle épinière est remplie de dagues, le sablier n'a plus trop de sable Mort Balle perdue a trouvé son chemin dans le crâne d'un gosse du village Sans pression, flicaille mit coup de gaz, mit coup de taser Ouh, ouh Beaucoup de rageux, l'monde en otage, à Floyd est l'hommage Ouh, ouh Nique ta mère écrit dans l'horoscope, j'suis pas dans le top, c'est moi le top Dems Des chattes incendiées dans le caméscope, quelques salopes dévergondées, je fuck Sale Ils parlèrent beaucoup, j'ai sorti le Glock, bang, bang, ils dansent la carioca Grah Délit d'faciès, aucun emploi J'n'ai pas de frères, que des avocats Eh Mentalité zoo Eh, depuis le berceau Eh J'suis dans la Enzo Ok mais j'ai moins d'amis J'connais le ghetto Eh, les dealers et escrocs Eh Tout dans la gue-dro Ok, la meilleure cocaïne Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine Yeah Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine Rrrrrk, puh Le mollard est craché, la capote a craqué Brr, brr, brr, ah, ah Sa che-bou est remplie, la petite est gâtée Elle est gâtée, mwah Les négros sont fâchés, innocents, matraqués Eh, hmm, hmm J'te sers un zeu-di au hasard, dee-spe comme Mbappé Nwar, sale6</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BXL ZOO</t>
+          <t>CQFD</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah-yeah Grrr, yeah, yeah, yeah, yeah-yeah Okay Ça fait longtemps qu'j'ai basculé du mauvais côté d'la lumière Parlons de moula mais parlons au pluriel Brr La faucheuse sort d'un van dans ta ruelle L'point commun entre l'amour et la haine, c'est ma façon d'ken Ma façon de briller, j'suis toujours outillé Ok, ok Bébé, le canon est bien, bien scié C'est le H et Dems pour un peu de sauce dans leur putain d'vie Vie J'suis dans l'Q7, tout est noir comme la carrosserie Ah Petit à petit, coller la petite, hmm Mwah De illets-bi en illets-bi, Louis, Fendi, cartel, te-sui Ouh oui Ta dernière vision s'ra un Desert Eagle qui tousse Piou, piou, piou, baow J'préfère les chiffres que les lettres Lettres, t'as d'l'ADN de bite sur les lèvres Bitch Yeah, ta dernière vision s'ra un Desert Eagle qui tousse J'préfère les chiffres que les lettres, t'as d'l'ADN de bite sur les mwah Mentalité zoo Eh, depuis le berceau Eh J'suis dans la Enzo Ok mais j'ai moins d'amis J'connais le ghetto Eh, les dealers et escrocs Eh Tout dans la gue-dro Ok, la meilleure cocaïne Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine Yeah Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine Ice, ice, moula Eh J'fais les dièses, trop d'preuves dans l'bigo', j'ai te-j', ola Ouais Le H et Dems dans le tieks, baby love MC Solaar Eh, Hallelujah, Hallelujah Oh J'ai la santé, la jeunesse, tout va Hey, violets, verts, euros, dollars Sale Moelle épinière est remplie de dagues, le sablier n'a plus trop de sable Mort Balle perdue a trouvé son chemin dans le crâne d'un gosse du village Sans pression, flicaille mit coup de gaz, mit coup de taser Ouh, ouh Beaucoup de rageux, l'monde en otage, à Floyd est l'hommage Ouh, ouh Nique ta mère écrit dans l'horoscope, j'suis pas dans le top, c'est moi le top Dems Des chattes incendiées dans le caméscope, quelques salopes dévergondées, je fuck Sale Ils parlèrent beaucoup, j'ai sorti le Glock, bang, bang, ils dansent la carioca Grah Délit d'faciès, aucun emploi J'n'ai pas de frères, que des avocats Eh Mentalité zoo Eh, depuis le berceau Eh J'suis dans la Enzo Ok mais j'ai moins d'amis J'connais le ghetto Eh, les dealers et escrocs Eh Tout dans la gue-dro Ok, la meilleure cocaïne Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine Yeah Envoie les bouteilles Oh, oh, j'suis dans mon mood, babe Oh, oh BXL ZOO, babe BXL, ça, c'est la routine Rrrrrk, puh Le mollard est craché, la capote a craqué Brr, brr, brr, ah, ah Sa che-bou est remplie, la petite est gâtée Elle est gâtée, mwah Les négros sont fâchés, innocents, matraqués Eh, hmm, hmm J'te sers un zeu-di au hasard, dee-spe comme Mbappé Nwar, sale6</t>
+          <t>Yeah Okey Ouais Dis-moi la vérité, rien que la vérité Est-ce que t'aimes vraiment la meuf avec qui t'es ? Ou juste par habitude t'oses plus la quitter ? Tu fumais pour fuir, maintenant fuis pour fumer Mon inspiration n'aime pas trop l'industrie Car l'industrie veut toujours plus consommer J'te vois rapper, rapper jusqu'à faire de la merde Jusqu'à qu'on écrive pour toi comme J. Hallyday Mon renoi protège toi de la célébrité Elles t'aimeront plus si t'sais plus faire c'que tu fais Elles t'aimeront plus si t'sais même plus faire de blé Elles t'aimeront plus surtout si tu t'fais doubler Tu parles de Lambo' mais tu prends le métro T'as fait qu'un album mais c'était l'album de trop J'marque l'histoire à chaque fin de ceau-mor Le sorcier est vrai ce n'est pas du gryffondor L'amour d'une mère peut faire plus de mal que d'bien Le sida se transmet aussi par le sein Un bateau pirate dans un océan noir Plus le chemin est long plus les routes se séparent J'ai foncé craché sans regarder où j'allais Ta beauté me cachait ton hépatite C J'ai pris des couleurs et je crie de douleur Et je prie à toute heure même si j'sais où j'irai J'ai fermé des gueules, j'en ai cassé d'autres J't'ai dit j'suis ni des leurs j'suis ni des vôtres Dis pas que j'viens de la rue parce que ça c'est des couilles Quand tu vendais de la drogue j'allais à l'école Mais l'école a fini par m'mettre à la rue Et la rue a fini par m'faire vendre de la drogue Y a ceux qui font que c'qu'on leur demande Et ceux qui se demandent si y a des choses à faire Matraque dans l'anus on se demande Si bavures policières sont réglementaires J'suis la craie qui grince sur le tableau J'suis le mot dans l'dico qui vient de l'argot Les niquer ma seule obligation La pression à chaque publication Toutes les femmes ne sont pas pareilles c'est vrai Mais le diable parle à travers elles de la même façon Dem's CQFD10</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CQFD</t>
+          <t>William</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Yeah Okey Ouais Dis-moi la vérité, rien que la vérité Est-ce que t'aimes vraiment la meuf avec qui t'es ? Ou juste par habitude t'oses plus la quitter ? Tu fumais pour fuir, maintenant fuis pour fumer Mon inspiration n'aime pas trop l'industrie Car l'industrie veut toujours plus consommer J'te vois rapper, rapper jusqu'à faire de la merde Jusqu'à qu'on écrive pour toi comme J. Hallyday Mon renoi protège toi de la célébrité Elles t'aimeront plus si t'sais plus faire c'que tu fais Elles t'aimeront plus si t'sais même plus faire de blé Elles t'aimeront plus surtout si tu t'fais doubler Tu parles de Lambo' mais tu prends le métro T'as fait qu'un album mais c'était l'album de trop J'marque l'histoire à chaque fin de ceau-mor Le sorcier est vrai ce n'est pas du gryffondor L'amour d'une mère peut faire plus de mal que d'bien Le sida se transmet aussi par le sein Un bateau pirate dans un océan noir Plus le chemin est long plus les routes se séparent J'ai foncé craché sans regarder où j'allais Ta beauté me cachait ton hépatite C J'ai pris des couleurs et je crie de douleur Et je prie à toute heure même si j'sais où j'irai J'ai fermé des gueules, j'en ai cassé d'autres J't'ai dit j'suis ni des leurs j'suis ni des vôtres Dis pas que j'viens de la rue parce que ça c'est des couilles Quand tu vendais de la drogue j'allais à l'école Mais l'école a fini par m'mettre à la rue Et la rue a fini par m'faire vendre de la drogue Y a ceux qui font que c'qu'on leur demande Et ceux qui se demandent si y a des choses à faire Matraque dans l'anus on se demande Si bavures policières sont réglementaires J'suis la craie qui grince sur le tableau J'suis le mot dans l'dico qui vient de l'argot Les niquer ma seule obligation La pression à chaque publication Toutes les femmes ne sont pas pareilles c'est vrai Mais le diable parle à travers elles de la même façon Dem's CQFD10</t>
+          <t>Sur Instagram, j'reçois des nudes et des numéros J'aime trop la femme pour en aimer qu'une mon plus grand défaut J'aime une femme mais c'est compliqué, c'est très compliqué Elle sèche ses larmes, elle a abdiqué, sait qu'on va s'quitter C'est beaucoup plus dur que c'que j'pensais d'avoir un enfant D'aimer sa mère mais de s'séparer, pour mieux vivre ensemble Je suis fatigué, il est trois heures du mat', un 14 décembre J'écris ce texte avec un cognac, des clopes et des cendres Je m'réfugie dans mes pensées, pour plus y penser Mon il rougit car il est trempé, ensanglanté J'supplie la vie de m'laisser partir quand ça va très mal Je prie la nuit, souffre le martyr en attente d'un signal C'est difficile quand ça d'vient facile, mon cur a parlé Ça d'vient difficile même d'en parler donc j'vais plus trop parler De peur d'être sobre à peur d'être papa, du chemin, j'en ai fait De rien en poche à Porsche Carrera, du ch'min, j'en ai fait Même sourire, différentes blessures, même compte, différents montants La vie, une condamnation, l'amour n'est qu'une caution J'ai encore baisé sans pote-ca, elle m'dit qu'c'est pas l'même résultat J'crois qu'c'est à cause de tout ça que j'écris tout ça Dernier album ou peut-être pas, la vie nous le dira6</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sur Instagram, j'reçois des nudes et des numéros J'aime trop la femme pour en aimer qu'une mon plus grand défaut J'aime une femme mais c'est compliqué, c'est très compliqué Elle sèche ses larmes, elle a abdiqué, sait qu'on va s'quitter C'est beaucoup plus dur que c'que j'pensais d'avoir un enfant D'aimer sa mère mais de s'séparer, pour mieux vivre ensemble Je suis fatigué, il est trois heures du mat', un 14 décembre J'écris ce texte avec un cognac, des clopes et des cendres Je m'réfugie dans mes pensées, pour plus y penser Mon il rougit car il est trempé, ensanglanté J'supplie la vie de m'laisser partir quand ça va très mal Je prie la nuit, souffre le martyr en attente d'un signal C'est difficile quand ça d'vient facile, mon cur a parlé Ça d'vient difficile même d'en parler donc j'vais plus trop parler De peur d'être sobre à peur d'être papa, du chemin, j'en ai fait De rien en poche à Porsche Carrera, du ch'min, j'en ai fait Même sourire, différentes blessures, même compte, différents montants La vie, une condamnation, l'amour n'est qu'une caution J'ai encore baisé sans pote-ca, elle m'dit qu'c'est pas l'même résultat J'crois qu'c'est à cause de tout ça que j'écris tout ça Dernier album ou peut-être pas, la vie nous le dira6</t>
+          <t>Double X on the track, bitch! La nuit, je t'aime jusqu'au matin La nuit, je bois, j'me noie, je suis de bonne humeur On joue à des jeux, ce soir t'es ma catin Tellement de chaleur, sur ma montre je ne vois plus l'heure Les yeux fermés, j'fais le tour de la ville Un collier à l'ail, je tire sur des vampires Igo, que tu m'aimes arrête de le dire Mytho, ça fait longtemps qu'il y a ton cur dans un frigo Il me faut une heure pour compter cents-mille On a compté des heures et on était trois J'ai 18 ans, j'habite à Fleury La nuit, je parle aux potes du D3 La nuit, les petits montent à Bruxelles Aiment la sensation des montagnes russes Tu sais des fois la nuit, je m'ennuie J'pars avec une russe à la montagne La nuit, je parle dans mes rêves La nuit, je plane entre ses lèvres La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise La nuit, j'attends, je prie pour qu'elle m'appelle La nuit, elle tremble, crie, elle perd la tête La nuit, elle souffre La nuit, elle bouffe La nuit, je bande La nuit, je baise Noche, noche, noche, noche, noche oh ouais Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Dem's Oh, oh, oh, oh, oh, oh C'est BruxellesVie, pas l'bronx mais bon ça tire aussi Les ennemis n'demandent pas l'heure, nan, c'est d'jà écrit dans l'autopsie Des mères, j'en nique malgré le leak, traces de mascara sur la bite Si j'donne le la, c'est qu'pour le crime, oh bah oui La nuit je fais le point, je fais le Vie La nuit, c'est à ce moment qu'elle m'appelle La nuit, c'est pour son homme, pas son mari La nuit, c'est à ce moment que j'la ken La nuit, c'est tout c'que l'on veut croire La nuit, c'est nous deux dans le noir La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise La nuit, je parle dans mes rêves yeah La nuit, je plane entre ses lèvres ouais La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise ouais La nuit, j'attends, je prie pour qu'elle m'appelle ouais La nuit, elle tremble, crie, elle perd la tête oh ouais La nuit, elle souffre La nuit, elle bouffe La nuit, je bande La nuit, je baise Noche, noche, noche, noche, noche oh ouais Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Oh, oh, oh, oh, oh, oh Sors tout, le billet violet, si j'te voulais, j't'aurais mieux donné Soie et satin, de la dentelle, pour te décorer Jusqu'au matin, j'te fais du bien, j'vois ta peau dorée Écoute moi, j'dois récupérer du biff au tiek's J'veux plus bouger quand je vois ces fesses On refait l'amour comme des bêtes Mi amor, de mes nuits, t'es la best Il est six heures les condés ont voulu m'empêcher, nan Je finis et je viens, elle voudra pas me cher-lâ La nuit, je parle dans mes rêves yeah La nuit, je plane entre ses lèvres ouais La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise ouais La nuit, j'attends, je prie pour qu'elle m'appelle ouais La nuit, elle tremble, crie, elle perd la tête oh ouais La nuit, elle souffre La nuit, elle bouffe La nuit, je bande La nuit, je baise Noche, noche, noche, noche, noche oh ouais Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Oh, oh, oh, oh, oh, oh Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Oh, oh, oh, oh, oh, oh10</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Π. VANTABLACK</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Double X on the track, bitch! La nuit, je t'aime jusqu'au matin La nuit, je bois, j'me noie, je suis de bonne humeur On joue à des jeux, ce soir t'es ma catin Tellement de chaleur, sur ma montre je ne vois plus l'heure Les yeux fermés, j'fais le tour de la ville Un collier à l'ail, je tire sur des vampires Igo, que tu m'aimes arrête de le dire Mytho, ça fait longtemps qu'il y a ton cur dans un frigo Il me faut une heure pour compter cents-mille On a compté des heures et on était trois J'ai 18 ans, j'habite à Fleury La nuit, je parle aux potes du D3 La nuit, les petits montent à Bruxelles Aiment la sensation des montagnes russes Tu sais des fois la nuit, je m'ennuie J'pars avec une russe à la montagne La nuit, je parle dans mes rêves La nuit, je plane entre ses lèvres La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise La nuit, j'attends, je prie pour qu'elle m'appelle La nuit, elle tremble, crie, elle perd la tête La nuit, elle souffre La nuit, elle bouffe La nuit, je bande La nuit, je baise Noche, noche, noche, noche, noche oh ouais Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Dem's Oh, oh, oh, oh, oh, oh C'est BruxellesVie, pas l'bronx mais bon ça tire aussi Les ennemis n'demandent pas l'heure, nan, c'est d'jà écrit dans l'autopsie Des mères, j'en nique malgré le leak, traces de mascara sur la bite Si j'donne le la, c'est qu'pour le crime, oh bah oui La nuit je fais le point, je fais le Vie La nuit, c'est à ce moment qu'elle m'appelle La nuit, c'est pour son homme, pas son mari La nuit, c'est à ce moment que j'la ken La nuit, c'est tout c'que l'on veut croire La nuit, c'est nous deux dans le noir La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise La nuit, je parle dans mes rêves yeah La nuit, je plane entre ses lèvres ouais La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise ouais La nuit, j'attends, je prie pour qu'elle m'appelle ouais La nuit, elle tremble, crie, elle perd la tête oh ouais La nuit, elle souffre La nuit, elle bouffe La nuit, je bande La nuit, je baise Noche, noche, noche, noche, noche oh ouais Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Oh, oh, oh, oh, oh, oh Sors tout, le billet violet, si j'te voulais, j't'aurais mieux donné Soie et satin, de la dentelle, pour te décorer Jusqu'au matin, j'te fais du bien, j'vois ta peau dorée Écoute moi, j'dois récupérer du biff au tiek's J'veux plus bouger quand je vois ces fesses On refait l'amour comme des bêtes Mi amor, de mes nuits, t'es la best Il est six heures les condés ont voulu m'empêcher, nan Je finis et je viens, elle voudra pas me cher-lâ La nuit, je parle dans mes rêves yeah La nuit, je plane entre ses lèvres ouais La nuit, je pense La nuit, je dors peu La nuit, je bande La nuit, je baise ouais La nuit, j'attends, je prie pour qu'elle m'appelle ouais La nuit, elle tremble, crie, elle perd la tête oh ouais La nuit, elle souffre La nuit, elle bouffe La nuit, je bande La nuit, je baise Noche, noche, noche, noche, noche oh ouais Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Oh, oh, oh, oh, oh, oh Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Noche, noche, noche, noche, noche Oh, oh, oh, oh, oh, oh10</t>
+          <t>Nwaar La violence Ouh Eh, l'humanité tuée dans l'uf Tuée dans l'uf, l'égalité entre homme et meuf, c'est l'soixante-neuf C'est l'soixante-neuf Libre comme l'air, sortie d'une tte-ch' Sortie d'une tte-ch', j'baise ta mère, j'laisse mon me-sper sur son blush Blush, blush Numéro un, je l'redeviens, je n'm'arrête pas Jamais, elle fait qu'me sucer, j'crois qu'mon gland disparaîtra Sale T'es une bitch ? Viens sur la guest Viens sur la guest, j'te crache dessus, délit d'faciès Délit d'faciès On s'croise, j'fais comme Thomas, j'pars en flèche, Damso, Dems, Nwaar C'est Bruxelles Vie, pas l'Bronx, ni banlieue ouest Ni banlieue ouest Ça rappe beaucoup mais ça n'sort pas du tieks Non, non, jamais, j'te mets dans l'cul, t'as l'bas qui t'blesse Ah ouais, la pute T'es un vendu, police t'achète, nwaar Snitch Hey, hey Okay, okay Prinz Hey, hey, hey, hey Okay, okay, okay Nwaar Hey, hey, hey Okay, okay, okay Hey, hey, hey Okay, okay, okay Thug, noir, déf', sale, négro prend la weed Hey, défoncé dans l'tiekson, négro fume la weed Eh Thug, noir, déf', sale, négro prend la weed Eh, défoncé dans l'tiekson, négro fume la weed Prend la weed, déf', noir, saal Négro fume la weed, fume la weed, déf', noir, saal Négro fume la weed Fume la weed, déf', noir, saal Négro fume la weed fume la weed, déf', noir, saal Négro fume la weed J'tire sur mon oint-j, vie sur le linge, Coco Loco à Zona rosa Millions d'euros, ici et là, j'étale mon biff sur un corps en émoi Traînée de beuh sous l'épiderme, kilos de coke dans l'camion-citerne J'm'invente une vie, j'm'invente une mort, crevé par fils de pute en mauvais termes Remise en question mais sans réponses, j'rêve de roses mais vis dans les ronces J't'ai fait du mal en t'faisant du bien, j'ai touché ton âme, en touchant tes seins Hashtag Tout s'passe comme prévu mais on sait que t'as rien prévu du tout J'suis sur la scène ou dans le zoo ? J'suis dans la tienne ou dans les autres ? Thug, noir, déf', sale, négro prend la weed Yeah, défoncé dans l'tiekson, négro fume la weed Thug, noir, déf', sale, négro prend la weed Ouh, défoncé dans l'tiekson, négro fume la weed Prend la weed, déf', noir, saal Négro fume la weed, fume la weed, déf', noir, saal Négro fume la weed Fume la weed, déf', noir, saal Négro fume la weed, fume la weed, déf', noir, saal Négro fume la weed6</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Π. VANTABLACK</t>
+          <t>Introduction (Damso / Lithopédion)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nwaar La violence Ouh Eh, l'humanité tuée dans l'uf Tuée dans l'uf, l'égalité entre homme et meuf, c'est l'soixante-neuf C'est l'soixante-neuf Libre comme l'air, sortie d'une tte-ch' Sortie d'une tte-ch', j'baise ta mère, j'laisse mon me-sper sur son blush Blush, blush Numéro un, je l'redeviens, je n'm'arrête pas Jamais, elle fait qu'me sucer, j'crois qu'mon gland disparaîtra Sale T'es une bitch ? Viens sur la guest Viens sur la guest, j'te crache dessus, délit d'faciès Délit d'faciès On s'croise, j'fais comme Thomas, j'pars en flèche, Damso, Dems, Nwaar C'est Bruxelles Vie, pas l'Bronx, ni banlieue ouest Ni banlieue ouest Ça rappe beaucoup mais ça n'sort pas du tieks Non, non, jamais, j'te mets dans l'cul, t'as l'bas qui t'blesse Ah ouais, la pute T'es un vendu, police t'achète, nwaar Snitch Hey, hey Okay, okay Prinz Hey, hey, hey, hey Okay, okay, okay Nwaar Hey, hey, hey Okay, okay, okay Hey, hey, hey Okay, okay, okay Thug, noir, déf', sale, négro prend la weed Hey, défoncé dans l'tiekson, négro fume la weed Eh Thug, noir, déf', sale, négro prend la weed Eh, défoncé dans l'tiekson, négro fume la weed Prend la weed, déf', noir, saal Négro fume la weed, fume la weed, déf', noir, saal Négro fume la weed Fume la weed, déf', noir, saal Négro fume la weed fume la weed, déf', noir, saal Négro fume la weed J'tire sur mon oint-j, vie sur le linge, Coco Loco à Zona rosa Millions d'euros, ici et là, j'étale mon biff sur un corps en émoi Traînée de beuh sous l'épiderme, kilos de coke dans l'camion-citerne J'm'invente une vie, j'm'invente une mort, crevé par fils de pute en mauvais termes Remise en question mais sans réponses, j'rêve de roses mais vis dans les ronces J't'ai fait du mal en t'faisant du bien, j'ai touché ton âme, en touchant tes seins Hashtag Tout s'passe comme prévu mais on sait que t'as rien prévu du tout J'suis sur la scène ou dans le zoo ? J'suis dans la tienne ou dans les autres ? Thug, noir, déf', sale, négro prend la weed Yeah, défoncé dans l'tiekson, négro fume la weed Thug, noir, déf', sale, négro prend la weed Ouh, défoncé dans l'tiekson, négro fume la weed Prend la weed, déf', noir, saal Négro fume la weed, fume la weed, déf', noir, saal Négro fume la weed Fume la weed, déf', noir, saal Négro fume la weed, fume la weed, déf', noir, saal Négro fume la weed6</t>
+          <t>- Je vous garde encore une petite semaine afin d'effectuer quelques analyses en plus. Je vous ai prescrit en attendant la mixtape QALF de Damso et Jackpot du groupe OPG. Je vous revois dans quelques heures. Reposez-vous, et à tout à l'heure - Ouais - Monsieur Dems, vous m'entendez ? C'est rien d'bien méchant, il m'a juste traité d'nègre des champs Mais c'est rien d'bien méchant, j'ai juste niqué sa mère sur le champ Tu fais l'intelligent mais suffit d'une bastos pour qu'j'enterre ton savoir vivant avec un Magnum chargé entre les dents Mais c'est rien d'bien méchant, non, eh Tout est noir comme à Château Rouge Manchot, j'fais pas d'mauvais geste, non Mon .9 milli' dit que tas la peau douce, ta schneck vit en pleine sécheresse, oh J'aime pas l'humain, j'préfère les espèces, oh J't'ai déjà baisée, tu veux qu'j'te respecte ? Oh T'as trop sucé, t'as bouton d'herpès, oh Mais c'est rien d'bien méchant, non, oui Quatre, zéro, zéro années mais c'est rien d'bien méchant non plus Qu'on nous la met jusqu'à la monnaie et ça, bien profond dans le cul Des fils de putains, y en a plus dun, cest sûr Tours des scrutins sans Africain, jte jure Très gros engin dans son machin si pur Y a pas d'procès sûr car la prose est dure Niquer des mères, bosser dur, c'est la procédure T'es dans les flyers, j'suis dans les journaux Des chaînes d'esclaves aux chaînes en or Click, click, bang, bang comme ça qu'négro s'en sort Wesh, wesh, wesh, wesh Oui7</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Introduction (Damso / Lithopédion)</t>
+          <t>Exutoire</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>- Je vous garde encore une petite semaine afin d'effectuer quelques analyses en plus. Je vous ai prescrit en attendant la mixtape QALF de Damso et Jackpot du groupe OPG. Je vous revois dans quelques heures. Reposez-vous, et à tout à l'heure - Ouais - Monsieur Dems, vous m'entendez ? C'est rien d'bien méchant, il m'a juste traité d'nègre des champs Mais c'est rien d'bien méchant, j'ai juste niqué sa mère sur le champ Tu fais l'intelligent mais suffit d'une bastos pour qu'j'enterre ton savoir vivant avec un Magnum chargé entre les dents Mais c'est rien d'bien méchant, non, eh Tout est noir comme à Château Rouge Manchot, j'fais pas d'mauvais geste, non Mon .9 milli' dit que tas la peau douce, ta schneck vit en pleine sécheresse, oh J'aime pas l'humain, j'préfère les espèces, oh J't'ai déjà baisée, tu veux qu'j'te respecte ? Oh T'as trop sucé, t'as bouton d'herpès, oh Mais c'est rien d'bien méchant, non, oui Quatre, zéro, zéro années mais c'est rien d'bien méchant non plus Qu'on nous la met jusqu'à la monnaie et ça, bien profond dans le cul Des fils de putains, y en a plus dun, cest sûr Tours des scrutins sans Africain, jte jure Très gros engin dans son machin si pur Y a pas d'procès sûr car la prose est dure Niquer des mères, bosser dur, c'est la procédure T'es dans les flyers, j'suis dans les journaux Des chaînes d'esclaves aux chaînes en or Click, click, bang, bang comme ça qu'négro s'en sort Wesh, wesh, wesh, wesh Oui7</t>
+          <t>Eh Dems Eh Allégresse que pour tendre mère, tas de graisse dans son derrière J'me sens baisé d'la vie comme quand pute te dit C'est trop tard pour ne plus être père Un avenir dans un chèque repas, fin du mois, tout l'monde perd du poids Nage en brasse en plein tsunami, survis, je vis, taureau noir dans la corrida En temps d'guerre y'a aucune étreinte, tue tout l'monde, même les femmes enceintes Dans un cloaque en méditation, j'vis des jours heureux dans lumière éteinte Y a qu'à la muscu' qu'j'mets un genou à terre, gare centrale à la rue, j'étais locataire Depuis, j'fais du sale, y'a plus de clémence, j'vis d'Universal et d'mes redevances Perpétuelle éjaculation dans orifice de pute en excitation Succession d'accumulation, j'respecte plus les règles même celles de ses menstruations Beaucoup d'appelés mais si peu d'élus, m'en bats les couilles des vues tant qu'ça a pas payé Tu passes à la télé mais t'es pas connu, en gros tu prends dans l'cul mais t'es pas pédé Angle droit comme la lettre L, vrai pe-ra Wu-Tang dans les gênes J'fais du sale, j'ai d'la verdure à vendre, comme ceux dont la chair est couleur ébène Loin des plages ensoleillées j'ai su trouver sommeil Le cur sur une plaque allumée j'écoute Agnès Obel J'écoute Agnès Obel Le cur sur une plaque allumée j'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel J'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel Le cur sur une plaque allumée j'écoute Agnès Obel En fait le truc c'est que j'n'avais pas de flouzes, j'faisais du pe-ra appuyé par le couz' Souvent défoncé, j'compte les sous dépensés, dans ma douze et goose, Damso, dose, dose, dose Les mecs au quartier parlent de barillets, j'me dis qu'pour braquer, pas trop tard il est J'hésite à faire ce biz' en deux deux mais j'me dis pour 1000 eu' Vais-je risquer la taule ?, no, no Ventre creux, sans thunes, le cur qui bat, Batterie faible indique le Toshiba J'me dis qu'vaut mieux que j'fasse des prods', les vendre aux mecs qui posent, qui sait ça m'fera des loves, loves, loves J'postule dans les shops, j'suis au FOREM, putain, j'ai même dû enlever ma boucle d'oreille Ces fils de putes ne voulaient pas du Dems, j'n'avais pas le profil, non j'n'étais qu'un négro, no, no J'pète donc les plombs, j'craque, j'prends l'gun, j'braque sans m'faire pécho J'suis refait, 1000e au frais, petits billets, p'tits boulots, FOREM, j'ai oublié J'taffe donc les sons, tracks sombres, seum, QALF semble plaire, qué-cho j'suis Refait, signé au frais, gros billets, petits boulot, FOREM, j'ai oublié Quelques mois plus tard j'suis dans l'arène à faire du sale Vie Appelle-moi plus tard j'n'ai plus l'temps pour toi m'avait-elle dit Loin des plages ensoleillées, j'ai su trouver sommeil Le cur sur une plaque allumée j'écoute Agnès Obel J'écoute Agnès Obel Le cur sur une plaque allumée j'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel J'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel Le cur sur une plaque allumée j'écoute Agnès Obel Facile8</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Exutoire</t>
+          <t>911</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Eh Dems Eh Allégresse que pour tendre mère, tas de graisse dans son derrière J'me sens baisé d'la vie comme quand pute te dit C'est trop tard pour ne plus être père Un avenir dans un chèque repas, fin du mois, tout l'monde perd du poids Nage en brasse en plein tsunami, survis, je vis, taureau noir dans la corrida En temps d'guerre y'a aucune étreinte, tue tout l'monde, même les femmes enceintes Dans un cloaque en méditation, j'vis des jours heureux dans lumière éteinte Y a qu'à la muscu' qu'j'mets un genou à terre, gare centrale à la rue, j'étais locataire Depuis, j'fais du sale, y'a plus de clémence, j'vis d'Universal et d'mes redevances Perpétuelle éjaculation dans orifice de pute en excitation Succession d'accumulation, j'respecte plus les règles même celles de ses menstruations Beaucoup d'appelés mais si peu d'élus, m'en bats les couilles des vues tant qu'ça a pas payé Tu passes à la télé mais t'es pas connu, en gros tu prends dans l'cul mais t'es pas pédé Angle droit comme la lettre L, vrai pe-ra Wu-Tang dans les gênes J'fais du sale, j'ai d'la verdure à vendre, comme ceux dont la chair est couleur ébène Loin des plages ensoleillées j'ai su trouver sommeil Le cur sur une plaque allumée j'écoute Agnès Obel J'écoute Agnès Obel Le cur sur une plaque allumée j'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel J'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel Le cur sur une plaque allumée j'écoute Agnès Obel En fait le truc c'est que j'n'avais pas de flouzes, j'faisais du pe-ra appuyé par le couz' Souvent défoncé, j'compte les sous dépensés, dans ma douze et goose, Damso, dose, dose, dose Les mecs au quartier parlent de barillets, j'me dis qu'pour braquer, pas trop tard il est J'hésite à faire ce biz' en deux deux mais j'me dis pour 1000 eu' Vais-je risquer la taule ?, no, no Ventre creux, sans thunes, le cur qui bat, Batterie faible indique le Toshiba J'me dis qu'vaut mieux que j'fasse des prods', les vendre aux mecs qui posent, qui sait ça m'fera des loves, loves, loves J'postule dans les shops, j'suis au FOREM, putain, j'ai même dû enlever ma boucle d'oreille Ces fils de putes ne voulaient pas du Dems, j'n'avais pas le profil, non j'n'étais qu'un négro, no, no J'pète donc les plombs, j'craque, j'prends l'gun, j'braque sans m'faire pécho J'suis refait, 1000e au frais, petits billets, p'tits boulots, FOREM, j'ai oublié J'taffe donc les sons, tracks sombres, seum, QALF semble plaire, qué-cho j'suis Refait, signé au frais, gros billets, petits boulot, FOREM, j'ai oublié Quelques mois plus tard j'suis dans l'arène à faire du sale Vie Appelle-moi plus tard j'n'ai plus l'temps pour toi m'avait-elle dit Loin des plages ensoleillées, j'ai su trouver sommeil Le cur sur une plaque allumée j'écoute Agnès Obel J'écoute Agnès Obel Le cur sur une plaque allumée j'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel J'écoute Agnès Obel Agnès Agnès Obel-bel-bel-bel-bel-bel-bel Le cur sur une plaque allumée j'écoute Agnès Obel Facile8</t>
+          <t>Eh, eh Tombé love, eh J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love Évidemment, tu t'poses des questions, tu dis qu'le Dems jamais O.G. fume, fait de l'argent, d'la moula, pense à rien d'autre, mais J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love Hollywood, j'me fais des films, j'rêve les yeux grands ouverts, j'plane, oh God Nan, j'pars en vrille, la drogue est vi-sser, un bédo, j'tire une grosse taffe, oh God J'crois qu'j'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love Love, love Love, love Love, love Love, love Ok, va dire à la Mort qu't'as rencontré l'homme de ta vie Ptite punchline zerma romantique, j'crois qu'ça y est Éclaboussure sur des lèvres, enchanté de revivre Mon lifestyle, gicler sur des 'tasses dans lpalais Pour toi, j'pourrais même revendre du te-sh', ouais Pour toi, j'pourrais même parler aux keufs, non, j'mens non Pour toi, j'arrêtai d'mettre dans les sses-fe, ouais Pour toi, jcrois qujpourrais dire qutes ma meuf quand jsors merde J'me ramollis, jsuis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love Love, love Love, love Love, love Love, love Merde, jme ramollis, jsuis tombé love8</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>Λ. Lové</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Eh, eh Tombé love, eh J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love Évidemment, tu t'poses des questions, tu dis qu'le Dems jamais O.G. fume, fait de l'argent, d'la moula, pense à rien d'autre, mais J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love Hollywood, j'me fais des films, j'rêve les yeux grands ouverts, j'plane, oh God Nan, j'pars en vrille, la drogue est vi-sser, un bédo, j'tire une grosse taffe, oh God J'crois qu'j'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love Love, love Love, love Love, love Love, love Ok, va dire à la Mort qu't'as rencontré l'homme de ta vie Ptite punchline zerma romantique, j'crois qu'ça y est Éclaboussure sur des lèvres, enchanté de revivre Mon lifestyle, gicler sur des 'tasses dans lpalais Pour toi, j'pourrais même revendre du te-sh', ouais Pour toi, j'pourrais même parler aux keufs, non, j'mens non Pour toi, j'arrêtai d'mettre dans les sses-fe, ouais Pour toi, jcrois qujpourrais dire qutes ma meuf quand jsors merde J'me ramollis, jsuis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love J'me ramollis, j'suis tombé love Fais le nine-one-one, j'crois qu'un gangster est tombé love Love, love Love, love Love, love Love, love Merde, jme ramollis, jsuis tombé love8</t>
+          <t>J'suis à un cul près de battre mon record J'bats pas en retraite sans faire de morts J'm'envoie en l'air, j't'envoie dans le décor D'Hollande est l'herbe, vend sans frais de port Envoie des nudes quand j'ai besoin de baiser Radio ne m'aime parce que vulgarités J'trouve réconfort en la personne de Luc J'fais que du sale donc je n'baise que des putes Afropéenne sa puterie me craint, oui Salopard il en est ainsi Fume-le doucement, on a tout le temps Prochain soleil couchant, bain de minuit Quelque part loin des problèmes et des soucis Loin de son sac Longchamps, près du Gucci Fellation sponso par lèvres de Belluci Fellation sponso par lèvres de Belluci J'ai fait du mal, j'ai fait du mal, j'm'en souviens plus J'tourne en rond, au rond-point Victoire, j'suis bien loin des vaincus Je n'sais même pas c'que j'inhale, sorti de force des sentiers battus Je n'sais que rapper la rue, c't'à dire que rien ne va plus Depuis je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Peace au lendemain car demain n'a pas besoin de nous Fumeur de joints bedo, j'n'ai pas fini les cours J'rappais dans le tieks avec mes négros dans le zoo OP motherfuck OG négro, c'était le crew Tous les jours def', profond deviendra le trou J'capte mon booker, pour un showcase il faut des sous J'suis avec une bitch mais son cul a d'jà fait le tour À trop mener ma vie comme je l'entends, j'suis devenu sourd La daronne à l'hosto a passée quasi tout l'été À chacun de ses pas, j'me dis qu'c'est p't'être le dernier Solitaire né, rap énervé Fais-moi fumer pour ne plus se sentir concerné J'suis def', faut qu'j'y reste mec Sobre, je vois trop de blèmes-pro D.A.M.S.O Roi désormais, tout est noir mais Pas d'lueurs blanches pures, coke passant par nez J'ai fait du mal, j'ai fait du mal, j'm'en souviens plus J'tourne en rond, au rond-point Victoire, j'suis bien loin des vaincus Je n'sais même pas c'que j'inhale, sorti de force des sentiers battus Je n'sais que rapper la rue, c't'à dire que rien ne va plus Depuis je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés J'ai fait du mal, j'ai fait du mal, j'm'en souviens plus J'tourne en rond, au rond-point Victoire, j'suis bien loin des vaincus Je n'sais même pas c'que j'inhale, sorti de force des sentiers battus Je n'sais que rapper la rue, c't'à dire que rien ne va plus Depuis je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés5</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Λ. Lové</t>
+          <t>QuedelaVie</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>J'suis à un cul près de battre mon record J'bats pas en retraite sans faire de morts J'm'envoie en l'air, j't'envoie dans le décor D'Hollande est l'herbe, vend sans frais de port Envoie des nudes quand j'ai besoin de baiser Radio ne m'aime parce que vulgarités J'trouve réconfort en la personne de Luc J'fais que du sale donc je n'baise que des putes Afropéenne sa puterie me craint, oui Salopard il en est ainsi Fume-le doucement, on a tout le temps Prochain soleil couchant, bain de minuit Quelque part loin des problèmes et des soucis Loin de son sac Longchamps, près du Gucci Fellation sponso par lèvres de Belluci Fellation sponso par lèvres de Belluci J'ai fait du mal, j'ai fait du mal, j'm'en souviens plus J'tourne en rond, au rond-point Victoire, j'suis bien loin des vaincus Je n'sais même pas c'que j'inhale, sorti de force des sentiers battus Je n'sais que rapper la rue, c't'à dire que rien ne va plus Depuis je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Peace au lendemain car demain n'a pas besoin de nous Fumeur de joints bedo, j'n'ai pas fini les cours J'rappais dans le tieks avec mes négros dans le zoo OP motherfuck OG négro, c'était le crew Tous les jours def', profond deviendra le trou J'capte mon booker, pour un showcase il faut des sous J'suis avec une bitch mais son cul a d'jà fait le tour À trop mener ma vie comme je l'entends, j'suis devenu sourd La daronne à l'hosto a passée quasi tout l'été À chacun de ses pas, j'me dis qu'c'est p't'être le dernier Solitaire né, rap énervé Fais-moi fumer pour ne plus se sentir concerné J'suis def', faut qu'j'y reste mec Sobre, je vois trop de blèmes-pro D.A.M.S.O Roi désormais, tout est noir mais Pas d'lueurs blanches pures, coke passant par nez J'ai fait du mal, j'ai fait du mal, j'm'en souviens plus J'tourne en rond, au rond-point Victoire, j'suis bien loin des vaincus Je n'sais même pas c'que j'inhale, sorti de force des sentiers battus Je n'sais que rapper la rue, c't'à dire que rien ne va plus Depuis je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés J'ai fait du mal, j'ai fait du mal, j'm'en souviens plus J'tourne en rond, au rond-point Victoire, j'suis bien loin des vaincus Je n'sais même pas c'que j'inhale, sorti de force des sentiers battus Je n'sais que rapper la rue, c't'à dire que rien ne va plus Depuis je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés Je n'pense qu'à faire des lovés5</t>
+          <t>Le rap français, j'vais tellement l'enculer Tellement qu'le HIV n'pourra pas m'arrêter Batterie faible, je suis scandalisé Les rappeurs font d'la merde en toute impunité J'vais faire du sale, du sale et j'vais te bruxelliser J'crois même que j'vais te 92izer Siboy, Shay et nash-Be, j'transmets mes amitiés Négro, j'viens d'tout officialiser J'paye une te-pu, j'évite ainsi resto et cinéma Reclu, vis loin des faux négros ici et là Dévergondée, la te-pu est mal vêtue J'la baiserai direct sans mettre de doigt Dems Pointeur de neush dans les hautes sphères Comme tes prières, j'côtoie que l'au-delà Je parle en tu avec le sommet Serpent d'l'enfer, jamais elle m'vouvoiera Oui, fuck les ondes hertziennes Vie Retrouve mon flow sur OKLM Radio J'dis des saloperies pendant le doggy Y a qu'comme ça que j'parlerai dans ton dos OPG Thug est le gang, OG Kush est dans le bang Le videur est champion de France Donc pour le niquer, j'ai du appeler deux-trois négros J'l'ai manuvrée dans la pièce et j'ai niqué sa mère Nwarmalement, nwar-nwarmalement Damso, ouais Un joint d'be-her dans la caisse, j'fume au bord de la mer Nwarmalement, nwar-nwarmalement Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Dans le noir, devant Dieu le père, agenouillé J'prie pour les fois où j't'ai défoncé, jnouné Beaucoup trop sévère, la biatch a fugué Grosse pute à quarante euros, j'me fais sucer Salope, salope, salope oui, les trois derniers gros mots qu'j'ai dit avant d'cracher J'connais ton futur, il r'ssemble à mon passé ouais T'as trop de vergetures, du sport, t'en fais pas assez Épile-toi un peu plus, soit dit en passant T'es plus poilue qu'la moustache de Maupassant T'as pas d'gamos, tu les prends en location T'as pas d'vrai blings, tu prends les contre façons J'suis au pied du mur mais celui des lamentations J'ai la clé du succès, t'as la clé du maton La soif de vaincre quand je m'noie dans la boisson Poséidon olympe est la nation J'la joue Kevin Garnett, Minnesota, KG Son âge n'est pas net donc j'fais pas le R.Kelly, no J'm'en fous qu'elle soit bonne aujourd'hui tant qu'son cul vieillit comme celui de J. Lo Dolfa à la prod, Damso, Dre, Mike Elizondo Nègre de la pègre, Borsalino Belmondo J'l'ai manuvrée dans la pièce et j'ai niqué sa mère Nwarmalement, nwar-nwarmalement Damso, ouais Un joint de be-her dans la caisse, j'fume au bord de la mer Nwarmalement, nwar-nwarmalement Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bong Que de la vie, OPG Thug est le gang, OG Kush est dans le bong Que de la vie, OPG Thug est le gang, OG Kush est dans le bong Que de la vie Bang, bang, bang, bang5</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>QuedelaVie</t>
+          <t>Η. Gova</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Le rap français, j'vais tellement l'enculer Tellement qu'le HIV n'pourra pas m'arrêter Batterie faible, je suis scandalisé Les rappeurs font d'la merde en toute impunité J'vais faire du sale, du sale et j'vais te bruxelliser J'crois même que j'vais te 92izer Siboy, Shay et nash-Be, j'transmets mes amitiés Négro, j'viens d'tout officialiser J'paye une te-pu, j'évite ainsi resto et cinéma Reclu, vis loin des faux négros ici et là Dévergondée, la te-pu est mal vêtue J'la baiserai direct sans mettre de doigt Dems Pointeur de neush dans les hautes sphères Comme tes prières, j'côtoie que l'au-delà Je parle en tu avec le sommet Serpent d'l'enfer, jamais elle m'vouvoiera Oui, fuck les ondes hertziennes Vie Retrouve mon flow sur OKLM Radio J'dis des saloperies pendant le doggy Y a qu'comme ça que j'parlerai dans ton dos OPG Thug est le gang, OG Kush est dans le bang Le videur est champion de France Donc pour le niquer, j'ai du appeler deux-trois négros J'l'ai manuvrée dans la pièce et j'ai niqué sa mère Nwarmalement, nwar-nwarmalement Damso, ouais Un joint d'be-her dans la caisse, j'fume au bord de la mer Nwarmalement, nwar-nwarmalement Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Dans le noir, devant Dieu le père, agenouillé J'prie pour les fois où j't'ai défoncé, jnouné Beaucoup trop sévère, la biatch a fugué Grosse pute à quarante euros, j'me fais sucer Salope, salope, salope oui, les trois derniers gros mots qu'j'ai dit avant d'cracher J'connais ton futur, il r'ssemble à mon passé ouais T'as trop de vergetures, du sport, t'en fais pas assez Épile-toi un peu plus, soit dit en passant T'es plus poilue qu'la moustache de Maupassant T'as pas d'gamos, tu les prends en location T'as pas d'vrai blings, tu prends les contre façons J'suis au pied du mur mais celui des lamentations J'ai la clé du succès, t'as la clé du maton La soif de vaincre quand je m'noie dans la boisson Poséidon olympe est la nation J'la joue Kevin Garnett, Minnesota, KG Son âge n'est pas net donc j'fais pas le R.Kelly, no J'm'en fous qu'elle soit bonne aujourd'hui tant qu'son cul vieillit comme celui de J. Lo Dolfa à la prod, Damso, Dre, Mike Elizondo Nègre de la pègre, Borsalino Belmondo J'l'ai manuvrée dans la pièce et j'ai niqué sa mère Nwarmalement, nwar-nwarmalement Damso, ouais Un joint de be-her dans la caisse, j'fume au bord de la mer Nwarmalement, nwar-nwarmalement Que de la vie, OPG Thug est le gang, OG Kush est dans le bang Que de la vie, OPG Thug est le gang, OG Kush est dans le bong Que de la vie, OPG Thug est le gang, OG Kush est dans le bong Que de la vie, OPG Thug est le gang, OG Kush est dans le bong Que de la vie Bang, bang, bang, bang5</t>
+          <t>Shoo Yeah J'suis dans sa schnek, t'es dans sa friendzone, tu l'as jamais tiré sauf au paintball Shoo Mon émoticône jamais s'enjoy No, peau d'pêche à l'ancienne, en Sean John Shoo Noir vie deviendra peut-être rose Ouais, O.G deviendra peut-être mauve Ouais La défonce est profonde à p'tite dose Ouais, ton compte à vues ne voit pas grand chose Rraah Marque de vêtement, j'deviens busy Eh, comme à l'hosto, j'ai des heures de visite Ouais C'est la java dans la go-va Eh, la pute est botoxée comme Rachida Pute, pute Africain, jamais j'oublierai Eh, renoi singé comme Taubira Ouais J'ai qu'un seul amour Mama Lova, j'veux plus t'voir comme la chatte à Turner Afida, ah ouais Non Dans la schnek, dans la schnek, dans la schnek, dans la schnek, je n'sens même plus le gland Bang, bang, ouais J'suis à sec, j'suis à sec, j'suis à sec, j'suis à sec, pourquoi tu m'suces autant ? Wesh ? J'démarre pas, j'risque de caler Ouais, j'l'ai nard-ca, j'l'ai mitraillée 'traillée Dana ne s'ra pas la vallée, à chaque nouveau son, j'crée des nouveaux paliers Ouais, ouais, ouais, ouais À chaque nouveau son, j'crée des nouveaux paliers Là-bas si j'y suis, jamais ça va aller Ouais, s'il n'y a pas d'essuie, ta che-bou, c'est pareil Ouais Cramer kilogrammes, je n'fais que inhaler Eh Salam à P d'Nam, Bruxelles Vie à jamais Ouais, ouais Sperme dans les yeux, l'amour l'a-t-elle aveuglée ? Bang J'fais que du lourd, je n'viens plus à la pesée Bang Comme Aznavour, j's'rais dans l'game jusqu'à crever Ouais Dans l'crew, tout l'monde se sait Vie tatoué dans barbelés J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, regardez par là, bientôt, il y sera Il y sera J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, j'm'en vais là-bas loin des ceci, cela Vie Go-va J'suis dans la go-va, go-va J'suis dans la go-va J'suis dans la go-va Ouais, regardez par là, bientôt, il y sera Il y sera J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, j'm'en vais là-bas loin des ceci, cela Ceci, cela Vie Trou d'mémoire d'vant policier lors d'audition Ouais, tout est noir comme chemisier de Ardisson Y a qu'chez ton mac qu'impossible est la mission No, y a qu'à Détroit que j'aurais besoin de pistons Un disque d'or mais pas de réédition Yes, l'album est fort mais j'perçois pas d'édition Touche mes couilles et dis-moi félicitations Pute, sans trop d'efforts, je suis d'jà en érection Yeah Dans sa tte-cha, je n'fais que de la natation Bang, danse avec moi, je n'sais faire que des tractions No J'suis africain, peu importe la nation Ouais, j'suis africain, peu importe la nation Grr, rah Dîtes au barman que j'n'ai pas besoin de glaçons Sheesh, micro bas d'gamme mais le flow n'est pas d'occasion Ouais Paco Rabanne mouille lors des salutations Dems, j'fais que du sale et très noire est la mention Ouais, ouais Sperme dans les yeux, l'amour l'a-t-elle aveuglée ? Bang J'fais que du lourd, je n'viens plus à la pesée Bang Comme Aznavour, j's'rais dans l'game jusqu'à crever Dans l'crew, tout l'monde se sait Vie tatoué dans barbelés J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, regardez par là, bientôt, il y sera Il y sera J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, j'm'en vais là-bas loin des ceci, cela Ceci, cela Vie Go-va Go-va Vie Vie Go-va Go-va3</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Η. Gova</t>
+          <t>God Bless</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Shoo Yeah J'suis dans sa schnek, t'es dans sa friendzone, tu l'as jamais tiré sauf au paintball Shoo Mon émoticône jamais s'enjoy No, peau d'pêche à l'ancienne, en Sean John Shoo Noir vie deviendra peut-être rose Ouais, O.G deviendra peut-être mauve Ouais La défonce est profonde à p'tite dose Ouais, ton compte à vues ne voit pas grand chose Rraah Marque de vêtement, j'deviens busy Eh, comme à l'hosto, j'ai des heures de visite Ouais C'est la java dans la go-va Eh, la pute est botoxée comme Rachida Pute, pute Africain, jamais j'oublierai Eh, renoi singé comme Taubira Ouais J'ai qu'un seul amour Mama Lova, j'veux plus t'voir comme la chatte à Turner Afida, ah ouais Non Dans la schnek, dans la schnek, dans la schnek, dans la schnek, je n'sens même plus le gland Bang, bang, ouais J'suis à sec, j'suis à sec, j'suis à sec, j'suis à sec, pourquoi tu m'suces autant ? Wesh ? J'démarre pas, j'risque de caler Ouais, j'l'ai nard-ca, j'l'ai mitraillée 'traillée Dana ne s'ra pas la vallée, à chaque nouveau son, j'crée des nouveaux paliers Ouais, ouais, ouais, ouais À chaque nouveau son, j'crée des nouveaux paliers Là-bas si j'y suis, jamais ça va aller Ouais, s'il n'y a pas d'essuie, ta che-bou, c'est pareil Ouais Cramer kilogrammes, je n'fais que inhaler Eh Salam à P d'Nam, Bruxelles Vie à jamais Ouais, ouais Sperme dans les yeux, l'amour l'a-t-elle aveuglée ? Bang J'fais que du lourd, je n'viens plus à la pesée Bang Comme Aznavour, j's'rais dans l'game jusqu'à crever Ouais Dans l'crew, tout l'monde se sait Vie tatoué dans barbelés J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, regardez par là, bientôt, il y sera Il y sera J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, j'm'en vais là-bas loin des ceci, cela Vie Go-va J'suis dans la go-va, go-va J'suis dans la go-va J'suis dans la go-va Ouais, regardez par là, bientôt, il y sera Il y sera J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, j'm'en vais là-bas loin des ceci, cela Ceci, cela Vie Trou d'mémoire d'vant policier lors d'audition Ouais, tout est noir comme chemisier de Ardisson Y a qu'chez ton mac qu'impossible est la mission No, y a qu'à Détroit que j'aurais besoin de pistons Un disque d'or mais pas de réédition Yes, l'album est fort mais j'perçois pas d'édition Touche mes couilles et dis-moi félicitations Pute, sans trop d'efforts, je suis d'jà en érection Yeah Dans sa tte-cha, je n'fais que de la natation Bang, danse avec moi, je n'sais faire que des tractions No J'suis africain, peu importe la nation Ouais, j'suis africain, peu importe la nation Grr, rah Dîtes au barman que j'n'ai pas besoin de glaçons Sheesh, micro bas d'gamme mais le flow n'est pas d'occasion Ouais Paco Rabanne mouille lors des salutations Dems, j'fais que du sale et très noire est la mention Ouais, ouais Sperme dans les yeux, l'amour l'a-t-elle aveuglée ? Bang J'fais que du lourd, je n'viens plus à la pesée Bang Comme Aznavour, j's'rais dans l'game jusqu'à crever Dans l'crew, tout l'monde se sait Vie tatoué dans barbelés J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, regardez par là, bientôt, il y sera Il y sera J'suis dans la go-va J'suis dans la go-va, j'suis dans la go-va J'suis dans la go-va J'suis dans la go-va Ouais, j'm'en vais là-bas loin des ceci, cela Ceci, cela Vie Go-va Go-va Vie Vie Go-va Go-va3</t>
+          <t>Yeah Hey, hey Ouh-ouh Hey, fuck Bus', bustin like this Yeah Drug, ice, money, sex Money, sexe, uh Thug life, movie shit, nigga, Scorsese Elle espère avoir mes racks Avoir mes racks, maintenant, j'ai mon banquier, God bless Bless Et je fume un tas de Haze, eh, baby, bounce back, synchronisé sur les bass Just woke up et fuck le reste, eh Eh Booty tellement big, j'escalade le Mont Everest Négro, c'est ton birthday, eh Ouh-ouh, yeah Son de gunshot synchronisé sur la bass Ouh-ouh Ah bah oui Ouh-ouh Maintenant, j'ai mon banquier, God bless Bless, bless, bless Ah bah oui Ouh-ouh Ouais Maintenant, maintenant, j'ai mon banquier T'arrêtes pas d'taper des Skrt, skrt mais ton flow est flingué L'album le plus attendu d'l'année sortira pas c't'année Nwaar Comme un uf poché, si j'l'ouvre, j'coule, donc j'ferme ma gueule Dans mon cercueil, mets-moi full beuh, négro qu'j'puisse planer Sale J't'ai baisée, j't'ai quittée, j'sais même pas qui t'es, nan Nan C'est Dems, Dems, H, viennent pour le cash flow La seule raison, c'est la raison, sans ça, j'crois qu'j'aurais fait comme toi J'me serais marié, j'l'aurais trompée, j'lui aurais dit Désolé d'être moi J'aimerais qu'mon pénis ait des yeux juste pour qu'j'puisse voir la vie en rose Car mes pupilles ont vu trop d'morts et la daronne dans le coma Donc j'vais rien sortir cette année Nan, le temps que la daronne marche, sorte de l'hosto Goddamn, God bless Ouh-ouh Sale Maintenant, j'ai mon banquier, God bless Bless, bless, bless Ouh-ouh Ah bah oui Hey Oui Maintenant, maintenant, j'ai mon banquier, God bless Bless, bless, bless C'est bon Maintenant, j'ai mon banquier, God bless Bless, bless, bless, bless, bless, bless Baby, bounce back, synchronisé sur les bass Sur les bass5</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>God Bless</t>
+          <t>CŒUR EN MIETTES</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Yeah Hey, hey Ouh-ouh Hey, fuck Bus', bustin like this Yeah Drug, ice, money, sex Money, sexe, uh Thug life, movie shit, nigga, Scorsese Elle espère avoir mes racks Avoir mes racks, maintenant, j'ai mon banquier, God bless Bless Et je fume un tas de Haze, eh, baby, bounce back, synchronisé sur les bass Just woke up et fuck le reste, eh Eh Booty tellement big, j'escalade le Mont Everest Négro, c'est ton birthday, eh Ouh-ouh, yeah Son de gunshot synchronisé sur la bass Ouh-ouh Ah bah oui Ouh-ouh Maintenant, j'ai mon banquier, God bless Bless, bless, bless Ah bah oui Ouh-ouh Ouais Maintenant, maintenant, j'ai mon banquier T'arrêtes pas d'taper des Skrt, skrt mais ton flow est flingué L'album le plus attendu d'l'année sortira pas c't'année Nwaar Comme un uf poché, si j'l'ouvre, j'coule, donc j'ferme ma gueule Dans mon cercueil, mets-moi full beuh, négro qu'j'puisse planer Sale J't'ai baisée, j't'ai quittée, j'sais même pas qui t'es, nan Nan C'est Dems, Dems, H, viennent pour le cash flow La seule raison, c'est la raison, sans ça, j'crois qu'j'aurais fait comme toi J'me serais marié, j'l'aurais trompée, j'lui aurais dit Désolé d'être moi J'aimerais qu'mon pénis ait des yeux juste pour qu'j'puisse voir la vie en rose Car mes pupilles ont vu trop d'morts et la daronne dans le coma Donc j'vais rien sortir cette année Nan, le temps que la daronne marche, sorte de l'hosto Goddamn, God bless Ouh-ouh Sale Maintenant, j'ai mon banquier, God bless Bless, bless, bless Ouh-ouh Ah bah oui Hey Oui Maintenant, maintenant, j'ai mon banquier, God bless Bless, bless, bless C'est bon Maintenant, j'ai mon banquier, God bless Bless, bless, bless, bless, bless, bless Baby, bounce back, synchronisé sur les bass Sur les bass5</t>
+          <t>Le cur en miettes, je dois l'admettre Mes contraintes, mes échecs me montent à la tête J'ai réussi, j'n'ai plus d'quête, j'n'ai plus de dette Quatre secondes pour cent mètres, fait le gamos que j'achète Les souvenirs de ta schneck sont tout c'qu'il me reste Négro, arrête, j'dormais sur l'bitume, je n'compte plus l'nombre de siestes Donc viens pas m'parler d'ta hess, nan, nan J'ai passé des moments durs et des moments seul, mes pleurs étaient sanglants Des lésions, des courbatures, rudes épreuves, des blessures en tombant J'ai pas de répondant, surtout parce que j'm'en bats les c' Corona à la lèpre, l'Afrique cesse pas d'renaître Je suis parti en courant aux mains en l'air, pas un geste, cellule encombrante Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? T'es bon à être triste, t'es bon à être mauvais Oh non, dis-moi c'qui n'va pas Hey T'es bon à être vide, t'es bon à être au sommet Oh non, dis-moi c'qui n'va pas, du moins, c'est c'que je crois Force est de croire que, quand on est seul, on est On est bien Force est de croire que, quand on est seul On n'a plus peur de rien Rien, rien De rien La vie de rêve, je dois l'admettre Elle est remplie d'mal-être, de fils de putes en guests J'te parle même pas du reste, ça fait mal à la tête Roule un joint pur en pers' sans mettre de cigarette Pourquoi tu ouvres ta gueule, gros ? Viens pas trop faire le mec J'ai du sang sur les pec', une bagarre dans la déf' Rien qu'à entendre mes textes, elle se dit que j'aime que le sexe C'est juste que l'amour et moi se terminent par un bref Que des chiennes sans laisse, me-sper sur les tresses Que je laisse, mon amour étant c'que tu lèches, Dems C'est pas toujours moi qui suis les femmes On oublie trop souvent de dire qu'elles aussi sont attirées par moi Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ?12</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CŒUR EN MIETTES</t>
+          <t>Œveillé</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Le cur en miettes, je dois l'admettre Mes contraintes, mes échecs me montent à la tête J'ai réussi, j'n'ai plus d'quête, j'n'ai plus de dette Quatre secondes pour cent mètres, fait le gamos que j'achète Les souvenirs de ta schneck sont tout c'qu'il me reste Négro, arrête, j'dormais sur l'bitume, je n'compte plus l'nombre de siestes Donc viens pas m'parler d'ta hess, nan, nan J'ai passé des moments durs et des moments seul, mes pleurs étaient sanglants Des lésions, des courbatures, rudes épreuves, des blessures en tombant J'ai pas de répondant, surtout parce que j'm'en bats les c' Corona à la lèpre, l'Afrique cesse pas d'renaître Je suis parti en courant aux mains en l'air, pas un geste, cellule encombrante Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? T'es bon à être triste, t'es bon à être mauvais Oh non, dis-moi c'qui n'va pas Hey T'es bon à être vide, t'es bon à être au sommet Oh non, dis-moi c'qui n'va pas, du moins, c'est c'que je crois Force est de croire que, quand on est seul, on est On est bien Force est de croire que, quand on est seul On n'a plus peur de rien Rien, rien De rien La vie de rêve, je dois l'admettre Elle est remplie d'mal-être, de fils de putes en guests J'te parle même pas du reste, ça fait mal à la tête Roule un joint pur en pers' sans mettre de cigarette Pourquoi tu ouvres ta gueule, gros ? Viens pas trop faire le mec J'ai du sang sur les pec', une bagarre dans la déf' Rien qu'à entendre mes textes, elle se dit que j'aime que le sexe C'est juste que l'amour et moi se terminent par un bref Que des chiennes sans laisse, me-sper sur les tresses Que je laisse, mon amour étant c'que tu lèches, Dems C'est pas toujours moi qui suis les femmes On oublie trop souvent de dire qu'elles aussi sont attirées par moi Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ?12</t>
+          <t>Ok, vingt téra' de flows, l'ingé' par défaut, remplace l'air co' par l'bédo, fonce-dé, j'ai les crocs J'ai perdu proches et projets, proche des pros, j'ai taffé, tracé, rappé, rappé, j'ai rappé ma névrose Le biff, les meufs, le shit, les keufs, le vice, la kush endurcissent mes putains d'vaisseaux Enterrement de maux, j'm'enferme dans l'ego depuis qu'je sais que l'Enfer, c'est les autres Brr Ok, putain d'merde, goddamn, God bless Daronne sortie d'la hess, faut qu'j'me confesse Eh J'décris ma vie, j'défie Marie-Jeanne tous les soirs Eh, grise est la nuit, briser ma vie sans trop d'espoir Uh Reboot l'avenir, j'préfère le début à la fin Uh C'est quoi un souvenir quand t'es l'seul qui s'en souvient ? Jeune africain, Anta Diop, mon historien, j'suis calibré, j'n'ai pas l'temps qu'on en vienne aux mains Cur trop foncé car corps trop fonce-dé par Porto, torché sans conséquence C'est dans ces moments-là qu'on s'est empêchés d'foncer dans le tas d'love qu'on r'ssentait pour l'un et l'autre Et pour l'une ou l'autre raison insensée, oui, c'est insensé, nan, c'est un sens unique C'est c'que j'pense Oui et j'suis l'crétin sensé Oui qui préfère s'lancer dans disputes La pute m'a dit Mais Dems, il faut qu'tu t'calmes deux s'condes J'suis pas ta pute, j'suis pas ta bitch, j'suis pas ton baise plan Moi qu'espérais tant, c'est vraiment déc'vant, t'es vraiment trop con qu'elle m'dit Oh, ta gueule, tu m'casses les couilles Salope Tu m'casses les couilles, putain, moi, j'voulais juste qu'on baise Tu voulais juste qu'on baise ? Ouais, j'voulais juste qu'on baise Ouais mais, bon, laisse tomber, reste, tant pis, baisse le son Et maint'nant, qu'est-c'qu'on fait ? J'reste plantée là, c'est ça ? Saal Oh putain, tu m'casses trop les couilles, bitch, pars avant la gifle, j'risque vraiment d'mal agir Pute, casse-toi d'ma vie, allez, shalom, salut Non, j'vais pas t'marier, connasse, allez, hors d'ma vue, stop Comme beaucoup d'hommes sur terre, je rêvais de bonheur et d'amour, villa sur la mer, en plage côtière Mais comme beaucoup d'hommes, j'n'ai pas du tout eu ce que je voulais De loin comme de près, j'ai plus fait la guerre que fait l'amour Et l'amour, c'est quoi quand le mariage est la cause principale du divorce ? Si mes sentiments s'trouvaient en-dessous de la ceinture, j'aurais été puceau voire, éjaculateur précoce Wow, wow, wow, wow De plus en plus loin de c'qui nous rapprochait vraiment, j'suis là sans être là Là-bas si j'y suis, j'y s'rais plus que là où j'suis actuellement, physiquement Ah, ah, ah Ces fils de putes ne m'aiment pas, eux tous, même toi, tu souffres d'être toi en survêt' noir, un bras d'honneur aux lois Qu'est-c'qu'y a d'rose en toi, à part c'truc où j'mets mes doigts ? J'sais pas Ah, ah J'veux pas qu'on vive ensemble, j'veux qu'on meure ensemble, parce que la mort rapproche et que c'est elle qui tranche C'pour ça qu'le savoir-vivre n'est pas d'la politesse mais de la politique pour prendre l'avis des gens Promouvoir l'irraison puis être pris pour exemple, donner des directions, donner des solutions Donner des directives sur la vie active, disant qu'la vie active doit être la vie des gens Comme une érosion d'émotions sélectives, envers religions, dévotions sans litige Funèbre oraison, enterrement sensitif car la mort est la somme de c'que l'on ressent Et par ailleurs, on prend plus le temps de dire c'qu'on voulait Nan On prend plus le temps de dire c'qu'on pouvait faire Nan, c'est-à-dire, quasi tout refaire Faire Les défauts apaisent l'absence de raisons Pas de namaste, peu d'modestie, corps dévasté, Magnum précis Cojones chargées, pas toi qui décides, radar a flashé gamos trop speed Enchaînement de mauvaises décisions, précipita graduellement l'accident Du coup, l'ambulancier devient ton confident Du coup, la mort fera de toi un bon vivant Du coup, les vers de terre feront ta transition Oh woh Mais dis-moi qu'c'n'est pas moi mais qu'c'est la vie que j'mène, -ène Mais dis-moi qu'c'n'est pas moi mais qu'c'est la vie que j'mène Dems11</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Œveillé</t>
+          <t>Promo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ok, vingt téra' de flows, l'ingé' par défaut, remplace l'air co' par l'bédo, fonce-dé, j'ai les crocs J'ai perdu proches et projets, proche des pros, j'ai taffé, tracé, rappé, rappé, j'ai rappé ma névrose Le biff, les meufs, le shit, les keufs, le vice, la kush endurcissent mes putains d'vaisseaux Enterrement de maux, j'm'enferme dans l'ego depuis qu'je sais que l'Enfer, c'est les autres Brr Ok, putain d'merde, goddamn, God bless Daronne sortie d'la hess, faut qu'j'me confesse Eh J'décris ma vie, j'défie Marie-Jeanne tous les soirs Eh, grise est la nuit, briser ma vie sans trop d'espoir Uh Reboot l'avenir, j'préfère le début à la fin Uh C'est quoi un souvenir quand t'es l'seul qui s'en souvient ? Jeune africain, Anta Diop, mon historien, j'suis calibré, j'n'ai pas l'temps qu'on en vienne aux mains Cur trop foncé car corps trop fonce-dé par Porto, torché sans conséquence C'est dans ces moments-là qu'on s'est empêchés d'foncer dans le tas d'love qu'on r'ssentait pour l'un et l'autre Et pour l'une ou l'autre raison insensée, oui, c'est insensé, nan, c'est un sens unique C'est c'que j'pense Oui et j'suis l'crétin sensé Oui qui préfère s'lancer dans disputes La pute m'a dit Mais Dems, il faut qu'tu t'calmes deux s'condes J'suis pas ta pute, j'suis pas ta bitch, j'suis pas ton baise plan Moi qu'espérais tant, c'est vraiment déc'vant, t'es vraiment trop con qu'elle m'dit Oh, ta gueule, tu m'casses les couilles Salope Tu m'casses les couilles, putain, moi, j'voulais juste qu'on baise Tu voulais juste qu'on baise ? Ouais, j'voulais juste qu'on baise Ouais mais, bon, laisse tomber, reste, tant pis, baisse le son Et maint'nant, qu'est-c'qu'on fait ? J'reste plantée là, c'est ça ? Saal Oh putain, tu m'casses trop les couilles, bitch, pars avant la gifle, j'risque vraiment d'mal agir Pute, casse-toi d'ma vie, allez, shalom, salut Non, j'vais pas t'marier, connasse, allez, hors d'ma vue, stop Comme beaucoup d'hommes sur terre, je rêvais de bonheur et d'amour, villa sur la mer, en plage côtière Mais comme beaucoup d'hommes, j'n'ai pas du tout eu ce que je voulais De loin comme de près, j'ai plus fait la guerre que fait l'amour Et l'amour, c'est quoi quand le mariage est la cause principale du divorce ? Si mes sentiments s'trouvaient en-dessous de la ceinture, j'aurais été puceau voire, éjaculateur précoce Wow, wow, wow, wow De plus en plus loin de c'qui nous rapprochait vraiment, j'suis là sans être là Là-bas si j'y suis, j'y s'rais plus que là où j'suis actuellement, physiquement Ah, ah, ah Ces fils de putes ne m'aiment pas, eux tous, même toi, tu souffres d'être toi en survêt' noir, un bras d'honneur aux lois Qu'est-c'qu'y a d'rose en toi, à part c'truc où j'mets mes doigts ? J'sais pas Ah, ah J'veux pas qu'on vive ensemble, j'veux qu'on meure ensemble, parce que la mort rapproche et que c'est elle qui tranche C'pour ça qu'le savoir-vivre n'est pas d'la politesse mais de la politique pour prendre l'avis des gens Promouvoir l'irraison puis être pris pour exemple, donner des directions, donner des solutions Donner des directives sur la vie active, disant qu'la vie active doit être la vie des gens Comme une érosion d'émotions sélectives, envers religions, dévotions sans litige Funèbre oraison, enterrement sensitif car la mort est la somme de c'que l'on ressent Et par ailleurs, on prend plus le temps de dire c'qu'on voulait Nan On prend plus le temps de dire c'qu'on pouvait faire Nan, c'est-à-dire, quasi tout refaire Faire Les défauts apaisent l'absence de raisons Pas de namaste, peu d'modestie, corps dévasté, Magnum précis Cojones chargées, pas toi qui décides, radar a flashé gamos trop speed Enchaînement de mauvaises décisions, précipita graduellement l'accident Du coup, l'ambulancier devient ton confident Du coup, la mort fera de toi un bon vivant Du coup, les vers de terre feront ta transition Oh woh Mais dis-moi qu'c'n'est pas moi mais qu'c'est la vie que j'mène, -ène Mais dis-moi qu'c'n'est pas moi mais qu'c'est la vie que j'mène Dems11</t>
+          <t>SNK Music Productions Mon nom d'famille, la police a du mal à l'épeler Des ballons, des ballons, des plôts Liasses colorées, tout ça pour soulager mes plaies, si j'ai mal, ça fera plaisir aux autres Plaisir aux autres Le compteur affiche 200 200, le moteur fait qu'ronronner 'ronner Elle aime mon cerveau d'savant D'savant et mon casier d'gros bonnet Bonnet Si ça parle milli', j'investis, si ça parle milli', j'investis Mon doré, c'est de la frappa, j'le dégaine quand c'est la se-cri, j'le dégaine quand c'est la se-cri J'le dégaine, j'le dégaine Millionnaire avant la fin Fin, j'peux pas r'partir au fond Fond Cinq balles le kilo d'beuh Beuh, mardi, je sais qu'les bleus viendront à la maison En parlant d'maison, j'en ai acheté deux J'en ai acheté deux Une pour ma mère et une très loin d'eux, j'sais qu'c'est des haineux Haineux 0.9, j'ai de la pette-zi Pette-zi, y a des clicos, des zombies Zombies All Eyez On Me comme 2Pac, weed life comme Snoop Doggy Doggy Bon qu'à faire du sale, elle sait qu'elle est bonne, elle sait faire le s7our, elle rajoute du sel Sur la moto, c'est la mort qu'appelle, plusieurs trous dans l'pull et on s'fait la belle J'm'arrête à BX, pas loin des vitrines, un coup d'il, j'reconnais l'vil-ci direct Légendaire comme Michael dans Beat It, trop d'cash à la minute, toujours plus qu'hier Sors les armes, les pétasses, on va faire d'la promo Sors les armes, les pétasses, on va faire d'la promo, hey J'ai dit sors les armes, les pétasses, on va faire d'la promo Sors les armes, les pétasses, on va faire d'la promo J'finirai au sommet Eh, étant p'tit, j'avais l'vertige Oui Deux-trois investissements Deux, j'ai déjà rempli Bercy Eh Sors les armes, les pétasses, on va faire d'la promo J'ai dit sors les armes, les pétasses, on va faire d'la promo Ouais J'suis libre comme un pilon très bien chargé Chargé La beuh est noire, du shit noir dans un fumoir J'suis étranger, fais qu'déranger, loin du mitard et des condés Condés J'ai fait mon temps, très peu d'temps, tiré mon coup, baisé beaucoup Quand le cur parle, ils n'ouvrent pas la bouche, ils se prosternent Ils se prosternent Qu'ici, j'plie l'genou, fiançailles noires, demande austère Rien n'sert de m'menacer, qu'est-c'qu'tu vas faire qu'on n'a pas d'jà fait ? Ma passion est derrière l'micro', ma mission est derrière l'fiston D'un bleu cæruleum, comme Manhattan, j'tire ma révérence J'suis tout seul dans les sommets, là où j'cause avec le silence Elle se plaint que j'suis stoïque, que je n'dise rien, qu'j'suis silencieux Jai huit ans et demi, première vie prise devant mes yeux J'vis plus au fond du fond, parti de rien comme une révolution Un cul de plus dans mes captures d'écran, michtonnation pour un sac Louis Vuitton La vie est courte, la mort aussi, entre les deux, j'sais qu'tout est possible J'connais le Diable, là où il traîne, dans les showcases, chambres dhôtel Amas de gains en coupant des mains, j'lis des bouquins, sûr d'où je viens Photo d'famille sur un cadavre, tu t'penches ou t'avales comme un amphibien ? Dans les médias, comme dans l'immédiat, j'ai trouvé la foi en perdant mon foie Shu, shu Entre la corde et le tabouret, entre l'alcool et le calumet J'suis entre l'Homme et l'être humain Dems Sors les armes, les pétasses, on va faire d'la promo Sors les armes, les pétasses, on va faire d'la promo, hey J'ai dit sors les armes, les pétasses, on va faire d'la promoSors les armes, les pétasses, on va faire d'la promo J'finirai au sommet Eh, étant p'tit, j'avais l'vertige Ouais Deux-trois investissements Deux, j'ai déjà rempli Bercy Eh Sors les armes, les pétasses, on va faire d'la promo J'ai dit sors les armes, les pétasses, on va faire d'la promo Ouais10</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Promo</t>
+          <t>Noir meilleur</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SNK Music Productions Mon nom d'famille, la police a du mal à l'épeler Des ballons, des ballons, des plôts Liasses colorées, tout ça pour soulager mes plaies, si j'ai mal, ça fera plaisir aux autres Plaisir aux autres Le compteur affiche 200 200, le moteur fait qu'ronronner 'ronner Elle aime mon cerveau d'savant D'savant et mon casier d'gros bonnet Bonnet Si ça parle milli', j'investis, si ça parle milli', j'investis Mon doré, c'est de la frappa, j'le dégaine quand c'est la se-cri, j'le dégaine quand c'est la se-cri J'le dégaine, j'le dégaine Millionnaire avant la fin Fin, j'peux pas r'partir au fond Fond Cinq balles le kilo d'beuh Beuh, mardi, je sais qu'les bleus viendront à la maison En parlant d'maison, j'en ai acheté deux J'en ai acheté deux Une pour ma mère et une très loin d'eux, j'sais qu'c'est des haineux Haineux 0.9, j'ai de la pette-zi Pette-zi, y a des clicos, des zombies Zombies All Eyez On Me comme 2Pac, weed life comme Snoop Doggy Doggy Bon qu'à faire du sale, elle sait qu'elle est bonne, elle sait faire le s7our, elle rajoute du sel Sur la moto, c'est la mort qu'appelle, plusieurs trous dans l'pull et on s'fait la belle J'm'arrête à BX, pas loin des vitrines, un coup d'il, j'reconnais l'vil-ci direct Légendaire comme Michael dans Beat It, trop d'cash à la minute, toujours plus qu'hier Sors les armes, les pétasses, on va faire d'la promo Sors les armes, les pétasses, on va faire d'la promo, hey J'ai dit sors les armes, les pétasses, on va faire d'la promo Sors les armes, les pétasses, on va faire d'la promo J'finirai au sommet Eh, étant p'tit, j'avais l'vertige Oui Deux-trois investissements Deux, j'ai déjà rempli Bercy Eh Sors les armes, les pétasses, on va faire d'la promo J'ai dit sors les armes, les pétasses, on va faire d'la promo Ouais J'suis libre comme un pilon très bien chargé Chargé La beuh est noire, du shit noir dans un fumoir J'suis étranger, fais qu'déranger, loin du mitard et des condés Condés J'ai fait mon temps, très peu d'temps, tiré mon coup, baisé beaucoup Quand le cur parle, ils n'ouvrent pas la bouche, ils se prosternent Ils se prosternent Qu'ici, j'plie l'genou, fiançailles noires, demande austère Rien n'sert de m'menacer, qu'est-c'qu'tu vas faire qu'on n'a pas d'jà fait ? Ma passion est derrière l'micro', ma mission est derrière l'fiston D'un bleu cæruleum, comme Manhattan, j'tire ma révérence J'suis tout seul dans les sommets, là où j'cause avec le silence Elle se plaint que j'suis stoïque, que je n'dise rien, qu'j'suis silencieux Jai huit ans et demi, première vie prise devant mes yeux J'vis plus au fond du fond, parti de rien comme une révolution Un cul de plus dans mes captures d'écran, michtonnation pour un sac Louis Vuitton La vie est courte, la mort aussi, entre les deux, j'sais qu'tout est possible J'connais le Diable, là où il traîne, dans les showcases, chambres dhôtel Amas de gains en coupant des mains, j'lis des bouquins, sûr d'où je viens Photo d'famille sur un cadavre, tu t'penches ou t'avales comme un amphibien ? Dans les médias, comme dans l'immédiat, j'ai trouvé la foi en perdant mon foie Shu, shu Entre la corde et le tabouret, entre l'alcool et le calumet J'suis entre l'Homme et l'être humain Dems Sors les armes, les pétasses, on va faire d'la promo Sors les armes, les pétasses, on va faire d'la promo, hey J'ai dit sors les armes, les pétasses, on va faire d'la promoSors les armes, les pétasses, on va faire d'la promo J'finirai au sommet Eh, étant p'tit, j'avais l'vertige Ouais Deux-trois investissements Deux, j'ai déjà rempli Bercy Eh Sors les armes, les pétasses, on va faire d'la promo J'ai dit sors les armes, les pétasses, on va faire d'la promo Ouais10</t>
+          <t>Ah oui oui oui Ah oui oui Ah oui oui oui J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie Mon âme descend du paradis donc le diable sait pas m'faire de prix, non Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Plus j'vis pour eux, moins j'vis pour moi Le cur spongieux, pas très aimant Jpasse trop dtemps à être cque jsuis pas J'finis par croire qu'j'le suis vraiment Je rase les murs, tu rases ta chatte T'aimes quand c'est dur, j'aime quand c'est moite J'commence toujours par l'attaque Donc pas d'circonstances atténuantes Pourquoi gente dame me déteste ? Moi, j'raconte histoires d'autres fois Ta beauté s'trouve pas dans tes fesses Tu vaux beaucoup plus que tu n'crois Le monde est plus beau quand t'éteins ton tel' J'suis loin du dérangement Mes paupières sont en éveil Attendent le réveil d'mon enfant J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie oh oui Mon âme descend du paradis donc le diable sait pas m'faire de prix, non Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Plus le chmin est long, plus haineux s'éloigneront Me tourne pas l'dos comme J. James, Brad Pitt OG change de ton, glock chargé, nous manuvrons Canon noir scié, bang, bouteille, bad-trip Quand j'parle liquide, c'est pas la chatte grasse mouillée d'ta reum', j'fais du sale J'suis dans la city, verre de Jack black, shit brun Maroc médical Ça sent la cyprine dans ses dessous d'jean, terme de you-voi lyrical Tout est noir, tout est sale, tel un pirate, j'mets les voiles J'suis c'négro au fond d'la salle, c'lui qui n'veut pas s'mélanger C'lui qu'ta daronne traîte de racaille, c'lui qu'tu n'veux pas présenter Sa tte-ch' est plus large que ma bite, j'me suis senti offensé Heureusement pour moi, clitoris et point G n'ont plus de secrets J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie Mon âme descend du paradis donc le diable sait pas m'faire de prix J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie oh oui Mon âme descend du paradis donc le diable sait pas m'faire de prix, non Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui5</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Noir meilleur</t>
+          <t>MEVTR</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ah oui oui oui Ah oui oui Ah oui oui oui J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie Mon âme descend du paradis donc le diable sait pas m'faire de prix, non Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Plus j'vis pour eux, moins j'vis pour moi Le cur spongieux, pas très aimant Jpasse trop dtemps à être cque jsuis pas J'finis par croire qu'j'le suis vraiment Je rase les murs, tu rases ta chatte T'aimes quand c'est dur, j'aime quand c'est moite J'commence toujours par l'attaque Donc pas d'circonstances atténuantes Pourquoi gente dame me déteste ? Moi, j'raconte histoires d'autres fois Ta beauté s'trouve pas dans tes fesses Tu vaux beaucoup plus que tu n'crois Le monde est plus beau quand t'éteins ton tel' J'suis loin du dérangement Mes paupières sont en éveil Attendent le réveil d'mon enfant J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie oh oui Mon âme descend du paradis donc le diable sait pas m'faire de prix, non Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Plus le chmin est long, plus haineux s'éloigneront Me tourne pas l'dos comme J. James, Brad Pitt OG change de ton, glock chargé, nous manuvrons Canon noir scié, bang, bouteille, bad-trip Quand j'parle liquide, c'est pas la chatte grasse mouillée d'ta reum', j'fais du sale J'suis dans la city, verre de Jack black, shit brun Maroc médical Ça sent la cyprine dans ses dessous d'jean, terme de you-voi lyrical Tout est noir, tout est sale, tel un pirate, j'mets les voiles J'suis c'négro au fond d'la salle, c'lui qui n'veut pas s'mélanger C'lui qu'ta daronne traîte de racaille, c'lui qu'tu n'veux pas présenter Sa tte-ch' est plus large que ma bite, j'me suis senti offensé Heureusement pour moi, clitoris et point G n'ont plus de secrets J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie Mon âme descend du paradis donc le diable sait pas m'faire de prix J'ai toujours fait ce que j'ai dit, j'ai tellement pêché, faut qu'je prie Elle m'a aimé pour c'que j'étais, elle m'a quitté pour c'que je suis J'ai fait l'amour, j'ai fait le mort, je fais le Vie oh oui Mon âme descend du paradis donc le diable sait pas m'faire de prix, non Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui Pour un noir meilleur, j'dois faire du sale, ah oui oui oui oui, oui5</t>
+          <t>Gros, c'est la violence Oui, pas trop de clémence No Je prends la Beyoncé Ok, jte laisse la Solange Fuck Tu tournes et tu mélanges Oui, tu tournes et tu mélanges Fuck C'est vrai, je dis nonante plus trois zéro le prix de la montre La biatch me dit qu'elle a mal au cul Rah, jai quelques déviances Oui Je place mes finances, j'travaille en freelance, j'vis dans l'opulence Dem's Bâtons dans les roues, ok Ok, gnou sur le cou, ok Ok On a brisé les chaînes, hir, aujourd'hui, on brise le silence Fuck, yeah Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dems, ok Ok Ouh, oui Oui, Dems, ok Rappeur du dimanche sent la flatulence, pas de concurrence No Ça parle en streaming, veulent un featuring mais quelle imprudence Oui J'suis déso mais bon, c'est pas demain la veille que j'arrêterai de niquer des mères La civière plumard de mes adversaires, leur Uber est une ambulance Rah O.G., O.G., O.G., O.G. Ok, Damso, Lior, Gigi, Kobe Bang Hey, mets pas la langue, j'veux pas le COVID No, jai tout niqué, pourquoi t'applaudis ? Oh oui Petit, j'n'ai pas eu besoin d'appartenance, juste besoin de faire du chiffre Moula Mes meilleurs amis sont mes appartements, j'meurs, ils s'ront là pour mon fils Oh oui, Dem's Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dem's, ok Ok Ouh ,oui Oui, Dem's, ok Oui Santos Vie, tout est vie On a brisé les chaînes hier, aujourd'hui, on brise le shhh Ok, ok11</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MEVTR</t>
+          <t>R9R-LINE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Gros, c'est la violence Oui, pas trop de clémence No Je prends la Beyoncé Ok, jte laisse la Solange Fuck Tu tournes et tu mélanges Oui, tu tournes et tu mélanges Fuck C'est vrai, je dis nonante plus trois zéro le prix de la montre La biatch me dit qu'elle a mal au cul Rah, jai quelques déviances Oui Je place mes finances, j'travaille en freelance, j'vis dans l'opulence Dem's Bâtons dans les roues, ok Ok, gnou sur le cou, ok Ok On a brisé les chaînes, hir, aujourd'hui, on brise le silence Fuck, yeah Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dems, ok Ok Ouh, oui Oui, Dems, ok Rappeur du dimanche sent la flatulence, pas de concurrence No Ça parle en streaming, veulent un featuring mais quelle imprudence Oui J'suis déso mais bon, c'est pas demain la veille que j'arrêterai de niquer des mères La civière plumard de mes adversaires, leur Uber est une ambulance Rah O.G., O.G., O.G., O.G. Ok, Damso, Lior, Gigi, Kobe Bang Hey, mets pas la langue, j'veux pas le COVID No, jai tout niqué, pourquoi t'applaudis ? Oh oui Petit, j'n'ai pas eu besoin d'appartenance, juste besoin de faire du chiffre Moula Mes meilleurs amis sont mes appartements, j'meurs, ils s'ront là pour mon fils Oh oui, Dem's Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dem's, ok Ok Ouh, oui Oui, Dem's, ok Ok Ouh ,oui Oui, Dem's, ok Oui Santos Vie, tout est vie On a brisé les chaînes hier, aujourd'hui, on brise le shhh Ok, ok11</t>
+          <t>Bre-som, clair Hey, hey, brrr Dems, Lay' Air France, Brussels Airlines Nwaar, ppe-fra d'enculé comme R9 Sale Dribbler la police en S Line Ouh, ouh, flex Ah ouais ? Crochet d'enculé comme R9 Clair, quoi, tu veux tester ? Mais quel bail ? Ouais J'suis loin, loin, loin, loin Ah ouais ? Donc tu fais vraiment d'ta gueule pour de vrai ? Ah bon ? Genre j'vais pas t'niquer ta race ? Balafre, Kalash', tout ça pour qu'tu t'mettes à pleurer Pute Gâchette pressée, ta vie r'trécit Bicrave te-shi dans la Audi, non, ces négros n'sont pas des vrais OG's Jamais C'est Dems, Dems, pas de Molière, j'ai dit Mettre un enfant noir au monde, est un délit Ah oui ? Pas d'concerts avant longtemps Ah oui ? Ouf, les artistes à chicha commencent à paniquer, gros Ouh, la la, faire du rap ne m'est d'aucune utilité, gros Ouh, la la, boîte à gants, Fe-Fe, un semi-auto' quand ça va loin, y a des shooters à moto Ah, ouais J'fais plus d'argent que c'lui qu'on gagne au loto Dems Ouh C'est bon, hey Air France, Brussels Airlines Nwaar, ppe-fra d'enculé comme R9 Sale Dribbler la police en S Line Ouh, ouh, flex Ah ouais ? Crochet d'enculé comme R9 Clair, quoi, tu veux tester ? Mais quel bail ? Ouais J'suis loin, loin, loin, loin ah ouais ? Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Air France, Brussels Airlines Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Sale Dribbler la police en S Line Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Ppe-fra d'enculé comme R9 Ah ouais ?, crochet d'enculé comme R9 Eh Répondeur direct quand tu m'appelles Mais pourquoi t'appelles ?, là, j'ai la flemme Si, si, fais pas la bad bitch, me fais pas crari la princesse Sissi Sissi R1, Shifter Pro, ça veut michtonner comme si j'étais pro J'suis dans la street avec têtes d'escrocs, vision rouge brouillée par l'six, six, six Moins cent quarante-sept, multiplié par trois ça fait deux cent vingt-cinq On y va Y a du bruit dans l'appart', y a les porcs à la porte, ils ont reçu plein d'plaintes Toc, toc, toc, toc Quoi, toi tu veux flex sur moi ? Dis-toi j'ai l'truc, dis-toi j'ai les réflexes Oh, nigga, reste cool, t'es éclaté au sol, on est loin dans les airs Demande à Dems, Lay' Air France, Brussels Airlines Nwaar, ppe-fra d'enculé comme R9 Sale Dribbler la police en S Line Ouh, ouh, flex Ah ouais ? Crochet d'enculé comme R9 Clair, quoi, tu veux tester ? Mais quel bail ? Ouais J'suis loin, loin, loin, loin Ah ouais ? Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Air France, Brussels Airlines Fuck Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Dribbler la police en S Line Sale Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Ppe-fra d'enculé comme R9 Ah ouais ?, crochet d'enculé comme R98</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R9R-LINE</t>
+          <t>Υ. 2 DIAMANTS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Bre-som, clair Hey, hey, brrr Dems, Lay' Air France, Brussels Airlines Nwaar, ppe-fra d'enculé comme R9 Sale Dribbler la police en S Line Ouh, ouh, flex Ah ouais ? Crochet d'enculé comme R9 Clair, quoi, tu veux tester ? Mais quel bail ? Ouais J'suis loin, loin, loin, loin Ah ouais ? Donc tu fais vraiment d'ta gueule pour de vrai ? Ah bon ? Genre j'vais pas t'niquer ta race ? Balafre, Kalash', tout ça pour qu'tu t'mettes à pleurer Pute Gâchette pressée, ta vie r'trécit Bicrave te-shi dans la Audi, non, ces négros n'sont pas des vrais OG's Jamais C'est Dems, Dems, pas de Molière, j'ai dit Mettre un enfant noir au monde, est un délit Ah oui ? Pas d'concerts avant longtemps Ah oui ? Ouf, les artistes à chicha commencent à paniquer, gros Ouh, la la, faire du rap ne m'est d'aucune utilité, gros Ouh, la la, boîte à gants, Fe-Fe, un semi-auto' quand ça va loin, y a des shooters à moto Ah, ouais J'fais plus d'argent que c'lui qu'on gagne au loto Dems Ouh C'est bon, hey Air France, Brussels Airlines Nwaar, ppe-fra d'enculé comme R9 Sale Dribbler la police en S Line Ouh, ouh, flex Ah ouais ? Crochet d'enculé comme R9 Clair, quoi, tu veux tester ? Mais quel bail ? Ouais J'suis loin, loin, loin, loin ah ouais ? Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Air France, Brussels Airlines Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Sale Dribbler la police en S Line Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Ppe-fra d'enculé comme R9 Ah ouais ?, crochet d'enculé comme R9 Eh Répondeur direct quand tu m'appelles Mais pourquoi t'appelles ?, là, j'ai la flemme Si, si, fais pas la bad bitch, me fais pas crari la princesse Sissi Sissi R1, Shifter Pro, ça veut michtonner comme si j'étais pro J'suis dans la street avec têtes d'escrocs, vision rouge brouillée par l'six, six, six Moins cent quarante-sept, multiplié par trois ça fait deux cent vingt-cinq On y va Y a du bruit dans l'appart', y a les porcs à la porte, ils ont reçu plein d'plaintes Toc, toc, toc, toc Quoi, toi tu veux flex sur moi ? Dis-toi j'ai l'truc, dis-toi j'ai les réflexes Oh, nigga, reste cool, t'es éclaté au sol, on est loin dans les airs Demande à Dems, Lay' Air France, Brussels Airlines Nwaar, ppe-fra d'enculé comme R9 Sale Dribbler la police en S Line Ouh, ouh, flex Ah ouais ? Crochet d'enculé comme R9 Clair, quoi, tu veux tester ? Mais quel bail ? Ouais J'suis loin, loin, loin, loin Ah ouais ? Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Air France, Brussels Airlines Fuck Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Dribbler la police en S Line Sale Ah ouais, ouais, ouais, ouais, ouais, ah ouais ? Ppe-fra d'enculé comme R9 Ah ouais ?, crochet d'enculé comme R98</t>
+          <t>J'viens pas des quartiers, drogue dans les sachets J'en ai vendus, j'en ai achetés et braqués J'connais la rre-gue, cervelle atrophiée Millions de cadavres en pièces détachées Broutis dans l'passé, bracelet, quelques biftons mal entassés, plaqués Diamants, roro, ah bah ouais, sisi, c'est ça, la vie qu'on a choisie Un million, deux millions, daronne est ravie Montagne est gravie, schnek est dégarnie J'crache et tu t'r'habilles Raciste, comme Nagui j'changerai pas d'avis Hoover Larry OG tu connais, toujours à zoner, toujours à fumer You-voi sur le toit, débrouillard à jamais Bédo j'ai canné, négro m'a cramé Sait que QALF va pas sortir cette année J'suis toujours sur le cou, comme chaîne en or J'me lave avec, je dors avec, négro ça brille encore Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Merci pour la moula Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Hey Merci pour la moula Eh, eh, eh, ouais, merci pour la moula, eh Sale J'bouge avant qu'l'huissier arrive, j'roule d'vant policier aride Pas dans l'comico, pas dans l'comico, attends qu'l'avocat s'aligne De la ganja, de la lean, pute est dans cocaïne, amphétamine J'suis dans la gue-dro, j'suis dans la gue-dro Y a que du sale quand médecin m'examine Ramène les teu-ch', ramène la kush T'es dans la tess, j'suis dans le tieks J'suis dans le beaucoup, beaucoup trop d'euros J'suis sur les gros coups, beaucoup de roro J'suis dans le binks, j'suis dans le binks T'es dans le block, t'es dans le block J'suis dans les gros coups, beaucoup de moula J'suis sur les gros coups, beaucoup de dollars Beaucoup de billets violets, salaire, gros sous Plus dans la galère et crédit d'conso J'suis dans ta mère et je crédite mon son J'prends l'game en otage, j'en demande rançon J'prends l'game en otage, j'en demande rançon J'garde mes éditions, j'prends tout sur mes chansons Gonfler ses nibards pour plus d'attention J'rajoute festival pour payer la pension Dems J'suis toujours sur le cou, comme chaîne en or J'me lave avec, je dors avec, négro ça brille encore Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Eh Merci pour la moula Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Hey Merci pour la moula Eh, eh, eh, merci pour la moula Sale, eh9</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Υ. 2 DIAMANTS</t>
+          <t>Ψ. PASSION</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>J'viens pas des quartiers, drogue dans les sachets J'en ai vendus, j'en ai achetés et braqués J'connais la rre-gue, cervelle atrophiée Millions de cadavres en pièces détachées Broutis dans l'passé, bracelet, quelques biftons mal entassés, plaqués Diamants, roro, ah bah ouais, sisi, c'est ça, la vie qu'on a choisie Un million, deux millions, daronne est ravie Montagne est gravie, schnek est dégarnie J'crache et tu t'r'habilles Raciste, comme Nagui j'changerai pas d'avis Hoover Larry OG tu connais, toujours à zoner, toujours à fumer You-voi sur le toit, débrouillard à jamais Bédo j'ai canné, négro m'a cramé Sait que QALF va pas sortir cette année J'suis toujours sur le cou, comme chaîne en or J'me lave avec, je dors avec, négro ça brille encore Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Merci pour la moula Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Hey Merci pour la moula Eh, eh, eh, ouais, merci pour la moula, eh Sale J'bouge avant qu'l'huissier arrive, j'roule d'vant policier aride Pas dans l'comico, pas dans l'comico, attends qu'l'avocat s'aligne De la ganja, de la lean, pute est dans cocaïne, amphétamine J'suis dans la gue-dro, j'suis dans la gue-dro Y a que du sale quand médecin m'examine Ramène les teu-ch', ramène la kush T'es dans la tess, j'suis dans le tieks J'suis dans le beaucoup, beaucoup trop d'euros J'suis sur les gros coups, beaucoup de roro J'suis dans le binks, j'suis dans le binks T'es dans le block, t'es dans le block J'suis dans les gros coups, beaucoup de moula J'suis sur les gros coups, beaucoup de dollars Beaucoup de billets violets, salaire, gros sous Plus dans la galère et crédit d'conso J'suis dans ta mère et je crédite mon son J'prends l'game en otage, j'en demande rançon J'prends l'game en otage, j'en demande rançon J'garde mes éditions, j'prends tout sur mes chansons Gonfler ses nibards pour plus d'attention J'rajoute festival pour payer la pension Dems J'suis toujours sur le cou, comme chaîne en or J'me lave avec, je dors avec, négro ça brille encore Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Eh Merci pour la moula Et puis j'rajoute un diamant, deux diamants, dix diamants, cent diamants Ice, ice, j'crois qu'ça brille encore Oh Hallelujah Hey Merci pour la moula Eh, eh, eh, merci pour la moula Sale, eh9</t>
+          <t>I must be stronger, I must be stronger for you I must be stronger, I must be stronger, I must be stronger for you I must be stronger, I must be stronger for you L'artiste dont nous allons vous parler maintenant est considéré comme l'un des meilleurs rappeurs de sa génération et il est belge. À seulement vingt-cinq ans, Damso a déjà vendu plus de deux cent mille albums en France, où il est désormais double... 2015, Nero Nemsis, j'rentre dans l'game n un seul couplet Le 5, Bercy de Kopp, à cette époque on s'entend bien, y a pas d'clashs ni de diss 2016, j'ai la pression, mon ex attend famille, faut qu'j'fasse du cash à vie L'album n'est pas sorti qu'je stresse, si j'foire c'est la défaite Pas d'moula pour mon gosse, pas d'moula pour le reste La première semaine craint, mais bon pour un début c'est bien Premier showcase plein, premiers rageux s'plaignent, premières tass' viennent taper du vice Les Bien ou quoi ?, Ça fait longtemps ! fusent, mais j'suis pas dupe Quand j'étais à la rue, y avait sonne-per à part mon sin-cou J'me renferme sur moi-même, chaque jour une heure quarante-cinq de marche pour aller au Forem Pas d'cash pour les transports en commun, même deux euros c'est trop Trente-quatre-centimes sur le compte Fortis, pas d'quoi faire des éco' Réflexion d'la vie sur tout ce que j'vais faire si j'perce pas Les études c'pas pour moi, j'ai raté tellement d'fois Dans l'illégal, j'ai deux trois pistons Premier braquo mais j'regrette, j'vole aux honnêtes gens Première avance j'rembourse mes dettes, j'invite deux trois plans Putain d'merde pourquoi j'raconte ma vie ? Parce qu'en vrai t'as la tienne T'as tes problèmes aussi, mais nique sa mère faut bien qu'j'crache ma haine donc Je continue, Ipséité sort et j'deviens trop connu Selfies dans la rue, selfies d'fans, de fils de pute qui n'y croyaient plus J'vois qu'ça parle en bien mais c'est l'début Lithopédion sort, mon ex mentor me clashe De l'encre a coulé Le Conseil des Femmes Francophones regrette la désignation du rappeur Damso pour composer la chanson des Diables Rouges pour le Mondial en 2018. Les textes du chanteur sont violents et sexistes, un mauvais signal pour la jeunesse. Faut lire ces textes, moi je, je n'ose même pas les citer, je, je veux dire, je vais dire simplement quelque chose qui... Est-ce que les gens qui vont écouter Damso l'écoutent au second degré ? Eh bien la réponse... En fait, ce texte va être compliqué Ce texte va être compliqué, ce texte va être compliqué Parce que je vis des trucs vraiment compliqués Des trucs vraiment compliqués, des trucs vraiment compliqués Donc j'vais rapper lentement juste pour bien te l'expliquer Juste pour bien te l'expliquer, juste pour bien te l'expliquer La vie de star est un milieu carcéral de luxe Beaucoup de putes, de gens qui scrutent Tes moindres gestes pour les répéter, te filment pour se la péter Pour dire à tous leurs potes qu'ils étaient là quand t'y étais C'est ça la célébrité C'est ça la célébrité, c'est ça la célébrité Et plus j'avance dans mon rang social Social Et plus je recule dans ma vie sociale Sociale Ma liberté est dans ma tête et mon portefeuille, je n'sors plus jamais tout seul J'ai l'malheur de constater que j'me suis fait menotter Mon être est une société Mon être est une société, mon être est une société Putain c'est tout c'que je détestais, et quand t'arrives au sommet Ah ouais Tu t'aperçois qu'en bas, c'est juste un trou noir mais coloré Un trou noir mais coloré, un trou noir mais coloré Turpitude morale honteuse de moi, j'suis pas si fier S'faire aimer quand on s'déteste, c'est ça dev'nir c'qu'on veut être Bien installé sans être bourgeois J'vais louer ma vie sur Terre pour racheter celle d'l'au-delà L'au-delà, l'au-delà Comme chenille qui rêve de battre des ailes sans dev'nir papillon Je dessine ma vie en rose, raciste l'a mise noire et blanche Donc poule aux ufs d'or s'est envolée Envolée Loin quelque part dans la folie La folie Et si un jour tu d'viens fier de la hess, fier de vieillir au tieks, dis-toi qu'banlieue veut dire lieu banni Celui qui va devoir écrire une nouvelle ligne sur son Wikipédia est... bruits d'erreur informatique8</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ψ. PASSION</t>
+          <t>Ι. Peur d’être père</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>I must be stronger, I must be stronger for you I must be stronger, I must be stronger, I must be stronger for you I must be stronger, I must be stronger for you L'artiste dont nous allons vous parler maintenant est considéré comme l'un des meilleurs rappeurs de sa génération et il est belge. À seulement vingt-cinq ans, Damso a déjà vendu plus de deux cent mille albums en France, où il est désormais double... 2015, Nero Nemsis, j'rentre dans l'game n un seul couplet Le 5, Bercy de Kopp, à cette époque on s'entend bien, y a pas d'clashs ni de diss 2016, j'ai la pression, mon ex attend famille, faut qu'j'fasse du cash à vie L'album n'est pas sorti qu'je stresse, si j'foire c'est la défaite Pas d'moula pour mon gosse, pas d'moula pour le reste La première semaine craint, mais bon pour un début c'est bien Premier showcase plein, premiers rageux s'plaignent, premières tass' viennent taper du vice Les Bien ou quoi ?, Ça fait longtemps ! fusent, mais j'suis pas dupe Quand j'étais à la rue, y avait sonne-per à part mon sin-cou J'me renferme sur moi-même, chaque jour une heure quarante-cinq de marche pour aller au Forem Pas d'cash pour les transports en commun, même deux euros c'est trop Trente-quatre-centimes sur le compte Fortis, pas d'quoi faire des éco' Réflexion d'la vie sur tout ce que j'vais faire si j'perce pas Les études c'pas pour moi, j'ai raté tellement d'fois Dans l'illégal, j'ai deux trois pistons Premier braquo mais j'regrette, j'vole aux honnêtes gens Première avance j'rembourse mes dettes, j'invite deux trois plans Putain d'merde pourquoi j'raconte ma vie ? Parce qu'en vrai t'as la tienne T'as tes problèmes aussi, mais nique sa mère faut bien qu'j'crache ma haine donc Je continue, Ipséité sort et j'deviens trop connu Selfies dans la rue, selfies d'fans, de fils de pute qui n'y croyaient plus J'vois qu'ça parle en bien mais c'est l'début Lithopédion sort, mon ex mentor me clashe De l'encre a coulé Le Conseil des Femmes Francophones regrette la désignation du rappeur Damso pour composer la chanson des Diables Rouges pour le Mondial en 2018. Les textes du chanteur sont violents et sexistes, un mauvais signal pour la jeunesse. Faut lire ces textes, moi je, je n'ose même pas les citer, je, je veux dire, je vais dire simplement quelque chose qui... Est-ce que les gens qui vont écouter Damso l'écoutent au second degré ? Eh bien la réponse... En fait, ce texte va être compliqué Ce texte va être compliqué, ce texte va être compliqué Parce que je vis des trucs vraiment compliqués Des trucs vraiment compliqués, des trucs vraiment compliqués Donc j'vais rapper lentement juste pour bien te l'expliquer Juste pour bien te l'expliquer, juste pour bien te l'expliquer La vie de star est un milieu carcéral de luxe Beaucoup de putes, de gens qui scrutent Tes moindres gestes pour les répéter, te filment pour se la péter Pour dire à tous leurs potes qu'ils étaient là quand t'y étais C'est ça la célébrité C'est ça la célébrité, c'est ça la célébrité Et plus j'avance dans mon rang social Social Et plus je recule dans ma vie sociale Sociale Ma liberté est dans ma tête et mon portefeuille, je n'sors plus jamais tout seul J'ai l'malheur de constater que j'me suis fait menotter Mon être est une société Mon être est une société, mon être est une société Putain c'est tout c'que je détestais, et quand t'arrives au sommet Ah ouais Tu t'aperçois qu'en bas, c'est juste un trou noir mais coloré Un trou noir mais coloré, un trou noir mais coloré Turpitude morale honteuse de moi, j'suis pas si fier S'faire aimer quand on s'déteste, c'est ça dev'nir c'qu'on veut être Bien installé sans être bourgeois J'vais louer ma vie sur Terre pour racheter celle d'l'au-delà L'au-delà, l'au-delà Comme chenille qui rêve de battre des ailes sans dev'nir papillon Je dessine ma vie en rose, raciste l'a mise noire et blanche Donc poule aux ufs d'or s'est envolée Envolée Loin quelque part dans la folie La folie Et si un jour tu d'viens fier de la hess, fier de vieillir au tieks, dis-toi qu'banlieue veut dire lieu banni Celui qui va devoir écrire une nouvelle ligne sur son Wikipédia est... bruits d'erreur informatique8</t>
+          <t>Elle porte notre avenir dans son ventre Première fois que je parlerai d'amour En chanson pour faire court Oui, j'ai p't'être peur de ne pas être le père que j'veux être J'tremble à chaque fois que j'vois grand boule Bonne paire de kilojoules Comment donner l'exemple de ce que je serai jamais, hey Cursus scolaire très inquiétant Vente d'haschich et stupéfiant Et puis merde t'façon chacun sa destinée, hey Policier, peut-être tu seras Que pourrais-je faire contre ça ? J'ai si peur d'être pè-è-ère De voir l'enfer vu du cie-e-el De mes défauts qu'elle s'imprè-è-ègne Qu'elle n'atteigne jamais la 'tai-ai-aine Qu'elle m'aime et me follo-o-ow En dehors de la scè-è-ène Qu'elle m'aime pour ce que je suis-is-is En dehors de la scè-è-ène Je réserve une balle pour celui Qui en aide jamais ne te viendra J'ferai le ménage, j'vais nettoyer celui Qui entre nous se tiendra Avant j'étais juste pété, aujourd'hui, j'suis pété de thune J'ai vu moins souvent l'daron Qu'un croisement Soleil, Terre et Lune Tout est noir comme désespoir De savoir que mort de mère est proche J'sais pas c'que j'ferai si elle part Avant de voir mon premier gosse Trafiquant de mots, ça a prit tant de mois Pour être c'que je suis et faire ce que tu seras dans six mois J'ai si peur d'être pè-è-ère De voir l'enfer vu du cie-e-el De mes défauts qu'elle s'imprè-è-ègne Qu'elle n'atteigne jamais la 'tai-ai-aine Qu'elle m'aime et me follo-o-ow En dehors de la scè-è-ène Qu'elle m'aime pour ce que je suis-is-is En dehors de la scè-è-ène Why, why, why Why, why, why Why, why, why Why, why, why Hmm, hmm... Baba, baba a leo mutoto yangu kesho Baba, baba a leo mutoto yangu kesho Baba, baba a leo mutoto yangu kesho Baba, baba a leo mutoto yangu kesho6</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ι. Peur d’être père</t>
+          <t>Fais-moi un Vie</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Elle porte notre avenir dans son ventre Première fois que je parlerai d'amour En chanson pour faire court Oui, j'ai p't'être peur de ne pas être le père que j'veux être J'tremble à chaque fois que j'vois grand boule Bonne paire de kilojoules Comment donner l'exemple de ce que je serai jamais, hey Cursus scolaire très inquiétant Vente d'haschich et stupéfiant Et puis merde t'façon chacun sa destinée, hey Policier, peut-être tu seras Que pourrais-je faire contre ça ? J'ai si peur d'être pè-è-ère De voir l'enfer vu du cie-e-el De mes défauts qu'elle s'imprè-è-ègne Qu'elle n'atteigne jamais la 'tai-ai-aine Qu'elle m'aime et me follo-o-ow En dehors de la scè-è-ène Qu'elle m'aime pour ce que je suis-is-is En dehors de la scè-è-ène Je réserve une balle pour celui Qui en aide jamais ne te viendra J'ferai le ménage, j'vais nettoyer celui Qui entre nous se tiendra Avant j'étais juste pété, aujourd'hui, j'suis pété de thune J'ai vu moins souvent l'daron Qu'un croisement Soleil, Terre et Lune Tout est noir comme désespoir De savoir que mort de mère est proche J'sais pas c'que j'ferai si elle part Avant de voir mon premier gosse Trafiquant de mots, ça a prit tant de mois Pour être c'que je suis et faire ce que tu seras dans six mois J'ai si peur d'être pè-è-ère De voir l'enfer vu du cie-e-el De mes défauts qu'elle s'imprè-è-ègne Qu'elle n'atteigne jamais la 'tai-ai-aine Qu'elle m'aime et me follo-o-ow En dehors de la scè-è-ène Qu'elle m'aime pour ce que je suis-is-is En dehors de la scè-è-ène Why, why, why Why, why, why Why, why, why Why, why, why Hmm, hmm... Baba, baba a leo mutoto yangu kesho Baba, baba a leo mutoto yangu kesho Baba, baba a leo mutoto yangu kesho Baba, baba a leo mutoto yangu kesho6</t>
+          <t>Blackstone beats Fais-moi, fais-moi un Vie Oh la la Fais-moi, fais-moi un Vie Dems Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie Ouais, ouais, ouais Encore du goudron en plus dans les poumons, j'ai mal comme quand tu t'abaisses et qu'elle dit Non Pas d'nouvelles connaissances, jadis, je fus déçu, j'fais une croix dessus comme Pilate avec Jésus Ta tte-cha a un taux élevé d'pénétrations, j'ai voté blanc lors d'la verbalisation Tu parles beaucoup mais dis rien d'intéressant, des discussions stériles, un peu comme ta chatte Sale Pas d'négros fragiles dans mes fréquentations Ouais, p't-être qu'il y en a mais faut pas qu'je le sache J'vais niquer sa race, sa réputation Eh, coup d'feu, le cur s'arrête dans le feu de l'action Odeur et bruit du canon scié sur la tempe, bang-bang, oh la la Ouais, ouais, ouais, j'ai rien fait, tout est d'jà noir autour de moi J'ai fait des shows, j'suis bien payé, l'état prend beaucoup trop, donc prochain, j'vais pas déclarer Ouais Oui, j'ai une go qu'j'ai enfantée et parlez beaucoup trop mais pourtant, on n'est pas séparés Ouais, ouais Rappeurs de merde au succès précaire Claire, lâchent des piques et en font leurs loisirs Ouais Savent pas qu'le Dems va niquer leurs mères Eh, qu'ça va finir en Nan, c'tait pas c'que je voulais dire J'lui dis Au revoir, adieu en même temps Eh, souvenirs d'un soir à deux sur l'écran Eh Fuck vivre l'espoir comme nègres des champs Nan, une fille d'trottoir pour m'farcir le gland Dems Le corps et l'esprit n'sont pas connectés Oh ouais, j'me d'mande Qui j'suis ?, souvent quand j'me vois Dems Elle veut une gâterie, sa chatte pue des pieds Fait semblant d'jouir en s'mettant des doigts Fais-moi un Vie Ici, c'est l'jour et la nuit Mais j'suis toujours dans le tiekson, malgré tous mes ennemis Vas-y, ramène-nous d'la beuh, qu'on fume jusqu'à n'plus être là On dit Qu'ailleurs, l'herbe n'est pas meilleure, sauf pour l'joint d'Pays-Bas Dis-moi, pourquoi, pourquoi, pourquoi tant de questions que j'me pose ? Pourquoi m'a-t-on jamais fait d'fleurs ? Juste envoyé sur les roses Vas-y, fais-moi, fais-moi un Vie Ici, c'est le jour et la nuit Mais j'suis toujours dans le tiekson, malgré tous mes ennemis Fais-moi, fais-moi un Vie Eh Dems Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie3</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fais-moi un Vie</t>
+          <t>BPM</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Blackstone beats Fais-moi, fais-moi un Vie Oh la la Fais-moi, fais-moi un Vie Dems Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie Ouais, ouais, ouais Encore du goudron en plus dans les poumons, j'ai mal comme quand tu t'abaisses et qu'elle dit Non Pas d'nouvelles connaissances, jadis, je fus déçu, j'fais une croix dessus comme Pilate avec Jésus Ta tte-cha a un taux élevé d'pénétrations, j'ai voté blanc lors d'la verbalisation Tu parles beaucoup mais dis rien d'intéressant, des discussions stériles, un peu comme ta chatte Sale Pas d'négros fragiles dans mes fréquentations Ouais, p't-être qu'il y en a mais faut pas qu'je le sache J'vais niquer sa race, sa réputation Eh, coup d'feu, le cur s'arrête dans le feu de l'action Odeur et bruit du canon scié sur la tempe, bang-bang, oh la la Ouais, ouais, ouais, j'ai rien fait, tout est d'jà noir autour de moi J'ai fait des shows, j'suis bien payé, l'état prend beaucoup trop, donc prochain, j'vais pas déclarer Ouais Oui, j'ai une go qu'j'ai enfantée et parlez beaucoup trop mais pourtant, on n'est pas séparés Ouais, ouais Rappeurs de merde au succès précaire Claire, lâchent des piques et en font leurs loisirs Ouais Savent pas qu'le Dems va niquer leurs mères Eh, qu'ça va finir en Nan, c'tait pas c'que je voulais dire J'lui dis Au revoir, adieu en même temps Eh, souvenirs d'un soir à deux sur l'écran Eh Fuck vivre l'espoir comme nègres des champs Nan, une fille d'trottoir pour m'farcir le gland Dems Le corps et l'esprit n'sont pas connectés Oh ouais, j'me d'mande Qui j'suis ?, souvent quand j'me vois Dems Elle veut une gâterie, sa chatte pue des pieds Fait semblant d'jouir en s'mettant des doigts Fais-moi un Vie Ici, c'est l'jour et la nuit Mais j'suis toujours dans le tiekson, malgré tous mes ennemis Vas-y, ramène-nous d'la beuh, qu'on fume jusqu'à n'plus être là On dit Qu'ailleurs, l'herbe n'est pas meilleure, sauf pour l'joint d'Pays-Bas Dis-moi, pourquoi, pourquoi, pourquoi tant de questions que j'me pose ? Pourquoi m'a-t-on jamais fait d'fleurs ? Juste envoyé sur les roses Vas-y, fais-moi, fais-moi un Vie Ici, c'est le jour et la nuit Mais j'suis toujours dans le tiekson, malgré tous mes ennemis Fais-moi, fais-moi un Vie Eh Dems Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie Fais-moi, fais-moi un Vie3</t>
+          <t>Vergogne, Sorbonne Eh Ouais Mmh, eh Mmh Voyou malandrin sans trop de vergogne C'est dans ta maman que je performe J'm'en bats les couilles qu't'aies fait la Sorbonne Moi, j'ai rien fait et j'ai l'salaire d'tout le personnel réuni J'aime comment tu bounces Tu danses Quand ton booty fait rum pum pum pum sur moi J'aime vraiment comment tu bounces Tu danses J'mets YG, Frenetik, volume dans la ture-voi Dangereux je suis, enfin, j'crois J'croyais C'est c'que négro m'a dit quand on a croisé le fer J'ai cru en l'amour en cinq mois Bah ouais Puis, c'est parti en vrille, ma bite n'a pas su se taire J'me fais sucer par une tasse-pé d'télé-réalité La vie qu'tu veux, c'est la vie qu'j'ai Retour au quartier, malfrats, bicraveurs affûtés La weed que j'ai, c'est l'AMG J'aime comment tu Attends bounces J'aime comment tu Attends, quand ton booty fait rum pum pum pum sur moi J'aime vraiment comment tu, eh, bounces pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi Oh, oui Bounce pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi, nan, nan, nan, nan, nan, nan Attends Billets violets, jaunes, verts, gros sous, everyday, everyday Ouh Billets violets, jaunes, verts, gros sous, everyday, everyday J'sais pas pourquoi c'est un tue-l'amour J'sais pas pourquoi, j'sais pas pourquoi De dire je t'aime le premier jour Premier jour, premier jour J'commence la nuit, j'finis le jour J'suis près de toi avec tous ceux qui tournent autour Hey Donne-moi une raison Ouais de pas finir chez toi, dans ta house House Tu fais monter la pression Ola J'aime comment tu Attends bounces J'aime comment tu Attends, quand ton booty fait rum pum pum pum sur moi J'aime vraiment comment tu, eh, bounces pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi Oh, oui Bounce pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi, nan, nan, nan, nan, nan, nan Attends Billets violets, jaunes, verts, gros sous, everyday, everyday Ouh Billets violets, jaunes, verts, gros sous, everyday, everyday8</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BPM</t>
+          <t>Je nous mens</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Vergogne, Sorbonne Eh Ouais Mmh, eh Mmh Voyou malandrin sans trop de vergogne C'est dans ta maman que je performe J'm'en bats les couilles qu't'aies fait la Sorbonne Moi, j'ai rien fait et j'ai l'salaire d'tout le personnel réuni J'aime comment tu bounces Tu danses Quand ton booty fait rum pum pum pum sur moi J'aime vraiment comment tu bounces Tu danses J'mets YG, Frenetik, volume dans la ture-voi Dangereux je suis, enfin, j'crois J'croyais C'est c'que négro m'a dit quand on a croisé le fer J'ai cru en l'amour en cinq mois Bah ouais Puis, c'est parti en vrille, ma bite n'a pas su se taire J'me fais sucer par une tasse-pé d'télé-réalité La vie qu'tu veux, c'est la vie qu'j'ai Retour au quartier, malfrats, bicraveurs affûtés La weed que j'ai, c'est l'AMG J'aime comment tu Attends bounces J'aime comment tu Attends, quand ton booty fait rum pum pum pum sur moi J'aime vraiment comment tu, eh, bounces pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi Oh, oui Bounce pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi, nan, nan, nan, nan, nan, nan Attends Billets violets, jaunes, verts, gros sous, everyday, everyday Ouh Billets violets, jaunes, verts, gros sous, everyday, everyday J'sais pas pourquoi c'est un tue-l'amour J'sais pas pourquoi, j'sais pas pourquoi De dire je t'aime le premier jour Premier jour, premier jour J'commence la nuit, j'finis le jour J'suis près de toi avec tous ceux qui tournent autour Hey Donne-moi une raison Ouais de pas finir chez toi, dans ta house House Tu fais monter la pression Ola J'aime comment tu Attends bounces J'aime comment tu Attends, quand ton booty fait rum pum pum pum sur moi J'aime vraiment comment tu, eh, bounces pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi Oh, oui Bounce pour moi Dès que j'sors la moula, j'vois qu'elle bounce pour moi, nan, nan, nan, nan, nan, nan Attends Billets violets, jaunes, verts, gros sous, everyday, everyday Ouh Billets violets, jaunes, verts, gros sous, everyday, everyday8</t>
+          <t>Y a 24 heures dans un jour Yeah, y a 24 heures dans un jour et le jour se lève avant 6 heures du matin Se couche après 6 heures du soir Quand j'me lève pour bosser jusqu'au p'tit matin J'dors plus, j'ai plus b'soin de rêve J'dors plus, j'ai plus b'soin de rêve L'oreiller me voit autant de fois qu'les yeux de mon gosse C'est-à-dire peu souvent, car, trop souvent, j'suis absent de moi-même Nurofen dans les veines, sur la scène j't'ai vue tapie dans robe rouge On a ken, on s'est déshabillé pour les mêmes raisons Quelques frissons à répétition jusqu'à scission du réel Ma chair dans la sienne faisant les mêmes mouvements que l'on doit faire pour faire des enfants C'que j'essaye de dire c'est que j'sais pas quoi dire d'autre à part c'qu'on doit dire quand on s'connait pas vraiment Salut ça va ? Moi, c'est Damso, j'me présente car jusqu'à présent j'connais pas ton prénom La vie c'est simple et compliqué car c'est c'que j'pense que t'es qui sera ton identité pour moi Pareil pour toi vis-à-vis d'moi Quand on y pense, j'pense qu'on se connaitra jamais vraiment Quand tu dis qu'tu couches pas l'premier soir sache que l'centième soir j'serai pas si différent Forcé par le forcément qui s'installe à chaque début d'discussion Tout ça parce qu'on l'a fait On s'éloigne parce qu'on s'dit je t'aime On s'éloigne parce qu'on s'dit je t'aime sans vraiment savoir c'que c'est L'autre pense qu'elle le pense mais son ex est dans sa tête Malgré qu'j'ai ma bite dans sa schnek Et c'est dans sa schnek que j'ai compris qu'ma bite et mon être Sont qu'une location pour elle Au prix de quelques mots doux, love you tout ça J'ai cru voir dans ses draps c'que je voulais voir dans ses bras l'amour Intensément je me goure, sans sentiment j'fais la cour Jamais le jour, que la nuit Parole de sourds cherchant l'ouïe Chez l'autre pour un oui et un non Forcément je me mens, je lui mens Conclusion je nous mens en même temps Donc finalement c'est mort12</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Je nous mens</t>
+          <t>Perplexe</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Y a 24 heures dans un jour Yeah, y a 24 heures dans un jour et le jour se lève avant 6 heures du matin Se couche après 6 heures du soir Quand j'me lève pour bosser jusqu'au p'tit matin J'dors plus, j'ai plus b'soin de rêve J'dors plus, j'ai plus b'soin de rêve L'oreiller me voit autant de fois qu'les yeux de mon gosse C'est-à-dire peu souvent, car, trop souvent, j'suis absent de moi-même Nurofen dans les veines, sur la scène j't'ai vue tapie dans robe rouge On a ken, on s'est déshabillé pour les mêmes raisons Quelques frissons à répétition jusqu'à scission du réel Ma chair dans la sienne faisant les mêmes mouvements que l'on doit faire pour faire des enfants C'que j'essaye de dire c'est que j'sais pas quoi dire d'autre à part c'qu'on doit dire quand on s'connait pas vraiment Salut ça va ? Moi, c'est Damso, j'me présente car jusqu'à présent j'connais pas ton prénom La vie c'est simple et compliqué car c'est c'que j'pense que t'es qui sera ton identité pour moi Pareil pour toi vis-à-vis d'moi Quand on y pense, j'pense qu'on se connaitra jamais vraiment Quand tu dis qu'tu couches pas l'premier soir sache que l'centième soir j'serai pas si différent Forcé par le forcément qui s'installe à chaque début d'discussion Tout ça parce qu'on l'a fait On s'éloigne parce qu'on s'dit je t'aime On s'éloigne parce qu'on s'dit je t'aime sans vraiment savoir c'que c'est L'autre pense qu'elle le pense mais son ex est dans sa tête Malgré qu'j'ai ma bite dans sa schnek Et c'est dans sa schnek que j'ai compris qu'ma bite et mon être Sont qu'une location pour elle Au prix de quelques mots doux, love you tout ça J'ai cru voir dans ses draps c'que je voulais voir dans ses bras l'amour Intensément je me goure, sans sentiment j'fais la cour Jamais le jour, que la nuit Parole de sourds cherchant l'ouïe Chez l'autre pour un oui et un non Forcément je me mens, je lui mens Conclusion je nous mens en même temps Donc finalement c'est mort12</t>
+          <t>Oh, oh, oh, yeah Oh baby, dis-moi c'que je fais Yeah Un jour, tu m'aimes, un jour, tu n'm'aimes pas Non Oh baby, dis-moi c'que j'ai fait Yeah Un jour, tu m'aimes, un jour tu n'm'aimes pas Non Toujours à dire qu'j'suis un salaud Ouais J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud Ouais J'te jure, j'l'ai baisée seulement qu'une fois, oh C'est vrai, j'te trompe avec la bite ouais Mon cur, lui, n'a d'yeux que pour toi bah ouais J'te d'mande ta main pour que je gicle ouais Mais bientôt, c'se'ra pour bague au doigt bah ouais Laisse-moi le temps d'être ce que je n'suis pas ouais Pour devenir c'lui qu'tu veux qu'je sois bah ouais Ma tête tourne comme des locks quand je vois ton boule J'te laisse même fumer sur ma clope, j'crois qu'c'est ça l'amour Et toi, t'oses dire qu'j'suis un salaud J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud J'te jure, j'l'ai baisée seulement qu'une fois Oh baby, dis-moi c'que je fais Yeah Un jour, tu m'aimes, un jour, tu n'm'aimes pas Non Oh baby, dis-moi c'que j'ai fait Yeah Un jour, tu m'aimes, un jour tu n'm'aimes pas Non Toujours à dire qu'j'suis un salaud Ouais J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud Ouais J'te jure, j'l'ai baisée seulement qu'une fois, oh Sur le front de la sueur, Vie sur le cur Ouais Violente est ma douceur, n'aies pas si peur Connais Par quatre chemins je n'irai pas, j'te dis je t'aime Ouais Par quatre lèvres, bouche et teu-chas, j'viens pour te ken J'suis dans une suite au Marriott, t'explorant les trompes de Fallope, ouais Laisse tomber tes allocs, viens m'rejoindre dans plage et paillote, eh Femmes nues dans mon bigo, c'est pas glamour Non J'te laisserai même venir au studio, c'est ça l'amour Ouais Et toi, t'es là à dire qu'j'suis un salaud J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud J'te jure, j'l'ai baisée seulement qu'une fois, oh Oh baby, dis-moi c'que je fais Yeah Un jour, tu m'aimes, un jour, tu n'm'aimes pas Non Oh baby, dis-moi c'que j'ai fait Yeah Un jour, tu m'aimes, un jour tu n'm'aimes pas Non Toujours à dire qu'j'suis un salaud Ouais J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud Ouais J'te jure, j'l'ai baisée seulement qu'une fois, oh Toujours à dire qu'j'suis un salaud J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud J'te jure, j'l'ai baisée seulement qu'une fois8</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Perplexe</t>
+          <t>Μ. Noob Saibot</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Oh, oh, oh, yeah Oh baby, dis-moi c'que je fais Yeah Un jour, tu m'aimes, un jour, tu n'm'aimes pas Non Oh baby, dis-moi c'que j'ai fait Yeah Un jour, tu m'aimes, un jour tu n'm'aimes pas Non Toujours à dire qu'j'suis un salaud Ouais J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud Ouais J'te jure, j'l'ai baisée seulement qu'une fois, oh C'est vrai, j'te trompe avec la bite ouais Mon cur, lui, n'a d'yeux que pour toi bah ouais J'te d'mande ta main pour que je gicle ouais Mais bientôt, c'se'ra pour bague au doigt bah ouais Laisse-moi le temps d'être ce que je n'suis pas ouais Pour devenir c'lui qu'tu veux qu'je sois bah ouais Ma tête tourne comme des locks quand je vois ton boule J'te laisse même fumer sur ma clope, j'crois qu'c'est ça l'amour Et toi, t'oses dire qu'j'suis un salaud J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud J'te jure, j'l'ai baisée seulement qu'une fois Oh baby, dis-moi c'que je fais Yeah Un jour, tu m'aimes, un jour, tu n'm'aimes pas Non Oh baby, dis-moi c'que j'ai fait Yeah Un jour, tu m'aimes, un jour tu n'm'aimes pas Non Toujours à dire qu'j'suis un salaud Ouais J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud Ouais J'te jure, j'l'ai baisée seulement qu'une fois, oh Sur le front de la sueur, Vie sur le cur Ouais Violente est ma douceur, n'aies pas si peur Connais Par quatre chemins je n'irai pas, j'te dis je t'aime Ouais Par quatre lèvres, bouche et teu-chas, j'viens pour te ken J'suis dans une suite au Marriott, t'explorant les trompes de Fallope, ouais Laisse tomber tes allocs, viens m'rejoindre dans plage et paillote, eh Femmes nues dans mon bigo, c'est pas glamour Non J'te laisserai même venir au studio, c'est ça l'amour Ouais Et toi, t'es là à dire qu'j'suis un salaud J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud J'te jure, j'l'ai baisée seulement qu'une fois, oh Oh baby, dis-moi c'que je fais Yeah Un jour, tu m'aimes, un jour, tu n'm'aimes pas Non Oh baby, dis-moi c'que j'ai fait Yeah Un jour, tu m'aimes, un jour tu n'm'aimes pas Non Toujours à dire qu'j'suis un salaud Ouais J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud Ouais J'te jure, j'l'ai baisée seulement qu'une fois, oh Toujours à dire qu'j'suis un salaud J'vais voir ailleurs pour voir si t'es là Toujours à dire qu'j'suis un salaud J'te jure, j'l'ai baisée seulement qu'une fois8</t>
+          <t>Sale, sale, sale Dems Oh oui, oh oui Oh oui, oh oui Hey J'suis dans le bendo Ouais Ça tire, ça tire, drive-by en Range Ro' Dingue Au comico, je no comprendo No Ça nique des mères, y a qu'ça à faire, gros Ouais, ouais, ouais, ouais Saal Calibré, j'suis dans le club Calibré, j'suis dans le club Broliqué, j'suis dans le club Broliqué, j'suis dans le club Kalashé, j'suis dans le club Kalashé, j'suis dans le club Broliqué, j'suis dans le club Bang, bang Les mecs veulent de la ppe-fra, j'mets d'la coca' dans mon shit J'veux très très grosse bitch, juste un gros cul sur ma trique Pas d'liquide séminal, j'nique leur mère avec du Vicks T'es dernier comme les Sixers, t'as plus d'buzz, même quand ça leak On fait d'la sique-mu, pas de la 'sique molle, c'est pas du zouk, mec Ça parle de rue, gun, drogue et alcool, ça parle de bres-ténè D'vécu et fiction, rage et colère dans ma diction Le rap coûte cher sans vues, donc t'as pas assez d'flow pour l'addition Dans l'ombre, j'leur mets des doigts, j'ai l'majeur à Noob Saibot Échec scolaire, j'étais d'ceux-là, aujourdhui j'règle la note J'te marie si tu m'dis Oui', d't'façon, pussy, j'l'ai d'jà fuck T'as la queue d'Iglesias Enrique, dans sa te-cha, j'vois qu'tu flottes Damso, ouais J'suis dans le bendo Ouais Ça tire, ça tire, drive-by en Range Ro' Dingue Au comico, je no comprendo No Ça nique des mères, y a qu'ça à faire, gros Ouais, ouais, ouais, ouais Saal Calibré, j'suis dans le club Calibré, j'suis dans le club Broliqué, j'suis dans le club Broliqué, j'suis dans le club Kalashé, j'suis dans le club Kalashé, j'suis dans le club Broliqué, j'suis dans le club Bang, bang OG, négros fragiles, on n'en veut pas No Trust me, on assassine dans la ve-ca Toujours à faire du le-sa, pilon roulé dans le ce-sa Oh, renoi, on est où là ? Ferme ta gueule ou tu n's'ras plus là J'te l'dis mon négro, très énervé je le suis, j'n'ai plus de cur comme Thierry Gilardi Autant de kush que d'OG, autant de 9 que 2i J'ai le bras long mais pas pour selfie, piraterie, Mugiwara Luffy J'la baise, elle crie fort comme Pavarotti, c'est noir, ça brille comme dans Get Lucky J'me barre d'ici, ça sent le flic, tu sais qu'ça s'ra noir vu le titre Jaloux véner' se lance dans des disses, j'les accueille bras ouvert comme Jésus Christ Elle est bonne, a du cash, elle est hipster, m'en bats les lles-c' d'être sur ta liste J'suis en showcase, donc c'est moi le VIP Plus j'fais du sale, plus j'fais du chiffre J'suis dans le bendo Ouais Ça tire, ça tire, drive-by en Range Ro' Dingue Au comico, je no comprendo No Ça nique des mères, y a qu'ça à faire, gros Ouais, ouais, ouais, ouais Saal Calibré, j'suis dans le club Calibré, j'suis dans le club Broliqué, j'suis dans le club Broliqué, j'suis dans le club Kalashé, j'suis dans le club Kalashé, j'suis dans le club Broliqué, j'suis dans le club Bang, bang3</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Μ. Noob Saibot</t>
+          <t>Monde</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sale, sale, sale Dems Oh oui, oh oui Oh oui, oh oui Hey J'suis dans le bendo Ouais Ça tire, ça tire, drive-by en Range Ro' Dingue Au comico, je no comprendo No Ça nique des mères, y a qu'ça à faire, gros Ouais, ouais, ouais, ouais Saal Calibré, j'suis dans le club Calibré, j'suis dans le club Broliqué, j'suis dans le club Broliqué, j'suis dans le club Kalashé, j'suis dans le club Kalashé, j'suis dans le club Broliqué, j'suis dans le club Bang, bang Les mecs veulent de la ppe-fra, j'mets d'la coca' dans mon shit J'veux très très grosse bitch, juste un gros cul sur ma trique Pas d'liquide séminal, j'nique leur mère avec du Vicks T'es dernier comme les Sixers, t'as plus d'buzz, même quand ça leak On fait d'la sique-mu, pas de la 'sique molle, c'est pas du zouk, mec Ça parle de rue, gun, drogue et alcool, ça parle de bres-ténè D'vécu et fiction, rage et colère dans ma diction Le rap coûte cher sans vues, donc t'as pas assez d'flow pour l'addition Dans l'ombre, j'leur mets des doigts, j'ai l'majeur à Noob Saibot Échec scolaire, j'étais d'ceux-là, aujourdhui j'règle la note J'te marie si tu m'dis Oui', d't'façon, pussy, j'l'ai d'jà fuck T'as la queue d'Iglesias Enrique, dans sa te-cha, j'vois qu'tu flottes Damso, ouais J'suis dans le bendo Ouais Ça tire, ça tire, drive-by en Range Ro' Dingue Au comico, je no comprendo No Ça nique des mères, y a qu'ça à faire, gros Ouais, ouais, ouais, ouais Saal Calibré, j'suis dans le club Calibré, j'suis dans le club Broliqué, j'suis dans le club Broliqué, j'suis dans le club Kalashé, j'suis dans le club Kalashé, j'suis dans le club Broliqué, j'suis dans le club Bang, bang OG, négros fragiles, on n'en veut pas No Trust me, on assassine dans la ve-ca Toujours à faire du le-sa, pilon roulé dans le ce-sa Oh, renoi, on est où là ? Ferme ta gueule ou tu n's'ras plus là J'te l'dis mon négro, très énervé je le suis, j'n'ai plus de cur comme Thierry Gilardi Autant de kush que d'OG, autant de 9 que 2i J'ai le bras long mais pas pour selfie, piraterie, Mugiwara Luffy J'la baise, elle crie fort comme Pavarotti, c'est noir, ça brille comme dans Get Lucky J'me barre d'ici, ça sent le flic, tu sais qu'ça s'ra noir vu le titre Jaloux véner' se lance dans des disses, j'les accueille bras ouvert comme Jésus Christ Elle est bonne, a du cash, elle est hipster, m'en bats les lles-c' d'être sur ta liste J'suis en showcase, donc c'est moi le VIP Plus j'fais du sale, plus j'fais du chiffre J'suis dans le bendo Ouais Ça tire, ça tire, drive-by en Range Ro' Dingue Au comico, je no comprendo No Ça nique des mères, y a qu'ça à faire, gros Ouais, ouais, ouais, ouais Saal Calibré, j'suis dans le club Calibré, j'suis dans le club Broliqué, j'suis dans le club Broliqué, j'suis dans le club Kalashé, j'suis dans le club Kalashé, j'suis dans le club Broliqué, j'suis dans le club Bang, bang3</t>
+          <t>Oh, ouais ouais ouais Ouais Dems Bédo doux Yeah J'fume mes soucis dans bédo doux Dans sa pussy, j'prends rendez-vous Autant d'monnaie pour si peu d'amour Secret professionnel, chut, ça reste entre nous Tu sais, je t'aime qu'avec des bas résilles Tes selfies sont un genre de poésie Ils parlent de la vie, après minuit Celle qui fait bander qu'à force, on oublie Comme un rapiat moi, j'attends mon tour J'rêve de t'péta dans les alentours À c'qui paraît, tu maîtrises bien la langue Tes fellations sont comme des calembours T'as vu, j'ai signé, j'peux faire de ma gueule T'as l'monde à tes pieds, j'l'ai au bout de ma feuille J'regarde cette bitch et j'me dis que c'est la mienne Comme si personne d'autre pouvait la ken' Alors qu'il suffit de quelques billets pour la déshabiller puis la bitch-isiller Elle ne fait pas dans le trop câliner Sa nudité n'est même pas raffinée D'ailleurs, cette bitch au fond, c'est toutes les mêmes J'vais rentrer fumer, elles n'en valent pas la peine J'vais mater des chaines pornos, voir des chiennes prendre gros J'suis un négro qui n'véhicule que la haine J'suis dans mon délire, j'fume trop d'weed, oh non J'suis dans mon délire, j'fume trop d'weed, oh non Défoncé, j'expire vraie OG d'Hollande J'suis dans mon délire, j'fume trop d'weed, oh non Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir Ton porte-jarretelle fait l'effet d'un violent baiser dans le cou violent baiser dans l'cou Que du vice, un pincement d'clitoris tu vas succomber tu vas succomber Tu danses à peine, ma trique est à l'avance au rendez-vous à l'avance au rendez-vous Que plus lisse, un claquement d'clitoris, tu vas suffoquer Bien ficelée sans erreurs dans les détails Jolie garce comme dans la team de Shay Romantique, tu cherches l'amour de campagne J't'enculerai donc sur un fétu de paille Cyprine à plein nez, l'cuni n'est pas évident Sexe affamé, long comme le bec d'un pélican Son fessier n'est pas très occidental Ejac' faciale, devoir congénital Défoncé, j'expire, j'sais même pas si t'existes C'qui veut dire que j'ai pris full drogue Défoncé, j'expire, j'sais même pas si t'existes C'qui veut dire que j'ai pris full drogue J'suis dans mon délire, j'fume trop d'weed, oh non J'suis dans mon délire, j'fume trop d'weed, oh non Défoncé, j'expire vraie OG d'Hollande J'suis dans mon délire, j'fume trop d'weed, oh non Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir5</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Monde</t>
+          <t>Beautiful</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Oh, ouais ouais ouais Ouais Dems Bédo doux Yeah J'fume mes soucis dans bédo doux Dans sa pussy, j'prends rendez-vous Autant d'monnaie pour si peu d'amour Secret professionnel, chut, ça reste entre nous Tu sais, je t'aime qu'avec des bas résilles Tes selfies sont un genre de poésie Ils parlent de la vie, après minuit Celle qui fait bander qu'à force, on oublie Comme un rapiat moi, j'attends mon tour J'rêve de t'péta dans les alentours À c'qui paraît, tu maîtrises bien la langue Tes fellations sont comme des calembours T'as vu, j'ai signé, j'peux faire de ma gueule T'as l'monde à tes pieds, j'l'ai au bout de ma feuille J'regarde cette bitch et j'me dis que c'est la mienne Comme si personne d'autre pouvait la ken' Alors qu'il suffit de quelques billets pour la déshabiller puis la bitch-isiller Elle ne fait pas dans le trop câliner Sa nudité n'est même pas raffinée D'ailleurs, cette bitch au fond, c'est toutes les mêmes J'vais rentrer fumer, elles n'en valent pas la peine J'vais mater des chaines pornos, voir des chiennes prendre gros J'suis un négro qui n'véhicule que la haine J'suis dans mon délire, j'fume trop d'weed, oh non J'suis dans mon délire, j'fume trop d'weed, oh non Défoncé, j'expire vraie OG d'Hollande J'suis dans mon délire, j'fume trop d'weed, oh non Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir Ton porte-jarretelle fait l'effet d'un violent baiser dans le cou violent baiser dans l'cou Que du vice, un pincement d'clitoris tu vas succomber tu vas succomber Tu danses à peine, ma trique est à l'avance au rendez-vous à l'avance au rendez-vous Que plus lisse, un claquement d'clitoris, tu vas suffoquer Bien ficelée sans erreurs dans les détails Jolie garce comme dans la team de Shay Romantique, tu cherches l'amour de campagne J't'enculerai donc sur un fétu de paille Cyprine à plein nez, l'cuni n'est pas évident Sexe affamé, long comme le bec d'un pélican Son fessier n'est pas très occidental Ejac' faciale, devoir congénital Défoncé, j'expire, j'sais même pas si t'existes C'qui veut dire que j'ai pris full drogue Défoncé, j'expire, j'sais même pas si t'existes C'qui veut dire que j'ai pris full drogue J'suis dans mon délire, j'fume trop d'weed, oh non J'suis dans mon délire, j'fume trop d'weed, oh non Défoncé, j'expire vraie OG d'Hollande J'suis dans mon délire, j'fume trop d'weed, oh non Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir Dans le brouillard souvent tard le soir, j'fume un gros pétard dans le noir5</t>
+          <t>Le daron voulait que je taff 23 ans diplôme premier boulot Cravate, col boutonné Jambes croisées derrière mon bureau Mais lalcool, le cash, la weed Les bitchs comme attrape-nigaud Ont fait de moi ce que je suis devenu Un saugrenu putain d'négro Et puis fuck comme tout écolier Désemparé d'aucun secret Je traîne avec mes semblables Que le monde remballe pour les même secrets Comment puis-je prouver ce que je vaux Si leurs valeurs ne me correspondent pas ? Plus d'pression, cherche plus à perdre Puis la déception des rents-pas Trop déchecs scolaires, colère, oh merde Bandit j'le suis, j'serai, je létais, j'fous la de-mer Sa mère fuck Cherche moyen rapide d'me tirer Comme les munitions dun Glock À croire que j'suis baisé Plus davenir ouais, j'les vois venir Mais je nai pas de regret toujours pas de regret Je sais ce que j'veux devenir donc venez pas me dire Qu'en couilles se barre ma life Je profite de ma beautiful day, beautiful day Beautiful day, beautiful day Qu'en couilles se barre ma life Je profite de ma beautiful day Beautiful day, beautiful day Beautiful Day Quand l'enveloppe est pleine le jour de paye Je compte loseille fait péter les teilles M'approche de l'enfer en tutoyant le ciel nigga Ils parlent de dem's nigga, Ils disent que sur dem's nigga J'ai déjà trop de blêmes nigga Putain de merde nigga, damn nigga Blanc métal policier l'homicide est imminent Ma vie tient un fil de nylon, ils dansent le mia Pendant que je taff pour le Milli-ions, oui money il y a Assez pour beautiful day Profiter jusquà mon beautiful deuil Pour l'instant je n'ai qu'une beautiful 'teille Je profite autant de ma beauty full déf Avant chaque sortie on m'savonne Damso J'ai la vie d'une soirée mousse Damso Une grosse bitch anglo-saxonne Damso Je lui fourre mon bacon dans sa bouche Damso Un jour tu pleures, un jour tu ris Un homme qui meurt, un autre vit Un gros flingue t'urge a mon avis Raaa Bang bang OPG Déso pour ce que je fais au sexe féminin sans le vouloir J'ai tendance à confondre Toutes les femmes à celles du trottoir Pourtant j'fais des efforts j'suis passé du snack au restaurant Mais trop vu la mort de près Elles se plaignent que je tire une tête d'enterrement Trop de proches que je perds, colère, oh merde Bandit j'le suis, j'serai, je létais, j'fous la de-mer Sa mère , fuck Cherche moyen rapide de me tirer comme les munitions dun glock A croire que j'suis baisé Plus davenir ouais, j'les vois venir Mais je nai pas de regret Je sais ce que j'veux devenir donc venez pas me dire Qu'en couilles se barre ma life Je profite de ma beautiful day Beautiful day Beautiful day Beautiful Day Qu'en couilles se barre ma life Je profite de ma beautiful day Beautiful Day Beautiful Day5</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Beautiful</t>
+          <t>Même issue</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Le daron voulait que je taff 23 ans diplôme premier boulot Cravate, col boutonné Jambes croisées derrière mon bureau Mais lalcool, le cash, la weed Les bitchs comme attrape-nigaud Ont fait de moi ce que je suis devenu Un saugrenu putain d'négro Et puis fuck comme tout écolier Désemparé d'aucun secret Je traîne avec mes semblables Que le monde remballe pour les même secrets Comment puis-je prouver ce que je vaux Si leurs valeurs ne me correspondent pas ? Plus d'pression, cherche plus à perdre Puis la déception des rents-pas Trop déchecs scolaires, colère, oh merde Bandit j'le suis, j'serai, je létais, j'fous la de-mer Sa mère fuck Cherche moyen rapide d'me tirer Comme les munitions dun Glock À croire que j'suis baisé Plus davenir ouais, j'les vois venir Mais je nai pas de regret toujours pas de regret Je sais ce que j'veux devenir donc venez pas me dire Qu'en couilles se barre ma life Je profite de ma beautiful day, beautiful day Beautiful day, beautiful day Qu'en couilles se barre ma life Je profite de ma beautiful day Beautiful day, beautiful day Beautiful Day Quand l'enveloppe est pleine le jour de paye Je compte loseille fait péter les teilles M'approche de l'enfer en tutoyant le ciel nigga Ils parlent de dem's nigga, Ils disent que sur dem's nigga J'ai déjà trop de blêmes nigga Putain de merde nigga, damn nigga Blanc métal policier l'homicide est imminent Ma vie tient un fil de nylon, ils dansent le mia Pendant que je taff pour le Milli-ions, oui money il y a Assez pour beautiful day Profiter jusquà mon beautiful deuil Pour l'instant je n'ai qu'une beautiful 'teille Je profite autant de ma beauty full déf Avant chaque sortie on m'savonne Damso J'ai la vie d'une soirée mousse Damso Une grosse bitch anglo-saxonne Damso Je lui fourre mon bacon dans sa bouche Damso Un jour tu pleures, un jour tu ris Un homme qui meurt, un autre vit Un gros flingue t'urge a mon avis Raaa Bang bang OPG Déso pour ce que je fais au sexe féminin sans le vouloir J'ai tendance à confondre Toutes les femmes à celles du trottoir Pourtant j'fais des efforts j'suis passé du snack au restaurant Mais trop vu la mort de près Elles se plaignent que je tire une tête d'enterrement Trop de proches que je perds, colère, oh merde Bandit j'le suis, j'serai, je létais, j'fous la de-mer Sa mère , fuck Cherche moyen rapide de me tirer comme les munitions dun glock A croire que j'suis baisé Plus davenir ouais, j'les vois venir Mais je nai pas de regret Je sais ce que j'veux devenir donc venez pas me dire Qu'en couilles se barre ma life Je profite de ma beautiful day Beautiful day Beautiful day Beautiful Day Qu'en couilles se barre ma life Je profite de ma beautiful day Beautiful Day Beautiful Day5</t>
+          <t>Oui Seul à tracer sur ma route, je fais mon chemin Quelques aléas, le doute du rappeur urbain J'ai perdu des soss à part Santos qui me tire la main Qui ? Le rap game fait qu'sucer ma bite, il reste son fond de teint Ils ont prié pour qu'jamais pour moi n'existe de lendemain Bouya Coup d'pied dans leur mère avec Versace, chaussures en daim Bang J'ai faibli, j'ai fléchi, réfléchi, remis tout en cause Oui J'ai monté les marches mais l'escalier est en Penrose Oui C'est partout la même, c'est partout la même, ouais C'est partout la même, c'est partout la même, ouais J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps C'est partout la même, c'est partout la même C'est partout la même issue C'est partout la même, c'est partout la même C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps OG va purger sa peine mais n'a rien fait de mal Nan Mes sentiments sont à la traîne, ne pensent qu'à faire d'la maille Moula Honte de c'qu'ils sont, ils se dé-nègrent Bang Longue discussion sur le fait d'être, oublient c'qu'ils sont quand ils sont célèbres Va dire à Florent qu'on n'est pas libre de penser Jamais Lobotomisés jusqu'à la monnaie des colonies françaises CFA Afrique endettée, les crédits d'la liberté se paient à perpet' Oui Toujours autant d'amour malgré les pillages, la guerre et la mort C'est partout la même, c'est partout la même, ouais C'est partout la même, c'est partout la même, ouais J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps C'est partout la même, c'est partout la même C'est partout la même issue C'est partout la même, c'est partout la même C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps Des crimes, des cris très stridents, sombre agent Peu avenant, peut tout faire pour l'argent Sans engagement, tire sur la foule sans balles à blanc Mais d'vant les blancs, position fellation Gouvernement ne voit que là d'où vient le vent Population malnutrition, grincements de dents, agitation Yahwé Yahwé sanjolama Yahwé na boboto sanjolama C'est partout la même, c'est partout la même, ouais C'est partout la même issue C'est partout la même, c'est partout la même, ouais C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps C'est partout la même, c'est partout la même C'est partout la même issue C'est partout la même, c'est partout la même C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps5</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Même issue</t>
+          <t>Mort</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Oui Seul à tracer sur ma route, je fais mon chemin Quelques aléas, le doute du rappeur urbain J'ai perdu des soss à part Santos qui me tire la main Qui ? Le rap game fait qu'sucer ma bite, il reste son fond de teint Ils ont prié pour qu'jamais pour moi n'existe de lendemain Bouya Coup d'pied dans leur mère avec Versace, chaussures en daim Bang J'ai faibli, j'ai fléchi, réfléchi, remis tout en cause Oui J'ai monté les marches mais l'escalier est en Penrose Oui C'est partout la même, c'est partout la même, ouais C'est partout la même, c'est partout la même, ouais J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps C'est partout la même, c'est partout la même C'est partout la même issue C'est partout la même, c'est partout la même C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps OG va purger sa peine mais n'a rien fait de mal Nan Mes sentiments sont à la traîne, ne pensent qu'à faire d'la maille Moula Honte de c'qu'ils sont, ils se dé-nègrent Bang Longue discussion sur le fait d'être, oublient c'qu'ils sont quand ils sont célèbres Va dire à Florent qu'on n'est pas libre de penser Jamais Lobotomisés jusqu'à la monnaie des colonies françaises CFA Afrique endettée, les crédits d'la liberté se paient à perpet' Oui Toujours autant d'amour malgré les pillages, la guerre et la mort C'est partout la même, c'est partout la même, ouais C'est partout la même, c'est partout la même, ouais J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps C'est partout la même, c'est partout la même C'est partout la même issue C'est partout la même, c'est partout la même C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps Des crimes, des cris très stridents, sombre agent Peu avenant, peut tout faire pour l'argent Sans engagement, tire sur la foule sans balles à blanc Mais d'vant les blancs, position fellation Gouvernement ne voit que là d'où vient le vent Population malnutrition, grincements de dents, agitation Yahwé Yahwé sanjolama Yahwé na boboto sanjolama C'est partout la même, c'est partout la même, ouais C'est partout la même issue C'est partout la même, c'est partout la même, ouais C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps C'est partout la même, c'est partout la même C'est partout la même issue C'est partout la même, c'est partout la même C'est partout la même issue J'ai cherché à gauche, à droite un amour pas paralysant Tout seul sur la route, j'ai perdu du monde après la mi-temps5</t>
+          <t>Ok Dems Si j'fais des ronds, c'est pour des gros culs J'suis Tetris, pas d'limite quand j'suis casé, donc j'rends ma copine cocue L'amour c'est bien mais l'argent domine Mon succès écarte les fesses d'la meilleure pote de mon ex copine La drogue est ma tutrice illégale J'vis, j'vise que l'or, j'crains jamais revers de médaille De la vie je sais à quoi m'attendre, depuis bien longtemps C'est comme quand tu r'gardes ton compte, mais qu'y'a l'même montant Si t'es v'nu dire que tu t'en vas, fallait rester où t'étais T'façon elles partent toujours pour les mêmes raisons J'dis pas qu'j'ai choisi l'enfer mais comment S'envoler au paradis avec un cur de plomb ? Elle veut du love mais n'est pas objective avec son physique J't'aime pas comme les Victoires de la Musique Tout c'qui tue pas fait plus de pognon Les histoires de cur, c'est pour celles et ceux qui en ont J'fais c'que j'aime au prix d'perdre ceux qu'j'aime J'me tire d'ici, comme la balle de Kurt Cobain Y'a pas d'loyauté, y'a qu'des monnaies d'échange Des fils de putains, qui entre eux s'mélangent J'm'en bats les couilles d'l'exemple que j'donne aux jeunes J'suis pas éducateur, fais tes sous et ferme ta gueule Comme une route en diamants, veulent tous marcher sur moi J'suis v'nu au monde en pleurant, et chaque jour j'comprends pourquoi Dems14</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mort</t>
+          <t>TieksVie</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ok Dems Si j'fais des ronds, c'est pour des gros culs J'suis Tetris, pas d'limite quand j'suis casé, donc j'rends ma copine cocue L'amour c'est bien mais l'argent domine Mon succès écarte les fesses d'la meilleure pote de mon ex copine La drogue est ma tutrice illégale J'vis, j'vise que l'or, j'crains jamais revers de médaille De la vie je sais à quoi m'attendre, depuis bien longtemps C'est comme quand tu r'gardes ton compte, mais qu'y'a l'même montant Si t'es v'nu dire que tu t'en vas, fallait rester où t'étais T'façon elles partent toujours pour les mêmes raisons J'dis pas qu'j'ai choisi l'enfer mais comment S'envoler au paradis avec un cur de plomb ? Elle veut du love mais n'est pas objective avec son physique J't'aime pas comme les Victoires de la Musique Tout c'qui tue pas fait plus de pognon Les histoires de cur, c'est pour celles et ceux qui en ont J'fais c'que j'aime au prix d'perdre ceux qu'j'aime J'me tire d'ici, comme la balle de Kurt Cobain Y'a pas d'loyauté, y'a qu'des monnaies d'échange Des fils de putains, qui entre eux s'mélangent J'm'en bats les couilles d'l'exemple que j'donne aux jeunes J'suis pas éducateur, fais tes sous et ferme ta gueule Comme une route en diamants, veulent tous marcher sur moi J'suis v'nu au monde en pleurant, et chaque jour j'comprends pourquoi Dems14</t>
+          <t>J'suis dans, j'suis dans l'tieks Ah oui oui, ouais Ah ouais, ouais, ouais Benjay Beats Eh Ta meuf t'a trompé, j'ai des preuves Ouais, elle veut s'faire niquer pour le buzz Ouais M'envoie des nudes car sa chienne de rude vie n'a tant de sperme qu'il en pleuve Ouais Crevé d'passer par Alléluia Oh ouais, j'ai pris un Glock pour faire la moula Bah ouais Ça crée des polémiques à tout va, comme après le Eh, pute, on est où là ? Ça gère des schneks de grandes tailles Eh, j'lui parle d'amour, elle m'parle de maille Eh J't'aime pas comme le mec qui dit Ça fait, ça fait, avant d'commencer un freestyle No Trop défoncé dans le bando Ouais, des moches, des bonnes, des Christie Gwendo Bitch On t'a vu sucer à lhôtel après le showcase, maintenant, tu fais genre c'est amical Biatch T'es v'nu en boite avec des meufs, on t'a recalé, oh la la Ni en tactile ni en T9, zéro smiley, nan, nan, nan J'suis pas des leurs, j'suis pas des leurs, Robert Marley Bobby, Bobby Comme never, comme never, comme jamais J'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais Bah ouais Ouais La puissance respecte que la puissance Sale, coup d'coude, balayette, crâne ouvert J'dépouille ta bague, j't'arrache l'auriculaire, j'vais niquer des mères sans trop de résistance Sho Gros poignard dans la ge-gor, j'en ressors jugulaire ensanglantée Ouais Après ta mort, j'vais baiser ta femme pour être sur qu'tu reposeras jamais en paix, no J'l'ai niquer comme si j'tais Actarus Ah oauis, son mec a cru qu'elle venait d'accoucher par l'anus Sale Ta pisse est froide, t'as petit phallus, étranger comme Albert Camus Vrai J'la baise, elle crie comme Dion Céline, avale avant que le me-sper périme Ouais Ouais, j'lui ai tout mis dans la bouche Bah ouais, pour pas déranger la voisine Biatch T'es v'nu en boite avec des meufs, on t'a recalé, oh la la Ni en tactile ni en T9, zéro smiley, nan, nan, nan J'suis pas des leurs, j'suis pas des leurs, Robert Marley Bobby, Bobby Comme never, comme never, comme jamais J'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais Comme never, comme never, comme jamais J'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais Ah ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ouais, ouais, ouais Dems5</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TieksVie</t>
+          <t>INTRO</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>J'suis dans, j'suis dans l'tieks Ah oui oui, ouais Ah ouais, ouais, ouais Benjay Beats Eh Ta meuf t'a trompé, j'ai des preuves Ouais, elle veut s'faire niquer pour le buzz Ouais M'envoie des nudes car sa chienne de rude vie n'a tant de sperme qu'il en pleuve Ouais Crevé d'passer par Alléluia Oh ouais, j'ai pris un Glock pour faire la moula Bah ouais Ça crée des polémiques à tout va, comme après le Eh, pute, on est où là ? Ça gère des schneks de grandes tailles Eh, j'lui parle d'amour, elle m'parle de maille Eh J't'aime pas comme le mec qui dit Ça fait, ça fait, avant d'commencer un freestyle No Trop défoncé dans le bando Ouais, des moches, des bonnes, des Christie Gwendo Bitch On t'a vu sucer à lhôtel après le showcase, maintenant, tu fais genre c'est amical Biatch T'es v'nu en boite avec des meufs, on t'a recalé, oh la la Ni en tactile ni en T9, zéro smiley, nan, nan, nan J'suis pas des leurs, j'suis pas des leurs, Robert Marley Bobby, Bobby Comme never, comme never, comme jamais J'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais Bah ouais Ouais La puissance respecte que la puissance Sale, coup d'coude, balayette, crâne ouvert J'dépouille ta bague, j't'arrache l'auriculaire, j'vais niquer des mères sans trop de résistance Sho Gros poignard dans la ge-gor, j'en ressors jugulaire ensanglantée Ouais Après ta mort, j'vais baiser ta femme pour être sur qu'tu reposeras jamais en paix, no J'l'ai niquer comme si j'tais Actarus Ah oauis, son mec a cru qu'elle venait d'accoucher par l'anus Sale Ta pisse est froide, t'as petit phallus, étranger comme Albert Camus Vrai J'la baise, elle crie comme Dion Céline, avale avant que le me-sper périme Ouais Ouais, j'lui ai tout mis dans la bouche Bah ouais, pour pas déranger la voisine Biatch T'es v'nu en boite avec des meufs, on t'a recalé, oh la la Ni en tactile ni en T9, zéro smiley, nan, nan, nan J'suis pas des leurs, j'suis pas des leurs, Robert Marley Bobby, Bobby Comme never, comme never, comme jamais J'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais Comme never, comme never, comme jamais J'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ah ouais, ouais, ouais, ouais Ah ouais, ouais, ouais Ah ouais, ouais, ouais J'suis dans, j'suis dans l'tieks Ouais, ouais, ouais Dems5</t>
+          <t>Feelin' love, feelin' love Feelin' love, still not sure, I have a girl Feelin' love, still not sure, Ouais, I have a girl J'frappe à la porte, celle du paradis mais c'est l'Diable qui répond Le cul en sang, j'suis v'nu par derrière pour reprendre les d'vants Un nud marin, bien mé-fer la corde à laquelle tu t'pends Beaucoup d'moyens mais plus aucun talent, y a qu'ton image qui vend Ça bi-bi des toplines à des gros rappeurs, je l'sais, faites pas semblant Toujours la guerre, un Glock vertical, la forme d'mon continent Si j'ai vu Dieu ? J'avoue, pas encore mais je n'cesse de prier Des millionnaires mais juste en avance, ne savent plus rembourser La grosse balayette, le g'nou à terre pour qu'tu te soumettes Ta montre est moins chère, ni or ni diam's, le poids d'ma gourmette Tout a un prix, même devenir père, ça s'appelle la pension Toujours en vie, maman, c'était ton heure, donc j'ai dû tuer l'temps Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? Ouais, fuck ton cardio, gros, si j'te tabasse, ça traînera pas longtemps Jab, uppercut, si y a v'là l'esquive, le Glock s'ra dans mon camp J'aime quand j'traîne, quand j'croise mes gars sûrs qui m'parlent comme si c'tait hier J'aime quand j'saigne, car c'est par mes blessures que passe toute la lumière J'n'ai pas le temps, no time, j'suis plus dans la rue, les tits-pe détaillent Pute enneigée sur un rail, sniffent la neige à la paille, galère urbaine Faux négros manquent d'hygiène, toujours à squatter la gare, les huissiers à midi La daronne les fuyait, maintenant, notaires prennent en selfie, j'ouvre des SP sans faire de crédit Maintenant, notaires prennent en selfie, maintenant, les bourgmestres prennent en selfie Mais où est-c'qu'ils étaient quand j'voulais les papiers ? Ah, bah ouais J'ai dû les croire mais sans y croire, rouler des pétards dans les auditoires Sablier noir, de désespoir, dans la mémoire, de la gare à la gloire Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? Daronne apeurée Feelin' love, still not sure, I have a girl Feelin' love, still not sure, I have a girl Merci, merci Nwaar Batterie rechargée11</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>INTRO</t>
+          <t>Freestyle Couvre Feu Damso sur OKLM Radio</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Feelin' love, feelin' love Feelin' love, still not sure, I have a girl Feelin' love, still not sure, Ouais, I have a girl J'frappe à la porte, celle du paradis mais c'est l'Diable qui répond Le cul en sang, j'suis v'nu par derrière pour reprendre les d'vants Un nud marin, bien mé-fer la corde à laquelle tu t'pends Beaucoup d'moyens mais plus aucun talent, y a qu'ton image qui vend Ça bi-bi des toplines à des gros rappeurs, je l'sais, faites pas semblant Toujours la guerre, un Glock vertical, la forme d'mon continent Si j'ai vu Dieu ? J'avoue, pas encore mais je n'cesse de prier Des millionnaires mais juste en avance, ne savent plus rembourser La grosse balayette, le g'nou à terre pour qu'tu te soumettes Ta montre est moins chère, ni or ni diam's, le poids d'ma gourmette Tout a un prix, même devenir père, ça s'appelle la pension Toujours en vie, maman, c'était ton heure, donc j'ai dû tuer l'temps Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? Ouais, fuck ton cardio, gros, si j'te tabasse, ça traînera pas longtemps Jab, uppercut, si y a v'là l'esquive, le Glock s'ra dans mon camp J'aime quand j'traîne, quand j'croise mes gars sûrs qui m'parlent comme si c'tait hier J'aime quand j'saigne, car c'est par mes blessures que passe toute la lumière J'n'ai pas le temps, no time, j'suis plus dans la rue, les tits-pe détaillent Pute enneigée sur un rail, sniffent la neige à la paille, galère urbaine Faux négros manquent d'hygiène, toujours à squatter la gare, les huissiers à midi La daronne les fuyait, maintenant, notaires prennent en selfie, j'ouvre des SP sans faire de crédit Maintenant, notaires prennent en selfie, maintenant, les bourgmestres prennent en selfie Mais où est-c'qu'ils étaient quand j'voulais les papiers ? Ah, bah ouais J'ai dû les croire mais sans y croire, rouler des pétards dans les auditoires Sablier noir, de désespoir, dans la mémoire, de la gare à la gloire Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée Eh, la vie de bandit Les peines lourdes et les pleurs, daronne apeurée C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? C'est pas ma vie, c'est pas la mienne Pourquoi ils veulent toujours que j'foute la merde ? Daronne apeurée Feelin' love, still not sure, I have a girl Feelin' love, still not sure, I have a girl Merci, merci Nwaar Batterie rechargée11</t>
+          <t>Perdu dans ma tête mais je pète les plombs, fais le BCBG mais j'ai baisé que des thons J'ai que bonasse, connasse, grognasse, pétasse, j'en passe, j'm'en lasse, putain, bref, ok laisse ber-tom Putain, je crane tous seul, parle tous seul, peu de monologues, poto d'homologues, j'ai peu de dialogue J'deviens de ceux qui s'en soucient, se saoulent seul, en plus de ça, je perds des sous Subitement, je subis tout, me ruine au subito, c'qui fait qu't'as mal quand t'évites ceux qui traînent trop J'suis paresseux, j'perds la raison et, ça, ça paraît fou parce que j'ai la tête du gars qui n'a pas ce genre de défaut Mais damn, ma vie bascule, du bonheur que quand j'éjacule, j'vais péter pendant ce son, je flatule Faut remettre les clics au-dessus des pendules, j'rêve de partir loin dans une capsule, hé Évidemment que j'manie le mic comme un pyromane, demande à my men, à chaque fois que j'les ken L'enfer se déchaîne, mes ennemis s'entraînent, voudraient que je saigne, remuent terre et ciel, mais bon j'ai des guns One again comme Hurricane, je les goume dès le premier round, le pe-ra me défoule mais souvent me saoule quand ça parle d'embrouilles Et de vos rappeurs brouillons qui n'ont aucune couille veulent parler de douilles mais crient Hallelujah quand ça part en couille Allez, fuck4</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Freestyle Couvre Feu Damso sur OKLM Radio</t>
+          <t>NMI</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Perdu dans ma tête mais je pète les plombs, fais le BCBG mais j'ai baisé que des thons J'ai que bonasse, connasse, grognasse, pétasse, j'en passe, j'm'en lasse, putain, bref, ok laisse ber-tom Putain, je crane tous seul, parle tous seul, peu de monologues, poto d'homologues, j'ai peu de dialogue J'deviens de ceux qui s'en soucient, se saoulent seul, en plus de ça, je perds des sous Subitement, je subis tout, me ruine au subito, c'qui fait qu't'as mal quand t'évites ceux qui traînent trop J'suis paresseux, j'perds la raison et, ça, ça paraît fou parce que j'ai la tête du gars qui n'a pas ce genre de défaut Mais damn, ma vie bascule, du bonheur que quand j'éjacule, j'vais péter pendant ce son, je flatule Faut remettre les clics au-dessus des pendules, j'rêve de partir loin dans une capsule, hé Évidemment que j'manie le mic comme un pyromane, demande à my men, à chaque fois que j'les ken L'enfer se déchaîne, mes ennemis s'entraînent, voudraient que je saigne, remuent terre et ciel, mais bon j'ai des guns One again comme Hurricane, je les goume dès le premier round, le pe-ra me défoule mais souvent me saoule quand ça parle d'embrouilles Et de vos rappeurs brouillons qui n'ont aucune couille veulent parler de douilles mais crient Hallelujah quand ça part en couille Allez, fuck4</t>
+          <t>Ouais Parler, cest penser tout bas oui Penser, cest parler tout haut oui Sans être entendu, prends mon dû par le rendu Touchera sur ce que jai vendu Dans le bendo, bédo fume sous les pleurs de la sono Récitant des gros mots, nique sa mère et cqui sen suit Aux radios, jamais je ne mendie non Comme avec policiers dans combi bah ouais Jparle et je crache ma haine bang Jparle et je crache ma haine saal Mieux vaut pas que jdécrive mon mollard oui Au daron, je nai pas fait honneur non Mes valeurs dans un coma bang Sréveiller que sur la scène saal Plus de souffle de vie Jpense que jnaurai plus jamais de condition humaine raah Album leaké, peu dsons clipés, des bagatelles bah ouais Des mères niquées, platine triplé Ainsi soient-elles bah ouais Tellement dennemis, tellement dennemis saal Nécoute pas cquils tont dit, jnécris que ce que je vis Tellement dennemis, tellement dennemis saal Ouais Jnécris que ce que je vis Ouais Jsuis un bandit car le non-dit, je dis Jsuis un bandit car je mendie le crime J'ai une haine de peine de mort et de vie Jmeurs denvie davoir besoin de rien Plus dhier aujourdhui, surtout demain Quelque part avec quelques parts De mes quelques pas sur le plus long des chemins Mal à méditer, je pense aux euros Jlai bien mérité, jsuis parti de rien De la vérité, je mens souvent trop De laltérité quand tout est commun Donne-moi ton cur et jte donnerai le mien Sauf quil est tout noir et quil touche à sa fin Dans les couloirs, jai côtoyé la mort ouais Heureusement pour moi, il ny avait plus dplace assise non Bicraveur notoire connait pas la crise non Ien-cli, pacson dans fermeture à coins hé Tellement dcannabis saal Tellement dcannabis, tellement dcannabis Jsais même plus quoi faire de mon joint ouais Tellement dennemis, tellement dennemis saal Ouais, jnécris que ce que je vis Dems C'est bon4</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NMI</t>
+          <t>Aux paradis</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ouais Parler, cest penser tout bas oui Penser, cest parler tout haut oui Sans être entendu, prends mon dû par le rendu Touchera sur ce que jai vendu Dans le bendo, bédo fume sous les pleurs de la sono Récitant des gros mots, nique sa mère et cqui sen suit Aux radios, jamais je ne mendie non Comme avec policiers dans combi bah ouais Jparle et je crache ma haine bang Jparle et je crache ma haine saal Mieux vaut pas que jdécrive mon mollard oui Au daron, je nai pas fait honneur non Mes valeurs dans un coma bang Sréveiller que sur la scène saal Plus de souffle de vie Jpense que jnaurai plus jamais de condition humaine raah Album leaké, peu dsons clipés, des bagatelles bah ouais Des mères niquées, platine triplé Ainsi soient-elles bah ouais Tellement dennemis, tellement dennemis saal Nécoute pas cquils tont dit, jnécris que ce que je vis Tellement dennemis, tellement dennemis saal Ouais Jnécris que ce que je vis Ouais Jsuis un bandit car le non-dit, je dis Jsuis un bandit car je mendie le crime J'ai une haine de peine de mort et de vie Jmeurs denvie davoir besoin de rien Plus dhier aujourdhui, surtout demain Quelque part avec quelques parts De mes quelques pas sur le plus long des chemins Mal à méditer, je pense aux euros Jlai bien mérité, jsuis parti de rien De la vérité, je mens souvent trop De laltérité quand tout est commun Donne-moi ton cur et jte donnerai le mien Sauf quil est tout noir et quil touche à sa fin Dans les couloirs, jai côtoyé la mort ouais Heureusement pour moi, il ny avait plus dplace assise non Bicraveur notoire connait pas la crise non Ien-cli, pacson dans fermeture à coins hé Tellement dcannabis saal Tellement dcannabis, tellement dcannabis Jsais même plus quoi faire de mon joint ouais Tellement dennemis, tellement dennemis saal Ouais, jnécris que ce que je vis Dems C'est bon4</t>
+          <t>Demdemdemdem ohohh Ohhoo Ohhoo demdemdemdemdem ohohh Hey C'truc dans les veines depuis quelques années Yeah Fumer de l'herbe me fait plus trop planer Yeah Bourré, j'l'étais, j'n'ai pas fait c'qu'il fallait Bourré d'effets, d'excès de THC Goumer le mec, couché qu'j'viens d'tabasser Yeah Fumer de l'herbe ne sait plus trop m'calmer Yeah Aide ménagère, maman n'sait plus marcher Problèmes lombaires, papa n'sait plus marcher C'truc fout les nerfs depuis quelques années Yeah J'écris des vers car je n'sais plus parler Yeah Récits de chairs par lesquels j'suis passé Au cimetière, père va p't-être y aller J'peux tout faire sauf le laisser s'en aller Yeah J'ai tout fait dans sa gorge, elle s'étouffait Yeah En m'regardant lui dire de n'pas tousser J'suis un enculé, c'est pour ça que j'irai Aux paradis, dadiladili Aux paradis, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili Deux grammes, trois grammes, un joint d'beuh Deux femmes, trois femmes, une seule queue L'ivresse nous presse tard la night Oui Trois grammes, quatre grammes, un joint d'beuh Trois femmes, quatre femmes, une seule queue L'ivresse m'empresse tard la night Yeah Yeah, j'phone une Marie-couche-toi-là qui m'répond pas J'suis sur Paris, suce-moi la tu-sais-bien-quoi J'insulte ton répondeur, j'viens d'affoner mon verre J'veux tes rondeurs, j'ai d'jà pris mon kamagra Inconscient, ma conscience est euthanasiée Manque d'attention, ma semence est d'jà crachée Obsédé par c'que j'possède et possédais Les derniers seront les premiers, c'est pour ça que j'irai Aux paradis, dadiladili Aux paradis, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili3</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Aux paradis</t>
+          <t>Démons</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Demdemdemdem ohohh Ohhoo Ohhoo demdemdemdemdem ohohh Hey C'truc dans les veines depuis quelques années Yeah Fumer de l'herbe me fait plus trop planer Yeah Bourré, j'l'étais, j'n'ai pas fait c'qu'il fallait Bourré d'effets, d'excès de THC Goumer le mec, couché qu'j'viens d'tabasser Yeah Fumer de l'herbe ne sait plus trop m'calmer Yeah Aide ménagère, maman n'sait plus marcher Problèmes lombaires, papa n'sait plus marcher C'truc fout les nerfs depuis quelques années Yeah J'écris des vers car je n'sais plus parler Yeah Récits de chairs par lesquels j'suis passé Au cimetière, père va p't-être y aller J'peux tout faire sauf le laisser s'en aller Yeah J'ai tout fait dans sa gorge, elle s'étouffait Yeah En m'regardant lui dire de n'pas tousser J'suis un enculé, c'est pour ça que j'irai Aux paradis, dadiladili Aux paradis, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili Deux grammes, trois grammes, un joint d'beuh Deux femmes, trois femmes, une seule queue L'ivresse nous presse tard la night Oui Trois grammes, quatre grammes, un joint d'beuh Trois femmes, quatre femmes, une seule queue L'ivresse m'empresse tard la night Yeah Yeah, j'phone une Marie-couche-toi-là qui m'répond pas J'suis sur Paris, suce-moi la tu-sais-bien-quoi J'insulte ton répondeur, j'viens d'affoner mon verre J'veux tes rondeurs, j'ai d'jà pris mon kamagra Inconscient, ma conscience est euthanasiée Manque d'attention, ma semence est d'jà crachée Obsédé par c'que j'possède et possédais Les derniers seront les premiers, c'est pour ça que j'irai Aux paradis, dadiladili Aux paradis, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili Aux paradis J'suis dans l'trou noir, dadiladili3</t>
+          <t>Jusqu'ici, tout va bien, enfin, ça allait Confiante, t'as peur de rien avant de tomber On verra bien demain, mais ça, plus jamais J'ai pas l'air de m'en faire, mais si vous saviez Comment c'est dans ma tête, ça me fait vriller L'angoisse me fait la guerre et part en fumée Jour après jour, je m'habitue À mes ennemis qui me tuent Et j'apprendrai toutes les vertus Oh, jour après jour, je m'habitue Quand j'en attends trop, j'suis déçue Mais grâce à ça, moi, j'évolue Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom, eh-eh-eh Si la magie opère, tous, ils tomberont, eh Eh Comment faire pour tuer mes démons ? Tuer mes démons Mes démons Bah ouais, mes démons Bah, ok Mes démons Bah ouais, mes démons Bah, ok Mes démons Bah ouais, mes démons Bah, ok Mes démons Bang, ah bah ouais J'feat' avec Angèle, pas d'gros mots, radio, faut qu'on passe Ouais Au lieu d'un Nique ta- non, non, j'dirai Grand bien leur fasse Ouais Portefeuille achromate ne voit que violet, vert, ice Moula J'suis dans la zone Hey, rageux me suivent à la trace Comment faire pour tuer les haineux ? Juste en n'en parlant plus Nan Ces faux rappeurs, non, font moins de vues qu'j'ai d'albums vendus Très sincèrement, si je m'en vais, je n'reviendrai plus Ah oui B'soin d'explorer autre chose, me perdre dans le cosmos Ils parlèrent dans mon dos couvert de vêtements chers italiens Ah ouais Dans leur derrière, j'f'rai un don de quelques futurs homo sapiens Ah ouais J'suis l'avatar du game et j'maîtrise les quatre éléments j'rappe, je chante, j'produis, j'écris pour les gens, je sais comment faire pour tuer tes démons Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom, eh-eh-eh Si la magie opère, tous, ils tomberont, eh Eh Comment faire pour tuer mes démons ? Tuer mes démons Comment faire pour tuer mes démons ? Tes démons, tes démons Comme un ange en enfer, j'oublie mon nom, eh-eh-eh No, no Si la magie opère, tous, ils tomberont, eh Eh, ah bah ouais, ah bah ouais Comment faire pour tuer mes démons ? Tuer mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi, mes démons Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom Si la magie opère, tous, ils tomberont Comment faire pour tuer mes démons ? Tuer mes démons Hmm, hmm, hmm, hmm8</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Démons</t>
+          <t>SOLITERRIEN</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Jusqu'ici, tout va bien, enfin, ça allait Confiante, t'as peur de rien avant de tomber On verra bien demain, mais ça, plus jamais J'ai pas l'air de m'en faire, mais si vous saviez Comment c'est dans ma tête, ça me fait vriller L'angoisse me fait la guerre et part en fumée Jour après jour, je m'habitue À mes ennemis qui me tuent Et j'apprendrai toutes les vertus Oh, jour après jour, je m'habitue Quand j'en attends trop, j'suis déçue Mais grâce à ça, moi, j'évolue Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom, eh-eh-eh Si la magie opère, tous, ils tomberont, eh Eh Comment faire pour tuer mes démons ? Tuer mes démons Mes démons Bah ouais, mes démons Bah, ok Mes démons Bah ouais, mes démons Bah, ok Mes démons Bah ouais, mes démons Bah, ok Mes démons Bang, ah bah ouais J'feat' avec Angèle, pas d'gros mots, radio, faut qu'on passe Ouais Au lieu d'un Nique ta- non, non, j'dirai Grand bien leur fasse Ouais Portefeuille achromate ne voit que violet, vert, ice Moula J'suis dans la zone Hey, rageux me suivent à la trace Comment faire pour tuer les haineux ? Juste en n'en parlant plus Nan Ces faux rappeurs, non, font moins de vues qu'j'ai d'albums vendus Très sincèrement, si je m'en vais, je n'reviendrai plus Ah oui B'soin d'explorer autre chose, me perdre dans le cosmos Ils parlèrent dans mon dos couvert de vêtements chers italiens Ah ouais Dans leur derrière, j'f'rai un don de quelques futurs homo sapiens Ah ouais J'suis l'avatar du game et j'maîtrise les quatre éléments j'rappe, je chante, j'produis, j'écris pour les gens, je sais comment faire pour tuer tes démons Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom, eh-eh-eh Si la magie opère, tous, ils tomberont, eh Eh Comment faire pour tuer mes démons ? Tuer mes démons Comment faire pour tuer mes démons ? Tes démons, tes démons Comme un ange en enfer, j'oublie mon nom, eh-eh-eh No, no Si la magie opère, tous, ils tomberont, eh Eh, ah bah ouais, ah bah ouais Comment faire pour tuer mes démons ? Tuer mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi, mes démons Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom Si la magie opère, tous, ils tomberont Comment faire pour tuer mes démons ? Tuer mes démons Hmm, hmm, hmm, hmm8</t>
+          <t>À quoi ressemble le monde six pieds sous terre ? Une autre vie sans chair L'enfer est-il un vice ou une camisole ? De pensées similaire aux mauvais choix liés aux paraîtres Si je pars, autant disparaître pour l'éternité Enterré sous un glaire, dans les tréfonds de l'humanité Absence d'envie de plaire car le corps n'est plus valorisé Est-c'que c'est l'paradis ou juste un monde où on n'sait pas paniquer ? J'sais pas, rien à foutre car au fond, j's'rais jamais vérifié La nuit tombe, des gens meurent La prison des rancurs, l'embryon est en pleurs La raison est son cur La verdure est trop forte, la serrure est sans porte Au fond, c'est juste ma vérité ah ouais ? Des gens qui vivent, meurent sans le mériter ouais Dans un bâtiment, vue sur des grands bâtiments Achetant des p'tits bâtiments pour construire un grand bâtiment C'est ça la vie qu'on veut la vie de rêve, éternel châtiment J'suis tout seul dans ce monde et pourtant perpétuellement entouré Soliterrien, soliterrien, soliterrien Ils disent tous qu'y a d'la maille à s'faire, hein, maille à s'faire, hun, maille à s'faire hun Mais nique sa mère, j'fais c'que j'veux c'que j'veux Même si en vrai, j'sais pas c'que j'veux c'que j'veux J'suis dans les airs, pas dans les cieux oui J'vois en toi, pas dans tes yeux tes yeux Mais nique sa mère, moi, j'fais c'que j'veux Même si en vrai, j'sais pas c'que j'veux J'suis dans les airs, pas dans les cieux J'suis dans ta mère, droit dans les yeux Embouteillages entre ta chatte et moi, jaloux veulent pas qu'on fasse l'amou-ou-our J'te prends en trait d'union entre toi et moi toi et moi Dis-leurs que c'est chacun son tou-ou-our J'ai plus l'temps d'en avoir mais si on croisait nos parts, je parcours l'au delà Sans retours sur mes pages, je contourne le soi disant c'que je n'suis pas Prisonnier de mes peurs, mon subconscient se meurt, mon heure attend mon heure Ma sueur masque mes pleurs, ma bague croisera ton doigt J'sais pas si tu voudras encore de moi, si je pénètre d'autres plastiques Le mensonge n'est qu'une tactique car tes caprices rêvent de bad trip L'adultère n'est qu'une pratique disolation de la trique L'amour est un alambic, filtrant tous les non-dits Soliterrien, soliterrien, soliterrien Ils disent tous qu'y a d'la maille à s'faire hun, maille à s'faire hun, maille à s'faire hun Mais nique sa mère, j'fais c'que j'veux c'que j'veux Même si en vrai, j'sais pas c'que j'veux c'que j'veux J'suis dans les airs, pas dans les cieux oui J'vois en toi, pas dans tes yeux tes yeux Mais nique sa mère, moi, j'fais c'que j'veux Même si en vrai, j'sais pas c'que j'veux J'suis dans les airs, pas dans les cieux J'suis dans ta mère, droit dans les yeux Oui1</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SOLITERRIEN</t>
+          <t>SENTIMENTAL</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>À quoi ressemble le monde six pieds sous terre ? Une autre vie sans chair L'enfer est-il un vice ou une camisole ? De pensées similaire aux mauvais choix liés aux paraîtres Si je pars, autant disparaître pour l'éternité Enterré sous un glaire, dans les tréfonds de l'humanité Absence d'envie de plaire car le corps n'est plus valorisé Est-c'que c'est l'paradis ou juste un monde où on n'sait pas paniquer ? J'sais pas, rien à foutre car au fond, j's'rais jamais vérifié La nuit tombe, des gens meurent La prison des rancurs, l'embryon est en pleurs La raison est son cur La verdure est trop forte, la serrure est sans porte Au fond, c'est juste ma vérité ah ouais ? Des gens qui vivent, meurent sans le mériter ouais Dans un bâtiment, vue sur des grands bâtiments Achetant des p'tits bâtiments pour construire un grand bâtiment C'est ça la vie qu'on veut la vie de rêve, éternel châtiment J'suis tout seul dans ce monde et pourtant perpétuellement entouré Soliterrien, soliterrien, soliterrien Ils disent tous qu'y a d'la maille à s'faire, hein, maille à s'faire, hun, maille à s'faire hun Mais nique sa mère, j'fais c'que j'veux c'que j'veux Même si en vrai, j'sais pas c'que j'veux c'que j'veux J'suis dans les airs, pas dans les cieux oui J'vois en toi, pas dans tes yeux tes yeux Mais nique sa mère, moi, j'fais c'que j'veux Même si en vrai, j'sais pas c'que j'veux J'suis dans les airs, pas dans les cieux J'suis dans ta mère, droit dans les yeux Embouteillages entre ta chatte et moi, jaloux veulent pas qu'on fasse l'amou-ou-our J'te prends en trait d'union entre toi et moi toi et moi Dis-leurs que c'est chacun son tou-ou-our J'ai plus l'temps d'en avoir mais si on croisait nos parts, je parcours l'au delà Sans retours sur mes pages, je contourne le soi disant c'que je n'suis pas Prisonnier de mes peurs, mon subconscient se meurt, mon heure attend mon heure Ma sueur masque mes pleurs, ma bague croisera ton doigt J'sais pas si tu voudras encore de moi, si je pénètre d'autres plastiques Le mensonge n'est qu'une tactique car tes caprices rêvent de bad trip L'adultère n'est qu'une pratique disolation de la trique L'amour est un alambic, filtrant tous les non-dits Soliterrien, soliterrien, soliterrien Ils disent tous qu'y a d'la maille à s'faire hun, maille à s'faire hun, maille à s'faire hun Mais nique sa mère, j'fais c'que j'veux c'que j'veux Même si en vrai, j'sais pas c'que j'veux c'que j'veux J'suis dans les airs, pas dans les cieux oui J'vois en toi, pas dans tes yeux tes yeux Mais nique sa mère, moi, j'fais c'que j'veux Même si en vrai, j'sais pas c'que j'veux J'suis dans les airs, pas dans les cieux J'suis dans ta mère, droit dans les yeux Oui1</t>
+          <t>Love Sentimental Sentimental Yeah Han J'attends qu'il pleuve Que la pluie confonde tes larmes, mes sueurs quand tu parles de nous Yeah Tu fais la gueule Tu t'imaginais qu'un jour, bague en main, j'm'mettrais à genoux Supplie-moi, yeah Mais c'n'est pas si simple, l'amour On se l'dit tous les jours mais c'n'est pas vraiment vrai C'n'est pas si simple, l'amour On se l'dit tous les jours sans forcément s'aimer Sentimental Sentimental, yeah Sentimental, pourquoi c'est si dur de baiser sans s'faire de mal ? Sans s'faire de mal ? Aïe, aïe, aïe Aïe, aïe, aïe, yeah-eh-eh Yeah Love Oh oui, qu'est-c'j'en sais, moi, d'l'amour, sa mère ? Vingt-sept ans qu'j'tourne autour du soleil, pourtant, j'n'ai toujours pas vu la lumière Cinq années qu'on fait qu'se dire Je t'aime, pourtant, toujours pas d'bague à l'annulaire Et puis on s'quitte pour une go Du bisou à la bise, des confidences à minuit, aux simples échanges parentaux Séparation Quitte-moi Et pour ceux qui se disent Oui devant la family puis divorcent pour pas grand-chose Précipitation Doucement Non, c'n'est pas si simple, l'amour No, no On se l'dit tous les jours mais c'n'est pas vraiment vrai Crois-moi Non, c'n'est pas si simple, l'amour No, nan, no On se l'dit tous les jours sans forcément s'aimer Quitte-moi Sentimental Aime-moi, eh, yeah, eh Sentimental, pourquoi c'est si dur, de baiser sans s'faire de mal ? Eh, eh, aime-moi, no, no Sans s'faire de mal ? Quitte-moi, eh, eh Aïe, aïe, aïe Eh, eh Aïe, aïe, aïe, yeah-eh-eh No, no Aïe, aïe, aïe Eh, eh Aïe, aïe, aïe, yeah-eh-eh No, no Yeah, love Eh, eh Sentimental Eh, eh, eh, no, no, no, eh, eh, eh1</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SENTIMENTAL</t>
+          <t>Du mal à te dire</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Love Sentimental Sentimental Yeah Han J'attends qu'il pleuve Que la pluie confonde tes larmes, mes sueurs quand tu parles de nous Yeah Tu fais la gueule Tu t'imaginais qu'un jour, bague en main, j'm'mettrais à genoux Supplie-moi, yeah Mais c'n'est pas si simple, l'amour On se l'dit tous les jours mais c'n'est pas vraiment vrai C'n'est pas si simple, l'amour On se l'dit tous les jours sans forcément s'aimer Sentimental Sentimental, yeah Sentimental, pourquoi c'est si dur de baiser sans s'faire de mal ? Sans s'faire de mal ? Aïe, aïe, aïe Aïe, aïe, aïe, yeah-eh-eh Yeah Love Oh oui, qu'est-c'j'en sais, moi, d'l'amour, sa mère ? Vingt-sept ans qu'j'tourne autour du soleil, pourtant, j'n'ai toujours pas vu la lumière Cinq années qu'on fait qu'se dire Je t'aime, pourtant, toujours pas d'bague à l'annulaire Et puis on s'quitte pour une go Du bisou à la bise, des confidences à minuit, aux simples échanges parentaux Séparation Quitte-moi Et pour ceux qui se disent Oui devant la family puis divorcent pour pas grand-chose Précipitation Doucement Non, c'n'est pas si simple, l'amour No, no On se l'dit tous les jours mais c'n'est pas vraiment vrai Crois-moi Non, c'n'est pas si simple, l'amour No, nan, no On se l'dit tous les jours sans forcément s'aimer Quitte-moi Sentimental Aime-moi, eh, yeah, eh Sentimental, pourquoi c'est si dur, de baiser sans s'faire de mal ? Eh, eh, aime-moi, no, no Sans s'faire de mal ? Quitte-moi, eh, eh Aïe, aïe, aïe Eh, eh Aïe, aïe, aïe, yeah-eh-eh No, no Aïe, aïe, aïe Eh, eh Aïe, aïe, aïe, yeah-eh-eh No, no Yeah, love Eh, eh Sentimental Eh, eh, eh, no, no, no, eh, eh, eh1</t>
+          <t>Hadouken Y a pas d'étrangers, y a juste des gens qui s'connaissent pas Et des gens qui s'connaissent qui sont comme des étrangers On a grandi comme au bled, nos parents, ils s'excusent pas quand ils ont tort, ils nous font à manger Tu voulais démarrer, j'voulais rapper ma vie, tu voulais t'évader, j'voulais la Ferrari J'suis devenu trop dangereux comme le vice de ma rue J'm'en vais pour mieux revenir comme le fils de Marie Alléluia Les p'tits savent même plus penser, comme si les études ça f'sait même plus manger Les thunes, ça m'fait même plus danser Bébé, les nudes ça m'fait même plus bander J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes Benz J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part Yeah-yeah, yeah-yeah, yeah-yeah J'avais des remords quand j'allais voir ailleurs Maintenant, j'ai même plus envie d'toi, j'veux même plus t'soulever J't'ai trompé, donc j'ai tort mais tu n'vois pas l'amour qu'j'avais pour toi avant qu'le temps passe qu'il s'mette à me l'enlever J'grille les feux, couvre-feu, deux heures du mat', complètement bourré J'cherche réconfort derrière un sous-vêtement J'ai du mal à le dire, parce que je t'aime plus qu'dans mes souvenirs L'amour est mort en laissant un testament J'ai baby mama, non J'dis pas qu't'es ma pute mais honnêtement, toi et moi, on n'f'ra pas d'enfants Parce qu'en cas de rupture, il s'ra élevé par autrui J'n'aurai pas la garde, j'devrai juste payer la pension J'connais d'jà la chanson J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes Benz J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part Seille-o, seille-o J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes Benz J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part Vingt milles lieues sous la mer comme si j'tais Ben Laden J'pense pas avec le cur, moi, j'pense avec la tête J'te trouve toujours belle mais juste moins qu'avant Les ignorants sont plus heureux que les savants Oh, oh-oh Ouh-ouh, ouh Oh, oh-oh Ouh, ouh Dormi, dormi Dormi, dormi, ça fait tellement longtemps qu'j'n'ai pas Dormi, dormi Ouh, ouh Personne n'est indispensable Non, personne n'est irremplaçable Personne n'est indispensable Ouh, ouh, personne n'est irremplaçable Oh Si t'as les mauvaises réponses c'est que t'as les mauvaises questions Seigneur, j'me rends même plus compte de mes mensonges Oh my God Mm, you know, I mean Tu ne veux pas changer les gens Tu veux juste changer ta façon de réagir face aux gens Et tout ira mieux6</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Du mal à te dire</t>
+          <t>Τ. CHIALER</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Hadouken Y a pas d'étrangers, y a juste des gens qui s'connaissent pas Et des gens qui s'connaissent qui sont comme des étrangers On a grandi comme au bled, nos parents, ils s'excusent pas quand ils ont tort, ils nous font à manger Tu voulais démarrer, j'voulais rapper ma vie, tu voulais t'évader, j'voulais la Ferrari J'suis devenu trop dangereux comme le vice de ma rue J'm'en vais pour mieux revenir comme le fils de Marie Alléluia Les p'tits savent même plus penser, comme si les études ça f'sait même plus manger Les thunes, ça m'fait même plus danser Bébé, les nudes ça m'fait même plus bander J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes Benz J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part Yeah-yeah, yeah-yeah, yeah-yeah J'avais des remords quand j'allais voir ailleurs Maintenant, j'ai même plus envie d'toi, j'veux même plus t'soulever J't'ai trompé, donc j'ai tort mais tu n'vois pas l'amour qu'j'avais pour toi avant qu'le temps passe qu'il s'mette à me l'enlever J'grille les feux, couvre-feu, deux heures du mat', complètement bourré J'cherche réconfort derrière un sous-vêtement J'ai du mal à le dire, parce que je t'aime plus qu'dans mes souvenirs L'amour est mort en laissant un testament J'ai baby mama, non J'dis pas qu't'es ma pute mais honnêtement, toi et moi, on n'f'ra pas d'enfants Parce qu'en cas de rupture, il s'ra élevé par autrui J'n'aurai pas la garde, j'devrai juste payer la pension J'connais d'jà la chanson J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes Benz J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part Seille-o, seille-o J'ai du mal à te dire c'que j'ai sur le cur, j'me sens mieux quand j'suis au volant d'la Mercedes Benz J'ai du mal à te dire que sans toi, j'peux avancer et sans argent, j'vais nulle part Vingt milles lieues sous la mer comme si j'tais Ben Laden J'pense pas avec le cur, moi, j'pense avec la tête J'te trouve toujours belle mais juste moins qu'avant Les ignorants sont plus heureux que les savants Oh, oh-oh Ouh-ouh, ouh Oh, oh-oh Ouh, ouh Dormi, dormi Dormi, dormi, ça fait tellement longtemps qu'j'n'ai pas Dormi, dormi Ouh, ouh Personne n'est indispensable Non, personne n'est irremplaçable Personne n'est indispensable Ouh, ouh, personne n'est irremplaçable Oh Si t'as les mauvaises réponses c'est que t'as les mauvaises questions Seigneur, j'me rends même plus compte de mes mensonges Oh my God Mm, you know, I mean Tu ne veux pas changer les gens Tu veux juste changer ta façon de réagir face aux gens Et tout ira mieux6</t>
+          <t>Sale Ouais L'alcool brun ne m'fait plus rien, la be-her ne fait plus effet Son vagin ne m'fait plus rien, son derrière ne fait plus effet Oh, j'suis si triste, j'ressens plus grand chose quand tu m'suces la bite Oh, j'suis si triste, j'ressens plus grand chose même quand je gicle J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais L'avenir appartient à Dieu, celui qui se lève tôt, c'est son problème Cur embouteillé, j'ai dème, j'ai plus trop le temps pour les Je t'aime Mon cur est hermétique, pas de filtre, j'récupère et tout ce que j'mérite J'lâche un rictus pendant le feat', l'objectif, c'est la SACEM des Beatles J'laisse des vu à des go plus fraîches que celles qui m'en mettaient à l'époque, à vrai dire, j'ai plus du double dans les poches Putain, quelle époque, j'sais qu'y a quelques faux négros sur quelques tos-ph' T'as le prix de tout, la valeur de rien, elle sait c'quelle fait mais la putain fait sa conne Moi, j'allais en cours, j'm'en battais les reins, j'veux faire du rap, qu'est-ce que j'vais foutre à l'école ? J'vais te faire chialer, j'espère que tu n'm'en voudras pas Je n'm'en voudrai pas pour ma part, avec ton corps, j'fais bande à part Avoue-moi, avoue-moi, bébé, la vie, un trou noir, bébé Y a des gars sournois sûrement sur moi, j'y vais Ma vie ainsi no, ma vie au ciné' J'vais t'faire chialer Eh, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Oh, toutes les larmes de ton corps m'appartiennent désormais Et si on s'bourre juste un peu la gueule ? Qu'on oublie juste pour une fois Les Je t'aime, les On est en couple ? et les problèmes Faut pas toujours vouloir être la seule, faut qu'tu comprennes qu'on s'comprend pas Les prises de tête à cause de schnecks, l'enfer, c'est la vérité perçue trop tard J'te fais du tort sans le vouloir, j'ai la tromperie au bout des doigts Que mon sexe qui touchera l'fond si j'tombe amoureux d'toi Malheureusement, quel enfoiré, j'm'arrête jamais L'alcool brun ne m'fait plus rien Han, la be-her ne fait plus effet Son vagin ne m'fait plus rien Mmh, son derrière ne fait plus effet J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Mmh, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Mmh, toutes les larmes de ton corps m'appartiennent désormais8</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Τ. CHIALER</t>
+          <t>ROSE MARTHE’S LOVE</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sale Ouais L'alcool brun ne m'fait plus rien, la be-her ne fait plus effet Son vagin ne m'fait plus rien, son derrière ne fait plus effet Oh, j'suis si triste, j'ressens plus grand chose quand tu m'suces la bite Oh, j'suis si triste, j'ressens plus grand chose même quand je gicle J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais L'avenir appartient à Dieu, celui qui se lève tôt, c'est son problème Cur embouteillé, j'ai dème, j'ai plus trop le temps pour les Je t'aime Mon cur est hermétique, pas de filtre, j'récupère et tout ce que j'mérite J'lâche un rictus pendant le feat', l'objectif, c'est la SACEM des Beatles J'laisse des vu à des go plus fraîches que celles qui m'en mettaient à l'époque, à vrai dire, j'ai plus du double dans les poches Putain, quelle époque, j'sais qu'y a quelques faux négros sur quelques tos-ph' T'as le prix de tout, la valeur de rien, elle sait c'quelle fait mais la putain fait sa conne Moi, j'allais en cours, j'm'en battais les reins, j'veux faire du rap, qu'est-ce que j'vais foutre à l'école ? J'vais te faire chialer, j'espère que tu n'm'en voudras pas Je n'm'en voudrai pas pour ma part, avec ton corps, j'fais bande à part Avoue-moi, avoue-moi, bébé, la vie, un trou noir, bébé Y a des gars sournois sûrement sur moi, j'y vais Ma vie ainsi no, ma vie au ciné' J'vais t'faire chialer Eh, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Oh, toutes les larmes de ton corps m'appartiennent désormais Et si on s'bourre juste un peu la gueule ? Qu'on oublie juste pour une fois Les Je t'aime, les On est en couple ? et les problèmes Faut pas toujours vouloir être la seule, faut qu'tu comprennes qu'on s'comprend pas Les prises de tête à cause de schnecks, l'enfer, c'est la vérité perçue trop tard J'te fais du tort sans le vouloir, j'ai la tromperie au bout des doigts Que mon sexe qui touchera l'fond si j'tombe amoureux d'toi Malheureusement, quel enfoiré, j'm'arrête jamais L'alcool brun ne m'fait plus rien Han, la be-her ne fait plus effet Son vagin ne m'fait plus rien Mmh, son derrière ne fait plus effet J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Mmh, toutes les larmes de ton corps m'appartiennent désormais J'vais t'faire chialer Mmh, toutes les larmes de ton corps m'appartiennent désormais8</t>
+          <t>Tout pour maman et l'love Tellement de blessures de guerre, tellement de blessures de père en fils J'en connaîtrai que le tiers, douleurs sous la lavallière te crispent De ta chair, t'as fait ma chair, de ma chair, j'ai fait ta chair, mon fiston J'ai peur de foutre la merde, de plus contrôler mes nerfs, je risque God Bless, Hamdoullah, merci, au nom du Père, du Fils Le négro est riche et populaire, en plus, il a pris rendez-vous au FISC Non, jamais je pleure, je cache mes peines, au fond, j'suis triste Dure est la vie dans le game, maman, je fume et je cède aux vices J'suis plus entièrement le même, je crache ma haine, tout l'temps Négro fushia la ramène en mauvaise haleine, doucement Grand-mère est partie, non, sans que je l'ai vue, je suis chagriné Je me rends compte que ma présence valait bien plus que mes billets Ouais Médecin dit C'est la fin, j'le traite de fils de putain, je m'affole Pété, j'sais plus trop quoi faire, j't'imagine six pieds sous terre, je frissonne Papa dit Ça va aller mais ses larmes ont déjà coulé aux urgences J'te dis À demain mais bon, dans ton regard, il n'y a plus de résistance Maman, I love you Eh, maman, I love you, love Love Maman, I love you, love Eh, maman, I love you, love Maman, I love you Eh, maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux Maman, I love you, love Eh, maman, I love you, love Love Maman, I love you, love Eh, maman, I love you, love Maman, I love you, love Eh, maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux J'sais pas pourquoi c'négro m'en veut Nan, nan Quand j'rate, il dit qu'c'est moi, quand j'réussis, il dit qu'c'est Dieu Oui Un million, deux, trois, j'aimerais t'revoir comme autrefois J'suis sur le trottoir, death, espérons qu'c'n'est pas trop tard Pourquoi tu pleures ? Nan, pourquoi tu pleures ? Nan, nan, nan T'inquiète pas pour nous, j'ai d'la moula jusqu'à j'sais pas Moi, à l'hôpital, j'ai vu des amis, t'en avais deux Maman, c'est chaud, tu t'oublies trop pour fils de putes qui n'pensent qu'à eux Le cur adamantin, travaille à temps plein de toi, c'est c'que je retiens Souffle te remplit de haine, journaliste dans le jeu, que dans la complainte Fuck ces gens, oui, j'ai la haine, ton enterrement, faut pas qu'ils viennent Allô ? Fiston ? C'est tantine, on s'connaît d'Adam mais plus dÈve Vilain changé devenu connu, c'était une grande chambre, pas une commune J'vous ai pas vu, non, non, non, pourtant, tout l'monde avait son num' Maintenant, ça crie Dieu soit loué, allez tous vous faire enculer J'te dis À demain aux urgences mais dans ton regard, il n'y a plus de résistance Maman, I love you Eh, Maman, I love you, love Love Maman, I love you, love Eh, Maman, I love you, love Maman, I love you Eh, Maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux Maman, I love you, love Eh, Maman, I love you, love Love Maman, I love you, love Eh, Maman, I love you, love Maman, I love you, love Eh, Maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux5</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ROSE MARTHE’S LOVE</t>
+          <t>Quotidien de baisé</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tout pour maman et l'love Tellement de blessures de guerre, tellement de blessures de père en fils J'en connaîtrai que le tiers, douleurs sous la lavallière te crispent De ta chair, t'as fait ma chair, de ma chair, j'ai fait ta chair, mon fiston J'ai peur de foutre la merde, de plus contrôler mes nerfs, je risque God Bless, Hamdoullah, merci, au nom du Père, du Fils Le négro est riche et populaire, en plus, il a pris rendez-vous au FISC Non, jamais je pleure, je cache mes peines, au fond, j'suis triste Dure est la vie dans le game, maman, je fume et je cède aux vices J'suis plus entièrement le même, je crache ma haine, tout l'temps Négro fushia la ramène en mauvaise haleine, doucement Grand-mère est partie, non, sans que je l'ai vue, je suis chagriné Je me rends compte que ma présence valait bien plus que mes billets Ouais Médecin dit C'est la fin, j'le traite de fils de putain, je m'affole Pété, j'sais plus trop quoi faire, j't'imagine six pieds sous terre, je frissonne Papa dit Ça va aller mais ses larmes ont déjà coulé aux urgences J'te dis À demain mais bon, dans ton regard, il n'y a plus de résistance Maman, I love you Eh, maman, I love you, love Love Maman, I love you, love Eh, maman, I love you, love Maman, I love you Eh, maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux Maman, I love you, love Eh, maman, I love you, love Love Maman, I love you, love Eh, maman, I love you, love Maman, I love you, love Eh, maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux J'sais pas pourquoi c'négro m'en veut Nan, nan Quand j'rate, il dit qu'c'est moi, quand j'réussis, il dit qu'c'est Dieu Oui Un million, deux, trois, j'aimerais t'revoir comme autrefois J'suis sur le trottoir, death, espérons qu'c'n'est pas trop tard Pourquoi tu pleures ? Nan, pourquoi tu pleures ? Nan, nan, nan T'inquiète pas pour nous, j'ai d'la moula jusqu'à j'sais pas Moi, à l'hôpital, j'ai vu des amis, t'en avais deux Maman, c'est chaud, tu t'oublies trop pour fils de putes qui n'pensent qu'à eux Le cur adamantin, travaille à temps plein de toi, c'est c'que je retiens Souffle te remplit de haine, journaliste dans le jeu, que dans la complainte Fuck ces gens, oui, j'ai la haine, ton enterrement, faut pas qu'ils viennent Allô ? Fiston ? C'est tantine, on s'connaît d'Adam mais plus dÈve Vilain changé devenu connu, c'était une grande chambre, pas une commune J'vous ai pas vu, non, non, non, pourtant, tout l'monde avait son num' Maintenant, ça crie Dieu soit loué, allez tous vous faire enculer J'te dis À demain aux urgences mais dans ton regard, il n'y a plus de résistance Maman, I love you Eh, Maman, I love you, love Love Maman, I love you, love Eh, Maman, I love you, love Maman, I love you Eh, Maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux Maman, I love you, love Eh, Maman, I love you, love Love Maman, I love you, love Eh, Maman, I love you, love Maman, I love you, love Eh, Maman, I love you, love Love Maman, I love you, devant Dieu, même si j'dis jamais dans les yeux5</t>
+          <t>Batterie faible, veuillez la recharger Yo, Dems J'suis vraiment pété mon négro, j'suis trop défoncé-é J'ai juste assez d'monnaie pour baiser une prostituée-ée-ée J'm'en vais à rue d'Aerschot solo pour m'faire lécher les couilles lalilalala J'vais niquer sa mère, lui faire r'gretter son métier-er J'ressors de là, moitié à jeun plus rien dans les poches no Avec des souvenirs de moi et ma queue logée dans sa glotte, Dems J'n'ai rien fait de mal, j'suis qu'un jeune négro parmis les tox', oh Parait qu'ça vend de la came, ça fe-sni repu rails de coke Les ruelles ne vivent que de balivernes Trouvent leurs ambitions dans des sanitaires Normal que quand j'vise les cieux, dans les yeux on m'dit carrément Dems tu n'peux pas le faire Complètement félé donc j'réitère Mes rêves sont scellés par des faits divers Les haineux comme les fédéraux veulent ma peau car n'ont pas de flow C'est Damso OPG, le game nous appartient Belgium, t'inquiète, demain c'est nous demain c'est Genius League Ces fils de putain veulent pas qu'on sorte du trou Fuck Mélissa, Julie J'suis posé def' avec un G J'me tape un pure de kush OG Barroudeur vie et j'capte une pucelle que j'rêve de ken depuis Grosse bitch a grosse teub en bouche Donc plus rien à branler Plus rien à branler Grosse bitch a grosse teub en bouche Donc plus rien à branler Plus rien à branler Jeune youv' dans le hood et le mouv' Jeune youv' dans le hood et le mouv' Drogue douce de la Goose à la douze Drogue douce de la Goose à la douze Jeune youv' dans le hood et le mouv' Jeune youv' dans le hood et le mouv' Drogue douce de la Goose à la douze Drogue douce de la Goose à la douze Yeah yeah, ooh ooh oow Jeune youv' dans le hood et le mouv' Yeah yeah, ooh ooh oow Drogue douce de la Goose à la douze J'suis vraiment pété ma négresse, j'suis défoncé, hey J'ai juste assez d'monnaie pour une douze et une gousse effritée Dans un gros sachet, j'suis ce gars suspect Que la police contrôle dans le quartier Comment changer ma mentalité ? Comment changer d'nationalité ? J'suis plus enflammé que Hallyday a l'idée Beuh de qualité, j'tire et j'inhale tout est validé Violent, brutal, une calamité J'suis entre briques et lapidé par une vie salement médiatisée, j'dois tiser Plus sobre depuis une éternité Déf' donc j'peux te dire d'aller t'faire niquer, t'faire niquer Seufs grosses est là prête tapiner pour d'la monnaie Crime maquillé, maquillé Pas d'sensualité, parti de rien, fait lunanimité Très loin des plateaux télés, gros j'viens fumer go pétée Solitaire attitré, j'me fais chier seul dans ce game Tout niquer jamais de chaîne, everyday j'pense à les ken Étriqué nage dans la haine Dems Batterie faible, veuillez la recharger Wooo, wooo, wooo Dems5</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Quotidien de baisé</t>
+          <t>Ρ. DOSE</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Batterie faible, veuillez la recharger Yo, Dems J'suis vraiment pété mon négro, j'suis trop défoncé-é J'ai juste assez d'monnaie pour baiser une prostituée-ée-ée J'm'en vais à rue d'Aerschot solo pour m'faire lécher les couilles lalilalala J'vais niquer sa mère, lui faire r'gretter son métier-er J'ressors de là, moitié à jeun plus rien dans les poches no Avec des souvenirs de moi et ma queue logée dans sa glotte, Dems J'n'ai rien fait de mal, j'suis qu'un jeune négro parmis les tox', oh Parait qu'ça vend de la came, ça fe-sni repu rails de coke Les ruelles ne vivent que de balivernes Trouvent leurs ambitions dans des sanitaires Normal que quand j'vise les cieux, dans les yeux on m'dit carrément Dems tu n'peux pas le faire Complètement félé donc j'réitère Mes rêves sont scellés par des faits divers Les haineux comme les fédéraux veulent ma peau car n'ont pas de flow C'est Damso OPG, le game nous appartient Belgium, t'inquiète, demain c'est nous demain c'est Genius League Ces fils de putain veulent pas qu'on sorte du trou Fuck Mélissa, Julie J'suis posé def' avec un G J'me tape un pure de kush OG Barroudeur vie et j'capte une pucelle que j'rêve de ken depuis Grosse bitch a grosse teub en bouche Donc plus rien à branler Plus rien à branler Grosse bitch a grosse teub en bouche Donc plus rien à branler Plus rien à branler Jeune youv' dans le hood et le mouv' Jeune youv' dans le hood et le mouv' Drogue douce de la Goose à la douze Drogue douce de la Goose à la douze Jeune youv' dans le hood et le mouv' Jeune youv' dans le hood et le mouv' Drogue douce de la Goose à la douze Drogue douce de la Goose à la douze Yeah yeah, ooh ooh oow Jeune youv' dans le hood et le mouv' Yeah yeah, ooh ooh oow Drogue douce de la Goose à la douze J'suis vraiment pété ma négresse, j'suis défoncé, hey J'ai juste assez d'monnaie pour une douze et une gousse effritée Dans un gros sachet, j'suis ce gars suspect Que la police contrôle dans le quartier Comment changer ma mentalité ? Comment changer d'nationalité ? J'suis plus enflammé que Hallyday a l'idée Beuh de qualité, j'tire et j'inhale tout est validé Violent, brutal, une calamité J'suis entre briques et lapidé par une vie salement médiatisée, j'dois tiser Plus sobre depuis une éternité Déf' donc j'peux te dire d'aller t'faire niquer, t'faire niquer Seufs grosses est là prête tapiner pour d'la monnaie Crime maquillé, maquillé Pas d'sensualité, parti de rien, fait lunanimité Très loin des plateaux télés, gros j'viens fumer go pétée Solitaire attitré, j'me fais chier seul dans ce game Tout niquer jamais de chaîne, everyday j'pense à les ken Étriqué nage dans la haine Dems Batterie faible, veuillez la recharger Wooo, wooo, wooo Dems5</t>
+          <t>Money, money dans la pocket Flouze Oui Thug, bandit, tu connais nos vies, la rue, les profits, tout l'champ des possibles Jeune millionnaire, plus dans la bi'-bi', excellent noir comme Carter et Diddy Oui, oui Concert à Tunis, concert à Alger, j'fais l'tour du monde, juste en niquant des madres Oui Détails ont grossi, la street a changé, bonne qualité mais y finit par balancer J'aime pas la police, pour une seule raison, ils ont fait pleurer ma mère à la maison Pourquoi j'suis nerveux ? Pourquoi j'ai fumé ? Pourquoi ma vie devient celle que je voulais ? Stoner, j'défie marie-jeanne le soir, vivre ses rêves en enfer est un cauchemar Ouh Ils ont changé, veulent qu'on fasse semblant de rien, ils m'ont tendu, obligé d'rompre les liens Money, money dans la pocket Ah ouais ? Money, money dans la pocket Pocket, pocket Le flouze, flouze Eh Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés, pourtant, j'ai rien fait d'mauvais Hey Il m'faut ma dose, dose, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Jamais Skrt Hey Yes Skrt Jamais, hey La guedro Nwaar Les réseaux font de nous des prisonniers du r'gard des autres et des évadés Du r'gard des fautes qu'on veut s'épargner, miroir de mots sont trop échangés, tiroir d'égo veut pas s'refermer Calbar en feu, remords reportés, sa mère, j'm'en veux de t'avoir démarré Parfois, c'est mieux d'pas tout réparer La mer en deux va s're-séparer, j'vais la fumer sans la détailler Persuadé d'tout niquer Money, money dans la pocket Ouh Money, money dans la pocket Pocket, pocket Le flouze, flouze Eh Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais, hey Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais, hey Ouh-ouh-ouh-ouh Dis-moi qu'c'est pas moi mais qu'c'est la vie que j'mène Dis-moi qu'c'est pas moi mais qu'c'est la vie que j'mène7</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ρ. DOSE</t>
+          <t>Smeagol</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Money, money dans la pocket Flouze Oui Thug, bandit, tu connais nos vies, la rue, les profits, tout l'champ des possibles Jeune millionnaire, plus dans la bi'-bi', excellent noir comme Carter et Diddy Oui, oui Concert à Tunis, concert à Alger, j'fais l'tour du monde, juste en niquant des madres Oui Détails ont grossi, la street a changé, bonne qualité mais y finit par balancer J'aime pas la police, pour une seule raison, ils ont fait pleurer ma mère à la maison Pourquoi j'suis nerveux ? Pourquoi j'ai fumé ? Pourquoi ma vie devient celle que je voulais ? Stoner, j'défie marie-jeanne le soir, vivre ses rêves en enfer est un cauchemar Ouh Ils ont changé, veulent qu'on fasse semblant de rien, ils m'ont tendu, obligé d'rompre les liens Money, money dans la pocket Ah ouais ? Money, money dans la pocket Pocket, pocket Le flouze, flouze Eh Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés, pourtant, j'ai rien fait d'mauvais Hey Il m'faut ma dose, dose, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Jamais Skrt Hey Yes Skrt Jamais, hey La guedro Nwaar Les réseaux font de nous des prisonniers du r'gard des autres et des évadés Du r'gard des fautes qu'on veut s'épargner, miroir de mots sont trop échangés, tiroir d'égo veut pas s'refermer Calbar en feu, remords reportés, sa mère, j'm'en veux de t'avoir démarré Parfois, c'est mieux d'pas tout réparer La mer en deux va s're-séparer, j'vais la fumer sans la détailler Persuadé d'tout niquer Money, money dans la pocket Ouh Money, money dans la pocket Pocket, pocket Le flouze, flouze Eh Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais, hey Il m'faut ma dose, dose La gue-dro, il m'faut ma dose, dose La gue-dro Ils veulent ma peau, mes lovés La moula, pourtant, j'ai rien fait d'mauvais Jamais, hey Ouh-ouh-ouh-ouh Dis-moi qu'c'est pas moi mais qu'c'est la vie que j'mène Dis-moi qu'c'est pas moi mais qu'c'est la vie que j'mène7</t>
+          <t>Oui La violence, eh Capitol, 92i, nouveau flow très noir Sale Sale, Dems Dems, Vie Vie, oui Oui Eh Eh Négros fragiles dans tes alliés, le poulet m'cuisine, j'le fais mariner Ouais Esthéticienne, j'connais l'métier Ouais scène de crime souvent maquillée Eh RDC, Sapologie Eh, sur la défensive comme un pont-levis Eh J'te mets dans l'boule pour te fortifier Oui, crie pas Au secours, y a pas de justicier Soit je rappe, soit je trap, soit j'sais pas c'que je fais Soit je braque, j'vends des pax dans des sachets de thé Un Tampax dans la chatte, pute n'a pas fait de blé Pas d'entracte dans le track, j'fais d'la saleté, eh Bang, bang J'veux tout dépenser, j'prends de court ton point G, porno très séquencé Sale Chez moi, tout est foncé, j'suis là pour défoncer tout le rap français Ouais Trente-quatre centimes, j'débutais en indé', t'es pas d'ma team si t'es pas d'TP Mazembé J'parle à la Lune comme Indochine, dans ma bulle, y a pas d'ocytocine No Je le strangule puis, j'attends qu'il meurt, négro, après, j'l'encule avec un taser, négro Elle tapine pour cinquante eu' l'heure, négro, dans la cabine, je n'fais pas d'erreur, négro Shh, shh Sur ses babines, y a blanche couleur, négro Eh, ma mélanine ne craint pas la douleur, négro Non Dans mes racines, y a tout Mayweather, négro Eh Amphétamine ne remplace jamais bon bédo, no Eh Schnecks de 'tasses dans mon iCloud Eh 'teille de Jack, mon seul alcool EH Sont pas de taille pour nouvel album comme Smeagol Gollum, Gollum Smeagol Gollum, Gollum, Smeagol Gollum, Gollum Sont pas de taille pour nouvel album comme Smeagol Gollum, Gollum Smeagol Gollum, Gollum, Smeagol Gollum, Gollum Sont pas de taille pour nouvel album comme Smeagol Dems Dems Vie Vie Batterie rechargée10</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Smeagol</t>
+          <t>Ω. VIVRE UN PEU</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Oui La violence, eh Capitol, 92i, nouveau flow très noir Sale Sale, Dems Dems, Vie Vie, oui Oui Eh Eh Négros fragiles dans tes alliés, le poulet m'cuisine, j'le fais mariner Ouais Esthéticienne, j'connais l'métier Ouais scène de crime souvent maquillée Eh RDC, Sapologie Eh, sur la défensive comme un pont-levis Eh J'te mets dans l'boule pour te fortifier Oui, crie pas Au secours, y a pas de justicier Soit je rappe, soit je trap, soit j'sais pas c'que je fais Soit je braque, j'vends des pax dans des sachets de thé Un Tampax dans la chatte, pute n'a pas fait de blé Pas d'entracte dans le track, j'fais d'la saleté, eh Bang, bang J'veux tout dépenser, j'prends de court ton point G, porno très séquencé Sale Chez moi, tout est foncé, j'suis là pour défoncer tout le rap français Ouais Trente-quatre centimes, j'débutais en indé', t'es pas d'ma team si t'es pas d'TP Mazembé J'parle à la Lune comme Indochine, dans ma bulle, y a pas d'ocytocine No Je le strangule puis, j'attends qu'il meurt, négro, après, j'l'encule avec un taser, négro Elle tapine pour cinquante eu' l'heure, négro, dans la cabine, je n'fais pas d'erreur, négro Shh, shh Sur ses babines, y a blanche couleur, négro Eh, ma mélanine ne craint pas la douleur, négro Non Dans mes racines, y a tout Mayweather, négro Eh Amphétamine ne remplace jamais bon bédo, no Eh Schnecks de 'tasses dans mon iCloud Eh 'teille de Jack, mon seul alcool EH Sont pas de taille pour nouvel album comme Smeagol Gollum, Gollum Smeagol Gollum, Gollum, Smeagol Gollum, Gollum Sont pas de taille pour nouvel album comme Smeagol Gollum, Gollum Smeagol Gollum, Gollum, Smeagol Gollum, Gollum Sont pas de taille pour nouvel album comme Smeagol Dems Dems Vie Vie Batterie rechargée10</t>
+          <t>Papa, je t'aime Oh, oh, c'est mignon Pardon, papa Ah-ah, c'est bien, Lior On va...On va l'appeler, hein ? Euh... j'vais essayer d'l'appeler mais il est occupé, hein Ouh, yeah Avant tout ça, j'tais bien mais j'regrette pas c'que j'ai Peut-être, un petit peu, tout quitter, vivre un peu Brr Moins en moins d'amitiés, pour plus de revenus Yeah Les bons moments sont rares dans la célébrité Avant tout ça, j'tais bien mais j'regrette pas c'que j'ai Eh Peut-être, un petit peu, tout quitter, vivre un peu Yeah Moins en moins d'amitiés, pour plus de revenus Eh Les bons moments sont rares dans la célébrité Ouh Oui, oui Yeah, yeah J'ai perdu sommeil Pa-pa-pa-pah, mes nuits se font le jour, mon train de vie dans les hôtels Et dire qu'avant, j'tais sur un banc, j'fumais des bédos Maintenant riche et parano, ouais, j'deviens méfiant quand j'la baise Elle tue ta carrière pour une photo dans ton sommeil Le succès n'est qu'un simple reflet, pas un modèle Emprisonné dans un selfie, idolâtré pour c'que j'suis Sans pour autant voir que ma vie n'est pas si jolie, c'pas un movie Solitude et lassitude en soirée mondaine Je ne crois plus au tribunal mais à la guerre, on n'change pas une équipe qui gagne sauf, quand elle perd Y a plus d'innocence, t'étais conscient, j't'ai fait confiance Malgré tensions, le bruit sourd du silencieux s'ra dans la tête Avant tout ça, j'tais bien Oui mais j'regrette pas c'que j'ai Peut-être, un petit peu, tout quitter, vivre un peu Moins en moins d'amitiés, pour plus de revenus Les bons moments sont rares Sale, dans la célébrité Nwaar Avant tout ça, j'tais bien, mais j'regrette pas c'que j'ai Peut-être, un petit peu Oui, tout quitter, vivre un peu Nwaar Moins en moins d'amitiés, pour plus de revenus Les bons moments sont rares dans la célébrité Sale C'est très bizarre quand tu d'viens plus riche que les gens On ne te voit plus que comme une solution Décolleté, matérialiste, névrosé au bord de la crise, endetté sans réelle prise de risque Perdu dans mes pensées, paralysé, j'encaisse J'prends la parole sur un disque Rosé dans le rre-vé, plongé dans la richesse, la célébrité n'a pas d'notice J'ai vu la Terre reprendre tous mes êtres chers, la mort a fait de moi son complice Coincé par la moula, pas le cur à la fête, j'pense pas qu'on est fait pour la vie Jamais rassasié, toujours retardé, je vis si tard que le jour me parut Si loin que j'oublie que je viens d'en bas comme un Néerlandais Le bruit des vagues me permet de fuir le monde le temps d'un verre Le seul prix de vivre ses rêves Avant tout ça j'tais bien, mais j'regrette pas c'que j'ai Peut-être un petit peu, tout quitter, vivre un peu Moins en moins d'amitiés, pour plus de revenus Les bons moments sont rares dans la célébrité Avant tout ça j'étais bien, mais je n'regrette pas c'que j'ai Peut-être un petit peu, tout quitter, vivre un peu Moins en moins d'amitiés Ah oui, pour plus de revenus Sale Les bons moments sont rares Dems dans la célébrité Oui, sale Ouais ORP, tu connais On va l'appeler, hein ? Sale Ah oui2</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ω. VIVRE UN PEU</t>
+          <t>Tard la night</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Papa, je t'aime Oh, oh, c'est mignon Pardon, papa Ah-ah, c'est bien, Lior On va...On va l'appeler, hein ? Euh... j'vais essayer d'l'appeler mais il est occupé, hein Ouh, yeah Avant tout ça, j'tais bien mais j'regrette pas c'que j'ai Peut-être, un petit peu, tout quitter, vivre un peu Brr Moins en moins d'amitiés, pour plus de revenus Yeah Les bons moments sont rares dans la célébrité Avant tout ça, j'tais bien mais j'regrette pas c'que j'ai Eh Peut-être, un petit peu, tout quitter, vivre un peu Yeah Moins en moins d'amitiés, pour plus de revenus Eh Les bons moments sont rares dans la célébrité Ouh Oui, oui Yeah, yeah J'ai perdu sommeil Pa-pa-pa-pah, mes nuits se font le jour, mon train de vie dans les hôtels Et dire qu'avant, j'tais sur un banc, j'fumais des bédos Maintenant riche et parano, ouais, j'deviens méfiant quand j'la baise Elle tue ta carrière pour une photo dans ton sommeil Le succès n'est qu'un simple reflet, pas un modèle Emprisonné dans un selfie, idolâtré pour c'que j'suis Sans pour autant voir que ma vie n'est pas si jolie, c'pas un movie Solitude et lassitude en soirée mondaine Je ne crois plus au tribunal mais à la guerre, on n'change pas une équipe qui gagne sauf, quand elle perd Y a plus d'innocence, t'étais conscient, j't'ai fait confiance Malgré tensions, le bruit sourd du silencieux s'ra dans la tête Avant tout ça, j'tais bien Oui mais j'regrette pas c'que j'ai Peut-être, un petit peu, tout quitter, vivre un peu Moins en moins d'amitiés, pour plus de revenus Les bons moments sont rares Sale, dans la célébrité Nwaar Avant tout ça, j'tais bien, mais j'regrette pas c'que j'ai Peut-être, un petit peu Oui, tout quitter, vivre un peu Nwaar Moins en moins d'amitiés, pour plus de revenus Les bons moments sont rares dans la célébrité Sale C'est très bizarre quand tu d'viens plus riche que les gens On ne te voit plus que comme une solution Décolleté, matérialiste, névrosé au bord de la crise, endetté sans réelle prise de risque Perdu dans mes pensées, paralysé, j'encaisse J'prends la parole sur un disque Rosé dans le rre-vé, plongé dans la richesse, la célébrité n'a pas d'notice J'ai vu la Terre reprendre tous mes êtres chers, la mort a fait de moi son complice Coincé par la moula, pas le cur à la fête, j'pense pas qu'on est fait pour la vie Jamais rassasié, toujours retardé, je vis si tard que le jour me parut Si loin que j'oublie que je viens d'en bas comme un Néerlandais Le bruit des vagues me permet de fuir le monde le temps d'un verre Le seul prix de vivre ses rêves Avant tout ça j'tais bien, mais j'regrette pas c'que j'ai Peut-être un petit peu, tout quitter, vivre un peu Moins en moins d'amitiés, pour plus de revenus Les bons moments sont rares dans la célébrité Avant tout ça j'étais bien, mais je n'regrette pas c'que j'ai Peut-être un petit peu, tout quitter, vivre un peu Moins en moins d'amitiés Ah oui, pour plus de revenus Sale Les bons moments sont rares Dems dans la célébrité Oui, sale Ouais ORP, tu connais On va l'appeler, hein ? Sale Ah oui2</t>
+          <t>Stone de flanc, Hennessy Hennessy, Hennessy, Hennessy Stone de flanc, Hennessy, Hennessy, Hennessy Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night Caïpirinha, marijuana, fons-dé, Copa Caba', 'pa Cabana, olé Mal au cur, j'ai mal au cur, j'suis doré Baroudeur, j'suis baroudeur, j'suis bourré J'suis plus dans l'bendo, j'fais qu'd'la moula tard la night, olé Elle m'roule un bédo d'chez pas où là, ouais, j'suis high, ok Hennessy, Hennessy, Hennessy Stone de flanc, frénésie, frénésie, frénésie Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night, olé Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night, olé Caïpirinha, marijuana, fons-dé, Copa Caba', 'pa Cabana, olé Mal au cur, j'ai mal au cur, j'suis doré Baroudeur, j'suis baroudeur, j'suis bourré J'suis plus dans l'bendo, j'fais qu'd'la moula tard la night, olé Elle m'roule un bédo d'chez pas où là, ouais, j'suis high, ok Olé4</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tard la night</t>
+          <t>J’avais juste envie d’écrire.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Stone de flanc, Hennessy Hennessy, Hennessy, Hennessy Stone de flanc, Hennessy, Hennessy, Hennessy Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night Caïpirinha, marijuana, fons-dé, Copa Caba', 'pa Cabana, olé Mal au cur, j'ai mal au cur, j'suis doré Baroudeur, j'suis baroudeur, j'suis bourré J'suis plus dans l'bendo, j'fais qu'd'la moula tard la night, olé Elle m'roule un bédo d'chez pas où là, ouais, j'suis high, ok Hennessy, Hennessy, Hennessy Stone de flanc, frénésie, frénésie, frénésie Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night, olé Bédo, spliff au bec, sombre négro, schnek fons-dé tard la night, olé Caïpirinha, marijuana, fons-dé, Copa Caba', 'pa Cabana, olé Mal au cur, j'ai mal au cur, j'suis doré Baroudeur, j'suis baroudeur, j'suis bourré J'suis plus dans l'bendo, j'fais qu'd'la moula tard la night, olé Elle m'roule un bédo d'chez pas où là, ouais, j'suis high, ok Olé4</t>
+          <t>Yo Ha, ha, ha Ok, ouais J'te préfère avec une balle dans la tête au moins j't'écouterai plus raconter ta vie Un col blanc veut pas dire qu't'es un mec bien des pédophiles s'cachent derrière l'eucharistie C'que j'aime chez la mort c'est qu'elle ment pas elle voit un truc qu'elle aime bien, elle prend et elle le rend pas Bav du crapaud atteignant colombe, les politiqus ont fini par faire du virus leur campagne J'rêve qu'j'suis Adam, qu'j'baise Ève dans un paradis où l'seul péché est d'manger un fruit Des millénaires plus tard, des Elon, des Bezos finissent par imposer leurs prix Faites de la place pour mon rap c'est tout droit, j'ai les partitions, des gyrophares et des sirènes Si j'baise une pute, est-ce que j'te trompe ou pas ? Mon âme est sincère mais mon corps est infidèle J'te f'rai un Vie même à deux doigts d'mourir, mon avenir n'a prévu aucun décès, gang J'suis tellement loin que même les bruits qui courent se sont arrêtés, Dems La voix de la sagesse est muette, elle parle en langage des signes Je distingue un majeur qui traverse un rond fait d'un pouce et d'un index qui s'agglutinent J'ai vu dans ton regard ce que les gens appellent Néant Un adieu à chaque au revoir Désolé du retard J'ai mis du temps dans les océans à noyer ton désespoir Les narines enflées par substance faisant ressurgir ce sentiment d'être une pute qui n'sait pas c'qu'elle fait sur le trottoir Il n'y a pas assez d'essence dans l'réservoir pour aller jusqu'au bout de tes peines car elles se cachent derrière ton miroir Vie Poésie, poésie, poésie, trou noir11</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>J’avais juste envie d’écrire.</t>
+          <t>Χ. ZWAAR</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Yo Ha, ha, ha Ok, ouais J'te préfère avec une balle dans la tête au moins j't'écouterai plus raconter ta vie Un col blanc veut pas dire qu't'es un mec bien des pédophiles s'cachent derrière l'eucharistie C'que j'aime chez la mort c'est qu'elle ment pas elle voit un truc qu'elle aime bien, elle prend et elle le rend pas Bav du crapaud atteignant colombe, les politiqus ont fini par faire du virus leur campagne J'rêve qu'j'suis Adam, qu'j'baise Ève dans un paradis où l'seul péché est d'manger un fruit Des millénaires plus tard, des Elon, des Bezos finissent par imposer leurs prix Faites de la place pour mon rap c'est tout droit, j'ai les partitions, des gyrophares et des sirènes Si j'baise une pute, est-ce que j'te trompe ou pas ? Mon âme est sincère mais mon corps est infidèle J'te f'rai un Vie même à deux doigts d'mourir, mon avenir n'a prévu aucun décès, gang J'suis tellement loin que même les bruits qui courent se sont arrêtés, Dems La voix de la sagesse est muette, elle parle en langage des signes Je distingue un majeur qui traverse un rond fait d'un pouce et d'un index qui s'agglutinent J'ai vu dans ton regard ce que les gens appellent Néant Un adieu à chaque au revoir Désolé du retard J'ai mis du temps dans les océans à noyer ton désespoir Les narines enflées par substance faisant ressurgir ce sentiment d'être une pute qui n'sait pas c'qu'elle fait sur le trottoir Il n'y a pas assez d'essence dans l'réservoir pour aller jusqu'au bout de tes peines car elles se cachent derrière ton miroir Vie Poésie, poésie, poésie, trou noir11</t>
+          <t>Nwaar Ah bah oui Ouais Sale, eh-eh Hey J'voyage rarement, j'regarde story, quelques biatchs pour m'évader Début d'soirée j'suis d'jà bourré, c'est p't-être pas ça la vie qu'j'voulais Mais j'fais des sous et d'la moula, donc ses lèvres me sucent à tout va Pas d'amour ici, j't'entretiens, j'te baise, c'est fifty-fifty, tu veux l'jet De Fendi, Gucci, attends qu'la SNEP me certifie Meilleure passion, pire des métiers, pas d'glaçons dans l'rre-ve, s'te plait L'alcool fait d'jà plus trop d'effet, l'alcool fait d'jà plus trop d'effet J'suis dans l'tiekson, fumant tout seul, j'prends mon pacson pour une boussole J'suis dans l'club, la pute me Snap en scred, pour gratter quelques j'aime, deux-trois retweets Mal à pris son pass, tire mon blaze comme mon jet, avide comme snitch Invincible car serein, un insigne, j'passe mon chemin, devant les flics La pute est londonienne, demande si j'parle anglais, j'dis Little, bitch Kalash remplace le tronc du sapin d'Noël, rien dans les mollets, tout dans la cervelle Bang, bang, j't'offre une place près de l'Éternel, sunday, sur l'Mont Vénus, je fais merveille All day, Sénégalais comme Cheikh, semi AK dans l'break Diamants de sang sur la Daytona, quand ça va pas j'fais des signes de croix Dems, Dems, Dems Okay, binks, binks, binks dans le tieks, tieks, tiekson Grrr, gros C4 dans le break Ta-ga-da Binks, binks, binks dans le tieks, tieks, tiekson Grrr, gros C4 dans le break Dans le hood, hood-hood-hood-hood Dans le hood, hood-hood-hood-hood Dans le hood, hood-hood-hood-hood Grrr, grrr, gros C4 dans le break Okay Nwaar Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nique sa grand-mère et sa mère aussi, fuck you pay me Tellement d'ennemis, j'suis au-dessus d'tout c'qui est nwaar et terni Dou-dou-dou Bentley berline, vroum-vroum vers la mort sans permis Police persiste, négro, dealeur, Audi RS6 J'suis un étranger, j'rentre pas chez moi, j'm'installe chez toi J'fais du she-ca, j'paie mes impôts, trente mille euros, tu profites d'mon bénéfice Viens qu'on s'termine, j'suis sous Dom Pér', gue-dro, Hennessy Pas de pré-requis, soit tu baises, soit tu baises aussi Fuck le rétro, j'avance tout droit, number uno avec mes droits Négro ficha, tricha, tout ça pour pouvoir gonfler les chiffres J'passe sur France 2, j'gagne les Victoires, j'nique des mères et des ménagères Producteur en indépendant Nwaar, nwaar, j'profite de mes bénéfices Nwaar, nwaar, nwaar, nwaar, nwaar Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey9</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Χ. ZWAAR</t>
+          <t>Étranger</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Nwaar Ah bah oui Ouais Sale, eh-eh Hey J'voyage rarement, j'regarde story, quelques biatchs pour m'évader Début d'soirée j'suis d'jà bourré, c'est p't-être pas ça la vie qu'j'voulais Mais j'fais des sous et d'la moula, donc ses lèvres me sucent à tout va Pas d'amour ici, j't'entretiens, j'te baise, c'est fifty-fifty, tu veux l'jet De Fendi, Gucci, attends qu'la SNEP me certifie Meilleure passion, pire des métiers, pas d'glaçons dans l'rre-ve, s'te plait L'alcool fait d'jà plus trop d'effet, l'alcool fait d'jà plus trop d'effet J'suis dans l'tiekson, fumant tout seul, j'prends mon pacson pour une boussole J'suis dans l'club, la pute me Snap en scred, pour gratter quelques j'aime, deux-trois retweets Mal à pris son pass, tire mon blaze comme mon jet, avide comme snitch Invincible car serein, un insigne, j'passe mon chemin, devant les flics La pute est londonienne, demande si j'parle anglais, j'dis Little, bitch Kalash remplace le tronc du sapin d'Noël, rien dans les mollets, tout dans la cervelle Bang, bang, j't'offre une place près de l'Éternel, sunday, sur l'Mont Vénus, je fais merveille All day, Sénégalais comme Cheikh, semi AK dans l'break Diamants de sang sur la Daytona, quand ça va pas j'fais des signes de croix Dems, Dems, Dems Okay, binks, binks, binks dans le tieks, tieks, tiekson Grrr, gros C4 dans le break Ta-ga-da Binks, binks, binks dans le tieks, tieks, tiekson Grrr, gros C4 dans le break Dans le hood, hood-hood-hood-hood Dans le hood, hood-hood-hood-hood Dans le hood, hood-hood-hood-hood Grrr, grrr, gros C4 dans le break Okay Nwaar Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nique sa grand-mère et sa mère aussi, fuck you pay me Tellement d'ennemis, j'suis au-dessus d'tout c'qui est nwaar et terni Dou-dou-dou Bentley berline, vroum-vroum vers la mort sans permis Police persiste, négro, dealeur, Audi RS6 J'suis un étranger, j'rentre pas chez moi, j'm'installe chez toi J'fais du she-ca, j'paie mes impôts, trente mille euros, tu profites d'mon bénéfice Viens qu'on s'termine, j'suis sous Dom Pér', gue-dro, Hennessy Pas de pré-requis, soit tu baises, soit tu baises aussi Fuck le rétro, j'avance tout droit, number uno avec mes droits Négro ficha, tricha, tout ça pour pouvoir gonfler les chiffres J'passe sur France 2, j'gagne les Victoires, j'nique des mères et des ménagères Producteur en indépendant Nwaar, nwaar, j'profite de mes bénéfices Nwaar, nwaar, nwaar, nwaar, nwaar Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey Nwaar Hey, nwaar Hey, nwaar Hey, très nwaar Hey9</t>
+          <t>Tout est possible avec un CEB Ouais Ouais, c'est bon Gangster arrête que si police l'arrête Oui On tire, on guette, on passe quelques barrettes Oui Suce-moi jusqu'à c'que blancheur apparaisse Sur l'poignet, le prix d'une McLaren d'occasion Ganglion enflammé, jamais ne s'arrête Oui Les va-et-vient, de beuh, de shit, de cyprine de chatte faisant que mouiller Pour moula, un vieux sachet d'cocaïn pas net Vierge Pétard, ds coups d'feu, gros, j'ai grandi avec Le mal-être manque de tendresse depuis qu'elle m'allaite Dans la mallette, j'ai gemmes, Million, G Oui Tout est possible avec un CEB, pas brillant j'étais unilingue Mais j'ai qu'une parole, c'est celle du canon, bang, bang Mouvement des phalanges, j'compte t'allonger Urinoir empeste l'alcool, la déf d'hier était dure Mes négros sur des tasses-pé ayant du mal à se ranger Toujours un sale nègre qu'ils pensent de moi, rien n'a changé À part ma conso' du dix grammes au 100 G' J'prends du recul et j'vis, confinement donc j'fais l'tri Entre fils de pute et tous ceux qui m'aiment pour ce que j'suis Dans le hood avec mon Hennessy, un quartier d'bourges J'bois en bas d'chez moi mais j'reste un étranger En bas d'chez moi mais j'reste un étranger En bas d'chez moi Wach sme3ti?! Sme3ti a zebbi wella la 3 snine a l9lawi w 7na kheddamine f had l'album W kangoulo ma ndiro ta 9elwa W bnadem baghi yherres, wella ma3rft ach baghi yekhtare3 Walakin aslan, lkhedma lm9owda hya li kathder machi bnadem Sel3a f adhésif bénef fel plateau Galbi datou l'mezzika w khellat l bba lbateau M3ani t9ila dagga fle7mi, w nta katgoulli tattoo Dakhel l'maine-do f yeddi marteau B9it ta 7e9e9t zamel boha dik 7elmetAdo Mes revenus ga3ma ghada gha f mes pétards Bo7di mssari tout mes gars, 3endna koulchi 7a9 fel gâteau Gdami kayen chi rwappa dayra grand écart Mor l'album li baghi ytgha anssift lih zebbi f papier cadeau F'rap marroki j'excelle Bdina b'ta 9elwa, zéro E, zero vu, zéro pixel Dorka ça fume la dose ta3 Meuda f azi9at BXL C'est Dems Dems, Double To men BNJ tal Ixelles Speed comme Dybala, RD Belvédère Hermano f derbi b ta chi CV daym Je défonce la gravité même sans la conso ça rap everyday Tema la qualité, ki bghiti ngoullik oui c'est ton CDD Bedav la qualité, ki bghiti ngoullik ouil ta CBD yah Sa7bi toute ma vida 3echtha ki chi mzayda Wast l comico, rah ga3ma ngoullik hedra zayda Ra wakha nbraki banka w nfout ga3 l'bleyda Ghatb9a tna3et fiya jara, w tgoulli yakma chi blédard Wakha étranger To ga3ma kis3a ta khayna Wast la Guala 7at lkwala l 9ahwiya wel bayda C'est BNJ The Vie Kinshasa Dar El Bayda We9ti ghali ga3ma ndey3o la ma kantch lfayda Oh yeah, yeah En bas de chez moi mais je reste un étranger Oh yeah, yeah En bas de chez moi mais je reste un étranger Oh yeah, yeah En bas de chez moi mais je reste un étranger Oh yeah, yeah En bas de chez moi mais je reste un étranger Eh!4</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Étranger</t>
+          <t>POUR L’ARGENT</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Tout est possible avec un CEB Ouais Ouais, c'est bon Gangster arrête que si police l'arrête Oui On tire, on guette, on passe quelques barrettes Oui Suce-moi jusqu'à c'que blancheur apparaisse Sur l'poignet, le prix d'une McLaren d'occasion Ganglion enflammé, jamais ne s'arrête Oui Les va-et-vient, de beuh, de shit, de cyprine de chatte faisant que mouiller Pour moula, un vieux sachet d'cocaïn pas net Vierge Pétard, ds coups d'feu, gros, j'ai grandi avec Le mal-être manque de tendresse depuis qu'elle m'allaite Dans la mallette, j'ai gemmes, Million, G Oui Tout est possible avec un CEB, pas brillant j'étais unilingue Mais j'ai qu'une parole, c'est celle du canon, bang, bang Mouvement des phalanges, j'compte t'allonger Urinoir empeste l'alcool, la déf d'hier était dure Mes négros sur des tasses-pé ayant du mal à se ranger Toujours un sale nègre qu'ils pensent de moi, rien n'a changé À part ma conso' du dix grammes au 100 G' J'prends du recul et j'vis, confinement donc j'fais l'tri Entre fils de pute et tous ceux qui m'aiment pour ce que j'suis Dans le hood avec mon Hennessy, un quartier d'bourges J'bois en bas d'chez moi mais j'reste un étranger En bas d'chez moi mais j'reste un étranger En bas d'chez moi Wach sme3ti?! Sme3ti a zebbi wella la 3 snine a l9lawi w 7na kheddamine f had l'album W kangoulo ma ndiro ta 9elwa W bnadem baghi yherres, wella ma3rft ach baghi yekhtare3 Walakin aslan, lkhedma lm9owda hya li kathder machi bnadem Sel3a f adhésif bénef fel plateau Galbi datou l'mezzika w khellat l bba lbateau M3ani t9ila dagga fle7mi, w nta katgoulli tattoo Dakhel l'maine-do f yeddi marteau B9it ta 7e9e9t zamel boha dik 7elmetAdo Mes revenus ga3ma ghada gha f mes pétards Bo7di mssari tout mes gars, 3endna koulchi 7a9 fel gâteau Gdami kayen chi rwappa dayra grand écart Mor l'album li baghi ytgha anssift lih zebbi f papier cadeau F'rap marroki j'excelle Bdina b'ta 9elwa, zéro E, zero vu, zéro pixel Dorka ça fume la dose ta3 Meuda f azi9at BXL C'est Dems Dems, Double To men BNJ tal Ixelles Speed comme Dybala, RD Belvédère Hermano f derbi b ta chi CV daym Je défonce la gravité même sans la conso ça rap everyday Tema la qualité, ki bghiti ngoullik oui c'est ton CDD Bedav la qualité, ki bghiti ngoullik ouil ta CBD yah Sa7bi toute ma vida 3echtha ki chi mzayda Wast l comico, rah ga3ma ngoullik hedra zayda Ra wakha nbraki banka w nfout ga3 l'bleyda Ghatb9a tna3et fiya jara, w tgoulli yakma chi blédard Wakha étranger To ga3ma kis3a ta khayna Wast la Guala 7at lkwala l 9ahwiya wel bayda C'est BNJ The Vie Kinshasa Dar El Bayda We9ti ghali ga3ma ndey3o la ma kantch lfayda Oh yeah, yeah En bas de chez moi mais je reste un étranger Oh yeah, yeah En bas de chez moi mais je reste un étranger Oh yeah, yeah En bas de chez moi mais je reste un étranger Oh yeah, yeah En bas de chez moi mais je reste un étranger Eh!4</t>
+          <t>Ouais, ouais Ouais, ouais Ouais, ouais Dems Pona níni ozo bwaka mauvais il ojalouser nga Nazali mwana na nzambe loin de haine et vanité Ko tsia ba kales te, puissance céleste vaincra toujours Motema sans rature, malgré tant d'adversité Soldat na Yahwé eh Jamais ba vaincra Mwana mbóka, jamais dans les sentiments, ba yuma, ba vagabonds Président charlatan, bazo bebisa continent fort Pona níni, yeah Juste pour l'argent Yeah, yeah, yeah Pona níni, yeah Juste pour l'argent Yeah, yeah, yeah J'ai un peu peur, j't'avoue Ok, j'm'attaque aux gros bonnets Ouais J'parle Bukavu, Kivu dans l'Est, la misère a charbonné C'est clair La galère a fait du chmin Ah ouais car hier a tué demain Dems Bédo dans l sang, négros dans les champs sont toujours à crever de faim Ah ouais Ici, pas de aïe, aïe car on tire dans la tête, c'est nwaar, c'est sale Rha On abuse du temps, ils abusent des femmes et j't'épargne de tous les détails Ce que j'ai vu dépasse les flammes, l'enfer a menti Du Alpha Blondy, j'écoute pas c'qu'on dit, j'observe la mer et ses vagues Pona níni, yeah Juste pour l'argent Yeah, yeah, yeah Pona níni, yeah Juste pour l'argent Juste pour l'argent yeah, yeah, yeah Makélélé, bazo sala La pauvreté, bazo tala Na lingaka te, nazo lela nase depuis kala Congo, Afrika, tout pour la moula Pour l'argent Pour l'argent3</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>POUR L’ARGENT</t>
+          <t>But en or</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Ouais, ouais Ouais, ouais Ouais, ouais Dems Pona níni ozo bwaka mauvais il ojalouser nga Nazali mwana na nzambe loin de haine et vanité Ko tsia ba kales te, puissance céleste vaincra toujours Motema sans rature, malgré tant d'adversité Soldat na Yahwé eh Jamais ba vaincra Mwana mbóka, jamais dans les sentiments, ba yuma, ba vagabonds Président charlatan, bazo bebisa continent fort Pona níni, yeah Juste pour l'argent Yeah, yeah, yeah Pona níni, yeah Juste pour l'argent Yeah, yeah, yeah J'ai un peu peur, j't'avoue Ok, j'm'attaque aux gros bonnets Ouais J'parle Bukavu, Kivu dans l'Est, la misère a charbonné C'est clair La galère a fait du chmin Ah ouais car hier a tué demain Dems Bédo dans l sang, négros dans les champs sont toujours à crever de faim Ah ouais Ici, pas de aïe, aïe car on tire dans la tête, c'est nwaar, c'est sale Rha On abuse du temps, ils abusent des femmes et j't'épargne de tous les détails Ce que j'ai vu dépasse les flammes, l'enfer a menti Du Alpha Blondy, j'écoute pas c'qu'on dit, j'observe la mer et ses vagues Pona níni, yeah Juste pour l'argent Yeah, yeah, yeah Pona níni, yeah Juste pour l'argent Juste pour l'argent yeah, yeah, yeah Makélélé, bazo sala La pauvreté, bazo tala Na lingaka te, nazo lela nase depuis kala Congo, Afrika, tout pour la moula Pour l'argent Pour l'argent3</t>
+          <t>Hypnotic Tout l'monde veut être calife à la place du calife calife, but en or, jme qualif' Obligé d'faire deux fois plus que les autres hey, cest le quotidien d'ma ie-v Sais-tu pourquoi le monde part en couilles hey ? On partage la haine, pas l'amour l'amour Pourquoi on censure Dieudonné mais on laisse parler Eric Zemmour ? J'vois que des policiers analphabètes suivre nos quotidiens à la lettre Ton meilleur pote, c'est un gros mytho pour te convaincre, il jure sur la Mecque La rareté est une richesse woaw, tu savais pas, je t'informe hey Ils s'moquent de mon albinisme hey mais cest ça qui fait ma force Moi, jsuis un de-zé, déter' et fier comme un DZ gang Chez nous, on nest pas privés d'dessert Que des coups d'ceinture fort, bien sûr, j'vais pas tfaire de dessin C'est Dieu qui décide le jour où tu décèdes Moi, j'y pense à chaque instant, nos ancêtres dans les champs d'coton Bien sûr que j'suis pas content ta-ta-ta, mon pays s'fait tuer à cause du coltan Tout l'monde veut être calife à la place du calife calife, but en or, j'me qualif' Obligé d'faire deux fois plus que les autres hey, c'est le quotidien d'ma ie-v Sais-tu pourquoi le monde part en couilles hey ? On partage la haine, pas l'amour l'amour Pourquoi on censure Dieudonné mais on laisse parler Eric Zemmour ? J'vois que des policiers analphabètes suivre nos quotidiens à la lettre Ton meilleur pote, c'est un gros mytho pour te convaincre, il jure sur la Mecque La rareté est une richesse woaw, tu savais pas, je t'informe vie Ils s'moquent de mon albinisme vie mais c'est ça qui fait ma force Ouh Kalash Crimi', Dems, du sale avec ou sans mélanine, ah, ah Mon cur timide saigne, j'ai mal, ma douleur en quelques lignes, ah, ah Rebelle armé tâche mes souvenirs, résidus de balle perforant les murs Ces jours sinistres violent des âmes, sont perdus dans champs de mines, ah, ah Piou, ratatata, bang, welcome to the jungle eh On est passés du black power au black, black lives matter ouh Pourquoi tu cries à l'aide ? Africain jamais ne te prosterne, non non Debout, qui nous arrêtera ? Montre-moi qu'une lettre au roi, bah oui bah oui, les colonies nous ont sali sali Les missionnaires nous ont promis promis que l'or vaudrait moins que nos vies nos vies Douze millions de morts plus tard, on parle de dettes et de crédits crédits Mains d'Anvers, quelques têtes de négros, zoo humain, avril 58 oh lala Tout l'monde veut être calife à la place du calife calife, but en or sale, j'me qualif' Obligé d'faire deux fois plus que les autres hey, c'est le quotidien d'ma ie-v Sais-tu pourquoi le monde part en couilles hey ? On partage la haine, pas l'amour l'amour Pourquoi on censure Dieudonné mais on laisse parler Eric Zemmour ? J'vois que des policiers analphabètes suivre nos quotidiens à la lettre Ton meilleur pote, c'est un gros mytho pour te convaincre, il jure sur la Mecque La rareté est une richesse woaw, tu savais pas, je t'informe hey Ils s'moquent de mon albinisme hey mais c'est ça qui fait ma force tatata4</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>But en or</t>
+          <t>Pyramide</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Hypnotic Tout l'monde veut être calife à la place du calife calife, but en or, jme qualif' Obligé d'faire deux fois plus que les autres hey, cest le quotidien d'ma ie-v Sais-tu pourquoi le monde part en couilles hey ? On partage la haine, pas l'amour l'amour Pourquoi on censure Dieudonné mais on laisse parler Eric Zemmour ? J'vois que des policiers analphabètes suivre nos quotidiens à la lettre Ton meilleur pote, c'est un gros mytho pour te convaincre, il jure sur la Mecque La rareté est une richesse woaw, tu savais pas, je t'informe hey Ils s'moquent de mon albinisme hey mais cest ça qui fait ma force Moi, jsuis un de-zé, déter' et fier comme un DZ gang Chez nous, on nest pas privés d'dessert Que des coups d'ceinture fort, bien sûr, j'vais pas tfaire de dessin C'est Dieu qui décide le jour où tu décèdes Moi, j'y pense à chaque instant, nos ancêtres dans les champs d'coton Bien sûr que j'suis pas content ta-ta-ta, mon pays s'fait tuer à cause du coltan Tout l'monde veut être calife à la place du calife calife, but en or, j'me qualif' Obligé d'faire deux fois plus que les autres hey, c'est le quotidien d'ma ie-v Sais-tu pourquoi le monde part en couilles hey ? On partage la haine, pas l'amour l'amour Pourquoi on censure Dieudonné mais on laisse parler Eric Zemmour ? J'vois que des policiers analphabètes suivre nos quotidiens à la lettre Ton meilleur pote, c'est un gros mytho pour te convaincre, il jure sur la Mecque La rareté est une richesse woaw, tu savais pas, je t'informe vie Ils s'moquent de mon albinisme vie mais c'est ça qui fait ma force Ouh Kalash Crimi', Dems, du sale avec ou sans mélanine, ah, ah Mon cur timide saigne, j'ai mal, ma douleur en quelques lignes, ah, ah Rebelle armé tâche mes souvenirs, résidus de balle perforant les murs Ces jours sinistres violent des âmes, sont perdus dans champs de mines, ah, ah Piou, ratatata, bang, welcome to the jungle eh On est passés du black power au black, black lives matter ouh Pourquoi tu cries à l'aide ? Africain jamais ne te prosterne, non non Debout, qui nous arrêtera ? Montre-moi qu'une lettre au roi, bah oui bah oui, les colonies nous ont sali sali Les missionnaires nous ont promis promis que l'or vaudrait moins que nos vies nos vies Douze millions de morts plus tard, on parle de dettes et de crédits crédits Mains d'Anvers, quelques têtes de négros, zoo humain, avril 58 oh lala Tout l'monde veut être calife à la place du calife calife, but en or sale, j'me qualif' Obligé d'faire deux fois plus que les autres hey, c'est le quotidien d'ma ie-v Sais-tu pourquoi le monde part en couilles hey ? On partage la haine, pas l'amour l'amour Pourquoi on censure Dieudonné mais on laisse parler Eric Zemmour ? J'vois que des policiers analphabètes suivre nos quotidiens à la lettre Ton meilleur pote, c'est un gros mytho pour te convaincre, il jure sur la Mecque La rareté est une richesse woaw, tu savais pas, je t'informe hey Ils s'moquent de mon albinisme hey mais c'est ça qui fait ma force tatata4</t>
+          <t>J'fais crier l'bordel dans le tunnel, j'ai dû couper les ponts, p'tit con On dit Sois proche de tes ennemis mais il faut garder les bons Piou, piou Je mets l'orgueil de côté, j'te parle bien pour le biz' Et même si j't'aime pas, j'ai passé l'âge C'est fini l'Covid, j'te fais la bise mais tu veux la baise J'ai pris des sous dans l'rap, j'en avais d'jà à la base, juste un peu moins J'te raconte c'qu'on vit, c'qu'on a vu d'nos yeux, t'es la victime, j'suis le témoin J'me repos pas sur la vérité même j'sais que j'ai l'choix Nwaar J'me rpose pas sur la pyramide, j'la fais tomber quand y a les keufs sur l'toit Dems C'est mon dernier feat d'l'année, p't-être de ma carrière donc j'suis un peu ému J'commence à capter qu'j'suis un ancien quand elle connait pas Limewire ou bien eMule Doucement, maman va pas s'en r'mettre, dix ans ferme, les bleus ont trouvé la planque Tu cherches un homme honnête ? Coupe-lui sa bite et sa langue OG, rappeur, un peu misandre, j'n'aime pas les hommes, mieux vaut les pendre K du Congo, faudrait le r'prendre, l'os d'Ishango, faudrait nous l'rendre Comme Ibrahim, j'connais les anges, j'connais les enjeux à long terme C'est vrai, tu vas vite mais c'est moi qui connais le chemin donc tu la fermes Champagne à deux mille euros, mets-en-moi cent, j'ai besoin de claquer Négro, ne fais pas le beau, t'es v'nu au monde que pour les papiers On t'a d'jà dit qu'elle était pas majeure Elle est pas majeure, majeure Beaucoup de pointeurs, beaucoup de grands rappeurs Vécu de criminel Nwaar, vis comme dans Many Men Saal J'suis passé des cassettes aux sques-di, j'ai fait la route sans les freins Ouais Vécu de criminel Nwaar, vis comme dans Many Men Saal On dit pas tout c'qu'on fait mais c'qu'on dit, on a bossé les reins Ouais Train de vie dramatique Nwaar, j'manie l'automatique Saal J'ai les mains sales, ma gueule, mais le sale, j'te le fais sans les hits Ok Train de vie dramatique Dems, j'manie l'automatique C'est carré On fait beaucoup de vert mais le vert, c'est comme la Kryptonite Beaucoup de kich' dans le sac, y a des baffes qui s'perdent car beaucoup de tartés Tu veux voir les défauts, enlève le parfum à celui qui est parfait La liasse a trop maigri, même si t'es l'frérot, j'vais re-ter-comp Parfois faut jouer le rôle du con pour tromper l'con qui croit que t'es con, carré Me raconte pas ce qu'ils ont dit, mais plutôt pourquoi ils étaient à l'aise quand ils l'ont dit Raconte pas c'qu'ils t'ont fait sans le contexte mais plutôt pourquoi ils te l'ont fait Dans l'coffre, y a un mec à rançonner, j'vis comme dans Many Men Dans l'coffre, trop d'fafs à additionner, j'vis comme dans Many Men Carré, carré, carré Vécu de criminel Nwaar, vis comme dans Many Men Saal J'suis passé des cassettes aux sques-di, j'ai fait la route sans les freins Vécu de criminel Nwaar, vis comme dans Many Men Saal On dit pas tout c'qu'on fait mais c'qu'on dit, on a bossé les reins Train de vie dramatique 'matique, j'manie l'automatique 'matique J'ai les mains sales, ma gueule, mais le sale j'te le fais sans les hits Sans les hits Train de vie dramatique 'matique, j'manie l'automatique 'matique On fait beaucoup de vert mais le vert c'est comme la Kryptonite 'onite1</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Pyramide</t>
+          <t>Ivre</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>J'fais crier l'bordel dans le tunnel, j'ai dû couper les ponts, p'tit con On dit Sois proche de tes ennemis mais il faut garder les bons Piou, piou Je mets l'orgueil de côté, j'te parle bien pour le biz' Et même si j't'aime pas, j'ai passé l'âge C'est fini l'Covid, j'te fais la bise mais tu veux la baise J'ai pris des sous dans l'rap, j'en avais d'jà à la base, juste un peu moins J'te raconte c'qu'on vit, c'qu'on a vu d'nos yeux, t'es la victime, j'suis le témoin J'me repos pas sur la vérité même j'sais que j'ai l'choix Nwaar J'me rpose pas sur la pyramide, j'la fais tomber quand y a les keufs sur l'toit Dems C'est mon dernier feat d'l'année, p't-être de ma carrière donc j'suis un peu ému J'commence à capter qu'j'suis un ancien quand elle connait pas Limewire ou bien eMule Doucement, maman va pas s'en r'mettre, dix ans ferme, les bleus ont trouvé la planque Tu cherches un homme honnête ? Coupe-lui sa bite et sa langue OG, rappeur, un peu misandre, j'n'aime pas les hommes, mieux vaut les pendre K du Congo, faudrait le r'prendre, l'os d'Ishango, faudrait nous l'rendre Comme Ibrahim, j'connais les anges, j'connais les enjeux à long terme C'est vrai, tu vas vite mais c'est moi qui connais le chemin donc tu la fermes Champagne à deux mille euros, mets-en-moi cent, j'ai besoin de claquer Négro, ne fais pas le beau, t'es v'nu au monde que pour les papiers On t'a d'jà dit qu'elle était pas majeure Elle est pas majeure, majeure Beaucoup de pointeurs, beaucoup de grands rappeurs Vécu de criminel Nwaar, vis comme dans Many Men Saal J'suis passé des cassettes aux sques-di, j'ai fait la route sans les freins Ouais Vécu de criminel Nwaar, vis comme dans Many Men Saal On dit pas tout c'qu'on fait mais c'qu'on dit, on a bossé les reins Ouais Train de vie dramatique Nwaar, j'manie l'automatique Saal J'ai les mains sales, ma gueule, mais le sale, j'te le fais sans les hits Ok Train de vie dramatique Dems, j'manie l'automatique C'est carré On fait beaucoup de vert mais le vert, c'est comme la Kryptonite Beaucoup de kich' dans le sac, y a des baffes qui s'perdent car beaucoup de tartés Tu veux voir les défauts, enlève le parfum à celui qui est parfait La liasse a trop maigri, même si t'es l'frérot, j'vais re-ter-comp Parfois faut jouer le rôle du con pour tromper l'con qui croit que t'es con, carré Me raconte pas ce qu'ils ont dit, mais plutôt pourquoi ils étaient à l'aise quand ils l'ont dit Raconte pas c'qu'ils t'ont fait sans le contexte mais plutôt pourquoi ils te l'ont fait Dans l'coffre, y a un mec à rançonner, j'vis comme dans Many Men Dans l'coffre, trop d'fafs à additionner, j'vis comme dans Many Men Carré, carré, carré Vécu de criminel Nwaar, vis comme dans Many Men Saal J'suis passé des cassettes aux sques-di, j'ai fait la route sans les freins Vécu de criminel Nwaar, vis comme dans Many Men Saal On dit pas tout c'qu'on fait mais c'qu'on dit, on a bossé les reins Train de vie dramatique 'matique, j'manie l'automatique 'matique J'ai les mains sales, ma gueule, mais le sale j'te le fais sans les hits Sans les hits Train de vie dramatique 'matique, j'manie l'automatique 'matique On fait beaucoup de vert mais le vert c'est comme la Kryptonite 'onite1</t>
+          <t>Viens on sort nous... Viens, on sort le Glock Viens, on sort le..., hey Viens, on sort le Glock, viens, on sort le Glock Viens, on sort le Glock, viens, on sort le... Viens, on sort le Glock, viens on sort de la cité On fait route vers la banque, où le coffret va sauter On n'a rien besoin d'autre, que toi et moi et nos idées On s'en vas, rien en poche et un chouya alcoolisés Les rêves grands comme le monde, seul le temps est limité Si tu en crois le cur, l'Afrique est à proximité On n'a rien besoin d'autre, que toi et moi et nos idées On n'a rien besoin d'autre, une clope au bec, j'suis motivée J'ai nouveaux bijoux, anneaux gris, métallisés Si ton corps est un musée, j'veux le visiter Dans niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé Jolie garce, tout est noir, Morray, c'est ça la vie Mets pas pied ici, négro, tu vas y perdre la vie Dans le niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé Tu fais bonhomme de neige, j'fais bonhomme de ch'min J'suis là pour vie en rose comme schnek de tchoin J'rentre de soirée bourré, fe-meu dis qu'j'sens la tte-ch', j'suis en Marge Simpson comme ses veu-ch' Le joint est éteint comme négro qu'j'viens d'allumer, le nizzo n'a pas fait long feu Les embrouilles sont fortes, les coups de couteau pas raffinés, les flinguer, c'est ça que l'on veut La vie est sombre et belle, plus caché, mieux tu vis Dans la pénombre, solo sans faire de bruit Suis-moi jusqu'au bout, fais comme mes ennemis Plus je côtoie la mort, plus j'ai des choses à vivre, ivre, la défonce me rend libre Plus j'côtoie la mort, plus j'me sens vivre Elle m'aime comme un keuf elle veut qu'j'me livre Damso J'ai nouveaux bijoux, anneaux gris métallisés Si ton corps est un musée, j'veux le visiter Dans niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé Jolie garce, tout est noir, Morray, c'est ça la vie Mets pas pied ici, négro, tu vas y perdre la vie Dans le niquage de mères négro, j'suis spécialisé Rate-pi validé, rate-pi validé J'ai perdu des proches, j'ai du mal à vivre Je noie mon chagrin Jack'zer, je finis ivre J'revends la pure comme à Caracas Ton boule est dur, tu fais trop de squats Négro validé, sans cesse dénigré Personne me pliera, fuck, j'ai hérité Ils font les riches, c'est des Rocancourt Y a que les riches au sommet d'la tour J'donne peu d'amour donc elle s'en alla Ne me donne pas ce que je n'rends pas Mon gilet pare-balles, c'est mon crew Fumée d'joint royal, je vois flou U tréma'zer, flow d'America Toutes mes putes'zer dansent le mapouka Mon gilet pare-balles, c'est mon crew Fumée d'joint royal, je vois flou J'ai nouveaux bijoux, anneaux gris métallisés Si ton corps est un musée, j'veux le visiter Dans niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé Jolie garce, tout est noir, Morray, c'est ça la vie Mets pas pied ici, négro, tu vas y perdre la vie Dans le niquage de mères négro, j'suis spécialisé Rate-pi validé, rate-pi validé Rate-pi validé, rate-pi validé Rate-pi validé, rate-pi validé Rate-pi validé, rate-pi validé4</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Ivre</t>
+          <t>JTC</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Viens on sort nous... Viens, on sort le Glock Viens, on sort le..., hey Viens, on sort le Glock, viens, on sort le Glock Viens, on sort le Glock, viens, on sort le... Viens, on sort le Glock, viens on sort de la cité On fait route vers la banque, où le coffret va sauter On n'a rien besoin d'autre, que toi et moi et nos idées On s'en vas, rien en poche et un chouya alcoolisés Les rêves grands comme le monde, seul le temps est limité Si tu en crois le cur, l'Afrique est à proximité On n'a rien besoin d'autre, que toi et moi et nos idées On n'a rien besoin d'autre, une clope au bec, j'suis motivée J'ai nouveaux bijoux, anneaux gris, métallisés Si ton corps est un musée, j'veux le visiter Dans niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé Jolie garce, tout est noir, Morray, c'est ça la vie Mets pas pied ici, négro, tu vas y perdre la vie Dans le niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé Tu fais bonhomme de neige, j'fais bonhomme de ch'min J'suis là pour vie en rose comme schnek de tchoin J'rentre de soirée bourré, fe-meu dis qu'j'sens la tte-ch', j'suis en Marge Simpson comme ses veu-ch' Le joint est éteint comme négro qu'j'viens d'allumer, le nizzo n'a pas fait long feu Les embrouilles sont fortes, les coups de couteau pas raffinés, les flinguer, c'est ça que l'on veut La vie est sombre et belle, plus caché, mieux tu vis Dans la pénombre, solo sans faire de bruit Suis-moi jusqu'au bout, fais comme mes ennemis Plus je côtoie la mort, plus j'ai des choses à vivre, ivre, la défonce me rend libre Plus j'côtoie la mort, plus j'me sens vivre Elle m'aime comme un keuf elle veut qu'j'me livre Damso J'ai nouveaux bijoux, anneaux gris métallisés Si ton corps est un musée, j'veux le visiter Dans niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé Jolie garce, tout est noir, Morray, c'est ça la vie Mets pas pied ici, négro, tu vas y perdre la vie Dans le niquage de mères négro, j'suis spécialisé Rate-pi validé, rate-pi validé J'ai perdu des proches, j'ai du mal à vivre Je noie mon chagrin Jack'zer, je finis ivre J'revends la pure comme à Caracas Ton boule est dur, tu fais trop de squats Négro validé, sans cesse dénigré Personne me pliera, fuck, j'ai hérité Ils font les riches, c'est des Rocancourt Y a que les riches au sommet d'la tour J'donne peu d'amour donc elle s'en alla Ne me donne pas ce que je n'rends pas Mon gilet pare-balles, c'est mon crew Fumée d'joint royal, je vois flou U tréma'zer, flow d'America Toutes mes putes'zer dansent le mapouka Mon gilet pare-balles, c'est mon crew Fumée d'joint royal, je vois flou J'ai nouveaux bijoux, anneaux gris métallisés Si ton corps est un musée, j'veux le visiter Dans niquage de mères, négro, j'suis spécialisé Rate-pi validé, rate-pi validé Jolie garce, tout est noir, Morray, c'est ça la vie Mets pas pied ici, négro, tu vas y perdre la vie Dans le niquage de mères négro, j'suis spécialisé Rate-pi validé, rate-pi validé Rate-pi validé, rate-pi validé Rate-pi validé, rate-pi validé Rate-pi validé, rate-pi validé4</t>
+          <t>Ouh C'est l'heure Quelle heure il est ? L'heure de niquer des mères, oh ouais, ouais, ouais Ouch Cette vie sinon, quelle vie ? J'suis pas ton frère, boloss Cette vie sinon, quelle vie ? J'suis pas ton frère Oh non, t'es pas calibré T'as quoi contre moi à part une dent ? Mais j'te larrache, on fait plus semblant Solo, solo, en pleine famine, depuis qu'j'suis connu, j'ai d'la famille J'nique ta sur, j'suis en Many, elle tape trois fois sur le tatami Pas d'pute, plus de buts, coup franc sale, grosse lucarne à droite adieu l'ami T'es là, tu rigoles, souris bêtement, tu m'as check front contre front J'me sens bête subitement, j'suis fort absent à ton enterrement J'suis pas méchant, j'suis reconnaissant T'as même pas rien fait, t'as tout fait pour que j'fasse rien c'est différent, 'bécile Cette vie sinon, quelle vie ? J'suis pas ton frère, boloss Dems Ça parle beaucoup trop mais ça agit peu souvent Nwaar J'ai l'coup d'poing vitreux, quand j'te l'mets c'est contusion Sale J'aime pas tous ces négros qui parlent en Si si la family No Jamais, tu connais Oh oui Jamais, tu connais Oh oui J'aime pas tous ces négros qui parlent en Si si la family Moi non plus Hey The Vie sinon, quelle vie ? Dis-moi Loin des yeux, près de la chatte, séparée par bite endurcie T'avances, j'te ken, tu r'cules aussi, ça vient d'partout comme couteau suisse J'baise pas de bitch au gros following, compte certifié, j'prends pas d'risques J'fais des promesses que j'ne tiens pas, no, j'donne des R.D.V mais j'viens pas, no J'te mets des doigts mais j'te baise pas, no, en gros c'que j'aime, c'est que j't'aime pas, no J'parle de bite, de schneck, de pute que j'baise, de weed qui m'déf', m'en fou si t'aimes pas, no J'suis au studio avec Jowëll, j'cite son blase même si je sais que tu connais même pas, no On n'est pas cousins, ta daronne, j'l'appelle Tantine par respect pour la ronne-da, donc Fais pas genre Damso, c'est le sang, c'est la mif, c'est le... Eh, gros, on s'connait même pas, no Ta gueule Ça parle beaucoup trop mais ça agit peu souvent Nwaar J'ai l'coup d'poing vitreux, quand j'te l'mets c'est contusions Sale J'aime pas tous ces négros qui parlent en Si si la family No Jamais, tu connais Oh oui Jamais, tu connais Oh oui J'aime pas tous ces négros qui parlent en Si si la family Moi non plus Cette vie sinon, quelle vie ? J'suis pas ton frère, boloss Cette vie sinon, quelle vie ? J'suis pas ton frère Jamais, tu connais Jamais, 'bécile, Kalash, Dems Ouais, c'est correct Ouais, c'est bon Lior, salopes, moula, voici ce pourquoi je vis Je suis le fini dans l'infini Nwar À déplacer dans la version Demo2</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JTC</t>
+          <t>COMMENT FAIRE UN TUBE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ouh C'est l'heure Quelle heure il est ? L'heure de niquer des mères, oh ouais, ouais, ouais Ouch Cette vie sinon, quelle vie ? J'suis pas ton frère, boloss Cette vie sinon, quelle vie ? J'suis pas ton frère Oh non, t'es pas calibré T'as quoi contre moi à part une dent ? Mais j'te larrache, on fait plus semblant Solo, solo, en pleine famine, depuis qu'j'suis connu, j'ai d'la famille J'nique ta sur, j'suis en Many, elle tape trois fois sur le tatami Pas d'pute, plus de buts, coup franc sale, grosse lucarne à droite adieu l'ami T'es là, tu rigoles, souris bêtement, tu m'as check front contre front J'me sens bête subitement, j'suis fort absent à ton enterrement J'suis pas méchant, j'suis reconnaissant T'as même pas rien fait, t'as tout fait pour que j'fasse rien c'est différent, 'bécile Cette vie sinon, quelle vie ? J'suis pas ton frère, boloss Dems Ça parle beaucoup trop mais ça agit peu souvent Nwaar J'ai l'coup d'poing vitreux, quand j'te l'mets c'est contusion Sale J'aime pas tous ces négros qui parlent en Si si la family No Jamais, tu connais Oh oui Jamais, tu connais Oh oui J'aime pas tous ces négros qui parlent en Si si la family Moi non plus Hey The Vie sinon, quelle vie ? Dis-moi Loin des yeux, près de la chatte, séparée par bite endurcie T'avances, j'te ken, tu r'cules aussi, ça vient d'partout comme couteau suisse J'baise pas de bitch au gros following, compte certifié, j'prends pas d'risques J'fais des promesses que j'ne tiens pas, no, j'donne des R.D.V mais j'viens pas, no J'te mets des doigts mais j'te baise pas, no, en gros c'que j'aime, c'est que j't'aime pas, no J'parle de bite, de schneck, de pute que j'baise, de weed qui m'déf', m'en fou si t'aimes pas, no J'suis au studio avec Jowëll, j'cite son blase même si je sais que tu connais même pas, no On n'est pas cousins, ta daronne, j'l'appelle Tantine par respect pour la ronne-da, donc Fais pas genre Damso, c'est le sang, c'est la mif, c'est le... Eh, gros, on s'connait même pas, no Ta gueule Ça parle beaucoup trop mais ça agit peu souvent Nwaar J'ai l'coup d'poing vitreux, quand j'te l'mets c'est contusions Sale J'aime pas tous ces négros qui parlent en Si si la family No Jamais, tu connais Oh oui Jamais, tu connais Oh oui J'aime pas tous ces négros qui parlent en Si si la family Moi non plus Cette vie sinon, quelle vie ? J'suis pas ton frère, boloss Cette vie sinon, quelle vie ? J'suis pas ton frère Jamais, tu connais Jamais, 'bécile, Kalash, Dems Ouais, c'est correct Ouais, c'est bon Lior, salopes, moula, voici ce pourquoi je vis Je suis le fini dans l'infini Nwar À déplacer dans la version Demo2</t>
+          <t>Yeah Eh yo, eh yo, eh yo Damso Yeah Comment faire un tube ? Faut parler d'drogue, de sexe, de 'sky, de maille et de pute Prendre le flow de Migos, Versace, Versace, changer deux-trois trucs Ensuite, tu parles de la weed que tu n'vends pas, aussi, tu parles de la vie que tu n'vis pas Et puis, tu parles de gun, Kalash' et cetera, bref, comment faire un tube ? Il faut qu'tu tapes des flows, tu cliques le beat, débite sur le mic' s'il le faut Tu dédicaces ton crew mais pour ça, faut bien le faire Du genre Damso mothefucker, OPG, gangster Là, c'est bon, t'as le flow, t'as les rimes, t'as le thème Uh Tu parles de quoi ? Parle de putes que t'as ken, pas d'truc à l'ancienne en vrai Il faut que tu rappes sans thème, fais pas comme le Dems Choisis une prod juste pour les scènes avec des basses Ouais ouais, ça, c'est bon Et puis, tu rajoutes des claps, puis, tu rajoutes des hits dans le vide Tu kickes, on s'ambiance vite genre Elle sexcite seule avec mon sexe sensible Attends, je sais qu'je suis le seul à l'avoir extensible C'est le sept-cent-soixantième boule que j'kill J'suis un leader, meneur, winner, joueur, crowner, là, ouh C'est bon, la foule vient d'valider le son Il faut juste un peu varier le ton Enchaîner sur un flow qui fait dévier le fond, du genre Damso mothefucker, OPG game, igo Ra ta ta ta ta Qui m'aime me like me follow Ra ta ta ta ta Voilà, c'est bon, c'est bon Ouais, en fait, non, non, attends, là, maintenant, il faut encore le refrain Ouais tu rajoutes un vocodeur, tu parles de bitch, tu parles de c'que tu veux, tu vois ? Là, genre, y a des potes qui vont faire une soirée BSMNT Donc j'vais faire un refrain sur ça, tu, tinventes genre Maintenant, faut que tu mettes le vocodeur C'est bon, vas-y, teste un peu BSMNT, défoncé, j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT J'fais pleuvoir les loves à la BSMNT BSMNT, BSMNT, BSMNT Défoncé, j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT J'fais pleuvoir les loves à la BSMNT BSMNT, BSMNT, BSMNT Défoncé, j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT J'fais pleuvoir les loves à la BSMNT BSMNT, BSMNT, BSMNT Non, mais là, tu vois, maintenant, il t'faut un beat Qui va vraiment avec le thème, euh, du son pour le tube, tu vois donc il t'faut Voilà, ce genre de beat Donc tu r'prends le même délire où tu racontes n'importe quoi, mais avec, avec un flow Ouais, tu l'modifies vite fait et tu, tu, tu te laisses un peu dessus, tu tentraînes, du genre attend-ttends Yo, yeah, yo, eh yo BSMNT BSMNT, BSMNT, BSMNT J'défonce et j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT Mes yous-v', mes G J'fais pleuvoir les loves à la BSMNT La moula, la moula, ah oui Sky dans le verre, je fly à la BSMNT Gue-dro dans les veines, je crown à la BSMNT No no no no Sky dans le verre, je fly à la BSMNT Gue-dro dans les veines, je crown à la BSMNT Yo, défoncé, Gordon et bédo, c'est everyday De la beuh dans les ches-po, je suis def' de flow à laméricaine Un gros boule vient me check mais je nie cette salope, je l'avais déjà ken En plus j'ai la flemme, j'suis P2, j'suis à la traîne J'vois qu'la bitch se déchaîne, ses allures de chienne m'appellent pour une soirée mondaine à la BSMNT Mais j'suis bourré, j'suis bourré, j'suis def' avec Eddy Ape Voilà, c'est bon, t'as ton début d'tube, tu peux continuer, tu fais c'que tu veux Voilà, qui m'aime me like ou me follow, Damso motherfucker Dem's septembre QALF, yo OPG motherfuck'8</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>COMMENT FAIRE UN TUBE</t>
+          <t>Poséidon</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Yeah Eh yo, eh yo, eh yo Damso Yeah Comment faire un tube ? Faut parler d'drogue, de sexe, de 'sky, de maille et de pute Prendre le flow de Migos, Versace, Versace, changer deux-trois trucs Ensuite, tu parles de la weed que tu n'vends pas, aussi, tu parles de la vie que tu n'vis pas Et puis, tu parles de gun, Kalash' et cetera, bref, comment faire un tube ? Il faut qu'tu tapes des flows, tu cliques le beat, débite sur le mic' s'il le faut Tu dédicaces ton crew mais pour ça, faut bien le faire Du genre Damso mothefucker, OPG, gangster Là, c'est bon, t'as le flow, t'as les rimes, t'as le thème Uh Tu parles de quoi ? Parle de putes que t'as ken, pas d'truc à l'ancienne en vrai Il faut que tu rappes sans thème, fais pas comme le Dems Choisis une prod juste pour les scènes avec des basses Ouais ouais, ça, c'est bon Et puis, tu rajoutes des claps, puis, tu rajoutes des hits dans le vide Tu kickes, on s'ambiance vite genre Elle sexcite seule avec mon sexe sensible Attends, je sais qu'je suis le seul à l'avoir extensible C'est le sept-cent-soixantième boule que j'kill J'suis un leader, meneur, winner, joueur, crowner, là, ouh C'est bon, la foule vient d'valider le son Il faut juste un peu varier le ton Enchaîner sur un flow qui fait dévier le fond, du genre Damso mothefucker, OPG game, igo Ra ta ta ta ta Qui m'aime me like me follow Ra ta ta ta ta Voilà, c'est bon, c'est bon Ouais, en fait, non, non, attends, là, maintenant, il faut encore le refrain Ouais tu rajoutes un vocodeur, tu parles de bitch, tu parles de c'que tu veux, tu vois ? Là, genre, y a des potes qui vont faire une soirée BSMNT Donc j'vais faire un refrain sur ça, tu, tinventes genre Maintenant, faut que tu mettes le vocodeur C'est bon, vas-y, teste un peu BSMNT, défoncé, j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT J'fais pleuvoir les loves à la BSMNT BSMNT, BSMNT, BSMNT Défoncé, j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT J'fais pleuvoir les loves à la BSMNT BSMNT, BSMNT, BSMNT Défoncé, j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT J'fais pleuvoir les loves à la BSMNT BSMNT, BSMNT, BSMNT Non, mais là, tu vois, maintenant, il t'faut un beat Qui va vraiment avec le thème, euh, du son pour le tube, tu vois donc il t'faut Voilà, ce genre de beat Donc tu r'prends le même délire où tu racontes n'importe quoi, mais avec, avec un flow Ouais, tu l'modifies vite fait et tu, tu, tu te laisses un peu dessus, tu tentraînes, du genre attend-ttends Yo, yeah, yo, eh yo BSMNT BSMNT, BSMNT, BSMNT J'défonce et j'crown à la BSMNT J'rejoins mes yous-v' à la BSMNT Mes yous-v', mes G J'fais pleuvoir les loves à la BSMNT La moula, la moula, ah oui Sky dans le verre, je fly à la BSMNT Gue-dro dans les veines, je crown à la BSMNT No no no no Sky dans le verre, je fly à la BSMNT Gue-dro dans les veines, je crown à la BSMNT Yo, défoncé, Gordon et bédo, c'est everyday De la beuh dans les ches-po, je suis def' de flow à laméricaine Un gros boule vient me check mais je nie cette salope, je l'avais déjà ken En plus j'ai la flemme, j'suis P2, j'suis à la traîne J'vois qu'la bitch se déchaîne, ses allures de chienne m'appellent pour une soirée mondaine à la BSMNT Mais j'suis bourré, j'suis bourré, j'suis def' avec Eddy Ape Voilà, c'est bon, t'as ton début d'tube, tu peux continuer, tu fais c'que tu veux Voilà, qui m'aime me like ou me follow, Damso motherfucker Dem's septembre QALF, yo OPG motherfuck'8</t>
+          <t>Jen veux toujours plus quil nen faut Je nai jamais tord, ya qula mort qui aura raison de moi On na pas lmême sort ma dit ldaron, fils, noublie pas qutes renoi Dans tous les cas jmen sors, iconoclaste comme Campanella Aéroport, recalé je fus, le douanier ma dit négro casse-toi dchez moi Pour percer jtla metrrai à lenvers, déso den arriver là Jtai baisé, tas avalé de travers, nest-cpas Marinella Tes soucis jmen soucie peu, jserai lking incessamment sous peu Dans quelques flows, voire un ou deux, si doit y avoir mort, yaura Jrêve denculer une Femen, cracher sur elle et ses principes Jack Daniels dans les sucs gastriques, sans glace ni cola Jdois faire la diff dans toutes mes lines, dans toute ma promo Qui maime me suive, qui maime me like, qui maime me follow Jsuis Poséidon, avec beaucoup plus de flow Quand il sagit de pognon, jen veux toujours plus quil nen faut Hugh Hefner jveux ta vieillesse, avec beaucoup plus de gos Quand il sagit de grosses fesses, jen veux toujours plus quil nen faut Pussy, money, weed, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla mula, jen veux toujours plus quil nen faut Des gros derrières de bitch, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla moula, jen veux toujours plus quil nen faut Toujours plus de seille-o, jen veux toujours plus quil nen faut Toujours plus de bédo, jen veux toujours plus quil nen faut Jdois faire la diff dans toutes mes lines, dans toute ma promo Qui maime me suive, qui maime me like, qui maime me follow Ils men veulent pour cque je vaux Ces négros nont pas le niveau Donc parlez pas de rivaux Jvis dans un pogo, jcheck des boules de plus en plus gros Comme un Murcielago, jtape dans lil, je vais vite Pourquoi tu flippes ? Quand tu las baisé négro, cétait déjà plus ma bitch, déjà plus ma bitch Son flow va dans tous les sens, ecrit-il en boustrophédon ? Si jrappe près dune pompe à essence, explosion sans précédent Derrière les barreaux, cest cque jrisque quand jvends dla shnouf en semaine Donc jme tiens à carreaux, comme la chemise de Snoop dans Whats My Name Damso OPG EGO, jai pas besoin dplus, juste deux-trois bitches en scred Si jrecommence à zéro, cest qulinfini nen vaut pas la peine Pas la peine, Damso Dems, la bitch veut qujla ken Jsors mon pistolet, doggy sur la chienne Jsuis Poséidon, avec beaucoup plus de flow Quand il sagit de pognon, jen veux toujours plus quil nen faut Hugh Hefner jveux ta vieillesse, avec beaucoup plus de gows Quand il sagit de grosses fesses, jen veux toujours plus quil nen faut Pussy, money, weed, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla mula, jen veux toujours plus quil nen faut Des gros derrières de bitch, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla mula, jen veux toujours plus quil nen faut Toujours plus de seille-o, jen veux toujours plus quil nen faut Toujours plus de bédo, jen veux toujours plus quil nen faut Jdois faire la diff dans toutes mes lines, dans toute ma promo Qui maime me suive, qui maime me like, qui maime me follow J'en veux toujours plus qu'il n'en faut J'en veux toujours plus qu'il n'en faut4</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Poséidon</t>
+          <t>FAIS ÇA BIEN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Jen veux toujours plus quil nen faut Je nai jamais tord, ya qula mort qui aura raison de moi On na pas lmême sort ma dit ldaron, fils, noublie pas qutes renoi Dans tous les cas jmen sors, iconoclaste comme Campanella Aéroport, recalé je fus, le douanier ma dit négro casse-toi dchez moi Pour percer jtla metrrai à lenvers, déso den arriver là Jtai baisé, tas avalé de travers, nest-cpas Marinella Tes soucis jmen soucie peu, jserai lking incessamment sous peu Dans quelques flows, voire un ou deux, si doit y avoir mort, yaura Jrêve denculer une Femen, cracher sur elle et ses principes Jack Daniels dans les sucs gastriques, sans glace ni cola Jdois faire la diff dans toutes mes lines, dans toute ma promo Qui maime me suive, qui maime me like, qui maime me follow Jsuis Poséidon, avec beaucoup plus de flow Quand il sagit de pognon, jen veux toujours plus quil nen faut Hugh Hefner jveux ta vieillesse, avec beaucoup plus de gos Quand il sagit de grosses fesses, jen veux toujours plus quil nen faut Pussy, money, weed, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla mula, jen veux toujours plus quil nen faut Des gros derrières de bitch, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla moula, jen veux toujours plus quil nen faut Toujours plus de seille-o, jen veux toujours plus quil nen faut Toujours plus de bédo, jen veux toujours plus quil nen faut Jdois faire la diff dans toutes mes lines, dans toute ma promo Qui maime me suive, qui maime me like, qui maime me follow Ils men veulent pour cque je vaux Ces négros nont pas le niveau Donc parlez pas de rivaux Jvis dans un pogo, jcheck des boules de plus en plus gros Comme un Murcielago, jtape dans lil, je vais vite Pourquoi tu flippes ? Quand tu las baisé négro, cétait déjà plus ma bitch, déjà plus ma bitch Son flow va dans tous les sens, ecrit-il en boustrophédon ? Si jrappe près dune pompe à essence, explosion sans précédent Derrière les barreaux, cest cque jrisque quand jvends dla shnouf en semaine Donc jme tiens à carreaux, comme la chemise de Snoop dans Whats My Name Damso OPG EGO, jai pas besoin dplus, juste deux-trois bitches en scred Si jrecommence à zéro, cest qulinfini nen vaut pas la peine Pas la peine, Damso Dems, la bitch veut qujla ken Jsors mon pistolet, doggy sur la chienne Jsuis Poséidon, avec beaucoup plus de flow Quand il sagit de pognon, jen veux toujours plus quil nen faut Hugh Hefner jveux ta vieillesse, avec beaucoup plus de gows Quand il sagit de grosses fesses, jen veux toujours plus quil nen faut Pussy, money, weed, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla mula, jen veux toujours plus quil nen faut Des gros derrières de bitch, jen veux toujours plus quil nen faut Dla monnaie, dla monnaie, dla mula, jen veux toujours plus quil nen faut Toujours plus de seille-o, jen veux toujours plus quil nen faut Toujours plus de bédo, jen veux toujours plus quil nen faut Jdois faire la diff dans toutes mes lines, dans toute ma promo Qui maime me suive, qui maime me like, qui maime me follow J'en veux toujours plus qu'il n'en faut J'en veux toujours plus qu'il n'en faut4</t>
+          <t>Uh, check, uh Non, non, non, pas ça Non, non, non, pas ça Non, non, non, non, non, non, ooh yeah Non, non, non, non, non, non, ooh yeah Oh, oh-oh, oh, uh Fais ça bien, fais ça bien Fais ça bien, fais ça bien, fais ça bien Non, non, non, pas ça Non, non, non, non Non, non, ça ne passe pas Oh, oh, oh, oh S'il te plaît, chérie, pas comme ça Yeah Si tu veux de mon attention, fais-le bien Si tu veux de mes cadeaux, fais-le bien Je veux l'amour, le vrai, fais ça bien Woh Si tu veux me voir baver, fais ça bien Woah Na lela na nga yo Ok, Dieu, donne-moi plus de moula que j'ai tout pour éviter qu'la faucheuse me prenne de court J'ai un couteau en main, j'ai la rose dans le dos Que des fils de putains, là juste pour les sous Dans le binks, j'traîne, def' dans l'tieks, j'roule un pers', gros tir pour oublier la tour J'ai des millions d'euros pour des milliards de regrets Pour gagner ma vie, j'ai du perdre des res-frè Tellement de carats dans l'coffre à bijoux, j'ai des dizaines de loyers au poignet, je brille J'suis dans l'embarras, soit je prends un douze ou un cognac Hennessy de douze ans de vie J'ai changé, devenu méchant Ouais, j'suis le sixième élément de Luc Besson Dems J'embrasse le béton, mon amour est de pierre Eh J'arrache mes paupières, pour voir la lumière dans le bre-som Dems Non, non, non, pas ça Non, non, non, non Non, non, ça ne passe pas Oh, oh, oh, oh S'il te plaît, chérie, pas comme ça Yeah, eh Si tu veux de mon attention, fais-le bien Si tu veux de mes cadeaux, fais-le bien Je veux l'amour, le vrai, fais ça bien Woh Si tu veux me voir baver, fais ça bien Woh Na lela na nga yo Ha, mama Moto asala monde Ye pe moto asala amour S'il te plaît, mon bébé, montre-moi ton amour Ah Na za inondé, bolingo n'ô inondé nga Yaka pe na inonder yo yo, suka na ba inondations Vrah Liesa nga pondu ya limbondo Wouh Nga na yo to kende liboso Wouh Obimisi nga kati ya libulu To kende lifobo, liboso, lifobo, libo- Pasuka Non, non, non, pas ça Non, non Non, non, ça ne passe pas Non, ça n'passe pas S'il te plaît, chérie, pas comme ça Pas comme ça Si tu veux de mon attention, fais-le bien Si tu veux de mes cadeaux, fais-le bien Je veux l'amour, le vrai, fais ça bien Si tu veux me voir baver, fais ça bien Na lela na nga yo Fally Ipupa Dems Ce n'est pas ça Fais-le bien5</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FAIS ÇA BIEN</t>
+          <t>Jean Reno</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Uh, check, uh Non, non, non, pas ça Non, non, non, pas ça Non, non, non, non, non, non, ooh yeah Non, non, non, non, non, non, ooh yeah Oh, oh-oh, oh, uh Fais ça bien, fais ça bien Fais ça bien, fais ça bien, fais ça bien Non, non, non, pas ça Non, non, non, non Non, non, ça ne passe pas Oh, oh, oh, oh S'il te plaît, chérie, pas comme ça Yeah Si tu veux de mon attention, fais-le bien Si tu veux de mes cadeaux, fais-le bien Je veux l'amour, le vrai, fais ça bien Woh Si tu veux me voir baver, fais ça bien Woah Na lela na nga yo Ok, Dieu, donne-moi plus de moula que j'ai tout pour éviter qu'la faucheuse me prenne de court J'ai un couteau en main, j'ai la rose dans le dos Que des fils de putains, là juste pour les sous Dans le binks, j'traîne, def' dans l'tieks, j'roule un pers', gros tir pour oublier la tour J'ai des millions d'euros pour des milliards de regrets Pour gagner ma vie, j'ai du perdre des res-frè Tellement de carats dans l'coffre à bijoux, j'ai des dizaines de loyers au poignet, je brille J'suis dans l'embarras, soit je prends un douze ou un cognac Hennessy de douze ans de vie J'ai changé, devenu méchant Ouais, j'suis le sixième élément de Luc Besson Dems J'embrasse le béton, mon amour est de pierre Eh J'arrache mes paupières, pour voir la lumière dans le bre-som Dems Non, non, non, pas ça Non, non, non, non Non, non, ça ne passe pas Oh, oh, oh, oh S'il te plaît, chérie, pas comme ça Yeah, eh Si tu veux de mon attention, fais-le bien Si tu veux de mes cadeaux, fais-le bien Je veux l'amour, le vrai, fais ça bien Woh Si tu veux me voir baver, fais ça bien Woh Na lela na nga yo Ha, mama Moto asala monde Ye pe moto asala amour S'il te plaît, mon bébé, montre-moi ton amour Ah Na za inondé, bolingo n'ô inondé nga Yaka pe na inonder yo yo, suka na ba inondations Vrah Liesa nga pondu ya limbondo Wouh Nga na yo to kende liboso Wouh Obimisi nga kati ya libulu To kende lifobo, liboso, lifobo, libo- Pasuka Non, non, non, pas ça Non, non Non, non, ça ne passe pas Non, ça n'passe pas S'il te plaît, chérie, pas comme ça Pas comme ça Si tu veux de mon attention, fais-le bien Si tu veux de mes cadeaux, fais-le bien Je veux l'amour, le vrai, fais ça bien Si tu veux me voir baver, fais ça bien Na lela na nga yo Fally Ipupa Dems Ce n'est pas ça Fais-le bien5</t>
+          <t>Yeah Rah Tout niquer tout niquer comme Gargamel j'ai un rêve bleu très particulier Broliquer broliquer dans ta rondelle comme un joint de beuh que j'suis prêt à fumer Tes négros sont des mannequins, très professionnels toujours prêts à se défiler Mon négro il n'en restera qu'un, rien de personnel le illeur-mé ma destinée T'as perdu tes couilles on t'voit plus T'as changé de métro prend plus le même chemin Y'a que des embrouilles dans l'actu J'suis l'bâtard, Jon Snow négro tu n'es que le nain Un cur d'ange dans un corps de pute, obligé que j'la baise, bitch biatch J'suis dans l'centre j'ai pas besoin d'nes-tu j'suis sur toutes les guest lists Dems Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferai bien plus que les autres Ces négros prennent nos flows, sont accusés de faux et usage de faux Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferais bien plus que les autres Ces négros prennent nos flows sont accusés de faux et usage de faux Dams Moins heureux, loin des leurs, la vie c'est jusqu'à la mort non c'est pas pour la vie Loin des yeux près des pleures J'fais l'amour dans ta ge-gor on y passera la nuit OP Genius c'est la ligue Elle se trémousse je la nique Très forte gousse dans le dix Damso putain t'es trop lourd sisi merci la mif J'fais dans la géométrie tou-toujours dans les carrés VIP Un seul contrôle on est cuit y'a full barrette de shit Le Q.I d'un séraphin j'te baise à l'aise comme impôt et fisc Ça ne bibi plus très bien depuis Daesh on n'prend plus de risques Assermenté mensonges obligés pas d'vérité devant agent d'police Pas d'amitié entre justicier si j'étais Bruce j'aurai baisé Loïs Ciel je remercie d'office, pour le cul d'Bejo Bérénice J'suis dans le Bercy je glisse J'suis dans Nero Nemesis Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferais bien plus que les autres Ces négros prennent nos flows sont accusés de faux et usage de faux Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferais bien plus que les autres Ces négros prennent nos flows sont accusés de faux et usage de faux8</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Jean Reno</t>
+          <t>D’JA ROULÉ</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Yeah Rah Tout niquer tout niquer comme Gargamel j'ai un rêve bleu très particulier Broliquer broliquer dans ta rondelle comme un joint de beuh que j'suis prêt à fumer Tes négros sont des mannequins, très professionnels toujours prêts à se défiler Mon négro il n'en restera qu'un, rien de personnel le illeur-mé ma destinée T'as perdu tes couilles on t'voit plus T'as changé de métro prend plus le même chemin Y'a que des embrouilles dans l'actu J'suis l'bâtard, Jon Snow négro tu n'es que le nain Un cur d'ange dans un corps de pute, obligé que j'la baise, bitch biatch J'suis dans l'centre j'ai pas besoin d'nes-tu j'suis sur toutes les guest lists Dems Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferai bien plus que les autres Ces négros prennent nos flows, sont accusés de faux et usage de faux Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferais bien plus que les autres Ces négros prennent nos flows sont accusés de faux et usage de faux Dams Moins heureux, loin des leurs, la vie c'est jusqu'à la mort non c'est pas pour la vie Loin des yeux près des pleures J'fais l'amour dans ta ge-gor on y passera la nuit OP Genius c'est la ligue Elle se trémousse je la nique Très forte gousse dans le dix Damso putain t'es trop lourd sisi merci la mif J'fais dans la géométrie tou-toujours dans les carrés VIP Un seul contrôle on est cuit y'a full barrette de shit Le Q.I d'un séraphin j'te baise à l'aise comme impôt et fisc Ça ne bibi plus très bien depuis Daesh on n'prend plus de risques Assermenté mensonges obligés pas d'vérité devant agent d'police Pas d'amitié entre justicier si j'étais Bruce j'aurai baisé Loïs Ciel je remercie d'office, pour le cul d'Bejo Bérénice J'suis dans le Bercy je glisse J'suis dans Nero Nemesis Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferais bien plus que les autres Ces négros prennent nos flows sont accusés de faux et usage de faux Bedo, Jack honey dans gosier, j'en perds mes mots Lunettes arrondies pour fumer Léon JeanReno Oui la moula, la moula j'en ferais bien plus que les autres Ces négros prennent nos flows sont accusés de faux et usage de faux8</t>
+          <t>Oui Dems Dems, oui Oui, ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Ouais, fonce-dé dans la Benz, dans la go-va Ouais Purple, Ice, moula, Barbossa Eh Il ne fallait pas mais négro osa No, no Bastos dans la te-tê, elle explosa Piou, bang Tout est quadrillé Ok Toute la zone, l rrain-te, tous les quartiers Ok, ok Oh, avant d'm'étindre, j'vais t'allumer Bang Paco, Prinzly, Saint D, tout est aligné Ok, ok O.G. fait la moula sur le te' Sur le terrain Biatch enneigée saigne du nez Du nez O.G. fait la moula sur le te' Sur le te' Oh, tout est enrhumé, ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocaïnée Ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Oui, eh, beuh de marijuana Oui Coca' de Tijuana Oui, gamos en gincana Eh Z comme Zap Mama Eh, Chevrolet Impala Ouais Guitare Gibson Rodriguez, Carlos Santana Ok En bas du bloc, j'suis surmené Oui, ok Policière me questionne, j'crois bien qu'j'vais nier Ok, ok Oh, dans l'tiekson, j'ai charbonné Ok Blood, brothers, euros, euros, Bobby Bonillé Ok, ok O.G. fait la moula sur le te' Sur le terrain Biatch enneigée saigne du nez Du nez O.G. fait la moula sur le te' Sur le te' Oh, tout est enrhumé, ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>D’JA ROULÉ</t>
+          <t>RENCONTRE</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Oui Dems Dems, oui Oui, ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Ouais, fonce-dé dans la Benz, dans la go-va Ouais Purple, Ice, moula, Barbossa Eh Il ne fallait pas mais négro osa No, no Bastos dans la te-tê, elle explosa Piou, bang Tout est quadrillé Ok Toute la zone, l rrain-te, tous les quartiers Ok, ok Oh, avant d'm'étindre, j'vais t'allumer Bang Paco, Prinzly, Saint D, tout est aligné Ok, ok O.G. fait la moula sur le te' Sur le terrain Biatch enneigée saigne du nez Du nez O.G. fait la moula sur le te' Sur le te' Oh, tout est enrhumé, ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocaïnée Ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Oui, eh, beuh de marijuana Oui Coca' de Tijuana Oui, gamos en gincana Eh Z comme Zap Mama Eh, Chevrolet Impala Ouais Guitare Gibson Rodriguez, Carlos Santana Ok En bas du bloc, j'suis surmené Oui, ok Policière me questionne, j'crois bien qu'j'vais nier Ok, ok Oh, dans l'tiekson, j'ai charbonné Ok Blood, brothers, euros, euros, Bobby Bonillé Ok, ok O.G. fait la moula sur le te' Sur le terrain Biatch enneigée saigne du nez Du nez O.G. fait la moula sur le te' Sur le te' Oh, tout est enrhumé, ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok Purple dans le pacson, tout est d'jà roulé Ok Te-shi dans le pacson, tout est d'jà roulé Ok, ok Oh, t'as d'la schnouf sur le nez Ouais Biatch enneigée veut consommer, cocainée Ok</t>
+          <t>Ok Disiz, Dems Hey Ma langue sent le cannabis, j'lui fais un cunni' Mais, avant ça, j'lui ai mis des doigts avec lesquels, j'ai effrité ma beuh, effrité ma beuh Et puis, d't'façon, la vie n'est pas faite pour durer Gue-dro sous l'ton-car, le pétard est allumé, j'atteins les cieux, j'atteins les cieux Oh, tous ces gens qui mentent, qui disent te connaître mieux que les autres Mais ne sont pas là quand tu en as besoin, te ramassent pour qu'tu t'rjettes à nouveau la faut Ouais, les menteurs font qu'ram'ner les soucis J'ai fait la mala, je dépense Audemars, Audemars, Gucci Si j'te raconte ma vie, tu vas dire Dinguerie mais quelle dinguerie, mais quel enfer Dans c'disque, y a toute ma vie, y a tout l'paradis, y a tout l'paradis mais y a l'enfer Mais moi, j'suis heureux Avant, j'étais peureux Est-ce que j'suis en feu ? En tout cas, j'suis heureux, heureux Eh Ouais Barbelés, m'empêcheront pas d'escalader cagoulé Cagoulé J'te démarre, toi et tous tes abonnés Abonnés Dollars, euros, francs congolais Congolais Les ennemis, c'est jusqu'à la muerte, jusqu'à la mort J'balance leurs objets personnels dans la ruelle Tou-tou-touh Puis, j'urine dans l'corridor, eh Gros, moi, j'suis un haineux La haine, ah ouais J'défonce sa mère, blondasse aux yeux bleus Pute Fort Hey, Salomé Mais moi, j'suis heureux Hey, hey, hey Ouais mais moi, j'suis heureux Ouais, noche, je roule ma beuh Oui Musique, je roule un peu, Madeleine, deux s'maines sur deux Je suis sur la capitale, ça se chine en numérique, ça se ken en digital Ça commande un Uber Eats, j'ai cédé au capital Oh Prinz' qui m'appelle de BX Brr, veut faire du son, des bêtises Woah Putain, j'suis chaud sur Bruxelles, eh, eh, hein J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess, nan, j'suis qu'Disiz la Peste J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess Nan, eh J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess, nan, j'suis qu'Disiz la Peste, eh J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess, nan, eh J's'rai plus jamais en hess, j's'rai plus jamais en hess J's'rai plus jamais en hess, eh4</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RENCONTRE</t>
+          <t>Surcôté</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Ok Disiz, Dems Hey Ma langue sent le cannabis, j'lui fais un cunni' Mais, avant ça, j'lui ai mis des doigts avec lesquels, j'ai effrité ma beuh, effrité ma beuh Et puis, d't'façon, la vie n'est pas faite pour durer Gue-dro sous l'ton-car, le pétard est allumé, j'atteins les cieux, j'atteins les cieux Oh, tous ces gens qui mentent, qui disent te connaître mieux que les autres Mais ne sont pas là quand tu en as besoin, te ramassent pour qu'tu t'rjettes à nouveau la faut Ouais, les menteurs font qu'ram'ner les soucis J'ai fait la mala, je dépense Audemars, Audemars, Gucci Si j'te raconte ma vie, tu vas dire Dinguerie mais quelle dinguerie, mais quel enfer Dans c'disque, y a toute ma vie, y a tout l'paradis, y a tout l'paradis mais y a l'enfer Mais moi, j'suis heureux Avant, j'étais peureux Est-ce que j'suis en feu ? En tout cas, j'suis heureux, heureux Eh Ouais Barbelés, m'empêcheront pas d'escalader cagoulé Cagoulé J'te démarre, toi et tous tes abonnés Abonnés Dollars, euros, francs congolais Congolais Les ennemis, c'est jusqu'à la muerte, jusqu'à la mort J'balance leurs objets personnels dans la ruelle Tou-tou-touh Puis, j'urine dans l'corridor, eh Gros, moi, j'suis un haineux La haine, ah ouais J'défonce sa mère, blondasse aux yeux bleus Pute Fort Hey, Salomé Mais moi, j'suis heureux Hey, hey, hey Ouais mais moi, j'suis heureux Ouais, noche, je roule ma beuh Oui Musique, je roule un peu, Madeleine, deux s'maines sur deux Je suis sur la capitale, ça se chine en numérique, ça se ken en digital Ça commande un Uber Eats, j'ai cédé au capital Oh Prinz' qui m'appelle de BX Brr, veut faire du son, des bêtises Woah Putain, j'suis chaud sur Bruxelles, eh, eh, hein J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess, nan, j'suis qu'Disiz la Peste J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess Nan, eh J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess, nan, j'suis qu'Disiz la Peste, eh J's'rai plus jamais en hess, nan, j's'rai plus jamais en hess, nan J's'rai plus jamais en hess, nan, eh J's'rai plus jamais en hess, j's'rai plus jamais en hess J's'rai plus jamais en hess, eh4</t>
+          <t>Sale, sale Ouais Ouais Sale Ouais Depuis qu'j'ai signé, j'écris mais je trime, déprime Des crimes, des primes et déprime au détriment des traumas J'ai trop mal, trop mêlé, trop d'mala dans ma life et mes loves Mais bon, là, c'est bon, j'ai fait mes loves J'prends le game en otage comme un criminel, j'fais rentrer dans la secte comme Bambi Cruz Nuisance sale, noir est plein de cérumen, j'prends pas dix ans pour tuer ces bad citizens J'sors la be-bar en plein échange de coups La gue-mor est pleine, tu n'as plus de pouls, tu n'as plus de fame Plus de fans, n'a plus de scènes, drame, plus de crew Arme dans la soute, lame dans la croûte, larme sans la goutte Bam, c'est le coup d'feu, coup d'choc, tout s'bloque, plus d'force, bruit d'Glock j't'élimine Mains en l'air sans aucun possible crime, nique ta mère car t'as pas su faire le signe Même salaire sans aucune possible prime, même galère, pourtant, t'as acheté tes streams Mains en l'air, de la croix, je fais le signe Dans sa che-bou, me-sper est gélatine Elle prend ma queue car n'aime pas faire la file, entre rageux m'écoutent dans la déprime Tout enculer sans reculer, pute a gémi sans simuler Autotuné voire thuné, platines ont sous dissimulés Devant mère amour et joie se dessinent Lior a fait ses premiers pas dans le crime, papa contenté vole loin de l'insigne Toujours entrain d'insulter les instances, fausse délinquance, tu taffes à l'usine La vie, c'est dur avec ou sans écus, les SDF devraient pas vivre à la rue Les huissiers n'aiment pas hésiter, ils prennent tout même quand y'en a plus Un crédit mal anticipé, tu voles, tu braques, t'es à l'affut, des gyrophares, tu prends la fuite Les négros viennent que pour les clips, en cas d'embrouille, y a plus d'équipe Les négros comme nous, y en a plus Pas de marche arrière, pas de retouches, j'l'ai ken, elle a fait une fausse couche J'ai grandi tout seul comme ma bite dans sa bouche Dems9</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Surcôté</t>
+          <t>Seultou</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sale, sale Ouais Ouais Sale Ouais Depuis qu'j'ai signé, j'écris mais je trime, déprime Des crimes, des primes et déprime au détriment des traumas J'ai trop mal, trop mêlé, trop d'mala dans ma life et mes loves Mais bon, là, c'est bon, j'ai fait mes loves J'prends le game en otage comme un criminel, j'fais rentrer dans la secte comme Bambi Cruz Nuisance sale, noir est plein de cérumen, j'prends pas dix ans pour tuer ces bad citizens J'sors la be-bar en plein échange de coups La gue-mor est pleine, tu n'as plus de pouls, tu n'as plus de fame Plus de fans, n'a plus de scènes, drame, plus de crew Arme dans la soute, lame dans la croûte, larme sans la goutte Bam, c'est le coup d'feu, coup d'choc, tout s'bloque, plus d'force, bruit d'Glock j't'élimine Mains en l'air sans aucun possible crime, nique ta mère car t'as pas su faire le signe Même salaire sans aucune possible prime, même galère, pourtant, t'as acheté tes streams Mains en l'air, de la croix, je fais le signe Dans sa che-bou, me-sper est gélatine Elle prend ma queue car n'aime pas faire la file, entre rageux m'écoutent dans la déprime Tout enculer sans reculer, pute a gémi sans simuler Autotuné voire thuné, platines ont sous dissimulés Devant mère amour et joie se dessinent Lior a fait ses premiers pas dans le crime, papa contenté vole loin de l'insigne Toujours entrain d'insulter les instances, fausse délinquance, tu taffes à l'usine La vie, c'est dur avec ou sans écus, les SDF devraient pas vivre à la rue Les huissiers n'aiment pas hésiter, ils prennent tout même quand y'en a plus Un crédit mal anticipé, tu voles, tu braques, t'es à l'affut, des gyrophares, tu prends la fuite Les négros viennent que pour les clips, en cas d'embrouille, y a plus d'équipe Les négros comme nous, y en a plus Pas de marche arrière, pas de retouches, j'l'ai ken, elle a fait une fausse couche J'ai grandi tout seul comme ma bite dans sa bouche Dems9</t>
+          <t>I.D Yeah Elle bouge son boule si sensuellement, pourtant dans l'passé on a tellement Baisé que j'croyais que j'en voudrais plus, mais son legging me dit qu'j'en veux plus Elle a des formes sous son Kenzo, fais des avances dans sa Benzo J'sais bien qu'son booty a du vécu, mais son legging me dit qu'j'en veux plus M'envoie des snaps j'appuie sur replay, j'la croise en boite près du DJ J'suis dans le VIP avec la sécu', j'attends qu'elle bouge pour la fuck, yeah, yeah J'la fais monter, j'paie un mois d'loyer, juste pour la voir danser en poirier J'suis dans le club et j'fume un doobie, j'attends qu'elle bouge pour la fuck I.D J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you Tu m'fais les yeux doux car j'ai all eyes on me J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you T'es dans mes pensées mais j'te préfère au lit Au lit Yeah Jamaïcaine, faut que j'la ken, elle bouffera toutes mes thunes même celles d'la SACEM En danger p't'être que j'vais m'ranger, depuis qu'j'me la suis tapé tout a changé Sale Dépense mes sous souffre d'agression Aggression, le compte en banque est sous la pression Pression Dispute, la pute suce mes lovés, elle use la ruse pour qu'j'la love I.D J'mets ma libido sous somnifère, j'la quitte car son derrière est beaucoup trop cher J'ai assez d'cardio pour la journée, ta pote et toi que j'vais satisfaire Ambiancée, en danger, ma trique est insalubre, fait que bander Mélangée, métissée, le soleil de minuit, le soir en journée I.D J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you Tu m'fais les yeux doux quand j'ai all eyes on me J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you T'es dans mes pensées mais j'te préfère au lit Au lit J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you Tu m'fais les yeux doux quand j'ai all eyes on me J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you T'es dans mes pensées mais j'te préfère au lit Au lit3</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Seultou</t>
+          <t>Sombre</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>I.D Yeah Elle bouge son boule si sensuellement, pourtant dans l'passé on a tellement Baisé que j'croyais que j'en voudrais plus, mais son legging me dit qu'j'en veux plus Elle a des formes sous son Kenzo, fais des avances dans sa Benzo J'sais bien qu'son booty a du vécu, mais son legging me dit qu'j'en veux plus M'envoie des snaps j'appuie sur replay, j'la croise en boite près du DJ J'suis dans le VIP avec la sécu', j'attends qu'elle bouge pour la fuck, yeah, yeah J'la fais monter, j'paie un mois d'loyer, juste pour la voir danser en poirier J'suis dans le club et j'fume un doobie, j'attends qu'elle bouge pour la fuck I.D J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you Tu m'fais les yeux doux car j'ai all eyes on me J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you T'es dans mes pensées mais j'te préfère au lit Au lit Yeah Jamaïcaine, faut que j'la ken, elle bouffera toutes mes thunes même celles d'la SACEM En danger p't'être que j'vais m'ranger, depuis qu'j'me la suis tapé tout a changé Sale Dépense mes sous souffre d'agression Aggression, le compte en banque est sous la pression Pression Dispute, la pute suce mes lovés, elle use la ruse pour qu'j'la love I.D J'mets ma libido sous somnifère, j'la quitte car son derrière est beaucoup trop cher J'ai assez d'cardio pour la journée, ta pote et toi que j'vais satisfaire Ambiancée, en danger, ma trique est insalubre, fait que bander Mélangée, métissée, le soleil de minuit, le soir en journée I.D J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you Tu m'fais les yeux doux quand j'ai all eyes on me J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you T'es dans mes pensées mais j'te préfère au lit Au lit J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you Tu m'fais les yeux doux quand j'ai all eyes on me J'suis seultou ce soir viens chez moi Viens chez moi Juste un coup du soir tu me dois Tu me dois J'ai dépensé ma money money for you T'es dans mes pensées mais j'te préfère au lit Au lit3</t>
+          <t>Ponko Sombre négro, sombre youv' en pleine zone en pleine zone Sombre négro, sombre youv' en benzo en benzo Sombre pussy, sombre bitch en pleine zone pleine zone Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Sombre pousse ces bitches dans le bando Sombre négro s'embrouille dans le tiekson tiekson, sombre négro sort le Smith Wesson Wesson Sombre you-voi semble un peu méfiant méfiant, sombre agent lui pose des sombres questions snitch Je n'sais pas j'n'ai rien vu j'étais pas présent présent Le fils de pute qui répond j'le descend bang, bang Que du sexe elle veut pas de liaison liaison Sombre pucelle veut ses premières lésions pussy Capoté, sa teu-ch' est mal fréquentée pussy J'la baise quand même car j'peux pas m'contenter pussy D'une seule pute par jour, nan, c'n'est pas assez no J'dois tout niquer, eh, eh, oh oh Sombre négro, sombre youv' en pleine zone en pleine zone Sombre négro, sombre youv' en benzo en benzo Sombre pussy, sombre bitch en pleine zone pleine zone Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Sombre pousse ces bitches dans le bando Sombre négro veut du cash en de-spe de-spe Sombre négro fume son premier te-shi te-shi Sombre you-voi snitch tout chez les keuflis snitch Sombre youvoi fait ber-tom mes OG Deux-trois biatchs veulent du Damso Damso Mais faux négro fait le Donnie Brasco Brasco Deux mains en l'air j'me fais sucer J'suis loin dans ma déf' et d'mon Colts .46 Menotté, serré, j'suis dans la de-mer de-mer Niquez tous vos mères, j'balancerai sonne-per non Pas d'avocat, j'sais pas trop comment faire Il m'reste kilos d'bédo, à vi-sser oh Sombre négro, sombre youv' en pleine zone en pleine zone Sombre négro, sombre youv' en benzo en benzo Sombre pussy, sombre bitch en pleine zone pleine zone Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black Black, black Black, black Black, black Tout est bre-som, tout est black, black2</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Sombre</t>
+          <t>Ο. OG</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Ponko Sombre négro, sombre youv' en pleine zone en pleine zone Sombre négro, sombre youv' en benzo en benzo Sombre pussy, sombre bitch en pleine zone pleine zone Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Sombre pousse ces bitches dans le bando Sombre négro s'embrouille dans le tiekson tiekson, sombre négro sort le Smith Wesson Wesson Sombre you-voi semble un peu méfiant méfiant, sombre agent lui pose des sombres questions snitch Je n'sais pas j'n'ai rien vu j'étais pas présent présent Le fils de pute qui répond j'le descend bang, bang Que du sexe elle veut pas de liaison liaison Sombre pucelle veut ses premières lésions pussy Capoté, sa teu-ch' est mal fréquentée pussy J'la baise quand même car j'peux pas m'contenter pussy D'une seule pute par jour, nan, c'n'est pas assez no J'dois tout niquer, eh, eh, oh oh Sombre négro, sombre youv' en pleine zone en pleine zone Sombre négro, sombre youv' en benzo en benzo Sombre pussy, sombre bitch en pleine zone pleine zone Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Sombre pousse ces bitches dans le bando Sombre négro veut du cash en de-spe de-spe Sombre négro fume son premier te-shi te-shi Sombre you-voi snitch tout chez les keuflis snitch Sombre youvoi fait ber-tom mes OG Deux-trois biatchs veulent du Damso Damso Mais faux négro fait le Donnie Brasco Brasco Deux mains en l'air j'me fais sucer J'suis loin dans ma déf' et d'mon Colts .46 Menotté, serré, j'suis dans la de-mer de-mer Niquez tous vos mères, j'balancerai sonne-per non Pas d'avocat, j'sais pas trop comment faire Il m'reste kilos d'bédo, à vi-sser oh Sombre négro, sombre youv' en pleine zone en pleine zone Sombre négro, sombre youv' en benzo en benzo Sombre pussy, sombre bitch en pleine zone pleine zone Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Tout est bre-som, tout est black, black black, black Sombre pousse ces bitches dans le bando Tout est bre-som, tout est black, black Black, black Black, black Black, black Tout est bre-som, tout est black, black2</t>
+          <t>Oui Oui Ouh, ouh, ouh, OG Oui J'commence à la connaître, la moula malhonnête J'la jette par la fenêtre, j'suis fonce-dé en survêt' Drogue sous le couvercle, biatch sous la couverture Police à la sonnette, coincé, j'n'ai pas d'ouverture Damso, pourquoi tant de noirceur ? Si je l'dis, tu n'vas pas t'en remettre Le game, j'vais lui niquer sa mère, mes ennemis avec Jamais je ne m'arrête, Gordon est la cannette Bergamote violette, du gent-ar incorrect Ouh, ouh, ouh, OG Ouh, ouh, ouh, OG Ouh, ouh, ouh, OG Ouh, ouh, ouh, OG C'est celle-là C'est celle-là, celle-là, celle-là 4</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Mwaka Moon (Sfera Ebbasta Remix)</t>
+          <t>Coeur De Pirate</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Discographie - Damso Album Studio - 20160708 Damso - Batterie faible - 20170428 Damso - Ipséité - 20180615 Damso - Lithopédion - 20200918 Damso - QALF - 20210429 Damso - QALF infinity Mixtape - 20140829 Damso - Salle d'attente Compilation - 20181214 Damso - Intégrale - 20190809 Damso - Ipséité Lithopédion Single - 20120328 Damso - Freestyle Portes Ouvertes FPO - 20121001 Damso - Brouillard - 20140308 Damso - EGO - 20140328 Damso - Publie Partage Promo - 20140818 Damso - On n'est jamais mieux compris que par soi-même - 20140829 Damso - Le talent ne suffit pas - 20140928 Damso - IVG - 20141220 Damso - Tout oublier - 20141220 Damso - BANG BANG - 20150808 Damso - Comment faire un tube - 20151118 Damso - Ma putain - 20151119 Damso - Colis - 20151120 Damso - Poséidon - 20151217 Damso - Mi Amor - 20160122 Damso - Débrouillard - 20160427 Damso - Autotune - 20160527 Damso - BruxellesVie - 20160621 Damso - Peur d'être sobre - 20160624 Damso - Périscope - 20160708 Damso - Graine de sablier - 20160718 Damso - Paris c'est loin - 20161107 Damso - Amnésie - 20160919 Damso - Débrouillard Remix - 20160928 Damso - Freestyle Deezr - 20170118 Damso - Smeagol - 20170220 Damso - CQFD - 20170403 Damso - Mort - 20170428 Damso - N. J Respect R - 20170428 Damso - . Nwaar Is Th New Black - 20170525 Damso - TieksVie - 20170706 Damso - . Macarena - 20170714 Damso - Quotidien de baisé - 20170901 Damso - Mucho Dinero - 20170903 Damso - C'est toujours Dems Le vrai - 20171027 Damso - Seultou - 20171027 Damso - Fais-moi un Vie - 20171110 Damso - Je nous mens - 20171201 Damso - Tueurs - 20180316 Damso - . Mosaïque solitaire - 20180428 Damso - Ipséité - 20180605 Damso - . Ouzbek - 20180613 Damso - Smog - 20180801 Damso - Surcôté - 20200124 Damso - veillé - 20200328 Damso - - 20210107 Damso - 911 - 20210406 Damso - J'avais juste envie décrire - 20221218 Damso - Cur de pirate Featuring - 2008 Dolfa - Cyclone - 20151112 LeBoy Krisy'B - Studio Remix - 20151204 Booba - Pinocchio - 2016 Siboy - Paradis - 20160410 Krisy - Real - 20160611 Booba - Freestyle Couvre Feu OKLM - 20160624 Hamza - Slow - 20170120 Vald - Vitrine - 20170331 Benash - Ivre - 20170630 Siboy - Mobali - 20171006 Kalash - Mwaka Moon - 20171117 Lacrim - Noche - 20171201 Booba - 113 - 20171213 Kalash - Mwaka Moon Felckin Remix - 20180518 Kalash - Mwaka Moon Sfera Ebbasta Remix - 20181114 OrelSan - Rêves bizarres - 20181207 404Billy - RVRE - 20190606 Nekfeu - Tricheur - 20190628 D.A.V - ParoVie - 20190712 Vegedream - Personne - 20190726 Kalash - JTC - 20190726 Kalash - Praliné - 20190927 Ikaz Boi - SOLITERRIEN - 20191118 Dadju - Robe - 20191219 Hamza - God Bless - 20200307 Ninho - Promo - 20201015 Innoss'B - Best - 20201016 Kalash Criminel - But en or - 20210305 ElGrandeToto - Étranger - 20210702 Dinos - Du mal à te dire - 20210716 Laylow - R9R-LINE - 20211203 Angèle - Démons - 20220301 Angèle - Démons Live Orchestral - 20220309 Aya Nakamura - Dégaine - 20220317 Disiz - RENCONTRE - 20220325 Selah Sue - Wanted You to Know - 20220429 Kalash - I Love You - 20220429 Kobo - .FUMÉE.ÉPAISSE - 20220701 Gazo - BODIES - 20220923 Kalash - Malpolis - 20221111 Lous and The Yakuza - Lubie - 20230217 Hamza - Nocif Discographie complémentaire - Discographie - OPG</t>
+          <t>Eh, yah, yah, yah, yah Yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah Sombre négro dans le tiekson fait du sale, vie, l'inspecteur est ravi, police en bas d'chez lui Met son cash à l'abri car sait qu'il va prendre longue vie, car très sombres délits, you-voi comme Makaveli Comme la mort, n'a que ennemis, ses potos l'ont qué-ni, depuis, vit dans le déni, s'branle en cellule comme pas permis Ne pense qu'à make money, au jour de sa sortie, orgie, drogue dure, morphine, bitches Puis, un jour est sorti, a r'trouvé sa money, a baisé comme pas permis sur le sol, angles garnis Comme la mort n'a qu'une seule vie Comme la mort n'a qu'une seule vie Comme la mort n'a qu'une seule vie Comme la mort n'a qu'une seule vie J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah Du sale toute la noche, moi, j'connais d'jà la fin Ouh, police dans talkie-walkie, ils ont d'jà sorti l'machin Ouh Deux roues, regard hostile, le fil rouge, cadre et profil, j'ai toujours Glock gé-char, arme de feu et poing Avenir, avenir sans lendemain, j'sais que j'peux die à tout moment Yeah La crosse sur les deux mains, j'vise le cou plein d'oscillations Han, han Globule, revolver, mes yeux tirent sur les passants, violent dans mes actions, mauvais garçon, agitation La drogue fait effet La drogue fait effet Je plane, j'suis à Tulum, la playa, face aux jnouns, j'abrite tellement de peine J'abrite tellement de peine Une racaille comme pas deux, le cur un peu rocailleux, tu fais semblant de m'aimer Tu fais semblant de m'aimer Confonds pas insensible avec souffrir en silence, bien sûr qu'j'suis émotif, l'intérieur érosif Mais ma douleur est taiseuse, patiente, pleine d'endurance, oh baby, baby J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah5</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ο. OG</t>
+          <t>LA RUE</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Oui Oui Ouh, ouh, ouh, OG Oui J'commence à la connaître, la moula malhonnête J'la jette par la fenêtre, j'suis fonce-dé en survêt' Drogue sous le couvercle, biatch sous la couverture Police à la sonnette, coincé, j'n'ai pas d'ouverture Damso, pourquoi tant de noirceur ? Si je l'dis, tu n'vas pas t'en remettre Le game, j'vais lui niquer sa mère, mes ennemis avec Jamais je ne m'arrête, Gordon est la cannette Bergamote violette, du gent-ar incorrect Ouh, ouh, ouh, OG Ouh, ouh, ouh, OG Ouh, ouh, ouh, OG Ouh, ouh, ouh, OG C'est celle-là C'est celle-là, celle-là, celle-là 4</t>
+          <t>La mala est gangx Hey Si eux, c'est la, bah, dis-moi, nous, on est J'ai vendu la, gava, j'ai pas eu le Si eux, c'est la Eh-eh Si eux, c'est la Eh-eh Hey, si eux, c'est la ue-r Si eux c'est la ue-r, bah, dis-moi, nous, on est quoi ? Dis-moi, nous, on est T'sais que j'ai vendu la pure J'ai vendu la, mon gava, j'ai pas eu le choix J'ai pas eu le J'les ai vus gratter le mur Gratter le, est-ce que tu les crois ? Est-ce que tu ls Je les vois parler d ue-r Les vois parler de mais dis-moi si tu les vois Hey, hey, si eux, c'est la ue-r Si eux, c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ? J'ai vendu la pure J'ai vendu la pure, j'ai pas eu le choix J'les ai vus gratter le mur Hey, yeah, est-ce que tu les crois ? Est-ce que tu les crois ? Font que parler de ue-r Font que parler de ue-r, est-ce que tu les vois ? Gazo, est-ce que tu les vois ? Une-une kichta, une enveloppe Boom, studio, le talent se développe Codéina dans mon 7 Up, j'bois une gé-gué, j'passe au level up Hey Hey, ma haine est communautaire en voyant ma communauté menottée Oui J'disparais comme une hôtesse Ouh, j'apparais comme une O.D Dé-dé Déchiré, j'ai bu des litres Des litres et puis, j'ai vendu des lignes Des lignes J'le redis, je le souligne Hey, j'le redis, je le souligne Hey En période de guerre, on vise au-d'ssus de la ceinture pour qu'ils ne reviennent Grr, pa-pa-pa-pah Armé, donc on fait la guerre Ouh, boit un verre à la tienne Ouh, hey, hey, hey Hey, si t'es mon Gazo, on y va ensemble Si t'es mon Gazo, on y va ensemble On parle pas, on grr, on les met en sang Faut qu'on laisse tout l'monde en sang Beaucoup ont vu leurs vies se décimer Ont vu leurs vies se décimer Mauvais, donc mon cur est pourri, ouais, mon cur est déchiré Hey, si eux, c'est la ue-r Si eux, c'est la ue-r, bah, dis-moi, nous, on est quoi ? Dis-moi, nous, on est T'sais que j'ai vendu la pure J'ai vendu la, mon gava, j'ai pas eu le choix J'ai pas eu le J'les ai vus gratter le mur Gratter le, est-ce que tu les crois ? Est-ce que tu les Je les vois parler de ue-r Les vois parler de mais dis-moi si tu les vois Hey, hey, si eux, c'est la ue-r Si eux c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ? J'ai vendu la pure J'ai vendu la pure, j'ai pas eu le choix J'les ai vus gratter le mur Hey, yeah, est-ce que tu les crois ? Est-ce que tu les crois ? Ouais Font que parler de ue-r Font que parler de ue-r, eh, est-ce que tu les vois ? Gazo, est-ce que tu les vois ? Tu payes, tu chantes, tu suces, tu rentres, la culture te remercie Merci La mala est gang, le négro aussi, j'ai vendu la mort, j'en ai fait un Vie Avoir J'suis féministe comme Louis Réard, ça m'empêche pas d'te traiter d'pute Pute Le cur en kevlar, j'parle pas aux stup', j'remplace prénoms et noms par Shh Si, eux, c'est la ue-r, nous, on est quoi ? Le bruit et l'odeur du canon scié Gros, ces rappeurs font que du ciné', font des longs albums juste pour streamer Connais Discret, précis et sévère Ouais, j'suis l'cylindre au bout du Uzi Uzi Cette année, le Dems, il est vénère Vénère, la Twittosphère va manger Gucci Nwaar Quelques négros malhonnêtes Oui, quelques négros malhonnêtes moralement condamnables avec qui je traine Raah Tu fais qu'parler d'vendre la neige, j't'ai vu gratter l'asphalte à Rue de la Seine Ouh, ouh, ouh, ouh Si t'es mon Gazo, on y va ensemble, si tu fais ta salope, ça finit en sang Ouais, c'est le plata ou le plomo ou bien, la ue-r Hey, si eux, c'est la ue-r Si eux, c'est la, bah, dis-moi, nous, on est quoi ? Okay T'sais que j'ai vendu la pure J'ai vendu la, mon gava, j'ai pas eu le choix J'ai pas eu le J'les ai vus gratter le mur Gratter le, est-ce que tu les crois ? Est-ce que tu les, nan Je les vois parler de ue-r Les vois parler de mais dis-moi si tu les vois Ouh, ouh, ouh, ouh Hey, hey, si eux, c'est la ue-r Si eux, c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ? J'ai vendu la pure J'ai vendu la pure, j'ai pas eu le choix J'les ai vus gratter le mur Hey, yeah, est-ce que tu les crois ? Est-ce que tu les crois ? Font que parler de ue-r Font que parler de ue-r, ouais, est-ce que tu les vois ? Gazo, est-ce que tu les vois ? Si eux, c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ?1</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Coeur De Pirate</t>
+          <t>Iscariote</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Eh, yah, yah, yah, yah Yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah Sombre négro dans le tiekson fait du sale, vie, l'inspecteur est ravi, police en bas d'chez lui Met son cash à l'abri car sait qu'il va prendre longue vie, car très sombres délits, you-voi comme Makaveli Comme la mort, n'a que ennemis, ses potos l'ont qué-ni, depuis, vit dans le déni, s'branle en cellule comme pas permis Ne pense qu'à make money, au jour de sa sortie, orgie, drogue dure, morphine, bitches Puis, un jour est sorti, a r'trouvé sa money, a baisé comme pas permis sur le sol, angles garnis Comme la mort n'a qu'une seule vie Comme la mort n'a qu'une seule vie Comme la mort n'a qu'une seule vie Comme la mort n'a qu'une seule vie J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah Du sale toute la noche, moi, j'connais d'jà la fin Ouh, police dans talkie-walkie, ils ont d'jà sorti l'machin Ouh Deux roues, regard hostile, le fil rouge, cadre et profil, j'ai toujours Glock gé-char, arme de feu et poing Avenir, avenir sans lendemain, j'sais que j'peux die à tout moment Yeah La crosse sur les deux mains, j'vise le cou plein d'oscillations Han, han Globule, revolver, mes yeux tirent sur les passants, violent dans mes actions, mauvais garçon, agitation La drogue fait effet La drogue fait effet Je plane, j'suis à Tulum, la playa, face aux jnouns, j'abrite tellement de peine J'abrite tellement de peine Une racaille comme pas deux, le cur un peu rocailleux, tu fais semblant de m'aimer Tu fais semblant de m'aimer Confonds pas insensible avec souffrir en silence, bien sûr qu'j'suis émotif, l'intérieur érosif Mais ma douleur est taiseuse, patiente, pleine d'endurance, oh baby, baby J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah J'ai cur de pirate toujours sur le chantier Yeah Les pupilles s'dilatent, drogué, j'veux plus penser Non L'arme brandie, j'suis v'nu récolter toute la maille Maille Sombre bandit, j'vais faire du sale toute la night, yeah5</t>
+          <t>J'ai tout donné jusqu'à ma confiance, derrière vitres sans tain, on m'a pointé du doigt Dans la haine, je médite, fais les 100 pas, le soir dans ma ville mais sans aller nulle part La trahison ça coûte cher, ça vaut bien plus que trente sous Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir T'arrêtes pas d'chialer depuis qu'la old school a disparu N'est pas MC qui ne sait pas s'adapter, prérogatives pour anus dilaté Seul Damso joue avec le feu à mains nues, je l'ai fumé dans son bahut Rêvent de m'assassiner pourtant me saluent, OG Kush dans l'alu, les chiens renifleurs nous ont pas eu Du chapelet au chambala, t'es Léopold, je suis Mandela Barbu, la haine dans mes propos, vrai kobo comme Lieko Manu Derrière moi, beaucoup de traitres, j'ai le dos couché sur des flèches Iscariote pendu derechef, j'te souhaite la mort ou l'inceste Je n'écoute pas les bruits qui courent, le silence est la musique des sourds À peine je buzz, ça se met déjà à rager donc je m'en vais vers plus grandes cours Six pieds sous terre-erre, le ciel est plus loin que l'enfer-er Fuck Lucifer, loin de ma chair, j'prie pour que seul Dieu m'enterre Le succès me tape sur les nerfs, je pète un ble-câ, j'mets du Jack dans ma bière Je voulais une pute, j'ai reçu le Rap FR, je vis sous l'orage car j'aime quand tout est clair Arrête de fumer m'a dit le cendrier, cent millions de billets f'ront p't'être l'affaire La famille, c'est bien sauf pour évoluer, trahis, j'me sens comme mère devant mes demi-frères, Vie J'ai tout donné jusqu'à ma confiance, derrière vitres sans tain on m'a pointé du doigt Dans la haine, je médite, fais les 100 pas, le soir dans ma ville mais sans aller nulle part La trahison, ça coûte cher, ça vaut bien plus que trente sous Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir Yeah, j'veux une biatch au cur opaque, ma gaule rêve de trouver sa Cléopâtre Je l'ai poignardé, il saigne au calme, sa vie s'abat, son corps se plie en quatre J'veux l'argent d'un franc-maçon, mais la paix du fils de la Vierge Loin des entrailles sans protection, j'ai beaucoup d'enfants si j'en crois ma verge Grande gueule, j'insulte les daronnes, y'a qu'mon ingé' qui peut m'couper la parole Bonne et vieille comme Bouquet Carole, j'l'ai cuite à l'étouffée comme escarole J'like son boule mais je n'pose pas de commentaire, la niquer, je sais comment faire Animal en cage depuis le Pampers, j'viens du même zoo que Black Panthers J'suis pas Charlie si c'est mérité, j'suis plus Mohammed Ali que Cassius Clay J'vais t'niquer sans t'laisser d'héritier ou t'engrosser jusqu'à l'obésité Cagoulé j'la joue S-I-bo-Y, arme de l'Est dans l'coffre du break La bite est dure comme le vécu d'Emery, liberté africaine express Y'a trop de 'tasses, trop de grosses chiennes, y'a plus d'esclaves, que des grosses chaines Ils sont venu piller comme Luc Michel, on est v'nu résister comme Étienne J'suis les garçons, ils sont Hélène, j'suis sur l'toit du monde, t'es sur l'échelle Connexion Bruxelles à Haut-de-Seine, Débrouillard des Enfers jusqu'au Ciel En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir J'ai tout donné jusqu'à ma confiance, derrière vitres sans tain, on m'a pointé du doigt Dans la haine, je médite, fais les cent pas, le soir dans ma ville mais sans aller nulle part La trahison, ça coûte cher, ça vaut bien plus que trente sous Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir3</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>LA RUE</t>
+          <t>COEUR DE ICE</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>La mala est gangx Hey Si eux, c'est la, bah, dis-moi, nous, on est J'ai vendu la, gava, j'ai pas eu le Si eux, c'est la Eh-eh Si eux, c'est la Eh-eh Hey, si eux, c'est la ue-r Si eux c'est la ue-r, bah, dis-moi, nous, on est quoi ? Dis-moi, nous, on est T'sais que j'ai vendu la pure J'ai vendu la, mon gava, j'ai pas eu le choix J'ai pas eu le J'les ai vus gratter le mur Gratter le, est-ce que tu les crois ? Est-ce que tu ls Je les vois parler d ue-r Les vois parler de mais dis-moi si tu les vois Hey, hey, si eux, c'est la ue-r Si eux, c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ? J'ai vendu la pure J'ai vendu la pure, j'ai pas eu le choix J'les ai vus gratter le mur Hey, yeah, est-ce que tu les crois ? Est-ce que tu les crois ? Font que parler de ue-r Font que parler de ue-r, est-ce que tu les vois ? Gazo, est-ce que tu les vois ? Une-une kichta, une enveloppe Boom, studio, le talent se développe Codéina dans mon 7 Up, j'bois une gé-gué, j'passe au level up Hey Hey, ma haine est communautaire en voyant ma communauté menottée Oui J'disparais comme une hôtesse Ouh, j'apparais comme une O.D Dé-dé Déchiré, j'ai bu des litres Des litres et puis, j'ai vendu des lignes Des lignes J'le redis, je le souligne Hey, j'le redis, je le souligne Hey En période de guerre, on vise au-d'ssus de la ceinture pour qu'ils ne reviennent Grr, pa-pa-pa-pah Armé, donc on fait la guerre Ouh, boit un verre à la tienne Ouh, hey, hey, hey Hey, si t'es mon Gazo, on y va ensemble Si t'es mon Gazo, on y va ensemble On parle pas, on grr, on les met en sang Faut qu'on laisse tout l'monde en sang Beaucoup ont vu leurs vies se décimer Ont vu leurs vies se décimer Mauvais, donc mon cur est pourri, ouais, mon cur est déchiré Hey, si eux, c'est la ue-r Si eux, c'est la ue-r, bah, dis-moi, nous, on est quoi ? Dis-moi, nous, on est T'sais que j'ai vendu la pure J'ai vendu la, mon gava, j'ai pas eu le choix J'ai pas eu le J'les ai vus gratter le mur Gratter le, est-ce que tu les crois ? Est-ce que tu les Je les vois parler de ue-r Les vois parler de mais dis-moi si tu les vois Hey, hey, si eux, c'est la ue-r Si eux c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ? J'ai vendu la pure J'ai vendu la pure, j'ai pas eu le choix J'les ai vus gratter le mur Hey, yeah, est-ce que tu les crois ? Est-ce que tu les crois ? Ouais Font que parler de ue-r Font que parler de ue-r, eh, est-ce que tu les vois ? Gazo, est-ce que tu les vois ? Tu payes, tu chantes, tu suces, tu rentres, la culture te remercie Merci La mala est gang, le négro aussi, j'ai vendu la mort, j'en ai fait un Vie Avoir J'suis féministe comme Louis Réard, ça m'empêche pas d'te traiter d'pute Pute Le cur en kevlar, j'parle pas aux stup', j'remplace prénoms et noms par Shh Si, eux, c'est la ue-r, nous, on est quoi ? Le bruit et l'odeur du canon scié Gros, ces rappeurs font que du ciné', font des longs albums juste pour streamer Connais Discret, précis et sévère Ouais, j'suis l'cylindre au bout du Uzi Uzi Cette année, le Dems, il est vénère Vénère, la Twittosphère va manger Gucci Nwaar Quelques négros malhonnêtes Oui, quelques négros malhonnêtes moralement condamnables avec qui je traine Raah Tu fais qu'parler d'vendre la neige, j't'ai vu gratter l'asphalte à Rue de la Seine Ouh, ouh, ouh, ouh Si t'es mon Gazo, on y va ensemble, si tu fais ta salope, ça finit en sang Ouais, c'est le plata ou le plomo ou bien, la ue-r Hey, si eux, c'est la ue-r Si eux, c'est la, bah, dis-moi, nous, on est quoi ? Okay T'sais que j'ai vendu la pure J'ai vendu la, mon gava, j'ai pas eu le choix J'ai pas eu le J'les ai vus gratter le mur Gratter le, est-ce que tu les crois ? Est-ce que tu les, nan Je les vois parler de ue-r Les vois parler de mais dis-moi si tu les vois Ouh, ouh, ouh, ouh Hey, hey, si eux, c'est la ue-r Si eux, c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ? J'ai vendu la pure J'ai vendu la pure, j'ai pas eu le choix J'les ai vus gratter le mur Hey, yeah, est-ce que tu les crois ? Est-ce que tu les crois ? Font que parler de ue-r Font que parler de ue-r, ouais, est-ce que tu les vois ? Gazo, est-ce que tu les vois ? Si eux, c'est la ue-r, bah, nous, on est quoi ? Bah, nous, on est quoi ?1</t>
+          <t>L1, L2, L1, L2 L1, L2, L1, L2 L1, L2, L1, L2 Prince Paw Elle mouille sur mon sofa, j'couvre avec le plaid, j'suis dans la kitchen, pourtant, j'ai un bed Around my neck, c'est des diamants du bled Ah, à part mon glizzy, y a personne qui m'aime À part mon glizzy, y a personne qui m'aime, j'ai dans le viseur une couleur ébène 'bène Encore un négro Bang, pourquoi mon négro Oh ? Pourquoi mon pfiou, pfiou, pfiou, bang Wesh, Dems, Dems Wesh, j'roule avec la bitch dans le coupe, pour piéger un opps, demande Combien ça coûte ? J'l'ai vue cacher son 'phone Oh, fouiller mon 'phon, elle va dans la salle d bain, quand j'dors, j'ai des doutes Pah, pah Pardon, je prends mon pétard quand j'la date Eh-eh, elle a le cavu bien rond comme un eight T'es ma babe, tu s'ras rayée d'la liste quand t'as payé ta dette Elle m'fait du phone sexe quand j'm'envole à l'étranger Oui, j'suis famous, quand je baise, j'peux même plus étrangler Louis, Fendi, elle ferme même plus les onglets, j'crois qu'elle m'a hasba, j'ai les messages en gris Fais-moi cracher plus vite, j'suis garé sur place handi' Oh, j'ai des stories de Tory, blasez-moi Andy Elle est bonne mais pas conne, faut pas écouter c'qu'on dit, bonne mais pas conne, faut pas écouter c'qu'on dit Ice en cur de ice, esquimau Miskina, c'que j'lui mets à là-celle dans son minou Okay Ice en cur de ice, esquimau Miskina, c'que j'lui mets à là-celle dans son minou Ice, yeah Elle mouille sur mon sofa, j'couvre avec le plaid, j'suis dans la kitchen, pourtant, j'ai un bed Around my neck, c'est des diamants du bled Ah, à part mon glizzy, y a personne qui m'aime À part mon glizzy, y a personne qui m'aime, j'ai dans le viseur une couleur ébène Encore un négro, pourquoi mon négro ? Pourquoi mon pfiou, pfiou, pfiou, bang Oh la la, ouah Je n'fais que dans le désespoir, rah, Amoroso, Amoroso, woh, la vie est noire, rah Zola, Aurél', pas de Émile Émile, muqueuses de putes rempli d'cocaïne 'caïne Jaune est cartonné, le cône est parfumé, font plus de morts qu'Adolf et Staline Yeah Dans sa gorge jusqu'à c'qu'elle vomisse Ouais, dans sa chatte jusqu'à l'agonie Okay J'la démarre Ouh, j'la termine Ouh, j'la démarre Ouh, j'l'extermine Rah Doucement, faudrait pas qu'j'm'incrimine, beaucoup de boucans, beaucoup de querelles Querelles Ces faux rappeurs n'ont plus de flow No, donc ils investissent dans la gestuelle Ouh, ouh, ouh Négro fuchsia dans le négro fuchsia, dans la drogue et la lean, c'est c'qu'ils attendent de mon taux d'mélanine Nouveau ness-bi', j'investis dans le jean, moula, moula blanche dans les narines Ouais Triste vie et sombre enfance Okay, ta mère la pute aurait du faire une fausse couche pour nous épargner ton existence Pfiou, Dems Elle mouille sur mon sofa, j'couvre avec le plaid, j'suis dans la kitchen, pourtant, j'ai un bed Around my neck, c'est des diamants du bled, à part mon glizzy, y a personne qui m'aime À part mon glizzy, y a personne qui m'aime, j'ai dans le viseur une couleur ébène Encore un négro, pourquoi mon négro ? Pourquoi mon pfiou, pfiou Ice en cur de ice Cur de ice, switch, esquimau Wouh Miskina, c'que j'lui mets à là-celle dans son minou C'est chaud Ice en cur de ice, esquimau Esquimau, esquimau Miskina, c'que j'lui mets à là-celle dans son minou Fah, fah, fah, fah, fah Dems, Dems, Dems, Dems, Dems, Dems Zo' Ah-ah-ah Tcheck, mon reuf Tchek, mon reuf</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Iscariote</t>
+          <t>Dégaine</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>J'ai tout donné jusqu'à ma confiance, derrière vitres sans tain, on m'a pointé du doigt Dans la haine, je médite, fais les 100 pas, le soir dans ma ville mais sans aller nulle part La trahison ça coûte cher, ça vaut bien plus que trente sous Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir T'arrêtes pas d'chialer depuis qu'la old school a disparu N'est pas MC qui ne sait pas s'adapter, prérogatives pour anus dilaté Seul Damso joue avec le feu à mains nues, je l'ai fumé dans son bahut Rêvent de m'assassiner pourtant me saluent, OG Kush dans l'alu, les chiens renifleurs nous ont pas eu Du chapelet au chambala, t'es Léopold, je suis Mandela Barbu, la haine dans mes propos, vrai kobo comme Lieko Manu Derrière moi, beaucoup de traitres, j'ai le dos couché sur des flèches Iscariote pendu derechef, j'te souhaite la mort ou l'inceste Je n'écoute pas les bruits qui courent, le silence est la musique des sourds À peine je buzz, ça se met déjà à rager donc je m'en vais vers plus grandes cours Six pieds sous terre-erre, le ciel est plus loin que l'enfer-er Fuck Lucifer, loin de ma chair, j'prie pour que seul Dieu m'enterre Le succès me tape sur les nerfs, je pète un ble-câ, j'mets du Jack dans ma bière Je voulais une pute, j'ai reçu le Rap FR, je vis sous l'orage car j'aime quand tout est clair Arrête de fumer m'a dit le cendrier, cent millions de billets f'ront p't'être l'affaire La famille, c'est bien sauf pour évoluer, trahis, j'me sens comme mère devant mes demi-frères, Vie J'ai tout donné jusqu'à ma confiance, derrière vitres sans tain on m'a pointé du doigt Dans la haine, je médite, fais les 100 pas, le soir dans ma ville mais sans aller nulle part La trahison, ça coûte cher, ça vaut bien plus que trente sous Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir Yeah, j'veux une biatch au cur opaque, ma gaule rêve de trouver sa Cléopâtre Je l'ai poignardé, il saigne au calme, sa vie s'abat, son corps se plie en quatre J'veux l'argent d'un franc-maçon, mais la paix du fils de la Vierge Loin des entrailles sans protection, j'ai beaucoup d'enfants si j'en crois ma verge Grande gueule, j'insulte les daronnes, y'a qu'mon ingé' qui peut m'couper la parole Bonne et vieille comme Bouquet Carole, j'l'ai cuite à l'étouffée comme escarole J'like son boule mais je n'pose pas de commentaire, la niquer, je sais comment faire Animal en cage depuis le Pampers, j'viens du même zoo que Black Panthers J'suis pas Charlie si c'est mérité, j'suis plus Mohammed Ali que Cassius Clay J'vais t'niquer sans t'laisser d'héritier ou t'engrosser jusqu'à l'obésité Cagoulé j'la joue S-I-bo-Y, arme de l'Est dans l'coffre du break La bite est dure comme le vécu d'Emery, liberté africaine express Y'a trop de 'tasses, trop de grosses chiennes, y'a plus d'esclaves, que des grosses chaines Ils sont venu piller comme Luc Michel, on est v'nu résister comme Étienne J'suis les garçons, ils sont Hélène, j'suis sur l'toit du monde, t'es sur l'échelle Connexion Bruxelles à Haut-de-Seine, Débrouillard des Enfers jusqu'au Ciel En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir J'ai tout donné jusqu'à ma confiance, derrière vitres sans tain, on m'a pointé du doigt Dans la haine, je médite, fais les cent pas, le soir dans ma ville mais sans aller nulle part La trahison, ça coûte cher, ça vaut bien plus que trente sous Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote En eux, j'vois Judas Iscariote Dans la haine, je médite, j'rallume bédo de beuh pour éviter de broyer du noir3</t>
+          <t>Ti-di-di-di-di-da Ti-di-di-di-di-da Ti-di-di-di-de J'ai vu comment tu m'as r'gardée, mon charme a fait son effet Son effet On verra, verra qui fera le premier pas, en tout cas, ce s'ra pas moi Moi, moi On m'a dit t'es dangereux mais t'es mignon, ah Ah Lui, c'est trop ma came, oh non Il va m'ramener des problèmes, je sais Je sais Moi, j'aime bien, tu connais, quand c'est pimenté Tu vois plus les autres quand j'suis dans les parages Les parages, ouais Par mes formes, toi, t'es envoûté Envoûté Tu t'en, tu t'en fous des autres, tu m'dis Fais-moi câlin Câlin, oui Par mes formes, toi, t'es envoûté Taille mannequin, mannequin, sans forcer Sans forcer T'as kiffé la dégaine, kiffé la dégaine Oh ouais Mannequin, mannequin, sans forcer Sans forcer Té-ma la dégaine, té-ma la dégaine Ici ça brille, j'peux pas t'expliquer Eh-eh-eh Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Té-ma la dégaine Mannequin, mannequin sans forcer T'as kiffé la dégaine Ouais, té-ma la dégaine J'déclare une flamme qui effrayera les pompiers Pompiers J'ai cur de pirate, toujours sur le chantier Chantier Tu sais, la moula, j'en connais les dangers Ton mec rêve de faire le milli', moi, ça fait des années qu'j'l'ai fait Eh Allô ? J'ai pris ton numéro chez la cousine des Diallo Oh-oh Elle m'a dit qu't'as un djo mais qu'tu préfères les salauds T'aimeras me détester Oh-oh, j'te f'rai du sale, j'vais pas te respecter Nan Slalom entre tes reins, j'sors en charisme Té-ma la dégaine, té-ma la dégaine Machin dans le machin, plein de salive Té-ma la dégaine On va se sextaper, oh Taille mannequin, mannequin, sans forcer Sans forcer T'as kiffé la dégaine La dégaine, kiffé la dégaine Oh ouais Mannequin, mannequin, sans forcer Yeah Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Té-ma la dégaine Ici ça brille, j'peux pas t'expliquer Eh-eh-eh Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Mannequin, mannequin sans forcer T'as kiffé la dégaine, té-ma la dégaine On se sait en vérité, t'as perdu la raison Ouais Tu m'vas si bien mais sans pression Pression Ouais, j'avoue, là, j'ressens la tension La tension À ton p'tit cur, j'ai capté, j'ai mis l'feu Pou-pouh Il veut rentrer dans ma tête, j'suis choquée J'imaginais pas Ah ouais, t'es piqué de moi ? J'suis piqué Tu veux la totale, doucement T'es plutôt comme ça, mmh J'y vais pas-à-pas Ouais, mmh, moi, j'y vais pas-à-pas Tu vois plus les autres quand j'suis dans les parages Les parages, ouais Par mes formes, toi, t'es envoûté Envoûté Tu t'en, tu t'en fous des autres, tu m'dis Fais-moi câlin Câlin, oui Par mes formes, toi, t'es envoûté T'es trop sur mes côtes T'es trop sur mes côtes J'me pose pas d'questions J'me pose pas d'questions Sur moi, t'es trop chaud Chaud T'es trop sur mes côtes Taille mannequin, mannequin, sans forcer Sans forcer T'as kiffé la dégaine Kiffé la dégaine, oui, kiffé la dégaine Oh oui Mannequin, mannequin, sans forcer Té-ma la dégaine Té-ma la dégaine, oui, té-ma la dégaine Té-ma la dégaine, oh oui Ici ça brille, j'peux pas t'expliquer Eh-eh-eh Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Eh Mannequin, mannequin, sans forcer T'as kiffé la dégaine, té-ma la dégaine Ouais, ouais Mannequin, mannequin, sans forcer Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Mannequin, mannequin, sans forcer T'as kiffé la dégaine, té-ma la dégaine Ouais, ouais Ici ça brille, j'peux pas t'expliquer, expliquer Oh oui Mannequin, mannequin, sans forcer Yeah, yeah, yeah</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>COEUR DE ICE</t>
+          <t>Σ. Ouzbek*</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>L1, L2, L1, L2 L1, L2, L1, L2 L1, L2, L1, L2 Prince Paw Elle mouille sur mon sofa, j'couvre avec le plaid, j'suis dans la kitchen, pourtant, j'ai un bed Around my neck, c'est des diamants du bled Ah, à part mon glizzy, y a personne qui m'aime À part mon glizzy, y a personne qui m'aime, j'ai dans le viseur une couleur ébène 'bène Encore un négro Bang, pourquoi mon négro Oh ? Pourquoi mon pfiou, pfiou, pfiou, bang Wesh, Dems, Dems Wesh, j'roule avec la bitch dans le coupe, pour piéger un opps, demande Combien ça coûte ? J'l'ai vue cacher son 'phone Oh, fouiller mon 'phon, elle va dans la salle d bain, quand j'dors, j'ai des doutes Pah, pah Pardon, je prends mon pétard quand j'la date Eh-eh, elle a le cavu bien rond comme un eight T'es ma babe, tu s'ras rayée d'la liste quand t'as payé ta dette Elle m'fait du phone sexe quand j'm'envole à l'étranger Oui, j'suis famous, quand je baise, j'peux même plus étrangler Louis, Fendi, elle ferme même plus les onglets, j'crois qu'elle m'a hasba, j'ai les messages en gris Fais-moi cracher plus vite, j'suis garé sur place handi' Oh, j'ai des stories de Tory, blasez-moi Andy Elle est bonne mais pas conne, faut pas écouter c'qu'on dit, bonne mais pas conne, faut pas écouter c'qu'on dit Ice en cur de ice, esquimau Miskina, c'que j'lui mets à là-celle dans son minou Okay Ice en cur de ice, esquimau Miskina, c'que j'lui mets à là-celle dans son minou Ice, yeah Elle mouille sur mon sofa, j'couvre avec le plaid, j'suis dans la kitchen, pourtant, j'ai un bed Around my neck, c'est des diamants du bled Ah, à part mon glizzy, y a personne qui m'aime À part mon glizzy, y a personne qui m'aime, j'ai dans le viseur une couleur ébène Encore un négro, pourquoi mon négro ? Pourquoi mon pfiou, pfiou, pfiou, bang Oh la la, ouah Je n'fais que dans le désespoir, rah, Amoroso, Amoroso, woh, la vie est noire, rah Zola, Aurél', pas de Émile Émile, muqueuses de putes rempli d'cocaïne 'caïne Jaune est cartonné, le cône est parfumé, font plus de morts qu'Adolf et Staline Yeah Dans sa gorge jusqu'à c'qu'elle vomisse Ouais, dans sa chatte jusqu'à l'agonie Okay J'la démarre Ouh, j'la termine Ouh, j'la démarre Ouh, j'l'extermine Rah Doucement, faudrait pas qu'j'm'incrimine, beaucoup de boucans, beaucoup de querelles Querelles Ces faux rappeurs n'ont plus de flow No, donc ils investissent dans la gestuelle Ouh, ouh, ouh Négro fuchsia dans le négro fuchsia, dans la drogue et la lean, c'est c'qu'ils attendent de mon taux d'mélanine Nouveau ness-bi', j'investis dans le jean, moula, moula blanche dans les narines Ouais Triste vie et sombre enfance Okay, ta mère la pute aurait du faire une fausse couche pour nous épargner ton existence Pfiou, Dems Elle mouille sur mon sofa, j'couvre avec le plaid, j'suis dans la kitchen, pourtant, j'ai un bed Around my neck, c'est des diamants du bled, à part mon glizzy, y a personne qui m'aime À part mon glizzy, y a personne qui m'aime, j'ai dans le viseur une couleur ébène Encore un négro, pourquoi mon négro ? Pourquoi mon pfiou, pfiou Ice en cur de ice Cur de ice, switch, esquimau Wouh Miskina, c'que j'lui mets à là-celle dans son minou C'est chaud Ice en cur de ice, esquimau Esquimau, esquimau Miskina, c'que j'lui mets à là-celle dans son minou Fah, fah, fah, fah, fah Dems, Dems, Dems, Dems, Dems, Dems Zo' Ah-ah-ah Tcheck, mon reuf Tchek, mon reuf</t>
+          <t>Ikaz Nwaar Eh, sale Dems, eh Oseille, dealer, crimes, proxénètes J'suis dans le business, j'n'écris plus de textes, faut qu'j'm'y mette Nwaar Combien vaut ton bling-bling ? J'compte plus pour être honnête Le linge frotte, sent la barrette de shit ouzbek B-b-b-bang Ratatata, c'est le bruit du saal Saal Ne fais pas de feat, j'te nique sur le ring et sur l'instrumentale Nwaar Barillet est chargé, loin des plages de galets, je bosse Prends ta pilule, sinon mère de Lior saura qu'j'ai un gosse Jamais Oseille, dealer, crimes, proxénètes Ouais, Ouais J'suis dans le business, j'n'écris plus de textes, faut qu'j'm'y mette Combien vaut ton bling-bling ? J'compte plus pour être honnête Non je n'sais plus Le linge frotte, sent la barrette de shit ouzbek7</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Dégaine</t>
+          <t>Nocif</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ti-di-di-di-di-da Ti-di-di-di-di-da Ti-di-di-di-de J'ai vu comment tu m'as r'gardée, mon charme a fait son effet Son effet On verra, verra qui fera le premier pas, en tout cas, ce s'ra pas moi Moi, moi On m'a dit t'es dangereux mais t'es mignon, ah Ah Lui, c'est trop ma came, oh non Il va m'ramener des problèmes, je sais Je sais Moi, j'aime bien, tu connais, quand c'est pimenté Tu vois plus les autres quand j'suis dans les parages Les parages, ouais Par mes formes, toi, t'es envoûté Envoûté Tu t'en, tu t'en fous des autres, tu m'dis Fais-moi câlin Câlin, oui Par mes formes, toi, t'es envoûté Taille mannequin, mannequin, sans forcer Sans forcer T'as kiffé la dégaine, kiffé la dégaine Oh ouais Mannequin, mannequin, sans forcer Sans forcer Té-ma la dégaine, té-ma la dégaine Ici ça brille, j'peux pas t'expliquer Eh-eh-eh Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Té-ma la dégaine Mannequin, mannequin sans forcer T'as kiffé la dégaine Ouais, té-ma la dégaine J'déclare une flamme qui effrayera les pompiers Pompiers J'ai cur de pirate, toujours sur le chantier Chantier Tu sais, la moula, j'en connais les dangers Ton mec rêve de faire le milli', moi, ça fait des années qu'j'l'ai fait Eh Allô ? J'ai pris ton numéro chez la cousine des Diallo Oh-oh Elle m'a dit qu't'as un djo mais qu'tu préfères les salauds T'aimeras me détester Oh-oh, j'te f'rai du sale, j'vais pas te respecter Nan Slalom entre tes reins, j'sors en charisme Té-ma la dégaine, té-ma la dégaine Machin dans le machin, plein de salive Té-ma la dégaine On va se sextaper, oh Taille mannequin, mannequin, sans forcer Sans forcer T'as kiffé la dégaine La dégaine, kiffé la dégaine Oh ouais Mannequin, mannequin, sans forcer Yeah Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Té-ma la dégaine Ici ça brille, j'peux pas t'expliquer Eh-eh-eh Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Mannequin, mannequin sans forcer T'as kiffé la dégaine, té-ma la dégaine On se sait en vérité, t'as perdu la raison Ouais Tu m'vas si bien mais sans pression Pression Ouais, j'avoue, là, j'ressens la tension La tension À ton p'tit cur, j'ai capté, j'ai mis l'feu Pou-pouh Il veut rentrer dans ma tête, j'suis choquée J'imaginais pas Ah ouais, t'es piqué de moi ? J'suis piqué Tu veux la totale, doucement T'es plutôt comme ça, mmh J'y vais pas-à-pas Ouais, mmh, moi, j'y vais pas-à-pas Tu vois plus les autres quand j'suis dans les parages Les parages, ouais Par mes formes, toi, t'es envoûté Envoûté Tu t'en, tu t'en fous des autres, tu m'dis Fais-moi câlin Câlin, oui Par mes formes, toi, t'es envoûté T'es trop sur mes côtes T'es trop sur mes côtes J'me pose pas d'questions J'me pose pas d'questions Sur moi, t'es trop chaud Chaud T'es trop sur mes côtes Taille mannequin, mannequin, sans forcer Sans forcer T'as kiffé la dégaine Kiffé la dégaine, oui, kiffé la dégaine Oh oui Mannequin, mannequin, sans forcer Té-ma la dégaine Té-ma la dégaine, oui, té-ma la dégaine Té-ma la dégaine, oh oui Ici ça brille, j'peux pas t'expliquer Eh-eh-eh Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Eh Mannequin, mannequin, sans forcer T'as kiffé la dégaine, té-ma la dégaine Ouais, ouais Mannequin, mannequin, sans forcer Té-ma la dégaine Té-ma la dégaine, té-ma la dégaine Mannequin, mannequin, sans forcer T'as kiffé la dégaine, té-ma la dégaine Ouais, ouais Ici ça brille, j'peux pas t'expliquer, expliquer Oh oui Mannequin, mannequin, sans forcer Yeah, yeah, yeah</t>
+          <t>Baby Baby Baby Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Ce love est dangereux et se consomme comme une drogue Drogue La première fois qu'on s'est vus, c'était nasty dans la loge Loge J'aime beaucoup ton approche 'che mais tu sais, j'n'aime que les lovés, mon cur est codé, nan Mais que dois-je encore t'expliquer ? Qui pourrait éclaircir ce mystère que t'entretiens autour de moi ? La nuit nous appartient mais tu veux continuer, jusqu'à tout déchirer Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Ma life Yes, babe, chemise ouverte Oh-la-la-la-la-la, j'n'ai plus vraiment le moral, la-la-la-la Des putes à foison, serviettes étanches mouillent comme dauphins, dauphines Coquine, salope, oui Salope veut mon juice comme toutes ses copines Hey J't'ai menti dans les yeux Eh, j't'ai dit qu'j'tais amoureux Ouais Mais dis-moi, qu'est-ce qu'un cur brisé pourrait faire de mieux ? Mmh Avancer seuls à deux Oui, traverser vent et feu Oui Dire au monde qu'au final, souffrir, c'est c'qu'on fait de mieux, oh, oh, oh-oh Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Essuie toi ta salive, t'es comme toutes tes copines Un peu trop possessive, ne t'approche pas, j'suis nocif Oh, na-na-na-na, la tain-p' me grimpe et saute sur moi J'te préviens, faut qu'ça reste lowkey, ils calculent pas c'qu'on dit, des fois, j'm'ennuie Donc je rode toute la night, toute la night Donc je rode toute la night Oh baby, donc je rode, toute la night Oh-oh-oh-oh Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Toute ma life Oh, babe, it's alright Oh, babe, it's alright Oh, babe, it's alright1</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Σ. Ouzbek*</t>
+          <t>Mucho Dinero</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ikaz Nwaar Eh, sale Dems, eh Oseille, dealer, crimes, proxénètes J'suis dans le business, j'n'écris plus de textes, faut qu'j'm'y mette Nwaar Combien vaut ton bling-bling ? J'compte plus pour être honnête Le linge frotte, sent la barrette de shit ouzbek B-b-b-bang Ratatata, c'est le bruit du saal Saal Ne fais pas de feat, j'te nique sur le ring et sur l'instrumentale Nwaar Barillet est chargé, loin des plages de galets, je bosse Prends ta pilule, sinon mère de Lior saura qu'j'ai un gosse Jamais Oseille, dealer, crimes, proxénètes Ouais, Ouais J'suis dans le business, j'n'écris plus de textes, faut qu'j'm'y mette Combien vaut ton bling-bling ? J'compte plus pour être honnête Non je n'sais plus Le linge frotte, sent la barrette de shit ouzbek7</t>
+          <t>Ponko Ouais, Ponko, vie Santos, vie Ah oui, Dems, he Négro sort du tieks ouais Gent-ar, full espèce sale Bédo, spliff au bec En cas d'embrouille, armes de l'est Y a plus d' si si la famille, non jamais Personne quand j'étais en hess Trente-quatre centimes dans le compte en banque clair Aujourd'hui, resto j'paye toujours en tous ensemble ouais Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh Dems Mucho dinero, ooh rah, rah Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh Dems Mucho dinero, ooh ouais Pas plus raciste que le j'ai un ami noir j'connais Complexe de taille de bite dans l'urinoir j'connais pas Un gros cul peut cacher l'visage d'un trans bah oui En deux projets j'me tape déjà toute la France Ça saoule comme quand ton plan cul s'met en couple ouais Depuis que t'es morte la vie n'vaut plus c'qu'elle me coûte amnésie Des larmes des fois j'en verse très peu On t'aime sauf quand tu perces bah ouais Tu parles que d'tes classiques d'antan c'est qu'c'est mort mort, mort, mort Tuer l'beat me demande vraiment plus d'effort bah ouais La mort n'a pas de guest jamais J'partirai que si j'y reste vie Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh Dems Mucho dinero, ooh rah, rah Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh ouais Mucho dinero, ooh oui Dems rah, rah Vie vie Santos,vie Ponko, oohh1</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Nocif</t>
+          <t>YOUVOI</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Baby Baby Baby Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Ce love est dangereux et se consomme comme une drogue Drogue La première fois qu'on s'est vus, c'était nasty dans la loge Loge J'aime beaucoup ton approche 'che mais tu sais, j'n'aime que les lovés, mon cur est codé, nan Mais que dois-je encore t'expliquer ? Qui pourrait éclaircir ce mystère que t'entretiens autour de moi ? La nuit nous appartient mais tu veux continuer, jusqu'à tout déchirer Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Ma life Yes, babe, chemise ouverte Oh-la-la-la-la-la, j'n'ai plus vraiment le moral, la-la-la-la Des putes à foison, serviettes étanches mouillent comme dauphins, dauphines Coquine, salope, oui Salope veut mon juice comme toutes ses copines Hey J't'ai menti dans les yeux Eh, j't'ai dit qu'j'tais amoureux Ouais Mais dis-moi, qu'est-ce qu'un cur brisé pourrait faire de mieux ? Mmh Avancer seuls à deux Oui, traverser vent et feu Oui Dire au monde qu'au final, souffrir, c'est c'qu'on fait de mieux, oh, oh, oh-oh Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Essuie toi ta salive, t'es comme toutes tes copines Un peu trop possessive, ne t'approche pas, j'suis nocif Oh, na-na-na-na, la tain-p' me grimpe et saute sur moi J'te préviens, faut qu'ça reste lowkey, ils calculent pas c'qu'on dit, des fois, j'm'ennuie Donc je rode toute la night, toute la night Donc je rode toute la night Oh baby, donc je rode, toute la night Oh-oh-oh-oh Baby, j'ai câblé pour toi Sans intérêt, me d'mande pas pourquoi Ce soir, j'innove, j'fume la zaza Un tas de tourments qui m'suivent et qui m'suivront pour l'reste de ma life Toute ma life Oh, babe, it's alright Oh, babe, it's alright Oh, babe, it's alright1</t>
+          <t>Yeah Ouais Yeah, yeah Yeah J'suis le pote du rappeur dans l'clip qui n'parle jamais Nan Fait des signes d'vant la caméra, l'shit fume sans arrêt Ouais Celui qui tient le calibre Poum, poum Dans l'son, on l'voit vite fait à la fin face cam, regard méchant, j't'allume Pah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Yeah You-you-you-youvoi On s'contente pas d'faire du sale dans les pe-cli Nan Souvent sa vie qu'on raconte par les OG Celui qui traîn dans la zone Toi, devrais achète ls CD pour sout'nir la famille Oui Celui qu'tu croises dans les soirées Dans les studios Ouais, dans les tournées Oui J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Moi j'suis qu'un thug, j'sais rien faire de bien Ça tire des bastos réelles d'où je viens Pourquoi ai-je tant d'ennemis ? Oh oui Des fils de putains dans le tiekson qui rodent pour me té-sau Pourquoi noir, jeune et riche attire mauvais il ? Les risques et les rageux veulent briser nos rêves Les envieux veulent pas trop connaître sex friends, yeah Ambiance électrique, mon sexe est un taser Piou On f'ra du moins d'dix-huit avec mon majeur Piou Tout est dans la musique dans le premier quart d'heure J'regarde ton physique, mon esprit est ailleurs Ouais Tu m'fais perdre la raison, mots vicieux dans l'oreille Oui Fuck les quatres saisons, j'te préfère en chaleur Love Mon cur en pleine cuisson, tu connais la saveur, le bendo J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Yeah6</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Mucho Dinero</t>
+          <t>Robe</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ponko Ouais, Ponko, vie Santos, vie Ah oui, Dems, he Négro sort du tieks ouais Gent-ar, full espèce sale Bédo, spliff au bec En cas d'embrouille, armes de l'est Y a plus d' si si la famille, non jamais Personne quand j'étais en hess Trente-quatre centimes dans le compte en banque clair Aujourd'hui, resto j'paye toujours en tous ensemble ouais Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh Dems Mucho dinero, ooh rah, rah Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh Dems Mucho dinero, ooh ouais Pas plus raciste que le j'ai un ami noir j'connais Complexe de taille de bite dans l'urinoir j'connais pas Un gros cul peut cacher l'visage d'un trans bah oui En deux projets j'me tape déjà toute la France Ça saoule comme quand ton plan cul s'met en couple ouais Depuis que t'es morte la vie n'vaut plus c'qu'elle me coûte amnésie Des larmes des fois j'en verse très peu On t'aime sauf quand tu perces bah ouais Tu parles que d'tes classiques d'antan c'est qu'c'est mort mort, mort, mort Tuer l'beat me demande vraiment plus d'effort bah ouais La mort n'a pas de guest jamais J'partirai que si j'y reste vie Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh Dems Mucho dinero, ooh rah, rah Dans la valise, dans la valise, dans la valise sale Dans la valise, dans la valise, dans la valise nwaar Mucho dinero, mucho dinero, oh ouais Mucho dinero, ooh oui Dems rah, rah Vie vie Santos,vie Ponko, oohh1</t>
+          <t>Comme tes formes se dessinent, ta robe nous laisse imaginer hein Que pour toi, c'est impossible de dire oui ouh Contente-toi d'me faire un signe, juste un battement de cil ouh oui Si jamais tu te décides de dire oui ouh J'ai commencé par demander ton nom demander ton nom Et quelques minutes pour m'écouter, -couter, -couter, -couter ouh Comment devenir plus proche que ton ombre Au point d'avoir le souffle coupé, coupé, coupé, coupé ouh Et j'ai des projets pour toute une vie J'suis un peu différent de celui qui chante BruxellesVie ouais J'nous vois bien bloqués dans cette même nuit À braquer l'soleil pour empêcher quça se termine eh Laisse-moi t'accompagner Laisse-moi t'prouver que cette nuit durera sûrement des années Ma chérie laisse-moi tenlever Tous tes, tous tes, tous tes ouh Comme tes formes se dessinent se dessinent, ta robe nous laisse imaginer ta robe nous laisse imaginer Que pour toi, c'est impossible de dire oui ouh Contente-toi d'me faire un signe un signe, juste un battement de cil ouh oui Si jamais tu te décides de dire oui Dans ta tte-cha, je ferai oh oh ah J't'ai vu briser tous les curs des bricraveurs du club, des gros, gros bras Lamour, jconnais que celui tiré par les cheveux pendant le doggy, me dmande pas pourquoi Très écologique quand il s'agit de ta plastique, girl Mauvais pronostic, askip, t'aimes pas les blacks, ni beurs J'loue un jet pour un date, j'f'rais la tchatche du septième ciel, ah bah oui J'créé d'la moula, on vivra comme dans clip des cains-ri T'enlèves ta robe, j'perds la vue T'es comme du shit dans la rue tu t'fais désirer pour mieux t'fumer dans une feuille sale Si j'demande ta main, c'est pour la mettre sous le froc Balmain, y a pas de fiançailles ici J'me sens comme Biggie après Juicy J'nous vois à deux mais sur un tricycle Un marmot, une villa marbrée à Marbella Une vie dans laquelle les aiguilles tournent mais où le temps ne passe pas Dems Comme tes formes se dessinent se dessinent, ta robe nous laisse imaginer ta robe nous laisse imaginer Que pour toi, c'est impossible de dire oui ouh Contente-toi d'me faire un signe un signe, juste un battement de cil ouh oui Si jamais tu te décides de dire oui ouh Un signe Ta robe nous laisse imaginer Ouh Ta robe nous laisse imaginer Oh oh ah1</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>YOUVOI</t>
+          <t>Slow</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Yeah Ouais Yeah, yeah Yeah J'suis le pote du rappeur dans l'clip qui n'parle jamais Nan Fait des signes d'vant la caméra, l'shit fume sans arrêt Ouais Celui qui tient le calibre Poum, poum Dans l'son, on l'voit vite fait à la fin face cam, regard méchant, j't'allume Pah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Yeah You-you-you-youvoi On s'contente pas d'faire du sale dans les pe-cli Nan Souvent sa vie qu'on raconte par les OG Celui qui traîn dans la zone Toi, devrais achète ls CD pour sout'nir la famille Oui Celui qu'tu croises dans les soirées Dans les studios Ouais, dans les tournées Oui J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Moi j'suis qu'un thug, j'sais rien faire de bien Ça tire des bastos réelles d'où je viens Pourquoi ai-je tant d'ennemis ? Oh oui Des fils de putains dans le tiekson qui rodent pour me té-sau Pourquoi noir, jeune et riche attire mauvais il ? Les risques et les rageux veulent briser nos rêves Les envieux veulent pas trop connaître sex friends, yeah Ambiance électrique, mon sexe est un taser Piou On f'ra du moins d'dix-huit avec mon majeur Piou Tout est dans la musique dans le premier quart d'heure J'regarde ton physique, mon esprit est ailleurs Ouais Tu m'fais perdre la raison, mots vicieux dans l'oreille Oui Fuck les quatres saisons, j'te préfère en chaleur Love Mon cur en pleine cuisson, tu connais la saveur, le bendo J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi, ture-voi Yeah J'baigne dans l'trafic, j'suis qu'un youvoi, youvoi Yeah Gros joint, bad trip, j'suis dans ture-voi Yeah, yeah, yeah Yeah6</t>
+          <t>Woh, oh, oh, oh Yeah Yeah Woh, oh, oh, oh Yeah Yeah Elle aime quand j'lui prends les fesses par le jean J'parle pour de vrai, pas de films Je n'veux pas briser ton cur, c'est débile J'la zouk comme si j'venais tout droit des îles Les autres négros veulent s'la faire pour la frime Woh, oh, oh, oh, baby, move slow, slow, woh, oh, oh, oh Move slow, slow, woh, oh, oh, oh Elle veut qu'j'la bang comme un gun Baby, j'vais t'donner du fun Ne me parle pas de ton keum Ne me parle pas de ton keum J'reviendrai t'voir à l'occas' J'te laisserai conduire ma Mas' J'te laisserai conduire ma Mas' Je sais qu'tu veux m'aimer, je sais qu'tu veux m'aimer, je sais Je sais qu'tu veux baiser, je sais qu'tu veux baiser avec moi Je sais qu'tu veux rouler, je sais qu'tu veux rouler avec moi Baby, move slow, slow, woh, oh, oh, oh Slow, woh, oh, oh, oh Slow, slow, woh, oh, oh, oh Baby, move slow, slow, woh, oh, oh, oh Elle déshabille ses émotions, maquille toutes ses intentions Ton cur demande frais d'réparation pour toutes mes déclarations Baignons nous dans les larmes de l'ivresse J'ai d'la bonne beuh pour qu'ça s'passe en finesse Virginité émotionnelle Faux circoncis car j'te baiserai quand même Les dames et les jouvencelles accourent, coureur de jupons de la basse-cour Tes boyaux rejettent ma semence Demandent si y'avait pas d'autres trous J'suis trop nul à chier dans la romance Un peu comme les blagues de Canteloup Tu veux d'l'amour et d'la violence Mais entre nous il n'y aura jamais de nous J'préfère te voir en photo car t'es plus bonne en faux J'me présente D.A.M.S.O, sur ton corps il n'y a plus de veto Dans tes fesses, je suis entre Dans mon cur tu n'es qu'entre parenthèses J'passe ma main sur tes hanches Tu ressens chaleur, vent glacial et neige Dans tes fesses je suis entre Dans mon cur tu n'es qu'entre parenthèses J'passe ma main sur tes hanches Tu ressens chaleur, vent glacial et neige Attends... Laisse un peu j'vais tester un truc Juste un dernier, dernier verre après promis c'est tout Bédo weed dans le veau-cer j'suis complètement ailleurs Juste un dernier, dernier verre après promis c'est tout Bédo weed dans le veau-cer j'suis complètement ailleurs Ailleurs, ailleurs, ailleurs Bédo weed dans le veau-cer j'suis complètement ailleurs Ailleurs, ailleurs, ailleurs Baby, move slow, slow, woh, oh, oh, oh Slow, woh, oh, oh, oh2</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Robe</t>
+          <t>MA PUTAIN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Comme tes formes se dessinent, ta robe nous laisse imaginer hein Que pour toi, c'est impossible de dire oui ouh Contente-toi d'me faire un signe, juste un battement de cil ouh oui Si jamais tu te décides de dire oui ouh J'ai commencé par demander ton nom demander ton nom Et quelques minutes pour m'écouter, -couter, -couter, -couter ouh Comment devenir plus proche que ton ombre Au point d'avoir le souffle coupé, coupé, coupé, coupé ouh Et j'ai des projets pour toute une vie J'suis un peu différent de celui qui chante BruxellesVie ouais J'nous vois bien bloqués dans cette même nuit À braquer l'soleil pour empêcher quça se termine eh Laisse-moi t'accompagner Laisse-moi t'prouver que cette nuit durera sûrement des années Ma chérie laisse-moi tenlever Tous tes, tous tes, tous tes ouh Comme tes formes se dessinent se dessinent, ta robe nous laisse imaginer ta robe nous laisse imaginer Que pour toi, c'est impossible de dire oui ouh Contente-toi d'me faire un signe un signe, juste un battement de cil ouh oui Si jamais tu te décides de dire oui Dans ta tte-cha, je ferai oh oh ah J't'ai vu briser tous les curs des bricraveurs du club, des gros, gros bras Lamour, jconnais que celui tiré par les cheveux pendant le doggy, me dmande pas pourquoi Très écologique quand il s'agit de ta plastique, girl Mauvais pronostic, askip, t'aimes pas les blacks, ni beurs J'loue un jet pour un date, j'f'rais la tchatche du septième ciel, ah bah oui J'créé d'la moula, on vivra comme dans clip des cains-ri T'enlèves ta robe, j'perds la vue T'es comme du shit dans la rue tu t'fais désirer pour mieux t'fumer dans une feuille sale Si j'demande ta main, c'est pour la mettre sous le froc Balmain, y a pas de fiançailles ici J'me sens comme Biggie après Juicy J'nous vois à deux mais sur un tricycle Un marmot, une villa marbrée à Marbella Une vie dans laquelle les aiguilles tournent mais où le temps ne passe pas Dems Comme tes formes se dessinent se dessinent, ta robe nous laisse imaginer ta robe nous laisse imaginer Que pour toi, c'est impossible de dire oui ouh Contente-toi d'me faire un signe un signe, juste un battement de cil ouh oui Si jamais tu te décides de dire oui ouh Un signe Ta robe nous laisse imaginer Ouh Ta robe nous laisse imaginer Oh oh ah1</t>
+          <t>Yeah, yeah, yeah Damso dems, bang, bang, bang, bang Y a pas que le sexe dans la vie, j'ai du mal à comprendre L'amour marchera que si on m'enlève ma troisième jambe Je marche dans l'ombre, les gros culs me servent de lumière Je te perds de vue à force de te prendre par derrière T'aimerais que je tombe amoureux de ce qu'il y a sous ta chair Tes efforts ont payé mais je suis beaucoup trop cher Tes copines ne m'aiment pas, disent que c'est peine perdue Mais te disent pas que leur fantasme est de m'avoir tout nu Où t'en es, tu sais plus mais je sais que tu penses à moi T'en peux plus, tu cherches mon coup de pouce pour te mettre des doigts T'es assez bonne, tes attributs ont beaucoup de kilojoules Si j'tourne souvent en rond, c'est pour me rappeler ton boule C'est pas de l'amour que je ressens mais c'est plus que du sexe Je veux pas qu'on fasse du chemin mais qu'on aille plus loin dans tes fesses J'suis un salaud, t'es une gow bien, va checker un autre négro, je mérite pas que tu sois... Ma putain, ma putain, t'es belle de loin et de loin la plus belle Donc commence pas à faire ta putain, ta putain Sinon biatch, je te traiterai comme telle T'es une lumière, pourquoi joues-tu le rôle de l'ombre ? Pourquoi creuses-tu ta tombe ? Je veux pas t'péter comme toutes ces bombes Mais bon, si t'insistes comme une pute, je te mettrai que dans le uc' Il faut deux trous pour faire un monde Ma putain, ma putain, ma putain Ma putain, ma putain, ma putain T'aimes c'que j'écris, à croire que ma plume te donne des ailes La vie tient qu'à un fil, la mienne tient à ton string ficelle Je m'accroche à toi, j'avoue et puis qu'on colle et serrer Mais je t'avoue direct que je serai pas fidèle Je te tchatcherai dans le bus, tu te croiras en Lamborghini T'attraperas des puces tellement je te prendrai en doggy Ma carotte en bouche, grignote-la comme Bugs Bunny Si tu vois des négros louches, t'inquiètes pas c'est le OPG Le cul entre deux chaises, la queue entre deux fesses Tu veux prendre cher dans le boule, ça t'coûtera la peau des fesses Le cul plus rond qu'un pneu, qu'est ce que t'es bien roulée J'te kiffe peu à peu, je peux plus capituler Ton côté immaculé, mais que j'rêve de t'enculer Je suis malsain, libertin, vas check un autre négro, nan, je mérite pas que tu sois Ma putain, ma putain, t'es belle de loin et de loin la plus belle Donc commence pas à faire ta putain, ta putain Sinon biatch, je te traiterai comme telle T'es une lumière, pourquoi joues-tu le rôle de l'ombre ? Pourquoi creuses-tu ta tombe ? Je veux pas te péter comme toutes ces bombes Mais bon, si t'insistes comme une pute, je te mettrai que dans le uc' Il faut deux trous pour faire un monde Ma putain, ma putain, ma putain Ma putain, ma putain, ma putain4</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Slow</t>
+          <t>Personne</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Woh, oh, oh, oh Yeah Yeah Woh, oh, oh, oh Yeah Yeah Elle aime quand j'lui prends les fesses par le jean J'parle pour de vrai, pas de films Je n'veux pas briser ton cur, c'est débile J'la zouk comme si j'venais tout droit des îles Les autres négros veulent s'la faire pour la frime Woh, oh, oh, oh, baby, move slow, slow, woh, oh, oh, oh Move slow, slow, woh, oh, oh, oh Elle veut qu'j'la bang comme un gun Baby, j'vais t'donner du fun Ne me parle pas de ton keum Ne me parle pas de ton keum J'reviendrai t'voir à l'occas' J'te laisserai conduire ma Mas' J'te laisserai conduire ma Mas' Je sais qu'tu veux m'aimer, je sais qu'tu veux m'aimer, je sais Je sais qu'tu veux baiser, je sais qu'tu veux baiser avec moi Je sais qu'tu veux rouler, je sais qu'tu veux rouler avec moi Baby, move slow, slow, woh, oh, oh, oh Slow, woh, oh, oh, oh Slow, slow, woh, oh, oh, oh Baby, move slow, slow, woh, oh, oh, oh Elle déshabille ses émotions, maquille toutes ses intentions Ton cur demande frais d'réparation pour toutes mes déclarations Baignons nous dans les larmes de l'ivresse J'ai d'la bonne beuh pour qu'ça s'passe en finesse Virginité émotionnelle Faux circoncis car j'te baiserai quand même Les dames et les jouvencelles accourent, coureur de jupons de la basse-cour Tes boyaux rejettent ma semence Demandent si y'avait pas d'autres trous J'suis trop nul à chier dans la romance Un peu comme les blagues de Canteloup Tu veux d'l'amour et d'la violence Mais entre nous il n'y aura jamais de nous J'préfère te voir en photo car t'es plus bonne en faux J'me présente D.A.M.S.O, sur ton corps il n'y a plus de veto Dans tes fesses, je suis entre Dans mon cur tu n'es qu'entre parenthèses J'passe ma main sur tes hanches Tu ressens chaleur, vent glacial et neige Dans tes fesses je suis entre Dans mon cur tu n'es qu'entre parenthèses J'passe ma main sur tes hanches Tu ressens chaleur, vent glacial et neige Attends... Laisse un peu j'vais tester un truc Juste un dernier, dernier verre après promis c'est tout Bédo weed dans le veau-cer j'suis complètement ailleurs Juste un dernier, dernier verre après promis c'est tout Bédo weed dans le veau-cer j'suis complètement ailleurs Ailleurs, ailleurs, ailleurs Bédo weed dans le veau-cer j'suis complètement ailleurs Ailleurs, ailleurs, ailleurs Baby, move slow, slow, woh, oh, oh, oh Slow, woh, oh, oh, oh2</t>
+          <t>Ah, ah, ah, too much sauce Envoie les dinero Ouf J'ai la technique, le flow, les armes, le seum, l'envie de niquer ta mère et j'suis dangereux Ah Tu veux la guerre ? J'fais partie de ceux qu'ont marqué l'histoire et j'suis malheureux Ah Pas la même vie, pas la même SACEM, pas la même équipe, tous des peureux Pas le même don, pas le même délire, moi, c'est Dom Pérignon, toi, c'est vin mousseux J'ai plus aucune envie d'vous plaire, j'veux plus me justifier Je sais qu't'as fait tomber l'échelle pour pas qu'je puisse monter T'es en chien, moi, j'suis aux Seychelles, mon biff est dispatché Mes enfants vivront d'ma SACEM même quand j's'rai dé-côté J'te fais danser sur du zouk, d'la zumba ou du slow T'as reconnu ma voix, j'suis en feat avec Damso Sale J'suis tout c'que tu n'es pas, appelle-moi Lancelot T'as reconnu ma voix, j'suis en feat avec Damso Dems Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Les grosses bitchs, ne me regardez pas Nan Maisons d'disque, ne me parlez pas Oh Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Dans les gros titres, on ne voit plus qu'toi Ouais Tu crois que t'es quelqu'un parce qu'on parle de toi Ouh Pour passer le temps, j'achète des appartements Dems Wouh J'suis indépendant donc y a plus d'intervenant Noir J'ai fait des enfants dans sa ge-gor, au temps pour moi Ouais Son cur en plein tourment Damn, son corps vit de versements Sale Insulté sur réseaux sociaux Oui, je prends mes distances, j'étudie le droit devant Ouais T'as l'souffle et cours après l'métro Eh mais gagner du temps, au fond, n'est qu'une perte de temps Tu connais Sérénité tatouée pour ne plus la perdre Jamais Vers l'horizon, tout le vert s'égare Bah ouais J'ai tout niqué dans ce game, plus grand chose à faire Gamin J'mets des couplets dans mon compte épargne Dems Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Les grosses bitchs, ne me regardez pas Nan Maisons d'disque, ne me parlez pas Oh Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Dans les gros titres, on ne voit plus qu'toi Ouais Tu crois que t'es quelqu'un parce qu'on parle de toi Ouh Envoie des pesos, dinero, pesos Envoie des pesos, dinero, pesos Envoie des pesos, dinero, pesos Envoie des pesos, joue pas avec moi, mon soss Envoie des pesos, dinero, pesos Envoie Envoie des pesos Envoie, dinero Envoie, pesos Envoie Envoie des pesos, dinero, pesos Envoie Envoie des pesos, joue pas avec moi, mon soss Personne, personne, personne, personne Personne, personne, personne, personne Personne, personne, personne, personne Nobody, nobody, nobody, nobody Les grosses bitchs, ne me regardez pas Jamais Maisons d'disque, ne me parlez pas Oh Personne, personne, personne, personne Personne, personne, personne, personne Personne, personne, personne, personne Nobody, nobody, nobody, nobody Dans les gros titres, on ne voit plus qu'toi Jamais Tu crois que t'es quelqu'un parce qu'on parle de toi Vie Nobody, nobody, nobody, nobody Too much, too much Ça cest Vie</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MA PUTAIN</t>
+          <t>8 HORIZONTAL</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah Damso dems, bang, bang, bang, bang Y a pas que le sexe dans la vie, j'ai du mal à comprendre L'amour marchera que si on m'enlève ma troisième jambe Je marche dans l'ombre, les gros culs me servent de lumière Je te perds de vue à force de te prendre par derrière T'aimerais que je tombe amoureux de ce qu'il y a sous ta chair Tes efforts ont payé mais je suis beaucoup trop cher Tes copines ne m'aiment pas, disent que c'est peine perdue Mais te disent pas que leur fantasme est de m'avoir tout nu Où t'en es, tu sais plus mais je sais que tu penses à moi T'en peux plus, tu cherches mon coup de pouce pour te mettre des doigts T'es assez bonne, tes attributs ont beaucoup de kilojoules Si j'tourne souvent en rond, c'est pour me rappeler ton boule C'est pas de l'amour que je ressens mais c'est plus que du sexe Je veux pas qu'on fasse du chemin mais qu'on aille plus loin dans tes fesses J'suis un salaud, t'es une gow bien, va checker un autre négro, je mérite pas que tu sois... Ma putain, ma putain, t'es belle de loin et de loin la plus belle Donc commence pas à faire ta putain, ta putain Sinon biatch, je te traiterai comme telle T'es une lumière, pourquoi joues-tu le rôle de l'ombre ? Pourquoi creuses-tu ta tombe ? Je veux pas t'péter comme toutes ces bombes Mais bon, si t'insistes comme une pute, je te mettrai que dans le uc' Il faut deux trous pour faire un monde Ma putain, ma putain, ma putain Ma putain, ma putain, ma putain T'aimes c'que j'écris, à croire que ma plume te donne des ailes La vie tient qu'à un fil, la mienne tient à ton string ficelle Je m'accroche à toi, j'avoue et puis qu'on colle et serrer Mais je t'avoue direct que je serai pas fidèle Je te tchatcherai dans le bus, tu te croiras en Lamborghini T'attraperas des puces tellement je te prendrai en doggy Ma carotte en bouche, grignote-la comme Bugs Bunny Si tu vois des négros louches, t'inquiètes pas c'est le OPG Le cul entre deux chaises, la queue entre deux fesses Tu veux prendre cher dans le boule, ça t'coûtera la peau des fesses Le cul plus rond qu'un pneu, qu'est ce que t'es bien roulée J'te kiffe peu à peu, je peux plus capituler Ton côté immaculé, mais que j'rêve de t'enculer Je suis malsain, libertin, vas check un autre négro, nan, je mérite pas que tu sois Ma putain, ma putain, t'es belle de loin et de loin la plus belle Donc commence pas à faire ta putain, ta putain Sinon biatch, je te traiterai comme telle T'es une lumière, pourquoi joues-tu le rôle de l'ombre ? Pourquoi creuses-tu ta tombe ? Je veux pas te péter comme toutes ces bombes Mais bon, si t'insistes comme une pute, je te mettrai que dans le uc' Il faut deux trous pour faire un monde Ma putain, ma putain, ma putain Ma putain, ma putain, ma putain4</t>
+          <t>Yeah Damso Yo No, no, no Business illégaux 'llégaux, trafics, weed, bédo Smoke Verdure sur l'té-cô, j'fais de la moula, du seille-o Oh no, no, no, oh no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ? Business illégaux 'llégaux, verdure sur l'té-cô Smoke Trafique, weed, bédo, j'fais de la moula, du seille-o Oh no, no, no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ? À 300 mètres-seconde, la bastos est sortie du canon La mort fut imminente, le nègre était prévenu Un braco, j'repars poches pleines en te-boî, j'suis nonchalant Quelques putes sont en transe, voient qu'le nègre a des revenus, damn Y a que de la monnaie, les pétasses ont donné leur boule Leur boule J'suis complètement stone et j'bédave dans le hall du hood Check mes motherfuck' you-vois dans le dos C'est Damso motherfuck' OPG, négro, j'suis dans ma déf', pétasse, j'ai pas les crocs No J'vis une life dure tellement loin Saal, j'inhale dure-ver ou héro' Smoke J'suis fucked up, j'ai full clopes, le vent consume le bédo No no no no Business illégaux 'llégaux, trafics, weed, bédo Smoke Verdure sur l'té-cô, j'fais de la moula, du seille-o Oh no, no, no, oh no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ? Business illégaux 'llégaux, verdure sur l'té-cô Smoke Trafique, weed, bédo, j'fais de la moula, du seille-o Oh no, no, no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ?6</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Personne</t>
+          <t>ParoVie</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ah, ah, ah, too much sauce Envoie les dinero Ouf J'ai la technique, le flow, les armes, le seum, l'envie de niquer ta mère et j'suis dangereux Ah Tu veux la guerre ? J'fais partie de ceux qu'ont marqué l'histoire et j'suis malheureux Ah Pas la même vie, pas la même SACEM, pas la même équipe, tous des peureux Pas le même don, pas le même délire, moi, c'est Dom Pérignon, toi, c'est vin mousseux J'ai plus aucune envie d'vous plaire, j'veux plus me justifier Je sais qu't'as fait tomber l'échelle pour pas qu'je puisse monter T'es en chien, moi, j'suis aux Seychelles, mon biff est dispatché Mes enfants vivront d'ma SACEM même quand j's'rai dé-côté J'te fais danser sur du zouk, d'la zumba ou du slow T'as reconnu ma voix, j'suis en feat avec Damso Sale J'suis tout c'que tu n'es pas, appelle-moi Lancelot T'as reconnu ma voix, j'suis en feat avec Damso Dems Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Les grosses bitchs, ne me regardez pas Nan Maisons d'disque, ne me parlez pas Oh Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Dans les gros titres, on ne voit plus qu'toi Ouais Tu crois que t'es quelqu'un parce qu'on parle de toi Ouh Pour passer le temps, j'achète des appartements Dems Wouh J'suis indépendant donc y a plus d'intervenant Noir J'ai fait des enfants dans sa ge-gor, au temps pour moi Ouais Son cur en plein tourment Damn, son corps vit de versements Sale Insulté sur réseaux sociaux Oui, je prends mes distances, j'étudie le droit devant Ouais T'as l'souffle et cours après l'métro Eh mais gagner du temps, au fond, n'est qu'une perte de temps Tu connais Sérénité tatouée pour ne plus la perdre Jamais Vers l'horizon, tout le vert s'égare Bah ouais J'ai tout niqué dans ce game, plus grand chose à faire Gamin J'mets des couplets dans mon compte épargne Dems Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Les grosses bitchs, ne me regardez pas Nan Maisons d'disque, ne me parlez pas Oh Personne, personne, personne, personne Eh eh Personne, personne, personne, personne Eh eh Dans les gros titres, on ne voit plus qu'toi Ouais Tu crois que t'es quelqu'un parce qu'on parle de toi Ouh Envoie des pesos, dinero, pesos Envoie des pesos, dinero, pesos Envoie des pesos, dinero, pesos Envoie des pesos, joue pas avec moi, mon soss Envoie des pesos, dinero, pesos Envoie Envoie des pesos Envoie, dinero Envoie, pesos Envoie Envoie des pesos, dinero, pesos Envoie Envoie des pesos, joue pas avec moi, mon soss Personne, personne, personne, personne Personne, personne, personne, personne Personne, personne, personne, personne Nobody, nobody, nobody, nobody Les grosses bitchs, ne me regardez pas Jamais Maisons d'disque, ne me parlez pas Oh Personne, personne, personne, personne Personne, personne, personne, personne Personne, personne, personne, personne Nobody, nobody, nobody, nobody Dans les gros titres, on ne voit plus qu'toi Jamais Tu crois que t'es quelqu'un parce qu'on parle de toi Vie Nobody, nobody, nobody, nobody Too much, too much Ça cest Vie</t>
+          <t>Kenobi, Shadow, Obiwan Kenobi Sedou gang, hey yeah, hey yeah J'viens d'un quartier où y a pas d'issue Tu fais confiance puis, tu finis déçu On vient d'la même sère-mi mais on s'entre-tue À Bruxelles pour rien, ça se tire dessus Ouais, j'suis paro, paro, paro Le système nous a fortement niqué Ouais, j'suis paro, paro, paro Après, ils veulent qu'on sache communiquer Ouais, j'suis paro, paro, paro Ouais, j'suis paro, paro, paro, ouais, ouais, ouais Ouais, j'suis paro, paro, paro Ouais, j'suis paro, paro, paro, ouais, ouais, ouais Mes frères du quartier sont H24 alcoolisés Ça bicrave, ça détaille pour aller voir le Colisée On connait la rue, la vente, les voitures banalisées, ouais, ouais Y a que sur la bonne ppe-fra que je peux miser La juge ne veut plus me condamner, elle sait qu'j'vais tout péter cette année, ouais Deux-trois rageux veulent me caner mais la Kalash' va les calmer, ouais J'ai investi d'l'argent de l'avance dans quelques kilos de beuh kilos de beuh Les stup' me contrôlent et j'évite la taule de peu taule de peu Entre toi et moi, sale fils de tain-p', y a une grosse latence J'ai galéré durant l'enfance, le manque de partage m'offense Très peu de négros comme Virgil Abloh Très peu de négros en Audemars, Hublot, ouais, ouais J'viens d'un quartier où y a pas d'issue Tu fais confiance puis, tu finis déçu On vient d'la même sère-mi mais on s'entre-tue À Bruxelles pour rien, ça se tire dessus Ouais, j'suis paro, paro, paro Le système nous a fortement niqué Ouais, j'suis paro, paro, paro Après, ils veulent qu'on sache communiquer Ouais, j'suis paro, paro, paro, paro oh la la la la Ouais, j'suis paro, paro, paro, ouais, ouais, ouais Ouais La mort, j'l'ai vue de près elle r'ssemble aux chances qu'on n'm'a pas données Entre nous, plus d'secret si c'n'est les salopes qu'j'ai d'jà serrées C'est la passe à dix dans l'top album, chaque fois, c'est pareil Le rap game n'vend qu'des disquettes, number one, j'fais qu'rendre la pareille Quelques haineux sur le té-cô veulent plus m'passer l'salem Qu'est-c'j'en ai à foutre ? J'suis d'jà à quinze mille eu' par semaine À l'hosto', la daronne s'bat contre la mort, son nouveau challenge DM cul de femelles, coup dil quand j'trouve pas trop l'sommeil L'amour console la haine, la haine empoisonne l'amour Mais j'n'y peux rien c'est Dieu qui donne, les femmes qui reprennent Me traite pas d'fils de pute, le cul d'ta mère m'est très familier Menaces de sombres stup', y a tellement d'preuves que j'peux pas nier Dems J'viens d'un quartier où y a pas d'issue oh la la la la Tu fais confiance puis, tu finis déçu On vient d'la même sère-mi mais on s'entre-tue À Bruxelles pour rien, ça se tire dessus Ouais, j'suis paro, paro, paro Le système nous a fortement niqué Ouais, j'suis paro, paro, paro Après, ils veulent qu'on sache communiquer Entre toi et moi, sale fils de tain-p', y a une grosse latence J'ai galéré durant l'enfance, le manque de partage m'offense Très peu de négros comme Virgil Abloh Très peu de négros en Audemars, Hublot, ouais, ouais1</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>8 HORIZONTAL</t>
+          <t>ON N’EST JAMAIS MIEUX COMPRIS QUE PAR SOI-MÊME</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Yeah Damso Yo No, no, no Business illégaux 'llégaux, trafics, weed, bédo Smoke Verdure sur l'té-cô, j'fais de la moula, du seille-o Oh no, no, no, oh no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ? Business illégaux 'llégaux, verdure sur l'té-cô Smoke Trafique, weed, bédo, j'fais de la moula, du seille-o Oh no, no, no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ? À 300 mètres-seconde, la bastos est sortie du canon La mort fut imminente, le nègre était prévenu Un braco, j'repars poches pleines en te-boî, j'suis nonchalant Quelques putes sont en transe, voient qu'le nègre a des revenus, damn Y a que de la monnaie, les pétasses ont donné leur boule Leur boule J'suis complètement stone et j'bédave dans le hall du hood Check mes motherfuck' you-vois dans le dos C'est Damso motherfuck' OPG, négro, j'suis dans ma déf', pétasse, j'ai pas les crocs No J'vis une life dure tellement loin Saal, j'inhale dure-ver ou héro' Smoke J'suis fucked up, j'ai full clopes, le vent consume le bédo No no no no Business illégaux 'llégaux, trafics, weed, bédo Smoke Verdure sur l'té-cô, j'fais de la moula, du seille-o Oh no, no, no, oh no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ? Business illégaux 'llégaux, verdure sur l'té-cô Smoke Trafique, weed, bédo, j'fais de la moula, du seille-o Oh no, no, no Ces nizos n'ont même pas le niveau, comment pourrais-je parler de rivaux ? Nanana Ces nizos n'ont même pas le niveau, comment pourrais-je ?6</t>
+          <t>Da-Da-Da Damso Muhfucker Dems Okay, hmm, yo OPGangsta OPGangsta OPGangsta Yeah La haine trop jeune à cause de judiciaires procédures Peu judicieux jadis mais de fil en aiguille, j'suis devenu un mec de haute couture J'vide mon second souffle, parce que j'manque pas d'air À force de viser les cieux, j'suis devenu tête en l'air Putain j'ai trop d'colère, j'en ai des marques Dans ce monde de vices, la femme est le clou du spectacle Un vagin, des boules et des ein-s, mec, c'est tout ce qu'il me faut J'veux rien d'plus, tant qu'elle m'suce, mec, c'est tout ce qu'il me faut J'viens pas d'la rue mais j'ai connu moi ses violences notoires Mais je ne représente pas, y a que les putes qui font l'trottoir J'ai peur du Noir et de l'obscurité car j'ai remarqué qu'ils sont proches et qu'aucun d'eux ne veut te voir briller Malgré qu'il y a trop de nanas, j'aimerais partir en exil, trouver le Nirvana Comme Siddhartha Gautama Pareil qu'à Gotham mais n'est pas Batman qui veut, nan Sauf pour les médecins au Nord-Kivu J'rêve souvent d'monnaie Mais j'tourne en rond pour être au centre de tout comme le cercle rouge du drapeau japonais Certains disent que j'chôme Mais en anglais moi, j'dirais shame on you Très peu m'ont trouvé un studio, avoue On dit qu'je taffe pas, j'suis mort de rire Qu'ils checkent mon phone-tel J'fais plus de lignes que la marque Burberry J'compte pas faire des sons qui buzzent comme tous ces losers J'veux être écouté plusieurs fois par un qu'une seule par plusieurs J'rappe à l'usure, à m'défoncer On m'dit Damso, t'as une belle voix C'est peut-être parce qu'on m'a trop fait chanter Il m'faut des thunes pour pas qu'ma vie soit ternie Oui, j'me force à croire que si j'roule pas sur l'or, c'est parce que j'ai pas l'permis L'argent coûte cher, au fond Alors, j'pousse le sol pour oublier que j'touche le fond Y a rien de mieux qu'une salope qui dit pas je t'aime après l'avoir niquée S'envoie en l'air comme Virgin, s'en bat les couilles de sa virginité J'ai une meuf, c'est vrai et j'en vois d'autres, c'est sale Mais dites pas que j'la trompe, dites plutôt que j'me trompe de femme Depuis l'époque du duvet j'fais du pe-ra Et si un jour j'deviens muet, négro, tinquiète pas qu'trouverai ma voie La vie sonne bizarre, comme dire courir à Marche-en-Famenne Bref, on n'est jamais mieux compris que par soi-même Déjà vingt ans Mais ne m'souhaite plus d'bon anniv garçon J'tourne juste autour d'un soleil de plomb Damso Dems Motherfucker, OPGangsta Dolfa Motherfucker, OPGangsta L.I.O. Motherfucker, OPGangsta Double R Motherfucker, OPGangsta Malila Motherfucker, OPGangsta P.H. Motherfucker, OPGangsta Louking Motherfucker, OPGangsta D.R.O.P.S. Motherfucker, OPGangsta OPGangsta OPGangsta OPGangsta OPGangsta Da-Da-Da Damso Muhfucker Dems4</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ParoVie</t>
+          <t>BODIES</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Kenobi, Shadow, Obiwan Kenobi Sedou gang, hey yeah, hey yeah J'viens d'un quartier où y a pas d'issue Tu fais confiance puis, tu finis déçu On vient d'la même sère-mi mais on s'entre-tue À Bruxelles pour rien, ça se tire dessus Ouais, j'suis paro, paro, paro Le système nous a fortement niqué Ouais, j'suis paro, paro, paro Après, ils veulent qu'on sache communiquer Ouais, j'suis paro, paro, paro Ouais, j'suis paro, paro, paro, ouais, ouais, ouais Ouais, j'suis paro, paro, paro Ouais, j'suis paro, paro, paro, ouais, ouais, ouais Mes frères du quartier sont H24 alcoolisés Ça bicrave, ça détaille pour aller voir le Colisée On connait la rue, la vente, les voitures banalisées, ouais, ouais Y a que sur la bonne ppe-fra que je peux miser La juge ne veut plus me condamner, elle sait qu'j'vais tout péter cette année, ouais Deux-trois rageux veulent me caner mais la Kalash' va les calmer, ouais J'ai investi d'l'argent de l'avance dans quelques kilos de beuh kilos de beuh Les stup' me contrôlent et j'évite la taule de peu taule de peu Entre toi et moi, sale fils de tain-p', y a une grosse latence J'ai galéré durant l'enfance, le manque de partage m'offense Très peu de négros comme Virgil Abloh Très peu de négros en Audemars, Hublot, ouais, ouais J'viens d'un quartier où y a pas d'issue Tu fais confiance puis, tu finis déçu On vient d'la même sère-mi mais on s'entre-tue À Bruxelles pour rien, ça se tire dessus Ouais, j'suis paro, paro, paro Le système nous a fortement niqué Ouais, j'suis paro, paro, paro Après, ils veulent qu'on sache communiquer Ouais, j'suis paro, paro, paro, paro oh la la la la Ouais, j'suis paro, paro, paro, ouais, ouais, ouais Ouais La mort, j'l'ai vue de près elle r'ssemble aux chances qu'on n'm'a pas données Entre nous, plus d'secret si c'n'est les salopes qu'j'ai d'jà serrées C'est la passe à dix dans l'top album, chaque fois, c'est pareil Le rap game n'vend qu'des disquettes, number one, j'fais qu'rendre la pareille Quelques haineux sur le té-cô veulent plus m'passer l'salem Qu'est-c'j'en ai à foutre ? J'suis d'jà à quinze mille eu' par semaine À l'hosto', la daronne s'bat contre la mort, son nouveau challenge DM cul de femelles, coup dil quand j'trouve pas trop l'sommeil L'amour console la haine, la haine empoisonne l'amour Mais j'n'y peux rien c'est Dieu qui donne, les femmes qui reprennent Me traite pas d'fils de pute, le cul d'ta mère m'est très familier Menaces de sombres stup', y a tellement d'preuves que j'peux pas nier Dems J'viens d'un quartier où y a pas d'issue oh la la la la Tu fais confiance puis, tu finis déçu On vient d'la même sère-mi mais on s'entre-tue À Bruxelles pour rien, ça se tire dessus Ouais, j'suis paro, paro, paro Le système nous a fortement niqué Ouais, j'suis paro, paro, paro Après, ils veulent qu'on sache communiquer Entre toi et moi, sale fils de tain-p', y a une grosse latence J'ai galéré durant l'enfance, le manque de partage m'offense Très peu de négros comme Virgil Abloh Très peu de négros en Audemars, Hublot, ouais, ouais1</t>
+          <t>Djadoo Grr La mala est gangx Ouh la la Hey, eh Pour plus être en galère, j'ai mis sur le té-c', té-c', té-c', faut toujours à becte À graille Dans ma che-po, c'est la Brinks, faut beaucoup de loves à la bank Bank, bank Gazo n'est pas riche Nan, j'ai cinquante milles eu' sur ma wrist Rolex M'ont pas vu passé le cap, donc ils me croient cap de signer un pacte J'suis plus sur le T mais j'ai ché-cra, j'suis dég', dég', dég' Berk, j'vais fumer un pét' Smoke Mon BSB veut plus de money Hey et mes shooters, ils veulent plus de body Boom, boom Lui, il dit des craqus Il ment, il a jamais revendu l crack Wallaye Prononce Mala gang et tu verras dégainer Pa-pa-pa-pa-pa-pa Hey, hey, hey J'ai beaucoup de bitchs J'ai beaucoup de bitchs, j'suis pas polygame Vu qu'tous mes ients-cli sont fidèles Tous mes ients-cli sont fidèles, suis-je un polygramme ? Suis-je un polygramme ? Là, j'ai mis du dam' Là, j'ai mis du, bitch, viens, on joue aux dames Mais crois-moi, y a que si tu bédaves que j'pourrais déclarer ma flamme Déclarer ma flamme Si ils reviennent Si ils reviennent, le pompe est là Eh J'ressors une 'tape J'ressors une 'tape, repompez la Ah oui Au charbon, même quand j'ai la flemme Quand j'ai la flemme, sous drogue, sous lin Eh Every day, a grandi ma fame A grandi ma fame, faut Coachella Pour plus être en galère, j'ai mis sur le té-c', té-c', té-c', faut toujours à becte À graille Dans ma che-po, c'est la Brinks, faut beaucoup de loves à la bank Shoo, bank, bank Gazo n'est pas riche Nan, j'ai cinquante milles eu' sur ma wrist Ah oui M'ont pas vu passé le cap, donc ils me croient cap de signer un pacte Ouais J'suis plus sur le T mais j'ai ché-cra, j'suis dég', dég', dég' Berk, j'vais fumer un pét' Okay Mon BSB veut plus de money Hey et mes shooters, ils veulent plus de body Boom, boom Lui, il dit des craques Il ment, il a jamais revendu le crack Dems Prononce Mala gang et tu verras dégainer Pa-pa-pa-pa-pa-pa Tou-dou-dou, fuck Putain, prononce mon se-bla, j'te shoote et j'te perfore le foie Salope Fils de, entre l'amour et la moula, kalashé, énervé, négro s'écroula Quand c'est les sombres brutes Sale noir Noir, le prix d'une villa autour du doigt Autour du doigt Putain, encore un négro qui die, pour qui Dieu, soit le toit Touh-touh Défoncé, j'suis dans la fosse La fosse, calumet, j'suis sur la côte La côte Coup d'fil, j'appelle Jay-Z, Jay-Z parler de G.O.A.T. à G.O.A.T. Allô ? Écoute Gros, t'as commis la faute La faute, sors les ustensiles Sors les ustensiles Dans les zones sensibles, poing dans les gencives, Ngannou Francis Francis Pour plus être en galère, j'ai mis sur le té-c', té-c', té-c' Eh, faut toujours à becte À graille Dans ma che-po, c'est la Brinks, faut beaucoup de loves à la bank Bank, bank Gazo n'est pas riche Nan, j'ai cinquante milles eu' sur ma wrist Rolex, ouais M'ont pas vu passé le cap, donc ils me croient cap de signer un pacte J'suis plus sur le T mais j'ai ché-cra, j'suis dég', dég', dég' Berk, j'vais fumer un pét' Smoke Mon BSB veut plus de money Moula, hey et mes shooters, ils veulent plus de body Boom, boom Lui, il dit des craques Il ment, il a jamais revendu le crack Wallaye Prononce Mala gang et tu verras dégainer Pa-pa-pa-pa-pa-pa Tou-dou-dou, pah Shoote, shoote, shoote, shoote8</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ON N’EST JAMAIS MIEUX COMPRIS QUE PAR SOI-MÊME</t>
+          <t>Malpolis</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Da-Da-Da Damso Muhfucker Dems Okay, hmm, yo OPGangsta OPGangsta OPGangsta Yeah La haine trop jeune à cause de judiciaires procédures Peu judicieux jadis mais de fil en aiguille, j'suis devenu un mec de haute couture J'vide mon second souffle, parce que j'manque pas d'air À force de viser les cieux, j'suis devenu tête en l'air Putain j'ai trop d'colère, j'en ai des marques Dans ce monde de vices, la femme est le clou du spectacle Un vagin, des boules et des ein-s, mec, c'est tout ce qu'il me faut J'veux rien d'plus, tant qu'elle m'suce, mec, c'est tout ce qu'il me faut J'viens pas d'la rue mais j'ai connu moi ses violences notoires Mais je ne représente pas, y a que les putes qui font l'trottoir J'ai peur du Noir et de l'obscurité car j'ai remarqué qu'ils sont proches et qu'aucun d'eux ne veut te voir briller Malgré qu'il y a trop de nanas, j'aimerais partir en exil, trouver le Nirvana Comme Siddhartha Gautama Pareil qu'à Gotham mais n'est pas Batman qui veut, nan Sauf pour les médecins au Nord-Kivu J'rêve souvent d'monnaie Mais j'tourne en rond pour être au centre de tout comme le cercle rouge du drapeau japonais Certains disent que j'chôme Mais en anglais moi, j'dirais shame on you Très peu m'ont trouvé un studio, avoue On dit qu'je taffe pas, j'suis mort de rire Qu'ils checkent mon phone-tel J'fais plus de lignes que la marque Burberry J'compte pas faire des sons qui buzzent comme tous ces losers J'veux être écouté plusieurs fois par un qu'une seule par plusieurs J'rappe à l'usure, à m'défoncer On m'dit Damso, t'as une belle voix C'est peut-être parce qu'on m'a trop fait chanter Il m'faut des thunes pour pas qu'ma vie soit ternie Oui, j'me force à croire que si j'roule pas sur l'or, c'est parce que j'ai pas l'permis L'argent coûte cher, au fond Alors, j'pousse le sol pour oublier que j'touche le fond Y a rien de mieux qu'une salope qui dit pas je t'aime après l'avoir niquée S'envoie en l'air comme Virgin, s'en bat les couilles de sa virginité J'ai une meuf, c'est vrai et j'en vois d'autres, c'est sale Mais dites pas que j'la trompe, dites plutôt que j'me trompe de femme Depuis l'époque du duvet j'fais du pe-ra Et si un jour j'deviens muet, négro, tinquiète pas qu'trouverai ma voie La vie sonne bizarre, comme dire courir à Marche-en-Famenne Bref, on n'est jamais mieux compris que par soi-même Déjà vingt ans Mais ne m'souhaite plus d'bon anniv garçon J'tourne juste autour d'un soleil de plomb Damso Dems Motherfucker, OPGangsta Dolfa Motherfucker, OPGangsta L.I.O. Motherfucker, OPGangsta Double R Motherfucker, OPGangsta Malila Motherfucker, OPGangsta P.H. Motherfucker, OPGangsta Louking Motherfucker, OPGangsta D.R.O.P.S. Motherfucker, OPGangsta OPGangsta OPGangsta OPGangsta OPGangsta Da-Da-Da Damso Muhfucker Dems4</t>
+          <t>Oh la la Je porte des illères, fuyant le monde, évitant le regard des gens Né dans le rouge, forcément, recherche le feu vert pour partir à temps Kilos de me-sper, beaucoup de descendants périrent dans grosses ch ensanglantées Beaucoup d'enfants, la moula, la moula, j'ai fait, j'suis dans l'business, un truc du genre Genre Merci à mes ennemis qui parlnt de moi sans me côtoyer J fais des économies, je vis dans leurs têtes sans payer de loyer Loyer, loyer Si j'devais mettre fin à mes jours, j'commencerais par le jour où j't'ai rencontré Rencontré Dans le quartier, le four, nombreux allers-retours rouges et bleu foncé On n'aime pas les bleus J'ignore pourquoi la drogue me soulage Eh, mon sommeil en dvient paro, sauf quand elle est inhalée Je fume trop de beuh Concours de Je t'aime, trop de Te amo, te amo pour qu'elle fasse la pute pour tout l'restant de l'année Nique ta mère, allez Je scroll et j'vois la vie des gens, c'est mieux Eh-eh-eh-eh Selfie sur la plage, mer bleue Oh-oh-oh J'm'en fous si j'suis pas vraiment heureux Nan, nan, nan, nan Selfie sur la plage, mer bleue Ouh-ouh, ouh-ouh, ouais Évidemment que j'n'ai pas le temps de concevoir une vie de rêve car j'ai des putains de 'blèmes sur l'tas Ouh Précipitamment, j'ai fait des choix, des choix que mon passé regrette entraînant des putains de 'blèmes sur l'tas Oh, oh, oh, oh, oh, oh Ma chérie, j'ai r'connu l'inconnu, un Je t'aime en soirée, je connais le tarot Okay, je meurs ma vie car je vis à mort Ouh J'ai fait mon testament, j'aime trop la vitesse, ne monte pas à bord Comme un conquistador, j'suis jamais là mais mon fils m'adore Je pense à Ethan, tu penses à Lior Tant de jalousies et de mauvais sorts Le ciel me réconforte, balle en argent dans fusil en or, c'est comme ça qu'on s'en sort J'ai le cur bleu, tant de beuh, les poumons en feu, d'la peine dans les yeux, on fait comme on peut Okay On ne parle pas bien, on est très malpolis On a sorti le machin la mort fait pas mal de bruit Shuu Ra-ta-ta-ta-ta, piouh, piouh, piouh, piouh, gang, gang Sale, sale On a sorti le machin la mort fait pas mal de bruit Boum On ne parle pas bien, on est très malpolis Mmh-mmh, mmh-mmh On a sorti le machin la mort fait pas mal de bruit Boum Ra-ta-ta-ta-ta, piouh, piouh, piouh, piouh, gang, gang Boum On a sorti le machin la mort fait pas mal de bruit Okay Mmh-mmh, mmh-mmh, mmh-mmh, mmh Mmh-mmh, mmh-mmh, mmh-mmh, mmh Mmh-mmh, mmh-mmh, mmh-mmh, mmh On a sorti le machin la mort fait pas mal de bruit Na-na-na-na On a sorti le machin la mort fait pas mal de bruit4</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>BODIES</t>
+          <t>C’est toujours Dems (Le vrai)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Djadoo Grr La mala est gangx Ouh la la Hey, eh Pour plus être en galère, j'ai mis sur le té-c', té-c', té-c', faut toujours à becte À graille Dans ma che-po, c'est la Brinks, faut beaucoup de loves à la bank Bank, bank Gazo n'est pas riche Nan, j'ai cinquante milles eu' sur ma wrist Rolex M'ont pas vu passé le cap, donc ils me croient cap de signer un pacte J'suis plus sur le T mais j'ai ché-cra, j'suis dég', dég', dég' Berk, j'vais fumer un pét' Smoke Mon BSB veut plus de money Hey et mes shooters, ils veulent plus de body Boom, boom Lui, il dit des craqus Il ment, il a jamais revendu l crack Wallaye Prononce Mala gang et tu verras dégainer Pa-pa-pa-pa-pa-pa Hey, hey, hey J'ai beaucoup de bitchs J'ai beaucoup de bitchs, j'suis pas polygame Vu qu'tous mes ients-cli sont fidèles Tous mes ients-cli sont fidèles, suis-je un polygramme ? Suis-je un polygramme ? Là, j'ai mis du dam' Là, j'ai mis du, bitch, viens, on joue aux dames Mais crois-moi, y a que si tu bédaves que j'pourrais déclarer ma flamme Déclarer ma flamme Si ils reviennent Si ils reviennent, le pompe est là Eh J'ressors une 'tape J'ressors une 'tape, repompez la Ah oui Au charbon, même quand j'ai la flemme Quand j'ai la flemme, sous drogue, sous lin Eh Every day, a grandi ma fame A grandi ma fame, faut Coachella Pour plus être en galère, j'ai mis sur le té-c', té-c', té-c', faut toujours à becte À graille Dans ma che-po, c'est la Brinks, faut beaucoup de loves à la bank Shoo, bank, bank Gazo n'est pas riche Nan, j'ai cinquante milles eu' sur ma wrist Ah oui M'ont pas vu passé le cap, donc ils me croient cap de signer un pacte Ouais J'suis plus sur le T mais j'ai ché-cra, j'suis dég', dég', dég' Berk, j'vais fumer un pét' Okay Mon BSB veut plus de money Hey et mes shooters, ils veulent plus de body Boom, boom Lui, il dit des craques Il ment, il a jamais revendu le crack Dems Prononce Mala gang et tu verras dégainer Pa-pa-pa-pa-pa-pa Tou-dou-dou, fuck Putain, prononce mon se-bla, j'te shoote et j'te perfore le foie Salope Fils de, entre l'amour et la moula, kalashé, énervé, négro s'écroula Quand c'est les sombres brutes Sale noir Noir, le prix d'une villa autour du doigt Autour du doigt Putain, encore un négro qui die, pour qui Dieu, soit le toit Touh-touh Défoncé, j'suis dans la fosse La fosse, calumet, j'suis sur la côte La côte Coup d'fil, j'appelle Jay-Z, Jay-Z parler de G.O.A.T. à G.O.A.T. Allô ? Écoute Gros, t'as commis la faute La faute, sors les ustensiles Sors les ustensiles Dans les zones sensibles, poing dans les gencives, Ngannou Francis Francis Pour plus être en galère, j'ai mis sur le té-c', té-c', té-c' Eh, faut toujours à becte À graille Dans ma che-po, c'est la Brinks, faut beaucoup de loves à la bank Bank, bank Gazo n'est pas riche Nan, j'ai cinquante milles eu' sur ma wrist Rolex, ouais M'ont pas vu passé le cap, donc ils me croient cap de signer un pacte J'suis plus sur le T mais j'ai ché-cra, j'suis dég', dég', dég' Berk, j'vais fumer un pét' Smoke Mon BSB veut plus de money Moula, hey et mes shooters, ils veulent plus de body Boom, boom Lui, il dit des craques Il ment, il a jamais revendu le crack Wallaye Prononce Mala gang et tu verras dégainer Pa-pa-pa-pa-pa-pa Tou-dou-dou, pah Shoote, shoote, shoote, shoote8</t>
+          <t>Ouais, Dems Jmarrête pas Ok, ouais Oh ouais Jmarrête pas Ouais Certains protègent ton dos juste pour mieux t'prendre en levrette Ils m'ont dit qu'entre pute et pote il n'y a qu'une seule lettre J'ai compris tard que rien n'est plus cher que la gratuité Qu'à force de payer d'ma personne, j'finirai endetté Entêté, dans ma tête, y'a trop d'soucis Depuis, on m'dit qu'j'ai trop d'lignes parallèles entre mes sourcils Oh damn, Damso, calme-toi, ils diront qu'tu craques Si la richesse est dans nos curs, c'est que j'mourrai sûrement d'une crise cardiaque On dit qu'j'suis méchant, qu'j'parle mal de trop Mais comprennent pas qu'c'est ceux qui ont des dents contre toi qui, souvent, mâchent les mots Te vantent trop, te servent trop, te kiffent trop La roulette russe est moins dangereuse que celle du casino Face à la mort, on cherche le pain de vie Mais pendez-vous, j'préfère d'mander à un aveugle son point de vue Sur ma vie, plutôt qu'à l'homme normal J'vois tellement grand qu'pour eux mon avenir est atteint d'un problème hormonal Depuis tout p'tit, je n'pense qu'à braquer Mon futur n'a plus de but, pourtant mon passé m'a beaucoup marqué Incompris car je n'me comprends pas Malheureux au point de chercher le bonheur que chez les femmes de joie J'aurais voulu naître sur la même étoile que Mercedes Un putain d'joint entre l'pouce et l'index Je tousse dans la caisse, je tire sur un pers' J'vois la vie en rose que quand j'fume de la verte Cette life me les casse, rime avec chatte et eins' On dit qu'j'perds de la masse, c'est p't-être depuis qu'mes chances sont minces Un peu voyou je fume, je bois, je tourne en rond Mon cur vient de la rue, pour ça qu'mes poumons sont remplis d'goudron Ici, les chiens n'aboient pas, y a pas d'caravane Gare à vous, pour blessure verbale, y a pas d'sparadrap Du rouge sur mes draps, vas-y baby dose Une brûlure au doigt, une nymphomane qui mouille et ça fait de l'eau chaude1</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Malpolis</t>
+          <t>RVRE</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Oh la la Je porte des illères, fuyant le monde, évitant le regard des gens Né dans le rouge, forcément, recherche le feu vert pour partir à temps Kilos de me-sper, beaucoup de descendants périrent dans grosses ch ensanglantées Beaucoup d'enfants, la moula, la moula, j'ai fait, j'suis dans l'business, un truc du genre Genre Merci à mes ennemis qui parlnt de moi sans me côtoyer J fais des économies, je vis dans leurs têtes sans payer de loyer Loyer, loyer Si j'devais mettre fin à mes jours, j'commencerais par le jour où j't'ai rencontré Rencontré Dans le quartier, le four, nombreux allers-retours rouges et bleu foncé On n'aime pas les bleus J'ignore pourquoi la drogue me soulage Eh, mon sommeil en dvient paro, sauf quand elle est inhalée Je fume trop de beuh Concours de Je t'aime, trop de Te amo, te amo pour qu'elle fasse la pute pour tout l'restant de l'année Nique ta mère, allez Je scroll et j'vois la vie des gens, c'est mieux Eh-eh-eh-eh Selfie sur la plage, mer bleue Oh-oh-oh J'm'en fous si j'suis pas vraiment heureux Nan, nan, nan, nan Selfie sur la plage, mer bleue Ouh-ouh, ouh-ouh, ouais Évidemment que j'n'ai pas le temps de concevoir une vie de rêve car j'ai des putains de 'blèmes sur l'tas Ouh Précipitamment, j'ai fait des choix, des choix que mon passé regrette entraînant des putains de 'blèmes sur l'tas Oh, oh, oh, oh, oh, oh Ma chérie, j'ai r'connu l'inconnu, un Je t'aime en soirée, je connais le tarot Okay, je meurs ma vie car je vis à mort Ouh J'ai fait mon testament, j'aime trop la vitesse, ne monte pas à bord Comme un conquistador, j'suis jamais là mais mon fils m'adore Je pense à Ethan, tu penses à Lior Tant de jalousies et de mauvais sorts Le ciel me réconforte, balle en argent dans fusil en or, c'est comme ça qu'on s'en sort J'ai le cur bleu, tant de beuh, les poumons en feu, d'la peine dans les yeux, on fait comme on peut Okay On ne parle pas bien, on est très malpolis On a sorti le machin la mort fait pas mal de bruit Shuu Ra-ta-ta-ta-ta, piouh, piouh, piouh, piouh, gang, gang Sale, sale On a sorti le machin la mort fait pas mal de bruit Boum On ne parle pas bien, on est très malpolis Mmh-mmh, mmh-mmh On a sorti le machin la mort fait pas mal de bruit Boum Ra-ta-ta-ta-ta, piouh, piouh, piouh, piouh, gang, gang Boum On a sorti le machin la mort fait pas mal de bruit Okay Mmh-mmh, mmh-mmh, mmh-mmh, mmh Mmh-mmh, mmh-mmh, mmh-mmh, mmh Mmh-mmh, mmh-mmh, mmh-mmh, mmh On a sorti le machin la mort fait pas mal de bruit Na-na-na-na On a sorti le machin la mort fait pas mal de bruit4</t>
+          <t>Yah, yah Yah Yah, yah Yah Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Sombre haine et violence tout c'que je suscite Bang Négro, pour des passages radio, rien qu't'ingurgites Bang J'instaure une dictature, j'fais plus d'la musique, reflet du biff dans mon iris, autant puriste que futuriste, hey hey, allez zouin Allez zouin J'fais du sale qu'avec les miens, j'irai dans la shnek à ta mère pour mieux savoir d'où tu viens Choush Il m'faudrait du temps, de l'argent, à part ça, j'n'ai b'soin de rien Contradictoire à temps plein, j'peux t'faire du mal pour t'faire du bien Sénégal sur le drapeau, j'ai ma flotte, trop d'fiottes dans le game L'industrie s'ra sous le choc, j'suis différent vu l'époque Fuck Tasse-pé fourrée entraîne échauffourées Sale, sale Faites-le pour la culture Yah, yah, yah, après mourez si vous voulez Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Sale, j'ai rien vu, rien entendu, l'agent m'tire quand même dessus J'ai rien dit, rien prétendu, en pleine guerre, j'suis détendu J'y passerai un siècle donc mes péchés, j'vais pas t'énumérer, hey Pute, pendant qu'j'suis dans sa chatte, elle est rémunérée, hey Percé par les grands mais pressé par le temps Innocent, j'ai pas compris qu'l'argent se gagnait par le sang L'heure n'est pas la même, elle est beaucoup plus belle dans l'Audemars Fort Le rap game va rejoindre sa pute de grand-mère dans l'au-delà, hey hey Fils de pute, j'ai descendu Dose, les keufs me questionnent Et les pétasses m'espionnent, j'ai rien vu, rien entendu Hey Il reste des résidus Hey, les keufs me questionnent Et les pétasses m'espionnent Yah, yah, yah, j'ai rien vu, rien entendu Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Hey, KultureVie Sombre, sale Dems, eh2</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>C’est toujours Dems (Le vrai)</t>
+          <t>Praliné</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Ouais, Dems Jmarrête pas Ok, ouais Oh ouais Jmarrête pas Ouais Certains protègent ton dos juste pour mieux t'prendre en levrette Ils m'ont dit qu'entre pute et pote il n'y a qu'une seule lettre J'ai compris tard que rien n'est plus cher que la gratuité Qu'à force de payer d'ma personne, j'finirai endetté Entêté, dans ma tête, y'a trop d'soucis Depuis, on m'dit qu'j'ai trop d'lignes parallèles entre mes sourcils Oh damn, Damso, calme-toi, ils diront qu'tu craques Si la richesse est dans nos curs, c'est que j'mourrai sûrement d'une crise cardiaque On dit qu'j'suis méchant, qu'j'parle mal de trop Mais comprennent pas qu'c'est ceux qui ont des dents contre toi qui, souvent, mâchent les mots Te vantent trop, te servent trop, te kiffent trop La roulette russe est moins dangereuse que celle du casino Face à la mort, on cherche le pain de vie Mais pendez-vous, j'préfère d'mander à un aveugle son point de vue Sur ma vie, plutôt qu'à l'homme normal J'vois tellement grand qu'pour eux mon avenir est atteint d'un problème hormonal Depuis tout p'tit, je n'pense qu'à braquer Mon futur n'a plus de but, pourtant mon passé m'a beaucoup marqué Incompris car je n'me comprends pas Malheureux au point de chercher le bonheur que chez les femmes de joie J'aurais voulu naître sur la même étoile que Mercedes Un putain d'joint entre l'pouce et l'index Je tousse dans la caisse, je tire sur un pers' J'vois la vie en rose que quand j'fume de la verte Cette life me les casse, rime avec chatte et eins' On dit qu'j'perds de la masse, c'est p't-être depuis qu'mes chances sont minces Un peu voyou je fume, je bois, je tourne en rond Mon cur vient de la rue, pour ça qu'mes poumons sont remplis d'goudron Ici, les chiens n'aboient pas, y a pas d'caravane Gare à vous, pour blessure verbale, y a pas d'sparadrap Du rouge sur mes draps, vas-y baby dose Une brûlure au doigt, une nymphomane qui mouille et ça fait de l'eau chaude1</t>
+          <t>Ouh, ouh, ouh, ouh, ouh, ouh Michto' lova, lova À la tienne, j'ai le gosier, aussi vierge que mon casier Ouais, c'est bon, ouais, c'est bon Doux visage pour me blesser, bien trop bonne, j't'ai signalée Ouais, c'est bon, ouais, c'est bon Les boloss à ta table font du bruit quand je fais du sale Tout donner pour attirer, mon regard sur ton fessier Sois gentille, ne fais pas ça, j'te ferai boîter sur du Kassav C'est comme ça, j'peux rien y faire, comment faire pour m'en défaire ? Leave me alone, ah, ah Leave me alone, oh, oh, oh Leave me alone, ouh, ouh Leave me alone, ouais, ouais, ouais Oh, oh Oh ouais, oh Dems Eh Jus de testicules au praliné Yeah Fukushima dans son ul-c, j'plante pas d'graine Elle est bonne mais pas à marier Non Vie en rouge, du Christian, qu'elle me demande sans gêne Préviens ta copine, ce s'ra plus possible Non, non J'suis dans le coffee, j'fume sans nicotine Ouais, ouais J'la prends dans ture-voi comme dans Grand Theft Auto Sale J't'aime du bout des doigts même si j'm'arrête trop tôt Nan Elles n'arrêtent pas d'dire qu'j'suis pas l'mec qu'il faut Nan Mais grattent une guest-list pour revenir à chaque show Ouais Michto' lova, lova m'aime de toute ma moula Moula Michto' lova, lova m'aime de toute ma moula Moula Elles n'arrêtent pas d'dire qu'j'suis pas l'mec qu'il faut Nan Mais grattent une guest-list pour revenir à chaque show Ouais Michto' lova, lova m'aime de toute ma moula Moula Michto' lova, lova m'aime de toute ma moula Moula Leave me alone Ouais, ouais Leave me alone, oh, oh, oh Leave me alone, ouh, ouh Leave me alone Mais dis-moi, pourquoi tu m'as pas follow back ? Vous faites quoi après l'show ? Elles m'attaquent en solo, viennent même en armée Une de perdue, j'envoie une autre s'armer Michto lova m'aime de toute ma SACEM Michto lova m'aime de toute ma SACEM Comment ça tu fais rien mais t'as une belle auto ? Passe ton phone que je joue au Loto Michto lova, lova m'aime de toute ma moula Michto lova, lova m'aime de toute ma moula Please don't make me lose my time Alone, alone Make me lose my time Oh, oh, oh</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>RVRE</t>
+          <t>THEVIE RADIO (Interlude)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Yah, yah Yah Yah, yah Yah Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Sombre haine et violence tout c'que je suscite Bang Négro, pour des passages radio, rien qu't'ingurgites Bang J'instaure une dictature, j'fais plus d'la musique, reflet du biff dans mon iris, autant puriste que futuriste, hey hey, allez zouin Allez zouin J'fais du sale qu'avec les miens, j'irai dans la shnek à ta mère pour mieux savoir d'où tu viens Choush Il m'faudrait du temps, de l'argent, à part ça, j'n'ai b'soin de rien Contradictoire à temps plein, j'peux t'faire du mal pour t'faire du bien Sénégal sur le drapeau, j'ai ma flotte, trop d'fiottes dans le game L'industrie s'ra sous le choc, j'suis différent vu l'époque Fuck Tasse-pé fourrée entraîne échauffourées Sale, sale Faites-le pour la culture Yah, yah, yah, après mourez si vous voulez Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Sale, j'ai rien vu, rien entendu, l'agent m'tire quand même dessus J'ai rien dit, rien prétendu, en pleine guerre, j'suis détendu J'y passerai un siècle donc mes péchés, j'vais pas t'énumérer, hey Pute, pendant qu'j'suis dans sa chatte, elle est rémunérée, hey Percé par les grands mais pressé par le temps Innocent, j'ai pas compris qu'l'argent se gagnait par le sang L'heure n'est pas la même, elle est beaucoup plus belle dans l'Audemars Fort Le rap game va rejoindre sa pute de grand-mère dans l'au-delà, hey hey Fils de pute, j'ai descendu Dose, les keufs me questionnent Et les pétasses m'espionnent, j'ai rien vu, rien entendu Hey Il reste des résidus Hey, les keufs me questionnent Et les pétasses m'espionnent Yah, yah, yah, j'ai rien vu, rien entendu Les dealers sont d'la partie, pax de vingt g, raclo, racli, bordel, tout l'monde fume de l'herbe Yah, yah, yah Les dealers à peine partis, descente des keufs dans le parking, bordel, font qu'me questionner Yah, yah, yah I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu I don't know know know know Know, know J'sais pas, j'ai rien vu, rien entendu Hey, KultureVie Sombre, sale Dems, eh2</t>
+          <t>Bienvenue à tous ! C'est TheVie Radio en live. La seule radio dotée de Triple A, écoute ça ! Ça sort du four, c'est made in Brussels Zoo Ow. Prépare ton lobe frontal et monte le son. Que tu sois dans la caisse, à la salle ou au taf, arrête tout ! Lève-toi et ambiance-toi. Car voici le nouveau Dems et Hamza. Sur ta radio la seule, l'unique, TheVie Radio. La radio sale, la radio nwaar...</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Praliné</t>
+          <t>BANG BANG</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ouh, ouh, ouh, ouh, ouh, ouh Michto' lova, lova À la tienne, j'ai le gosier, aussi vierge que mon casier Ouais, c'est bon, ouais, c'est bon Doux visage pour me blesser, bien trop bonne, j't'ai signalée Ouais, c'est bon, ouais, c'est bon Les boloss à ta table font du bruit quand je fais du sale Tout donner pour attirer, mon regard sur ton fessier Sois gentille, ne fais pas ça, j'te ferai boîter sur du Kassav C'est comme ça, j'peux rien y faire, comment faire pour m'en défaire ? Leave me alone, ah, ah Leave me alone, oh, oh, oh Leave me alone, ouh, ouh Leave me alone, ouais, ouais, ouais Oh, oh Oh ouais, oh Dems Eh Jus de testicules au praliné Yeah Fukushima dans son ul-c, j'plante pas d'graine Elle est bonne mais pas à marier Non Vie en rouge, du Christian, qu'elle me demande sans gêne Préviens ta copine, ce s'ra plus possible Non, non J'suis dans le coffee, j'fume sans nicotine Ouais, ouais J'la prends dans ture-voi comme dans Grand Theft Auto Sale J't'aime du bout des doigts même si j'm'arrête trop tôt Nan Elles n'arrêtent pas d'dire qu'j'suis pas l'mec qu'il faut Nan Mais grattent une guest-list pour revenir à chaque show Ouais Michto' lova, lova m'aime de toute ma moula Moula Michto' lova, lova m'aime de toute ma moula Moula Elles n'arrêtent pas d'dire qu'j'suis pas l'mec qu'il faut Nan Mais grattent une guest-list pour revenir à chaque show Ouais Michto' lova, lova m'aime de toute ma moula Moula Michto' lova, lova m'aime de toute ma moula Moula Leave me alone Ouais, ouais Leave me alone, oh, oh, oh Leave me alone, ouh, ouh Leave me alone Mais dis-moi, pourquoi tu m'as pas follow back ? Vous faites quoi après l'show ? Elles m'attaquent en solo, viennent même en armée Une de perdue, j'envoie une autre s'armer Michto lova m'aime de toute ma SACEM Michto lova m'aime de toute ma SACEM Comment ça tu fais rien mais t'as une belle auto ? Passe ton phone que je joue au Loto Michto lova, lova m'aime de toute ma moula Michto lova, lova m'aime de toute ma moula Please don't make me lose my time Alone, alone Make me lose my time Oh, oh, oh</t>
+          <t>BANG ,Damn J'ai tellement pété des gueules, démonté des girls Qu'on m'a dit Mais Damso tu n'a pas de cur, cur ! Deux motherfucka??? l'epoque a fini des???? Des keufs - keufs Damn mais putain qui t'as dit que je voulais du buzz-buzz Op mothafucka G motherfucka Bitch? Motherfucka Clique Clique Bang Bang Joue pas les phnix, j'te mettrais en cendre T'es comme ma clope j'te fume sans qu'y'ai le mégot Le glock bien monté pour te descendre Herbivore oui j'me nourris de bedos Chaud bien avant le centre de formation J'suis comme un film de boule a chaque fois que j'finis d'kicker Merde y'a éjaculation Flow virus multi cellulaires, damn pas de vaccinations Seul-Tout j'suis née et j'mourrais, bitch pas de place pour cohabitation OPG wassup Double R Dolfa et Lio J'kiff les boules des blacks de mon peuple Mais quand j'les baises ya trop d'Nalingi yo J'suis au top meilleur niveau, j'dois bousiller tous mes rivaux J'suis comme Moïse sauf que jécarte les mères et qu'elles perdent les os J'suis deso ma vue s'limite aux hanches, drôle d'énergumène Ma bite a l'effet Pinocchio je bande quand je te dit je t'aime J'ai tellement pété des gueules, démonté des girls Qu'on m'a dit Mais Damso tu n'a pas de cur, cur ! Deux motherfucka??? lépoque a fini des???? Des keufs - keufs Damn mais putain qui t'as dit que je voulais du buzz-buzz Op mothafucka G motherfucka Biz motherfucka clique clique bang Bang bang bang Damso Bang bang bang Damso Tasspé dans merco, bédo dans l'cockpit j'suis high bro ??? standing dis leurs maestro Derrière en spalding, grosse liasse gros Habillé en ??? sturming, filles dans l'cerveau Adrénaline forcing, toujours pas d'flow, ah Pétasse ta gueule et sort tout ton flouze Pétasse t'es la juste pour ta gouze Crevasse, engelure, trop fraiche est ma douze Grognasse au lit qui ??? Putain ya des bitchs et maman j'ai pas de love Pute veut d'un riche et pas d'un second de zone Putain c'est pas faux j'ai pas de sous mais n'associe pas soucis a celui d'un mec qui ne tient pas de go Ah, motherfucker Damso dans la boîte de nuit J'ai dit motherfucker Damso dans la boîte de nuit Jack dans le verre j'en ai plus d'un dans le zen une douzaine dans les veines puis c'est des shots de gin on dis que je suis technique des que je nique ça fait des polémiques tu bonis comme si y'avait une crise économique motherfucker damso motherfucker OPG motherfucker clique bang bang clique clique paw paw J'ai tellement pété des gueules, démonté des girls Qu'on m'a dit Mais Damso tu n'a pas de cur, cur ! Deux motherfucka??? lépoque a fini des???? Des keufs - keufs Damn mais putain qui t'as dit que je voulais du buzz-buzz Op motherfucka G motherfucka biz motherfucka clique clique bang bang Op motherfuka G motherfucka biz motherfucka clique clique bang bang8</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>THEVIE RADIO (Interlude)</t>
+          <t>Pleurer</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Bienvenue à tous ! C'est TheVie Radio en live. La seule radio dotée de Triple A, écoute ça ! Ça sort du four, c'est made in Brussels Zoo Ow. Prépare ton lobe frontal et monte le son. Que tu sois dans la caisse, à la salle ou au taf, arrête tout ! Lève-toi et ambiance-toi. Car voici le nouveau Dems et Hamza. Sur ta radio la seule, l'unique, TheVie Radio. La radio sale, la radio nwaar...</t>
+          <t>Félicità Ne me laisse pas seul dans ma nuit À guetter le point du jour, à rêver d'amour À pleurer d'amour, à crier d'amour À brûler de fièvre Félicità Ne sois pas le tombeau de ma vie Moi sans toi, je n'ai plus rien Plus rien qu'une faim, à gémir de faim A trembler de faim, à crever de rêve Qu'il sera doux, le regard du premier matin À l'instant où la brise s'arrête Quand on sent qu'il y a d'autres tempêtes Qui pourraient renaître aux creux de nos mains Félicità Ne me laisse pas seul dans ma nuit Je ne peux plus vivre ainsi, à gémir d'ennui À pleurer d'ennui, à mourir d'ennui À crier Je t'aime ! Félicità Ne me laisse pas seul dans ma nuit À guetter le point du jour, à rêver d'amour À pleurer d'amour, à crier d'amour À crier Félicità ! Félicità</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>BANG BANG</t>
+          <t>BROUILLARD</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>BANG ,Damn J'ai tellement pété des gueules, démonté des girls Qu'on m'a dit Mais Damso tu n'a pas de cur, cur ! Deux motherfucka??? l'epoque a fini des???? Des keufs - keufs Damn mais putain qui t'as dit que je voulais du buzz-buzz Op mothafucka G motherfucka Bitch? Motherfucka Clique Clique Bang Bang Joue pas les phnix, j'te mettrais en cendre T'es comme ma clope j'te fume sans qu'y'ai le mégot Le glock bien monté pour te descendre Herbivore oui j'me nourris de bedos Chaud bien avant le centre de formation J'suis comme un film de boule a chaque fois que j'finis d'kicker Merde y'a éjaculation Flow virus multi cellulaires, damn pas de vaccinations Seul-Tout j'suis née et j'mourrais, bitch pas de place pour cohabitation OPG wassup Double R Dolfa et Lio J'kiff les boules des blacks de mon peuple Mais quand j'les baises ya trop d'Nalingi yo J'suis au top meilleur niveau, j'dois bousiller tous mes rivaux J'suis comme Moïse sauf que jécarte les mères et qu'elles perdent les os J'suis deso ma vue s'limite aux hanches, drôle d'énergumène Ma bite a l'effet Pinocchio je bande quand je te dit je t'aime J'ai tellement pété des gueules, démonté des girls Qu'on m'a dit Mais Damso tu n'a pas de cur, cur ! Deux motherfucka??? lépoque a fini des???? Des keufs - keufs Damn mais putain qui t'as dit que je voulais du buzz-buzz Op mothafucka G motherfucka Biz motherfucka clique clique bang Bang bang bang Damso Bang bang bang Damso Tasspé dans merco, bédo dans l'cockpit j'suis high bro ??? standing dis leurs maestro Derrière en spalding, grosse liasse gros Habillé en ??? sturming, filles dans l'cerveau Adrénaline forcing, toujours pas d'flow, ah Pétasse ta gueule et sort tout ton flouze Pétasse t'es la juste pour ta gouze Crevasse, engelure, trop fraiche est ma douze Grognasse au lit qui ??? Putain ya des bitchs et maman j'ai pas de love Pute veut d'un riche et pas d'un second de zone Putain c'est pas faux j'ai pas de sous mais n'associe pas soucis a celui d'un mec qui ne tient pas de go Ah, motherfucker Damso dans la boîte de nuit J'ai dit motherfucker Damso dans la boîte de nuit Jack dans le verre j'en ai plus d'un dans le zen une douzaine dans les veines puis c'est des shots de gin on dis que je suis technique des que je nique ça fait des polémiques tu bonis comme si y'avait une crise économique motherfucker damso motherfucker OPG motherfucker clique bang bang clique clique paw paw J'ai tellement pété des gueules, démonté des girls Qu'on m'a dit Mais Damso tu n'a pas de cur, cur ! Deux motherfucka??? lépoque a fini des???? Des keufs - keufs Damn mais putain qui t'as dit que je voulais du buzz-buzz Op motherfucka G motherfucka biz motherfucka clique clique bang bang Op motherfuka G motherfucka biz motherfucka clique clique bang bang8</t>
+          <t>Yeah, OPG Damso Motherfuck' Yeah, yo Damn J'ai plus l'temps pour regrets, peine, trop d'problèmes, mauvaise graine Damso Dems, OPGangsta Trop de jaloux jeunes veulent nous gêner, j'aime ça J'ai plus l'time sur la fast-lane, l'envie d'fumer me gagne Un bédo et je plane, je fly, j'suis higher, higher, high Pé-ta à longueur de journée souvent en état d'ébriété Dans le brouillard, je vais nulle part, j'fume un pétard Par peur de trouver la sobriété Déf' everyday, où je vais ? Aucune idée Je perdure dans la verdure, je sature, j'suis bousillé Brouillard J'vis dans l'ombre, pénombre, je sombre, succombe Aux énormes derrières de bitchs Brouillard Je déconne à l'école, mempoisonne, collectionne D'énormes quantités de shit Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, je sais pas où je vais pourtant, j'sais d'où je viens Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Da-Da-Da-Damso motherfuck' Yeah J'suis dans l'brou-brou-brou-brou-brouillard, côtoie plus de boules qu'au billard Sur une tasse-pé, j'crache un mollard, oh, la sale bi-bi-bi-biatch Damso Motherfucker Damso, okay, j'suis trop déf' donc laisse-moi pieuter Cherche un corps-à-corps juste pour te peloter, si je recule, c'est pour mieux te sauter Plus tranquille, y a trop d'balances, de couilles, sont tous en carence Dans ce monde, y a trop d'salauds, y a qu'à mes fiançailles qu'j'ferais une alliance Dans c'game j'vais tous les plier, trop d'traîtres, ça date pas d'hier Si mes potes étaient des thunes j't'assure qu'j'aurais beaucoup d'faux billets Tout ce merdier met dans l'brouillard Et depuis je fume, veux toucher la Lune, je pense qu'aux thunes Bordel de merde Faut que je me calme, sans toucher le , l'injection létale devient mon rêve Oh, qu'est-ce qui ce passe dans mon cerveau ? Je crois que j'deviens barjo dans mon jargon, on dit que t'es dans le... Brouillard J'vis dans l'ombre, pénombre, je sombre, succombe Aux énormes derrières de bitchs Brouillard Je déconne à l'école, mempoisonne, collectionne D'énormes quantités de shit Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, je sais pas où je vais pourtant, j'sais d'où je viens Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Da-Da-Da-Damso motherfuck' Brouillard J'vis dans l'ombre, pénombre, je sombre, succombe Aux énormes derrières de bitchs Brouillard Je déconne à l'école, mempoisonne, collectionne D'énormes quantités de shit Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, je sais pas où je vais pourtant, j'sais d'où je viens Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Da-Da-Da-Damso motherfuck'4</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Pleurer</t>
+          <t>VAGABOND</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Félicità Ne me laisse pas seul dans ma nuit À guetter le point du jour, à rêver d'amour À pleurer d'amour, à crier d'amour À brûler de fièvre Félicità Ne sois pas le tombeau de ma vie Moi sans toi, je n'ai plus rien Plus rien qu'une faim, à gémir de faim A trembler de faim, à crever de rêve Qu'il sera doux, le regard du premier matin À l'instant où la brise s'arrête Quand on sent qu'il y a d'autres tempêtes Qui pourraient renaître aux creux de nos mains Félicità Ne me laisse pas seul dans ma nuit Je ne peux plus vivre ainsi, à gémir d'ennui À pleurer d'ennui, à mourir d'ennui À crier Je t'aime ! Félicità Ne me laisse pas seul dans ma nuit À guetter le point du jour, à rêver d'amour À pleurer d'amour, à crier d'amour À crier Félicità ! Félicità</t>
+          <t>De quoi ? J'disais qu'il y avait quoi ? Parfois, j'aime bien juste écouter des choses... Sa voix, pour pouvoir faire un truc dans sa tête Quoi ? Comment ça ? Moi, j'suis détendu, si Bruce Wayne, Bruce Wayne back Yo, Bruce Wayne back Gotham City, Robin est back Yo Verdure sur lèvres roses inspire diverses choses Insipide texte, prose, folie, insomnie, névrose Kilos perdus, pression, vénère pas, cérébrale sera la lésion Inclinaison, j'tire sur tes extensions, zéro liaison Trop OG pour ces bitches, thug money, j'connais pas d'crise Tu m'fais la bise, j'sais même pas qui t'as sucé La place de ta bouche est dans mon caleçon Impression qu'ma queue est une ture-voi vu le nombre de garages à bites J'élimine, j'illumine, ennemis, imminent Pas d'paroles, patates sur les lips, pan Inoffensif je fus, une offensive et je tue, une gencive de plus Sur le bitume, j'accumule embrouilles et bagarres de rue Teille sur la te-tê pour décompresser Ok Mandat d'arrêt, comment puis-je avancer ? Ok Menottes serrées, envie de récidiver Ok Grelotter, geler, juste derrière barreaux d'aciers Trahison d'potes à cause de putains, putains, putains de merde Swing Les MC sont dead, enterrés, tout plein, tout plein, tout plein de merde Swing Vagabond, j'traîne, recherche des pussy J'bousille tout l'game, fuck, façon Tutsi Tu pleures et tu saignes ? J'te souhaite pas de survivre Ratatata bang, ça sent le rou-Uzi, yeah Vagabond, je traîne Traîne à la recherche de pussy Pussy J't'aimerai jamais comme je m'aime M'aime, j'suis le plus important d'ma vie Ma vie Qu'est-ce tu croyais ? Qu'est-ce tu croyais ? J'suis ni ton prince ni ton marquis Nan Appelle tes potes, qu'elles s'ramènent Ouais Fuck pour tout l'monde, c'est gratuit Han Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches Jeune de vie, j'ai les nerfs solides Seul dans la nuit, la weed se vide D'meutre, l'envie se lit sur mes rides O.P. Gangsta, Genius League Au crématoire vont mes ennemis pour être sûr de bien tous les fumer Oui, je jouis pendant qu'elle frémit, pourtant, disait vouloir s'faire enculer Revolver dans le fut', grosse pétasse trop fière se décuple Déter', c'est clair j'veux pas être père, peur d'avoir un fils de pute J'rentre et je sors comme un préservatif Ces bitchs sont rébarbatives J'aimerais être love ou même homme d'Église mais la haine est si consolatrice J'me sens si bien plongé dans mes songes Le mal me tient et me ronge J'te déshabille du regard mais je ne vois qu'un tissu d'mensonges Panne de fer mais je sens que je rouille comme un tas de ferraille À force de vivre en guerre, j'me perds, vadrouille, je sens que je déraille J'arpente sentier ardent, pluie éparse, vue sur balcon Yeah Sonner les gonds, à terre se dégonfle, bousiller à donf Sautille et j'avance, roupille et patiente Je regarde le monde, l'décris sur mes ondes Fais vibrer les ombres, déterrer les tombes Ils succombent, s'effondrent, oui, tombent Mes ondes dominent le monde, c'est Damso Dems Vagabond, je traîne Traîne à la recherche de pussy Pussy J't'aimerai jamais comme je m'aime M'aime, j'suis le plus important d'ma vie Ma vie Qu'est-ce tu croyais ? Croyais J'suis ni ton prince ni ton marquis Nan Appelle tes potes, qu'elles s'ramènent Ouais Fuck pour tout l'monde, c'est gratuit Han Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'Tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches Vagabond, je traîne à la recherche de pussy J't'aimerai jamais comme je m'aime, j'suis le plus important d'ma vie Qu'est-ce tu croyais ? Croyais J'suis ni ton prince ni ton marquis Nan Appelle tes potes, qu'elles s'ramènent Ouais Fuck pour tout l'monde, c'est gratuit Han Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>BROUILLARD</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Yeah, OPG Damso Motherfuck' Yeah, yo Damn J'ai plus l'temps pour regrets, peine, trop d'problèmes, mauvaise graine Damso Dems, OPGangsta Trop de jaloux jeunes veulent nous gêner, j'aime ça J'ai plus l'time sur la fast-lane, l'envie d'fumer me gagne Un bédo et je plane, je fly, j'suis higher, higher, high Pé-ta à longueur de journée souvent en état d'ébriété Dans le brouillard, je vais nulle part, j'fume un pétard Par peur de trouver la sobriété Déf' everyday, où je vais ? Aucune idée Je perdure dans la verdure, je sature, j'suis bousillé Brouillard J'vis dans l'ombre, pénombre, je sombre, succombe Aux énormes derrières de bitchs Brouillard Je déconne à l'école, mempoisonne, collectionne D'énormes quantités de shit Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, je sais pas où je vais pourtant, j'sais d'où je viens Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Da-Da-Da-Damso motherfuck' Yeah J'suis dans l'brou-brou-brou-brou-brouillard, côtoie plus de boules qu'au billard Sur une tasse-pé, j'crache un mollard, oh, la sale bi-bi-bi-biatch Damso Motherfucker Damso, okay, j'suis trop déf' donc laisse-moi pieuter Cherche un corps-à-corps juste pour te peloter, si je recule, c'est pour mieux te sauter Plus tranquille, y a trop d'balances, de couilles, sont tous en carence Dans ce monde, y a trop d'salauds, y a qu'à mes fiançailles qu'j'ferais une alliance Dans c'game j'vais tous les plier, trop d'traîtres, ça date pas d'hier Si mes potes étaient des thunes j't'assure qu'j'aurais beaucoup d'faux billets Tout ce merdier met dans l'brouillard Et depuis je fume, veux toucher la Lune, je pense qu'aux thunes Bordel de merde Faut que je me calme, sans toucher le , l'injection létale devient mon rêve Oh, qu'est-ce qui ce passe dans mon cerveau ? Je crois que j'deviens barjo dans mon jargon, on dit que t'es dans le... Brouillard J'vis dans l'ombre, pénombre, je sombre, succombe Aux énormes derrières de bitchs Brouillard Je déconne à l'école, mempoisonne, collectionne D'énormes quantités de shit Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, je sais pas où je vais pourtant, j'sais d'où je viens Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Da-Da-Da-Damso motherfuck' Brouillard J'vis dans l'ombre, pénombre, je sombre, succombe Aux énormes derrières de bitchs Brouillard Je déconne à l'école, mempoisonne, collectionne D'énormes quantités de shit Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, je sais pas où je vais pourtant, j'sais d'où je viens Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Brouillard, Damso motherfuck' Da-Da-Da-Damso motherfuck'4</t>
+          <t>Yeah-eah-eah Black, ce que je vis Black, ce que je vois Black, ce que je dis Black, ce que je bois Black, ce que j'écris Black, ce que je broie Black, ce que je suis Beurs, blancs, black, ceux qui nous côtoient Posé, le temps défile, les thunes se font Aux coins des rues, ça deale Un verre se casse, une âme se cogne Une plaie de sang s'ouvrit Foxtrot Uniform Charlie Kilo Pas d'pute s'barre en mode phare-gyro Pirouette, tire sur le mec, bratatata Pleurs, sueurs, perte d'un ancien nizo Couilles bougent peu mais les Glocks s'agitent Douze coups de feu, une planque, j'm'abrite Silhouettes sombres, deux-trois mecs tombent, et puis mon négro plombe Breh, perte d'un ancien nizo Monsieur l'agent, je suis black Mais j'ai les mains propres, la preuve elles sont blanchies Blague raciste, j'le prends mal Moins d'un siècle qu'les miens sont affranchis Non, au secours je ne le dirai jamais Grosse pute, te le dire, il fallait Tiens ta langue, il en va de ton palais Tête brûlée, les ballons sont trop cramés Jack, ce que je bois Braque, quand on me doit Un, deux, troisième est le doigt Et puis fuck la vie, j'suis comme toi J'm'habitue pas comme quand je postule pour un emploi Damso Black, ce que je vis Black, ce que je vois Black, ce que je dis Black, ce que je bois Black, ce que j'écris Black, ce que je broie Black, ce que je suis Beurs, blancs, black, ceux qui me côtoient Osez, le temps défile, les thunes se font Aux coins des rues, ça deale Un verre se casse, une âme se cogne Une plaie de sang s'ouvrit Expression faciale détendue Loin du vrai, proche du vraisemblable J'parle sans retenue, loin comme de près J'parais infréquentable S'ils voyaient ce qu'il y avait à l'intérieur Murder, colère, on fire En enfer ou ailleurs Où qu'je sois, j'serai jamais des leurs Trop souvent dans un personnage l'ouvrant mais j'm'ouvre pas Momifié dans un sarcophage, en mort, pose mon double moi Des milliards de neurones À quoi servent-ils si je connais pas l'histoire de mon de-ble ? Instable, versatile, sur le champs d'bataille, toujours pas vu de blé, de vrai J'vois un psychiatre, trop de psychoses, drôle de psychisme Seul tout dans l'habitacle, laisse du repos, du mysticisme Putain de merde, mec, me parle pas, no, j'suis che-lou Hostile, folie, j'fume trop d'weed, putain d'jeune de vie Black, ce que je vis Black, ce que je vois Black, ce que je dis Black, ce que je bois Black, ce que j'écris Black, ce que je broie Black, ce que je suis Beurs, blancs, black, ceux qui me côtoient Osez, le temps défile, les thunes se font Aux coins des rues, ça deale Un verre se casse, une âme se cogne Une plaie de sang s'ouvrit Au coin des rues, ça deale Bang bang Bang bang6</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>VAGABOND</t>
+          <t>Ma retraite</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>De quoi ? J'disais qu'il y avait quoi ? Parfois, j'aime bien juste écouter des choses... Sa voix, pour pouvoir faire un truc dans sa tête Quoi ? Comment ça ? Moi, j'suis détendu, si Bruce Wayne, Bruce Wayne back Yo, Bruce Wayne back Gotham City, Robin est back Yo Verdure sur lèvres roses inspire diverses choses Insipide texte, prose, folie, insomnie, névrose Kilos perdus, pression, vénère pas, cérébrale sera la lésion Inclinaison, j'tire sur tes extensions, zéro liaison Trop OG pour ces bitches, thug money, j'connais pas d'crise Tu m'fais la bise, j'sais même pas qui t'as sucé La place de ta bouche est dans mon caleçon Impression qu'ma queue est une ture-voi vu le nombre de garages à bites J'élimine, j'illumine, ennemis, imminent Pas d'paroles, patates sur les lips, pan Inoffensif je fus, une offensive et je tue, une gencive de plus Sur le bitume, j'accumule embrouilles et bagarres de rue Teille sur la te-tê pour décompresser Ok Mandat d'arrêt, comment puis-je avancer ? Ok Menottes serrées, envie de récidiver Ok Grelotter, geler, juste derrière barreaux d'aciers Trahison d'potes à cause de putains, putains, putains de merde Swing Les MC sont dead, enterrés, tout plein, tout plein, tout plein de merde Swing Vagabond, j'traîne, recherche des pussy J'bousille tout l'game, fuck, façon Tutsi Tu pleures et tu saignes ? J'te souhaite pas de survivre Ratatata bang, ça sent le rou-Uzi, yeah Vagabond, je traîne Traîne à la recherche de pussy Pussy J't'aimerai jamais comme je m'aime M'aime, j'suis le plus important d'ma vie Ma vie Qu'est-ce tu croyais ? Qu'est-ce tu croyais ? J'suis ni ton prince ni ton marquis Nan Appelle tes potes, qu'elles s'ramènent Ouais Fuck pour tout l'monde, c'est gratuit Han Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches Jeune de vie, j'ai les nerfs solides Seul dans la nuit, la weed se vide D'meutre, l'envie se lit sur mes rides O.P. Gangsta, Genius League Au crématoire vont mes ennemis pour être sûr de bien tous les fumer Oui, je jouis pendant qu'elle frémit, pourtant, disait vouloir s'faire enculer Revolver dans le fut', grosse pétasse trop fière se décuple Déter', c'est clair j'veux pas être père, peur d'avoir un fils de pute J'rentre et je sors comme un préservatif Ces bitchs sont rébarbatives J'aimerais être love ou même homme d'Église mais la haine est si consolatrice J'me sens si bien plongé dans mes songes Le mal me tient et me ronge J'te déshabille du regard mais je ne vois qu'un tissu d'mensonges Panne de fer mais je sens que je rouille comme un tas de ferraille À force de vivre en guerre, j'me perds, vadrouille, je sens que je déraille J'arpente sentier ardent, pluie éparse, vue sur balcon Yeah Sonner les gonds, à terre se dégonfle, bousiller à donf Sautille et j'avance, roupille et patiente Je regarde le monde, l'décris sur mes ondes Fais vibrer les ombres, déterrer les tombes Ils succombent, s'effondrent, oui, tombent Mes ondes dominent le monde, c'est Damso Dems Vagabond, je traîne Traîne à la recherche de pussy Pussy J't'aimerai jamais comme je m'aime M'aime, j'suis le plus important d'ma vie Ma vie Qu'est-ce tu croyais ? Croyais J'suis ni ton prince ni ton marquis Nan Appelle tes potes, qu'elles s'ramènent Ouais Fuck pour tout l'monde, c'est gratuit Han Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'Tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches Vagabond, je traîne à la recherche de pussy J't'aimerai jamais comme je m'aime, j'suis le plus important d'ma vie Qu'est-ce tu croyais ? Croyais J'suis ni ton prince ni ton marquis Nan Appelle tes potes, qu'elles s'ramènent Ouais Fuck pour tout l'monde, c'est gratuit Han Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches 'tain Jeune de vie, jeune de vie, jeune de vie, jeune de vie, bitches</t>
+          <t>J'calcule ma retraite, j'encaisse les gros chèques Vis au jour le jour ou jusqu'au jour où j'serai refaite Putes veulent mon métier, vie de champagne ou d'Moët Mais pour y arriver c'est pire qu'un champ d'mines au Koweït J'prépare ma retraite, au départ je m'écarte Faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money C'est vrai j'kiffe les bittes, celles de la route, les queues de poisson Oui j'veux du liquide mais pas semence de joli garçon Shay qu'est-ce qu'elle est bonne, la taille s'agrandit sous leurs caleçons Fuck les Feux d'l'amour, on bang et rate les feux de l'action Prends tout tant qu'c'est possible fiston, telle sera l'éducation J'respecte pas les consignes, menrichis, pense spéculation C.O.N.G.O comme nation, R.D.C abréviation J'veux pas d'vos allocations, compte en banque, trop d'agitation Vroom, vroom, ceinture, accélération, aboie pendant qu'nous passons T'as plus d'vue sur YouTube, ton buzz m'accuse de séquestration Comme la neige les gosses m'adorent, les grands voient verglas devant paillasson J'veux du biff, de la mula, caramélisation J'écris plus sur papier, j'suis accusée d'déforestation Faites-moi un croquis du tromé J'sais plus à quoi ressemblent les stations Boire, fumer, dépenser, des chèques sans modération Du liquide pour jamais être à sec en cas d'déshydratation J'calcule ma retraite, j'encaisse les gros chèques Vis au jour le jour ou jusqu'au jour où j'serai refaite Putes veulent mon métier, vie de champagne ou d'Moët Mais pour y arriver c'est pire qu'un champ d'mines au Koweït J'prépare ma retraite, au départ je m'écarte Faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money Libido enflammée, les négros sont charmés Au diable les mi amor, l'amour est mort depuis tant d'années J'regarde vers le sommet, s'étonnent de m'voir tête baissée J'kifferai jamais les poulets hormis Roger et Axel Foley Dou-double G sur la ceinture, d'l'O.G dans la te-tê Mes adversaires je sature, sur le ring ils font qu'se vautrer J'vois pas l'verre à moitié vide ou plein, juste combien ça a coûté dont j'peux m'équiper J'm'en fous d'mourir ici ou là tant qu'mon vécu a d'l'impact A la fin d'la partie pions, rois finissent dans la même boîte On meurt sur toutes les liaisons, affirment tous avoir raison Ces bâtards n'ont rien vu, rien entendu, sont pas d'la région Trahison, perte d'humanité, sortent de lobotomisation Ouais, ont frustré tellement d'blacks, mériteraient canonisation J'liquiderais pour du liquide, liquidités en liquidation Fléchette d'amour dans l'cul, bang, puis sodomisation J'calcule ma retraite, j'encaisse les gros chèques Vis au jour le jour ou jusqu'au jour où j'serai refaite Putes veulent mon métier, vie de champagne ou d'Moët Mais pour y arriver c'est pire qu'un champ d'mines au Koweït J'prépare ma retraite, au départ je m'écarte Faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money Ma retraite, au départ je m'écarte Je m'écarte, faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money Yeah, yeah, yeah Shay, yeah1</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Donne-moi ton cœur</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Yeah-eah-eah Black, ce que je vis Black, ce que je vois Black, ce que je dis Black, ce que je bois Black, ce que j'écris Black, ce que je broie Black, ce que je suis Beurs, blancs, black, ceux qui nous côtoient Posé, le temps défile, les thunes se font Aux coins des rues, ça deale Un verre se casse, une âme se cogne Une plaie de sang s'ouvrit Foxtrot Uniform Charlie Kilo Pas d'pute s'barre en mode phare-gyro Pirouette, tire sur le mec, bratatata Pleurs, sueurs, perte d'un ancien nizo Couilles bougent peu mais les Glocks s'agitent Douze coups de feu, une planque, j'm'abrite Silhouettes sombres, deux-trois mecs tombent, et puis mon négro plombe Breh, perte d'un ancien nizo Monsieur l'agent, je suis black Mais j'ai les mains propres, la preuve elles sont blanchies Blague raciste, j'le prends mal Moins d'un siècle qu'les miens sont affranchis Non, au secours je ne le dirai jamais Grosse pute, te le dire, il fallait Tiens ta langue, il en va de ton palais Tête brûlée, les ballons sont trop cramés Jack, ce que je bois Braque, quand on me doit Un, deux, troisième est le doigt Et puis fuck la vie, j'suis comme toi J'm'habitue pas comme quand je postule pour un emploi Damso Black, ce que je vis Black, ce que je vois Black, ce que je dis Black, ce que je bois Black, ce que j'écris Black, ce que je broie Black, ce que je suis Beurs, blancs, black, ceux qui me côtoient Osez, le temps défile, les thunes se font Aux coins des rues, ça deale Un verre se casse, une âme se cogne Une plaie de sang s'ouvrit Expression faciale détendue Loin du vrai, proche du vraisemblable J'parle sans retenue, loin comme de près J'parais infréquentable S'ils voyaient ce qu'il y avait à l'intérieur Murder, colère, on fire En enfer ou ailleurs Où qu'je sois, j'serai jamais des leurs Trop souvent dans un personnage l'ouvrant mais j'm'ouvre pas Momifié dans un sarcophage, en mort, pose mon double moi Des milliards de neurones À quoi servent-ils si je connais pas l'histoire de mon de-ble ? Instable, versatile, sur le champs d'bataille, toujours pas vu de blé, de vrai J'vois un psychiatre, trop de psychoses, drôle de psychisme Seul tout dans l'habitacle, laisse du repos, du mysticisme Putain de merde, mec, me parle pas, no, j'suis che-lou Hostile, folie, j'fume trop d'weed, putain d'jeune de vie Black, ce que je vis Black, ce que je vois Black, ce que je dis Black, ce que je bois Black, ce que j'écris Black, ce que je broie Black, ce que je suis Beurs, blancs, black, ceux qui me côtoient Osez, le temps défile, les thunes se font Aux coins des rues, ça deale Un verre se casse, une âme se cogne Une plaie de sang s'ouvrit Au coin des rues, ça deale Bang bang Bang bang6</t>
+          <t>Donne, donne-moi ton coeur vide d'amour Pour combler le mien qui attend ton amour Allez donne, donne et ne dis rien Même si demain, tu dois le reprendre Donne, donne-moi le droit de t'enlacer Te serrer très fort et puis t'embrasser Allez donne donne et détends-toi Entre nous, pourquoi te défendre ? Ne prends pas je t'en supplie l'air étonné Ne fais pas semblant de ne pas savoir Tu sais, que j'attends un espoir, tu sais, ce dont je veux parler Aussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne, donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre mes bras Donne, donne-moi ton coeur et parle-moi Dis-moi simplement les mots qui sont en toi Allez dis, dis-moi doucement Presqu'en chuchotant ces mots à l'oreille Donne, donne-moi le droit à tes côtés De fermer les yeux afin de mieux rêver Allez dis, dis pour que ta voix S'infiltrant en moi, m'émerveille J'ai beau te parler, tu ne me réponds pas si c'est par excès de timidité Tu vois le plus dur est passé, tu vois j'ai fait le premier pas Aussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ma retraite</t>
+          <t>Best</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>J'calcule ma retraite, j'encaisse les gros chèques Vis au jour le jour ou jusqu'au jour où j'serai refaite Putes veulent mon métier, vie de champagne ou d'Moët Mais pour y arriver c'est pire qu'un champ d'mines au Koweït J'prépare ma retraite, au départ je m'écarte Faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money C'est vrai j'kiffe les bittes, celles de la route, les queues de poisson Oui j'veux du liquide mais pas semence de joli garçon Shay qu'est-ce qu'elle est bonne, la taille s'agrandit sous leurs caleçons Fuck les Feux d'l'amour, on bang et rate les feux de l'action Prends tout tant qu'c'est possible fiston, telle sera l'éducation J'respecte pas les consignes, menrichis, pense spéculation C.O.N.G.O comme nation, R.D.C abréviation J'veux pas d'vos allocations, compte en banque, trop d'agitation Vroom, vroom, ceinture, accélération, aboie pendant qu'nous passons T'as plus d'vue sur YouTube, ton buzz m'accuse de séquestration Comme la neige les gosses m'adorent, les grands voient verglas devant paillasson J'veux du biff, de la mula, caramélisation J'écris plus sur papier, j'suis accusée d'déforestation Faites-moi un croquis du tromé J'sais plus à quoi ressemblent les stations Boire, fumer, dépenser, des chèques sans modération Du liquide pour jamais être à sec en cas d'déshydratation J'calcule ma retraite, j'encaisse les gros chèques Vis au jour le jour ou jusqu'au jour où j'serai refaite Putes veulent mon métier, vie de champagne ou d'Moët Mais pour y arriver c'est pire qu'un champ d'mines au Koweït J'prépare ma retraite, au départ je m'écarte Faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money Libido enflammée, les négros sont charmés Au diable les mi amor, l'amour est mort depuis tant d'années J'regarde vers le sommet, s'étonnent de m'voir tête baissée J'kifferai jamais les poulets hormis Roger et Axel Foley Dou-double G sur la ceinture, d'l'O.G dans la te-tê Mes adversaires je sature, sur le ring ils font qu'se vautrer J'vois pas l'verre à moitié vide ou plein, juste combien ça a coûté dont j'peux m'équiper J'm'en fous d'mourir ici ou là tant qu'mon vécu a d'l'impact A la fin d'la partie pions, rois finissent dans la même boîte On meurt sur toutes les liaisons, affirment tous avoir raison Ces bâtards n'ont rien vu, rien entendu, sont pas d'la région Trahison, perte d'humanité, sortent de lobotomisation Ouais, ont frustré tellement d'blacks, mériteraient canonisation J'liquiderais pour du liquide, liquidités en liquidation Fléchette d'amour dans l'cul, bang, puis sodomisation J'calcule ma retraite, j'encaisse les gros chèques Vis au jour le jour ou jusqu'au jour où j'serai refaite Putes veulent mon métier, vie de champagne ou d'Moët Mais pour y arriver c'est pire qu'un champ d'mines au Koweït J'prépare ma retraite, au départ je m'écarte Faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money Ma retraite, au départ je m'écarte Je m'écarte, faut qu'j'épargne, que j'm'écarte d'eux J'garde un il sur ma money Yeah, yeah, yeah Shay, yeah1</t>
+          <t>Yeah, yeah, yeah, yeah, yeah Djizzo on the beat I wanna do my best Get money, fly private jet Je dois rendre les darons fiers Sortir la mifa' de la galère I wanna do my best Get money, fly private jet Je dois rendre les darons fiers Sortir la mifa' de la galère Ce monde est compliqué, rempli de sans pitié C'est les mêmes qui m'critiquent qui veulent qu je leur tend ma main Seigneur, donne-moi la force, c'est tellement lourd de pardonner Toujours tenté de leur faire du sale Quand tout était sombre, moi j'ai vu personne Y avait que la mifa' et mes putains de vrais potes J'ai pas baissé les bras, déteste qu'on s'moque de moi Le game a changé, ils veulent toucher à ma mallette non I wanna do my best Get money for private jet Je dois rendre les darons fiers moula, moula, moula, moula Sortir la mifa' de la galère I wanna do my best ok Get money for private jet ah oui Je dois rendre les darons fiers Sortir la mifa' de la galère Sorti de la galère, trop riche pour avoir un salaire Ebandi, olandi eh C'est Dems, Dems, pas de Molière, Baudelaire Trop noir pour le système solaire Des Mohamed eh, des Ali eh Souvent accusé à tort, absence de preuves, des appels rejetés J'connais la vie, la mort, naissance, deuil, richesse et pauvreté J'connais la fin du monde, plus d'un milliard d'Africains, poings levés Le père, le fils, le Glock chargé, ah bah oui, sur ma vie La violence, ils l'ont pas choisi Masasi bo beti, mais pourtant n'ont rien changé I wanna do my best ok Get money for private jet ah oui Je dois rendre les darons fiers moula, moula, moula, moula, Sortir la mifa de la galère I wanna do my best ok Get money for private jet Je dois rendre les darons fiers Sortir la mifa de la galère Innoss'Vie Dems, noir, tout est vie Sorti de la galère T'es riche même si t'en as pas l'air Africa, love you3</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Donne-moi ton cœur</t>
+          <t>EGO</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Donne, donne-moi ton coeur vide d'amour Pour combler le mien qui attend ton amour Allez donne, donne et ne dis rien Même si demain, tu dois le reprendre Donne, donne-moi le droit de t'enlacer Te serrer très fort et puis t'embrasser Allez donne donne et détends-toi Entre nous, pourquoi te défendre ? Ne prends pas je t'en supplie l'air étonné Ne fais pas semblant de ne pas savoir Tu sais, que j'attends un espoir, tu sais, ce dont je veux parler Aussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne, donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre mes bras Donne, donne-moi ton coeur et parle-moi Dis-moi simplement les mots qui sont en toi Allez dis, dis-moi doucement Presqu'en chuchotant ces mots à l'oreille Donne, donne-moi le droit à tes côtés De fermer les yeux afin de mieux rêver Allez dis, dis pour que ta voix S'infiltrant en moi, m'émerveille J'ai beau te parler, tu ne me réponds pas si c'est par excès de timidité Tu vois le plus dur est passé, tu vois j'ai fait le premier pas Aussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre</t>
+          <t>Yeah, yeah, my nigga Yeah, yeah, my nigga Yeah, yeah, my nigga Yeah Eh Damso, motherfucka', Dems, OPG, igo, plongé dans ma def' avec un big stick bédo Sombre ruelle, idéale pour liquider l'kilo, devant les keufs lacrymo', dans les sses-f', shima-Hiro J'rappais dans les caves aux micros old-school Old-school, au d'ssus d'la pop, draps blancs, coussins gros pull Claque sur ces gros culs, jte fuck puis tu reprends ton num', Dems Le Glock strict minimum, bang, si tu veux des thunes J'vois la femme comme un CD-ROM non, jpeux pas l'écouter si elle est vierge Me parle pas d'drame, juste de chiffres ronds, t'inquiète, ils sauront à quoi ressemble ma verge Qui m'aime me like ou me follow, jtrempe ton cerveau dans bocal de formol J'ai l'moj' à Damso, igo, tu download Entre ciel et Terre, entre glace et braise Le peuple qui prie le plus, putain, s'avère être le moins récompensé Aide-toi, négro, et le ciel t'aidera, c'est comme baise, on s'occupera d'enfanter Me casse pas les couilles, non, l'amour ne rend pas aveugle, non C'est juste la femme qui coûte les yeux de la tête Genius League, OPG, igo, Damso motherfucka' Dems Elles veulent toutes s'faire voir, forcément, va voir ailleurs Ouais, j'suis partout et nulle part, forcément, j'suis nul par ailleurs Dans mon ego, système, madadadadadada Dans mon ego, système, madadadadadada Elles veulent toutes s'faire voir, forcément, va voir ailleurs Ouais, j'suis partout et nulle part, forcément, j'suis nul par ailleurs Dans mon ego, système, madadadadadada Dans mon ego, système, madadadadadada Ouais, c'est bon4</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Best</t>
+          <t>CINÉASTE</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Yeah, yeah, yeah, yeah, yeah Djizzo on the beat I wanna do my best Get money, fly private jet Je dois rendre les darons fiers Sortir la mifa' de la galère I wanna do my best Get money, fly private jet Je dois rendre les darons fiers Sortir la mifa' de la galère Ce monde est compliqué, rempli de sans pitié C'est les mêmes qui m'critiquent qui veulent qu je leur tend ma main Seigneur, donne-moi la force, c'est tellement lourd de pardonner Toujours tenté de leur faire du sale Quand tout était sombre, moi j'ai vu personne Y avait que la mifa' et mes putains de vrais potes J'ai pas baissé les bras, déteste qu'on s'moque de moi Le game a changé, ils veulent toucher à ma mallette non I wanna do my best Get money for private jet Je dois rendre les darons fiers moula, moula, moula, moula Sortir la mifa' de la galère I wanna do my best ok Get money for private jet ah oui Je dois rendre les darons fiers Sortir la mifa' de la galère Sorti de la galère, trop riche pour avoir un salaire Ebandi, olandi eh C'est Dems, Dems, pas de Molière, Baudelaire Trop noir pour le système solaire Des Mohamed eh, des Ali eh Souvent accusé à tort, absence de preuves, des appels rejetés J'connais la vie, la mort, naissance, deuil, richesse et pauvreté J'connais la fin du monde, plus d'un milliard d'Africains, poings levés Le père, le fils, le Glock chargé, ah bah oui, sur ma vie La violence, ils l'ont pas choisi Masasi bo beti, mais pourtant n'ont rien changé I wanna do my best ok Get money for private jet ah oui Je dois rendre les darons fiers moula, moula, moula, moula, Sortir la mifa de la galère I wanna do my best ok Get money for private jet Je dois rendre les darons fiers Sortir la mifa de la galère Innoss'Vie Dems, noir, tout est vie Sorti de la galère T'es riche même si t'en as pas l'air Africa, love you3</t>
+          <t>Répondeur téléphone, injoignabilité Oui, disparu pour de bon Phone ses copines, inspire nicotine Fait dans la rétine, insulte de tous les noms Soirées DVD devant des séries B bien méritées vantant les mérites du célibat Elles se mentent toutes C'est libre, c'est vide et ces ligues sont libres de se cribler de rides et finit par dire qu'il me manque, oups Totalement perdue, sachant plus ce qu'elle dit, pleure C'est qu'un connard fini, c'est moi qui t'le dit S'embrassent comme des surs Mignon, oui mais non, c'est con car son téléphone sonne et l'écran indique chéri Toute la cam' déconne décroche pas, donc tombe sur la messagerie Allo, baby, c'est Damso, j'avais pas de réseau, j'étais au studio Rappelle quand tu peux, j'fais une pause le Don mixe mon new morceau Hystérique, elle crie Damn, les filles je crois que j'ai fait la connasse Passez-moi vite un flingue, j'ai douté d'mon homme j'suis trop naze Trop naze Cinéaste Cinéaste Les meufs se font des films, c'est dingue, trop love Trop love Relax, accusé tel un crime, c'est dingue, trop love Trop love Love, love, love, love Love, love, love, love Love, love, love, love Love, love, love, love Sachant qu'elles ont fortement déconné Ses copines effrénées n'voulant pas s'avouer vaincues S'efforcent donc de lui insérer, glisser l'idée que le studio n'était qu'un plan cul Ne lui téléphone pas, vas sur place intuition féminine Les hommes sont des salauds Il est sûrement avec une de ces pétasses, la plus grosse des bourinnes, tant pis, son plan tombe à l'eau Démarrent donc toutes au quart de tour S'il n'est pas devant le micro on saura où il est Se voyant d'jà en train de me prendre de court On va lui clouer l'bec s'il veut nous pigeonner Arrivées sur place dring dring Damso Dans la cabine, putain N'importe quoi, vas-y, ouvre vite sinon on casse tout Mais c'est déjà ouvert putain Pétrifies, le voyant rapper, ses potes crient Damn, on a fait les connasses Restent jusqu'au refrain, le front caché par deux mains se disant Mais qu'est-ce qu'on est trop nazes Cinéaste Cinéaste Les meufs se font des films, c'est dingue, trop love Trop love Relax, accusé tel un crime, c'est dingue, trop love Trop love Love, love, love, love Love, love, love, love Love, love, love, love Love, love, love, love</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>EGO</t>
+          <t>Mi Amor</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Yeah, yeah, my nigga Yeah, yeah, my nigga Yeah, yeah, my nigga Yeah Eh Damso, motherfucka', Dems, OPG, igo, plongé dans ma def' avec un big stick bédo Sombre ruelle, idéale pour liquider l'kilo, devant les keufs lacrymo', dans les sses-f', shima-Hiro J'rappais dans les caves aux micros old-school Old-school, au d'ssus d'la pop, draps blancs, coussins gros pull Claque sur ces gros culs, jte fuck puis tu reprends ton num', Dems Le Glock strict minimum, bang, si tu veux des thunes J'vois la femme comme un CD-ROM non, jpeux pas l'écouter si elle est vierge Me parle pas d'drame, juste de chiffres ronds, t'inquiète, ils sauront à quoi ressemble ma verge Qui m'aime me like ou me follow, jtrempe ton cerveau dans bocal de formol J'ai l'moj' à Damso, igo, tu download Entre ciel et Terre, entre glace et braise Le peuple qui prie le plus, putain, s'avère être le moins récompensé Aide-toi, négro, et le ciel t'aidera, c'est comme baise, on s'occupera d'enfanter Me casse pas les couilles, non, l'amour ne rend pas aveugle, non C'est juste la femme qui coûte les yeux de la tête Genius League, OPG, igo, Damso motherfucka' Dems Elles veulent toutes s'faire voir, forcément, va voir ailleurs Ouais, j'suis partout et nulle part, forcément, j'suis nul par ailleurs Dans mon ego, système, madadadadadada Dans mon ego, système, madadadadadada Elles veulent toutes s'faire voir, forcément, va voir ailleurs Ouais, j'suis partout et nulle part, forcément, j'suis nul par ailleurs Dans mon ego, système, madadadadadada Dans mon ego, système, madadadadadada Ouais, c'est bon4</t>
+          <t>De, de, de, de, de De, de, de, de, de De, de, de, de, de Eh yeah Batterie Faible Veuillez la recharger Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Ouais J'suis dans l'club depuis minuit hey Port'feuille toujours pas skinny ouais Sers du Jack un peu honey yeah Pour la bitch, du Martini ouais Elle voudrait connaître le Dems ouais Que j'lui montre le bout d'ses rêves ouais ouais Elle a peur d'mes OP Gangs N'a jamais vu en vrai des vrais OGs no Le cul aussi rond qu'un vinyle J'vais la piner en bordel À en perdre la vie Bien sapé en tenue de ville Tapage dans l'hôtel Laisse pourboire pour le bruit Son string abrège la discussion Gros bling balèze, j'fais bonne impression Mixtape à l'aise, j'n'ai pas la pression Le rap français, j'refais son éducation J'suis dans le bungalow J'observe son bassin qui bouge Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Pute pas besoin d'aller plus haut Si t'agites bien, ça fera d'la mousse Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Eh eh eh eh Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Dem's J'mets d'la beuh-er dans ma chicha, j'tousse ouais J'la prends en brochette comme un chich taouk bang Un peu d'me-sper sur le coin d'sa fouf' ouais L'enculer sévère, j'vous le souhaite à tous clair Elle hésite, ne veut plus se prendre au sérieux no Elle médite, ne veut plus se rendre au ciel bleu no Combien d'portefeuilles ont exaucé ses vux? ouais Même dans mon cercueil, j'me rappellerai d'ses yeux yeah Elle veut qu'on fasse que du sexe J'rêvais pas mieux no oh J'l'interdis de voir d'autres mecs J'suis un rageux yeah eh Prends la pilule j'veux pas qu'on soit plus d'deux Dans le cul et la teuch, pas de juste milieu Ma voix d'soûlard lui dit déshabille-toi J'vais dans son trou noir, j'suis un peu à l'étroit hein hein Teille de corona Elle danse la rumba sur du Andabo Yoruba J'suis dans le bungalow J'observe son bassin qui bouge Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Pute pas besoin d'aller plus haut Si t'agites bien, ça fera d'la mousse Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Eh eh eh eh Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah1</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CINÉASTE</t>
+          <t>Real</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Répondeur téléphone, injoignabilité Oui, disparu pour de bon Phone ses copines, inspire nicotine Fait dans la rétine, insulte de tous les noms Soirées DVD devant des séries B bien méritées vantant les mérites du célibat Elles se mentent toutes C'est libre, c'est vide et ces ligues sont libres de se cribler de rides et finit par dire qu'il me manque, oups Totalement perdue, sachant plus ce qu'elle dit, pleure C'est qu'un connard fini, c'est moi qui t'le dit S'embrassent comme des surs Mignon, oui mais non, c'est con car son téléphone sonne et l'écran indique chéri Toute la cam' déconne décroche pas, donc tombe sur la messagerie Allo, baby, c'est Damso, j'avais pas de réseau, j'étais au studio Rappelle quand tu peux, j'fais une pause le Don mixe mon new morceau Hystérique, elle crie Damn, les filles je crois que j'ai fait la connasse Passez-moi vite un flingue, j'ai douté d'mon homme j'suis trop naze Trop naze Cinéaste Cinéaste Les meufs se font des films, c'est dingue, trop love Trop love Relax, accusé tel un crime, c'est dingue, trop love Trop love Love, love, love, love Love, love, love, love Love, love, love, love Love, love, love, love Sachant qu'elles ont fortement déconné Ses copines effrénées n'voulant pas s'avouer vaincues S'efforcent donc de lui insérer, glisser l'idée que le studio n'était qu'un plan cul Ne lui téléphone pas, vas sur place intuition féminine Les hommes sont des salauds Il est sûrement avec une de ces pétasses, la plus grosse des bourinnes, tant pis, son plan tombe à l'eau Démarrent donc toutes au quart de tour S'il n'est pas devant le micro on saura où il est Se voyant d'jà en train de me prendre de court On va lui clouer l'bec s'il veut nous pigeonner Arrivées sur place dring dring Damso Dans la cabine, putain N'importe quoi, vas-y, ouvre vite sinon on casse tout Mais c'est déjà ouvert putain Pétrifies, le voyant rapper, ses potes crient Damn, on a fait les connasses Restent jusqu'au refrain, le front caché par deux mains se disant Mais qu'est-ce qu'on est trop nazes Cinéaste Cinéaste Les meufs se font des films, c'est dingue, trop love Trop love Relax, accusé tel un crime, c'est dingue, trop love Trop love Love, love, love, love Love, love, love, love Love, love, love, love Love, love, love, love</t>
+          <t>Hey, tes copines te tueront babe Yeah, De La Fuentes, hey Je t'emmène au cinéma Y'a pas d'mal, j'prends ta main et on y va Quoi, t'attends tes copines ? J'ai dis on y va Écoute-moi, tu es toi quand elles sont pas là En plus de ça, j'connais bien ces femmes Sache que dans leur vie, y'a aucun but précis Tu crois qu'elle t'aime, mais chez elle rien n'est real J'suis très patient, mais j'ferai pas la file, comme ça s'est dit Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner Yo, tu veux une douce fast-life Rire jusqu'à c'que tes joues fassent mal Fumer des pet' jusqu'à c'qu'on soit high high high Boire tard la night, que l'on fly high high Mais avec tes potes t'es en désaccord Dans le fond, tu voudrais qu'j'vienne visiter ton corps Tu rêves des mecs qui embrassent tes lèvres Vision céleste, moi j'entre et sors sans r'fermer la porte T'es pas la même avec tes copines Plutôt hostile, coquine, sous tes faux-cils Quand tu m'vois, j'le vois, ta voix est sèche Mais pas l'tissu du legging, encore une fois, t'as mouillé Mais tu veux pas assumer, t'as honte de tes sentiments Vas-y, viens par ici que j'te montre les atouts d'mon continent Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner4</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Mi Amor</t>
+          <t>Freestyle Deezer</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>De, de, de, de, de De, de, de, de, de De, de, de, de, de Eh yeah Batterie Faible Veuillez la recharger Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Ouais J'suis dans l'club depuis minuit hey Port'feuille toujours pas skinny ouais Sers du Jack un peu honey yeah Pour la bitch, du Martini ouais Elle voudrait connaître le Dems ouais Que j'lui montre le bout d'ses rêves ouais ouais Elle a peur d'mes OP Gangs N'a jamais vu en vrai des vrais OGs no Le cul aussi rond qu'un vinyle J'vais la piner en bordel À en perdre la vie Bien sapé en tenue de ville Tapage dans l'hôtel Laisse pourboire pour le bruit Son string abrège la discussion Gros bling balèze, j'fais bonne impression Mixtape à l'aise, j'n'ai pas la pression Le rap français, j'refais son éducation J'suis dans le bungalow J'observe son bassin qui bouge Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Pute pas besoin d'aller plus haut Si t'agites bien, ça fera d'la mousse Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Eh eh eh eh Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Dem's J'mets d'la beuh-er dans ma chicha, j'tousse ouais J'la prends en brochette comme un chich taouk bang Un peu d'me-sper sur le coin d'sa fouf' ouais L'enculer sévère, j'vous le souhaite à tous clair Elle hésite, ne veut plus se prendre au sérieux no Elle médite, ne veut plus se rendre au ciel bleu no Combien d'portefeuilles ont exaucé ses vux? ouais Même dans mon cercueil, j'me rappellerai d'ses yeux yeah Elle veut qu'on fasse que du sexe J'rêvais pas mieux no oh J'l'interdis de voir d'autres mecs J'suis un rageux yeah eh Prends la pilule j'veux pas qu'on soit plus d'deux Dans le cul et la teuch, pas de juste milieu Ma voix d'soûlard lui dit déshabille-toi J'vais dans son trou noir, j'suis un peu à l'étroit hein hein Teille de corona Elle danse la rumba sur du Andabo Yoruba J'suis dans le bungalow J'observe son bassin qui bouge Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Pute pas besoin d'aller plus haut Si t'agites bien, ça fera d'la mousse Non c'n'est pas de la mayo Qu'elle a sur le coin de sa bouche Eh eh eh eh Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mi amor ce soir, tu vas t'faire ken Encore et encore Comme d'hab', j't'embrasse à peine Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah Mio amore yeah, yeah, yeah1</t>
+          <t>Je n'sais pas quoi lui dire, lui faire sale c'est c'que je veux Je n'sais pas quoi lui dire, vivre avec elle c'est pas c'que j'veux C'est de pire en pire, elle dit qu'elle voudrait m'rendre heureux Notre amour est dans son derrière, j'n'ai pas su faire mieux Non je n'veux plus la voir comme la chatte à Turner Afida Botoxé comme Rachida, penis dopé ouaish on y va Y'a qu'les formes qui m'facinent donc je toucherai vite le fond Du vomi dans la bassine, être sobre hors de question Récapitulation, j'm'inspire de Deezer mais y'a pas d'imitation Le temps passe vite, à toute vitesse, comme une éjaculation J'm'en fous de tuer, tant que j'fais des sous pour maintenir la ronne en vie Plus l'temps d'être anéanti, j'prends l'réseau, j'te laisse que l'wifi Au studio je n'fais que du sale, au studio tu n'fais que du bruit Très énervé je le suis, j'n'ai plus d'coeur comme Gilardi Autant kush que d'OG, autant d'neuf que deux i J'ai le bras long mais pas pour selfie Piraterie, Mugiwara Luffy Je la baise, elle crie fort comme Pavarotti C'est noir, ça brille comme dans Get Lucky Enervé je le suis, j'n'ai plus de coeur comme Gilardi Autant kush que d'OG, autant d'neuf que deux i J'ai le bras long mais pas pour selfie Piraterie, Mugiwara Luffy Damso, ouais Fuentes vie Deezer vie, hey Batterie faible, veuillez la recharger Damso, ouais2</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Real</t>
+          <t>I Love You</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Hey, tes copines te tueront babe Yeah, De La Fuentes, hey Je t'emmène au cinéma Y'a pas d'mal, j'prends ta main et on y va Quoi, t'attends tes copines ? J'ai dis on y va Écoute-moi, tu es toi quand elles sont pas là En plus de ça, j'connais bien ces femmes Sache que dans leur vie, y'a aucun but précis Tu crois qu'elle t'aime, mais chez elle rien n'est real J'suis très patient, mais j'ferai pas la file, comme ça s'est dit Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner Yo, tu veux une douce fast-life Rire jusqu'à c'que tes joues fassent mal Fumer des pet' jusqu'à c'qu'on soit high high high Boire tard la night, que l'on fly high high Mais avec tes potes t'es en désaccord Dans le fond, tu voudrais qu'j'vienne visiter ton corps Tu rêves des mecs qui embrassent tes lèvres Vision céleste, moi j'entre et sors sans r'fermer la porte T'es pas la même avec tes copines Plutôt hostile, coquine, sous tes faux-cils Quand tu m'vois, j'le vois, ta voix est sèche Mais pas l'tissu du legging, encore une fois, t'as mouillé Mais tu veux pas assumer, t'as honte de tes sentiments Vas-y, viens par ici que j'te montre les atouts d'mon continent Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs Laisse-moi t'montrer c'qui est real Si tu continues, tu finis comme ces bitchs On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner On se WhatsApp, à cause d'elles nous n'faisons que parler On se WhatsApp, mes paroles vont bientôt s'éloigner4</t>
+          <t>Hypnotic Hypnotic Ouh-ouh Oh la la, Shaz Shaz Ah Ah Eh Eh C'est trop dur de dire I love you Quand tu sais qu'autour, y a que des vautours, yeah Depuis qu'la moula m'a dit Bonjour Bonjour Toutes les bouches de pute veulent m'faire des bisous I say Ah, je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas, yah Yeah I say Non, je ne veux pas, je ne veux pas, fuck boy, vas-y, dégage ta mère Yeah Oh non, j'veux plus d'nouveaux amis Nan, j'ai juré sur ma vie T'as vu la grossur de la kich' Mmh, t'as couru sur ma bite Je sais qu't's amoureuse de mon fric Espèce de michto, why do you love me? Yeah Tu m'dis qu'j'suis beau et plein de mots Nous voir mourir ensemble, oh-oh Yeah Tu marcheras sur mon cur dans tes Loubou' Joue, tombolo C'est trop dur de dire I love you Quand tu sais qu'autour, y a que des vautours, yeah Depuis qu'la moula m'a dit Bonjour Bonjour Toutes les bouches de pute veulent m'faire des bisous Yeah I say Ah, je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas, yah Yeah, eh-eh, eh-eh I say Non, je ne veux pas, je ne veux pas, fuck boy, vas-y, dégage ta mère Eh-eh, yeah, yeah C'est tellement dur d'lui dire I love you, mon cur a déposé le bilan Contraception sur le drap blanc, te baiser pour dev'nir parent En levrette ou par le chignon, peu de choix, beaucoup de talent Prends elle en blanche ou celle à canon Fils de, fille de joie, dans leur cul, dans leur cul, je la mets, feu de bois, Sayonara Shoot, balle dans la tête comme J.F, J.F Kennedy Kennedy Violent, lame sous l'béret, comme Thomas, Thomas Shelby Shelby, ouf-ouf Elle est fraîche, donc je l'ai maillé, elle est chère, il me la fallait Merci mes ennemis, j'vis dans leurs têtes sans payer d'loyer Eh, Okay Le négro est élancé Okay, plus grand que la moyenne Cent-mille euros pour la semaine Oui, ça, c'est pour quand je me promène Moula Quand t'entends Dems, Nwaar, Saal, c'toujours les problèmes Oh-oh-oh C'est trop dur de dire I love you Okay Quand tu sais qu'autour, y a que des vautours, yeah Mmh-mmh Depuis qu'la moula m'a dit Bonjour Ah ouais Toutes les bouches de pute veulent m'faire des bisous Mmh-mmh I say Ah, je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas, yah Eh-eh, eh-eh I say Non, je ne veux pas, je ne veux pas, fuck boy, vas-y, dégage ta mère Eh-eh, yeah, eh-eh I love you Fuck boy Eh-eh, eh Je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas C'est trop dur de dire I love you2</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Freestyle Deezer</t>
+          <t>SOLD OUT !</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Je n'sais pas quoi lui dire, lui faire sale c'est c'que je veux Je n'sais pas quoi lui dire, vivre avec elle c'est pas c'que j'veux C'est de pire en pire, elle dit qu'elle voudrait m'rendre heureux Notre amour est dans son derrière, j'n'ai pas su faire mieux Non je n'veux plus la voir comme la chatte à Turner Afida Botoxé comme Rachida, penis dopé ouaish on y va Y'a qu'les formes qui m'facinent donc je toucherai vite le fond Du vomi dans la bassine, être sobre hors de question Récapitulation, j'm'inspire de Deezer mais y'a pas d'imitation Le temps passe vite, à toute vitesse, comme une éjaculation J'm'en fous de tuer, tant que j'fais des sous pour maintenir la ronne en vie Plus l'temps d'être anéanti, j'prends l'réseau, j'te laisse que l'wifi Au studio je n'fais que du sale, au studio tu n'fais que du bruit Très énervé je le suis, j'n'ai plus d'coeur comme Gilardi Autant kush que d'OG, autant d'neuf que deux i J'ai le bras long mais pas pour selfie Piraterie, Mugiwara Luffy Je la baise, elle crie fort comme Pavarotti C'est noir, ça brille comme dans Get Lucky Enervé je le suis, j'n'ai plus de coeur comme Gilardi Autant kush que d'OG, autant d'neuf que deux i J'ai le bras long mais pas pour selfie Piraterie, Mugiwara Luffy Damso, ouais Fuentes vie Deezer vie, hey Batterie faible, veuillez la recharger Damso, ouais2</t>
+          <t>Youh Big, big ,big Daddy daddy daddy Jok Jok Jok First time love, kiss me through the phone like Soulja Boy T'es mimi sans filtre, sans retouches, t'es la plus bonne L'un d'entre eux les lèvent, draco dans l'froc, j'suis dans le bloc Je n'pense qu'à faire mes opps et mettre ma monnaie à la banque Gucci bandana, j'veut être ton hoodie boys, ouais J'traîne avec mon squad, bébé appelle moi c'soir Malgré la distance, t'sais que mon cur est avec toi Entendre ta voix et t voir me fais planner comme Suprman Youuuh Trop d'kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras T'sais pas à quel point j'ai hâte J'avoue c'est relou, tous ces kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras Oh putain, j'ai hâte On enchaîne les dates, c'est toujours sold-out J'reçois beaucoup d'amour mais c'moment, j'suis dans l'gaz J'ai parfumé ma chambre d'hôtel Sous l'détecteur d'fumée, j'ai calé une chaussette Y'a toute sorte de drogues et plein d'bouteilles J'suis défoncé, là, j'attends que tu m'appelles Bébé, c'est fou comment tu m'manques là Je suis à l'autre bout du monde Je m'absente à cause de cette moula S'tu veux un mec plus présent, y'en a au chômage Où que j'ailles, donne moi des nouvelles tant qu'il y a du débit Pense à moi, où qu'tu sois Je n'fais que compter les jours jusqu'à ce qu'on s'retrouve, baby First time love, kiss me through the phone like Soulja Boy T'es mimi sans filtre, sans retouches, t'es la plus bonne L'un d'entre eux les lèvent, draco dans l'froc, j'suis dans le bloc Je n'pense qu'à faire mes opps et mettre ma monnaie à la banque Gucci bandana, j'veut être ton hoodie boys, ouais J'traînes avec mon squad, bébé appelle moi c'soir Malgré la distance, t'sais que mon cur est avec toi Entendre ta voix et te voir me fais planner comme superman Youuuh Trop d'kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras T'sais pas à quel point j'ai hâte J'avoue c'est relou, tous ces kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras Oh putain, j'ai hâte Malgré les mers, les océans Les forêts, les montagnes, les volcans Tout c'désert, tout c'béton Qui nous sépare je pense à toi tout l'temps Dans l'avion, dans l'bateau J'suis dans l'auto, j'suis sur la moto J'suis sur tout les réseaux Vive la 5G, bébé à bientôt Malgré les mers, les océans Les forêts, les montagnes, les volcans Tout ce désert pour c'béton Qui nous sépare je pense à toi tout l'temps Dans l'avion, dans l'bateau J'suis dans l'auto, j'suis sur la moto J'suis sur tout les réseaux Vive la 5G, bébé à bientôt Ouh, ouh, ouh Ouh, ouh, ouh Ouh, ouh, ouh Ouh, ouh, ouh</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>I Love You</t>
+          <t>Quoi de neuf bébé</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Hypnotic Hypnotic Ouh-ouh Oh la la, Shaz Shaz Ah Ah Eh Eh C'est trop dur de dire I love you Quand tu sais qu'autour, y a que des vautours, yeah Depuis qu'la moula m'a dit Bonjour Bonjour Toutes les bouches de pute veulent m'faire des bisous I say Ah, je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas, yah Yeah I say Non, je ne veux pas, je ne veux pas, fuck boy, vas-y, dégage ta mère Yeah Oh non, j'veux plus d'nouveaux amis Nan, j'ai juré sur ma vie T'as vu la grossur de la kich' Mmh, t'as couru sur ma bite Je sais qu't's amoureuse de mon fric Espèce de michto, why do you love me? Yeah Tu m'dis qu'j'suis beau et plein de mots Nous voir mourir ensemble, oh-oh Yeah Tu marcheras sur mon cur dans tes Loubou' Joue, tombolo C'est trop dur de dire I love you Quand tu sais qu'autour, y a que des vautours, yeah Depuis qu'la moula m'a dit Bonjour Bonjour Toutes les bouches de pute veulent m'faire des bisous Yeah I say Ah, je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas, yah Yeah, eh-eh, eh-eh I say Non, je ne veux pas, je ne veux pas, fuck boy, vas-y, dégage ta mère Eh-eh, yeah, yeah C'est tellement dur d'lui dire I love you, mon cur a déposé le bilan Contraception sur le drap blanc, te baiser pour dev'nir parent En levrette ou par le chignon, peu de choix, beaucoup de talent Prends elle en blanche ou celle à canon Fils de, fille de joie, dans leur cul, dans leur cul, je la mets, feu de bois, Sayonara Shoot, balle dans la tête comme J.F, J.F Kennedy Kennedy Violent, lame sous l'béret, comme Thomas, Thomas Shelby Shelby, ouf-ouf Elle est fraîche, donc je l'ai maillé, elle est chère, il me la fallait Merci mes ennemis, j'vis dans leurs têtes sans payer d'loyer Eh, Okay Le négro est élancé Okay, plus grand que la moyenne Cent-mille euros pour la semaine Oui, ça, c'est pour quand je me promène Moula Quand t'entends Dems, Nwaar, Saal, c'toujours les problèmes Oh-oh-oh C'est trop dur de dire I love you Okay Quand tu sais qu'autour, y a que des vautours, yeah Mmh-mmh Depuis qu'la moula m'a dit Bonjour Ah ouais Toutes les bouches de pute veulent m'faire des bisous Mmh-mmh I say Ah, je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas, yah Eh-eh, eh-eh I say Non, je ne veux pas, je ne veux pas, fuck boy, vas-y, dégage ta mère Eh-eh, yeah, eh-eh I love you Fuck boy Eh-eh, eh Je ne veux pas, je ne veux pas, je ne veux pas, je ne veux pas C'est trop dur de dire I love you2</t>
+          <t>Ah ouais, ah bah ouais Quoi d'neuf, baby ? Quoi d'neuf, bébé ? Ouais Allons claquer c'papier C'est toi mon bébé, c'est toi mon bébé, t'es mon bébé Yeah Quoi d'neuf, bébé ? Yeah Dans tes yeux, j'vois bien Ouais Quand ça n'va pas bien Ouais, allons claquer c'papier Sale Essuie tes larmes avec ma kichta, accepte mes excuses Dans ma ville, les bitches viennent et partent, mais toi, tu restes ma bitch Tous les hommes sur terre sont infidèles Moi, j'suis là, j'suis loyal, j'suis loyal Tous les hommes sur trre sont infidèles Mais moi, j'suis là, j'suis loyal, j'suis loyal Les homms fidèles sont souvent ceux qui n'ont pas l'choix, yah, yah Les hommes fidèles sont souvent ceux qui n'ont pas l'choix Mais t'inquiète, j'te respecte, aucune n'est rentrée dans ma chambre T'es deux fois vaccinée, tu crois encore au prince charmant Tu t'parfumes chez Dior et dans ma caisse, ça sent l'Coco Chanel Depuis le début c'est toi que j'aime, ça ne changera pas Rien à foutre de ces putes, dans le tourbus, foncedé sous ecsta' Ce n'est que du cul, rien de plus J'mène ma vie d'rockstar, parce que trop d'gens veulent ma chute Parfois, j'sors l'pétard, l'été, Mamidou sort la bécane J'sors de quoi bédave, j'sors du Georges V, bébé, j'sors de GAV Quoi d'neuf, bébé ? Yeah Dans tes yeux, j'vois bien Ouais Quand ça n'va pas bien Ouais, allons claquer c'papier Essuie tes larmes avec ma kichta Sale, accepte mes excuses Ah ouais Dans ma ville, les bitches viennent et partent, mais toi, tu restes ma bitch Ouais Tous les hommes sur terre sont infidèles Moi, j'suis là, j'suis loyal, j'suis loyal Tous les hommes sur terre sont infidèles Mais moi, j'suis là, j'suis loyal, j'suis loyal Dems Mauvais exemple quand j'suis dans l'love, quand j'suis en couple Ouh Besoin de drogues dures, oh, oh, les négros en souffrent D'ailleurs, j'viens de rompre deux fois en un mois, eh, eh, eh Eh Enfermé comme Thug et Gunna, le négro est tenace, le majeur à Tobias, boom La paume remplie de crevasse, j'fume un cône, oh-oh-oh Sale Cur en lambeaux, j'crois en nous sans toi Bang, bang J'fume ma cons' au Royal Monceau, oh, oh, oh J's'rai ton Rondo, t's'ras ma Naniuma Coup d'foudre est un meurtre sauvage sans préméditation J'ai plus d'souffle, j'cours après tasses-pé assoiffées d'pénétration Le doigt lourd sur mon écran, j'écris des Je t'aime et des J'regrette Tant de concepts que je n'comprends pas Yeah, uh-huh C'est pas normal, même avec ces larmes qui coulent sur ta face, t'es incroyable Ah ouais Pardonne-moi, mon bébé mais c'est comme a-ç Tiens, prends ma liasse, j'veux plus t'voir comme a-ç C'est pas normal, même avec ces larmes qui coulent sur ta face, t'es incroyable Pardonne-moi, mon bébé mais c'est comme a-ç Tiens, prends ma liasse, j'veux plus t'voir comme a-ç C'est toi mon bébé, t'es mon bébé, c'est toi mon bébé, t'es mon bébé, ouais C'est toi mon bébé, t'es mon bébé, c'est toi mon bébé, t'es mon bébé</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SOLD OUT !</t>
+          <t>BLASE</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Youh Big, big ,big Daddy daddy daddy Jok Jok Jok First time love, kiss me through the phone like Soulja Boy T'es mimi sans filtre, sans retouches, t'es la plus bonne L'un d'entre eux les lèvent, draco dans l'froc, j'suis dans le bloc Je n'pense qu'à faire mes opps et mettre ma monnaie à la banque Gucci bandana, j'veut être ton hoodie boys, ouais J'traîne avec mon squad, bébé appelle moi c'soir Malgré la distance, t'sais que mon cur est avec toi Entendre ta voix et t voir me fais planner comme Suprman Youuuh Trop d'kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras T'sais pas à quel point j'ai hâte J'avoue c'est relou, tous ces kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras Oh putain, j'ai hâte On enchaîne les dates, c'est toujours sold-out J'reçois beaucoup d'amour mais c'moment, j'suis dans l'gaz J'ai parfumé ma chambre d'hôtel Sous l'détecteur d'fumée, j'ai calé une chaussette Y'a toute sorte de drogues et plein d'bouteilles J'suis défoncé, là, j'attends que tu m'appelles Bébé, c'est fou comment tu m'manques là Je suis à l'autre bout du monde Je m'absente à cause de cette moula S'tu veux un mec plus présent, y'en a au chômage Où que j'ailles, donne moi des nouvelles tant qu'il y a du débit Pense à moi, où qu'tu sois Je n'fais que compter les jours jusqu'à ce qu'on s'retrouve, baby First time love, kiss me through the phone like Soulja Boy T'es mimi sans filtre, sans retouches, t'es la plus bonne L'un d'entre eux les lèvent, draco dans l'froc, j'suis dans le bloc Je n'pense qu'à faire mes opps et mettre ma monnaie à la banque Gucci bandana, j'veut être ton hoodie boys, ouais J'traînes avec mon squad, bébé appelle moi c'soir Malgré la distance, t'sais que mon cur est avec toi Entendre ta voix et te voir me fais planner comme superman Youuuh Trop d'kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras T'sais pas à quel point j'ai hâte J'avoue c'est relou, tous ces kilomètres entre nous Vivement nos retrouvailles, que j'te serre dans mes bras Oh putain, j'ai hâte Malgré les mers, les océans Les forêts, les montagnes, les volcans Tout c'désert, tout c'béton Qui nous sépare je pense à toi tout l'temps Dans l'avion, dans l'bateau J'suis dans l'auto, j'suis sur la moto J'suis sur tout les réseaux Vive la 5G, bébé à bientôt Malgré les mers, les océans Les forêts, les montagnes, les volcans Tout ce désert pour c'béton Qui nous sépare je pense à toi tout l'temps Dans l'avion, dans l'bateau J'suis dans l'auto, j'suis sur la moto J'suis sur tout les réseaux Vive la 5G, bébé à bientôt Ouh, ouh, ouh Ouh, ouh, ouh Ouh, ouh, ouh Ouh, ouh, ouh</t>
+          <t>Yeah, putain Eh yo Don, balance un peu heu... Mets un peu du volume dans le casque, là Ouais, c'est bon Putain, dernier son d'la tape Je suis blasé, fatigué Trop d'faux plans pour cette putain d'tape, enregistrée dans une chambre Beaucoup de connards, beaucoup de vrais gars ont participé Et puis fuck, en fait, j'les emmerde tous haha Putain Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Putain d'merde Putain d'merde J'suis blasé de la life, juste envie d'fumer d'l'herbe Résidu de pax dans le l'froc, motherfucker Teille de whisky Jack dans le coffre d'la gova Ça crie, ça rit autour J'suis là sans être présent Impression d'jouer les sourds On m'parle, je fais qu'lâcher des vents Même plus envie d'baiser Blasé, fais chier, faut que j'me reprenne, haine et peine Anything again, et je la joue Kurt Cobain, bang bang Je me tire dessus pour me tirer d'ici, ok Tiens bon mais je tiens plus debout, envie de sauter du haut d'un new gate L'indé' coûte plus cher sans frais de port Plus besoin d'être livré à soi-même Pas besoin d'vos disques d'or, faites le fondre à la 2Chainz Sourire au poste, j'y ai photographié empreintes Chérie, me parle pas d'gosses y a qu'pour mon son qu'on me parlera d'enceintes Je suis là, je suis frais, j'fais qu'frimer Tous les tres-traî vont trimer Difficulté trop d'mc's à la cheville m'a dit le kiné En chien , en rien du tout Sont tous là à sucer mon crew En studio quand je pose, y a qu'mon écharpe qui tient le coup Narcissique, j'parle que de moi Damso, motherfucking Dams', motherfucking Dams', motherfucker huggle sur turvoi Merco, motherfucking Benz, motherfucker Benz, motherfucker négro, qu'est-ce tu crois? Lève-tôt pense que l'monde t'appartient T'as l'swag à Martin Matin Trop d'flow, trop loin, j'rappe en martien Genius League Einstein flow Roule un spliff, que j'plane bro Toutes ces bitchs qui flânent trop, Tout est dis c'est Damso, Damso Et puis fuck, en fait, j'les emmerde tous Putain Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Quoi de neuf bébé</t>
+          <t>LE TALENT NE SUFFIT PAS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Ah ouais, ah bah ouais Quoi d'neuf, baby ? Quoi d'neuf, bébé ? Ouais Allons claquer c'papier C'est toi mon bébé, c'est toi mon bébé, t'es mon bébé Yeah Quoi d'neuf, bébé ? Yeah Dans tes yeux, j'vois bien Ouais Quand ça n'va pas bien Ouais, allons claquer c'papier Sale Essuie tes larmes avec ma kichta, accepte mes excuses Dans ma ville, les bitches viennent et partent, mais toi, tu restes ma bitch Tous les hommes sur terre sont infidèles Moi, j'suis là, j'suis loyal, j'suis loyal Tous les hommes sur trre sont infidèles Mais moi, j'suis là, j'suis loyal, j'suis loyal Les homms fidèles sont souvent ceux qui n'ont pas l'choix, yah, yah Les hommes fidèles sont souvent ceux qui n'ont pas l'choix Mais t'inquiète, j'te respecte, aucune n'est rentrée dans ma chambre T'es deux fois vaccinée, tu crois encore au prince charmant Tu t'parfumes chez Dior et dans ma caisse, ça sent l'Coco Chanel Depuis le début c'est toi que j'aime, ça ne changera pas Rien à foutre de ces putes, dans le tourbus, foncedé sous ecsta' Ce n'est que du cul, rien de plus J'mène ma vie d'rockstar, parce que trop d'gens veulent ma chute Parfois, j'sors l'pétard, l'été, Mamidou sort la bécane J'sors de quoi bédave, j'sors du Georges V, bébé, j'sors de GAV Quoi d'neuf, bébé ? Yeah Dans tes yeux, j'vois bien Ouais Quand ça n'va pas bien Ouais, allons claquer c'papier Essuie tes larmes avec ma kichta Sale, accepte mes excuses Ah ouais Dans ma ville, les bitches viennent et partent, mais toi, tu restes ma bitch Ouais Tous les hommes sur terre sont infidèles Moi, j'suis là, j'suis loyal, j'suis loyal Tous les hommes sur terre sont infidèles Mais moi, j'suis là, j'suis loyal, j'suis loyal Dems Mauvais exemple quand j'suis dans l'love, quand j'suis en couple Ouh Besoin de drogues dures, oh, oh, les négros en souffrent D'ailleurs, j'viens de rompre deux fois en un mois, eh, eh, eh Eh Enfermé comme Thug et Gunna, le négro est tenace, le majeur à Tobias, boom La paume remplie de crevasse, j'fume un cône, oh-oh-oh Sale Cur en lambeaux, j'crois en nous sans toi Bang, bang J'fume ma cons' au Royal Monceau, oh, oh, oh J's'rai ton Rondo, t's'ras ma Naniuma Coup d'foudre est un meurtre sauvage sans préméditation J'ai plus d'souffle, j'cours après tasses-pé assoiffées d'pénétration Le doigt lourd sur mon écran, j'écris des Je t'aime et des J'regrette Tant de concepts que je n'comprends pas Yeah, uh-huh C'est pas normal, même avec ces larmes qui coulent sur ta face, t'es incroyable Ah ouais Pardonne-moi, mon bébé mais c'est comme a-ç Tiens, prends ma liasse, j'veux plus t'voir comme a-ç C'est pas normal, même avec ces larmes qui coulent sur ta face, t'es incroyable Pardonne-moi, mon bébé mais c'est comme a-ç Tiens, prends ma liasse, j'veux plus t'voir comme a-ç C'est toi mon bébé, t'es mon bébé, c'est toi mon bébé, t'es mon bébé, ouais C'est toi mon bébé, t'es mon bébé, c'est toi mon bébé, t'es mon bébé</t>
+          <t>Yeah, han Yeah, han Yeah, yeah Ruisseaux, rivières, fleuves, j'côtoie plus de flots qu'un matelot j'ai juste assez de boules que d'douilles dans l'magnum Bang, bang, pam, pam I'm sorry, seul moyen que jai de gole-ri Plus gros arsenal que Wenger, narcotrafic by Columbie Putain fuck, les mecs Fuck, les mecs, il faut du biff, les mecs Il faut du biff, les mecs Sors ton biff d'la rue, checke le bourgeois dire Sale putain de nègre Trop d'nervosité dans le re-ai Re-ai, trop sodomisé dans l'réel L'réel Pas là pour conscientisé, j'men fous tant que j'fais du bénef' Bénéf', Damso, Damso, Damso, Dems 'so, Dems, han Sanguinolante est la fusillade, pas d'surveillance dans l'cambriolage Je vois de toutes les couleurs comme Bioman, que des gouttes de sueurs, pas d'place pour les larmes C'est Damso Damso, à défaut d'pas partir, je pars en vrille, hun, hun La life est une énigme dont l'seul indice est c'lui du prix, hun, hun, bam, bam Fuck le game, le talent n'suffit pas Nan, nan, nan, nan, nan, nan Fuck le game, le talent n'suffit pas Nan, nan, nan, nan, nan, nan Fuck le game, le talent n'suffit pas Nan, nan, nan, nan, nan, nan Il, nan, nan, nan Il suffit pas cest clair J'ai beau rapper, kicker, puiser des flows cuisants voir tout bousiller, rien ne changera s'ils ne sont pas prêts J'pourrais rapper vite ou bien lentement, j'pourrais faire mieux qule meilleur tout bêtement Mais sans la promo, moi, j's'rais pas premier, j'serais premier que je serai juste un comis J'commets crime odieux sur bande de son Nan, nan, nan, D.A.M.S.O Tellement, tellement d'flow</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BLASE</t>
+          <t>Dems</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Yeah, putain Eh yo Don, balance un peu heu... Mets un peu du volume dans le casque, là Ouais, c'est bon Putain, dernier son d'la tape Je suis blasé, fatigué Trop d'faux plans pour cette putain d'tape, enregistrée dans une chambre Beaucoup de connards, beaucoup de vrais gars ont participé Et puis fuck, en fait, j'les emmerde tous haha Putain Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Putain d'merde Putain d'merde J'suis blasé de la life, juste envie d'fumer d'l'herbe Résidu de pax dans le l'froc, motherfucker Teille de whisky Jack dans le coffre d'la gova Ça crie, ça rit autour J'suis là sans être présent Impression d'jouer les sourds On m'parle, je fais qu'lâcher des vents Même plus envie d'baiser Blasé, fais chier, faut que j'me reprenne, haine et peine Anything again, et je la joue Kurt Cobain, bang bang Je me tire dessus pour me tirer d'ici, ok Tiens bon mais je tiens plus debout, envie de sauter du haut d'un new gate L'indé' coûte plus cher sans frais de port Plus besoin d'être livré à soi-même Pas besoin d'vos disques d'or, faites le fondre à la 2Chainz Sourire au poste, j'y ai photographié empreintes Chérie, me parle pas d'gosses y a qu'pour mon son qu'on me parlera d'enceintes Je suis là, je suis frais, j'fais qu'frimer Tous les tres-traî vont trimer Difficulté trop d'mc's à la cheville m'a dit le kiné En chien , en rien du tout Sont tous là à sucer mon crew En studio quand je pose, y a qu'mon écharpe qui tient le coup Narcissique, j'parle que de moi Damso, motherfucking Dams', motherfucking Dams', motherfucker huggle sur turvoi Merco, motherfucking Benz, motherfucker Benz, motherfucker négro, qu'est-ce tu crois? Lève-tôt pense que l'monde t'appartient T'as l'swag à Martin Matin Trop d'flow, trop loin, j'rappe en martien Genius League Einstein flow Roule un spliff, que j'plane bro Toutes ces bitchs qui flânent trop, Tout est dis c'est Damso, Damso Et puis fuck, en fait, j'les emmerde tous Putain Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Bla-bla-bla blasé, bla-bla-bla-bla-bla-blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé Blasé, blasé, blasé, blasé</t>
+          <t>J'ai jamais connu d'vierge à part ma feuille A4, hein J'crois que j'suis marrant, chaque meuf que j'côtoie se plie en quatre pattes Peu d'vrai dans c'qui mentoure, j'vois que deux trois silhouettes Négro, j'suis loin, j'te distance d'environ neuf millimètres Ratatatata dans le cou Ratatatata dans le trou Ratatatata dans le boule Ratatatata dans le cou Hé m'sieur, fais d'la d'politique, y'a que comme ça que t'auras ma voix Vagin syphilitique, pute, t'as cru que t'allais m'avoir J'nique vos lois, vos dogmes, vos gosses, mon peuple en a souffert Pas besoin de faire de la neuro-physio pour connaître le nerf de la guerre L'argent n'a pas d'odeur, c'est vrai, dès que j'en ai, j'me sens plus Jamais de stress, cul par dessus la tête juste pour un anulingus J'm'en fou qu'on m'donne carte blanche, pour que j'sois libre, il me faut la black Sécher ma troisième jambe Salope, viens me graisser la patte L'avenir, un drôle de pénis Tourne lui le dos et paf la levrette Marre de ces gow qui gémissent, j'veux du S.H.A.Y À l'avance sur mon time, MC San Ku Kaï RDC Kasaï-Oriental, bitch Bichi Bimpa Malukayi J'rentre en studio, j'tremble Ils comprennent rien, c'est sûr Vu que j'parle en tu avec le sommet, y'a chute de température J'baise miss black and white, comme le swag de De Fontenay Parle moi pas ou parle moi maille, j'vis de mes contes comme La Fontaine Damso Ratatatata dans le boule Ratatatata dans le cou Neuf millimètres J'ai jamais connu d'vierge à part ma feuille A4, hein J'crois que j'suis marrant, chaque meuf que j'côtoie se plie en quatre pattes Peu d'vrai dans c'qui mentoure, j'vois que deux trois silhouettes Négro, j'suis loin, j'te distance d'environ neuf millimètres Ratatatata dans le cou Ratatatata dans le trou Ratatatata dans le boule Ratatatata dans le cou Neuf millimètres Quatre pattes</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>LE TALENT NE SUFFIT PAS</t>
+          <t>Publie Partage Promo</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Yeah, han Yeah, han Yeah, yeah Ruisseaux, rivières, fleuves, j'côtoie plus de flots qu'un matelot j'ai juste assez de boules que d'douilles dans l'magnum Bang, bang, pam, pam I'm sorry, seul moyen que jai de gole-ri Plus gros arsenal que Wenger, narcotrafic by Columbie Putain fuck, les mecs Fuck, les mecs, il faut du biff, les mecs Il faut du biff, les mecs Sors ton biff d'la rue, checke le bourgeois dire Sale putain de nègre Trop d'nervosité dans le re-ai Re-ai, trop sodomisé dans l'réel L'réel Pas là pour conscientisé, j'men fous tant que j'fais du bénef' Bénéf', Damso, Damso, Damso, Dems 'so, Dems, han Sanguinolante est la fusillade, pas d'surveillance dans l'cambriolage Je vois de toutes les couleurs comme Bioman, que des gouttes de sueurs, pas d'place pour les larmes C'est Damso Damso, à défaut d'pas partir, je pars en vrille, hun, hun La life est une énigme dont l'seul indice est c'lui du prix, hun, hun, bam, bam Fuck le game, le talent n'suffit pas Nan, nan, nan, nan, nan, nan Fuck le game, le talent n'suffit pas Nan, nan, nan, nan, nan, nan Fuck le game, le talent n'suffit pas Nan, nan, nan, nan, nan, nan Il, nan, nan, nan Il suffit pas cest clair J'ai beau rapper, kicker, puiser des flows cuisants voir tout bousiller, rien ne changera s'ils ne sont pas prêts J'pourrais rapper vite ou bien lentement, j'pourrais faire mieux qule meilleur tout bêtement Mais sans la promo, moi, j's'rais pas premier, j'serais premier que je serai juste un comis J'commets crime odieux sur bande de son Nan, nan, nan, D.A.M.S.O Tellement, tellement d'flow</t>
+          <t>Hein mais bon personne ne sait Tu sais pas d'quoi j'parle, faut qu'tu sortes ta tape Deux-trois sons du OPGang du mother fucking Dems Yo Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Damso, Damso, Damso Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Damso, Damso, Damso Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Damso, Damso, Damso Promo, Damso Yo négro, j'vois qu'tu l'embrasses, tu l'aimes Oh, au lieu d'la baiser comme les autres Oh L'aurore est comme la race humaine y a des couleurs plus importantes que d'autres Présage des millions d'coups bas Coups bas, j'prends d'l'âge dans un bar à cougars Cougars Fuck you, j'suis sur un gros coup comme une chaîne en or de Baracuda 'cuda J'parle peu, j'me raconte souvent, j'suis comme une tache de sperme dans un couvent Aussitôt j'crache, aussitôt j'remets mes vêtements Mon cur vient d'la rue, les poumons remplis d'goudrons Goudrons La planète Terre ne me suffit plus, au-d'ssus d'latmosphère ils ne me poursuivent plus Le rap game sa mère j'lui fous un doigt dans l'cul, easy-asy bang bang, n'en parlons plus Damso Ra-ta-ta-ta, technique de flow mythique, arme soviétique, grosse est l'équipe, grosse beuh chimique Pharmaceutique, putain j'débite, trop me repeat, fuck en réponse Mec je rubis, j'vois qu'ils s'dégonflent, d'vant l'pussy, grosse défonce Bédo, te-shi, j'risque de ter-sau, traire ennemi, sur le té-cô, man au pe-cli Rève de ser-po, sur le ze-bi, même pas d'égo, il négocie, faux cul négro J'deviens grossier, fuck le métro, j'veux m'incruster dans le caisson Lourd et corsé, Damso motherfuck Dems OPG, publie, partage, promo Promo, promo Trop de flow, mec vas-y molo Molo, molo, ils ont voulu tirer le gros lot Gros lot, gros lot Qui m'aime me like ou bien me follow, yo Trois fois W, point Facebook.com, slash T.H.E.D.A.M.S.O S.O Trois fois W, point Twitter.com, slash T.H.E.D.A.M.S.O S.O Publie, partage, promo Promo Publie, partage, promo Promo Publie, partage, promo Promo Damso, Damso, Damso Damso Publie, partage, promo Promo Publie, partage, promo Promo Publie, partage, promo Promo Damso, Damso, Damso Damso Publie, partage, promo Promo Publie, partage, promo Promo Publie, partage, promo Promo Damso, Damso, Damso Damso Yo Dems, Dems Dems, Dems Publie, partage, promo J'ai dis Dems, Dems Dems, Dems Publie, partage, promo Damso, les négros m'ont dit T'es chaud, mais bon personne ne sait Tu sais pas d'quoi j'parle, faut qu'tu sortes ta tape Deux-trois sons du OPGang du motherfucking Dems Faut pas traîner comme Dre Damso, les négros m'ont dit T'es chaud, mais bon personne ne sait Tu sais pas d'quoi j'parle, faut qu'tu sortes ta tape Deux-trois sons du OPGang du motherfucking Dems Faut pas traîner comme Dre1</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Dems</t>
+          <t>Tout oublier</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>J'ai jamais connu d'vierge à part ma feuille A4, hein J'crois que j'suis marrant, chaque meuf que j'côtoie se plie en quatre pattes Peu d'vrai dans c'qui mentoure, j'vois que deux trois silhouettes Négro, j'suis loin, j'te distance d'environ neuf millimètres Ratatatata dans le cou Ratatatata dans le trou Ratatatata dans le boule Ratatatata dans le cou Hé m'sieur, fais d'la d'politique, y'a que comme ça que t'auras ma voix Vagin syphilitique, pute, t'as cru que t'allais m'avoir J'nique vos lois, vos dogmes, vos gosses, mon peuple en a souffert Pas besoin de faire de la neuro-physio pour connaître le nerf de la guerre L'argent n'a pas d'odeur, c'est vrai, dès que j'en ai, j'me sens plus Jamais de stress, cul par dessus la tête juste pour un anulingus J'm'en fou qu'on m'donne carte blanche, pour que j'sois libre, il me faut la black Sécher ma troisième jambe Salope, viens me graisser la patte L'avenir, un drôle de pénis Tourne lui le dos et paf la levrette Marre de ces gow qui gémissent, j'veux du S.H.A.Y À l'avance sur mon time, MC San Ku Kaï RDC Kasaï-Oriental, bitch Bichi Bimpa Malukayi J'rentre en studio, j'tremble Ils comprennent rien, c'est sûr Vu que j'parle en tu avec le sommet, y'a chute de température J'baise miss black and white, comme le swag de De Fontenay Parle moi pas ou parle moi maille, j'vis de mes contes comme La Fontaine Damso Ratatatata dans le boule Ratatatata dans le cou Neuf millimètres J'ai jamais connu d'vierge à part ma feuille A4, hein J'crois que j'suis marrant, chaque meuf que j'côtoie se plie en quatre pattes Peu d'vrai dans c'qui mentoure, j'vois que deux trois silhouettes Négro, j'suis loin, j'te distance d'environ neuf millimètres Ratatatata dans le cou Ratatatata dans le trou Ratatatata dans le boule Ratatatata dans le cou Neuf millimètres Quatre pattes</t>
+          <t>Ouais, ouais Ce soir j'me bourre la gueule Yeah J'ai des factures comme tout l'monde ici Mais j'm'en fous cette nuit j'les regarderai à peine J'ai des soucis comme tout l'monde ici Mais j'm'en fous cette nuit j'y penserai à peine Ce soir j'me bourre la gueule Pour tout oublier Nan j'm'en fous ce soir j'me bourre la gueule Pour tout oublier J'suis déchiré, j'veux tout oublier J'suis déchiré Ma meuf me saoule depuis trop longtemps Mais vu que j'la kiff j'peux pas la quitter Ma mère me dit de changer mes fréquentations Mais vu que ça roule des spliffs j'peux pas les quitter J'suis passé d'général au technique J'ai montré le bulletin à la daronne elle a déchiré Première fois dans première salope, prévoyant j'ai mis une capote mais elle s'est déchirée J'cruise avec Gil Ill en ville Pour qu'on vienne te choper l'essence, faudra participer J'recherche une ressoi tranquille M'escarmouche avec le videur veut pas m'laisser rentrer Fucked up, hors de question qu'j'reste sobre Paki, j'prends ma Gordon J'me def avec mon escorte Ce soir j'crois qu'il y aura mort d'homme Bagarre, ambulance, forces de l'ordre J'suis def, j'fume un petch avec bonheur pour oublier les huissiers J'ai des factures comme tout l'monde ici Mais j'm'en fous cette nuit j'les regarderai à peine J'ai des soucis comme tout l'monde ici Mais j'm'en fous cette nuit j'y penserai à peine Ce soir j'me bourre la gueule Pour tout oublier Nan j'm'en fous ce soir j'me bourre la gueule Pour tout oublier J'suis déchiré, j'veux tout oublier J'suis déchiré4</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Publie Partage Promo</t>
+          <t>The Vie (2016)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Hein mais bon personne ne sait Tu sais pas d'quoi j'parle, faut qu'tu sortes ta tape Deux-trois sons du OPGang du mother fucking Dems Yo Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Damso, Damso, Damso Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Damso, Damso, Damso Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Publie, partage, promo Promo, Damso Damso, Damso, Damso Promo, Damso Yo négro, j'vois qu'tu l'embrasses, tu l'aimes Oh, au lieu d'la baiser comme les autres Oh L'aurore est comme la race humaine y a des couleurs plus importantes que d'autres Présage des millions d'coups bas Coups bas, j'prends d'l'âge dans un bar à cougars Cougars Fuck you, j'suis sur un gros coup comme une chaîne en or de Baracuda 'cuda J'parle peu, j'me raconte souvent, j'suis comme une tache de sperme dans un couvent Aussitôt j'crache, aussitôt j'remets mes vêtements Mon cur vient d'la rue, les poumons remplis d'goudrons Goudrons La planète Terre ne me suffit plus, au-d'ssus d'latmosphère ils ne me poursuivent plus Le rap game sa mère j'lui fous un doigt dans l'cul, easy-asy bang bang, n'en parlons plus Damso Ra-ta-ta-ta, technique de flow mythique, arme soviétique, grosse est l'équipe, grosse beuh chimique Pharmaceutique, putain j'débite, trop me repeat, fuck en réponse Mec je rubis, j'vois qu'ils s'dégonflent, d'vant l'pussy, grosse défonce Bédo, te-shi, j'risque de ter-sau, traire ennemi, sur le té-cô, man au pe-cli Rève de ser-po, sur le ze-bi, même pas d'égo, il négocie, faux cul négro J'deviens grossier, fuck le métro, j'veux m'incruster dans le caisson Lourd et corsé, Damso motherfuck Dems OPG, publie, partage, promo Promo, promo Trop de flow, mec vas-y molo Molo, molo, ils ont voulu tirer le gros lot Gros lot, gros lot Qui m'aime me like ou bien me follow, yo Trois fois W, point Facebook.com, slash T.H.E.D.A.M.S.O S.O Trois fois W, point Twitter.com, slash T.H.E.D.A.M.S.O S.O Publie, partage, promo Promo Publie, partage, promo Promo Publie, partage, promo Promo Damso, Damso, Damso Damso Publie, partage, promo Promo Publie, partage, promo Promo Publie, partage, promo Promo Damso, Damso, Damso Damso Publie, partage, promo Promo Publie, partage, promo Promo Publie, partage, promo Promo Damso, Damso, Damso Damso Yo Dems, Dems Dems, Dems Publie, partage, promo J'ai dis Dems, Dems Dems, Dems Publie, partage, promo Damso, les négros m'ont dit T'es chaud, mais bon personne ne sait Tu sais pas d'quoi j'parle, faut qu'tu sortes ta tape Deux-trois sons du OPGang du motherfucking Dems Faut pas traîner comme Dre Damso, les négros m'ont dit T'es chaud, mais bon personne ne sait Tu sais pas d'quoi j'parle, faut qu'tu sortes ta tape Deux-trois sons du OPGang du motherfucking Dems Faut pas traîner comme Dre1</t>
+          <t>Des fils de putes j'en vois tous les jours Loin dans son 'uc elle a plus d'un tour Du monde à dos pour ce que j'ai fait Qu'ils aillent se faire enculer de loin et de près J'suis fort dans l'enculade de trous du cul et tralala Je ne compte jamais changer Après tout ton point G je ne sais pas trop où il en est Tu t'fais baiser par qui veut la mettre J'fais dans la méditation pour oublier Qu'ça n'a jamais rayonné Stress et tribulation me rient au nez parce que j'fais de la monnaie Parle pas trop de tes rêves, ces fils de lâches ne voudront pas que tu y arrives Te noieront avant que t'atteignent la rive N'aiment pas voir nègre au sommet Dams était damso-isé Oh ouais Schnek en train d'agoniser2</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tout oublier</t>
+          <t>Maria Maria</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Ouais, ouais Ce soir j'me bourre la gueule Yeah J'ai des factures comme tout l'monde ici Mais j'm'en fous cette nuit j'les regarderai à peine J'ai des soucis comme tout l'monde ici Mais j'm'en fous cette nuit j'y penserai à peine Ce soir j'me bourre la gueule Pour tout oublier Nan j'm'en fous ce soir j'me bourre la gueule Pour tout oublier J'suis déchiré, j'veux tout oublier J'suis déchiré Ma meuf me saoule depuis trop longtemps Mais vu que j'la kiff j'peux pas la quitter Ma mère me dit de changer mes fréquentations Mais vu que ça roule des spliffs j'peux pas les quitter J'suis passé d'général au technique J'ai montré le bulletin à la daronne elle a déchiré Première fois dans première salope, prévoyant j'ai mis une capote mais elle s'est déchirée J'cruise avec Gil Ill en ville Pour qu'on vienne te choper l'essence, faudra participer J'recherche une ressoi tranquille M'escarmouche avec le videur veut pas m'laisser rentrer Fucked up, hors de question qu'j'reste sobre Paki, j'prends ma Gordon J'me def avec mon escorte Ce soir j'crois qu'il y aura mort d'homme Bagarre, ambulance, forces de l'ordre J'suis def, j'fume un petch avec bonheur pour oublier les huissiers J'ai des factures comme tout l'monde ici Mais j'm'en fous cette nuit j'les regarderai à peine J'ai des soucis comme tout l'monde ici Mais j'm'en fous cette nuit j'y penserai à peine Ce soir j'me bourre la gueule Pour tout oublier Nan j'm'en fous ce soir j'me bourre la gueule Pour tout oublier J'suis déchiré, j'veux tout oublier J'suis déchiré4</t>
+          <t>Ils sont venus Ils sont tous là Dès qu'ils ont entendu ce cri Elle va mourir, la mamma Ils sont venus Ils sont tous là Même ceux du sud de l'Italie Y'a même Giorgio, le fils maudit Avec des présents plein les bras Tous les enfants jouent en silence Autour du lit ou sur le carreau Mais leurs jeux n'ont pas d'importance C'est un peu leurs derniers cadeaux A la mamma On la réchauffe de baisers On lui remonte ses oreillers Elle va mourir, la mamma Sainte Marie pleine de grâces Dont la statue est sur la place Bien sûr vous lui tendez les bras En lui chantant Ave Maria Ave Maria Y'a tant d'amour, de souvenirs Autour de toi, toi la mamma Y'a tant de larmes et de sourires A travers toi, toi la mamma Et tous les hommes ont eu si chaud Sur les chemins de grand soleil Elle va mourir, la mamma Qu'ils boivent frais le vin nouveau Le bon vin de la bonne treille Tandis que s'entrassent pêle-mêle Sur les bancs, foulards et chapeaux C'est drôle on ne se sent pas triste Près du grand lit et de l'affection Y'a même un oncle guitariste Qui joue en faisant attention A la mamma Et les femmes se souvenant Des chansons tristes des veillées Elle va mourir, la mamma Tout doucement, les yeux fermés Chantent comme on berce un enfant Après une bonne journée Pour qu'il sourie en s'endormant Ave Maria Y'a tant d'amour, de souvenirs Autour de toi, toi la mamma Y'a tant de larmes et de sourires A travers toi, toi la mamma Que jamais, jamais, jamais Tu nous quitteras...</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>The Vie (2016)</t>
+          <t>6h du mat’*</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Des fils de putes j'en vois tous les jours Loin dans son 'uc elle a plus d'un tour Du monde à dos pour ce que j'ai fait Qu'ils aillent se faire enculer de loin et de près J'suis fort dans l'enculade de trous du cul et tralala Je ne compte jamais changer Après tout ton point G je ne sais pas trop où il en est Tu t'fais baiser par qui veut la mettre J'fais dans la méditation pour oublier Qu'ça n'a jamais rayonné Stress et tribulation me rient au nez parce que j'fais de la monnaie Parle pas trop de tes rêves, ces fils de lâches ne voudront pas que tu y arrives Te noieront avant que t'atteignent la rive N'aiment pas voir nègre au sommet Dams était damso-isé Oh ouais Schnek en train d'agoniser2</t>
+          <t>Six heures du mat', elle ne fait que s'ambiancer Ouais, ouais, ouais Sait-elle seulement ce qu'il y a dans mes pensées Ouais, ouais, ouais ? Je n'arrête pas de mater son déhanché Oh ouais Mais je ne l'invite pas car je ne sais pas danser Non Six heures du mat', elle ne fait que s'ambiancer Ouais, ouais, ouais Sait-elle seulement ce qu'il y a dans mes pensées Ouais, ouais, ouais ? Je n'arrête pas de mater son déhanché Oh ouais Mais je ne l'invite pas car je ne sais pas danser Non2</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Maria Maria</t>
+          <t>Saale*</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Ils sont venus Ils sont tous là Dès qu'ils ont entendu ce cri Elle va mourir, la mamma Ils sont venus Ils sont tous là Même ceux du sud de l'Italie Y'a même Giorgio, le fils maudit Avec des présents plein les bras Tous les enfants jouent en silence Autour du lit ou sur le carreau Mais leurs jeux n'ont pas d'importance C'est un peu leurs derniers cadeaux A la mamma On la réchauffe de baisers On lui remonte ses oreillers Elle va mourir, la mamma Sainte Marie pleine de grâces Dont la statue est sur la place Bien sûr vous lui tendez les bras En lui chantant Ave Maria Ave Maria Y'a tant d'amour, de souvenirs Autour de toi, toi la mamma Y'a tant de larmes et de sourires A travers toi, toi la mamma Et tous les hommes ont eu si chaud Sur les chemins de grand soleil Elle va mourir, la mamma Qu'ils boivent frais le vin nouveau Le bon vin de la bonne treille Tandis que s'entrassent pêle-mêle Sur les bancs, foulards et chapeaux C'est drôle on ne se sent pas triste Près du grand lit et de l'affection Y'a même un oncle guitariste Qui joue en faisant attention A la mamma Et les femmes se souvenant Des chansons tristes des veillées Elle va mourir, la mamma Tout doucement, les yeux fermés Chantent comme on berce un enfant Après une bonne journée Pour qu'il sourie en s'endormant Ave Maria Y'a tant d'amour, de souvenirs Autour de toi, toi la mamma Y'a tant de larmes et de sourires A travers toi, toi la mamma Que jamais, jamais, jamais Tu nous quitteras...</t>
+          <t>du commissaire Que je balaya sous le matelas C'est de l'amateurisme, ça La pauvreté te guette du du coin de lil Mec, mémorise ça Kobo Kobo Oh OG roule un gros shit Sale Trop d'biff, Guns N' Roses Très sale J'roule un gros spliff' pour une grosse bitch Nwaar J'suis dans sa schnek Vie, je fais du crossfit Très nwaar Roule un dernier bedo, négro, je n'ai pas saal Sale, sale, sale</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>6h du mat’*</t>
+          <t>Polygame et fidélité*</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Six heures du mat', elle ne fait que s'ambiancer Ouais, ouais, ouais Sait-elle seulement ce qu'il y a dans mes pensées Ouais, ouais, ouais ? Je n'arrête pas de mater son déhanché Oh ouais Mais je ne l'invite pas car je ne sais pas danser Non Six heures du mat', elle ne fait que s'ambiancer Ouais, ouais, ouais Sait-elle seulement ce qu'il y a dans mes pensées Ouais, ouais, ouais ? Je n'arrête pas de mater son déhanché Oh ouais Mais je ne l'invite pas car je ne sais pas danser Non2</t>
+          <t>Devant l'avion lAfrique me refus criblée Bon charlatan, CFA monnaie pillée J'suis sur Babi, j'fume un doobie, oui Dévisagé par le curé, oui Monogame et relation brisée, oui Polygame et fidélité, oui ...</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Saale*</t>
+          <t>ISOLER</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>du commissaire Que je balaya sous le matelas C'est de l'amateurisme, ça La pauvreté te guette du du coin de lil Mec, mémorise ça Kobo Kobo Oh OG roule un gros shit Sale Trop d'biff, Guns N' Roses Très sale J'roule un gros spliff' pour une grosse bitch Nwaar J'suis dans sa schnek Vie, je fais du crossfit Très nwaar Roule un dernier bedo, négro, je n'ai pas saal Sale, sale, sale</t>
+          <t>Being an additive synthesizer Harmor can resynthesize audio files as well. Eh yo, j'suis pas du genre à parler Je préfère m'isoler dans ma couche d'ozone J'fais les cent pas, oui j'ai zoné J'en suis pas désolé, vous le savez désormais J'délire sur des tueries, je ne me sens jamais désarmé Je sais c'est bizarre mais, je m'endors très très tard Et ce n'est pas par hasard si toutes mes nuits sont des trous noirs Faut que j'devienne riche, que j'me barre au Qatar Non mais imagine le truc, putain d'scène de batard Il faut que j'coule, il faut que j'me bouge Il faut que je cruise, il faut que je goûte à tout Que j'me coupe de tout, écoute il faut que j'me couche Pas dans les rangs, j'suis bien trop décalé Fleuve tranquille, je passe mon temps à me laisser aller J'me laisse aller je chill, profite d'mon sex-appeal Me parlez plus du monde, j'ai créé le mien, j'ai déjà ma ville Et dans ma tête je m'isole, mes neurones batifolent C'est Damso motherfucking Dems Et motherfucking Gil damn, dis leur Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé Damn, porté disparu dans mes pensées Pour compenser, j'me suis défoncé Je regrette rien que d'y penser mais bon blasé Pour évacuer avec du THC, oui donc j'ai été l'acheter On m'a dit fais pas ça, je leur ai dit faites pas chier j'étais blasé Trop de pression de partout du daron, d'la daronne J'rêvais d'me barrer mais faut d'la maille et donc mouiller le maillot Fainéant, j'voulais pas taffer J'voulais juste qu'on ne me fasse pas chier Depuis tit-pe, j'suis le type qui se tape tous les types de teuch On me rétracte qu'il faut pas se fâcher damn J'veux pas de pause, j'veux pas des thunes du boss de Megaupload J'veux me barrer à la côte, faire autre chose que de fumer avec mes potes Je suis blasé, je veux pas des millions, juste des minutes Fuck les minous, j'en baise depuis mineur J'veux vivre un minimum, bitch J'me laisse aller je chill, profite d'mon sex-appeal Me parlez plus du monde, j'ai créé le mien, j'ai déjà ma ville Et dans ma tête je m'isole, mes neurones batifolent C'est Damso motherfucking Dems Et motherfucking Gil damn, dis leur Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane1</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Polygame et fidélité*</t>
+          <t>IVG</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Devant l'avion lAfrique me refus criblée Bon charlatan, CFA monnaie pillée J'suis sur Babi, j'fume un doobie, oui Dévisagé par le curé, oui Monogame et relation brisée, oui Polygame et fidélité, oui ...</t>
+          <t>Yeah, toutes mes condoléances pour mon maître de cérémonie Damso, yeah, yeah, yeah 3013, QALF, Dolfa Dolfa Lio R.e Ducke 'P.G Yeah, ok O.P. Gangsta Termine d'abord la school m'a dit le daron, fils J'ai séché les cours, pour mouiller des chattes, suce pendant qu'j'ai le barreau, bitch Ouais, ouais, ouais, ouais, ouais La pute est oblique, la pute a trop valsé valsé Pas d'quenelle en publique, sinon Manu' va Valls'er Valls'er Tu veux t'faire fister, t'inquiètes, j'ai le bras long long T'es réglé mais, tu veux te faire niquer, t'inquiètes, j'dirais pas non j'dirais pas non Tu veux d'la coke, j'ai que d'la poudre à canon Drapapapa j'te kill, à qui la faute T'as balancé le prénom snitch, ouais C'est clair qu'ils sont vraiment bons Mais les lleurs-mei c'est nous ! 'P.G Si j'perce, j'taperais des pompes, j'fait des clips torse-nu Ça vends du crack et ça braque et quand les keufs nous traquent ça change de plaque On mourra tous dans l'film, tes négros avant l'entracte Gros pacte, j'n'ai plus d'feuille à rouler Ça casse les couilles comme quand t'as plus d'capotes Devant biatch qui a le DAS qui arrête pas de mouiller mouiller J'suis sur Insta j'me fais bichonner-é-é La vie c'est un peu comme Détroit, faut s'faire pistonner-é-é J'vais t'briser l'O.S, négro j'vais t'iPhoner-é-é Si t'as pas d'fesses, j'espère qu'au moins, tout le reste est siliconé-é-é Poséidon le biscornu, j'ai auréole, les cornes Je copie la formule, une pétasse qui dort nue Du sale comme Rambo, du slam comme Rondo Buccal façon Porn-You Si j'parle derrière ton dos, c'est pour mieux voir ton boule J'suis def, j'suis high bro' C'est Damso, flow Cette fois-ci, cette fois-ci j'vais kicker le mic' Si sans le flow de Migos, no J'fais l'mouru comme John Snow Po po po po po po pow ! Pas les mêmes brooks, pas la même Corsa, pas la même Clios J'traîne avec Dücke, j'traine avec Dolfa, Rex et Lio Soit c'est chari, soit c'est celui-la Fuck la chance on s'en sortira Comment ? Tu ne crois pas que ça ira ? Mais crois en moi, ça suffira Trois fois W point facebook point com slash T.H.E.D.A.M.S.O Trois fois W point twitter point com slash T.H.E.D.A.M.S.O Gaza c'est bon, mais mes propres négros ne font rien quand ça tire sur les nôtres no B2O, déso', j'augmente le niveau, 4G Révolution par le flow Poséidon Toutes mes condoléances pour vos maîtres de cérémonie C'est le MEVTR Meilleur d'entre vous tous réunis C'est bon1</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ISOLER</t>
+          <t>Ils ne te voudront pas du bien*</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Being an additive synthesizer Harmor can resynthesize audio files as well. Eh yo, j'suis pas du genre à parler Je préfère m'isoler dans ma couche d'ozone J'fais les cent pas, oui j'ai zoné J'en suis pas désolé, vous le savez désormais J'délire sur des tueries, je ne me sens jamais désarmé Je sais c'est bizarre mais, je m'endors très très tard Et ce n'est pas par hasard si toutes mes nuits sont des trous noirs Faut que j'devienne riche, que j'me barre au Qatar Non mais imagine le truc, putain d'scène de batard Il faut que j'coule, il faut que j'me bouge Il faut que je cruise, il faut que je goûte à tout Que j'me coupe de tout, écoute il faut que j'me couche Pas dans les rangs, j'suis bien trop décalé Fleuve tranquille, je passe mon temps à me laisser aller J'me laisse aller je chill, profite d'mon sex-appeal Me parlez plus du monde, j'ai créé le mien, j'ai déjà ma ville Et dans ma tête je m'isole, mes neurones batifolent C'est Damso motherfucking Dems Et motherfucking Gil damn, dis leur Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé Damn, porté disparu dans mes pensées Pour compenser, j'me suis défoncé Je regrette rien que d'y penser mais bon blasé Pour évacuer avec du THC, oui donc j'ai été l'acheter On m'a dit fais pas ça, je leur ai dit faites pas chier j'étais blasé Trop de pression de partout du daron, d'la daronne J'rêvais d'me barrer mais faut d'la maille et donc mouiller le maillot Fainéant, j'voulais pas taffer J'voulais juste qu'on ne me fasse pas chier Depuis tit-pe, j'suis le type qui se tape tous les types de teuch On me rétracte qu'il faut pas se fâcher damn J'veux pas de pause, j'veux pas des thunes du boss de Megaupload J'veux me barrer à la côte, faire autre chose que de fumer avec mes potes Je suis blasé, je veux pas des millions, juste des minutes Fuck les minous, j'en baise depuis mineur J'veux vivre un minimum, bitch J'me laisse aller je chill, profite d'mon sex-appeal Me parlez plus du monde, j'ai créé le mien, j'ai déjà ma ville Et dans ma tête je m'isole, mes neurones batifolent C'est Damso motherfucking Dems Et motherfucking Gil damn, dis leur Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé Alors je m'isole, et toutes les nuits j'zone J'ai pas de camisole, je suis un cas isolé Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je traîne Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane Toutes les nuits je plane1</t>
+          <t>Avant de voir mon premier gosse J'suis dans le mood lioor ouh, ouh, ouh Comme cahier ligné Clairefontaine, j'existe que lorsque je suis en bas La vie n'est pas si bien Ils ne te voudront pas du bien Quand tu réussiras</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>IVG</t>
+          <t>Boomrang</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Yeah, toutes mes condoléances pour mon maître de cérémonie Damso, yeah, yeah, yeah 3013, QALF, Dolfa Dolfa Lio R.e Ducke 'P.G Yeah, ok O.P. Gangsta Termine d'abord la school m'a dit le daron, fils J'ai séché les cours, pour mouiller des chattes, suce pendant qu'j'ai le barreau, bitch Ouais, ouais, ouais, ouais, ouais La pute est oblique, la pute a trop valsé valsé Pas d'quenelle en publique, sinon Manu' va Valls'er Valls'er Tu veux t'faire fister, t'inquiètes, j'ai le bras long long T'es réglé mais, tu veux te faire niquer, t'inquiètes, j'dirais pas non j'dirais pas non Tu veux d'la coke, j'ai que d'la poudre à canon Drapapapa j'te kill, à qui la faute T'as balancé le prénom snitch, ouais C'est clair qu'ils sont vraiment bons Mais les lleurs-mei c'est nous ! 'P.G Si j'perce, j'taperais des pompes, j'fait des clips torse-nu Ça vends du crack et ça braque et quand les keufs nous traquent ça change de plaque On mourra tous dans l'film, tes négros avant l'entracte Gros pacte, j'n'ai plus d'feuille à rouler Ça casse les couilles comme quand t'as plus d'capotes Devant biatch qui a le DAS qui arrête pas de mouiller mouiller J'suis sur Insta j'me fais bichonner-é-é La vie c'est un peu comme Détroit, faut s'faire pistonner-é-é J'vais t'briser l'O.S, négro j'vais t'iPhoner-é-é Si t'as pas d'fesses, j'espère qu'au moins, tout le reste est siliconé-é-é Poséidon le biscornu, j'ai auréole, les cornes Je copie la formule, une pétasse qui dort nue Du sale comme Rambo, du slam comme Rondo Buccal façon Porn-You Si j'parle derrière ton dos, c'est pour mieux voir ton boule J'suis def, j'suis high bro' C'est Damso, flow Cette fois-ci, cette fois-ci j'vais kicker le mic' Si sans le flow de Migos, no J'fais l'mouru comme John Snow Po po po po po po pow ! Pas les mêmes brooks, pas la même Corsa, pas la même Clios J'traîne avec Dücke, j'traine avec Dolfa, Rex et Lio Soit c'est chari, soit c'est celui-la Fuck la chance on s'en sortira Comment ? Tu ne crois pas que ça ira ? Mais crois en moi, ça suffira Trois fois W point facebook point com slash T.H.E.D.A.M.S.O Trois fois W point twitter point com slash T.H.E.D.A.M.S.O Gaza c'est bon, mais mes propres négros ne font rien quand ça tire sur les nôtres no B2O, déso', j'augmente le niveau, 4G Révolution par le flow Poséidon Toutes mes condoléances pour vos maîtres de cérémonie C'est le MEVTR Meilleur d'entre vous tous réunis C'est bon1</t>
+          <t>Boomerang, boomerang, boomerang, boomerang Pute, pute Elle veut qu'je change de disque quand j'dis que j'suis single C'est pas l'amour mais l'sperme qui t'empêchera de voir mes signes J'bois comme un trou, té-ma toi-même, j'en ai plein d'mémoires J'suis un vrai OG, tu l'seras qu'si tu couches avec moi J'garde ma monnaie près de oi-m, encore plus près qu'ma bitch Le seul truc solide entre nous sera ma verge et j'm'en fiche Il suffit qu'elle s'attache et j'ai envie d'la nexter La pétasse fait une scène et je la fouterais dans une sextape Je perd la boule té-ma le sien, le mec trébuche quel chute de rein Entre sa beauté et ma folie, il n'y a qu'un grain Gymnaste, elle monte sur ma poutre Éclair de génie pas d'coup d'foudre Et ce boule d'malade qui m'rend fou Si elle s'donne à moi, j'prendrai tout, le bruit d'ses talons me fait suivre ses pas Ensemble jusqu'à c'que ma trique nous sépare J'sors plus armé, la p'tite a un lourd pétard Baby, crois-moi, j'te jetterais à chaque fois tu m'reviendras Je tirerai sur le premier qui osera toucher ma bitch C'est pas ma gow mais c'est peut-être plus que ma bitch Mais elle a sucé trop de négros, elle a fait sa bitch T'façon, fais c'que tu veux, elle reviendra, normal c'est ma bitch Boomerang, ça vient, ça part, ça revient, revient, revient Boomerang, ça vient, ça part, ça revient, revient, revient J'suis qu'un sale type, j'suis qu'un salop J'collectionne les gows Si tu m'aimes trop j'en profit'rais, juste pour t'baiser comme une salope Si je m'attache se sera qu'pour l'meilleur Un signe du pire et j'me tire J'sais qu'c'est lâche mais jamais j'donne mon cur Parce que c'est une viande prête à rôtir Ça s'en va et ça revient Ça s'entendra chez l'voisin J'te f'rais crier tellement fort qu'on retiendra ton orgasme comme une chanson populaire J'te prendrais pas dans tout les sens, que par le toucher Nan, j'n'veux pas qu'on s'allonge j'veux juste coucher J'te fusille du regard, mes yeux braquent ton derrière On ira s'coucher plus tard qu'Laurent Ruquier Donc les fesses salope j'te donne Passe par la shnek, du rectum que des vibes, rien qu'pour moi Visionnaire j'sais qu'tu voles Non pas étonnant que j'me perde dans tes yeux Missionnaire j'embrasse Satan J'crache ma soupe puis l'étale dans tes cheveux Damso Je tirerai sur le premier qui osera toucher ma bitch C'est pas ma gow mais c'est peut-être plus que ma bitch Mais elle a sucé trop de négros, elle a fait sa bitch T'façon, fais c'que tu veux, elle reviendra, normal c'est ma bitch Boomerang, ça vient, ça part, ça revient, revient, revient Boomerang, ça vient, ça part, ça revient, revient, revient Ma bitch, ma bitch Ma bitch, ma bitch, ma bitch, ma bitch Hey, hey, hey, hey Ma bitch, ma bitch, ma bitch, ma bitch1</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Ils ne te voudront pas du bien*</t>
+          <t>Truand</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Avant de voir mon premier gosse J'suis dans le mood lioor ouh, ouh, ouh Comme cahier ligné Clairefontaine, j'existe que lorsque je suis en bas La vie n'est pas si bien Ils ne te voudront pas du bien Quand tu réussiras</t>
+          <t>MC Léon Je marche dans la rue et un regard me croise Celui d'un nigga que j'vais tabasser J'm'arrête et j'avance j'lui dit Qu'est-ce que t'as ? quoi renoi ? Excuse-toi sinon j'vais te caillasser J'suis un truand, un bandit, un malfaiteur Équipé d'un missile, fusil mitrailleur Paw paw paw paw, sur vous tous et toutes vos familles Yeah Les dents écartées comme Bugs Bunny J'te punis dans l'pe-ra J'te bourre dedans tel un bourin flow un peu raide T'es peureux, m'défies pas, j'ai une patate de forain Dès qu'lâche ma gauche, laisse, man, mec c'est l'euphorie J'suis furieux comme le daron après le film de Kunta Kinte Me passez pas un gun, c'est sur l'bédo que j'veux tirer C'est D.A.M.S, eurgh, Dolfa, Romé, eurgh Coup d'couteau dans l'ventre j'remonte jusqu'au cerv-eurgh Damn, le négro est crazy T'as dis quoi ? Comme par hasard l'autre négro est amnésique, salope J'vais t'péter le sternum Préviens déjà ta mutuelle qu'j'suis à ma huitième Gordon Platinum J'kick le microphone what ?, j'kick le microphone what ? Je débite sur le beat Je kick et je sais qu'tu te dis qu'j'suis le number one C'est Damso, motherfucker, OK Feinte de droite gauche dans l'foie cassement d'bras puis low kick Move bitch, get out of the way Fais c'que j'dis sans discuter dès lors qu'j'te paie Y'a pas de love sexuel comme Marvin Gaye C'est bang dans ta shneck bitchies everyday L'argent s'fait pas tout seul Il faut qu'j'bouge mon cul Mais comme j'suis blasé d'la life Dèf', j'fais qu'smoker Recherche pute pour faciliter tchatche Un poing, un pas plus pour pas fragiliser le pacs Contrôle d'agent, système nerveux en ébullition Question pourquoi j'suis l'seul black ? Donc quand je dirais Fils de pute Ils f'ront que d'tous dire Présent Sinon, balayette et patate fait maison Cinq flows plus tard, Damso reste le même Cul sec trop dar, Damso, Jack Daniel J'te mets dans l'ombre C'est psychédélique que quand je débite Je nique les beats, les MC m'évitent Je nique les bitchs, ma trique me pique Tellement qu'elle me fait que me tirer la peau Brleeeeh Technique de ouf au MIC Flow trop chaud, normal pour une tête brûlée Reculez, mayday, mayday crit le poulet Qu'ils finisse martelé, étranglé au fil barbelé Oui la barbe je l'ai, poilue comme la chatte de Karembeu Big up à Gargamel, car nous non plus on n'kiffe pas les bleus Pourquoi tu jactes ? J'prends l'mic j'te flow-jack Tu fonces dans des cul-de-sac J'enfonce dans des culs-de-chatte C'est Damso Dems motherfuckers Paw paw paw paw sur vous tous et toutes vos familles-familles1</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Boomrang</t>
+          <t>Michel Vaillant*</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Boomerang, boomerang, boomerang, boomerang Pute, pute Elle veut qu'je change de disque quand j'dis que j'suis single C'est pas l'amour mais l'sperme qui t'empêchera de voir mes signes J'bois comme un trou, té-ma toi-même, j'en ai plein d'mémoires J'suis un vrai OG, tu l'seras qu'si tu couches avec moi J'garde ma monnaie près de oi-m, encore plus près qu'ma bitch Le seul truc solide entre nous sera ma verge et j'm'en fiche Il suffit qu'elle s'attache et j'ai envie d'la nexter La pétasse fait une scène et je la fouterais dans une sextape Je perd la boule té-ma le sien, le mec trébuche quel chute de rein Entre sa beauté et ma folie, il n'y a qu'un grain Gymnaste, elle monte sur ma poutre Éclair de génie pas d'coup d'foudre Et ce boule d'malade qui m'rend fou Si elle s'donne à moi, j'prendrai tout, le bruit d'ses talons me fait suivre ses pas Ensemble jusqu'à c'que ma trique nous sépare J'sors plus armé, la p'tite a un lourd pétard Baby, crois-moi, j'te jetterais à chaque fois tu m'reviendras Je tirerai sur le premier qui osera toucher ma bitch C'est pas ma gow mais c'est peut-être plus que ma bitch Mais elle a sucé trop de négros, elle a fait sa bitch T'façon, fais c'que tu veux, elle reviendra, normal c'est ma bitch Boomerang, ça vient, ça part, ça revient, revient, revient Boomerang, ça vient, ça part, ça revient, revient, revient J'suis qu'un sale type, j'suis qu'un salop J'collectionne les gows Si tu m'aimes trop j'en profit'rais, juste pour t'baiser comme une salope Si je m'attache se sera qu'pour l'meilleur Un signe du pire et j'me tire J'sais qu'c'est lâche mais jamais j'donne mon cur Parce que c'est une viande prête à rôtir Ça s'en va et ça revient Ça s'entendra chez l'voisin J'te f'rais crier tellement fort qu'on retiendra ton orgasme comme une chanson populaire J'te prendrais pas dans tout les sens, que par le toucher Nan, j'n'veux pas qu'on s'allonge j'veux juste coucher J'te fusille du regard, mes yeux braquent ton derrière On ira s'coucher plus tard qu'Laurent Ruquier Donc les fesses salope j'te donne Passe par la shnek, du rectum que des vibes, rien qu'pour moi Visionnaire j'sais qu'tu voles Non pas étonnant que j'me perde dans tes yeux Missionnaire j'embrasse Satan J'crache ma soupe puis l'étale dans tes cheveux Damso Je tirerai sur le premier qui osera toucher ma bitch C'est pas ma gow mais c'est peut-être plus que ma bitch Mais elle a sucé trop de négros, elle a fait sa bitch T'façon, fais c'que tu veux, elle reviendra, normal c'est ma bitch Boomerang, ça vient, ça part, ça revient, revient, revient Boomerang, ça vient, ça part, ça revient, revient, revient Ma bitch, ma bitch Ma bitch, ma bitch, ma bitch, ma bitch Hey, hey, hey, hey Ma bitch, ma bitch, ma bitch, ma bitch1</t>
+          <t>Chérie d'amour, je lui file au nez A deux pour toujours en cabriolet Nous filâmes comme Vaillant Michel Nous filâmes comme Vaillant Michel comme tel un charbonnier A deux sur la route fuyons braconniers Nous filâmes comme Vaillant Michel Nous filâmes comme Vaillant Michel1</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Truand</t>
+          <t>Bottega</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>MC Léon Je marche dans la rue et un regard me croise Celui d'un nigga que j'vais tabasser J'm'arrête et j'avance j'lui dit Qu'est-ce que t'as ? quoi renoi ? Excuse-toi sinon j'vais te caillasser J'suis un truand, un bandit, un malfaiteur Équipé d'un missile, fusil mitrailleur Paw paw paw paw, sur vous tous et toutes vos familles Yeah Les dents écartées comme Bugs Bunny J'te punis dans l'pe-ra J'te bourre dedans tel un bourin flow un peu raide T'es peureux, m'défies pas, j'ai une patate de forain Dès qu'lâche ma gauche, laisse, man, mec c'est l'euphorie J'suis furieux comme le daron après le film de Kunta Kinte Me passez pas un gun, c'est sur l'bédo que j'veux tirer C'est D.A.M.S, eurgh, Dolfa, Romé, eurgh Coup d'couteau dans l'ventre j'remonte jusqu'au cerv-eurgh Damn, le négro est crazy T'as dis quoi ? Comme par hasard l'autre négro est amnésique, salope J'vais t'péter le sternum Préviens déjà ta mutuelle qu'j'suis à ma huitième Gordon Platinum J'kick le microphone what ?, j'kick le microphone what ? Je débite sur le beat Je kick et je sais qu'tu te dis qu'j'suis le number one C'est Damso, motherfucker, OK Feinte de droite gauche dans l'foie cassement d'bras puis low kick Move bitch, get out of the way Fais c'que j'dis sans discuter dès lors qu'j'te paie Y'a pas de love sexuel comme Marvin Gaye C'est bang dans ta shneck bitchies everyday L'argent s'fait pas tout seul Il faut qu'j'bouge mon cul Mais comme j'suis blasé d'la life Dèf', j'fais qu'smoker Recherche pute pour faciliter tchatche Un poing, un pas plus pour pas fragiliser le pacs Contrôle d'agent, système nerveux en ébullition Question pourquoi j'suis l'seul black ? Donc quand je dirais Fils de pute Ils f'ront que d'tous dire Présent Sinon, balayette et patate fait maison Cinq flows plus tard, Damso reste le même Cul sec trop dar, Damso, Jack Daniel J'te mets dans l'ombre C'est psychédélique que quand je débite Je nique les beats, les MC m'évitent Je nique les bitchs, ma trique me pique Tellement qu'elle me fait que me tirer la peau Brleeeeh Technique de ouf au MIC Flow trop chaud, normal pour une tête brûlée Reculez, mayday, mayday crit le poulet Qu'ils finisse martelé, étranglé au fil barbelé Oui la barbe je l'ai, poilue comme la chatte de Karembeu Big up à Gargamel, car nous non plus on n'kiffe pas les bleus Pourquoi tu jactes ? J'prends l'mic j'te flow-jack Tu fonces dans des cul-de-sac J'enfonce dans des culs-de-chatte C'est Damso Dems motherfuckers Paw paw paw paw sur vous tous et toutes vos familles-familles1</t>
+          <t>Un po' nascosto il posto è qui Il benedetto posto è qui E le candele vanno su Il sole cala e scende giù Ci vieni un giorno e hai nostalgia Di ritornare e tornerai Al Val d'Amore troverai L'amore e tutti i suoi viavai Al Val d'Amore tu ti fai Fare l'amore come vuoi Non oro né gioielli, no Discorsi no, dolcezze no Con qualche soldo chi vuoi tu Ti fa l'amore sotto e su Qui andalusi, mori, ebrei Da tutti i porti sono qui Dal Mar Egeo, dai Pirenei Qui se la spassano così I trafficanti e i bottegai Qui nei dolcissimi carnai Donne d'amore orecchie a me Un trovatore piange qui Parole e lacrime di chi Per mal d'amore viene qui Battete sui tamburi che Al Val d'Amore amore c'è Nessun pericolo che sia Amore che ti porta via Qui è sul velluto che si va E sotto c'è la sazietà Se la mia febbre è frenesia Mi vengo a rinfrescare qua In questa calda fonderia Del nudo con l'intimità Ragazze, chiedo scusa a voi Ma oggi c'è Esmeralda e poi Lei crede che il suo corpo sia Già scritto nella mano mia Qui sono i gemiti e i fruscii È qui l'oblio e lo scialacquio La bella malavita è qui E qui rinasce chi morì Rinasce chi d'amor morì Poi dentro il vino annegherà È al Val d'Amore che verrà All'alba quella sazietà Se al Val d'Amore tu ti fai Fare l'amore come vuoi Non oro né gioielli, no Discorsi no, dolcezze no Se vuoi l'amore il posto è qua Al Val d'Amore il posto è qua</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Michel Vaillant*</t>
+          <t>Du feu</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Chérie d'amour, je lui file au nez A deux pour toujours en cabriolet Nous filâmes comme Vaillant Michel Nous filâmes comme Vaillant Michel comme tel un charbonnier A deux sur la route fuyons braconniers Nous filâmes comme Vaillant Michel Nous filâmes comme Vaillant Michel1</t>
+          <t>Du feu, du feu même si je n'ai plus de cigarettes Les miracles n'existent pas, j'te l'dirai J'veux tirer sur lui, et lui, et lui, oh Coup de feu Le passeport est rempli de cachets qui n'viennent pas d'ici, oh Ouais Du feu Du feu Des fleurs au bout des carabines n'ont jamais ramené la paix J'suis revenue sans jamais partir, moi-même j'sais pas où j'étais L'amour est un assassin, il te tue même quand t'es pas né Quelle sale idée, il veut m'valider, moi, j'veux valider mon panier Du feu, du feu Bruit de flammes Du feu même si je n'ai plus de cigarettes Beaucoup d'regrets qui me nourrissent, du feu sur scène et en coulisses Tout est là, on m'a dit prends-le Plus rien c'est tout c'que j'attends d'eux J'rigole quand j'pleure, des fois l'inverse Rire, mon cur l'soleil, mes yeux l'averse Mauvais temps caché dans la veste, je bois, j'oublie ce que j'traverse Du feu Du feu, du feu Du feu même si je n'ai plus de cigarettes Du feu même si je n'ai plus de cigarettes Du feu même si je n'ai plus de cigarettes Ok Rayons solaires sur le pavillon J'broie les ténèbres, silence ébène dans la savane, sang de Kemet Bruit de colère sous les ganglions J'exprime mes souffrances, mon innocence perdue d'puis l'enfance, dans les tendances À cause du succès, j'oublie ton prénom, tu connais mon lifestyle Soirées mondaines, j'fais des millions, j'veux des centaines, j'vois des grillions Sur la terre sèche de tes sentiments Fragrance, parfum Chanel sur le cardigan Carences, manque d'oxygène, comme un oisillon, j'suis fébrile Navigant sous les débris, avion, j'fuis le mépris De tous ceux Tous ceux qui, eh Tous ceux qui n'comprendront pas pourquoi j'm'arrête Putain, non, non Du feu Du feu, du feu, ouais Du feu, que j'roule un d'ces joints sans cigarette De tous ceux Tous ceux, hey Tous ceux qui n'comprendront pas pourquoi j'm'arrête Putain Du feu, du feu Du feu, que j'roule un d'ces joints sans cigarette Du feu Du feu, du feu Du feu même si je n'ai plus de cigarettes Du feu Du feu, du feu Du feu même si je n'ai plus de cigarettes</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3178,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Bottega</t>
+          <t>COSMOS (ma première chanson, j’avais 16 ans)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Un po' nascosto il posto è qui Il benedetto posto è qui E le candele vanno su Il sole cala e scende giù Ci vieni un giorno e hai nostalgia Di ritornare e tornerai Al Val d'Amore troverai L'amore e tutti i suoi viavai Al Val d'Amore tu ti fai Fare l'amore come vuoi Non oro né gioielli, no Discorsi no, dolcezze no Con qualche soldo chi vuoi tu Ti fa l'amore sotto e su Qui andalusi, mori, ebrei Da tutti i porti sono qui Dal Mar Egeo, dai Pirenei Qui se la spassano così I trafficanti e i bottegai Qui nei dolcissimi carnai Donne d'amore orecchie a me Un trovatore piange qui Parole e lacrime di chi Per mal d'amore viene qui Battete sui tamburi che Al Val d'Amore amore c'è Nessun pericolo che sia Amore che ti porta via Qui è sul velluto che si va E sotto c'è la sazietà Se la mia febbre è frenesia Mi vengo a rinfrescare qua In questa calda fonderia Del nudo con l'intimità Ragazze, chiedo scusa a voi Ma oggi c'è Esmeralda e poi Lei crede che il suo corpo sia Già scritto nella mano mia Qui sono i gemiti e i fruscii È qui l'oblio e lo scialacquio La bella malavita è qui E qui rinasce chi morì Rinasce chi d'amor morì Poi dentro il vino annegherà È al Val d'Amore che verrà All'alba quella sazietà Se al Val d'Amore tu ti fai Fare l'amore come vuoi Non oro né gioielli, no Discorsi no, dolcezze no Se vuoi l'amore il posto è qua Al Val d'Amore il posto è qua</t>
+          <t>J'viens pas passer d'messages ou juste parler d'la vie J'me trouve pas assez sage pour donner mon avis Donc j'suis juste de passage sur le M.I.C Période de déphasage ou juste période de crise ? J'ai rien à faire, il est 9 heures 32, heure du soir Envie d'm'évader, j'fais une instru' qui m'emmène quelque part Ensuite, ben, j'écris, j'cherche un titre calmos, t vu qu'elle m'emmèn si loin, j'l'appelle Cosmos Avec ma souris, clavier, j'rajoute un bruit qui fait J'suis ravis, j'vois qu'ça donne, j'rajoute un autre truc qui fait Bref, j'termine le beat, c'est comme si j'venais d'prendre l'air J'termine mes lyrics et j't'emmène dans mon univers Attends, j'vais t'le rapper raclements de gorge J'échauffe ma voix, ok raclements de gorge Yo, donc j'vois la vie comme un oiseau perché sur sa branche À rêver d'pouvoir un jour voler jusqu'aux anges J'rêve que magiques soient mes ciseaux pour m'couper du monde Aller plus loin qu'Vénus, Pluton, atterrir sur les ondes J'explique mon monde, celui d'la musique Celui qu'tes oreilles craignent car à la longue elles savent qu'c'est nuisible Mais qu'il est beau, demande à mon flow Les enfants qu'on appelle rimes jouent de jeux de mots Le vent qu'on appelle violon souffle, donne l'impression que personne souffre On vient au monde par résonnance, la mort se fait appeler silence Quand les bruits sonores te kiffent, la plupart te donnent des frissons Pour faire battre le rythme tu dois briser le mur du son Quand c'est fait, ben, il suffit de baiser d'un ton Mais pour pas qu'ça s'ébruite faut qu'tu mettes un présérva-son Drôle de do, ré, mi, façon de faire On fait l'amour à l'âge de quinze, à vingt mégahertz Yo, avec le temps ici rien ne se consume Quand tu te fais vieux, on diminue juste ton volume</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Du feu</t>
+          <t>Trafic de weed</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Du feu, du feu même si je n'ai plus de cigarettes Les miracles n'existent pas, j'te l'dirai J'veux tirer sur lui, et lui, et lui, oh Coup de feu Le passeport est rempli de cachets qui n'viennent pas d'ici, oh Ouais Du feu Du feu Des fleurs au bout des carabines n'ont jamais ramené la paix J'suis revenue sans jamais partir, moi-même j'sais pas où j'étais L'amour est un assassin, il te tue même quand t'es pas né Quelle sale idée, il veut m'valider, moi, j'veux valider mon panier Du feu, du feu Bruit de flammes Du feu même si je n'ai plus de cigarettes Beaucoup d'regrets qui me nourrissent, du feu sur scène et en coulisses Tout est là, on m'a dit prends-le Plus rien c'est tout c'que j'attends d'eux J'rigole quand j'pleure, des fois l'inverse Rire, mon cur l'soleil, mes yeux l'averse Mauvais temps caché dans la veste, je bois, j'oublie ce que j'traverse Du feu Du feu, du feu Du feu même si je n'ai plus de cigarettes Du feu même si je n'ai plus de cigarettes Du feu même si je n'ai plus de cigarettes Ok Rayons solaires sur le pavillon J'broie les ténèbres, silence ébène dans la savane, sang de Kemet Bruit de colère sous les ganglions J'exprime mes souffrances, mon innocence perdue d'puis l'enfance, dans les tendances À cause du succès, j'oublie ton prénom, tu connais mon lifestyle Soirées mondaines, j'fais des millions, j'veux des centaines, j'vois des grillions Sur la terre sèche de tes sentiments Fragrance, parfum Chanel sur le cardigan Carences, manque d'oxygène, comme un oisillon, j'suis fébrile Navigant sous les débris, avion, j'fuis le mépris De tous ceux Tous ceux qui, eh Tous ceux qui n'comprendront pas pourquoi j'm'arrête Putain, non, non Du feu Du feu, du feu, ouais Du feu, que j'roule un d'ces joints sans cigarette De tous ceux Tous ceux, hey Tous ceux qui n'comprendront pas pourquoi j'm'arrête Putain Du feu, du feu Du feu, que j'roule un d'ces joints sans cigarette Du feu Du feu, du feu Du feu même si je n'ai plus de cigarettes Du feu Du feu, du feu Du feu même si je n'ai plus de cigarettes</t>
+          <t>Yeah O.P.G Damn Damso motha fuckin Dems Depuis peu, j'veux des 'tasses et du cash money J'veux checker des go, j'veux des boss quand même J'ai trop rien dans les poches, et pour être honnête J'me sens comme un pigeon qui vit de prise de bec Ça me prend la tête d'être sans oseille Mais sans oser bosser, comment veux-tu ? Je rêve toutes les nuits dans mon profond sommeil Teille de rosé, posé avec un gros cul Damn, nan, depuis peu, j'cherche du biff' Cherche du biff J'économise Économise, pour un putain d'traffic de weed Mais on m'a dit Dems, t'as des jobs étudiants J'leur ai dit Les mecs, j'veux être indépendant Puis j'aime pas les patrons, travail à plein temps Pu-pu-putain d'trafic de weed On dit qu'c'est utopique Ce que je veux, dépenser ce que font mes blacks et rebeus Puis, j'avoue que postuler, me rend nerveux Donc j'veux mon putain d'trafic de weed Mais c'est pas possible Passez l'mic, moi Mais ça va de pire en pire De pire en pire Passer 'tasse, séduire et la tchatche peut plus suffire Faut mon putain d'trafic de weed Mon putain d'trafic de weed Mon putain d'trafic de weed Mon putain d'trafic de weed Mon putain d'trafic de weed Faut mon putain d'trafic de weed Trafic de weed Trafic de weed Trafic de weed Trafic de weed Dems motha fuckin Dems O.P motha fuckin Dems Trafic de weed Trafic de weed Yeah Yeah Yeah Yeah Yeah</t>
         </is>
       </c>
     </row>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>COSMOS (ma première chanson, j’avais 16 ans)</t>
+          <t>Dépravé*</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>J'viens pas passer d'messages ou juste parler d'la vie J'me trouve pas assez sage pour donner mon avis Donc j'suis juste de passage sur le M.I.C Période de déphasage ou juste période de crise ? J'ai rien à faire, il est 9 heures 32, heure du soir Envie d'm'évader, j'fais une instru' qui m'emmène quelque part Ensuite, ben, j'écris, j'cherche un titre calmos, t vu qu'elle m'emmèn si loin, j'l'appelle Cosmos Avec ma souris, clavier, j'rajoute un bruit qui fait J'suis ravis, j'vois qu'ça donne, j'rajoute un autre truc qui fait Bref, j'termine le beat, c'est comme si j'venais d'prendre l'air J'termine mes lyrics et j't'emmène dans mon univers Attends, j'vais t'le rapper raclements de gorge J'échauffe ma voix, ok raclements de gorge Yo, donc j'vois la vie comme un oiseau perché sur sa branche À rêver d'pouvoir un jour voler jusqu'aux anges J'rêve que magiques soient mes ciseaux pour m'couper du monde Aller plus loin qu'Vénus, Pluton, atterrir sur les ondes J'explique mon monde, celui d'la musique Celui qu'tes oreilles craignent car à la longue elles savent qu'c'est nuisible Mais qu'il est beau, demande à mon flow Les enfants qu'on appelle rimes jouent de jeux de mots Le vent qu'on appelle violon souffle, donne l'impression que personne souffre On vient au monde par résonnance, la mort se fait appeler silence Quand les bruits sonores te kiffent, la plupart te donnent des frissons Pour faire battre le rythme tu dois briser le mur du son Quand c'est fait, ben, il suffit de baiser d'un ton Mais pour pas qu'ça s'ébruite faut qu'tu mettes un présérva-son Drôle de do, ré, mi, façon de faire On fait l'amour à l'âge de quinze, à vingt mégahertz Yo, avec le temps ici rien ne se consume Quand tu te fais vieux, on diminue juste ton volume</t>
+          <t>J'traquerai mon ennemi jusqu'au bout, oui Jusquà qu'il finisse par se couper les veines Si par malheur, il m'fait d'la peine Euh c'que j'en doute, j'irais à l'église alors prier le ciel Je r'connais mes fautes quand j'n'ai pas vraiment tort Personne ne saute dans leau sale et en sort Propre est le calbar au sec J'peux plonger dans marée de sang pour mieux récolter l'or Décolleté mais tout st dehors Seins, j'ai peloté après un show, sans aucuns fforts Dépravé, jamais je n'déplore Piscine de femmes fontaines Pour elles, j'suis comme sel et chlore Vie m'rappelle sans cesse la mort Dis-moi quand est-ce est-ce la norme ? J'dis ça pour que j'élabore Album sans métaphore Pour faire en sorte que pute et clergé me comprennent À peine j'ai quitté la scène-euuh Elle veut déjà que j'la prenne-euuh Sentimentalement parlant, j'ai la flemme-euuh Je viens, j'expose mon talent puis je ken-euuh1</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3229,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Trafic de weed</t>
+          <t>Lubie</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Yeah O.P.G Damn Damso motha fuckin Dems Depuis peu, j'veux des 'tasses et du cash money J'veux checker des go, j'veux des boss quand même J'ai trop rien dans les poches, et pour être honnête J'me sens comme un pigeon qui vit de prise de bec Ça me prend la tête d'être sans oseille Mais sans oser bosser, comment veux-tu ? Je rêve toutes les nuits dans mon profond sommeil Teille de rosé, posé avec un gros cul Damn, nan, depuis peu, j'cherche du biff' Cherche du biff J'économise Économise, pour un putain d'traffic de weed Mais on m'a dit Dems, t'as des jobs étudiants J'leur ai dit Les mecs, j'veux être indépendant Puis j'aime pas les patrons, travail à plein temps Pu-pu-putain d'trafic de weed On dit qu'c'est utopique Ce que je veux, dépenser ce que font mes blacks et rebeus Puis, j'avoue que postuler, me rend nerveux Donc j'veux mon putain d'trafic de weed Mais c'est pas possible Passez l'mic, moi Mais ça va de pire en pire De pire en pire Passer 'tasse, séduire et la tchatche peut plus suffire Faut mon putain d'trafic de weed Mon putain d'trafic de weed Mon putain d'trafic de weed Mon putain d'trafic de weed Mon putain d'trafic de weed Faut mon putain d'trafic de weed Trafic de weed Trafic de weed Trafic de weed Trafic de weed Dems motha fuckin Dems O.P motha fuckin Dems Trafic de weed Trafic de weed Yeah Yeah Yeah Yeah Yeah</t>
+          <t>J'ai pansé mes blessures jusquà pas d'heures Changé toutes les serrures de mon cur J'ai pansé mes blessures jusquà pas d'heures Changé toutes les serrures de mon cur C'est dur de n'avoir qu'un seul ami C'est dur de n'avoir qu'une seule vie Jai perdu la tête dans tsunami Lamour était en fait mon ennemi T'es juste passé prendre ta part Mais la roue tournera tôt ou tard Je cherch dans les fonds dplacards Ce qu'il rest de ma part J'ai envie d'te dire Je taime je t'aime J'ai envie d'partir loin d'ici loin d'ici, seul J'ai envie d'te dire Je t'aime I love you J'ai envie d'partir loin d'ici aie, aie, aie J'ai envie d'te dire tellement de choses que j'garderai pour moi Par exemple baiser mais j'sais qu'au fond j'veux juste qu'on fasse seulement l'amour L'univers veut pas qu'on s'aime La dernière fois qu'j'ai voulu t'ken, no, oh Ton corps a saigné et mon cur a fait de même, de même J'vois tes hanches dans le corset, oh No, no-no, no-no, no-no non, le bolide Quelques salopes, des tasses-pé, ouais juste pour passer le temps un jour c'est fini Tu parles mal, tapes des crises bah, ouais Heureusement que je canalise toujours Une bonne claque dans sa grand-mère, au négro qui parle de toi oh, le salaud J'ai envie d'te dire Je t'aime, à condition qu'ça n'compte pas No, no-no, no-no J'ai envie d'te dire Je t'aime je t'aime J'ai envie d'partir loin d'ici loin d'ici J'ai envie d'te dire Je t'aime I love you J'ai envie d'partir loin d'ici loin d'ici</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Dépravé*</t>
+          <t>Lova*</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>J'traquerai mon ennemi jusqu'au bout, oui Jusquà qu'il finisse par se couper les veines Si par malheur, il m'fait d'la peine Euh c'que j'en doute, j'irais à l'église alors prier le ciel Je r'connais mes fautes quand j'n'ai pas vraiment tort Personne ne saute dans leau sale et en sort Propre est le calbar au sec J'peux plonger dans marée de sang pour mieux récolter l'or Décolleté mais tout st dehors Seins, j'ai peloté après un show, sans aucuns fforts Dépravé, jamais je n'déplore Piscine de femmes fontaines Pour elles, j'suis comme sel et chlore Vie m'rappelle sans cesse la mort Dis-moi quand est-ce est-ce la norme ? J'dis ça pour que j'élabore Album sans métaphore Pour faire en sorte que pute et clergé me comprennent À peine j'ai quitté la scène-euuh Elle veut déjà que j'la prenne-euuh Sentimentalement parlant, j'ai la flemme-euuh Je viens, j'expose mon talent puis je ken-euuh1</t>
+          <t>Non, moi, j'suis juste un lova ouais Ils veulent juste faire des lovés ouais Si tu me cherches, baby, trouve-moi ouais Dans l'tiekson en train d'poser ouais</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Lubie</t>
+          <t>500k*</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>J'ai pansé mes blessures jusquà pas d'heures Changé toutes les serrures de mon cur J'ai pansé mes blessures jusquà pas d'heures Changé toutes les serrures de mon cur C'est dur de n'avoir qu'un seul ami C'est dur de n'avoir qu'une seule vie Jai perdu la tête dans tsunami Lamour était en fait mon ennemi T'es juste passé prendre ta part Mais la roue tournera tôt ou tard Je cherch dans les fonds dplacards Ce qu'il rest de ma part J'ai envie d'te dire Je taime je t'aime J'ai envie d'partir loin d'ici loin d'ici, seul J'ai envie d'te dire Je t'aime I love you J'ai envie d'partir loin d'ici aie, aie, aie J'ai envie d'te dire tellement de choses que j'garderai pour moi Par exemple baiser mais j'sais qu'au fond j'veux juste qu'on fasse seulement l'amour L'univers veut pas qu'on s'aime La dernière fois qu'j'ai voulu t'ken, no, oh Ton corps a saigné et mon cur a fait de même, de même J'vois tes hanches dans le corset, oh No, no-no, no-no, no-no non, le bolide Quelques salopes, des tasses-pé, ouais juste pour passer le temps un jour c'est fini Tu parles mal, tapes des crises bah, ouais Heureusement que je canalise toujours Une bonne claque dans sa grand-mère, au négro qui parle de toi oh, le salaud J'ai envie d'te dire Je t'aime, à condition qu'ça n'compte pas No, no-no, no-no J'ai envie d'te dire Je t'aime je t'aime J'ai envie d'partir loin d'ici loin d'ici J'ai envie d'te dire Je t'aime I love you J'ai envie d'partir loin d'ici loin d'ici</t>
+          <t>Sale, sale, sale, sale Ils ont tout fait pour m'atteindre Minimum, minimum, cinq zéro zéro K</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3280,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Lova*</t>
+          <t>9h du mat</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Non, moi, j'suis juste un lova ouais Ils veulent juste faire des lovés ouais Si tu me cherches, baby, trouve-moi ouais Dans l'tiekson en train d'poser ouais</t>
+          <t>Page blanche 2024 1. Page blanche 2. A moi 3. Bottega 4. Mayday 5. Laissé tomber 6. Joli 7. Harmonie du cur 8. Du feu Ft. Damso 9. Memories 10. Shooter 11. 9h du mat 12. Seum 13. La scène</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Poésie indécise</t>
+          <t>#AK2 - Damso</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>91 Actress - Walking Flames ft. Sampha Allan Kingdom - EXCITED Gabi DeMartino - Champagne Dreams Mozzy - Death is Callin Winona Oak - With Myself YoungBoy Never Broke Again - Callin ft. Snoop Dogg 92 A Boogie wit da Hoodie, Don Q Trap Manny - Vroom Vroom Adrianne Lenker - anything Bring Me the Horizon YUNGBLUD - Obey Cheat Codes - Between Our Hearts ft. CXLOE FINNEAS - What They'll Say About Us Foxes - Friends in the Corner glaive - arsenic Gus Dapperton - Medicine Hedda Mae - Madness Hot Chip - Candy Says JP Saxe - A Little Bit Yours Katy Perry - Smile Joel Corry Remix Katy Perry - Smile Joel Corry Extended Remix Lido - Layaway Marina Kaye - Double Life Marshmello 42 Dugg Baggin Now United - Na Na Na Spanish Version Shygirl - Freak The Struts Robbie Williams - Strange Days tiger lili - lightning Unlike Pluto - Wouldnt You Agree Yung Gravy - yup! 93 Anna Clendening - Sorry That I Do That Ari Lennox Anthony Ramos - If You Want Me To Stay AURORA - The Secret Garden Ava Max - OMG What's Happening Bryson Tiller - Inhale changing cleo - gold Lil Duke Hoody Baby - Beat It Lil Duke - Nobody On E Ozuna Camilo - Despeinada Paloma Faith - Better Than This Paul Epworth - Mars Venus ft. Elle Yaya, Ishmael Vince Staples VanJess - Come Over 94 8ubbles - Electric Lies Aaron Carpenter - Bite Aloe Blacc - Hold On Tight Amber Riley - A Moment American Authors - Counting Down Anna Straker Gabrielle Aplin - Good Days Bad Days Audrey Mika - Red Gatorade B.o.B - ZZZ's Birdy - Open Your Heart BKTHERULA - Admit It Blithe - If I Aint The One Bow Anderson - Island Carly Pearce - Next Girl Chloe x Halle Doja Cat - Do It Remix ft. City Girls Mulatto Dagny - It's Only a Heartbreak Derivakat - I Need You DJ Envy - Sittin' In My Car ft. A Boogie wit da Hoodie Fabolous Dua Saleh - REaD with Bas ft. Bas Eden xo - Paradise Found Eric Bellinger - Godly FBG Duck - Yeahh Fickle Friends - What A Time Finn Askew - Peach FLETCHER - The One FRANKIE - Home Alone G-Eazy - Down ft. Mulatto GARZI - STAINS Gia Woods - CHAOS Goss - Everybody's Going Hermitude - Spotlight ft. Daniel Bedingfield HRVY Matoma - Good Vibes ionnalee - MACHINEE Jackson Wang Galantis - Pretty Please Jac Ross - It's OK To Be Black 2.0 ft. D Smoke Buddy Jawsh 685 - Sweet Sour ft. Lauv Tyga Joshua Radin - America Julia Stone - Unreal Kelsy Karter - Love Me or Hate Me LAXX - The Invasion Like Saturn - Otherworldly Lil AK - Uber Eats Freestyle Lil Durk - The Voice Lil Loaded - High School Dropout Lil Toe - Crème Brûlée Lil Tracy - Messy LION BABE - Umi Says Lost Kings - Hurt ft. DeathbyRomy LOVA - One Day Left LYRA - New Day Mabes - Danny Maria Mena - You Live and You Learn Matilda Mann - Happy Anniversary, Stranger MAX - Working for the Weekend ft. bbno McFly - Growing Up ft. Mark Hoppus Melvoni - PENNY UP MOLI - Jacuzzi Palace - I'll Be Fine Perto - I Miss You ft. Banoffee Phora - Destiny's Song Ramirez - Children of the Void ft. SosMula Scarlet Pleasure - Push-Ups Sigala James Arthur - Lasting Lover Slum Sociable - Explain Myself Sofía Reyes, Darell Lalo Ebratt - Échalo Pa' Ca Starley - Let Me In SZA - Hit Different ft. Ty Dolla ign Tay Money - On Me The Stupendium Bonecage - Losing My Patients Thomas Headon - UrbanAngel1999 tobi lou - Endorphins Toosii - Poetic Pain Torine - Stupid Things Vargas Lagola - Always Xan Griffin - Afflicted ft. Beau Rich XYLØ - Lefty YSN Flow - Blow It All ft. OSIBIH Yuna - Invisible 95 M.E.T.A.L. - End His Reign 96 Eli Sostre - Made It pt. 2Cant Stay Gray Joy - Dive Right In Los Negritos - Estar Legal 97 Aaron Golden - Just Friends Chaz Cardigan - Live A Little Deko - december Maeta - Teen Scene ft. KAYTRANADA Buddy NateWantsToBattle - Hello Neighbor osquinn - oblivion ft. blackwinterwells Yellow Days - The Curse ft. Mac DeMarco 98 beabadoobee - Worth It Berner - R.I.P ft. Tee Grizzley Janelle Monáe - Turntables Kiiara - Numb ft. Deathbyromy PVRIS guccihighwaters - expectations Luke James KIRBY - all of your love Remix Meghan Trainor - Make You Dance Jay Dixie Remix Meghan Trainor - You Dont Know Me Sidekick Remix New Order - Be a Rebel Quada - Nuh Carry News YoungBoy Never Broke Again - Soul Stealer 99 637GODWIN - Kickflip freestyle Aesop Rock - The Gates Bailey Bryan - Roster Comethazine - Air Max Dixie D'Amelio Lil Mosey - Be Happy Remix ft. blackbear Dreamer Boy - Know You FLETCHER - Shh...Dont Say It Gorillaz - Strange Timez ft. Robert Smith July - 18 ft. Voda Fuji Leyla Blue - Company M.I.A. - CTRL Mike Shinoda - License to Waltz MISSIO - Can You Feel the Sun MISSIO - Don't Forget to Open Your Eyes mxmtoon - ok on your own ft. Carly Rae Jepsen Of Monsters and Men - Visitor Petit Biscuit - Drivin Thru the Night renforshort - nostalgic luvsick Sam Tompkins - Charlie Serena Isioma - Blue Sky Stats - Naturalise Me Stefflon Don - Move Steps - What The Future Holds Tash Sultana - Beyond The Pine The Pierces - Everything Wallows - Nobody Gets Me Like You 910 Absofacto - Someone Else's Dream Amenazzy, Wiz Khalifa Myke Towers - Jalapeño Remix Bruce Springsteen - Letter To You Davido - FEM Derivakat - Breathe Django Django - Spirals Elzhi - Light One Write One Exit boyband - Bad Intentions Florida Georgia Line - Long Live Grafh - Trappin' out the Hyatt ft. El Camino Smoke DZA Jack Gilinsky iann dior - Love Somebody Katie Melua - Your Longing Is Gone Like Saturn - Baklava M1llionz - Lagga Marshmello Demi Lovato - Ok Not to Be Ok Matt Berninger - One More Second Mr Eazi Major Lazer - Oh My Gawd ft. Nicki Minaj K4MO Omar Apollo - Kamikaze Rhye - Helpless Ruel - as long as you care Shame - Alphabet Spillage Village, JID EARTHGANG - Baptize Still Woozy - BS Sylvan Esso - Frequency The Vamps - Chemicals Tommy Ice - Designer Usher - Bad Habits 911 tupid Young Tee Grizzley - Wit a Sticc Alicia Keys - Love Looks Better ALLBLACK - Pizza Rolls ft. Cash Kidd DaBoii Alycia Bella - Cue The Sun ft. Boogie Annie - The Streets Where I Belong AViVA - WICKED Ayanis - Lil Boi Big Talk ft. Jack Harlow Conchita Wurst - Lovemachine ft. Lou Asril Cosmos Midnight - Idaho Danielle Bradbery - Never Have I Ever Acoustic Version David Guetta Sia - Let's Love Delilah Montagu - Loud Dizzee Rascal - Act Like You Know Doja Cat - Say So Like That Mashup Eric Bellinger - Solo'n Ferdinand - Every Single Summer Fredo Bang - No Security ft. Kevin Gates Guy Sebastian - If He Won't Guy Sebastian - Standing With You The Guy Alt. Version INNA Farina - Read My Lips James Blake - Godspeed Jimi Somewhere - Jesus ft. Kacy Hill John K - Happiness Kayzo, SYN Zero 936 - Breakdown Jordan Davis - Almost Maybes Acoustic Lil Playah - Chanel Shoes! Lil Spacely Korky Buchek - Husky Lil Tecca - Our Time LPB Poody - Connected ft. 42 Dugg Lucia The Best Boys - Perfectly Untrue Ludacris Chance The Rapper - Found You Luh Kel Queen Naija - Want You Matt Bellamy - Bridge Over Troubled Water Midland - Cheatin' Songs Montana Mix Mozzy - Streets Ain't Safe ft. Blxst Nerina Pallot - Next Life Oliver Tree - Cash Machine Remix ft. grandson Dillon Francis ppcocaine - Hugh Hefner Raissa - Go Fast Baby S1MBA - Loose ft. KSI Sarkodie - Gimme Way ft. Prince Bright Seeb St. Lundi - Colourblind Shy Glizzy - Forever Tre 7 ft. No Savage SVEA Alexander Oscar - Need To Know T.I. - Ring ft. Young Thug Tom Aspaul - 01902 Tom Walker Zoe Wees - Wait for You Toosii - Right Now Trippie Redd - I Got You ft. Busta Rhymes Victoria Kimani FKi 1st - Afreaka Remix ft. STONEBWOY YBN Nahmir - Pop Like This ft. Yo Gotti Youngs Teflon - El Classico ZHU - Risky Business 912 Intence - HAVOC 913 Geko - Investment 3style Jimi Tents - On Me Sol Jay - Hot Winter 914 CL - Post Up KILL.ZERO - loser lol NateWantsToBattle - All Endings Nothing But Thieves - Impossible Pixey - Just Move Porridge Radio - 7 Seconds Sa Vich - ''Planet Earth 2.0'' ft. A P Capone The Avalanches - Music Makes Me High The Avalanches - Take Care in Your Dreaming ft. Sampa The Great, Tricky Denzel Curry 915 Andrew Jannakos - Gone too Soon Cautious Clay - Agreeable CG5 - Show Yourself Christina Grimmie - Cry Wolf Future Islands - Moonlight JAHMED Freddie Gibbs - GLIMPSE Marika Hackman - Realiti MAX - Blueberry Eyes ft. SUGA BTS Rob Markman - Still Hear the Screams ft. DviousMindZ slowthai - feel away ft. James Blake Mount Kimbie Sufjan Stevens - Sugar Teddy Geiger - Sharkbait 916 A. G. Cook - Beautiful Superstar Angel Olsen Emile Mosseri - Mr. Lonely Blood Orange Park Hye Jin - CALL ME Freestyle Dan Bull - Grand Theft Auto ft. NemRaps Dah - Directions Faye Webster - Better Distractions Flohio - Unveiled Jacob Banks - Stranger JAHKOY - Exes Summer Flings Keith Urban P!nk - One Too Many LANY - cowboy in LA Lil Pump - Life Like Me Local Natives - Statues in the Garden Arras Masego - Passport Melanie C - Fearless ft. Nadia Rose NateWantsToBattle - Radio Demon Oliver Francis - VIOLENCE Papoose - Kickback ft. Conway the Machine French Montana Pentatonix - Mad World Rachel Platten - Soldiers Saba - Mrs. Whoever Sainvil - Boxed In ft. Boogie Sir Chloe - Sedona Skeggs - Fantasising Squash - Potus Stalley - Dinosaur THEY. Juicy J - STCU Trapboy Freddy - Sum Mo ft. 42 Dugg Travis - All Fall Down Unlike Pluto - Wrong Faces Wrong Places Will Butler - Bethlehem Willie the Kid - Brewster's Millions ft. Curreny Zeina - Consequences 917 Action Bronson - Mongolia ft. Meyhem Lauren Hologram Black Coffee - Ready For You ft. Celeste BlocBoy JB - ChopBloc 3 Pt. 3 ft. NLE Choppa Brittany Howard - Goat Head EARTHGANG Remix ft. EARTHGANG Brittany Howard - Short and Sweet Bon Iver Remix Bryce Hase - darkest hours contradash - cat out the bag Elzhi - Smoke Mirrors Files J - Phantom Visions Georgia - Feel It Remix ft. Yung Baby Tate JAWNY - Super Bad Mantra ft. Christian Blue Joy Crookes - You Me Song Kelvyn Colt - BENZ I Know Kofi Kinaata - Coronavirus Kyle Allen - Eekum Bokum Litany - Starsign Liza Owen - GETTIN GOOD Luis Fonsi Farruko - Perfecta M Huncho Nafe Smallz - 5AM Moneybagg Yo - Said Sum Remix ft. DaBaby City Girls Pendulum - Driver Pendulum - Nothing for Free Pink Sweat - 17 Remix ft. Joshua Seventeen DK Seventeen Rapsody - 12 Problems Rico Nasty - Own It Saba - Something in the Water ft. Denzel Curry Skepta - No Stress ft. Michael Phantom L3 SUBLIMINIS - On The Edge Sunflower Bean - Moment In The Sun Valley - hiccup Wizkid - No Stress Young Nudy - All White YUNGBLUD - god save me, but don't drown me out 918 27CLUB - GRAB THE WHEEL 220 KID JC Stewart - Too Many Nights AAP Twelvyy - S.N.L. Akira Kosemura - Satoko And Kiyokazu I Asato's Memory From True Mothers Soundtrack Ali Gatie - Welcome Back ft. Alessia Cara Ane Brun - We Need A Mother Anitta - Me Gusta ft. Cardi B Myke Towers Astrid S - It's OK If You Forget Me Baby Keem - hooligan Baby Keem - sons critics freestyle Bino Rideaux - MISMATCH Remix ft. Young Thug Blac Chyna, Too hort Keak da Sneak - My Word Black Honey - Run For Cover Bon Jovi Jennifer Nettles - Do What You Can Brent Faiyaz - Dead Man Walking Brett Eldredge - When The Party's Over Live BUNT. - Crocodile Tears Busta Rhymes Anderson .Paak - YUUUU Charlotte Cardin - Passive Aggressive Chloe Angelides - Outside My Window Christian Rich Vic Mensa - NIGHT RIDERS Cochise - Lost It COIN - You Are the Traffic Comet Blue - Swimming In Circles crape - Psycho ft. Paris Shadows, Bernard Jabs Sorry X CUT - Last Night Dami Im - Paper Dragon Dava - Papercut Delta Goodrem - Solid Gold Elliphant - Time Machine Eric Bellinger - Flotus Foogiano - MOLLY Remix ft. DaBaby Francis and the Lights - You Still Take Me To the Light ft. Caroline Shaw, Chance the Rapper, Bon Iver Kanye West Fredo Bang - Second Line galen tipton - electric drama Gorgon City - Burning ft. Evan Giia Gracy Hopkins Tayc - Melody Grey - NICOTINE HoodCelebrityy Kash Doll - So Pretty Hotboii - Left Lonely Hot Chelle Rae - Come My Way Isac Elliot - Ghost ItaloBrothers - Let Go ft. Kiesza IV - Swimming ft. Trippie Redd JAG Guapdad 4000 - Pray Jahvillani - Kentucky Jah Vinci - You Alone James Hype - Afraid ft. Harlee Jamila Woods - SULA Hardcover Jordane Tumarinson - Blague Cosmique Ténu Joseph Black Luh Kel - homesick Julian Lamadrid - Patience Justin Bieber - HOLY ft. Chance the Rapper Kat Dahlia - Fácil Kathleen - Dark Side of the Moon Kid Buu - Speed Demon Kygo Donna Summer - Hot Stuff Laura Marano - Can't Help Myself LÉON - Head and Heart on Fire LEISURE - Lonely Nights Like Saturn - Avoiding Burdens lilbootycall - Do or Die ft. Liana Bank Lil Loaded - Narco Lil Poppa - R.I.P. Lil Wop - Off White Luke Combs - Without You Lykke Li - I Will Survive Lyric Jones - Show You How ft. VIC MENSA Maggie Lindemann - GASLIGHT Maja Kristina - Slow Hand Mavado - Clean Max George - Give Yourself To Me MaxoKoolin - Cake ft. 8percent Mylène Farmer - L'âme dans l'eau Nevaeh Jolie - Screwed Up ft. A Boogie wit da Hoodie Nightly - the car Night Lovell - Alone nothing,nowhere. pretend Nova Miller - Girls Like Us Now United - The Weekend's Here Olivia O'Brien - Now ORKID - 1morenight Parson James - High Tide, Low Tide Pop Smoke - Mood Swings Remix ft. Lil Tjay Summer Walker Promoting Sounds Tommy Ice - Church ft. guardin Q Da Fool - Frozen RILEY - BGE Rockie Fresh - Bluffin ft. Charity Rockit Gaming - LOL, Pt. 2 Heart Throb Rubi Rose - Pogo ft. K CAMP ryster - MILLI VANILLI Sam Smith - Diamonds Sasha Sloan - Is It Just Me? Sevyn Streeter - HMU Smoke DZA, Wiz Khalifa Curreny - Santos Party House ft. Girl Talk Big K.R.I.T. Smoove'L - Wait A Minute Sofi Tukker, Novak YAX.X - Emergency Sophie Ellis-Bextor - Crying at the Discotheque T-Pain - Nooks Bells ft. Jayteehazard Cardboard Cowboy Taylor Swift - Betty Live from the 2020 Academy of Country Music Awards Tems NG - Damages Tomberlin - Hours Tones and I - Ur So FkInG cOoL blackbear remix Tyga - Money Mouf ft. YG Saweetie Vado, Dre Dave East - Blessings Virginia to Vegas - Palm Springs the way you made me feel Waltzin - Watching You In The Morning Whethan - Freefall ft. Oliver Tree Xavier Omär - All Our Time ft. Jae Stephens XOV - Scarface YFN Lucci - Wet Remix ft. Mulatto YNW BSlime - Just Wait Yung Gravy - Gas Money 919 Dutchavelli - Bando Diaries Remix ft. ONEFOUR, Kekra, Noizy DIVINE GR7FF - want you back ft. 916frosty Jahmiel - Imperfection JT Music - On the Grind 920 Intence - Hot Topic 921 Bryson Tiller - Always Forever Mustafa - Air Forces NateWantsToBattle - Manipulate OMB Peezy - YEAH REASON - The Soul Pt. 2 Spillage Village, Benji. EARTHGANG - Hapi You Me At Six - Beautiful Way YSN Flow - No Time For Rollies YSN Flow - OTW 922 Alicia Keys - Three Hour Drive A COLORS SHOW ft. SiR Baby Queen - Pretty Girl Lie Bastille - survivin boy pablo - Leave Me Alone! DaH - Bussin ft. Rob Vicious Jean Dawson - Starface Magdalena Bay - Woww Molly Payton - How to Have Fun Rittz - Fucked Up Day Skillibeng - YK Dat Guh Sylvan Esso - Free Tim Heidecker Weyes Blood - Oh How We Drift Away TOBi - Made Me Everything Tropico Rich The Kid - G Wagon Tune-Yards - nowhere, man. Vistas - Comfort 923 Alan Walker walkender - Sagave love Remix Baker Boy - Better Days ft. Sampa The Great Dallas Woods Blu DeTiger - Cotton Candy Lemonade Bonobo Totally Enormous Extinct Dinosaurs - Heartbreak Brandon Rogers - WAA Brandy Clark - Same Devil ft. Brandi Carlile Bree Runway - Little Nokia Comethazine - We Gone Win grandson - Dirty Jaah SLT - Right Now ft. Young Nudy Jharrel Jerome - For Real ft. Kemba Kayzo Pixel Terror - Blindside Luna Shadows - malibu bb MadeinTYO - Money Up ft. Toro y Moi Marina Kaye - 7 Billion Savannah Ré - Homies Scotty McCreery - You Time SSGKobe - Feelings ft. Internet Money Starrah - Keep Calm Unlike Pluto - Moving Too Quickly Willie the Kid - Egregious YG - Out On Bail 924 Alison Wonderland - Bad Things ARY - Angels Ashton Irwin - Skinny Skinny Call Me Karizma - Nails clipping. - 96 Neve Campbell ft. Cam China CXLOE - Heavy Ghostemane - Lazaretto Headie One - Ain't It Different Remix ft. Stormzy, ONEFOUR AJ Tracey Jennifer Lopez Maluma - Lonely Jennifer Lopez Maluma - Pa' Ti Kylie Minogue - Magic Kylie Minogue - Magic Single Version Melanie Martinez - The Bakery MoStack - Miss Me ft. AJ Tracey Pablo Alborán - Si Hubieras Querido Quin NFN - First 2 Royal Blood - Trouble's Coming Ruby Fields - Pretty Grim Shamir - Other Side Sia - Courage to Change The Neighbourhood - Lost in Translation The Shins - The Great Divide 925 4 Elements - Best Day Of Our Lives NOT - Revenge Alok Ilkay Sencan - Don't Say Goodbye ft. Tove Lo Amy Allen - Heaven Amy MacDonald - Crazy Shade of Blue Arizona Zervas - RIP BFB Da Packman - Fun Time ft. Wiz Khalifa BIA - SAME HANDS ft. Lil Durk Birdy - Island Lights brakence - dropout Remix ft. blackbear Bruce Springsteen - Ghosts Carlie Hanson - Ego ft. iann dior Che Lingo - Dark Days ft. Kojey Radical Chris Stapleton - Cold Church AP - Yeahnah CJ Fly Parris Pierce - Bamboo Tree Danielle Bradbery - Girls In My Hometown DeathbyRomy - Beautiful Mayhem Delaney Jane - On Paper Dorian Electra - Edgelord ft. Rebecca Black Eddie Benjamin - Speechless ELIO - Jackie Onassis Emily Weisband - Dumber Eric Bellinger - One Thing Missing First Aid Kit - Come Give Me Love FLETCHER Kito - Bitter ft. Trevor Daniel Gabbie Hanna - Call Me Crazy Galantis NGHTMRE - Tu Tu Tu That's Why We ft. Liam O'Donnell GLADES - Crush Guy Sebastian - Love On Display Harry Hudson - Closing Doors ft. Astrid S Hope Tala - All My Girls Like To Fight Isaac Dunbar - miss america Jaguar Jonze - Deadalive Jake Miller - Reset June's Diary - Way Off Katelyn Tarver - Side of My Heart Landon Cube - Lie to Me LBS Kee'vin - Shining ft. 42 Dugg Lera Lynn - Let Me Tell You Something Like Saturn - Blissful Seclusion Lil Loaded - To the Max LØLØ - Dear First Love, Louane - Poésie indécise Luh Kel - All in You Lud Foe - YNS Lund - Red Tide Maisie Peters - Maybe Don't ft. JP Saxe Matt Maeson - Hallucinogenics Remix ft. Lana Del Rey MC Virgins - Virgins Club Medina - In And Out Of Love Mike Sabath - Good Energy Moon Taxi - One Step Away Moyka - I Don't Wanna Hold On Demo Nea Nio Gracia - DIABLO OBN Dev - Scam Jesus 2 OneRepublic - Wild Life Pixies - Hear Me Out Polo G - Epidemic R3HAB Nina Nesbitt - Family Values Rah Swish - 50 Bars, Pt. 4 Rare Essence - Hit the Floor ft. Snoop Dogg REASON - SAUCE ft. Vince Staples REI AMI - MAC CHEESE Rylo Rodriguez - Hear This SAYGRACE - Used To Sheppard - Brand New Swae Lee - Dance Like No One's Watching Tame Impala - Borderline Blood Orange Remix Terror Jr - Would It Make You Feel Better The Weeknd - King of the Fall Tiësto - The Business TINI - Duele ft. John C Tokoyo - Sunrise Travis Scott - FRANCHISE ft. Young Thug M.I.A. VÉRITÉ - i'll take the blame Vin Diesel - Feel Like I Do Vybz Kartel - Don't Stop Ward Thomas - Someday YK Osiris - Money Keep Coming YXNG K.A - IT IS WHAT IT IS Remix ft. J.I the Prince of N.Y Lil Tjay Zara Larsson - WOW Remix ft. Sabrina Carpenter ZAYN - Better Zolita - Bedspell 928 Alfie Templeman - Forever Isn't Long Enough Amanda Shires - The Problem ft. Jason Isbell Arrows in Action - Falling On Purpose Bat for Lashes - We've Only Just Begun Laura Veirs - Another Space and Time NateWantsToBattle - My Name Isn't Mine Omar Apollo - Dos Uno Nueve Young T Bugsey - Don't Rush Naika Remix ft. Naika 929 beabadoobee - How Was Your Day? Goat Girl - Sad Cowboy Jewel - You Were Meant for Me Demo ft. Steve Poltz Jim-E Stack - Jeanie ft. Bon Iver Liam Bailey - Champion Remix ft. Black Thought Louis the Child - Keep Moving Louis the Child TroyBoi - Fresh Juice Melanie C - Overload Miley Cyrus - Heart of Glass Live from the iHeartMusic Festival Purity Ring - Better Off Alone Romy - Lifetime SLUMBERJACK - Poison ft. Sydnee Carter Why Don't We - Fallin Woodkid - Horizons Into Battlegrounds Yuno - Zebra 930 Anna of the North - Someone Special Ari Lennox - Chocolate Pomegranate Demi Lovato - Still Have Me Forest Blakk - If You Love Her Girl Talk Bas - Fallin' GIVON - Stuck on You Internet Money, Don Toliver Roddy Ricch - Lemonade Remix JIMMY EDGAR - GET UP ft. Danny Brown JIMMY EDGAR SOPHIE - METAL Jónsi - Salt Licorice ft. Robyn Lil Darkie - BATSHIT Meg Myers - Any Way You Wanna Love MISSIO - Vagabond ft. Esoteric Now United - Somebody phem - stfu Steve Aoki Timmy Trumpet - Tarantino ft. STARX Unlike Pluto - Addict2</t>
+          <t>Tout allait bien avant qu'elle n'arrive Quand j'suis dans de sales draps J'vais m'faire sa meilleure amie Vu qu'elle a flashé sur moi J'suis avec ma belle depuis 5 piges Mon histoire, elle est bien triste J'crois j'vais m'la faire si elle insiste Elle sonne a pas d'heure taper l'incruste Elle me suit depuis des années Dans son enfer, je suis damné J'lui cours derrière jusqu'à l'épuisement Ça l'arrangerait si j'me fais cramer Elle s'en fout d'savoir que j'suis marié Elle est comme cette robe cellophanée Elle me suivrait jusqu'à la prison Son cur, une pétale de fleur fanée Elle est sans pitié Elle veut dicter la messe Ak, j'pense à toi j'reçois par SMS J'vois qu'j'suis dans la merde J'sais pas où cette histoire me mène Elle me fait douter d'moi-même Douter d'moi-même J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Elle n'était pas si belle Pourtantn j'ai envie d'elle J'veux l'esquiver par tous les moyens Comment rester fidèle ? J'suis perdu Mon cur danse, j'suis perdu J'suis perdu J'rentre pas dans ses bails Gros, c'est pas la peine J'suis bien avec elle Nan, j'veux pas la perdre Sale tarée, demain t'auras pas d'appel Elle est au son Mais cette bitch pourra pas l'atteindre Elle a touché ma santé mentale Elle m'a dit tous les sentiments gagnent Attraction, on ressent les montagnes Elle me manque j'deviens sentimental À force, à force, elle a niqué mes plans La douche l'appelle, squatte le téléphone Ma femme ne me voit plus, pète les plombs Ma deuxième meuf m'aide à compter les sommes Le monde est à nous, le monde est à toi et moi Mais p't-être que sans moi le monde s'ra à toi Et p't-être que sans elle, le monde s'ra à nous Et c'est p't-être mieux ainsi J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Elle n'était pas si belle Pourtantn j'ai envie d'elle J'veux l'esquiver par tous les moyens Comment rester fidèle ? J'suis perdu Mon cur danse, j'suis perdu J'suis perdu</t>
         </is>
       </c>
     </row>
@@ -3314,12 +3314,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>500k*</t>
+          <t>Aller sans retour*</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Sale, sale, sale, sale Ils ont tout fait pour m'atteindre Minimum, minimum, cinq zéro zéro K</t>
+          <t>Ça retient que mon couplet sur le titre, ces négros ne comprennent pas No Ma juriste reçoit des demandes de feat mais ces négros ne s'entrainent pas No Triste fin, Christopher Nolan Eh Si j'meurs demain, que Dieu soit loué Oui J'ai fumé des heures pour être sûr d'aller loin Sûr d'aller loin Eh OG, la moula reconnaît l'espèce Saal Des bruits de couloirs d'une balle dans la tête Nwaar Une nouvlle star s'est faite assassinr Très saal La rue ne pleure qu'une fois qu'c'est fini.. Très nwaar J'ai déménagé, j'ai quitté le pays Ah oui Les fleurs ont fané, les blessures ont guéri Ah oui J'ai fait naufrage et j'ai perdu des amis Sur le rivage, j'observe les granites Sa-sa-sa-saal Les bains de foules, je m'en suis éloigné Oh la la J'm'en bats les couilles de l'intérêt des Grammy Oh la la, m'en suis éloigné J'm'en bats les couilles de l'intérêt des Grammy Eh, piou Négro, c'est pas Duty Call of C'est pas Duty Call of J'vais t'niquer ta mère et j'vais t'ramener des négros qui parlent qu'en Wolof Shoot OG, la moula reconnaît l'espèce Des bruits de couloirs d'une balle dans la tête J'suis dans l'analyse et j'rafle la mise J'fais des trucs de riche, j'fais des parts dans le SNES Saal Tu veux me suivre ? Eh-eh-eh T'as vu la lumière rajoute quelques années J'suis un personnage qu'on retiendra jamais Baby, donne-moi ta main, touche-moi le torse et le cou J'ai fait du tort à beaucoup mais j'ai ramené la monnaie Oh la la la la J'suis toujours a ça d'le prendre cet aller sans retour J'suis toujours a ça d'le prendre cet aller sans retour Ça fait des années que j'suis dans le métier J'connais la rre-gue l'FARDC J'ai vu toute sorte de chose morte, des visages en sang J'étais personne, j'étais personne, j'étais encore enfant Peur bleue, nan ne t'inquiète pas, ça ira mon garçon Quand ça s'passe mal comme un grand vide je ressens l'abandon Ces remords additionnés finiront bien par m'achever Incompris par ce monde J'ai même changé ma façon de tomber pour pas finir dans le love Quand leur façade te comble Quand le ciel tombe, ce n'est pas la pluie qui fait mal Mais les anges qui perdent leurs calme face à l'enfer, baisse les armes Mais au grand jamais de mon épargne, nan C'est pétales contre ronces Mais c'est Dieu qui gagne sur le long terme Tu veux me suivre? T'as vu la lumière rajoute quelques années J'suis un personnage qu'on retiendra jamais Baby, donne moi ta main, touche moi le torse et le cou J'ai fait du tort à beaucoup mais j'ai ramené la monnaie J'suis toujours a ça d'le prendre cet aller sans retour J'suis toujours a ça d'le prendre cet aller sans retour Ça fait des années que j'suis dans le métier J'connais la rre-gue l'FARDC</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>911 (Cover)</t>
+          <t>Amigo</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>HgsCa Dubbelquatrin om tennis --- Zenith9 Summer 2016 D.R.A.M ft Lil Yachty - Broccoli Kano - T-shirt Weather in The Manor Jamie xx ft Young Thug - I Know There's Gonna Be Good Times Blood Orange - You're Not Good Enough Francis and the Lights ft Bon Iver - Friends HONNE - Good Together The Avalanches ft Danny Brown MF DOOM - Frankie Sinatra Drake- Controlla Frank Ocean- Forrest Gump Anderson. Paak ft Schoolboy Q - Am I Wrong Smino - Oxygen Kanye West - Waves Chance The Rapper ft 2Chainz Lil Wayne - No Problem Lil Yachty - One Night Young Thug ft Travi Scott Quavo - Pick Up the Phone The Isley Brothers - Summer Breeze Schoolboy Q - THat Part - Black Hippy Remix --- ITSADITYA Speedom - Tech N9ne ft. Eminem Krizz Kaliko Shelly - Tempa T Wild Boy Remix - Machine Gun Kelly ft. 2 Chainz, Meek Mill, Mystikal, French Montana, Yo Gotti Steve-O Best Friend - Yelawolf ft. Eminem B.A.D - Mista Silva No Way - Futuristic Turnt Up - Chris Webby ft. Dizzy Wright Worldwide Choppers - Tech N9ne ft. Busta Rhymes, Ceza, D-Loc, JL B.Hood, Twista, Twisted Insane, UO Yelawolf In My Zone - Rittz ft. Mike Posner B.o.B That's Not Me - Skepta ft. JME Wicked Ways - Eminem Brainsick 2.0 - Twisted Insane ft. C.Ray, ISO, Kamikazi, Dikulz, Z The Greatest - Futuristic Ballin Out - French Montana ft. Jeremih Diddy I-2604-I aka ChemicaLLordDaveHowell Summertime -- Audio Adreneline Walk Don't Run -- The Ventures Lick it Up -- Kiss Tokyo Summer -- Mounties Just the Way You Are -- Milky --- AriNikoBradshaw Kanye West - Wolves Years Years - King Empire of the Sun - Walking on a Dream Tyler, the Creator - Fucking Young Tyler, the Creator - The Brown Stains of Darkeese Latifah Part 6-12 Remix Jack U Justin Bieber - Where Are U Now Kendrick Lamar - King Kunta Flo Rida - Wobble Sheppard - Geronimo Walk the Moon - Shut Up and Dance --- DukeAM Nirvana - Live at Reading Green Day - Dookie Mac DeMarco - Salad Days Led Zeppelin - IV --- Mattw116 Cadillactica- Big KRIT COMFORTZone- Saba Long.Live.AAP- AAP Rocky ATLiens- Outkast Barter 6- Young Thug Midnight Marauders- A Tribe Called Quest Nietzsche Summer 2012bon iver - holocene Royksopp - happy up here Phoenix - lisztomania Summer 2013kanye west - blood on the leaves Vampire weekend - modern vampires of the city Outkast - spottieottiedopaliscious Summer 2014sylvan esso - coffee Yung lean - kyoto Rae sremmurd - no flex zone Summer 2015dylan brady - little bando Xylo - america Coyote kisses - sunny day Sam gellaitry - childhood Braids - taste FanaHOVA Chill - Retro - Gambino - This Can't Be Life - Jay Z - Too Much - Drake - Venus vs Mars - Jay Z - The Morning - The Weeknd - Kush Corinthians - Kendrick - All I Need - Jay Z - Addiction - Kanye - Accordion - MFDoom - Ain't That Easy - D'Angelo - The Zone - The Weeknd - What They Want - Q - Let Me Love - Pusha T - Sacrilegious - Q Turn up - Killer - Drake - Shoot To Thrill - ACDC - The Party - Gambino - Dirt Off Your Shoulder - Jay Z - Off That - Jay Z - Xxplosive - Dre - m.A.A.d City - Kendrick - Touch Too Much - ACDC - It's A Long Way To The Top If You Wanna Rock n Roll - ACDC - 1 Train - AAP Rocky - Nosetalgia - Pusha T - Fk LA - Q - Trophies - Drake - 0 to 100 - Drake - Energy - Drake - Can't Stop - Theophilus London - King Kunta - Kendrick --- Drxw Daft Punk- Digital Love James Fauntleroy- Fertilizer Drake- 6 Man Logic- All I Do Chance the Rapper- Smoke Again AAP Rocky- Lord Pretty Flacko Jodye II AAP Ferg- Shabba Travi Scott- Uptown Maroon 5- Sugar The Weeknd- Untitled Mood Music Childish Gambino- Sober Frank Ocean- channel ORANGE PharaohPapi Young Thug - Barter 6 Rich Gang - Rich Gang Tha Tour Pt. 1 Kanye West - Yeezus --- JoshCroce 1. Big Sean ft. Jhene Aiko - I Know 2. Vic Mensa ft. Kanye West - U Mad 3. Drake - 6 Man 4. Travis Scott ft. Theophilus London Paul Wall - Dance On the Moon 5. Chet Faker Flume - Drop the Game 6. Leven Kali ft. Zack Sekoff - C.W.Y.B 7. Coasts - Oceans 8. Fetty Wap - RGF Island 9. Meek Mill ft. Big Sean ASAP Ferg - B Boy 10. Tory Lanez - The Mission 11. Coin - Run 12. Shlohmo Jeremih - No More 13. Rae Sremmurd - Come Get Her 14. Vic Mensa - Feel That 15. Travis Scott - Drive The 1975 Remix 16. Chet Faker - 1998 17. Jazz Cartier - Dead or Alive 18. PartyNextDoor - I Dont 19. Majid Jordan - A Place Like This 20. The Neighbourhood ft. G-Eazy - When I Get Back 21. G-Eazy - Tumblr Girls 22. Childish Gambino - Retro Rough 23. Drake - Find Your Love 24. Leks Rivers - Nubian 25. Kanye West - All Day --- Zk123 1. DJ Jazzy Jeff The Fresh Prince - Summertime --- Dredre200064 Rap 1. Waves - Joey Bada 2. Juice - Chance the Rapper 3. 10 2 10 - Big Sean 4. Guap - Big Sean 5. Sweatpants - Childish Gambino 6. G.O.M.D. - J. Cole 7. Started From The Bottom - Drake 8. Worst Behavior - Drake 9. Show Me What You Got - Jay-Z 10. Gorgeous - Kanye West 11. My Homies Still - Lil Wayne 12. Los Awesome - Schoolboy Q 13. Niggas In Paris - Jay-Z and Kanye West 14. Already Home - Jay-Z 15. Goldie - ASAP Rocky 16. Tom Ford - Jay-Z 17. Ashin' Kusher - Kid Cudi 18. Around My Way Freedom Ain't Free - Lupe Fiasco 19. Nikes On My Feet - Mac Miller 20. Tamale - Tyler, the Creator 21. Oh My Darling Don't Cry - Run The Jewels 22. Legendary - Wale 23. 88 - Wale 24. 6 Foot 7 Foot - Lil Wayne 25. Used 2 - 2 Chainz Rock 1. King Of The Beach - Wavves 2. You Only Live Once - The Strokes 3. White Sky - Vampire Weekend 4. Lasso - Phoenix 5. Hate To Say I Told You So - The Hives 6. Smells Like Teen Spirit - Nirvana 7. No Love - Hooray For Earth 8. A Sky Full Of Stars - Coldplay 9. Bugman - Blur 10. R U Mine? - Arctic Monkeys 11. Under Cover of Darkness - The Strokes 12. Mr. Brightside - The Killers 13. Helena Beat - Foster The People 14. Gold On The Ceiling - The Black Keys 15. Automatic Stop - The Strokes 16. Spirit Of The Night - Tesla Boy 17. Buddy Holly - Weezer 18. Supremacy - Muse 19. Fire It Up - Modest Mouse 20. Everybody Talks - Neon Trees 21. Drunk Girls - LCD Soundsystem 22. Walking On A Dream - Empire Of The Sun 23. Come Out And Play - The Offsrping 24. Good Life - OneRepublic 25. Surf Wax America - Weezer --- DDXV 1. King Kunta - Kendrick Lamar 2. Easy Rider - Action Bronson 3. Dope Walk - AAP Ferg 4. M' - AAP Rocky 5. We Are Not Playing - Granddad Woolly 6. American You - Yelawolf 7. Still Dre - Dr Dre 8. U Mad - Vic Mensa 9. 2SEATER - Tyler, The Creator 10. Fucking Problems - AAP Rocky --- Khroam SladeRazor Alchemy - Mick Jenkins After That - Future Inside - Earl Sweatshirt Sloppy Toppy - Travi Scott With That - Young Thug Know Yourself - Drake --- TruSwag Chief Keef - How It Go Future - Fuck Up Some Commas Rowdy Rebel - Computers feat. Bobby Shmurda Drake - Know Yourself Migos - Black Bottles feat. Rick Ross Migos - Computers Freestyle Future - 56 Nights Song Travi Scott - Rodeo AAP Rocky At.Long.Last.AAP --- RizaNNazir 1. Snoop Lion - Smoke The Weed 2. Rowdy Rebel - Computers 3. Drake - Know Yourself 4. Wiz Khalifa - On My Level 5. Tech N9ne - On The Bible 6. Juicy J - Stop It 7. Migos - Trenchez 8. UGK - The Game Belongs To Me 9. Migos - People's Elbow - scHoolboyQdankazzkusH --- VAM621 1. Kendrick Lamar - King Kunta 2. Kendrick Lamar - Money Trees 3. Kanye West - All Day 4. Drake - Legend 5. Drake - Pound Cake 6. ScHoolboy Q - Collard Greens 7. AAP Rocky - Goldie 8. Vic Mensa - U Mad 9. Vic Mensa - Down on my Luck 10. A Tribe Called Quest - Midnight Marauders Album --- Open Mike Aguila 1-10. Lorde - Pure Heroine --- Promethafiend Even though it's just about Winter in Australia 1. Travi Scott - Quintana Pt.2 2. Kanye West - All Day 3. Free Gucci - Metro Thuggin 4. Jazz Cartier - The Valley 5. Earl Sweatshirt feat. Wiki - AM Radio 6. Tyler the Creator - Deathcamp --- Kay Rock 1. Kendrick Lamar - Alright 2. Tyler, the Creator - Deathcamp 3. Lil Wayne - Run This Town 4. AAP Rocky - Goldie 5. Drake - 6 Man 6. Run the Jewels - Pew Pew Pew 7. Meek Mill - Ooh Kill Em' 8. Kendrick Lamar - West Coast Wu-Tang 8. ScHoolboy Q - Los Awesome 9. Kanye West - All Day 10. Tech N9ne - Speedom 11. Busta Rhymes - Why Stop Now 13. Kid Ink, Tyga, Wale, YG Rich Homie Quan - Ride Out 14. Lil Wayne - Right Above It 15. Vic Mensa - U Mad 16. Yelawolf - Love Story 17. Tech N9ne - Wither 18. AAP Rocky - Everyday 19. Vic Mensa - Run! 20. Drake - Too Much 21. Wiz Khalifa - See You Again 22. Wale - The Intro About Nothing --- SemGroeneweg Joey Bada - Don't Front Action Bronson - Easy Rider --- Spencer4714 King Kunta by Kendrick Lamar Cadillactica by Big KRIT Heavenly Father by Isaiah Rashad Big Beast by Killer Mike i by Kendrick Lamar Never Catch Me by Flying Lotus All Day by Kanye West The Recipe by Kendrick Lamar Christ Conscious by Joey Bada You Ain't Gotta Lie Momma Said by Kendrick Lamar Believe Me by Lil Wayne Dots Lines by Lupe Fiasco Shine On by Big KRIT Parental Advisory by Jay Rock Rude Boy by Aquino Fire Squad by J. Cole Code Red by Jay Rock No Joke by Jay Rock Hood Gone Love It by Jay Rock Close Your Eyes And Count to Fuck by Run the Jewels Break the Bank by Scoolboy Q The Bloom by Wale California Love by 2Pac Peaches N Cream by Snoop Dogg --- StillAtIt Ice Cube - Today Was a Good Day Nas - The World Is Yours Nas - One Love Notorious B.I.G. - Juicy 2Pac - Me Against the World Jay Z - D'evils Rakim - The 18th Letter Dr. Dre - Xxplosive Nas - Nas is Like Nas - Money is My Bitch Eminem - Bitch Please II Xzibit - U Know Xzibit - Front 2 Back Jay Z - The Ruler's Back Nas - Stillmatic Intro Nas - Smokin' Nas - 2nd Childhood Nas - Book of Rhymes Entire Get Rich or Die Tryin' LOL Obie Trice - Love Me Nas - U Wanna Be Me Kanye West - Spaceship Nas - Just a Moment Young Buck - Bonafide Hustler The Game -Dreams The Game - Hate It or Love It The Game - Runnin' Stat Quo - Get Low Obie Trice - Ballad of Obie Trice Snoop Dogg - Imagine Snoop Dogg - That's That Shit Eminem - Drop the Bombs on 'em Eminem - Untitled The Game - The City J. Cole - Can't Get Enough Frank Ocean - Pink Matter Kendrick Lamar - Bitch, Don't Kill My Vibe Kendrick Lamar - Money Trees Kendrick Lamar - Real Nas - Reach Out Big Sean - Nothing is Stopping You Big Sean - Fire Big Sean - Control Eminem - Don't Front Busta Rhymes - Calm Down Dr. Dre - Kush J. Cole - Hello J. Cole - Apparently Kendrick Lamar - It's on Again PRhyme - PRhyme PRhyme - U Should Know 50 Cent - This Is Murder This is not Music Slaughterhouse - Y'all Ready Know Big Sean - Stay Down Big Sean - Deep Drake - Legend Kendrick Lamar - King Kunta Kendrick Lamar - i --- WuTangKillaBeeStankoniagbtalentx 1. Roll Deep - Good Times ft. Jodie Connor 2. Calvin Harris - Pray to God ft. HAIM 3. Game, 50 Cent - Hate It or Love It 4. Olly Murs - Army of Two 5. Dizzee Rascal - Goin' Crazy ft. Robbie Williams 6. Eric Prydz - Pjanoo 7. Lethal Bizzle - Pow 2011 ft. JME, Wiley, Chip, Face, P Money, Ghetts, Kano 8. DJ Khaled - I'm On One ft. Drake, Rick Ross, Lil Wayne 9. DJ Felli Fel - Feel It ft. Sean Paul, Pitbull, Flo Rida, T-Pain 10. Neon Jungle - Welcome to the Jungle 11. Maino - All the Above ft. T-Pain 12. Neon Jungle - Braveheart 13. Roll Deep - Green Light 14. Avicii - The Nights 15. Dexplicit - Bullacake 16. Fat Joe - What's Luv? ft. Ashtani 17. Kano - Ps and Qs 18. Fire Camp - Forward 2 19. S Club 7 - Don't Stop Movin' 20. Tinchy Stryder - Number 1 ft. Dappy 21. KlangKrassuell - Netzwerk Falls Like Rain 22. Devlin - Off With Their Heads ft. Wretch 32 23. Kray Twinz, Twista, Lethal Bizzle, Gappy Ranks - What We Do 24. Coolio - Gangster Paradise ft. L.V. 25. UnBalanced - Vessel ft. Scarlett Quinn ChxckTheRhxmeGood Vibe Little Brother - Morning Kendrick Lamar - Money Trees De La Soul - Much More Drake - Know Yourself Mick Jenkins - Dehydration Joey Bada - Christ Conscious J Dilla - Believe in God Birocratic - Sombre, Green De La Soul - Sunshine OutKast - Two Dope Boyz In A Cadillac The Alchemist - Hold You Down Lloyd Banks - I'm So Fly Little Brother Lovin It Mobb Deep The Learning Burn 50 Cent Mobb Deep Outta Control J Dilla Elzhi Come Get It Craig David 7 Days Gorillaz Dirty Harry The Foreign Exchange - Downtime Kendrick Lamar - King Kunta Drake - Worst Behaviour DJ Jazzy Jeff The Fresh Prince - Summertime --- Alfaoito The Weeknd - Untitled Mood Music Kanye West - All Day Red Hot Chili Peppers - Dani California Chris Brown - Don't Be Gone Too Long Marina and The Diamonds - Radioactive 50 Cent - Ayo Technology The Weeknd - Drunk In Love Drake - Energy Rae Sremmurd - No Type --- Rapfanatic Albums The Strokes- Is This It The Velvet Underground Nico David Bowie- Hunky Dory Nirvana- Nevermind Master of Puppets- Metallica All Green Day albums up to 21CB Neutral Milk Hotel In the Aeroplane Over the Sea Smashing Pumpkins- Siamese Dream Astral Weeks- Van Morrison Licensed to Ill- Beastie Boys Are You Experienced - Jimi Hendrix A Love Supreme - John Coltrane Death Certificate - Ice Cube Songs Rap The Real Slim Shady - Eminem What These Bitches Want - DMX U Know - Xzibit Non-Rap White Teeth Teens - Alexie Gratia f Lorde Rock Lithium - Nirvana Come Out Swinging - The Offspring Welcome to Paradise - Green Day Going to Pasalacqua - Green Day My Wave - Soundgarden --- Tyrant Summer 2013 in Europe was literally tracks 1-10 of Yeezus. Also heard a lot of Get Lucky Blurred Lines cause they played that shit every third song in every club --- Hellblazer The Allme Playlist from 2 years ago 1. Azizi Gibson - Intro 2. Yung Lean - Gatorade 3. Mac Miller - Angel Dust 4. Azizi Gibson - Winners Circle 5. Domo Genesis - Arrival 6. AAP Rocky - Peso 7. Drake - Days In Toronto JustDame Refix 8. Flow - Ink Bleed Remix Feat. Bonka, Kevin Gates G. Wilson 9. Danny Brown - Jealousy 10. Schoolboy Q - Blind Threats Feat. Raekwon 11. Armand Hammer - Shark Fin Soup 12. MF Doom - Air Astronote Remix 13. Domo Genesis - SS4 14. Schoolboy Q - Break The Bank 15. Yung Lean - Gatorade Lido Remix 16. Robb Bank - Counting March 17. Apollo Brown - Lower The Boom Feat Oddisee, Kenn Starr Sareem Poems 18. OutKast - SpottieOttie Dopaliscious 19. Dexter - Pictures Feat. Josa Peit 20. Quasimoto - Planned Attack 21. Azizi Gibson - Ghost in the Shell 22. Kendrick Lamar - Poe Mans Dreams His Vice 23. Redman - Whateva Man 24. C2C - 2006 DMC World Team Championship Performance 25. Captain Murphy - Immaculation Feat. Azizi Gibson and Jeremiah Jae 26. Flatbush Zombies - Chuch 27. Yung Lean - Gatorade Chopped Saddened --- AryxSoulchild 1. Rihanna ft Chris Brown - Put It Up 2. Jhene Aiko's Souled Out album 3. Rihanna - Bitch Better Have My Money 4. Chris Brown Tyga - Bunkin' 5. Chris Brown Tyga - Remember Me 6. Fabolous ft Tamia - Into You 7. Amerie - Why Do We Fall In Love 8. Juvenile - Back That Azz Up 9. Mae ft Total - What You Want 10. Ja Rule ft Ashanti - Always on Time --- Self-LoathingNarcissist Rap Childish Gambino- Poke Kendrick Lamar-The Recipe Pusha T- Lunch Money Kanye West- All Day Vic Mensa- U Mad AAP Rocky- R. Cali Earl Sweatshirt- Wool Tyler the Creater- Smuckers Hail Mary Mallon- Jonathan Keith Ape-It G Ma Other Washed Up- Feel it All Around Lorde- Million Dollar Bills Sleigh Bells- Rill Rill HOLYCHILD- Happy With Me Bad Rabbits- Doin' It Tuxedo- So Good Mac DeMarco-Chamber of Reflection --- Gabyayo 1. Xenophobic Blind Left Hook by Saves The Day 2. Everyone I Know by K.Flay --- PrettyLittleRockabilly Arctic Monkeys - Suck It and See The Beach Boys - California Girls The Beach Boys - Surfin USA The Kinks - Better Things The Kinks - Don't Forget to Dance Arctic Monkeys - Reckless Serenade Arctic Monkeys - All My Own Stunts The Goo Goo Dolls - Slide The Goo Goo Dolls - Iris Jamie Lawson - Wasn't Expecting That The Monkees - Daydream Believer The Beatles - And I Love Her The Beatles - All My Loving The Beatles - Here Comes The Sun The Vamps - Can We Dance The Vamps - Move My Way Arctic Monkeys - The Blonde-O-Sonic Shimmer Trap Ed Sheeran - Cold Coffee The 1975 - Girls Circa Waves - So Long Circa Waves - Young Chasers Ed Sheeran - Tenerife Sea Green Day - Reject Green Day - American Idiot Arctic Monkeys - Evil Twin The 1975 - Sex The Smiths - This Charming Man --- Babuc 2016 Playlist Major Lazer - Jessica ft. Ezra Koenig YEAHTIM - GOATS 2015 Playlist Oh Honey Wish You Were Here Twenty one pilots Stressed Out Mark Ronson - Daffodils feat. Kevin Parker Julian Moon A Cup Of Coffee Lorde Pure Heroine The Postal Service - Give Up Vampire Weekend - A-Punk Fergie Fergalicious Natasha Bedingfield Unwritten Natasha Bedingfield - Pocketful Of Sunshine --- OwennB RapRB The Weeknd - Rolling Stone The Weeknd - Montreal Meek Mill - Cold Hearted Mac Miller - Wedding Mac Miller - Fight the Feeling Kendrick Lamar - Sing about me, Im Dying of Thirst Kendrick Lamar - Mortal Man Drake - Wednesday Night Interlude Drake - Pound Cake Frank Ocean - Swim good AltRockPop The 1975 - Menswear The 1975 - Antichrist Chase Atlantic - Run Away Circa Waves - T-shirt weather Electronic Atu - Vacant Ekali - Unfaith Tory Lanez Ekali mix - Henny in Hand Sosad2112 Track 1 - 10 Track 11 - 20 Track 21 - 30 Track 31 - 40 Track 41 - 50 Track 51 - 60 Track 61 - 70 Track 71 - 80 Track 81 - 90 Track 91 - 100 Track 101 - 110 Track 111 - 120 Track 121 - 130 --- DrewHarvie Summer laid back playlist Swinelordfire emoji - YABOYNICKYJay DayerCanadian Playlist Canadian Playlist Pt. 2 Detroit Playlist --- VinylZombieMCR - Pop - Pop Punk Rock --- Old School Panther Dee ImLUat the beach chillinMadkol MagicB.o.B Bang Bang Pow PowT-Pain Right Above ItLil Wayne 22Taylor Swift All I Do Is Win RemixDJ Khaled No ProblemChance The Rapper HistoryOne Direction ClassicMKTO CliqueKanye West Like ThatJack Jack Better Than RevengeTaylor Swift The Real Slim ShadyEminem I'm So PaidAkon BroccoliD.R.A.M SailAWOLNATION Hop MadnessHopsin The Story Of UsTaylor Swift SpeedomTech N9ne Look At Me NowChris Brown MercyKanye West SugarMaroon 5 Lips Are MovinMeghan Trainor Cake By The OceanDNCE Work From HomeFifth Harmony No SleepWiz Khalifa Hood Go CrazyTech N9ne You're Such AHailee Steinfeld Bad Mother FuckerMachine Gun Kelly Up Down Do This All DayT-Pain All You Had To Do Was StayTaylor Swift WorkRihanna Good LifeKanye West I'm Goin InDrake Out Of My MindB.o.B Roger ThatYoung Money OnlyNicki Minaj SmileAvril Lavigne Can't Stop The FeelingJustin Timberlake I Just Wanna PartyYG HeadbandB.o.B No HandsWaka Flock Flame GangBangWiz Khalifa Bandz A Make Her DanceJuicy J CenturiesFall Out Boy --- Trialia Spotify Summer Rewind Playlist 2018 01 - Hayley Kiyoko - Girls Like Girls 02 - Lacuna Coil - Purify 03 - Chameleon Circuit - Exterminate, Regenerate 04 - Fall Out Boy - Ghostbusters I'm Not Afraid 05 - Demi Lovato - Confident 06 - Lacuna Coil - Blood, Tears, Dust 07 - Propellerheads - Spybreak! short one 08 - Aperture Science Psychoacoustic Laboratories - Still Alive 09 - Savage Garden - I Want You 10 - Lacuna Coil - Lost Lullaby 11 - Nine Inch Nails - Sanctified 12 - Creed - Higher 13 - Savage Garden - To the Moon and Back 14 - Lacuna Coil - To Live is To Hide 15 - Carina Round - Let It Fall 16 - Counting Crows - Goodnight Elisabeth 17 - Megadeth - À Tout Le Monde Set Me Free 18 - Lacuna Coil - Upsidedown 19 - Avril Lavigne - Tomorrow 20 - Valletta - Spybreak Radio Mix 21 - Chameleon Circuit - Gallifreyan History 101 22 - Lacuna Coil - The Army Inside 23 - Savage Garden - Carry On Dancing 24 - Laura Nyro - You've Really Got A Hold On Me 25 - Enigma - Gravity of Love 26 - Lacuna Coil - Against You 27 - Within Temptation - What Have You Done 28 - Demi Lovato - Cool for the Summer 29 - Them Are Us Too - Creepy Love 30 - Chameleon Circuit - Type 40 31 - Mors Syphilitica - Ungrateful Girl 32 - Anna Nalick - Consider This 33 - DJ Quicksilver - Bellissima Radio Edit 34 - Regicide - Narcissus Echo 35 - Indigo Girls - Watershed 36 - Oasis - The Masterplan 37 - Suzanne Vega - Marlene On The Wall 38 - Rob D - Clubbed To Death Kurayamino Mix 39 - Corinne Bailey Rae - Put Your Records On 40 - Linkin Park - Castle of Glass 41 - Alanis Morissette - All I Really Want 42 - Patti Smith - Because the Night 43 - Soundgarden - Black Hole Sun 44 - Delain - Army of Dolls 45 - Massive Attack - Inertia Creeps 46 - Indigo Girls - Galileo 47 - Lacuna Coil - Wide Awake 48 - Linkin Park - Leave Out All The Rest 49 - Hayley Kiyoko - Sleepover 50 - Scott McKenzie - San Francisco Be Sure to Wear Flowers in Your Hair --- Jsaispasjsaisplus 1 - Moha La Squale - J'me balade 2 - Damso - 911 3 - Moha La Squale - Amsterdam 4 - PNL - 91's 5 - The Weeknd - I Feel It Coming --- Missblohsh 1 - One Kiss with Dua Lipa 2 - Sparks Fly 3 - Dangerous Woman 4 - Paradise City 5 - Shotgun34</t>
+          <t>Ho né problemi di vitto Né problemi di diritto Ma se non mi vuole Ho problemi di cuore E leva quella neve E leva quel liquore O morirò per problemi O di fegato o di cuore Né son duro di cuore Né son puro di cuore Quindi quasi sicuro Morirò di cuore Ma tu non lasciarmi fuori Dai tuoi affari di cuore Non prendermi di petto Prendimi di a cuore Tanto è già sicuro Che soffrirò di cuore Ghiaccio, vodka e cicuta E prima di andare a letto spegni il sole Né problemi di vitto Né problemi di diritto Ma se non mi vuole Ho problemi di cuore A furia di prendere E di dare amore, senza maglia Mi si vedevano le Smagliature sul cuore Fino a che al posto del cuore Non avevo neanche più un cuore Ma solo un grumo di sangue A forma di, a forma di cuore Poi ci fu il trapianto di cuore E oggi ringrazio di cuore La persona di cuore Che mi ha ridato un cuore Che in realtà è un'albicocca Che si scalda col sole I raggi riflessi dalla sua bocca A forma di, a forma di cuore Ora che ho un cuore nuovo Posso ridere di nuovo E posso ridere di cuore E posso scrivere di cuore Si, il titolo è di cuore Si, il titolo è d'amore Si, e non ho finito Il titolo è anche D'Amico Né problemi con grasse Né problemi con basse Basta mettersi di lato, d'accordo Basta metterci il cuore Ringrazio le troie e le suore E soprattutto ringrazio di cuore La persona di cuore Che mi ha ridato un cuore Che in realtà è un'albicocca Che si sfalda al sole I raggi riflessi dalla tua bocca A forma di cuore Né problemi di tasse Né problemi di classe Ma ho problemi di cuore Se non fa più rumore Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox</t>
         </is>
       </c>
     </row>
@@ -3348,12 +3348,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>9h du mat</t>
+          <t>A moi</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Page blanche 2024 1. Page blanche 2. A moi 3. Bottega 4. Mayday 5. Laissé tomber 6. Joli 7. Harmonie du cur 8. Du feu Ft. Damso 9. Memories 10. Shooter 11. 9h du mat 12. Seum 13. La scène</t>
+          <t>Un feu brûle, et j'apprends à être Bien plus que ma fatigue Bien plus que ce que cette vieille sorcière du sommeil souhaite Elle embrasse mes paupières Et je respire Tu n'as pas à briller Dit-elle en parcourant Les rouleaux que les millions De fantômes hurlants savent jouer, tout va bien Ils ne sont que ds ombres en quête d lumière Ils ne peuvent pas rester Dors maintenant, oh, dit-elle Les blagues de demain doivent encore faire rire ou être dites Repose-toi simplement, gémit-elle Puis les fantômes viennent Me versent du vin près de mon lit Et leurs hurlements morts acquiescent aux choses que j'ai dites Et disent non, non, non, non Car tu es dans la terre de mon corps Tu es dans la terre de mon corps Ma tête n'est pas tienne, elle est à moi Car tu es dans la terre de mon corps Etrangement je bois à présent, et je lève mon verre A ce dernier homme de bien Qui m'a laissé, m'a abandonné au final Et je ris, et je ris Parce que rire désormais, c'est tout, tout ce que j'ai Tu vaux mieux que ça Dit-il alors qu'une main gifle mon visage et je me lève Et je dis non, homme de bien Je ne peux faire ça tu peux Je ne peux faire ça tu peux Je ne peux faire ça tu peux Je ne peux pas faire ça, tu ne comprends pas Oh, dors maintenant, oh, supplie-t-elle Tu n'es pas un lâche parce que tu fuis Tu es brave parce qu'ils t'ont brisé Pourtant brisé tu respires encore Alors respire, respire, juste respire Alors les fantômes me versent un autre éclat plein de verre Et je trinque à leurs talents et leur pardonne enfin Car je sais, oh, je sais, je sais Tu es dans la terre de mon corps Tu es dans la terre de mon corps Ma tête n'est pas tienne, elle est à moi Et je vais prendre mon putain de temps Car je sais, oh, je sais, je sais Enterrons ça Je suis tout à toi, mais tu es toute à moi Dansons ensemble, toi et moi Car je ne suis pas piégé avec toi, tu vois Tu es celle qui est piégée avec moi Parce que j'ai si souvent été ici Ne penses-tu pas que je suis joli Roulé en boule sur le sol de cette salle de bain? Mais où tu vois de la faiblesse, je vois de l'esprit Parfois je tombe en morceaux Juste pour voir lesquels ne s'assemblent pas Car quand je me lèverai, oh, ces gens courront Et conteront les récits de ce que je suis devenu Ils parleront de moi, oh dans des rumeurs Et diront mon nom comme s'il faisait trembler leurs os Car nous danserons ensemble si étroitement, nos souffles mêlés Mais je mène désormais, cela ne t'effraie-t-il pas à en mourir? Car je suis tout à toi, tu es toute à moi Dansons ensemble, toi et moi Parce que je ne suis pas piégé, oh avec toi, tu vois Tu es celle qui est piégée avec moi Car tu es dans la terre de mon corps Tu es dans la terre de mon corps Ma tête n'est pas tienne, elle est à moi Et je vais prendre mon putain de temps Car je sais, oh je sais</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>#AK2 - Damso</t>
+          <t>BX13-30</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Tout allait bien avant qu'elle n'arrive Quand j'suis dans de sales draps J'vais m'faire sa meilleure amie Vu qu'elle a flashé sur moi J'suis avec ma belle depuis 5 piges Mon histoire, elle est bien triste J'crois j'vais m'la faire si elle insiste Elle sonne a pas d'heure taper l'incruste Elle me suit depuis des années Dans son enfer, je suis damné J'lui cours derrière jusqu'à l'épuisement Ça l'arrangerait si j'me fais cramer Elle s'en fout d'savoir que j'suis marié Elle est comme cette robe cellophanée Elle me suivrait jusqu'à la prison Son cur, une pétale de fleur fanée Elle est sans pitié Elle veut dicter la messe Ak, j'pense à toi j'reçois par SMS J'vois qu'j'suis dans la merde J'sais pas où cette histoire me mène Elle me fait douter d'moi-même Douter d'moi-même J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Elle n'était pas si belle Pourtantn j'ai envie d'elle J'veux l'esquiver par tous les moyens Comment rester fidèle ? J'suis perdu Mon cur danse, j'suis perdu J'suis perdu J'rentre pas dans ses bails Gros, c'est pas la peine J'suis bien avec elle Nan, j'veux pas la perdre Sale tarée, demain t'auras pas d'appel Elle est au son Mais cette bitch pourra pas l'atteindre Elle a touché ma santé mentale Elle m'a dit tous les sentiments gagnent Attraction, on ressent les montagnes Elle me manque j'deviens sentimental À force, à force, elle a niqué mes plans La douche l'appelle, squatte le téléphone Ma femme ne me voit plus, pète les plombs Ma deuxième meuf m'aide à compter les sommes Le monde est à nous, le monde est à toi et moi Mais p't-être que sans moi le monde s'ra à toi Et p't-être que sans elle, le monde s'ra à nous Et c'est p't-être mieux ainsi J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Mon cur danse, j'suis perdu J'suis perdu Elle n'était pas si belle Pourtantn j'ai envie d'elle J'veux l'esquiver par tous les moyens Comment rester fidèle ? J'suis perdu Mon cur danse, j'suis perdu J'suis perdu</t>
+          <t>Big Fred Le J, Le F Lyly, Le S Damso KW Révolution, loues des apparts pour commissions Vie Rendre Juju happy c'est la mission, tire de Sova pour détection Fiufiu T'as les 30 piges ça y est, tu fais partie du clan Ah b'ah ouais La mentale à Sasuke, t'as compris, t'as mis du temps Noiiiiiir Le regard est bre-som, le survet' est rouge comme à Bergès Madafak C'est Marseille No Jutsu, invocation à toi le S SCH Café noir dans l'appartement Serré, allongé ou n'importe comment Sur l'écran, l'attaque des titans Sous les projecteurs on connait l'acteur Parmis les reufs on est tous fans T'as eu ta part, j'ai eu ma part Maé attend sa parmigiane Mise à part, elle t'a AUTOBAN Hamza Lyly, la gova c'est la mini SO Gin, Fuck Hennessy Et si, on s'y met, on s'allie, Akatsuki Hamza Damso Big H, Big S Le J, Le F Big Dams, Big Lyes 30 piges, c'est la hess Johnny C'est BX13, c'est ton année, tiens ta chanson A minuit 13, Pôle Emploi te paye ta rançon Big Fred Johnny C'est BX13, c'est ton année, tiens ta chanson A minuit 13, Pôle Emploi te paye ta rançon Crédits</t>
         </is>
       </c>
     </row>
@@ -3382,12 +3382,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Aller sans retour*</t>
+          <t>CHROME</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Ça retient que mon couplet sur le titre, ces négros ne comprennent pas No Ma juriste reçoit des demandes de feat mais ces négros ne s'entrainent pas No Triste fin, Christopher Nolan Eh Si j'meurs demain, que Dieu soit loué Oui J'ai fumé des heures pour être sûr d'aller loin Sûr d'aller loin Eh OG, la moula reconnaît l'espèce Saal Des bruits de couloirs d'une balle dans la tête Nwaar Une nouvlle star s'est faite assassinr Très saal La rue ne pleure qu'une fois qu'c'est fini.. Très nwaar J'ai déménagé, j'ai quitté le pays Ah oui Les fleurs ont fané, les blessures ont guéri Ah oui J'ai fait naufrage et j'ai perdu des amis Sur le rivage, j'observe les granites Sa-sa-sa-saal Les bains de foules, je m'en suis éloigné Oh la la J'm'en bats les couilles de l'intérêt des Grammy Oh la la, m'en suis éloigné J'm'en bats les couilles de l'intérêt des Grammy Eh, piou Négro, c'est pas Duty Call of C'est pas Duty Call of J'vais t'niquer ta mère et j'vais t'ramener des négros qui parlent qu'en Wolof Shoot OG, la moula reconnaît l'espèce Des bruits de couloirs d'une balle dans la tête J'suis dans l'analyse et j'rafle la mise J'fais des trucs de riche, j'fais des parts dans le SNES Saal Tu veux me suivre ? Eh-eh-eh T'as vu la lumière rajoute quelques années J'suis un personnage qu'on retiendra jamais Baby, donne-moi ta main, touche-moi le torse et le cou J'ai fait du tort à beaucoup mais j'ai ramené la monnaie Oh la la la la J'suis toujours a ça d'le prendre cet aller sans retour J'suis toujours a ça d'le prendre cet aller sans retour Ça fait des années que j'suis dans le métier J'connais la rre-gue l'FARDC J'ai vu toute sorte de chose morte, des visages en sang J'étais personne, j'étais personne, j'étais encore enfant Peur bleue, nan ne t'inquiète pas, ça ira mon garçon Quand ça s'passe mal comme un grand vide je ressens l'abandon Ces remords additionnés finiront bien par m'achever Incompris par ce monde J'ai même changé ma façon de tomber pour pas finir dans le love Quand leur façade te comble Quand le ciel tombe, ce n'est pas la pluie qui fait mal Mais les anges qui perdent leurs calme face à l'enfer, baisse les armes Mais au grand jamais de mon épargne, nan C'est pétales contre ronces Mais c'est Dieu qui gagne sur le long terme Tu veux me suivre? T'as vu la lumière rajoute quelques années J'suis un personnage qu'on retiendra jamais Baby, donne moi ta main, touche moi le torse et le cou J'ai fait du tort à beaucoup mais j'ai ramené la monnaie J'suis toujours a ça d'le prendre cet aller sans retour J'suis toujours a ça d'le prendre cet aller sans retour Ça fait des années que j'suis dans le métier J'connais la rre-gue l'FARDC</t>
+          <t>Fuck you! Ok Chrome noir, shoot dans la peau d'un nizo qui ose parler d'trop</t>
         </is>
       </c>
     </row>
@@ -3399,12 +3399,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Amigo</t>
+          <t>CŒUR EN MIETTES LIVE</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Ho né problemi di vitto Né problemi di diritto Ma se non mi vuole Ho problemi di cuore E leva quella neve E leva quel liquore O morirò per problemi O di fegato o di cuore Né son duro di cuore Né son puro di cuore Quindi quasi sicuro Morirò di cuore Ma tu non lasciarmi fuori Dai tuoi affari di cuore Non prendermi di petto Prendimi di a cuore Tanto è già sicuro Che soffrirò di cuore Ghiaccio, vodka e cicuta E prima di andare a letto spegni il sole Né problemi di vitto Né problemi di diritto Ma se non mi vuole Ho problemi di cuore A furia di prendere E di dare amore, senza maglia Mi si vedevano le Smagliature sul cuore Fino a che al posto del cuore Non avevo neanche più un cuore Ma solo un grumo di sangue A forma di, a forma di cuore Poi ci fu il trapianto di cuore E oggi ringrazio di cuore La persona di cuore Che mi ha ridato un cuore Che in realtà è un'albicocca Che si scalda col sole I raggi riflessi dalla sua bocca A forma di, a forma di cuore Ora che ho un cuore nuovo Posso ridere di nuovo E posso ridere di cuore E posso scrivere di cuore Si, il titolo è di cuore Si, il titolo è d'amore Si, e non ho finito Il titolo è anche D'Amico Né problemi con grasse Né problemi con basse Basta mettersi di lato, d'accordo Basta metterci il cuore Ringrazio le troie e le suore E soprattutto ringrazio di cuore La persona di cuore Che mi ha ridato un cuore Che in realtà è un'albicocca Che si sfalda al sole I raggi riflessi dalla tua bocca A forma di cuore Né problemi di tasse Né problemi di classe Ma ho problemi di cuore Se non fa più rumore Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox Il mio cuore suona nel talkbox</t>
+          <t>Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Le cur en miettes, je dois l'admettre Mes contraintes, mes échecs me montent à la tête J'ai réussi, j'n'ai plus d'quête, j'n'ai plus de dette Quatre secondes pour cent mètres, fait le gamos que j'achète Les souvenirs de ta schneck sont tout c'qu'il me reste Négro, arrête, j'dormais sur l'bitume, je n'compte plus l'nombre de siestes Donc viens pas m'parler d'ta hess, nan, nan, j'ai passé des moments durs Et des moments seul, mes pleurs étaient sanglants Des lésions, des courbatures, rudes épreuves, des blessures en tombant J'ai pas de répondant, surtout parce que j'm'en bats les c' Corona à la lèpre, l'Afrique cesse pas d'renaître Je suis parti en courant aux mains en l'air, pas un geste, cellule encombrante Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ?</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>A moi</t>
+          <t>Colis</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Un feu brûle, et j'apprends à être Bien plus que ma fatigue Bien plus que ce que cette vieille sorcière du sommeil souhaite Elle embrasse mes paupières Et je respire Tu n'as pas à briller Dit-elle en parcourant Les rouleaux que les millions De fantômes hurlants savent jouer, tout va bien Ils ne sont que ds ombres en quête d lumière Ils ne peuvent pas rester Dors maintenant, oh, dit-elle Les blagues de demain doivent encore faire rire ou être dites Repose-toi simplement, gémit-elle Puis les fantômes viennent Me versent du vin près de mon lit Et leurs hurlements morts acquiescent aux choses que j'ai dites Et disent non, non, non, non Car tu es dans la terre de mon corps Tu es dans la terre de mon corps Ma tête n'est pas tienne, elle est à moi Car tu es dans la terre de mon corps Etrangement je bois à présent, et je lève mon verre A ce dernier homme de bien Qui m'a laissé, m'a abandonné au final Et je ris, et je ris Parce que rire désormais, c'est tout, tout ce que j'ai Tu vaux mieux que ça Dit-il alors qu'une main gifle mon visage et je me lève Et je dis non, homme de bien Je ne peux faire ça tu peux Je ne peux faire ça tu peux Je ne peux faire ça tu peux Je ne peux pas faire ça, tu ne comprends pas Oh, dors maintenant, oh, supplie-t-elle Tu n'es pas un lâche parce que tu fuis Tu es brave parce qu'ils t'ont brisé Pourtant brisé tu respires encore Alors respire, respire, juste respire Alors les fantômes me versent un autre éclat plein de verre Et je trinque à leurs talents et leur pardonne enfin Car je sais, oh, je sais, je sais Tu es dans la terre de mon corps Tu es dans la terre de mon corps Ma tête n'est pas tienne, elle est à moi Et je vais prendre mon putain de temps Car je sais, oh, je sais, je sais Enterrons ça Je suis tout à toi, mais tu es toute à moi Dansons ensemble, toi et moi Car je ne suis pas piégé avec toi, tu vois Tu es celle qui est piégée avec moi Parce que j'ai si souvent été ici Ne penses-tu pas que je suis joli Roulé en boule sur le sol de cette salle de bain? Mais où tu vois de la faiblesse, je vois de l'esprit Parfois je tombe en morceaux Juste pour voir lesquels ne s'assemblent pas Car quand je me lèverai, oh, ces gens courront Et conteront les récits de ce que je suis devenu Ils parleront de moi, oh dans des rumeurs Et diront mon nom comme s'il faisait trembler leurs os Car nous danserons ensemble si étroitement, nos souffles mêlés Mais je mène désormais, cela ne t'effraie-t-il pas à en mourir? Car je suis tout à toi, tu es toute à moi Dansons ensemble, toi et moi Parce que je ne suis pas piégé, oh avec toi, tu vois Tu es celle qui est piégée avec moi Car tu es dans la terre de mon corps Tu es dans la terre de mon corps Ma tête n'est pas tienne, elle est à moi Et je vais prendre mon putain de temps Car je sais, oh je sais</t>
+          <t>La bitch m'a dit Damso J'm'en fous d'ta vie, j'veux du Dolfa Il a du style et du flow Il sait magner les mots, c't'un vrai négro Pas comme toi Mais c'que la bitch nous dit pas C'est que j'l'ai déjà fourrée deux fois ouais Une fois chez elle, une fois chez moi Ah non trois, la dernière fois chez Dolfa J'prends mon phone et je check, allô ? Dolfa ramène j'suis au Studio Y a une pétasse bien roulée qui n'arrête pas d'mouiller D'une nymphomane elle a tous les signes Mais c'que Dolfa nous dit pas C'est qu'il est à la Dolce Vita Une pizzeria du coin avec une grosse putain Ils font du sale dans les lettes-toi Allô, ouais Dolfa c'est Dems J'suis avec la bitch Elle attend qu'tu la ken depuis le mat', allô ? Elle ne veut pas de love, elle ne veut pas d'être seul J'l'amène chez toi j'la laisse sur l'matelas J'arrive ouais, j'suis en train d'bosser sur Fruity Loops Mets lui la main au panier j'viendrai la prendre dans no limit J'ai livré le colis j'ai livré le colis à Dolfa Une fille dévergondée malpolie J'ai livré le colis Dolfa va ken le colis Bonnasse, un gros cul bien joli J'ai livré le colis Dolfa tu ken ou tu ken pas ? All inclusive tant qu't'es au lit J'ai livré le colis Ken à la haine à la folie J'ai livré le colis j'ai livré le colis à Dolfa Une fille dévergondée malpolie J'ai livré le colis Dolfa va ken le colis Bonnasse, un gros cul bien joli J'ai livré le colis Dolfa tu ken ou tu ken pas ? All inclusive tant qu't'es au lit J'ai livré le colis Ken à la haine à la folie</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>BX13-30</t>
+          <t>Cyclone</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Big Fred Le J, Le F Lyly, Le S Damso KW Révolution, loues des apparts pour commissions Vie Rendre Juju happy c'est la mission, tire de Sova pour détection Fiufiu T'as les 30 piges ça y est, tu fais partie du clan Ah b'ah ouais La mentale à Sasuke, t'as compris, t'as mis du temps Noiiiiiir Le regard est bre-som, le survet' est rouge comme à Bergès Madafak C'est Marseille No Jutsu, invocation à toi le S SCH Café noir dans l'appartement Serré, allongé ou n'importe comment Sur l'écran, l'attaque des titans Sous les projecteurs on connait l'acteur Parmis les reufs on est tous fans T'as eu ta part, j'ai eu ma part Maé attend sa parmigiane Mise à part, elle t'a AUTOBAN Hamza Lyly, la gova c'est la mini SO Gin, Fuck Hennessy Et si, on s'y met, on s'allie, Akatsuki Hamza Damso Big H, Big S Le J, Le F Big Dams, Big Lyes 30 piges, c'est la hess Johnny C'est BX13, c'est ton année, tiens ta chanson A minuit 13, Pôle Emploi te paye ta rançon Big Fred Johnny C'est BX13, c'est ton année, tiens ta chanson A minuit 13, Pôle Emploi te paye ta rançon Crédits</t>
+          <t>Mais qu'est-ce que c'est que ce carnage D-O-L-F-A toujours prêt pour le braquage De rime, c'est l'cyclone, crime pour les gnomes N'oublies pas ton accord parental si t'es un môme Okay, j'suis lancé, t'sais qu'tu peux plus m'stopper Un tel niveau d'hip-hop à BX c'est l'OPG Obligé de froisser tous les MC par cents T'étonnes pas man mais ton visage finira bien en sang Damso Dems ? Cyclone Big Smoke Dolfa D.R.O.P.S T'sais très bien que c'est les négros qui ne font pas de test OPG, unis dans la mort comme dans la vie Cesses de te croire supérieur on en a rien à foutre de ? Véritable j'viens du sud d'Kin, rival reste sur Terre La haine me trouve sublime, Katrina me succède Tu m'test, mec, j'te supprime, c'est Dems a.k. suprême Mon son est un supplice, les bitches sont pucelles J'veux du cash jusqu'à en crever, mais l'appendance ne nuit pas Au royaume des M.I.C. que les OPG sont rois J'vois ma vie sur un circuit et j'anticipe le virage Dans mon bateau tirant sur l'ennemi j'illumine le rivage Aucune rumeur sur Damso elle passe de glock à oreille J'suis pas d'humeur viens pas m'tester ou je te casserais l'orteil J'ai du cash, j'ai des go, qu'elles soient blanches, black ou ? J'finirais peut-être à la rue que si les routes sont en or OPGangsta2</t>
         </is>
       </c>
     </row>
@@ -3450,12 +3450,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CHROME</t>
+          <t>Débrouillard (Remix)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Fuck you! Ok Chrome noir, shoot dans la peau d'un nizo qui ose parler d'trop</t>
+          <t>Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Fais pas l'amour à une femme comme un homme La Bible dit qu'c'est une abomination Alors à chaque fois qu'je t'encule J'demande pardon au ciel pour faute dinattention Amen J'suis pas là pour faire la morale La morale a fait de moi c'que je suis devenu Ma vie s'inspire d'la SABAM Plus tu gagnes du blé, plus j'te baise sans retenue J'compte pas obtenir de diplôme Comme Dolfa, négro, pour moi la school c'est finished Vers le succès je marche, j'ai des ampoules aux pieds À chacun d'mes pas c't'un remake de Billie Jean Jackson La vie ne fait aucun cadeau Le Père Noël n'existe pas dans la rue Passeur avec des produits illégaux Les keufs t'attrapent, négro, tu n'm'as jamais vu John Doe Un gun, un flow, j'te tire dessus Et j'te transperce le dard J'vois jamais d'courses de spermato' Mais j'donne beaucoup de départs J'suis dans le Pacifique dit-on, je débite des proses et des vers Je suis un pacifiste quiconque me défie repose en paix Le silence est d'or donc chut, quand je t'encule ne crie pas J'veux entendre que le frottement des pores Et le bruit des mes grosses testicules sur ton 'uc Grosse pute, tu crois que t'es où là !? Toi et ta schnek, allez faire de la mula Ramène l'oseille à mes youvois J'n'ai aucun remord, t'es Sarah Connor Je suis Terminator dans ta tte-cha Schwarzy Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Ma fille si j'prends pour 10 ans ferme Ne noie pas ton chagrin dans du sperme Nager Va prendre le Glock dans la chambre de Papa Ensuite tu le donneras à tonton Dolfa Qui s'en servira contre la grosse lope-sa Et c'est seulement quand cette balance avouera Que tu lui diras de l'enculer de sorte à ce que plus jamais son trou se referme OPG déclasse leurs teams 'Vont chercher renfort en franc-maçonnerie Le sang remplace l'encre de Chine Le bruit de ta mort remplace ma sonnerie Allô Il n'y a rien de plus dangereux que la main tendue J'veux pas ton aide, évitons d'gros litiges Un cadeau empoisonné bien vendu Une mère porteuse séropositive Ils sont comme chaussures devant mosquée Sont recalés à l'entrée, vont devoir rentrer pioncer Yeurmé à vie, rien n'est nuancé J'te vois comme Jay Z voit Beyoncé Une salope que j'n'ai pas besoin de financer Un bustier en I qui se finit en C Gros cul Mes sons passent en club, t'es ambiancé Seuls les darons sont mes créanciers Ta meuf a un anneau dans le ventre Je l'ai doigtée au point que j'en suis passé entre In Autrement dit nous sommes fiancés Yes Balance j't'en prie va nous dénoncer ! Snitch T'façon les preuves sont déjà dissimulées Fais tout ce qui rémunère, le nègre est affamé Ne me demandez pas quelle est ma mission sur Terre J'suis débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais</t>
         </is>
       </c>
     </row>
@@ -3467,12 +3467,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CŒUR EN MIETTES LIVE</t>
+          <t>Démons (live orchestral)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Le cur en miettes, je dois l'admettre Mes contraintes, mes échecs me montent à la tête J'ai réussi, j'n'ai plus d'quête, j'n'ai plus de dette Quatre secondes pour cent mètres, fait le gamos que j'achète Les souvenirs de ta schneck sont tout c'qu'il me reste Négro, arrête, j'dormais sur l'bitume, je n'compte plus l'nombre de siestes Donc viens pas m'parler d'ta hess, nan, nan, j'ai passé des moments durs Et des moments seul, mes pleurs étaient sanglants Des lésions, des courbatures, rudes épreuves, des blessures en tombant J'ai pas de répondant, surtout parce que j'm'en bats les c' Corona à la lèpre, l'Afrique cesse pas d'renaître Je suis parti en courant aux mains en l'air, pas un geste, cellule encombrante Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ? Is he lonely, hmm-hmm ?</t>
+          <t>Jusqu'ici, tout va bien, enfin, ça allait Confiante, t'as peur de rien avant de tomber On verra bien demain, mais ça, plus jamais J'ai pas l'air de m'en faire, mais si vous saviez Comment c'est dans ma tête, ça me fait vriller L'angoisse me fait la guerre et part en fumée Jour après jour, je m'habitue À mes ennemis qui me tuent Et j'apprendrai toutes les vertus Oh, jour après jour, je m'habitue Quand j'en attends trop, j'suis déçue Mais grâce à ça, moi, j'évolue Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom, oh-oh Si la magie opère, tous, ils tomberont, hey Comment faire pour tuer mes démons ? Tuer mes démons Mes démons Ah bah ouais, mes démons Bah, ok Mes démons Ah bah ouais, mes démons Bah, ok Mes démons Ah bah ouais, mes démons Bah, ok Mes démons Bang, ah bah ouais J'feate avec Angèle, pas d'gros mots, radio, faut qu'on passe Au lieu d'un nique ta- non, non, j'dirai grand bien leur fasse Portefeuille achromate ne voit que violet, vert, ice J'suis dans la zone, rageux me suivent à la trace Comment faire pour tuer les haineux ? Juste en n'en parlant plus Ces faux rappeurs, non, font moins de vues qu'j'ai d'albums vendus Très sincèrement, si je m'en vais, je n'reviendrai plus B'soin d'explorer autre chose, me perdre dans le cosmos Ils parlèrent dans mon dos couvert de vêtements chers italiens Dans leur derrière, j'f'rai un don de quelques futurs homo sapiens J'suis l'avatar du game et j'maîtrise les quatre éléments J'rappe, je chante, j'produis, j'écris pour les gens Je sais comment faire pour tuer tes démons Comment faire pour tuer mes démons ? Démons, Dé-démons Comme un ange en enfer, j'oublie mon nom, eh-eh-eh No, no Si la magie opère, tous, ils tomberont, eh Ah bah ouais, ah bah ouais Comment faire pour tuer mes démons ? Tuer mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons, démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom Si la magie opère, tous, ils tomberont, oh-oh Comment faire pour tuer mes démons ? Tuer mes démons Hmm, hmm</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Colis</t>
+          <t>DEUX TOILES DE MER LIVE</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>La bitch m'a dit Damso J'm'en fous d'ta vie, j'veux du Dolfa Il a du style et du flow Il sait magner les mots, c't'un vrai négro Pas comme toi Mais c'que la bitch nous dit pas C'est que j'l'ai déjà fourrée deux fois ouais Une fois chez elle, une fois chez moi Ah non trois, la dernière fois chez Dolfa J'prends mon phone et je check, allô ? Dolfa ramène j'suis au Studio Y a une pétasse bien roulée qui n'arrête pas d'mouiller D'une nymphomane elle a tous les signes Mais c'que Dolfa nous dit pas C'est qu'il est à la Dolce Vita Une pizzeria du coin avec une grosse putain Ils font du sale dans les lettes-toi Allô, ouais Dolfa c'est Dems J'suis avec la bitch Elle attend qu'tu la ken depuis le mat', allô ? Elle ne veut pas de love, elle ne veut pas d'être seul J'l'amène chez toi j'la laisse sur l'matelas J'arrive ouais, j'suis en train d'bosser sur Fruity Loops Mets lui la main au panier j'viendrai la prendre dans no limit J'ai livré le colis j'ai livré le colis à Dolfa Une fille dévergondée malpolie J'ai livré le colis Dolfa va ken le colis Bonnasse, un gros cul bien joli J'ai livré le colis Dolfa tu ken ou tu ken pas ? All inclusive tant qu't'es au lit J'ai livré le colis Ken à la haine à la folie J'ai livré le colis j'ai livré le colis à Dolfa Une fille dévergondée malpolie J'ai livré le colis Dolfa va ken le colis Bonnasse, un gros cul bien joli J'ai livré le colis Dolfa tu ken ou tu ken pas ? All inclusive tant qu't'es au lit J'ai livré le colis Ken à la haine à la folie</t>
+          <t>- Bonjour papa. Aujourd'hui, j'ai vu des poissons. Ils s'appellent comment, leurs noms ? - Heu, les poissons clowns. Heu, les piranhas... - Des piranhas, on a vu des piranhas, on a vu des poissons, on a vu des, des escargots, on a vu des poissons et des requins et des hippo... Hein ? Des a... des toiles de mer aussi, des deux toiles de mer Doucement, doucement Ne joue pas avec mes nerfs et mes sentiments Jme sens déjà très mal car mon fils me manque Jsuis plus avec sa mère et les bitches le savent, pourtant, elles m'disent que j'ai changé Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même, jai changé Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même Jai perdu des proches, certains sont pas morts, ils ont juste fait les traîtres Faut pas lapprocher car cest juste pour les fesses Jai limpression que, rien, cest tout cquil me reste Quand la nuit sachève, jpars avec elle, jplane Dans les quatre directions comme Off-White Jprends la dernière ligne de ma deadline Ce sont les bouts de mon cur brisé qui blessent, quand on le touche, on y reste, Dems Doucement, doucement Ne joue pas avec mes nerfs et mes sentiments Jme sens déjà très mal car mon fils me manque Jsuis plus avec sa mère et les bitches le savent, pourtant, elles m'disent que j'ai changé Ouh Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même, jai changé Ouh Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même Tu sais le silence ne fait que cinq bruits, celui du regret, celui du pourquoi jlai pas fait ? Pourquoi jlai pas dit ? Pourquoi jvais taffer ? Celui du battement dcur qui nsarrête pas car il a quune seule vie Ouais, cest vrai que jpense un peu trop Parce que jveux pas être le même quhier Parce que jveux pas faire les mêmes erreurs Mettre ma carrière avant lamour, tu mas changé</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Cyclone</t>
+          <t>Dieu ne ment jamais (Live)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Mais qu'est-ce que c'est que ce carnage D-O-L-F-A toujours prêt pour le braquage De rime, c'est l'cyclone, crime pour les gnomes N'oublies pas ton accord parental si t'es un môme Okay, j'suis lancé, t'sais qu'tu peux plus m'stopper Un tel niveau d'hip-hop à BX c'est l'OPG Obligé de froisser tous les MC par cents T'étonnes pas man mais ton visage finira bien en sang Damso Dems ? Cyclone Big Smoke Dolfa D.R.O.P.S T'sais très bien que c'est les négros qui ne font pas de test OPG, unis dans la mort comme dans la vie Cesses de te croire supérieur on en a rien à foutre de ? Véritable j'viens du sud d'Kin, rival reste sur Terre La haine me trouve sublime, Katrina me succède Tu m'test, mec, j'te supprime, c'est Dems a.k. suprême Mon son est un supplice, les bitches sont pucelles J'veux du cash jusqu'à en crever, mais l'appendance ne nuit pas Au royaume des M.I.C. que les OPG sont rois J'vois ma vie sur un circuit et j'anticipe le virage Dans mon bateau tirant sur l'ennemi j'illumine le rivage Aucune rumeur sur Damso elle passe de glock à oreille J'suis pas d'humeur viens pas m'tester ou je te casserais l'orteil J'ai du cash, j'ai des go, qu'elles soient blanches, black ou ? J'finirais peut-être à la rue que si les routes sont en or OPGangsta2</t>
+          <t>Nan, Dieu ne ment jamais Pour être honnête, j'sais pas faire autrement, ma haine na pas su cicatriser La musique, j'l'aimais jusquà c'que j'sois dedans, contrats véreux veulent me faire signer Personne t'aimera comme moi m'a dit Maman, si c'n'est le joint que j'vais rouler Qui mfra oublier méchanceté d'ce monde ? Le diable et son fessier bien roulé Très loin des maisons de disques mais près de mon public avisé Très loin des vntes et des chiffrs mais près de la musicalité Regarde au-dssus, il n'y a plus de nuages, la pluie ne risque pas de tomber Regarde mon cur, il n'a plus de grillage mais personne ne risque d'y entrer Labsence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours J'les porte dans mon cur, ils me portent l'il, j'ai tué le game et j'ai fait le deuil Négro me dit qu'on est ensemble mais qu'en cas d'échec, j's'rai tout seul Sperme dans la bouche, elle aime le goût du risque, elle croit pas en moi mais veut être sur la liste J'ai qu'un seul amour, c'est la chanson, solitaire, j'n'ai pas d'besoin d'attention Je tire et je tue, tu meurs et c'est tout, t'avais qu'à fermer ta grande gueule Je tire et je fume, j'm'en vais sur la Lune, loin des perquis' à Argenteuil Esprit torturé, douleur intestinale, j'ai avalé méchanceté de l'Homme J'l'ai digéré, j'ai pris le bien du mal, j'me sens comme Adam juste avant la pomme L'absence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours À chaque fois qu'je sors sans prendre des sous, la vie me rappelle que je viens de loin Pique dans le dos tel le sombre hérisson, trahison sponso' par Louboutin J'serre plus de meufs que de mains, le genre masculin, je m'en méfie Trous écartés, genoux fléchis, biatch, j'connais d'jà fin du récit Enfermé dans cellule, je désaoule, j'reprends conscience de mes soucis Dans son vagin, je me défoule, à chaque je t'aime, je me détruis Pour elle, j'suis tout autre chose que Damso, elle voit en moi c'que je n'vois plus Métissé comme touche de piano, entre le vivre et le vécu J'fais un malaise eucharistique, j'suis entre sucré et salé Le diable se cache derrière l'artistique, pour milieu d'la musique, j'étais pas prêt La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours L'absence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours</t>
         </is>
       </c>
     </row>
@@ -3518,12 +3518,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Débrouillard (Remix)</t>
+          <t>Donne-moi ton co3ur</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Fais pas l'amour à une femme comme un homme La Bible dit qu'c'est une abomination Alors à chaque fois qu'je t'encule J'demande pardon au ciel pour faute dinattention Amen J'suis pas là pour faire la morale La morale a fait de moi c'que je suis devenu Ma vie s'inspire d'la SABAM Plus tu gagnes du blé, plus j'te baise sans retenue J'compte pas obtenir de diplôme Comme Dolfa, négro, pour moi la school c'est finished Vers le succès je marche, j'ai des ampoules aux pieds À chacun d'mes pas c't'un remake de Billie Jean Jackson La vie ne fait aucun cadeau Le Père Noël n'existe pas dans la rue Passeur avec des produits illégaux Les keufs t'attrapent, négro, tu n'm'as jamais vu John Doe Un gun, un flow, j'te tire dessus Et j'te transperce le dard J'vois jamais d'courses de spermato' Mais j'donne beaucoup de départs J'suis dans le Pacifique dit-on, je débite des proses et des vers Je suis un pacifiste quiconque me défie repose en paix Le silence est d'or donc chut, quand je t'encule ne crie pas J'veux entendre que le frottement des pores Et le bruit des mes grosses testicules sur ton 'uc Grosse pute, tu crois que t'es où là !? Toi et ta schnek, allez faire de la mula Ramène l'oseille à mes youvois J'n'ai aucun remord, t'es Sarah Connor Je suis Terminator dans ta tte-cha Schwarzy Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Ma fille si j'prends pour 10 ans ferme Ne noie pas ton chagrin dans du sperme Nager Va prendre le Glock dans la chambre de Papa Ensuite tu le donneras à tonton Dolfa Qui s'en servira contre la grosse lope-sa Et c'est seulement quand cette balance avouera Que tu lui diras de l'enculer de sorte à ce que plus jamais son trou se referme OPG déclasse leurs teams 'Vont chercher renfort en franc-maçonnerie Le sang remplace l'encre de Chine Le bruit de ta mort remplace ma sonnerie Allô Il n'y a rien de plus dangereux que la main tendue J'veux pas ton aide, évitons d'gros litiges Un cadeau empoisonné bien vendu Une mère porteuse séropositive Ils sont comme chaussures devant mosquée Sont recalés à l'entrée, vont devoir rentrer pioncer Yeurmé à vie, rien n'est nuancé J'te vois comme Jay Z voit Beyoncé Une salope que j'n'ai pas besoin de financer Un bustier en I qui se finit en C Gros cul Mes sons passent en club, t'es ambiancé Seuls les darons sont mes créanciers Ta meuf a un anneau dans le ventre Je l'ai doigtée au point que j'en suis passé entre In Autrement dit nous sommes fiancés Yes Balance j't'en prie va nous dénoncer ! Snitch T'façon les preuves sont déjà dissimulées Fais tout ce qui rémunère, le nègre est affamé Ne me demandez pas quelle est ma mission sur Terre J'suis débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais Demandez pas c'que je fais dans la vie J'suis fonce-dé avec 2-3 youvois du quartier J'fume un pilon sur l'toit de la ville Débrouillard à jamais, jamais, jamais Débrouillard à jamais, jamais, jamais Débrouillard à jamais</t>
+          <t>Donne, donne-moi ton coeur vide d'amour Pour combler le mien qui attend ton amour Allez donne, donne et ne dis rien Même si demain, tu dois le reprendre Donne, donne-moi le droit de t'enlacer Te serrer très fort et puis t'embrasser Allez donne donne et détends-toi Entre nous, pourquoi te défendre ? Ne prends pas je t'en supplie l'air étonné Ne fais pas semblant de ne pas savoir Tu sais, que j'attends un espoir, tu sais, ce dont je veux parler Aussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne, donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre mes bras Donne, donne-moi ton coeur et parle-moi Dis-moi simplement les mots qui sont en toi Allez dis, dis-moi doucement Presqu'en chuchotant ces mots à l'oreille Donne, donne-moi le droit à tes côtés De fermer les yeux afin de mieux rêver Allez dis, dis pour que ta voix S'infiltrant en moi, m'émerveille J'ai beau te parler, tu ne me réponds pas si c'est par excès de timidité Tu vois le plus dur est passé, tu vois j'ai fait le premier pas Aussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre</t>
         </is>
       </c>
     </row>
@@ -3535,12 +3535,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Démons (live orchestral)</t>
+          <t>Extrait*</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Jusqu'ici, tout va bien, enfin, ça allait Confiante, t'as peur de rien avant de tomber On verra bien demain, mais ça, plus jamais J'ai pas l'air de m'en faire, mais si vous saviez Comment c'est dans ma tête, ça me fait vriller L'angoisse me fait la guerre et part en fumée Jour après jour, je m'habitue À mes ennemis qui me tuent Et j'apprendrai toutes les vertus Oh, jour après jour, je m'habitue Quand j'en attends trop, j'suis déçue Mais grâce à ça, moi, j'évolue Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom, oh-oh Si la magie opère, tous, ils tomberont, hey Comment faire pour tuer mes démons ? Tuer mes démons Mes démons Ah bah ouais, mes démons Bah, ok Mes démons Ah bah ouais, mes démons Bah, ok Mes démons Ah bah ouais, mes démons Bah, ok Mes démons Bang, ah bah ouais J'feate avec Angèle, pas d'gros mots, radio, faut qu'on passe Au lieu d'un nique ta- non, non, j'dirai grand bien leur fasse Portefeuille achromate ne voit que violet, vert, ice J'suis dans la zone, rageux me suivent à la trace Comment faire pour tuer les haineux ? Juste en n'en parlant plus Ces faux rappeurs, non, font moins de vues qu'j'ai d'albums vendus Très sincèrement, si je m'en vais, je n'reviendrai plus B'soin d'explorer autre chose, me perdre dans le cosmos Ils parlèrent dans mon dos couvert de vêtements chers italiens Dans leur derrière, j'f'rai un don de quelques futurs homo sapiens J'suis l'avatar du game et j'maîtrise les quatre éléments J'rappe, je chante, j'produis, j'écris pour les gens Je sais comment faire pour tuer tes démons Comment faire pour tuer mes démons ? Démons, Dé-démons Comme un ange en enfer, j'oublie mon nom, eh-eh-eh No, no Si la magie opère, tous, ils tomberont, eh Ah bah ouais, ah bah ouais Comment faire pour tuer mes démons ? Tuer mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons, démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons, mes démons Si tu veux, j'le f'rai pour toi Mes démons, mes démons Mes démons Comment faire pour tuer mes démons ? Comme un ange en enfer, j'oublie mon nom Si la magie opère, tous, ils tomberont, oh-oh Comment faire pour tuer mes démons ? Tuer mes démons Hmm, hmm</t>
+          <t>Nwaar</t>
         </is>
       </c>
     </row>
@@ -3552,12 +3552,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DEUX TOILES DE MER LIVE</t>
+          <t>Freestyle Portes Ouvertes (FPO)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>- Bonjour papa. Aujourd'hui, j'ai vu des poissons. Ils s'appellent comment, leurs noms ? - Heu, les poissons clowns. Heu, les piranhas... - Des piranhas, on a vu des piranhas, on a vu des poissons, on a vu des, des escargots, on a vu des poissons et des requins et des hippo... Hein ? Des a... des toiles de mer aussi, des deux toiles de mer Doucement, doucement Ne joue pas avec mes nerfs et mes sentiments Jme sens déjà très mal car mon fils me manque Jsuis plus avec sa mère et les bitches le savent, pourtant, elles m'disent que j'ai changé Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même, jai changé Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même Jai perdu des proches, certains sont pas morts, ils ont juste fait les traîtres Faut pas lapprocher car cest juste pour les fesses Jai limpression que, rien, cest tout cquil me reste Quand la nuit sachève, jpars avec elle, jplane Dans les quatre directions comme Off-White Jprends la dernière ligne de ma deadline Ce sont les bouts de mon cur brisé qui blessent, quand on le touche, on y reste, Dems Doucement, doucement Ne joue pas avec mes nerfs et mes sentiments Jme sens déjà très mal car mon fils me manque Jsuis plus avec sa mère et les bitches le savent, pourtant, elles m'disent que j'ai changé Ouh Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même, jai changé Ouh Évidemment que jsuis pas le même quhier, évidemment que jsuis pas le même quhier Évidemment que jsuis plus le même Tu sais le silence ne fait que cinq bruits, celui du regret, celui du pourquoi jlai pas fait ? Pourquoi jlai pas dit ? Pourquoi jvais taffer ? Celui du battement dcur qui nsarrête pas car il a quune seule vie Ouais, cest vrai que jpense un peu trop Parce que jveux pas être le même quhier Parce que jveux pas faire les mêmes erreurs Mettre ma carrière avant lamour, tu mas changé</t>
+          <t>Damso motherfucker dems Yo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Yoo Voici le son qui tue, je compatis quand t'es battus Botté le cul, c'est OPG c'est plus que sûr Que le beat cogne comme une catapulte En tant qu'aldute fait pas ta pute Si j'tape le mic j'veux pas d'insulte Sinon Damso et son équipe vont te cogner dur comme des brutes Daaamn, Mais quel flow à l'excès Ils ont bloqué les portes j'men fou j'ai la clé du succès J'foutrais le boxon, avant d'me sauvr sans qu'il ait de soupçon Des MC dorment la bouch ouverte rêvant d'me sucer Trop de sursauts chaque fois qu'mon flow tabasse le micro Casser les vitraux, LS3 in vitro, ils s'disent trop Tous que, j'suis un p'tit négro Mais si j'les r'trouvent ils verront ma scie du Brico Pénétrer leurs thorax, logé dans le larynx sortir de la relax Revenir dans le pharynx rien a foutre des menaces Qu'tu sois balèze ou minces N'joue pas trop les tenace vu qu'tu fuiras comme Clarence C'est Damso motherfucker OPG Ça kick au scalpel rue du temps des MOP J'fais des polémiques, j'ai no limit, je kick débite Ta clique m'évite, très vite raplique Mes acolytes explosé comme des frigolite Cosmopolite j'suis d'partout et partout je fais du lourd J'suis hors de prix j'aurai pas d'billet sur ma tête comme Zemmour Des hurlements quand j'kick le mic' directement sur l'mur tu likes Mais qu'est ce que c'est ce flow qui vient de ce négro qui n'attends que les punchlines Oooouuuuuh Mais bon normalement c'est normal c'est l'minimum Pourquoi tu minimises comme Amine j'sortirai l'magnum Et boum badaboum dans la tête c'était l'auteur, interprète Damso motherfucker dems Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo DEMS1</t>
         </is>
       </c>
     </row>
@@ -3569,12 +3569,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Dieu ne ment jamais (Live)</t>
+          <t>.FUMÉE.ÉPAISSE.</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Nan, Dieu ne ment jamais Pour être honnête, j'sais pas faire autrement, ma haine na pas su cicatriser La musique, j'l'aimais jusquà c'que j'sois dedans, contrats véreux veulent me faire signer Personne t'aimera comme moi m'a dit Maman, si c'n'est le joint que j'vais rouler Qui mfra oublier méchanceté d'ce monde ? Le diable et son fessier bien roulé Très loin des maisons de disques mais près de mon public avisé Très loin des vntes et des chiffrs mais près de la musicalité Regarde au-dssus, il n'y a plus de nuages, la pluie ne risque pas de tomber Regarde mon cur, il n'a plus de grillage mais personne ne risque d'y entrer Labsence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours J'les porte dans mon cur, ils me portent l'il, j'ai tué le game et j'ai fait le deuil Négro me dit qu'on est ensemble mais qu'en cas d'échec, j's'rai tout seul Sperme dans la bouche, elle aime le goût du risque, elle croit pas en moi mais veut être sur la liste J'ai qu'un seul amour, c'est la chanson, solitaire, j'n'ai pas d'besoin d'attention Je tire et je tue, tu meurs et c'est tout, t'avais qu'à fermer ta grande gueule Je tire et je fume, j'm'en vais sur la Lune, loin des perquis' à Argenteuil Esprit torturé, douleur intestinale, j'ai avalé méchanceté de l'Homme J'l'ai digéré, j'ai pris le bien du mal, j'me sens comme Adam juste avant la pomme L'absence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours À chaque fois qu'je sors sans prendre des sous, la vie me rappelle que je viens de loin Pique dans le dos tel le sombre hérisson, trahison sponso' par Louboutin J'serre plus de meufs que de mains, le genre masculin, je m'en méfie Trous écartés, genoux fléchis, biatch, j'connais d'jà fin du récit Enfermé dans cellule, je désaoule, j'reprends conscience de mes soucis Dans son vagin, je me défoule, à chaque je t'aime, je me détruis Pour elle, j'suis tout autre chose que Damso, elle voit en moi c'que je n'vois plus Métissé comme touche de piano, entre le vivre et le vécu J'fais un malaise eucharistique, j'suis entre sucré et salé Le diable se cache derrière l'artistique, pour milieu d'la musique, j'étais pas prêt La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours L'absence de lumière fait qu'j'suis dans le noir On se dit frères parce qu'on fume quelques noix La méchanceté des hommes m'attriste beaucoup La voix des anges résonne moins qu'celle des vautours</t>
+          <t>Ouais, ouais, ouais, ouais, ouais Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine No, no Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine Sérré est le virage Virage, je poursuis le bonheur à la nage Nage Mon cur est plein de rage Rage, automatique est le pilotage Des amis et des ennemis 'mis, 'mis, 'mis, 'mis, 'mis La money, money qui divise, oui Oui, oui, oui, oui Parallèle est l'économie 'mie, 'mie, 'mie, 'mie Des délits commis après minuit Hey-hey La où le vent me mène, il n'y a que des problèmes 'blèmes, 'blèmes, 'blèmes Pour esquiver misère, j'ai créé mon emblème Kobo, Kobo, Kobo Je suis si loin des Bahamas dans les rues de Bruxelles City Je m'évade à Montparnasse dans ma chambre d'hôtel Eh-eh Fumée épaisse, seul dans la pièce Silence m'apaise, efface le stress Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine No, no Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine Ouh-ouh, eh-eh Fe-Fe, vaisseau, mojo, gue-dro, Dems, Nwaar, Kobo Plus dans le binks, plus dans le ghetto, cinq lettres pour cinq zéros, le show Oh oui Le négro a trouvé la taupe Rrah, le Magnum a troué la peau Bang, bang Tes fesses artisanales tapent le macadam, doggy, solide, OG, te-shi Pétasse ravie fuma trop vite, blackout, se souvient de rien Hein-hein Moula, shopping, cent mille, Fendi, Gucci, Balmain Hein-hein J'suis auprès de Dieu mais mon âme glisse entre ses mains Ouh-ouh Fumée épaisse, j'suis dans la caisse, négro fonce-dé Ppe-f' Ta meuf, j'en f'rai ma pute, faut pas présenter Biatch Mon avenir à la traîne, j'suis tout seul l'âme en peine, ouais De l'eau-de-vie dans les veines, j'parle que pour m'la raconter Ouh-ouh, eh-eh Fumée épaisse Eh, seul dans la pièce Silence m'apaise Eh, efface le stress Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine No, no Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine Ah1</t>
         </is>
       </c>
     </row>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Donne-moi ton co3ur</t>
+          <t>Harmonie du cœur</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Donne, donne-moi ton coeur vide d'amour Pour combler le mien qui attend ton amour Allez donne, donne et ne dis rien Même si demain, tu dois le reprendre Donne, donne-moi le droit de t'enlacer Te serrer très fort et puis t'embrasser Allez donne donne et détends-toi Entre nous, pourquoi te défendre ? Ne prends pas je t'en supplie l'air étonné Ne fais pas semblant de ne pas savoir Tu sais, que j'attends un espoir, tu sais, ce dont je veux parler Aussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne, donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre mes bras Donne, donne-moi ton coeur et parle-moi Dis-moi simplement les mots qui sont en toi Allez dis, dis-moi doucement Presqu'en chuchotant ces mots à l'oreille Donne, donne-moi le droit à tes côtés De fermer les yeux afin de mieux rêver Allez dis, dis pour que ta voix S'infiltrant en moi, m'émerveille J'ai beau te parler, tu ne me réponds pas si c'est par excès de timidité Tu vois le plus dur est passé, tu vois j'ai fait le premier pas Aussi, donne, donne-moi ton coeur pour y verser Le trop-plein d'amour que tu m'as inspiré Allez donne donne et tu verras ce que tu verras lorsque tu seras Mon amour ma joie, blottie tendrement entre</t>
+          <t>Page blanche 2024 1. Page blanche 2. A moi 3. Bottega 4. Mayday 5. Laissé tomber 6. Joli 7. Harmonie du cur 8. Du feu Ft. Damso 9. Memories 10. Shooter 11. 9h du mat 12. Seum 13. La scène</t>
         </is>
       </c>
     </row>
@@ -3603,12 +3603,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Extrait*</t>
+          <t>High*</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Nwaar</t>
+          <t>Orghh Damso, Damso ouais Pierre métallique sur la tempe, je tire Semi-automatique, sur la nuque j'ai la trique J'vais les niquer, fils de pute dans ma ligne de mire Orgh Damso, Damso ouais De rotule seul sur un simple rôde-t-il Chill avec ma team, vrai négro trop d'mélanine Pute de grosse salope à 1500 euros j'ai la bitch Suce ma motherfuck de black Suce ma motherfuck oh Un grand motherfucker glock, bang, motherfuck up Trop défoncé je me saoule, dpuis le mic je saigne Ds crampes aux poignées, douleur héreditaire à l'échelle Ah Damso, motherfucker Damso Trafic de , ma geule moi c'est poulet Controle musclé, plus besoin de faire du fitness Crie pas Amen, même si j'aime me faire prier Depuis Brouillard des likes et des j'aime, des scènes et des fans J'mets le cap sur océan de mots, dans bateau de punch-line Moi c'est Krisy ou bien De La Fuentes Ma tête en fond d'écran, j'sais que ta go sonries Fuentes J'viens pas de la province que quieres? mais j'vise le palmares du gars Morientes Fuentes Hola que tal?, flow rock'n'roll j'peux même rouiller le métal Et si tu veux faire un truc à distance t'inquiètes pas on s'arrange j'ai un nouveau compte PayPal Ma plume se rapproche de la lune, pendant que toi tu rêves d'être une vulgaire star Pas de problème on en reparlera plus tard D'ici là j'espère que tu garderas bien ton fut J'prépare c'que les belges ont jamais fait, donc Pour les français c'est du jamais-vu Mais pour l'instant rendez-vous le 9 mai, viens nous voir tu ne seras pas déçu Ramène tes copines1</t>
         </is>
       </c>
     </row>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Freestyle Portes Ouvertes (FPO)</t>
+          <t>Jackpot*</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Damso motherfucker dems Yo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Yoo Voici le son qui tue, je compatis quand t'es battus Botté le cul, c'est OPG c'est plus que sûr Que le beat cogne comme une catapulte En tant qu'aldute fait pas ta pute Si j'tape le mic j'veux pas d'insulte Sinon Damso et son équipe vont te cogner dur comme des brutes Daaamn, Mais quel flow à l'excès Ils ont bloqué les portes j'men fou j'ai la clé du succès J'foutrais le boxon, avant d'me sauvr sans qu'il ait de soupçon Des MC dorment la bouch ouverte rêvant d'me sucer Trop de sursauts chaque fois qu'mon flow tabasse le micro Casser les vitraux, LS3 in vitro, ils s'disent trop Tous que, j'suis un p'tit négro Mais si j'les r'trouvent ils verront ma scie du Brico Pénétrer leurs thorax, logé dans le larynx sortir de la relax Revenir dans le pharynx rien a foutre des menaces Qu'tu sois balèze ou minces N'joue pas trop les tenace vu qu'tu fuiras comme Clarence C'est Damso motherfucker OPG Ça kick au scalpel rue du temps des MOP J'fais des polémiques, j'ai no limit, je kick débite Ta clique m'évite, très vite raplique Mes acolytes explosé comme des frigolite Cosmopolite j'suis d'partout et partout je fais du lourd J'suis hors de prix j'aurai pas d'billet sur ma tête comme Zemmour Des hurlements quand j'kick le mic' directement sur l'mur tu likes Mais qu'est ce que c'est ce flow qui vient de ce négro qui n'attends que les punchlines Oooouuuuuh Mais bon normalement c'est normal c'est l'minimum Pourquoi tu minimises comme Amine j'sortirai l'magnum Et boum badaboum dans la tête c'était l'auteur, interprète Damso motherfucker dems Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo Damso dems, Damso damsoooo DEMS1</t>
+          <t>Yo, uh woooo!! I like this, hit that light for me Yeah woooo!! My nigga 'troeze, Patroeze Yo, yo, yo Yo, we lost niggas, pour liquor that's more swishers We known for lettin' 'em go, call us the four fifthers Run up in ya spot, they call us the door kickers Or we can have a party just as long as there's whores with us We can do it big, jet skis and four wheelers Pop a couple Spades, I might let you ball with us Hit a couple stings, nothin' personal, raw bid'ness Built my name up, and now I'm on verses with raw niggas I be lettin' off, and know myself I'll probably bet it all bet it all Ya bitch crib, I get my nut and then I'm jettin' off SKRRT! Ya bitch don't respect you to me that says it all I sold a little everything, I think I bled it all, I bled it all I'm prayin' for my niggas sellin' Fentanyl I said a prayer to my niggas And rest in peace to all my niggas dead and gone dead and gone Yeah, The Butcher comin', nigga I said rest in peace to all my niggas Look, I get dressed, put on my shoes, nah my hammer was first Bulletproof the whip I use to take my grandma to church I went gram for gram with the work, hand-to-hand on the first Everybody who hatin' now was a fan of us first facts Look, underdog, what? what? What you wanna bet? Let's put a hunnid more up Nigga, the summer all us I'm in two whips, one a Tahoe, one a tour bus Got so many straps with us, we can start a war up It's a real safe hazard if you still yay traffick Show where that money comin' from, still pay taxes The IRS comin', and they seal fate faster Start a bid'ness in the building that you still make racks in I learnt from my losses, stripes I earnt from the bosses Whippin' deuces 'til them hoopties turned into Porsches I curve bitches often, lies, I heard bitches talkin' How she mines, I send a text back, these bird bitches stalkin' You gotta be careful, these hoes think they fancy I just want my dick sucked, she wanna start a family She average, get her taxes and go to Miami With this kind of status, I'll probably go to the Grammy's aaow! I know niggas hate me, I came out the trenches trenches On some new shit, but some way sounded vintage uh Paypal or credit, send that cake ? I will I'm the real definition how you stay down and get it I be the next Nasir, if they judged us off skill Got ya bitch in the middle, Times Square, Lauryn Hill Told her my phone was dead, she wrote her number on a bill Off-white paint on my jacket look like a spill Niggas played last year, but watch the price shoot up All black entourage dressed just like shooters You spend ya life with her, me, I gave a night to her 'Cause Drake told these bitches they don't gotta be nice to us Thousand grams on the plate that's what my preference was So I had interviews with connects, and not The Breakfast Club Facts, he told me 26, it was 30 before that I hurried and score that, you was dirty before rap, nigga, AHH! Black Soprano niggas tie you up The-The-The Butcher Black Soprano niggas tie you up That's word to my Butcher Black Soprano niggas, Black Soprano niggas Black Soprano niggas tie you up Black Soprano niggas tie you up Got another bag to go get out in Belize Black-black-black-black-black-black I got another bag to go get Black Soprano niggas tie you up I-I-I-I got another bag to go get The-the-the-the-the 40 on my hip as I ?</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3637,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>.FUMÉE.ÉPAISSE.</t>
+          <t>Joli</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Ouais, ouais, ouais, ouais, ouais Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine No, no Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine Sérré est le virage Virage, je poursuis le bonheur à la nage Nage Mon cur est plein de rage Rage, automatique est le pilotage Des amis et des ennemis 'mis, 'mis, 'mis, 'mis, 'mis La money, money qui divise, oui Oui, oui, oui, oui Parallèle est l'économie 'mie, 'mie, 'mie, 'mie Des délits commis après minuit Hey-hey La où le vent me mène, il n'y a que des problèmes 'blèmes, 'blèmes, 'blèmes Pour esquiver misère, j'ai créé mon emblème Kobo, Kobo, Kobo Je suis si loin des Bahamas dans les rues de Bruxelles City Je m'évade à Montparnasse dans ma chambre d'hôtel Eh-eh Fumée épaisse, seul dans la pièce Silence m'apaise, efface le stress Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine No, no Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine Ouh-ouh, eh-eh Fe-Fe, vaisseau, mojo, gue-dro, Dems, Nwaar, Kobo Plus dans le binks, plus dans le ghetto, cinq lettres pour cinq zéros, le show Oh oui Le négro a trouvé la taupe Rrah, le Magnum a troué la peau Bang, bang Tes fesses artisanales tapent le macadam, doggy, solide, OG, te-shi Pétasse ravie fuma trop vite, blackout, se souvient de rien Hein-hein Moula, shopping, cent mille, Fendi, Gucci, Balmain Hein-hein J'suis auprès de Dieu mais mon âme glisse entre ses mains Ouh-ouh Fumée épaisse, j'suis dans la caisse, négro fonce-dé Ppe-f' Ta meuf, j'en f'rai ma pute, faut pas présenter Biatch Mon avenir à la traîne, j'suis tout seul l'âme en peine, ouais De l'eau-de-vie dans les veines, j'parle que pour m'la raconter Ouh-ouh, eh-eh Fumée épaisse Eh, seul dans la pièce Silence m'apaise Eh, efface le stress Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine No, no Fumée épaisse Eh, seul dans la pièce Eh-eh Silence m'apaise Eh, efface le stress Eh-eh Chacune de mes pensées me tient en éveil Oh oui, oh oui, oh oui La vie n'est pas censée causer tant de peine Ah1</t>
+          <t>Lorsque je tais jeunette, je gardais les moutons Tirouli, tiroula, tirouli, tiroulou Tirouli, tiroula, tirouli, rouli, roule Ntais jamais seulette songer par les monts Tirouli... Mais d'autres bergerettes avec moi devisalent Tirouli... Parfois de sa musette un berger nous charmait Tirouli... Il nous faisait des rondes, joli rondes d'amour Tirouli... Mais me voil vieille, reste seule toujours Tirouli !</t>
         </is>
       </c>
     </row>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Harmonie du cœur</t>
+          <t>JTC (Solo Demo)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Page blanche 2024 1. Page blanche 2. A moi 3. Bottega 4. Mayday 5. Laissé tomber 6. Joli 7. Harmonie du cur 8. Du feu Ft. Damso 9. Memories 10. Shooter 11. 9h du mat 12. Seum 13. La scène</t>
+          <t>Car à tout heure J'ai pas le temps je dois faire pèpère Sinon AR undertaker Je suis moi même comme un autre Je suis dans le doute Je suis dans le Reckeur Garçon pourquoi tant de noirceur? Je suis le fini dans l'infini Nwar Lior, salopes, moula, voici ce pourquoi je vis T'es là, tu craques comme un goujat Gros c'est je en Grognasse jignore ce que tu fous là Victoire d'la musique aussi Dems Ça parle beaucoup trop, mais ça agit peu souvent nwaar J'ai l'coup d'poing vitreux quand j'te l'mets, c'est contusion sale J'aime pas tous ces négros qui parlent en Si si la family no Jamais, tu connais oh oui Jamais, tu connais oh oui J'aime pas tous ces négros qui parlent en Si si la family Hey The vie sinon quelle vie Loin des yeux, près de la chatte, séparée par bite endurcie Avant qu'j'te ken, tu recules aussi Ça vient d'partout comme couteau suisse J'baise pas de bitch j'suis un gros following Compte certifié, j'prend pas de risque Je fais des promesses que j'ne tiens pas, no J'donne des rdv mais j'viens pas, no J'te mets des doigts mais j'te baise pas, no En gros, c'que j'aime, c'est que j't'aime pas, no J'parle de bite, de schnek, de pute que j'baise, de weed qui m'déf' m'en fou si t'aimes pas, no J'suis au studio avec Juelz, j'cite son blase même si je sais que tu connais même pas, no On n'est pas cousin ta daronne, j'l'appelle tantine par respect pour la ronne-da donc Fais pas genre Damso, c'est le sang, c'est la mif, c'est le... hey, gros on s'connait même pas, no</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>High*</t>
+          <t>Kalash &amp; Damso (Extrait Nwaar)*</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Orghh Damso, Damso ouais Pierre métallique sur la tempe, je tire Semi-automatique, sur la nuque j'ai la trique J'vais les niquer, fils de pute dans ma ligne de mire Orgh Damso, Damso ouais De rotule seul sur un simple rôde-t-il Chill avec ma team, vrai négro trop d'mélanine Pute de grosse salope à 1500 euros j'ai la bitch Suce ma motherfuck de black Suce ma motherfuck oh Un grand motherfucker glock, bang, motherfuck up Trop défoncé je me saoule, dpuis le mic je saigne Ds crampes aux poignées, douleur héreditaire à l'échelle Ah Damso, motherfucker Damso Trafic de , ma geule moi c'est poulet Controle musclé, plus besoin de faire du fitness Crie pas Amen, même si j'aime me faire prier Depuis Brouillard des likes et des j'aime, des scènes et des fans J'mets le cap sur océan de mots, dans bateau de punch-line Moi c'est Krisy ou bien De La Fuentes Ma tête en fond d'écran, j'sais que ta go sonries Fuentes J'viens pas de la province que quieres? mais j'vise le palmares du gars Morientes Fuentes Hola que tal?, flow rock'n'roll j'peux même rouiller le métal Et si tu veux faire un truc à distance t'inquiètes pas on s'arrange j'ai un nouveau compte PayPal Ma plume se rapproche de la lune, pendant que toi tu rêves d'être une vulgaire star Pas de problème on en reparlera plus tard D'ici là j'espère que tu garderas bien ton fut J'prépare c'que les belges ont jamais fait, donc Pour les français c'est du jamais-vu Mais pour l'instant rendez-vous le 9 mai, viens nous voir tu ne seras pas déçu Ramène tes copines1</t>
+          <t>Essaie pas de me voir Voir J'parle en euros, t'parles en shiling Shiling Trop de choses me font du tare Tare Pour la blanche et pour la daronne Dems Pirate,</t>
         </is>
       </c>
     </row>
@@ -3688,12 +3688,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Jackpot*</t>
+          <t>Kimbo</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Yo, uh woooo!! I like this, hit that light for me Yeah woooo!! My nigga 'troeze, Patroeze Yo, yo, yo Yo, we lost niggas, pour liquor that's more swishers We known for lettin' 'em go, call us the four fifthers Run up in ya spot, they call us the door kickers Or we can have a party just as long as there's whores with us We can do it big, jet skis and four wheelers Pop a couple Spades, I might let you ball with us Hit a couple stings, nothin' personal, raw bid'ness Built my name up, and now I'm on verses with raw niggas I be lettin' off, and know myself I'll probably bet it all bet it all Ya bitch crib, I get my nut and then I'm jettin' off SKRRT! Ya bitch don't respect you to me that says it all I sold a little everything, I think I bled it all, I bled it all I'm prayin' for my niggas sellin' Fentanyl I said a prayer to my niggas And rest in peace to all my niggas dead and gone dead and gone Yeah, The Butcher comin', nigga I said rest in peace to all my niggas Look, I get dressed, put on my shoes, nah my hammer was first Bulletproof the whip I use to take my grandma to church I went gram for gram with the work, hand-to-hand on the first Everybody who hatin' now was a fan of us first facts Look, underdog, what? what? What you wanna bet? Let's put a hunnid more up Nigga, the summer all us I'm in two whips, one a Tahoe, one a tour bus Got so many straps with us, we can start a war up It's a real safe hazard if you still yay traffick Show where that money comin' from, still pay taxes The IRS comin', and they seal fate faster Start a bid'ness in the building that you still make racks in I learnt from my losses, stripes I earnt from the bosses Whippin' deuces 'til them hoopties turned into Porsches I curve bitches often, lies, I heard bitches talkin' How she mines, I send a text back, these bird bitches stalkin' You gotta be careful, these hoes think they fancy I just want my dick sucked, she wanna start a family She average, get her taxes and go to Miami With this kind of status, I'll probably go to the Grammy's aaow! I know niggas hate me, I came out the trenches trenches On some new shit, but some way sounded vintage uh Paypal or credit, send that cake ? I will I'm the real definition how you stay down and get it I be the next Nasir, if they judged us off skill Got ya bitch in the middle, Times Square, Lauryn Hill Told her my phone was dead, she wrote her number on a bill Off-white paint on my jacket look like a spill Niggas played last year, but watch the price shoot up All black entourage dressed just like shooters You spend ya life with her, me, I gave a night to her 'Cause Drake told these bitches they don't gotta be nice to us Thousand grams on the plate that's what my preference was So I had interviews with connects, and not The Breakfast Club Facts, he told me 26, it was 30 before that I hurried and score that, you was dirty before rap, nigga, AHH! Black Soprano niggas tie you up The-The-The Butcher Black Soprano niggas tie you up That's word to my Butcher Black Soprano niggas, Black Soprano niggas Black Soprano niggas tie you up Black Soprano niggas tie you up Got another bag to go get out in Belize Black-black-black-black-black-black I got another bag to go get Black Soprano niggas tie you up I-I-I-I got another bag to go get The-the-the-the-the 40 on my hip as I ?</t>
+          <t>Yeah Hun Hum Damso Yeah Damso Wouh Hum Yeah Développé couché Kimbo Acier, barillet Kimbo Torse large, gros pectoraux Ah One to one, 100 kilos grammes Kimbo Rah Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Hun Traction, abdominaux Hun, akimbo Slice, slice Kimbo Hun hun hun Kimbo Dolfa, Dolfa Kimbo Hun hun hun Kimbo Damso, Damso Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Traction, abdominaux, akimbo Hâte de comprendre, comme dans God of War ??? J'te donne coup de tête, gilette, si tu fais le ouar Pah, pah Fuck ton crew, fuck Dracula, moi, je casse des cous ??? Assume tes couilles Quoi ?, malo, malo, peut importe ton clan, tu seras rué de coups, oh Kimbo D.A.M.S.O, D.O.L.F.A, tout péter Quoi ? C'est T.R.O.P.F.A.C.I.L.E, venus pour achever ??? Du liquide rempli mon re-ver T'es pas d'accord, tu donnes ton revers Je n'ai toujours pas vu la lumière Une âme remplace ma lampe de chevet Rah La violence Violence, dis moi ce que t'en penses Quoi ? C'est marrant Dis, après une gifle Dis tout mes ennemis Dis deviennent en trans' Quoi ? Ah -Kimbo, Kimbo, tu veux te battre faut qu't'aies le niveau Tu chauffes le négro, Viens puis, quand il se manifeste Viens, tu renonces, comme la plupart d'mes rivaux Pah pah pah pah Kimbo Racontes pas tes salades, ou j'ajoute mes patates Développé couché, Thor, mon niso, jusqu'à qu'tes muscles éclatent Kimbo Canon 357 sur le cul Rah de ta wife OG J'mourrais pas, comme Tupac, j'fais juste ma thug life Développé couché Kimbo Acier, barillet Kimbo Torse large, gros pectoraux Ah One to one, 100 kilos grammes Kimbo Rah Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Hun Traction, abdominaux Hun, akimbo Slice, slice Kimbo Hun hun hun Kimbo Dolfa, Dolfa Kimbo Hun hun hun Kimbo Damso, Damso Kimbo Yeah Peh peh peh peh Kimbo Putain D.O.L.F.A, D.A.M.S.O Yo Traction abdominaux, akimbo Putain Trace de sperme au touché rectal, pute, t'en veux toujours trop Toujours trop Tu vas à la salle, tu pousses que dal, négro, t'es toujours gros Toujours gros Dégradé, renoi, locks ou crâne chauve comme Ne-Yo Oh oh Comme Ne-Yo J'baise une grosse pute, chinoise, Black Yellow Pétasse Poséidon Oh ouais?, pas plus haut qu'mes chevillières No No J'suis sur la toile, négro, sors le costard, le game dort sur la civière Rah Rah Il n'y a que quand la moula Moula tombe du ciel que je fais la hola ??? Joyaux du peu-ra, , O.P. Gangster, Pah pah pah pah Money in the bank Bank Par le trafic de weed Weed Bédo sur les lèvres de mes négros Ça fume et ça tise, taffe la vocalise Rah, rah, rah, rah J'passe la douane aucun ienchs ne flairent No Kilo d'coke sur la chambre à air ??? T.H.C brouille le globe oculaire Hun J'lui crache tellement dessus qu'j'ai des 'blèmes urinaires Sku, sku, sku Pétasse Bordel de merde Merde Suce ma bite, avale mon me-sper Eh Tout un tas d'bitch dans l'game Sortez les chrysanthèmes Oh Butez ces boulets d'fonctionnaires Rah Motha fucka let's go Ok, oh, oh Oh, oh Embrouille avec des négros Wouh Dolfa Torse large plus gros dorsaux J't'encule recto-verso Flow Développé couché Kimbo Acier, barillet Kimbo Torse large, gros pectoraux Ah One to one, 100 kilos grammes Kimbo Rah Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Hun Traction abdominaux Hun Kimbo Slice, slice Kimbo Hun hun hun Kimbo Dolfa, Dolfa Kimbo Hun hun hun Kimbo Damso, Damso Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Traction abdominaux, akimbo -kimbo, -kimbo, -kimbo</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Joli</t>
+          <t>La carte blanche de Damso</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Lorsque je tais jeunette, je gardais les moutons Tirouli, tiroula, tirouli, tiroulou Tirouli, tiroula, tirouli, rouli, roule Ntais jamais seulette songer par les monts Tirouli... Mais d'autres bergerettes avec moi devisalent Tirouli... Parfois de sa musette un berger nous charmait Tirouli... Il nous faisait des rondes, joli rondes d'amour Tirouli... Mais me voil vieille, reste seule toujours Tirouli !</t>
+          <t>Y a vingt-quatre heures dans un jour, yeah Y a vingt-quatre heures dans un jour et le jour se lève avant six heures du matin Se couche après six heures du soir, quand j'me lève pour bosser jusqu'au p'tit matin J'dors peu, j'ai plus b'soin de rêves, j'dors peu, j'ai plus b'soin de rêves L'oreiller me voit autant de fois qu'les yeux de mon gosse, c't'a dire peu souvent car trop souvent, j'suis absent de moi-même Nurofen dans les veines, sur la scène, j't'ai vue tapie dans robe rouge, on a ken On s'est déshabillé pour les mêmes raisons, quelques frissons à répétition, jusqu'à scission du réel Ma chair dans la sienne faisant les mêmes mouvements que l'on doit faire pour faire des enfants C'que j'essaye de dire, c'est qu'j'sais pas quoi dire d'autre à part c'qu'on doit dire quand on s'connait pas vraiment Salut, ça va ? Moi, c'est Damso, j'me présente car jusqu'à présent, j'connais pas ton prénom La vie, c'est simple et compliqué car c'est c'que j'pense que t'es qui s'ra ton identité pour moi Pareil pour toi, vis-à-vis d'moi, quand on y pense, j'pense qu'on s'connaitra jamais vraiment Quand tu dis qu'tu couches pas l'premier soir, sache que l'centième soir, j's'rai pas si différent Forcé par le forcément qui s'installe à chaque début d'discussions, tout ça parce qu'on l'a fait On s'éloigne parce qu'on s'dit Je t'aime, on s'éloigne parce qu'on s'dit Je t'aime sans vraiment savoir c'que c'est L'autre pense qu'elle le pense mais son ex est dans sa tête, malgré qu'j'ai ma bite dans sa schneck Et c'est dans sa schneck que j'ai compris qu'ma bite et mon être, sont qu'une location pour elle Au prix de quelques mots doux Love you, tout ça, j'ai cru voir dans ses draps c'que j'voulais voir dans ses bras, l'amour Intensément, je me goure, sans sentiments, j'fais la cour, jamais le jour, que la nuit Parole de sourds cherchant l'ouïe, chez l'autre pour un oui et un non Forcément, je me mens, je lui mens, conclusion, je nous mens en même temps, donc finalement, c'est mort</t>
         </is>
       </c>
     </row>
@@ -3722,12 +3722,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>JTC (Solo Demo)</t>
+          <t>Laisse tomber</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Car à tout heure J'ai pas le temps je dois faire pèpère Sinon AR undertaker Je suis moi même comme un autre Je suis dans le doute Je suis dans le Reckeur Garçon pourquoi tant de noirceur? Je suis le fini dans l'infini Nwar Lior, salopes, moula, voici ce pourquoi je vis T'es là, tu craques comme un goujat Gros c'est je en Grognasse jignore ce que tu fous là Victoire d'la musique aussi Dems Ça parle beaucoup trop, mais ça agit peu souvent nwaar J'ai l'coup d'poing vitreux quand j'te l'mets, c'est contusion sale J'aime pas tous ces négros qui parlent en Si si la family no Jamais, tu connais oh oui Jamais, tu connais oh oui J'aime pas tous ces négros qui parlent en Si si la family Hey The vie sinon quelle vie Loin des yeux, près de la chatte, séparée par bite endurcie Avant qu'j'te ken, tu recules aussi Ça vient d'partout comme couteau suisse J'baise pas de bitch j'suis un gros following Compte certifié, j'prend pas de risque Je fais des promesses que j'ne tiens pas, no J'donne des rdv mais j'viens pas, no J'te mets des doigts mais j'te baise pas, no En gros, c'que j'aime, c'est que j't'aime pas, no J'parle de bite, de schnek, de pute que j'baise, de weed qui m'déf' m'en fou si t'aimes pas, no J'suis au studio avec Juelz, j'cite son blase même si je sais que tu connais même pas, no On n'est pas cousin ta daronne, j'l'appelle tantine par respect pour la ronne-da donc Fais pas genre Damso, c'est le sang, c'est la mif, c'est le... hey, gros on s'connait même pas, no</t>
+          <t>Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe Oui Rends-moi les clés, jai plus envie dte parler Rien que tu cries et cest tous les jours pareil Mais quand je ramène le biffe, tu parles plus, tu sais parer Pourtant tétait préparé, mais aujourdhui tes plus pareil Je te lai dit, entre toi et moi, il ny a personne Et je te présente une amie, et tu me demandes si je la baise oh non Tu dis qu tes mal, est ce qu tu serais mieux, avec un autre homme Tu sais que je suis là, quand tes dans le mal, quand il y a personne Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien, mais jpeux pas Si je te demande ta main, cest pour que tu tiennes le bangala Laisse tomber les bail damour, demande pas de câlin Si tu pleures cest ta faute, faute avoue Jpourrais pas guérir ta peine de cur Coulé, coulé, coulé, sèche tes larmes Mais la belle, coucher avec moi tu voulais Tu mas dit boy soit ma bette Je tai eu sans tour de magie Sans avoir la baguette dHarry Poter Pas attendre quon arrive au tel-ho Conclusion RIP banquette arrière Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Kalash &amp; Damso (Extrait Nwaar)*</t>
+          <t>Laissé tomber</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Essaie pas de me voir Voir J'parle en euros, t'parles en shiling Shiling Trop de choses me font du tare Tare Pour la blanche et pour la daronne Dems Pirate,</t>
+          <t>Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe Oui Rends-moi les clés, jai plus envie dte parler Rien que tu cries et cest tous les jours pareil Mais quand je ramène le biffe, tu parles plus, tu sais parer Pourtant tétait préparé, mais aujourdhui tes plus pareil Je te lai dit, entre toi et moi, il ny a personne Et je te présente une amie, et tu me demandes si je la baise oh non Tu dis qu tes mal, est ce qu tu serais mieux, avec un autre homme Tu sais que je suis là, quand tes dans le mal, quand il y a personne Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien, mais jpeux pas Si je te demande ta main, cest pour que tu tiennes le bangala Laisse tomber les bail damour, demande pas de câlin Si tu pleures cest ta faute, faute avoue Jpourrais pas guérir ta peine de cur Coulé, coulé, coulé, sèche tes larmes Mais la belle, coucher avec moi tu voulais Tu mas dit boy soit ma bette Je tai eu sans tour de magie Sans avoir la baguette dHarry Poter Pas attendre quon arrive au tel-ho Conclusion RIP banquette arrière Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe</t>
         </is>
       </c>
     </row>
@@ -3756,12 +3756,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Kimbo</t>
+          <t>Lancer d’javelot*</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Yeah Hun Hum Damso Yeah Damso Wouh Hum Yeah Développé couché Kimbo Acier, barillet Kimbo Torse large, gros pectoraux Ah One to one, 100 kilos grammes Kimbo Rah Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Hun Traction, abdominaux Hun, akimbo Slice, slice Kimbo Hun hun hun Kimbo Dolfa, Dolfa Kimbo Hun hun hun Kimbo Damso, Damso Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Traction, abdominaux, akimbo Hâte de comprendre, comme dans God of War ??? J'te donne coup de tête, gilette, si tu fais le ouar Pah, pah Fuck ton crew, fuck Dracula, moi, je casse des cous ??? Assume tes couilles Quoi ?, malo, malo, peut importe ton clan, tu seras rué de coups, oh Kimbo D.A.M.S.O, D.O.L.F.A, tout péter Quoi ? C'est T.R.O.P.F.A.C.I.L.E, venus pour achever ??? Du liquide rempli mon re-ver T'es pas d'accord, tu donnes ton revers Je n'ai toujours pas vu la lumière Une âme remplace ma lampe de chevet Rah La violence Violence, dis moi ce que t'en penses Quoi ? C'est marrant Dis, après une gifle Dis tout mes ennemis Dis deviennent en trans' Quoi ? Ah -Kimbo, Kimbo, tu veux te battre faut qu't'aies le niveau Tu chauffes le négro, Viens puis, quand il se manifeste Viens, tu renonces, comme la plupart d'mes rivaux Pah pah pah pah Kimbo Racontes pas tes salades, ou j'ajoute mes patates Développé couché, Thor, mon niso, jusqu'à qu'tes muscles éclatent Kimbo Canon 357 sur le cul Rah de ta wife OG J'mourrais pas, comme Tupac, j'fais juste ma thug life Développé couché Kimbo Acier, barillet Kimbo Torse large, gros pectoraux Ah One to one, 100 kilos grammes Kimbo Rah Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Hun Traction, abdominaux Hun, akimbo Slice, slice Kimbo Hun hun hun Kimbo Dolfa, Dolfa Kimbo Hun hun hun Kimbo Damso, Damso Kimbo Yeah Peh peh peh peh Kimbo Putain D.O.L.F.A, D.A.M.S.O Yo Traction abdominaux, akimbo Putain Trace de sperme au touché rectal, pute, t'en veux toujours trop Toujours trop Tu vas à la salle, tu pousses que dal, négro, t'es toujours gros Toujours gros Dégradé, renoi, locks ou crâne chauve comme Ne-Yo Oh oh Comme Ne-Yo J'baise une grosse pute, chinoise, Black Yellow Pétasse Poséidon Oh ouais?, pas plus haut qu'mes chevillières No No J'suis sur la toile, négro, sors le costard, le game dort sur la civière Rah Rah Il n'y a que quand la moula Moula tombe du ciel que je fais la hola ??? Joyaux du peu-ra, , O.P. Gangster, Pah pah pah pah Money in the bank Bank Par le trafic de weed Weed Bédo sur les lèvres de mes négros Ça fume et ça tise, taffe la vocalise Rah, rah, rah, rah J'passe la douane aucun ienchs ne flairent No Kilo d'coke sur la chambre à air ??? T.H.C brouille le globe oculaire Hun J'lui crache tellement dessus qu'j'ai des 'blèmes urinaires Sku, sku, sku Pétasse Bordel de merde Merde Suce ma bite, avale mon me-sper Eh Tout un tas d'bitch dans l'game Sortez les chrysanthèmes Oh Butez ces boulets d'fonctionnaires Rah Motha fucka let's go Ok, oh, oh Oh, oh Embrouille avec des négros Wouh Dolfa Torse large plus gros dorsaux J't'encule recto-verso Flow Développé couché Kimbo Acier, barillet Kimbo Torse large, gros pectoraux Ah One to one, 100 kilos grammes Kimbo Rah Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Hun Traction abdominaux Hun Kimbo Slice, slice Kimbo Hun hun hun Kimbo Dolfa, Dolfa Kimbo Hun hun hun Kimbo Damso, Damso Kimbo Peh peh peh peh Kimbo D.O.L.F.A, D.A.M.S.O Traction abdominaux, akimbo -kimbo, -kimbo, -kimbo</t>
+          <t>La violence... Ma semence... Dems Batterie Faible c'était hier, j'me sens mort, pourquoi je fais le Vie J'ai perdu ce putain d'chargeur, j'n'ai plus de joie dans ma vie La lumière est mon fils, mes sentiments réduit à la pisse J'aimais l'Histoire, mais la majuscule a fini par disparaître. Dems Mais... Maiiiis Dems Nique sa mère j'suis là pour niquer l'ambiance Ni-ni-nique l'ambiance Tu pleures ouais j'm'en carence Ni-ni-nique l'ambiance Ma bite c'est le lancer d'javelot Fini la réflexion, j'suis né pour niquer des mères Tu te dit père, tu connais même pas ta grammaire T'as 40 piges mais tu piges pas qu'il faut que tu te tailles Les hommes reçoivent des nudes, les mioches, eux des hentais Tes lunettes sont plus grosse que toi, tu vois même pas ce que tu suce ? Fais l'malin, t'es dans le rap depuis hier, mes poings sur ta chose d'excuse. Dems Ton nom est le plus grand, c'est vrai, mais t'es une minuscule Du lait et des céréales, mon sperme se marient à tes pellicules Vous jouez tous avec vos doigts, j'la doigte en faisant des Vie. Dems J'essaye d'pas la mettre enceinte, j'crois que c'est un bon défi. Dems Marc Dorcel, j'm'en lasse. J'm'oriente plus vers Teletoon. Dems Ne perdons pas de temps déshabille toi c'est une belle foufoune. De-de-de-dems Ni-ni-nique l'ambiance Tu pleures ouais j'm'en carence Ni-ni-nique l'ambiance Ma bite c'est le lancer d'javelot -Damso... Oh oui... -Ta gueule... -Damso plus fort ! -Réveille pas ton mari... En adultère H24, j'prend des rides à chaque teuch J'aiguise ma bite avec sa bouche, pour après lui couper les veuchs J'te laisse un bout d'son point G. Pfff L'assiette c'est toi qui va laver. Ouais Illusion d'optique, pour une Otaku, j'suis Roronoa Trois sabre avec au bout deux grosses noix J'vais feat avec ton ennemi pour que t'aboies Mais ouvre pas ta gueule longtemps avant que tu le bois. Dems Ni-ni-nique l'ambiance Tu pleures ouais j'm'en carence Ni-ni-nique l'ambiance Ma bite c'est le lancer d'javelot2</t>
         </is>
       </c>
     </row>
@@ -3773,12 +3773,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>La carte blanche de Damso</t>
+          <t>La scene</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Y a vingt-quatre heures dans un jour, yeah Y a vingt-quatre heures dans un jour et le jour se lève avant six heures du matin Se couche après six heures du soir, quand j'me lève pour bosser jusqu'au p'tit matin J'dors peu, j'ai plus b'soin de rêves, j'dors peu, j'ai plus b'soin de rêves L'oreiller me voit autant de fois qu'les yeux de mon gosse, c't'a dire peu souvent car trop souvent, j'suis absent de moi-même Nurofen dans les veines, sur la scène, j't'ai vue tapie dans robe rouge, on a ken On s'est déshabillé pour les mêmes raisons, quelques frissons à répétition, jusqu'à scission du réel Ma chair dans la sienne faisant les mêmes mouvements que l'on doit faire pour faire des enfants C'que j'essaye de dire, c'est qu'j'sais pas quoi dire d'autre à part c'qu'on doit dire quand on s'connait pas vraiment Salut, ça va ? Moi, c'est Damso, j'me présente car jusqu'à présent, j'connais pas ton prénom La vie, c'est simple et compliqué car c'est c'que j'pense que t'es qui s'ra ton identité pour moi Pareil pour toi, vis-à-vis d'moi, quand on y pense, j'pense qu'on s'connaitra jamais vraiment Quand tu dis qu'tu couches pas l'premier soir, sache que l'centième soir, j's'rai pas si différent Forcé par le forcément qui s'installe à chaque début d'discussions, tout ça parce qu'on l'a fait On s'éloigne parce qu'on s'dit Je t'aime, on s'éloigne parce qu'on s'dit Je t'aime sans vraiment savoir c'que c'est L'autre pense qu'elle le pense mais son ex est dans sa tête, malgré qu'j'ai ma bite dans sa schneck Et c'est dans sa schneck que j'ai compris qu'ma bite et mon être, sont qu'une location pour elle Au prix de quelques mots doux Love you, tout ça, j'ai cru voir dans ses draps c'que j'voulais voir dans ses bras, l'amour Intensément, je me goure, sans sentiments, j'fais la cour, jamais le jour, que la nuit Parole de sourds cherchant l'ouïe, chez l'autre pour un oui et un non Forcément, je me mens, je lui mens, conclusion, je nous mens en même temps, donc finalement, c'est mort</t>
+          <t>Au cinéma je vais voir Mes vedettes préférées Au cinéma je vais voir La jeune première qui me plaît Et quand l'histoire finit bien- en en J'y retourne le lendemain Au cinéma, au cinéma, oui, au cinéma Au cinéma j'aime aussi La bagarre et le suspens Au cinéma j'aime aussi La comédie et la danse Et je rêve alors après- ès ès Que tout ça m'est arrivé Comme au ciné, comme au ciné, comme au cinéma Yeah yeah yeah Chez moi j'ai beaucoup d photos- os os Et tous les murs en sont tapissés- és és Mais ce n'st pas n'importe quelles photos Elles sont toutes, toutes, toutes dédicacées han han han han han han han Au cinéma j'aime aussi Les jolies histoires d'amour Au cinéma j'aime aussi Des histoires de tous les jours Des histoires pas compliqués- és és Qui pourrait bien m'arriver Comme au ciné, comme au ciné, comme au cinéma Yeah yeah yeah Je suis tellement sentimental Qu'il m'arrive de voir certains jours Trois séances de suite dans la même salle Uniquement pour la scène d'amour han han han han han han han Le cinéma c'est ma vie Je ne connais rien de plus joli Et quand l'histoire finit bien- en en J'y retourne le lendemain Au cinéma, au cinéma, au cinéma, au cinéma, oui au cinéma</t>
         </is>
       </c>
     </row>
@@ -3790,12 +3790,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Laisse tomber</t>
+          <t>La vie de Tony*</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe Oui Rends-moi les clés, jai plus envie dte parler Rien que tu cries et cest tous les jours pareil Mais quand je ramène le biffe, tu parles plus, tu sais parer Pourtant tétait préparé, mais aujourdhui tes plus pareil Je te lai dit, entre toi et moi, il ny a personne Et je te présente une amie, et tu me demandes si je la baise oh non Tu dis qu tes mal, est ce qu tu serais mieux, avec un autre homme Tu sais que je suis là, quand tes dans le mal, quand il y a personne Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien, mais jpeux pas Si je te demande ta main, cest pour que tu tiennes le bangala Laisse tomber les bail damour, demande pas de câlin Si tu pleures cest ta faute, faute avoue Jpourrais pas guérir ta peine de cur Coulé, coulé, coulé, sèche tes larmes Mais la belle, coucher avec moi tu voulais Tu mas dit boy soit ma bette Je tai eu sans tour de magie Sans avoir la baguette dHarry Poter Pas attendre quon arrive au tel-ho Conclusion RIP banquette arrière Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe</t>
+          <t>Tu sais, moi, j'ai du mal à parler, j'ai tellement serré les dents J'ai vécu des choses atroces, j'connais la douleur des gens J'cherche la paix un peu partout, guidé par le vent Pour savoir comment aimer, j'ai d'mandé aux religions Elles m'ont dit Tu connais rien à la souffrance Celle que le temps ne guérit pas Quand l'âme est blessée sur l'chemin, ça laisse des traces depuis l'enfance Et la mémoire n'a qu le choix D'y repensr, repenser, repenser Moi j'comprends pas pourquoi j'suis né, j'suis dans l'flou Pourquoi mon daron a-t-il craché dans l'trou ? Il fallait savoir déjà est-c'que vous l'aimez vous cette vie ? Alors mais qui m'a demandé Ma permission d'v'nir au monde ? Si j'pouvais r'commencer J'y passerai que quelques secondes Mais qui m'a demandé Ma permission d'v'nir au monde ? Si j'pouvais r'commencer J'y passerai que quelques secondes La vie de rêve, la vie de Tony, Tony, Tony Pour finir à Mantes-la-Jolie, Jolie, Jolie, eh La vie de rêve, la vie de</t>
         </is>
       </c>
     </row>
@@ -3807,12 +3807,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Laissé tomber</t>
+          <t>Mayday</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe Oui Rends-moi les clés, jai plus envie dte parler Rien que tu cries et cest tous les jours pareil Mais quand je ramène le biffe, tu parles plus, tu sais parer Pourtant tétait préparé, mais aujourdhui tes plus pareil Je te lai dit, entre toi et moi, il ny a personne Et je te présente une amie, et tu me demandes si je la baise oh non Tu dis qu tes mal, est ce qu tu serais mieux, avec un autre homme Tu sais que je suis là, quand tes dans le mal, quand il y a personne Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien, mais jpeux pas Si je te demande ta main, cest pour que tu tiennes le bangala Laisse tomber les bail damour, demande pas de câlin Si tu pleures cest ta faute, faute avoue Jpourrais pas guérir ta peine de cur Coulé, coulé, coulé, sèche tes larmes Mais la belle, coucher avec moi tu voulais Tu mas dit boy soit ma bette Je tai eu sans tour de magie Sans avoir la baguette dHarry Poter Pas attendre quon arrive au tel-ho Conclusion RIP banquette arrière Meuf, bonne chance, pour me remplacer Jaime trop ton corps, mais jpeux men passer Pour un oui, un non, madame est fâchée Si tu veux ten aller, adios ma chérie Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh ma belle, jaimerais bien tfiancer Mais largent mappelle, le sale m'a ambiancé Oh ma belle, jaimerais bien tfiancer Si je demande ta main, ça sera que pour danser Oh my, oh my, oh my, oh my, oh my babe Oh my, oh my, oh my, oh my, oh my babe</t>
+          <t>One, two One, two, three, four Ooi moo iikai? Moo iikai? Maada da yo Ooi moo iikai? Moo iikai? Maada da yo Atchi kana? Kotchi kana? Sate oni-san doko deshoo? Zettai ni mituskara-nai Totteoki no basho o hakken Ooi moo iikai? Moo iikai? Maada da yo Ooi moo iikai? Moo iikai? Maada da yo Migi hidari kyoro kyorori Yada doki doki toman-nai Ii yo, mitsukerareru monnara Mitsukete minasai! Minasai na! Ooi moo iikai? Moo iikai? Maada da yo Ooi moo iikai? Moo iikai? Maada da yo Oni-san kochira Oni-san kochira Te no naru hoo e Te no naru hoo e Oni-san kochira Moo ii yo Wow, wow, wow Guru guru kakurenbo Mawatte-masu Voi! Mawatte-masu Voi! Ashimoto gochuui! Hora tsukamaete! Wow, wow, wow Guru guru kakurenbo Akai kutsu Hai! Haicha dame Non! Denjarasu-da mon Voi, voi, voi Naku go wa ine ga? Voi, voi, voi Warui go ine ga? Oni-san kochira Oni-san kochira Te no naru hoo e Te no naru hoo e Oni-san kochira Miitsuketa! Wow, wow, wow Guru guru kakurenbo Aka-oni-san Voi! Ao-oni-san Voi! Suteppu suteppu One, two, one, two Wow, wow, wow Guru guru kakurenbo Korondemo Hai! Naicha dame Non! Tsuyoi-ko-san-damon Mada mada iku yo Wow, wow, wow Guru guru kakurenbo Wow, wow, wow Guru guru kakurenbo Akai kutsu Haicha dame Denjarasu-da mon Maada da yo! Maada da yo! Yeah!</t>
         </is>
       </c>
     </row>
@@ -3824,12 +3824,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Lancer d’javelot*</t>
+          <t>Memories</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>La violence... Ma semence... Dems Batterie Faible c'était hier, j'me sens mort, pourquoi je fais le Vie J'ai perdu ce putain d'chargeur, j'n'ai plus de joie dans ma vie La lumière est mon fils, mes sentiments réduit à la pisse J'aimais l'Histoire, mais la majuscule a fini par disparaître. Dems Mais... Maiiiis Dems Nique sa mère j'suis là pour niquer l'ambiance Ni-ni-nique l'ambiance Tu pleures ouais j'm'en carence Ni-ni-nique l'ambiance Ma bite c'est le lancer d'javelot Fini la réflexion, j'suis né pour niquer des mères Tu te dit père, tu connais même pas ta grammaire T'as 40 piges mais tu piges pas qu'il faut que tu te tailles Les hommes reçoivent des nudes, les mioches, eux des hentais Tes lunettes sont plus grosse que toi, tu vois même pas ce que tu suce ? Fais l'malin, t'es dans le rap depuis hier, mes poings sur ta chose d'excuse. Dems Ton nom est le plus grand, c'est vrai, mais t'es une minuscule Du lait et des céréales, mon sperme se marient à tes pellicules Vous jouez tous avec vos doigts, j'la doigte en faisant des Vie. Dems J'essaye d'pas la mettre enceinte, j'crois que c'est un bon défi. Dems Marc Dorcel, j'm'en lasse. J'm'oriente plus vers Teletoon. Dems Ne perdons pas de temps déshabille toi c'est une belle foufoune. De-de-de-dems Ni-ni-nique l'ambiance Tu pleures ouais j'm'en carence Ni-ni-nique l'ambiance Ma bite c'est le lancer d'javelot -Damso... Oh oui... -Ta gueule... -Damso plus fort ! -Réveille pas ton mari... En adultère H24, j'prend des rides à chaque teuch J'aiguise ma bite avec sa bouche, pour après lui couper les veuchs J'te laisse un bout d'son point G. Pfff L'assiette c'est toi qui va laver. Ouais Illusion d'optique, pour une Otaku, j'suis Roronoa Trois sabre avec au bout deux grosses noix J'vais feat avec ton ennemi pour que t'aboies Mais ouvre pas ta gueule longtemps avant que tu le bois. Dems Ni-ni-nique l'ambiance Tu pleures ouais j'm'en carence Ni-ni-nique l'ambiance Ma bite c'est le lancer d'javelot2</t>
+          <t>Sitz auf dem Dachboden, vor staubigen Kissen von früher Bau mir en Spliff, schau auf die Bilder und erinner mich wieder Lauter Skizzen und Bücher Typen mit denen wir draußen im Winter gespielt haben Holen heute ihr eigenes Kind aus der KiTa Kartons voll mit Fotos von Frauen, Bitches und Sweethearts Mit denen ich mehr als nur down und ein bisschen intim war Vertraute Gesichter erzählen einem tausend Geschichten am Fließband Ich glaub an das Schicksal, doch den Lauf der Dinge kennt niemand Seh mein Leben nochmal durch die Augen eines grimmigen Schülers Meine Gegend, mein Haus nur Trauer, Trümmer und Trübsal Ein Traum zieht für immer vorüber Mein Zimmer ist düster, Kerzen brennen runter Ein dunkler Winter wird spürbar, es fängt an zu regnen Ich hör alte CDs von Tempeltainment Die erste Band meines Lebens represented mein Statement Überall Fans und Kollegen Jungs, die für jeden kämpften, der bereit war sein Bestes zu geben Machten einen der vielfältigsten Sampler der Szene Doch irgendwann trennten sich Wege aufgrund von imensen Problemen Menschen waren strange, veränderte Seelen, Streit Meine Konsequenz hieß zu gehen, weil Hinaus über die Grenzen des Games, allein Ohne ein Cent um fällige Rechnung zu payen Doch bald waren Legenden passé Und nicht mehr als ein Remember back in the days of Jubekos Memory Tape Memories, ich schwör ich vergess euch nie Egal was kommt bleibt strong und reflektiert Schaut nach vorn, nutzt die Chance, wenn es sie gibt Mein letztes Ziel, Rest in Peace, retrospektiv Memories, I hope you remember me Egal was kommt, bleibt strong und respektiert D A M I O N, jetzt und hier, ich vergess euch nie, egal was noch passiert Was gestern war, ist heut schon verlorn Es kommt ein neuer Tag man, ich freu mich auf morgen Geh mein eigenen Weg und folg keiner Norm Meine Memoaren sind wie leer Was gestern war, ist heut schon verlorn Jeder andere Tag ist wie ne neue Chance Glaub an deinen Weg man, es geht nur nach vorn Deine Memoaren sind die Lehrer Alles was mir bleibt sind Relikte Vergangene Zeiten, alte Geschichten Storys von Jungs, die einst mit mir stickten Warenladungen voller Backstagepässe und Konzertkarten Flyer und Sticker von den ersten Tempelpartys 'N Haufen Videotapes, Demobändern, gebrannte Promo-CDs Layoutentwürfe für die erste Solo-LP Fotoalben von längst vergangenen Urlaubsreisen Literatur Hinweise zwischen zerissenen Schulbuchseiten Kaputte Kugelschreiber, Telefonnummern ohne Namen drunter Postkarten aus Ungarn, Bilder von Fahrten ins Umland Booklets und Textbücher aus unsortierten Papierstapeln Zeugniskopien und Zivildienstunterlagen Bewerbungsmappen, Liebesbriefe, vergessene Tagebücher Schülerzeitung, Spickzettel von bestandenen Abiprüfungen Trackideen und Songskizzen, Notenblätter mit Bongspritzern Pictures von Bombingactions in Mitte Manchmal fühl ich mich wie ein Messi, wenn ich Sachen collected sie Ewig aufhebe und erst nach Jahren entdecke In meinem Zimmer stapeln sich Texte bis fast an die Decke Überall liegt Kram in den Ecken, ich kanns nicht vergessen Bis es verwelkt und nicht mehr da ist wie Pac und Big L Bis es verwest, vergeht und in sich zerfällt Bis niemand mehr da ist, der es für immer erhält Kann man alles verdrängen außer die Erinnerung selbst 2</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>La scene</t>
+          <t>MERCI</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Au cinéma je vais voir Mes vedettes préférées Au cinéma je vais voir La jeune première qui me plaît Et quand l'histoire finit bien- en en J'y retourne le lendemain Au cinéma, au cinéma, oui, au cinéma Au cinéma j'aime aussi La bagarre et le suspens Au cinéma j'aime aussi La comédie et la danse Et je rêve alors après- ès ès Que tout ça m'est arrivé Comme au ciné, comme au ciné, comme au cinéma Yeah yeah yeah Chez moi j'ai beaucoup d photos- os os Et tous les murs en sont tapissés- és és Mais ce n'st pas n'importe quelles photos Elles sont toutes, toutes, toutes dédicacées han han han han han han han Au cinéma j'aime aussi Les jolies histoires d'amour Au cinéma j'aime aussi Des histoires de tous les jours Des histoires pas compliqués- és és Qui pourrait bien m'arriver Comme au ciné, comme au ciné, comme au cinéma Yeah yeah yeah Je suis tellement sentimental Qu'il m'arrive de voir certains jours Trois séances de suite dans la même salle Uniquement pour la scène d'amour han han han han han han han Le cinéma c'est ma vie Je ne connais rien de plus joli Et quand l'histoire finit bien- en en J'y retourne le lendemain Au cinéma, au cinéma, au cinéma, au cinéma, oui au cinéma</t>
+          <t>Merci, merci Nwaar Batterie rechargée</t>
         </is>
       </c>
     </row>
@@ -3858,12 +3858,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>La vie de Tony*</t>
+          <t>Mi Amor (Amigo)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Tu sais, moi, j'ai du mal à parler, j'ai tellement serré les dents J'ai vécu des choses atroces, j'connais la douleur des gens J'cherche la paix un peu partout, guidé par le vent Pour savoir comment aimer, j'ai d'mandé aux religions Elles m'ont dit Tu connais rien à la souffrance Celle que le temps ne guérit pas Quand l'âme est blessée sur l'chemin, ça laisse des traces depuis l'enfance Et la mémoire n'a qu le choix D'y repensr, repenser, repenser Moi j'comprends pas pourquoi j'suis né, j'suis dans l'flou Pourquoi mon daron a-t-il craché dans l'trou ? Il fallait savoir déjà est-c'que vous l'aimez vous cette vie ? Alors mais qui m'a demandé Ma permission d'v'nir au monde ? Si j'pouvais r'commencer J'y passerai que quelques secondes Mais qui m'a demandé Ma permission d'v'nir au monde ? Si j'pouvais r'commencer J'y passerai que quelques secondes La vie de rêve, la vie de Tony, Tony, Tony Pour finir à Mantes-la-Jolie, Jolie, Jolie, eh La vie de rêve, la vie de</t>
+          <t>Ay, no Todo mal conmigo Ojalá a esta fiesta no hubiera venido Ay, no. Y ahora qué me pasó, Dios mío? Si esto es pecado ahora espero mi castigo Ay, no Cómo te explico? Creo que ya no quiero na contigo Ay, no. Es que, ay, querido Viéndolo bien, ya me gustó más tu amigo Lo siento mucho mi amor Te juro no hubo intención Pero no tengo control sobre temas del corazón Tal vez perdí la razón Así no es como soy Pero ya me entraron dudas sobre nuestra relación Por qué nadie mencionó que tu amigo era un actor? De esos que se cargan brazos como los de un luchador Sé qué no hay justificación No fue por este calor Ni por lo que alcanzo a ver adentro de su pantalón Ay, no Todo mal conmigo Ojalá a esta fiesta no hubiera venido Ay, no. Y ahora qué me pasó, Dios mío? Si esto es pecado ahora espero mi castigo Ay, no Cómo te explico? Creo que ya no quiero na contigo Ay, no. Es que, ay, querido Viéndolo bien, ya me gustó más tu amigo No sé en qué momento esto sucedió Todo el terreno se me sacudió Con esos ojitos él me hechizó Y con esa boquita todo me prendió Yo sé que es tu amigo, pero esto es así Este es un deseo que no quiero combatir Lamento decirte que no voy a resistir Y ya es muy tu pedo si no quieres compartir Ay, no Todo mal contigo Mira vamo pa la calle Para que tu lo sienta Al fondo del callejón Cero luz y no hay vista Ay, no Todo mal contigo Yo pongo la gasolina Bájale ya con prisa Le damos en la esquina Sube la adrenalina Muérdele, jálale, correle palante Que si usted es más que listo mejor déjeme bien visto Ay, no Todo mal conmigo Ojalá a esta fiesta no hubiera venido Ay, no. Y ahora qué me pasó, Dios mío? Si esto es pecado ahora espero mi castigo Ay, no Cómo te explico? Creo que ya no quiero na contigo Ay, no. Es que, ay, querido Viéndolo bien, ya me gustó más tu amigo Llegó MASH llegó MASH ah Y Pixie Pix</t>
         </is>
       </c>
     </row>
@@ -3875,12 +3875,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Mayday</t>
+          <t>Mieux vaut star que jamais</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>One, two One, two, three, four Ooi moo iikai? Moo iikai? Maada da yo Ooi moo iikai? Moo iikai? Maada da yo Atchi kana? Kotchi kana? Sate oni-san doko deshoo? Zettai ni mituskara-nai Totteoki no basho o hakken Ooi moo iikai? Moo iikai? Maada da yo Ooi moo iikai? Moo iikai? Maada da yo Migi hidari kyoro kyorori Yada doki doki toman-nai Ii yo, mitsukerareru monnara Mitsukete minasai! Minasai na! Ooi moo iikai? Moo iikai? Maada da yo Ooi moo iikai? Moo iikai? Maada da yo Oni-san kochira Oni-san kochira Te no naru hoo e Te no naru hoo e Oni-san kochira Moo ii yo Wow, wow, wow Guru guru kakurenbo Mawatte-masu Voi! Mawatte-masu Voi! Ashimoto gochuui! Hora tsukamaete! Wow, wow, wow Guru guru kakurenbo Akai kutsu Hai! Haicha dame Non! Denjarasu-da mon Voi, voi, voi Naku go wa ine ga? Voi, voi, voi Warui go ine ga? Oni-san kochira Oni-san kochira Te no naru hoo e Te no naru hoo e Oni-san kochira Miitsuketa! Wow, wow, wow Guru guru kakurenbo Aka-oni-san Voi! Ao-oni-san Voi! Suteppu suteppu One, two, one, two Wow, wow, wow Guru guru kakurenbo Korondemo Hai! Naicha dame Non! Tsuyoi-ko-san-damon Mada mada iku yo Wow, wow, wow Guru guru kakurenbo Wow, wow, wow Guru guru kakurenbo Akai kutsu Haicha dame Denjarasu-da mon Maada da yo! Maada da yo! Yeah!</t>
+          <t>Yeah, ah, c'est OPG mec, Yo, R-E-X, D-O-L-F-A, D-A-M-S-O let's go Yo, mec j'suis trop fly, appelle moi Rexbull j'donne des haut le coeur Si tu veux critiquer ou imiter faut des droits d'auteur J'ai pris du grade maintenant, j'prends mon temps des heures ou des mois J'viens du ciel et tu sais qu'les étoiles ne parlent que de moi On m'parle de concurrence mais bon, j'n'en vois pas autant J'ai les yeux revolvr donc j'regarde ma montre just pour tuer l'temps OPG, les trois lettres qui nous correspondent Les scientifiques ont faux c'est parce qu'on est trop chauds qu'les banquises fondent Tu dis qu'on pèse mais mec, tu m'étonnes C'est parce qu'on pose du lourd qu'les MC en font des tonnes Parait qu'je saoule, appelle moi bouteille de rhum Tu peux chercher à me fuire mais tous les chemins mènent à Rome Mes rimes tu les bois cul sec, attendre rouler en Q7 J'suis le best tu veux tej non j'te lâche puis j'te laisse puis je fais que lâcher du lest On a mis du temps pour grimper mieux vaut tard que jamais Vu la notoriété négro mieux vaut star que jamais Depuis tout p'tit on rêve de Cadillac et Porsche Sortir sans répis avoir les liasses plein les poches ?????????? tant qu'on décroche D'autres perdent la vie ??????? Donc man avant qu'je plane avant qu'je fasse d'la money Que toute ma team s'éclate et fasse surface au sommet Pecho les Merco-Benz aux gentes alu ou chromées Et si le succès vient tard mieux vaut star que jamais Han, han Quand j'vois ses stats ça me donne envie de me pendre De les voir chiller sans soucis sans problème qui s'engendre ????? je cherche la money de manière abondante Pour mettre bien ma tasse aux yeux verts et toute mon ascendance, yeah J'enfile ma veste et j'vais au studio J'rappe pas pour les idiots, demande à Roméo, yeah J'voudrais du cash afin que j'te guide Faire tous les magasins que j'te montre c'est qui le vrai prodigue J'claquerais toute ma thune pour moi ou bien pour toi No problem in my brain, ne me demande pourquoi, yeah Je rêve de Bentley et de Cadillac Mieux vaut star que jamais et j'me contente que d'un kayak Je ne fais pas pitié, je veux juste des billets Surtout ne m'faites pas chier, je rêve juste de briller Trêve de plaisanterie, ce n'est pas de la gol-ri C'est qui l'équipe qui dégrade et qui dépasse tous les grades, man c'est l'OPG Depuis tout p'tit on rêve de Cadillac et Porsche Sortir sans répis avoir les liasses plein les poches ?????????? tant qu'on décroche D'autres perdent la vie ??????? Donc man avant qu'je plane avant qu'je fasse d'la money Que toute ma team s'éclate et fasse surface au sommet Pecho les Merco-Benz aux gentes alu ou chromées Et si le succès vient tard mieux vaut star que jamais Depuis tout p'tit on rêve de Cadillac et Porsche Sortir sans répis avoir les liasses plein les poches ?????????? tant qu'on décroche D'autres perdent la vie ??????? Donc man avant qu'je plane avant qu'je fasse d'la money Que toute ma team s'éclate et fasse surface au sommet Pecho les Merco-Benz aux gentes alu ou chromées Et si le succès vient tard mieux vaut star que jamais1</t>
         </is>
       </c>
     </row>
@@ -3892,12 +3892,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Memories</t>
+          <t>Mwaka Moon (Felckin Remix)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Sitz auf dem Dachboden, vor staubigen Kissen von früher Bau mir en Spliff, schau auf die Bilder und erinner mich wieder Lauter Skizzen und Bücher Typen mit denen wir draußen im Winter gespielt haben Holen heute ihr eigenes Kind aus der KiTa Kartons voll mit Fotos von Frauen, Bitches und Sweethearts Mit denen ich mehr als nur down und ein bisschen intim war Vertraute Gesichter erzählen einem tausend Geschichten am Fließband Ich glaub an das Schicksal, doch den Lauf der Dinge kennt niemand Seh mein Leben nochmal durch die Augen eines grimmigen Schülers Meine Gegend, mein Haus nur Trauer, Trümmer und Trübsal Ein Traum zieht für immer vorüber Mein Zimmer ist düster, Kerzen brennen runter Ein dunkler Winter wird spürbar, es fängt an zu regnen Ich hör alte CDs von Tempeltainment Die erste Band meines Lebens represented mein Statement Überall Fans und Kollegen Jungs, die für jeden kämpften, der bereit war sein Bestes zu geben Machten einen der vielfältigsten Sampler der Szene Doch irgendwann trennten sich Wege aufgrund von imensen Problemen Menschen waren strange, veränderte Seelen, Streit Meine Konsequenz hieß zu gehen, weil Hinaus über die Grenzen des Games, allein Ohne ein Cent um fällige Rechnung zu payen Doch bald waren Legenden passé Und nicht mehr als ein Remember back in the days of Jubekos Memory Tape Memories, ich schwör ich vergess euch nie Egal was kommt bleibt strong und reflektiert Schaut nach vorn, nutzt die Chance, wenn es sie gibt Mein letztes Ziel, Rest in Peace, retrospektiv Memories, I hope you remember me Egal was kommt, bleibt strong und respektiert D A M I O N, jetzt und hier, ich vergess euch nie, egal was noch passiert Was gestern war, ist heut schon verlorn Es kommt ein neuer Tag man, ich freu mich auf morgen Geh mein eigenen Weg und folg keiner Norm Meine Memoaren sind wie leer Was gestern war, ist heut schon verlorn Jeder andere Tag ist wie ne neue Chance Glaub an deinen Weg man, es geht nur nach vorn Deine Memoaren sind die Lehrer Alles was mir bleibt sind Relikte Vergangene Zeiten, alte Geschichten Storys von Jungs, die einst mit mir stickten Warenladungen voller Backstagepässe und Konzertkarten Flyer und Sticker von den ersten Tempelpartys 'N Haufen Videotapes, Demobändern, gebrannte Promo-CDs Layoutentwürfe für die erste Solo-LP Fotoalben von längst vergangenen Urlaubsreisen Literatur Hinweise zwischen zerissenen Schulbuchseiten Kaputte Kugelschreiber, Telefonnummern ohne Namen drunter Postkarten aus Ungarn, Bilder von Fahrten ins Umland Booklets und Textbücher aus unsortierten Papierstapeln Zeugniskopien und Zivildienstunterlagen Bewerbungsmappen, Liebesbriefe, vergessene Tagebücher Schülerzeitung, Spickzettel von bestandenen Abiprüfungen Trackideen und Songskizzen, Notenblätter mit Bongspritzern Pictures von Bombingactions in Mitte Manchmal fühl ich mich wie ein Messi, wenn ich Sachen collected sie Ewig aufhebe und erst nach Jahren entdecke In meinem Zimmer stapeln sich Texte bis fast an die Decke Überall liegt Kram in den Ecken, ich kanns nicht vergessen Bis es verwelkt und nicht mehr da ist wie Pac und Big L Bis es verwest, vergeht und in sich zerfällt Bis niemand mehr da ist, der es für immer erhält Kann man alles verdrängen außer die Erinnerung selbst 2</t>
+          <t>Allô la Terre, ici, y'a pas d'eau Chelou comme un son de franc-maçon Qui sont-ils vraiment, I don't know Avant Dieu, y'a rien de toutes les façons I got hoes, tout est lourd J'fais le show, en Lambo', ah ouais négro K.L.H est dans le zoo Négro, fais tourner, ça sent la kush Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche yaw yaw yaw yaw yaw Kush! Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw, yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Dems, Dems! Dems, Dems! S'faire sucer, c'est pas tromper Faire succès, c'est n'pas s'tromper Trop de billets jaunes, verts, violets J'ai tout nié, toi balancé Tout est écrit, ouais, qu'ils m'ont dit Les mêmes qui ont dit que j'y arriverai pas Jamais négro s'enterre en vie, jamais négro ne baisse les bras J'illumine, j'élimine, ennemis, imminent Pas d'paroles, patates sur les lips Si j'urine dans la ville c'est que j'suis sur les Champs Grosse salope, quatre pattes sur le bitume Inoffensif je fus, une offensive et je tue Une gencive de plus, sur le bitume j'accumule embrouilles, bagarres de rue J'prends le réseau, négro, j'te laisse que l'WiFi Au studio j'fais qu'du sale, au studio tu n'fais qu'du bruit Ils tuent pour prendre nos terres comme G. Bush, Saddam R.I.P J'sais toujours pas naviguer pourtant j'connais qu'des rates-pi Dems, Dems Kush! Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw, yaw yaw Kush! Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Dems! Ding dong, v'la le Mwaka J'marche dans la ville comme une âme en vrac En attendant qu'ils tombent sous le AK brrr J'observe comme King Kong au-dessus de Manhattan Voilà déjà une plombe que j'suis fracas Allongé dans une tombe pleine de vieux tracas Je viens d'un autre monde, ici, je ne m'y fais pas Que cela ne t'étonne, je viens de là-bas Tout ceci est louche Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw, yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Dems! La vie c'est dur, un peu comme ma bite Elle m'a fait gagner des femmes mais perdre celle que j'aimais Mon jus d'amour, sur tant de visages, j'évacue ma rage par galipettes J'dis pas les mots car pour moi ils me tuent J'nique des mères pour la dînette Dans ces cas là je veux que tu médises Et puis que tu me dises j'aurais pas dû naître J'pars dans le Mississippi, là où personne sait qui j'suis J'suis damé, j'suis rôti Dent d'or dans</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>MERCI</t>
+          <t>Nekfeu (Ft. Damso) - Tricheur</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Merci, merci Nwaar Batterie rechargée</t>
+          <t>Hey Soon, I'll stop all this, mama, soon, I'll change my life Life I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Eh, tomorrow, I'm changing cities Soon, I'll stop all this, mama, soon, I'll change my life Yeah I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Dirty, tomorrow, I'm changing cities Yeah Soon, I'll stop all this, mama, soon I'll change my life I have a hard time telling baba Baba, baba Soon, I'll stop all this, mama Soon, soon Tomorrow I change cities Yeah, yeah You have a certified account but you have no followers, cheater Dems Record companies are bitches, that's why they make promises, I won't make the same mistake twice Give me your heart so I can crush my butt, it's you I'm talking to so don't act like De Niro I gained grams and I lost kilos, don't assume your baldness like Ne-Yo That's too much weed for one weed, that's too many bitches for one cock It's too many deaths for one life, it's too much damage for one girl I'm in the bendo, withdrawn into myself, I don't greet you, I'm not courteous Far from thugs and bourgeois, between life and death on the armrest I hear Dirty nigga, oh yeah? I turn sharply, Glock boom, boom, bang, bang Every day to be in main event, big, black and hard as an ebony Too much sorrow inside, I've known war and fear Hymen rupture, she hurts me, I haven't even fucked her, I've already fucked her Soon, I'll stop all this, mama, soon, I'll change my life Life I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Eh, tomorrow, I'm changing cities Soon, I'll stop all this, mama, soon, I'll change my life Yeah I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Dirty, tomorrow, I'm changing cities Yeah My friends tease me heres the actor, my inner wealth in my laptop Mama worries about my brothers, she saw us grow up together and some end up locked up Only guinea pigs on a narrow track, I grew up the same The first time they read you your rights is when they arrest you That's when they arrest you, yeah Our success is for all the sons of bitches of security guards who looked at us badly And when I was little, I admit, I was sometimes jealous of the children that my mother looked after Those who came to lift the furniture, they weren't the movers Separation of households before the child becomes a young person Mouss spent four years in prison, for him, that was what being an adult was like And what do your rappers talk about? They're rednecks, they're lifeguards Brussels, Paris, the nursery, do you think we've been here since yesterday? You talk a lot, you sell nothing, always on the front like baby hair Mama, I was on gasolina, mama, I was on gasolina But I want to be a strong guy, I don't want to see my guys lean, no, no, no That worries me, we don't know who you are, we're investigating Certified account but no one knows you, you don't have the right to tweet in English Cheater Success is a way to have money plans and my guys, they could sell you a rental car, vroom, vroom On the traitors, one hand in the butt, the cops make them talk like ventriloquists I won't be the friend of a weak guy anymore, my brother's sister, she's my sister In our house, there is no dirty habit like in Scarface I'm in the break neck, I'm too high, man, I need a dry pussy that comes from the hood, very fresh That I fuck expressly, a big hot ass, I relieve stress and a lot of sadness I need a wellness that I can relax, I'm in too many buttocks I have to confess I'm in business, I need speed, I'm drunk, not in God bless but Soon, I'll stop all this, mama, soon, I'll change my life Life I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Eh, tomorrow, I'm changing cities Soon, I'll stop all this, mama, soon, I'll change my life Yeah I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Dirty, tomorrow, I'm changing cities Yeah Go annai itashimasu ANA 1245B Tokyo Narita Eki no Okyaku-sama wa</t>
         </is>
       </c>
     </row>
@@ -3926,12 +3926,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Mi Amor (Amigo)</t>
+          <t>N’importe quoi</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Ay, no Todo mal conmigo Ojalá a esta fiesta no hubiera venido Ay, no. Y ahora qué me pasó, Dios mío? Si esto es pecado ahora espero mi castigo Ay, no Cómo te explico? Creo que ya no quiero na contigo Ay, no. Es que, ay, querido Viéndolo bien, ya me gustó más tu amigo Lo siento mucho mi amor Te juro no hubo intención Pero no tengo control sobre temas del corazón Tal vez perdí la razón Así no es como soy Pero ya me entraron dudas sobre nuestra relación Por qué nadie mencionó que tu amigo era un actor? De esos que se cargan brazos como los de un luchador Sé qué no hay justificación No fue por este calor Ni por lo que alcanzo a ver adentro de su pantalón Ay, no Todo mal conmigo Ojalá a esta fiesta no hubiera venido Ay, no. Y ahora qué me pasó, Dios mío? Si esto es pecado ahora espero mi castigo Ay, no Cómo te explico? Creo que ya no quiero na contigo Ay, no. Es que, ay, querido Viéndolo bien, ya me gustó más tu amigo No sé en qué momento esto sucedió Todo el terreno se me sacudió Con esos ojitos él me hechizó Y con esa boquita todo me prendió Yo sé que es tu amigo, pero esto es así Este es un deseo que no quiero combatir Lamento decirte que no voy a resistir Y ya es muy tu pedo si no quieres compartir Ay, no Todo mal contigo Mira vamo pa la calle Para que tu lo sienta Al fondo del callejón Cero luz y no hay vista Ay, no Todo mal contigo Yo pongo la gasolina Bájale ya con prisa Le damos en la esquina Sube la adrenalina Muérdele, jálale, correle palante Que si usted es más que listo mejor déjeme bien visto Ay, no Todo mal conmigo Ojalá a esta fiesta no hubiera venido Ay, no. Y ahora qué me pasó, Dios mío? Si esto es pecado ahora espero mi castigo Ay, no Cómo te explico? Creo que ya no quiero na contigo Ay, no. Es que, ay, querido Viéndolo bien, ya me gustó más tu amigo Llegó MASH llegó MASH ah Y Pixie Pix</t>
+          <t>Refrain Émilia, Émilia Enfin te revoilà Tu es là toute indécise Laisse tomber ta valise Émilia, Émilia Enroule-toi dans mes bras On fera des bêtises On fera n'importe quoi Lauriers d'amour, tamariniers câlins Des campanules et des lys opalins Y avait tout, y avait tout dans ta chambre La fleur du bout de tes seins sentait l'ambre Des martinets des chaînes et des anneaux Des moulinets et des pièges à moineaux Y avait tout, y avait tout dans ta chambre Des poulies des onguents et du chanvre Fasciné par tes lèvres purpurines J'avais le cur au fond de la poitrine au Refrain Les fleurs du mal, un disque de Trenet Deux trois Chinois, un Russe, un Javanais Y avait tout, y avait tout dans ta chambre Du soleil des cerises en décembre Moi, plus puceau que la chèvre de m'sieur Seguin Je venais regarder pousser tes seins J'avais un peu d'acné juvénile Et tu guidas ma main malhabile Tu corrigeais toutes mes maladresses Tu refrénais mes excès de vitesse au Refrain Des feuilles d'impôts, ma pipe et mon vélo Des cartes postales des lieux de ton boulot Mexico, Singapour et la Flandre Y a de tout, y a de tout dans ma chambre Ces déchirures au bord de tes yeux doux Disent que tu en as bavé, un peu, beaucoup Y a de tout, y a de tout dans les chambres Ô piétine la carte du tendre Alors, dis-moi seras-tu ma compagne ? Le reste du chemin, je t'accompagne Refrain Émilia, Émilia Je te garde pour moi On fera des bêtises On fera n'importe quoi Émilia, Émilia Enroule-toi dans mes bras Tu as payé la facture Le client était roi Émilia, Émilia Enfin te revoilà Tu es là toute indécise À présent, tu es chez toi Émilia, Émilia Je te garde pour moi Tu es là toute indécise Laisse tomber ta valise</t>
         </is>
       </c>
     </row>
@@ -3943,12 +3943,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Mieux vaut star que jamais</t>
+          <t>Page Blanche</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Yeah, ah, c'est OPG mec, Yo, R-E-X, D-O-L-F-A, D-A-M-S-O let's go Yo, mec j'suis trop fly, appelle moi Rexbull j'donne des haut le coeur Si tu veux critiquer ou imiter faut des droits d'auteur J'ai pris du grade maintenant, j'prends mon temps des heures ou des mois J'viens du ciel et tu sais qu'les étoiles ne parlent que de moi On m'parle de concurrence mais bon, j'n'en vois pas autant J'ai les yeux revolvr donc j'regarde ma montre just pour tuer l'temps OPG, les trois lettres qui nous correspondent Les scientifiques ont faux c'est parce qu'on est trop chauds qu'les banquises fondent Tu dis qu'on pèse mais mec, tu m'étonnes C'est parce qu'on pose du lourd qu'les MC en font des tonnes Parait qu'je saoule, appelle moi bouteille de rhum Tu peux chercher à me fuire mais tous les chemins mènent à Rome Mes rimes tu les bois cul sec, attendre rouler en Q7 J'suis le best tu veux tej non j'te lâche puis j'te laisse puis je fais que lâcher du lest On a mis du temps pour grimper mieux vaut tard que jamais Vu la notoriété négro mieux vaut star que jamais Depuis tout p'tit on rêve de Cadillac et Porsche Sortir sans répis avoir les liasses plein les poches ?????????? tant qu'on décroche D'autres perdent la vie ??????? Donc man avant qu'je plane avant qu'je fasse d'la money Que toute ma team s'éclate et fasse surface au sommet Pecho les Merco-Benz aux gentes alu ou chromées Et si le succès vient tard mieux vaut star que jamais Han, han Quand j'vois ses stats ça me donne envie de me pendre De les voir chiller sans soucis sans problème qui s'engendre ????? je cherche la money de manière abondante Pour mettre bien ma tasse aux yeux verts et toute mon ascendance, yeah J'enfile ma veste et j'vais au studio J'rappe pas pour les idiots, demande à Roméo, yeah J'voudrais du cash afin que j'te guide Faire tous les magasins que j'te montre c'est qui le vrai prodigue J'claquerais toute ma thune pour moi ou bien pour toi No problem in my brain, ne me demande pourquoi, yeah Je rêve de Bentley et de Cadillac Mieux vaut star que jamais et j'me contente que d'un kayak Je ne fais pas pitié, je veux juste des billets Surtout ne m'faites pas chier, je rêve juste de briller Trêve de plaisanterie, ce n'est pas de la gol-ri C'est qui l'équipe qui dégrade et qui dépasse tous les grades, man c'est l'OPG Depuis tout p'tit on rêve de Cadillac et Porsche Sortir sans répis avoir les liasses plein les poches ?????????? tant qu'on décroche D'autres perdent la vie ??????? Donc man avant qu'je plane avant qu'je fasse d'la money Que toute ma team s'éclate et fasse surface au sommet Pecho les Merco-Benz aux gentes alu ou chromées Et si le succès vient tard mieux vaut star que jamais Depuis tout p'tit on rêve de Cadillac et Porsche Sortir sans répis avoir les liasses plein les poches ?????????? tant qu'on décroche D'autres perdent la vie ??????? Donc man avant qu'je plane avant qu'je fasse d'la money Que toute ma team s'éclate et fasse surface au sommet Pecho les Merco-Benz aux gentes alu ou chromées Et si le succès vient tard mieux vaut star que jamais1</t>
+          <t>Paris, c'est loin De la Fuentes, ah, ah Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin d'ici, si-si Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin, d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin, d'ici, eh Les jaloux se reconnaissent entre eux, beaucoup d'haineux, beaucoup d'envieux La réussite entraîne la frustration des Hommes, confond travailleur avec chanceux Des nuits blanches à broyer du noir car l'angoisse de la page blanche a fait que je voyais rouge J'en ai vu de toutes les couleurs, ma plume a souvent dû changer d'épouse Amis et frères, y a pas plus dangereux mais moins qu'une femme qui te ment dans les yeux, ça fait partie du jeu J'éternue souvent pour faire un maximum de vux Je fus découvert par B2O, d'insultes, j'fus couvert pour quelques mots, la rime du foulard entre autres J'suis responsable de c'que j'écris, pas de c'que tu comprends du flow, no D.A.M.S.O, qui m'aime me like ou me follow, ça fait partie du flow Vulgaires sont les mots, j'me perds sur les réseaux, à Snapper mon bédo Mon cur est en détresse, peux tout niquer en express Je fais succès mais Paris, c'est loin, d'ici, si-si Batterie Faible Veuillez la recharger Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rate-pi énervé, j'ai au bout du fil, tu passes par la porte à la Oncle Phil Biatch, tu passes par la porte à la Oncle Phil J'fais passer mallette comme à Libreville J'te conseille de tracer un chemin plus court, le nez d'Amy Whinehouse sait de quoi je parle La cloison nasale à feu et à sang, séchée, rosée comme un jambon de Parme Très tôt déjà, j'ai connu le racisme en primaire Valérie avait peur du Noir Mais ne parlait pas de lumière, les mots sont des lames qui aiguisent haine et colère Liberté d'expression est plus efficace que censure, humoriste traqué par C.R.S, rappeur flingué dans une voiture 2Pac Forces de l'ordre font bavures, texte résiste aux ratures Solidaire comme Dame Nature, dans mon cercueil, ils me chanteront On n'est pas tout seul de Gradur Ma fille, des fois, j'aimerais voler tes yeux, pour voir le monde tel qu'il ne l'est pas Les souvenirs de naissance en nonante-deux, quatre-vingt douze, pour Français qui n'y étaient pas Dans la vie, contrairement aux échecs, la partie continue après échec et mat, disait-il aussi Je fais succès mais bon, Paris, c'est loin, d'ici, si-si Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rat-pi énervé, j'ai au bout du fil, tu passes par la porte à la Uncle Phil Biatch, tu passes par la porte à la Uncle Phil J'fais passer mallette comme à Libreville Paris, c'est loin, Paris, c'est loin, d'ici Paris, c'est loin, Paris, c'est loin, d'ici, si-si25</t>
         </is>
       </c>
     </row>
@@ -3960,12 +3960,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Mwaka Moon (Felckin Remix)</t>
+          <t>Paradis</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Allô la Terre, ici, y'a pas d'eau Chelou comme un son de franc-maçon Qui sont-ils vraiment, I don't know Avant Dieu, y'a rien de toutes les façons I got hoes, tout est lourd J'fais le show, en Lambo', ah ouais négro K.L.H est dans le zoo Négro, fais tourner, ça sent la kush Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche yaw yaw yaw yaw yaw Kush! Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw, yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Dems, Dems! Dems, Dems! S'faire sucer, c'est pas tromper Faire succès, c'est n'pas s'tromper Trop de billets jaunes, verts, violets J'ai tout nié, toi balancé Tout est écrit, ouais, qu'ils m'ont dit Les mêmes qui ont dit que j'y arriverai pas Jamais négro s'enterre en vie, jamais négro ne baisse les bras J'illumine, j'élimine, ennemis, imminent Pas d'paroles, patates sur les lips Si j'urine dans la ville c'est que j'suis sur les Champs Grosse salope, quatre pattes sur le bitume Inoffensif je fus, une offensive et je tue Une gencive de plus, sur le bitume j'accumule embrouilles, bagarres de rue J'prends le réseau, négro, j'te laisse que l'WiFi Au studio j'fais qu'du sale, au studio tu n'fais qu'du bruit Ils tuent pour prendre nos terres comme G. Bush, Saddam R.I.P J'sais toujours pas naviguer pourtant j'connais qu'des rates-pi Dems, Dems Kush! Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw, yaw yaw Kush! Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Dems! Ding dong, v'la le Mwaka J'marche dans la ville comme une âme en vrac En attendant qu'ils tombent sous le AK brrr J'observe comme King Kong au-dessus de Manhattan Voilà déjà une plombe que j'suis fracas Allongé dans une tombe pleine de vieux tracas Je viens d'un autre monde, ici, je ne m'y fais pas Que cela ne t'étonne, je viens de là-bas Tout ceci est louche Un peu d'Amsterdam dans la bouche yaw yaw yaw yaw yaw Une bouffée d'oxygène dans la kush yaw yaw, yaw yaw Dans le vide je respire à peine, le succès m'a donné des ailes La même bitch qui me tournait le dos m'a en photo dans l'appareil Bientôt riche Quand Mwaka Moon aura fait mouche Dems! La vie c'est dur, un peu comme ma bite Elle m'a fait gagner des femmes mais perdre celle que j'aimais Mon jus d'amour, sur tant de visages, j'évacue ma rage par galipettes J'dis pas les mots car pour moi ils me tuent J'nique des mères pour la dînette Dans ces cas là je veux que tu médises Et puis que tu me dises j'aurais pas dû naître J'pars dans le Mississippi, là où personne sait qui j'suis J'suis damé, j'suis rôti Dent d'or dans</t>
+          <t>Ahahah 92i Ahahah 92i, 92i Ahahah 92i, 92i Rien qu'en fumant ma beuh beuh, beuh, beuh, beuh J'ai effleuré le Paradis ah ah ah Bébé ce soir je rentre pas, hey ah ah ah ah ah ah J'rends visite à mon ennemi Twinsmatic Rien qu'en fumant ma beuh, yeah ah ah J'ai effleuré le Paradis ah ah ah Bébé ce soir je rentre pas, oh bébé ce soir je rentre pas J'rends visite à mon ennemi à mon ennemi Mon esprit est loin là-bas là-bas J'suis là mais tu le vois pas j'suis là mais tu le vois pas, yeah Ma pute roule un joint Elle est au petit soin La meilleure de toutes mes tchoins Gros boule avec jolis seins Rien qu'en r'gardant mon gun Rien qu'en r'gardant son gun Il veut tirer sur ses ennemis J'vais les flinguer, niquer, mais pour ça j'dois fumer parce que Rien qu'en r'gardant ma beuh Rien qu'en r'gardant sa beuh Elle veut s'défoncer toute la nuit J'veux m'défoncer, fumer, tout dépenser, m'miner jusqu'à Perdre toutes mes thunes Mais rejoindre la Lune Rien ne choque mon oinj, oinj Fumer toute ma beuh Fumer tout le Rap Jeu 92i dans le binks, binks Rien qu'en fumant ma beuh ah, ah-ah J'ai effleuré le Paradis tah tah tah tah, ahahah Bébé ce soir je rentre pas bébé ce soir je rentre pas, pas là J'rends visite à mon ennemi à mon ennemi, ohla Bâton dans l'cul j'te déteste Depuis Zer, m'bats contre mes faits et gestes Deux personnes ici, oui j'acquiesce Soirée nwaar, très nwaar, normal vu le guest hello Porte de Clignancourt, on m'embête au feu rouge Encore ces Roumaines et leur cut' J'veux commissaire, t'es prisonnière Je veux preuve d'amour, ouvre ta chatte que j'en sperme Mon amour monte dans ma grosse 'ture J'ferais pas de Aucun charbon n'serait J'suis sur la croisette Codéiné, cagoulé autour d'la table C'est pour dîner Je suis à couvert que quand j'suis à table J'ai flow inné Rien qu'en fumant ma beuh ah, ha ha J'ai effleuré le Paradis tah tah tah tah, ah ah ah Bébé ce soir je rentre pas bébé ce soir je rentre pas, pas là J'rends visite à mon ennemi à mon ennemi, ohla Elle m'a dit renoi, je t'aime, j'lui dis moi non plus Maintenant on va au pieux, parlons plus Des années on s'est pas vus, t'as changé, oui j'l'avoue Moi comme toujours, depuis tout petit Mon esprit est loin là-bas, là-bas, là-bas, là-bas, là-bas, yeah yeah hey Mon esprit est loin là-bas, là-bas, là-bas, hey yeah C'est très noir par ici, noir est l'artiste Ne reste pas statique, tu peux graille une balle ici J't'avais déjà dit ne viens pas par ici C'est très noir par ici, c'est très noir par ici Rien qu'en fumant ma beuh</t>
         </is>
       </c>
     </row>
@@ -3977,12 +3977,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Nekfeu (Ft. Damso) - Tricheur</t>
+          <t>Que Pasa</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Hey Soon, I'll stop all this, mama, soon, I'll change my life Life I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Eh, tomorrow, I'm changing cities Soon, I'll stop all this, mama, soon, I'll change my life Yeah I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Dirty, tomorrow, I'm changing cities Yeah Soon, I'll stop all this, mama, soon I'll change my life I have a hard time telling baba Baba, baba Soon, I'll stop all this, mama Soon, soon Tomorrow I change cities Yeah, yeah You have a certified account but you have no followers, cheater Dems Record companies are bitches, that's why they make promises, I won't make the same mistake twice Give me your heart so I can crush my butt, it's you I'm talking to so don't act like De Niro I gained grams and I lost kilos, don't assume your baldness like Ne-Yo That's too much weed for one weed, that's too many bitches for one cock It's too many deaths for one life, it's too much damage for one girl I'm in the bendo, withdrawn into myself, I don't greet you, I'm not courteous Far from thugs and bourgeois, between life and death on the armrest I hear Dirty nigga, oh yeah? I turn sharply, Glock boom, boom, bang, bang Every day to be in main event, big, black and hard as an ebony Too much sorrow inside, I've known war and fear Hymen rupture, she hurts me, I haven't even fucked her, I've already fucked her Soon, I'll stop all this, mama, soon, I'll change my life Life I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Eh, tomorrow, I'm changing cities Soon, I'll stop all this, mama, soon, I'll change my life Yeah I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Dirty, tomorrow, I'm changing cities Yeah My friends tease me heres the actor, my inner wealth in my laptop Mama worries about my brothers, she saw us grow up together and some end up locked up Only guinea pigs on a narrow track, I grew up the same The first time they read you your rights is when they arrest you That's when they arrest you, yeah Our success is for all the sons of bitches of security guards who looked at us badly And when I was little, I admit, I was sometimes jealous of the children that my mother looked after Those who came to lift the furniture, they weren't the movers Separation of households before the child becomes a young person Mouss spent four years in prison, for him, that was what being an adult was like And what do your rappers talk about? They're rednecks, they're lifeguards Brussels, Paris, the nursery, do you think we've been here since yesterday? You talk a lot, you sell nothing, always on the front like baby hair Mama, I was on gasolina, mama, I was on gasolina But I want to be a strong guy, I don't want to see my guys lean, no, no, no That worries me, we don't know who you are, we're investigating Certified account but no one knows you, you don't have the right to tweet in English Cheater Success is a way to have money plans and my guys, they could sell you a rental car, vroom, vroom On the traitors, one hand in the butt, the cops make them talk like ventriloquists I won't be the friend of a weak guy anymore, my brother's sister, she's my sister In our house, there is no dirty habit like in Scarface I'm in the break neck, I'm too high, man, I need a dry pussy that comes from the hood, very fresh That I fuck expressly, a big hot ass, I relieve stress and a lot of sadness I need a wellness that I can relax, I'm in too many buttocks I have to confess I'm in business, I need speed, I'm drunk, not in God bless but Soon, I'll stop all this, mama, soon, I'll change my life Life I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Eh, tomorrow, I'm changing cities Soon, I'll stop all this, mama, soon, I'll change my life Yeah I have a hard time telling Baba, between men, we guess each other What? Soon, I'll stop all this, mama, don't worry about my future Yeah Soon, I'm changing my life Dirty, tomorrow, I'm changing cities Yeah Go annai itashimasu ANA 1245B Tokyo Narita Eki no Okyaku-sama wa</t>
+          <t>Tel un soleil sans abat-jour Pire que pas d'amour Trop d'amour Pourquoi ce p'tit problème ? Parfois victime de ceux qu'on aime À tout donner, tu as souffert Oui, trop donner c'est l'contraire Rien n'est du hasard L'héritage c'est l'bazar ! Le désir miné, l'sexe et l'appât L'amour a ses limites que l'chagrin n'a pas Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Qui aime bien châtie bien, j'en ai parlé à mon chien S'est mis à me mordre comme un amour parisien Il criait l'aimer, les bleus n'ont pas convaincu Tout le monde le savait, alors tout le monde s'est tu D'habitude, les gens ne font qu'parler avant d'avoir su Par conséquent, tout ce qu'on entend manque d'aperçu Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Je me tiens loin de l'amour immense Dès qu'il est clamé, les ennuis commencent Moins la haine car le cur est dur Néanmoins, le sentiment qu'il me reste est pur Je monte sur scène, la ville est inondée D'amour Dix personnes devant moi font une salle bondée Ce monde s'écroule pour l'amour qui manque Quand on a si peur, il faut qu'on chante Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Trop d'amour Pire que pas assez Trop d'amour Pire que pas...</t>
         </is>
       </c>
     </row>
@@ -3994,12 +3994,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>N’importe quoi</t>
+          <t>Qui m’aime, me like, me follow*</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Refrain Émilia, Émilia Enfin te revoilà Tu es là toute indécise Laisse tomber ta valise Émilia, Émilia Enroule-toi dans mes bras On fera des bêtises On fera n'importe quoi Lauriers d'amour, tamariniers câlins Des campanules et des lys opalins Y avait tout, y avait tout dans ta chambre La fleur du bout de tes seins sentait l'ambre Des martinets des chaînes et des anneaux Des moulinets et des pièges à moineaux Y avait tout, y avait tout dans ta chambre Des poulies des onguents et du chanvre Fasciné par tes lèvres purpurines J'avais le cur au fond de la poitrine au Refrain Les fleurs du mal, un disque de Trenet Deux trois Chinois, un Russe, un Javanais Y avait tout, y avait tout dans ta chambre Du soleil des cerises en décembre Moi, plus puceau que la chèvre de m'sieur Seguin Je venais regarder pousser tes seins J'avais un peu d'acné juvénile Et tu guidas ma main malhabile Tu corrigeais toutes mes maladresses Tu refrénais mes excès de vitesse au Refrain Des feuilles d'impôts, ma pipe et mon vélo Des cartes postales des lieux de ton boulot Mexico, Singapour et la Flandre Y a de tout, y a de tout dans ma chambre Ces déchirures au bord de tes yeux doux Disent que tu en as bavé, un peu, beaucoup Y a de tout, y a de tout dans les chambres Ô piétine la carte du tendre Alors, dis-moi seras-tu ma compagne ? Le reste du chemin, je t'accompagne Refrain Émilia, Émilia Je te garde pour moi On fera des bêtises On fera n'importe quoi Émilia, Émilia Enroule-toi dans mes bras Tu as payé la facture Le client était roi Émilia, Émilia Enfin te revoilà Tu es là toute indécise À présent, tu es chez toi Émilia, Émilia Je te garde pour moi Tu es là toute indécise Laisse tomber ta valise</t>
+          <t>L'heure est tardive, j'vois l'ciel s'déchirer J'compte plus mes ennemis, très peu sur qui compter Ils veulent tous m'enculer, oh no Qui m'aime, me like, me follow Qui m'aime, me like, me follow follow, follow</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Page Blanche</t>
+          <t>Shooter</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Paris, c'est loin De la Fuentes, ah, ah Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin d'ici, si-si Paris, c'est loin J'ai pas cru en toi depuis ton premier show jusqu'à c'que je vois Bercy Paris, c'est loin, d'ici J'te jalousais trop, je t'aime t'a dit ma go, tu lui as répondu merci Paris, c'est loin J'voulais te voir en fumée à chaque fois que je fumais mon joint Tu n'peux pas percer car, Paris, c'est loin, d'ici Paris, c'est loin, d'ici, eh Les jaloux se reconnaissent entre eux, beaucoup d'haineux, beaucoup d'envieux La réussite entraîne la frustration des Hommes, confond travailleur avec chanceux Des nuits blanches à broyer du noir car l'angoisse de la page blanche a fait que je voyais rouge J'en ai vu de toutes les couleurs, ma plume a souvent dû changer d'épouse Amis et frères, y a pas plus dangereux mais moins qu'une femme qui te ment dans les yeux, ça fait partie du jeu J'éternue souvent pour faire un maximum de vux Je fus découvert par B2O, d'insultes, j'fus couvert pour quelques mots, la rime du foulard entre autres J'suis responsable de c'que j'écris, pas de c'que tu comprends du flow, no D.A.M.S.O, qui m'aime me like ou me follow, ça fait partie du flow Vulgaires sont les mots, j'me perds sur les réseaux, à Snapper mon bédo Mon cur est en détresse, peux tout niquer en express Je fais succès mais Paris, c'est loin, d'ici, si-si Batterie Faible Veuillez la recharger Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rate-pi énervé, j'ai au bout du fil, tu passes par la porte à la Oncle Phil Biatch, tu passes par la porte à la Oncle Phil J'fais passer mallette comme à Libreville J'te conseille de tracer un chemin plus court, le nez d'Amy Whinehouse sait de quoi je parle La cloison nasale à feu et à sang, séchée, rosée comme un jambon de Parme Très tôt déjà, j'ai connu le racisme en primaire Valérie avait peur du Noir Mais ne parlait pas de lumière, les mots sont des lames qui aiguisent haine et colère Liberté d'expression est plus efficace que censure, humoriste traqué par C.R.S, rappeur flingué dans une voiture 2Pac Forces de l'ordre font bavures, texte résiste aux ratures Solidaire comme Dame Nature, dans mon cercueil, ils me chanteront On n'est pas tout seul de Gradur Ma fille, des fois, j'aimerais voler tes yeux, pour voir le monde tel qu'il ne l'est pas Les souvenirs de naissance en nonante-deux, quatre-vingt douze, pour Français qui n'y étaient pas Dans la vie, contrairement aux échecs, la partie continue après échec et mat, disait-il aussi Je fais succès mais bon, Paris, c'est loin, d'ici, si-si Coup d'poing dans la vie à la Badr Hari Négro, Paris, c'est loin sauf en La Ferrari Front kabyle sur poitrine de Materazzi, mes spermes ont des moteurs de Maserati J'n'ai que des billets violets pour elle, meurs si tu poses la main J'ai quatre-vingt dix-neuf problèmes mais une tchoin n'en est pas un Je n'comprendrai jamais pourquoi ils friment, négros comme eux meurent au début du film Rat-pi énervé, j'ai au bout du fil, tu passes par la porte à la Uncle Phil Biatch, tu passes par la porte à la Uncle Phil J'fais passer mallette comme à Libreville Paris, c'est loin, Paris, c'est loin, d'ici Paris, c'est loin, Paris, c'est loin, d'ici, si-si25</t>
+          <t>Skr Skr Blink, Yah' uh, 07 yao' yao' yao' No soy de este planeta me dicen el alien Mis flow' no lo' entienden a ustedes no le sale No les sale Blindado en el trap y todos lo saben Blessed con alas parezco un ángel Ángel Vengo del espacio por eso doy más Vuelo y golpeo pseudo superman Mi capa la droga mi kripto mi mami Me quieren cazar, fuck men in black Soy anti-gravedad, nota espacial -Voy volando Necesitan nerfearme para poderme frontear Yah' Ser lo mejor lo hago de rutina Yo llego al show le lleno las sillas Br, br, br Si son competencia le bajo taquilla Si son mis bro' le subo bocina Sin bling bling no brillan, les cierran la cortina Me lo' como golosina, lo mezclo en codeina Con sprite Sigo trappin sigo espacial, ambos lados del yin yang Lento como el tic tac, con mi crew con mi gang Con mi crew con mi gang -Con mi crew con mi gang, SGB No soy de este planeta me dicen el alien Mis flow' no lo' entienden a ustedes no le sale No les sale Blindado en el trap y todos lo saben Saben Blessed con alas parezco un ángel Ángel Uh ah esos haters están esperando a que se me suba No me sube na' Y en mi luna nadie se me sube Na', na' na' Vivo en la mía de noche en la luna y de día en la nube Yah' Último hijo del trap, en la tierra como clark - Trap, trap, Superman Piquete FG, yah', interestelar -Fucking Good, Shot out para Cacho Con mi combo pisamos la nike, ya lo dijo el Dark, ah -Pain Black white black white, ah, ah Los shooter te damos bang bang, les decimos bye bye Del trap somos la para, no hablen si no es a la cara No hablen si no es a la cara Yah' yah', Blink07, con la SGB Shooter Gang Boys La para del trap yah'</t>
         </is>
       </c>
     </row>
@@ -4028,12 +4028,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Paradis</t>
+          <t>SPA*</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Ahahah 92i Ahahah 92i, 92i Ahahah 92i, 92i Rien qu'en fumant ma beuh beuh, beuh, beuh, beuh J'ai effleuré le Paradis ah ah ah Bébé ce soir je rentre pas, hey ah ah ah ah ah ah J'rends visite à mon ennemi Twinsmatic Rien qu'en fumant ma beuh, yeah ah ah J'ai effleuré le Paradis ah ah ah Bébé ce soir je rentre pas, oh bébé ce soir je rentre pas J'rends visite à mon ennemi à mon ennemi Mon esprit est loin là-bas là-bas J'suis là mais tu le vois pas j'suis là mais tu le vois pas, yeah Ma pute roule un joint Elle est au petit soin La meilleure de toutes mes tchoins Gros boule avec jolis seins Rien qu'en r'gardant mon gun Rien qu'en r'gardant son gun Il veut tirer sur ses ennemis J'vais les flinguer, niquer, mais pour ça j'dois fumer parce que Rien qu'en r'gardant ma beuh Rien qu'en r'gardant sa beuh Elle veut s'défoncer toute la nuit J'veux m'défoncer, fumer, tout dépenser, m'miner jusqu'à Perdre toutes mes thunes Mais rejoindre la Lune Rien ne choque mon oinj, oinj Fumer toute ma beuh Fumer tout le Rap Jeu 92i dans le binks, binks Rien qu'en fumant ma beuh ah, ah-ah J'ai effleuré le Paradis tah tah tah tah, ahahah Bébé ce soir je rentre pas bébé ce soir je rentre pas, pas là J'rends visite à mon ennemi à mon ennemi, ohla Bâton dans l'cul j'te déteste Depuis Zer, m'bats contre mes faits et gestes Deux personnes ici, oui j'acquiesce Soirée nwaar, très nwaar, normal vu le guest hello Porte de Clignancourt, on m'embête au feu rouge Encore ces Roumaines et leur cut' J'veux commissaire, t'es prisonnière Je veux preuve d'amour, ouvre ta chatte que j'en sperme Mon amour monte dans ma grosse 'ture J'ferais pas de Aucun charbon n'serait J'suis sur la croisette Codéiné, cagoulé autour d'la table C'est pour dîner Je suis à couvert que quand j'suis à table J'ai flow inné Rien qu'en fumant ma beuh ah, ha ha J'ai effleuré le Paradis tah tah tah tah, ah ah ah Bébé ce soir je rentre pas bébé ce soir je rentre pas, pas là J'rends visite à mon ennemi à mon ennemi, ohla Elle m'a dit renoi, je t'aime, j'lui dis moi non plus Maintenant on va au pieux, parlons plus Des années on s'est pas vus, t'as changé, oui j'l'avoue Moi comme toujours, depuis tout petit Mon esprit est loin là-bas, là-bas, là-bas, là-bas, là-bas, yeah yeah hey Mon esprit est loin là-bas, là-bas, là-bas, hey yeah C'est très noir par ici, noir est l'artiste Ne reste pas statique, tu peux graille une balle ici J't'avais déjà dit ne viens pas par ici C'est très noir par ici, c'est très noir par ici Rien qu'en fumant ma beuh</t>
+          <t>T'as gravé mon nom derrière la porte des toilettes, hmm Après la fellation qui finit bien la soirée, hmm Le peuple peut parler même sans bouger les lèvres Entouré des vrais, moi jai dû traverser des épreuves J'ai traîné toute la douleur du monde sur mes épaules Le mal d'une femelle qui se fait tatouer les nipples Si loccasion se présente, le gros, vas-y fais le Quand je parle comme ça, c'est pas moi qui parle, non, c'est le devil Je suis le haze, je suis le lemon 187, je suis convaincu qu'je suis Lennon Gros, je suis backstage, j'attends le paiement Je suis désolé de t'entraîner dans mes démences Je suis à Amsterdam avec les frérots Dans les vitrines, des Marie-Mai, des Mahée Paiement Tu peux m'appeler Soldat, tu peux m'appeler Kevin Le poison est toujours mélangé dans le sérum Jmets mes lunettes fumées, ce soir je me défonce Je tombe profond, jécris tout ça dans la pénombre J'ai fumé trop de grammes, jsuis dans la voie lactée Pour kicker le freestyle, tu sais c'est quoi l'astuce Ce n'est pas de lart, non, c'est de l'art abstrait J'ai le flow qui vient violer tout ces rappeurs has-been Me tirer devant témoins sans un silencieux Je poste ma gueule sur Instagram et je file en douce C'est comme les Bloods et les Crips qui s'tirent entre eux Pourquoi t'as perdu patience, pourquoi tu t'es mis dans l'trouble? Tu as prié pour rien, hmm Bang, bang quand c'est l'heure de la fiesta J'étais jeune, astronaute, j'avais besoin d'espace, hmm Bang, bang quand c'est l'heure de la fiesta Le Québec atterrit sur la planète Mars, hmm Y'a des choses comme ça, le gros dis-moi qu'est-ce qui a J'atterris à Paris, j'atterris à Bay Spa J'avais besoin d'amour, j'avais besoin d'espoir Ce matin j'attaque la banque et je prends la fuite en Vespa Overdose dans ma baignoire juste avant le spectacle Ils pourront dire ce qu'ils voudront, ça ne m'intéresse pas Laisse-moi dans ma douleur, laisse-moi dans mon sang De toute façon, ils n'ont pas compris le message Oui, ils se souviendront de moi comme un valeureux guerrier Malheureux nous étions, on laisse le passé derrière J'ai plongé du haut d'la tour Eiffel, la mort nous ouvre les yeux Je me demande comment j'ai fait pour me rendre jusqu'ici Je monte, je redescends et je remonte Demain je me déguise en suicide Je leur ai crié ma peine et ils se sont bouché les oreilles Oui, laissez-moi sur ma planète et laissez-moi dans ma folie Je suis l'enfant perdu retrouvé pendu dans la forêt Éternel jeune enfoiré, laissez-moi rester moi-même Tu as prié pour rien, hmm Bang, bang quand c'est l'heure de la fiesta J'étais jeune, astronaute, j'avais besoin d'espace, hmm Bang, bang quand c'est l'heure de la fiesta Le Québec atterrit sur la planète Mars, hmm Tu as prié pour rien, hmm prié pour rien On fait les vrais choses on y va pas de mains mortes J'étais jeune, astronaute, j'avais besoin d'espace, hmm Astronaute, j'avais besoin d'espace, astronaute j'avais besoin d'espace Ah!</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Que Pasa</t>
+          <t>Sur le coin*</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Tel un soleil sans abat-jour Pire que pas d'amour Trop d'amour Pourquoi ce p'tit problème ? Parfois victime de ceux qu'on aime À tout donner, tu as souffert Oui, trop donner c'est l'contraire Rien n'est du hasard L'héritage c'est l'bazar ! Le désir miné, l'sexe et l'appât L'amour a ses limites que l'chagrin n'a pas Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Qui aime bien châtie bien, j'en ai parlé à mon chien S'est mis à me mordre comme un amour parisien Il criait l'aimer, les bleus n'ont pas convaincu Tout le monde le savait, alors tout le monde s'est tu D'habitude, les gens ne font qu'parler avant d'avoir su Par conséquent, tout ce qu'on entend manque d'aperçu Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Je me tiens loin de l'amour immense Dès qu'il est clamé, les ennuis commencent Moins la haine car le cur est dur Néanmoins, le sentiment qu'il me reste est pur Je monte sur scène, la ville est inondée D'amour Dix personnes devant moi font une salle bondée Ce monde s'écroule pour l'amour qui manque Quand on a si peur, il faut qu'on chante Trop d'amour Pire que pas assez Trop d'amour Pire que pas... Trop d'amour Pire que pas assez Trop d'amour Pire que pas...</t>
+          <t>Hamza Fais moi encore une danse yeah yah Avale mon bas entier arrête de faire ta comédienne Je suis sur le coin avec la meilleure des Mexico damn VVS diamants damn J'ai des groupies dans le six damn Je tappelle ce soir sur ton fixe What's up babe Damso Yeeeeeeeah On t'as jamais vu, comme le vrai cul de Kim Kardashian Nwar Gaule affamée quand jla vois sur l'allée, depuis la chambre du batiment Les haineux disent qu t'es ma bh se mentnt entre eux comme un trait d'union J'ai la gauloise en plein Zénith, elle donne heure et direction Dems dems Un bon bédo par ici la défonce C'est marqué vu mais toujours pas de réponse Y a rien dans la tête du petit, elle pensais que je suis là pour son physique J'achète des bouteilles en boîte quand je n'aime pas la musique Hamza Damso, Dems et moi viennent pour prendre ce cash Hola Je te prends avec ce soir ma bae préviens ton mec Je suis sur le coin, baby faut un henny dense</t>
         </is>
       </c>
     </row>
@@ -4062,12 +4062,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Qui m’aime, me like, me follow*</t>
+          <t>Téléphone*</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>L'heure est tardive, j'vois l'ciel s'déchirer J'compte plus mes ennemis, très peu sur qui compter Ils veulent tous m'enculer, oh no Qui m'aime, me like, me follow Qui m'aime, me like, me follow follow, follow</t>
+          <t>C'est pas qu'j't'ai menti J'ai juste pas dis toutes la vérité Pour pas qu'tu t'mettes à vérifier Que toutes mes ex m'envoient des nudes Car toutes mes ex m'envoient des nudes Et ça c'est pas toute la vérité Car si j'dis toute la vérité Ils pourront plus jamais t'quitter Ces images de C'est juste un téléphone Rien d'plus que des biatchs Désespérées en manque d'attention Et j'étais souvent stone Ce rêve doux dans un nuage Fumez à la vie silencieuse qui nous tend C'est</t>
         </is>
       </c>
     </row>
@@ -4079,12 +4079,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Shooter</t>
+          <t>Trap congolaise*</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Skr Skr Blink, Yah' uh, 07 yao' yao' yao' No soy de este planeta me dicen el alien Mis flow' no lo' entienden a ustedes no le sale No les sale Blindado en el trap y todos lo saben Blessed con alas parezco un ángel Ángel Vengo del espacio por eso doy más Vuelo y golpeo pseudo superman Mi capa la droga mi kripto mi mami Me quieren cazar, fuck men in black Soy anti-gravedad, nota espacial -Voy volando Necesitan nerfearme para poderme frontear Yah' Ser lo mejor lo hago de rutina Yo llego al show le lleno las sillas Br, br, br Si son competencia le bajo taquilla Si son mis bro' le subo bocina Sin bling bling no brillan, les cierran la cortina Me lo' como golosina, lo mezclo en codeina Con sprite Sigo trappin sigo espacial, ambos lados del yin yang Lento como el tic tac, con mi crew con mi gang Con mi crew con mi gang -Con mi crew con mi gang, SGB No soy de este planeta me dicen el alien Mis flow' no lo' entienden a ustedes no le sale No les sale Blindado en el trap y todos lo saben Saben Blessed con alas parezco un ángel Ángel Uh ah esos haters están esperando a que se me suba No me sube na' Y en mi luna nadie se me sube Na', na' na' Vivo en la mía de noche en la luna y de día en la nube Yah' Último hijo del trap, en la tierra como clark - Trap, trap, Superman Piquete FG, yah', interestelar -Fucking Good, Shot out para Cacho Con mi combo pisamos la nike, ya lo dijo el Dark, ah -Pain Black white black white, ah, ah Los shooter te damos bang bang, les decimos bye bye Del trap somos la para, no hablen si no es a la cara No hablen si no es a la cara Yah' yah', Blink07, con la SGB Shooter Gang Boys La para del trap yah'</t>
+          <t>Bolingo eza maladie mabé Okotonda nango motéma Symptôme nango souci Kasi kisi nayango Se présence ya moto Oyo ozali kolula Lokula nalula masiya Ya nde kisi nga Eh eeeh</t>
         </is>
       </c>
     </row>
@@ -4096,12 +4096,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>SPA*</t>
+          <t>Tu sais Lior, la vie n’est que ce qu’elle est.*</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>T'as gravé mon nom derrière la porte des toilettes, hmm Après la fellation qui finit bien la soirée, hmm Le peuple peut parler même sans bouger les lèvres Entouré des vrais, moi jai dû traverser des épreuves J'ai traîné toute la douleur du monde sur mes épaules Le mal d'une femelle qui se fait tatouer les nipples Si loccasion se présente, le gros, vas-y fais le Quand je parle comme ça, c'est pas moi qui parle, non, c'est le devil Je suis le haze, je suis le lemon 187, je suis convaincu qu'je suis Lennon Gros, je suis backstage, j'attends le paiement Je suis désolé de t'entraîner dans mes démences Je suis à Amsterdam avec les frérots Dans les vitrines, des Marie-Mai, des Mahée Paiement Tu peux m'appeler Soldat, tu peux m'appeler Kevin Le poison est toujours mélangé dans le sérum Jmets mes lunettes fumées, ce soir je me défonce Je tombe profond, jécris tout ça dans la pénombre J'ai fumé trop de grammes, jsuis dans la voie lactée Pour kicker le freestyle, tu sais c'est quoi l'astuce Ce n'est pas de lart, non, c'est de l'art abstrait J'ai le flow qui vient violer tout ces rappeurs has-been Me tirer devant témoins sans un silencieux Je poste ma gueule sur Instagram et je file en douce C'est comme les Bloods et les Crips qui s'tirent entre eux Pourquoi t'as perdu patience, pourquoi tu t'es mis dans l'trouble? Tu as prié pour rien, hmm Bang, bang quand c'est l'heure de la fiesta J'étais jeune, astronaute, j'avais besoin d'espace, hmm Bang, bang quand c'est l'heure de la fiesta Le Québec atterrit sur la planète Mars, hmm Y'a des choses comme ça, le gros dis-moi qu'est-ce qui a J'atterris à Paris, j'atterris à Bay Spa J'avais besoin